--- a/ТМОГИ.2016.осень.xlsx
+++ b/ТМОГИ.2016.осень.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1620" windowWidth="12504" windowHeight="7920" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="1620" windowWidth="12510" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="Сводная таблица" sheetId="1" r:id="rId1"/>
@@ -1804,39 +1804,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:II135"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:II4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BI9" sqref="BI9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="5.88671875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" style="35" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="4.88671875" style="35" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="5.44140625" style="35" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="4.33203125" style="35" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="4.88671875" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="4.5546875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="35" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" style="35" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="35" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" style="35" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="4.5703125" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="5" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.109375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="5.140625" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="5" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="4.5546875" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="4.5703125" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="5" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="4.5546875" hidden="1" customWidth="1"/>
-    <col min="21" max="22" width="3.33203125" hidden="1" customWidth="1"/>
-    <col min="23" max="24" width="3.33203125" customWidth="1"/>
+    <col min="20" max="20" width="4.5703125" hidden="1" customWidth="1"/>
+    <col min="21" max="22" width="3.28515625" hidden="1" customWidth="1"/>
+    <col min="23" max="24" width="3.28515625" customWidth="1"/>
     <col min="25" max="25" width="4" customWidth="1"/>
-    <col min="26" max="26" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="32" width="3.33203125" customWidth="1"/>
-    <col min="33" max="58" width="3.33203125" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="32" width="3.28515625" customWidth="1"/>
+    <col min="33" max="58" width="3.28515625" hidden="1" customWidth="1"/>
+    <col min="59" max="59" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:243" ht="20.100000000000001" customHeight="1">
@@ -2086,7 +2086,7 @@
       <c r="IH1" s="145"/>
       <c r="II1" s="145"/>
     </row>
-    <row r="2" spans="1:243" ht="15" thickBot="1">
+    <row r="2" spans="1:243" ht="15.75" thickBot="1">
       <c r="B2" s="106">
         <f>DATE(2016,9,1)</f>
         <v>42614</v>
@@ -2337,7 +2337,7 @@
       <c r="BG3" s="3"/>
       <c r="BH3" s="3"/>
     </row>
-    <row r="4" spans="1:243" ht="43.2">
+    <row r="4" spans="1:243" ht="45">
       <c r="A4" s="147"/>
       <c r="B4" s="142"/>
       <c r="C4" s="144"/>
@@ -6459,7 +6459,7 @@
         <v>4.4403330249768729</v>
       </c>
     </row>
-    <row r="46" spans="1:60" ht="15" thickBot="1">
+    <row r="46" spans="1:60" ht="15.75" thickBot="1">
       <c r="A46" s="24">
         <v>42</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:60" ht="15" thickBot="1">
+    <row r="50" spans="1:60" ht="15.75" thickBot="1">
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50"/>
@@ -6961,7 +6961,7 @@
       <c r="BG51" s="24"/>
       <c r="BH51" s="24"/>
     </row>
-    <row r="52" spans="1:60" ht="43.2">
+    <row r="52" spans="1:60" ht="45">
       <c r="A52" s="148"/>
       <c r="B52" s="142"/>
       <c r="C52" s="144"/>
@@ -13117,7 +13117,7 @@
       <c r="BG128" s="41"/>
       <c r="BH128" s="11"/>
     </row>
-    <row r="129" spans="1:60" ht="15" hidden="1" thickBot="1">
+    <row r="129" spans="1:60" ht="15.75" hidden="1" thickBot="1">
       <c r="A129" s="18"/>
       <c r="B129" s="16"/>
       <c r="C129" s="109"/>
@@ -13248,11 +13248,6 @@
     <sortCondition descending="1" ref="BH53:BH94"/>
   </sortState>
   <mergeCells count="17">
-    <mergeCell ref="N3:U3"/>
-    <mergeCell ref="G51:M51"/>
-    <mergeCell ref="N51:U51"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
     <mergeCell ref="A1:II1"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="A3:A4"/>
@@ -13265,6 +13260,11 @@
     <mergeCell ref="E51:E52"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="G3:M3"/>
+    <mergeCell ref="N3:U3"/>
+    <mergeCell ref="G51:M51"/>
+    <mergeCell ref="N51:U51"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
   </mergeCells>
   <pageMargins left="0.19685039370078999" right="0.19" top="0.31496062992126" bottom="0.74803149606299002" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -13279,19 +13279,19 @@
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1">
@@ -13553,7 +13553,7 @@
       <c r="IT1" s="145"/>
       <c r="IU1" s="145"/>
     </row>
-    <row r="2" spans="1:255" ht="15" thickBot="1">
+    <row r="2" spans="1:255" ht="15.75" thickBot="1">
       <c r="A2" s="153" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -13610,7 +13610,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:255" ht="15" thickBot="1">
+    <row r="4" spans="1:255" ht="15.75" thickBot="1">
       <c r="A4" s="155"/>
       <c r="B4" s="157"/>
       <c r="C4" s="159"/>
@@ -15386,7 +15386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="77" customFormat="1" ht="15" thickBot="1">
+    <row r="46" spans="1:11" s="77" customFormat="1" ht="15.75" thickBot="1">
       <c r="A46" s="79">
         <f>'Сводная таблица'!A46:A47</f>
         <v>42</v>
@@ -15511,13 +15511,13 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" style="102" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="4" customWidth="1"/>
-    <col min="3" max="27" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="9.109375" style="63"/>
+    <col min="1" max="1" width="31.28515625" style="102" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="4" customWidth="1"/>
+    <col min="3" max="27" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.140625" style="63"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
@@ -42670,19 +42670,19 @@
       <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1">
@@ -42944,7 +42944,7 @@
       <c r="IT1" s="145"/>
       <c r="IU1" s="145"/>
     </row>
-    <row r="2" spans="1:255" ht="15" thickBot="1">
+    <row r="2" spans="1:255" ht="15.75" thickBot="1">
       <c r="A2" s="153" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -43001,7 +43001,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:255" ht="15" thickBot="1">
+    <row r="4" spans="1:255" ht="15.75" thickBot="1">
       <c r="A4" s="155"/>
       <c r="B4" s="157"/>
       <c r="C4" s="159"/>
@@ -44756,7 +44756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="77" customFormat="1" ht="15" thickBot="1">
+    <row r="46" spans="1:11" s="77" customFormat="1" ht="15.75" thickBot="1">
       <c r="A46" s="79">
         <f>'Сводная таблица'!A46:A47</f>
         <v>42</v>
@@ -44877,23 +44877,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1">
@@ -45155,7 +45155,7 @@
       <c r="IT1" s="145"/>
       <c r="IU1" s="145"/>
     </row>
-    <row r="2" spans="1:255" ht="15" thickBot="1">
+    <row r="2" spans="1:255" ht="15.75" thickBot="1">
       <c r="A2" s="153" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -45212,7 +45212,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:255" ht="15" thickBot="1">
+    <row r="4" spans="1:255" ht="15.75" thickBot="1">
       <c r="A4" s="155"/>
       <c r="B4" s="157"/>
       <c r="C4" s="159"/>
@@ -46988,7 +46988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="77" customFormat="1" ht="15" thickBot="1">
+    <row r="46" spans="1:11" s="77" customFormat="1" ht="15.75" thickBot="1">
       <c r="A46" s="79">
         <f>'Сводная таблица'!A46:A47</f>
         <v>42</v>
@@ -47113,12 +47113,12 @@
       <selection activeCell="K5" sqref="K5:K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
@@ -47381,7 +47381,7 @@
       <c r="IU1" s="145"/>
       <c r="IV1" s="145"/>
     </row>
-    <row r="2" spans="1:256" ht="15" thickBot="1">
+    <row r="2" spans="1:256" ht="15.75" thickBot="1">
       <c r="A2" s="153" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -47438,7 +47438,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15" thickBot="1">
+    <row r="4" spans="1:256" ht="15.75" thickBot="1">
       <c r="A4" s="155"/>
       <c r="B4" s="157"/>
       <c r="C4" s="159"/>
@@ -49214,7 +49214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="77" customFormat="1" ht="15" thickBot="1">
+    <row r="46" spans="1:11" s="77" customFormat="1" ht="15.75" thickBot="1">
       <c r="A46" s="79">
         <f>'Сводная таблица'!A46:A47</f>
         <v>42</v>
@@ -49285,12 +49285,12 @@
       <selection activeCell="K5" sqref="K5:K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
@@ -49553,7 +49553,7 @@
       <c r="IU1" s="145"/>
       <c r="IV1" s="145"/>
     </row>
-    <row r="2" spans="1:256" ht="15" thickBot="1">
+    <row r="2" spans="1:256" ht="15.75" thickBot="1">
       <c r="A2" s="153" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -49610,7 +49610,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15" thickBot="1">
+    <row r="4" spans="1:256" ht="15.75" thickBot="1">
       <c r="A4" s="155"/>
       <c r="B4" s="157"/>
       <c r="C4" s="159"/>
@@ -51386,7 +51386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="77" customFormat="1" ht="15" thickBot="1">
+    <row r="46" spans="1:11" s="77" customFormat="1" ht="15.75" thickBot="1">
       <c r="A46" s="79">
         <f>'Сводная таблица'!A46:A47</f>
         <v>42</v>
@@ -51457,12 +51457,12 @@
       <selection activeCell="K5" sqref="K5:K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
@@ -51725,7 +51725,7 @@
       <c r="IU1" s="145"/>
       <c r="IV1" s="145"/>
     </row>
-    <row r="2" spans="1:256" ht="15" thickBot="1">
+    <row r="2" spans="1:256" ht="15.75" thickBot="1">
       <c r="A2" s="153" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -51782,7 +51782,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15" thickBot="1">
+    <row r="4" spans="1:256" ht="15.75" thickBot="1">
       <c r="A4" s="155"/>
       <c r="B4" s="157"/>
       <c r="C4" s="159"/>
@@ -53558,7 +53558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="77" customFormat="1" ht="15" thickBot="1">
+    <row r="46" spans="1:11" s="77" customFormat="1" ht="15.75" thickBot="1">
       <c r="A46" s="79">
         <f>'Сводная таблица'!A46:A47</f>
         <v>42</v>
@@ -53629,12 +53629,12 @@
       <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
@@ -53897,7 +53897,7 @@
       <c r="IU1" s="145"/>
       <c r="IV1" s="145"/>
     </row>
-    <row r="2" spans="1:256" ht="15" thickBot="1">
+    <row r="2" spans="1:256" ht="15.75" thickBot="1">
       <c r="A2" s="153" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -53954,7 +53954,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15" thickBot="1">
+    <row r="4" spans="1:256" ht="15.75" thickBot="1">
       <c r="A4" s="155"/>
       <c r="B4" s="157"/>
       <c r="C4" s="159"/>
@@ -55730,7 +55730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="77" customFormat="1" ht="15" thickBot="1">
+    <row r="46" spans="1:11" s="77" customFormat="1" ht="15.75" thickBot="1">
       <c r="A46" s="79">
         <f>'Сводная таблица'!A46:A47</f>
         <v>42</v>
@@ -55801,12 +55801,12 @@
       <selection activeCell="K5" sqref="K5:K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
@@ -56069,7 +56069,7 @@
       <c r="IU1" s="145"/>
       <c r="IV1" s="145"/>
     </row>
-    <row r="2" spans="1:256" ht="15" thickBot="1">
+    <row r="2" spans="1:256" ht="15.75" thickBot="1">
       <c r="A2" s="153" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -56126,7 +56126,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15" thickBot="1">
+    <row r="4" spans="1:256" ht="15.75" thickBot="1">
       <c r="A4" s="155"/>
       <c r="B4" s="157"/>
       <c r="C4" s="159"/>
@@ -57902,7 +57902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="77" customFormat="1" ht="15" thickBot="1">
+    <row r="46" spans="1:11" s="77" customFormat="1" ht="15.75" thickBot="1">
       <c r="A46" s="79">
         <f>'Сводная таблица'!A46:A47</f>
         <v>42</v>

--- a/ТМОГИ.2016.осень.xlsx
+++ b/ТМОГИ.2016.осень.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1620" windowWidth="12510" windowHeight="7920"/>
+    <workbookView xWindow="0" yWindow="1620" windowWidth="12516" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="Сводная таблица" sheetId="1" r:id="rId1"/>
@@ -1409,27 +1409,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1445,8 +1424,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1804,289 +1804,289 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:II135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BI9" sqref="BI9"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BI45" sqref="BI45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" style="35" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="4.85546875" style="35" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="35" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="4.28515625" style="35" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="4.5703125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="5.88671875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" style="35" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="4.88671875" style="35" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="5.44140625" style="35" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="4.33203125" style="35" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="4.88671875" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="4.5546875" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="5" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="5.109375" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="5" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="4.5703125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="4.5546875" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="5" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="4.5703125" hidden="1" customWidth="1"/>
-    <col min="21" max="22" width="3.28515625" hidden="1" customWidth="1"/>
-    <col min="23" max="24" width="3.28515625" customWidth="1"/>
+    <col min="20" max="20" width="4.5546875" hidden="1" customWidth="1"/>
+    <col min="21" max="22" width="3.33203125" hidden="1" customWidth="1"/>
+    <col min="23" max="24" width="3.33203125" customWidth="1"/>
     <col min="25" max="25" width="4" customWidth="1"/>
-    <col min="26" max="26" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="32" width="3.28515625" customWidth="1"/>
-    <col min="33" max="58" width="3.28515625" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="32" width="3.33203125" customWidth="1"/>
+    <col min="33" max="58" width="3.33203125" hidden="1" customWidth="1"/>
+    <col min="59" max="59" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:243" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="138" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="145"/>
-      <c r="N1" s="145"/>
-      <c r="O1" s="145"/>
-      <c r="P1" s="145"/>
-      <c r="Q1" s="145"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="145"/>
-      <c r="T1" s="145"/>
-      <c r="U1" s="145"/>
-      <c r="V1" s="145"/>
-      <c r="W1" s="145"/>
-      <c r="X1" s="145"/>
-      <c r="Y1" s="145"/>
-      <c r="Z1" s="145"/>
-      <c r="AA1" s="145"/>
-      <c r="AB1" s="145"/>
-      <c r="AC1" s="145"/>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="145"/>
-      <c r="AF1" s="145"/>
-      <c r="AG1" s="145"/>
-      <c r="AH1" s="145"/>
-      <c r="AI1" s="145"/>
-      <c r="AJ1" s="145"/>
-      <c r="AK1" s="145"/>
-      <c r="AL1" s="145"/>
-      <c r="AM1" s="145"/>
-      <c r="AN1" s="145"/>
-      <c r="AO1" s="145"/>
-      <c r="AP1" s="145"/>
-      <c r="AQ1" s="145"/>
-      <c r="AR1" s="145"/>
-      <c r="AS1" s="145"/>
-      <c r="AT1" s="145"/>
-      <c r="AU1" s="145"/>
-      <c r="AV1" s="145"/>
-      <c r="AW1" s="145"/>
-      <c r="AX1" s="145"/>
-      <c r="AY1" s="145"/>
-      <c r="AZ1" s="145"/>
-      <c r="BA1" s="145"/>
-      <c r="BB1" s="145"/>
-      <c r="BC1" s="145"/>
-      <c r="BD1" s="145"/>
-      <c r="BE1" s="145"/>
-      <c r="BF1" s="145"/>
-      <c r="BG1" s="145"/>
-      <c r="BH1" s="145"/>
-      <c r="BI1" s="145"/>
-      <c r="BJ1" s="145"/>
-      <c r="BK1" s="145"/>
-      <c r="BL1" s="145"/>
-      <c r="BM1" s="145"/>
-      <c r="BN1" s="145"/>
-      <c r="BO1" s="145"/>
-      <c r="BP1" s="145"/>
-      <c r="BQ1" s="145"/>
-      <c r="BR1" s="145"/>
-      <c r="BS1" s="145"/>
-      <c r="BT1" s="145"/>
-      <c r="BU1" s="145"/>
-      <c r="BV1" s="145"/>
-      <c r="BW1" s="145"/>
-      <c r="BX1" s="145"/>
-      <c r="BY1" s="145"/>
-      <c r="BZ1" s="145"/>
-      <c r="CA1" s="145"/>
-      <c r="CB1" s="145"/>
-      <c r="CC1" s="145"/>
-      <c r="CD1" s="145"/>
-      <c r="CE1" s="145"/>
-      <c r="CF1" s="145"/>
-      <c r="CG1" s="145"/>
-      <c r="CH1" s="145"/>
-      <c r="CI1" s="145"/>
-      <c r="CJ1" s="145"/>
-      <c r="CK1" s="145"/>
-      <c r="CL1" s="145"/>
-      <c r="CM1" s="145"/>
-      <c r="CN1" s="145"/>
-      <c r="CO1" s="145"/>
-      <c r="CP1" s="145"/>
-      <c r="CQ1" s="145"/>
-      <c r="CR1" s="145"/>
-      <c r="CS1" s="145"/>
-      <c r="CT1" s="145"/>
-      <c r="CU1" s="145"/>
-      <c r="CV1" s="145"/>
-      <c r="CW1" s="145"/>
-      <c r="CX1" s="145"/>
-      <c r="CY1" s="145"/>
-      <c r="CZ1" s="145"/>
-      <c r="DA1" s="145"/>
-      <c r="DB1" s="145"/>
-      <c r="DC1" s="145"/>
-      <c r="DD1" s="145"/>
-      <c r="DE1" s="145"/>
-      <c r="DF1" s="145"/>
-      <c r="DG1" s="145"/>
-      <c r="DH1" s="145"/>
-      <c r="DI1" s="145"/>
-      <c r="DJ1" s="145"/>
-      <c r="DK1" s="145"/>
-      <c r="DL1" s="145"/>
-      <c r="DM1" s="145"/>
-      <c r="DN1" s="145"/>
-      <c r="DO1" s="145"/>
-      <c r="DP1" s="145"/>
-      <c r="DQ1" s="145"/>
-      <c r="DR1" s="145"/>
-      <c r="DS1" s="145"/>
-      <c r="DT1" s="145"/>
-      <c r="DU1" s="145"/>
-      <c r="DV1" s="145"/>
-      <c r="DW1" s="145"/>
-      <c r="DX1" s="145"/>
-      <c r="DY1" s="145"/>
-      <c r="DZ1" s="145"/>
-      <c r="EA1" s="145"/>
-      <c r="EB1" s="145"/>
-      <c r="EC1" s="145"/>
-      <c r="ED1" s="145"/>
-      <c r="EE1" s="145"/>
-      <c r="EF1" s="145"/>
-      <c r="EG1" s="145"/>
-      <c r="EH1" s="145"/>
-      <c r="EI1" s="145"/>
-      <c r="EJ1" s="145"/>
-      <c r="EK1" s="145"/>
-      <c r="EL1" s="145"/>
-      <c r="EM1" s="145"/>
-      <c r="EN1" s="145"/>
-      <c r="EO1" s="145"/>
-      <c r="EP1" s="145"/>
-      <c r="EQ1" s="145"/>
-      <c r="ER1" s="145"/>
-      <c r="ES1" s="145"/>
-      <c r="ET1" s="145"/>
-      <c r="EU1" s="145"/>
-      <c r="EV1" s="145"/>
-      <c r="EW1" s="145"/>
-      <c r="EX1" s="145"/>
-      <c r="EY1" s="145"/>
-      <c r="EZ1" s="145"/>
-      <c r="FA1" s="145"/>
-      <c r="FB1" s="145"/>
-      <c r="FC1" s="145"/>
-      <c r="FD1" s="145"/>
-      <c r="FE1" s="145"/>
-      <c r="FF1" s="145"/>
-      <c r="FG1" s="145"/>
-      <c r="FH1" s="145"/>
-      <c r="FI1" s="145"/>
-      <c r="FJ1" s="145"/>
-      <c r="FK1" s="145"/>
-      <c r="FL1" s="145"/>
-      <c r="FM1" s="145"/>
-      <c r="FN1" s="145"/>
-      <c r="FO1" s="145"/>
-      <c r="FP1" s="145"/>
-      <c r="FQ1" s="145"/>
-      <c r="FR1" s="145"/>
-      <c r="FS1" s="145"/>
-      <c r="FT1" s="145"/>
-      <c r="FU1" s="145"/>
-      <c r="FV1" s="145"/>
-      <c r="FW1" s="145"/>
-      <c r="FX1" s="145"/>
-      <c r="FY1" s="145"/>
-      <c r="FZ1" s="145"/>
-      <c r="GA1" s="145"/>
-      <c r="GB1" s="145"/>
-      <c r="GC1" s="145"/>
-      <c r="GD1" s="145"/>
-      <c r="GE1" s="145"/>
-      <c r="GF1" s="145"/>
-      <c r="GG1" s="145"/>
-      <c r="GH1" s="145"/>
-      <c r="GI1" s="145"/>
-      <c r="GJ1" s="145"/>
-      <c r="GK1" s="145"/>
-      <c r="GL1" s="145"/>
-      <c r="GM1" s="145"/>
-      <c r="GN1" s="145"/>
-      <c r="GO1" s="145"/>
-      <c r="GP1" s="145"/>
-      <c r="GQ1" s="145"/>
-      <c r="GR1" s="145"/>
-      <c r="GS1" s="145"/>
-      <c r="GT1" s="145"/>
-      <c r="GU1" s="145"/>
-      <c r="GV1" s="145"/>
-      <c r="GW1" s="145"/>
-      <c r="GX1" s="145"/>
-      <c r="GY1" s="145"/>
-      <c r="GZ1" s="145"/>
-      <c r="HA1" s="145"/>
-      <c r="HB1" s="145"/>
-      <c r="HC1" s="145"/>
-      <c r="HD1" s="145"/>
-      <c r="HE1" s="145"/>
-      <c r="HF1" s="145"/>
-      <c r="HG1" s="145"/>
-      <c r="HH1" s="145"/>
-      <c r="HI1" s="145"/>
-      <c r="HJ1" s="145"/>
-      <c r="HK1" s="145"/>
-      <c r="HL1" s="145"/>
-      <c r="HM1" s="145"/>
-      <c r="HN1" s="145"/>
-      <c r="HO1" s="145"/>
-      <c r="HP1" s="145"/>
-      <c r="HQ1" s="145"/>
-      <c r="HR1" s="145"/>
-      <c r="HS1" s="145"/>
-      <c r="HT1" s="145"/>
-      <c r="HU1" s="145"/>
-      <c r="HV1" s="145"/>
-      <c r="HW1" s="145"/>
-      <c r="HX1" s="145"/>
-      <c r="HY1" s="145"/>
-      <c r="HZ1" s="145"/>
-      <c r="IA1" s="145"/>
-      <c r="IB1" s="145"/>
-      <c r="IC1" s="145"/>
-      <c r="ID1" s="145"/>
-      <c r="IE1" s="145"/>
-      <c r="IF1" s="145"/>
-      <c r="IG1" s="145"/>
-      <c r="IH1" s="145"/>
-      <c r="II1" s="145"/>
-    </row>
-    <row r="2" spans="1:243" ht="15.75" thickBot="1">
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
+      <c r="U1" s="138"/>
+      <c r="V1" s="138"/>
+      <c r="W1" s="138"/>
+      <c r="X1" s="138"/>
+      <c r="Y1" s="138"/>
+      <c r="Z1" s="138"/>
+      <c r="AA1" s="138"/>
+      <c r="AB1" s="138"/>
+      <c r="AC1" s="138"/>
+      <c r="AD1" s="138"/>
+      <c r="AE1" s="138"/>
+      <c r="AF1" s="138"/>
+      <c r="AG1" s="138"/>
+      <c r="AH1" s="138"/>
+      <c r="AI1" s="138"/>
+      <c r="AJ1" s="138"/>
+      <c r="AK1" s="138"/>
+      <c r="AL1" s="138"/>
+      <c r="AM1" s="138"/>
+      <c r="AN1" s="138"/>
+      <c r="AO1" s="138"/>
+      <c r="AP1" s="138"/>
+      <c r="AQ1" s="138"/>
+      <c r="AR1" s="138"/>
+      <c r="AS1" s="138"/>
+      <c r="AT1" s="138"/>
+      <c r="AU1" s="138"/>
+      <c r="AV1" s="138"/>
+      <c r="AW1" s="138"/>
+      <c r="AX1" s="138"/>
+      <c r="AY1" s="138"/>
+      <c r="AZ1" s="138"/>
+      <c r="BA1" s="138"/>
+      <c r="BB1" s="138"/>
+      <c r="BC1" s="138"/>
+      <c r="BD1" s="138"/>
+      <c r="BE1" s="138"/>
+      <c r="BF1" s="138"/>
+      <c r="BG1" s="138"/>
+      <c r="BH1" s="138"/>
+      <c r="BI1" s="138"/>
+      <c r="BJ1" s="138"/>
+      <c r="BK1" s="138"/>
+      <c r="BL1" s="138"/>
+      <c r="BM1" s="138"/>
+      <c r="BN1" s="138"/>
+      <c r="BO1" s="138"/>
+      <c r="BP1" s="138"/>
+      <c r="BQ1" s="138"/>
+      <c r="BR1" s="138"/>
+      <c r="BS1" s="138"/>
+      <c r="BT1" s="138"/>
+      <c r="BU1" s="138"/>
+      <c r="BV1" s="138"/>
+      <c r="BW1" s="138"/>
+      <c r="BX1" s="138"/>
+      <c r="BY1" s="138"/>
+      <c r="BZ1" s="138"/>
+      <c r="CA1" s="138"/>
+      <c r="CB1" s="138"/>
+      <c r="CC1" s="138"/>
+      <c r="CD1" s="138"/>
+      <c r="CE1" s="138"/>
+      <c r="CF1" s="138"/>
+      <c r="CG1" s="138"/>
+      <c r="CH1" s="138"/>
+      <c r="CI1" s="138"/>
+      <c r="CJ1" s="138"/>
+      <c r="CK1" s="138"/>
+      <c r="CL1" s="138"/>
+      <c r="CM1" s="138"/>
+      <c r="CN1" s="138"/>
+      <c r="CO1" s="138"/>
+      <c r="CP1" s="138"/>
+      <c r="CQ1" s="138"/>
+      <c r="CR1" s="138"/>
+      <c r="CS1" s="138"/>
+      <c r="CT1" s="138"/>
+      <c r="CU1" s="138"/>
+      <c r="CV1" s="138"/>
+      <c r="CW1" s="138"/>
+      <c r="CX1" s="138"/>
+      <c r="CY1" s="138"/>
+      <c r="CZ1" s="138"/>
+      <c r="DA1" s="138"/>
+      <c r="DB1" s="138"/>
+      <c r="DC1" s="138"/>
+      <c r="DD1" s="138"/>
+      <c r="DE1" s="138"/>
+      <c r="DF1" s="138"/>
+      <c r="DG1" s="138"/>
+      <c r="DH1" s="138"/>
+      <c r="DI1" s="138"/>
+      <c r="DJ1" s="138"/>
+      <c r="DK1" s="138"/>
+      <c r="DL1" s="138"/>
+      <c r="DM1" s="138"/>
+      <c r="DN1" s="138"/>
+      <c r="DO1" s="138"/>
+      <c r="DP1" s="138"/>
+      <c r="DQ1" s="138"/>
+      <c r="DR1" s="138"/>
+      <c r="DS1" s="138"/>
+      <c r="DT1" s="138"/>
+      <c r="DU1" s="138"/>
+      <c r="DV1" s="138"/>
+      <c r="DW1" s="138"/>
+      <c r="DX1" s="138"/>
+      <c r="DY1" s="138"/>
+      <c r="DZ1" s="138"/>
+      <c r="EA1" s="138"/>
+      <c r="EB1" s="138"/>
+      <c r="EC1" s="138"/>
+      <c r="ED1" s="138"/>
+      <c r="EE1" s="138"/>
+      <c r="EF1" s="138"/>
+      <c r="EG1" s="138"/>
+      <c r="EH1" s="138"/>
+      <c r="EI1" s="138"/>
+      <c r="EJ1" s="138"/>
+      <c r="EK1" s="138"/>
+      <c r="EL1" s="138"/>
+      <c r="EM1" s="138"/>
+      <c r="EN1" s="138"/>
+      <c r="EO1" s="138"/>
+      <c r="EP1" s="138"/>
+      <c r="EQ1" s="138"/>
+      <c r="ER1" s="138"/>
+      <c r="ES1" s="138"/>
+      <c r="ET1" s="138"/>
+      <c r="EU1" s="138"/>
+      <c r="EV1" s="138"/>
+      <c r="EW1" s="138"/>
+      <c r="EX1" s="138"/>
+      <c r="EY1" s="138"/>
+      <c r="EZ1" s="138"/>
+      <c r="FA1" s="138"/>
+      <c r="FB1" s="138"/>
+      <c r="FC1" s="138"/>
+      <c r="FD1" s="138"/>
+      <c r="FE1" s="138"/>
+      <c r="FF1" s="138"/>
+      <c r="FG1" s="138"/>
+      <c r="FH1" s="138"/>
+      <c r="FI1" s="138"/>
+      <c r="FJ1" s="138"/>
+      <c r="FK1" s="138"/>
+      <c r="FL1" s="138"/>
+      <c r="FM1" s="138"/>
+      <c r="FN1" s="138"/>
+      <c r="FO1" s="138"/>
+      <c r="FP1" s="138"/>
+      <c r="FQ1" s="138"/>
+      <c r="FR1" s="138"/>
+      <c r="FS1" s="138"/>
+      <c r="FT1" s="138"/>
+      <c r="FU1" s="138"/>
+      <c r="FV1" s="138"/>
+      <c r="FW1" s="138"/>
+      <c r="FX1" s="138"/>
+      <c r="FY1" s="138"/>
+      <c r="FZ1" s="138"/>
+      <c r="GA1" s="138"/>
+      <c r="GB1" s="138"/>
+      <c r="GC1" s="138"/>
+      <c r="GD1" s="138"/>
+      <c r="GE1" s="138"/>
+      <c r="GF1" s="138"/>
+      <c r="GG1" s="138"/>
+      <c r="GH1" s="138"/>
+      <c r="GI1" s="138"/>
+      <c r="GJ1" s="138"/>
+      <c r="GK1" s="138"/>
+      <c r="GL1" s="138"/>
+      <c r="GM1" s="138"/>
+      <c r="GN1" s="138"/>
+      <c r="GO1" s="138"/>
+      <c r="GP1" s="138"/>
+      <c r="GQ1" s="138"/>
+      <c r="GR1" s="138"/>
+      <c r="GS1" s="138"/>
+      <c r="GT1" s="138"/>
+      <c r="GU1" s="138"/>
+      <c r="GV1" s="138"/>
+      <c r="GW1" s="138"/>
+      <c r="GX1" s="138"/>
+      <c r="GY1" s="138"/>
+      <c r="GZ1" s="138"/>
+      <c r="HA1" s="138"/>
+      <c r="HB1" s="138"/>
+      <c r="HC1" s="138"/>
+      <c r="HD1" s="138"/>
+      <c r="HE1" s="138"/>
+      <c r="HF1" s="138"/>
+      <c r="HG1" s="138"/>
+      <c r="HH1" s="138"/>
+      <c r="HI1" s="138"/>
+      <c r="HJ1" s="138"/>
+      <c r="HK1" s="138"/>
+      <c r="HL1" s="138"/>
+      <c r="HM1" s="138"/>
+      <c r="HN1" s="138"/>
+      <c r="HO1" s="138"/>
+      <c r="HP1" s="138"/>
+      <c r="HQ1" s="138"/>
+      <c r="HR1" s="138"/>
+      <c r="HS1" s="138"/>
+      <c r="HT1" s="138"/>
+      <c r="HU1" s="138"/>
+      <c r="HV1" s="138"/>
+      <c r="HW1" s="138"/>
+      <c r="HX1" s="138"/>
+      <c r="HY1" s="138"/>
+      <c r="HZ1" s="138"/>
+      <c r="IA1" s="138"/>
+      <c r="IB1" s="138"/>
+      <c r="IC1" s="138"/>
+      <c r="ID1" s="138"/>
+      <c r="IE1" s="138"/>
+      <c r="IF1" s="138"/>
+      <c r="IG1" s="138"/>
+      <c r="IH1" s="138"/>
+      <c r="II1" s="138"/>
+    </row>
+    <row r="2" spans="1:243" ht="15" thickBot="1">
       <c r="B2" s="106">
         <f>DATE(2016,9,1)</f>
         <v>42614</v>
@@ -2154,43 +2154,43 @@
       <c r="BH2" s="19"/>
     </row>
     <row r="3" spans="1:243" s="4" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="146" t="s">
         <v>78</v>
       </c>
       <c r="C3" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="147" t="s">
+      <c r="D3" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="150" t="s">
+      <c r="E3" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="146" t="s">
+      <c r="F3" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="138" t="s">
+      <c r="G3" s="148" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="140"/>
-      <c r="N3" s="138" t="s">
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="148" t="s">
         <v>124</v>
       </c>
-      <c r="O3" s="139"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="139"/>
-      <c r="S3" s="139"/>
-      <c r="T3" s="139"/>
-      <c r="U3" s="140"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="149"/>
+      <c r="Q3" s="149"/>
+      <c r="R3" s="149"/>
+      <c r="S3" s="149"/>
+      <c r="T3" s="149"/>
+      <c r="U3" s="150"/>
       <c r="V3" s="54"/>
       <c r="W3" s="16" t="s">
         <v>4</v>
@@ -2337,13 +2337,13 @@
       <c r="BG3" s="3"/>
       <c r="BH3" s="3"/>
     </row>
-    <row r="4" spans="1:243" ht="45">
-      <c r="A4" s="147"/>
-      <c r="B4" s="142"/>
+    <row r="4" spans="1:243" ht="43.2">
+      <c r="A4" s="140"/>
+      <c r="B4" s="147"/>
       <c r="C4" s="144"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="146"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="139"/>
       <c r="G4" s="91" t="s">
         <v>120</v>
       </c>
@@ -5572,7 +5572,9 @@
       <c r="AB36" s="62">
         <v>2</v>
       </c>
-      <c r="AC36" s="62"/>
+      <c r="AC36" s="62">
+        <v>2</v>
+      </c>
       <c r="AD36" s="62">
         <v>2</v>
       </c>
@@ -5606,11 +5608,11 @@
       <c r="BF36" s="62"/>
       <c r="BG36" s="104">
         <f t="shared" si="4"/>
-        <v>8.25</v>
+        <v>10.25</v>
       </c>
       <c r="BH36" s="11">
         <f t="shared" si="5"/>
-        <v>4.6253469010175765</v>
+        <v>6.1054579093432002</v>
       </c>
     </row>
     <row r="37" spans="1:60">
@@ -5666,7 +5668,9 @@
       <c r="AB37" s="62">
         <v>2</v>
       </c>
-      <c r="AC37" s="62"/>
+      <c r="AC37" s="62">
+        <v>2</v>
+      </c>
       <c r="AD37" s="62">
         <v>2</v>
       </c>
@@ -5700,11 +5704,11 @@
       <c r="BF37" s="62"/>
       <c r="BG37" s="104">
         <f t="shared" si="4"/>
-        <v>9.76</v>
+        <v>11.76</v>
       </c>
       <c r="BH37" s="11">
         <f t="shared" si="5"/>
-        <v>5.7428307123034221</v>
+        <v>7.2229417206290467</v>
       </c>
     </row>
     <row r="38" spans="1:60">
@@ -5760,7 +5764,9 @@
       <c r="AB38" s="62">
         <v>2</v>
       </c>
-      <c r="AC38" s="62"/>
+      <c r="AC38" s="62">
+        <v>2</v>
+      </c>
       <c r="AD38" s="62">
         <v>2</v>
       </c>
@@ -5794,11 +5800,11 @@
       <c r="BF38" s="62"/>
       <c r="BG38" s="104">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BH38" s="11">
         <f t="shared" si="5"/>
-        <v>4.4403330249768729</v>
+        <v>5.9204440333024975</v>
       </c>
     </row>
     <row r="39" spans="1:60">
@@ -5854,7 +5860,9 @@
       <c r="AB39" s="62">
         <v>2</v>
       </c>
-      <c r="AC39" s="62"/>
+      <c r="AC39" s="62">
+        <v>2</v>
+      </c>
       <c r="AD39" s="62">
         <v>2</v>
       </c>
@@ -5888,11 +5896,11 @@
       <c r="BF39" s="62"/>
       <c r="BG39" s="104">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BH39" s="11">
         <f t="shared" si="5"/>
-        <v>4.4403330249768729</v>
+        <v>5.9204440333024975</v>
       </c>
     </row>
     <row r="40" spans="1:60">
@@ -6042,7 +6050,9 @@
       <c r="AB41" s="62">
         <v>2</v>
       </c>
-      <c r="AC41" s="62"/>
+      <c r="AC41" s="62">
+        <v>2</v>
+      </c>
       <c r="AD41" s="62">
         <v>2</v>
       </c>
@@ -6076,11 +6086,11 @@
       <c r="BF41" s="62"/>
       <c r="BG41" s="104">
         <f t="shared" si="4"/>
-        <v>10.81</v>
+        <v>12.81</v>
       </c>
       <c r="BH41" s="11">
         <f t="shared" si="5"/>
-        <v>6.5198889916743754</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:60">
@@ -6136,7 +6146,9 @@
       <c r="AB42" s="3">
         <v>2</v>
       </c>
-      <c r="AC42" s="3"/>
+      <c r="AC42" s="3">
+        <v>2</v>
+      </c>
       <c r="AD42" s="1">
         <v>2</v>
       </c>
@@ -6170,11 +6182,11 @@
       <c r="BF42" s="39"/>
       <c r="BG42" s="40">
         <f>SUM(G42:BF42)</f>
-        <v>9.52</v>
+        <v>11.52</v>
       </c>
       <c r="BH42" s="11">
         <f>$AF$49+(BG42-$Z$49)*($AF$48-$AF$49)/($Z$48-$Z$49)</f>
-        <v>5.5652173913043477</v>
+        <v>7.0453283996299714</v>
       </c>
     </row>
     <row r="43" spans="1:60">
@@ -6230,7 +6242,9 @@
       <c r="AB43" s="24">
         <v>2</v>
       </c>
-      <c r="AC43" s="14"/>
+      <c r="AC43" s="14">
+        <v>2</v>
+      </c>
       <c r="AD43" s="13">
         <v>2</v>
       </c>
@@ -6264,11 +6278,11 @@
       <c r="BF43" s="39"/>
       <c r="BG43" s="40">
         <f>SUM(G43:BF43)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BH43" s="11">
         <f>$AF$49+(BG43-$Z$49)*($AF$48-$AF$49)/($Z$48-$Z$49)</f>
-        <v>4.4403330249768729</v>
+        <v>5.9204440333024975</v>
       </c>
     </row>
     <row r="44" spans="1:60">
@@ -6324,7 +6338,9 @@
       <c r="AB44" s="14">
         <v>2</v>
       </c>
-      <c r="AC44" s="14"/>
+      <c r="AC44" s="14">
+        <v>2</v>
+      </c>
       <c r="AD44" s="13">
         <v>2</v>
       </c>
@@ -6358,11 +6374,11 @@
       <c r="BF44" s="39"/>
       <c r="BG44" s="40">
         <f>SUM(G44:BF44)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BH44" s="11">
         <f>$AF$49+(BG44-$Z$49)*($AF$48-$AF$49)/($Z$48-$Z$49)</f>
-        <v>4.4403330249768729</v>
+        <v>5.9204440333024975</v>
       </c>
     </row>
     <row r="45" spans="1:60">
@@ -6418,7 +6434,9 @@
       <c r="AB45" s="14">
         <v>2</v>
       </c>
-      <c r="AC45" s="14"/>
+      <c r="AC45" s="14">
+        <v>2</v>
+      </c>
       <c r="AD45" s="13">
         <v>2</v>
       </c>
@@ -6452,14 +6470,14 @@
       <c r="BF45" s="39"/>
       <c r="BG45" s="40">
         <f>SUM(G45:BF45)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BH45" s="11">
         <f>$AF$49+(BG45-$Z$49)*($AF$48-$AF$49)/($Z$48-$Z$49)</f>
-        <v>4.4403330249768729</v>
-      </c>
-    </row>
-    <row r="46" spans="1:60" ht="15.75" thickBot="1">
+        <v>5.9204440333024975</v>
+      </c>
+    </row>
+    <row r="46" spans="1:60" ht="15" thickBot="1">
       <c r="A46" s="24">
         <v>42</v>
       </c>
@@ -6512,7 +6530,9 @@
       <c r="AB46" s="3">
         <v>2</v>
       </c>
-      <c r="AC46" s="3"/>
+      <c r="AC46" s="3">
+        <v>2</v>
+      </c>
       <c r="AD46" s="1">
         <v>2</v>
       </c>
@@ -6546,11 +6566,11 @@
       <c r="BF46" s="39"/>
       <c r="BG46" s="40">
         <f>SUM(G46:BF46)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BH46" s="11">
         <f>$AF$49+(BG46-$Z$49)*($AF$48-$AF$49)/($Z$48-$Z$49)</f>
-        <v>4.4403330249768729</v>
+        <v>5.9204440333024975</v>
       </c>
     </row>
     <row r="47" spans="1:60">
@@ -6604,7 +6624,7 @@
       </c>
       <c r="AC47" s="10">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AD47" s="10">
         <f t="shared" si="6"/>
@@ -6765,7 +6785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:60" ht="15.75" thickBot="1">
+    <row r="50" spans="1:60" ht="15" thickBot="1">
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50"/>
@@ -6778,43 +6798,43 @@
       <c r="AD50" s="6"/>
     </row>
     <row r="51" spans="1:60">
-      <c r="A51" s="148" t="s">
+      <c r="A51" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="B51" s="141" t="s">
+      <c r="B51" s="146" t="s">
         <v>78</v>
       </c>
       <c r="C51" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="141" t="s">
+      <c r="D51" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="E51" s="141" t="s">
+      <c r="E51" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="149" t="s">
+      <c r="F51" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="G51" s="138" t="s">
+      <c r="G51" s="148" t="s">
         <v>123</v>
       </c>
-      <c r="H51" s="139"/>
-      <c r="I51" s="139"/>
-      <c r="J51" s="139"/>
-      <c r="K51" s="139"/>
-      <c r="L51" s="139"/>
-      <c r="M51" s="140"/>
-      <c r="N51" s="138" t="s">
+      <c r="H51" s="149"/>
+      <c r="I51" s="149"/>
+      <c r="J51" s="149"/>
+      <c r="K51" s="149"/>
+      <c r="L51" s="149"/>
+      <c r="M51" s="150"/>
+      <c r="N51" s="148" t="s">
         <v>124</v>
       </c>
-      <c r="O51" s="139"/>
-      <c r="P51" s="139"/>
-      <c r="Q51" s="139"/>
-      <c r="R51" s="139"/>
-      <c r="S51" s="139"/>
-      <c r="T51" s="139"/>
-      <c r="U51" s="140"/>
+      <c r="O51" s="149"/>
+      <c r="P51" s="149"/>
+      <c r="Q51" s="149"/>
+      <c r="R51" s="149"/>
+      <c r="S51" s="149"/>
+      <c r="T51" s="149"/>
+      <c r="U51" s="150"/>
       <c r="V51" s="54"/>
       <c r="W51" s="16" t="s">
         <v>4</v>
@@ -6961,13 +6981,13 @@
       <c r="BG51" s="24"/>
       <c r="BH51" s="24"/>
     </row>
-    <row r="52" spans="1:60" ht="45">
-      <c r="A52" s="148"/>
-      <c r="B52" s="142"/>
+    <row r="52" spans="1:60" ht="43.2">
+      <c r="A52" s="141"/>
+      <c r="B52" s="147"/>
       <c r="C52" s="144"/>
-      <c r="D52" s="142"/>
-      <c r="E52" s="142"/>
-      <c r="F52" s="149"/>
+      <c r="D52" s="147"/>
+      <c r="E52" s="147"/>
+      <c r="F52" s="142"/>
       <c r="G52" s="91" t="s">
         <v>120</v>
       </c>
@@ -13117,7 +13137,7 @@
       <c r="BG128" s="41"/>
       <c r="BH128" s="11"/>
     </row>
-    <row r="129" spans="1:60" ht="15.75" hidden="1" thickBot="1">
+    <row r="129" spans="1:60" ht="15" hidden="1" thickBot="1">
       <c r="A129" s="18"/>
       <c r="B129" s="16"/>
       <c r="C129" s="109"/>
@@ -13248,6 +13268,7 @@
     <sortCondition descending="1" ref="BH53:BH94"/>
   </sortState>
   <mergeCells count="17">
+    <mergeCell ref="C51:C52"/>
     <mergeCell ref="A1:II1"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="A3:A4"/>
@@ -13264,7 +13285,6 @@
     <mergeCell ref="G51:M51"/>
     <mergeCell ref="N51:U51"/>
     <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
   </mergeCells>
   <pageMargins left="0.19685039370078999" right="0.19" top="0.31496062992126" bottom="0.74803149606299002" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -13279,281 +13299,281 @@
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="138" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="145"/>
-      <c r="N1" s="145"/>
-      <c r="O1" s="145"/>
-      <c r="P1" s="145"/>
-      <c r="Q1" s="145"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="145"/>
-      <c r="T1" s="145"/>
-      <c r="U1" s="145"/>
-      <c r="V1" s="145"/>
-      <c r="W1" s="145"/>
-      <c r="X1" s="145"/>
-      <c r="Y1" s="145"/>
-      <c r="Z1" s="145"/>
-      <c r="AA1" s="145"/>
-      <c r="AB1" s="145"/>
-      <c r="AC1" s="145"/>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="145"/>
-      <c r="AF1" s="145"/>
-      <c r="AG1" s="145"/>
-      <c r="AH1" s="145"/>
-      <c r="AI1" s="145"/>
-      <c r="AJ1" s="145"/>
-      <c r="AK1" s="145"/>
-      <c r="AL1" s="145"/>
-      <c r="AM1" s="145"/>
-      <c r="AN1" s="145"/>
-      <c r="AO1" s="145"/>
-      <c r="AP1" s="145"/>
-      <c r="AQ1" s="145"/>
-      <c r="AR1" s="145"/>
-      <c r="AS1" s="145"/>
-      <c r="AT1" s="145"/>
-      <c r="AU1" s="145"/>
-      <c r="AV1" s="145"/>
-      <c r="AW1" s="145"/>
-      <c r="AX1" s="145"/>
-      <c r="AY1" s="145"/>
-      <c r="AZ1" s="145"/>
-      <c r="BA1" s="145"/>
-      <c r="BB1" s="145"/>
-      <c r="BC1" s="145"/>
-      <c r="BD1" s="145"/>
-      <c r="BE1" s="145"/>
-      <c r="BF1" s="145"/>
-      <c r="BG1" s="145"/>
-      <c r="BH1" s="145"/>
-      <c r="BI1" s="145"/>
-      <c r="BJ1" s="145"/>
-      <c r="BK1" s="145"/>
-      <c r="BL1" s="145"/>
-      <c r="BM1" s="145"/>
-      <c r="BN1" s="145"/>
-      <c r="BO1" s="145"/>
-      <c r="BP1" s="145"/>
-      <c r="BQ1" s="145"/>
-      <c r="BR1" s="145"/>
-      <c r="BS1" s="145"/>
-      <c r="BT1" s="145"/>
-      <c r="BU1" s="145"/>
-      <c r="BV1" s="145"/>
-      <c r="BW1" s="145"/>
-      <c r="BX1" s="145"/>
-      <c r="BY1" s="145"/>
-      <c r="BZ1" s="145"/>
-      <c r="CA1" s="145"/>
-      <c r="CB1" s="145"/>
-      <c r="CC1" s="145"/>
-      <c r="CD1" s="145"/>
-      <c r="CE1" s="145"/>
-      <c r="CF1" s="145"/>
-      <c r="CG1" s="145"/>
-      <c r="CH1" s="145"/>
-      <c r="CI1" s="145"/>
-      <c r="CJ1" s="145"/>
-      <c r="CK1" s="145"/>
-      <c r="CL1" s="145"/>
-      <c r="CM1" s="145"/>
-      <c r="CN1" s="145"/>
-      <c r="CO1" s="145"/>
-      <c r="CP1" s="145"/>
-      <c r="CQ1" s="145"/>
-      <c r="CR1" s="145"/>
-      <c r="CS1" s="145"/>
-      <c r="CT1" s="145"/>
-      <c r="CU1" s="145"/>
-      <c r="CV1" s="145"/>
-      <c r="CW1" s="145"/>
-      <c r="CX1" s="145"/>
-      <c r="CY1" s="145"/>
-      <c r="CZ1" s="145"/>
-      <c r="DA1" s="145"/>
-      <c r="DB1" s="145"/>
-      <c r="DC1" s="145"/>
-      <c r="DD1" s="145"/>
-      <c r="DE1" s="145"/>
-      <c r="DF1" s="145"/>
-      <c r="DG1" s="145"/>
-      <c r="DH1" s="145"/>
-      <c r="DI1" s="145"/>
-      <c r="DJ1" s="145"/>
-      <c r="DK1" s="145"/>
-      <c r="DL1" s="145"/>
-      <c r="DM1" s="145"/>
-      <c r="DN1" s="145"/>
-      <c r="DO1" s="145"/>
-      <c r="DP1" s="145"/>
-      <c r="DQ1" s="145"/>
-      <c r="DR1" s="145"/>
-      <c r="DS1" s="145"/>
-      <c r="DT1" s="145"/>
-      <c r="DU1" s="145"/>
-      <c r="DV1" s="145"/>
-      <c r="DW1" s="145"/>
-      <c r="DX1" s="145"/>
-      <c r="DY1" s="145"/>
-      <c r="DZ1" s="145"/>
-      <c r="EA1" s="145"/>
-      <c r="EB1" s="145"/>
-      <c r="EC1" s="145"/>
-      <c r="ED1" s="145"/>
-      <c r="EE1" s="145"/>
-      <c r="EF1" s="145"/>
-      <c r="EG1" s="145"/>
-      <c r="EH1" s="145"/>
-      <c r="EI1" s="145"/>
-      <c r="EJ1" s="145"/>
-      <c r="EK1" s="145"/>
-      <c r="EL1" s="145"/>
-      <c r="EM1" s="145"/>
-      <c r="EN1" s="145"/>
-      <c r="EO1" s="145"/>
-      <c r="EP1" s="145"/>
-      <c r="EQ1" s="145"/>
-      <c r="ER1" s="145"/>
-      <c r="ES1" s="145"/>
-      <c r="ET1" s="145"/>
-      <c r="EU1" s="145"/>
-      <c r="EV1" s="145"/>
-      <c r="EW1" s="145"/>
-      <c r="EX1" s="145"/>
-      <c r="EY1" s="145"/>
-      <c r="EZ1" s="145"/>
-      <c r="FA1" s="145"/>
-      <c r="FB1" s="145"/>
-      <c r="FC1" s="145"/>
-      <c r="FD1" s="145"/>
-      <c r="FE1" s="145"/>
-      <c r="FF1" s="145"/>
-      <c r="FG1" s="145"/>
-      <c r="FH1" s="145"/>
-      <c r="FI1" s="145"/>
-      <c r="FJ1" s="145"/>
-      <c r="FK1" s="145"/>
-      <c r="FL1" s="145"/>
-      <c r="FM1" s="145"/>
-      <c r="FN1" s="145"/>
-      <c r="FO1" s="145"/>
-      <c r="FP1" s="145"/>
-      <c r="FQ1" s="145"/>
-      <c r="FR1" s="145"/>
-      <c r="FS1" s="145"/>
-      <c r="FT1" s="145"/>
-      <c r="FU1" s="145"/>
-      <c r="FV1" s="145"/>
-      <c r="FW1" s="145"/>
-      <c r="FX1" s="145"/>
-      <c r="FY1" s="145"/>
-      <c r="FZ1" s="145"/>
-      <c r="GA1" s="145"/>
-      <c r="GB1" s="145"/>
-      <c r="GC1" s="145"/>
-      <c r="GD1" s="145"/>
-      <c r="GE1" s="145"/>
-      <c r="GF1" s="145"/>
-      <c r="GG1" s="145"/>
-      <c r="GH1" s="145"/>
-      <c r="GI1" s="145"/>
-      <c r="GJ1" s="145"/>
-      <c r="GK1" s="145"/>
-      <c r="GL1" s="145"/>
-      <c r="GM1" s="145"/>
-      <c r="GN1" s="145"/>
-      <c r="GO1" s="145"/>
-      <c r="GP1" s="145"/>
-      <c r="GQ1" s="145"/>
-      <c r="GR1" s="145"/>
-      <c r="GS1" s="145"/>
-      <c r="GT1" s="145"/>
-      <c r="GU1" s="145"/>
-      <c r="GV1" s="145"/>
-      <c r="GW1" s="145"/>
-      <c r="GX1" s="145"/>
-      <c r="GY1" s="145"/>
-      <c r="GZ1" s="145"/>
-      <c r="HA1" s="145"/>
-      <c r="HB1" s="145"/>
-      <c r="HC1" s="145"/>
-      <c r="HD1" s="145"/>
-      <c r="HE1" s="145"/>
-      <c r="HF1" s="145"/>
-      <c r="HG1" s="145"/>
-      <c r="HH1" s="145"/>
-      <c r="HI1" s="145"/>
-      <c r="HJ1" s="145"/>
-      <c r="HK1" s="145"/>
-      <c r="HL1" s="145"/>
-      <c r="HM1" s="145"/>
-      <c r="HN1" s="145"/>
-      <c r="HO1" s="145"/>
-      <c r="HP1" s="145"/>
-      <c r="HQ1" s="145"/>
-      <c r="HR1" s="145"/>
-      <c r="HS1" s="145"/>
-      <c r="HT1" s="145"/>
-      <c r="HU1" s="145"/>
-      <c r="HV1" s="145"/>
-      <c r="HW1" s="145"/>
-      <c r="HX1" s="145"/>
-      <c r="HY1" s="145"/>
-      <c r="HZ1" s="145"/>
-      <c r="IA1" s="145"/>
-      <c r="IB1" s="145"/>
-      <c r="IC1" s="145"/>
-      <c r="ID1" s="145"/>
-      <c r="IE1" s="145"/>
-      <c r="IF1" s="145"/>
-      <c r="IG1" s="145"/>
-      <c r="IH1" s="145"/>
-      <c r="II1" s="145"/>
-      <c r="IJ1" s="145"/>
-      <c r="IK1" s="145"/>
-      <c r="IL1" s="145"/>
-      <c r="IM1" s="145"/>
-      <c r="IN1" s="145"/>
-      <c r="IO1" s="145"/>
-      <c r="IP1" s="145"/>
-      <c r="IQ1" s="145"/>
-      <c r="IR1" s="145"/>
-      <c r="IS1" s="145"/>
-      <c r="IT1" s="145"/>
-      <c r="IU1" s="145"/>
-    </row>
-    <row r="2" spans="1:255" ht="15.75" thickBot="1">
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
+      <c r="U1" s="138"/>
+      <c r="V1" s="138"/>
+      <c r="W1" s="138"/>
+      <c r="X1" s="138"/>
+      <c r="Y1" s="138"/>
+      <c r="Z1" s="138"/>
+      <c r="AA1" s="138"/>
+      <c r="AB1" s="138"/>
+      <c r="AC1" s="138"/>
+      <c r="AD1" s="138"/>
+      <c r="AE1" s="138"/>
+      <c r="AF1" s="138"/>
+      <c r="AG1" s="138"/>
+      <c r="AH1" s="138"/>
+      <c r="AI1" s="138"/>
+      <c r="AJ1" s="138"/>
+      <c r="AK1" s="138"/>
+      <c r="AL1" s="138"/>
+      <c r="AM1" s="138"/>
+      <c r="AN1" s="138"/>
+      <c r="AO1" s="138"/>
+      <c r="AP1" s="138"/>
+      <c r="AQ1" s="138"/>
+      <c r="AR1" s="138"/>
+      <c r="AS1" s="138"/>
+      <c r="AT1" s="138"/>
+      <c r="AU1" s="138"/>
+      <c r="AV1" s="138"/>
+      <c r="AW1" s="138"/>
+      <c r="AX1" s="138"/>
+      <c r="AY1" s="138"/>
+      <c r="AZ1" s="138"/>
+      <c r="BA1" s="138"/>
+      <c r="BB1" s="138"/>
+      <c r="BC1" s="138"/>
+      <c r="BD1" s="138"/>
+      <c r="BE1" s="138"/>
+      <c r="BF1" s="138"/>
+      <c r="BG1" s="138"/>
+      <c r="BH1" s="138"/>
+      <c r="BI1" s="138"/>
+      <c r="BJ1" s="138"/>
+      <c r="BK1" s="138"/>
+      <c r="BL1" s="138"/>
+      <c r="BM1" s="138"/>
+      <c r="BN1" s="138"/>
+      <c r="BO1" s="138"/>
+      <c r="BP1" s="138"/>
+      <c r="BQ1" s="138"/>
+      <c r="BR1" s="138"/>
+      <c r="BS1" s="138"/>
+      <c r="BT1" s="138"/>
+      <c r="BU1" s="138"/>
+      <c r="BV1" s="138"/>
+      <c r="BW1" s="138"/>
+      <c r="BX1" s="138"/>
+      <c r="BY1" s="138"/>
+      <c r="BZ1" s="138"/>
+      <c r="CA1" s="138"/>
+      <c r="CB1" s="138"/>
+      <c r="CC1" s="138"/>
+      <c r="CD1" s="138"/>
+      <c r="CE1" s="138"/>
+      <c r="CF1" s="138"/>
+      <c r="CG1" s="138"/>
+      <c r="CH1" s="138"/>
+      <c r="CI1" s="138"/>
+      <c r="CJ1" s="138"/>
+      <c r="CK1" s="138"/>
+      <c r="CL1" s="138"/>
+      <c r="CM1" s="138"/>
+      <c r="CN1" s="138"/>
+      <c r="CO1" s="138"/>
+      <c r="CP1" s="138"/>
+      <c r="CQ1" s="138"/>
+      <c r="CR1" s="138"/>
+      <c r="CS1" s="138"/>
+      <c r="CT1" s="138"/>
+      <c r="CU1" s="138"/>
+      <c r="CV1" s="138"/>
+      <c r="CW1" s="138"/>
+      <c r="CX1" s="138"/>
+      <c r="CY1" s="138"/>
+      <c r="CZ1" s="138"/>
+      <c r="DA1" s="138"/>
+      <c r="DB1" s="138"/>
+      <c r="DC1" s="138"/>
+      <c r="DD1" s="138"/>
+      <c r="DE1" s="138"/>
+      <c r="DF1" s="138"/>
+      <c r="DG1" s="138"/>
+      <c r="DH1" s="138"/>
+      <c r="DI1" s="138"/>
+      <c r="DJ1" s="138"/>
+      <c r="DK1" s="138"/>
+      <c r="DL1" s="138"/>
+      <c r="DM1" s="138"/>
+      <c r="DN1" s="138"/>
+      <c r="DO1" s="138"/>
+      <c r="DP1" s="138"/>
+      <c r="DQ1" s="138"/>
+      <c r="DR1" s="138"/>
+      <c r="DS1" s="138"/>
+      <c r="DT1" s="138"/>
+      <c r="DU1" s="138"/>
+      <c r="DV1" s="138"/>
+      <c r="DW1" s="138"/>
+      <c r="DX1" s="138"/>
+      <c r="DY1" s="138"/>
+      <c r="DZ1" s="138"/>
+      <c r="EA1" s="138"/>
+      <c r="EB1" s="138"/>
+      <c r="EC1" s="138"/>
+      <c r="ED1" s="138"/>
+      <c r="EE1" s="138"/>
+      <c r="EF1" s="138"/>
+      <c r="EG1" s="138"/>
+      <c r="EH1" s="138"/>
+      <c r="EI1" s="138"/>
+      <c r="EJ1" s="138"/>
+      <c r="EK1" s="138"/>
+      <c r="EL1" s="138"/>
+      <c r="EM1" s="138"/>
+      <c r="EN1" s="138"/>
+      <c r="EO1" s="138"/>
+      <c r="EP1" s="138"/>
+      <c r="EQ1" s="138"/>
+      <c r="ER1" s="138"/>
+      <c r="ES1" s="138"/>
+      <c r="ET1" s="138"/>
+      <c r="EU1" s="138"/>
+      <c r="EV1" s="138"/>
+      <c r="EW1" s="138"/>
+      <c r="EX1" s="138"/>
+      <c r="EY1" s="138"/>
+      <c r="EZ1" s="138"/>
+      <c r="FA1" s="138"/>
+      <c r="FB1" s="138"/>
+      <c r="FC1" s="138"/>
+      <c r="FD1" s="138"/>
+      <c r="FE1" s="138"/>
+      <c r="FF1" s="138"/>
+      <c r="FG1" s="138"/>
+      <c r="FH1" s="138"/>
+      <c r="FI1" s="138"/>
+      <c r="FJ1" s="138"/>
+      <c r="FK1" s="138"/>
+      <c r="FL1" s="138"/>
+      <c r="FM1" s="138"/>
+      <c r="FN1" s="138"/>
+      <c r="FO1" s="138"/>
+      <c r="FP1" s="138"/>
+      <c r="FQ1" s="138"/>
+      <c r="FR1" s="138"/>
+      <c r="FS1" s="138"/>
+      <c r="FT1" s="138"/>
+      <c r="FU1" s="138"/>
+      <c r="FV1" s="138"/>
+      <c r="FW1" s="138"/>
+      <c r="FX1" s="138"/>
+      <c r="FY1" s="138"/>
+      <c r="FZ1" s="138"/>
+      <c r="GA1" s="138"/>
+      <c r="GB1" s="138"/>
+      <c r="GC1" s="138"/>
+      <c r="GD1" s="138"/>
+      <c r="GE1" s="138"/>
+      <c r="GF1" s="138"/>
+      <c r="GG1" s="138"/>
+      <c r="GH1" s="138"/>
+      <c r="GI1" s="138"/>
+      <c r="GJ1" s="138"/>
+      <c r="GK1" s="138"/>
+      <c r="GL1" s="138"/>
+      <c r="GM1" s="138"/>
+      <c r="GN1" s="138"/>
+      <c r="GO1" s="138"/>
+      <c r="GP1" s="138"/>
+      <c r="GQ1" s="138"/>
+      <c r="GR1" s="138"/>
+      <c r="GS1" s="138"/>
+      <c r="GT1" s="138"/>
+      <c r="GU1" s="138"/>
+      <c r="GV1" s="138"/>
+      <c r="GW1" s="138"/>
+      <c r="GX1" s="138"/>
+      <c r="GY1" s="138"/>
+      <c r="GZ1" s="138"/>
+      <c r="HA1" s="138"/>
+      <c r="HB1" s="138"/>
+      <c r="HC1" s="138"/>
+      <c r="HD1" s="138"/>
+      <c r="HE1" s="138"/>
+      <c r="HF1" s="138"/>
+      <c r="HG1" s="138"/>
+      <c r="HH1" s="138"/>
+      <c r="HI1" s="138"/>
+      <c r="HJ1" s="138"/>
+      <c r="HK1" s="138"/>
+      <c r="HL1" s="138"/>
+      <c r="HM1" s="138"/>
+      <c r="HN1" s="138"/>
+      <c r="HO1" s="138"/>
+      <c r="HP1" s="138"/>
+      <c r="HQ1" s="138"/>
+      <c r="HR1" s="138"/>
+      <c r="HS1" s="138"/>
+      <c r="HT1" s="138"/>
+      <c r="HU1" s="138"/>
+      <c r="HV1" s="138"/>
+      <c r="HW1" s="138"/>
+      <c r="HX1" s="138"/>
+      <c r="HY1" s="138"/>
+      <c r="HZ1" s="138"/>
+      <c r="IA1" s="138"/>
+      <c r="IB1" s="138"/>
+      <c r="IC1" s="138"/>
+      <c r="ID1" s="138"/>
+      <c r="IE1" s="138"/>
+      <c r="IF1" s="138"/>
+      <c r="IG1" s="138"/>
+      <c r="IH1" s="138"/>
+      <c r="II1" s="138"/>
+      <c r="IJ1" s="138"/>
+      <c r="IK1" s="138"/>
+      <c r="IL1" s="138"/>
+      <c r="IM1" s="138"/>
+      <c r="IN1" s="138"/>
+      <c r="IO1" s="138"/>
+      <c r="IP1" s="138"/>
+      <c r="IQ1" s="138"/>
+      <c r="IR1" s="138"/>
+      <c r="IS1" s="138"/>
+      <c r="IT1" s="138"/>
+      <c r="IU1" s="138"/>
+    </row>
+    <row r="2" spans="1:255" ht="15" thickBot="1">
       <c r="A2" s="153" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -13610,7 +13630,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:255" ht="15.75" thickBot="1">
+    <row r="4" spans="1:255" ht="15" thickBot="1">
       <c r="A4" s="155"/>
       <c r="B4" s="157"/>
       <c r="C4" s="159"/>
@@ -15386,7 +15406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="77" customFormat="1" ht="15.75" thickBot="1">
+    <row r="46" spans="1:11" s="77" customFormat="1" ht="15" thickBot="1">
       <c r="A46" s="79">
         <f>'Сводная таблица'!A46:A47</f>
         <v>42</v>
@@ -15511,274 +15531,274 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="102" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="4" customWidth="1"/>
-    <col min="3" max="27" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="9.140625" style="63"/>
+    <col min="1" max="1" width="31.33203125" style="102" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="4" customWidth="1"/>
+    <col min="3" max="27" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.109375" style="63"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="138" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="145"/>
-      <c r="N1" s="145"/>
-      <c r="O1" s="145"/>
-      <c r="P1" s="145"/>
-      <c r="Q1" s="145"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="145"/>
-      <c r="T1" s="145"/>
-      <c r="U1" s="145"/>
-      <c r="V1" s="145"/>
-      <c r="W1" s="145"/>
-      <c r="X1" s="145"/>
-      <c r="Y1" s="145"/>
-      <c r="Z1" s="145"/>
-      <c r="AA1" s="145"/>
-      <c r="AB1" s="145"/>
-      <c r="AC1" s="145"/>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="145"/>
-      <c r="AF1" s="145"/>
-      <c r="AG1" s="145"/>
-      <c r="AH1" s="145"/>
-      <c r="AI1" s="145"/>
-      <c r="AJ1" s="145"/>
-      <c r="AK1" s="145"/>
-      <c r="AL1" s="145"/>
-      <c r="AM1" s="145"/>
-      <c r="AN1" s="145"/>
-      <c r="AO1" s="145"/>
-      <c r="AP1" s="145"/>
-      <c r="AQ1" s="145"/>
-      <c r="AR1" s="145"/>
-      <c r="AS1" s="145"/>
-      <c r="AT1" s="145"/>
-      <c r="AU1" s="145"/>
-      <c r="AV1" s="145"/>
-      <c r="AW1" s="145"/>
-      <c r="AX1" s="145"/>
-      <c r="AY1" s="145"/>
-      <c r="AZ1" s="145"/>
-      <c r="BA1" s="145"/>
-      <c r="BB1" s="145"/>
-      <c r="BC1" s="145"/>
-      <c r="BD1" s="145"/>
-      <c r="BE1" s="145"/>
-      <c r="BF1" s="145"/>
-      <c r="BG1" s="145"/>
-      <c r="BH1" s="145"/>
-      <c r="BI1" s="145"/>
-      <c r="BJ1" s="145"/>
-      <c r="BK1" s="145"/>
-      <c r="BL1" s="145"/>
-      <c r="BM1" s="145"/>
-      <c r="BN1" s="145"/>
-      <c r="BO1" s="145"/>
-      <c r="BP1" s="145"/>
-      <c r="BQ1" s="145"/>
-      <c r="BR1" s="145"/>
-      <c r="BS1" s="145"/>
-      <c r="BT1" s="145"/>
-      <c r="BU1" s="145"/>
-      <c r="BV1" s="145"/>
-      <c r="BW1" s="145"/>
-      <c r="BX1" s="145"/>
-      <c r="BY1" s="145"/>
-      <c r="BZ1" s="145"/>
-      <c r="CA1" s="145"/>
-      <c r="CB1" s="145"/>
-      <c r="CC1" s="145"/>
-      <c r="CD1" s="145"/>
-      <c r="CE1" s="145"/>
-      <c r="CF1" s="145"/>
-      <c r="CG1" s="145"/>
-      <c r="CH1" s="145"/>
-      <c r="CI1" s="145"/>
-      <c r="CJ1" s="145"/>
-      <c r="CK1" s="145"/>
-      <c r="CL1" s="145"/>
-      <c r="CM1" s="145"/>
-      <c r="CN1" s="145"/>
-      <c r="CO1" s="145"/>
-      <c r="CP1" s="145"/>
-      <c r="CQ1" s="145"/>
-      <c r="CR1" s="145"/>
-      <c r="CS1" s="145"/>
-      <c r="CT1" s="145"/>
-      <c r="CU1" s="145"/>
-      <c r="CV1" s="145"/>
-      <c r="CW1" s="145"/>
-      <c r="CX1" s="145"/>
-      <c r="CY1" s="145"/>
-      <c r="CZ1" s="145"/>
-      <c r="DA1" s="145"/>
-      <c r="DB1" s="145"/>
-      <c r="DC1" s="145"/>
-      <c r="DD1" s="145"/>
-      <c r="DE1" s="145"/>
-      <c r="DF1" s="145"/>
-      <c r="DG1" s="145"/>
-      <c r="DH1" s="145"/>
-      <c r="DI1" s="145"/>
-      <c r="DJ1" s="145"/>
-      <c r="DK1" s="145"/>
-      <c r="DL1" s="145"/>
-      <c r="DM1" s="145"/>
-      <c r="DN1" s="145"/>
-      <c r="DO1" s="145"/>
-      <c r="DP1" s="145"/>
-      <c r="DQ1" s="145"/>
-      <c r="DR1" s="145"/>
-      <c r="DS1" s="145"/>
-      <c r="DT1" s="145"/>
-      <c r="DU1" s="145"/>
-      <c r="DV1" s="145"/>
-      <c r="DW1" s="145"/>
-      <c r="DX1" s="145"/>
-      <c r="DY1" s="145"/>
-      <c r="DZ1" s="145"/>
-      <c r="EA1" s="145"/>
-      <c r="EB1" s="145"/>
-      <c r="EC1" s="145"/>
-      <c r="ED1" s="145"/>
-      <c r="EE1" s="145"/>
-      <c r="EF1" s="145"/>
-      <c r="EG1" s="145"/>
-      <c r="EH1" s="145"/>
-      <c r="EI1" s="145"/>
-      <c r="EJ1" s="145"/>
-      <c r="EK1" s="145"/>
-      <c r="EL1" s="145"/>
-      <c r="EM1" s="145"/>
-      <c r="EN1" s="145"/>
-      <c r="EO1" s="145"/>
-      <c r="EP1" s="145"/>
-      <c r="EQ1" s="145"/>
-      <c r="ER1" s="145"/>
-      <c r="ES1" s="145"/>
-      <c r="ET1" s="145"/>
-      <c r="EU1" s="145"/>
-      <c r="EV1" s="145"/>
-      <c r="EW1" s="145"/>
-      <c r="EX1" s="145"/>
-      <c r="EY1" s="145"/>
-      <c r="EZ1" s="145"/>
-      <c r="FA1" s="145"/>
-      <c r="FB1" s="145"/>
-      <c r="FC1" s="145"/>
-      <c r="FD1" s="145"/>
-      <c r="FE1" s="145"/>
-      <c r="FF1" s="145"/>
-      <c r="FG1" s="145"/>
-      <c r="FH1" s="145"/>
-      <c r="FI1" s="145"/>
-      <c r="FJ1" s="145"/>
-      <c r="FK1" s="145"/>
-      <c r="FL1" s="145"/>
-      <c r="FM1" s="145"/>
-      <c r="FN1" s="145"/>
-      <c r="FO1" s="145"/>
-      <c r="FP1" s="145"/>
-      <c r="FQ1" s="145"/>
-      <c r="FR1" s="145"/>
-      <c r="FS1" s="145"/>
-      <c r="FT1" s="145"/>
-      <c r="FU1" s="145"/>
-      <c r="FV1" s="145"/>
-      <c r="FW1" s="145"/>
-      <c r="FX1" s="145"/>
-      <c r="FY1" s="145"/>
-      <c r="FZ1" s="145"/>
-      <c r="GA1" s="145"/>
-      <c r="GB1" s="145"/>
-      <c r="GC1" s="145"/>
-      <c r="GD1" s="145"/>
-      <c r="GE1" s="145"/>
-      <c r="GF1" s="145"/>
-      <c r="GG1" s="145"/>
-      <c r="GH1" s="145"/>
-      <c r="GI1" s="145"/>
-      <c r="GJ1" s="145"/>
-      <c r="GK1" s="145"/>
-      <c r="GL1" s="145"/>
-      <c r="GM1" s="145"/>
-      <c r="GN1" s="145"/>
-      <c r="GO1" s="145"/>
-      <c r="GP1" s="145"/>
-      <c r="GQ1" s="145"/>
-      <c r="GR1" s="145"/>
-      <c r="GS1" s="145"/>
-      <c r="GT1" s="145"/>
-      <c r="GU1" s="145"/>
-      <c r="GV1" s="145"/>
-      <c r="GW1" s="145"/>
-      <c r="GX1" s="145"/>
-      <c r="GY1" s="145"/>
-      <c r="GZ1" s="145"/>
-      <c r="HA1" s="145"/>
-      <c r="HB1" s="145"/>
-      <c r="HC1" s="145"/>
-      <c r="HD1" s="145"/>
-      <c r="HE1" s="145"/>
-      <c r="HF1" s="145"/>
-      <c r="HG1" s="145"/>
-      <c r="HH1" s="145"/>
-      <c r="HI1" s="145"/>
-      <c r="HJ1" s="145"/>
-      <c r="HK1" s="145"/>
-      <c r="HL1" s="145"/>
-      <c r="HM1" s="145"/>
-      <c r="HN1" s="145"/>
-      <c r="HO1" s="145"/>
-      <c r="HP1" s="145"/>
-      <c r="HQ1" s="145"/>
-      <c r="HR1" s="145"/>
-      <c r="HS1" s="145"/>
-      <c r="HT1" s="145"/>
-      <c r="HU1" s="145"/>
-      <c r="HV1" s="145"/>
-      <c r="HW1" s="145"/>
-      <c r="HX1" s="145"/>
-      <c r="HY1" s="145"/>
-      <c r="HZ1" s="145"/>
-      <c r="IA1" s="145"/>
-      <c r="IB1" s="145"/>
-      <c r="IC1" s="145"/>
-      <c r="ID1" s="145"/>
-      <c r="IE1" s="145"/>
-      <c r="IF1" s="145"/>
-      <c r="IG1" s="145"/>
-      <c r="IH1" s="145"/>
-      <c r="II1" s="145"/>
-      <c r="IJ1" s="145"/>
-      <c r="IK1" s="145"/>
-      <c r="IL1" s="145"/>
-      <c r="IM1" s="145"/>
-      <c r="IN1" s="145"/>
-      <c r="IO1" s="145"/>
-      <c r="IP1" s="145"/>
-      <c r="IQ1" s="145"/>
-      <c r="IR1" s="145"/>
-      <c r="IS1" s="145"/>
-      <c r="IT1" s="145"/>
-      <c r="IU1" s="145"/>
-      <c r="IV1" s="145"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
+      <c r="U1" s="138"/>
+      <c r="V1" s="138"/>
+      <c r="W1" s="138"/>
+      <c r="X1" s="138"/>
+      <c r="Y1" s="138"/>
+      <c r="Z1" s="138"/>
+      <c r="AA1" s="138"/>
+      <c r="AB1" s="138"/>
+      <c r="AC1" s="138"/>
+      <c r="AD1" s="138"/>
+      <c r="AE1" s="138"/>
+      <c r="AF1" s="138"/>
+      <c r="AG1" s="138"/>
+      <c r="AH1" s="138"/>
+      <c r="AI1" s="138"/>
+      <c r="AJ1" s="138"/>
+      <c r="AK1" s="138"/>
+      <c r="AL1" s="138"/>
+      <c r="AM1" s="138"/>
+      <c r="AN1" s="138"/>
+      <c r="AO1" s="138"/>
+      <c r="AP1" s="138"/>
+      <c r="AQ1" s="138"/>
+      <c r="AR1" s="138"/>
+      <c r="AS1" s="138"/>
+      <c r="AT1" s="138"/>
+      <c r="AU1" s="138"/>
+      <c r="AV1" s="138"/>
+      <c r="AW1" s="138"/>
+      <c r="AX1" s="138"/>
+      <c r="AY1" s="138"/>
+      <c r="AZ1" s="138"/>
+      <c r="BA1" s="138"/>
+      <c r="BB1" s="138"/>
+      <c r="BC1" s="138"/>
+      <c r="BD1" s="138"/>
+      <c r="BE1" s="138"/>
+      <c r="BF1" s="138"/>
+      <c r="BG1" s="138"/>
+      <c r="BH1" s="138"/>
+      <c r="BI1" s="138"/>
+      <c r="BJ1" s="138"/>
+      <c r="BK1" s="138"/>
+      <c r="BL1" s="138"/>
+      <c r="BM1" s="138"/>
+      <c r="BN1" s="138"/>
+      <c r="BO1" s="138"/>
+      <c r="BP1" s="138"/>
+      <c r="BQ1" s="138"/>
+      <c r="BR1" s="138"/>
+      <c r="BS1" s="138"/>
+      <c r="BT1" s="138"/>
+      <c r="BU1" s="138"/>
+      <c r="BV1" s="138"/>
+      <c r="BW1" s="138"/>
+      <c r="BX1" s="138"/>
+      <c r="BY1" s="138"/>
+      <c r="BZ1" s="138"/>
+      <c r="CA1" s="138"/>
+      <c r="CB1" s="138"/>
+      <c r="CC1" s="138"/>
+      <c r="CD1" s="138"/>
+      <c r="CE1" s="138"/>
+      <c r="CF1" s="138"/>
+      <c r="CG1" s="138"/>
+      <c r="CH1" s="138"/>
+      <c r="CI1" s="138"/>
+      <c r="CJ1" s="138"/>
+      <c r="CK1" s="138"/>
+      <c r="CL1" s="138"/>
+      <c r="CM1" s="138"/>
+      <c r="CN1" s="138"/>
+      <c r="CO1" s="138"/>
+      <c r="CP1" s="138"/>
+      <c r="CQ1" s="138"/>
+      <c r="CR1" s="138"/>
+      <c r="CS1" s="138"/>
+      <c r="CT1" s="138"/>
+      <c r="CU1" s="138"/>
+      <c r="CV1" s="138"/>
+      <c r="CW1" s="138"/>
+      <c r="CX1" s="138"/>
+      <c r="CY1" s="138"/>
+      <c r="CZ1" s="138"/>
+      <c r="DA1" s="138"/>
+      <c r="DB1" s="138"/>
+      <c r="DC1" s="138"/>
+      <c r="DD1" s="138"/>
+      <c r="DE1" s="138"/>
+      <c r="DF1" s="138"/>
+      <c r="DG1" s="138"/>
+      <c r="DH1" s="138"/>
+      <c r="DI1" s="138"/>
+      <c r="DJ1" s="138"/>
+      <c r="DK1" s="138"/>
+      <c r="DL1" s="138"/>
+      <c r="DM1" s="138"/>
+      <c r="DN1" s="138"/>
+      <c r="DO1" s="138"/>
+      <c r="DP1" s="138"/>
+      <c r="DQ1" s="138"/>
+      <c r="DR1" s="138"/>
+      <c r="DS1" s="138"/>
+      <c r="DT1" s="138"/>
+      <c r="DU1" s="138"/>
+      <c r="DV1" s="138"/>
+      <c r="DW1" s="138"/>
+      <c r="DX1" s="138"/>
+      <c r="DY1" s="138"/>
+      <c r="DZ1" s="138"/>
+      <c r="EA1" s="138"/>
+      <c r="EB1" s="138"/>
+      <c r="EC1" s="138"/>
+      <c r="ED1" s="138"/>
+      <c r="EE1" s="138"/>
+      <c r="EF1" s="138"/>
+      <c r="EG1" s="138"/>
+      <c r="EH1" s="138"/>
+      <c r="EI1" s="138"/>
+      <c r="EJ1" s="138"/>
+      <c r="EK1" s="138"/>
+      <c r="EL1" s="138"/>
+      <c r="EM1" s="138"/>
+      <c r="EN1" s="138"/>
+      <c r="EO1" s="138"/>
+      <c r="EP1" s="138"/>
+      <c r="EQ1" s="138"/>
+      <c r="ER1" s="138"/>
+      <c r="ES1" s="138"/>
+      <c r="ET1" s="138"/>
+      <c r="EU1" s="138"/>
+      <c r="EV1" s="138"/>
+      <c r="EW1" s="138"/>
+      <c r="EX1" s="138"/>
+      <c r="EY1" s="138"/>
+      <c r="EZ1" s="138"/>
+      <c r="FA1" s="138"/>
+      <c r="FB1" s="138"/>
+      <c r="FC1" s="138"/>
+      <c r="FD1" s="138"/>
+      <c r="FE1" s="138"/>
+      <c r="FF1" s="138"/>
+      <c r="FG1" s="138"/>
+      <c r="FH1" s="138"/>
+      <c r="FI1" s="138"/>
+      <c r="FJ1" s="138"/>
+      <c r="FK1" s="138"/>
+      <c r="FL1" s="138"/>
+      <c r="FM1" s="138"/>
+      <c r="FN1" s="138"/>
+      <c r="FO1" s="138"/>
+      <c r="FP1" s="138"/>
+      <c r="FQ1" s="138"/>
+      <c r="FR1" s="138"/>
+      <c r="FS1" s="138"/>
+      <c r="FT1" s="138"/>
+      <c r="FU1" s="138"/>
+      <c r="FV1" s="138"/>
+      <c r="FW1" s="138"/>
+      <c r="FX1" s="138"/>
+      <c r="FY1" s="138"/>
+      <c r="FZ1" s="138"/>
+      <c r="GA1" s="138"/>
+      <c r="GB1" s="138"/>
+      <c r="GC1" s="138"/>
+      <c r="GD1" s="138"/>
+      <c r="GE1" s="138"/>
+      <c r="GF1" s="138"/>
+      <c r="GG1" s="138"/>
+      <c r="GH1" s="138"/>
+      <c r="GI1" s="138"/>
+      <c r="GJ1" s="138"/>
+      <c r="GK1" s="138"/>
+      <c r="GL1" s="138"/>
+      <c r="GM1" s="138"/>
+      <c r="GN1" s="138"/>
+      <c r="GO1" s="138"/>
+      <c r="GP1" s="138"/>
+      <c r="GQ1" s="138"/>
+      <c r="GR1" s="138"/>
+      <c r="GS1" s="138"/>
+      <c r="GT1" s="138"/>
+      <c r="GU1" s="138"/>
+      <c r="GV1" s="138"/>
+      <c r="GW1" s="138"/>
+      <c r="GX1" s="138"/>
+      <c r="GY1" s="138"/>
+      <c r="GZ1" s="138"/>
+      <c r="HA1" s="138"/>
+      <c r="HB1" s="138"/>
+      <c r="HC1" s="138"/>
+      <c r="HD1" s="138"/>
+      <c r="HE1" s="138"/>
+      <c r="HF1" s="138"/>
+      <c r="HG1" s="138"/>
+      <c r="HH1" s="138"/>
+      <c r="HI1" s="138"/>
+      <c r="HJ1" s="138"/>
+      <c r="HK1" s="138"/>
+      <c r="HL1" s="138"/>
+      <c r="HM1" s="138"/>
+      <c r="HN1" s="138"/>
+      <c r="HO1" s="138"/>
+      <c r="HP1" s="138"/>
+      <c r="HQ1" s="138"/>
+      <c r="HR1" s="138"/>
+      <c r="HS1" s="138"/>
+      <c r="HT1" s="138"/>
+      <c r="HU1" s="138"/>
+      <c r="HV1" s="138"/>
+      <c r="HW1" s="138"/>
+      <c r="HX1" s="138"/>
+      <c r="HY1" s="138"/>
+      <c r="HZ1" s="138"/>
+      <c r="IA1" s="138"/>
+      <c r="IB1" s="138"/>
+      <c r="IC1" s="138"/>
+      <c r="ID1" s="138"/>
+      <c r="IE1" s="138"/>
+      <c r="IF1" s="138"/>
+      <c r="IG1" s="138"/>
+      <c r="IH1" s="138"/>
+      <c r="II1" s="138"/>
+      <c r="IJ1" s="138"/>
+      <c r="IK1" s="138"/>
+      <c r="IL1" s="138"/>
+      <c r="IM1" s="138"/>
+      <c r="IN1" s="138"/>
+      <c r="IO1" s="138"/>
+      <c r="IP1" s="138"/>
+      <c r="IQ1" s="138"/>
+      <c r="IR1" s="138"/>
+      <c r="IS1" s="138"/>
+      <c r="IT1" s="138"/>
+      <c r="IU1" s="138"/>
+      <c r="IV1" s="138"/>
     </row>
     <row r="2" spans="1:256" s="66" customFormat="1">
       <c r="A2" s="24" t="s">
@@ -42670,281 +42690,281 @@
       <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="138" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="145"/>
-      <c r="N1" s="145"/>
-      <c r="O1" s="145"/>
-      <c r="P1" s="145"/>
-      <c r="Q1" s="145"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="145"/>
-      <c r="T1" s="145"/>
-      <c r="U1" s="145"/>
-      <c r="V1" s="145"/>
-      <c r="W1" s="145"/>
-      <c r="X1" s="145"/>
-      <c r="Y1" s="145"/>
-      <c r="Z1" s="145"/>
-      <c r="AA1" s="145"/>
-      <c r="AB1" s="145"/>
-      <c r="AC1" s="145"/>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="145"/>
-      <c r="AF1" s="145"/>
-      <c r="AG1" s="145"/>
-      <c r="AH1" s="145"/>
-      <c r="AI1" s="145"/>
-      <c r="AJ1" s="145"/>
-      <c r="AK1" s="145"/>
-      <c r="AL1" s="145"/>
-      <c r="AM1" s="145"/>
-      <c r="AN1" s="145"/>
-      <c r="AO1" s="145"/>
-      <c r="AP1" s="145"/>
-      <c r="AQ1" s="145"/>
-      <c r="AR1" s="145"/>
-      <c r="AS1" s="145"/>
-      <c r="AT1" s="145"/>
-      <c r="AU1" s="145"/>
-      <c r="AV1" s="145"/>
-      <c r="AW1" s="145"/>
-      <c r="AX1" s="145"/>
-      <c r="AY1" s="145"/>
-      <c r="AZ1" s="145"/>
-      <c r="BA1" s="145"/>
-      <c r="BB1" s="145"/>
-      <c r="BC1" s="145"/>
-      <c r="BD1" s="145"/>
-      <c r="BE1" s="145"/>
-      <c r="BF1" s="145"/>
-      <c r="BG1" s="145"/>
-      <c r="BH1" s="145"/>
-      <c r="BI1" s="145"/>
-      <c r="BJ1" s="145"/>
-      <c r="BK1" s="145"/>
-      <c r="BL1" s="145"/>
-      <c r="BM1" s="145"/>
-      <c r="BN1" s="145"/>
-      <c r="BO1" s="145"/>
-      <c r="BP1" s="145"/>
-      <c r="BQ1" s="145"/>
-      <c r="BR1" s="145"/>
-      <c r="BS1" s="145"/>
-      <c r="BT1" s="145"/>
-      <c r="BU1" s="145"/>
-      <c r="BV1" s="145"/>
-      <c r="BW1" s="145"/>
-      <c r="BX1" s="145"/>
-      <c r="BY1" s="145"/>
-      <c r="BZ1" s="145"/>
-      <c r="CA1" s="145"/>
-      <c r="CB1" s="145"/>
-      <c r="CC1" s="145"/>
-      <c r="CD1" s="145"/>
-      <c r="CE1" s="145"/>
-      <c r="CF1" s="145"/>
-      <c r="CG1" s="145"/>
-      <c r="CH1" s="145"/>
-      <c r="CI1" s="145"/>
-      <c r="CJ1" s="145"/>
-      <c r="CK1" s="145"/>
-      <c r="CL1" s="145"/>
-      <c r="CM1" s="145"/>
-      <c r="CN1" s="145"/>
-      <c r="CO1" s="145"/>
-      <c r="CP1" s="145"/>
-      <c r="CQ1" s="145"/>
-      <c r="CR1" s="145"/>
-      <c r="CS1" s="145"/>
-      <c r="CT1" s="145"/>
-      <c r="CU1" s="145"/>
-      <c r="CV1" s="145"/>
-      <c r="CW1" s="145"/>
-      <c r="CX1" s="145"/>
-      <c r="CY1" s="145"/>
-      <c r="CZ1" s="145"/>
-      <c r="DA1" s="145"/>
-      <c r="DB1" s="145"/>
-      <c r="DC1" s="145"/>
-      <c r="DD1" s="145"/>
-      <c r="DE1" s="145"/>
-      <c r="DF1" s="145"/>
-      <c r="DG1" s="145"/>
-      <c r="DH1" s="145"/>
-      <c r="DI1" s="145"/>
-      <c r="DJ1" s="145"/>
-      <c r="DK1" s="145"/>
-      <c r="DL1" s="145"/>
-      <c r="DM1" s="145"/>
-      <c r="DN1" s="145"/>
-      <c r="DO1" s="145"/>
-      <c r="DP1" s="145"/>
-      <c r="DQ1" s="145"/>
-      <c r="DR1" s="145"/>
-      <c r="DS1" s="145"/>
-      <c r="DT1" s="145"/>
-      <c r="DU1" s="145"/>
-      <c r="DV1" s="145"/>
-      <c r="DW1" s="145"/>
-      <c r="DX1" s="145"/>
-      <c r="DY1" s="145"/>
-      <c r="DZ1" s="145"/>
-      <c r="EA1" s="145"/>
-      <c r="EB1" s="145"/>
-      <c r="EC1" s="145"/>
-      <c r="ED1" s="145"/>
-      <c r="EE1" s="145"/>
-      <c r="EF1" s="145"/>
-      <c r="EG1" s="145"/>
-      <c r="EH1" s="145"/>
-      <c r="EI1" s="145"/>
-      <c r="EJ1" s="145"/>
-      <c r="EK1" s="145"/>
-      <c r="EL1" s="145"/>
-      <c r="EM1" s="145"/>
-      <c r="EN1" s="145"/>
-      <c r="EO1" s="145"/>
-      <c r="EP1" s="145"/>
-      <c r="EQ1" s="145"/>
-      <c r="ER1" s="145"/>
-      <c r="ES1" s="145"/>
-      <c r="ET1" s="145"/>
-      <c r="EU1" s="145"/>
-      <c r="EV1" s="145"/>
-      <c r="EW1" s="145"/>
-      <c r="EX1" s="145"/>
-      <c r="EY1" s="145"/>
-      <c r="EZ1" s="145"/>
-      <c r="FA1" s="145"/>
-      <c r="FB1" s="145"/>
-      <c r="FC1" s="145"/>
-      <c r="FD1" s="145"/>
-      <c r="FE1" s="145"/>
-      <c r="FF1" s="145"/>
-      <c r="FG1" s="145"/>
-      <c r="FH1" s="145"/>
-      <c r="FI1" s="145"/>
-      <c r="FJ1" s="145"/>
-      <c r="FK1" s="145"/>
-      <c r="FL1" s="145"/>
-      <c r="FM1" s="145"/>
-      <c r="FN1" s="145"/>
-      <c r="FO1" s="145"/>
-      <c r="FP1" s="145"/>
-      <c r="FQ1" s="145"/>
-      <c r="FR1" s="145"/>
-      <c r="FS1" s="145"/>
-      <c r="FT1" s="145"/>
-      <c r="FU1" s="145"/>
-      <c r="FV1" s="145"/>
-      <c r="FW1" s="145"/>
-      <c r="FX1" s="145"/>
-      <c r="FY1" s="145"/>
-      <c r="FZ1" s="145"/>
-      <c r="GA1" s="145"/>
-      <c r="GB1" s="145"/>
-      <c r="GC1" s="145"/>
-      <c r="GD1" s="145"/>
-      <c r="GE1" s="145"/>
-      <c r="GF1" s="145"/>
-      <c r="GG1" s="145"/>
-      <c r="GH1" s="145"/>
-      <c r="GI1" s="145"/>
-      <c r="GJ1" s="145"/>
-      <c r="GK1" s="145"/>
-      <c r="GL1" s="145"/>
-      <c r="GM1" s="145"/>
-      <c r="GN1" s="145"/>
-      <c r="GO1" s="145"/>
-      <c r="GP1" s="145"/>
-      <c r="GQ1" s="145"/>
-      <c r="GR1" s="145"/>
-      <c r="GS1" s="145"/>
-      <c r="GT1" s="145"/>
-      <c r="GU1" s="145"/>
-      <c r="GV1" s="145"/>
-      <c r="GW1" s="145"/>
-      <c r="GX1" s="145"/>
-      <c r="GY1" s="145"/>
-      <c r="GZ1" s="145"/>
-      <c r="HA1" s="145"/>
-      <c r="HB1" s="145"/>
-      <c r="HC1" s="145"/>
-      <c r="HD1" s="145"/>
-      <c r="HE1" s="145"/>
-      <c r="HF1" s="145"/>
-      <c r="HG1" s="145"/>
-      <c r="HH1" s="145"/>
-      <c r="HI1" s="145"/>
-      <c r="HJ1" s="145"/>
-      <c r="HK1" s="145"/>
-      <c r="HL1" s="145"/>
-      <c r="HM1" s="145"/>
-      <c r="HN1" s="145"/>
-      <c r="HO1" s="145"/>
-      <c r="HP1" s="145"/>
-      <c r="HQ1" s="145"/>
-      <c r="HR1" s="145"/>
-      <c r="HS1" s="145"/>
-      <c r="HT1" s="145"/>
-      <c r="HU1" s="145"/>
-      <c r="HV1" s="145"/>
-      <c r="HW1" s="145"/>
-      <c r="HX1" s="145"/>
-      <c r="HY1" s="145"/>
-      <c r="HZ1" s="145"/>
-      <c r="IA1" s="145"/>
-      <c r="IB1" s="145"/>
-      <c r="IC1" s="145"/>
-      <c r="ID1" s="145"/>
-      <c r="IE1" s="145"/>
-      <c r="IF1" s="145"/>
-      <c r="IG1" s="145"/>
-      <c r="IH1" s="145"/>
-      <c r="II1" s="145"/>
-      <c r="IJ1" s="145"/>
-      <c r="IK1" s="145"/>
-      <c r="IL1" s="145"/>
-      <c r="IM1" s="145"/>
-      <c r="IN1" s="145"/>
-      <c r="IO1" s="145"/>
-      <c r="IP1" s="145"/>
-      <c r="IQ1" s="145"/>
-      <c r="IR1" s="145"/>
-      <c r="IS1" s="145"/>
-      <c r="IT1" s="145"/>
-      <c r="IU1" s="145"/>
-    </row>
-    <row r="2" spans="1:255" ht="15.75" thickBot="1">
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
+      <c r="U1" s="138"/>
+      <c r="V1" s="138"/>
+      <c r="W1" s="138"/>
+      <c r="X1" s="138"/>
+      <c r="Y1" s="138"/>
+      <c r="Z1" s="138"/>
+      <c r="AA1" s="138"/>
+      <c r="AB1" s="138"/>
+      <c r="AC1" s="138"/>
+      <c r="AD1" s="138"/>
+      <c r="AE1" s="138"/>
+      <c r="AF1" s="138"/>
+      <c r="AG1" s="138"/>
+      <c r="AH1" s="138"/>
+      <c r="AI1" s="138"/>
+      <c r="AJ1" s="138"/>
+      <c r="AK1" s="138"/>
+      <c r="AL1" s="138"/>
+      <c r="AM1" s="138"/>
+      <c r="AN1" s="138"/>
+      <c r="AO1" s="138"/>
+      <c r="AP1" s="138"/>
+      <c r="AQ1" s="138"/>
+      <c r="AR1" s="138"/>
+      <c r="AS1" s="138"/>
+      <c r="AT1" s="138"/>
+      <c r="AU1" s="138"/>
+      <c r="AV1" s="138"/>
+      <c r="AW1" s="138"/>
+      <c r="AX1" s="138"/>
+      <c r="AY1" s="138"/>
+      <c r="AZ1" s="138"/>
+      <c r="BA1" s="138"/>
+      <c r="BB1" s="138"/>
+      <c r="BC1" s="138"/>
+      <c r="BD1" s="138"/>
+      <c r="BE1" s="138"/>
+      <c r="BF1" s="138"/>
+      <c r="BG1" s="138"/>
+      <c r="BH1" s="138"/>
+      <c r="BI1" s="138"/>
+      <c r="BJ1" s="138"/>
+      <c r="BK1" s="138"/>
+      <c r="BL1" s="138"/>
+      <c r="BM1" s="138"/>
+      <c r="BN1" s="138"/>
+      <c r="BO1" s="138"/>
+      <c r="BP1" s="138"/>
+      <c r="BQ1" s="138"/>
+      <c r="BR1" s="138"/>
+      <c r="BS1" s="138"/>
+      <c r="BT1" s="138"/>
+      <c r="BU1" s="138"/>
+      <c r="BV1" s="138"/>
+      <c r="BW1" s="138"/>
+      <c r="BX1" s="138"/>
+      <c r="BY1" s="138"/>
+      <c r="BZ1" s="138"/>
+      <c r="CA1" s="138"/>
+      <c r="CB1" s="138"/>
+      <c r="CC1" s="138"/>
+      <c r="CD1" s="138"/>
+      <c r="CE1" s="138"/>
+      <c r="CF1" s="138"/>
+      <c r="CG1" s="138"/>
+      <c r="CH1" s="138"/>
+      <c r="CI1" s="138"/>
+      <c r="CJ1" s="138"/>
+      <c r="CK1" s="138"/>
+      <c r="CL1" s="138"/>
+      <c r="CM1" s="138"/>
+      <c r="CN1" s="138"/>
+      <c r="CO1" s="138"/>
+      <c r="CP1" s="138"/>
+      <c r="CQ1" s="138"/>
+      <c r="CR1" s="138"/>
+      <c r="CS1" s="138"/>
+      <c r="CT1" s="138"/>
+      <c r="CU1" s="138"/>
+      <c r="CV1" s="138"/>
+      <c r="CW1" s="138"/>
+      <c r="CX1" s="138"/>
+      <c r="CY1" s="138"/>
+      <c r="CZ1" s="138"/>
+      <c r="DA1" s="138"/>
+      <c r="DB1" s="138"/>
+      <c r="DC1" s="138"/>
+      <c r="DD1" s="138"/>
+      <c r="DE1" s="138"/>
+      <c r="DF1" s="138"/>
+      <c r="DG1" s="138"/>
+      <c r="DH1" s="138"/>
+      <c r="DI1" s="138"/>
+      <c r="DJ1" s="138"/>
+      <c r="DK1" s="138"/>
+      <c r="DL1" s="138"/>
+      <c r="DM1" s="138"/>
+      <c r="DN1" s="138"/>
+      <c r="DO1" s="138"/>
+      <c r="DP1" s="138"/>
+      <c r="DQ1" s="138"/>
+      <c r="DR1" s="138"/>
+      <c r="DS1" s="138"/>
+      <c r="DT1" s="138"/>
+      <c r="DU1" s="138"/>
+      <c r="DV1" s="138"/>
+      <c r="DW1" s="138"/>
+      <c r="DX1" s="138"/>
+      <c r="DY1" s="138"/>
+      <c r="DZ1" s="138"/>
+      <c r="EA1" s="138"/>
+      <c r="EB1" s="138"/>
+      <c r="EC1" s="138"/>
+      <c r="ED1" s="138"/>
+      <c r="EE1" s="138"/>
+      <c r="EF1" s="138"/>
+      <c r="EG1" s="138"/>
+      <c r="EH1" s="138"/>
+      <c r="EI1" s="138"/>
+      <c r="EJ1" s="138"/>
+      <c r="EK1" s="138"/>
+      <c r="EL1" s="138"/>
+      <c r="EM1" s="138"/>
+      <c r="EN1" s="138"/>
+      <c r="EO1" s="138"/>
+      <c r="EP1" s="138"/>
+      <c r="EQ1" s="138"/>
+      <c r="ER1" s="138"/>
+      <c r="ES1" s="138"/>
+      <c r="ET1" s="138"/>
+      <c r="EU1" s="138"/>
+      <c r="EV1" s="138"/>
+      <c r="EW1" s="138"/>
+      <c r="EX1" s="138"/>
+      <c r="EY1" s="138"/>
+      <c r="EZ1" s="138"/>
+      <c r="FA1" s="138"/>
+      <c r="FB1" s="138"/>
+      <c r="FC1" s="138"/>
+      <c r="FD1" s="138"/>
+      <c r="FE1" s="138"/>
+      <c r="FF1" s="138"/>
+      <c r="FG1" s="138"/>
+      <c r="FH1" s="138"/>
+      <c r="FI1" s="138"/>
+      <c r="FJ1" s="138"/>
+      <c r="FK1" s="138"/>
+      <c r="FL1" s="138"/>
+      <c r="FM1" s="138"/>
+      <c r="FN1" s="138"/>
+      <c r="FO1" s="138"/>
+      <c r="FP1" s="138"/>
+      <c r="FQ1" s="138"/>
+      <c r="FR1" s="138"/>
+      <c r="FS1" s="138"/>
+      <c r="FT1" s="138"/>
+      <c r="FU1" s="138"/>
+      <c r="FV1" s="138"/>
+      <c r="FW1" s="138"/>
+      <c r="FX1" s="138"/>
+      <c r="FY1" s="138"/>
+      <c r="FZ1" s="138"/>
+      <c r="GA1" s="138"/>
+      <c r="GB1" s="138"/>
+      <c r="GC1" s="138"/>
+      <c r="GD1" s="138"/>
+      <c r="GE1" s="138"/>
+      <c r="GF1" s="138"/>
+      <c r="GG1" s="138"/>
+      <c r="GH1" s="138"/>
+      <c r="GI1" s="138"/>
+      <c r="GJ1" s="138"/>
+      <c r="GK1" s="138"/>
+      <c r="GL1" s="138"/>
+      <c r="GM1" s="138"/>
+      <c r="GN1" s="138"/>
+      <c r="GO1" s="138"/>
+      <c r="GP1" s="138"/>
+      <c r="GQ1" s="138"/>
+      <c r="GR1" s="138"/>
+      <c r="GS1" s="138"/>
+      <c r="GT1" s="138"/>
+      <c r="GU1" s="138"/>
+      <c r="GV1" s="138"/>
+      <c r="GW1" s="138"/>
+      <c r="GX1" s="138"/>
+      <c r="GY1" s="138"/>
+      <c r="GZ1" s="138"/>
+      <c r="HA1" s="138"/>
+      <c r="HB1" s="138"/>
+      <c r="HC1" s="138"/>
+      <c r="HD1" s="138"/>
+      <c r="HE1" s="138"/>
+      <c r="HF1" s="138"/>
+      <c r="HG1" s="138"/>
+      <c r="HH1" s="138"/>
+      <c r="HI1" s="138"/>
+      <c r="HJ1" s="138"/>
+      <c r="HK1" s="138"/>
+      <c r="HL1" s="138"/>
+      <c r="HM1" s="138"/>
+      <c r="HN1" s="138"/>
+      <c r="HO1" s="138"/>
+      <c r="HP1" s="138"/>
+      <c r="HQ1" s="138"/>
+      <c r="HR1" s="138"/>
+      <c r="HS1" s="138"/>
+      <c r="HT1" s="138"/>
+      <c r="HU1" s="138"/>
+      <c r="HV1" s="138"/>
+      <c r="HW1" s="138"/>
+      <c r="HX1" s="138"/>
+      <c r="HY1" s="138"/>
+      <c r="HZ1" s="138"/>
+      <c r="IA1" s="138"/>
+      <c r="IB1" s="138"/>
+      <c r="IC1" s="138"/>
+      <c r="ID1" s="138"/>
+      <c r="IE1" s="138"/>
+      <c r="IF1" s="138"/>
+      <c r="IG1" s="138"/>
+      <c r="IH1" s="138"/>
+      <c r="II1" s="138"/>
+      <c r="IJ1" s="138"/>
+      <c r="IK1" s="138"/>
+      <c r="IL1" s="138"/>
+      <c r="IM1" s="138"/>
+      <c r="IN1" s="138"/>
+      <c r="IO1" s="138"/>
+      <c r="IP1" s="138"/>
+      <c r="IQ1" s="138"/>
+      <c r="IR1" s="138"/>
+      <c r="IS1" s="138"/>
+      <c r="IT1" s="138"/>
+      <c r="IU1" s="138"/>
+    </row>
+    <row r="2" spans="1:255" ht="15" thickBot="1">
       <c r="A2" s="153" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -43001,7 +43021,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:255" ht="15.75" thickBot="1">
+    <row r="4" spans="1:255" ht="15" thickBot="1">
       <c r="A4" s="155"/>
       <c r="B4" s="157"/>
       <c r="C4" s="159"/>
@@ -43009,7 +43029,7 @@
       <c r="E4" s="163"/>
       <c r="F4" s="152"/>
       <c r="G4" s="166"/>
-      <c r="H4" s="141"/>
+      <c r="H4" s="146"/>
       <c r="I4" s="168"/>
       <c r="J4" s="168"/>
       <c r="K4" s="165"/>
@@ -44756,7 +44776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="77" customFormat="1" ht="15.75" thickBot="1">
+    <row r="46" spans="1:11" s="77" customFormat="1" ht="15" thickBot="1">
       <c r="A46" s="79">
         <f>'Сводная таблица'!A46:A47</f>
         <v>42</v>
@@ -44881,281 +44901,281 @@
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="138" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="145"/>
-      <c r="N1" s="145"/>
-      <c r="O1" s="145"/>
-      <c r="P1" s="145"/>
-      <c r="Q1" s="145"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="145"/>
-      <c r="T1" s="145"/>
-      <c r="U1" s="145"/>
-      <c r="V1" s="145"/>
-      <c r="W1" s="145"/>
-      <c r="X1" s="145"/>
-      <c r="Y1" s="145"/>
-      <c r="Z1" s="145"/>
-      <c r="AA1" s="145"/>
-      <c r="AB1" s="145"/>
-      <c r="AC1" s="145"/>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="145"/>
-      <c r="AF1" s="145"/>
-      <c r="AG1" s="145"/>
-      <c r="AH1" s="145"/>
-      <c r="AI1" s="145"/>
-      <c r="AJ1" s="145"/>
-      <c r="AK1" s="145"/>
-      <c r="AL1" s="145"/>
-      <c r="AM1" s="145"/>
-      <c r="AN1" s="145"/>
-      <c r="AO1" s="145"/>
-      <c r="AP1" s="145"/>
-      <c r="AQ1" s="145"/>
-      <c r="AR1" s="145"/>
-      <c r="AS1" s="145"/>
-      <c r="AT1" s="145"/>
-      <c r="AU1" s="145"/>
-      <c r="AV1" s="145"/>
-      <c r="AW1" s="145"/>
-      <c r="AX1" s="145"/>
-      <c r="AY1" s="145"/>
-      <c r="AZ1" s="145"/>
-      <c r="BA1" s="145"/>
-      <c r="BB1" s="145"/>
-      <c r="BC1" s="145"/>
-      <c r="BD1" s="145"/>
-      <c r="BE1" s="145"/>
-      <c r="BF1" s="145"/>
-      <c r="BG1" s="145"/>
-      <c r="BH1" s="145"/>
-      <c r="BI1" s="145"/>
-      <c r="BJ1" s="145"/>
-      <c r="BK1" s="145"/>
-      <c r="BL1" s="145"/>
-      <c r="BM1" s="145"/>
-      <c r="BN1" s="145"/>
-      <c r="BO1" s="145"/>
-      <c r="BP1" s="145"/>
-      <c r="BQ1" s="145"/>
-      <c r="BR1" s="145"/>
-      <c r="BS1" s="145"/>
-      <c r="BT1" s="145"/>
-      <c r="BU1" s="145"/>
-      <c r="BV1" s="145"/>
-      <c r="BW1" s="145"/>
-      <c r="BX1" s="145"/>
-      <c r="BY1" s="145"/>
-      <c r="BZ1" s="145"/>
-      <c r="CA1" s="145"/>
-      <c r="CB1" s="145"/>
-      <c r="CC1" s="145"/>
-      <c r="CD1" s="145"/>
-      <c r="CE1" s="145"/>
-      <c r="CF1" s="145"/>
-      <c r="CG1" s="145"/>
-      <c r="CH1" s="145"/>
-      <c r="CI1" s="145"/>
-      <c r="CJ1" s="145"/>
-      <c r="CK1" s="145"/>
-      <c r="CL1" s="145"/>
-      <c r="CM1" s="145"/>
-      <c r="CN1" s="145"/>
-      <c r="CO1" s="145"/>
-      <c r="CP1" s="145"/>
-      <c r="CQ1" s="145"/>
-      <c r="CR1" s="145"/>
-      <c r="CS1" s="145"/>
-      <c r="CT1" s="145"/>
-      <c r="CU1" s="145"/>
-      <c r="CV1" s="145"/>
-      <c r="CW1" s="145"/>
-      <c r="CX1" s="145"/>
-      <c r="CY1" s="145"/>
-      <c r="CZ1" s="145"/>
-      <c r="DA1" s="145"/>
-      <c r="DB1" s="145"/>
-      <c r="DC1" s="145"/>
-      <c r="DD1" s="145"/>
-      <c r="DE1" s="145"/>
-      <c r="DF1" s="145"/>
-      <c r="DG1" s="145"/>
-      <c r="DH1" s="145"/>
-      <c r="DI1" s="145"/>
-      <c r="DJ1" s="145"/>
-      <c r="DK1" s="145"/>
-      <c r="DL1" s="145"/>
-      <c r="DM1" s="145"/>
-      <c r="DN1" s="145"/>
-      <c r="DO1" s="145"/>
-      <c r="DP1" s="145"/>
-      <c r="DQ1" s="145"/>
-      <c r="DR1" s="145"/>
-      <c r="DS1" s="145"/>
-      <c r="DT1" s="145"/>
-      <c r="DU1" s="145"/>
-      <c r="DV1" s="145"/>
-      <c r="DW1" s="145"/>
-      <c r="DX1" s="145"/>
-      <c r="DY1" s="145"/>
-      <c r="DZ1" s="145"/>
-      <c r="EA1" s="145"/>
-      <c r="EB1" s="145"/>
-      <c r="EC1" s="145"/>
-      <c r="ED1" s="145"/>
-      <c r="EE1" s="145"/>
-      <c r="EF1" s="145"/>
-      <c r="EG1" s="145"/>
-      <c r="EH1" s="145"/>
-      <c r="EI1" s="145"/>
-      <c r="EJ1" s="145"/>
-      <c r="EK1" s="145"/>
-      <c r="EL1" s="145"/>
-      <c r="EM1" s="145"/>
-      <c r="EN1" s="145"/>
-      <c r="EO1" s="145"/>
-      <c r="EP1" s="145"/>
-      <c r="EQ1" s="145"/>
-      <c r="ER1" s="145"/>
-      <c r="ES1" s="145"/>
-      <c r="ET1" s="145"/>
-      <c r="EU1" s="145"/>
-      <c r="EV1" s="145"/>
-      <c r="EW1" s="145"/>
-      <c r="EX1" s="145"/>
-      <c r="EY1" s="145"/>
-      <c r="EZ1" s="145"/>
-      <c r="FA1" s="145"/>
-      <c r="FB1" s="145"/>
-      <c r="FC1" s="145"/>
-      <c r="FD1" s="145"/>
-      <c r="FE1" s="145"/>
-      <c r="FF1" s="145"/>
-      <c r="FG1" s="145"/>
-      <c r="FH1" s="145"/>
-      <c r="FI1" s="145"/>
-      <c r="FJ1" s="145"/>
-      <c r="FK1" s="145"/>
-      <c r="FL1" s="145"/>
-      <c r="FM1" s="145"/>
-      <c r="FN1" s="145"/>
-      <c r="FO1" s="145"/>
-      <c r="FP1" s="145"/>
-      <c r="FQ1" s="145"/>
-      <c r="FR1" s="145"/>
-      <c r="FS1" s="145"/>
-      <c r="FT1" s="145"/>
-      <c r="FU1" s="145"/>
-      <c r="FV1" s="145"/>
-      <c r="FW1" s="145"/>
-      <c r="FX1" s="145"/>
-      <c r="FY1" s="145"/>
-      <c r="FZ1" s="145"/>
-      <c r="GA1" s="145"/>
-      <c r="GB1" s="145"/>
-      <c r="GC1" s="145"/>
-      <c r="GD1" s="145"/>
-      <c r="GE1" s="145"/>
-      <c r="GF1" s="145"/>
-      <c r="GG1" s="145"/>
-      <c r="GH1" s="145"/>
-      <c r="GI1" s="145"/>
-      <c r="GJ1" s="145"/>
-      <c r="GK1" s="145"/>
-      <c r="GL1" s="145"/>
-      <c r="GM1" s="145"/>
-      <c r="GN1" s="145"/>
-      <c r="GO1" s="145"/>
-      <c r="GP1" s="145"/>
-      <c r="GQ1" s="145"/>
-      <c r="GR1" s="145"/>
-      <c r="GS1" s="145"/>
-      <c r="GT1" s="145"/>
-      <c r="GU1" s="145"/>
-      <c r="GV1" s="145"/>
-      <c r="GW1" s="145"/>
-      <c r="GX1" s="145"/>
-      <c r="GY1" s="145"/>
-      <c r="GZ1" s="145"/>
-      <c r="HA1" s="145"/>
-      <c r="HB1" s="145"/>
-      <c r="HC1" s="145"/>
-      <c r="HD1" s="145"/>
-      <c r="HE1" s="145"/>
-      <c r="HF1" s="145"/>
-      <c r="HG1" s="145"/>
-      <c r="HH1" s="145"/>
-      <c r="HI1" s="145"/>
-      <c r="HJ1" s="145"/>
-      <c r="HK1" s="145"/>
-      <c r="HL1" s="145"/>
-      <c r="HM1" s="145"/>
-      <c r="HN1" s="145"/>
-      <c r="HO1" s="145"/>
-      <c r="HP1" s="145"/>
-      <c r="HQ1" s="145"/>
-      <c r="HR1" s="145"/>
-      <c r="HS1" s="145"/>
-      <c r="HT1" s="145"/>
-      <c r="HU1" s="145"/>
-      <c r="HV1" s="145"/>
-      <c r="HW1" s="145"/>
-      <c r="HX1" s="145"/>
-      <c r="HY1" s="145"/>
-      <c r="HZ1" s="145"/>
-      <c r="IA1" s="145"/>
-      <c r="IB1" s="145"/>
-      <c r="IC1" s="145"/>
-      <c r="ID1" s="145"/>
-      <c r="IE1" s="145"/>
-      <c r="IF1" s="145"/>
-      <c r="IG1" s="145"/>
-      <c r="IH1" s="145"/>
-      <c r="II1" s="145"/>
-      <c r="IJ1" s="145"/>
-      <c r="IK1" s="145"/>
-      <c r="IL1" s="145"/>
-      <c r="IM1" s="145"/>
-      <c r="IN1" s="145"/>
-      <c r="IO1" s="145"/>
-      <c r="IP1" s="145"/>
-      <c r="IQ1" s="145"/>
-      <c r="IR1" s="145"/>
-      <c r="IS1" s="145"/>
-      <c r="IT1" s="145"/>
-      <c r="IU1" s="145"/>
-    </row>
-    <row r="2" spans="1:255" ht="15.75" thickBot="1">
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
+      <c r="U1" s="138"/>
+      <c r="V1" s="138"/>
+      <c r="W1" s="138"/>
+      <c r="X1" s="138"/>
+      <c r="Y1" s="138"/>
+      <c r="Z1" s="138"/>
+      <c r="AA1" s="138"/>
+      <c r="AB1" s="138"/>
+      <c r="AC1" s="138"/>
+      <c r="AD1" s="138"/>
+      <c r="AE1" s="138"/>
+      <c r="AF1" s="138"/>
+      <c r="AG1" s="138"/>
+      <c r="AH1" s="138"/>
+      <c r="AI1" s="138"/>
+      <c r="AJ1" s="138"/>
+      <c r="AK1" s="138"/>
+      <c r="AL1" s="138"/>
+      <c r="AM1" s="138"/>
+      <c r="AN1" s="138"/>
+      <c r="AO1" s="138"/>
+      <c r="AP1" s="138"/>
+      <c r="AQ1" s="138"/>
+      <c r="AR1" s="138"/>
+      <c r="AS1" s="138"/>
+      <c r="AT1" s="138"/>
+      <c r="AU1" s="138"/>
+      <c r="AV1" s="138"/>
+      <c r="AW1" s="138"/>
+      <c r="AX1" s="138"/>
+      <c r="AY1" s="138"/>
+      <c r="AZ1" s="138"/>
+      <c r="BA1" s="138"/>
+      <c r="BB1" s="138"/>
+      <c r="BC1" s="138"/>
+      <c r="BD1" s="138"/>
+      <c r="BE1" s="138"/>
+      <c r="BF1" s="138"/>
+      <c r="BG1" s="138"/>
+      <c r="BH1" s="138"/>
+      <c r="BI1" s="138"/>
+      <c r="BJ1" s="138"/>
+      <c r="BK1" s="138"/>
+      <c r="BL1" s="138"/>
+      <c r="BM1" s="138"/>
+      <c r="BN1" s="138"/>
+      <c r="BO1" s="138"/>
+      <c r="BP1" s="138"/>
+      <c r="BQ1" s="138"/>
+      <c r="BR1" s="138"/>
+      <c r="BS1" s="138"/>
+      <c r="BT1" s="138"/>
+      <c r="BU1" s="138"/>
+      <c r="BV1" s="138"/>
+      <c r="BW1" s="138"/>
+      <c r="BX1" s="138"/>
+      <c r="BY1" s="138"/>
+      <c r="BZ1" s="138"/>
+      <c r="CA1" s="138"/>
+      <c r="CB1" s="138"/>
+      <c r="CC1" s="138"/>
+      <c r="CD1" s="138"/>
+      <c r="CE1" s="138"/>
+      <c r="CF1" s="138"/>
+      <c r="CG1" s="138"/>
+      <c r="CH1" s="138"/>
+      <c r="CI1" s="138"/>
+      <c r="CJ1" s="138"/>
+      <c r="CK1" s="138"/>
+      <c r="CL1" s="138"/>
+      <c r="CM1" s="138"/>
+      <c r="CN1" s="138"/>
+      <c r="CO1" s="138"/>
+      <c r="CP1" s="138"/>
+      <c r="CQ1" s="138"/>
+      <c r="CR1" s="138"/>
+      <c r="CS1" s="138"/>
+      <c r="CT1" s="138"/>
+      <c r="CU1" s="138"/>
+      <c r="CV1" s="138"/>
+      <c r="CW1" s="138"/>
+      <c r="CX1" s="138"/>
+      <c r="CY1" s="138"/>
+      <c r="CZ1" s="138"/>
+      <c r="DA1" s="138"/>
+      <c r="DB1" s="138"/>
+      <c r="DC1" s="138"/>
+      <c r="DD1" s="138"/>
+      <c r="DE1" s="138"/>
+      <c r="DF1" s="138"/>
+      <c r="DG1" s="138"/>
+      <c r="DH1" s="138"/>
+      <c r="DI1" s="138"/>
+      <c r="DJ1" s="138"/>
+      <c r="DK1" s="138"/>
+      <c r="DL1" s="138"/>
+      <c r="DM1" s="138"/>
+      <c r="DN1" s="138"/>
+      <c r="DO1" s="138"/>
+      <c r="DP1" s="138"/>
+      <c r="DQ1" s="138"/>
+      <c r="DR1" s="138"/>
+      <c r="DS1" s="138"/>
+      <c r="DT1" s="138"/>
+      <c r="DU1" s="138"/>
+      <c r="DV1" s="138"/>
+      <c r="DW1" s="138"/>
+      <c r="DX1" s="138"/>
+      <c r="DY1" s="138"/>
+      <c r="DZ1" s="138"/>
+      <c r="EA1" s="138"/>
+      <c r="EB1" s="138"/>
+      <c r="EC1" s="138"/>
+      <c r="ED1" s="138"/>
+      <c r="EE1" s="138"/>
+      <c r="EF1" s="138"/>
+      <c r="EG1" s="138"/>
+      <c r="EH1" s="138"/>
+      <c r="EI1" s="138"/>
+      <c r="EJ1" s="138"/>
+      <c r="EK1" s="138"/>
+      <c r="EL1" s="138"/>
+      <c r="EM1" s="138"/>
+      <c r="EN1" s="138"/>
+      <c r="EO1" s="138"/>
+      <c r="EP1" s="138"/>
+      <c r="EQ1" s="138"/>
+      <c r="ER1" s="138"/>
+      <c r="ES1" s="138"/>
+      <c r="ET1" s="138"/>
+      <c r="EU1" s="138"/>
+      <c r="EV1" s="138"/>
+      <c r="EW1" s="138"/>
+      <c r="EX1" s="138"/>
+      <c r="EY1" s="138"/>
+      <c r="EZ1" s="138"/>
+      <c r="FA1" s="138"/>
+      <c r="FB1" s="138"/>
+      <c r="FC1" s="138"/>
+      <c r="FD1" s="138"/>
+      <c r="FE1" s="138"/>
+      <c r="FF1" s="138"/>
+      <c r="FG1" s="138"/>
+      <c r="FH1" s="138"/>
+      <c r="FI1" s="138"/>
+      <c r="FJ1" s="138"/>
+      <c r="FK1" s="138"/>
+      <c r="FL1" s="138"/>
+      <c r="FM1" s="138"/>
+      <c r="FN1" s="138"/>
+      <c r="FO1" s="138"/>
+      <c r="FP1" s="138"/>
+      <c r="FQ1" s="138"/>
+      <c r="FR1" s="138"/>
+      <c r="FS1" s="138"/>
+      <c r="FT1" s="138"/>
+      <c r="FU1" s="138"/>
+      <c r="FV1" s="138"/>
+      <c r="FW1" s="138"/>
+      <c r="FX1" s="138"/>
+      <c r="FY1" s="138"/>
+      <c r="FZ1" s="138"/>
+      <c r="GA1" s="138"/>
+      <c r="GB1" s="138"/>
+      <c r="GC1" s="138"/>
+      <c r="GD1" s="138"/>
+      <c r="GE1" s="138"/>
+      <c r="GF1" s="138"/>
+      <c r="GG1" s="138"/>
+      <c r="GH1" s="138"/>
+      <c r="GI1" s="138"/>
+      <c r="GJ1" s="138"/>
+      <c r="GK1" s="138"/>
+      <c r="GL1" s="138"/>
+      <c r="GM1" s="138"/>
+      <c r="GN1" s="138"/>
+      <c r="GO1" s="138"/>
+      <c r="GP1" s="138"/>
+      <c r="GQ1" s="138"/>
+      <c r="GR1" s="138"/>
+      <c r="GS1" s="138"/>
+      <c r="GT1" s="138"/>
+      <c r="GU1" s="138"/>
+      <c r="GV1" s="138"/>
+      <c r="GW1" s="138"/>
+      <c r="GX1" s="138"/>
+      <c r="GY1" s="138"/>
+      <c r="GZ1" s="138"/>
+      <c r="HA1" s="138"/>
+      <c r="HB1" s="138"/>
+      <c r="HC1" s="138"/>
+      <c r="HD1" s="138"/>
+      <c r="HE1" s="138"/>
+      <c r="HF1" s="138"/>
+      <c r="HG1" s="138"/>
+      <c r="HH1" s="138"/>
+      <c r="HI1" s="138"/>
+      <c r="HJ1" s="138"/>
+      <c r="HK1" s="138"/>
+      <c r="HL1" s="138"/>
+      <c r="HM1" s="138"/>
+      <c r="HN1" s="138"/>
+      <c r="HO1" s="138"/>
+      <c r="HP1" s="138"/>
+      <c r="HQ1" s="138"/>
+      <c r="HR1" s="138"/>
+      <c r="HS1" s="138"/>
+      <c r="HT1" s="138"/>
+      <c r="HU1" s="138"/>
+      <c r="HV1" s="138"/>
+      <c r="HW1" s="138"/>
+      <c r="HX1" s="138"/>
+      <c r="HY1" s="138"/>
+      <c r="HZ1" s="138"/>
+      <c r="IA1" s="138"/>
+      <c r="IB1" s="138"/>
+      <c r="IC1" s="138"/>
+      <c r="ID1" s="138"/>
+      <c r="IE1" s="138"/>
+      <c r="IF1" s="138"/>
+      <c r="IG1" s="138"/>
+      <c r="IH1" s="138"/>
+      <c r="II1" s="138"/>
+      <c r="IJ1" s="138"/>
+      <c r="IK1" s="138"/>
+      <c r="IL1" s="138"/>
+      <c r="IM1" s="138"/>
+      <c r="IN1" s="138"/>
+      <c r="IO1" s="138"/>
+      <c r="IP1" s="138"/>
+      <c r="IQ1" s="138"/>
+      <c r="IR1" s="138"/>
+      <c r="IS1" s="138"/>
+      <c r="IT1" s="138"/>
+      <c r="IU1" s="138"/>
+    </row>
+    <row r="2" spans="1:255" ht="15" thickBot="1">
       <c r="A2" s="153" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -45212,7 +45232,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:255" ht="15.75" thickBot="1">
+    <row r="4" spans="1:255" ht="15" thickBot="1">
       <c r="A4" s="155"/>
       <c r="B4" s="157"/>
       <c r="C4" s="159"/>
@@ -46988,7 +47008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="77" customFormat="1" ht="15.75" thickBot="1">
+    <row r="46" spans="1:11" s="77" customFormat="1" ht="15" thickBot="1">
       <c r="A46" s="79">
         <f>'Сводная таблица'!A46:A47</f>
         <v>42</v>
@@ -47113,275 +47133,275 @@
       <selection activeCell="K5" sqref="K5:K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="138" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="145"/>
-      <c r="N1" s="145"/>
-      <c r="O1" s="145"/>
-      <c r="P1" s="145"/>
-      <c r="Q1" s="145"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="145"/>
-      <c r="T1" s="145"/>
-      <c r="U1" s="145"/>
-      <c r="V1" s="145"/>
-      <c r="W1" s="145"/>
-      <c r="X1" s="145"/>
-      <c r="Y1" s="145"/>
-      <c r="Z1" s="145"/>
-      <c r="AA1" s="145"/>
-      <c r="AB1" s="145"/>
-      <c r="AC1" s="145"/>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="145"/>
-      <c r="AF1" s="145"/>
-      <c r="AG1" s="145"/>
-      <c r="AH1" s="145"/>
-      <c r="AI1" s="145"/>
-      <c r="AJ1" s="145"/>
-      <c r="AK1" s="145"/>
-      <c r="AL1" s="145"/>
-      <c r="AM1" s="145"/>
-      <c r="AN1" s="145"/>
-      <c r="AO1" s="145"/>
-      <c r="AP1" s="145"/>
-      <c r="AQ1" s="145"/>
-      <c r="AR1" s="145"/>
-      <c r="AS1" s="145"/>
-      <c r="AT1" s="145"/>
-      <c r="AU1" s="145"/>
-      <c r="AV1" s="145"/>
-      <c r="AW1" s="145"/>
-      <c r="AX1" s="145"/>
-      <c r="AY1" s="145"/>
-      <c r="AZ1" s="145"/>
-      <c r="BA1" s="145"/>
-      <c r="BB1" s="145"/>
-      <c r="BC1" s="145"/>
-      <c r="BD1" s="145"/>
-      <c r="BE1" s="145"/>
-      <c r="BF1" s="145"/>
-      <c r="BG1" s="145"/>
-      <c r="BH1" s="145"/>
-      <c r="BI1" s="145"/>
-      <c r="BJ1" s="145"/>
-      <c r="BK1" s="145"/>
-      <c r="BL1" s="145"/>
-      <c r="BM1" s="145"/>
-      <c r="BN1" s="145"/>
-      <c r="BO1" s="145"/>
-      <c r="BP1" s="145"/>
-      <c r="BQ1" s="145"/>
-      <c r="BR1" s="145"/>
-      <c r="BS1" s="145"/>
-      <c r="BT1" s="145"/>
-      <c r="BU1" s="145"/>
-      <c r="BV1" s="145"/>
-      <c r="BW1" s="145"/>
-      <c r="BX1" s="145"/>
-      <c r="BY1" s="145"/>
-      <c r="BZ1" s="145"/>
-      <c r="CA1" s="145"/>
-      <c r="CB1" s="145"/>
-      <c r="CC1" s="145"/>
-      <c r="CD1" s="145"/>
-      <c r="CE1" s="145"/>
-      <c r="CF1" s="145"/>
-      <c r="CG1" s="145"/>
-      <c r="CH1" s="145"/>
-      <c r="CI1" s="145"/>
-      <c r="CJ1" s="145"/>
-      <c r="CK1" s="145"/>
-      <c r="CL1" s="145"/>
-      <c r="CM1" s="145"/>
-      <c r="CN1" s="145"/>
-      <c r="CO1" s="145"/>
-      <c r="CP1" s="145"/>
-      <c r="CQ1" s="145"/>
-      <c r="CR1" s="145"/>
-      <c r="CS1" s="145"/>
-      <c r="CT1" s="145"/>
-      <c r="CU1" s="145"/>
-      <c r="CV1" s="145"/>
-      <c r="CW1" s="145"/>
-      <c r="CX1" s="145"/>
-      <c r="CY1" s="145"/>
-      <c r="CZ1" s="145"/>
-      <c r="DA1" s="145"/>
-      <c r="DB1" s="145"/>
-      <c r="DC1" s="145"/>
-      <c r="DD1" s="145"/>
-      <c r="DE1" s="145"/>
-      <c r="DF1" s="145"/>
-      <c r="DG1" s="145"/>
-      <c r="DH1" s="145"/>
-      <c r="DI1" s="145"/>
-      <c r="DJ1" s="145"/>
-      <c r="DK1" s="145"/>
-      <c r="DL1" s="145"/>
-      <c r="DM1" s="145"/>
-      <c r="DN1" s="145"/>
-      <c r="DO1" s="145"/>
-      <c r="DP1" s="145"/>
-      <c r="DQ1" s="145"/>
-      <c r="DR1" s="145"/>
-      <c r="DS1" s="145"/>
-      <c r="DT1" s="145"/>
-      <c r="DU1" s="145"/>
-      <c r="DV1" s="145"/>
-      <c r="DW1" s="145"/>
-      <c r="DX1" s="145"/>
-      <c r="DY1" s="145"/>
-      <c r="DZ1" s="145"/>
-      <c r="EA1" s="145"/>
-      <c r="EB1" s="145"/>
-      <c r="EC1" s="145"/>
-      <c r="ED1" s="145"/>
-      <c r="EE1" s="145"/>
-      <c r="EF1" s="145"/>
-      <c r="EG1" s="145"/>
-      <c r="EH1" s="145"/>
-      <c r="EI1" s="145"/>
-      <c r="EJ1" s="145"/>
-      <c r="EK1" s="145"/>
-      <c r="EL1" s="145"/>
-      <c r="EM1" s="145"/>
-      <c r="EN1" s="145"/>
-      <c r="EO1" s="145"/>
-      <c r="EP1" s="145"/>
-      <c r="EQ1" s="145"/>
-      <c r="ER1" s="145"/>
-      <c r="ES1" s="145"/>
-      <c r="ET1" s="145"/>
-      <c r="EU1" s="145"/>
-      <c r="EV1" s="145"/>
-      <c r="EW1" s="145"/>
-      <c r="EX1" s="145"/>
-      <c r="EY1" s="145"/>
-      <c r="EZ1" s="145"/>
-      <c r="FA1" s="145"/>
-      <c r="FB1" s="145"/>
-      <c r="FC1" s="145"/>
-      <c r="FD1" s="145"/>
-      <c r="FE1" s="145"/>
-      <c r="FF1" s="145"/>
-      <c r="FG1" s="145"/>
-      <c r="FH1" s="145"/>
-      <c r="FI1" s="145"/>
-      <c r="FJ1" s="145"/>
-      <c r="FK1" s="145"/>
-      <c r="FL1" s="145"/>
-      <c r="FM1" s="145"/>
-      <c r="FN1" s="145"/>
-      <c r="FO1" s="145"/>
-      <c r="FP1" s="145"/>
-      <c r="FQ1" s="145"/>
-      <c r="FR1" s="145"/>
-      <c r="FS1" s="145"/>
-      <c r="FT1" s="145"/>
-      <c r="FU1" s="145"/>
-      <c r="FV1" s="145"/>
-      <c r="FW1" s="145"/>
-      <c r="FX1" s="145"/>
-      <c r="FY1" s="145"/>
-      <c r="FZ1" s="145"/>
-      <c r="GA1" s="145"/>
-      <c r="GB1" s="145"/>
-      <c r="GC1" s="145"/>
-      <c r="GD1" s="145"/>
-      <c r="GE1" s="145"/>
-      <c r="GF1" s="145"/>
-      <c r="GG1" s="145"/>
-      <c r="GH1" s="145"/>
-      <c r="GI1" s="145"/>
-      <c r="GJ1" s="145"/>
-      <c r="GK1" s="145"/>
-      <c r="GL1" s="145"/>
-      <c r="GM1" s="145"/>
-      <c r="GN1" s="145"/>
-      <c r="GO1" s="145"/>
-      <c r="GP1" s="145"/>
-      <c r="GQ1" s="145"/>
-      <c r="GR1" s="145"/>
-      <c r="GS1" s="145"/>
-      <c r="GT1" s="145"/>
-      <c r="GU1" s="145"/>
-      <c r="GV1" s="145"/>
-      <c r="GW1" s="145"/>
-      <c r="GX1" s="145"/>
-      <c r="GY1" s="145"/>
-      <c r="GZ1" s="145"/>
-      <c r="HA1" s="145"/>
-      <c r="HB1" s="145"/>
-      <c r="HC1" s="145"/>
-      <c r="HD1" s="145"/>
-      <c r="HE1" s="145"/>
-      <c r="HF1" s="145"/>
-      <c r="HG1" s="145"/>
-      <c r="HH1" s="145"/>
-      <c r="HI1" s="145"/>
-      <c r="HJ1" s="145"/>
-      <c r="HK1" s="145"/>
-      <c r="HL1" s="145"/>
-      <c r="HM1" s="145"/>
-      <c r="HN1" s="145"/>
-      <c r="HO1" s="145"/>
-      <c r="HP1" s="145"/>
-      <c r="HQ1" s="145"/>
-      <c r="HR1" s="145"/>
-      <c r="HS1" s="145"/>
-      <c r="HT1" s="145"/>
-      <c r="HU1" s="145"/>
-      <c r="HV1" s="145"/>
-      <c r="HW1" s="145"/>
-      <c r="HX1" s="145"/>
-      <c r="HY1" s="145"/>
-      <c r="HZ1" s="145"/>
-      <c r="IA1" s="145"/>
-      <c r="IB1" s="145"/>
-      <c r="IC1" s="145"/>
-      <c r="ID1" s="145"/>
-      <c r="IE1" s="145"/>
-      <c r="IF1" s="145"/>
-      <c r="IG1" s="145"/>
-      <c r="IH1" s="145"/>
-      <c r="II1" s="145"/>
-      <c r="IJ1" s="145"/>
-      <c r="IK1" s="145"/>
-      <c r="IL1" s="145"/>
-      <c r="IM1" s="145"/>
-      <c r="IN1" s="145"/>
-      <c r="IO1" s="145"/>
-      <c r="IP1" s="145"/>
-      <c r="IQ1" s="145"/>
-      <c r="IR1" s="145"/>
-      <c r="IS1" s="145"/>
-      <c r="IT1" s="145"/>
-      <c r="IU1" s="145"/>
-      <c r="IV1" s="145"/>
-    </row>
-    <row r="2" spans="1:256" ht="15.75" thickBot="1">
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
+      <c r="U1" s="138"/>
+      <c r="V1" s="138"/>
+      <c r="W1" s="138"/>
+      <c r="X1" s="138"/>
+      <c r="Y1" s="138"/>
+      <c r="Z1" s="138"/>
+      <c r="AA1" s="138"/>
+      <c r="AB1" s="138"/>
+      <c r="AC1" s="138"/>
+      <c r="AD1" s="138"/>
+      <c r="AE1" s="138"/>
+      <c r="AF1" s="138"/>
+      <c r="AG1" s="138"/>
+      <c r="AH1" s="138"/>
+      <c r="AI1" s="138"/>
+      <c r="AJ1" s="138"/>
+      <c r="AK1" s="138"/>
+      <c r="AL1" s="138"/>
+      <c r="AM1" s="138"/>
+      <c r="AN1" s="138"/>
+      <c r="AO1" s="138"/>
+      <c r="AP1" s="138"/>
+      <c r="AQ1" s="138"/>
+      <c r="AR1" s="138"/>
+      <c r="AS1" s="138"/>
+      <c r="AT1" s="138"/>
+      <c r="AU1" s="138"/>
+      <c r="AV1" s="138"/>
+      <c r="AW1" s="138"/>
+      <c r="AX1" s="138"/>
+      <c r="AY1" s="138"/>
+      <c r="AZ1" s="138"/>
+      <c r="BA1" s="138"/>
+      <c r="BB1" s="138"/>
+      <c r="BC1" s="138"/>
+      <c r="BD1" s="138"/>
+      <c r="BE1" s="138"/>
+      <c r="BF1" s="138"/>
+      <c r="BG1" s="138"/>
+      <c r="BH1" s="138"/>
+      <c r="BI1" s="138"/>
+      <c r="BJ1" s="138"/>
+      <c r="BK1" s="138"/>
+      <c r="BL1" s="138"/>
+      <c r="BM1" s="138"/>
+      <c r="BN1" s="138"/>
+      <c r="BO1" s="138"/>
+      <c r="BP1" s="138"/>
+      <c r="BQ1" s="138"/>
+      <c r="BR1" s="138"/>
+      <c r="BS1" s="138"/>
+      <c r="BT1" s="138"/>
+      <c r="BU1" s="138"/>
+      <c r="BV1" s="138"/>
+      <c r="BW1" s="138"/>
+      <c r="BX1" s="138"/>
+      <c r="BY1" s="138"/>
+      <c r="BZ1" s="138"/>
+      <c r="CA1" s="138"/>
+      <c r="CB1" s="138"/>
+      <c r="CC1" s="138"/>
+      <c r="CD1" s="138"/>
+      <c r="CE1" s="138"/>
+      <c r="CF1" s="138"/>
+      <c r="CG1" s="138"/>
+      <c r="CH1" s="138"/>
+      <c r="CI1" s="138"/>
+      <c r="CJ1" s="138"/>
+      <c r="CK1" s="138"/>
+      <c r="CL1" s="138"/>
+      <c r="CM1" s="138"/>
+      <c r="CN1" s="138"/>
+      <c r="CO1" s="138"/>
+      <c r="CP1" s="138"/>
+      <c r="CQ1" s="138"/>
+      <c r="CR1" s="138"/>
+      <c r="CS1" s="138"/>
+      <c r="CT1" s="138"/>
+      <c r="CU1" s="138"/>
+      <c r="CV1" s="138"/>
+      <c r="CW1" s="138"/>
+      <c r="CX1" s="138"/>
+      <c r="CY1" s="138"/>
+      <c r="CZ1" s="138"/>
+      <c r="DA1" s="138"/>
+      <c r="DB1" s="138"/>
+      <c r="DC1" s="138"/>
+      <c r="DD1" s="138"/>
+      <c r="DE1" s="138"/>
+      <c r="DF1" s="138"/>
+      <c r="DG1" s="138"/>
+      <c r="DH1" s="138"/>
+      <c r="DI1" s="138"/>
+      <c r="DJ1" s="138"/>
+      <c r="DK1" s="138"/>
+      <c r="DL1" s="138"/>
+      <c r="DM1" s="138"/>
+      <c r="DN1" s="138"/>
+      <c r="DO1" s="138"/>
+      <c r="DP1" s="138"/>
+      <c r="DQ1" s="138"/>
+      <c r="DR1" s="138"/>
+      <c r="DS1" s="138"/>
+      <c r="DT1" s="138"/>
+      <c r="DU1" s="138"/>
+      <c r="DV1" s="138"/>
+      <c r="DW1" s="138"/>
+      <c r="DX1" s="138"/>
+      <c r="DY1" s="138"/>
+      <c r="DZ1" s="138"/>
+      <c r="EA1" s="138"/>
+      <c r="EB1" s="138"/>
+      <c r="EC1" s="138"/>
+      <c r="ED1" s="138"/>
+      <c r="EE1" s="138"/>
+      <c r="EF1" s="138"/>
+      <c r="EG1" s="138"/>
+      <c r="EH1" s="138"/>
+      <c r="EI1" s="138"/>
+      <c r="EJ1" s="138"/>
+      <c r="EK1" s="138"/>
+      <c r="EL1" s="138"/>
+      <c r="EM1" s="138"/>
+      <c r="EN1" s="138"/>
+      <c r="EO1" s="138"/>
+      <c r="EP1" s="138"/>
+      <c r="EQ1" s="138"/>
+      <c r="ER1" s="138"/>
+      <c r="ES1" s="138"/>
+      <c r="ET1" s="138"/>
+      <c r="EU1" s="138"/>
+      <c r="EV1" s="138"/>
+      <c r="EW1" s="138"/>
+      <c r="EX1" s="138"/>
+      <c r="EY1" s="138"/>
+      <c r="EZ1" s="138"/>
+      <c r="FA1" s="138"/>
+      <c r="FB1" s="138"/>
+      <c r="FC1" s="138"/>
+      <c r="FD1" s="138"/>
+      <c r="FE1" s="138"/>
+      <c r="FF1" s="138"/>
+      <c r="FG1" s="138"/>
+      <c r="FH1" s="138"/>
+      <c r="FI1" s="138"/>
+      <c r="FJ1" s="138"/>
+      <c r="FK1" s="138"/>
+      <c r="FL1" s="138"/>
+      <c r="FM1" s="138"/>
+      <c r="FN1" s="138"/>
+      <c r="FO1" s="138"/>
+      <c r="FP1" s="138"/>
+      <c r="FQ1" s="138"/>
+      <c r="FR1" s="138"/>
+      <c r="FS1" s="138"/>
+      <c r="FT1" s="138"/>
+      <c r="FU1" s="138"/>
+      <c r="FV1" s="138"/>
+      <c r="FW1" s="138"/>
+      <c r="FX1" s="138"/>
+      <c r="FY1" s="138"/>
+      <c r="FZ1" s="138"/>
+      <c r="GA1" s="138"/>
+      <c r="GB1" s="138"/>
+      <c r="GC1" s="138"/>
+      <c r="GD1" s="138"/>
+      <c r="GE1" s="138"/>
+      <c r="GF1" s="138"/>
+      <c r="GG1" s="138"/>
+      <c r="GH1" s="138"/>
+      <c r="GI1" s="138"/>
+      <c r="GJ1" s="138"/>
+      <c r="GK1" s="138"/>
+      <c r="GL1" s="138"/>
+      <c r="GM1" s="138"/>
+      <c r="GN1" s="138"/>
+      <c r="GO1" s="138"/>
+      <c r="GP1" s="138"/>
+      <c r="GQ1" s="138"/>
+      <c r="GR1" s="138"/>
+      <c r="GS1" s="138"/>
+      <c r="GT1" s="138"/>
+      <c r="GU1" s="138"/>
+      <c r="GV1" s="138"/>
+      <c r="GW1" s="138"/>
+      <c r="GX1" s="138"/>
+      <c r="GY1" s="138"/>
+      <c r="GZ1" s="138"/>
+      <c r="HA1" s="138"/>
+      <c r="HB1" s="138"/>
+      <c r="HC1" s="138"/>
+      <c r="HD1" s="138"/>
+      <c r="HE1" s="138"/>
+      <c r="HF1" s="138"/>
+      <c r="HG1" s="138"/>
+      <c r="HH1" s="138"/>
+      <c r="HI1" s="138"/>
+      <c r="HJ1" s="138"/>
+      <c r="HK1" s="138"/>
+      <c r="HL1" s="138"/>
+      <c r="HM1" s="138"/>
+      <c r="HN1" s="138"/>
+      <c r="HO1" s="138"/>
+      <c r="HP1" s="138"/>
+      <c r="HQ1" s="138"/>
+      <c r="HR1" s="138"/>
+      <c r="HS1" s="138"/>
+      <c r="HT1" s="138"/>
+      <c r="HU1" s="138"/>
+      <c r="HV1" s="138"/>
+      <c r="HW1" s="138"/>
+      <c r="HX1" s="138"/>
+      <c r="HY1" s="138"/>
+      <c r="HZ1" s="138"/>
+      <c r="IA1" s="138"/>
+      <c r="IB1" s="138"/>
+      <c r="IC1" s="138"/>
+      <c r="ID1" s="138"/>
+      <c r="IE1" s="138"/>
+      <c r="IF1" s="138"/>
+      <c r="IG1" s="138"/>
+      <c r="IH1" s="138"/>
+      <c r="II1" s="138"/>
+      <c r="IJ1" s="138"/>
+      <c r="IK1" s="138"/>
+      <c r="IL1" s="138"/>
+      <c r="IM1" s="138"/>
+      <c r="IN1" s="138"/>
+      <c r="IO1" s="138"/>
+      <c r="IP1" s="138"/>
+      <c r="IQ1" s="138"/>
+      <c r="IR1" s="138"/>
+      <c r="IS1" s="138"/>
+      <c r="IT1" s="138"/>
+      <c r="IU1" s="138"/>
+      <c r="IV1" s="138"/>
+    </row>
+    <row r="2" spans="1:256" ht="15" thickBot="1">
       <c r="A2" s="153" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -47438,7 +47458,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15.75" thickBot="1">
+    <row r="4" spans="1:256" ht="15" thickBot="1">
       <c r="A4" s="155"/>
       <c r="B4" s="157"/>
       <c r="C4" s="159"/>
@@ -49214,7 +49234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="77" customFormat="1" ht="15.75" thickBot="1">
+    <row r="46" spans="1:11" s="77" customFormat="1" ht="15" thickBot="1">
       <c r="A46" s="79">
         <f>'Сводная таблица'!A46:A47</f>
         <v>42</v>
@@ -49285,275 +49305,275 @@
       <selection activeCell="K5" sqref="K5:K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="138" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="145"/>
-      <c r="N1" s="145"/>
-      <c r="O1" s="145"/>
-      <c r="P1" s="145"/>
-      <c r="Q1" s="145"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="145"/>
-      <c r="T1" s="145"/>
-      <c r="U1" s="145"/>
-      <c r="V1" s="145"/>
-      <c r="W1" s="145"/>
-      <c r="X1" s="145"/>
-      <c r="Y1" s="145"/>
-      <c r="Z1" s="145"/>
-      <c r="AA1" s="145"/>
-      <c r="AB1" s="145"/>
-      <c r="AC1" s="145"/>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="145"/>
-      <c r="AF1" s="145"/>
-      <c r="AG1" s="145"/>
-      <c r="AH1" s="145"/>
-      <c r="AI1" s="145"/>
-      <c r="AJ1" s="145"/>
-      <c r="AK1" s="145"/>
-      <c r="AL1" s="145"/>
-      <c r="AM1" s="145"/>
-      <c r="AN1" s="145"/>
-      <c r="AO1" s="145"/>
-      <c r="AP1" s="145"/>
-      <c r="AQ1" s="145"/>
-      <c r="AR1" s="145"/>
-      <c r="AS1" s="145"/>
-      <c r="AT1" s="145"/>
-      <c r="AU1" s="145"/>
-      <c r="AV1" s="145"/>
-      <c r="AW1" s="145"/>
-      <c r="AX1" s="145"/>
-      <c r="AY1" s="145"/>
-      <c r="AZ1" s="145"/>
-      <c r="BA1" s="145"/>
-      <c r="BB1" s="145"/>
-      <c r="BC1" s="145"/>
-      <c r="BD1" s="145"/>
-      <c r="BE1" s="145"/>
-      <c r="BF1" s="145"/>
-      <c r="BG1" s="145"/>
-      <c r="BH1" s="145"/>
-      <c r="BI1" s="145"/>
-      <c r="BJ1" s="145"/>
-      <c r="BK1" s="145"/>
-      <c r="BL1" s="145"/>
-      <c r="BM1" s="145"/>
-      <c r="BN1" s="145"/>
-      <c r="BO1" s="145"/>
-      <c r="BP1" s="145"/>
-      <c r="BQ1" s="145"/>
-      <c r="BR1" s="145"/>
-      <c r="BS1" s="145"/>
-      <c r="BT1" s="145"/>
-      <c r="BU1" s="145"/>
-      <c r="BV1" s="145"/>
-      <c r="BW1" s="145"/>
-      <c r="BX1" s="145"/>
-      <c r="BY1" s="145"/>
-      <c r="BZ1" s="145"/>
-      <c r="CA1" s="145"/>
-      <c r="CB1" s="145"/>
-      <c r="CC1" s="145"/>
-      <c r="CD1" s="145"/>
-      <c r="CE1" s="145"/>
-      <c r="CF1" s="145"/>
-      <c r="CG1" s="145"/>
-      <c r="CH1" s="145"/>
-      <c r="CI1" s="145"/>
-      <c r="CJ1" s="145"/>
-      <c r="CK1" s="145"/>
-      <c r="CL1" s="145"/>
-      <c r="CM1" s="145"/>
-      <c r="CN1" s="145"/>
-      <c r="CO1" s="145"/>
-      <c r="CP1" s="145"/>
-      <c r="CQ1" s="145"/>
-      <c r="CR1" s="145"/>
-      <c r="CS1" s="145"/>
-      <c r="CT1" s="145"/>
-      <c r="CU1" s="145"/>
-      <c r="CV1" s="145"/>
-      <c r="CW1" s="145"/>
-      <c r="CX1" s="145"/>
-      <c r="CY1" s="145"/>
-      <c r="CZ1" s="145"/>
-      <c r="DA1" s="145"/>
-      <c r="DB1" s="145"/>
-      <c r="DC1" s="145"/>
-      <c r="DD1" s="145"/>
-      <c r="DE1" s="145"/>
-      <c r="DF1" s="145"/>
-      <c r="DG1" s="145"/>
-      <c r="DH1" s="145"/>
-      <c r="DI1" s="145"/>
-      <c r="DJ1" s="145"/>
-      <c r="DK1" s="145"/>
-      <c r="DL1" s="145"/>
-      <c r="DM1" s="145"/>
-      <c r="DN1" s="145"/>
-      <c r="DO1" s="145"/>
-      <c r="DP1" s="145"/>
-      <c r="DQ1" s="145"/>
-      <c r="DR1" s="145"/>
-      <c r="DS1" s="145"/>
-      <c r="DT1" s="145"/>
-      <c r="DU1" s="145"/>
-      <c r="DV1" s="145"/>
-      <c r="DW1" s="145"/>
-      <c r="DX1" s="145"/>
-      <c r="DY1" s="145"/>
-      <c r="DZ1" s="145"/>
-      <c r="EA1" s="145"/>
-      <c r="EB1" s="145"/>
-      <c r="EC1" s="145"/>
-      <c r="ED1" s="145"/>
-      <c r="EE1" s="145"/>
-      <c r="EF1" s="145"/>
-      <c r="EG1" s="145"/>
-      <c r="EH1" s="145"/>
-      <c r="EI1" s="145"/>
-      <c r="EJ1" s="145"/>
-      <c r="EK1" s="145"/>
-      <c r="EL1" s="145"/>
-      <c r="EM1" s="145"/>
-      <c r="EN1" s="145"/>
-      <c r="EO1" s="145"/>
-      <c r="EP1" s="145"/>
-      <c r="EQ1" s="145"/>
-      <c r="ER1" s="145"/>
-      <c r="ES1" s="145"/>
-      <c r="ET1" s="145"/>
-      <c r="EU1" s="145"/>
-      <c r="EV1" s="145"/>
-      <c r="EW1" s="145"/>
-      <c r="EX1" s="145"/>
-      <c r="EY1" s="145"/>
-      <c r="EZ1" s="145"/>
-      <c r="FA1" s="145"/>
-      <c r="FB1" s="145"/>
-      <c r="FC1" s="145"/>
-      <c r="FD1" s="145"/>
-      <c r="FE1" s="145"/>
-      <c r="FF1" s="145"/>
-      <c r="FG1" s="145"/>
-      <c r="FH1" s="145"/>
-      <c r="FI1" s="145"/>
-      <c r="FJ1" s="145"/>
-      <c r="FK1" s="145"/>
-      <c r="FL1" s="145"/>
-      <c r="FM1" s="145"/>
-      <c r="FN1" s="145"/>
-      <c r="FO1" s="145"/>
-      <c r="FP1" s="145"/>
-      <c r="FQ1" s="145"/>
-      <c r="FR1" s="145"/>
-      <c r="FS1" s="145"/>
-      <c r="FT1" s="145"/>
-      <c r="FU1" s="145"/>
-      <c r="FV1" s="145"/>
-      <c r="FW1" s="145"/>
-      <c r="FX1" s="145"/>
-      <c r="FY1" s="145"/>
-      <c r="FZ1" s="145"/>
-      <c r="GA1" s="145"/>
-      <c r="GB1" s="145"/>
-      <c r="GC1" s="145"/>
-      <c r="GD1" s="145"/>
-      <c r="GE1" s="145"/>
-      <c r="GF1" s="145"/>
-      <c r="GG1" s="145"/>
-      <c r="GH1" s="145"/>
-      <c r="GI1" s="145"/>
-      <c r="GJ1" s="145"/>
-      <c r="GK1" s="145"/>
-      <c r="GL1" s="145"/>
-      <c r="GM1" s="145"/>
-      <c r="GN1" s="145"/>
-      <c r="GO1" s="145"/>
-      <c r="GP1" s="145"/>
-      <c r="GQ1" s="145"/>
-      <c r="GR1" s="145"/>
-      <c r="GS1" s="145"/>
-      <c r="GT1" s="145"/>
-      <c r="GU1" s="145"/>
-      <c r="GV1" s="145"/>
-      <c r="GW1" s="145"/>
-      <c r="GX1" s="145"/>
-      <c r="GY1" s="145"/>
-      <c r="GZ1" s="145"/>
-      <c r="HA1" s="145"/>
-      <c r="HB1" s="145"/>
-      <c r="HC1" s="145"/>
-      <c r="HD1" s="145"/>
-      <c r="HE1" s="145"/>
-      <c r="HF1" s="145"/>
-      <c r="HG1" s="145"/>
-      <c r="HH1" s="145"/>
-      <c r="HI1" s="145"/>
-      <c r="HJ1" s="145"/>
-      <c r="HK1" s="145"/>
-      <c r="HL1" s="145"/>
-      <c r="HM1" s="145"/>
-      <c r="HN1" s="145"/>
-      <c r="HO1" s="145"/>
-      <c r="HP1" s="145"/>
-      <c r="HQ1" s="145"/>
-      <c r="HR1" s="145"/>
-      <c r="HS1" s="145"/>
-      <c r="HT1" s="145"/>
-      <c r="HU1" s="145"/>
-      <c r="HV1" s="145"/>
-      <c r="HW1" s="145"/>
-      <c r="HX1" s="145"/>
-      <c r="HY1" s="145"/>
-      <c r="HZ1" s="145"/>
-      <c r="IA1" s="145"/>
-      <c r="IB1" s="145"/>
-      <c r="IC1" s="145"/>
-      <c r="ID1" s="145"/>
-      <c r="IE1" s="145"/>
-      <c r="IF1" s="145"/>
-      <c r="IG1" s="145"/>
-      <c r="IH1" s="145"/>
-      <c r="II1" s="145"/>
-      <c r="IJ1" s="145"/>
-      <c r="IK1" s="145"/>
-      <c r="IL1" s="145"/>
-      <c r="IM1" s="145"/>
-      <c r="IN1" s="145"/>
-      <c r="IO1" s="145"/>
-      <c r="IP1" s="145"/>
-      <c r="IQ1" s="145"/>
-      <c r="IR1" s="145"/>
-      <c r="IS1" s="145"/>
-      <c r="IT1" s="145"/>
-      <c r="IU1" s="145"/>
-      <c r="IV1" s="145"/>
-    </row>
-    <row r="2" spans="1:256" ht="15.75" thickBot="1">
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
+      <c r="U1" s="138"/>
+      <c r="V1" s="138"/>
+      <c r="W1" s="138"/>
+      <c r="X1" s="138"/>
+      <c r="Y1" s="138"/>
+      <c r="Z1" s="138"/>
+      <c r="AA1" s="138"/>
+      <c r="AB1" s="138"/>
+      <c r="AC1" s="138"/>
+      <c r="AD1" s="138"/>
+      <c r="AE1" s="138"/>
+      <c r="AF1" s="138"/>
+      <c r="AG1" s="138"/>
+      <c r="AH1" s="138"/>
+      <c r="AI1" s="138"/>
+      <c r="AJ1" s="138"/>
+      <c r="AK1" s="138"/>
+      <c r="AL1" s="138"/>
+      <c r="AM1" s="138"/>
+      <c r="AN1" s="138"/>
+      <c r="AO1" s="138"/>
+      <c r="AP1" s="138"/>
+      <c r="AQ1" s="138"/>
+      <c r="AR1" s="138"/>
+      <c r="AS1" s="138"/>
+      <c r="AT1" s="138"/>
+      <c r="AU1" s="138"/>
+      <c r="AV1" s="138"/>
+      <c r="AW1" s="138"/>
+      <c r="AX1" s="138"/>
+      <c r="AY1" s="138"/>
+      <c r="AZ1" s="138"/>
+      <c r="BA1" s="138"/>
+      <c r="BB1" s="138"/>
+      <c r="BC1" s="138"/>
+      <c r="BD1" s="138"/>
+      <c r="BE1" s="138"/>
+      <c r="BF1" s="138"/>
+      <c r="BG1" s="138"/>
+      <c r="BH1" s="138"/>
+      <c r="BI1" s="138"/>
+      <c r="BJ1" s="138"/>
+      <c r="BK1" s="138"/>
+      <c r="BL1" s="138"/>
+      <c r="BM1" s="138"/>
+      <c r="BN1" s="138"/>
+      <c r="BO1" s="138"/>
+      <c r="BP1" s="138"/>
+      <c r="BQ1" s="138"/>
+      <c r="BR1" s="138"/>
+      <c r="BS1" s="138"/>
+      <c r="BT1" s="138"/>
+      <c r="BU1" s="138"/>
+      <c r="BV1" s="138"/>
+      <c r="BW1" s="138"/>
+      <c r="BX1" s="138"/>
+      <c r="BY1" s="138"/>
+      <c r="BZ1" s="138"/>
+      <c r="CA1" s="138"/>
+      <c r="CB1" s="138"/>
+      <c r="CC1" s="138"/>
+      <c r="CD1" s="138"/>
+      <c r="CE1" s="138"/>
+      <c r="CF1" s="138"/>
+      <c r="CG1" s="138"/>
+      <c r="CH1" s="138"/>
+      <c r="CI1" s="138"/>
+      <c r="CJ1" s="138"/>
+      <c r="CK1" s="138"/>
+      <c r="CL1" s="138"/>
+      <c r="CM1" s="138"/>
+      <c r="CN1" s="138"/>
+      <c r="CO1" s="138"/>
+      <c r="CP1" s="138"/>
+      <c r="CQ1" s="138"/>
+      <c r="CR1" s="138"/>
+      <c r="CS1" s="138"/>
+      <c r="CT1" s="138"/>
+      <c r="CU1" s="138"/>
+      <c r="CV1" s="138"/>
+      <c r="CW1" s="138"/>
+      <c r="CX1" s="138"/>
+      <c r="CY1" s="138"/>
+      <c r="CZ1" s="138"/>
+      <c r="DA1" s="138"/>
+      <c r="DB1" s="138"/>
+      <c r="DC1" s="138"/>
+      <c r="DD1" s="138"/>
+      <c r="DE1" s="138"/>
+      <c r="DF1" s="138"/>
+      <c r="DG1" s="138"/>
+      <c r="DH1" s="138"/>
+      <c r="DI1" s="138"/>
+      <c r="DJ1" s="138"/>
+      <c r="DK1" s="138"/>
+      <c r="DL1" s="138"/>
+      <c r="DM1" s="138"/>
+      <c r="DN1" s="138"/>
+      <c r="DO1" s="138"/>
+      <c r="DP1" s="138"/>
+      <c r="DQ1" s="138"/>
+      <c r="DR1" s="138"/>
+      <c r="DS1" s="138"/>
+      <c r="DT1" s="138"/>
+      <c r="DU1" s="138"/>
+      <c r="DV1" s="138"/>
+      <c r="DW1" s="138"/>
+      <c r="DX1" s="138"/>
+      <c r="DY1" s="138"/>
+      <c r="DZ1" s="138"/>
+      <c r="EA1" s="138"/>
+      <c r="EB1" s="138"/>
+      <c r="EC1" s="138"/>
+      <c r="ED1" s="138"/>
+      <c r="EE1" s="138"/>
+      <c r="EF1" s="138"/>
+      <c r="EG1" s="138"/>
+      <c r="EH1" s="138"/>
+      <c r="EI1" s="138"/>
+      <c r="EJ1" s="138"/>
+      <c r="EK1" s="138"/>
+      <c r="EL1" s="138"/>
+      <c r="EM1" s="138"/>
+      <c r="EN1" s="138"/>
+      <c r="EO1" s="138"/>
+      <c r="EP1" s="138"/>
+      <c r="EQ1" s="138"/>
+      <c r="ER1" s="138"/>
+      <c r="ES1" s="138"/>
+      <c r="ET1" s="138"/>
+      <c r="EU1" s="138"/>
+      <c r="EV1" s="138"/>
+      <c r="EW1" s="138"/>
+      <c r="EX1" s="138"/>
+      <c r="EY1" s="138"/>
+      <c r="EZ1" s="138"/>
+      <c r="FA1" s="138"/>
+      <c r="FB1" s="138"/>
+      <c r="FC1" s="138"/>
+      <c r="FD1" s="138"/>
+      <c r="FE1" s="138"/>
+      <c r="FF1" s="138"/>
+      <c r="FG1" s="138"/>
+      <c r="FH1" s="138"/>
+      <c r="FI1" s="138"/>
+      <c r="FJ1" s="138"/>
+      <c r="FK1" s="138"/>
+      <c r="FL1" s="138"/>
+      <c r="FM1" s="138"/>
+      <c r="FN1" s="138"/>
+      <c r="FO1" s="138"/>
+      <c r="FP1" s="138"/>
+      <c r="FQ1" s="138"/>
+      <c r="FR1" s="138"/>
+      <c r="FS1" s="138"/>
+      <c r="FT1" s="138"/>
+      <c r="FU1" s="138"/>
+      <c r="FV1" s="138"/>
+      <c r="FW1" s="138"/>
+      <c r="FX1" s="138"/>
+      <c r="FY1" s="138"/>
+      <c r="FZ1" s="138"/>
+      <c r="GA1" s="138"/>
+      <c r="GB1" s="138"/>
+      <c r="GC1" s="138"/>
+      <c r="GD1" s="138"/>
+      <c r="GE1" s="138"/>
+      <c r="GF1" s="138"/>
+      <c r="GG1" s="138"/>
+      <c r="GH1" s="138"/>
+      <c r="GI1" s="138"/>
+      <c r="GJ1" s="138"/>
+      <c r="GK1" s="138"/>
+      <c r="GL1" s="138"/>
+      <c r="GM1" s="138"/>
+      <c r="GN1" s="138"/>
+      <c r="GO1" s="138"/>
+      <c r="GP1" s="138"/>
+      <c r="GQ1" s="138"/>
+      <c r="GR1" s="138"/>
+      <c r="GS1" s="138"/>
+      <c r="GT1" s="138"/>
+      <c r="GU1" s="138"/>
+      <c r="GV1" s="138"/>
+      <c r="GW1" s="138"/>
+      <c r="GX1" s="138"/>
+      <c r="GY1" s="138"/>
+      <c r="GZ1" s="138"/>
+      <c r="HA1" s="138"/>
+      <c r="HB1" s="138"/>
+      <c r="HC1" s="138"/>
+      <c r="HD1" s="138"/>
+      <c r="HE1" s="138"/>
+      <c r="HF1" s="138"/>
+      <c r="HG1" s="138"/>
+      <c r="HH1" s="138"/>
+      <c r="HI1" s="138"/>
+      <c r="HJ1" s="138"/>
+      <c r="HK1" s="138"/>
+      <c r="HL1" s="138"/>
+      <c r="HM1" s="138"/>
+      <c r="HN1" s="138"/>
+      <c r="HO1" s="138"/>
+      <c r="HP1" s="138"/>
+      <c r="HQ1" s="138"/>
+      <c r="HR1" s="138"/>
+      <c r="HS1" s="138"/>
+      <c r="HT1" s="138"/>
+      <c r="HU1" s="138"/>
+      <c r="HV1" s="138"/>
+      <c r="HW1" s="138"/>
+      <c r="HX1" s="138"/>
+      <c r="HY1" s="138"/>
+      <c r="HZ1" s="138"/>
+      <c r="IA1" s="138"/>
+      <c r="IB1" s="138"/>
+      <c r="IC1" s="138"/>
+      <c r="ID1" s="138"/>
+      <c r="IE1" s="138"/>
+      <c r="IF1" s="138"/>
+      <c r="IG1" s="138"/>
+      <c r="IH1" s="138"/>
+      <c r="II1" s="138"/>
+      <c r="IJ1" s="138"/>
+      <c r="IK1" s="138"/>
+      <c r="IL1" s="138"/>
+      <c r="IM1" s="138"/>
+      <c r="IN1" s="138"/>
+      <c r="IO1" s="138"/>
+      <c r="IP1" s="138"/>
+      <c r="IQ1" s="138"/>
+      <c r="IR1" s="138"/>
+      <c r="IS1" s="138"/>
+      <c r="IT1" s="138"/>
+      <c r="IU1" s="138"/>
+      <c r="IV1" s="138"/>
+    </row>
+    <row r="2" spans="1:256" ht="15" thickBot="1">
       <c r="A2" s="153" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -49610,7 +49630,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15.75" thickBot="1">
+    <row r="4" spans="1:256" ht="15" thickBot="1">
       <c r="A4" s="155"/>
       <c r="B4" s="157"/>
       <c r="C4" s="159"/>
@@ -51386,7 +51406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="77" customFormat="1" ht="15.75" thickBot="1">
+    <row r="46" spans="1:11" s="77" customFormat="1" ht="15" thickBot="1">
       <c r="A46" s="79">
         <f>'Сводная таблица'!A46:A47</f>
         <v>42</v>
@@ -51457,275 +51477,275 @@
       <selection activeCell="K5" sqref="K5:K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="138" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="145"/>
-      <c r="N1" s="145"/>
-      <c r="O1" s="145"/>
-      <c r="P1" s="145"/>
-      <c r="Q1" s="145"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="145"/>
-      <c r="T1" s="145"/>
-      <c r="U1" s="145"/>
-      <c r="V1" s="145"/>
-      <c r="W1" s="145"/>
-      <c r="X1" s="145"/>
-      <c r="Y1" s="145"/>
-      <c r="Z1" s="145"/>
-      <c r="AA1" s="145"/>
-      <c r="AB1" s="145"/>
-      <c r="AC1" s="145"/>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="145"/>
-      <c r="AF1" s="145"/>
-      <c r="AG1" s="145"/>
-      <c r="AH1" s="145"/>
-      <c r="AI1" s="145"/>
-      <c r="AJ1" s="145"/>
-      <c r="AK1" s="145"/>
-      <c r="AL1" s="145"/>
-      <c r="AM1" s="145"/>
-      <c r="AN1" s="145"/>
-      <c r="AO1" s="145"/>
-      <c r="AP1" s="145"/>
-      <c r="AQ1" s="145"/>
-      <c r="AR1" s="145"/>
-      <c r="AS1" s="145"/>
-      <c r="AT1" s="145"/>
-      <c r="AU1" s="145"/>
-      <c r="AV1" s="145"/>
-      <c r="AW1" s="145"/>
-      <c r="AX1" s="145"/>
-      <c r="AY1" s="145"/>
-      <c r="AZ1" s="145"/>
-      <c r="BA1" s="145"/>
-      <c r="BB1" s="145"/>
-      <c r="BC1" s="145"/>
-      <c r="BD1" s="145"/>
-      <c r="BE1" s="145"/>
-      <c r="BF1" s="145"/>
-      <c r="BG1" s="145"/>
-      <c r="BH1" s="145"/>
-      <c r="BI1" s="145"/>
-      <c r="BJ1" s="145"/>
-      <c r="BK1" s="145"/>
-      <c r="BL1" s="145"/>
-      <c r="BM1" s="145"/>
-      <c r="BN1" s="145"/>
-      <c r="BO1" s="145"/>
-      <c r="BP1" s="145"/>
-      <c r="BQ1" s="145"/>
-      <c r="BR1" s="145"/>
-      <c r="BS1" s="145"/>
-      <c r="BT1" s="145"/>
-      <c r="BU1" s="145"/>
-      <c r="BV1" s="145"/>
-      <c r="BW1" s="145"/>
-      <c r="BX1" s="145"/>
-      <c r="BY1" s="145"/>
-      <c r="BZ1" s="145"/>
-      <c r="CA1" s="145"/>
-      <c r="CB1" s="145"/>
-      <c r="CC1" s="145"/>
-      <c r="CD1" s="145"/>
-      <c r="CE1" s="145"/>
-      <c r="CF1" s="145"/>
-      <c r="CG1" s="145"/>
-      <c r="CH1" s="145"/>
-      <c r="CI1" s="145"/>
-      <c r="CJ1" s="145"/>
-      <c r="CK1" s="145"/>
-      <c r="CL1" s="145"/>
-      <c r="CM1" s="145"/>
-      <c r="CN1" s="145"/>
-      <c r="CO1" s="145"/>
-      <c r="CP1" s="145"/>
-      <c r="CQ1" s="145"/>
-      <c r="CR1" s="145"/>
-      <c r="CS1" s="145"/>
-      <c r="CT1" s="145"/>
-      <c r="CU1" s="145"/>
-      <c r="CV1" s="145"/>
-      <c r="CW1" s="145"/>
-      <c r="CX1" s="145"/>
-      <c r="CY1" s="145"/>
-      <c r="CZ1" s="145"/>
-      <c r="DA1" s="145"/>
-      <c r="DB1" s="145"/>
-      <c r="DC1" s="145"/>
-      <c r="DD1" s="145"/>
-      <c r="DE1" s="145"/>
-      <c r="DF1" s="145"/>
-      <c r="DG1" s="145"/>
-      <c r="DH1" s="145"/>
-      <c r="DI1" s="145"/>
-      <c r="DJ1" s="145"/>
-      <c r="DK1" s="145"/>
-      <c r="DL1" s="145"/>
-      <c r="DM1" s="145"/>
-      <c r="DN1" s="145"/>
-      <c r="DO1" s="145"/>
-      <c r="DP1" s="145"/>
-      <c r="DQ1" s="145"/>
-      <c r="DR1" s="145"/>
-      <c r="DS1" s="145"/>
-      <c r="DT1" s="145"/>
-      <c r="DU1" s="145"/>
-      <c r="DV1" s="145"/>
-      <c r="DW1" s="145"/>
-      <c r="DX1" s="145"/>
-      <c r="DY1" s="145"/>
-      <c r="DZ1" s="145"/>
-      <c r="EA1" s="145"/>
-      <c r="EB1" s="145"/>
-      <c r="EC1" s="145"/>
-      <c r="ED1" s="145"/>
-      <c r="EE1" s="145"/>
-      <c r="EF1" s="145"/>
-      <c r="EG1" s="145"/>
-      <c r="EH1" s="145"/>
-      <c r="EI1" s="145"/>
-      <c r="EJ1" s="145"/>
-      <c r="EK1" s="145"/>
-      <c r="EL1" s="145"/>
-      <c r="EM1" s="145"/>
-      <c r="EN1" s="145"/>
-      <c r="EO1" s="145"/>
-      <c r="EP1" s="145"/>
-      <c r="EQ1" s="145"/>
-      <c r="ER1" s="145"/>
-      <c r="ES1" s="145"/>
-      <c r="ET1" s="145"/>
-      <c r="EU1" s="145"/>
-      <c r="EV1" s="145"/>
-      <c r="EW1" s="145"/>
-      <c r="EX1" s="145"/>
-      <c r="EY1" s="145"/>
-      <c r="EZ1" s="145"/>
-      <c r="FA1" s="145"/>
-      <c r="FB1" s="145"/>
-      <c r="FC1" s="145"/>
-      <c r="FD1" s="145"/>
-      <c r="FE1" s="145"/>
-      <c r="FF1" s="145"/>
-      <c r="FG1" s="145"/>
-      <c r="FH1" s="145"/>
-      <c r="FI1" s="145"/>
-      <c r="FJ1" s="145"/>
-      <c r="FK1" s="145"/>
-      <c r="FL1" s="145"/>
-      <c r="FM1" s="145"/>
-      <c r="FN1" s="145"/>
-      <c r="FO1" s="145"/>
-      <c r="FP1" s="145"/>
-      <c r="FQ1" s="145"/>
-      <c r="FR1" s="145"/>
-      <c r="FS1" s="145"/>
-      <c r="FT1" s="145"/>
-      <c r="FU1" s="145"/>
-      <c r="FV1" s="145"/>
-      <c r="FW1" s="145"/>
-      <c r="FX1" s="145"/>
-      <c r="FY1" s="145"/>
-      <c r="FZ1" s="145"/>
-      <c r="GA1" s="145"/>
-      <c r="GB1" s="145"/>
-      <c r="GC1" s="145"/>
-      <c r="GD1" s="145"/>
-      <c r="GE1" s="145"/>
-      <c r="GF1" s="145"/>
-      <c r="GG1" s="145"/>
-      <c r="GH1" s="145"/>
-      <c r="GI1" s="145"/>
-      <c r="GJ1" s="145"/>
-      <c r="GK1" s="145"/>
-      <c r="GL1" s="145"/>
-      <c r="GM1" s="145"/>
-      <c r="GN1" s="145"/>
-      <c r="GO1" s="145"/>
-      <c r="GP1" s="145"/>
-      <c r="GQ1" s="145"/>
-      <c r="GR1" s="145"/>
-      <c r="GS1" s="145"/>
-      <c r="GT1" s="145"/>
-      <c r="GU1" s="145"/>
-      <c r="GV1" s="145"/>
-      <c r="GW1" s="145"/>
-      <c r="GX1" s="145"/>
-      <c r="GY1" s="145"/>
-      <c r="GZ1" s="145"/>
-      <c r="HA1" s="145"/>
-      <c r="HB1" s="145"/>
-      <c r="HC1" s="145"/>
-      <c r="HD1" s="145"/>
-      <c r="HE1" s="145"/>
-      <c r="HF1" s="145"/>
-      <c r="HG1" s="145"/>
-      <c r="HH1" s="145"/>
-      <c r="HI1" s="145"/>
-      <c r="HJ1" s="145"/>
-      <c r="HK1" s="145"/>
-      <c r="HL1" s="145"/>
-      <c r="HM1" s="145"/>
-      <c r="HN1" s="145"/>
-      <c r="HO1" s="145"/>
-      <c r="HP1" s="145"/>
-      <c r="HQ1" s="145"/>
-      <c r="HR1" s="145"/>
-      <c r="HS1" s="145"/>
-      <c r="HT1" s="145"/>
-      <c r="HU1" s="145"/>
-      <c r="HV1" s="145"/>
-      <c r="HW1" s="145"/>
-      <c r="HX1" s="145"/>
-      <c r="HY1" s="145"/>
-      <c r="HZ1" s="145"/>
-      <c r="IA1" s="145"/>
-      <c r="IB1" s="145"/>
-      <c r="IC1" s="145"/>
-      <c r="ID1" s="145"/>
-      <c r="IE1" s="145"/>
-      <c r="IF1" s="145"/>
-      <c r="IG1" s="145"/>
-      <c r="IH1" s="145"/>
-      <c r="II1" s="145"/>
-      <c r="IJ1" s="145"/>
-      <c r="IK1" s="145"/>
-      <c r="IL1" s="145"/>
-      <c r="IM1" s="145"/>
-      <c r="IN1" s="145"/>
-      <c r="IO1" s="145"/>
-      <c r="IP1" s="145"/>
-      <c r="IQ1" s="145"/>
-      <c r="IR1" s="145"/>
-      <c r="IS1" s="145"/>
-      <c r="IT1" s="145"/>
-      <c r="IU1" s="145"/>
-      <c r="IV1" s="145"/>
-    </row>
-    <row r="2" spans="1:256" ht="15.75" thickBot="1">
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
+      <c r="U1" s="138"/>
+      <c r="V1" s="138"/>
+      <c r="W1" s="138"/>
+      <c r="X1" s="138"/>
+      <c r="Y1" s="138"/>
+      <c r="Z1" s="138"/>
+      <c r="AA1" s="138"/>
+      <c r="AB1" s="138"/>
+      <c r="AC1" s="138"/>
+      <c r="AD1" s="138"/>
+      <c r="AE1" s="138"/>
+      <c r="AF1" s="138"/>
+      <c r="AG1" s="138"/>
+      <c r="AH1" s="138"/>
+      <c r="AI1" s="138"/>
+      <c r="AJ1" s="138"/>
+      <c r="AK1" s="138"/>
+      <c r="AL1" s="138"/>
+      <c r="AM1" s="138"/>
+      <c r="AN1" s="138"/>
+      <c r="AO1" s="138"/>
+      <c r="AP1" s="138"/>
+      <c r="AQ1" s="138"/>
+      <c r="AR1" s="138"/>
+      <c r="AS1" s="138"/>
+      <c r="AT1" s="138"/>
+      <c r="AU1" s="138"/>
+      <c r="AV1" s="138"/>
+      <c r="AW1" s="138"/>
+      <c r="AX1" s="138"/>
+      <c r="AY1" s="138"/>
+      <c r="AZ1" s="138"/>
+      <c r="BA1" s="138"/>
+      <c r="BB1" s="138"/>
+      <c r="BC1" s="138"/>
+      <c r="BD1" s="138"/>
+      <c r="BE1" s="138"/>
+      <c r="BF1" s="138"/>
+      <c r="BG1" s="138"/>
+      <c r="BH1" s="138"/>
+      <c r="BI1" s="138"/>
+      <c r="BJ1" s="138"/>
+      <c r="BK1" s="138"/>
+      <c r="BL1" s="138"/>
+      <c r="BM1" s="138"/>
+      <c r="BN1" s="138"/>
+      <c r="BO1" s="138"/>
+      <c r="BP1" s="138"/>
+      <c r="BQ1" s="138"/>
+      <c r="BR1" s="138"/>
+      <c r="BS1" s="138"/>
+      <c r="BT1" s="138"/>
+      <c r="BU1" s="138"/>
+      <c r="BV1" s="138"/>
+      <c r="BW1" s="138"/>
+      <c r="BX1" s="138"/>
+      <c r="BY1" s="138"/>
+      <c r="BZ1" s="138"/>
+      <c r="CA1" s="138"/>
+      <c r="CB1" s="138"/>
+      <c r="CC1" s="138"/>
+      <c r="CD1" s="138"/>
+      <c r="CE1" s="138"/>
+      <c r="CF1" s="138"/>
+      <c r="CG1" s="138"/>
+      <c r="CH1" s="138"/>
+      <c r="CI1" s="138"/>
+      <c r="CJ1" s="138"/>
+      <c r="CK1" s="138"/>
+      <c r="CL1" s="138"/>
+      <c r="CM1" s="138"/>
+      <c r="CN1" s="138"/>
+      <c r="CO1" s="138"/>
+      <c r="CP1" s="138"/>
+      <c r="CQ1" s="138"/>
+      <c r="CR1" s="138"/>
+      <c r="CS1" s="138"/>
+      <c r="CT1" s="138"/>
+      <c r="CU1" s="138"/>
+      <c r="CV1" s="138"/>
+      <c r="CW1" s="138"/>
+      <c r="CX1" s="138"/>
+      <c r="CY1" s="138"/>
+      <c r="CZ1" s="138"/>
+      <c r="DA1" s="138"/>
+      <c r="DB1" s="138"/>
+      <c r="DC1" s="138"/>
+      <c r="DD1" s="138"/>
+      <c r="DE1" s="138"/>
+      <c r="DF1" s="138"/>
+      <c r="DG1" s="138"/>
+      <c r="DH1" s="138"/>
+      <c r="DI1" s="138"/>
+      <c r="DJ1" s="138"/>
+      <c r="DK1" s="138"/>
+      <c r="DL1" s="138"/>
+      <c r="DM1" s="138"/>
+      <c r="DN1" s="138"/>
+      <c r="DO1" s="138"/>
+      <c r="DP1" s="138"/>
+      <c r="DQ1" s="138"/>
+      <c r="DR1" s="138"/>
+      <c r="DS1" s="138"/>
+      <c r="DT1" s="138"/>
+      <c r="DU1" s="138"/>
+      <c r="DV1" s="138"/>
+      <c r="DW1" s="138"/>
+      <c r="DX1" s="138"/>
+      <c r="DY1" s="138"/>
+      <c r="DZ1" s="138"/>
+      <c r="EA1" s="138"/>
+      <c r="EB1" s="138"/>
+      <c r="EC1" s="138"/>
+      <c r="ED1" s="138"/>
+      <c r="EE1" s="138"/>
+      <c r="EF1" s="138"/>
+      <c r="EG1" s="138"/>
+      <c r="EH1" s="138"/>
+      <c r="EI1" s="138"/>
+      <c r="EJ1" s="138"/>
+      <c r="EK1" s="138"/>
+      <c r="EL1" s="138"/>
+      <c r="EM1" s="138"/>
+      <c r="EN1" s="138"/>
+      <c r="EO1" s="138"/>
+      <c r="EP1" s="138"/>
+      <c r="EQ1" s="138"/>
+      <c r="ER1" s="138"/>
+      <c r="ES1" s="138"/>
+      <c r="ET1" s="138"/>
+      <c r="EU1" s="138"/>
+      <c r="EV1" s="138"/>
+      <c r="EW1" s="138"/>
+      <c r="EX1" s="138"/>
+      <c r="EY1" s="138"/>
+      <c r="EZ1" s="138"/>
+      <c r="FA1" s="138"/>
+      <c r="FB1" s="138"/>
+      <c r="FC1" s="138"/>
+      <c r="FD1" s="138"/>
+      <c r="FE1" s="138"/>
+      <c r="FF1" s="138"/>
+      <c r="FG1" s="138"/>
+      <c r="FH1" s="138"/>
+      <c r="FI1" s="138"/>
+      <c r="FJ1" s="138"/>
+      <c r="FK1" s="138"/>
+      <c r="FL1" s="138"/>
+      <c r="FM1" s="138"/>
+      <c r="FN1" s="138"/>
+      <c r="FO1" s="138"/>
+      <c r="FP1" s="138"/>
+      <c r="FQ1" s="138"/>
+      <c r="FR1" s="138"/>
+      <c r="FS1" s="138"/>
+      <c r="FT1" s="138"/>
+      <c r="FU1" s="138"/>
+      <c r="FV1" s="138"/>
+      <c r="FW1" s="138"/>
+      <c r="FX1" s="138"/>
+      <c r="FY1" s="138"/>
+      <c r="FZ1" s="138"/>
+      <c r="GA1" s="138"/>
+      <c r="GB1" s="138"/>
+      <c r="GC1" s="138"/>
+      <c r="GD1" s="138"/>
+      <c r="GE1" s="138"/>
+      <c r="GF1" s="138"/>
+      <c r="GG1" s="138"/>
+      <c r="GH1" s="138"/>
+      <c r="GI1" s="138"/>
+      <c r="GJ1" s="138"/>
+      <c r="GK1" s="138"/>
+      <c r="GL1" s="138"/>
+      <c r="GM1" s="138"/>
+      <c r="GN1" s="138"/>
+      <c r="GO1" s="138"/>
+      <c r="GP1" s="138"/>
+      <c r="GQ1" s="138"/>
+      <c r="GR1" s="138"/>
+      <c r="GS1" s="138"/>
+      <c r="GT1" s="138"/>
+      <c r="GU1" s="138"/>
+      <c r="GV1" s="138"/>
+      <c r="GW1" s="138"/>
+      <c r="GX1" s="138"/>
+      <c r="GY1" s="138"/>
+      <c r="GZ1" s="138"/>
+      <c r="HA1" s="138"/>
+      <c r="HB1" s="138"/>
+      <c r="HC1" s="138"/>
+      <c r="HD1" s="138"/>
+      <c r="HE1" s="138"/>
+      <c r="HF1" s="138"/>
+      <c r="HG1" s="138"/>
+      <c r="HH1" s="138"/>
+      <c r="HI1" s="138"/>
+      <c r="HJ1" s="138"/>
+      <c r="HK1" s="138"/>
+      <c r="HL1" s="138"/>
+      <c r="HM1" s="138"/>
+      <c r="HN1" s="138"/>
+      <c r="HO1" s="138"/>
+      <c r="HP1" s="138"/>
+      <c r="HQ1" s="138"/>
+      <c r="HR1" s="138"/>
+      <c r="HS1" s="138"/>
+      <c r="HT1" s="138"/>
+      <c r="HU1" s="138"/>
+      <c r="HV1" s="138"/>
+      <c r="HW1" s="138"/>
+      <c r="HX1" s="138"/>
+      <c r="HY1" s="138"/>
+      <c r="HZ1" s="138"/>
+      <c r="IA1" s="138"/>
+      <c r="IB1" s="138"/>
+      <c r="IC1" s="138"/>
+      <c r="ID1" s="138"/>
+      <c r="IE1" s="138"/>
+      <c r="IF1" s="138"/>
+      <c r="IG1" s="138"/>
+      <c r="IH1" s="138"/>
+      <c r="II1" s="138"/>
+      <c r="IJ1" s="138"/>
+      <c r="IK1" s="138"/>
+      <c r="IL1" s="138"/>
+      <c r="IM1" s="138"/>
+      <c r="IN1" s="138"/>
+      <c r="IO1" s="138"/>
+      <c r="IP1" s="138"/>
+      <c r="IQ1" s="138"/>
+      <c r="IR1" s="138"/>
+      <c r="IS1" s="138"/>
+      <c r="IT1" s="138"/>
+      <c r="IU1" s="138"/>
+      <c r="IV1" s="138"/>
+    </row>
+    <row r="2" spans="1:256" ht="15" thickBot="1">
       <c r="A2" s="153" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -51782,7 +51802,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15.75" thickBot="1">
+    <row r="4" spans="1:256" ht="15" thickBot="1">
       <c r="A4" s="155"/>
       <c r="B4" s="157"/>
       <c r="C4" s="159"/>
@@ -53558,7 +53578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="77" customFormat="1" ht="15.75" thickBot="1">
+    <row r="46" spans="1:11" s="77" customFormat="1" ht="15" thickBot="1">
       <c r="A46" s="79">
         <f>'Сводная таблица'!A46:A47</f>
         <v>42</v>
@@ -53629,275 +53649,275 @@
       <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="138" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="145"/>
-      <c r="N1" s="145"/>
-      <c r="O1" s="145"/>
-      <c r="P1" s="145"/>
-      <c r="Q1" s="145"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="145"/>
-      <c r="T1" s="145"/>
-      <c r="U1" s="145"/>
-      <c r="V1" s="145"/>
-      <c r="W1" s="145"/>
-      <c r="X1" s="145"/>
-      <c r="Y1" s="145"/>
-      <c r="Z1" s="145"/>
-      <c r="AA1" s="145"/>
-      <c r="AB1" s="145"/>
-      <c r="AC1" s="145"/>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="145"/>
-      <c r="AF1" s="145"/>
-      <c r="AG1" s="145"/>
-      <c r="AH1" s="145"/>
-      <c r="AI1" s="145"/>
-      <c r="AJ1" s="145"/>
-      <c r="AK1" s="145"/>
-      <c r="AL1" s="145"/>
-      <c r="AM1" s="145"/>
-      <c r="AN1" s="145"/>
-      <c r="AO1" s="145"/>
-      <c r="AP1" s="145"/>
-      <c r="AQ1" s="145"/>
-      <c r="AR1" s="145"/>
-      <c r="AS1" s="145"/>
-      <c r="AT1" s="145"/>
-      <c r="AU1" s="145"/>
-      <c r="AV1" s="145"/>
-      <c r="AW1" s="145"/>
-      <c r="AX1" s="145"/>
-      <c r="AY1" s="145"/>
-      <c r="AZ1" s="145"/>
-      <c r="BA1" s="145"/>
-      <c r="BB1" s="145"/>
-      <c r="BC1" s="145"/>
-      <c r="BD1" s="145"/>
-      <c r="BE1" s="145"/>
-      <c r="BF1" s="145"/>
-      <c r="BG1" s="145"/>
-      <c r="BH1" s="145"/>
-      <c r="BI1" s="145"/>
-      <c r="BJ1" s="145"/>
-      <c r="BK1" s="145"/>
-      <c r="BL1" s="145"/>
-      <c r="BM1" s="145"/>
-      <c r="BN1" s="145"/>
-      <c r="BO1" s="145"/>
-      <c r="BP1" s="145"/>
-      <c r="BQ1" s="145"/>
-      <c r="BR1" s="145"/>
-      <c r="BS1" s="145"/>
-      <c r="BT1" s="145"/>
-      <c r="BU1" s="145"/>
-      <c r="BV1" s="145"/>
-      <c r="BW1" s="145"/>
-      <c r="BX1" s="145"/>
-      <c r="BY1" s="145"/>
-      <c r="BZ1" s="145"/>
-      <c r="CA1" s="145"/>
-      <c r="CB1" s="145"/>
-      <c r="CC1" s="145"/>
-      <c r="CD1" s="145"/>
-      <c r="CE1" s="145"/>
-      <c r="CF1" s="145"/>
-      <c r="CG1" s="145"/>
-      <c r="CH1" s="145"/>
-      <c r="CI1" s="145"/>
-      <c r="CJ1" s="145"/>
-      <c r="CK1" s="145"/>
-      <c r="CL1" s="145"/>
-      <c r="CM1" s="145"/>
-      <c r="CN1" s="145"/>
-      <c r="CO1" s="145"/>
-      <c r="CP1" s="145"/>
-      <c r="CQ1" s="145"/>
-      <c r="CR1" s="145"/>
-      <c r="CS1" s="145"/>
-      <c r="CT1" s="145"/>
-      <c r="CU1" s="145"/>
-      <c r="CV1" s="145"/>
-      <c r="CW1" s="145"/>
-      <c r="CX1" s="145"/>
-      <c r="CY1" s="145"/>
-      <c r="CZ1" s="145"/>
-      <c r="DA1" s="145"/>
-      <c r="DB1" s="145"/>
-      <c r="DC1" s="145"/>
-      <c r="DD1" s="145"/>
-      <c r="DE1" s="145"/>
-      <c r="DF1" s="145"/>
-      <c r="DG1" s="145"/>
-      <c r="DH1" s="145"/>
-      <c r="DI1" s="145"/>
-      <c r="DJ1" s="145"/>
-      <c r="DK1" s="145"/>
-      <c r="DL1" s="145"/>
-      <c r="DM1" s="145"/>
-      <c r="DN1" s="145"/>
-      <c r="DO1" s="145"/>
-      <c r="DP1" s="145"/>
-      <c r="DQ1" s="145"/>
-      <c r="DR1" s="145"/>
-      <c r="DS1" s="145"/>
-      <c r="DT1" s="145"/>
-      <c r="DU1" s="145"/>
-      <c r="DV1" s="145"/>
-      <c r="DW1" s="145"/>
-      <c r="DX1" s="145"/>
-      <c r="DY1" s="145"/>
-      <c r="DZ1" s="145"/>
-      <c r="EA1" s="145"/>
-      <c r="EB1" s="145"/>
-      <c r="EC1" s="145"/>
-      <c r="ED1" s="145"/>
-      <c r="EE1" s="145"/>
-      <c r="EF1" s="145"/>
-      <c r="EG1" s="145"/>
-      <c r="EH1" s="145"/>
-      <c r="EI1" s="145"/>
-      <c r="EJ1" s="145"/>
-      <c r="EK1" s="145"/>
-      <c r="EL1" s="145"/>
-      <c r="EM1" s="145"/>
-      <c r="EN1" s="145"/>
-      <c r="EO1" s="145"/>
-      <c r="EP1" s="145"/>
-      <c r="EQ1" s="145"/>
-      <c r="ER1" s="145"/>
-      <c r="ES1" s="145"/>
-      <c r="ET1" s="145"/>
-      <c r="EU1" s="145"/>
-      <c r="EV1" s="145"/>
-      <c r="EW1" s="145"/>
-      <c r="EX1" s="145"/>
-      <c r="EY1" s="145"/>
-      <c r="EZ1" s="145"/>
-      <c r="FA1" s="145"/>
-      <c r="FB1" s="145"/>
-      <c r="FC1" s="145"/>
-      <c r="FD1" s="145"/>
-      <c r="FE1" s="145"/>
-      <c r="FF1" s="145"/>
-      <c r="FG1" s="145"/>
-      <c r="FH1" s="145"/>
-      <c r="FI1" s="145"/>
-      <c r="FJ1" s="145"/>
-      <c r="FK1" s="145"/>
-      <c r="FL1" s="145"/>
-      <c r="FM1" s="145"/>
-      <c r="FN1" s="145"/>
-      <c r="FO1" s="145"/>
-      <c r="FP1" s="145"/>
-      <c r="FQ1" s="145"/>
-      <c r="FR1" s="145"/>
-      <c r="FS1" s="145"/>
-      <c r="FT1" s="145"/>
-      <c r="FU1" s="145"/>
-      <c r="FV1" s="145"/>
-      <c r="FW1" s="145"/>
-      <c r="FX1" s="145"/>
-      <c r="FY1" s="145"/>
-      <c r="FZ1" s="145"/>
-      <c r="GA1" s="145"/>
-      <c r="GB1" s="145"/>
-      <c r="GC1" s="145"/>
-      <c r="GD1" s="145"/>
-      <c r="GE1" s="145"/>
-      <c r="GF1" s="145"/>
-      <c r="GG1" s="145"/>
-      <c r="GH1" s="145"/>
-      <c r="GI1" s="145"/>
-      <c r="GJ1" s="145"/>
-      <c r="GK1" s="145"/>
-      <c r="GL1" s="145"/>
-      <c r="GM1" s="145"/>
-      <c r="GN1" s="145"/>
-      <c r="GO1" s="145"/>
-      <c r="GP1" s="145"/>
-      <c r="GQ1" s="145"/>
-      <c r="GR1" s="145"/>
-      <c r="GS1" s="145"/>
-      <c r="GT1" s="145"/>
-      <c r="GU1" s="145"/>
-      <c r="GV1" s="145"/>
-      <c r="GW1" s="145"/>
-      <c r="GX1" s="145"/>
-      <c r="GY1" s="145"/>
-      <c r="GZ1" s="145"/>
-      <c r="HA1" s="145"/>
-      <c r="HB1" s="145"/>
-      <c r="HC1" s="145"/>
-      <c r="HD1" s="145"/>
-      <c r="HE1" s="145"/>
-      <c r="HF1" s="145"/>
-      <c r="HG1" s="145"/>
-      <c r="HH1" s="145"/>
-      <c r="HI1" s="145"/>
-      <c r="HJ1" s="145"/>
-      <c r="HK1" s="145"/>
-      <c r="HL1" s="145"/>
-      <c r="HM1" s="145"/>
-      <c r="HN1" s="145"/>
-      <c r="HO1" s="145"/>
-      <c r="HP1" s="145"/>
-      <c r="HQ1" s="145"/>
-      <c r="HR1" s="145"/>
-      <c r="HS1" s="145"/>
-      <c r="HT1" s="145"/>
-      <c r="HU1" s="145"/>
-      <c r="HV1" s="145"/>
-      <c r="HW1" s="145"/>
-      <c r="HX1" s="145"/>
-      <c r="HY1" s="145"/>
-      <c r="HZ1" s="145"/>
-      <c r="IA1" s="145"/>
-      <c r="IB1" s="145"/>
-      <c r="IC1" s="145"/>
-      <c r="ID1" s="145"/>
-      <c r="IE1" s="145"/>
-      <c r="IF1" s="145"/>
-      <c r="IG1" s="145"/>
-      <c r="IH1" s="145"/>
-      <c r="II1" s="145"/>
-      <c r="IJ1" s="145"/>
-      <c r="IK1" s="145"/>
-      <c r="IL1" s="145"/>
-      <c r="IM1" s="145"/>
-      <c r="IN1" s="145"/>
-      <c r="IO1" s="145"/>
-      <c r="IP1" s="145"/>
-      <c r="IQ1" s="145"/>
-      <c r="IR1" s="145"/>
-      <c r="IS1" s="145"/>
-      <c r="IT1" s="145"/>
-      <c r="IU1" s="145"/>
-      <c r="IV1" s="145"/>
-    </row>
-    <row r="2" spans="1:256" ht="15.75" thickBot="1">
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
+      <c r="U1" s="138"/>
+      <c r="V1" s="138"/>
+      <c r="W1" s="138"/>
+      <c r="X1" s="138"/>
+      <c r="Y1" s="138"/>
+      <c r="Z1" s="138"/>
+      <c r="AA1" s="138"/>
+      <c r="AB1" s="138"/>
+      <c r="AC1" s="138"/>
+      <c r="AD1" s="138"/>
+      <c r="AE1" s="138"/>
+      <c r="AF1" s="138"/>
+      <c r="AG1" s="138"/>
+      <c r="AH1" s="138"/>
+      <c r="AI1" s="138"/>
+      <c r="AJ1" s="138"/>
+      <c r="AK1" s="138"/>
+      <c r="AL1" s="138"/>
+      <c r="AM1" s="138"/>
+      <c r="AN1" s="138"/>
+      <c r="AO1" s="138"/>
+      <c r="AP1" s="138"/>
+      <c r="AQ1" s="138"/>
+      <c r="AR1" s="138"/>
+      <c r="AS1" s="138"/>
+      <c r="AT1" s="138"/>
+      <c r="AU1" s="138"/>
+      <c r="AV1" s="138"/>
+      <c r="AW1" s="138"/>
+      <c r="AX1" s="138"/>
+      <c r="AY1" s="138"/>
+      <c r="AZ1" s="138"/>
+      <c r="BA1" s="138"/>
+      <c r="BB1" s="138"/>
+      <c r="BC1" s="138"/>
+      <c r="BD1" s="138"/>
+      <c r="BE1" s="138"/>
+      <c r="BF1" s="138"/>
+      <c r="BG1" s="138"/>
+      <c r="BH1" s="138"/>
+      <c r="BI1" s="138"/>
+      <c r="BJ1" s="138"/>
+      <c r="BK1" s="138"/>
+      <c r="BL1" s="138"/>
+      <c r="BM1" s="138"/>
+      <c r="BN1" s="138"/>
+      <c r="BO1" s="138"/>
+      <c r="BP1" s="138"/>
+      <c r="BQ1" s="138"/>
+      <c r="BR1" s="138"/>
+      <c r="BS1" s="138"/>
+      <c r="BT1" s="138"/>
+      <c r="BU1" s="138"/>
+      <c r="BV1" s="138"/>
+      <c r="BW1" s="138"/>
+      <c r="BX1" s="138"/>
+      <c r="BY1" s="138"/>
+      <c r="BZ1" s="138"/>
+      <c r="CA1" s="138"/>
+      <c r="CB1" s="138"/>
+      <c r="CC1" s="138"/>
+      <c r="CD1" s="138"/>
+      <c r="CE1" s="138"/>
+      <c r="CF1" s="138"/>
+      <c r="CG1" s="138"/>
+      <c r="CH1" s="138"/>
+      <c r="CI1" s="138"/>
+      <c r="CJ1" s="138"/>
+      <c r="CK1" s="138"/>
+      <c r="CL1" s="138"/>
+      <c r="CM1" s="138"/>
+      <c r="CN1" s="138"/>
+      <c r="CO1" s="138"/>
+      <c r="CP1" s="138"/>
+      <c r="CQ1" s="138"/>
+      <c r="CR1" s="138"/>
+      <c r="CS1" s="138"/>
+      <c r="CT1" s="138"/>
+      <c r="CU1" s="138"/>
+      <c r="CV1" s="138"/>
+      <c r="CW1" s="138"/>
+      <c r="CX1" s="138"/>
+      <c r="CY1" s="138"/>
+      <c r="CZ1" s="138"/>
+      <c r="DA1" s="138"/>
+      <c r="DB1" s="138"/>
+      <c r="DC1" s="138"/>
+      <c r="DD1" s="138"/>
+      <c r="DE1" s="138"/>
+      <c r="DF1" s="138"/>
+      <c r="DG1" s="138"/>
+      <c r="DH1" s="138"/>
+      <c r="DI1" s="138"/>
+      <c r="DJ1" s="138"/>
+      <c r="DK1" s="138"/>
+      <c r="DL1" s="138"/>
+      <c r="DM1" s="138"/>
+      <c r="DN1" s="138"/>
+      <c r="DO1" s="138"/>
+      <c r="DP1" s="138"/>
+      <c r="DQ1" s="138"/>
+      <c r="DR1" s="138"/>
+      <c r="DS1" s="138"/>
+      <c r="DT1" s="138"/>
+      <c r="DU1" s="138"/>
+      <c r="DV1" s="138"/>
+      <c r="DW1" s="138"/>
+      <c r="DX1" s="138"/>
+      <c r="DY1" s="138"/>
+      <c r="DZ1" s="138"/>
+      <c r="EA1" s="138"/>
+      <c r="EB1" s="138"/>
+      <c r="EC1" s="138"/>
+      <c r="ED1" s="138"/>
+      <c r="EE1" s="138"/>
+      <c r="EF1" s="138"/>
+      <c r="EG1" s="138"/>
+      <c r="EH1" s="138"/>
+      <c r="EI1" s="138"/>
+      <c r="EJ1" s="138"/>
+      <c r="EK1" s="138"/>
+      <c r="EL1" s="138"/>
+      <c r="EM1" s="138"/>
+      <c r="EN1" s="138"/>
+      <c r="EO1" s="138"/>
+      <c r="EP1" s="138"/>
+      <c r="EQ1" s="138"/>
+      <c r="ER1" s="138"/>
+      <c r="ES1" s="138"/>
+      <c r="ET1" s="138"/>
+      <c r="EU1" s="138"/>
+      <c r="EV1" s="138"/>
+      <c r="EW1" s="138"/>
+      <c r="EX1" s="138"/>
+      <c r="EY1" s="138"/>
+      <c r="EZ1" s="138"/>
+      <c r="FA1" s="138"/>
+      <c r="FB1" s="138"/>
+      <c r="FC1" s="138"/>
+      <c r="FD1" s="138"/>
+      <c r="FE1" s="138"/>
+      <c r="FF1" s="138"/>
+      <c r="FG1" s="138"/>
+      <c r="FH1" s="138"/>
+      <c r="FI1" s="138"/>
+      <c r="FJ1" s="138"/>
+      <c r="FK1" s="138"/>
+      <c r="FL1" s="138"/>
+      <c r="FM1" s="138"/>
+      <c r="FN1" s="138"/>
+      <c r="FO1" s="138"/>
+      <c r="FP1" s="138"/>
+      <c r="FQ1" s="138"/>
+      <c r="FR1" s="138"/>
+      <c r="FS1" s="138"/>
+      <c r="FT1" s="138"/>
+      <c r="FU1" s="138"/>
+      <c r="FV1" s="138"/>
+      <c r="FW1" s="138"/>
+      <c r="FX1" s="138"/>
+      <c r="FY1" s="138"/>
+      <c r="FZ1" s="138"/>
+      <c r="GA1" s="138"/>
+      <c r="GB1" s="138"/>
+      <c r="GC1" s="138"/>
+      <c r="GD1" s="138"/>
+      <c r="GE1" s="138"/>
+      <c r="GF1" s="138"/>
+      <c r="GG1" s="138"/>
+      <c r="GH1" s="138"/>
+      <c r="GI1" s="138"/>
+      <c r="GJ1" s="138"/>
+      <c r="GK1" s="138"/>
+      <c r="GL1" s="138"/>
+      <c r="GM1" s="138"/>
+      <c r="GN1" s="138"/>
+      <c r="GO1" s="138"/>
+      <c r="GP1" s="138"/>
+      <c r="GQ1" s="138"/>
+      <c r="GR1" s="138"/>
+      <c r="GS1" s="138"/>
+      <c r="GT1" s="138"/>
+      <c r="GU1" s="138"/>
+      <c r="GV1" s="138"/>
+      <c r="GW1" s="138"/>
+      <c r="GX1" s="138"/>
+      <c r="GY1" s="138"/>
+      <c r="GZ1" s="138"/>
+      <c r="HA1" s="138"/>
+      <c r="HB1" s="138"/>
+      <c r="HC1" s="138"/>
+      <c r="HD1" s="138"/>
+      <c r="HE1" s="138"/>
+      <c r="HF1" s="138"/>
+      <c r="HG1" s="138"/>
+      <c r="HH1" s="138"/>
+      <c r="HI1" s="138"/>
+      <c r="HJ1" s="138"/>
+      <c r="HK1" s="138"/>
+      <c r="HL1" s="138"/>
+      <c r="HM1" s="138"/>
+      <c r="HN1" s="138"/>
+      <c r="HO1" s="138"/>
+      <c r="HP1" s="138"/>
+      <c r="HQ1" s="138"/>
+      <c r="HR1" s="138"/>
+      <c r="HS1" s="138"/>
+      <c r="HT1" s="138"/>
+      <c r="HU1" s="138"/>
+      <c r="HV1" s="138"/>
+      <c r="HW1" s="138"/>
+      <c r="HX1" s="138"/>
+      <c r="HY1" s="138"/>
+      <c r="HZ1" s="138"/>
+      <c r="IA1" s="138"/>
+      <c r="IB1" s="138"/>
+      <c r="IC1" s="138"/>
+      <c r="ID1" s="138"/>
+      <c r="IE1" s="138"/>
+      <c r="IF1" s="138"/>
+      <c r="IG1" s="138"/>
+      <c r="IH1" s="138"/>
+      <c r="II1" s="138"/>
+      <c r="IJ1" s="138"/>
+      <c r="IK1" s="138"/>
+      <c r="IL1" s="138"/>
+      <c r="IM1" s="138"/>
+      <c r="IN1" s="138"/>
+      <c r="IO1" s="138"/>
+      <c r="IP1" s="138"/>
+      <c r="IQ1" s="138"/>
+      <c r="IR1" s="138"/>
+      <c r="IS1" s="138"/>
+      <c r="IT1" s="138"/>
+      <c r="IU1" s="138"/>
+      <c r="IV1" s="138"/>
+    </row>
+    <row r="2" spans="1:256" ht="15" thickBot="1">
       <c r="A2" s="153" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -53954,7 +53974,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15.75" thickBot="1">
+    <row r="4" spans="1:256" ht="15" thickBot="1">
       <c r="A4" s="155"/>
       <c r="B4" s="157"/>
       <c r="C4" s="159"/>
@@ -55730,7 +55750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="77" customFormat="1" ht="15.75" thickBot="1">
+    <row r="46" spans="1:11" s="77" customFormat="1" ht="15" thickBot="1">
       <c r="A46" s="79">
         <f>'Сводная таблица'!A46:A47</f>
         <v>42</v>
@@ -55801,275 +55821,275 @@
       <selection activeCell="K5" sqref="K5:K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="138" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="145"/>
-      <c r="N1" s="145"/>
-      <c r="O1" s="145"/>
-      <c r="P1" s="145"/>
-      <c r="Q1" s="145"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="145"/>
-      <c r="T1" s="145"/>
-      <c r="U1" s="145"/>
-      <c r="V1" s="145"/>
-      <c r="W1" s="145"/>
-      <c r="X1" s="145"/>
-      <c r="Y1" s="145"/>
-      <c r="Z1" s="145"/>
-      <c r="AA1" s="145"/>
-      <c r="AB1" s="145"/>
-      <c r="AC1" s="145"/>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="145"/>
-      <c r="AF1" s="145"/>
-      <c r="AG1" s="145"/>
-      <c r="AH1" s="145"/>
-      <c r="AI1" s="145"/>
-      <c r="AJ1" s="145"/>
-      <c r="AK1" s="145"/>
-      <c r="AL1" s="145"/>
-      <c r="AM1" s="145"/>
-      <c r="AN1" s="145"/>
-      <c r="AO1" s="145"/>
-      <c r="AP1" s="145"/>
-      <c r="AQ1" s="145"/>
-      <c r="AR1" s="145"/>
-      <c r="AS1" s="145"/>
-      <c r="AT1" s="145"/>
-      <c r="AU1" s="145"/>
-      <c r="AV1" s="145"/>
-      <c r="AW1" s="145"/>
-      <c r="AX1" s="145"/>
-      <c r="AY1" s="145"/>
-      <c r="AZ1" s="145"/>
-      <c r="BA1" s="145"/>
-      <c r="BB1" s="145"/>
-      <c r="BC1" s="145"/>
-      <c r="BD1" s="145"/>
-      <c r="BE1" s="145"/>
-      <c r="BF1" s="145"/>
-      <c r="BG1" s="145"/>
-      <c r="BH1" s="145"/>
-      <c r="BI1" s="145"/>
-      <c r="BJ1" s="145"/>
-      <c r="BK1" s="145"/>
-      <c r="BL1" s="145"/>
-      <c r="BM1" s="145"/>
-      <c r="BN1" s="145"/>
-      <c r="BO1" s="145"/>
-      <c r="BP1" s="145"/>
-      <c r="BQ1" s="145"/>
-      <c r="BR1" s="145"/>
-      <c r="BS1" s="145"/>
-      <c r="BT1" s="145"/>
-      <c r="BU1" s="145"/>
-      <c r="BV1" s="145"/>
-      <c r="BW1" s="145"/>
-      <c r="BX1" s="145"/>
-      <c r="BY1" s="145"/>
-      <c r="BZ1" s="145"/>
-      <c r="CA1" s="145"/>
-      <c r="CB1" s="145"/>
-      <c r="CC1" s="145"/>
-      <c r="CD1" s="145"/>
-      <c r="CE1" s="145"/>
-      <c r="CF1" s="145"/>
-      <c r="CG1" s="145"/>
-      <c r="CH1" s="145"/>
-      <c r="CI1" s="145"/>
-      <c r="CJ1" s="145"/>
-      <c r="CK1" s="145"/>
-      <c r="CL1" s="145"/>
-      <c r="CM1" s="145"/>
-      <c r="CN1" s="145"/>
-      <c r="CO1" s="145"/>
-      <c r="CP1" s="145"/>
-      <c r="CQ1" s="145"/>
-      <c r="CR1" s="145"/>
-      <c r="CS1" s="145"/>
-      <c r="CT1" s="145"/>
-      <c r="CU1" s="145"/>
-      <c r="CV1" s="145"/>
-      <c r="CW1" s="145"/>
-      <c r="CX1" s="145"/>
-      <c r="CY1" s="145"/>
-      <c r="CZ1" s="145"/>
-      <c r="DA1" s="145"/>
-      <c r="DB1" s="145"/>
-      <c r="DC1" s="145"/>
-      <c r="DD1" s="145"/>
-      <c r="DE1" s="145"/>
-      <c r="DF1" s="145"/>
-      <c r="DG1" s="145"/>
-      <c r="DH1" s="145"/>
-      <c r="DI1" s="145"/>
-      <c r="DJ1" s="145"/>
-      <c r="DK1" s="145"/>
-      <c r="DL1" s="145"/>
-      <c r="DM1" s="145"/>
-      <c r="DN1" s="145"/>
-      <c r="DO1" s="145"/>
-      <c r="DP1" s="145"/>
-      <c r="DQ1" s="145"/>
-      <c r="DR1" s="145"/>
-      <c r="DS1" s="145"/>
-      <c r="DT1" s="145"/>
-      <c r="DU1" s="145"/>
-      <c r="DV1" s="145"/>
-      <c r="DW1" s="145"/>
-      <c r="DX1" s="145"/>
-      <c r="DY1" s="145"/>
-      <c r="DZ1" s="145"/>
-      <c r="EA1" s="145"/>
-      <c r="EB1" s="145"/>
-      <c r="EC1" s="145"/>
-      <c r="ED1" s="145"/>
-      <c r="EE1" s="145"/>
-      <c r="EF1" s="145"/>
-      <c r="EG1" s="145"/>
-      <c r="EH1" s="145"/>
-      <c r="EI1" s="145"/>
-      <c r="EJ1" s="145"/>
-      <c r="EK1" s="145"/>
-      <c r="EL1" s="145"/>
-      <c r="EM1" s="145"/>
-      <c r="EN1" s="145"/>
-      <c r="EO1" s="145"/>
-      <c r="EP1" s="145"/>
-      <c r="EQ1" s="145"/>
-      <c r="ER1" s="145"/>
-      <c r="ES1" s="145"/>
-      <c r="ET1" s="145"/>
-      <c r="EU1" s="145"/>
-      <c r="EV1" s="145"/>
-      <c r="EW1" s="145"/>
-      <c r="EX1" s="145"/>
-      <c r="EY1" s="145"/>
-      <c r="EZ1" s="145"/>
-      <c r="FA1" s="145"/>
-      <c r="FB1" s="145"/>
-      <c r="FC1" s="145"/>
-      <c r="FD1" s="145"/>
-      <c r="FE1" s="145"/>
-      <c r="FF1" s="145"/>
-      <c r="FG1" s="145"/>
-      <c r="FH1" s="145"/>
-      <c r="FI1" s="145"/>
-      <c r="FJ1" s="145"/>
-      <c r="FK1" s="145"/>
-      <c r="FL1" s="145"/>
-      <c r="FM1" s="145"/>
-      <c r="FN1" s="145"/>
-      <c r="FO1" s="145"/>
-      <c r="FP1" s="145"/>
-      <c r="FQ1" s="145"/>
-      <c r="FR1" s="145"/>
-      <c r="FS1" s="145"/>
-      <c r="FT1" s="145"/>
-      <c r="FU1" s="145"/>
-      <c r="FV1" s="145"/>
-      <c r="FW1" s="145"/>
-      <c r="FX1" s="145"/>
-      <c r="FY1" s="145"/>
-      <c r="FZ1" s="145"/>
-      <c r="GA1" s="145"/>
-      <c r="GB1" s="145"/>
-      <c r="GC1" s="145"/>
-      <c r="GD1" s="145"/>
-      <c r="GE1" s="145"/>
-      <c r="GF1" s="145"/>
-      <c r="GG1" s="145"/>
-      <c r="GH1" s="145"/>
-      <c r="GI1" s="145"/>
-      <c r="GJ1" s="145"/>
-      <c r="GK1" s="145"/>
-      <c r="GL1" s="145"/>
-      <c r="GM1" s="145"/>
-      <c r="GN1" s="145"/>
-      <c r="GO1" s="145"/>
-      <c r="GP1" s="145"/>
-      <c r="GQ1" s="145"/>
-      <c r="GR1" s="145"/>
-      <c r="GS1" s="145"/>
-      <c r="GT1" s="145"/>
-      <c r="GU1" s="145"/>
-      <c r="GV1" s="145"/>
-      <c r="GW1" s="145"/>
-      <c r="GX1" s="145"/>
-      <c r="GY1" s="145"/>
-      <c r="GZ1" s="145"/>
-      <c r="HA1" s="145"/>
-      <c r="HB1" s="145"/>
-      <c r="HC1" s="145"/>
-      <c r="HD1" s="145"/>
-      <c r="HE1" s="145"/>
-      <c r="HF1" s="145"/>
-      <c r="HG1" s="145"/>
-      <c r="HH1" s="145"/>
-      <c r="HI1" s="145"/>
-      <c r="HJ1" s="145"/>
-      <c r="HK1" s="145"/>
-      <c r="HL1" s="145"/>
-      <c r="HM1" s="145"/>
-      <c r="HN1" s="145"/>
-      <c r="HO1" s="145"/>
-      <c r="HP1" s="145"/>
-      <c r="HQ1" s="145"/>
-      <c r="HR1" s="145"/>
-      <c r="HS1" s="145"/>
-      <c r="HT1" s="145"/>
-      <c r="HU1" s="145"/>
-      <c r="HV1" s="145"/>
-      <c r="HW1" s="145"/>
-      <c r="HX1" s="145"/>
-      <c r="HY1" s="145"/>
-      <c r="HZ1" s="145"/>
-      <c r="IA1" s="145"/>
-      <c r="IB1" s="145"/>
-      <c r="IC1" s="145"/>
-      <c r="ID1" s="145"/>
-      <c r="IE1" s="145"/>
-      <c r="IF1" s="145"/>
-      <c r="IG1" s="145"/>
-      <c r="IH1" s="145"/>
-      <c r="II1" s="145"/>
-      <c r="IJ1" s="145"/>
-      <c r="IK1" s="145"/>
-      <c r="IL1" s="145"/>
-      <c r="IM1" s="145"/>
-      <c r="IN1" s="145"/>
-      <c r="IO1" s="145"/>
-      <c r="IP1" s="145"/>
-      <c r="IQ1" s="145"/>
-      <c r="IR1" s="145"/>
-      <c r="IS1" s="145"/>
-      <c r="IT1" s="145"/>
-      <c r="IU1" s="145"/>
-      <c r="IV1" s="145"/>
-    </row>
-    <row r="2" spans="1:256" ht="15.75" thickBot="1">
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
+      <c r="U1" s="138"/>
+      <c r="V1" s="138"/>
+      <c r="W1" s="138"/>
+      <c r="X1" s="138"/>
+      <c r="Y1" s="138"/>
+      <c r="Z1" s="138"/>
+      <c r="AA1" s="138"/>
+      <c r="AB1" s="138"/>
+      <c r="AC1" s="138"/>
+      <c r="AD1" s="138"/>
+      <c r="AE1" s="138"/>
+      <c r="AF1" s="138"/>
+      <c r="AG1" s="138"/>
+      <c r="AH1" s="138"/>
+      <c r="AI1" s="138"/>
+      <c r="AJ1" s="138"/>
+      <c r="AK1" s="138"/>
+      <c r="AL1" s="138"/>
+      <c r="AM1" s="138"/>
+      <c r="AN1" s="138"/>
+      <c r="AO1" s="138"/>
+      <c r="AP1" s="138"/>
+      <c r="AQ1" s="138"/>
+      <c r="AR1" s="138"/>
+      <c r="AS1" s="138"/>
+      <c r="AT1" s="138"/>
+      <c r="AU1" s="138"/>
+      <c r="AV1" s="138"/>
+      <c r="AW1" s="138"/>
+      <c r="AX1" s="138"/>
+      <c r="AY1" s="138"/>
+      <c r="AZ1" s="138"/>
+      <c r="BA1" s="138"/>
+      <c r="BB1" s="138"/>
+      <c r="BC1" s="138"/>
+      <c r="BD1" s="138"/>
+      <c r="BE1" s="138"/>
+      <c r="BF1" s="138"/>
+      <c r="BG1" s="138"/>
+      <c r="BH1" s="138"/>
+      <c r="BI1" s="138"/>
+      <c r="BJ1" s="138"/>
+      <c r="BK1" s="138"/>
+      <c r="BL1" s="138"/>
+      <c r="BM1" s="138"/>
+      <c r="BN1" s="138"/>
+      <c r="BO1" s="138"/>
+      <c r="BP1" s="138"/>
+      <c r="BQ1" s="138"/>
+      <c r="BR1" s="138"/>
+      <c r="BS1" s="138"/>
+      <c r="BT1" s="138"/>
+      <c r="BU1" s="138"/>
+      <c r="BV1" s="138"/>
+      <c r="BW1" s="138"/>
+      <c r="BX1" s="138"/>
+      <c r="BY1" s="138"/>
+      <c r="BZ1" s="138"/>
+      <c r="CA1" s="138"/>
+      <c r="CB1" s="138"/>
+      <c r="CC1" s="138"/>
+      <c r="CD1" s="138"/>
+      <c r="CE1" s="138"/>
+      <c r="CF1" s="138"/>
+      <c r="CG1" s="138"/>
+      <c r="CH1" s="138"/>
+      <c r="CI1" s="138"/>
+      <c r="CJ1" s="138"/>
+      <c r="CK1" s="138"/>
+      <c r="CL1" s="138"/>
+      <c r="CM1" s="138"/>
+      <c r="CN1" s="138"/>
+      <c r="CO1" s="138"/>
+      <c r="CP1" s="138"/>
+      <c r="CQ1" s="138"/>
+      <c r="CR1" s="138"/>
+      <c r="CS1" s="138"/>
+      <c r="CT1" s="138"/>
+      <c r="CU1" s="138"/>
+      <c r="CV1" s="138"/>
+      <c r="CW1" s="138"/>
+      <c r="CX1" s="138"/>
+      <c r="CY1" s="138"/>
+      <c r="CZ1" s="138"/>
+      <c r="DA1" s="138"/>
+      <c r="DB1" s="138"/>
+      <c r="DC1" s="138"/>
+      <c r="DD1" s="138"/>
+      <c r="DE1" s="138"/>
+      <c r="DF1" s="138"/>
+      <c r="DG1" s="138"/>
+      <c r="DH1" s="138"/>
+      <c r="DI1" s="138"/>
+      <c r="DJ1" s="138"/>
+      <c r="DK1" s="138"/>
+      <c r="DL1" s="138"/>
+      <c r="DM1" s="138"/>
+      <c r="DN1" s="138"/>
+      <c r="DO1" s="138"/>
+      <c r="DP1" s="138"/>
+      <c r="DQ1" s="138"/>
+      <c r="DR1" s="138"/>
+      <c r="DS1" s="138"/>
+      <c r="DT1" s="138"/>
+      <c r="DU1" s="138"/>
+      <c r="DV1" s="138"/>
+      <c r="DW1" s="138"/>
+      <c r="DX1" s="138"/>
+      <c r="DY1" s="138"/>
+      <c r="DZ1" s="138"/>
+      <c r="EA1" s="138"/>
+      <c r="EB1" s="138"/>
+      <c r="EC1" s="138"/>
+      <c r="ED1" s="138"/>
+      <c r="EE1" s="138"/>
+      <c r="EF1" s="138"/>
+      <c r="EG1" s="138"/>
+      <c r="EH1" s="138"/>
+      <c r="EI1" s="138"/>
+      <c r="EJ1" s="138"/>
+      <c r="EK1" s="138"/>
+      <c r="EL1" s="138"/>
+      <c r="EM1" s="138"/>
+      <c r="EN1" s="138"/>
+      <c r="EO1" s="138"/>
+      <c r="EP1" s="138"/>
+      <c r="EQ1" s="138"/>
+      <c r="ER1" s="138"/>
+      <c r="ES1" s="138"/>
+      <c r="ET1" s="138"/>
+      <c r="EU1" s="138"/>
+      <c r="EV1" s="138"/>
+      <c r="EW1" s="138"/>
+      <c r="EX1" s="138"/>
+      <c r="EY1" s="138"/>
+      <c r="EZ1" s="138"/>
+      <c r="FA1" s="138"/>
+      <c r="FB1" s="138"/>
+      <c r="FC1" s="138"/>
+      <c r="FD1" s="138"/>
+      <c r="FE1" s="138"/>
+      <c r="FF1" s="138"/>
+      <c r="FG1" s="138"/>
+      <c r="FH1" s="138"/>
+      <c r="FI1" s="138"/>
+      <c r="FJ1" s="138"/>
+      <c r="FK1" s="138"/>
+      <c r="FL1" s="138"/>
+      <c r="FM1" s="138"/>
+      <c r="FN1" s="138"/>
+      <c r="FO1" s="138"/>
+      <c r="FP1" s="138"/>
+      <c r="FQ1" s="138"/>
+      <c r="FR1" s="138"/>
+      <c r="FS1" s="138"/>
+      <c r="FT1" s="138"/>
+      <c r="FU1" s="138"/>
+      <c r="FV1" s="138"/>
+      <c r="FW1" s="138"/>
+      <c r="FX1" s="138"/>
+      <c r="FY1" s="138"/>
+      <c r="FZ1" s="138"/>
+      <c r="GA1" s="138"/>
+      <c r="GB1" s="138"/>
+      <c r="GC1" s="138"/>
+      <c r="GD1" s="138"/>
+      <c r="GE1" s="138"/>
+      <c r="GF1" s="138"/>
+      <c r="GG1" s="138"/>
+      <c r="GH1" s="138"/>
+      <c r="GI1" s="138"/>
+      <c r="GJ1" s="138"/>
+      <c r="GK1" s="138"/>
+      <c r="GL1" s="138"/>
+      <c r="GM1" s="138"/>
+      <c r="GN1" s="138"/>
+      <c r="GO1" s="138"/>
+      <c r="GP1" s="138"/>
+      <c r="GQ1" s="138"/>
+      <c r="GR1" s="138"/>
+      <c r="GS1" s="138"/>
+      <c r="GT1" s="138"/>
+      <c r="GU1" s="138"/>
+      <c r="GV1" s="138"/>
+      <c r="GW1" s="138"/>
+      <c r="GX1" s="138"/>
+      <c r="GY1" s="138"/>
+      <c r="GZ1" s="138"/>
+      <c r="HA1" s="138"/>
+      <c r="HB1" s="138"/>
+      <c r="HC1" s="138"/>
+      <c r="HD1" s="138"/>
+      <c r="HE1" s="138"/>
+      <c r="HF1" s="138"/>
+      <c r="HG1" s="138"/>
+      <c r="HH1" s="138"/>
+      <c r="HI1" s="138"/>
+      <c r="HJ1" s="138"/>
+      <c r="HK1" s="138"/>
+      <c r="HL1" s="138"/>
+      <c r="HM1" s="138"/>
+      <c r="HN1" s="138"/>
+      <c r="HO1" s="138"/>
+      <c r="HP1" s="138"/>
+      <c r="HQ1" s="138"/>
+      <c r="HR1" s="138"/>
+      <c r="HS1" s="138"/>
+      <c r="HT1" s="138"/>
+      <c r="HU1" s="138"/>
+      <c r="HV1" s="138"/>
+      <c r="HW1" s="138"/>
+      <c r="HX1" s="138"/>
+      <c r="HY1" s="138"/>
+      <c r="HZ1" s="138"/>
+      <c r="IA1" s="138"/>
+      <c r="IB1" s="138"/>
+      <c r="IC1" s="138"/>
+      <c r="ID1" s="138"/>
+      <c r="IE1" s="138"/>
+      <c r="IF1" s="138"/>
+      <c r="IG1" s="138"/>
+      <c r="IH1" s="138"/>
+      <c r="II1" s="138"/>
+      <c r="IJ1" s="138"/>
+      <c r="IK1" s="138"/>
+      <c r="IL1" s="138"/>
+      <c r="IM1" s="138"/>
+      <c r="IN1" s="138"/>
+      <c r="IO1" s="138"/>
+      <c r="IP1" s="138"/>
+      <c r="IQ1" s="138"/>
+      <c r="IR1" s="138"/>
+      <c r="IS1" s="138"/>
+      <c r="IT1" s="138"/>
+      <c r="IU1" s="138"/>
+      <c r="IV1" s="138"/>
+    </row>
+    <row r="2" spans="1:256" ht="15" thickBot="1">
       <c r="A2" s="153" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -56126,7 +56146,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15.75" thickBot="1">
+    <row r="4" spans="1:256" ht="15" thickBot="1">
       <c r="A4" s="155"/>
       <c r="B4" s="157"/>
       <c r="C4" s="159"/>
@@ -57902,7 +57922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="77" customFormat="1" ht="15.75" thickBot="1">
+    <row r="46" spans="1:11" s="77" customFormat="1" ht="15" thickBot="1">
       <c r="A46" s="79">
         <f>'Сводная таблица'!A46:A47</f>
         <v>42</v>

--- a/ТМОГИ.2016.осень.xlsx
+++ b/ТМОГИ.2016.осень.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1620" windowWidth="12504" windowHeight="7920"/>
+    <workbookView xWindow="0" yWindow="1620" windowWidth="12510" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="Сводная таблица" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Сводная таблица'!$A$2:$BH$50</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="135">
   <si>
     <t>балл(max)=</t>
   </si>
@@ -436,12 +436,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1606,6 +1606,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1684,6 +1689,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1718,6 +1724,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1893,45 +1900,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:II135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BG48" sqref="BG48"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF91" sqref="AF91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="5.88671875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" style="35" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="4.88671875" style="35" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="5.44140625" style="35" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="4.33203125" style="35" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="4.88671875" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="4.5546875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="35" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" style="35" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="35" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" style="35" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="4.5703125" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="5" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.109375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="5.140625" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="5" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="4.5546875" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="4.5703125" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="5" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="4.5546875" hidden="1" customWidth="1"/>
-    <col min="21" max="22" width="3.33203125" hidden="1" customWidth="1"/>
-    <col min="23" max="24" width="3.33203125" customWidth="1"/>
+    <col min="20" max="20" width="4.5703125" hidden="1" customWidth="1"/>
+    <col min="21" max="22" width="3.28515625" hidden="1" customWidth="1"/>
+    <col min="23" max="24" width="3.28515625" customWidth="1"/>
     <col min="25" max="25" width="4" customWidth="1"/>
-    <col min="26" max="26" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="32" width="3.33203125" customWidth="1"/>
-    <col min="33" max="58" width="3.33203125" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="32" width="3.28515625" customWidth="1"/>
+    <col min="33" max="58" width="3.28515625" hidden="1" customWidth="1"/>
+    <col min="59" max="59" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:243" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:243" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="172" t="s">
         <v>122</v>
       </c>
@@ -2178,7 +2185,7 @@
       <c r="IH1" s="172"/>
       <c r="II1" s="172"/>
     </row>
-    <row r="2" spans="1:243" ht="15" thickBot="1">
+    <row r="2" spans="1:243" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="106">
         <f>DATE(2016,9,1)</f>
         <v>42614</v>
@@ -2245,7 +2252,7 @@
       <c r="BG2" s="19"/>
       <c r="BH2" s="19"/>
     </row>
-    <row r="3" spans="1:243" s="4" customFormat="1" ht="15" customHeight="1">
+    <row r="3" spans="1:243" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="174" t="s">
         <v>39</v>
       </c>
@@ -2429,7 +2436,7 @@
       <c r="BG3" s="3"/>
       <c r="BH3" s="3"/>
     </row>
-    <row r="4" spans="1:243" ht="43.2">
+    <row r="4" spans="1:243" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="174"/>
       <c r="B4" s="169"/>
       <c r="C4" s="171"/>
@@ -2635,7 +2642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:243">
+    <row r="5" spans="1:243" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -2735,7 +2742,7 @@
         <v>5.3003257328990223</v>
       </c>
     </row>
-    <row r="6" spans="1:243">
+    <row r="6" spans="1:243" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>2</v>
       </c>
@@ -2835,7 +2842,7 @@
         <v>7.7863192182410401</v>
       </c>
     </row>
-    <row r="7" spans="1:243">
+    <row r="7" spans="1:243" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>3</v>
       </c>
@@ -2935,7 +2942,7 @@
         <v>5.4097719869706831</v>
       </c>
     </row>
-    <row r="8" spans="1:243">
+    <row r="8" spans="1:243" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>4</v>
       </c>
@@ -3035,7 +3042,7 @@
         <v>6.1706840390879476</v>
       </c>
     </row>
-    <row r="9" spans="1:243">
+    <row r="9" spans="1:243" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>5</v>
       </c>
@@ -3135,7 +3142,7 @@
         <v>7.2495114006514649</v>
       </c>
     </row>
-    <row r="10" spans="1:243">
+    <row r="10" spans="1:243" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>6</v>
       </c>
@@ -3235,7 +3242,7 @@
         <v>6.9576547231270354</v>
       </c>
     </row>
-    <row r="11" spans="1:243">
+    <row r="11" spans="1:243" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>7</v>
       </c>
@@ -3335,7 +3342,7 @@
         <v>7.5934853420195436</v>
       </c>
     </row>
-    <row r="12" spans="1:243">
+    <row r="12" spans="1:243" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>8</v>
       </c>
@@ -3435,7 +3442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:243">
+    <row r="13" spans="1:243" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>9</v>
       </c>
@@ -3535,7 +3542,7 @@
         <v>6.9576547231270354</v>
       </c>
     </row>
-    <row r="14" spans="1:243" s="158" customFormat="1">
+    <row r="14" spans="1:243" s="158" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="140">
         <v>10</v>
       </c>
@@ -3631,7 +3638,7 @@
         <v>3.1270358306188921</v>
       </c>
     </row>
-    <row r="15" spans="1:243">
+    <row r="15" spans="1:243" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>11</v>
       </c>
@@ -3731,7 +3738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:243">
+    <row r="16" spans="1:243" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>12</v>
       </c>
@@ -3829,7 +3836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:60">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>13</v>
       </c>
@@ -3927,7 +3934,7 @@
         <v>4.1693811074918559</v>
       </c>
     </row>
-    <row r="18" spans="1:60">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>14</v>
       </c>
@@ -4025,7 +4032,7 @@
         <v>1.042345276872964</v>
       </c>
     </row>
-    <row r="19" spans="1:60">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>15</v>
       </c>
@@ -4123,7 +4130,7 @@
         <v>6.6501628664495103</v>
       </c>
     </row>
-    <row r="20" spans="1:60">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>16</v>
       </c>
@@ -4221,7 +4228,7 @@
         <v>5.2117263843648205</v>
       </c>
     </row>
-    <row r="21" spans="1:60">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>17</v>
       </c>
@@ -4319,7 +4326,7 @@
         <v>3.1270358306188921</v>
       </c>
     </row>
-    <row r="22" spans="1:60">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>18</v>
       </c>
@@ -4417,7 +4424,7 @@
         <v>5.2117263843648205</v>
       </c>
     </row>
-    <row r="23" spans="1:60">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>19</v>
       </c>
@@ -4515,7 +4522,7 @@
         <v>4.8833876221498373</v>
       </c>
     </row>
-    <row r="24" spans="1:60">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>20</v>
       </c>
@@ -4613,7 +4620,7 @@
         <v>5.2117263843648205</v>
       </c>
     </row>
-    <row r="25" spans="1:60">
+    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>21</v>
       </c>
@@ -4711,7 +4718,7 @@
         <v>5.7485342019543966</v>
       </c>
     </row>
-    <row r="26" spans="1:60">
+    <row r="26" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>22</v>
       </c>
@@ -4770,7 +4777,9 @@
       <c r="AD26" s="130" t="s">
         <v>131</v>
       </c>
-      <c r="AE26" s="62"/>
+      <c r="AE26" s="62" t="s">
+        <v>131</v>
+      </c>
       <c r="AF26" s="159" t="s">
         <v>131</v>
       </c>
@@ -4809,7 +4818,7 @@
         <v>3.1270358306188921</v>
       </c>
     </row>
-    <row r="27" spans="1:60">
+    <row r="27" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>23</v>
       </c>
@@ -4868,7 +4877,9 @@
       <c r="AD27" s="130" t="s">
         <v>131</v>
       </c>
-      <c r="AE27" s="62"/>
+      <c r="AE27" s="62" t="s">
+        <v>131</v>
+      </c>
       <c r="AF27" s="159" t="s">
         <v>131</v>
       </c>
@@ -4907,7 +4918,7 @@
         <v>3.1270358306188921</v>
       </c>
     </row>
-    <row r="28" spans="1:60">
+    <row r="28" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>24</v>
       </c>
@@ -4966,7 +4977,9 @@
       <c r="AD28" s="62">
         <v>2</v>
       </c>
-      <c r="AE28" s="62"/>
+      <c r="AE28" s="62">
+        <v>2</v>
+      </c>
       <c r="AF28" s="62">
         <v>2</v>
       </c>
@@ -4998,14 +5011,14 @@
       <c r="BF28" s="62"/>
       <c r="BG28" s="104">
         <f t="shared" si="4"/>
-        <v>15.35</v>
+        <v>17.350000000000001</v>
       </c>
       <c r="BH28" s="11">
         <f t="shared" si="5"/>
-        <v>6.9576547231270354</v>
-      </c>
-    </row>
-    <row r="29" spans="1:60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>25</v>
       </c>
@@ -5064,7 +5077,9 @@
       <c r="AD29" s="130" t="s">
         <v>131</v>
       </c>
-      <c r="AE29" s="62"/>
+      <c r="AE29" s="62">
+        <v>2</v>
+      </c>
       <c r="AF29" s="62">
         <v>2</v>
       </c>
@@ -5096,14 +5111,14 @@
       <c r="BF29" s="62"/>
       <c r="BG29" s="104">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BH29" s="11">
         <f t="shared" si="5"/>
-        <v>4.1693811074918559</v>
-      </c>
-    </row>
-    <row r="30" spans="1:60">
+        <v>5.2117263843648205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>26</v>
       </c>
@@ -5162,7 +5177,9 @@
       <c r="AD30" s="130" t="s">
         <v>131</v>
       </c>
-      <c r="AE30" s="62"/>
+      <c r="AE30" s="62">
+        <v>2</v>
+      </c>
       <c r="AF30" s="62">
         <v>2</v>
       </c>
@@ -5194,14 +5211,14 @@
       <c r="BF30" s="62"/>
       <c r="BG30" s="104">
         <f t="shared" si="4"/>
-        <v>10.370000000000001</v>
+        <v>12.370000000000001</v>
       </c>
       <c r="BH30" s="11">
         <f t="shared" si="5"/>
-        <v>4.362214983713355</v>
-      </c>
-    </row>
-    <row r="31" spans="1:60">
+        <v>5.4045602605863197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>27</v>
       </c>
@@ -5260,7 +5277,9 @@
       <c r="AD31" s="62">
         <v>2</v>
       </c>
-      <c r="AE31" s="62"/>
+      <c r="AE31" s="62">
+        <v>2</v>
+      </c>
       <c r="AF31" s="62">
         <v>2</v>
       </c>
@@ -5292,14 +5311,14 @@
       <c r="BF31" s="62"/>
       <c r="BG31" s="104">
         <f t="shared" si="4"/>
-        <v>13.84</v>
+        <v>15.84</v>
       </c>
       <c r="BH31" s="11">
         <f t="shared" si="5"/>
-        <v>6.1706840390879476</v>
-      </c>
-    </row>
-    <row r="32" spans="1:60">
+        <v>7.2130293159609113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>28</v>
       </c>
@@ -5358,7 +5377,9 @@
       <c r="AD32" s="130" t="s">
         <v>131</v>
       </c>
-      <c r="AE32" s="62"/>
+      <c r="AE32" s="62">
+        <v>2</v>
+      </c>
       <c r="AF32" s="62">
         <v>2</v>
       </c>
@@ -5390,14 +5411,14 @@
       <c r="BF32" s="62"/>
       <c r="BG32" s="104">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BH32" s="11">
         <f t="shared" si="5"/>
-        <v>4.1693811074918559</v>
-      </c>
-    </row>
-    <row r="33" spans="1:60">
+        <v>5.2117263843648205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>29</v>
       </c>
@@ -5456,7 +5477,9 @@
       <c r="AD33" s="62">
         <v>2</v>
       </c>
-      <c r="AE33" s="62"/>
+      <c r="AE33" s="62">
+        <v>2</v>
+      </c>
       <c r="AF33" s="62">
         <v>2</v>
       </c>
@@ -5488,14 +5511,14 @@
       <c r="BF33" s="62"/>
       <c r="BG33" s="104">
         <f t="shared" si="4"/>
-        <v>15.35</v>
+        <v>17.350000000000001</v>
       </c>
       <c r="BH33" s="11">
         <f t="shared" si="5"/>
-        <v>6.9576547231270354</v>
-      </c>
-    </row>
-    <row r="34" spans="1:60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <v>30</v>
       </c>
@@ -5554,7 +5577,9 @@
       <c r="AD34" s="62">
         <v>2</v>
       </c>
-      <c r="AE34" s="62"/>
+      <c r="AE34" s="62">
+        <v>2</v>
+      </c>
       <c r="AF34" s="62">
         <v>2</v>
       </c>
@@ -5586,14 +5611,14 @@
       <c r="BF34" s="62"/>
       <c r="BG34" s="104">
         <f t="shared" si="4"/>
-        <v>13.84</v>
+        <v>15.84</v>
       </c>
       <c r="BH34" s="11">
         <f t="shared" si="5"/>
-        <v>6.1706840390879476</v>
-      </c>
-    </row>
-    <row r="35" spans="1:60">
+        <v>7.2130293159609113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>31</v>
       </c>
@@ -5652,7 +5677,9 @@
       <c r="AD35" s="62">
         <v>2</v>
       </c>
-      <c r="AE35" s="62"/>
+      <c r="AE35" s="62">
+        <v>2</v>
+      </c>
       <c r="AF35" s="62">
         <v>2</v>
       </c>
@@ -5684,14 +5711,14 @@
       <c r="BF35" s="62"/>
       <c r="BG35" s="104">
         <f t="shared" si="4"/>
-        <v>14.94</v>
+        <v>16.939999999999998</v>
       </c>
       <c r="BH35" s="11">
         <f t="shared" si="5"/>
-        <v>6.7439739413680773</v>
-      </c>
-    </row>
-    <row r="36" spans="1:60">
+        <v>7.7863192182410401</v>
+      </c>
+    </row>
+    <row r="36" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
         <v>32</v>
       </c>
@@ -5789,7 +5816,7 @@
         <v>6.2280130293159601</v>
       </c>
     </row>
-    <row r="37" spans="1:60">
+    <row r="37" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>33</v>
       </c>
@@ -5887,7 +5914,7 @@
         <v>6.9159609120521166</v>
       </c>
     </row>
-    <row r="38" spans="1:60">
+    <row r="38" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <v>34</v>
       </c>
@@ -5985,7 +6012,7 @@
         <v>4.1693811074918559</v>
       </c>
     </row>
-    <row r="39" spans="1:60">
+    <row r="39" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <v>35</v>
       </c>
@@ -6083,7 +6110,7 @@
         <v>5.3368078175895759</v>
       </c>
     </row>
-    <row r="40" spans="1:60">
+    <row r="40" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>36</v>
       </c>
@@ -6177,7 +6204,7 @@
         <v>2.0846905537459279</v>
       </c>
     </row>
-    <row r="41" spans="1:60">
+    <row r="41" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>37</v>
       </c>
@@ -6275,7 +6302,7 @@
         <v>6.6762214983713353</v>
       </c>
     </row>
-    <row r="42" spans="1:60">
+    <row r="42" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <v>38</v>
       </c>
@@ -6373,7 +6400,7 @@
         <v>5.5609120521172635</v>
       </c>
     </row>
-    <row r="43" spans="1:60">
+    <row r="43" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <v>39</v>
       </c>
@@ -6471,7 +6498,7 @@
         <v>5.3993485342019536</v>
       </c>
     </row>
-    <row r="44" spans="1:60">
+    <row r="44" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <v>40</v>
       </c>
@@ -6569,7 +6596,7 @@
         <v>4.1693811074918559</v>
       </c>
     </row>
-    <row r="45" spans="1:60">
+    <row r="45" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <v>41</v>
       </c>
@@ -6667,7 +6694,7 @@
         <v>5.2117263843648205</v>
       </c>
     </row>
-    <row r="46" spans="1:60" ht="15" thickBot="1">
+    <row r="46" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="24">
         <v>42</v>
       </c>
@@ -6765,7 +6792,7 @@
         <v>4.1693811074918559</v>
       </c>
     </row>
-    <row r="47" spans="1:60">
+    <row r="47" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -6824,7 +6851,7 @@
       </c>
       <c r="AE47" s="10">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AF47" s="10">
         <f t="shared" si="6"/>
@@ -6936,7 +6963,7 @@
       </c>
       <c r="BG47" s="10"/>
     </row>
-    <row r="48" spans="1:60">
+    <row r="48" spans="1:60" x14ac:dyDescent="0.25">
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48"/>
@@ -6957,7 +6984,7 @@
       </c>
       <c r="AI48" s="10"/>
     </row>
-    <row r="49" spans="1:60">
+    <row r="49" spans="1:60" x14ac:dyDescent="0.25">
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49"/>
@@ -6977,7 +7004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:60" ht="15" thickBot="1">
+    <row r="50" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50"/>
@@ -6989,7 +7016,7 @@
       <c r="Z50" s="4"/>
       <c r="AD50" s="6"/>
     </row>
-    <row r="51" spans="1:60">
+    <row r="51" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A51" s="175" t="s">
         <v>9</v>
       </c>
@@ -7173,7 +7200,7 @@
       <c r="BG51" s="24"/>
       <c r="BH51" s="24"/>
     </row>
-    <row r="52" spans="1:60" ht="43.2">
+    <row r="52" spans="1:60" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="175"/>
       <c r="B52" s="169"/>
       <c r="C52" s="171"/>
@@ -7379,7 +7406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:60" ht="15" customHeight="1">
+    <row r="53" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="18">
         <v>1</v>
       </c>
@@ -7475,7 +7502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:60" ht="15" customHeight="1">
+    <row r="54" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
         <v>2</v>
       </c>
@@ -7571,7 +7598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:60" ht="15" customHeight="1">
+    <row r="55" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <v>3</v>
       </c>
@@ -7667,7 +7694,7 @@
         <v>7.2495114006514649</v>
       </c>
     </row>
-    <row r="56" spans="1:60" ht="15" customHeight="1">
+    <row r="56" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
         <v>4</v>
       </c>
@@ -7763,7 +7790,7 @@
         <v>7.2130293159609113</v>
       </c>
     </row>
-    <row r="57" spans="1:60" ht="15" customHeight="1">
+    <row r="57" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
         <v>5</v>
       </c>
@@ -7859,7 +7886,7 @@
         <v>6.9576547231270354</v>
       </c>
     </row>
-    <row r="58" spans="1:60" ht="15" customHeight="1">
+    <row r="58" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <v>6</v>
       </c>
@@ -7955,7 +7982,7 @@
         <v>6.9576547231270354</v>
       </c>
     </row>
-    <row r="59" spans="1:60" ht="15" customHeight="1">
+    <row r="59" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <v>7</v>
       </c>
@@ -8049,7 +8076,7 @@
         <v>6.9576547231270354</v>
       </c>
     </row>
-    <row r="60" spans="1:60" ht="15" customHeight="1">
+    <row r="60" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
         <v>8</v>
       </c>
@@ -8145,7 +8172,7 @@
         <v>6.7283387622149835</v>
       </c>
     </row>
-    <row r="61" spans="1:60" ht="15" customHeight="1">
+    <row r="61" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
         <v>9</v>
       </c>
@@ -8239,7 +8266,7 @@
         <v>6.6762214983713353</v>
       </c>
     </row>
-    <row r="62" spans="1:60" ht="15" customHeight="1">
+    <row r="62" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
         <v>10</v>
       </c>
@@ -8333,7 +8360,7 @@
         <v>6.6762214983713353</v>
       </c>
     </row>
-    <row r="63" spans="1:60" ht="15" customHeight="1">
+    <row r="63" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="24">
         <v>11</v>
       </c>
@@ -8427,7 +8454,7 @@
         <v>6.6501628664495103</v>
       </c>
     </row>
-    <row r="64" spans="1:60" ht="15" customHeight="1">
+    <row r="64" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="24">
         <v>12</v>
       </c>
@@ -8521,7 +8548,7 @@
         <v>6.6501628664495103</v>
       </c>
     </row>
-    <row r="65" spans="1:60" ht="15" customHeight="1">
+    <row r="65" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="24">
         <v>13</v>
       </c>
@@ -8615,7 +8642,7 @@
         <v>6.1915309446254057</v>
       </c>
     </row>
-    <row r="66" spans="1:60" ht="15" customHeight="1">
+    <row r="66" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="24">
         <v>14</v>
       </c>
@@ -8711,7 +8738,7 @@
         <v>6.1706840390879476</v>
       </c>
     </row>
-    <row r="67" spans="1:60" ht="15" customHeight="1">
+    <row r="67" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="24">
         <v>15</v>
       </c>
@@ -8805,7 +8832,7 @@
         <v>6.0872964169381101</v>
       </c>
     </row>
-    <row r="68" spans="1:60" ht="15" customHeight="1">
+    <row r="68" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="24">
         <v>16</v>
       </c>
@@ -8899,7 +8926,7 @@
         <v>5.7954397394136805</v>
       </c>
     </row>
-    <row r="69" spans="1:60" ht="15" customHeight="1">
+    <row r="69" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="24">
         <v>17</v>
       </c>
@@ -8993,7 +9020,7 @@
         <v>5.7485342019543966</v>
       </c>
     </row>
-    <row r="70" spans="1:60" ht="15" customHeight="1">
+    <row r="70" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="24">
         <v>18</v>
       </c>
@@ -9087,7 +9114,7 @@
         <v>5.5609120521172635</v>
       </c>
     </row>
-    <row r="71" spans="1:60" ht="15" customHeight="1">
+    <row r="71" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="24">
         <v>19</v>
       </c>
@@ -9183,7 +9210,7 @@
         <v>5.4097719869706831</v>
       </c>
     </row>
-    <row r="72" spans="1:60" ht="15" customHeight="1">
+    <row r="72" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="24">
         <v>20</v>
       </c>
@@ -9277,7 +9304,7 @@
         <v>5.3993485342019536</v>
       </c>
     </row>
-    <row r="73" spans="1:60" ht="15" customHeight="1">
+    <row r="73" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="24">
         <v>21</v>
       </c>
@@ -9371,7 +9398,7 @@
         <v>5.3368078175895759</v>
       </c>
     </row>
-    <row r="74" spans="1:60" ht="15" customHeight="1">
+    <row r="74" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="24">
         <v>22</v>
       </c>
@@ -9465,7 +9492,7 @@
         <v>5.2117263843648205</v>
       </c>
     </row>
-    <row r="75" spans="1:60" ht="15" customHeight="1">
+    <row r="75" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="24">
         <v>23</v>
       </c>
@@ -9559,7 +9586,7 @@
         <v>5.2117263843648205</v>
       </c>
     </row>
-    <row r="76" spans="1:60" ht="15" customHeight="1">
+    <row r="76" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="24">
         <v>24</v>
       </c>
@@ -9653,7 +9680,7 @@
         <v>5.2117263843648205</v>
       </c>
     </row>
-    <row r="77" spans="1:60" ht="15" customHeight="1">
+    <row r="77" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="24">
         <v>25</v>
       </c>
@@ -9747,7 +9774,7 @@
         <v>5.2117263843648205</v>
       </c>
     </row>
-    <row r="78" spans="1:60" ht="15" customHeight="1">
+    <row r="78" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="24">
         <v>26</v>
       </c>
@@ -9841,7 +9868,7 @@
         <v>5.2117263843648205</v>
       </c>
     </row>
-    <row r="79" spans="1:60" ht="15" customHeight="1">
+    <row r="79" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="24">
         <v>27</v>
       </c>
@@ -9937,7 +9964,7 @@
         <v>5.1648208469055374</v>
       </c>
     </row>
-    <row r="80" spans="1:60" ht="15" customHeight="1">
+    <row r="80" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="24">
         <v>28</v>
       </c>
@@ -10031,7 +10058,7 @@
         <v>4.362214983713355</v>
       </c>
     </row>
-    <row r="81" spans="1:60" ht="15" customHeight="1">
+    <row r="81" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="24">
         <v>29</v>
       </c>
@@ -10125,7 +10152,7 @@
         <v>4.362214983713355</v>
       </c>
     </row>
-    <row r="82" spans="1:60" ht="15" customHeight="1">
+    <row r="82" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="24">
         <v>30</v>
       </c>
@@ -10219,7 +10246,7 @@
         <v>4.1693811074918559</v>
       </c>
     </row>
-    <row r="83" spans="1:60" ht="15" customHeight="1">
+    <row r="83" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="24">
         <v>31</v>
       </c>
@@ -10313,7 +10340,7 @@
         <v>4.1693811074918559</v>
       </c>
     </row>
-    <row r="84" spans="1:60" ht="15" customHeight="1">
+    <row r="84" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="24">
         <v>32</v>
       </c>
@@ -10407,7 +10434,7 @@
         <v>4.1693811074918559</v>
       </c>
     </row>
-    <row r="85" spans="1:60" ht="15" customHeight="1">
+    <row r="85" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="24">
         <v>33</v>
       </c>
@@ -10501,7 +10528,7 @@
         <v>4.1693811074918559</v>
       </c>
     </row>
-    <row r="86" spans="1:60" ht="15" customHeight="1">
+    <row r="86" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="24">
         <v>34</v>
       </c>
@@ -10595,7 +10622,7 @@
         <v>4.1693811074918559</v>
       </c>
     </row>
-    <row r="87" spans="1:60" ht="15" customHeight="1">
+    <row r="87" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="24">
         <v>35</v>
       </c>
@@ -10689,7 +10716,7 @@
         <v>4.1693811074918559</v>
       </c>
     </row>
-    <row r="88" spans="1:60" ht="15" customHeight="1">
+    <row r="88" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="24">
         <v>36</v>
       </c>
@@ -10781,7 +10808,7 @@
         <v>3.1270358306188921</v>
       </c>
     </row>
-    <row r="89" spans="1:60" ht="15" customHeight="1">
+    <row r="89" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="24">
         <v>37</v>
       </c>
@@ -10875,7 +10902,7 @@
         <v>3.1270358306188921</v>
       </c>
     </row>
-    <row r="90" spans="1:60" ht="15" customHeight="1">
+    <row r="90" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="24">
         <v>38</v>
       </c>
@@ -10932,7 +10959,9 @@
       <c r="AD90" s="129" t="s">
         <v>131</v>
       </c>
-      <c r="AE90" s="129"/>
+      <c r="AE90" s="129" t="s">
+        <v>131</v>
+      </c>
       <c r="AF90" s="129" t="s">
         <v>131</v>
       </c>
@@ -10969,7 +10998,7 @@
         <v>3.1270358306188921</v>
       </c>
     </row>
-    <row r="91" spans="1:60" ht="15" customHeight="1">
+    <row r="91" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="24">
         <v>39</v>
       </c>
@@ -11026,7 +11055,9 @@
       <c r="AD91" s="129" t="s">
         <v>131</v>
       </c>
-      <c r="AE91" s="129"/>
+      <c r="AE91" s="129" t="s">
+        <v>131</v>
+      </c>
       <c r="AF91" s="129" t="s">
         <v>131</v>
       </c>
@@ -11063,7 +11094,7 @@
         <v>3.1270358306188921</v>
       </c>
     </row>
-    <row r="92" spans="1:60" ht="15" customHeight="1">
+    <row r="92" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="24">
         <v>40</v>
       </c>
@@ -11153,7 +11184,7 @@
         <v>2.0846905537459279</v>
       </c>
     </row>
-    <row r="93" spans="1:60" ht="15" customHeight="1">
+    <row r="93" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="24">
         <v>41</v>
       </c>
@@ -11247,7 +11278,7 @@
         <v>1.042345276872964</v>
       </c>
     </row>
-    <row r="94" spans="1:60" ht="15" customHeight="1" thickBot="1">
+    <row r="94" spans="1:60" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="24">
         <v>42</v>
       </c>
@@ -11341,7 +11372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:60" ht="15" hidden="1" customHeight="1">
+    <row r="95" spans="1:60" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="24"/>
       <c r="B95" s="16"/>
       <c r="C95" s="109"/>
@@ -11403,7 +11434,7 @@
       <c r="BG95" s="121"/>
       <c r="BH95" s="11"/>
     </row>
-    <row r="96" spans="1:60" ht="15" hidden="1" customHeight="1">
+    <row r="96" spans="1:60" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="24"/>
       <c r="B96" s="16"/>
       <c r="C96" s="109"/>
@@ -11465,7 +11496,7 @@
       <c r="BG96" s="121"/>
       <c r="BH96" s="11"/>
     </row>
-    <row r="97" spans="1:60" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:60" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="24"/>
       <c r="B97" s="16"/>
       <c r="C97" s="109"/>
@@ -11527,7 +11558,7 @@
       <c r="BG97" s="121"/>
       <c r="BH97" s="11"/>
     </row>
-    <row r="98" spans="1:60" ht="15" hidden="1" customHeight="1">
+    <row r="98" spans="1:60" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="24"/>
       <c r="B98" s="16"/>
       <c r="C98" s="109"/>
@@ -11589,7 +11620,7 @@
       <c r="BG98" s="121"/>
       <c r="BH98" s="11"/>
     </row>
-    <row r="99" spans="1:60" ht="15" hidden="1" customHeight="1">
+    <row r="99" spans="1:60" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="24"/>
       <c r="B99" s="16"/>
       <c r="C99" s="109"/>
@@ -11651,7 +11682,7 @@
       <c r="BG99" s="121"/>
       <c r="BH99" s="11"/>
     </row>
-    <row r="100" spans="1:60" ht="15" hidden="1" customHeight="1">
+    <row r="100" spans="1:60" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="24"/>
       <c r="B100" s="16"/>
       <c r="C100" s="109"/>
@@ -11713,7 +11744,7 @@
       <c r="BG100" s="121"/>
       <c r="BH100" s="11"/>
     </row>
-    <row r="101" spans="1:60" ht="15" hidden="1" customHeight="1">
+    <row r="101" spans="1:60" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="24"/>
       <c r="B101" s="16"/>
       <c r="C101" s="109"/>
@@ -11775,7 +11806,7 @@
       <c r="BG101" s="121"/>
       <c r="BH101" s="11"/>
     </row>
-    <row r="102" spans="1:60" ht="15" hidden="1" customHeight="1">
+    <row r="102" spans="1:60" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="24"/>
       <c r="B102" s="16"/>
       <c r="C102" s="109"/>
@@ -11837,7 +11868,7 @@
       <c r="BG102" s="121"/>
       <c r="BH102" s="11"/>
     </row>
-    <row r="103" spans="1:60" ht="15" hidden="1" customHeight="1">
+    <row r="103" spans="1:60" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="24"/>
       <c r="B103" s="16"/>
       <c r="C103" s="109"/>
@@ -11899,7 +11930,7 @@
       <c r="BG103" s="121"/>
       <c r="BH103" s="11"/>
     </row>
-    <row r="104" spans="1:60" hidden="1">
+    <row r="104" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="18"/>
       <c r="B104" s="16"/>
       <c r="C104" s="109"/>
@@ -11961,7 +11992,7 @@
       <c r="BG104" s="41"/>
       <c r="BH104" s="11"/>
     </row>
-    <row r="105" spans="1:60" hidden="1">
+    <row r="105" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="18"/>
       <c r="B105" s="16"/>
       <c r="C105" s="109"/>
@@ -12023,7 +12054,7 @@
       <c r="BG105" s="41"/>
       <c r="BH105" s="11"/>
     </row>
-    <row r="106" spans="1:60" hidden="1">
+    <row r="106" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="18"/>
       <c r="B106" s="16"/>
       <c r="C106" s="109"/>
@@ -12085,7 +12116,7 @@
       <c r="BG106" s="41"/>
       <c r="BH106" s="11"/>
     </row>
-    <row r="107" spans="1:60" hidden="1">
+    <row r="107" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="18"/>
       <c r="B107" s="16"/>
       <c r="C107" s="109"/>
@@ -12147,7 +12178,7 @@
       <c r="BG107" s="41"/>
       <c r="BH107" s="11"/>
     </row>
-    <row r="108" spans="1:60" hidden="1">
+    <row r="108" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="18"/>
       <c r="B108" s="16"/>
       <c r="C108" s="109"/>
@@ -12209,7 +12240,7 @@
       <c r="BG108" s="41"/>
       <c r="BH108" s="11"/>
     </row>
-    <row r="109" spans="1:60" hidden="1">
+    <row r="109" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="18"/>
       <c r="B109" s="16"/>
       <c r="C109" s="109"/>
@@ -12271,7 +12302,7 @@
       <c r="BG109" s="41"/>
       <c r="BH109" s="11"/>
     </row>
-    <row r="110" spans="1:60" hidden="1">
+    <row r="110" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="18"/>
       <c r="B110" s="16"/>
       <c r="C110" s="109"/>
@@ -12333,7 +12364,7 @@
       <c r="BG110" s="41"/>
       <c r="BH110" s="11"/>
     </row>
-    <row r="111" spans="1:60" hidden="1">
+    <row r="111" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="18"/>
       <c r="B111" s="16"/>
       <c r="C111" s="109"/>
@@ -12395,7 +12426,7 @@
       <c r="BG111" s="41"/>
       <c r="BH111" s="11"/>
     </row>
-    <row r="112" spans="1:60" hidden="1">
+    <row r="112" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="18"/>
       <c r="B112" s="16"/>
       <c r="C112" s="109"/>
@@ -12457,7 +12488,7 @@
       <c r="BG112" s="41"/>
       <c r="BH112" s="11"/>
     </row>
-    <row r="113" spans="1:60" hidden="1">
+    <row r="113" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="18"/>
       <c r="B113" s="16"/>
       <c r="C113" s="109"/>
@@ -12519,7 +12550,7 @@
       <c r="BG113" s="41"/>
       <c r="BH113" s="11"/>
     </row>
-    <row r="114" spans="1:60" hidden="1">
+    <row r="114" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="18"/>
       <c r="B114" s="16"/>
       <c r="C114" s="109"/>
@@ -12581,7 +12612,7 @@
       <c r="BG114" s="41"/>
       <c r="BH114" s="11"/>
     </row>
-    <row r="115" spans="1:60" hidden="1">
+    <row r="115" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="18"/>
       <c r="B115" s="16"/>
       <c r="C115" s="109"/>
@@ -12643,7 +12674,7 @@
       <c r="BG115" s="41"/>
       <c r="BH115" s="11"/>
     </row>
-    <row r="116" spans="1:60" hidden="1">
+    <row r="116" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="18"/>
       <c r="B116" s="16"/>
       <c r="C116" s="109"/>
@@ -12705,7 +12736,7 @@
       <c r="BG116" s="41"/>
       <c r="BH116" s="11"/>
     </row>
-    <row r="117" spans="1:60" hidden="1">
+    <row r="117" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="18"/>
       <c r="B117" s="16"/>
       <c r="C117" s="109"/>
@@ -12767,7 +12798,7 @@
       <c r="BG117" s="41"/>
       <c r="BH117" s="11"/>
     </row>
-    <row r="118" spans="1:60" hidden="1">
+    <row r="118" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="18"/>
       <c r="B118" s="16"/>
       <c r="C118" s="109"/>
@@ -12829,7 +12860,7 @@
       <c r="BG118" s="41"/>
       <c r="BH118" s="11"/>
     </row>
-    <row r="119" spans="1:60" hidden="1">
+    <row r="119" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="18"/>
       <c r="B119" s="16"/>
       <c r="C119" s="109"/>
@@ -12891,7 +12922,7 @@
       <c r="BG119" s="41"/>
       <c r="BH119" s="11"/>
     </row>
-    <row r="120" spans="1:60" hidden="1">
+    <row r="120" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="18"/>
       <c r="B120" s="16"/>
       <c r="C120" s="109"/>
@@ -12953,7 +12984,7 @@
       <c r="BG120" s="41"/>
       <c r="BH120" s="11"/>
     </row>
-    <row r="121" spans="1:60" hidden="1">
+    <row r="121" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="18"/>
       <c r="B121" s="16"/>
       <c r="C121" s="109"/>
@@ -13015,7 +13046,7 @@
       <c r="BG121" s="41"/>
       <c r="BH121" s="11"/>
     </row>
-    <row r="122" spans="1:60" hidden="1">
+    <row r="122" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="18"/>
       <c r="B122" s="16"/>
       <c r="C122" s="109"/>
@@ -13077,7 +13108,7 @@
       <c r="BG122" s="41"/>
       <c r="BH122" s="11"/>
     </row>
-    <row r="123" spans="1:60" hidden="1">
+    <row r="123" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="18"/>
       <c r="B123" s="16"/>
       <c r="C123" s="109"/>
@@ -13139,7 +13170,7 @@
       <c r="BG123" s="41"/>
       <c r="BH123" s="11"/>
     </row>
-    <row r="124" spans="1:60" hidden="1">
+    <row r="124" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="18"/>
       <c r="B124" s="16"/>
       <c r="C124" s="109"/>
@@ -13201,7 +13232,7 @@
       <c r="BG124" s="41"/>
       <c r="BH124" s="11"/>
     </row>
-    <row r="125" spans="1:60" hidden="1">
+    <row r="125" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="18"/>
       <c r="B125" s="16"/>
       <c r="C125" s="109"/>
@@ -13263,7 +13294,7 @@
       <c r="BG125" s="41"/>
       <c r="BH125" s="11"/>
     </row>
-    <row r="126" spans="1:60" hidden="1">
+    <row r="126" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="18"/>
       <c r="B126" s="16"/>
       <c r="C126" s="109"/>
@@ -13325,7 +13356,7 @@
       <c r="BG126" s="41"/>
       <c r="BH126" s="11"/>
     </row>
-    <row r="127" spans="1:60" hidden="1">
+    <row r="127" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="18"/>
       <c r="B127" s="16"/>
       <c r="C127" s="109"/>
@@ -13387,7 +13418,7 @@
       <c r="BG127" s="41"/>
       <c r="BH127" s="11"/>
     </row>
-    <row r="128" spans="1:60" hidden="1">
+    <row r="128" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="18"/>
       <c r="B128" s="16"/>
       <c r="C128" s="109"/>
@@ -13449,7 +13480,7 @@
       <c r="BG128" s="41"/>
       <c r="BH128" s="11"/>
     </row>
-    <row r="129" spans="1:60" ht="15" hidden="1" thickBot="1">
+    <row r="129" spans="1:60" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="18"/>
       <c r="B129" s="16"/>
       <c r="C129" s="109"/>
@@ -13511,7 +13542,7 @@
       <c r="BG129" s="41"/>
       <c r="BH129" s="11"/>
     </row>
-    <row r="130" spans="1:60" ht="15" hidden="1" customHeight="1">
+    <row r="130" spans="1:60" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -13570,20 +13601,16 @@
       <c r="BF130" s="10"/>
       <c r="BG130" s="10"/>
     </row>
-    <row r="131" spans="1:60" ht="15" hidden="1" customHeight="1"/>
-    <row r="132" spans="1:60" hidden="1"/>
-    <row r="133" spans="1:60" hidden="1"/>
-    <row r="134" spans="1:60" hidden="1"/>
-    <row r="135" spans="1:60" hidden="1"/>
+    <row r="131" spans="1:60" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="1:60" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="1:60" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="134" spans="1:60" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="1:60" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState ref="B53:BH94">
     <sortCondition descending="1" ref="BH53:BH94"/>
   </sortState>
   <mergeCells count="17">
-    <mergeCell ref="G51:M51"/>
-    <mergeCell ref="N51:U51"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
     <mergeCell ref="A1:II1"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="A3:A4"/>
@@ -13597,6 +13624,10 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="G3:M3"/>
     <mergeCell ref="N3:U3"/>
+    <mergeCell ref="G51:M51"/>
+    <mergeCell ref="N51:U51"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
   </mergeCells>
   <pageMargins left="0.19685039370078999" right="0.19" top="0.31496062992126" bottom="0.74803149606299002" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -13604,29 +13635,29 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IU52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="172" t="s">
         <v>122</v>
       </c>
@@ -13885,7 +13916,7 @@
       <c r="IT1" s="172"/>
       <c r="IU1" s="172"/>
     </row>
-    <row r="2" spans="1:255" ht="15" thickBot="1">
+    <row r="2" spans="1:255" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="180" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -13901,7 +13932,7 @@
       <c r="J2" s="180"/>
       <c r="K2" s="180"/>
     </row>
-    <row r="3" spans="1:255" ht="15" customHeight="1">
+    <row r="3" spans="1:255" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="181" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -13942,7 +13973,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:255" ht="15" thickBot="1">
+    <row r="4" spans="1:255" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="182"/>
       <c r="B4" s="184"/>
       <c r="C4" s="186"/>
@@ -13955,7 +13986,7 @@
       <c r="J4" s="196"/>
       <c r="K4" s="197"/>
     </row>
-    <row r="5" spans="1:255" s="77" customFormat="1">
+    <row r="5" spans="1:255" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="85">
         <f>'Сводная таблица'!A5:A6</f>
         <v>1</v>
@@ -13998,7 +14029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:255" s="77" customFormat="1">
+    <row r="6" spans="1:255" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="78">
         <f>'Сводная таблица'!A6:A7</f>
         <v>2</v>
@@ -14042,7 +14073,7 @@
       </c>
       <c r="M6" s="103"/>
     </row>
-    <row r="7" spans="1:255" s="77" customFormat="1">
+    <row r="7" spans="1:255" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="78">
         <f>'Сводная таблица'!A7:A8</f>
         <v>3</v>
@@ -14085,7 +14116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:255" s="77" customFormat="1">
+    <row r="8" spans="1:255" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78">
         <f>'Сводная таблица'!A8:A9</f>
         <v>4</v>
@@ -14128,7 +14159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:255" s="77" customFormat="1">
+    <row r="9" spans="1:255" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="78">
         <f>'Сводная таблица'!A9:A10</f>
         <v>5</v>
@@ -14171,7 +14202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:255" s="77" customFormat="1">
+    <row r="10" spans="1:255" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="78">
         <f>'Сводная таблица'!A10:A11</f>
         <v>6</v>
@@ -14214,7 +14245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:255" s="77" customFormat="1">
+    <row r="11" spans="1:255" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="78">
         <f>'Сводная таблица'!A11:A12</f>
         <v>7</v>
@@ -14257,7 +14288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:255" s="77" customFormat="1">
+    <row r="12" spans="1:255" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="78">
         <f>'Сводная таблица'!A12:A13</f>
         <v>8</v>
@@ -14300,7 +14331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:255" s="77" customFormat="1">
+    <row r="13" spans="1:255" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="78">
         <f>'Сводная таблица'!A13:A14</f>
         <v>9</v>
@@ -14343,7 +14374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:255" s="77" customFormat="1">
+    <row r="14" spans="1:255" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78">
         <f>'Сводная таблица'!A14:A15</f>
         <v>10</v>
@@ -14386,7 +14417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:255" s="77" customFormat="1">
+    <row r="15" spans="1:255" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78">
         <f>'Сводная таблица'!A15:A16</f>
         <v>11</v>
@@ -14429,7 +14460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:255" s="77" customFormat="1">
+    <row r="16" spans="1:255" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78">
         <f>'Сводная таблица'!A16:A17</f>
         <v>12</v>
@@ -14472,7 +14503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="77" customFormat="1">
+    <row r="17" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="78">
         <f>'Сводная таблица'!A17:A18</f>
         <v>13</v>
@@ -14515,7 +14546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="77" customFormat="1">
+    <row r="18" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="78">
         <f>'Сводная таблица'!A18:A19</f>
         <v>14</v>
@@ -14558,7 +14589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="77" customFormat="1">
+    <row r="19" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="78">
         <f>'Сводная таблица'!A19:A20</f>
         <v>15</v>
@@ -14600,7 +14631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="77" customFormat="1">
+    <row r="20" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78">
         <f>'Сводная таблица'!A20:A21</f>
         <v>16</v>
@@ -14643,7 +14674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="77" customFormat="1">
+    <row r="21" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78">
         <f>'Сводная таблица'!A21:A22</f>
         <v>17</v>
@@ -14686,7 +14717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="77" customFormat="1">
+    <row r="22" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="78">
         <f>'Сводная таблица'!A22:A23</f>
         <v>18</v>
@@ -14729,7 +14760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="77" customFormat="1">
+    <row r="23" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="78">
         <f>'Сводная таблица'!A23:A24</f>
         <v>19</v>
@@ -14772,7 +14803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="77" customFormat="1">
+    <row r="24" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78">
         <f>'Сводная таблица'!A24:A25</f>
         <v>20</v>
@@ -14815,7 +14846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="77" customFormat="1">
+    <row r="25" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="78">
         <f>'Сводная таблица'!A25:A26</f>
         <v>21</v>
@@ -14858,7 +14889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="77" customFormat="1">
+    <row r="26" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="78">
         <f>'Сводная таблица'!A26:A27</f>
         <v>22</v>
@@ -14901,7 +14932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="77" customFormat="1">
+    <row r="27" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="78">
         <f>'Сводная таблица'!A27:A28</f>
         <v>23</v>
@@ -14944,7 +14975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="77" customFormat="1">
+    <row r="28" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="78">
         <f>'Сводная таблица'!A28:A29</f>
         <v>24</v>
@@ -14987,7 +15018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="77" customFormat="1">
+    <row r="29" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="78">
         <f>'Сводная таблица'!A29:A30</f>
         <v>25</v>
@@ -15030,7 +15061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="77" customFormat="1">
+    <row r="30" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="78">
         <f>'Сводная таблица'!A30:A31</f>
         <v>26</v>
@@ -15073,7 +15104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="77" customFormat="1">
+    <row r="31" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="78">
         <f>'Сводная таблица'!A31:A32</f>
         <v>27</v>
@@ -15116,7 +15147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="77" customFormat="1">
+    <row r="32" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="78">
         <f>'Сводная таблица'!A32:A33</f>
         <v>28</v>
@@ -15159,7 +15190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="77" customFormat="1">
+    <row r="33" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="78">
         <f>'Сводная таблица'!A33:A34</f>
         <v>29</v>
@@ -15202,7 +15233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="77" customFormat="1">
+    <row r="34" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="78">
         <f>'Сводная таблица'!A34:A35</f>
         <v>30</v>
@@ -15245,7 +15276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="77" customFormat="1">
+    <row r="35" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="78">
         <f>'Сводная таблица'!A35:A36</f>
         <v>31</v>
@@ -15288,7 +15319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="77" customFormat="1">
+    <row r="36" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="78">
         <f>'Сводная таблица'!A36:A37</f>
         <v>32</v>
@@ -15331,7 +15362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="77" customFormat="1">
+    <row r="37" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="78">
         <f>'Сводная таблица'!A37:A38</f>
         <v>33</v>
@@ -15374,7 +15405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="77" customFormat="1">
+    <row r="38" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="78">
         <f>'Сводная таблица'!A38:A39</f>
         <v>34</v>
@@ -15417,7 +15448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="77" customFormat="1">
+    <row r="39" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="78">
         <f>'Сводная таблица'!A39:A40</f>
         <v>35</v>
@@ -15460,7 +15491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="77" customFormat="1">
+    <row r="40" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="78">
         <f>'Сводная таблица'!A40:A41</f>
         <v>36</v>
@@ -15503,7 +15534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="77" customFormat="1">
+    <row r="41" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="78">
         <f>'Сводная таблица'!A41:A42</f>
         <v>37</v>
@@ -15546,7 +15577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="77" customFormat="1">
+    <row r="42" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="78">
         <f>'Сводная таблица'!A42:A43</f>
         <v>38</v>
@@ -15589,7 +15620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="77" customFormat="1">
+    <row r="43" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="78">
         <f>'Сводная таблица'!A43:A44</f>
         <v>39</v>
@@ -15632,7 +15663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="77" customFormat="1">
+    <row r="44" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="78">
         <f>'Сводная таблица'!A44:A45</f>
         <v>40</v>
@@ -15675,7 +15706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="77" customFormat="1">
+    <row r="45" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="78">
         <f>'Сводная таблица'!A45:A46</f>
         <v>41</v>
@@ -15718,7 +15749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="77" customFormat="1" ht="15" thickBot="1">
+    <row r="46" spans="1:11" s="77" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="79">
         <f>'Сводная таблица'!A46:A47</f>
         <v>42</v>
@@ -15761,7 +15792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="63" customFormat="1">
+    <row r="47" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="76"/>
       <c r="B47" s="76"/>
       <c r="C47" s="76"/>
@@ -15770,7 +15801,7 @@
       <c r="F47" s="76"/>
       <c r="G47" s="76"/>
     </row>
-    <row r="48" spans="1:11" s="63" customFormat="1">
+    <row r="48" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="76"/>
       <c r="B48" s="76"/>
       <c r="C48" s="76"/>
@@ -15779,7 +15810,7 @@
       <c r="F48" s="76"/>
       <c r="G48" s="76"/>
     </row>
-    <row r="49" spans="1:7" s="63" customFormat="1">
+    <row r="49" spans="1:7" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="76"/>
       <c r="B49" s="76"/>
       <c r="C49" s="76"/>
@@ -15788,7 +15819,7 @@
       <c r="F49" s="76"/>
       <c r="G49" s="76"/>
     </row>
-    <row r="50" spans="1:7" s="63" customFormat="1">
+    <row r="50" spans="1:7" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="76"/>
       <c r="B50" s="76"/>
       <c r="C50" s="76"/>
@@ -15797,7 +15828,7 @@
       <c r="F50" s="76"/>
       <c r="G50" s="76"/>
     </row>
-    <row r="51" spans="1:7" s="63" customFormat="1">
+    <row r="51" spans="1:7" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="76"/>
       <c r="B51" s="76"/>
       <c r="C51" s="76"/>
@@ -15806,7 +15837,7 @@
       <c r="F51" s="76"/>
       <c r="G51" s="76"/>
     </row>
-    <row r="52" spans="1:7" s="63" customFormat="1">
+    <row r="52" spans="1:7" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="76"/>
       <c r="B52" s="76"/>
       <c r="C52" s="76"/>
@@ -15836,23 +15867,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" style="102" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="4" customWidth="1"/>
-    <col min="3" max="27" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="9.109375" style="63"/>
+    <col min="1" max="1" width="31.28515625" style="102" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="4" customWidth="1"/>
+    <col min="3" max="27" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.140625" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="172" t="s">
         <v>122</v>
       </c>
@@ -16112,7 +16143,7 @@
       <c r="IU1" s="172"/>
       <c r="IV1" s="172"/>
     </row>
-    <row r="2" spans="1:256" s="66" customFormat="1">
+    <row r="2" spans="1:256" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>134</v>
       </c>
@@ -16270,7 +16301,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:256" s="63" customFormat="1">
+    <row r="3" spans="1:256" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="102">
         <v>0</v>
       </c>
@@ -16428,7 +16459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:256">
+    <row r="4" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A4" s="102">
         <v>1</v>
       </c>
@@ -16636,7 +16667,7 @@
         <v>0.89695192324410611</v>
       </c>
     </row>
-    <row r="5" spans="1:256">
+    <row r="5" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A5" s="102">
         <f>A4+1</f>
         <v>2</v>
@@ -16845,7 +16876,7 @@
         <v>0.87018571255634025</v>
       </c>
     </row>
-    <row r="6" spans="1:256">
+    <row r="6" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A6" s="102">
         <f t="shared" ref="A6:A69" si="3">A5+1</f>
         <v>3</v>
@@ -17054,7 +17085,7 @@
         <v>0.84629551063873676</v>
       </c>
     </row>
-    <row r="7" spans="1:256">
+    <row r="7" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A7" s="102">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -17263,7 +17294,7 @@
         <v>0.82445642806579367</v>
       </c>
     </row>
-    <row r="8" spans="1:256">
+    <row r="8" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A8" s="102">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -17472,7 +17503,7 @@
         <v>0.80422263750866019</v>
       </c>
     </row>
-    <row r="9" spans="1:256">
+    <row r="9" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A9" s="102">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -17681,7 +17712,7 @@
         <v>0.78531313248338608</v>
       </c>
     </row>
-    <row r="10" spans="1:256">
+    <row r="10" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A10" s="102">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -17890,7 +17921,7 @@
         <v>0.76753310411070741</v>
       </c>
     </row>
-    <row r="11" spans="1:256">
+    <row r="11" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A11" s="102">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -18099,7 +18130,7 @@
         <v>0.75073850127167796</v>
       </c>
     </row>
-    <row r="12" spans="1:256">
+    <row r="12" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A12" s="102">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -18308,7 +18339,7 @@
         <v>0.73481776731189774</v>
       </c>
     </row>
-    <row r="13" spans="1:256">
+    <row r="13" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A13" s="102">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -18517,7 +18548,7 @@
         <v>0.71968148502792184</v>
       </c>
     </row>
-    <row r="14" spans="1:256">
+    <row r="14" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A14" s="102">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -18726,7 +18757,7 @@
         <v>0.70525606632121929</v>
       </c>
     </row>
-    <row r="15" spans="1:256">
+    <row r="15" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A15" s="102">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -18935,7 +18966,7 @@
         <v>0.69147968248291725</v>
       </c>
     </row>
-    <row r="16" spans="1:256">
+    <row r="16" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A16" s="102">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -19144,7 +19175,7 @@
         <v>0.67829951653884102</v>
       </c>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" s="102">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -19353,7 +19384,7 @@
         <v>0.66566983669222213</v>
       </c>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A18" s="102">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -19562,7 +19593,7 @@
         <v>0.65355060191796732</v>
       </c>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19" s="102">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -19771,7 +19802,7 @@
         <v>0.64190642508943729</v>
       </c>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20" s="102">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -19980,7 +20011,7 @@
         <v>0.63070578385177745</v>
       </c>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A21" s="102">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -20189,7 +20220,7 @@
         <v>0.61992040782875424</v>
       </c>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A22" s="102">
         <f t="shared" si="3"/>
         <v>19</v>
@@ -20398,7 +20429,7 @@
         <v>0.60952479431466833</v>
       </c>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A23" s="102">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -20607,7 +20638,7 @@
         <v>0.59949581954633846</v>
       </c>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A24" s="102">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -20816,7 +20847,7 @@
         <v>0.58981242239837206</v>
       </c>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A25" s="102">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -21025,7 +21056,7 @@
         <v>0.58045534386588959</v>
       </c>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A26" s="102">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -21234,7 +21265,7 @@
         <v>0.57140691016010958</v>
       </c>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A27" s="102">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -21443,7 +21474,7 @@
         <v>0.56265085035673512</v>
       </c>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A28" s="102">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -21652,7 +21683,7 @@
         <v>0.55417214175163687</v>
       </c>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A29" s="102">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -21861,7 +21892,7 @@
         <v>0.54595687767947287</v>
       </c>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A30" s="102">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -22070,7 +22101,7 @@
         <v>0.53799215372631093</v>
       </c>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A31" s="102">
         <f t="shared" si="3"/>
         <v>28</v>
@@ -22279,7 +22310,7 @@
         <v>0.53026596914239565</v>
       </c>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A32" s="102">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -22488,7 +22519,7 @@
         <v>0.52276714092111976</v>
       </c>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A33" s="102">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -22697,7 +22728,7 @@
         <v>0.51548522851390399</v>
       </c>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A34" s="102">
         <f t="shared" si="3"/>
         <v>31</v>
@@ -22906,7 +22937,7 @@
         <v>0.50841046753931596</v>
       </c>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A35" s="102">
         <f t="shared" si="3"/>
         <v>32</v>
@@ -23115,7 +23146,7 @@
         <v>0.5015337111477397</v>
       </c>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A36" s="102">
         <f t="shared" si="3"/>
         <v>33</v>
@@ -23324,7 +23355,7 @@
         <v>0.49484637794137742</v>
       </c>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A37" s="102">
         <f t="shared" si="3"/>
         <v>34</v>
@@ -23533,7 +23564,7 @@
         <v>0.48834040553873787</v>
       </c>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A38" s="102">
         <f t="shared" si="3"/>
         <v>35</v>
@@ -23742,7 +23773,7 @@
         <v>0.48200820902440999</v>
       </c>
     </row>
-    <row r="39" spans="1:52">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A39" s="102">
         <f t="shared" si="3"/>
         <v>36</v>
@@ -23951,7 +23982,7 @@
         <v>0.4758426436472955</v>
       </c>
     </row>
-    <row r="40" spans="1:52">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A40" s="102">
         <f t="shared" si="3"/>
         <v>37</v>
@@ -24160,7 +24191,7 @@
         <v>0.46983697122996571</v>
       </c>
     </row>
-    <row r="41" spans="1:52">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A41" s="102">
         <f t="shared" si="3"/>
         <v>38</v>
@@ -24369,7 +24400,7 @@
         <v>0.46398482983322931</v>
       </c>
     </row>
-    <row r="42" spans="1:52">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A42" s="102">
         <f t="shared" si="3"/>
         <v>39</v>
@@ -24578,7 +24609,7 @@
         <v>0.45828020628708993</v>
       </c>
     </row>
-    <row r="43" spans="1:52">
+    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A43" s="102">
         <f t="shared" si="3"/>
         <v>40</v>
@@ -24787,7 +24818,7 @@
         <v>0.45271741125486509</v>
       </c>
     </row>
-    <row r="44" spans="1:52">
+    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A44" s="102">
         <f t="shared" si="3"/>
         <v>41</v>
@@ -24996,7 +25027,7 @@
         <v>0.44729105654358564</v>
       </c>
     </row>
-    <row r="45" spans="1:52">
+    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A45" s="102">
         <f t="shared" si="3"/>
         <v>42</v>
@@ -25205,7 +25236,7 @@
         <v>0.44199603441263408</v>
       </c>
     </row>
-    <row r="46" spans="1:52">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A46" s="102">
         <f t="shared" si="3"/>
         <v>43</v>
@@ -25414,7 +25445,7 @@
         <v>0.43682749866529708</v>
       </c>
     </row>
-    <row r="47" spans="1:52">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A47" s="102">
         <f t="shared" si="3"/>
         <v>44</v>
@@ -25623,7 +25654,7 @@
         <v>0.43178084733559291</v>
       </c>
     </row>
-    <row r="48" spans="1:52">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A48" s="102">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -25832,7 +25863,7 @@
         <v>0.42685170680628148</v>
       </c>
     </row>
-    <row r="49" spans="1:52">
+    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A49" s="102">
         <f t="shared" si="3"/>
         <v>46</v>
@@ -26041,7 +26072,7 @@
         <v>0.42203591721406519</v>
       </c>
     </row>
-    <row r="50" spans="1:52">
+    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A50" s="102">
         <f t="shared" si="3"/>
         <v>47</v>
@@ -26250,7 +26281,7 @@
         <v>0.41732951901522114</v>
       </c>
     </row>
-    <row r="51" spans="1:52">
+    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A51" s="102">
         <f t="shared" si="3"/>
         <v>48</v>
@@ -26459,7 +26490,7 @@
         <v>0.41272874059974574</v>
       </c>
     </row>
-    <row r="52" spans="1:52">
+    <row r="52" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A52" s="102">
         <f t="shared" si="3"/>
         <v>49</v>
@@ -26668,7 +26699,7 @@
         <v>0.40822998685489836</v>
       </c>
     </row>
-    <row r="53" spans="1:52">
+    <row r="53" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A53" s="102">
         <f t="shared" si="3"/>
         <v>50</v>
@@ -26877,7 +26908,7 @@
         <v>0.40382982859014716</v>
       </c>
     </row>
-    <row r="54" spans="1:52">
+    <row r="54" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A54" s="102">
         <f t="shared" si="3"/>
         <v>51</v>
@@ -27086,7 +27117,7 @@
         <v>0.39952499274517511</v>
       </c>
     </row>
-    <row r="55" spans="1:52">
+    <row r="55" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A55" s="102">
         <f t="shared" si="3"/>
         <v>52</v>
@@ -27295,7 +27326,7 @@
         <v>0.39531235331103515</v>
       </c>
     </row>
-    <row r="56" spans="1:52">
+    <row r="56" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A56" s="102">
         <f t="shared" si="3"/>
         <v>53</v>
@@ -27504,7 +27535,7 @@
         <v>0.39118892290191981</v>
       </c>
     </row>
-    <row r="57" spans="1:52">
+    <row r="57" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A57" s="102">
         <f t="shared" si="3"/>
         <v>54</v>
@@ -27713,7 +27744,7 @@
         <v>0.38715184492148302</v>
       </c>
     </row>
-    <row r="58" spans="1:52">
+    <row r="58" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A58" s="102">
         <f t="shared" si="3"/>
         <v>55</v>
@@ -27922,7 +27953,7 @@
         <v>0.3831983862733474</v>
       </c>
     </row>
-    <row r="59" spans="1:52">
+    <row r="59" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A59" s="102">
         <f t="shared" si="3"/>
         <v>56</v>
@@ -28131,7 +28162,7 @@
         <v>0.37932593057045705</v>
       </c>
     </row>
-    <row r="60" spans="1:52">
+    <row r="60" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A60" s="102">
         <f t="shared" si="3"/>
         <v>57</v>
@@ -28340,7 +28371,7 @@
         <v>0.37553197180237941</v>
       </c>
     </row>
-    <row r="61" spans="1:52">
+    <row r="61" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A61" s="102">
         <f t="shared" si="3"/>
         <v>58</v>
@@ -28549,7 +28580,7 @@
         <v>0.37181410842360219</v>
       </c>
     </row>
-    <row r="62" spans="1:52">
+    <row r="62" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A62" s="102">
         <f t="shared" si="3"/>
         <v>59</v>
@@ -28758,7 +28789,7 @@
         <v>0.36817003782937135</v>
       </c>
     </row>
-    <row r="63" spans="1:52">
+    <row r="63" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A63" s="102">
         <f t="shared" si="3"/>
         <v>60</v>
@@ -28967,7 +28998,7 @@
         <v>0.36459755118873494</v>
       </c>
     </row>
-    <row r="64" spans="1:52">
+    <row r="64" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A64" s="102">
         <f t="shared" si="3"/>
         <v>61</v>
@@ -29176,7 +29207,7 @@
         <v>0.36109452860724189</v>
       </c>
     </row>
-    <row r="65" spans="1:52">
+    <row r="65" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A65" s="102">
         <f t="shared" si="3"/>
         <v>62</v>
@@ -29385,7 +29416,7 @@
         <v>0.35765893459423009</v>
       </c>
     </row>
-    <row r="66" spans="1:52">
+    <row r="66" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A66" s="102">
         <f t="shared" si="3"/>
         <v>63</v>
@@ -29594,7 +29625,7 @@
         <v>0.35428881381187033</v>
       </c>
     </row>
-    <row r="67" spans="1:52">
+    <row r="67" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A67" s="102">
         <f t="shared" si="3"/>
         <v>64</v>
@@ -29803,7 +29834,7 @@
         <v>0.35098228708513207</v>
       </c>
     </row>
-    <row r="68" spans="1:52">
+    <row r="68" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A68" s="102">
         <f t="shared" si="3"/>
         <v>65</v>
@@ -30012,7 +30043,7 @@
         <v>0.3477375476536349</v>
       </c>
     </row>
-    <row r="69" spans="1:52">
+    <row r="69" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A69" s="102">
         <f t="shared" si="3"/>
         <v>66</v>
@@ -30221,7 +30252,7 @@
         <v>0.34455285764797311</v>
       </c>
     </row>
-    <row r="70" spans="1:52">
+    <row r="70" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A70" s="102">
         <f t="shared" ref="A70:A103" si="22">A69+1</f>
         <v>67</v>
@@ -30430,7 +30461,7 @@
         <v>0.34142654477455808</v>
       </c>
     </row>
-    <row r="71" spans="1:52">
+    <row r="71" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A71" s="102">
         <f t="shared" si="22"/>
         <v>68</v>
@@ -30639,7 +30670,7 @@
         <v>0.33835699919434897</v>
       </c>
     </row>
-    <row r="72" spans="1:52">
+    <row r="72" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A72" s="102">
         <f t="shared" si="22"/>
         <v>69</v>
@@ -30848,7 +30879,7 @@
         <v>0.33534267058203321</v>
       </c>
     </row>
-    <row r="73" spans="1:52">
+    <row r="73" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A73" s="102">
         <f t="shared" si="22"/>
         <v>70</v>
@@ -31057,7 +31088,7 @@
         <v>0.33238206535330334</v>
       </c>
     </row>
-    <row r="74" spans="1:52">
+    <row r="74" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A74" s="102">
         <f t="shared" si="22"/>
         <v>71</v>
@@ -31266,7 +31297,7 @@
         <v>0.32947374404886082</v>
       </c>
     </row>
-    <row r="75" spans="1:52">
+    <row r="75" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A75" s="102">
         <f t="shared" si="22"/>
         <v>72</v>
@@ -31475,7 +31506,7 @@
         <v>0.32661631886466974</v>
       </c>
     </row>
-    <row r="76" spans="1:52">
+    <row r="76" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A76" s="102">
         <f t="shared" si="22"/>
         <v>73</v>
@@ -31684,7 +31715,7 @@
         <v>0.32380845131879504</v>
       </c>
     </row>
-    <row r="77" spans="1:52">
+    <row r="77" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A77" s="102">
         <f t="shared" si="22"/>
         <v>74</v>
@@ -31893,7 +31924,7 @@
         <v>0.32104885004590483</v>
       </c>
     </row>
-    <row r="78" spans="1:52">
+    <row r="78" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A78" s="102">
         <f t="shared" si="22"/>
         <v>75</v>
@@ -32102,7 +32133,7 @@
         <v>0.31833626871118842</v>
       </c>
     </row>
-    <row r="79" spans="1:52">
+    <row r="79" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A79" s="102">
         <f t="shared" si="22"/>
         <v>76</v>
@@ -32311,7 +32342,7 @@
         <v>0.31566950403605964</v>
       </c>
     </row>
-    <row r="80" spans="1:52">
+    <row r="80" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A80" s="102">
         <f t="shared" si="22"/>
         <v>77</v>
@@ -32520,7 +32551,7 @@
         <v>0.31304739392858366</v>
       </c>
     </row>
-    <row r="81" spans="1:52">
+    <row r="81" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A81" s="102">
         <f t="shared" si="22"/>
         <v>78</v>
@@ -32729,7 +32760,7 @@
         <v>0.31046881571207507</v>
       </c>
     </row>
-    <row r="82" spans="1:52">
+    <row r="82" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A82" s="102">
         <f t="shared" si="22"/>
         <v>79</v>
@@ -32938,7 +32969,7 @@
         <v>0.3079326844457963</v>
       </c>
     </row>
-    <row r="83" spans="1:52">
+    <row r="83" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A83" s="102">
         <f t="shared" si="22"/>
         <v>80</v>
@@ -33147,7 +33178,7 @@
         <v>0.30543795133211471</v>
       </c>
     </row>
-    <row r="84" spans="1:52">
+    <row r="84" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A84" s="102">
         <f t="shared" si="22"/>
         <v>81</v>
@@ -33356,7 +33387,7 @@
         <v>0.30298360220487908</v>
       </c>
     </row>
-    <row r="85" spans="1:52">
+    <row r="85" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A85" s="102">
         <f t="shared" si="22"/>
         <v>82</v>
@@ -33565,7 +33596,7 @@
         <v>0.30056865609414096</v>
       </c>
     </row>
-    <row r="86" spans="1:52">
+    <row r="86" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A86" s="102">
         <f t="shared" si="22"/>
         <v>83</v>
@@ -33774,7 +33805,7 @@
         <v>0.29819216386268604</v>
       </c>
     </row>
-    <row r="87" spans="1:52">
+    <row r="87" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A87" s="102">
         <f t="shared" si="22"/>
         <v>84</v>
@@ -33983,7 +34014,7 @@
         <v>0.29585320691014999</v>
       </c>
     </row>
-    <row r="88" spans="1:52">
+    <row r="88" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A88" s="102">
         <f t="shared" si="22"/>
         <v>85</v>
@@ -34192,7 +34223,7 @@
         <v>0.29355089594078115</v>
       </c>
     </row>
-    <row r="89" spans="1:52">
+    <row r="89" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A89" s="102">
         <f t="shared" si="22"/>
         <v>86</v>
@@ -34401,7 +34432,7 @@
         <v>0.29128436979117783</v>
       </c>
     </row>
-    <row r="90" spans="1:52">
+    <row r="90" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A90" s="102">
         <f t="shared" si="22"/>
         <v>87</v>
@@ -34610,7 +34641,7 @@
         <v>0.28905279431456948</v>
       </c>
     </row>
-    <row r="91" spans="1:52">
+    <row r="91" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A91" s="102">
         <f t="shared" si="22"/>
         <v>88</v>
@@ -34819,7 +34850,7 @@
         <v>0.28685536131844031</v>
       </c>
     </row>
-    <row r="92" spans="1:52">
+    <row r="92" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A92" s="102">
         <f t="shared" si="22"/>
         <v>89</v>
@@ -35028,7 +35059,7 @@
         <v>0.28469128755250095</v>
       </c>
     </row>
-    <row r="93" spans="1:52">
+    <row r="93" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A93" s="102">
         <f t="shared" si="22"/>
         <v>90</v>
@@ -35237,7 +35268,7 @@
         <v>0.28255981374420847</v>
       </c>
     </row>
-    <row r="94" spans="1:52">
+    <row r="94" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A94" s="102">
         <f t="shared" si="22"/>
         <v>91</v>
@@ -35446,7 +35477,7 @@
         <v>0.28046020367921182</v>
       </c>
     </row>
-    <row r="95" spans="1:52">
+    <row r="95" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A95" s="102">
         <f t="shared" si="22"/>
         <v>92</v>
@@ -35655,7 +35686,7 @@
         <v>0.27839174332427152</v>
       </c>
     </row>
-    <row r="96" spans="1:52">
+    <row r="96" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A96" s="102">
         <f t="shared" si="22"/>
         <v>93</v>
@@ -35864,7 +35895,7 @@
         <v>0.27635373999034968</v>
       </c>
     </row>
-    <row r="97" spans="1:52">
+    <row r="97" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A97" s="102">
         <f t="shared" si="22"/>
         <v>94</v>
@@ -36073,7 +36104,7 @@
         <v>0.27434552153371461</v>
       </c>
     </row>
-    <row r="98" spans="1:52">
+    <row r="98" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A98" s="102">
         <f t="shared" si="22"/>
         <v>95</v>
@@ -36282,7 +36313,7 @@
         <v>0.27236643559303747</v>
       </c>
     </row>
-    <row r="99" spans="1:52">
+    <row r="99" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A99" s="102">
         <f t="shared" si="22"/>
         <v>96</v>
@@ -36491,7 +36522,7 @@
         <v>0.27041584886057934</v>
       </c>
     </row>
-    <row r="100" spans="1:52">
+    <row r="100" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A100" s="102">
         <f t="shared" si="22"/>
         <v>97</v>
@@ -36700,7 +36731,7 @@
         <v>0.26849314638568411</v>
       </c>
     </row>
-    <row r="101" spans="1:52">
+    <row r="101" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A101" s="102">
         <f t="shared" si="22"/>
         <v>98</v>
@@ -36909,7 +36940,7 @@
         <v>0.26659773090890115</v>
       </c>
     </row>
-    <row r="102" spans="1:52">
+    <row r="102" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A102" s="102">
         <f t="shared" si="22"/>
         <v>99</v>
@@ -37118,7 +37149,7 @@
         <v>0.26472902222515887</v>
       </c>
     </row>
-    <row r="103" spans="1:52">
+    <row r="103" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A103" s="102">
         <f t="shared" si="22"/>
         <v>100</v>
@@ -37327,7 +37358,7 @@
         <v>0.26288645657450682</v>
       </c>
     </row>
-    <row r="104" spans="1:52">
+    <row r="104" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C104" s="60"/>
       <c r="D104" s="60"/>
       <c r="E104" s="60"/>
@@ -37379,7 +37410,7 @@
       <c r="AY104" s="60"/>
       <c r="AZ104" s="84"/>
     </row>
-    <row r="105" spans="1:52">
+    <row r="105" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C105" s="60"/>
       <c r="D105" s="60"/>
       <c r="E105" s="60"/>
@@ -37431,7 +37462,7 @@
       <c r="AY105" s="60"/>
       <c r="AZ105" s="84"/>
     </row>
-    <row r="106" spans="1:52">
+    <row r="106" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C106" s="60"/>
       <c r="D106" s="60"/>
       <c r="E106" s="60"/>
@@ -37483,7 +37514,7 @@
       <c r="AY106" s="60"/>
       <c r="AZ106" s="84"/>
     </row>
-    <row r="107" spans="1:52">
+    <row r="107" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C107" s="60"/>
       <c r="D107" s="60"/>
       <c r="E107" s="60"/>
@@ -37535,7 +37566,7 @@
       <c r="AY107" s="60"/>
       <c r="AZ107" s="84"/>
     </row>
-    <row r="108" spans="1:52">
+    <row r="108" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C108" s="60"/>
       <c r="D108" s="60"/>
       <c r="E108" s="60"/>
@@ -37587,7 +37618,7 @@
       <c r="AY108" s="60"/>
       <c r="AZ108" s="84"/>
     </row>
-    <row r="109" spans="1:52">
+    <row r="109" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C109" s="60"/>
       <c r="D109" s="60"/>
       <c r="E109" s="60"/>
@@ -37639,7 +37670,7 @@
       <c r="AY109" s="60"/>
       <c r="AZ109" s="84"/>
     </row>
-    <row r="110" spans="1:52">
+    <row r="110" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C110" s="60"/>
       <c r="D110" s="60"/>
       <c r="E110" s="60"/>
@@ -37691,7 +37722,7 @@
       <c r="AY110" s="60"/>
       <c r="AZ110" s="84"/>
     </row>
-    <row r="111" spans="1:52">
+    <row r="111" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C111" s="60"/>
       <c r="D111" s="60"/>
       <c r="E111" s="60"/>
@@ -37743,7 +37774,7 @@
       <c r="AY111" s="60"/>
       <c r="AZ111" s="84"/>
     </row>
-    <row r="112" spans="1:52">
+    <row r="112" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C112" s="60"/>
       <c r="D112" s="60"/>
       <c r="E112" s="60"/>
@@ -37795,7 +37826,7 @@
       <c r="AY112" s="60"/>
       <c r="AZ112" s="84"/>
     </row>
-    <row r="113" spans="3:52">
+    <row r="113" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C113" s="60"/>
       <c r="D113" s="60"/>
       <c r="E113" s="60"/>
@@ -37847,7 +37878,7 @@
       <c r="AY113" s="60"/>
       <c r="AZ113" s="84"/>
     </row>
-    <row r="114" spans="3:52">
+    <row r="114" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C114" s="60"/>
       <c r="D114" s="60"/>
       <c r="E114" s="60"/>
@@ -37899,7 +37930,7 @@
       <c r="AY114" s="60"/>
       <c r="AZ114" s="84"/>
     </row>
-    <row r="115" spans="3:52">
+    <row r="115" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C115" s="60"/>
       <c r="D115" s="60"/>
       <c r="E115" s="60"/>
@@ -37951,7 +37982,7 @@
       <c r="AY115" s="60"/>
       <c r="AZ115" s="84"/>
     </row>
-    <row r="116" spans="3:52">
+    <row r="116" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C116" s="60"/>
       <c r="D116" s="60"/>
       <c r="E116" s="60"/>
@@ -38003,7 +38034,7 @@
       <c r="AY116" s="60"/>
       <c r="AZ116" s="84"/>
     </row>
-    <row r="117" spans="3:52">
+    <row r="117" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C117" s="60"/>
       <c r="D117" s="60"/>
       <c r="E117" s="60"/>
@@ -38055,7 +38086,7 @@
       <c r="AY117" s="60"/>
       <c r="AZ117" s="84"/>
     </row>
-    <row r="118" spans="3:52">
+    <row r="118" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C118" s="60"/>
       <c r="D118" s="60"/>
       <c r="E118" s="60"/>
@@ -38107,7 +38138,7 @@
       <c r="AY118" s="60"/>
       <c r="AZ118" s="84"/>
     </row>
-    <row r="119" spans="3:52">
+    <row r="119" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C119" s="60"/>
       <c r="D119" s="60"/>
       <c r="E119" s="60"/>
@@ -38159,7 +38190,7 @@
       <c r="AY119" s="60"/>
       <c r="AZ119" s="84"/>
     </row>
-    <row r="120" spans="3:52">
+    <row r="120" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C120" s="60"/>
       <c r="D120" s="60"/>
       <c r="E120" s="60"/>
@@ -38211,7 +38242,7 @@
       <c r="AY120" s="60"/>
       <c r="AZ120" s="84"/>
     </row>
-    <row r="121" spans="3:52">
+    <row r="121" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C121" s="60"/>
       <c r="D121" s="60"/>
       <c r="E121" s="60"/>
@@ -38263,7 +38294,7 @@
       <c r="AY121" s="60"/>
       <c r="AZ121" s="84"/>
     </row>
-    <row r="122" spans="3:52">
+    <row r="122" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C122" s="60"/>
       <c r="D122" s="60"/>
       <c r="E122" s="60"/>
@@ -38315,7 +38346,7 @@
       <c r="AY122" s="60"/>
       <c r="AZ122" s="84"/>
     </row>
-    <row r="123" spans="3:52">
+    <row r="123" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C123" s="60"/>
       <c r="D123" s="60"/>
       <c r="E123" s="60"/>
@@ -38367,7 +38398,7 @@
       <c r="AY123" s="60"/>
       <c r="AZ123" s="84"/>
     </row>
-    <row r="124" spans="3:52">
+    <row r="124" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C124" s="60"/>
       <c r="D124" s="60"/>
       <c r="E124" s="60"/>
@@ -38419,7 +38450,7 @@
       <c r="AY124" s="60"/>
       <c r="AZ124" s="84"/>
     </row>
-    <row r="125" spans="3:52">
+    <row r="125" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C125" s="60"/>
       <c r="D125" s="60"/>
       <c r="E125" s="60"/>
@@ -38471,7 +38502,7 @@
       <c r="AY125" s="60"/>
       <c r="AZ125" s="84"/>
     </row>
-    <row r="126" spans="3:52">
+    <row r="126" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C126" s="60"/>
       <c r="D126" s="60"/>
       <c r="E126" s="60"/>
@@ -38523,7 +38554,7 @@
       <c r="AY126" s="60"/>
       <c r="AZ126" s="84"/>
     </row>
-    <row r="127" spans="3:52">
+    <row r="127" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C127" s="60"/>
       <c r="D127" s="60"/>
       <c r="E127" s="60"/>
@@ -38575,7 +38606,7 @@
       <c r="AY127" s="60"/>
       <c r="AZ127" s="84"/>
     </row>
-    <row r="128" spans="3:52">
+    <row r="128" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C128" s="60"/>
       <c r="D128" s="60"/>
       <c r="E128" s="60"/>
@@ -38627,7 +38658,7 @@
       <c r="AY128" s="60"/>
       <c r="AZ128" s="84"/>
     </row>
-    <row r="129" spans="3:52">
+    <row r="129" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C129" s="60"/>
       <c r="D129" s="60"/>
       <c r="E129" s="60"/>
@@ -38679,7 +38710,7 @@
       <c r="AY129" s="60"/>
       <c r="AZ129" s="84"/>
     </row>
-    <row r="130" spans="3:52">
+    <row r="130" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C130" s="60"/>
       <c r="D130" s="60"/>
       <c r="E130" s="60"/>
@@ -38731,7 +38762,7 @@
       <c r="AY130" s="60"/>
       <c r="AZ130" s="84"/>
     </row>
-    <row r="131" spans="3:52">
+    <row r="131" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C131" s="60"/>
       <c r="D131" s="60"/>
       <c r="E131" s="60"/>
@@ -38783,7 +38814,7 @@
       <c r="AY131" s="60"/>
       <c r="AZ131" s="84"/>
     </row>
-    <row r="132" spans="3:52">
+    <row r="132" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C132" s="60"/>
       <c r="D132" s="60"/>
       <c r="E132" s="60"/>
@@ -38835,7 +38866,7 @@
       <c r="AY132" s="60"/>
       <c r="AZ132" s="84"/>
     </row>
-    <row r="133" spans="3:52">
+    <row r="133" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C133" s="60"/>
       <c r="D133" s="60"/>
       <c r="E133" s="60"/>
@@ -38887,7 +38918,7 @@
       <c r="AY133" s="60"/>
       <c r="AZ133" s="84"/>
     </row>
-    <row r="134" spans="3:52">
+    <row r="134" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C134" s="60"/>
       <c r="D134" s="60"/>
       <c r="E134" s="60"/>
@@ -38939,7 +38970,7 @@
       <c r="AY134" s="60"/>
       <c r="AZ134" s="84"/>
     </row>
-    <row r="135" spans="3:52">
+    <row r="135" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C135" s="60"/>
       <c r="D135" s="60"/>
       <c r="E135" s="60"/>
@@ -38991,7 +39022,7 @@
       <c r="AY135" s="60"/>
       <c r="AZ135" s="84"/>
     </row>
-    <row r="136" spans="3:52">
+    <row r="136" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C136" s="60"/>
       <c r="D136" s="60"/>
       <c r="E136" s="60"/>
@@ -39043,7 +39074,7 @@
       <c r="AY136" s="60"/>
       <c r="AZ136" s="84"/>
     </row>
-    <row r="137" spans="3:52">
+    <row r="137" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C137" s="60"/>
       <c r="D137" s="60"/>
       <c r="E137" s="60"/>
@@ -39095,7 +39126,7 @@
       <c r="AY137" s="60"/>
       <c r="AZ137" s="84"/>
     </row>
-    <row r="138" spans="3:52">
+    <row r="138" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C138" s="60"/>
       <c r="D138" s="60"/>
       <c r="E138" s="60"/>
@@ -39147,7 +39178,7 @@
       <c r="AY138" s="60"/>
       <c r="AZ138" s="84"/>
     </row>
-    <row r="139" spans="3:52">
+    <row r="139" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C139" s="60"/>
       <c r="D139" s="60"/>
       <c r="E139" s="60"/>
@@ -39199,7 +39230,7 @@
       <c r="AY139" s="60"/>
       <c r="AZ139" s="84"/>
     </row>
-    <row r="140" spans="3:52">
+    <row r="140" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C140" s="60"/>
       <c r="D140" s="60"/>
       <c r="E140" s="60"/>
@@ -39251,7 +39282,7 @@
       <c r="AY140" s="60"/>
       <c r="AZ140" s="84"/>
     </row>
-    <row r="141" spans="3:52">
+    <row r="141" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C141" s="60"/>
       <c r="D141" s="60"/>
       <c r="E141" s="60"/>
@@ -39303,7 +39334,7 @@
       <c r="AY141" s="60"/>
       <c r="AZ141" s="84"/>
     </row>
-    <row r="142" spans="3:52">
+    <row r="142" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C142" s="60"/>
       <c r="D142" s="60"/>
       <c r="E142" s="60"/>
@@ -39355,7 +39386,7 @@
       <c r="AY142" s="60"/>
       <c r="AZ142" s="84"/>
     </row>
-    <row r="143" spans="3:52">
+    <row r="143" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C143" s="60"/>
       <c r="D143" s="60"/>
       <c r="E143" s="60"/>
@@ -39407,7 +39438,7 @@
       <c r="AY143" s="60"/>
       <c r="AZ143" s="84"/>
     </row>
-    <row r="144" spans="3:52">
+    <row r="144" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C144" s="60"/>
       <c r="D144" s="60"/>
       <c r="E144" s="60"/>
@@ -39459,7 +39490,7 @@
       <c r="AY144" s="60"/>
       <c r="AZ144" s="84"/>
     </row>
-    <row r="145" spans="3:52">
+    <row r="145" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C145" s="60"/>
       <c r="D145" s="60"/>
       <c r="E145" s="60"/>
@@ -39511,7 +39542,7 @@
       <c r="AY145" s="60"/>
       <c r="AZ145" s="84"/>
     </row>
-    <row r="146" spans="3:52">
+    <row r="146" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C146" s="60"/>
       <c r="D146" s="60"/>
       <c r="E146" s="60"/>
@@ -39563,7 +39594,7 @@
       <c r="AY146" s="60"/>
       <c r="AZ146" s="84"/>
     </row>
-    <row r="147" spans="3:52">
+    <row r="147" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C147" s="60"/>
       <c r="D147" s="60"/>
       <c r="E147" s="60"/>
@@ -39615,7 +39646,7 @@
       <c r="AY147" s="60"/>
       <c r="AZ147" s="84"/>
     </row>
-    <row r="148" spans="3:52">
+    <row r="148" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C148" s="60"/>
       <c r="D148" s="60"/>
       <c r="E148" s="60"/>
@@ -39667,7 +39698,7 @@
       <c r="AY148" s="60"/>
       <c r="AZ148" s="84"/>
     </row>
-    <row r="149" spans="3:52">
+    <row r="149" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C149" s="60"/>
       <c r="D149" s="60"/>
       <c r="E149" s="60"/>
@@ -39719,7 +39750,7 @@
       <c r="AY149" s="60"/>
       <c r="AZ149" s="84"/>
     </row>
-    <row r="150" spans="3:52">
+    <row r="150" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C150" s="60"/>
       <c r="D150" s="60"/>
       <c r="E150" s="60"/>
@@ -39771,7 +39802,7 @@
       <c r="AY150" s="60"/>
       <c r="AZ150" s="84"/>
     </row>
-    <row r="151" spans="3:52">
+    <row r="151" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C151" s="60"/>
       <c r="D151" s="60"/>
       <c r="E151" s="60"/>
@@ -39823,7 +39854,7 @@
       <c r="AY151" s="60"/>
       <c r="AZ151" s="84"/>
     </row>
-    <row r="152" spans="3:52">
+    <row r="152" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C152" s="60"/>
       <c r="D152" s="60"/>
       <c r="E152" s="60"/>
@@ -39875,7 +39906,7 @@
       <c r="AY152" s="60"/>
       <c r="AZ152" s="84"/>
     </row>
-    <row r="153" spans="3:52">
+    <row r="153" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C153" s="60"/>
       <c r="D153" s="60"/>
       <c r="E153" s="60"/>
@@ -39927,7 +39958,7 @@
       <c r="AY153" s="60"/>
       <c r="AZ153" s="84"/>
     </row>
-    <row r="154" spans="3:52">
+    <row r="154" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C154" s="60"/>
       <c r="D154" s="60"/>
       <c r="E154" s="60"/>
@@ -39979,7 +40010,7 @@
       <c r="AY154" s="60"/>
       <c r="AZ154" s="84"/>
     </row>
-    <row r="155" spans="3:52">
+    <row r="155" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C155" s="60"/>
       <c r="D155" s="60"/>
       <c r="E155" s="60"/>
@@ -40031,7 +40062,7 @@
       <c r="AY155" s="60"/>
       <c r="AZ155" s="84"/>
     </row>
-    <row r="156" spans="3:52">
+    <row r="156" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C156" s="60"/>
       <c r="D156" s="60"/>
       <c r="E156" s="60"/>
@@ -40083,7 +40114,7 @@
       <c r="AY156" s="60"/>
       <c r="AZ156" s="84"/>
     </row>
-    <row r="157" spans="3:52">
+    <row r="157" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C157" s="60"/>
       <c r="D157" s="60"/>
       <c r="E157" s="60"/>
@@ -40135,7 +40166,7 @@
       <c r="AY157" s="60"/>
       <c r="AZ157" s="84"/>
     </row>
-    <row r="158" spans="3:52">
+    <row r="158" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C158" s="60"/>
       <c r="D158" s="60"/>
       <c r="E158" s="60"/>
@@ -40187,7 +40218,7 @@
       <c r="AY158" s="60"/>
       <c r="AZ158" s="84"/>
     </row>
-    <row r="159" spans="3:52">
+    <row r="159" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C159" s="60"/>
       <c r="D159" s="60"/>
       <c r="E159" s="60"/>
@@ -40239,7 +40270,7 @@
       <c r="AY159" s="60"/>
       <c r="AZ159" s="84"/>
     </row>
-    <row r="160" spans="3:52">
+    <row r="160" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C160" s="60"/>
       <c r="D160" s="60"/>
       <c r="E160" s="60"/>
@@ -40291,7 +40322,7 @@
       <c r="AY160" s="60"/>
       <c r="AZ160" s="84"/>
     </row>
-    <row r="161" spans="3:52">
+    <row r="161" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C161" s="60"/>
       <c r="D161" s="60"/>
       <c r="E161" s="60"/>
@@ -40343,7 +40374,7 @@
       <c r="AY161" s="60"/>
       <c r="AZ161" s="84"/>
     </row>
-    <row r="162" spans="3:52">
+    <row r="162" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C162" s="60"/>
       <c r="D162" s="60"/>
       <c r="E162" s="60"/>
@@ -40395,7 +40426,7 @@
       <c r="AY162" s="60"/>
       <c r="AZ162" s="84"/>
     </row>
-    <row r="163" spans="3:52">
+    <row r="163" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C163" s="60"/>
       <c r="D163" s="60"/>
       <c r="E163" s="60"/>
@@ -40447,7 +40478,7 @@
       <c r="AY163" s="60"/>
       <c r="AZ163" s="84"/>
     </row>
-    <row r="164" spans="3:52">
+    <row r="164" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C164" s="60"/>
       <c r="D164" s="60"/>
       <c r="E164" s="60"/>
@@ -40499,7 +40530,7 @@
       <c r="AY164" s="60"/>
       <c r="AZ164" s="84"/>
     </row>
-    <row r="165" spans="3:52">
+    <row r="165" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C165" s="60"/>
       <c r="D165" s="60"/>
       <c r="E165" s="60"/>
@@ -40551,7 +40582,7 @@
       <c r="AY165" s="60"/>
       <c r="AZ165" s="84"/>
     </row>
-    <row r="166" spans="3:52">
+    <row r="166" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C166" s="60"/>
       <c r="D166" s="60"/>
       <c r="E166" s="60"/>
@@ -40603,7 +40634,7 @@
       <c r="AY166" s="60"/>
       <c r="AZ166" s="84"/>
     </row>
-    <row r="167" spans="3:52">
+    <row r="167" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C167" s="60"/>
       <c r="D167" s="60"/>
       <c r="E167" s="60"/>
@@ -40655,7 +40686,7 @@
       <c r="AY167" s="60"/>
       <c r="AZ167" s="84"/>
     </row>
-    <row r="168" spans="3:52">
+    <row r="168" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C168" s="60"/>
       <c r="D168" s="60"/>
       <c r="E168" s="60"/>
@@ -40707,7 +40738,7 @@
       <c r="AY168" s="60"/>
       <c r="AZ168" s="84"/>
     </row>
-    <row r="169" spans="3:52">
+    <row r="169" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C169" s="60"/>
       <c r="D169" s="60"/>
       <c r="E169" s="60"/>
@@ -40759,7 +40790,7 @@
       <c r="AY169" s="60"/>
       <c r="AZ169" s="84"/>
     </row>
-    <row r="170" spans="3:52">
+    <row r="170" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C170" s="60"/>
       <c r="D170" s="60"/>
       <c r="E170" s="60"/>
@@ -40811,7 +40842,7 @@
       <c r="AY170" s="60"/>
       <c r="AZ170" s="84"/>
     </row>
-    <row r="171" spans="3:52">
+    <row r="171" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C171" s="60"/>
       <c r="D171" s="60"/>
       <c r="E171" s="60"/>
@@ -40863,7 +40894,7 @@
       <c r="AY171" s="60"/>
       <c r="AZ171" s="84"/>
     </row>
-    <row r="172" spans="3:52">
+    <row r="172" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C172" s="60"/>
       <c r="D172" s="60"/>
       <c r="E172" s="60"/>
@@ -40915,7 +40946,7 @@
       <c r="AY172" s="60"/>
       <c r="AZ172" s="84"/>
     </row>
-    <row r="173" spans="3:52">
+    <row r="173" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C173" s="60"/>
       <c r="D173" s="60"/>
       <c r="E173" s="60"/>
@@ -40967,7 +40998,7 @@
       <c r="AY173" s="60"/>
       <c r="AZ173" s="84"/>
     </row>
-    <row r="174" spans="3:52">
+    <row r="174" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C174" s="60"/>
       <c r="D174" s="60"/>
       <c r="E174" s="60"/>
@@ -41019,7 +41050,7 @@
       <c r="AY174" s="60"/>
       <c r="AZ174" s="84"/>
     </row>
-    <row r="175" spans="3:52">
+    <row r="175" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C175" s="60"/>
       <c r="D175" s="60"/>
       <c r="E175" s="60"/>
@@ -41071,7 +41102,7 @@
       <c r="AY175" s="60"/>
       <c r="AZ175" s="84"/>
     </row>
-    <row r="176" spans="3:52">
+    <row r="176" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C176" s="60"/>
       <c r="D176" s="60"/>
       <c r="E176" s="60"/>
@@ -41123,7 +41154,7 @@
       <c r="AY176" s="60"/>
       <c r="AZ176" s="84"/>
     </row>
-    <row r="177" spans="3:52">
+    <row r="177" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C177" s="60"/>
       <c r="D177" s="60"/>
       <c r="E177" s="60"/>
@@ -41175,7 +41206,7 @@
       <c r="AY177" s="60"/>
       <c r="AZ177" s="84"/>
     </row>
-    <row r="178" spans="3:52">
+    <row r="178" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C178" s="60"/>
       <c r="D178" s="60"/>
       <c r="E178" s="60"/>
@@ -41227,7 +41258,7 @@
       <c r="AY178" s="60"/>
       <c r="AZ178" s="84"/>
     </row>
-    <row r="179" spans="3:52">
+    <row r="179" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C179" s="60"/>
       <c r="D179" s="60"/>
       <c r="E179" s="60"/>
@@ -41279,7 +41310,7 @@
       <c r="AY179" s="60"/>
       <c r="AZ179" s="84"/>
     </row>
-    <row r="180" spans="3:52">
+    <row r="180" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C180" s="60"/>
       <c r="D180" s="60"/>
       <c r="E180" s="60"/>
@@ -41331,7 +41362,7 @@
       <c r="AY180" s="60"/>
       <c r="AZ180" s="84"/>
     </row>
-    <row r="181" spans="3:52">
+    <row r="181" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C181" s="60"/>
       <c r="D181" s="60"/>
       <c r="E181" s="60"/>
@@ -41383,7 +41414,7 @@
       <c r="AY181" s="60"/>
       <c r="AZ181" s="84"/>
     </row>
-    <row r="182" spans="3:52">
+    <row r="182" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C182" s="60"/>
       <c r="D182" s="60"/>
       <c r="E182" s="60"/>
@@ -41435,7 +41466,7 @@
       <c r="AY182" s="60"/>
       <c r="AZ182" s="84"/>
     </row>
-    <row r="183" spans="3:52">
+    <row r="183" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C183" s="60"/>
       <c r="D183" s="60"/>
       <c r="E183" s="60"/>
@@ -41487,7 +41518,7 @@
       <c r="AY183" s="60"/>
       <c r="AZ183" s="84"/>
     </row>
-    <row r="184" spans="3:52">
+    <row r="184" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C184" s="60"/>
       <c r="D184" s="60"/>
       <c r="E184" s="60"/>
@@ -41539,7 +41570,7 @@
       <c r="AY184" s="60"/>
       <c r="AZ184" s="84"/>
     </row>
-    <row r="185" spans="3:52">
+    <row r="185" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C185" s="60"/>
       <c r="D185" s="60"/>
       <c r="E185" s="60"/>
@@ -41591,7 +41622,7 @@
       <c r="AY185" s="60"/>
       <c r="AZ185" s="84"/>
     </row>
-    <row r="186" spans="3:52">
+    <row r="186" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C186" s="60"/>
       <c r="D186" s="60"/>
       <c r="E186" s="60"/>
@@ -41643,7 +41674,7 @@
       <c r="AY186" s="60"/>
       <c r="AZ186" s="84"/>
     </row>
-    <row r="187" spans="3:52">
+    <row r="187" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C187" s="60"/>
       <c r="D187" s="60"/>
       <c r="E187" s="60"/>
@@ -41695,7 +41726,7 @@
       <c r="AY187" s="60"/>
       <c r="AZ187" s="84"/>
     </row>
-    <row r="188" spans="3:52">
+    <row r="188" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C188" s="60"/>
       <c r="D188" s="60"/>
       <c r="E188" s="60"/>
@@ -41747,7 +41778,7 @@
       <c r="AY188" s="60"/>
       <c r="AZ188" s="84"/>
     </row>
-    <row r="189" spans="3:52">
+    <row r="189" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C189" s="60"/>
       <c r="D189" s="60"/>
       <c r="E189" s="60"/>
@@ -41799,7 +41830,7 @@
       <c r="AY189" s="60"/>
       <c r="AZ189" s="84"/>
     </row>
-    <row r="190" spans="3:52">
+    <row r="190" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C190" s="60"/>
       <c r="D190" s="60"/>
       <c r="E190" s="60"/>
@@ -41851,7 +41882,7 @@
       <c r="AY190" s="60"/>
       <c r="AZ190" s="84"/>
     </row>
-    <row r="191" spans="3:52">
+    <row r="191" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C191" s="60"/>
       <c r="D191" s="60"/>
       <c r="E191" s="60"/>
@@ -41903,7 +41934,7 @@
       <c r="AY191" s="60"/>
       <c r="AZ191" s="84"/>
     </row>
-    <row r="192" spans="3:52">
+    <row r="192" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C192" s="60"/>
       <c r="D192" s="60"/>
       <c r="E192" s="60"/>
@@ -41955,7 +41986,7 @@
       <c r="AY192" s="60"/>
       <c r="AZ192" s="84"/>
     </row>
-    <row r="193" spans="3:52">
+    <row r="193" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C193" s="60"/>
       <c r="D193" s="60"/>
       <c r="E193" s="60"/>
@@ -42007,7 +42038,7 @@
       <c r="AY193" s="60"/>
       <c r="AZ193" s="84"/>
     </row>
-    <row r="194" spans="3:52">
+    <row r="194" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C194" s="60"/>
       <c r="D194" s="60"/>
       <c r="E194" s="60"/>
@@ -42059,7 +42090,7 @@
       <c r="AY194" s="60"/>
       <c r="AZ194" s="84"/>
     </row>
-    <row r="195" spans="3:52">
+    <row r="195" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C195" s="60"/>
       <c r="D195" s="60"/>
       <c r="E195" s="60"/>
@@ -42111,7 +42142,7 @@
       <c r="AY195" s="60"/>
       <c r="AZ195" s="84"/>
     </row>
-    <row r="196" spans="3:52">
+    <row r="196" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C196" s="60"/>
       <c r="D196" s="60"/>
       <c r="E196" s="60"/>
@@ -42163,7 +42194,7 @@
       <c r="AY196" s="60"/>
       <c r="AZ196" s="84"/>
     </row>
-    <row r="197" spans="3:52">
+    <row r="197" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C197" s="60"/>
       <c r="D197" s="60"/>
       <c r="E197" s="60"/>
@@ -42215,7 +42246,7 @@
       <c r="AY197" s="60"/>
       <c r="AZ197" s="84"/>
     </row>
-    <row r="198" spans="3:52">
+    <row r="198" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C198" s="60"/>
       <c r="D198" s="60"/>
       <c r="E198" s="60"/>
@@ -42267,7 +42298,7 @@
       <c r="AY198" s="60"/>
       <c r="AZ198" s="84"/>
     </row>
-    <row r="199" spans="3:52">
+    <row r="199" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C199" s="60"/>
       <c r="D199" s="60"/>
       <c r="E199" s="60"/>
@@ -42319,7 +42350,7 @@
       <c r="AY199" s="60"/>
       <c r="AZ199" s="84"/>
     </row>
-    <row r="200" spans="3:52">
+    <row r="200" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C200" s="60"/>
       <c r="D200" s="60"/>
       <c r="E200" s="60"/>
@@ -42371,7 +42402,7 @@
       <c r="AY200" s="60"/>
       <c r="AZ200" s="84"/>
     </row>
-    <row r="201" spans="3:52">
+    <row r="201" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C201" s="60"/>
       <c r="D201" s="60"/>
       <c r="E201" s="60"/>
@@ -42423,7 +42454,7 @@
       <c r="AY201" s="60"/>
       <c r="AZ201" s="84"/>
     </row>
-    <row r="202" spans="3:52">
+    <row r="202" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C202" s="60"/>
       <c r="D202" s="60"/>
       <c r="E202" s="60"/>
@@ -42475,7 +42506,7 @@
       <c r="AY202" s="60"/>
       <c r="AZ202" s="84"/>
     </row>
-    <row r="203" spans="3:52">
+    <row r="203" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C203" s="60"/>
       <c r="D203" s="60"/>
       <c r="E203" s="60"/>
@@ -42527,7 +42558,7 @@
       <c r="AY203" s="60"/>
       <c r="AZ203" s="84"/>
     </row>
-    <row r="204" spans="3:52">
+    <row r="204" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C204" s="60"/>
       <c r="D204" s="60"/>
       <c r="E204" s="60"/>
@@ -42554,7 +42585,7 @@
       <c r="Z204" s="60"/>
       <c r="AA204" s="60"/>
     </row>
-    <row r="205" spans="3:52">
+    <row r="205" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C205" s="60"/>
       <c r="D205" s="60"/>
       <c r="E205" s="60"/>
@@ -42581,7 +42612,7 @@
       <c r="Z205" s="60"/>
       <c r="AA205" s="60"/>
     </row>
-    <row r="206" spans="3:52">
+    <row r="206" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C206" s="60"/>
       <c r="D206" s="60"/>
       <c r="E206" s="60"/>
@@ -42608,7 +42639,7 @@
       <c r="Z206" s="60"/>
       <c r="AA206" s="60"/>
     </row>
-    <row r="207" spans="3:52">
+    <row r="207" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C207" s="60"/>
       <c r="D207" s="60"/>
       <c r="E207" s="60"/>
@@ -42635,7 +42666,7 @@
       <c r="Z207" s="60"/>
       <c r="AA207" s="60"/>
     </row>
-    <row r="208" spans="3:52">
+    <row r="208" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C208" s="60"/>
       <c r="D208" s="60"/>
       <c r="E208" s="60"/>
@@ -42662,7 +42693,7 @@
       <c r="Z208" s="60"/>
       <c r="AA208" s="60"/>
     </row>
-    <row r="209" spans="3:27">
+    <row r="209" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C209" s="60"/>
       <c r="D209" s="60"/>
       <c r="E209" s="60"/>
@@ -42689,7 +42720,7 @@
       <c r="Z209" s="60"/>
       <c r="AA209" s="60"/>
     </row>
-    <row r="210" spans="3:27">
+    <row r="210" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C210" s="60"/>
       <c r="D210" s="60"/>
       <c r="E210" s="60"/>
@@ -42716,7 +42747,7 @@
       <c r="Z210" s="60"/>
       <c r="AA210" s="60"/>
     </row>
-    <row r="211" spans="3:27">
+    <row r="211" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C211" s="60"/>
       <c r="D211" s="60"/>
       <c r="E211" s="60"/>
@@ -42743,7 +42774,7 @@
       <c r="Z211" s="60"/>
       <c r="AA211" s="60"/>
     </row>
-    <row r="212" spans="3:27">
+    <row r="212" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C212" s="60"/>
       <c r="D212" s="60"/>
       <c r="E212" s="60"/>
@@ -42770,7 +42801,7 @@
       <c r="Z212" s="60"/>
       <c r="AA212" s="60"/>
     </row>
-    <row r="213" spans="3:27">
+    <row r="213" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C213" s="60"/>
       <c r="D213" s="60"/>
       <c r="E213" s="60"/>
@@ -42797,7 +42828,7 @@
       <c r="Z213" s="60"/>
       <c r="AA213" s="60"/>
     </row>
-    <row r="214" spans="3:27">
+    <row r="214" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C214" s="60"/>
       <c r="D214" s="60"/>
       <c r="E214" s="60"/>
@@ -42824,7 +42855,7 @@
       <c r="Z214" s="60"/>
       <c r="AA214" s="60"/>
     </row>
-    <row r="215" spans="3:27">
+    <row r="215" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C215" s="60"/>
       <c r="D215" s="60"/>
       <c r="E215" s="60"/>
@@ -42851,7 +42882,7 @@
       <c r="Z215" s="60"/>
       <c r="AA215" s="60"/>
     </row>
-    <row r="216" spans="3:27">
+    <row r="216" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C216" s="60"/>
       <c r="D216" s="60"/>
       <c r="E216" s="60"/>
@@ -42878,7 +42909,7 @@
       <c r="Z216" s="60"/>
       <c r="AA216" s="60"/>
     </row>
-    <row r="217" spans="3:27">
+    <row r="217" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C217" s="60"/>
       <c r="D217" s="60"/>
       <c r="E217" s="60"/>
@@ -42905,7 +42936,7 @@
       <c r="Z217" s="60"/>
       <c r="AA217" s="60"/>
     </row>
-    <row r="218" spans="3:27">
+    <row r="218" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C218" s="60"/>
       <c r="D218" s="60"/>
       <c r="E218" s="60"/>
@@ -42932,7 +42963,7 @@
       <c r="Z218" s="60"/>
       <c r="AA218" s="60"/>
     </row>
-    <row r="219" spans="3:27">
+    <row r="219" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C219" s="60"/>
       <c r="D219" s="60"/>
       <c r="E219" s="60"/>
@@ -42959,7 +42990,7 @@
       <c r="Z219" s="60"/>
       <c r="AA219" s="60"/>
     </row>
-    <row r="220" spans="3:27">
+    <row r="220" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C220" s="60"/>
       <c r="D220" s="60"/>
       <c r="E220" s="60"/>
@@ -42995,29 +43026,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IU52"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="172" t="s">
         <v>122</v>
       </c>
@@ -43276,7 +43307,7 @@
       <c r="IT1" s="172"/>
       <c r="IU1" s="172"/>
     </row>
-    <row r="2" spans="1:255" ht="15" thickBot="1">
+    <row r="2" spans="1:255" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="180" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -43292,7 +43323,7 @@
       <c r="J2" s="180"/>
       <c r="K2" s="180"/>
     </row>
-    <row r="3" spans="1:255" ht="15" customHeight="1">
+    <row r="3" spans="1:255" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="181" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -43333,7 +43364,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:255" ht="15" thickBot="1">
+    <row r="4" spans="1:255" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="182"/>
       <c r="B4" s="184"/>
       <c r="C4" s="186"/>
@@ -43346,7 +43377,7 @@
       <c r="J4" s="195"/>
       <c r="K4" s="192"/>
     </row>
-    <row r="5" spans="1:255" s="77" customFormat="1">
+    <row r="5" spans="1:255" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="85">
         <f>'Сводная таблица'!A5:A6</f>
         <v>1</v>
@@ -43388,7 +43419,7 @@
         <v>2.1687410829652447</v>
       </c>
     </row>
-    <row r="6" spans="1:255" s="77" customFormat="1">
+    <row r="6" spans="1:255" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="78">
         <f>'Сводная таблица'!A6:A7</f>
         <v>2</v>
@@ -43431,7 +43462,7 @@
       </c>
       <c r="M6" s="103"/>
     </row>
-    <row r="7" spans="1:255" s="77" customFormat="1">
+    <row r="7" spans="1:255" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="78">
         <f>'Сводная таблица'!A7:A8</f>
         <v>3</v>
@@ -43473,7 +43504,7 @@
         <v>0.37661638828312105</v>
       </c>
     </row>
-    <row r="8" spans="1:255" s="77" customFormat="1">
+    <row r="8" spans="1:255" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78">
         <f>'Сводная таблица'!A8:A9</f>
         <v>4</v>
@@ -43515,7 +43546,7 @@
         <v>1.8418621391703334</v>
       </c>
     </row>
-    <row r="9" spans="1:255" s="77" customFormat="1">
+    <row r="9" spans="1:255" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="78">
         <f>'Сводная таблица'!A9:A10</f>
         <v>5</v>
@@ -43557,7 +43588,7 @@
         <v>1.9137265695067045</v>
       </c>
     </row>
-    <row r="10" spans="1:255" s="77" customFormat="1">
+    <row r="10" spans="1:255" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="78">
         <f>'Сводная таблица'!A10:A11</f>
         <v>6</v>
@@ -43599,7 +43630,7 @@
         <v>3.3538885104705245</v>
       </c>
     </row>
-    <row r="11" spans="1:255" s="77" customFormat="1">
+    <row r="11" spans="1:255" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="78">
         <f>'Сводная таблица'!A11:A12</f>
         <v>7</v>
@@ -43641,7 +43672,7 @@
         <v>2.5715218473434467</v>
       </c>
     </row>
-    <row r="12" spans="1:255" s="77" customFormat="1">
+    <row r="12" spans="1:255" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="78">
         <f>'Сводная таблица'!A12:A13</f>
         <v>8</v>
@@ -43683,7 +43714,7 @@
         <v>3.3538885104705245</v>
       </c>
     </row>
-    <row r="13" spans="1:255" s="77" customFormat="1">
+    <row r="13" spans="1:255" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="78">
         <f>'Сводная таблица'!A13:A14</f>
         <v>9</v>
@@ -43725,7 +43756,7 @@
         <v>3.3538885104705245</v>
       </c>
     </row>
-    <row r="14" spans="1:255" s="77" customFormat="1">
+    <row r="14" spans="1:255" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78">
         <f>'Сводная таблица'!A14:A15</f>
         <v>10</v>
@@ -43768,7 +43799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:255" s="77" customFormat="1">
+    <row r="15" spans="1:255" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78">
         <f>'Сводная таблица'!A15:A16</f>
         <v>11</v>
@@ -43810,7 +43841,7 @@
         <v>3.3538885104705245</v>
       </c>
     </row>
-    <row r="16" spans="1:255" s="77" customFormat="1">
+    <row r="16" spans="1:255" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78">
         <f>'Сводная таблица'!A16:A17</f>
         <v>12</v>
@@ -43853,7 +43884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="77" customFormat="1">
+    <row r="17" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="78">
         <f>'Сводная таблица'!A17:A18</f>
         <v>13</v>
@@ -43896,7 +43927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="77" customFormat="1">
+    <row r="18" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="78">
         <f>'Сводная таблица'!A18:A19</f>
         <v>14</v>
@@ -43939,7 +43970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="77" customFormat="1">
+    <row r="19" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="78">
         <f>'Сводная таблица'!A19:A20</f>
         <v>15</v>
@@ -43981,7 +44012,7 @@
         <v>2.7594829385374524</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="77" customFormat="1">
+    <row r="20" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78">
         <f>'Сводная таблица'!A20:A21</f>
         <v>16</v>
@@ -44024,7 +44055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="77" customFormat="1">
+    <row r="21" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78">
         <f>'Сводная таблица'!A21:A22</f>
         <v>17</v>
@@ -44067,7 +44098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="77" customFormat="1">
+    <row r="22" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="78">
         <f>'Сводная таблица'!A22:A23</f>
         <v>18</v>
@@ -44110,7 +44141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="77" customFormat="1">
+    <row r="23" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="78">
         <f>'Сводная таблица'!A23:A24</f>
         <v>19</v>
@@ -44152,7 +44183,7 @@
         <v>0.36771045103346511</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="77" customFormat="1">
+    <row r="24" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78">
         <f>'Сводная таблица'!A24:A25</f>
         <v>20</v>
@@ -44195,7 +44226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="77" customFormat="1">
+    <row r="25" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="78">
         <f>'Сводная таблица'!A25:A26</f>
         <v>21</v>
@@ -44237,7 +44268,7 @@
         <v>3.0257837712450506</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="77" customFormat="1">
+    <row r="26" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="78">
         <f>'Сводная таблица'!A26:A27</f>
         <v>22</v>
@@ -44280,7 +44311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="77" customFormat="1">
+    <row r="27" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="78">
         <f>'Сводная таблица'!A27:A28</f>
         <v>23</v>
@@ -44323,7 +44354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="77" customFormat="1">
+    <row r="28" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="78">
         <f>'Сводная таблица'!A28:A29</f>
         <v>24</v>
@@ -44365,7 +44396,7 @@
         <v>3.3538885104705245</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="77" customFormat="1">
+    <row r="29" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="78">
         <f>'Сводная таблица'!A29:A30</f>
         <v>25</v>
@@ -44408,7 +44439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="77" customFormat="1">
+    <row r="30" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="78">
         <f>'Сводная таблица'!A30:A31</f>
         <v>26</v>
@@ -44450,7 +44481,7 @@
         <v>0.36771045103346511</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="77" customFormat="1">
+    <row r="31" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="78">
         <f>'Сводная таблица'!A31:A32</f>
         <v>27</v>
@@ -44492,7 +44523,7 @@
         <v>1.8418621391703334</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="77" customFormat="1">
+    <row r="32" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="78">
         <f>'Сводная таблица'!A32:A33</f>
         <v>28</v>
@@ -44535,7 +44566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="77" customFormat="1">
+    <row r="33" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="78">
         <f>'Сводная таблица'!A33:A34</f>
         <v>29</v>
@@ -44577,7 +44608,7 @@
         <v>3.3538885104705245</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="77" customFormat="1">
+    <row r="34" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="78">
         <f>'Сводная таблица'!A34:A35</f>
         <v>30</v>
@@ -44619,7 +44650,7 @@
         <v>1.8418621391703334</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="77" customFormat="1">
+    <row r="35" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="78">
         <f>'Сводная таблица'!A35:A36</f>
         <v>31</v>
@@ -44661,7 +44692,7 @@
         <v>2.9390311930369348</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="77" customFormat="1">
+    <row r="36" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="78">
         <f>'Сводная таблица'!A36:A37</f>
         <v>32</v>
@@ -44703,7 +44734,7 @@
         <v>1.953239240924326</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="77" customFormat="1">
+    <row r="37" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="78">
         <f>'Сводная таблица'!A37:A38</f>
         <v>33</v>
@@ -44745,7 +44776,7 @@
         <v>3.2745937963101781</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="77" customFormat="1">
+    <row r="38" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="78">
         <f>'Сводная таблица'!A38:A39</f>
         <v>34</v>
@@ -44788,7 +44819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="77" customFormat="1">
+    <row r="39" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="78">
         <f>'Сводная таблица'!A39:A40</f>
         <v>35</v>
@@ -44830,7 +44861,7 @@
         <v>0.24011153791962503</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="77" customFormat="1">
+    <row r="40" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="78">
         <f>'Сводная таблица'!A40:A41</f>
         <v>36</v>
@@ -44873,7 +44904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="77" customFormat="1">
+    <row r="41" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="78">
         <f>'Сводная таблица'!A41:A42</f>
         <v>37</v>
@@ -44915,7 +44946,7 @@
         <v>2.8055388546896456</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="77" customFormat="1">
+    <row r="42" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="78">
         <f>'Сводная таблица'!A42:A43</f>
         <v>38</v>
@@ -44957,7 +44988,7 @@
         <v>2.6665803888105328</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="77" customFormat="1">
+    <row r="43" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="78">
         <f>'Сводная таблица'!A43:A44</f>
         <v>39</v>
@@ -44999,7 +45030,7 @@
         <v>0.35921611478836546</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="77" customFormat="1">
+    <row r="44" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="78">
         <f>'Сводная таблица'!A44:A45</f>
         <v>40</v>
@@ -45042,7 +45073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="77" customFormat="1">
+    <row r="45" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="78">
         <f>'Сводная таблица'!A45:A46</f>
         <v>41</v>
@@ -45085,7 +45116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="77" customFormat="1" ht="15" thickBot="1">
+    <row r="46" spans="1:11" s="77" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="79">
         <f>'Сводная таблица'!A46:A47</f>
         <v>42</v>
@@ -45128,7 +45159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="63" customFormat="1">
+    <row r="47" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="76"/>
       <c r="B47" s="76"/>
       <c r="C47" s="76"/>
@@ -45137,7 +45168,7 @@
       <c r="F47" s="76"/>
       <c r="G47" s="76"/>
     </row>
-    <row r="48" spans="1:11" s="63" customFormat="1">
+    <row r="48" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="76"/>
       <c r="B48" s="76"/>
       <c r="C48" s="76"/>
@@ -45146,7 +45177,7 @@
       <c r="F48" s="76"/>
       <c r="G48" s="76"/>
     </row>
-    <row r="49" spans="1:7" s="63" customFormat="1">
+    <row r="49" spans="1:7" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="76"/>
       <c r="B49" s="76"/>
       <c r="C49" s="76"/>
@@ -45155,7 +45186,7 @@
       <c r="F49" s="76"/>
       <c r="G49" s="76"/>
     </row>
-    <row r="50" spans="1:7" s="63" customFormat="1">
+    <row r="50" spans="1:7" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="76"/>
       <c r="B50" s="76"/>
       <c r="C50" s="76"/>
@@ -45164,7 +45195,7 @@
       <c r="F50" s="76"/>
       <c r="G50" s="76"/>
     </row>
-    <row r="51" spans="1:7" s="63" customFormat="1">
+    <row r="51" spans="1:7" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="76"/>
       <c r="B51" s="76"/>
       <c r="C51" s="76"/>
@@ -45173,7 +45204,7 @@
       <c r="F51" s="76"/>
       <c r="G51" s="76"/>
     </row>
-    <row r="52" spans="1:7" s="63" customFormat="1">
+    <row r="52" spans="1:7" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="76"/>
       <c r="B52" s="76"/>
       <c r="C52" s="76"/>
@@ -45203,29 +45234,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IU52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:IU1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="172" t="s">
         <v>122</v>
       </c>
@@ -45484,7 +45515,7 @@
       <c r="IT1" s="172"/>
       <c r="IU1" s="172"/>
     </row>
-    <row r="2" spans="1:255" ht="15" thickBot="1">
+    <row r="2" spans="1:255" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="180" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -45500,7 +45531,7 @@
       <c r="J2" s="180"/>
       <c r="K2" s="180"/>
     </row>
-    <row r="3" spans="1:255" ht="15" customHeight="1">
+    <row r="3" spans="1:255" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="181" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -45541,7 +45572,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:255" ht="15" thickBot="1">
+    <row r="4" spans="1:255" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="182"/>
       <c r="B4" s="184"/>
       <c r="C4" s="186"/>
@@ -45554,7 +45585,7 @@
       <c r="J4" s="196"/>
       <c r="K4" s="197"/>
     </row>
-    <row r="5" spans="1:255" s="77" customFormat="1">
+    <row r="5" spans="1:255" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="43">
         <f>'Сводная таблица'!A5:A6</f>
         <v>1</v>
@@ -45597,7 +45628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:255" s="77" customFormat="1">
+    <row r="6" spans="1:255" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="78">
         <f>'Сводная таблица'!A6:A7</f>
         <v>2</v>
@@ -45641,7 +45672,7 @@
       </c>
       <c r="M6" s="103"/>
     </row>
-    <row r="7" spans="1:255" s="77" customFormat="1">
+    <row r="7" spans="1:255" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="78">
         <f>'Сводная таблица'!A7:A8</f>
         <v>3</v>
@@ -45684,7 +45715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:255" s="77" customFormat="1">
+    <row r="8" spans="1:255" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78">
         <f>'Сводная таблица'!A8:A9</f>
         <v>4</v>
@@ -45727,7 +45758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:255" s="77" customFormat="1">
+    <row r="9" spans="1:255" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="78">
         <f>'Сводная таблица'!A9:A10</f>
         <v>5</v>
@@ -45770,7 +45801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:255" s="77" customFormat="1">
+    <row r="10" spans="1:255" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="78">
         <f>'Сводная таблица'!A10:A11</f>
         <v>6</v>
@@ -45813,7 +45844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:255" s="77" customFormat="1">
+    <row r="11" spans="1:255" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="78">
         <f>'Сводная таблица'!A11:A12</f>
         <v>7</v>
@@ -45856,7 +45887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:255" s="77" customFormat="1">
+    <row r="12" spans="1:255" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="78">
         <f>'Сводная таблица'!A12:A13</f>
         <v>8</v>
@@ -45899,7 +45930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:255" s="77" customFormat="1">
+    <row r="13" spans="1:255" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="78">
         <f>'Сводная таблица'!A13:A14</f>
         <v>9</v>
@@ -45942,7 +45973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:255" s="77" customFormat="1">
+    <row r="14" spans="1:255" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78">
         <f>'Сводная таблица'!A14:A15</f>
         <v>10</v>
@@ -45985,7 +46016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:255" s="77" customFormat="1">
+    <row r="15" spans="1:255" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78">
         <f>'Сводная таблица'!A15:A16</f>
         <v>11</v>
@@ -46028,7 +46059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:255" s="77" customFormat="1">
+    <row r="16" spans="1:255" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78">
         <f>'Сводная таблица'!A16:A17</f>
         <v>12</v>
@@ -46071,7 +46102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="77" customFormat="1">
+    <row r="17" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="78">
         <f>'Сводная таблица'!A17:A18</f>
         <v>13</v>
@@ -46114,7 +46145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="77" customFormat="1">
+    <row r="18" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="78">
         <f>'Сводная таблица'!A18:A19</f>
         <v>14</v>
@@ -46157,7 +46188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="77" customFormat="1">
+    <row r="19" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="78">
         <f>'Сводная таблица'!A19:A20</f>
         <v>15</v>
@@ -46199,7 +46230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="77" customFormat="1">
+    <row r="20" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78">
         <f>'Сводная таблица'!A20:A21</f>
         <v>16</v>
@@ -46242,7 +46273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="77" customFormat="1">
+    <row r="21" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78">
         <f>'Сводная таблица'!A21:A22</f>
         <v>17</v>
@@ -46285,7 +46316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="77" customFormat="1">
+    <row r="22" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="78">
         <f>'Сводная таблица'!A22:A23</f>
         <v>18</v>
@@ -46328,7 +46359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="77" customFormat="1">
+    <row r="23" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="78">
         <f>'Сводная таблица'!A23:A24</f>
         <v>19</v>
@@ -46371,7 +46402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="77" customFormat="1">
+    <row r="24" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78">
         <f>'Сводная таблица'!A24:A25</f>
         <v>20</v>
@@ -46414,7 +46445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="77" customFormat="1">
+    <row r="25" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="78">
         <f>'Сводная таблица'!A25:A26</f>
         <v>21</v>
@@ -46457,7 +46488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="77" customFormat="1">
+    <row r="26" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="78">
         <f>'Сводная таблица'!A26:A27</f>
         <v>22</v>
@@ -46500,7 +46531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="77" customFormat="1">
+    <row r="27" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="78">
         <f>'Сводная таблица'!A27:A28</f>
         <v>23</v>
@@ -46543,7 +46574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="77" customFormat="1">
+    <row r="28" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="78">
         <f>'Сводная таблица'!A28:A29</f>
         <v>24</v>
@@ -46586,7 +46617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="77" customFormat="1">
+    <row r="29" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="78">
         <f>'Сводная таблица'!A29:A30</f>
         <v>25</v>
@@ -46629,7 +46660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="77" customFormat="1">
+    <row r="30" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="78">
         <f>'Сводная таблица'!A30:A31</f>
         <v>26</v>
@@ -46672,7 +46703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="77" customFormat="1">
+    <row r="31" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="78">
         <f>'Сводная таблица'!A31:A32</f>
         <v>27</v>
@@ -46715,7 +46746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="77" customFormat="1">
+    <row r="32" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="78">
         <f>'Сводная таблица'!A32:A33</f>
         <v>28</v>
@@ -46758,7 +46789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="77" customFormat="1">
+    <row r="33" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="78">
         <f>'Сводная таблица'!A33:A34</f>
         <v>29</v>
@@ -46801,7 +46832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="77" customFormat="1">
+    <row r="34" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="78">
         <f>'Сводная таблица'!A34:A35</f>
         <v>30</v>
@@ -46844,7 +46875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="77" customFormat="1">
+    <row r="35" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="78">
         <f>'Сводная таблица'!A35:A36</f>
         <v>31</v>
@@ -46887,7 +46918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="77" customFormat="1">
+    <row r="36" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="78">
         <f>'Сводная таблица'!A36:A37</f>
         <v>32</v>
@@ -46930,7 +46961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="77" customFormat="1">
+    <row r="37" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="78">
         <f>'Сводная таблица'!A37:A38</f>
         <v>33</v>
@@ -46973,7 +47004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="77" customFormat="1">
+    <row r="38" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="78">
         <f>'Сводная таблица'!A38:A39</f>
         <v>34</v>
@@ -47016,7 +47047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="77" customFormat="1">
+    <row r="39" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="78">
         <f>'Сводная таблица'!A39:A40</f>
         <v>35</v>
@@ -47059,7 +47090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="77" customFormat="1">
+    <row r="40" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="78">
         <f>'Сводная таблица'!A40:A41</f>
         <v>36</v>
@@ -47102,7 +47133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="77" customFormat="1">
+    <row r="41" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="78">
         <f>'Сводная таблица'!A41:A42</f>
         <v>37</v>
@@ -47145,7 +47176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="77" customFormat="1">
+    <row r="42" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="78">
         <f>'Сводная таблица'!A42:A43</f>
         <v>38</v>
@@ -47188,7 +47219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="77" customFormat="1">
+    <row r="43" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="78">
         <f>'Сводная таблица'!A43:A44</f>
         <v>39</v>
@@ -47231,7 +47262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="77" customFormat="1">
+    <row r="44" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="78">
         <f>'Сводная таблица'!A44:A45</f>
         <v>40</v>
@@ -47274,7 +47305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="77" customFormat="1">
+    <row r="45" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="78">
         <f>'Сводная таблица'!A45:A46</f>
         <v>41</v>
@@ -47317,7 +47348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="77" customFormat="1" ht="15" thickBot="1">
+    <row r="46" spans="1:11" s="77" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="79">
         <f>'Сводная таблица'!A46:A47</f>
         <v>42</v>
@@ -47360,7 +47391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="63" customFormat="1">
+    <row r="47" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="76"/>
       <c r="B47" s="76"/>
       <c r="C47" s="76"/>
@@ -47369,7 +47400,7 @@
       <c r="F47" s="76"/>
       <c r="G47" s="76"/>
     </row>
-    <row r="48" spans="1:11" s="63" customFormat="1">
+    <row r="48" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="76"/>
       <c r="B48" s="76"/>
       <c r="C48" s="76"/>
@@ -47378,7 +47409,7 @@
       <c r="F48" s="76"/>
       <c r="G48" s="76"/>
     </row>
-    <row r="49" spans="1:7" s="63" customFormat="1">
+    <row r="49" spans="1:7" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="76"/>
       <c r="B49" s="76"/>
       <c r="C49" s="76"/>
@@ -47387,7 +47418,7 @@
       <c r="F49" s="76"/>
       <c r="G49" s="76"/>
     </row>
-    <row r="50" spans="1:7" s="63" customFormat="1">
+    <row r="50" spans="1:7" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="76"/>
       <c r="B50" s="76"/>
       <c r="C50" s="76"/>
@@ -47396,7 +47427,7 @@
       <c r="F50" s="76"/>
       <c r="G50" s="76"/>
     </row>
-    <row r="51" spans="1:7" s="63" customFormat="1">
+    <row r="51" spans="1:7" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="76"/>
       <c r="B51" s="76"/>
       <c r="C51" s="76"/>
@@ -47405,7 +47436,7 @@
       <c r="F51" s="76"/>
       <c r="G51" s="76"/>
     </row>
-    <row r="52" spans="1:7" s="63" customFormat="1">
+    <row r="52" spans="1:7" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="76"/>
       <c r="B52" s="76"/>
       <c r="C52" s="76"/>
@@ -47435,22 +47466,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV46"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="K5" sqref="K5:K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="172" t="s">
         <v>122</v>
       </c>
@@ -47710,7 +47741,7 @@
       <c r="IU1" s="172"/>
       <c r="IV1" s="172"/>
     </row>
-    <row r="2" spans="1:256" ht="15" thickBot="1">
+    <row r="2" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="180" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -47726,7 +47757,7 @@
       <c r="J2" s="180"/>
       <c r="K2" s="180"/>
     </row>
-    <row r="3" spans="1:256" ht="15" customHeight="1">
+    <row r="3" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="181" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -47767,7 +47798,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15" thickBot="1">
+    <row r="4" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="182"/>
       <c r="B4" s="184"/>
       <c r="C4" s="186"/>
@@ -47780,7 +47811,7 @@
       <c r="J4" s="196"/>
       <c r="K4" s="197"/>
     </row>
-    <row r="5" spans="1:256" s="77" customFormat="1">
+    <row r="5" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="85">
         <f>'Сводная таблица'!A5:A6</f>
         <v>1</v>
@@ -47823,7 +47854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:256" s="77" customFormat="1">
+    <row r="6" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="78">
         <f>'Сводная таблица'!A6:A7</f>
         <v>2</v>
@@ -47867,7 +47898,7 @@
       </c>
       <c r="M6" s="103"/>
     </row>
-    <row r="7" spans="1:256" s="77" customFormat="1">
+    <row r="7" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="78">
         <f>'Сводная таблица'!A7:A8</f>
         <v>3</v>
@@ -47910,7 +47941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:256" s="77" customFormat="1">
+    <row r="8" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78">
         <f>'Сводная таблица'!A8:A9</f>
         <v>4</v>
@@ -47953,7 +47984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:256" s="77" customFormat="1">
+    <row r="9" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="78">
         <f>'Сводная таблица'!A9:A10</f>
         <v>5</v>
@@ -47996,7 +48027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:256" s="77" customFormat="1">
+    <row r="10" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="78">
         <f>'Сводная таблица'!A10:A11</f>
         <v>6</v>
@@ -48039,7 +48070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:256" s="77" customFormat="1">
+    <row r="11" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="78">
         <f>'Сводная таблица'!A11:A12</f>
         <v>7</v>
@@ -48082,7 +48113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:256" s="77" customFormat="1">
+    <row r="12" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="78">
         <f>'Сводная таблица'!A12:A13</f>
         <v>8</v>
@@ -48125,7 +48156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:256" s="77" customFormat="1">
+    <row r="13" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="78">
         <f>'Сводная таблица'!A13:A14</f>
         <v>9</v>
@@ -48168,7 +48199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="77" customFormat="1">
+    <row r="14" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78">
         <f>'Сводная таблица'!A14:A15</f>
         <v>10</v>
@@ -48211,7 +48242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="77" customFormat="1">
+    <row r="15" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78">
         <f>'Сводная таблица'!A15:A16</f>
         <v>11</v>
@@ -48254,7 +48285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:256" s="77" customFormat="1">
+    <row r="16" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78">
         <f>'Сводная таблица'!A16:A17</f>
         <v>12</v>
@@ -48297,7 +48328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="77" customFormat="1">
+    <row r="17" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="78">
         <f>'Сводная таблица'!A17:A18</f>
         <v>13</v>
@@ -48340,7 +48371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="77" customFormat="1">
+    <row r="18" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="78">
         <f>'Сводная таблица'!A18:A19</f>
         <v>14</v>
@@ -48383,7 +48414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="77" customFormat="1">
+    <row r="19" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="78">
         <f>'Сводная таблица'!A19:A20</f>
         <v>15</v>
@@ -48425,7 +48456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="77" customFormat="1">
+    <row r="20" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78">
         <f>'Сводная таблица'!A20:A21</f>
         <v>16</v>
@@ -48468,7 +48499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="77" customFormat="1">
+    <row r="21" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78">
         <f>'Сводная таблица'!A21:A22</f>
         <v>17</v>
@@ -48511,7 +48542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="77" customFormat="1">
+    <row r="22" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="78">
         <f>'Сводная таблица'!A22:A23</f>
         <v>18</v>
@@ -48554,7 +48585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="77" customFormat="1">
+    <row r="23" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="78">
         <f>'Сводная таблица'!A23:A24</f>
         <v>19</v>
@@ -48597,7 +48628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="77" customFormat="1">
+    <row r="24" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78">
         <f>'Сводная таблица'!A24:A25</f>
         <v>20</v>
@@ -48640,7 +48671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="77" customFormat="1">
+    <row r="25" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="78">
         <f>'Сводная таблица'!A25:A26</f>
         <v>21</v>
@@ -48683,7 +48714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="77" customFormat="1">
+    <row r="26" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="78">
         <f>'Сводная таблица'!A26:A27</f>
         <v>22</v>
@@ -48726,7 +48757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="77" customFormat="1">
+    <row r="27" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="78">
         <f>'Сводная таблица'!A27:A28</f>
         <v>23</v>
@@ -48769,7 +48800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="77" customFormat="1">
+    <row r="28" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="78">
         <f>'Сводная таблица'!A28:A29</f>
         <v>24</v>
@@ -48812,7 +48843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="77" customFormat="1">
+    <row r="29" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="78">
         <f>'Сводная таблица'!A29:A30</f>
         <v>25</v>
@@ -48855,7 +48886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="77" customFormat="1">
+    <row r="30" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="78">
         <f>'Сводная таблица'!A30:A31</f>
         <v>26</v>
@@ -48898,7 +48929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="77" customFormat="1">
+    <row r="31" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="78">
         <f>'Сводная таблица'!A31:A32</f>
         <v>27</v>
@@ -48941,7 +48972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="77" customFormat="1">
+    <row r="32" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="78">
         <f>'Сводная таблица'!A32:A33</f>
         <v>28</v>
@@ -48984,7 +49015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="77" customFormat="1">
+    <row r="33" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="78">
         <f>'Сводная таблица'!A33:A34</f>
         <v>29</v>
@@ -49027,7 +49058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="77" customFormat="1">
+    <row r="34" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="78">
         <f>'Сводная таблица'!A34:A35</f>
         <v>30</v>
@@ -49070,7 +49101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="77" customFormat="1">
+    <row r="35" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="78">
         <f>'Сводная таблица'!A35:A36</f>
         <v>31</v>
@@ -49113,7 +49144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="77" customFormat="1">
+    <row r="36" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="78">
         <f>'Сводная таблица'!A36:A37</f>
         <v>32</v>
@@ -49156,7 +49187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="77" customFormat="1">
+    <row r="37" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="78">
         <f>'Сводная таблица'!A37:A38</f>
         <v>33</v>
@@ -49199,7 +49230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="77" customFormat="1">
+    <row r="38" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="78">
         <f>'Сводная таблица'!A38:A39</f>
         <v>34</v>
@@ -49242,7 +49273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="77" customFormat="1">
+    <row r="39" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="78">
         <f>'Сводная таблица'!A39:A40</f>
         <v>35</v>
@@ -49285,7 +49316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="77" customFormat="1">
+    <row r="40" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="78">
         <f>'Сводная таблица'!A40:A41</f>
         <v>36</v>
@@ -49328,7 +49359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="77" customFormat="1">
+    <row r="41" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="78">
         <f>'Сводная таблица'!A41:A42</f>
         <v>37</v>
@@ -49371,7 +49402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="77" customFormat="1">
+    <row r="42" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="78">
         <f>'Сводная таблица'!A42:A43</f>
         <v>38</v>
@@ -49414,7 +49445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="77" customFormat="1">
+    <row r="43" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="78">
         <f>'Сводная таблица'!A43:A44</f>
         <v>39</v>
@@ -49457,7 +49488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="77" customFormat="1">
+    <row r="44" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="78">
         <f>'Сводная таблица'!A44:A45</f>
         <v>40</v>
@@ -49500,7 +49531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="77" customFormat="1">
+    <row r="45" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="78">
         <f>'Сводная таблица'!A45:A46</f>
         <v>41</v>
@@ -49543,7 +49574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="77" customFormat="1" ht="15" thickBot="1">
+    <row r="46" spans="1:11" s="77" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="79">
         <f>'Сводная таблица'!A46:A47</f>
         <v>42</v>
@@ -49607,22 +49638,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV46"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="K5" sqref="K5:K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="172" t="s">
         <v>122</v>
       </c>
@@ -49882,7 +49913,7 @@
       <c r="IU1" s="172"/>
       <c r="IV1" s="172"/>
     </row>
-    <row r="2" spans="1:256" ht="15" thickBot="1">
+    <row r="2" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="180" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -49898,7 +49929,7 @@
       <c r="J2" s="180"/>
       <c r="K2" s="180"/>
     </row>
-    <row r="3" spans="1:256" ht="15" customHeight="1">
+    <row r="3" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="181" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -49939,7 +49970,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15" thickBot="1">
+    <row r="4" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="182"/>
       <c r="B4" s="184"/>
       <c r="C4" s="186"/>
@@ -49952,7 +49983,7 @@
       <c r="J4" s="196"/>
       <c r="K4" s="197"/>
     </row>
-    <row r="5" spans="1:256" s="77" customFormat="1">
+    <row r="5" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="85">
         <f>'Сводная таблица'!A5:A6</f>
         <v>1</v>
@@ -49995,7 +50026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:256" s="77" customFormat="1">
+    <row r="6" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="78">
         <f>'Сводная таблица'!A6:A7</f>
         <v>2</v>
@@ -50039,7 +50070,7 @@
       </c>
       <c r="M6" s="103"/>
     </row>
-    <row r="7" spans="1:256" s="77" customFormat="1">
+    <row r="7" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="78">
         <f>'Сводная таблица'!A7:A8</f>
         <v>3</v>
@@ -50082,7 +50113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:256" s="77" customFormat="1">
+    <row r="8" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78">
         <f>'Сводная таблица'!A8:A9</f>
         <v>4</v>
@@ -50125,7 +50156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:256" s="77" customFormat="1">
+    <row r="9" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="78">
         <f>'Сводная таблица'!A9:A10</f>
         <v>5</v>
@@ -50168,7 +50199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:256" s="77" customFormat="1">
+    <row r="10" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="78">
         <f>'Сводная таблица'!A10:A11</f>
         <v>6</v>
@@ -50211,7 +50242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:256" s="77" customFormat="1">
+    <row r="11" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="78">
         <f>'Сводная таблица'!A11:A12</f>
         <v>7</v>
@@ -50254,7 +50285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:256" s="77" customFormat="1">
+    <row r="12" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="78">
         <f>'Сводная таблица'!A12:A13</f>
         <v>8</v>
@@ -50297,7 +50328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:256" s="77" customFormat="1">
+    <row r="13" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="78">
         <f>'Сводная таблица'!A13:A14</f>
         <v>9</v>
@@ -50340,7 +50371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="77" customFormat="1">
+    <row r="14" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78">
         <f>'Сводная таблица'!A14:A15</f>
         <v>10</v>
@@ -50383,7 +50414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="77" customFormat="1">
+    <row r="15" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78">
         <f>'Сводная таблица'!A15:A16</f>
         <v>11</v>
@@ -50426,7 +50457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:256" s="77" customFormat="1">
+    <row r="16" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78">
         <f>'Сводная таблица'!A16:A17</f>
         <v>12</v>
@@ -50469,7 +50500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="77" customFormat="1">
+    <row r="17" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="78">
         <f>'Сводная таблица'!A17:A18</f>
         <v>13</v>
@@ -50512,7 +50543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="77" customFormat="1">
+    <row r="18" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="78">
         <f>'Сводная таблица'!A18:A19</f>
         <v>14</v>
@@ -50555,7 +50586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="77" customFormat="1">
+    <row r="19" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="78">
         <f>'Сводная таблица'!A19:A20</f>
         <v>15</v>
@@ -50597,7 +50628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="77" customFormat="1">
+    <row r="20" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78">
         <f>'Сводная таблица'!A20:A21</f>
         <v>16</v>
@@ -50640,7 +50671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="77" customFormat="1">
+    <row r="21" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78">
         <f>'Сводная таблица'!A21:A22</f>
         <v>17</v>
@@ -50683,7 +50714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="77" customFormat="1">
+    <row r="22" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="78">
         <f>'Сводная таблица'!A22:A23</f>
         <v>18</v>
@@ -50726,7 +50757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="77" customFormat="1">
+    <row r="23" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="78">
         <f>'Сводная таблица'!A23:A24</f>
         <v>19</v>
@@ -50769,7 +50800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="77" customFormat="1">
+    <row r="24" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78">
         <f>'Сводная таблица'!A24:A25</f>
         <v>20</v>
@@ -50812,7 +50843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="77" customFormat="1">
+    <row r="25" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="78">
         <f>'Сводная таблица'!A25:A26</f>
         <v>21</v>
@@ -50855,7 +50886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="77" customFormat="1">
+    <row r="26" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="78">
         <f>'Сводная таблица'!A26:A27</f>
         <v>22</v>
@@ -50898,7 +50929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="77" customFormat="1">
+    <row r="27" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="78">
         <f>'Сводная таблица'!A27:A28</f>
         <v>23</v>
@@ -50941,7 +50972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="77" customFormat="1">
+    <row r="28" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="78">
         <f>'Сводная таблица'!A28:A29</f>
         <v>24</v>
@@ -50984,7 +51015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="77" customFormat="1">
+    <row r="29" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="78">
         <f>'Сводная таблица'!A29:A30</f>
         <v>25</v>
@@ -51027,7 +51058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="77" customFormat="1">
+    <row r="30" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="78">
         <f>'Сводная таблица'!A30:A31</f>
         <v>26</v>
@@ -51070,7 +51101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="77" customFormat="1">
+    <row r="31" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="78">
         <f>'Сводная таблица'!A31:A32</f>
         <v>27</v>
@@ -51113,7 +51144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="77" customFormat="1">
+    <row r="32" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="78">
         <f>'Сводная таблица'!A32:A33</f>
         <v>28</v>
@@ -51156,7 +51187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="77" customFormat="1">
+    <row r="33" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="78">
         <f>'Сводная таблица'!A33:A34</f>
         <v>29</v>
@@ -51199,7 +51230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="77" customFormat="1">
+    <row r="34" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="78">
         <f>'Сводная таблица'!A34:A35</f>
         <v>30</v>
@@ -51242,7 +51273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="77" customFormat="1">
+    <row r="35" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="78">
         <f>'Сводная таблица'!A35:A36</f>
         <v>31</v>
@@ -51285,7 +51316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="77" customFormat="1">
+    <row r="36" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="78">
         <f>'Сводная таблица'!A36:A37</f>
         <v>32</v>
@@ -51328,7 +51359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="77" customFormat="1">
+    <row r="37" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="78">
         <f>'Сводная таблица'!A37:A38</f>
         <v>33</v>
@@ -51371,7 +51402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="77" customFormat="1">
+    <row r="38" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="78">
         <f>'Сводная таблица'!A38:A39</f>
         <v>34</v>
@@ -51414,7 +51445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="77" customFormat="1">
+    <row r="39" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="78">
         <f>'Сводная таблица'!A39:A40</f>
         <v>35</v>
@@ -51457,7 +51488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="77" customFormat="1">
+    <row r="40" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="78">
         <f>'Сводная таблица'!A40:A41</f>
         <v>36</v>
@@ -51500,7 +51531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="77" customFormat="1">
+    <row r="41" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="78">
         <f>'Сводная таблица'!A41:A42</f>
         <v>37</v>
@@ -51543,7 +51574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="77" customFormat="1">
+    <row r="42" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="78">
         <f>'Сводная таблица'!A42:A43</f>
         <v>38</v>
@@ -51586,7 +51617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="77" customFormat="1">
+    <row r="43" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="78">
         <f>'Сводная таблица'!A43:A44</f>
         <v>39</v>
@@ -51629,7 +51660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="77" customFormat="1">
+    <row r="44" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="78">
         <f>'Сводная таблица'!A44:A45</f>
         <v>40</v>
@@ -51672,7 +51703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="77" customFormat="1">
+    <row r="45" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="78">
         <f>'Сводная таблица'!A45:A46</f>
         <v>41</v>
@@ -51715,7 +51746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="77" customFormat="1" ht="15" thickBot="1">
+    <row r="46" spans="1:11" s="77" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="79">
         <f>'Сводная таблица'!A46:A47</f>
         <v>42</v>
@@ -51779,22 +51810,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV46"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="K5" sqref="K5:K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="172" t="s">
         <v>122</v>
       </c>
@@ -52054,7 +52085,7 @@
       <c r="IU1" s="172"/>
       <c r="IV1" s="172"/>
     </row>
-    <row r="2" spans="1:256" ht="15" thickBot="1">
+    <row r="2" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="180" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -52070,7 +52101,7 @@
       <c r="J2" s="180"/>
       <c r="K2" s="180"/>
     </row>
-    <row r="3" spans="1:256" ht="15" customHeight="1">
+    <row r="3" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="181" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -52111,7 +52142,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15" thickBot="1">
+    <row r="4" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="182"/>
       <c r="B4" s="184"/>
       <c r="C4" s="186"/>
@@ -52124,7 +52155,7 @@
       <c r="J4" s="196"/>
       <c r="K4" s="197"/>
     </row>
-    <row r="5" spans="1:256" s="77" customFormat="1">
+    <row r="5" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="85">
         <f>'Сводная таблица'!A5:A6</f>
         <v>1</v>
@@ -52167,7 +52198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:256" s="77" customFormat="1">
+    <row r="6" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="78">
         <f>'Сводная таблица'!A6:A7</f>
         <v>2</v>
@@ -52211,7 +52242,7 @@
       </c>
       <c r="M6" s="103"/>
     </row>
-    <row r="7" spans="1:256" s="77" customFormat="1">
+    <row r="7" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="78">
         <f>'Сводная таблица'!A7:A8</f>
         <v>3</v>
@@ -52254,7 +52285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:256" s="77" customFormat="1">
+    <row r="8" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78">
         <f>'Сводная таблица'!A8:A9</f>
         <v>4</v>
@@ -52297,7 +52328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:256" s="77" customFormat="1">
+    <row r="9" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="78">
         <f>'Сводная таблица'!A9:A10</f>
         <v>5</v>
@@ -52340,7 +52371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:256" s="77" customFormat="1">
+    <row r="10" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="78">
         <f>'Сводная таблица'!A10:A11</f>
         <v>6</v>
@@ -52383,7 +52414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:256" s="77" customFormat="1">
+    <row r="11" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="78">
         <f>'Сводная таблица'!A11:A12</f>
         <v>7</v>
@@ -52426,7 +52457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:256" s="77" customFormat="1">
+    <row r="12" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="78">
         <f>'Сводная таблица'!A12:A13</f>
         <v>8</v>
@@ -52469,7 +52500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:256" s="77" customFormat="1">
+    <row r="13" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="78">
         <f>'Сводная таблица'!A13:A14</f>
         <v>9</v>
@@ -52512,7 +52543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="77" customFormat="1">
+    <row r="14" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78">
         <f>'Сводная таблица'!A14:A15</f>
         <v>10</v>
@@ -52555,7 +52586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="77" customFormat="1">
+    <row r="15" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78">
         <f>'Сводная таблица'!A15:A16</f>
         <v>11</v>
@@ -52598,7 +52629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:256" s="77" customFormat="1">
+    <row r="16" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78">
         <f>'Сводная таблица'!A16:A17</f>
         <v>12</v>
@@ -52641,7 +52672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="77" customFormat="1">
+    <row r="17" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="78">
         <f>'Сводная таблица'!A17:A18</f>
         <v>13</v>
@@ -52684,7 +52715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="77" customFormat="1">
+    <row r="18" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="78">
         <f>'Сводная таблица'!A18:A19</f>
         <v>14</v>
@@ -52727,7 +52758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="77" customFormat="1">
+    <row r="19" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="78">
         <f>'Сводная таблица'!A19:A20</f>
         <v>15</v>
@@ -52769,7 +52800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="77" customFormat="1">
+    <row r="20" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78">
         <f>'Сводная таблица'!A20:A21</f>
         <v>16</v>
@@ -52812,7 +52843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="77" customFormat="1">
+    <row r="21" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78">
         <f>'Сводная таблица'!A21:A22</f>
         <v>17</v>
@@ -52855,7 +52886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="77" customFormat="1">
+    <row r="22" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="78">
         <f>'Сводная таблица'!A22:A23</f>
         <v>18</v>
@@ -52898,7 +52929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="77" customFormat="1">
+    <row r="23" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="78">
         <f>'Сводная таблица'!A23:A24</f>
         <v>19</v>
@@ -52941,7 +52972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="77" customFormat="1">
+    <row r="24" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78">
         <f>'Сводная таблица'!A24:A25</f>
         <v>20</v>
@@ -52984,7 +53015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="77" customFormat="1">
+    <row r="25" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="78">
         <f>'Сводная таблица'!A25:A26</f>
         <v>21</v>
@@ -53027,7 +53058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="77" customFormat="1">
+    <row r="26" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="78">
         <f>'Сводная таблица'!A26:A27</f>
         <v>22</v>
@@ -53070,7 +53101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="77" customFormat="1">
+    <row r="27" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="78">
         <f>'Сводная таблица'!A27:A28</f>
         <v>23</v>
@@ -53113,7 +53144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="77" customFormat="1">
+    <row r="28" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="78">
         <f>'Сводная таблица'!A28:A29</f>
         <v>24</v>
@@ -53156,7 +53187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="77" customFormat="1">
+    <row r="29" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="78">
         <f>'Сводная таблица'!A29:A30</f>
         <v>25</v>
@@ -53199,7 +53230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="77" customFormat="1">
+    <row r="30" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="78">
         <f>'Сводная таблица'!A30:A31</f>
         <v>26</v>
@@ -53242,7 +53273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="77" customFormat="1">
+    <row r="31" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="78">
         <f>'Сводная таблица'!A31:A32</f>
         <v>27</v>
@@ -53285,7 +53316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="77" customFormat="1">
+    <row r="32" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="78">
         <f>'Сводная таблица'!A32:A33</f>
         <v>28</v>
@@ -53328,7 +53359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="77" customFormat="1">
+    <row r="33" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="78">
         <f>'Сводная таблица'!A33:A34</f>
         <v>29</v>
@@ -53371,7 +53402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="77" customFormat="1">
+    <row r="34" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="78">
         <f>'Сводная таблица'!A34:A35</f>
         <v>30</v>
@@ -53414,7 +53445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="77" customFormat="1">
+    <row r="35" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="78">
         <f>'Сводная таблица'!A35:A36</f>
         <v>31</v>
@@ -53457,7 +53488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="77" customFormat="1">
+    <row r="36" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="78">
         <f>'Сводная таблица'!A36:A37</f>
         <v>32</v>
@@ -53500,7 +53531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="77" customFormat="1">
+    <row r="37" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="78">
         <f>'Сводная таблица'!A37:A38</f>
         <v>33</v>
@@ -53543,7 +53574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="77" customFormat="1">
+    <row r="38" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="78">
         <f>'Сводная таблица'!A38:A39</f>
         <v>34</v>
@@ -53586,7 +53617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="77" customFormat="1">
+    <row r="39" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="78">
         <f>'Сводная таблица'!A39:A40</f>
         <v>35</v>
@@ -53629,7 +53660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="77" customFormat="1">
+    <row r="40" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="78">
         <f>'Сводная таблица'!A40:A41</f>
         <v>36</v>
@@ -53672,7 +53703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="77" customFormat="1">
+    <row r="41" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="78">
         <f>'Сводная таблица'!A41:A42</f>
         <v>37</v>
@@ -53715,7 +53746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="77" customFormat="1">
+    <row r="42" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="78">
         <f>'Сводная таблица'!A42:A43</f>
         <v>38</v>
@@ -53758,7 +53789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="77" customFormat="1">
+    <row r="43" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="78">
         <f>'Сводная таблица'!A43:A44</f>
         <v>39</v>
@@ -53801,7 +53832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="77" customFormat="1">
+    <row r="44" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="78">
         <f>'Сводная таблица'!A44:A45</f>
         <v>40</v>
@@ -53844,7 +53875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="77" customFormat="1">
+    <row r="45" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="78">
         <f>'Сводная таблица'!A45:A46</f>
         <v>41</v>
@@ -53887,7 +53918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="77" customFormat="1" ht="15" thickBot="1">
+    <row r="46" spans="1:11" s="77" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="79">
         <f>'Сводная таблица'!A46:A47</f>
         <v>42</v>
@@ -53951,22 +53982,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV46"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="172" t="s">
         <v>122</v>
       </c>
@@ -54226,7 +54257,7 @@
       <c r="IU1" s="172"/>
       <c r="IV1" s="172"/>
     </row>
-    <row r="2" spans="1:256" ht="15" thickBot="1">
+    <row r="2" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="180" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -54242,7 +54273,7 @@
       <c r="J2" s="180"/>
       <c r="K2" s="180"/>
     </row>
-    <row r="3" spans="1:256" ht="15" customHeight="1">
+    <row r="3" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="181" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -54283,7 +54314,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15" thickBot="1">
+    <row r="4" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="182"/>
       <c r="B4" s="184"/>
       <c r="C4" s="186"/>
@@ -54296,7 +54327,7 @@
       <c r="J4" s="196"/>
       <c r="K4" s="197"/>
     </row>
-    <row r="5" spans="1:256" s="77" customFormat="1">
+    <row r="5" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="85">
         <f>'Сводная таблица'!A5:A6</f>
         <v>1</v>
@@ -54339,7 +54370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:256" s="77" customFormat="1">
+    <row r="6" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="78">
         <f>'Сводная таблица'!A6:A7</f>
         <v>2</v>
@@ -54383,7 +54414,7 @@
       </c>
       <c r="M6" s="103"/>
     </row>
-    <row r="7" spans="1:256" s="77" customFormat="1">
+    <row r="7" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="78">
         <f>'Сводная таблица'!A7:A8</f>
         <v>3</v>
@@ -54426,7 +54457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:256" s="77" customFormat="1">
+    <row r="8" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78">
         <f>'Сводная таблица'!A8:A9</f>
         <v>4</v>
@@ -54469,7 +54500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:256" s="77" customFormat="1">
+    <row r="9" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="78">
         <f>'Сводная таблица'!A9:A10</f>
         <v>5</v>
@@ -54512,7 +54543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:256" s="77" customFormat="1">
+    <row r="10" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="78">
         <f>'Сводная таблица'!A10:A11</f>
         <v>6</v>
@@ -54555,7 +54586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:256" s="77" customFormat="1">
+    <row r="11" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="78">
         <f>'Сводная таблица'!A11:A12</f>
         <v>7</v>
@@ -54598,7 +54629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:256" s="77" customFormat="1">
+    <row r="12" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="78">
         <f>'Сводная таблица'!A12:A13</f>
         <v>8</v>
@@ -54641,7 +54672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:256" s="77" customFormat="1">
+    <row r="13" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="78">
         <f>'Сводная таблица'!A13:A14</f>
         <v>9</v>
@@ -54684,7 +54715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="77" customFormat="1">
+    <row r="14" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78">
         <f>'Сводная таблица'!A14:A15</f>
         <v>10</v>
@@ -54727,7 +54758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="77" customFormat="1">
+    <row r="15" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78">
         <f>'Сводная таблица'!A15:A16</f>
         <v>11</v>
@@ -54770,7 +54801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:256" s="77" customFormat="1">
+    <row r="16" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78">
         <f>'Сводная таблица'!A16:A17</f>
         <v>12</v>
@@ -54813,7 +54844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="77" customFormat="1">
+    <row r="17" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="78">
         <f>'Сводная таблица'!A17:A18</f>
         <v>13</v>
@@ -54856,7 +54887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="77" customFormat="1">
+    <row r="18" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="78">
         <f>'Сводная таблица'!A18:A19</f>
         <v>14</v>
@@ -54899,7 +54930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="77" customFormat="1">
+    <row r="19" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="78">
         <f>'Сводная таблица'!A19:A20</f>
         <v>15</v>
@@ -54941,7 +54972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="77" customFormat="1">
+    <row r="20" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78">
         <f>'Сводная таблица'!A20:A21</f>
         <v>16</v>
@@ -54984,7 +55015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="77" customFormat="1">
+    <row r="21" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78">
         <f>'Сводная таблица'!A21:A22</f>
         <v>17</v>
@@ -55027,7 +55058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="77" customFormat="1">
+    <row r="22" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="78">
         <f>'Сводная таблица'!A22:A23</f>
         <v>18</v>
@@ -55070,7 +55101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="77" customFormat="1">
+    <row r="23" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="78">
         <f>'Сводная таблица'!A23:A24</f>
         <v>19</v>
@@ -55113,7 +55144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="77" customFormat="1">
+    <row r="24" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78">
         <f>'Сводная таблица'!A24:A25</f>
         <v>20</v>
@@ -55156,7 +55187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="77" customFormat="1">
+    <row r="25" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="78">
         <f>'Сводная таблица'!A25:A26</f>
         <v>21</v>
@@ -55199,7 +55230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="77" customFormat="1">
+    <row r="26" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="78">
         <f>'Сводная таблица'!A26:A27</f>
         <v>22</v>
@@ -55242,7 +55273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="77" customFormat="1">
+    <row r="27" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="78">
         <f>'Сводная таблица'!A27:A28</f>
         <v>23</v>
@@ -55285,7 +55316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="77" customFormat="1">
+    <row r="28" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="78">
         <f>'Сводная таблица'!A28:A29</f>
         <v>24</v>
@@ -55328,7 +55359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="77" customFormat="1">
+    <row r="29" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="78">
         <f>'Сводная таблица'!A29:A30</f>
         <v>25</v>
@@ -55371,7 +55402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="77" customFormat="1">
+    <row r="30" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="78">
         <f>'Сводная таблица'!A30:A31</f>
         <v>26</v>
@@ -55414,7 +55445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="77" customFormat="1">
+    <row r="31" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="78">
         <f>'Сводная таблица'!A31:A32</f>
         <v>27</v>
@@ -55457,7 +55488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="77" customFormat="1">
+    <row r="32" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="78">
         <f>'Сводная таблица'!A32:A33</f>
         <v>28</v>
@@ -55500,7 +55531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="77" customFormat="1">
+    <row r="33" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="78">
         <f>'Сводная таблица'!A33:A34</f>
         <v>29</v>
@@ -55543,7 +55574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="77" customFormat="1">
+    <row r="34" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="78">
         <f>'Сводная таблица'!A34:A35</f>
         <v>30</v>
@@ -55586,7 +55617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="77" customFormat="1">
+    <row r="35" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="78">
         <f>'Сводная таблица'!A35:A36</f>
         <v>31</v>
@@ -55629,7 +55660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="77" customFormat="1">
+    <row r="36" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="78">
         <f>'Сводная таблица'!A36:A37</f>
         <v>32</v>
@@ -55672,7 +55703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="77" customFormat="1">
+    <row r="37" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="78">
         <f>'Сводная таблица'!A37:A38</f>
         <v>33</v>
@@ -55715,7 +55746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="77" customFormat="1">
+    <row r="38" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="78">
         <f>'Сводная таблица'!A38:A39</f>
         <v>34</v>
@@ -55758,7 +55789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="77" customFormat="1">
+    <row r="39" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="78">
         <f>'Сводная таблица'!A39:A40</f>
         <v>35</v>
@@ -55801,7 +55832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="77" customFormat="1">
+    <row r="40" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="78">
         <f>'Сводная таблица'!A40:A41</f>
         <v>36</v>
@@ -55844,7 +55875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="77" customFormat="1">
+    <row r="41" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="78">
         <f>'Сводная таблица'!A41:A42</f>
         <v>37</v>
@@ -55887,7 +55918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="77" customFormat="1">
+    <row r="42" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="78">
         <f>'Сводная таблица'!A42:A43</f>
         <v>38</v>
@@ -55930,7 +55961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="77" customFormat="1">
+    <row r="43" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="78">
         <f>'Сводная таблица'!A43:A44</f>
         <v>39</v>
@@ -55973,7 +56004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="77" customFormat="1">
+    <row r="44" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="78">
         <f>'Сводная таблица'!A44:A45</f>
         <v>40</v>
@@ -56016,7 +56047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="77" customFormat="1">
+    <row r="45" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="78">
         <f>'Сводная таблица'!A45:A46</f>
         <v>41</v>
@@ -56059,7 +56090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="77" customFormat="1" ht="15" thickBot="1">
+    <row r="46" spans="1:11" s="77" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="79">
         <f>'Сводная таблица'!A46:A47</f>
         <v>42</v>
@@ -56123,22 +56154,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV46"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="K5" sqref="K5:K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="172" t="s">
         <v>122</v>
       </c>
@@ -56398,7 +56429,7 @@
       <c r="IU1" s="172"/>
       <c r="IV1" s="172"/>
     </row>
-    <row r="2" spans="1:256" ht="15" thickBot="1">
+    <row r="2" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="180" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -56414,7 +56445,7 @@
       <c r="J2" s="180"/>
       <c r="K2" s="180"/>
     </row>
-    <row r="3" spans="1:256" ht="15" customHeight="1">
+    <row r="3" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="181" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -56455,7 +56486,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15" thickBot="1">
+    <row r="4" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="182"/>
       <c r="B4" s="184"/>
       <c r="C4" s="186"/>
@@ -56468,7 +56499,7 @@
       <c r="J4" s="196"/>
       <c r="K4" s="197"/>
     </row>
-    <row r="5" spans="1:256" s="77" customFormat="1">
+    <row r="5" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="85">
         <f>'Сводная таблица'!A5:A6</f>
         <v>1</v>
@@ -56511,7 +56542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:256" s="77" customFormat="1">
+    <row r="6" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="78">
         <f>'Сводная таблица'!A6:A7</f>
         <v>2</v>
@@ -56555,7 +56586,7 @@
       </c>
       <c r="M6" s="103"/>
     </row>
-    <row r="7" spans="1:256" s="77" customFormat="1">
+    <row r="7" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="78">
         <f>'Сводная таблица'!A7:A8</f>
         <v>3</v>
@@ -56598,7 +56629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:256" s="77" customFormat="1">
+    <row r="8" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78">
         <f>'Сводная таблица'!A8:A9</f>
         <v>4</v>
@@ -56641,7 +56672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:256" s="77" customFormat="1">
+    <row r="9" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="78">
         <f>'Сводная таблица'!A9:A10</f>
         <v>5</v>
@@ -56684,7 +56715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:256" s="77" customFormat="1">
+    <row r="10" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="78">
         <f>'Сводная таблица'!A10:A11</f>
         <v>6</v>
@@ -56727,7 +56758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:256" s="77" customFormat="1">
+    <row r="11" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="78">
         <f>'Сводная таблица'!A11:A12</f>
         <v>7</v>
@@ -56770,7 +56801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:256" s="77" customFormat="1">
+    <row r="12" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="78">
         <f>'Сводная таблица'!A12:A13</f>
         <v>8</v>
@@ -56813,7 +56844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:256" s="77" customFormat="1">
+    <row r="13" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="78">
         <f>'Сводная таблица'!A13:A14</f>
         <v>9</v>
@@ -56856,7 +56887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="77" customFormat="1">
+    <row r="14" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78">
         <f>'Сводная таблица'!A14:A15</f>
         <v>10</v>
@@ -56899,7 +56930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="77" customFormat="1">
+    <row r="15" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78">
         <f>'Сводная таблица'!A15:A16</f>
         <v>11</v>
@@ -56942,7 +56973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:256" s="77" customFormat="1">
+    <row r="16" spans="1:256" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78">
         <f>'Сводная таблица'!A16:A17</f>
         <v>12</v>
@@ -56985,7 +57016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="77" customFormat="1">
+    <row r="17" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="78">
         <f>'Сводная таблица'!A17:A18</f>
         <v>13</v>
@@ -57028,7 +57059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="77" customFormat="1">
+    <row r="18" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="78">
         <f>'Сводная таблица'!A18:A19</f>
         <v>14</v>
@@ -57071,7 +57102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="77" customFormat="1">
+    <row r="19" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="78">
         <f>'Сводная таблица'!A19:A20</f>
         <v>15</v>
@@ -57113,7 +57144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="77" customFormat="1">
+    <row r="20" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78">
         <f>'Сводная таблица'!A20:A21</f>
         <v>16</v>
@@ -57156,7 +57187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="77" customFormat="1">
+    <row r="21" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78">
         <f>'Сводная таблица'!A21:A22</f>
         <v>17</v>
@@ -57199,7 +57230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="77" customFormat="1">
+    <row r="22" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="78">
         <f>'Сводная таблица'!A22:A23</f>
         <v>18</v>
@@ -57242,7 +57273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="77" customFormat="1">
+    <row r="23" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="78">
         <f>'Сводная таблица'!A23:A24</f>
         <v>19</v>
@@ -57285,7 +57316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="77" customFormat="1">
+    <row r="24" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78">
         <f>'Сводная таблица'!A24:A25</f>
         <v>20</v>
@@ -57328,7 +57359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="77" customFormat="1">
+    <row r="25" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="78">
         <f>'Сводная таблица'!A25:A26</f>
         <v>21</v>
@@ -57371,7 +57402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="77" customFormat="1">
+    <row r="26" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="78">
         <f>'Сводная таблица'!A26:A27</f>
         <v>22</v>
@@ -57414,7 +57445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="77" customFormat="1">
+    <row r="27" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="78">
         <f>'Сводная таблица'!A27:A28</f>
         <v>23</v>
@@ -57457,7 +57488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="77" customFormat="1">
+    <row r="28" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="78">
         <f>'Сводная таблица'!A28:A29</f>
         <v>24</v>
@@ -57500,7 +57531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="77" customFormat="1">
+    <row r="29" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="78">
         <f>'Сводная таблица'!A29:A30</f>
         <v>25</v>
@@ -57543,7 +57574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="77" customFormat="1">
+    <row r="30" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="78">
         <f>'Сводная таблица'!A30:A31</f>
         <v>26</v>
@@ -57586,7 +57617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="77" customFormat="1">
+    <row r="31" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="78">
         <f>'Сводная таблица'!A31:A32</f>
         <v>27</v>
@@ -57629,7 +57660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="77" customFormat="1">
+    <row r="32" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="78">
         <f>'Сводная таблица'!A32:A33</f>
         <v>28</v>
@@ -57672,7 +57703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="77" customFormat="1">
+    <row r="33" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="78">
         <f>'Сводная таблица'!A33:A34</f>
         <v>29</v>
@@ -57715,7 +57746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="77" customFormat="1">
+    <row r="34" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="78">
         <f>'Сводная таблица'!A34:A35</f>
         <v>30</v>
@@ -57758,7 +57789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="77" customFormat="1">
+    <row r="35" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="78">
         <f>'Сводная таблица'!A35:A36</f>
         <v>31</v>
@@ -57801,7 +57832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="77" customFormat="1">
+    <row r="36" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="78">
         <f>'Сводная таблица'!A36:A37</f>
         <v>32</v>
@@ -57844,7 +57875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="77" customFormat="1">
+    <row r="37" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="78">
         <f>'Сводная таблица'!A37:A38</f>
         <v>33</v>
@@ -57887,7 +57918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="77" customFormat="1">
+    <row r="38" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="78">
         <f>'Сводная таблица'!A38:A39</f>
         <v>34</v>
@@ -57930,7 +57961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="77" customFormat="1">
+    <row r="39" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="78">
         <f>'Сводная таблица'!A39:A40</f>
         <v>35</v>
@@ -57973,7 +58004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="77" customFormat="1">
+    <row r="40" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="78">
         <f>'Сводная таблица'!A40:A41</f>
         <v>36</v>
@@ -58016,7 +58047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="77" customFormat="1">
+    <row r="41" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="78">
         <f>'Сводная таблица'!A41:A42</f>
         <v>37</v>
@@ -58059,7 +58090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="77" customFormat="1">
+    <row r="42" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="78">
         <f>'Сводная таблица'!A42:A43</f>
         <v>38</v>
@@ -58102,7 +58133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="77" customFormat="1">
+    <row r="43" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="78">
         <f>'Сводная таблица'!A43:A44</f>
         <v>39</v>
@@ -58145,7 +58176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="77" customFormat="1">
+    <row r="44" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="78">
         <f>'Сводная таблица'!A44:A45</f>
         <v>40</v>
@@ -58188,7 +58219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="77" customFormat="1">
+    <row r="45" spans="1:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="78">
         <f>'Сводная таблица'!A45:A46</f>
         <v>41</v>
@@ -58231,7 +58262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="77" customFormat="1" ht="15" thickBot="1">
+    <row r="46" spans="1:11" s="77" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="79">
         <f>'Сводная таблица'!A46:A47</f>
         <v>42</v>

--- a/ТМОГИ.2016.осень.xlsx
+++ b/ТМОГИ.2016.осень.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1620" windowWidth="12504" windowHeight="7920"/>
+    <workbookView xWindow="0" yWindow="1620" windowWidth="12510" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="Сводная таблица" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Сводная таблица'!$A$2:$BH$50</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="135">
   <si>
     <t>балл(max)=</t>
   </si>
@@ -436,13 +436,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1570,6 +1570,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1579,31 +1603,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1675,6 +1675,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1753,6 +1758,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1787,6 +1793,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1962,45 +1969,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AI35" sqref="AI35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="5.88671875" style="22" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" style="22" customWidth="1"/>
-    <col min="9" max="9" width="4.88671875" style="22" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="5.44140625" style="22" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="4.33203125" style="22" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="4.88671875" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="4.5546875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" style="22" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="22" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" style="22" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="22" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" style="22" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="4.5703125" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="5" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.109375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="5.140625" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="5" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="4.5546875" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="4.5703125" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="5" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="4.5546875" hidden="1" customWidth="1"/>
-    <col min="21" max="22" width="3.33203125" hidden="1" customWidth="1"/>
-    <col min="23" max="24" width="3.33203125" customWidth="1"/>
+    <col min="20" max="20" width="4.5703125" hidden="1" customWidth="1"/>
+    <col min="21" max="22" width="3.28515625" hidden="1" customWidth="1"/>
+    <col min="23" max="24" width="3.28515625" customWidth="1"/>
     <col min="25" max="25" width="4" customWidth="1"/>
-    <col min="26" max="26" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="38" width="3.33203125" customWidth="1"/>
-    <col min="39" max="58" width="3.33203125" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="5.5546875" style="167" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="38" width="3.28515625" customWidth="1"/>
+    <col min="39" max="58" width="3.28515625" hidden="1" customWidth="1"/>
+    <col min="59" max="59" width="5.5703125" style="167" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="61" max="243" width="0" hidden="1" customWidth="1"/>
     <col min="244" max="16384" width="11" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:16384" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="129" t="s">
         <v>122</v>
       </c>
@@ -2247,7 +2256,7 @@
       <c r="IH1" s="129"/>
       <c r="II1" s="129"/>
     </row>
-    <row r="2" spans="1:16384" ht="15" thickBot="1">
+    <row r="2" spans="1:16384" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="85">
         <f>DATE(2016,9,1)</f>
         <v>42614</v>
@@ -18638,44 +18647,44 @@
       <c r="XFC2" s="135"/>
       <c r="XFD2" s="135"/>
     </row>
-    <row r="3" spans="1:16384" s="138" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="178" t="s">
+    <row r="3" spans="1:16384" s="138" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="186" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="184" t="s">
+      <c r="B3" s="181" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="181" t="s">
+      <c r="C3" s="183" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="178" t="s">
+      <c r="D3" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="183" t="s">
+      <c r="E3" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="189" t="s">
+      <c r="F3" s="185" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="186" t="s">
+      <c r="G3" s="178" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
-      <c r="K3" s="187"/>
-      <c r="L3" s="187"/>
-      <c r="M3" s="188"/>
-      <c r="N3" s="186" t="s">
+      <c r="H3" s="179"/>
+      <c r="I3" s="179"/>
+      <c r="J3" s="179"/>
+      <c r="K3" s="179"/>
+      <c r="L3" s="179"/>
+      <c r="M3" s="180"/>
+      <c r="N3" s="178" t="s">
         <v>124</v>
       </c>
-      <c r="O3" s="187"/>
-      <c r="P3" s="187"/>
-      <c r="Q3" s="187"/>
-      <c r="R3" s="187"/>
-      <c r="S3" s="187"/>
-      <c r="T3" s="187"/>
-      <c r="U3" s="188"/>
+      <c r="O3" s="179"/>
+      <c r="P3" s="179"/>
+      <c r="Q3" s="179"/>
+      <c r="R3" s="179"/>
+      <c r="S3" s="179"/>
+      <c r="T3" s="179"/>
+      <c r="U3" s="180"/>
       <c r="V3" s="35"/>
       <c r="W3" s="136" t="s">
         <v>4</v>
@@ -18822,13 +18831,13 @@
       <c r="BG3" s="137"/>
       <c r="BH3" s="137"/>
     </row>
-    <row r="4" spans="1:16384" s="135" customFormat="1" ht="43.2">
-      <c r="A4" s="178"/>
-      <c r="B4" s="185"/>
-      <c r="C4" s="182"/>
-      <c r="D4" s="178"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="189"/>
+    <row r="4" spans="1:16384" s="135" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="186"/>
+      <c r="B4" s="182"/>
+      <c r="C4" s="184"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="185"/>
       <c r="G4" s="71" t="s">
         <v>120</v>
       </c>
@@ -19028,7 +19037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:16384" s="135" customFormat="1">
+    <row r="5" spans="1:16384" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -19134,7 +19143,7 @@
         <v>5.426174496644296</v>
       </c>
     </row>
-    <row r="6" spans="1:16384" s="135" customFormat="1">
+    <row r="6" spans="1:16384" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>2</v>
       </c>
@@ -19240,7 +19249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:16384" s="135" customFormat="1">
+    <row r="7" spans="1:16384" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>3</v>
       </c>
@@ -19346,7 +19355,7 @@
         <v>4.825503355704698</v>
       </c>
     </row>
-    <row r="8" spans="1:16384" s="135" customFormat="1">
+    <row r="8" spans="1:16384" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>4</v>
       </c>
@@ -19452,7 +19461,7 @@
         <v>5.8724832214765099</v>
       </c>
     </row>
-    <row r="9" spans="1:16384" s="135" customFormat="1">
+    <row r="9" spans="1:16384" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>5</v>
       </c>
@@ -19558,7 +19567,7 @@
         <v>7.949664429530201</v>
       </c>
     </row>
-    <row r="10" spans="1:16384" s="135" customFormat="1">
+    <row r="10" spans="1:16384" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>6</v>
       </c>
@@ -19664,7 +19673,7 @@
         <v>7.2953020134228197</v>
       </c>
     </row>
-    <row r="11" spans="1:16384" s="135" customFormat="1">
+    <row r="11" spans="1:16384" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>7</v>
       </c>
@@ -19770,7 +19779,7 @@
         <v>7.7315436241610733</v>
       </c>
     </row>
-    <row r="12" spans="1:16384" s="135" customFormat="1">
+    <row r="12" spans="1:16384" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>8</v>
       </c>
@@ -19876,7 +19885,7 @@
         <v>7.0906040268456376</v>
       </c>
     </row>
-    <row r="13" spans="1:16384" s="135" customFormat="1">
+    <row r="13" spans="1:16384" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>9</v>
       </c>
@@ -19982,7 +19991,7 @@
         <v>7.2953020134228197</v>
       </c>
     </row>
-    <row r="14" spans="1:16384" s="139" customFormat="1">
+    <row r="14" spans="1:16384" s="139" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="106">
         <v>10</v>
       </c>
@@ -20078,7 +20087,7 @@
         <v>2.0134228187919465</v>
       </c>
     </row>
-    <row r="15" spans="1:16384" s="135" customFormat="1">
+    <row r="15" spans="1:16384" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>11</v>
       </c>
@@ -20184,7 +20193,7 @@
         <v>7.2953020134228197</v>
       </c>
     </row>
-    <row r="16" spans="1:16384" s="135" customFormat="1">
+    <row r="16" spans="1:16384" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>12</v>
       </c>
@@ -20288,7 +20297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:60" s="135" customFormat="1">
+    <row r="17" spans="1:60" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>13</v>
       </c>
@@ -20392,7 +20401,7 @@
         <v>5.4664429530201337</v>
       </c>
     </row>
-    <row r="18" spans="1:60" s="135" customFormat="1">
+    <row r="18" spans="1:60" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>14</v>
       </c>
@@ -20496,7 +20505,7 @@
         <v>0.67114093959731547</v>
       </c>
     </row>
-    <row r="19" spans="1:60" s="135" customFormat="1">
+    <row r="19" spans="1:60" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>15</v>
       </c>
@@ -20600,7 +20609,7 @@
         <v>7.4328859060402683</v>
       </c>
     </row>
-    <row r="20" spans="1:60" s="135" customFormat="1">
+    <row r="20" spans="1:60" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>16</v>
       </c>
@@ -20704,7 +20713,7 @@
         <v>4.6979865771812079</v>
       </c>
     </row>
-    <row r="21" spans="1:60" s="135" customFormat="1">
+    <row r="21" spans="1:60" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>17</v>
       </c>
@@ -20808,7 +20817,7 @@
         <v>4.5167785234899336</v>
       </c>
     </row>
-    <row r="22" spans="1:60" s="135" customFormat="1">
+    <row r="22" spans="1:60" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>18</v>
       </c>
@@ -20912,7 +20921,7 @@
         <v>5.0335570469798654</v>
       </c>
     </row>
-    <row r="23" spans="1:60" s="135" customFormat="1">
+    <row r="23" spans="1:60" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>19</v>
       </c>
@@ -21017,7 +21026,7 @@
         <v>6.6174496644295298</v>
       </c>
     </row>
-    <row r="24" spans="1:60" s="135" customFormat="1">
+    <row r="24" spans="1:60" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>20</v>
       </c>
@@ -21121,7 +21130,7 @@
         <v>4.6979865771812079</v>
       </c>
     </row>
-    <row r="25" spans="1:60" s="135" customFormat="1">
+    <row r="25" spans="1:60" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>21</v>
       </c>
@@ -21225,7 +21234,7 @@
         <v>4.7852348993288585</v>
       </c>
     </row>
-    <row r="26" spans="1:60" s="135" customFormat="1">
+    <row r="26" spans="1:60" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>22</v>
       </c>
@@ -21294,7 +21303,9 @@
       <c r="AH26" s="160" t="s">
         <v>131</v>
       </c>
-      <c r="AI26" s="130"/>
+      <c r="AI26" s="130">
+        <v>2</v>
+      </c>
       <c r="AJ26" s="130">
         <v>2</v>
       </c>
@@ -21322,14 +21333,14 @@
       <c r="BF26" s="130"/>
       <c r="BG26" s="163">
         <f t="shared" ref="BG26:BG41" si="4">SUM(G26:BF26)</f>
-        <v>12.2</v>
+        <v>14.2</v>
       </c>
       <c r="BH26" s="9">
         <f t="shared" si="3"/>
-        <v>3.4228187919463084</v>
+        <v>4.0939597315436238</v>
       </c>
     </row>
-    <row r="27" spans="1:60" s="135" customFormat="1">
+    <row r="27" spans="1:60" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>23</v>
       </c>
@@ -21398,7 +21409,9 @@
       <c r="AH27" s="160" t="s">
         <v>131</v>
       </c>
-      <c r="AI27" s="130"/>
+      <c r="AI27" s="130">
+        <v>2</v>
+      </c>
       <c r="AJ27" s="130">
         <v>2</v>
       </c>
@@ -21426,14 +21439,14 @@
       <c r="BF27" s="130"/>
       <c r="BG27" s="163">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BH27" s="9">
         <f t="shared" si="3"/>
-        <v>2.6845637583892619</v>
+        <v>3.3557046979865772</v>
       </c>
     </row>
-    <row r="28" spans="1:60" s="135" customFormat="1">
+    <row r="28" spans="1:60" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>24</v>
       </c>
@@ -21502,7 +21515,9 @@
       <c r="AH28" s="160">
         <v>2</v>
       </c>
-      <c r="AI28" s="130"/>
+      <c r="AI28" s="130">
+        <v>2</v>
+      </c>
       <c r="AJ28" s="130">
         <v>2</v>
       </c>
@@ -21530,14 +21545,14 @@
       <c r="BF28" s="130"/>
       <c r="BG28" s="163">
         <f t="shared" si="4"/>
-        <v>21.35</v>
+        <v>23.35</v>
       </c>
       <c r="BH28" s="9">
         <f t="shared" si="3"/>
-        <v>6.4932885906040276</v>
+        <v>7.1644295302013425</v>
       </c>
     </row>
-    <row r="29" spans="1:60" s="135" customFormat="1">
+    <row r="29" spans="1:60" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>25</v>
       </c>
@@ -21606,7 +21621,9 @@
       <c r="AH29" s="160" t="s">
         <v>131</v>
       </c>
-      <c r="AI29" s="130"/>
+      <c r="AI29" s="130">
+        <v>2</v>
+      </c>
       <c r="AJ29" s="130">
         <v>2</v>
       </c>
@@ -21634,14 +21651,14 @@
       <c r="BF29" s="130"/>
       <c r="BG29" s="163">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BH29" s="9">
         <f t="shared" si="3"/>
-        <v>4.026845637583893</v>
+        <v>4.6979865771812079</v>
       </c>
     </row>
-    <row r="30" spans="1:60" s="135" customFormat="1">
+    <row r="30" spans="1:60" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>26</v>
       </c>
@@ -21710,7 +21727,9 @@
       <c r="AH30" s="130">
         <v>2</v>
       </c>
-      <c r="AI30" s="130"/>
+      <c r="AI30" s="130" t="s">
+        <v>131</v>
+      </c>
       <c r="AJ30" s="171" t="s">
         <v>131</v>
       </c>
@@ -21745,7 +21764,7 @@
         <v>4.4697986577181208</v>
       </c>
     </row>
-    <row r="31" spans="1:60" s="135" customFormat="1">
+    <row r="31" spans="1:60" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>27</v>
       </c>
@@ -21814,7 +21833,9 @@
       <c r="AH31" s="160">
         <v>1</v>
       </c>
-      <c r="AI31" s="130"/>
+      <c r="AI31" s="130">
+        <v>2</v>
+      </c>
       <c r="AJ31" s="171">
         <v>1</v>
       </c>
@@ -21842,14 +21863,14 @@
       <c r="BF31" s="130"/>
       <c r="BG31" s="163">
         <f t="shared" si="4"/>
-        <v>17.920000000000002</v>
+        <v>19.920000000000002</v>
       </c>
       <c r="BH31" s="9">
         <f t="shared" si="3"/>
-        <v>5.3422818791946316</v>
+        <v>6.0134228187919465</v>
       </c>
     </row>
-    <row r="32" spans="1:60" s="135" customFormat="1">
+    <row r="32" spans="1:60" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>28</v>
       </c>
@@ -21918,7 +21939,9 @@
       <c r="AH32" s="160" t="s">
         <v>131</v>
       </c>
-      <c r="AI32" s="130"/>
+      <c r="AI32" s="130">
+        <v>2</v>
+      </c>
       <c r="AJ32" s="130">
         <v>2</v>
       </c>
@@ -21946,14 +21969,14 @@
       <c r="BF32" s="130"/>
       <c r="BG32" s="163">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BH32" s="9">
         <f t="shared" si="3"/>
-        <v>4.026845637583893</v>
+        <v>4.6979865771812079</v>
       </c>
     </row>
-    <row r="33" spans="1:60" s="135" customFormat="1">
+    <row r="33" spans="1:60" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>29</v>
       </c>
@@ -22022,7 +22045,9 @@
       <c r="AH33" s="130">
         <v>2</v>
       </c>
-      <c r="AI33" s="130"/>
+      <c r="AI33" s="130">
+        <v>2</v>
+      </c>
       <c r="AJ33" s="130">
         <v>2</v>
       </c>
@@ -22050,14 +22075,14 @@
       <c r="BF33" s="130"/>
       <c r="BG33" s="163">
         <f t="shared" si="4"/>
-        <v>21.810000000000002</v>
+        <v>23.810000000000002</v>
       </c>
       <c r="BH33" s="9">
         <f t="shared" si="3"/>
-        <v>6.6476510067114098</v>
+        <v>7.3187919463087256</v>
       </c>
     </row>
-    <row r="34" spans="1:60" s="135" customFormat="1">
+    <row r="34" spans="1:60" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>30</v>
       </c>
@@ -22126,7 +22151,9 @@
       <c r="AH34" s="130">
         <v>2</v>
       </c>
-      <c r="AI34" s="130"/>
+      <c r="AI34" s="130">
+        <v>2</v>
+      </c>
       <c r="AJ34" s="130">
         <v>2</v>
       </c>
@@ -22154,14 +22181,14 @@
       <c r="BF34" s="130"/>
       <c r="BG34" s="163">
         <f t="shared" si="4"/>
-        <v>21.15</v>
+        <v>23.15</v>
       </c>
       <c r="BH34" s="9">
         <f t="shared" si="3"/>
-        <v>6.4261744966442951</v>
+        <v>7.09731543624161</v>
       </c>
     </row>
-    <row r="35" spans="1:60" s="135" customFormat="1">
+    <row r="35" spans="1:60" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>31</v>
       </c>
@@ -22230,7 +22257,9 @@
       <c r="AH35" s="130">
         <v>2</v>
       </c>
-      <c r="AI35" s="130"/>
+      <c r="AI35" s="130">
+        <v>2</v>
+      </c>
       <c r="AJ35" s="130">
         <v>2</v>
       </c>
@@ -22258,14 +22287,14 @@
       <c r="BF35" s="130"/>
       <c r="BG35" s="163">
         <f t="shared" si="4"/>
-        <v>21.23</v>
+        <v>23.23</v>
       </c>
       <c r="BH35" s="9">
         <f t="shared" si="3"/>
-        <v>6.4530201342281881</v>
+        <v>7.1241610738255039</v>
       </c>
     </row>
-    <row r="36" spans="1:60" s="135" customFormat="1">
+    <row r="36" spans="1:60" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>32</v>
       </c>
@@ -22369,7 +22398,7 @@
         <v>5.7550335570469793</v>
       </c>
     </row>
-    <row r="37" spans="1:60" s="135" customFormat="1">
+    <row r="37" spans="1:60" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>33</v>
       </c>
@@ -22473,7 +22502,7 @@
         <v>5.8053691275167791</v>
       </c>
     </row>
-    <row r="38" spans="1:60" s="135" customFormat="1">
+    <row r="38" spans="1:60" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>34</v>
       </c>
@@ -22577,7 +22606,7 @@
         <v>5.4798657718120802</v>
       </c>
     </row>
-    <row r="39" spans="1:60" s="135" customFormat="1">
+    <row r="39" spans="1:60" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>35</v>
       </c>
@@ -22681,7 +22710,7 @@
         <v>5.6677852348993287</v>
       </c>
     </row>
-    <row r="40" spans="1:60" s="135" customFormat="1">
+    <row r="40" spans="1:60" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>36</v>
       </c>
@@ -22775,7 +22804,7 @@
         <v>1.3422818791946309</v>
       </c>
     </row>
-    <row r="41" spans="1:60" s="135" customFormat="1">
+    <row r="41" spans="1:60" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>37</v>
       </c>
@@ -22879,7 +22908,7 @@
         <v>6.1409395973154366</v>
       </c>
     </row>
-    <row r="42" spans="1:60" s="135" customFormat="1">
+    <row r="42" spans="1:60" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>38</v>
       </c>
@@ -22983,7 +23012,7 @@
         <v>3.6543624161073827</v>
       </c>
     </row>
-    <row r="43" spans="1:60" s="135" customFormat="1">
+    <row r="43" spans="1:60" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>39</v>
       </c>
@@ -23087,7 +23116,7 @@
         <v>6.2483221476510069</v>
       </c>
     </row>
-    <row r="44" spans="1:60" s="135" customFormat="1">
+    <row r="44" spans="1:60" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <v>40</v>
       </c>
@@ -23191,7 +23220,7 @@
         <v>4.026845637583893</v>
       </c>
     </row>
-    <row r="45" spans="1:60" s="135" customFormat="1">
+    <row r="45" spans="1:60" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>41</v>
       </c>
@@ -23295,7 +23324,7 @@
         <v>4.026845637583893</v>
       </c>
     </row>
-    <row r="46" spans="1:60" s="145" customFormat="1" ht="15" thickBot="1">
+    <row r="46" spans="1:60" s="145" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15">
         <v>42</v>
       </c>
@@ -23399,7 +23428,7 @@
         <v>5.5637583892617446</v>
       </c>
     </row>
-    <row r="47" spans="1:60">
+    <row r="47" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -23474,7 +23503,7 @@
       </c>
       <c r="AI47" s="8">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AJ47" s="8">
         <f t="shared" si="5"/>
@@ -23570,7 +23599,7 @@
       </c>
       <c r="BG47" s="166"/>
     </row>
-    <row r="48" spans="1:60">
+    <row r="48" spans="1:60" x14ac:dyDescent="0.25">
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48"/>
@@ -23591,7 +23620,7 @@
       </c>
       <c r="AI48" s="8"/>
     </row>
-    <row r="49" spans="1:60">
+    <row r="49" spans="1:60" x14ac:dyDescent="0.25">
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49"/>
@@ -23611,7 +23640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:60" ht="15" thickBot="1">
+    <row r="50" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -23623,44 +23652,44 @@
       <c r="Z50" s="2"/>
       <c r="AD50" s="4"/>
     </row>
-    <row r="51" spans="1:60">
-      <c r="A51" s="179" t="s">
+    <row r="51" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A51" s="187" t="s">
         <v>9</v>
       </c>
-      <c r="B51" s="184" t="s">
+      <c r="B51" s="181" t="s">
         <v>78</v>
       </c>
-      <c r="C51" s="181" t="s">
+      <c r="C51" s="183" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="184" t="s">
+      <c r="D51" s="181" t="s">
         <v>30</v>
       </c>
-      <c r="E51" s="184" t="s">
+      <c r="E51" s="181" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="180" t="s">
+      <c r="F51" s="188" t="s">
         <v>32</v>
       </c>
-      <c r="G51" s="186" t="s">
+      <c r="G51" s="178" t="s">
         <v>123</v>
       </c>
-      <c r="H51" s="187"/>
-      <c r="I51" s="187"/>
-      <c r="J51" s="187"/>
-      <c r="K51" s="187"/>
-      <c r="L51" s="187"/>
-      <c r="M51" s="188"/>
-      <c r="N51" s="186" t="s">
+      <c r="H51" s="179"/>
+      <c r="I51" s="179"/>
+      <c r="J51" s="179"/>
+      <c r="K51" s="179"/>
+      <c r="L51" s="179"/>
+      <c r="M51" s="180"/>
+      <c r="N51" s="178" t="s">
         <v>124</v>
       </c>
-      <c r="O51" s="187"/>
-      <c r="P51" s="187"/>
-      <c r="Q51" s="187"/>
-      <c r="R51" s="187"/>
-      <c r="S51" s="187"/>
-      <c r="T51" s="187"/>
-      <c r="U51" s="188"/>
+      <c r="O51" s="179"/>
+      <c r="P51" s="179"/>
+      <c r="Q51" s="179"/>
+      <c r="R51" s="179"/>
+      <c r="S51" s="179"/>
+      <c r="T51" s="179"/>
+      <c r="U51" s="180"/>
       <c r="V51" s="35"/>
       <c r="W51" s="136" t="s">
         <v>4</v>
@@ -23807,13 +23836,13 @@
       <c r="BG51" s="168"/>
       <c r="BH51" s="155"/>
     </row>
-    <row r="52" spans="1:60" ht="43.2">
-      <c r="A52" s="179"/>
-      <c r="B52" s="185"/>
-      <c r="C52" s="182"/>
-      <c r="D52" s="185"/>
-      <c r="E52" s="185"/>
-      <c r="F52" s="180"/>
+    <row r="52" spans="1:60" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="187"/>
+      <c r="B52" s="182"/>
+      <c r="C52" s="184"/>
+      <c r="D52" s="182"/>
+      <c r="E52" s="182"/>
+      <c r="F52" s="188"/>
       <c r="G52" s="71" t="s">
         <v>120</v>
       </c>
@@ -24013,7 +24042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:60" ht="15" customHeight="1">
+    <row r="53" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
         <v>1</v>
       </c>
@@ -24115,7 +24144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:60" ht="15" customHeight="1">
+    <row r="54" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15">
         <v>2</v>
       </c>
@@ -24217,7 +24246,7 @@
         <v>7.949664429530201</v>
       </c>
     </row>
-    <row r="55" spans="1:60" ht="15" customHeight="1">
+    <row r="55" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="15">
         <v>3</v>
       </c>
@@ -24319,7 +24348,7 @@
         <v>7.7315436241610733</v>
       </c>
     </row>
-    <row r="56" spans="1:60" ht="15" customHeight="1">
+    <row r="56" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15">
         <v>4</v>
       </c>
@@ -24419,7 +24448,7 @@
         <v>7.4328859060402683</v>
       </c>
     </row>
-    <row r="57" spans="1:60" ht="15" customHeight="1">
+    <row r="57" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15">
         <v>5</v>
       </c>
@@ -24521,7 +24550,7 @@
         <v>7.2953020134228197</v>
       </c>
     </row>
-    <row r="58" spans="1:60" ht="15" customHeight="1">
+    <row r="58" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15">
         <v>6</v>
       </c>
@@ -24623,7 +24652,7 @@
         <v>7.2953020134228197</v>
       </c>
     </row>
-    <row r="59" spans="1:60" ht="15" customHeight="1">
+    <row r="59" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="15">
         <v>7</v>
       </c>
@@ -24725,7 +24754,7 @@
         <v>7.2953020134228197</v>
       </c>
     </row>
-    <row r="60" spans="1:60" ht="15" customHeight="1">
+    <row r="60" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15">
         <v>8</v>
       </c>
@@ -24827,7 +24856,7 @@
         <v>7.0906040268456376</v>
       </c>
     </row>
-    <row r="61" spans="1:60" ht="15" customHeight="1">
+    <row r="61" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15">
         <v>9</v>
       </c>
@@ -24927,7 +24956,7 @@
         <v>6.6476510067114098</v>
       </c>
     </row>
-    <row r="62" spans="1:60" ht="15" customHeight="1">
+    <row r="62" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="15">
         <v>10</v>
       </c>
@@ -25027,7 +25056,7 @@
         <v>6.6174496644295298</v>
       </c>
     </row>
-    <row r="63" spans="1:60" ht="15" customHeight="1">
+    <row r="63" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="15">
         <v>11</v>
       </c>
@@ -25127,7 +25156,7 @@
         <v>6.4932885906040276</v>
       </c>
     </row>
-    <row r="64" spans="1:60" ht="15" customHeight="1">
+    <row r="64" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="15">
         <v>12</v>
       </c>
@@ -25227,7 +25256,7 @@
         <v>6.4530201342281881</v>
       </c>
     </row>
-    <row r="65" spans="1:60" ht="15" customHeight="1">
+    <row r="65" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="15">
         <v>13</v>
       </c>
@@ -25327,7 +25356,7 @@
         <v>6.4261744966442951</v>
       </c>
     </row>
-    <row r="66" spans="1:60" ht="15" customHeight="1">
+    <row r="66" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="15">
         <v>14</v>
       </c>
@@ -25427,7 +25456,7 @@
         <v>6.2483221476510069</v>
       </c>
     </row>
-    <row r="67" spans="1:60" ht="15" customHeight="1">
+    <row r="67" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="15">
         <v>15</v>
       </c>
@@ -25527,7 +25556,7 @@
         <v>6.1409395973154366</v>
       </c>
     </row>
-    <row r="68" spans="1:60" ht="15" customHeight="1">
+    <row r="68" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="15">
         <v>16</v>
       </c>
@@ -25629,7 +25658,7 @@
         <v>5.8724832214765099</v>
       </c>
     </row>
-    <row r="69" spans="1:60" ht="15" customHeight="1">
+    <row r="69" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="15">
         <v>17</v>
       </c>
@@ -25729,7 +25758,7 @@
         <v>5.8053691275167791</v>
       </c>
     </row>
-    <row r="70" spans="1:60" ht="15" customHeight="1">
+    <row r="70" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="15">
         <v>18</v>
       </c>
@@ -25829,7 +25858,7 @@
         <v>5.7550335570469793</v>
       </c>
     </row>
-    <row r="71" spans="1:60" ht="15" customHeight="1">
+    <row r="71" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15">
         <v>19</v>
       </c>
@@ -25929,7 +25958,7 @@
         <v>5.6677852348993287</v>
       </c>
     </row>
-    <row r="72" spans="1:60" ht="15" customHeight="1">
+    <row r="72" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15">
         <v>20</v>
       </c>
@@ -26029,7 +26058,7 @@
         <v>5.5637583892617446</v>
       </c>
     </row>
-    <row r="73" spans="1:60" ht="15" customHeight="1">
+    <row r="73" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="15">
         <v>21</v>
       </c>
@@ -26129,7 +26158,7 @@
         <v>5.4798657718120802</v>
       </c>
     </row>
-    <row r="74" spans="1:60" ht="15" customHeight="1">
+    <row r="74" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="15">
         <v>22</v>
       </c>
@@ -26229,7 +26258,7 @@
         <v>5.4664429530201337</v>
       </c>
     </row>
-    <row r="75" spans="1:60" ht="15" customHeight="1">
+    <row r="75" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="15">
         <v>23</v>
       </c>
@@ -26331,7 +26360,7 @@
         <v>5.426174496644296</v>
       </c>
     </row>
-    <row r="76" spans="1:60" ht="15" customHeight="1">
+    <row r="76" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="15">
         <v>24</v>
       </c>
@@ -26431,7 +26460,7 @@
         <v>5.3422818791946316</v>
       </c>
     </row>
-    <row r="77" spans="1:60" ht="15" customHeight="1">
+    <row r="77" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="15">
         <v>25</v>
       </c>
@@ -26531,7 +26560,7 @@
         <v>5.0335570469798654</v>
       </c>
     </row>
-    <row r="78" spans="1:60" ht="15" customHeight="1">
+    <row r="78" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="15">
         <v>26</v>
       </c>
@@ -26633,7 +26662,7 @@
         <v>4.825503355704698</v>
       </c>
     </row>
-    <row r="79" spans="1:60" ht="15" customHeight="1">
+    <row r="79" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="15">
         <v>27</v>
       </c>
@@ -26733,7 +26762,7 @@
         <v>4.7852348993288585</v>
       </c>
     </row>
-    <row r="80" spans="1:60" ht="15" customHeight="1">
+    <row r="80" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="15">
         <v>28</v>
       </c>
@@ -26833,7 +26862,7 @@
         <v>4.6979865771812079</v>
       </c>
     </row>
-    <row r="81" spans="1:60" ht="15" customHeight="1">
+    <row r="81" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="15">
         <v>29</v>
       </c>
@@ -26933,7 +26962,7 @@
         <v>4.6979865771812079</v>
       </c>
     </row>
-    <row r="82" spans="1:60" ht="15" customHeight="1">
+    <row r="82" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="15">
         <v>30</v>
       </c>
@@ -27033,7 +27062,7 @@
         <v>4.5167785234899336</v>
       </c>
     </row>
-    <row r="83" spans="1:60" ht="15" customHeight="1">
+    <row r="83" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="15">
         <v>31</v>
       </c>
@@ -27133,7 +27162,7 @@
         <v>4.4697986577181208</v>
       </c>
     </row>
-    <row r="84" spans="1:60" ht="15" customHeight="1">
+    <row r="84" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="15">
         <v>32</v>
       </c>
@@ -27233,7 +27262,7 @@
         <v>4.026845637583893</v>
       </c>
     </row>
-    <row r="85" spans="1:60" ht="15" customHeight="1">
+    <row r="85" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="15">
         <v>33</v>
       </c>
@@ -27333,7 +27362,7 @@
         <v>4.026845637583893</v>
       </c>
     </row>
-    <row r="86" spans="1:60" ht="15" customHeight="1">
+    <row r="86" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="15">
         <v>34</v>
       </c>
@@ -27433,7 +27462,7 @@
         <v>4.026845637583893</v>
       </c>
     </row>
-    <row r="87" spans="1:60" ht="15" customHeight="1">
+    <row r="87" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="15">
         <v>35</v>
       </c>
@@ -27533,7 +27562,7 @@
         <v>4.026845637583893</v>
       </c>
     </row>
-    <row r="88" spans="1:60" ht="15" customHeight="1">
+    <row r="88" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="15">
         <v>36</v>
       </c>
@@ -27633,7 +27662,7 @@
         <v>3.6543624161073827</v>
       </c>
     </row>
-    <row r="89" spans="1:60" ht="15" customHeight="1">
+    <row r="89" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="15">
         <v>37</v>
       </c>
@@ -27733,7 +27762,7 @@
         <v>3.4228187919463084</v>
       </c>
     </row>
-    <row r="90" spans="1:60" ht="15" customHeight="1">
+    <row r="90" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="15">
         <v>38</v>
       </c>
@@ -27833,7 +27862,7 @@
         <v>2.6845637583892619</v>
       </c>
     </row>
-    <row r="91" spans="1:60" ht="15" customHeight="1">
+    <row r="91" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="15">
         <v>39</v>
       </c>
@@ -27925,7 +27954,7 @@
         <v>2.0134228187919465</v>
       </c>
     </row>
-    <row r="92" spans="1:60" ht="15" customHeight="1">
+    <row r="92" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="15">
         <v>40</v>
       </c>
@@ -28015,7 +28044,7 @@
         <v>1.3422818791946309</v>
       </c>
     </row>
-    <row r="93" spans="1:60" ht="15" customHeight="1">
+    <row r="93" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="15">
         <v>41</v>
       </c>
@@ -28115,7 +28144,7 @@
         <v>0.67114093959731547</v>
       </c>
     </row>
-    <row r="94" spans="1:60" ht="15" customHeight="1" thickBot="1">
+    <row r="94" spans="1:60" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="15">
         <v>42</v>
       </c>
@@ -28215,7 +28244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:60" ht="15" hidden="1" customHeight="1">
+    <row r="95" spans="1:60" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="15"/>
       <c r="B95" s="12"/>
       <c r="C95" s="88"/>
@@ -28277,7 +28306,7 @@
       <c r="BG95" s="170"/>
       <c r="BH95" s="154"/>
     </row>
-    <row r="96" spans="1:60" ht="15" hidden="1" customHeight="1">
+    <row r="96" spans="1:60" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="15"/>
       <c r="B96" s="12"/>
       <c r="C96" s="88"/>
@@ -28339,7 +28368,7 @@
       <c r="BG96" s="163"/>
       <c r="BH96" s="9"/>
     </row>
-    <row r="97" spans="1:60" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:60" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="15"/>
       <c r="B97" s="12"/>
       <c r="C97" s="88"/>
@@ -28401,7 +28430,7 @@
       <c r="BG97" s="163"/>
       <c r="BH97" s="9"/>
     </row>
-    <row r="98" spans="1:60" ht="15" hidden="1" customHeight="1">
+    <row r="98" spans="1:60" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="15"/>
       <c r="B98" s="12"/>
       <c r="C98" s="88"/>
@@ -28463,7 +28492,7 @@
       <c r="BG98" s="163"/>
       <c r="BH98" s="9"/>
     </row>
-    <row r="99" spans="1:60" ht="15" hidden="1" customHeight="1">
+    <row r="99" spans="1:60" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="15"/>
       <c r="B99" s="12"/>
       <c r="C99" s="88"/>
@@ -28525,7 +28554,7 @@
       <c r="BG99" s="163"/>
       <c r="BH99" s="9"/>
     </row>
-    <row r="100" spans="1:60" ht="15" hidden="1" customHeight="1">
+    <row r="100" spans="1:60" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="15"/>
       <c r="B100" s="12"/>
       <c r="C100" s="88"/>
@@ -28587,7 +28616,7 @@
       <c r="BG100" s="163"/>
       <c r="BH100" s="9"/>
     </row>
-    <row r="101" spans="1:60" ht="15" hidden="1" customHeight="1">
+    <row r="101" spans="1:60" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="15"/>
       <c r="B101" s="12"/>
       <c r="C101" s="88"/>
@@ -28649,7 +28678,7 @@
       <c r="BG101" s="163"/>
       <c r="BH101" s="9"/>
     </row>
-    <row r="102" spans="1:60" ht="15" hidden="1" customHeight="1">
+    <row r="102" spans="1:60" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="15"/>
       <c r="B102" s="12"/>
       <c r="C102" s="88"/>
@@ -28711,7 +28740,7 @@
       <c r="BG102" s="163"/>
       <c r="BH102" s="9"/>
     </row>
-    <row r="103" spans="1:60" ht="15" hidden="1" customHeight="1">
+    <row r="103" spans="1:60" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="15"/>
       <c r="B103" s="12"/>
       <c r="C103" s="88"/>
@@ -28773,7 +28802,7 @@
       <c r="BG103" s="163"/>
       <c r="BH103" s="9"/>
     </row>
-    <row r="104" spans="1:60" hidden="1">
+    <row r="104" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13"/>
       <c r="B104" s="12"/>
       <c r="C104" s="88"/>
@@ -28835,7 +28864,7 @@
       <c r="BG104" s="163"/>
       <c r="BH104" s="9"/>
     </row>
-    <row r="105" spans="1:60" hidden="1">
+    <row r="105" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13"/>
       <c r="B105" s="12"/>
       <c r="C105" s="88"/>
@@ -28897,7 +28926,7 @@
       <c r="BG105" s="163"/>
       <c r="BH105" s="9"/>
     </row>
-    <row r="106" spans="1:60" hidden="1">
+    <row r="106" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13"/>
       <c r="B106" s="12"/>
       <c r="C106" s="88"/>
@@ -28959,7 +28988,7 @@
       <c r="BG106" s="163"/>
       <c r="BH106" s="9"/>
     </row>
-    <row r="107" spans="1:60" hidden="1">
+    <row r="107" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="13"/>
       <c r="B107" s="12"/>
       <c r="C107" s="88"/>
@@ -29021,7 +29050,7 @@
       <c r="BG107" s="163"/>
       <c r="BH107" s="9"/>
     </row>
-    <row r="108" spans="1:60" hidden="1">
+    <row r="108" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="13"/>
       <c r="B108" s="12"/>
       <c r="C108" s="88"/>
@@ -29083,7 +29112,7 @@
       <c r="BG108" s="163"/>
       <c r="BH108" s="9"/>
     </row>
-    <row r="109" spans="1:60" hidden="1">
+    <row r="109" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="13"/>
       <c r="B109" s="12"/>
       <c r="C109" s="88"/>
@@ -29145,7 +29174,7 @@
       <c r="BG109" s="163"/>
       <c r="BH109" s="9"/>
     </row>
-    <row r="110" spans="1:60" hidden="1">
+    <row r="110" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="13"/>
       <c r="B110" s="12"/>
       <c r="C110" s="88"/>
@@ -29207,7 +29236,7 @@
       <c r="BG110" s="163"/>
       <c r="BH110" s="9"/>
     </row>
-    <row r="111" spans="1:60" hidden="1">
+    <row r="111" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="13"/>
       <c r="B111" s="12"/>
       <c r="C111" s="88"/>
@@ -29269,7 +29298,7 @@
       <c r="BG111" s="163"/>
       <c r="BH111" s="9"/>
     </row>
-    <row r="112" spans="1:60" hidden="1">
+    <row r="112" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="13"/>
       <c r="B112" s="12"/>
       <c r="C112" s="88"/>
@@ -29331,7 +29360,7 @@
       <c r="BG112" s="163"/>
       <c r="BH112" s="9"/>
     </row>
-    <row r="113" spans="1:60" hidden="1">
+    <row r="113" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="13"/>
       <c r="B113" s="12"/>
       <c r="C113" s="88"/>
@@ -29393,7 +29422,7 @@
       <c r="BG113" s="163"/>
       <c r="BH113" s="9"/>
     </row>
-    <row r="114" spans="1:60" hidden="1">
+    <row r="114" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="13"/>
       <c r="B114" s="12"/>
       <c r="C114" s="88"/>
@@ -29455,7 +29484,7 @@
       <c r="BG114" s="163"/>
       <c r="BH114" s="9"/>
     </row>
-    <row r="115" spans="1:60" hidden="1">
+    <row r="115" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="13"/>
       <c r="B115" s="12"/>
       <c r="C115" s="88"/>
@@ -29517,7 +29546,7 @@
       <c r="BG115" s="163"/>
       <c r="BH115" s="9"/>
     </row>
-    <row r="116" spans="1:60" hidden="1">
+    <row r="116" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="13"/>
       <c r="B116" s="12"/>
       <c r="C116" s="88"/>
@@ -29579,7 +29608,7 @@
       <c r="BG116" s="163"/>
       <c r="BH116" s="9"/>
     </row>
-    <row r="117" spans="1:60" hidden="1">
+    <row r="117" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="13"/>
       <c r="B117" s="12"/>
       <c r="C117" s="88"/>
@@ -29641,7 +29670,7 @@
       <c r="BG117" s="163"/>
       <c r="BH117" s="9"/>
     </row>
-    <row r="118" spans="1:60" hidden="1">
+    <row r="118" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="13"/>
       <c r="B118" s="12"/>
       <c r="C118" s="88"/>
@@ -29703,7 +29732,7 @@
       <c r="BG118" s="163"/>
       <c r="BH118" s="9"/>
     </row>
-    <row r="119" spans="1:60" hidden="1">
+    <row r="119" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="13"/>
       <c r="B119" s="12"/>
       <c r="C119" s="88"/>
@@ -29765,7 +29794,7 @@
       <c r="BG119" s="163"/>
       <c r="BH119" s="9"/>
     </row>
-    <row r="120" spans="1:60" hidden="1">
+    <row r="120" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="13"/>
       <c r="B120" s="12"/>
       <c r="C120" s="88"/>
@@ -29827,7 +29856,7 @@
       <c r="BG120" s="163"/>
       <c r="BH120" s="9"/>
     </row>
-    <row r="121" spans="1:60" hidden="1">
+    <row r="121" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="13"/>
       <c r="B121" s="12"/>
       <c r="C121" s="88"/>
@@ -29889,7 +29918,7 @@
       <c r="BG121" s="163"/>
       <c r="BH121" s="9"/>
     </row>
-    <row r="122" spans="1:60" hidden="1">
+    <row r="122" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="13"/>
       <c r="B122" s="12"/>
       <c r="C122" s="88"/>
@@ -29951,7 +29980,7 @@
       <c r="BG122" s="163"/>
       <c r="BH122" s="9"/>
     </row>
-    <row r="123" spans="1:60" hidden="1">
+    <row r="123" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="13"/>
       <c r="B123" s="12"/>
       <c r="C123" s="88"/>
@@ -30013,7 +30042,7 @@
       <c r="BG123" s="163"/>
       <c r="BH123" s="9"/>
     </row>
-    <row r="124" spans="1:60" hidden="1">
+    <row r="124" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="13"/>
       <c r="B124" s="12"/>
       <c r="C124" s="88"/>
@@ -30075,7 +30104,7 @@
       <c r="BG124" s="163"/>
       <c r="BH124" s="9"/>
     </row>
-    <row r="125" spans="1:60" hidden="1">
+    <row r="125" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="13"/>
       <c r="B125" s="12"/>
       <c r="C125" s="88"/>
@@ -30137,7 +30166,7 @@
       <c r="BG125" s="163"/>
       <c r="BH125" s="9"/>
     </row>
-    <row r="126" spans="1:60" hidden="1">
+    <row r="126" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="13"/>
       <c r="B126" s="12"/>
       <c r="C126" s="88"/>
@@ -30199,7 +30228,7 @@
       <c r="BG126" s="163"/>
       <c r="BH126" s="9"/>
     </row>
-    <row r="127" spans="1:60" hidden="1">
+    <row r="127" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="13"/>
       <c r="B127" s="12"/>
       <c r="C127" s="88"/>
@@ -30261,7 +30290,7 @@
       <c r="BG127" s="163"/>
       <c r="BH127" s="9"/>
     </row>
-    <row r="128" spans="1:60" hidden="1">
+    <row r="128" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="13"/>
       <c r="B128" s="12"/>
       <c r="C128" s="88"/>
@@ -30323,7 +30352,7 @@
       <c r="BG128" s="163"/>
       <c r="BH128" s="9"/>
     </row>
-    <row r="129" spans="1:60" ht="15" hidden="1" thickBot="1">
+    <row r="129" spans="1:60" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="13"/>
       <c r="B129" s="12"/>
       <c r="C129" s="88"/>
@@ -30385,7 +30414,7 @@
       <c r="BG129" s="163"/>
       <c r="BH129" s="9"/>
     </row>
-    <row r="130" spans="1:60" ht="15" hidden="1" customHeight="1">
+    <row r="130" spans="1:60" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
       <c r="E130" s="6"/>
@@ -30444,23 +30473,16 @@
       <c r="BF130" s="8"/>
       <c r="BG130" s="166"/>
     </row>
-    <row r="131" spans="1:60" ht="15" hidden="1" customHeight="1"/>
-    <row r="132" spans="1:60" hidden="1"/>
-    <row r="133" spans="1:60" hidden="1"/>
-    <row r="134" spans="1:60" hidden="1"/>
-    <row r="135" spans="1:60" hidden="1"/>
+    <row r="131" spans="1:60" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="1:60" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="1:60" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="134" spans="1:60" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="1:60" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState ref="B53:BH94">
     <sortCondition descending="1" ref="BH53:BH94"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="G3:M3"/>
-    <mergeCell ref="N3:U3"/>
-    <mergeCell ref="G51:M51"/>
-    <mergeCell ref="N51:U51"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="F3:F4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="F51:F52"/>
@@ -30470,6 +30492,13 @@
     <mergeCell ref="D51:D52"/>
     <mergeCell ref="E51:E52"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="G3:M3"/>
+    <mergeCell ref="N3:U3"/>
+    <mergeCell ref="G51:M51"/>
+    <mergeCell ref="N51:U51"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <pageMargins left="0.19685039370078999" right="0.19" top="0.31496062992126" bottom="0.74803149606299002" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -30477,29 +30506,29 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IU52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="190" t="s">
         <v>122</v>
       </c>
@@ -30758,7 +30787,7 @@
       <c r="IT1" s="190"/>
       <c r="IU1" s="190"/>
     </row>
-    <row r="2" spans="1:255" ht="15" thickBot="1">
+    <row r="2" spans="1:255" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="193" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -30774,7 +30803,7 @@
       <c r="J2" s="193"/>
       <c r="K2" s="193"/>
     </row>
-    <row r="3" spans="1:255" ht="15" customHeight="1">
+    <row r="3" spans="1:255" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="194" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -30815,7 +30844,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:255" ht="15" thickBot="1">
+    <row r="4" spans="1:255" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="195"/>
       <c r="B4" s="197"/>
       <c r="C4" s="199"/>
@@ -30828,7 +30857,7 @@
       <c r="J4" s="209"/>
       <c r="K4" s="210"/>
     </row>
-    <row r="5" spans="1:255" s="57" customFormat="1">
+    <row r="5" spans="1:255" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65">
         <f>'Сводная таблица'!A5:A6</f>
         <v>1</v>
@@ -30871,7 +30900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:255" s="57" customFormat="1">
+    <row r="6" spans="1:255" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="58">
         <f>'Сводная таблица'!A6:A7</f>
         <v>2</v>
@@ -30915,7 +30944,7 @@
       </c>
       <c r="M6" s="83"/>
     </row>
-    <row r="7" spans="1:255" s="57" customFormat="1">
+    <row r="7" spans="1:255" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="58">
         <f>'Сводная таблица'!A7:A8</f>
         <v>3</v>
@@ -30958,7 +30987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:255" s="57" customFormat="1">
+    <row r="8" spans="1:255" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="58">
         <f>'Сводная таблица'!A8:A9</f>
         <v>4</v>
@@ -31001,7 +31030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:255" s="57" customFormat="1">
+    <row r="9" spans="1:255" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="58">
         <f>'Сводная таблица'!A9:A10</f>
         <v>5</v>
@@ -31044,7 +31073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:255" s="57" customFormat="1">
+    <row r="10" spans="1:255" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="58">
         <f>'Сводная таблица'!A10:A11</f>
         <v>6</v>
@@ -31087,7 +31116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:255" s="57" customFormat="1">
+    <row r="11" spans="1:255" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="58">
         <f>'Сводная таблица'!A11:A12</f>
         <v>7</v>
@@ -31130,7 +31159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:255" s="57" customFormat="1">
+    <row r="12" spans="1:255" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="58">
         <f>'Сводная таблица'!A12:A13</f>
         <v>8</v>
@@ -31173,7 +31202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:255" s="57" customFormat="1">
+    <row r="13" spans="1:255" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="58">
         <f>'Сводная таблица'!A13:A14</f>
         <v>9</v>
@@ -31216,7 +31245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:255" s="57" customFormat="1">
+    <row r="14" spans="1:255" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="58">
         <f>'Сводная таблица'!A14:A15</f>
         <v>10</v>
@@ -31259,7 +31288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:255" s="57" customFormat="1">
+    <row r="15" spans="1:255" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="58">
         <f>'Сводная таблица'!A15:A16</f>
         <v>11</v>
@@ -31302,7 +31331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:255" s="57" customFormat="1">
+    <row r="16" spans="1:255" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="58">
         <f>'Сводная таблица'!A16:A17</f>
         <v>12</v>
@@ -31345,7 +31374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="57" customFormat="1">
+    <row r="17" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="58">
         <f>'Сводная таблица'!A17:A18</f>
         <v>13</v>
@@ -31388,7 +31417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="57" customFormat="1">
+    <row r="18" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="58">
         <f>'Сводная таблица'!A18:A19</f>
         <v>14</v>
@@ -31431,7 +31460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="57" customFormat="1">
+    <row r="19" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="58">
         <f>'Сводная таблица'!A19:A20</f>
         <v>15</v>
@@ -31473,7 +31502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="57" customFormat="1">
+    <row r="20" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="58">
         <f>'Сводная таблица'!A20:A21</f>
         <v>16</v>
@@ -31516,7 +31545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="57" customFormat="1">
+    <row r="21" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="58">
         <f>'Сводная таблица'!A21:A22</f>
         <v>17</v>
@@ -31559,7 +31588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="57" customFormat="1">
+    <row r="22" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="58">
         <f>'Сводная таблица'!A22:A23</f>
         <v>18</v>
@@ -31602,7 +31631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="57" customFormat="1">
+    <row r="23" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="58">
         <f>'Сводная таблица'!A23:A24</f>
         <v>19</v>
@@ -31645,7 +31674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="57" customFormat="1">
+    <row r="24" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="58">
         <f>'Сводная таблица'!A24:A25</f>
         <v>20</v>
@@ -31688,7 +31717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="57" customFormat="1">
+    <row r="25" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="58">
         <f>'Сводная таблица'!A25:A26</f>
         <v>21</v>
@@ -31731,7 +31760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="57" customFormat="1">
+    <row r="26" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="58">
         <f>'Сводная таблица'!A26:A27</f>
         <v>22</v>
@@ -31774,7 +31803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="57" customFormat="1">
+    <row r="27" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="58">
         <f>'Сводная таблица'!A27:A28</f>
         <v>23</v>
@@ -31817,7 +31846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="57" customFormat="1">
+    <row r="28" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="58">
         <f>'Сводная таблица'!A28:A29</f>
         <v>24</v>
@@ -31860,7 +31889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="57" customFormat="1">
+    <row r="29" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="58">
         <f>'Сводная таблица'!A29:A30</f>
         <v>25</v>
@@ -31903,7 +31932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="57" customFormat="1">
+    <row r="30" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="58">
         <f>'Сводная таблица'!A30:A31</f>
         <v>26</v>
@@ -31946,7 +31975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="57" customFormat="1">
+    <row r="31" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="58">
         <f>'Сводная таблица'!A31:A32</f>
         <v>27</v>
@@ -31989,7 +32018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="57" customFormat="1">
+    <row r="32" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="58">
         <f>'Сводная таблица'!A32:A33</f>
         <v>28</v>
@@ -32032,7 +32061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="57" customFormat="1">
+    <row r="33" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="58">
         <f>'Сводная таблица'!A33:A34</f>
         <v>29</v>
@@ -32075,7 +32104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="57" customFormat="1">
+    <row r="34" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="58">
         <f>'Сводная таблица'!A34:A35</f>
         <v>30</v>
@@ -32118,7 +32147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="57" customFormat="1">
+    <row r="35" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="58">
         <f>'Сводная таблица'!A35:A36</f>
         <v>31</v>
@@ -32161,7 +32190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="57" customFormat="1">
+    <row r="36" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="58">
         <f>'Сводная таблица'!A36:A37</f>
         <v>32</v>
@@ -32204,7 +32233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="57" customFormat="1">
+    <row r="37" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="58">
         <f>'Сводная таблица'!A37:A38</f>
         <v>33</v>
@@ -32247,7 +32276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="57" customFormat="1">
+    <row r="38" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="58">
         <f>'Сводная таблица'!A38:A39</f>
         <v>34</v>
@@ -32290,7 +32319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="57" customFormat="1">
+    <row r="39" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="58">
         <f>'Сводная таблица'!A39:A40</f>
         <v>35</v>
@@ -32333,7 +32362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="57" customFormat="1">
+    <row r="40" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="58">
         <f>'Сводная таблица'!A40:A41</f>
         <v>36</v>
@@ -32376,7 +32405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="57" customFormat="1">
+    <row r="41" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="58">
         <f>'Сводная таблица'!A41:A42</f>
         <v>37</v>
@@ -32419,7 +32448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="57" customFormat="1">
+    <row r="42" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="58">
         <f>'Сводная таблица'!A42:A43</f>
         <v>38</v>
@@ -32462,7 +32491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="57" customFormat="1">
+    <row r="43" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="58">
         <f>'Сводная таблица'!A43:A44</f>
         <v>39</v>
@@ -32505,7 +32534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="57" customFormat="1">
+    <row r="44" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="58">
         <f>'Сводная таблица'!A44:A45</f>
         <v>40</v>
@@ -32548,7 +32577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="57" customFormat="1">
+    <row r="45" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="58">
         <f>'Сводная таблица'!A45:A46</f>
         <v>41</v>
@@ -32591,7 +32620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="57" customFormat="1" ht="15" thickBot="1">
+    <row r="46" spans="1:11" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="59">
         <f>'Сводная таблица'!A46:A47</f>
         <v>42</v>
@@ -32634,7 +32663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="43" customFormat="1">
+    <row r="47" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="56"/>
       <c r="B47" s="56"/>
       <c r="C47" s="56"/>
@@ -32643,7 +32672,7 @@
       <c r="F47" s="56"/>
       <c r="G47" s="56"/>
     </row>
-    <row r="48" spans="1:11" s="43" customFormat="1">
+    <row r="48" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="56"/>
       <c r="B48" s="56"/>
       <c r="C48" s="56"/>
@@ -32652,7 +32681,7 @@
       <c r="F48" s="56"/>
       <c r="G48" s="56"/>
     </row>
-    <row r="49" spans="1:7" s="43" customFormat="1">
+    <row r="49" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="56"/>
       <c r="B49" s="56"/>
       <c r="C49" s="56"/>
@@ -32661,7 +32690,7 @@
       <c r="F49" s="56"/>
       <c r="G49" s="56"/>
     </row>
-    <row r="50" spans="1:7" s="43" customFormat="1">
+    <row r="50" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="56"/>
       <c r="B50" s="56"/>
       <c r="C50" s="56"/>
@@ -32670,7 +32699,7 @@
       <c r="F50" s="56"/>
       <c r="G50" s="56"/>
     </row>
-    <row r="51" spans="1:7" s="43" customFormat="1">
+    <row r="51" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="56"/>
       <c r="B51" s="56"/>
       <c r="C51" s="56"/>
@@ -32679,7 +32708,7 @@
       <c r="F51" s="56"/>
       <c r="G51" s="56"/>
     </row>
-    <row r="52" spans="1:7" s="43" customFormat="1">
+    <row r="52" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="56"/>
       <c r="B52" s="56"/>
       <c r="C52" s="56"/>
@@ -32709,23 +32738,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" style="82" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="2" customWidth="1"/>
-    <col min="3" max="27" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="9.109375" style="43"/>
+    <col min="1" max="1" width="31.28515625" style="82" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="2" customWidth="1"/>
+    <col min="3" max="27" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.140625" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="190" t="s">
         <v>122</v>
       </c>
@@ -32985,7 +33014,7 @@
       <c r="IU1" s="190"/>
       <c r="IV1" s="190"/>
     </row>
-    <row r="2" spans="1:256" s="46" customFormat="1">
+    <row r="2" spans="1:256" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>134</v>
       </c>
@@ -33143,7 +33172,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:256" s="43" customFormat="1">
+    <row r="3" spans="1:256" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="82">
         <v>0</v>
       </c>
@@ -33301,7 +33330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:256">
+    <row r="4" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A4" s="82">
         <v>1</v>
       </c>
@@ -33509,7 +33538,7 @@
         <v>0.89695192324410611</v>
       </c>
     </row>
-    <row r="5" spans="1:256">
+    <row r="5" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A5" s="82">
         <f>A4+1</f>
         <v>2</v>
@@ -33718,7 +33747,7 @@
         <v>0.87018571255634025</v>
       </c>
     </row>
-    <row r="6" spans="1:256">
+    <row r="6" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A6" s="82">
         <f t="shared" ref="A6:A69" si="3">A5+1</f>
         <v>3</v>
@@ -33927,7 +33956,7 @@
         <v>0.84629551063873676</v>
       </c>
     </row>
-    <row r="7" spans="1:256">
+    <row r="7" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A7" s="82">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -34136,7 +34165,7 @@
         <v>0.82445642806579367</v>
       </c>
     </row>
-    <row r="8" spans="1:256">
+    <row r="8" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A8" s="82">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -34345,7 +34374,7 @@
         <v>0.80422263750866019</v>
       </c>
     </row>
-    <row r="9" spans="1:256">
+    <row r="9" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A9" s="82">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -34554,7 +34583,7 @@
         <v>0.78531313248338608</v>
       </c>
     </row>
-    <row r="10" spans="1:256">
+    <row r="10" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A10" s="82">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -34763,7 +34792,7 @@
         <v>0.76753310411070741</v>
       </c>
     </row>
-    <row r="11" spans="1:256">
+    <row r="11" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A11" s="82">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -34972,7 +35001,7 @@
         <v>0.75073850127167796</v>
       </c>
     </row>
-    <row r="12" spans="1:256">
+    <row r="12" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A12" s="82">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -35181,7 +35210,7 @@
         <v>0.73481776731189774</v>
       </c>
     </row>
-    <row r="13" spans="1:256">
+    <row r="13" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A13" s="82">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -35390,7 +35419,7 @@
         <v>0.71968148502792184</v>
       </c>
     </row>
-    <row r="14" spans="1:256">
+    <row r="14" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A14" s="82">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -35599,7 +35628,7 @@
         <v>0.70525606632121929</v>
       </c>
     </row>
-    <row r="15" spans="1:256">
+    <row r="15" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A15" s="82">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -35808,7 +35837,7 @@
         <v>0.69147968248291725</v>
       </c>
     </row>
-    <row r="16" spans="1:256">
+    <row r="16" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A16" s="82">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -36017,7 +36046,7 @@
         <v>0.67829951653884102</v>
       </c>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" s="82">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -36226,7 +36255,7 @@
         <v>0.66566983669222213</v>
       </c>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A18" s="82">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -36435,7 +36464,7 @@
         <v>0.65355060191796732</v>
       </c>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19" s="82">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -36644,7 +36673,7 @@
         <v>0.64190642508943729</v>
       </c>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20" s="82">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -36853,7 +36882,7 @@
         <v>0.63070578385177745</v>
       </c>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A21" s="82">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -37062,7 +37091,7 @@
         <v>0.61992040782875424</v>
       </c>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A22" s="82">
         <f t="shared" si="3"/>
         <v>19</v>
@@ -37271,7 +37300,7 @@
         <v>0.60952479431466833</v>
       </c>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A23" s="82">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -37480,7 +37509,7 @@
         <v>0.59949581954633846</v>
       </c>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A24" s="82">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -37689,7 +37718,7 @@
         <v>0.58981242239837206</v>
       </c>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A25" s="82">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -37898,7 +37927,7 @@
         <v>0.58045534386588959</v>
       </c>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A26" s="82">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -38107,7 +38136,7 @@
         <v>0.57140691016010958</v>
       </c>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A27" s="82">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -38316,7 +38345,7 @@
         <v>0.56265085035673512</v>
       </c>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A28" s="82">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -38525,7 +38554,7 @@
         <v>0.55417214175163687</v>
       </c>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A29" s="82">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -38734,7 +38763,7 @@
         <v>0.54595687767947287</v>
       </c>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A30" s="82">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -38943,7 +38972,7 @@
         <v>0.53799215372631093</v>
       </c>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A31" s="82">
         <f t="shared" si="3"/>
         <v>28</v>
@@ -39152,7 +39181,7 @@
         <v>0.53026596914239565</v>
       </c>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A32" s="82">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -39361,7 +39390,7 @@
         <v>0.52276714092111976</v>
       </c>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A33" s="82">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -39570,7 +39599,7 @@
         <v>0.51548522851390399</v>
       </c>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A34" s="82">
         <f t="shared" si="3"/>
         <v>31</v>
@@ -39779,7 +39808,7 @@
         <v>0.50841046753931596</v>
       </c>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A35" s="82">
         <f t="shared" si="3"/>
         <v>32</v>
@@ -39988,7 +40017,7 @@
         <v>0.5015337111477397</v>
       </c>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A36" s="82">
         <f t="shared" si="3"/>
         <v>33</v>
@@ -40197,7 +40226,7 @@
         <v>0.49484637794137742</v>
       </c>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A37" s="82">
         <f t="shared" si="3"/>
         <v>34</v>
@@ -40406,7 +40435,7 @@
         <v>0.48834040553873787</v>
       </c>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A38" s="82">
         <f t="shared" si="3"/>
         <v>35</v>
@@ -40615,7 +40644,7 @@
         <v>0.48200820902440999</v>
       </c>
     </row>
-    <row r="39" spans="1:52">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A39" s="82">
         <f t="shared" si="3"/>
         <v>36</v>
@@ -40824,7 +40853,7 @@
         <v>0.4758426436472955</v>
       </c>
     </row>
-    <row r="40" spans="1:52">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A40" s="82">
         <f t="shared" si="3"/>
         <v>37</v>
@@ -41033,7 +41062,7 @@
         <v>0.46983697122996571</v>
       </c>
     </row>
-    <row r="41" spans="1:52">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A41" s="82">
         <f t="shared" si="3"/>
         <v>38</v>
@@ -41242,7 +41271,7 @@
         <v>0.46398482983322931</v>
       </c>
     </row>
-    <row r="42" spans="1:52">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A42" s="82">
         <f t="shared" si="3"/>
         <v>39</v>
@@ -41451,7 +41480,7 @@
         <v>0.45828020628708993</v>
       </c>
     </row>
-    <row r="43" spans="1:52">
+    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A43" s="82">
         <f t="shared" si="3"/>
         <v>40</v>
@@ -41660,7 +41689,7 @@
         <v>0.45271741125486509</v>
       </c>
     </row>
-    <row r="44" spans="1:52">
+    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A44" s="82">
         <f t="shared" si="3"/>
         <v>41</v>
@@ -41869,7 +41898,7 @@
         <v>0.44729105654358564</v>
       </c>
     </row>
-    <row r="45" spans="1:52">
+    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A45" s="82">
         <f t="shared" si="3"/>
         <v>42</v>
@@ -42078,7 +42107,7 @@
         <v>0.44199603441263408</v>
       </c>
     </row>
-    <row r="46" spans="1:52">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A46" s="82">
         <f t="shared" si="3"/>
         <v>43</v>
@@ -42287,7 +42316,7 @@
         <v>0.43682749866529708</v>
       </c>
     </row>
-    <row r="47" spans="1:52">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A47" s="82">
         <f t="shared" si="3"/>
         <v>44</v>
@@ -42496,7 +42525,7 @@
         <v>0.43178084733559291</v>
       </c>
     </row>
-    <row r="48" spans="1:52">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A48" s="82">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -42705,7 +42734,7 @@
         <v>0.42685170680628148</v>
       </c>
     </row>
-    <row r="49" spans="1:52">
+    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A49" s="82">
         <f t="shared" si="3"/>
         <v>46</v>
@@ -42914,7 +42943,7 @@
         <v>0.42203591721406519</v>
       </c>
     </row>
-    <row r="50" spans="1:52">
+    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A50" s="82">
         <f t="shared" si="3"/>
         <v>47</v>
@@ -43123,7 +43152,7 @@
         <v>0.41732951901522114</v>
       </c>
     </row>
-    <row r="51" spans="1:52">
+    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A51" s="82">
         <f t="shared" si="3"/>
         <v>48</v>
@@ -43332,7 +43361,7 @@
         <v>0.41272874059974574</v>
       </c>
     </row>
-    <row r="52" spans="1:52">
+    <row r="52" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A52" s="82">
         <f t="shared" si="3"/>
         <v>49</v>
@@ -43541,7 +43570,7 @@
         <v>0.40822998685489836</v>
       </c>
     </row>
-    <row r="53" spans="1:52">
+    <row r="53" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A53" s="82">
         <f t="shared" si="3"/>
         <v>50</v>
@@ -43750,7 +43779,7 @@
         <v>0.40382982859014716</v>
       </c>
     </row>
-    <row r="54" spans="1:52">
+    <row r="54" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A54" s="82">
         <f t="shared" si="3"/>
         <v>51</v>
@@ -43959,7 +43988,7 @@
         <v>0.39952499274517511</v>
       </c>
     </row>
-    <row r="55" spans="1:52">
+    <row r="55" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A55" s="82">
         <f t="shared" si="3"/>
         <v>52</v>
@@ -44168,7 +44197,7 @@
         <v>0.39531235331103515</v>
       </c>
     </row>
-    <row r="56" spans="1:52">
+    <row r="56" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A56" s="82">
         <f t="shared" si="3"/>
         <v>53</v>
@@ -44377,7 +44406,7 @@
         <v>0.39118892290191981</v>
       </c>
     </row>
-    <row r="57" spans="1:52">
+    <row r="57" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A57" s="82">
         <f t="shared" si="3"/>
         <v>54</v>
@@ -44586,7 +44615,7 @@
         <v>0.38715184492148302</v>
       </c>
     </row>
-    <row r="58" spans="1:52">
+    <row r="58" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A58" s="82">
         <f t="shared" si="3"/>
         <v>55</v>
@@ -44795,7 +44824,7 @@
         <v>0.3831983862733474</v>
       </c>
     </row>
-    <row r="59" spans="1:52">
+    <row r="59" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A59" s="82">
         <f t="shared" si="3"/>
         <v>56</v>
@@ -45004,7 +45033,7 @@
         <v>0.37932593057045705</v>
       </c>
     </row>
-    <row r="60" spans="1:52">
+    <row r="60" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A60" s="82">
         <f t="shared" si="3"/>
         <v>57</v>
@@ -45213,7 +45242,7 @@
         <v>0.37553197180237941</v>
       </c>
     </row>
-    <row r="61" spans="1:52">
+    <row r="61" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A61" s="82">
         <f t="shared" si="3"/>
         <v>58</v>
@@ -45422,7 +45451,7 @@
         <v>0.37181410842360219</v>
       </c>
     </row>
-    <row r="62" spans="1:52">
+    <row r="62" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A62" s="82">
         <f t="shared" si="3"/>
         <v>59</v>
@@ -45631,7 +45660,7 @@
         <v>0.36817003782937135</v>
       </c>
     </row>
-    <row r="63" spans="1:52">
+    <row r="63" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A63" s="82">
         <f t="shared" si="3"/>
         <v>60</v>
@@ -45840,7 +45869,7 @@
         <v>0.36459755118873494</v>
       </c>
     </row>
-    <row r="64" spans="1:52">
+    <row r="64" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A64" s="82">
         <f t="shared" si="3"/>
         <v>61</v>
@@ -46049,7 +46078,7 @@
         <v>0.36109452860724189</v>
       </c>
     </row>
-    <row r="65" spans="1:52">
+    <row r="65" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A65" s="82">
         <f t="shared" si="3"/>
         <v>62</v>
@@ -46258,7 +46287,7 @@
         <v>0.35765893459423009</v>
       </c>
     </row>
-    <row r="66" spans="1:52">
+    <row r="66" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A66" s="82">
         <f t="shared" si="3"/>
         <v>63</v>
@@ -46467,7 +46496,7 @@
         <v>0.35428881381187033</v>
       </c>
     </row>
-    <row r="67" spans="1:52">
+    <row r="67" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A67" s="82">
         <f t="shared" si="3"/>
         <v>64</v>
@@ -46676,7 +46705,7 @@
         <v>0.35098228708513207</v>
       </c>
     </row>
-    <row r="68" spans="1:52">
+    <row r="68" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A68" s="82">
         <f t="shared" si="3"/>
         <v>65</v>
@@ -46885,7 +46914,7 @@
         <v>0.3477375476536349</v>
       </c>
     </row>
-    <row r="69" spans="1:52">
+    <row r="69" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A69" s="82">
         <f t="shared" si="3"/>
         <v>66</v>
@@ -47094,7 +47123,7 @@
         <v>0.34455285764797311</v>
       </c>
     </row>
-    <row r="70" spans="1:52">
+    <row r="70" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A70" s="82">
         <f t="shared" ref="A70:A103" si="22">A69+1</f>
         <v>67</v>
@@ -47303,7 +47332,7 @@
         <v>0.34142654477455808</v>
       </c>
     </row>
-    <row r="71" spans="1:52">
+    <row r="71" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A71" s="82">
         <f t="shared" si="22"/>
         <v>68</v>
@@ -47512,7 +47541,7 @@
         <v>0.33835699919434897</v>
       </c>
     </row>
-    <row r="72" spans="1:52">
+    <row r="72" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A72" s="82">
         <f t="shared" si="22"/>
         <v>69</v>
@@ -47721,7 +47750,7 @@
         <v>0.33534267058203321</v>
       </c>
     </row>
-    <row r="73" spans="1:52">
+    <row r="73" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A73" s="82">
         <f t="shared" si="22"/>
         <v>70</v>
@@ -47930,7 +47959,7 @@
         <v>0.33238206535330334</v>
       </c>
     </row>
-    <row r="74" spans="1:52">
+    <row r="74" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A74" s="82">
         <f t="shared" si="22"/>
         <v>71</v>
@@ -48139,7 +48168,7 @@
         <v>0.32947374404886082</v>
       </c>
     </row>
-    <row r="75" spans="1:52">
+    <row r="75" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A75" s="82">
         <f t="shared" si="22"/>
         <v>72</v>
@@ -48348,7 +48377,7 @@
         <v>0.32661631886466974</v>
       </c>
     </row>
-    <row r="76" spans="1:52">
+    <row r="76" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A76" s="82">
         <f t="shared" si="22"/>
         <v>73</v>
@@ -48557,7 +48586,7 @@
         <v>0.32380845131879504</v>
       </c>
     </row>
-    <row r="77" spans="1:52">
+    <row r="77" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A77" s="82">
         <f t="shared" si="22"/>
         <v>74</v>
@@ -48766,7 +48795,7 @@
         <v>0.32104885004590483</v>
       </c>
     </row>
-    <row r="78" spans="1:52">
+    <row r="78" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A78" s="82">
         <f t="shared" si="22"/>
         <v>75</v>
@@ -48975,7 +49004,7 @@
         <v>0.31833626871118842</v>
       </c>
     </row>
-    <row r="79" spans="1:52">
+    <row r="79" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A79" s="82">
         <f t="shared" si="22"/>
         <v>76</v>
@@ -49184,7 +49213,7 @@
         <v>0.31566950403605964</v>
       </c>
     </row>
-    <row r="80" spans="1:52">
+    <row r="80" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A80" s="82">
         <f t="shared" si="22"/>
         <v>77</v>
@@ -49393,7 +49422,7 @@
         <v>0.31304739392858366</v>
       </c>
     </row>
-    <row r="81" spans="1:52">
+    <row r="81" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A81" s="82">
         <f t="shared" si="22"/>
         <v>78</v>
@@ -49602,7 +49631,7 @@
         <v>0.31046881571207507</v>
       </c>
     </row>
-    <row r="82" spans="1:52">
+    <row r="82" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A82" s="82">
         <f t="shared" si="22"/>
         <v>79</v>
@@ -49811,7 +49840,7 @@
         <v>0.3079326844457963</v>
       </c>
     </row>
-    <row r="83" spans="1:52">
+    <row r="83" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A83" s="82">
         <f t="shared" si="22"/>
         <v>80</v>
@@ -50020,7 +50049,7 @@
         <v>0.30543795133211471</v>
       </c>
     </row>
-    <row r="84" spans="1:52">
+    <row r="84" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A84" s="82">
         <f t="shared" si="22"/>
         <v>81</v>
@@ -50229,7 +50258,7 @@
         <v>0.30298360220487908</v>
       </c>
     </row>
-    <row r="85" spans="1:52">
+    <row r="85" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A85" s="82">
         <f t="shared" si="22"/>
         <v>82</v>
@@ -50438,7 +50467,7 @@
         <v>0.30056865609414096</v>
       </c>
     </row>
-    <row r="86" spans="1:52">
+    <row r="86" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A86" s="82">
         <f t="shared" si="22"/>
         <v>83</v>
@@ -50647,7 +50676,7 @@
         <v>0.29819216386268604</v>
       </c>
     </row>
-    <row r="87" spans="1:52">
+    <row r="87" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A87" s="82">
         <f t="shared" si="22"/>
         <v>84</v>
@@ -50856,7 +50885,7 @@
         <v>0.29585320691014999</v>
       </c>
     </row>
-    <row r="88" spans="1:52">
+    <row r="88" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A88" s="82">
         <f t="shared" si="22"/>
         <v>85</v>
@@ -51065,7 +51094,7 @@
         <v>0.29355089594078115</v>
       </c>
     </row>
-    <row r="89" spans="1:52">
+    <row r="89" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A89" s="82">
         <f t="shared" si="22"/>
         <v>86</v>
@@ -51274,7 +51303,7 @@
         <v>0.29128436979117783</v>
       </c>
     </row>
-    <row r="90" spans="1:52">
+    <row r="90" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A90" s="82">
         <f t="shared" si="22"/>
         <v>87</v>
@@ -51483,7 +51512,7 @@
         <v>0.28905279431456948</v>
       </c>
     </row>
-    <row r="91" spans="1:52">
+    <row r="91" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A91" s="82">
         <f t="shared" si="22"/>
         <v>88</v>
@@ -51692,7 +51721,7 @@
         <v>0.28685536131844031</v>
       </c>
     </row>
-    <row r="92" spans="1:52">
+    <row r="92" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A92" s="82">
         <f t="shared" si="22"/>
         <v>89</v>
@@ -51901,7 +51930,7 @@
         <v>0.28469128755250095</v>
       </c>
     </row>
-    <row r="93" spans="1:52">
+    <row r="93" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A93" s="82">
         <f t="shared" si="22"/>
         <v>90</v>
@@ -52110,7 +52139,7 @@
         <v>0.28255981374420847</v>
       </c>
     </row>
-    <row r="94" spans="1:52">
+    <row r="94" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A94" s="82">
         <f t="shared" si="22"/>
         <v>91</v>
@@ -52319,7 +52348,7 @@
         <v>0.28046020367921182</v>
       </c>
     </row>
-    <row r="95" spans="1:52">
+    <row r="95" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A95" s="82">
         <f t="shared" si="22"/>
         <v>92</v>
@@ -52528,7 +52557,7 @@
         <v>0.27839174332427152</v>
       </c>
     </row>
-    <row r="96" spans="1:52">
+    <row r="96" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A96" s="82">
         <f t="shared" si="22"/>
         <v>93</v>
@@ -52737,7 +52766,7 @@
         <v>0.27635373999034968</v>
       </c>
     </row>
-    <row r="97" spans="1:52">
+    <row r="97" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A97" s="82">
         <f t="shared" si="22"/>
         <v>94</v>
@@ -52946,7 +52975,7 @@
         <v>0.27434552153371461</v>
       </c>
     </row>
-    <row r="98" spans="1:52">
+    <row r="98" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A98" s="82">
         <f t="shared" si="22"/>
         <v>95</v>
@@ -53155,7 +53184,7 @@
         <v>0.27236643559303747</v>
       </c>
     </row>
-    <row r="99" spans="1:52">
+    <row r="99" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A99" s="82">
         <f t="shared" si="22"/>
         <v>96</v>
@@ -53364,7 +53393,7 @@
         <v>0.27041584886057934</v>
       </c>
     </row>
-    <row r="100" spans="1:52">
+    <row r="100" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A100" s="82">
         <f t="shared" si="22"/>
         <v>97</v>
@@ -53573,7 +53602,7 @@
         <v>0.26849314638568411</v>
       </c>
     </row>
-    <row r="101" spans="1:52">
+    <row r="101" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A101" s="82">
         <f t="shared" si="22"/>
         <v>98</v>
@@ -53782,7 +53811,7 @@
         <v>0.26659773090890115</v>
       </c>
     </row>
-    <row r="102" spans="1:52">
+    <row r="102" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A102" s="82">
         <f t="shared" si="22"/>
         <v>99</v>
@@ -53991,7 +54020,7 @@
         <v>0.26472902222515887</v>
       </c>
     </row>
-    <row r="103" spans="1:52">
+    <row r="103" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A103" s="82">
         <f t="shared" si="22"/>
         <v>100</v>
@@ -54200,7 +54229,7 @@
         <v>0.26288645657450682</v>
       </c>
     </row>
-    <row r="104" spans="1:52">
+    <row r="104" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C104" s="41"/>
       <c r="D104" s="41"/>
       <c r="E104" s="41"/>
@@ -54252,7 +54281,7 @@
       <c r="AY104" s="41"/>
       <c r="AZ104" s="64"/>
     </row>
-    <row r="105" spans="1:52">
+    <row r="105" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C105" s="41"/>
       <c r="D105" s="41"/>
       <c r="E105" s="41"/>
@@ -54304,7 +54333,7 @@
       <c r="AY105" s="41"/>
       <c r="AZ105" s="64"/>
     </row>
-    <row r="106" spans="1:52">
+    <row r="106" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C106" s="41"/>
       <c r="D106" s="41"/>
       <c r="E106" s="41"/>
@@ -54356,7 +54385,7 @@
       <c r="AY106" s="41"/>
       <c r="AZ106" s="64"/>
     </row>
-    <row r="107" spans="1:52">
+    <row r="107" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C107" s="41"/>
       <c r="D107" s="41"/>
       <c r="E107" s="41"/>
@@ -54408,7 +54437,7 @@
       <c r="AY107" s="41"/>
       <c r="AZ107" s="64"/>
     </row>
-    <row r="108" spans="1:52">
+    <row r="108" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C108" s="41"/>
       <c r="D108" s="41"/>
       <c r="E108" s="41"/>
@@ -54460,7 +54489,7 @@
       <c r="AY108" s="41"/>
       <c r="AZ108" s="64"/>
     </row>
-    <row r="109" spans="1:52">
+    <row r="109" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C109" s="41"/>
       <c r="D109" s="41"/>
       <c r="E109" s="41"/>
@@ -54512,7 +54541,7 @@
       <c r="AY109" s="41"/>
       <c r="AZ109" s="64"/>
     </row>
-    <row r="110" spans="1:52">
+    <row r="110" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C110" s="41"/>
       <c r="D110" s="41"/>
       <c r="E110" s="41"/>
@@ -54564,7 +54593,7 @@
       <c r="AY110" s="41"/>
       <c r="AZ110" s="64"/>
     </row>
-    <row r="111" spans="1:52">
+    <row r="111" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C111" s="41"/>
       <c r="D111" s="41"/>
       <c r="E111" s="41"/>
@@ -54616,7 +54645,7 @@
       <c r="AY111" s="41"/>
       <c r="AZ111" s="64"/>
     </row>
-    <row r="112" spans="1:52">
+    <row r="112" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C112" s="41"/>
       <c r="D112" s="41"/>
       <c r="E112" s="41"/>
@@ -54668,7 +54697,7 @@
       <c r="AY112" s="41"/>
       <c r="AZ112" s="64"/>
     </row>
-    <row r="113" spans="3:52">
+    <row r="113" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C113" s="41"/>
       <c r="D113" s="41"/>
       <c r="E113" s="41"/>
@@ -54720,7 +54749,7 @@
       <c r="AY113" s="41"/>
       <c r="AZ113" s="64"/>
     </row>
-    <row r="114" spans="3:52">
+    <row r="114" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C114" s="41"/>
       <c r="D114" s="41"/>
       <c r="E114" s="41"/>
@@ -54772,7 +54801,7 @@
       <c r="AY114" s="41"/>
       <c r="AZ114" s="64"/>
     </row>
-    <row r="115" spans="3:52">
+    <row r="115" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C115" s="41"/>
       <c r="D115" s="41"/>
       <c r="E115" s="41"/>
@@ -54824,7 +54853,7 @@
       <c r="AY115" s="41"/>
       <c r="AZ115" s="64"/>
     </row>
-    <row r="116" spans="3:52">
+    <row r="116" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C116" s="41"/>
       <c r="D116" s="41"/>
       <c r="E116" s="41"/>
@@ -54876,7 +54905,7 @@
       <c r="AY116" s="41"/>
       <c r="AZ116" s="64"/>
     </row>
-    <row r="117" spans="3:52">
+    <row r="117" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C117" s="41"/>
       <c r="D117" s="41"/>
       <c r="E117" s="41"/>
@@ -54928,7 +54957,7 @@
       <c r="AY117" s="41"/>
       <c r="AZ117" s="64"/>
     </row>
-    <row r="118" spans="3:52">
+    <row r="118" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C118" s="41"/>
       <c r="D118" s="41"/>
       <c r="E118" s="41"/>
@@ -54980,7 +55009,7 @@
       <c r="AY118" s="41"/>
       <c r="AZ118" s="64"/>
     </row>
-    <row r="119" spans="3:52">
+    <row r="119" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C119" s="41"/>
       <c r="D119" s="41"/>
       <c r="E119" s="41"/>
@@ -55032,7 +55061,7 @@
       <c r="AY119" s="41"/>
       <c r="AZ119" s="64"/>
     </row>
-    <row r="120" spans="3:52">
+    <row r="120" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C120" s="41"/>
       <c r="D120" s="41"/>
       <c r="E120" s="41"/>
@@ -55084,7 +55113,7 @@
       <c r="AY120" s="41"/>
       <c r="AZ120" s="64"/>
     </row>
-    <row r="121" spans="3:52">
+    <row r="121" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C121" s="41"/>
       <c r="D121" s="41"/>
       <c r="E121" s="41"/>
@@ -55136,7 +55165,7 @@
       <c r="AY121" s="41"/>
       <c r="AZ121" s="64"/>
     </row>
-    <row r="122" spans="3:52">
+    <row r="122" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C122" s="41"/>
       <c r="D122" s="41"/>
       <c r="E122" s="41"/>
@@ -55188,7 +55217,7 @@
       <c r="AY122" s="41"/>
       <c r="AZ122" s="64"/>
     </row>
-    <row r="123" spans="3:52">
+    <row r="123" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C123" s="41"/>
       <c r="D123" s="41"/>
       <c r="E123" s="41"/>
@@ -55240,7 +55269,7 @@
       <c r="AY123" s="41"/>
       <c r="AZ123" s="64"/>
     </row>
-    <row r="124" spans="3:52">
+    <row r="124" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C124" s="41"/>
       <c r="D124" s="41"/>
       <c r="E124" s="41"/>
@@ -55292,7 +55321,7 @@
       <c r="AY124" s="41"/>
       <c r="AZ124" s="64"/>
     </row>
-    <row r="125" spans="3:52">
+    <row r="125" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C125" s="41"/>
       <c r="D125" s="41"/>
       <c r="E125" s="41"/>
@@ -55344,7 +55373,7 @@
       <c r="AY125" s="41"/>
       <c r="AZ125" s="64"/>
     </row>
-    <row r="126" spans="3:52">
+    <row r="126" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C126" s="41"/>
       <c r="D126" s="41"/>
       <c r="E126" s="41"/>
@@ -55396,7 +55425,7 @@
       <c r="AY126" s="41"/>
       <c r="AZ126" s="64"/>
     </row>
-    <row r="127" spans="3:52">
+    <row r="127" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C127" s="41"/>
       <c r="D127" s="41"/>
       <c r="E127" s="41"/>
@@ -55448,7 +55477,7 @@
       <c r="AY127" s="41"/>
       <c r="AZ127" s="64"/>
     </row>
-    <row r="128" spans="3:52">
+    <row r="128" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C128" s="41"/>
       <c r="D128" s="41"/>
       <c r="E128" s="41"/>
@@ -55500,7 +55529,7 @@
       <c r="AY128" s="41"/>
       <c r="AZ128" s="64"/>
     </row>
-    <row r="129" spans="3:52">
+    <row r="129" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C129" s="41"/>
       <c r="D129" s="41"/>
       <c r="E129" s="41"/>
@@ -55552,7 +55581,7 @@
       <c r="AY129" s="41"/>
       <c r="AZ129" s="64"/>
     </row>
-    <row r="130" spans="3:52">
+    <row r="130" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C130" s="41"/>
       <c r="D130" s="41"/>
       <c r="E130" s="41"/>
@@ -55604,7 +55633,7 @@
       <c r="AY130" s="41"/>
       <c r="AZ130" s="64"/>
     </row>
-    <row r="131" spans="3:52">
+    <row r="131" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C131" s="41"/>
       <c r="D131" s="41"/>
       <c r="E131" s="41"/>
@@ -55656,7 +55685,7 @@
       <c r="AY131" s="41"/>
       <c r="AZ131" s="64"/>
     </row>
-    <row r="132" spans="3:52">
+    <row r="132" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C132" s="41"/>
       <c r="D132" s="41"/>
       <c r="E132" s="41"/>
@@ -55708,7 +55737,7 @@
       <c r="AY132" s="41"/>
       <c r="AZ132" s="64"/>
     </row>
-    <row r="133" spans="3:52">
+    <row r="133" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C133" s="41"/>
       <c r="D133" s="41"/>
       <c r="E133" s="41"/>
@@ -55760,7 +55789,7 @@
       <c r="AY133" s="41"/>
       <c r="AZ133" s="64"/>
     </row>
-    <row r="134" spans="3:52">
+    <row r="134" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C134" s="41"/>
       <c r="D134" s="41"/>
       <c r="E134" s="41"/>
@@ -55812,7 +55841,7 @@
       <c r="AY134" s="41"/>
       <c r="AZ134" s="64"/>
     </row>
-    <row r="135" spans="3:52">
+    <row r="135" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C135" s="41"/>
       <c r="D135" s="41"/>
       <c r="E135" s="41"/>
@@ -55864,7 +55893,7 @@
       <c r="AY135" s="41"/>
       <c r="AZ135" s="64"/>
     </row>
-    <row r="136" spans="3:52">
+    <row r="136" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C136" s="41"/>
       <c r="D136" s="41"/>
       <c r="E136" s="41"/>
@@ -55916,7 +55945,7 @@
       <c r="AY136" s="41"/>
       <c r="AZ136" s="64"/>
     </row>
-    <row r="137" spans="3:52">
+    <row r="137" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C137" s="41"/>
       <c r="D137" s="41"/>
       <c r="E137" s="41"/>
@@ -55968,7 +55997,7 @@
       <c r="AY137" s="41"/>
       <c r="AZ137" s="64"/>
     </row>
-    <row r="138" spans="3:52">
+    <row r="138" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C138" s="41"/>
       <c r="D138" s="41"/>
       <c r="E138" s="41"/>
@@ -56020,7 +56049,7 @@
       <c r="AY138" s="41"/>
       <c r="AZ138" s="64"/>
     </row>
-    <row r="139" spans="3:52">
+    <row r="139" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C139" s="41"/>
       <c r="D139" s="41"/>
       <c r="E139" s="41"/>
@@ -56072,7 +56101,7 @@
       <c r="AY139" s="41"/>
       <c r="AZ139" s="64"/>
     </row>
-    <row r="140" spans="3:52">
+    <row r="140" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C140" s="41"/>
       <c r="D140" s="41"/>
       <c r="E140" s="41"/>
@@ -56124,7 +56153,7 @@
       <c r="AY140" s="41"/>
       <c r="AZ140" s="64"/>
     </row>
-    <row r="141" spans="3:52">
+    <row r="141" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C141" s="41"/>
       <c r="D141" s="41"/>
       <c r="E141" s="41"/>
@@ -56176,7 +56205,7 @@
       <c r="AY141" s="41"/>
       <c r="AZ141" s="64"/>
     </row>
-    <row r="142" spans="3:52">
+    <row r="142" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C142" s="41"/>
       <c r="D142" s="41"/>
       <c r="E142" s="41"/>
@@ -56228,7 +56257,7 @@
       <c r="AY142" s="41"/>
       <c r="AZ142" s="64"/>
     </row>
-    <row r="143" spans="3:52">
+    <row r="143" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C143" s="41"/>
       <c r="D143" s="41"/>
       <c r="E143" s="41"/>
@@ -56280,7 +56309,7 @@
       <c r="AY143" s="41"/>
       <c r="AZ143" s="64"/>
     </row>
-    <row r="144" spans="3:52">
+    <row r="144" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C144" s="41"/>
       <c r="D144" s="41"/>
       <c r="E144" s="41"/>
@@ -56332,7 +56361,7 @@
       <c r="AY144" s="41"/>
       <c r="AZ144" s="64"/>
     </row>
-    <row r="145" spans="3:52">
+    <row r="145" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C145" s="41"/>
       <c r="D145" s="41"/>
       <c r="E145" s="41"/>
@@ -56384,7 +56413,7 @@
       <c r="AY145" s="41"/>
       <c r="AZ145" s="64"/>
     </row>
-    <row r="146" spans="3:52">
+    <row r="146" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C146" s="41"/>
       <c r="D146" s="41"/>
       <c r="E146" s="41"/>
@@ -56436,7 +56465,7 @@
       <c r="AY146" s="41"/>
       <c r="AZ146" s="64"/>
     </row>
-    <row r="147" spans="3:52">
+    <row r="147" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C147" s="41"/>
       <c r="D147" s="41"/>
       <c r="E147" s="41"/>
@@ -56488,7 +56517,7 @@
       <c r="AY147" s="41"/>
       <c r="AZ147" s="64"/>
     </row>
-    <row r="148" spans="3:52">
+    <row r="148" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C148" s="41"/>
       <c r="D148" s="41"/>
       <c r="E148" s="41"/>
@@ -56540,7 +56569,7 @@
       <c r="AY148" s="41"/>
       <c r="AZ148" s="64"/>
     </row>
-    <row r="149" spans="3:52">
+    <row r="149" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C149" s="41"/>
       <c r="D149" s="41"/>
       <c r="E149" s="41"/>
@@ -56592,7 +56621,7 @@
       <c r="AY149" s="41"/>
       <c r="AZ149" s="64"/>
     </row>
-    <row r="150" spans="3:52">
+    <row r="150" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C150" s="41"/>
       <c r="D150" s="41"/>
       <c r="E150" s="41"/>
@@ -56644,7 +56673,7 @@
       <c r="AY150" s="41"/>
       <c r="AZ150" s="64"/>
     </row>
-    <row r="151" spans="3:52">
+    <row r="151" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C151" s="41"/>
       <c r="D151" s="41"/>
       <c r="E151" s="41"/>
@@ -56696,7 +56725,7 @@
       <c r="AY151" s="41"/>
       <c r="AZ151" s="64"/>
     </row>
-    <row r="152" spans="3:52">
+    <row r="152" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C152" s="41"/>
       <c r="D152" s="41"/>
       <c r="E152" s="41"/>
@@ -56748,7 +56777,7 @@
       <c r="AY152" s="41"/>
       <c r="AZ152" s="64"/>
     </row>
-    <row r="153" spans="3:52">
+    <row r="153" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C153" s="41"/>
       <c r="D153" s="41"/>
       <c r="E153" s="41"/>
@@ -56800,7 +56829,7 @@
       <c r="AY153" s="41"/>
       <c r="AZ153" s="64"/>
     </row>
-    <row r="154" spans="3:52">
+    <row r="154" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C154" s="41"/>
       <c r="D154" s="41"/>
       <c r="E154" s="41"/>
@@ -56852,7 +56881,7 @@
       <c r="AY154" s="41"/>
       <c r="AZ154" s="64"/>
     </row>
-    <row r="155" spans="3:52">
+    <row r="155" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C155" s="41"/>
       <c r="D155" s="41"/>
       <c r="E155" s="41"/>
@@ -56904,7 +56933,7 @@
       <c r="AY155" s="41"/>
       <c r="AZ155" s="64"/>
     </row>
-    <row r="156" spans="3:52">
+    <row r="156" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C156" s="41"/>
       <c r="D156" s="41"/>
       <c r="E156" s="41"/>
@@ -56956,7 +56985,7 @@
       <c r="AY156" s="41"/>
       <c r="AZ156" s="64"/>
     </row>
-    <row r="157" spans="3:52">
+    <row r="157" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C157" s="41"/>
       <c r="D157" s="41"/>
       <c r="E157" s="41"/>
@@ -57008,7 +57037,7 @@
       <c r="AY157" s="41"/>
       <c r="AZ157" s="64"/>
     </row>
-    <row r="158" spans="3:52">
+    <row r="158" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C158" s="41"/>
       <c r="D158" s="41"/>
       <c r="E158" s="41"/>
@@ -57060,7 +57089,7 @@
       <c r="AY158" s="41"/>
       <c r="AZ158" s="64"/>
     </row>
-    <row r="159" spans="3:52">
+    <row r="159" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C159" s="41"/>
       <c r="D159" s="41"/>
       <c r="E159" s="41"/>
@@ -57112,7 +57141,7 @@
       <c r="AY159" s="41"/>
       <c r="AZ159" s="64"/>
     </row>
-    <row r="160" spans="3:52">
+    <row r="160" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C160" s="41"/>
       <c r="D160" s="41"/>
       <c r="E160" s="41"/>
@@ -57164,7 +57193,7 @@
       <c r="AY160" s="41"/>
       <c r="AZ160" s="64"/>
     </row>
-    <row r="161" spans="3:52">
+    <row r="161" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C161" s="41"/>
       <c r="D161" s="41"/>
       <c r="E161" s="41"/>
@@ -57216,7 +57245,7 @@
       <c r="AY161" s="41"/>
       <c r="AZ161" s="64"/>
     </row>
-    <row r="162" spans="3:52">
+    <row r="162" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C162" s="41"/>
       <c r="D162" s="41"/>
       <c r="E162" s="41"/>
@@ -57268,7 +57297,7 @@
       <c r="AY162" s="41"/>
       <c r="AZ162" s="64"/>
     </row>
-    <row r="163" spans="3:52">
+    <row r="163" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C163" s="41"/>
       <c r="D163" s="41"/>
       <c r="E163" s="41"/>
@@ -57320,7 +57349,7 @@
       <c r="AY163" s="41"/>
       <c r="AZ163" s="64"/>
     </row>
-    <row r="164" spans="3:52">
+    <row r="164" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C164" s="41"/>
       <c r="D164" s="41"/>
       <c r="E164" s="41"/>
@@ -57372,7 +57401,7 @@
       <c r="AY164" s="41"/>
       <c r="AZ164" s="64"/>
     </row>
-    <row r="165" spans="3:52">
+    <row r="165" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C165" s="41"/>
       <c r="D165" s="41"/>
       <c r="E165" s="41"/>
@@ -57424,7 +57453,7 @@
       <c r="AY165" s="41"/>
       <c r="AZ165" s="64"/>
     </row>
-    <row r="166" spans="3:52">
+    <row r="166" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C166" s="41"/>
       <c r="D166" s="41"/>
       <c r="E166" s="41"/>
@@ -57476,7 +57505,7 @@
       <c r="AY166" s="41"/>
       <c r="AZ166" s="64"/>
     </row>
-    <row r="167" spans="3:52">
+    <row r="167" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C167" s="41"/>
       <c r="D167" s="41"/>
       <c r="E167" s="41"/>
@@ -57528,7 +57557,7 @@
       <c r="AY167" s="41"/>
       <c r="AZ167" s="64"/>
     </row>
-    <row r="168" spans="3:52">
+    <row r="168" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C168" s="41"/>
       <c r="D168" s="41"/>
       <c r="E168" s="41"/>
@@ -57580,7 +57609,7 @@
       <c r="AY168" s="41"/>
       <c r="AZ168" s="64"/>
     </row>
-    <row r="169" spans="3:52">
+    <row r="169" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C169" s="41"/>
       <c r="D169" s="41"/>
       <c r="E169" s="41"/>
@@ -57632,7 +57661,7 @@
       <c r="AY169" s="41"/>
       <c r="AZ169" s="64"/>
     </row>
-    <row r="170" spans="3:52">
+    <row r="170" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C170" s="41"/>
       <c r="D170" s="41"/>
       <c r="E170" s="41"/>
@@ -57684,7 +57713,7 @@
       <c r="AY170" s="41"/>
       <c r="AZ170" s="64"/>
     </row>
-    <row r="171" spans="3:52">
+    <row r="171" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C171" s="41"/>
       <c r="D171" s="41"/>
       <c r="E171" s="41"/>
@@ -57736,7 +57765,7 @@
       <c r="AY171" s="41"/>
       <c r="AZ171" s="64"/>
     </row>
-    <row r="172" spans="3:52">
+    <row r="172" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C172" s="41"/>
       <c r="D172" s="41"/>
       <c r="E172" s="41"/>
@@ -57788,7 +57817,7 @@
       <c r="AY172" s="41"/>
       <c r="AZ172" s="64"/>
     </row>
-    <row r="173" spans="3:52">
+    <row r="173" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C173" s="41"/>
       <c r="D173" s="41"/>
       <c r="E173" s="41"/>
@@ -57840,7 +57869,7 @@
       <c r="AY173" s="41"/>
       <c r="AZ173" s="64"/>
     </row>
-    <row r="174" spans="3:52">
+    <row r="174" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C174" s="41"/>
       <c r="D174" s="41"/>
       <c r="E174" s="41"/>
@@ -57892,7 +57921,7 @@
       <c r="AY174" s="41"/>
       <c r="AZ174" s="64"/>
     </row>
-    <row r="175" spans="3:52">
+    <row r="175" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C175" s="41"/>
       <c r="D175" s="41"/>
       <c r="E175" s="41"/>
@@ -57944,7 +57973,7 @@
       <c r="AY175" s="41"/>
       <c r="AZ175" s="64"/>
     </row>
-    <row r="176" spans="3:52">
+    <row r="176" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C176" s="41"/>
       <c r="D176" s="41"/>
       <c r="E176" s="41"/>
@@ -57996,7 +58025,7 @@
       <c r="AY176" s="41"/>
       <c r="AZ176" s="64"/>
     </row>
-    <row r="177" spans="3:52">
+    <row r="177" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C177" s="41"/>
       <c r="D177" s="41"/>
       <c r="E177" s="41"/>
@@ -58048,7 +58077,7 @@
       <c r="AY177" s="41"/>
       <c r="AZ177" s="64"/>
     </row>
-    <row r="178" spans="3:52">
+    <row r="178" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C178" s="41"/>
       <c r="D178" s="41"/>
       <c r="E178" s="41"/>
@@ -58100,7 +58129,7 @@
       <c r="AY178" s="41"/>
       <c r="AZ178" s="64"/>
     </row>
-    <row r="179" spans="3:52">
+    <row r="179" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C179" s="41"/>
       <c r="D179" s="41"/>
       <c r="E179" s="41"/>
@@ -58152,7 +58181,7 @@
       <c r="AY179" s="41"/>
       <c r="AZ179" s="64"/>
     </row>
-    <row r="180" spans="3:52">
+    <row r="180" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C180" s="41"/>
       <c r="D180" s="41"/>
       <c r="E180" s="41"/>
@@ -58204,7 +58233,7 @@
       <c r="AY180" s="41"/>
       <c r="AZ180" s="64"/>
     </row>
-    <row r="181" spans="3:52">
+    <row r="181" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C181" s="41"/>
       <c r="D181" s="41"/>
       <c r="E181" s="41"/>
@@ -58256,7 +58285,7 @@
       <c r="AY181" s="41"/>
       <c r="AZ181" s="64"/>
     </row>
-    <row r="182" spans="3:52">
+    <row r="182" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C182" s="41"/>
       <c r="D182" s="41"/>
       <c r="E182" s="41"/>
@@ -58308,7 +58337,7 @@
       <c r="AY182" s="41"/>
       <c r="AZ182" s="64"/>
     </row>
-    <row r="183" spans="3:52">
+    <row r="183" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C183" s="41"/>
       <c r="D183" s="41"/>
       <c r="E183" s="41"/>
@@ -58360,7 +58389,7 @@
       <c r="AY183" s="41"/>
       <c r="AZ183" s="64"/>
     </row>
-    <row r="184" spans="3:52">
+    <row r="184" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C184" s="41"/>
       <c r="D184" s="41"/>
       <c r="E184" s="41"/>
@@ -58412,7 +58441,7 @@
       <c r="AY184" s="41"/>
       <c r="AZ184" s="64"/>
     </row>
-    <row r="185" spans="3:52">
+    <row r="185" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C185" s="41"/>
       <c r="D185" s="41"/>
       <c r="E185" s="41"/>
@@ -58464,7 +58493,7 @@
       <c r="AY185" s="41"/>
       <c r="AZ185" s="64"/>
     </row>
-    <row r="186" spans="3:52">
+    <row r="186" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C186" s="41"/>
       <c r="D186" s="41"/>
       <c r="E186" s="41"/>
@@ -58516,7 +58545,7 @@
       <c r="AY186" s="41"/>
       <c r="AZ186" s="64"/>
     </row>
-    <row r="187" spans="3:52">
+    <row r="187" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C187" s="41"/>
       <c r="D187" s="41"/>
       <c r="E187" s="41"/>
@@ -58568,7 +58597,7 @@
       <c r="AY187" s="41"/>
       <c r="AZ187" s="64"/>
     </row>
-    <row r="188" spans="3:52">
+    <row r="188" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C188" s="41"/>
       <c r="D188" s="41"/>
       <c r="E188" s="41"/>
@@ -58620,7 +58649,7 @@
       <c r="AY188" s="41"/>
       <c r="AZ188" s="64"/>
     </row>
-    <row r="189" spans="3:52">
+    <row r="189" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C189" s="41"/>
       <c r="D189" s="41"/>
       <c r="E189" s="41"/>
@@ -58672,7 +58701,7 @@
       <c r="AY189" s="41"/>
       <c r="AZ189" s="64"/>
     </row>
-    <row r="190" spans="3:52">
+    <row r="190" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C190" s="41"/>
       <c r="D190" s="41"/>
       <c r="E190" s="41"/>
@@ -58724,7 +58753,7 @@
       <c r="AY190" s="41"/>
       <c r="AZ190" s="64"/>
     </row>
-    <row r="191" spans="3:52">
+    <row r="191" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C191" s="41"/>
       <c r="D191" s="41"/>
       <c r="E191" s="41"/>
@@ -58776,7 +58805,7 @@
       <c r="AY191" s="41"/>
       <c r="AZ191" s="64"/>
     </row>
-    <row r="192" spans="3:52">
+    <row r="192" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C192" s="41"/>
       <c r="D192" s="41"/>
       <c r="E192" s="41"/>
@@ -58828,7 +58857,7 @@
       <c r="AY192" s="41"/>
       <c r="AZ192" s="64"/>
     </row>
-    <row r="193" spans="3:52">
+    <row r="193" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C193" s="41"/>
       <c r="D193" s="41"/>
       <c r="E193" s="41"/>
@@ -58880,7 +58909,7 @@
       <c r="AY193" s="41"/>
       <c r="AZ193" s="64"/>
     </row>
-    <row r="194" spans="3:52">
+    <row r="194" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C194" s="41"/>
       <c r="D194" s="41"/>
       <c r="E194" s="41"/>
@@ -58932,7 +58961,7 @@
       <c r="AY194" s="41"/>
       <c r="AZ194" s="64"/>
     </row>
-    <row r="195" spans="3:52">
+    <row r="195" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C195" s="41"/>
       <c r="D195" s="41"/>
       <c r="E195" s="41"/>
@@ -58984,7 +59013,7 @@
       <c r="AY195" s="41"/>
       <c r="AZ195" s="64"/>
     </row>
-    <row r="196" spans="3:52">
+    <row r="196" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C196" s="41"/>
       <c r="D196" s="41"/>
       <c r="E196" s="41"/>
@@ -59036,7 +59065,7 @@
       <c r="AY196" s="41"/>
       <c r="AZ196" s="64"/>
     </row>
-    <row r="197" spans="3:52">
+    <row r="197" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C197" s="41"/>
       <c r="D197" s="41"/>
       <c r="E197" s="41"/>
@@ -59088,7 +59117,7 @@
       <c r="AY197" s="41"/>
       <c r="AZ197" s="64"/>
     </row>
-    <row r="198" spans="3:52">
+    <row r="198" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C198" s="41"/>
       <c r="D198" s="41"/>
       <c r="E198" s="41"/>
@@ -59140,7 +59169,7 @@
       <c r="AY198" s="41"/>
       <c r="AZ198" s="64"/>
     </row>
-    <row r="199" spans="3:52">
+    <row r="199" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C199" s="41"/>
       <c r="D199" s="41"/>
       <c r="E199" s="41"/>
@@ -59192,7 +59221,7 @@
       <c r="AY199" s="41"/>
       <c r="AZ199" s="64"/>
     </row>
-    <row r="200" spans="3:52">
+    <row r="200" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C200" s="41"/>
       <c r="D200" s="41"/>
       <c r="E200" s="41"/>
@@ -59244,7 +59273,7 @@
       <c r="AY200" s="41"/>
       <c r="AZ200" s="64"/>
     </row>
-    <row r="201" spans="3:52">
+    <row r="201" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C201" s="41"/>
       <c r="D201" s="41"/>
       <c r="E201" s="41"/>
@@ -59296,7 +59325,7 @@
       <c r="AY201" s="41"/>
       <c r="AZ201" s="64"/>
     </row>
-    <row r="202" spans="3:52">
+    <row r="202" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C202" s="41"/>
       <c r="D202" s="41"/>
       <c r="E202" s="41"/>
@@ -59348,7 +59377,7 @@
       <c r="AY202" s="41"/>
       <c r="AZ202" s="64"/>
     </row>
-    <row r="203" spans="3:52">
+    <row r="203" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C203" s="41"/>
       <c r="D203" s="41"/>
       <c r="E203" s="41"/>
@@ -59400,7 +59429,7 @@
       <c r="AY203" s="41"/>
       <c r="AZ203" s="64"/>
     </row>
-    <row r="204" spans="3:52">
+    <row r="204" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C204" s="41"/>
       <c r="D204" s="41"/>
       <c r="E204" s="41"/>
@@ -59427,7 +59456,7 @@
       <c r="Z204" s="41"/>
       <c r="AA204" s="41"/>
     </row>
-    <row r="205" spans="3:52">
+    <row r="205" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C205" s="41"/>
       <c r="D205" s="41"/>
       <c r="E205" s="41"/>
@@ -59454,7 +59483,7 @@
       <c r="Z205" s="41"/>
       <c r="AA205" s="41"/>
     </row>
-    <row r="206" spans="3:52">
+    <row r="206" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C206" s="41"/>
       <c r="D206" s="41"/>
       <c r="E206" s="41"/>
@@ -59481,7 +59510,7 @@
       <c r="Z206" s="41"/>
       <c r="AA206" s="41"/>
     </row>
-    <row r="207" spans="3:52">
+    <row r="207" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C207" s="41"/>
       <c r="D207" s="41"/>
       <c r="E207" s="41"/>
@@ -59508,7 +59537,7 @@
       <c r="Z207" s="41"/>
       <c r="AA207" s="41"/>
     </row>
-    <row r="208" spans="3:52">
+    <row r="208" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C208" s="41"/>
       <c r="D208" s="41"/>
       <c r="E208" s="41"/>
@@ -59535,7 +59564,7 @@
       <c r="Z208" s="41"/>
       <c r="AA208" s="41"/>
     </row>
-    <row r="209" spans="3:27">
+    <row r="209" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C209" s="41"/>
       <c r="D209" s="41"/>
       <c r="E209" s="41"/>
@@ -59562,7 +59591,7 @@
       <c r="Z209" s="41"/>
       <c r="AA209" s="41"/>
     </row>
-    <row r="210" spans="3:27">
+    <row r="210" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C210" s="41"/>
       <c r="D210" s="41"/>
       <c r="E210" s="41"/>
@@ -59589,7 +59618,7 @@
       <c r="Z210" s="41"/>
       <c r="AA210" s="41"/>
     </row>
-    <row r="211" spans="3:27">
+    <row r="211" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C211" s="41"/>
       <c r="D211" s="41"/>
       <c r="E211" s="41"/>
@@ -59616,7 +59645,7 @@
       <c r="Z211" s="41"/>
       <c r="AA211" s="41"/>
     </row>
-    <row r="212" spans="3:27">
+    <row r="212" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C212" s="41"/>
       <c r="D212" s="41"/>
       <c r="E212" s="41"/>
@@ -59643,7 +59672,7 @@
       <c r="Z212" s="41"/>
       <c r="AA212" s="41"/>
     </row>
-    <row r="213" spans="3:27">
+    <row r="213" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C213" s="41"/>
       <c r="D213" s="41"/>
       <c r="E213" s="41"/>
@@ -59670,7 +59699,7 @@
       <c r="Z213" s="41"/>
       <c r="AA213" s="41"/>
     </row>
-    <row r="214" spans="3:27">
+    <row r="214" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C214" s="41"/>
       <c r="D214" s="41"/>
       <c r="E214" s="41"/>
@@ -59697,7 +59726,7 @@
       <c r="Z214" s="41"/>
       <c r="AA214" s="41"/>
     </row>
-    <row r="215" spans="3:27">
+    <row r="215" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C215" s="41"/>
       <c r="D215" s="41"/>
       <c r="E215" s="41"/>
@@ -59724,7 +59753,7 @@
       <c r="Z215" s="41"/>
       <c r="AA215" s="41"/>
     </row>
-    <row r="216" spans="3:27">
+    <row r="216" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C216" s="41"/>
       <c r="D216" s="41"/>
       <c r="E216" s="41"/>
@@ -59751,7 +59780,7 @@
       <c r="Z216" s="41"/>
       <c r="AA216" s="41"/>
     </row>
-    <row r="217" spans="3:27">
+    <row r="217" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C217" s="41"/>
       <c r="D217" s="41"/>
       <c r="E217" s="41"/>
@@ -59778,7 +59807,7 @@
       <c r="Z217" s="41"/>
       <c r="AA217" s="41"/>
     </row>
-    <row r="218" spans="3:27">
+    <row r="218" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C218" s="41"/>
       <c r="D218" s="41"/>
       <c r="E218" s="41"/>
@@ -59805,7 +59834,7 @@
       <c r="Z218" s="41"/>
       <c r="AA218" s="41"/>
     </row>
-    <row r="219" spans="3:27">
+    <row r="219" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C219" s="41"/>
       <c r="D219" s="41"/>
       <c r="E219" s="41"/>
@@ -59832,7 +59861,7 @@
       <c r="Z219" s="41"/>
       <c r="AA219" s="41"/>
     </row>
-    <row r="220" spans="3:27">
+    <row r="220" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C220" s="41"/>
       <c r="D220" s="41"/>
       <c r="E220" s="41"/>
@@ -59868,29 +59897,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IU52"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="190" t="s">
         <v>122</v>
       </c>
@@ -60149,7 +60178,7 @@
       <c r="IT1" s="190"/>
       <c r="IU1" s="190"/>
     </row>
-    <row r="2" spans="1:255" ht="15" thickBot="1">
+    <row r="2" spans="1:255" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="193" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -60165,7 +60194,7 @@
       <c r="J2" s="193"/>
       <c r="K2" s="193"/>
     </row>
-    <row r="3" spans="1:255" ht="15" customHeight="1">
+    <row r="3" spans="1:255" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="194" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -60206,7 +60235,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:255" ht="15" thickBot="1">
+    <row r="4" spans="1:255" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="195"/>
       <c r="B4" s="197"/>
       <c r="C4" s="199"/>
@@ -60214,12 +60243,12 @@
       <c r="E4" s="203"/>
       <c r="F4" s="192"/>
       <c r="G4" s="206"/>
-      <c r="H4" s="184"/>
+      <c r="H4" s="181"/>
       <c r="I4" s="208"/>
       <c r="J4" s="208"/>
       <c r="K4" s="205"/>
     </row>
-    <row r="5" spans="1:255" s="57" customFormat="1">
+    <row r="5" spans="1:255" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65">
         <f>'Сводная таблица'!A5:A6</f>
         <v>1</v>
@@ -60261,7 +60290,7 @@
         <v>2.1687410829652447</v>
       </c>
     </row>
-    <row r="6" spans="1:255" s="57" customFormat="1">
+    <row r="6" spans="1:255" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="58">
         <f>'Сводная таблица'!A6:A7</f>
         <v>2</v>
@@ -60304,7 +60333,7 @@
       </c>
       <c r="M6" s="83"/>
     </row>
-    <row r="7" spans="1:255" s="57" customFormat="1">
+    <row r="7" spans="1:255" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="58">
         <f>'Сводная таблица'!A7:A8</f>
         <v>3</v>
@@ -60346,7 +60375,7 @@
         <v>0.37661638828312105</v>
       </c>
     </row>
-    <row r="8" spans="1:255" s="57" customFormat="1">
+    <row r="8" spans="1:255" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="58">
         <f>'Сводная таблица'!A8:A9</f>
         <v>4</v>
@@ -60388,7 +60417,7 @@
         <v>1.8418621391703334</v>
       </c>
     </row>
-    <row r="9" spans="1:255" s="57" customFormat="1">
+    <row r="9" spans="1:255" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="58">
         <f>'Сводная таблица'!A9:A10</f>
         <v>5</v>
@@ -60430,7 +60459,7 @@
         <v>3.3045165891608939</v>
       </c>
     </row>
-    <row r="10" spans="1:255" s="57" customFormat="1">
+    <row r="10" spans="1:255" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="58">
         <f>'Сводная таблица'!A10:A11</f>
         <v>6</v>
@@ -60472,7 +60501,7 @@
         <v>3.3538885104705245</v>
       </c>
     </row>
-    <row r="11" spans="1:255" s="57" customFormat="1">
+    <row r="11" spans="1:255" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="58">
         <f>'Сводная таблица'!A11:A12</f>
         <v>7</v>
@@ -60514,7 +60543,7 @@
         <v>3.2565937789932073</v>
       </c>
     </row>
-    <row r="12" spans="1:255" s="57" customFormat="1">
+    <row r="12" spans="1:255" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="58">
         <f>'Сводная таблица'!A12:A13</f>
         <v>8</v>
@@ -60556,7 +60585,7 @@
         <v>3.3538885104705245</v>
       </c>
     </row>
-    <row r="13" spans="1:255" s="57" customFormat="1">
+    <row r="13" spans="1:255" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="58">
         <f>'Сводная таблица'!A13:A14</f>
         <v>9</v>
@@ -60598,7 +60627,7 @@
         <v>3.3538885104705245</v>
       </c>
     </row>
-    <row r="14" spans="1:255" s="57" customFormat="1">
+    <row r="14" spans="1:255" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="58">
         <f>'Сводная таблица'!A14:A15</f>
         <v>10</v>
@@ -60641,7 +60670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:255" s="57" customFormat="1">
+    <row r="15" spans="1:255" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="58">
         <f>'Сводная таблица'!A15:A16</f>
         <v>11</v>
@@ -60683,7 +60712,7 @@
         <v>3.3538885104705245</v>
       </c>
     </row>
-    <row r="16" spans="1:255" s="57" customFormat="1">
+    <row r="16" spans="1:255" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="58">
         <f>'Сводная таблица'!A16:A17</f>
         <v>12</v>
@@ -60726,7 +60755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="57" customFormat="1">
+    <row r="17" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="58">
         <f>'Сводная таблица'!A17:A18</f>
         <v>13</v>
@@ -60768,7 +60797,7 @@
         <v>2.2949449812708318</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="57" customFormat="1">
+    <row r="18" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="58">
         <f>'Сводная таблица'!A18:A19</f>
         <v>14</v>
@@ -60811,7 +60840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="57" customFormat="1">
+    <row r="19" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="58">
         <f>'Сводная таблица'!A19:A20</f>
         <v>15</v>
@@ -60853,7 +60882,7 @@
         <v>3.3045165891608939</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="57" customFormat="1">
+    <row r="20" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="58">
         <f>'Сводная таблица'!A20:A21</f>
         <v>16</v>
@@ -60896,7 +60925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="57" customFormat="1">
+    <row r="21" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="58">
         <f>'Сводная таблица'!A21:A22</f>
         <v>17</v>
@@ -60938,7 +60967,7 @@
         <v>1.4644154703850742</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="57" customFormat="1">
+    <row r="22" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="58">
         <f>'Сводная таблица'!A22:A23</f>
         <v>18</v>
@@ -60981,7 +61010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="57" customFormat="1">
+    <row r="23" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="58">
         <f>'Сводная таблица'!A23:A24</f>
         <v>19</v>
@@ -61023,7 +61052,7 @@
         <v>0.72481574137939631</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="57" customFormat="1">
+    <row r="24" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="58">
         <f>'Сводная таблица'!A24:A25</f>
         <v>20</v>
@@ -61066,7 +61095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="57" customFormat="1">
+    <row r="25" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="58">
         <f>'Сводная таблица'!A25:A26</f>
         <v>21</v>
@@ -61108,7 +61137,7 @@
         <v>3.2565937789932073</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="57" customFormat="1">
+    <row r="26" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="58">
         <f>'Сводная таблица'!A26:A27</f>
         <v>22</v>
@@ -61150,7 +61179,7 @@
         <v>2.1954328640542626</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="57" customFormat="1">
+    <row r="27" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="58">
         <f>'Сводная таблица'!A27:A28</f>
         <v>23</v>
@@ -61193,7 +61222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="57" customFormat="1">
+    <row r="28" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="58">
         <f>'Сводная таблица'!A28:A29</f>
         <v>24</v>
@@ -61235,7 +61264,7 @@
         <v>3.3538885104705245</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="57" customFormat="1">
+    <row r="29" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="58">
         <f>'Сводная таблица'!A29:A30</f>
         <v>25</v>
@@ -61278,7 +61307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="57" customFormat="1">
+    <row r="30" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="58">
         <f>'Сводная таблица'!A30:A31</f>
         <v>26</v>
@@ -61320,7 +61349,7 @@
         <v>1.3195287989578959</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="57" customFormat="1">
+    <row r="31" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="58">
         <f>'Сводная таблица'!A31:A32</f>
         <v>27</v>
@@ -61362,7 +61391,7 @@
         <v>1.9178027828644717</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="57" customFormat="1">
+    <row r="32" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="58">
         <f>'Сводная таблица'!A32:A33</f>
         <v>28</v>
@@ -61405,7 +61434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="57" customFormat="1">
+    <row r="33" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="58">
         <f>'Сводная таблица'!A33:A34</f>
         <v>29</v>
@@ -61447,7 +61476,7 @@
         <v>3.3538885104705245</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="57" customFormat="1">
+    <row r="34" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="58">
         <f>'Сводная таблица'!A34:A35</f>
         <v>30</v>
@@ -61489,7 +61518,7 @@
         <v>3.1452830477014624</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="57" customFormat="1">
+    <row r="35" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="58">
         <f>'Сводная таблица'!A35:A36</f>
         <v>31</v>
@@ -61531,7 +61560,7 @@
         <v>3.2257723366453144</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="57" customFormat="1">
+    <row r="36" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="58">
         <f>'Сводная таблица'!A36:A37</f>
         <v>32</v>
@@ -61573,7 +61602,7 @@
         <v>3.1452830477014624</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="57" customFormat="1">
+    <row r="37" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="58">
         <f>'Сводная таблица'!A37:A38</f>
         <v>33</v>
@@ -61615,7 +61644,7 @@
         <v>3.3045165891608939</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="57" customFormat="1">
+    <row r="38" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="58">
         <f>'Сводная таблица'!A38:A39</f>
         <v>34</v>
@@ -61657,7 +61686,7 @@
         <v>2.3341534630181968</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="57" customFormat="1">
+    <row r="39" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="58">
         <f>'Сводная таблица'!A39:A40</f>
         <v>35</v>
@@ -61699,7 +61728,7 @@
         <v>2.8928521841697119</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="57" customFormat="1">
+    <row r="40" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="58">
         <f>'Сводная таблица'!A40:A41</f>
         <v>36</v>
@@ -61742,7 +61771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="57" customFormat="1">
+    <row r="41" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="58">
         <f>'Сводная таблица'!A41:A42</f>
         <v>37</v>
@@ -61784,7 +61813,7 @@
         <v>3.3045165891608939</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="57" customFormat="1">
+    <row r="42" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="58">
         <f>'Сводная таблица'!A42:A43</f>
         <v>38</v>
@@ -61826,7 +61855,7 @@
         <v>2.8928521841697119</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="57" customFormat="1">
+    <row r="43" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="58">
         <f>'Сводная таблица'!A43:A44</f>
         <v>39</v>
@@ -61868,7 +61897,7 @@
         <v>2.6229222189067252</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="57" customFormat="1">
+    <row r="44" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="58">
         <f>'Сводная таблица'!A44:A45</f>
         <v>40</v>
@@ -61911,7 +61940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="57" customFormat="1">
+    <row r="45" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="58">
         <f>'Сводная таблица'!A45:A46</f>
         <v>41</v>
@@ -61954,7 +61983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="57" customFormat="1" ht="15" thickBot="1">
+    <row r="46" spans="1:11" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="59">
         <f>'Сводная таблица'!A46:A47</f>
         <v>42</v>
@@ -61996,7 +62025,7 @@
         <v>2.5806811940620937</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="43" customFormat="1">
+    <row r="47" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="56"/>
       <c r="B47" s="56"/>
       <c r="C47" s="56"/>
@@ -62005,7 +62034,7 @@
       <c r="F47" s="56"/>
       <c r="G47" s="56"/>
     </row>
-    <row r="48" spans="1:11" s="43" customFormat="1">
+    <row r="48" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="56"/>
       <c r="B48" s="56"/>
       <c r="C48" s="56"/>
@@ -62014,7 +62043,7 @@
       <c r="F48" s="56"/>
       <c r="G48" s="56"/>
     </row>
-    <row r="49" spans="1:7" s="43" customFormat="1">
+    <row r="49" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="56"/>
       <c r="B49" s="56"/>
       <c r="C49" s="56"/>
@@ -62023,7 +62052,7 @@
       <c r="F49" s="56"/>
       <c r="G49" s="56"/>
     </row>
-    <row r="50" spans="1:7" s="43" customFormat="1">
+    <row r="50" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="56"/>
       <c r="B50" s="56"/>
       <c r="C50" s="56"/>
@@ -62032,7 +62061,7 @@
       <c r="F50" s="56"/>
       <c r="G50" s="56"/>
     </row>
-    <row r="51" spans="1:7" s="43" customFormat="1">
+    <row r="51" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="56"/>
       <c r="B51" s="56"/>
       <c r="C51" s="56"/>
@@ -62041,7 +62070,7 @@
       <c r="F51" s="56"/>
       <c r="G51" s="56"/>
     </row>
-    <row r="52" spans="1:7" s="43" customFormat="1">
+    <row r="52" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="56"/>
       <c r="B52" s="56"/>
       <c r="C52" s="56"/>
@@ -62071,29 +62100,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IU52"/>
   <sheetViews>
     <sheetView topLeftCell="E8" workbookViewId="0">
       <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="190" t="s">
         <v>122</v>
       </c>
@@ -62352,7 +62381,7 @@
       <c r="IT1" s="190"/>
       <c r="IU1" s="190"/>
     </row>
-    <row r="2" spans="1:255" ht="15" thickBot="1">
+    <row r="2" spans="1:255" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="193" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -62368,7 +62397,7 @@
       <c r="J2" s="193"/>
       <c r="K2" s="193"/>
     </row>
-    <row r="3" spans="1:255" ht="15" customHeight="1">
+    <row r="3" spans="1:255" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="194" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -62409,7 +62438,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:255" ht="15" thickBot="1">
+    <row r="4" spans="1:255" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="195"/>
       <c r="B4" s="197"/>
       <c r="C4" s="199"/>
@@ -62422,7 +62451,7 @@
       <c r="J4" s="209"/>
       <c r="K4" s="210"/>
     </row>
-    <row r="5" spans="1:255" s="57" customFormat="1">
+    <row r="5" spans="1:255" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
         <f>'Сводная таблица'!A5:A6</f>
         <v>1</v>
@@ -62465,7 +62494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:255" s="57" customFormat="1">
+    <row r="6" spans="1:255" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="58">
         <f>'Сводная таблица'!A6:A7</f>
         <v>2</v>
@@ -62508,7 +62537,7 @@
       </c>
       <c r="M6" s="83"/>
     </row>
-    <row r="7" spans="1:255" s="57" customFormat="1">
+    <row r="7" spans="1:255" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="58">
         <f>'Сводная таблица'!A7:A8</f>
         <v>3</v>
@@ -62551,7 +62580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:255" s="57" customFormat="1">
+    <row r="8" spans="1:255" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="58">
         <f>'Сводная таблица'!A8:A9</f>
         <v>4</v>
@@ -62593,7 +62622,7 @@
         <v>1.6645642421847713</v>
       </c>
     </row>
-    <row r="9" spans="1:255" s="57" customFormat="1">
+    <row r="9" spans="1:255" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="58">
         <f>'Сводная таблица'!A9:A10</f>
         <v>5</v>
@@ -62635,7 +62664,7 @@
         <v>2.392297503546903</v>
       </c>
     </row>
-    <row r="10" spans="1:255" s="57" customFormat="1">
+    <row r="10" spans="1:255" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="58">
         <f>'Сводная таблица'!A10:A11</f>
         <v>6</v>
@@ -62677,7 +62706,7 @@
         <v>2.392297503546903</v>
       </c>
     </row>
-    <row r="11" spans="1:255" s="57" customFormat="1">
+    <row r="11" spans="1:255" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="58">
         <f>'Сводная таблица'!A11:A12</f>
         <v>7</v>
@@ -62719,7 +62748,7 @@
         <v>1.7752203680746195</v>
       </c>
     </row>
-    <row r="12" spans="1:255" s="57" customFormat="1">
+    <row r="12" spans="1:255" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="58">
         <f>'Сводная таблица'!A12:A13</f>
         <v>8</v>
@@ -62761,7 +62790,7 @@
         <v>1.7752203680746195</v>
       </c>
     </row>
-    <row r="13" spans="1:255" s="57" customFormat="1">
+    <row r="13" spans="1:255" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="58">
         <f>'Сводная таблица'!A13:A14</f>
         <v>9</v>
@@ -62803,7 +62832,7 @@
         <v>2.392297503546903</v>
       </c>
     </row>
-    <row r="14" spans="1:255" s="57" customFormat="1">
+    <row r="14" spans="1:255" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="58">
         <f>'Сводная таблица'!A14:A15</f>
         <v>10</v>
@@ -62846,7 +62875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:255" s="57" customFormat="1">
+    <row r="15" spans="1:255" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="58">
         <f>'Сводная таблица'!A15:A16</f>
         <v>11</v>
@@ -62888,7 +62917,7 @@
         <v>2.392297503546903</v>
       </c>
     </row>
-    <row r="16" spans="1:255" s="57" customFormat="1">
+    <row r="16" spans="1:255" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="58">
         <f>'Сводная таблица'!A16:A17</f>
         <v>12</v>
@@ -62931,7 +62960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="57" customFormat="1">
+    <row r="17" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="58">
         <f>'Сводная таблица'!A17:A18</f>
         <v>13</v>
@@ -62974,7 +63003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="57" customFormat="1">
+    <row r="18" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="58">
         <f>'Сводная таблица'!A18:A19</f>
         <v>14</v>
@@ -63017,7 +63046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="57" customFormat="1">
+    <row r="19" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="58">
         <f>'Сводная таблица'!A19:A20</f>
         <v>15</v>
@@ -63059,7 +63088,7 @@
         <v>2.8481147647724914</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="57" customFormat="1">
+    <row r="20" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="58">
         <f>'Сводная таблица'!A20:A21</f>
         <v>16</v>
@@ -63102,7 +63131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="57" customFormat="1">
+    <row r="21" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="58">
         <f>'Сводная таблица'!A21:A22</f>
         <v>17</v>
@@ -63145,7 +63174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="57" customFormat="1">
+    <row r="22" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="58">
         <f>'Сводная таблица'!A22:A23</f>
         <v>18</v>
@@ -63188,7 +63217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="57" customFormat="1">
+    <row r="23" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="58">
         <f>'Сводная таблица'!A23:A24</f>
         <v>19</v>
@@ -63231,7 +63260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="57" customFormat="1">
+    <row r="24" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="58">
         <f>'Сводная таблица'!A24:A25</f>
         <v>20</v>
@@ -63274,7 +63303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="57" customFormat="1">
+    <row r="25" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="58">
         <f>'Сводная таблица'!A25:A26</f>
         <v>21</v>
@@ -63317,7 +63346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="57" customFormat="1">
+    <row r="26" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="58">
         <f>'Сводная таблица'!A26:A27</f>
         <v>22</v>
@@ -63360,7 +63389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="57" customFormat="1">
+    <row r="27" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="58">
         <f>'Сводная таблица'!A27:A28</f>
         <v>23</v>
@@ -63403,7 +63432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="57" customFormat="1">
+    <row r="28" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="58">
         <f>'Сводная таблица'!A28:A29</f>
         <v>24</v>
@@ -63446,7 +63475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="57" customFormat="1">
+    <row r="29" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="58">
         <f>'Сводная таблица'!A29:A30</f>
         <v>25</v>
@@ -63489,7 +63518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="57" customFormat="1">
+    <row r="30" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="58">
         <f>'Сводная таблица'!A30:A31</f>
         <v>26</v>
@@ -63532,7 +63561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="57" customFormat="1">
+    <row r="31" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="58">
         <f>'Сводная таблица'!A31:A32</f>
         <v>27</v>
@@ -63575,7 +63604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="57" customFormat="1">
+    <row r="32" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="58">
         <f>'Сводная таблица'!A32:A33</f>
         <v>28</v>
@@ -63618,7 +63647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="57" customFormat="1">
+    <row r="33" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="58">
         <f>'Сводная таблица'!A33:A34</f>
         <v>29</v>
@@ -63660,7 +63689,7 @@
         <v>0.46304099555199402</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="57" customFormat="1">
+    <row r="34" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="58">
         <f>'Сводная таблица'!A34:A35</f>
         <v>30</v>
@@ -63703,7 +63732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="57" customFormat="1">
+    <row r="35" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="58">
         <f>'Сводная таблица'!A35:A36</f>
         <v>31</v>
@@ -63746,7 +63775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="57" customFormat="1">
+    <row r="36" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="58">
         <f>'Сводная таблица'!A36:A37</f>
         <v>32</v>
@@ -63789,7 +63818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="57" customFormat="1">
+    <row r="37" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="58">
         <f>'Сводная таблица'!A37:A38</f>
         <v>33</v>
@@ -63832,7 +63861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="57" customFormat="1">
+    <row r="38" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="58">
         <f>'Сводная таблица'!A38:A39</f>
         <v>34</v>
@@ -63875,7 +63904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="57" customFormat="1">
+    <row r="39" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="58">
         <f>'Сводная таблица'!A39:A40</f>
         <v>35</v>
@@ -63918,7 +63947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="57" customFormat="1">
+    <row r="40" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="58">
         <f>'Сводная таблица'!A40:A41</f>
         <v>36</v>
@@ -63961,7 +63990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="57" customFormat="1">
+    <row r="41" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="58">
         <f>'Сводная таблица'!A41:A42</f>
         <v>37</v>
@@ -64004,7 +64033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="57" customFormat="1">
+    <row r="42" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="58">
         <f>'Сводная таблица'!A42:A43</f>
         <v>38</v>
@@ -64047,7 +64076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="57" customFormat="1">
+    <row r="43" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="58">
         <f>'Сводная таблица'!A43:A44</f>
         <v>39</v>
@@ -64090,7 +64119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="57" customFormat="1">
+    <row r="44" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="58">
         <f>'Сводная таблица'!A44:A45</f>
         <v>40</v>
@@ -64133,7 +64162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="57" customFormat="1">
+    <row r="45" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="58">
         <f>'Сводная таблица'!A45:A46</f>
         <v>41</v>
@@ -64176,7 +64205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="57" customFormat="1" ht="15" thickBot="1">
+    <row r="46" spans="1:11" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="59">
         <f>'Сводная таблица'!A46:A47</f>
         <v>42</v>
@@ -64219,7 +64248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="43" customFormat="1">
+    <row r="47" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="56"/>
       <c r="B47" s="56"/>
       <c r="C47" s="56"/>
@@ -64228,7 +64257,7 @@
       <c r="F47" s="56"/>
       <c r="G47" s="56"/>
     </row>
-    <row r="48" spans="1:11" s="43" customFormat="1">
+    <row r="48" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="56"/>
       <c r="B48" s="56"/>
       <c r="C48" s="56"/>
@@ -64237,7 +64266,7 @@
       <c r="F48" s="56"/>
       <c r="G48" s="56"/>
     </row>
-    <row r="49" spans="1:7" s="43" customFormat="1">
+    <row r="49" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="56"/>
       <c r="B49" s="56"/>
       <c r="C49" s="56"/>
@@ -64246,7 +64275,7 @@
       <c r="F49" s="56"/>
       <c r="G49" s="56"/>
     </row>
-    <row r="50" spans="1:7" s="43" customFormat="1">
+    <row r="50" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="56"/>
       <c r="B50" s="56"/>
       <c r="C50" s="56"/>
@@ -64255,7 +64284,7 @@
       <c r="F50" s="56"/>
       <c r="G50" s="56"/>
     </row>
-    <row r="51" spans="1:7" s="43" customFormat="1">
+    <row r="51" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="56"/>
       <c r="B51" s="56"/>
       <c r="C51" s="56"/>
@@ -64264,7 +64293,7 @@
       <c r="F51" s="56"/>
       <c r="G51" s="56"/>
     </row>
-    <row r="52" spans="1:7" s="43" customFormat="1">
+    <row r="52" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="56"/>
       <c r="B52" s="56"/>
       <c r="C52" s="56"/>
@@ -64294,22 +64323,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV46"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="K5" sqref="K5:K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="190" t="s">
         <v>122</v>
       </c>
@@ -64569,7 +64598,7 @@
       <c r="IU1" s="190"/>
       <c r="IV1" s="190"/>
     </row>
-    <row r="2" spans="1:256" ht="15" thickBot="1">
+    <row r="2" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="193" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -64585,7 +64614,7 @@
       <c r="J2" s="193"/>
       <c r="K2" s="193"/>
     </row>
-    <row r="3" spans="1:256" ht="15" customHeight="1">
+    <row r="3" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="194" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -64626,7 +64655,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15" thickBot="1">
+    <row r="4" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="195"/>
       <c r="B4" s="197"/>
       <c r="C4" s="199"/>
@@ -64639,7 +64668,7 @@
       <c r="J4" s="209"/>
       <c r="K4" s="210"/>
     </row>
-    <row r="5" spans="1:256" s="57" customFormat="1">
+    <row r="5" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65">
         <f>'Сводная таблица'!A5:A6</f>
         <v>1</v>
@@ -64682,7 +64711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:256" s="57" customFormat="1">
+    <row r="6" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="58">
         <f>'Сводная таблица'!A6:A7</f>
         <v>2</v>
@@ -64726,7 +64755,7 @@
       </c>
       <c r="M6" s="83"/>
     </row>
-    <row r="7" spans="1:256" s="57" customFormat="1">
+    <row r="7" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="58">
         <f>'Сводная таблица'!A7:A8</f>
         <v>3</v>
@@ -64769,7 +64798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:256" s="57" customFormat="1">
+    <row r="8" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="58">
         <f>'Сводная таблица'!A8:A9</f>
         <v>4</v>
@@ -64812,7 +64841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:256" s="57" customFormat="1">
+    <row r="9" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="58">
         <f>'Сводная таблица'!A9:A10</f>
         <v>5</v>
@@ -64855,7 +64884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:256" s="57" customFormat="1">
+    <row r="10" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="58">
         <f>'Сводная таблица'!A10:A11</f>
         <v>6</v>
@@ -64898,7 +64927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:256" s="57" customFormat="1">
+    <row r="11" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="58">
         <f>'Сводная таблица'!A11:A12</f>
         <v>7</v>
@@ -64941,7 +64970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:256" s="57" customFormat="1">
+    <row r="12" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="58">
         <f>'Сводная таблица'!A12:A13</f>
         <v>8</v>
@@ -64984,7 +65013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:256" s="57" customFormat="1">
+    <row r="13" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="58">
         <f>'Сводная таблица'!A13:A14</f>
         <v>9</v>
@@ -65027,7 +65056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="57" customFormat="1">
+    <row r="14" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="58">
         <f>'Сводная таблица'!A14:A15</f>
         <v>10</v>
@@ -65070,7 +65099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="57" customFormat="1">
+    <row r="15" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="58">
         <f>'Сводная таблица'!A15:A16</f>
         <v>11</v>
@@ -65113,7 +65142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:256" s="57" customFormat="1">
+    <row r="16" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="58">
         <f>'Сводная таблица'!A16:A17</f>
         <v>12</v>
@@ -65156,7 +65185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="57" customFormat="1">
+    <row r="17" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="58">
         <f>'Сводная таблица'!A17:A18</f>
         <v>13</v>
@@ -65199,7 +65228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="57" customFormat="1">
+    <row r="18" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="58">
         <f>'Сводная таблица'!A18:A19</f>
         <v>14</v>
@@ -65242,7 +65271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="57" customFormat="1">
+    <row r="19" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="58">
         <f>'Сводная таблица'!A19:A20</f>
         <v>15</v>
@@ -65284,7 +65313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="57" customFormat="1">
+    <row r="20" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="58">
         <f>'Сводная таблица'!A20:A21</f>
         <v>16</v>
@@ -65327,7 +65356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="57" customFormat="1">
+    <row r="21" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="58">
         <f>'Сводная таблица'!A21:A22</f>
         <v>17</v>
@@ -65370,7 +65399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="57" customFormat="1">
+    <row r="22" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="58">
         <f>'Сводная таблица'!A22:A23</f>
         <v>18</v>
@@ -65413,7 +65442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="57" customFormat="1">
+    <row r="23" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="58">
         <f>'Сводная таблица'!A23:A24</f>
         <v>19</v>
@@ -65456,7 +65485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="57" customFormat="1">
+    <row r="24" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="58">
         <f>'Сводная таблица'!A24:A25</f>
         <v>20</v>
@@ -65499,7 +65528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="57" customFormat="1">
+    <row r="25" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="58">
         <f>'Сводная таблица'!A25:A26</f>
         <v>21</v>
@@ -65542,7 +65571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="57" customFormat="1">
+    <row r="26" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="58">
         <f>'Сводная таблица'!A26:A27</f>
         <v>22</v>
@@ -65585,7 +65614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="57" customFormat="1">
+    <row r="27" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="58">
         <f>'Сводная таблица'!A27:A28</f>
         <v>23</v>
@@ -65628,7 +65657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="57" customFormat="1">
+    <row r="28" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="58">
         <f>'Сводная таблица'!A28:A29</f>
         <v>24</v>
@@ -65671,7 +65700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="57" customFormat="1">
+    <row r="29" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="58">
         <f>'Сводная таблица'!A29:A30</f>
         <v>25</v>
@@ -65714,7 +65743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="57" customFormat="1">
+    <row r="30" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="58">
         <f>'Сводная таблица'!A30:A31</f>
         <v>26</v>
@@ -65757,7 +65786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="57" customFormat="1">
+    <row r="31" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="58">
         <f>'Сводная таблица'!A31:A32</f>
         <v>27</v>
@@ -65800,7 +65829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="57" customFormat="1">
+    <row r="32" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="58">
         <f>'Сводная таблица'!A32:A33</f>
         <v>28</v>
@@ -65843,7 +65872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="57" customFormat="1">
+    <row r="33" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="58">
         <f>'Сводная таблица'!A33:A34</f>
         <v>29</v>
@@ -65886,7 +65915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="57" customFormat="1">
+    <row r="34" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="58">
         <f>'Сводная таблица'!A34:A35</f>
         <v>30</v>
@@ -65929,7 +65958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="57" customFormat="1">
+    <row r="35" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="58">
         <f>'Сводная таблица'!A35:A36</f>
         <v>31</v>
@@ -65972,7 +66001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="57" customFormat="1">
+    <row r="36" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="58">
         <f>'Сводная таблица'!A36:A37</f>
         <v>32</v>
@@ -66015,7 +66044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="57" customFormat="1">
+    <row r="37" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="58">
         <f>'Сводная таблица'!A37:A38</f>
         <v>33</v>
@@ -66058,7 +66087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="57" customFormat="1">
+    <row r="38" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="58">
         <f>'Сводная таблица'!A38:A39</f>
         <v>34</v>
@@ -66101,7 +66130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="57" customFormat="1">
+    <row r="39" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="58">
         <f>'Сводная таблица'!A39:A40</f>
         <v>35</v>
@@ -66144,7 +66173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="57" customFormat="1">
+    <row r="40" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="58">
         <f>'Сводная таблица'!A40:A41</f>
         <v>36</v>
@@ -66187,7 +66216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="57" customFormat="1">
+    <row r="41" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="58">
         <f>'Сводная таблица'!A41:A42</f>
         <v>37</v>
@@ -66230,7 +66259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="57" customFormat="1">
+    <row r="42" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="58">
         <f>'Сводная таблица'!A42:A43</f>
         <v>38</v>
@@ -66273,7 +66302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="57" customFormat="1">
+    <row r="43" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="58">
         <f>'Сводная таблица'!A43:A44</f>
         <v>39</v>
@@ -66316,7 +66345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="57" customFormat="1">
+    <row r="44" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="58">
         <f>'Сводная таблица'!A44:A45</f>
         <v>40</v>
@@ -66359,7 +66388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="57" customFormat="1">
+    <row r="45" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="58">
         <f>'Сводная таблица'!A45:A46</f>
         <v>41</v>
@@ -66402,7 +66431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="57" customFormat="1" ht="15" thickBot="1">
+    <row r="46" spans="1:11" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="59">
         <f>'Сводная таблица'!A46:A47</f>
         <v>42</v>
@@ -66466,22 +66495,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV46"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="K5" sqref="K5:K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="190" t="s">
         <v>122</v>
       </c>
@@ -66741,7 +66770,7 @@
       <c r="IU1" s="190"/>
       <c r="IV1" s="190"/>
     </row>
-    <row r="2" spans="1:256" ht="15" thickBot="1">
+    <row r="2" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="193" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -66757,7 +66786,7 @@
       <c r="J2" s="193"/>
       <c r="K2" s="193"/>
     </row>
-    <row r="3" spans="1:256" ht="15" customHeight="1">
+    <row r="3" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="194" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -66798,7 +66827,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15" thickBot="1">
+    <row r="4" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="195"/>
       <c r="B4" s="197"/>
       <c r="C4" s="199"/>
@@ -66811,7 +66840,7 @@
       <c r="J4" s="209"/>
       <c r="K4" s="210"/>
     </row>
-    <row r="5" spans="1:256" s="57" customFormat="1">
+    <row r="5" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65">
         <f>'Сводная таблица'!A5:A6</f>
         <v>1</v>
@@ -66854,7 +66883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:256" s="57" customFormat="1">
+    <row r="6" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="58">
         <f>'Сводная таблица'!A6:A7</f>
         <v>2</v>
@@ -66898,7 +66927,7 @@
       </c>
       <c r="M6" s="83"/>
     </row>
-    <row r="7" spans="1:256" s="57" customFormat="1">
+    <row r="7" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="58">
         <f>'Сводная таблица'!A7:A8</f>
         <v>3</v>
@@ -66941,7 +66970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:256" s="57" customFormat="1">
+    <row r="8" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="58">
         <f>'Сводная таблица'!A8:A9</f>
         <v>4</v>
@@ -66984,7 +67013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:256" s="57" customFormat="1">
+    <row r="9" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="58">
         <f>'Сводная таблица'!A9:A10</f>
         <v>5</v>
@@ -67027,7 +67056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:256" s="57" customFormat="1">
+    <row r="10" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="58">
         <f>'Сводная таблица'!A10:A11</f>
         <v>6</v>
@@ -67070,7 +67099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:256" s="57" customFormat="1">
+    <row r="11" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="58">
         <f>'Сводная таблица'!A11:A12</f>
         <v>7</v>
@@ -67113,7 +67142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:256" s="57" customFormat="1">
+    <row r="12" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="58">
         <f>'Сводная таблица'!A12:A13</f>
         <v>8</v>
@@ -67156,7 +67185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:256" s="57" customFormat="1">
+    <row r="13" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="58">
         <f>'Сводная таблица'!A13:A14</f>
         <v>9</v>
@@ -67199,7 +67228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="57" customFormat="1">
+    <row r="14" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="58">
         <f>'Сводная таблица'!A14:A15</f>
         <v>10</v>
@@ -67242,7 +67271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="57" customFormat="1">
+    <row r="15" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="58">
         <f>'Сводная таблица'!A15:A16</f>
         <v>11</v>
@@ -67285,7 +67314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:256" s="57" customFormat="1">
+    <row r="16" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="58">
         <f>'Сводная таблица'!A16:A17</f>
         <v>12</v>
@@ -67328,7 +67357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="57" customFormat="1">
+    <row r="17" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="58">
         <f>'Сводная таблица'!A17:A18</f>
         <v>13</v>
@@ -67371,7 +67400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="57" customFormat="1">
+    <row r="18" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="58">
         <f>'Сводная таблица'!A18:A19</f>
         <v>14</v>
@@ -67414,7 +67443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="57" customFormat="1">
+    <row r="19" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="58">
         <f>'Сводная таблица'!A19:A20</f>
         <v>15</v>
@@ -67456,7 +67485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="57" customFormat="1">
+    <row r="20" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="58">
         <f>'Сводная таблица'!A20:A21</f>
         <v>16</v>
@@ -67499,7 +67528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="57" customFormat="1">
+    <row r="21" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="58">
         <f>'Сводная таблица'!A21:A22</f>
         <v>17</v>
@@ -67542,7 +67571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="57" customFormat="1">
+    <row r="22" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="58">
         <f>'Сводная таблица'!A22:A23</f>
         <v>18</v>
@@ -67585,7 +67614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="57" customFormat="1">
+    <row r="23" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="58">
         <f>'Сводная таблица'!A23:A24</f>
         <v>19</v>
@@ -67628,7 +67657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="57" customFormat="1">
+    <row r="24" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="58">
         <f>'Сводная таблица'!A24:A25</f>
         <v>20</v>
@@ -67671,7 +67700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="57" customFormat="1">
+    <row r="25" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="58">
         <f>'Сводная таблица'!A25:A26</f>
         <v>21</v>
@@ -67714,7 +67743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="57" customFormat="1">
+    <row r="26" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="58">
         <f>'Сводная таблица'!A26:A27</f>
         <v>22</v>
@@ -67757,7 +67786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="57" customFormat="1">
+    <row r="27" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="58">
         <f>'Сводная таблица'!A27:A28</f>
         <v>23</v>
@@ -67800,7 +67829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="57" customFormat="1">
+    <row r="28" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="58">
         <f>'Сводная таблица'!A28:A29</f>
         <v>24</v>
@@ -67843,7 +67872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="57" customFormat="1">
+    <row r="29" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="58">
         <f>'Сводная таблица'!A29:A30</f>
         <v>25</v>
@@ -67886,7 +67915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="57" customFormat="1">
+    <row r="30" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="58">
         <f>'Сводная таблица'!A30:A31</f>
         <v>26</v>
@@ -67929,7 +67958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="57" customFormat="1">
+    <row r="31" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="58">
         <f>'Сводная таблица'!A31:A32</f>
         <v>27</v>
@@ -67972,7 +68001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="57" customFormat="1">
+    <row r="32" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="58">
         <f>'Сводная таблица'!A32:A33</f>
         <v>28</v>
@@ -68015,7 +68044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="57" customFormat="1">
+    <row r="33" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="58">
         <f>'Сводная таблица'!A33:A34</f>
         <v>29</v>
@@ -68058,7 +68087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="57" customFormat="1">
+    <row r="34" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="58">
         <f>'Сводная таблица'!A34:A35</f>
         <v>30</v>
@@ -68101,7 +68130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="57" customFormat="1">
+    <row r="35" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="58">
         <f>'Сводная таблица'!A35:A36</f>
         <v>31</v>
@@ -68144,7 +68173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="57" customFormat="1">
+    <row r="36" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="58">
         <f>'Сводная таблица'!A36:A37</f>
         <v>32</v>
@@ -68187,7 +68216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="57" customFormat="1">
+    <row r="37" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="58">
         <f>'Сводная таблица'!A37:A38</f>
         <v>33</v>
@@ -68230,7 +68259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="57" customFormat="1">
+    <row r="38" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="58">
         <f>'Сводная таблица'!A38:A39</f>
         <v>34</v>
@@ -68273,7 +68302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="57" customFormat="1">
+    <row r="39" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="58">
         <f>'Сводная таблица'!A39:A40</f>
         <v>35</v>
@@ -68316,7 +68345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="57" customFormat="1">
+    <row r="40" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="58">
         <f>'Сводная таблица'!A40:A41</f>
         <v>36</v>
@@ -68359,7 +68388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="57" customFormat="1">
+    <row r="41" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="58">
         <f>'Сводная таблица'!A41:A42</f>
         <v>37</v>
@@ -68402,7 +68431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="57" customFormat="1">
+    <row r="42" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="58">
         <f>'Сводная таблица'!A42:A43</f>
         <v>38</v>
@@ -68445,7 +68474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="57" customFormat="1">
+    <row r="43" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="58">
         <f>'Сводная таблица'!A43:A44</f>
         <v>39</v>
@@ -68488,7 +68517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="57" customFormat="1">
+    <row r="44" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="58">
         <f>'Сводная таблица'!A44:A45</f>
         <v>40</v>
@@ -68531,7 +68560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="57" customFormat="1">
+    <row r="45" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="58">
         <f>'Сводная таблица'!A45:A46</f>
         <v>41</v>
@@ -68574,7 +68603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="57" customFormat="1" ht="15" thickBot="1">
+    <row r="46" spans="1:11" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="59">
         <f>'Сводная таблица'!A46:A47</f>
         <v>42</v>
@@ -68638,22 +68667,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV46"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="K5" sqref="K5:K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="190" t="s">
         <v>122</v>
       </c>
@@ -68913,7 +68942,7 @@
       <c r="IU1" s="190"/>
       <c r="IV1" s="190"/>
     </row>
-    <row r="2" spans="1:256" ht="15" thickBot="1">
+    <row r="2" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="193" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -68929,7 +68958,7 @@
       <c r="J2" s="193"/>
       <c r="K2" s="193"/>
     </row>
-    <row r="3" spans="1:256" ht="15" customHeight="1">
+    <row r="3" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="194" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -68970,7 +68999,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15" thickBot="1">
+    <row r="4" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="195"/>
       <c r="B4" s="197"/>
       <c r="C4" s="199"/>
@@ -68983,7 +69012,7 @@
       <c r="J4" s="209"/>
       <c r="K4" s="210"/>
     </row>
-    <row r="5" spans="1:256" s="57" customFormat="1">
+    <row r="5" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65">
         <f>'Сводная таблица'!A5:A6</f>
         <v>1</v>
@@ -69026,7 +69055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:256" s="57" customFormat="1">
+    <row r="6" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="58">
         <f>'Сводная таблица'!A6:A7</f>
         <v>2</v>
@@ -69070,7 +69099,7 @@
       </c>
       <c r="M6" s="83"/>
     </row>
-    <row r="7" spans="1:256" s="57" customFormat="1">
+    <row r="7" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="58">
         <f>'Сводная таблица'!A7:A8</f>
         <v>3</v>
@@ -69113,7 +69142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:256" s="57" customFormat="1">
+    <row r="8" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="58">
         <f>'Сводная таблица'!A8:A9</f>
         <v>4</v>
@@ -69156,7 +69185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:256" s="57" customFormat="1">
+    <row r="9" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="58">
         <f>'Сводная таблица'!A9:A10</f>
         <v>5</v>
@@ -69199,7 +69228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:256" s="57" customFormat="1">
+    <row r="10" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="58">
         <f>'Сводная таблица'!A10:A11</f>
         <v>6</v>
@@ -69242,7 +69271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:256" s="57" customFormat="1">
+    <row r="11" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="58">
         <f>'Сводная таблица'!A11:A12</f>
         <v>7</v>
@@ -69285,7 +69314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:256" s="57" customFormat="1">
+    <row r="12" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="58">
         <f>'Сводная таблица'!A12:A13</f>
         <v>8</v>
@@ -69328,7 +69357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:256" s="57" customFormat="1">
+    <row r="13" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="58">
         <f>'Сводная таблица'!A13:A14</f>
         <v>9</v>
@@ -69371,7 +69400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="57" customFormat="1">
+    <row r="14" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="58">
         <f>'Сводная таблица'!A14:A15</f>
         <v>10</v>
@@ -69414,7 +69443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="57" customFormat="1">
+    <row r="15" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="58">
         <f>'Сводная таблица'!A15:A16</f>
         <v>11</v>
@@ -69457,7 +69486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:256" s="57" customFormat="1">
+    <row r="16" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="58">
         <f>'Сводная таблица'!A16:A17</f>
         <v>12</v>
@@ -69500,7 +69529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="57" customFormat="1">
+    <row r="17" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="58">
         <f>'Сводная таблица'!A17:A18</f>
         <v>13</v>
@@ -69543,7 +69572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="57" customFormat="1">
+    <row r="18" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="58">
         <f>'Сводная таблица'!A18:A19</f>
         <v>14</v>
@@ -69586,7 +69615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="57" customFormat="1">
+    <row r="19" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="58">
         <f>'Сводная таблица'!A19:A20</f>
         <v>15</v>
@@ -69628,7 +69657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="57" customFormat="1">
+    <row r="20" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="58">
         <f>'Сводная таблица'!A20:A21</f>
         <v>16</v>
@@ -69671,7 +69700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="57" customFormat="1">
+    <row r="21" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="58">
         <f>'Сводная таблица'!A21:A22</f>
         <v>17</v>
@@ -69714,7 +69743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="57" customFormat="1">
+    <row r="22" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="58">
         <f>'Сводная таблица'!A22:A23</f>
         <v>18</v>
@@ -69757,7 +69786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="57" customFormat="1">
+    <row r="23" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="58">
         <f>'Сводная таблица'!A23:A24</f>
         <v>19</v>
@@ -69800,7 +69829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="57" customFormat="1">
+    <row r="24" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="58">
         <f>'Сводная таблица'!A24:A25</f>
         <v>20</v>
@@ -69843,7 +69872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="57" customFormat="1">
+    <row r="25" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="58">
         <f>'Сводная таблица'!A25:A26</f>
         <v>21</v>
@@ -69886,7 +69915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="57" customFormat="1">
+    <row r="26" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="58">
         <f>'Сводная таблица'!A26:A27</f>
         <v>22</v>
@@ -69929,7 +69958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="57" customFormat="1">
+    <row r="27" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="58">
         <f>'Сводная таблица'!A27:A28</f>
         <v>23</v>
@@ -69972,7 +70001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="57" customFormat="1">
+    <row r="28" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="58">
         <f>'Сводная таблица'!A28:A29</f>
         <v>24</v>
@@ -70015,7 +70044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="57" customFormat="1">
+    <row r="29" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="58">
         <f>'Сводная таблица'!A29:A30</f>
         <v>25</v>
@@ -70058,7 +70087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="57" customFormat="1">
+    <row r="30" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="58">
         <f>'Сводная таблица'!A30:A31</f>
         <v>26</v>
@@ -70101,7 +70130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="57" customFormat="1">
+    <row r="31" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="58">
         <f>'Сводная таблица'!A31:A32</f>
         <v>27</v>
@@ -70144,7 +70173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="57" customFormat="1">
+    <row r="32" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="58">
         <f>'Сводная таблица'!A32:A33</f>
         <v>28</v>
@@ -70187,7 +70216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="57" customFormat="1">
+    <row r="33" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="58">
         <f>'Сводная таблица'!A33:A34</f>
         <v>29</v>
@@ -70230,7 +70259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="57" customFormat="1">
+    <row r="34" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="58">
         <f>'Сводная таблица'!A34:A35</f>
         <v>30</v>
@@ -70273,7 +70302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="57" customFormat="1">
+    <row r="35" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="58">
         <f>'Сводная таблица'!A35:A36</f>
         <v>31</v>
@@ -70316,7 +70345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="57" customFormat="1">
+    <row r="36" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="58">
         <f>'Сводная таблица'!A36:A37</f>
         <v>32</v>
@@ -70359,7 +70388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="57" customFormat="1">
+    <row r="37" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="58">
         <f>'Сводная таблица'!A37:A38</f>
         <v>33</v>
@@ -70402,7 +70431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="57" customFormat="1">
+    <row r="38" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="58">
         <f>'Сводная таблица'!A38:A39</f>
         <v>34</v>
@@ -70445,7 +70474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="57" customFormat="1">
+    <row r="39" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="58">
         <f>'Сводная таблица'!A39:A40</f>
         <v>35</v>
@@ -70488,7 +70517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="57" customFormat="1">
+    <row r="40" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="58">
         <f>'Сводная таблица'!A40:A41</f>
         <v>36</v>
@@ -70531,7 +70560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="57" customFormat="1">
+    <row r="41" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="58">
         <f>'Сводная таблица'!A41:A42</f>
         <v>37</v>
@@ -70574,7 +70603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="57" customFormat="1">
+    <row r="42" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="58">
         <f>'Сводная таблица'!A42:A43</f>
         <v>38</v>
@@ -70617,7 +70646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="57" customFormat="1">
+    <row r="43" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="58">
         <f>'Сводная таблица'!A43:A44</f>
         <v>39</v>
@@ -70660,7 +70689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="57" customFormat="1">
+    <row r="44" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="58">
         <f>'Сводная таблица'!A44:A45</f>
         <v>40</v>
@@ -70703,7 +70732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="57" customFormat="1">
+    <row r="45" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="58">
         <f>'Сводная таблица'!A45:A46</f>
         <v>41</v>
@@ -70746,7 +70775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="57" customFormat="1" ht="15" thickBot="1">
+    <row r="46" spans="1:11" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="59">
         <f>'Сводная таблица'!A46:A47</f>
         <v>42</v>
@@ -70810,22 +70839,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV46"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="190" t="s">
         <v>122</v>
       </c>
@@ -71085,7 +71114,7 @@
       <c r="IU1" s="190"/>
       <c r="IV1" s="190"/>
     </row>
-    <row r="2" spans="1:256" ht="15" thickBot="1">
+    <row r="2" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="193" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -71101,7 +71130,7 @@
       <c r="J2" s="193"/>
       <c r="K2" s="193"/>
     </row>
-    <row r="3" spans="1:256" ht="15" customHeight="1">
+    <row r="3" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="194" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -71142,7 +71171,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15" thickBot="1">
+    <row r="4" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="195"/>
       <c r="B4" s="197"/>
       <c r="C4" s="199"/>
@@ -71155,7 +71184,7 @@
       <c r="J4" s="209"/>
       <c r="K4" s="210"/>
     </row>
-    <row r="5" spans="1:256" s="57" customFormat="1">
+    <row r="5" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65">
         <f>'Сводная таблица'!A5:A6</f>
         <v>1</v>
@@ -71198,7 +71227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:256" s="57" customFormat="1">
+    <row r="6" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="58">
         <f>'Сводная таблица'!A6:A7</f>
         <v>2</v>
@@ -71242,7 +71271,7 @@
       </c>
       <c r="M6" s="83"/>
     </row>
-    <row r="7" spans="1:256" s="57" customFormat="1">
+    <row r="7" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="58">
         <f>'Сводная таблица'!A7:A8</f>
         <v>3</v>
@@ -71285,7 +71314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:256" s="57" customFormat="1">
+    <row r="8" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="58">
         <f>'Сводная таблица'!A8:A9</f>
         <v>4</v>
@@ -71328,7 +71357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:256" s="57" customFormat="1">
+    <row r="9" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="58">
         <f>'Сводная таблица'!A9:A10</f>
         <v>5</v>
@@ -71371,7 +71400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:256" s="57" customFormat="1">
+    <row r="10" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="58">
         <f>'Сводная таблица'!A10:A11</f>
         <v>6</v>
@@ -71414,7 +71443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:256" s="57" customFormat="1">
+    <row r="11" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="58">
         <f>'Сводная таблица'!A11:A12</f>
         <v>7</v>
@@ -71457,7 +71486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:256" s="57" customFormat="1">
+    <row r="12" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="58">
         <f>'Сводная таблица'!A12:A13</f>
         <v>8</v>
@@ -71500,7 +71529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:256" s="57" customFormat="1">
+    <row r="13" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="58">
         <f>'Сводная таблица'!A13:A14</f>
         <v>9</v>
@@ -71543,7 +71572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="57" customFormat="1">
+    <row r="14" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="58">
         <f>'Сводная таблица'!A14:A15</f>
         <v>10</v>
@@ -71586,7 +71615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="57" customFormat="1">
+    <row r="15" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="58">
         <f>'Сводная таблица'!A15:A16</f>
         <v>11</v>
@@ -71629,7 +71658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:256" s="57" customFormat="1">
+    <row r="16" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="58">
         <f>'Сводная таблица'!A16:A17</f>
         <v>12</v>
@@ -71672,7 +71701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="57" customFormat="1">
+    <row r="17" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="58">
         <f>'Сводная таблица'!A17:A18</f>
         <v>13</v>
@@ -71715,7 +71744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="57" customFormat="1">
+    <row r="18" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="58">
         <f>'Сводная таблица'!A18:A19</f>
         <v>14</v>
@@ -71758,7 +71787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="57" customFormat="1">
+    <row r="19" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="58">
         <f>'Сводная таблица'!A19:A20</f>
         <v>15</v>
@@ -71800,7 +71829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="57" customFormat="1">
+    <row r="20" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="58">
         <f>'Сводная таблица'!A20:A21</f>
         <v>16</v>
@@ -71843,7 +71872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="57" customFormat="1">
+    <row r="21" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="58">
         <f>'Сводная таблица'!A21:A22</f>
         <v>17</v>
@@ -71886,7 +71915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="57" customFormat="1">
+    <row r="22" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="58">
         <f>'Сводная таблица'!A22:A23</f>
         <v>18</v>
@@ -71929,7 +71958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="57" customFormat="1">
+    <row r="23" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="58">
         <f>'Сводная таблица'!A23:A24</f>
         <v>19</v>
@@ -71972,7 +72001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="57" customFormat="1">
+    <row r="24" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="58">
         <f>'Сводная таблица'!A24:A25</f>
         <v>20</v>
@@ -72015,7 +72044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="57" customFormat="1">
+    <row r="25" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="58">
         <f>'Сводная таблица'!A25:A26</f>
         <v>21</v>
@@ -72058,7 +72087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="57" customFormat="1">
+    <row r="26" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="58">
         <f>'Сводная таблица'!A26:A27</f>
         <v>22</v>
@@ -72101,7 +72130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="57" customFormat="1">
+    <row r="27" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="58">
         <f>'Сводная таблица'!A27:A28</f>
         <v>23</v>
@@ -72144,7 +72173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="57" customFormat="1">
+    <row r="28" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="58">
         <f>'Сводная таблица'!A28:A29</f>
         <v>24</v>
@@ -72187,7 +72216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="57" customFormat="1">
+    <row r="29" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="58">
         <f>'Сводная таблица'!A29:A30</f>
         <v>25</v>
@@ -72230,7 +72259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="57" customFormat="1">
+    <row r="30" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="58">
         <f>'Сводная таблица'!A30:A31</f>
         <v>26</v>
@@ -72273,7 +72302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="57" customFormat="1">
+    <row r="31" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="58">
         <f>'Сводная таблица'!A31:A32</f>
         <v>27</v>
@@ -72316,7 +72345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="57" customFormat="1">
+    <row r="32" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="58">
         <f>'Сводная таблица'!A32:A33</f>
         <v>28</v>
@@ -72359,7 +72388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="57" customFormat="1">
+    <row r="33" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="58">
         <f>'Сводная таблица'!A33:A34</f>
         <v>29</v>
@@ -72402,7 +72431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="57" customFormat="1">
+    <row r="34" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="58">
         <f>'Сводная таблица'!A34:A35</f>
         <v>30</v>
@@ -72445,7 +72474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="57" customFormat="1">
+    <row r="35" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="58">
         <f>'Сводная таблица'!A35:A36</f>
         <v>31</v>
@@ -72488,7 +72517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="57" customFormat="1">
+    <row r="36" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="58">
         <f>'Сводная таблица'!A36:A37</f>
         <v>32</v>
@@ -72531,7 +72560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="57" customFormat="1">
+    <row r="37" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="58">
         <f>'Сводная таблица'!A37:A38</f>
         <v>33</v>
@@ -72574,7 +72603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="57" customFormat="1">
+    <row r="38" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="58">
         <f>'Сводная таблица'!A38:A39</f>
         <v>34</v>
@@ -72617,7 +72646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="57" customFormat="1">
+    <row r="39" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="58">
         <f>'Сводная таблица'!A39:A40</f>
         <v>35</v>
@@ -72660,7 +72689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="57" customFormat="1">
+    <row r="40" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="58">
         <f>'Сводная таблица'!A40:A41</f>
         <v>36</v>
@@ -72703,7 +72732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="57" customFormat="1">
+    <row r="41" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="58">
         <f>'Сводная таблица'!A41:A42</f>
         <v>37</v>
@@ -72746,7 +72775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="57" customFormat="1">
+    <row r="42" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="58">
         <f>'Сводная таблица'!A42:A43</f>
         <v>38</v>
@@ -72789,7 +72818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="57" customFormat="1">
+    <row r="43" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="58">
         <f>'Сводная таблица'!A43:A44</f>
         <v>39</v>
@@ -72832,7 +72861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="57" customFormat="1">
+    <row r="44" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="58">
         <f>'Сводная таблица'!A44:A45</f>
         <v>40</v>
@@ -72875,7 +72904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="57" customFormat="1">
+    <row r="45" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="58">
         <f>'Сводная таблица'!A45:A46</f>
         <v>41</v>
@@ -72918,7 +72947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="57" customFormat="1" ht="15" thickBot="1">
+    <row r="46" spans="1:11" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="59">
         <f>'Сводная таблица'!A46:A47</f>
         <v>42</v>
@@ -72982,22 +73011,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV46"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="K5" sqref="K5:K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="190" t="s">
         <v>122</v>
       </c>
@@ -73257,7 +73286,7 @@
       <c r="IU1" s="190"/>
       <c r="IV1" s="190"/>
     </row>
-    <row r="2" spans="1:256" ht="15" thickBot="1">
+    <row r="2" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="193" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -73273,7 +73302,7 @@
       <c r="J2" s="193"/>
       <c r="K2" s="193"/>
     </row>
-    <row r="3" spans="1:256" ht="15" customHeight="1">
+    <row r="3" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="194" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -73314,7 +73343,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15" thickBot="1">
+    <row r="4" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="195"/>
       <c r="B4" s="197"/>
       <c r="C4" s="199"/>
@@ -73327,7 +73356,7 @@
       <c r="J4" s="209"/>
       <c r="K4" s="210"/>
     </row>
-    <row r="5" spans="1:256" s="57" customFormat="1">
+    <row r="5" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65">
         <f>'Сводная таблица'!A5:A6</f>
         <v>1</v>
@@ -73370,7 +73399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:256" s="57" customFormat="1">
+    <row r="6" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="58">
         <f>'Сводная таблица'!A6:A7</f>
         <v>2</v>
@@ -73414,7 +73443,7 @@
       </c>
       <c r="M6" s="83"/>
     </row>
-    <row r="7" spans="1:256" s="57" customFormat="1">
+    <row r="7" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="58">
         <f>'Сводная таблица'!A7:A8</f>
         <v>3</v>
@@ -73457,7 +73486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:256" s="57" customFormat="1">
+    <row r="8" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="58">
         <f>'Сводная таблица'!A8:A9</f>
         <v>4</v>
@@ -73500,7 +73529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:256" s="57" customFormat="1">
+    <row r="9" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="58">
         <f>'Сводная таблица'!A9:A10</f>
         <v>5</v>
@@ -73543,7 +73572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:256" s="57" customFormat="1">
+    <row r="10" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="58">
         <f>'Сводная таблица'!A10:A11</f>
         <v>6</v>
@@ -73586,7 +73615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:256" s="57" customFormat="1">
+    <row r="11" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="58">
         <f>'Сводная таблица'!A11:A12</f>
         <v>7</v>
@@ -73629,7 +73658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:256" s="57" customFormat="1">
+    <row r="12" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="58">
         <f>'Сводная таблица'!A12:A13</f>
         <v>8</v>
@@ -73672,7 +73701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:256" s="57" customFormat="1">
+    <row r="13" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="58">
         <f>'Сводная таблица'!A13:A14</f>
         <v>9</v>
@@ -73715,7 +73744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="57" customFormat="1">
+    <row r="14" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="58">
         <f>'Сводная таблица'!A14:A15</f>
         <v>10</v>
@@ -73758,7 +73787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="57" customFormat="1">
+    <row r="15" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="58">
         <f>'Сводная таблица'!A15:A16</f>
         <v>11</v>
@@ -73801,7 +73830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:256" s="57" customFormat="1">
+    <row r="16" spans="1:256" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="58">
         <f>'Сводная таблица'!A16:A17</f>
         <v>12</v>
@@ -73844,7 +73873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="57" customFormat="1">
+    <row r="17" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="58">
         <f>'Сводная таблица'!A17:A18</f>
         <v>13</v>
@@ -73887,7 +73916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="57" customFormat="1">
+    <row r="18" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="58">
         <f>'Сводная таблица'!A18:A19</f>
         <v>14</v>
@@ -73930,7 +73959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="57" customFormat="1">
+    <row r="19" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="58">
         <f>'Сводная таблица'!A19:A20</f>
         <v>15</v>
@@ -73972,7 +74001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="57" customFormat="1">
+    <row r="20" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="58">
         <f>'Сводная таблица'!A20:A21</f>
         <v>16</v>
@@ -74015,7 +74044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="57" customFormat="1">
+    <row r="21" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="58">
         <f>'Сводная таблица'!A21:A22</f>
         <v>17</v>
@@ -74058,7 +74087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="57" customFormat="1">
+    <row r="22" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="58">
         <f>'Сводная таблица'!A22:A23</f>
         <v>18</v>
@@ -74101,7 +74130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="57" customFormat="1">
+    <row r="23" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="58">
         <f>'Сводная таблица'!A23:A24</f>
         <v>19</v>
@@ -74144,7 +74173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="57" customFormat="1">
+    <row r="24" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="58">
         <f>'Сводная таблица'!A24:A25</f>
         <v>20</v>
@@ -74187,7 +74216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="57" customFormat="1">
+    <row r="25" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="58">
         <f>'Сводная таблица'!A25:A26</f>
         <v>21</v>
@@ -74230,7 +74259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="57" customFormat="1">
+    <row r="26" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="58">
         <f>'Сводная таблица'!A26:A27</f>
         <v>22</v>
@@ -74273,7 +74302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="57" customFormat="1">
+    <row r="27" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="58">
         <f>'Сводная таблица'!A27:A28</f>
         <v>23</v>
@@ -74316,7 +74345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="57" customFormat="1">
+    <row r="28" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="58">
         <f>'Сводная таблица'!A28:A29</f>
         <v>24</v>
@@ -74359,7 +74388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="57" customFormat="1">
+    <row r="29" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="58">
         <f>'Сводная таблица'!A29:A30</f>
         <v>25</v>
@@ -74402,7 +74431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="57" customFormat="1">
+    <row r="30" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="58">
         <f>'Сводная таблица'!A30:A31</f>
         <v>26</v>
@@ -74445,7 +74474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="57" customFormat="1">
+    <row r="31" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="58">
         <f>'Сводная таблица'!A31:A32</f>
         <v>27</v>
@@ -74488,7 +74517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="57" customFormat="1">
+    <row r="32" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="58">
         <f>'Сводная таблица'!A32:A33</f>
         <v>28</v>
@@ -74531,7 +74560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="57" customFormat="1">
+    <row r="33" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="58">
         <f>'Сводная таблица'!A33:A34</f>
         <v>29</v>
@@ -74574,7 +74603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="57" customFormat="1">
+    <row r="34" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="58">
         <f>'Сводная таблица'!A34:A35</f>
         <v>30</v>
@@ -74617,7 +74646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="57" customFormat="1">
+    <row r="35" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="58">
         <f>'Сводная таблица'!A35:A36</f>
         <v>31</v>
@@ -74660,7 +74689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="57" customFormat="1">
+    <row r="36" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="58">
         <f>'Сводная таблица'!A36:A37</f>
         <v>32</v>
@@ -74703,7 +74732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="57" customFormat="1">
+    <row r="37" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="58">
         <f>'Сводная таблица'!A37:A38</f>
         <v>33</v>
@@ -74746,7 +74775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="57" customFormat="1">
+    <row r="38" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="58">
         <f>'Сводная таблица'!A38:A39</f>
         <v>34</v>
@@ -74789,7 +74818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="57" customFormat="1">
+    <row r="39" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="58">
         <f>'Сводная таблица'!A39:A40</f>
         <v>35</v>
@@ -74832,7 +74861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="57" customFormat="1">
+    <row r="40" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="58">
         <f>'Сводная таблица'!A40:A41</f>
         <v>36</v>
@@ -74875,7 +74904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="57" customFormat="1">
+    <row r="41" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="58">
         <f>'Сводная таблица'!A41:A42</f>
         <v>37</v>
@@ -74918,7 +74947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="57" customFormat="1">
+    <row r="42" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="58">
         <f>'Сводная таблица'!A42:A43</f>
         <v>38</v>
@@ -74961,7 +74990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="57" customFormat="1">
+    <row r="43" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="58">
         <f>'Сводная таблица'!A43:A44</f>
         <v>39</v>
@@ -75004,7 +75033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="57" customFormat="1">
+    <row r="44" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="58">
         <f>'Сводная таблица'!A44:A45</f>
         <v>40</v>
@@ -75047,7 +75076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="57" customFormat="1">
+    <row r="45" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="58">
         <f>'Сводная таблица'!A45:A46</f>
         <v>41</v>
@@ -75090,7 +75119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="57" customFormat="1" ht="15" thickBot="1">
+    <row r="46" spans="1:11" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="59">
         <f>'Сводная таблица'!A46:A47</f>
         <v>42</v>

--- a/ТМОГИ.2016.осень.xlsx
+++ b/ТМОГИ.2016.осень.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1620" windowWidth="12504" windowHeight="7920"/>
+    <workbookView xWindow="0" yWindow="1620" windowWidth="12510" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="Сводная таблица" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="150">
   <si>
     <t>балл(max)=</t>
   </si>
@@ -1129,7 +1129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1566,6 +1566,9 @@
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2088,44 +2091,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B77" sqref="B77:B87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" customWidth="1"/>
-    <col min="7" max="7" width="5.88671875" style="22" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" style="22" customWidth="1"/>
-    <col min="9" max="9" width="4.6640625" style="22" customWidth="1"/>
-    <col min="10" max="10" width="5.44140625" style="22" customWidth="1"/>
-    <col min="11" max="11" width="4.33203125" style="22" customWidth="1"/>
-    <col min="12" max="12" width="4.88671875" customWidth="1"/>
-    <col min="13" max="14" width="4.5546875" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" customWidth="1"/>
-    <col min="16" max="16" width="5.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" style="22" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="22" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" style="22" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="22" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" style="22" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" customWidth="1"/>
+    <col min="13" max="14" width="4.5703125" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" customWidth="1"/>
+    <col min="16" max="16" width="5.28515625" customWidth="1"/>
     <col min="17" max="17" width="5" customWidth="1"/>
-    <col min="18" max="18" width="9.33203125" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" customWidth="1"/>
     <col min="19" max="21" width="5" customWidth="1"/>
-    <col min="22" max="22" width="5.109375" customWidth="1"/>
-    <col min="23" max="23" width="6.109375" customWidth="1"/>
-    <col min="24" max="24" width="5.5546875" customWidth="1"/>
-    <col min="25" max="27" width="5.6640625" customWidth="1"/>
-    <col min="28" max="30" width="4.5546875" customWidth="1"/>
+    <col min="22" max="22" width="5.140625" customWidth="1"/>
+    <col min="23" max="23" width="6.140625" customWidth="1"/>
+    <col min="24" max="24" width="5.5703125" customWidth="1"/>
+    <col min="25" max="27" width="5.7109375" customWidth="1"/>
+    <col min="28" max="30" width="4.5703125" customWidth="1"/>
     <col min="31" max="33" width="5" customWidth="1"/>
-    <col min="34" max="34" width="4.5546875" customWidth="1"/>
-    <col min="35" max="37" width="3.33203125" customWidth="1"/>
+    <col min="34" max="34" width="4.5703125" customWidth="1"/>
+    <col min="35" max="37" width="3.28515625" customWidth="1"/>
     <col min="38" max="38" width="4" customWidth="1"/>
-    <col min="39" max="39" width="4.109375" customWidth="1"/>
-    <col min="40" max="55" width="3.33203125" customWidth="1"/>
-    <col min="56" max="71" width="3.33203125" hidden="1" customWidth="1"/>
-    <col min="72" max="72" width="5.5546875" style="133" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4.140625" customWidth="1"/>
+    <col min="40" max="55" width="3.28515625" customWidth="1"/>
+    <col min="56" max="71" width="3.28515625" hidden="1" customWidth="1"/>
+    <col min="72" max="72" width="5.5703125" style="133" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="74" max="255" width="11" hidden="1"/>
   </cols>
   <sheetData>
@@ -2148,7 +2152,7 @@
       <c r="AF1" s="149"/>
       <c r="AG1" s="149"/>
     </row>
-    <row r="2" spans="1:16384" ht="15" thickBot="1">
+    <row r="2" spans="1:16384" ht="15.75" thickBot="1">
       <c r="B2" s="81">
         <f>DATE(2016,9,1)</f>
         <v>42614</v>
@@ -18540,56 +18544,56 @@
       <c r="XFD2" s="106"/>
     </row>
     <row r="3" spans="1:16384" s="109" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="167" t="s">
+      <c r="A3" s="168" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="173" t="s">
+      <c r="B3" s="174" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="170" t="s">
+      <c r="C3" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="167" t="s">
+      <c r="D3" s="168" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="172" t="s">
+      <c r="E3" s="173" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="175" t="s">
+      <c r="F3" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="164" t="s">
+      <c r="G3" s="165" t="s">
         <v>118</v>
       </c>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
-      <c r="L3" s="165"/>
-      <c r="M3" s="166"/>
-      <c r="N3" s="164" t="s">
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="165" t="s">
         <v>119</v>
       </c>
-      <c r="O3" s="165"/>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="165"/>
-      <c r="S3" s="165"/>
-      <c r="T3" s="165"/>
-      <c r="U3" s="165"/>
-      <c r="V3" s="165"/>
-      <c r="W3" s="165"/>
-      <c r="X3" s="165"/>
-      <c r="Y3" s="165"/>
-      <c r="Z3" s="165"/>
-      <c r="AA3" s="165"/>
-      <c r="AB3" s="165"/>
-      <c r="AC3" s="165"/>
-      <c r="AD3" s="165"/>
-      <c r="AE3" s="165"/>
-      <c r="AF3" s="165"/>
-      <c r="AG3" s="165"/>
-      <c r="AH3" s="166"/>
+      <c r="O3" s="166"/>
+      <c r="P3" s="166"/>
+      <c r="Q3" s="166"/>
+      <c r="R3" s="166"/>
+      <c r="S3" s="166"/>
+      <c r="T3" s="166"/>
+      <c r="U3" s="166"/>
+      <c r="V3" s="166"/>
+      <c r="W3" s="166"/>
+      <c r="X3" s="166"/>
+      <c r="Y3" s="166"/>
+      <c r="Z3" s="166"/>
+      <c r="AA3" s="166"/>
+      <c r="AB3" s="166"/>
+      <c r="AC3" s="166"/>
+      <c r="AD3" s="166"/>
+      <c r="AE3" s="166"/>
+      <c r="AF3" s="166"/>
+      <c r="AG3" s="166"/>
+      <c r="AH3" s="167"/>
       <c r="AI3" s="32"/>
       <c r="AJ3" s="24" t="s">
         <v>4</v>
@@ -18736,13 +18740,13 @@
       <c r="BT3" s="108"/>
       <c r="BU3" s="108"/>
     </row>
-    <row r="4" spans="1:16384" s="106" customFormat="1" ht="43.8">
-      <c r="A4" s="167"/>
-      <c r="B4" s="174"/>
-      <c r="C4" s="171"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="175"/>
+    <row r="4" spans="1:16384" s="106" customFormat="1" ht="45">
+      <c r="A4" s="168"/>
+      <c r="B4" s="175"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="176"/>
       <c r="G4" s="68" t="s">
         <v>115</v>
       </c>
@@ -19673,7 +19677,10 @@
         <f>DATE(2016,11,5)</f>
         <v>42679</v>
       </c>
-      <c r="P10" s="70"/>
+      <c r="P10" s="70">
+        <f>ROUNDDOWN((WEEKNUM(DATE(YEAR($B$2),12,31))-IF(WEEKNUM(O10)&lt;36,WEEKNUM(O10)+53,WEEKNUM(O10)))*N10/10+1,0)</f>
+        <v>4</v>
+      </c>
       <c r="Q10" s="18"/>
       <c r="R10" s="154"/>
       <c r="S10" s="70"/>
@@ -19759,11 +19766,11 @@
       <c r="BS10" s="1"/>
       <c r="BT10" s="131">
         <f t="shared" si="2"/>
-        <v>36.29</v>
+        <v>40.29</v>
       </c>
       <c r="BU10" s="9">
         <f t="shared" si="3"/>
-        <v>5.7277161862527715</v>
+        <v>6.4372505543237244</v>
       </c>
     </row>
     <row r="11" spans="1:16384" s="106" customFormat="1">
@@ -20209,7 +20216,10 @@
         <f>DATE(2016,11,5)</f>
         <v>42679</v>
       </c>
-      <c r="S14" s="70"/>
+      <c r="S14" s="70">
+        <f>ROUNDDOWN((WEEKNUM(DATE(YEAR($B$2),12,31))-IF(WEEKNUM(R14)&lt;36,WEEKNUM(R14)+53,WEEKNUM(R14)))*Q14/10+1,0)</f>
+        <v>5</v>
+      </c>
       <c r="T14" s="18"/>
       <c r="U14" s="154"/>
       <c r="V14" s="70"/>
@@ -20292,11 +20302,11 @@
       <c r="BS14" s="1"/>
       <c r="BT14" s="131">
         <f t="shared" si="2"/>
-        <v>43.75</v>
+        <v>48.75</v>
       </c>
       <c r="BU14" s="9">
         <f t="shared" si="3"/>
-        <v>7.0509977827050996</v>
+        <v>7.9379157427937912</v>
       </c>
     </row>
     <row r="15" spans="1:16384" s="106" customFormat="1">
@@ -21521,12 +21531,28 @@
       <c r="K24" s="41"/>
       <c r="L24" s="41"/>
       <c r="M24" s="70"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="154"/>
-      <c r="P24" s="70"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="154"/>
-      <c r="S24" s="70"/>
+      <c r="N24" s="51">
+        <v>2</v>
+      </c>
+      <c r="O24" s="154">
+        <f>DATE(2016,11,5)</f>
+        <v>42679</v>
+      </c>
+      <c r="P24" s="70">
+        <f>ROUNDDOWN((WEEKNUM(DATE(YEAR($B$2),12,31))-IF(WEEKNUM(O24)&lt;36,WEEKNUM(O24)+53,WEEKNUM(O24)))*N24/10+1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="Q24" s="21">
+        <v>4</v>
+      </c>
+      <c r="R24" s="154">
+        <f>DATE(2016,11,5)</f>
+        <v>42679</v>
+      </c>
+      <c r="S24" s="70">
+        <f>ROUNDDOWN((WEEKNUM(DATE(YEAR($B$2),12,31))-IF(WEEKNUM(R24)&lt;36,WEEKNUM(R24)+53,WEEKNUM(R24)))*Q24/10+1,0)</f>
+        <v>4</v>
+      </c>
       <c r="T24" s="21"/>
       <c r="U24" s="154"/>
       <c r="V24" s="70"/>
@@ -21609,11 +21635,11 @@
       <c r="BS24" s="101"/>
       <c r="BT24" s="131">
         <f t="shared" si="4"/>
-        <v>24.84</v>
+        <v>30.84</v>
       </c>
       <c r="BU24" s="9">
         <f t="shared" si="3"/>
-        <v>3.6966740576496671</v>
+        <v>4.7609756097560973</v>
       </c>
     </row>
     <row r="25" spans="1:73" s="106" customFormat="1">
@@ -23205,9 +23231,17 @@
       <c r="K37" s="41"/>
       <c r="L37" s="41"/>
       <c r="M37" s="70"/>
-      <c r="N37" s="51"/>
-      <c r="O37" s="154"/>
-      <c r="P37" s="70"/>
+      <c r="N37" s="51">
+        <v>2</v>
+      </c>
+      <c r="O37" s="154">
+        <f>DATE(2016,11,5)</f>
+        <v>42679</v>
+      </c>
+      <c r="P37" s="70">
+        <f>ROUNDDOWN((WEEKNUM(DATE(YEAR($B$2),12,31))-IF(WEEKNUM(O37)&lt;36,WEEKNUM(O37)+53,WEEKNUM(O37)))*N37/10+1,0)</f>
+        <v>2</v>
+      </c>
       <c r="Q37" s="21"/>
       <c r="R37" s="154"/>
       <c r="S37" s="70"/>
@@ -23291,11 +23325,11 @@
       <c r="BS37" s="101"/>
       <c r="BT37" s="131">
         <f t="shared" si="4"/>
-        <v>28.89</v>
+        <v>30.89</v>
       </c>
       <c r="BU37" s="9">
         <f t="shared" si="3"/>
-        <v>4.4150776053215077</v>
+        <v>4.7698447893569842</v>
       </c>
     </row>
     <row r="38" spans="1:73" s="106" customFormat="1">
@@ -23909,7 +23943,9 @@
       <c r="BA42" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="BB42" s="101"/>
+      <c r="BB42" s="164" t="s">
+        <v>125</v>
+      </c>
       <c r="BC42" s="101">
         <v>4</v>
       </c>
@@ -23938,7 +23974,7 @@
         <v>2.8381374722838135</v>
       </c>
     </row>
-    <row r="43" spans="1:73" s="115" customFormat="1" ht="15" thickBot="1">
+    <row r="43" spans="1:73" s="115" customFormat="1" ht="15.75" thickBot="1">
       <c r="A43" s="15">
         <v>39</v>
       </c>
@@ -24291,7 +24327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:73" ht="15" thickBot="1">
+    <row r="47" spans="1:73" ht="15.75" thickBot="1">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -24304,33 +24340,33 @@
       <c r="AQ47" s="4"/>
     </row>
     <row r="48" spans="1:73">
-      <c r="A48" s="168" t="s">
+      <c r="A48" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="173" t="s">
+      <c r="B48" s="174" t="s">
         <v>74</v>
       </c>
-      <c r="C48" s="170" t="s">
+      <c r="C48" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="173" t="s">
+      <c r="D48" s="174" t="s">
         <v>28</v>
       </c>
-      <c r="E48" s="173" t="s">
+      <c r="E48" s="174" t="s">
         <v>29</v>
       </c>
-      <c r="F48" s="169" t="s">
+      <c r="F48" s="170" t="s">
         <v>30</v>
       </c>
-      <c r="G48" s="164" t="s">
+      <c r="G48" s="165" t="s">
         <v>118</v>
       </c>
-      <c r="H48" s="165"/>
-      <c r="I48" s="165"/>
-      <c r="J48" s="165"/>
-      <c r="K48" s="165"/>
-      <c r="L48" s="165"/>
-      <c r="M48" s="166"/>
+      <c r="H48" s="166"/>
+      <c r="I48" s="166"/>
+      <c r="J48" s="166"/>
+      <c r="K48" s="166"/>
+      <c r="L48" s="166"/>
+      <c r="M48" s="167"/>
       <c r="N48" s="150" t="s">
         <v>119</v>
       </c>
@@ -24500,13 +24536,13 @@
       <c r="BT48" s="134"/>
       <c r="BU48" s="124"/>
     </row>
-    <row r="49" spans="1:73" ht="43.8">
-      <c r="A49" s="168"/>
-      <c r="B49" s="174"/>
-      <c r="C49" s="171"/>
-      <c r="D49" s="174"/>
-      <c r="E49" s="174"/>
-      <c r="F49" s="169"/>
+    <row r="49" spans="1:73" ht="45">
+      <c r="A49" s="169"/>
+      <c r="B49" s="175"/>
+      <c r="C49" s="172"/>
+      <c r="D49" s="175"/>
+      <c r="E49" s="175"/>
+      <c r="F49" s="170"/>
       <c r="G49" s="68" t="s">
         <v>115</v>
       </c>
@@ -24777,41 +24813,41 @@
       <c r="K50" s="41"/>
       <c r="L50" s="41"/>
       <c r="M50" s="70"/>
-      <c r="N50" s="25">
+      <c r="N50" s="51">
         <v>4</v>
       </c>
       <c r="O50" s="154">
         <v>42672</v>
       </c>
-      <c r="P50" s="18">
+      <c r="P50" s="21">
         <v>4</v>
       </c>
-      <c r="Q50" s="18">
+      <c r="Q50" s="21">
         <v>5</v>
       </c>
       <c r="R50" s="154">
         <v>42672</v>
       </c>
-      <c r="S50" s="18">
+      <c r="S50" s="21">
         <v>5</v>
       </c>
-      <c r="T50" s="18"/>
+      <c r="T50" s="21"/>
       <c r="U50" s="154"/>
-      <c r="V50" s="18"/>
-      <c r="W50" s="18"/>
+      <c r="V50" s="21"/>
+      <c r="W50" s="21"/>
       <c r="X50" s="154"/>
-      <c r="Y50" s="18"/>
-      <c r="Z50" s="18"/>
+      <c r="Y50" s="21"/>
+      <c r="Z50" s="21"/>
       <c r="AA50" s="154"/>
-      <c r="AB50" s="18"/>
-      <c r="AC50" s="18"/>
+      <c r="AB50" s="21"/>
+      <c r="AC50" s="21"/>
       <c r="AD50" s="154"/>
       <c r="AE50" s="18"/>
       <c r="AF50" s="18"/>
       <c r="AG50" s="154"/>
       <c r="AH50" s="19"/>
       <c r="AI50" s="34"/>
-      <c r="AJ50" s="12">
+      <c r="AJ50" s="17">
         <v>2</v>
       </c>
       <c r="AK50" s="101">
@@ -24866,15 +24902,15 @@
       <c r="BH50" s="162"/>
       <c r="BI50" s="162"/>
       <c r="BJ50" s="162"/>
-      <c r="BK50" s="1"/>
+      <c r="BK50" s="164"/>
       <c r="BL50" s="162"/>
-      <c r="BM50" s="1"/>
-      <c r="BN50" s="1"/>
-      <c r="BO50" s="1"/>
-      <c r="BP50" s="1"/>
-      <c r="BQ50" s="1"/>
-      <c r="BR50" s="1"/>
-      <c r="BS50" s="1"/>
+      <c r="BM50" s="164"/>
+      <c r="BN50" s="164"/>
+      <c r="BO50" s="164"/>
+      <c r="BP50" s="164"/>
+      <c r="BQ50" s="164"/>
+      <c r="BR50" s="164"/>
+      <c r="BS50" s="164"/>
       <c r="BT50" s="131">
         <v>49.1</v>
       </c>
@@ -24914,32 +24950,34 @@
       <c r="K51" s="41"/>
       <c r="L51" s="41"/>
       <c r="M51" s="70"/>
-      <c r="N51" s="25">
+      <c r="N51" s="51">
         <v>4</v>
       </c>
       <c r="O51" s="154">
         <v>42672</v>
       </c>
-      <c r="P51" s="18">
+      <c r="P51" s="21">
         <v>4</v>
       </c>
-      <c r="Q51" s="18">
+      <c r="Q51" s="21">
         <v>5</v>
       </c>
       <c r="R51" s="154">
         <v>42679</v>
       </c>
-      <c r="S51" s="18"/>
-      <c r="T51" s="18"/>
+      <c r="S51" s="21">
+        <v>5</v>
+      </c>
+      <c r="T51" s="21"/>
       <c r="U51" s="154"/>
-      <c r="V51" s="18"/>
-      <c r="W51" s="18"/>
+      <c r="V51" s="21"/>
+      <c r="W51" s="21"/>
       <c r="X51" s="154"/>
-      <c r="Y51" s="18"/>
-      <c r="Z51" s="18"/>
+      <c r="Y51" s="21"/>
+      <c r="Z51" s="21"/>
       <c r="AA51" s="154"/>
-      <c r="AB51" s="18"/>
-      <c r="AC51" s="18"/>
+      <c r="AB51" s="21"/>
+      <c r="AC51" s="21"/>
       <c r="AD51" s="154"/>
       <c r="AE51" s="18"/>
       <c r="AF51" s="18"/>
@@ -25001,20 +25039,20 @@
       <c r="BH51" s="130"/>
       <c r="BI51" s="130"/>
       <c r="BJ51" s="130"/>
-      <c r="BK51" s="1"/>
+      <c r="BK51" s="164"/>
       <c r="BL51" s="130"/>
-      <c r="BM51" s="1"/>
-      <c r="BN51" s="1"/>
-      <c r="BO51" s="1"/>
-      <c r="BP51" s="1"/>
-      <c r="BQ51" s="1"/>
-      <c r="BR51" s="1"/>
-      <c r="BS51" s="1"/>
+      <c r="BM51" s="164"/>
+      <c r="BN51" s="164"/>
+      <c r="BO51" s="164"/>
+      <c r="BP51" s="164"/>
+      <c r="BQ51" s="164"/>
+      <c r="BR51" s="164"/>
+      <c r="BS51" s="164"/>
       <c r="BT51" s="131">
-        <v>43.75</v>
+        <v>48.75</v>
       </c>
       <c r="BU51" s="126">
-        <v>7.0509977827050996</v>
+        <v>7.9379157427937912</v>
       </c>
     </row>
     <row r="52" spans="1:73" ht="15" customHeight="1">
@@ -25147,54 +25185,60 @@
         <v>4</v>
       </c>
       <c r="B53" s="103">
-        <v>11405215</v>
+        <v>11405115</v>
       </c>
       <c r="C53" s="84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D53" s="126" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="E53" s="126" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F53" s="126" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="G53" s="39">
-        <v>3.23</v>
+        <v>3.35</v>
       </c>
       <c r="H53" s="69">
-        <v>2.72</v>
+        <v>3.05</v>
       </c>
       <c r="I53" s="74">
-        <v>0.32</v>
+        <v>1.89</v>
       </c>
       <c r="J53" s="71"/>
       <c r="K53" s="72"/>
       <c r="L53" s="72"/>
       <c r="M53" s="73"/>
-      <c r="N53" s="51"/>
-      <c r="O53" s="154"/>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="21"/>
+      <c r="N53" s="25">
+        <v>4</v>
+      </c>
+      <c r="O53" s="154">
+        <v>42679</v>
+      </c>
+      <c r="P53" s="18">
+        <v>4</v>
+      </c>
+      <c r="Q53" s="18"/>
       <c r="R53" s="154"/>
-      <c r="S53" s="21"/>
-      <c r="T53" s="21"/>
+      <c r="S53" s="18"/>
+      <c r="T53" s="18"/>
       <c r="U53" s="154"/>
-      <c r="V53" s="21"/>
-      <c r="W53" s="21"/>
+      <c r="V53" s="18"/>
+      <c r="W53" s="18"/>
       <c r="X53" s="154"/>
-      <c r="Y53" s="21"/>
-      <c r="Z53" s="21"/>
+      <c r="Y53" s="18"/>
+      <c r="Z53" s="18"/>
       <c r="AA53" s="154"/>
-      <c r="AB53" s="21"/>
-      <c r="AC53" s="21"/>
+      <c r="AB53" s="18"/>
+      <c r="AC53" s="18"/>
       <c r="AD53" s="154"/>
-      <c r="AE53" s="21"/>
-      <c r="AF53" s="21"/>
+      <c r="AE53" s="18"/>
+      <c r="AF53" s="18"/>
       <c r="AG53" s="154"/>
-      <c r="AH53" s="20"/>
+      <c r="AH53" s="19"/>
       <c r="AI53" s="34"/>
       <c r="AJ53" s="17">
         <v>2</v>
@@ -25211,8 +25255,8 @@
         <v>2</v>
       </c>
       <c r="AP53" s="15"/>
-      <c r="AQ53" s="101">
-        <v>2</v>
+      <c r="AQ53" s="101" t="s">
+        <v>125</v>
       </c>
       <c r="AR53" s="101">
         <v>2</v>
@@ -25232,7 +25276,7 @@
       </c>
       <c r="AX53" s="15"/>
       <c r="AY53" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AZ53" s="101">
         <v>2</v>
@@ -25261,10 +25305,10 @@
       <c r="BR53" s="163"/>
       <c r="BS53" s="163"/>
       <c r="BT53" s="131">
-        <v>38.270000000000003</v>
+        <v>40.29</v>
       </c>
       <c r="BU53" s="126">
-        <v>6.0789356984478937</v>
+        <v>6.4372505543237244</v>
       </c>
     </row>
     <row r="54" spans="1:73" ht="15" customHeight="1">
@@ -25272,56 +25316,56 @@
         <v>5</v>
       </c>
       <c r="B54" s="103">
-        <v>11405115</v>
+        <v>11405215</v>
       </c>
       <c r="C54" s="84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D54" s="126" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="E54" s="126" t="s">
         <v>57</v>
       </c>
       <c r="F54" s="126" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G54" s="39">
-        <v>3.35</v>
+        <v>3.23</v>
       </c>
       <c r="H54" s="69">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="I54" s="69">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="J54" s="69"/>
       <c r="K54" s="41"/>
       <c r="L54" s="41"/>
       <c r="M54" s="70"/>
-      <c r="N54" s="51"/>
+      <c r="N54" s="25"/>
       <c r="O54" s="154"/>
-      <c r="P54" s="21"/>
-      <c r="Q54" s="21"/>
+      <c r="P54" s="18"/>
+      <c r="Q54" s="18"/>
       <c r="R54" s="154"/>
-      <c r="S54" s="21"/>
-      <c r="T54" s="21"/>
+      <c r="S54" s="18"/>
+      <c r="T54" s="18"/>
       <c r="U54" s="154"/>
-      <c r="V54" s="21"/>
-      <c r="W54" s="21"/>
+      <c r="V54" s="18"/>
+      <c r="W54" s="18"/>
       <c r="X54" s="154"/>
-      <c r="Y54" s="21"/>
-      <c r="Z54" s="21"/>
+      <c r="Y54" s="18"/>
+      <c r="Z54" s="18"/>
       <c r="AA54" s="154"/>
-      <c r="AB54" s="21"/>
-      <c r="AC54" s="21"/>
+      <c r="AB54" s="18"/>
+      <c r="AC54" s="18"/>
       <c r="AD54" s="154"/>
       <c r="AE54" s="18"/>
       <c r="AF54" s="18"/>
       <c r="AG54" s="154"/>
       <c r="AH54" s="19"/>
       <c r="AI54" s="34"/>
-      <c r="AJ54" s="17">
+      <c r="AJ54" s="12">
         <v>2</v>
       </c>
       <c r="AK54" s="101">
@@ -25337,10 +25381,10 @@
       </c>
       <c r="AP54" s="162"/>
       <c r="AQ54" s="101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR54" s="101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS54" s="101">
         <v>2</v>
@@ -25367,7 +25411,7 @@
       </c>
       <c r="BB54" s="101"/>
       <c r="BC54" s="101">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BD54" s="101"/>
       <c r="BE54" s="101"/>
@@ -25376,20 +25420,20 @@
       <c r="BH54" s="162"/>
       <c r="BI54" s="162"/>
       <c r="BJ54" s="162"/>
-      <c r="BK54" s="152"/>
+      <c r="BK54" s="1"/>
       <c r="BL54" s="162"/>
-      <c r="BM54" s="152"/>
-      <c r="BN54" s="152"/>
-      <c r="BO54" s="152"/>
-      <c r="BP54" s="152"/>
-      <c r="BQ54" s="152"/>
-      <c r="BR54" s="152"/>
-      <c r="BS54" s="152"/>
+      <c r="BM54" s="1"/>
+      <c r="BN54" s="1"/>
+      <c r="BO54" s="1"/>
+      <c r="BP54" s="1"/>
+      <c r="BQ54" s="1"/>
+      <c r="BR54" s="1"/>
+      <c r="BS54" s="1"/>
       <c r="BT54" s="131">
-        <v>38.03</v>
+        <v>38.270000000000003</v>
       </c>
       <c r="BU54" s="126">
-        <v>6.0363636363636362</v>
+        <v>6.0789356984478937</v>
       </c>
     </row>
     <row r="55" spans="1:73" ht="15" customHeight="1">
@@ -25397,33 +25441,33 @@
         <v>6</v>
       </c>
       <c r="B55" s="103">
-        <v>11405215</v>
+        <v>11405115</v>
       </c>
       <c r="C55" s="84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D55" s="126" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="E55" s="126" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="F55" s="126" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="G55" s="39">
         <v>3.35</v>
       </c>
       <c r="H55" s="69">
-        <v>2.97</v>
-      </c>
-      <c r="I55" s="74">
-        <v>0</v>
-      </c>
-      <c r="J55" s="71"/>
-      <c r="K55" s="72"/>
-      <c r="L55" s="72"/>
-      <c r="M55" s="73"/>
+        <v>2.68</v>
+      </c>
+      <c r="I55" s="69">
+        <v>0</v>
+      </c>
+      <c r="J55" s="69"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="70"/>
       <c r="N55" s="25"/>
       <c r="O55" s="154"/>
       <c r="P55" s="18"/>
@@ -25446,7 +25490,7 @@
       <c r="AG55" s="154"/>
       <c r="AH55" s="19"/>
       <c r="AI55" s="34"/>
-      <c r="AJ55" s="17">
+      <c r="AJ55" s="12">
         <v>2</v>
       </c>
       <c r="AK55" s="101">
@@ -25454,67 +25498,67 @@
       </c>
       <c r="AL55" s="101"/>
       <c r="AM55" s="101"/>
-      <c r="AN55" s="15">
-        <v>2</v>
-      </c>
-      <c r="AO55" s="15">
-        <v>2</v>
-      </c>
-      <c r="AP55" s="15"/>
+      <c r="AN55" s="164">
+        <v>2</v>
+      </c>
+      <c r="AO55" s="164">
+        <v>2</v>
+      </c>
+      <c r="AP55" s="164"/>
       <c r="AQ55" s="101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR55" s="101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS55" s="101">
         <v>2</v>
       </c>
       <c r="AT55" s="101"/>
-      <c r="AU55" s="15">
+      <c r="AU55" s="164">
         <v>2</v>
       </c>
       <c r="AV55" s="101">
         <v>2</v>
       </c>
-      <c r="AW55" s="15">
-        <v>2</v>
-      </c>
-      <c r="AX55" s="15"/>
-      <c r="AY55" s="15">
-        <v>2</v>
+      <c r="AW55" s="164">
+        <v>2</v>
+      </c>
+      <c r="AX55" s="164"/>
+      <c r="AY55" s="164">
+        <v>4</v>
       </c>
       <c r="AZ55" s="101">
         <v>2</v>
       </c>
-      <c r="BA55" s="15">
+      <c r="BA55" s="164">
         <v>2</v>
       </c>
       <c r="BB55" s="101"/>
       <c r="BC55" s="101">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BD55" s="101"/>
       <c r="BE55" s="101"/>
-      <c r="BF55" s="15"/>
-      <c r="BG55" s="15"/>
+      <c r="BF55" s="164"/>
+      <c r="BG55" s="164"/>
       <c r="BH55" s="152"/>
       <c r="BI55" s="152"/>
       <c r="BJ55" s="152"/>
-      <c r="BK55" s="152"/>
+      <c r="BK55" s="1"/>
       <c r="BL55" s="152"/>
-      <c r="BM55" s="152"/>
-      <c r="BN55" s="152"/>
-      <c r="BO55" s="152"/>
-      <c r="BP55" s="152"/>
-      <c r="BQ55" s="152"/>
-      <c r="BR55" s="152"/>
-      <c r="BS55" s="152"/>
+      <c r="BM55" s="1"/>
+      <c r="BN55" s="1"/>
+      <c r="BO55" s="1"/>
+      <c r="BP55" s="1"/>
+      <c r="BQ55" s="1"/>
+      <c r="BR55" s="1"/>
+      <c r="BS55" s="1"/>
       <c r="BT55" s="131">
-        <v>36.32</v>
+        <v>38.03</v>
       </c>
       <c r="BU55" s="126">
-        <v>5.7330376940133032</v>
+        <v>6.0363636363636362</v>
       </c>
     </row>
     <row r="56" spans="1:73" ht="15" customHeight="1">
@@ -25522,53 +25566,49 @@
         <v>7</v>
       </c>
       <c r="B56" s="103">
-        <v>11405115</v>
+        <v>11405215</v>
       </c>
       <c r="C56" s="84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D56" s="126" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="E56" s="126" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="F56" s="126" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="G56" s="39">
         <v>3.35</v>
       </c>
       <c r="H56" s="69">
-        <v>3.05</v>
+        <v>2.97</v>
       </c>
       <c r="I56" s="69">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="J56" s="69"/>
       <c r="K56" s="41"/>
       <c r="L56" s="41"/>
       <c r="M56" s="70"/>
-      <c r="N56" s="25">
-        <v>4</v>
-      </c>
-      <c r="O56" s="154">
-        <v>42679</v>
-      </c>
-      <c r="P56" s="18"/>
-      <c r="Q56" s="18"/>
+      <c r="N56" s="51"/>
+      <c r="O56" s="154"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21"/>
       <c r="R56" s="154"/>
-      <c r="S56" s="18"/>
-      <c r="T56" s="18"/>
+      <c r="S56" s="21"/>
+      <c r="T56" s="21"/>
       <c r="U56" s="154"/>
-      <c r="V56" s="18"/>
-      <c r="W56" s="18"/>
+      <c r="V56" s="21"/>
+      <c r="W56" s="21"/>
       <c r="X56" s="154"/>
-      <c r="Y56" s="18"/>
-      <c r="Z56" s="18"/>
+      <c r="Y56" s="21"/>
+      <c r="Z56" s="21"/>
       <c r="AA56" s="154"/>
-      <c r="AB56" s="18"/>
-      <c r="AC56" s="18"/>
+      <c r="AB56" s="21"/>
+      <c r="AC56" s="21"/>
       <c r="AD56" s="154"/>
       <c r="AE56" s="18"/>
       <c r="AF56" s="18"/>
@@ -25590,8 +25630,8 @@
         <v>2</v>
       </c>
       <c r="AP56" s="138"/>
-      <c r="AQ56" s="101" t="s">
-        <v>125</v>
+      <c r="AQ56" s="101">
+        <v>2</v>
       </c>
       <c r="AR56" s="101">
         <v>2</v>
@@ -25640,10 +25680,10 @@
       <c r="BR56" s="162"/>
       <c r="BS56" s="162"/>
       <c r="BT56" s="131">
-        <v>36.29</v>
+        <v>36.32</v>
       </c>
       <c r="BU56" s="126">
-        <v>5.7277161862527715</v>
+        <v>5.7330376940133032</v>
       </c>
     </row>
     <row r="57" spans="1:73" ht="15" customHeight="1">
@@ -25926,29 +25966,29 @@
       <c r="K59" s="41"/>
       <c r="L59" s="41"/>
       <c r="M59" s="70"/>
-      <c r="N59" s="51"/>
+      <c r="N59" s="25"/>
       <c r="O59" s="154"/>
-      <c r="P59" s="21"/>
-      <c r="Q59" s="21"/>
+      <c r="P59" s="18"/>
+      <c r="Q59" s="18"/>
       <c r="R59" s="154"/>
-      <c r="S59" s="21"/>
-      <c r="T59" s="21"/>
+      <c r="S59" s="18"/>
+      <c r="T59" s="18"/>
       <c r="U59" s="154"/>
-      <c r="V59" s="21"/>
-      <c r="W59" s="21"/>
+      <c r="V59" s="18"/>
+      <c r="W59" s="18"/>
       <c r="X59" s="154"/>
-      <c r="Y59" s="21"/>
-      <c r="Z59" s="21"/>
+      <c r="Y59" s="18"/>
+      <c r="Z59" s="18"/>
       <c r="AA59" s="154"/>
-      <c r="AB59" s="21"/>
-      <c r="AC59" s="21"/>
+      <c r="AB59" s="18"/>
+      <c r="AC59" s="18"/>
       <c r="AD59" s="154"/>
       <c r="AE59" s="18"/>
       <c r="AF59" s="18"/>
       <c r="AG59" s="154"/>
       <c r="AH59" s="19"/>
       <c r="AI59" s="34"/>
-      <c r="AJ59" s="17">
+      <c r="AJ59" s="12">
         <v>2</v>
       </c>
       <c r="AK59" s="101">
@@ -26044,29 +26084,29 @@
       <c r="H60" s="69">
         <v>2.35</v>
       </c>
-      <c r="I60" s="69">
-        <v>0</v>
-      </c>
-      <c r="J60" s="69"/>
-      <c r="K60" s="41"/>
-      <c r="L60" s="41"/>
-      <c r="M60" s="70"/>
-      <c r="N60" s="51"/>
+      <c r="I60" s="74">
+        <v>0</v>
+      </c>
+      <c r="J60" s="71"/>
+      <c r="K60" s="72"/>
+      <c r="L60" s="72"/>
+      <c r="M60" s="73"/>
+      <c r="N60" s="25"/>
       <c r="O60" s="154"/>
-      <c r="P60" s="21"/>
-      <c r="Q60" s="21"/>
+      <c r="P60" s="18"/>
+      <c r="Q60" s="18"/>
       <c r="R60" s="154"/>
-      <c r="S60" s="21"/>
-      <c r="T60" s="21"/>
+      <c r="S60" s="18"/>
+      <c r="T60" s="18"/>
       <c r="U60" s="154"/>
-      <c r="V60" s="21"/>
-      <c r="W60" s="21"/>
+      <c r="V60" s="18"/>
+      <c r="W60" s="18"/>
       <c r="X60" s="154"/>
-      <c r="Y60" s="21"/>
-      <c r="Z60" s="21"/>
+      <c r="Y60" s="18"/>
+      <c r="Z60" s="18"/>
       <c r="AA60" s="154"/>
-      <c r="AB60" s="21"/>
-      <c r="AC60" s="21"/>
+      <c r="AB60" s="18"/>
+      <c r="AC60" s="18"/>
       <c r="AD60" s="154"/>
       <c r="AE60" s="18"/>
       <c r="AF60" s="18"/>
@@ -26081,13 +26121,13 @@
       </c>
       <c r="AL60" s="101"/>
       <c r="AM60" s="101"/>
-      <c r="AN60" s="142">
-        <v>2</v>
-      </c>
-      <c r="AO60" s="142">
-        <v>2</v>
-      </c>
-      <c r="AP60" s="142"/>
+      <c r="AN60" s="15">
+        <v>2</v>
+      </c>
+      <c r="AO60" s="15">
+        <v>2</v>
+      </c>
+      <c r="AP60" s="15"/>
       <c r="AQ60" s="101">
         <v>2</v>
       </c>
@@ -26098,23 +26138,23 @@
         <v>2</v>
       </c>
       <c r="AT60" s="101"/>
-      <c r="AU60" s="142">
+      <c r="AU60" s="15">
         <v>2</v>
       </c>
       <c r="AV60" s="101">
         <v>2</v>
       </c>
-      <c r="AW60" s="142">
-        <v>2</v>
-      </c>
-      <c r="AX60" s="142"/>
-      <c r="AY60" s="142">
+      <c r="AW60" s="15">
+        <v>2</v>
+      </c>
+      <c r="AX60" s="15"/>
+      <c r="AY60" s="15">
         <v>2</v>
       </c>
       <c r="AZ60" s="101">
         <v>2</v>
       </c>
-      <c r="BA60" s="142">
+      <c r="BA60" s="15">
         <v>2</v>
       </c>
       <c r="BB60" s="101"/>
@@ -26123,13 +26163,13 @@
       </c>
       <c r="BD60" s="101"/>
       <c r="BE60" s="101"/>
-      <c r="BF60" s="142"/>
-      <c r="BG60" s="142"/>
-      <c r="BH60" s="142"/>
-      <c r="BI60" s="142"/>
-      <c r="BJ60" s="142"/>
+      <c r="BF60" s="15"/>
+      <c r="BG60" s="15"/>
+      <c r="BH60" s="15"/>
+      <c r="BI60" s="15"/>
+      <c r="BJ60" s="15"/>
       <c r="BK60" s="152"/>
-      <c r="BL60" s="142"/>
+      <c r="BL60" s="15"/>
       <c r="BM60" s="152"/>
       <c r="BN60" s="152"/>
       <c r="BO60" s="152"/>
@@ -26294,13 +26334,13 @@
       <c r="H62" s="69">
         <v>2.89</v>
       </c>
-      <c r="I62" s="69">
+      <c r="I62" s="74">
         <v>0.21</v>
       </c>
-      <c r="J62" s="69"/>
-      <c r="K62" s="41"/>
-      <c r="L62" s="41"/>
-      <c r="M62" s="70"/>
+      <c r="J62" s="71"/>
+      <c r="K62" s="72"/>
+      <c r="L62" s="72"/>
+      <c r="M62" s="73"/>
       <c r="N62" s="51"/>
       <c r="O62" s="154"/>
       <c r="P62" s="21"/>
@@ -26318,10 +26358,10 @@
       <c r="AB62" s="21"/>
       <c r="AC62" s="21"/>
       <c r="AD62" s="154"/>
-      <c r="AE62" s="18"/>
-      <c r="AF62" s="18"/>
+      <c r="AE62" s="21"/>
+      <c r="AF62" s="21"/>
       <c r="AG62" s="154"/>
-      <c r="AH62" s="19"/>
+      <c r="AH62" s="20"/>
       <c r="AI62" s="34"/>
       <c r="AJ62" s="17">
         <v>2</v>
@@ -26331,11 +26371,11 @@
       </c>
       <c r="AL62" s="101"/>
       <c r="AM62" s="101"/>
-      <c r="AN62" s="155"/>
-      <c r="AO62" s="155">
-        <v>2</v>
-      </c>
-      <c r="AP62" s="155">
+      <c r="AN62" s="15"/>
+      <c r="AO62" s="15">
+        <v>2</v>
+      </c>
+      <c r="AP62" s="15">
         <v>2</v>
       </c>
       <c r="AQ62" s="101">
@@ -26348,21 +26388,21 @@
       <c r="AT62" s="101">
         <v>2</v>
       </c>
-      <c r="AU62" s="155">
+      <c r="AU62" s="15">
         <v>2</v>
       </c>
       <c r="AV62" s="101"/>
-      <c r="AW62" s="155">
-        <v>2</v>
-      </c>
-      <c r="AX62" s="155">
-        <v>2</v>
-      </c>
-      <c r="AY62" s="155">
+      <c r="AW62" s="15">
+        <v>2</v>
+      </c>
+      <c r="AX62" s="15">
+        <v>2</v>
+      </c>
+      <c r="AY62" s="15">
         <v>2</v>
       </c>
       <c r="AZ62" s="101"/>
-      <c r="BA62" s="155">
+      <c r="BA62" s="15">
         <v>2</v>
       </c>
       <c r="BB62" s="101"/>
@@ -26371,13 +26411,13 @@
       </c>
       <c r="BD62" s="101"/>
       <c r="BE62" s="101"/>
-      <c r="BF62" s="155"/>
-      <c r="BG62" s="155"/>
-      <c r="BH62" s="155"/>
-      <c r="BI62" s="155"/>
-      <c r="BJ62" s="155"/>
+      <c r="BF62" s="15"/>
+      <c r="BG62" s="15"/>
+      <c r="BH62" s="15"/>
+      <c r="BI62" s="15"/>
+      <c r="BJ62" s="15"/>
       <c r="BK62" s="163"/>
-      <c r="BL62" s="155"/>
+      <c r="BL62" s="15"/>
       <c r="BM62" s="163"/>
       <c r="BN62" s="163"/>
       <c r="BO62" s="163"/>
@@ -26549,29 +26589,29 @@
       <c r="K64" s="41"/>
       <c r="L64" s="41"/>
       <c r="M64" s="70"/>
-      <c r="N64" s="51"/>
+      <c r="N64" s="25"/>
       <c r="O64" s="154"/>
-      <c r="P64" s="21"/>
-      <c r="Q64" s="21"/>
+      <c r="P64" s="18"/>
+      <c r="Q64" s="18"/>
       <c r="R64" s="154"/>
-      <c r="S64" s="21"/>
-      <c r="T64" s="21"/>
+      <c r="S64" s="18"/>
+      <c r="T64" s="18"/>
       <c r="U64" s="154"/>
-      <c r="V64" s="21"/>
-      <c r="W64" s="21"/>
+      <c r="V64" s="18"/>
+      <c r="W64" s="18"/>
       <c r="X64" s="154"/>
-      <c r="Y64" s="21"/>
-      <c r="Z64" s="21"/>
+      <c r="Y64" s="18"/>
+      <c r="Z64" s="18"/>
       <c r="AA64" s="154"/>
-      <c r="AB64" s="21"/>
-      <c r="AC64" s="21"/>
+      <c r="AB64" s="18"/>
+      <c r="AC64" s="18"/>
       <c r="AD64" s="154"/>
       <c r="AE64" s="18"/>
       <c r="AF64" s="18"/>
       <c r="AG64" s="154"/>
       <c r="AH64" s="19"/>
       <c r="AI64" s="34"/>
-      <c r="AJ64" s="17">
+      <c r="AJ64" s="12">
         <v>2</v>
       </c>
       <c r="AK64" s="101">
@@ -26624,15 +26664,15 @@
       <c r="BH64" s="130"/>
       <c r="BI64" s="130"/>
       <c r="BJ64" s="130"/>
-      <c r="BK64" s="163"/>
+      <c r="BK64" s="1"/>
       <c r="BL64" s="130"/>
-      <c r="BM64" s="163"/>
-      <c r="BN64" s="163"/>
-      <c r="BO64" s="163"/>
-      <c r="BP64" s="163"/>
-      <c r="BQ64" s="163"/>
-      <c r="BR64" s="163"/>
-      <c r="BS64" s="163"/>
+      <c r="BM64" s="1"/>
+      <c r="BN64" s="1"/>
+      <c r="BO64" s="1"/>
+      <c r="BP64" s="1"/>
+      <c r="BQ64" s="1"/>
+      <c r="BR64" s="1"/>
+      <c r="BS64" s="1"/>
       <c r="BT64" s="131">
         <v>32.51</v>
       </c>
@@ -26672,29 +26712,29 @@
       <c r="K65" s="41"/>
       <c r="L65" s="41"/>
       <c r="M65" s="70"/>
-      <c r="N65" s="51"/>
+      <c r="N65" s="25"/>
       <c r="O65" s="154"/>
-      <c r="P65" s="21"/>
-      <c r="Q65" s="21"/>
+      <c r="P65" s="18"/>
+      <c r="Q65" s="18"/>
       <c r="R65" s="154"/>
-      <c r="S65" s="21"/>
-      <c r="T65" s="21"/>
+      <c r="S65" s="18"/>
+      <c r="T65" s="18"/>
       <c r="U65" s="154"/>
-      <c r="V65" s="21"/>
-      <c r="W65" s="21"/>
+      <c r="V65" s="18"/>
+      <c r="W65" s="18"/>
       <c r="X65" s="154"/>
-      <c r="Y65" s="21"/>
-      <c r="Z65" s="21"/>
+      <c r="Y65" s="18"/>
+      <c r="Z65" s="18"/>
       <c r="AA65" s="154"/>
-      <c r="AB65" s="21"/>
-      <c r="AC65" s="21"/>
+      <c r="AB65" s="18"/>
+      <c r="AC65" s="18"/>
       <c r="AD65" s="154"/>
       <c r="AE65" s="18"/>
       <c r="AF65" s="18"/>
       <c r="AG65" s="154"/>
       <c r="AH65" s="19"/>
       <c r="AI65" s="34"/>
-      <c r="AJ65" s="17" t="s">
+      <c r="AJ65" s="12" t="s">
         <v>125</v>
       </c>
       <c r="AK65" s="101" t="s">
@@ -26749,15 +26789,15 @@
       <c r="BH65" s="101"/>
       <c r="BI65" s="101"/>
       <c r="BJ65" s="101"/>
-      <c r="BK65" s="155"/>
+      <c r="BK65" s="1"/>
       <c r="BL65" s="101"/>
-      <c r="BM65" s="155"/>
-      <c r="BN65" s="155"/>
-      <c r="BO65" s="155"/>
-      <c r="BP65" s="155"/>
-      <c r="BQ65" s="155"/>
-      <c r="BR65" s="155"/>
-      <c r="BS65" s="155"/>
+      <c r="BM65" s="1"/>
+      <c r="BN65" s="1"/>
+      <c r="BO65" s="1"/>
+      <c r="BP65" s="1"/>
+      <c r="BQ65" s="1"/>
+      <c r="BR65" s="1"/>
+      <c r="BS65" s="1"/>
       <c r="BT65" s="131">
         <v>32.4</v>
       </c>
@@ -26797,22 +26837,22 @@
       <c r="K66" s="41"/>
       <c r="L66" s="41"/>
       <c r="M66" s="70"/>
-      <c r="N66" s="51"/>
+      <c r="N66" s="25"/>
       <c r="O66" s="154"/>
-      <c r="P66" s="21"/>
-      <c r="Q66" s="21"/>
+      <c r="P66" s="18"/>
+      <c r="Q66" s="18"/>
       <c r="R66" s="154"/>
-      <c r="S66" s="21"/>
-      <c r="T66" s="21"/>
+      <c r="S66" s="18"/>
+      <c r="T66" s="18"/>
       <c r="U66" s="154"/>
-      <c r="V66" s="21"/>
-      <c r="W66" s="21"/>
+      <c r="V66" s="18"/>
+      <c r="W66" s="18"/>
       <c r="X66" s="154"/>
-      <c r="Y66" s="21"/>
-      <c r="Z66" s="21"/>
+      <c r="Y66" s="18"/>
+      <c r="Z66" s="18"/>
       <c r="AA66" s="154"/>
-      <c r="AB66" s="21"/>
-      <c r="AC66" s="21"/>
+      <c r="AB66" s="18"/>
+      <c r="AC66" s="18"/>
       <c r="AD66" s="154"/>
       <c r="AE66" s="18"/>
       <c r="AF66" s="18"/>
@@ -26874,15 +26914,15 @@
       <c r="BH66" s="163"/>
       <c r="BI66" s="163"/>
       <c r="BJ66" s="163"/>
-      <c r="BK66" s="152"/>
+      <c r="BK66" s="1"/>
       <c r="BL66" s="163"/>
-      <c r="BM66" s="152"/>
-      <c r="BN66" s="152"/>
-      <c r="BO66" s="152"/>
-      <c r="BP66" s="152"/>
-      <c r="BQ66" s="152"/>
-      <c r="BR66" s="152"/>
-      <c r="BS66" s="152"/>
+      <c r="BM66" s="1"/>
+      <c r="BN66" s="1"/>
+      <c r="BO66" s="1"/>
+      <c r="BP66" s="1"/>
+      <c r="BQ66" s="1"/>
+      <c r="BR66" s="1"/>
+      <c r="BS66" s="1"/>
       <c r="BT66" s="131">
         <v>31.84</v>
       </c>
@@ -26922,29 +26962,29 @@
       <c r="K67" s="41"/>
       <c r="L67" s="41"/>
       <c r="M67" s="70"/>
-      <c r="N67" s="25"/>
+      <c r="N67" s="51"/>
       <c r="O67" s="154"/>
-      <c r="P67" s="18"/>
-      <c r="Q67" s="18"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="21"/>
       <c r="R67" s="154"/>
-      <c r="S67" s="18"/>
-      <c r="T67" s="18"/>
+      <c r="S67" s="21"/>
+      <c r="T67" s="21"/>
       <c r="U67" s="154"/>
-      <c r="V67" s="18"/>
-      <c r="W67" s="18"/>
+      <c r="V67" s="21"/>
+      <c r="W67" s="21"/>
       <c r="X67" s="154"/>
-      <c r="Y67" s="18"/>
-      <c r="Z67" s="18"/>
+      <c r="Y67" s="21"/>
+      <c r="Z67" s="21"/>
       <c r="AA67" s="154"/>
-      <c r="AB67" s="18"/>
-      <c r="AC67" s="18"/>
+      <c r="AB67" s="21"/>
+      <c r="AC67" s="21"/>
       <c r="AD67" s="154"/>
       <c r="AE67" s="18"/>
       <c r="AF67" s="18"/>
       <c r="AG67" s="154"/>
       <c r="AH67" s="19"/>
       <c r="AI67" s="34"/>
-      <c r="AJ67" s="17">
+      <c r="AJ67" s="12">
         <v>2</v>
       </c>
       <c r="AK67" s="101">
@@ -26997,15 +27037,15 @@
       <c r="BH67" s="146"/>
       <c r="BI67" s="146"/>
       <c r="BJ67" s="146"/>
-      <c r="BK67" s="1"/>
+      <c r="BK67" s="164"/>
       <c r="BL67" s="146"/>
-      <c r="BM67" s="1"/>
-      <c r="BN67" s="1"/>
-      <c r="BO67" s="1"/>
-      <c r="BP67" s="1"/>
-      <c r="BQ67" s="1"/>
-      <c r="BR67" s="1"/>
-      <c r="BS67" s="1"/>
+      <c r="BM67" s="164"/>
+      <c r="BN67" s="164"/>
+      <c r="BO67" s="164"/>
+      <c r="BP67" s="164"/>
+      <c r="BQ67" s="164"/>
+      <c r="BR67" s="164"/>
+      <c r="BS67" s="164"/>
       <c r="BT67" s="131">
         <v>31.78</v>
       </c>
@@ -27041,10 +27081,10 @@
       <c r="I68" s="69">
         <v>0</v>
       </c>
-      <c r="J68" s="71"/>
-      <c r="K68" s="72"/>
-      <c r="L68" s="72"/>
-      <c r="M68" s="73"/>
+      <c r="J68" s="69"/>
+      <c r="K68" s="41"/>
+      <c r="L68" s="41"/>
+      <c r="M68" s="70"/>
       <c r="N68" s="51"/>
       <c r="O68" s="154"/>
       <c r="P68" s="21"/>
@@ -27062,10 +27102,10 @@
       <c r="AB68" s="21"/>
       <c r="AC68" s="21"/>
       <c r="AD68" s="154"/>
-      <c r="AE68" s="21"/>
-      <c r="AF68" s="21"/>
+      <c r="AE68" s="18"/>
+      <c r="AF68" s="18"/>
       <c r="AG68" s="154"/>
-      <c r="AH68" s="20"/>
+      <c r="AH68" s="19"/>
       <c r="AI68" s="34"/>
       <c r="AJ68" s="17">
         <v>2</v>
@@ -27075,11 +27115,11 @@
       </c>
       <c r="AL68" s="101"/>
       <c r="AM68" s="101"/>
-      <c r="AN68" s="15"/>
-      <c r="AO68" s="15" t="s">
+      <c r="AN68" s="164"/>
+      <c r="AO68" s="164" t="s">
         <v>125</v>
       </c>
-      <c r="AP68" s="15">
+      <c r="AP68" s="164">
         <v>2</v>
       </c>
       <c r="AQ68" s="101">
@@ -27092,21 +27132,21 @@
       <c r="AT68" s="101">
         <v>2</v>
       </c>
-      <c r="AU68" s="15">
+      <c r="AU68" s="164">
         <v>2</v>
       </c>
       <c r="AV68" s="101"/>
-      <c r="AW68" s="15">
+      <c r="AW68" s="164">
         <v>6</v>
       </c>
-      <c r="AX68" s="15">
-        <v>2</v>
-      </c>
-      <c r="AY68" s="15">
+      <c r="AX68" s="164">
+        <v>2</v>
+      </c>
+      <c r="AY68" s="164">
         <v>2</v>
       </c>
       <c r="AZ68" s="101"/>
-      <c r="BA68" s="15" t="s">
+      <c r="BA68" s="164" t="s">
         <v>125</v>
       </c>
       <c r="BB68" s="101">
@@ -27117,13 +27157,13 @@
       </c>
       <c r="BD68" s="101"/>
       <c r="BE68" s="101"/>
-      <c r="BF68" s="15"/>
-      <c r="BG68" s="15"/>
-      <c r="BH68" s="15"/>
-      <c r="BI68" s="15"/>
-      <c r="BJ68" s="15"/>
+      <c r="BF68" s="164"/>
+      <c r="BG68" s="164"/>
+      <c r="BH68" s="164"/>
+      <c r="BI68" s="164"/>
+      <c r="BJ68" s="164"/>
       <c r="BK68" s="163"/>
-      <c r="BL68" s="15"/>
+      <c r="BL68" s="164"/>
       <c r="BM68" s="163"/>
       <c r="BN68" s="163"/>
       <c r="BO68" s="163"/>
@@ -27245,15 +27285,15 @@
       <c r="BH69" s="163"/>
       <c r="BI69" s="163"/>
       <c r="BJ69" s="163"/>
-      <c r="BK69" s="155"/>
+      <c r="BK69" s="1"/>
       <c r="BL69" s="163"/>
-      <c r="BM69" s="155"/>
-      <c r="BN69" s="155"/>
-      <c r="BO69" s="155"/>
-      <c r="BP69" s="155"/>
-      <c r="BQ69" s="155"/>
-      <c r="BR69" s="155"/>
-      <c r="BS69" s="155"/>
+      <c r="BM69" s="1"/>
+      <c r="BN69" s="1"/>
+      <c r="BO69" s="1"/>
+      <c r="BP69" s="1"/>
+      <c r="BQ69" s="1"/>
+      <c r="BR69" s="1"/>
+      <c r="BS69" s="1"/>
       <c r="BT69" s="131">
         <v>31.57</v>
       </c>
@@ -27315,7 +27355,7 @@
       <c r="AG70" s="154"/>
       <c r="AH70" s="19"/>
       <c r="AI70" s="34"/>
-      <c r="AJ70" s="12">
+      <c r="AJ70" s="17">
         <v>2</v>
       </c>
       <c r="AK70" s="101">
@@ -27394,19 +27434,19 @@
         <v>11405215</v>
       </c>
       <c r="C71" s="84">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" s="126" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E71" s="126" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="F71" s="126" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="G71" s="39">
-        <v>1.92</v>
+        <v>2.89</v>
       </c>
       <c r="H71" s="69">
         <v>0</v>
@@ -27418,9 +27458,15 @@
       <c r="K71" s="41"/>
       <c r="L71" s="41"/>
       <c r="M71" s="70"/>
-      <c r="N71" s="25"/>
-      <c r="O71" s="154"/>
-      <c r="P71" s="18"/>
+      <c r="N71" s="25">
+        <v>2</v>
+      </c>
+      <c r="O71" s="154">
+        <v>42679</v>
+      </c>
+      <c r="P71" s="18">
+        <v>2</v>
+      </c>
       <c r="Q71" s="18"/>
       <c r="R71" s="154"/>
       <c r="S71" s="18"/>
@@ -27448,41 +27494,39 @@
       </c>
       <c r="AL71" s="101"/>
       <c r="AM71" s="101"/>
-      <c r="AN71" s="145">
-        <v>2</v>
-      </c>
+      <c r="AN71" s="145"/>
       <c r="AO71" s="145">
         <v>2</v>
       </c>
-      <c r="AP71" s="145"/>
+      <c r="AP71" s="145">
+        <v>2</v>
+      </c>
       <c r="AQ71" s="101">
         <v>2</v>
       </c>
-      <c r="AR71" s="101">
-        <v>2</v>
-      </c>
+      <c r="AR71" s="101"/>
       <c r="AS71" s="101">
         <v>2</v>
       </c>
-      <c r="AT71" s="101"/>
+      <c r="AT71" s="101">
+        <v>2</v>
+      </c>
       <c r="AU71" s="145">
-        <v>1</v>
-      </c>
-      <c r="AV71" s="101">
-        <v>2</v>
-      </c>
-      <c r="AW71" s="145">
-        <v>1</v>
-      </c>
-      <c r="AX71" s="145"/>
+        <v>2</v>
+      </c>
+      <c r="AV71" s="101"/>
+      <c r="AW71" s="145" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX71" s="145">
+        <v>2</v>
+      </c>
       <c r="AY71" s="145">
         <v>2</v>
       </c>
-      <c r="AZ71" s="101">
-        <v>2</v>
-      </c>
+      <c r="AZ71" s="101"/>
       <c r="BA71" s="145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB71" s="101"/>
       <c r="BC71" s="101">
@@ -27495,20 +27539,20 @@
       <c r="BH71" s="145"/>
       <c r="BI71" s="145"/>
       <c r="BJ71" s="145"/>
-      <c r="BK71" s="1"/>
+      <c r="BK71" s="164"/>
       <c r="BL71" s="145"/>
-      <c r="BM71" s="1"/>
-      <c r="BN71" s="1"/>
-      <c r="BO71" s="1"/>
-      <c r="BP71" s="1"/>
-      <c r="BQ71" s="1"/>
-      <c r="BR71" s="1"/>
-      <c r="BS71" s="1"/>
+      <c r="BM71" s="164"/>
+      <c r="BN71" s="164"/>
+      <c r="BO71" s="164"/>
+      <c r="BP71" s="164"/>
+      <c r="BQ71" s="164"/>
+      <c r="BR71" s="164"/>
+      <c r="BS71" s="164"/>
       <c r="BT71" s="131">
-        <v>28.92</v>
+        <v>30.89</v>
       </c>
       <c r="BU71" s="126">
-        <v>4.4203991130820404</v>
+        <v>4.7698447893569842</v>
       </c>
     </row>
     <row r="72" spans="1:73" ht="15" customHeight="1">
@@ -27519,22 +27563,22 @@
         <v>11405215</v>
       </c>
       <c r="C72" s="84">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" s="126" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="E72" s="126" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="F72" s="126" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="G72" s="39">
-        <v>2.89</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H72" s="69">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="I72" s="69">
         <v>0</v>
@@ -27543,29 +27587,41 @@
       <c r="K72" s="41"/>
       <c r="L72" s="41"/>
       <c r="M72" s="70"/>
-      <c r="N72" s="51"/>
-      <c r="O72" s="154"/>
-      <c r="P72" s="21"/>
-      <c r="Q72" s="21"/>
-      <c r="R72" s="154"/>
-      <c r="S72" s="21"/>
-      <c r="T72" s="21"/>
+      <c r="N72" s="25">
+        <v>2</v>
+      </c>
+      <c r="O72" s="154">
+        <v>42679</v>
+      </c>
+      <c r="P72" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q72" s="18">
+        <v>4</v>
+      </c>
+      <c r="R72" s="154">
+        <v>42679</v>
+      </c>
+      <c r="S72" s="18">
+        <v>4</v>
+      </c>
+      <c r="T72" s="18"/>
       <c r="U72" s="154"/>
-      <c r="V72" s="21"/>
-      <c r="W72" s="21"/>
+      <c r="V72" s="18"/>
+      <c r="W72" s="18"/>
       <c r="X72" s="154"/>
-      <c r="Y72" s="21"/>
-      <c r="Z72" s="21"/>
+      <c r="Y72" s="18"/>
+      <c r="Z72" s="18"/>
       <c r="AA72" s="154"/>
-      <c r="AB72" s="21"/>
-      <c r="AC72" s="21"/>
+      <c r="AB72" s="18"/>
+      <c r="AC72" s="18"/>
       <c r="AD72" s="154"/>
       <c r="AE72" s="18"/>
       <c r="AF72" s="18"/>
       <c r="AG72" s="154"/>
       <c r="AH72" s="19"/>
       <c r="AI72" s="34"/>
-      <c r="AJ72" s="17">
+      <c r="AJ72" s="12">
         <v>2</v>
       </c>
       <c r="AK72" s="101">
@@ -27573,39 +27629,41 @@
       </c>
       <c r="AL72" s="101"/>
       <c r="AM72" s="101"/>
-      <c r="AN72" s="155"/>
+      <c r="AN72" s="155">
+        <v>2</v>
+      </c>
       <c r="AO72" s="155">
         <v>2</v>
       </c>
-      <c r="AP72" s="155">
-        <v>2</v>
-      </c>
-      <c r="AQ72" s="101">
-        <v>2</v>
-      </c>
-      <c r="AR72" s="101"/>
-      <c r="AS72" s="101">
-        <v>2</v>
-      </c>
-      <c r="AT72" s="101">
-        <v>2</v>
-      </c>
-      <c r="AU72" s="155">
-        <v>2</v>
-      </c>
-      <c r="AV72" s="101"/>
-      <c r="AW72" s="155" t="s">
+      <c r="AP72" s="155"/>
+      <c r="AQ72" s="101" t="s">
         <v>125</v>
       </c>
-      <c r="AX72" s="155">
-        <v>2</v>
-      </c>
+      <c r="AR72" s="101" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS72" s="101" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT72" s="101"/>
+      <c r="AU72" s="155" t="s">
+        <v>125</v>
+      </c>
+      <c r="AV72" s="101">
+        <v>2</v>
+      </c>
+      <c r="AW72" s="155">
+        <v>2</v>
+      </c>
+      <c r="AX72" s="155"/>
       <c r="AY72" s="155">
         <v>2</v>
       </c>
-      <c r="AZ72" s="101"/>
-      <c r="BA72" s="155">
-        <v>2</v>
+      <c r="AZ72" s="101">
+        <v>2</v>
+      </c>
+      <c r="BA72" s="155" t="s">
+        <v>125</v>
       </c>
       <c r="BB72" s="101"/>
       <c r="BC72" s="101">
@@ -27628,10 +27686,10 @@
       <c r="BR72" s="163"/>
       <c r="BS72" s="163"/>
       <c r="BT72" s="131">
-        <v>28.89</v>
+        <v>30.84</v>
       </c>
       <c r="BU72" s="126">
-        <v>4.4150776053215077</v>
+        <v>4.7609756097560973</v>
       </c>
     </row>
     <row r="73" spans="1:73" ht="15" customHeight="1">
@@ -27639,25 +27697,25 @@
         <v>24</v>
       </c>
       <c r="B73" s="103">
-        <v>11405115</v>
+        <v>11405215</v>
       </c>
       <c r="C73" s="84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" s="126" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E73" s="126" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="F73" s="126" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G73" s="39">
-        <v>1.46</v>
+        <v>1.92</v>
       </c>
       <c r="H73" s="69">
-        <v>2.2799999999999998</v>
+        <v>0</v>
       </c>
       <c r="I73" s="69">
         <v>0</v>
@@ -27696,43 +27754,43 @@
       </c>
       <c r="AL73" s="101"/>
       <c r="AM73" s="101"/>
-      <c r="AN73" s="140"/>
+      <c r="AN73" s="140">
+        <v>2</v>
+      </c>
       <c r="AO73" s="140">
         <v>2</v>
       </c>
-      <c r="AP73" s="140" t="s">
-        <v>125</v>
-      </c>
-      <c r="AQ73" s="101" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR73" s="101"/>
+      <c r="AP73" s="140"/>
+      <c r="AQ73" s="101">
+        <v>2</v>
+      </c>
+      <c r="AR73" s="101">
+        <v>2</v>
+      </c>
       <c r="AS73" s="101">
         <v>2</v>
       </c>
-      <c r="AT73" s="101">
-        <v>2</v>
-      </c>
+      <c r="AT73" s="101"/>
       <c r="AU73" s="140">
-        <v>2</v>
-      </c>
-      <c r="AV73" s="101"/>
+        <v>1</v>
+      </c>
+      <c r="AV73" s="101">
+        <v>2</v>
+      </c>
       <c r="AW73" s="140">
-        <v>2</v>
-      </c>
-      <c r="AX73" s="140" t="s">
-        <v>125</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AX73" s="140"/>
       <c r="AY73" s="140">
         <v>2</v>
       </c>
-      <c r="AZ73" s="101"/>
+      <c r="AZ73" s="101">
+        <v>2</v>
+      </c>
       <c r="BA73" s="140">
-        <v>2</v>
-      </c>
-      <c r="BB73" s="101">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="BB73" s="101"/>
       <c r="BC73" s="101">
         <v>4</v>
       </c>
@@ -27753,10 +27811,10 @@
       <c r="BR73" s="1"/>
       <c r="BS73" s="1"/>
       <c r="BT73" s="131">
-        <v>27.74</v>
+        <v>28.92</v>
       </c>
       <c r="BU73" s="126">
-        <v>4.2110864745011085</v>
+        <v>4.4203991130820404</v>
       </c>
     </row>
     <row r="74" spans="1:73" ht="15" customHeight="1">
@@ -27764,25 +27822,25 @@
         <v>25</v>
       </c>
       <c r="B74" s="103">
-        <v>11405215</v>
+        <v>11405115</v>
       </c>
       <c r="C74" s="84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" s="126" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="E74" s="126" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="F74" s="126" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G74" s="39">
-        <v>2.8</v>
+        <v>1.46</v>
       </c>
       <c r="H74" s="69">
-        <v>2.12</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="I74" s="69">
         <v>0</v>
@@ -27791,29 +27849,29 @@
       <c r="K74" s="41"/>
       <c r="L74" s="41"/>
       <c r="M74" s="70"/>
-      <c r="N74" s="25"/>
+      <c r="N74" s="51"/>
       <c r="O74" s="154"/>
-      <c r="P74" s="18"/>
-      <c r="Q74" s="18"/>
+      <c r="P74" s="21"/>
+      <c r="Q74" s="21"/>
       <c r="R74" s="154"/>
-      <c r="S74" s="18"/>
-      <c r="T74" s="18"/>
+      <c r="S74" s="21"/>
+      <c r="T74" s="21"/>
       <c r="U74" s="154"/>
-      <c r="V74" s="18"/>
-      <c r="W74" s="18"/>
+      <c r="V74" s="21"/>
+      <c r="W74" s="21"/>
       <c r="X74" s="154"/>
-      <c r="Y74" s="18"/>
-      <c r="Z74" s="18"/>
+      <c r="Y74" s="21"/>
+      <c r="Z74" s="21"/>
       <c r="AA74" s="154"/>
-      <c r="AB74" s="18"/>
-      <c r="AC74" s="18"/>
+      <c r="AB74" s="21"/>
+      <c r="AC74" s="21"/>
       <c r="AD74" s="154"/>
       <c r="AE74" s="18"/>
       <c r="AF74" s="18"/>
       <c r="AG74" s="154"/>
       <c r="AH74" s="19"/>
       <c r="AI74" s="34"/>
-      <c r="AJ74" s="12">
+      <c r="AJ74" s="17">
         <v>2</v>
       </c>
       <c r="AK74" s="101">
@@ -27821,45 +27879,45 @@
       </c>
       <c r="AL74" s="101"/>
       <c r="AM74" s="101"/>
-      <c r="AN74" s="101">
-        <v>2</v>
-      </c>
+      <c r="AN74" s="101"/>
       <c r="AO74" s="101">
         <v>2</v>
       </c>
-      <c r="AP74" s="101"/>
+      <c r="AP74" s="101" t="s">
+        <v>125</v>
+      </c>
       <c r="AQ74" s="101" t="s">
         <v>125</v>
       </c>
-      <c r="AR74" s="101">
-        <v>2</v>
-      </c>
+      <c r="AR74" s="101"/>
       <c r="AS74" s="101">
         <v>2</v>
       </c>
-      <c r="AT74" s="101"/>
-      <c r="AU74" s="101" t="s">
+      <c r="AT74" s="101">
+        <v>2</v>
+      </c>
+      <c r="AU74" s="101">
+        <v>2</v>
+      </c>
+      <c r="AV74" s="101"/>
+      <c r="AW74" s="101">
+        <v>2</v>
+      </c>
+      <c r="AX74" s="101" t="s">
         <v>125</v>
       </c>
-      <c r="AV74" s="101">
-        <v>2</v>
-      </c>
-      <c r="AW74" s="101">
-        <v>2</v>
-      </c>
-      <c r="AX74" s="101"/>
       <c r="AY74" s="101">
         <v>2</v>
       </c>
-      <c r="AZ74" s="101">
-        <v>2</v>
-      </c>
+      <c r="AZ74" s="101"/>
       <c r="BA74" s="101">
         <v>2</v>
       </c>
-      <c r="BB74" s="101"/>
-      <c r="BC74" s="101" t="s">
-        <v>125</v>
+      <c r="BB74" s="101">
+        <v>2</v>
+      </c>
+      <c r="BC74" s="101">
+        <v>4</v>
       </c>
       <c r="BD74" s="101"/>
       <c r="BE74" s="101"/>
@@ -27868,20 +27926,20 @@
       <c r="BH74" s="101"/>
       <c r="BI74" s="101"/>
       <c r="BJ74" s="101"/>
-      <c r="BK74" s="1"/>
+      <c r="BK74" s="164"/>
       <c r="BL74" s="101"/>
-      <c r="BM74" s="1"/>
-      <c r="BN74" s="1"/>
-      <c r="BO74" s="1"/>
-      <c r="BP74" s="1"/>
-      <c r="BQ74" s="1"/>
-      <c r="BR74" s="1"/>
-      <c r="BS74" s="1"/>
+      <c r="BM74" s="164"/>
+      <c r="BN74" s="164"/>
+      <c r="BO74" s="164"/>
+      <c r="BP74" s="164"/>
+      <c r="BQ74" s="164"/>
+      <c r="BR74" s="164"/>
+      <c r="BS74" s="164"/>
       <c r="BT74" s="131">
-        <v>26.92</v>
+        <v>27.74</v>
       </c>
       <c r="BU74" s="126">
-        <v>4.065631929046563</v>
+        <v>4.2110864745011085</v>
       </c>
     </row>
     <row r="75" spans="1:73" ht="15" customHeight="1">
@@ -27892,22 +27950,22 @@
         <v>11405215</v>
       </c>
       <c r="C75" s="84">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" s="126" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="E75" s="126" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="F75" s="126" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="G75" s="39">
-        <v>2.58</v>
+        <v>2.8</v>
       </c>
       <c r="H75" s="69">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="I75" s="69">
         <v>0</v>
@@ -27946,43 +28004,45 @@
       </c>
       <c r="AL75" s="101"/>
       <c r="AM75" s="101"/>
-      <c r="AN75" s="140"/>
+      <c r="AN75" s="140">
+        <v>2</v>
+      </c>
       <c r="AO75" s="140">
         <v>2</v>
       </c>
-      <c r="AP75" s="140">
-        <v>2</v>
-      </c>
-      <c r="AQ75" s="101">
-        <v>2</v>
-      </c>
-      <c r="AR75" s="101"/>
-      <c r="AS75" s="101" t="s">
+      <c r="AP75" s="140"/>
+      <c r="AQ75" s="101" t="s">
         <v>125</v>
       </c>
-      <c r="AT75" s="101">
-        <v>2</v>
-      </c>
-      <c r="AU75" s="140">
-        <v>2</v>
-      </c>
-      <c r="AV75" s="101"/>
+      <c r="AR75" s="101">
+        <v>2</v>
+      </c>
+      <c r="AS75" s="101">
+        <v>2</v>
+      </c>
+      <c r="AT75" s="101"/>
+      <c r="AU75" s="140" t="s">
+        <v>125</v>
+      </c>
+      <c r="AV75" s="101">
+        <v>2</v>
+      </c>
       <c r="AW75" s="140">
         <v>2</v>
       </c>
-      <c r="AX75" s="140" t="s">
+      <c r="AX75" s="140"/>
+      <c r="AY75" s="140">
+        <v>2</v>
+      </c>
+      <c r="AZ75" s="101">
+        <v>2</v>
+      </c>
+      <c r="BA75" s="140">
+        <v>2</v>
+      </c>
+      <c r="BB75" s="101"/>
+      <c r="BC75" s="101" t="s">
         <v>125</v>
-      </c>
-      <c r="AY75" s="140">
-        <v>2</v>
-      </c>
-      <c r="AZ75" s="101"/>
-      <c r="BA75" s="140">
-        <v>2</v>
-      </c>
-      <c r="BB75" s="101"/>
-      <c r="BC75" s="101">
-        <v>4</v>
       </c>
       <c r="BD75" s="101"/>
       <c r="BE75" s="101"/>
@@ -28001,10 +28061,10 @@
       <c r="BR75" s="145"/>
       <c r="BS75" s="145"/>
       <c r="BT75" s="131">
-        <v>26.58</v>
+        <v>26.92</v>
       </c>
       <c r="BU75" s="126">
-        <v>4.0053215077605318</v>
+        <v>4.065631929046563</v>
       </c>
     </row>
     <row r="76" spans="1:73" ht="15" customHeight="1">
@@ -28018,16 +28078,16 @@
         <v>4</v>
       </c>
       <c r="D76" s="126" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E76" s="126" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="F76" s="126" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="G76" s="39">
-        <v>3.3</v>
+        <v>2.58</v>
       </c>
       <c r="H76" s="69">
         <v>0</v>
@@ -28080,14 +28140,14 @@
         <v>2</v>
       </c>
       <c r="AR76" s="101"/>
-      <c r="AS76" s="101">
-        <v>2</v>
+      <c r="AS76" s="101" t="s">
+        <v>125</v>
       </c>
       <c r="AT76" s="101">
         <v>2</v>
       </c>
       <c r="AU76" s="163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV76" s="101"/>
       <c r="AW76" s="163">
@@ -28100,8 +28160,8 @@
         <v>2</v>
       </c>
       <c r="AZ76" s="101"/>
-      <c r="BA76" s="163" t="s">
-        <v>125</v>
+      <c r="BA76" s="163">
+        <v>2</v>
       </c>
       <c r="BB76" s="101"/>
       <c r="BC76" s="101">
@@ -28124,10 +28184,10 @@
       <c r="BR76" s="152"/>
       <c r="BS76" s="152"/>
       <c r="BT76" s="131">
-        <v>26.3</v>
+        <v>26.58</v>
       </c>
       <c r="BU76" s="126">
-        <v>3.9556541019955653</v>
+        <v>4.0053215077605318</v>
       </c>
     </row>
     <row r="77" spans="1:73" ht="15" customHeight="1">
@@ -28138,46 +28198,46 @@
         <v>11405215</v>
       </c>
       <c r="C77" s="84">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" s="126" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="E77" s="126" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="F77" s="126" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="G77" s="39">
-        <v>2.2000000000000002</v>
+        <v>3.3</v>
       </c>
       <c r="H77" s="69">
-        <v>2.64</v>
-      </c>
-      <c r="I77" s="74">
-        <v>0</v>
-      </c>
-      <c r="J77" s="71"/>
-      <c r="K77" s="72"/>
-      <c r="L77" s="72"/>
-      <c r="M77" s="73"/>
-      <c r="N77" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="I77" s="69">
+        <v>0</v>
+      </c>
+      <c r="J77" s="69"/>
+      <c r="K77" s="41"/>
+      <c r="L77" s="41"/>
+      <c r="M77" s="70"/>
+      <c r="N77" s="51"/>
       <c r="O77" s="154"/>
-      <c r="P77" s="18"/>
-      <c r="Q77" s="18"/>
+      <c r="P77" s="21"/>
+      <c r="Q77" s="21"/>
       <c r="R77" s="154"/>
-      <c r="S77" s="18"/>
-      <c r="T77" s="18"/>
+      <c r="S77" s="21"/>
+      <c r="T77" s="21"/>
       <c r="U77" s="154"/>
-      <c r="V77" s="18"/>
-      <c r="W77" s="18"/>
+      <c r="V77" s="21"/>
+      <c r="W77" s="21"/>
       <c r="X77" s="154"/>
-      <c r="Y77" s="18"/>
-      <c r="Z77" s="18"/>
+      <c r="Y77" s="21"/>
+      <c r="Z77" s="21"/>
       <c r="AA77" s="154"/>
-      <c r="AB77" s="18"/>
-      <c r="AC77" s="18"/>
+      <c r="AB77" s="21"/>
+      <c r="AC77" s="21"/>
       <c r="AD77" s="154"/>
       <c r="AE77" s="18"/>
       <c r="AF77" s="18"/>
@@ -28192,40 +28252,38 @@
       </c>
       <c r="AL77" s="101"/>
       <c r="AM77" s="101"/>
-      <c r="AN77" s="15">
-        <v>2</v>
-      </c>
-      <c r="AO77" s="15">
-        <v>2</v>
-      </c>
-      <c r="AP77" s="15"/>
-      <c r="AQ77" s="101" t="s">
+      <c r="AN77" s="164"/>
+      <c r="AO77" s="164">
+        <v>2</v>
+      </c>
+      <c r="AP77" s="164">
+        <v>2</v>
+      </c>
+      <c r="AQ77" s="101">
+        <v>2</v>
+      </c>
+      <c r="AR77" s="101"/>
+      <c r="AS77" s="101">
+        <v>2</v>
+      </c>
+      <c r="AT77" s="101">
+        <v>2</v>
+      </c>
+      <c r="AU77" s="164">
+        <v>1</v>
+      </c>
+      <c r="AV77" s="101"/>
+      <c r="AW77" s="164">
+        <v>2</v>
+      </c>
+      <c r="AX77" s="164" t="s">
         <v>125</v>
       </c>
-      <c r="AR77" s="101" t="s">
-        <v>125</v>
-      </c>
-      <c r="AS77" s="101" t="s">
-        <v>125</v>
-      </c>
-      <c r="AT77" s="101"/>
-      <c r="AU77" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="AV77" s="101">
-        <v>2</v>
-      </c>
-      <c r="AW77" s="15">
-        <v>2</v>
-      </c>
-      <c r="AX77" s="15"/>
-      <c r="AY77" s="15">
-        <v>2</v>
-      </c>
-      <c r="AZ77" s="101">
-        <v>2</v>
-      </c>
-      <c r="BA77" s="15" t="s">
+      <c r="AY77" s="164">
+        <v>2</v>
+      </c>
+      <c r="AZ77" s="101"/>
+      <c r="BA77" s="164" t="s">
         <v>125</v>
       </c>
       <c r="BB77" s="101"/>
@@ -28234,13 +28292,13 @@
       </c>
       <c r="BD77" s="101"/>
       <c r="BE77" s="101"/>
-      <c r="BF77" s="15"/>
-      <c r="BG77" s="15"/>
-      <c r="BH77" s="15"/>
-      <c r="BI77" s="15"/>
-      <c r="BJ77" s="15"/>
+      <c r="BF77" s="164"/>
+      <c r="BG77" s="164"/>
+      <c r="BH77" s="164"/>
+      <c r="BI77" s="164"/>
+      <c r="BJ77" s="164"/>
       <c r="BK77" s="152"/>
-      <c r="BL77" s="15"/>
+      <c r="BL77" s="164"/>
       <c r="BM77" s="152"/>
       <c r="BN77" s="152"/>
       <c r="BO77" s="152"/>
@@ -28249,10 +28307,10 @@
       <c r="BR77" s="152"/>
       <c r="BS77" s="152"/>
       <c r="BT77" s="131">
-        <v>24.84</v>
+        <v>26.3</v>
       </c>
       <c r="BU77" s="126">
-        <v>3.6966740576496671</v>
+        <v>3.9556541019955653</v>
       </c>
     </row>
     <row r="78" spans="1:73" ht="15" customHeight="1">
@@ -28280,36 +28338,36 @@
       <c r="H78" s="69">
         <v>1.66</v>
       </c>
-      <c r="I78" s="69">
-        <v>0</v>
-      </c>
-      <c r="J78" s="69"/>
-      <c r="K78" s="41"/>
-      <c r="L78" s="41"/>
-      <c r="M78" s="70"/>
-      <c r="N78" s="25"/>
+      <c r="I78" s="74">
+        <v>0</v>
+      </c>
+      <c r="J78" s="71"/>
+      <c r="K78" s="72"/>
+      <c r="L78" s="72"/>
+      <c r="M78" s="73"/>
+      <c r="N78" s="51"/>
       <c r="O78" s="154"/>
-      <c r="P78" s="18"/>
-      <c r="Q78" s="18"/>
+      <c r="P78" s="21"/>
+      <c r="Q78" s="21"/>
       <c r="R78" s="154"/>
-      <c r="S78" s="18"/>
-      <c r="T78" s="18"/>
+      <c r="S78" s="21"/>
+      <c r="T78" s="21"/>
       <c r="U78" s="154"/>
-      <c r="V78" s="18"/>
-      <c r="W78" s="18"/>
+      <c r="V78" s="21"/>
+      <c r="W78" s="21"/>
       <c r="X78" s="154"/>
-      <c r="Y78" s="18"/>
-      <c r="Z78" s="18"/>
+      <c r="Y78" s="21"/>
+      <c r="Z78" s="21"/>
       <c r="AA78" s="154"/>
-      <c r="AB78" s="18"/>
-      <c r="AC78" s="18"/>
+      <c r="AB78" s="21"/>
+      <c r="AC78" s="21"/>
       <c r="AD78" s="154"/>
-      <c r="AE78" s="18"/>
-      <c r="AF78" s="18"/>
+      <c r="AE78" s="21"/>
+      <c r="AF78" s="21"/>
       <c r="AG78" s="154"/>
-      <c r="AH78" s="19"/>
+      <c r="AH78" s="20"/>
       <c r="AI78" s="34"/>
-      <c r="AJ78" s="12">
+      <c r="AJ78" s="17">
         <v>2</v>
       </c>
       <c r="AK78" s="101">
@@ -28317,13 +28375,13 @@
       </c>
       <c r="AL78" s="101"/>
       <c r="AM78" s="101"/>
-      <c r="AN78" s="163">
-        <v>2</v>
-      </c>
-      <c r="AO78" s="163">
-        <v>2</v>
-      </c>
-      <c r="AP78" s="163"/>
+      <c r="AN78" s="15">
+        <v>2</v>
+      </c>
+      <c r="AO78" s="15">
+        <v>2</v>
+      </c>
+      <c r="AP78" s="15"/>
       <c r="AQ78" s="101" t="s">
         <v>125</v>
       </c>
@@ -28334,23 +28392,23 @@
         <v>2</v>
       </c>
       <c r="AT78" s="101"/>
-      <c r="AU78" s="163" t="s">
+      <c r="AU78" s="15" t="s">
         <v>125</v>
       </c>
       <c r="AV78" s="101">
         <v>2</v>
       </c>
-      <c r="AW78" s="163">
-        <v>2</v>
-      </c>
-      <c r="AX78" s="163"/>
-      <c r="AY78" s="163" t="s">
+      <c r="AW78" s="15">
+        <v>2</v>
+      </c>
+      <c r="AX78" s="15"/>
+      <c r="AY78" s="15" t="s">
         <v>125</v>
       </c>
       <c r="AZ78" s="101">
         <v>2</v>
       </c>
-      <c r="BA78" s="163">
+      <c r="BA78" s="15">
         <v>2</v>
       </c>
       <c r="BB78" s="101"/>
@@ -28359,20 +28417,20 @@
       </c>
       <c r="BD78" s="101"/>
       <c r="BE78" s="101"/>
-      <c r="BF78" s="163"/>
-      <c r="BG78" s="163"/>
+      <c r="BF78" s="15"/>
+      <c r="BG78" s="15"/>
       <c r="BH78" s="138"/>
       <c r="BI78" s="138"/>
       <c r="BJ78" s="138"/>
-      <c r="BK78" s="1"/>
+      <c r="BK78" s="164"/>
       <c r="BL78" s="138"/>
-      <c r="BM78" s="1"/>
-      <c r="BN78" s="1"/>
-      <c r="BO78" s="1"/>
-      <c r="BP78" s="1"/>
-      <c r="BQ78" s="1"/>
-      <c r="BR78" s="1"/>
-      <c r="BS78" s="1"/>
+      <c r="BM78" s="164"/>
+      <c r="BN78" s="164"/>
+      <c r="BO78" s="164"/>
+      <c r="BP78" s="164"/>
+      <c r="BQ78" s="164"/>
+      <c r="BR78" s="164"/>
+      <c r="BS78" s="164"/>
       <c r="BT78" s="131">
         <v>23.5</v>
       </c>
@@ -28405,13 +28463,13 @@
       <c r="H79" s="69">
         <v>2.72</v>
       </c>
-      <c r="I79" s="74">
-        <v>0</v>
-      </c>
-      <c r="J79" s="71"/>
-      <c r="K79" s="72"/>
-      <c r="L79" s="72"/>
-      <c r="M79" s="73"/>
+      <c r="I79" s="69">
+        <v>0</v>
+      </c>
+      <c r="J79" s="69"/>
+      <c r="K79" s="41"/>
+      <c r="L79" s="41"/>
+      <c r="M79" s="70"/>
       <c r="N79" s="51"/>
       <c r="O79" s="154"/>
       <c r="P79" s="21"/>
@@ -28429,10 +28487,10 @@
       <c r="AB79" s="21"/>
       <c r="AC79" s="21"/>
       <c r="AD79" s="154"/>
-      <c r="AE79" s="21"/>
-      <c r="AF79" s="21"/>
+      <c r="AE79" s="18"/>
+      <c r="AF79" s="18"/>
       <c r="AG79" s="154"/>
-      <c r="AH79" s="20"/>
+      <c r="AH79" s="19"/>
       <c r="AI79" s="34"/>
       <c r="AJ79" s="17">
         <v>2</v>
@@ -28442,13 +28500,13 @@
       </c>
       <c r="AL79" s="101"/>
       <c r="AM79" s="101"/>
-      <c r="AN79" s="15">
-        <v>2</v>
-      </c>
-      <c r="AO79" s="15">
-        <v>2</v>
-      </c>
-      <c r="AP79" s="15"/>
+      <c r="AN79" s="164">
+        <v>2</v>
+      </c>
+      <c r="AO79" s="164">
+        <v>2</v>
+      </c>
+      <c r="AP79" s="164"/>
       <c r="AQ79" s="101">
         <v>2</v>
       </c>
@@ -28459,23 +28517,23 @@
         <v>125</v>
       </c>
       <c r="AT79" s="101"/>
-      <c r="AU79" s="15" t="s">
+      <c r="AU79" s="164" t="s">
         <v>125</v>
       </c>
       <c r="AV79" s="101">
         <v>2</v>
       </c>
-      <c r="AW79" s="15">
-        <v>2</v>
-      </c>
-      <c r="AX79" s="15"/>
-      <c r="AY79" s="15">
+      <c r="AW79" s="164">
+        <v>2</v>
+      </c>
+      <c r="AX79" s="164"/>
+      <c r="AY79" s="164">
         <v>2</v>
       </c>
       <c r="AZ79" s="101" t="s">
         <v>125</v>
       </c>
-      <c r="BA79" s="15" t="s">
+      <c r="BA79" s="164" t="s">
         <v>125</v>
       </c>
       <c r="BB79" s="101"/>
@@ -28484,13 +28542,13 @@
       </c>
       <c r="BD79" s="101"/>
       <c r="BE79" s="101"/>
-      <c r="BF79" s="15"/>
-      <c r="BG79" s="15"/>
-      <c r="BH79" s="15"/>
-      <c r="BI79" s="15"/>
-      <c r="BJ79" s="15"/>
+      <c r="BF79" s="164"/>
+      <c r="BG79" s="164"/>
+      <c r="BH79" s="164"/>
+      <c r="BI79" s="164"/>
+      <c r="BJ79" s="164"/>
       <c r="BK79" s="152"/>
-      <c r="BL79" s="15"/>
+      <c r="BL79" s="164"/>
       <c r="BM79" s="152"/>
       <c r="BN79" s="152"/>
       <c r="BO79" s="152"/>
@@ -28662,22 +28720,22 @@
       <c r="K81" s="41"/>
       <c r="L81" s="41"/>
       <c r="M81" s="70"/>
-      <c r="N81" s="51"/>
+      <c r="N81" s="25"/>
       <c r="O81" s="154"/>
-      <c r="P81" s="21"/>
-      <c r="Q81" s="21"/>
+      <c r="P81" s="18"/>
+      <c r="Q81" s="18"/>
       <c r="R81" s="154"/>
-      <c r="S81" s="21"/>
-      <c r="T81" s="21"/>
+      <c r="S81" s="18"/>
+      <c r="T81" s="18"/>
       <c r="U81" s="154"/>
-      <c r="V81" s="21"/>
-      <c r="W81" s="21"/>
+      <c r="V81" s="18"/>
+      <c r="W81" s="18"/>
       <c r="X81" s="154"/>
-      <c r="Y81" s="21"/>
-      <c r="Z81" s="21"/>
+      <c r="Y81" s="18"/>
+      <c r="Z81" s="18"/>
       <c r="AA81" s="154"/>
-      <c r="AB81" s="21"/>
-      <c r="AC81" s="21"/>
+      <c r="AB81" s="18"/>
+      <c r="AC81" s="18"/>
       <c r="AD81" s="154"/>
       <c r="AE81" s="18"/>
       <c r="AF81" s="18"/>
@@ -28739,15 +28797,15 @@
       <c r="BH81" s="148"/>
       <c r="BI81" s="148"/>
       <c r="BJ81" s="148"/>
-      <c r="BK81" s="163"/>
+      <c r="BK81" s="1"/>
       <c r="BL81" s="148"/>
-      <c r="BM81" s="163"/>
-      <c r="BN81" s="163"/>
-      <c r="BO81" s="163"/>
-      <c r="BP81" s="163"/>
-      <c r="BQ81" s="163"/>
-      <c r="BR81" s="163"/>
-      <c r="BS81" s="163"/>
+      <c r="BM81" s="1"/>
+      <c r="BN81" s="1"/>
+      <c r="BO81" s="1"/>
+      <c r="BP81" s="1"/>
+      <c r="BQ81" s="1"/>
+      <c r="BR81" s="1"/>
+      <c r="BS81" s="1"/>
       <c r="BT81" s="131">
         <v>22</v>
       </c>
@@ -28809,7 +28867,7 @@
       <c r="AG82" s="154"/>
       <c r="AH82" s="19"/>
       <c r="AI82" s="34"/>
-      <c r="AJ82" s="12">
+      <c r="AJ82" s="17">
         <v>2</v>
       </c>
       <c r="AK82" s="101">
@@ -28864,15 +28922,15 @@
       <c r="BH82" s="152"/>
       <c r="BI82" s="152"/>
       <c r="BJ82" s="152"/>
-      <c r="BK82" s="162"/>
+      <c r="BK82" s="1"/>
       <c r="BL82" s="152"/>
-      <c r="BM82" s="162"/>
-      <c r="BN82" s="162"/>
-      <c r="BO82" s="162"/>
-      <c r="BP82" s="162"/>
-      <c r="BQ82" s="162"/>
-      <c r="BR82" s="162"/>
-      <c r="BS82" s="162"/>
+      <c r="BM82" s="1"/>
+      <c r="BN82" s="1"/>
+      <c r="BO82" s="1"/>
+      <c r="BP82" s="1"/>
+      <c r="BQ82" s="1"/>
+      <c r="BR82" s="1"/>
+      <c r="BS82" s="1"/>
       <c r="BT82" s="131">
         <v>22</v>
       </c>
@@ -29033,33 +29091,33 @@
       <c r="I84" s="69">
         <v>0</v>
       </c>
-      <c r="J84" s="69"/>
-      <c r="K84" s="41"/>
-      <c r="L84" s="41"/>
-      <c r="M84" s="70"/>
-      <c r="N84" s="25"/>
+      <c r="J84" s="71"/>
+      <c r="K84" s="72"/>
+      <c r="L84" s="72"/>
+      <c r="M84" s="73"/>
+      <c r="N84" s="51"/>
       <c r="O84" s="154"/>
-      <c r="P84" s="18"/>
-      <c r="Q84" s="18"/>
+      <c r="P84" s="21"/>
+      <c r="Q84" s="21"/>
       <c r="R84" s="154"/>
-      <c r="S84" s="18"/>
-      <c r="T84" s="18"/>
+      <c r="S84" s="21"/>
+      <c r="T84" s="21"/>
       <c r="U84" s="154"/>
-      <c r="V84" s="18"/>
-      <c r="W84" s="18"/>
+      <c r="V84" s="21"/>
+      <c r="W84" s="21"/>
       <c r="X84" s="154"/>
-      <c r="Y84" s="18"/>
-      <c r="Z84" s="18"/>
+      <c r="Y84" s="21"/>
+      <c r="Z84" s="21"/>
       <c r="AA84" s="154"/>
-      <c r="AB84" s="18"/>
-      <c r="AC84" s="18"/>
+      <c r="AB84" s="21"/>
+      <c r="AC84" s="21"/>
       <c r="AD84" s="154"/>
-      <c r="AE84" s="18"/>
-      <c r="AF84" s="18"/>
+      <c r="AE84" s="21"/>
+      <c r="AF84" s="21"/>
       <c r="AG84" s="154"/>
-      <c r="AH84" s="19"/>
+      <c r="AH84" s="20"/>
       <c r="AI84" s="34"/>
-      <c r="AJ84" s="12">
+      <c r="AJ84" s="17">
         <v>2</v>
       </c>
       <c r="AK84" s="101">
@@ -29067,11 +29125,11 @@
       </c>
       <c r="AL84" s="101"/>
       <c r="AM84" s="101"/>
-      <c r="AN84" s="152"/>
-      <c r="AO84" s="152">
-        <v>2</v>
-      </c>
-      <c r="AP84" s="152">
+      <c r="AN84" s="15"/>
+      <c r="AO84" s="15">
+        <v>2</v>
+      </c>
+      <c r="AP84" s="15">
         <v>2</v>
       </c>
       <c r="AQ84" s="101" t="s">
@@ -29084,21 +29142,21 @@
       <c r="AT84" s="101">
         <v>2</v>
       </c>
-      <c r="AU84" s="152">
+      <c r="AU84" s="15">
         <v>1</v>
       </c>
       <c r="AV84" s="101"/>
-      <c r="AW84" s="152" t="s">
+      <c r="AW84" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="AX84" s="152" t="s">
+      <c r="AX84" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="AY84" s="152" t="s">
+      <c r="AY84" s="15" t="s">
         <v>125</v>
       </c>
       <c r="AZ84" s="101"/>
-      <c r="BA84" s="152">
+      <c r="BA84" s="15">
         <v>2</v>
       </c>
       <c r="BB84" s="101" t="s">
@@ -29109,20 +29167,20 @@
       </c>
       <c r="BD84" s="101"/>
       <c r="BE84" s="101"/>
-      <c r="BF84" s="152"/>
-      <c r="BG84" s="152"/>
-      <c r="BH84" s="101"/>
-      <c r="BI84" s="101"/>
-      <c r="BJ84" s="101"/>
-      <c r="BK84" s="1"/>
-      <c r="BL84" s="101"/>
-      <c r="BM84" s="1"/>
-      <c r="BN84" s="1"/>
-      <c r="BO84" s="1"/>
-      <c r="BP84" s="1"/>
-      <c r="BQ84" s="1"/>
-      <c r="BR84" s="1"/>
-      <c r="BS84" s="1"/>
+      <c r="BF84" s="15"/>
+      <c r="BG84" s="15"/>
+      <c r="BH84" s="15"/>
+      <c r="BI84" s="15"/>
+      <c r="BJ84" s="15"/>
+      <c r="BK84" s="164"/>
+      <c r="BL84" s="15"/>
+      <c r="BM84" s="164"/>
+      <c r="BN84" s="164"/>
+      <c r="BO84" s="164"/>
+      <c r="BP84" s="164"/>
+      <c r="BQ84" s="164"/>
+      <c r="BR84" s="164"/>
+      <c r="BS84" s="164"/>
       <c r="BT84" s="131">
         <v>21.189999999999998</v>
       </c>
@@ -29162,22 +29220,22 @@
       <c r="K85" s="41"/>
       <c r="L85" s="41"/>
       <c r="M85" s="70"/>
-      <c r="N85" s="25"/>
+      <c r="N85" s="51"/>
       <c r="O85" s="154"/>
-      <c r="P85" s="18"/>
-      <c r="Q85" s="18"/>
+      <c r="P85" s="21"/>
+      <c r="Q85" s="21"/>
       <c r="R85" s="154"/>
-      <c r="S85" s="18"/>
-      <c r="T85" s="18"/>
+      <c r="S85" s="21"/>
+      <c r="T85" s="21"/>
       <c r="U85" s="154"/>
-      <c r="V85" s="18"/>
-      <c r="W85" s="18"/>
+      <c r="V85" s="21"/>
+      <c r="W85" s="21"/>
       <c r="X85" s="154"/>
-      <c r="Y85" s="18"/>
-      <c r="Z85" s="18"/>
+      <c r="Y85" s="21"/>
+      <c r="Z85" s="21"/>
       <c r="AA85" s="154"/>
-      <c r="AB85" s="18"/>
-      <c r="AC85" s="18"/>
+      <c r="AB85" s="21"/>
+      <c r="AC85" s="21"/>
       <c r="AD85" s="154"/>
       <c r="AE85" s="18"/>
       <c r="AF85" s="18"/>
@@ -29239,15 +29297,15 @@
       <c r="BH85" s="101"/>
       <c r="BI85" s="101"/>
       <c r="BJ85" s="101"/>
-      <c r="BK85" s="1"/>
+      <c r="BK85" s="164"/>
       <c r="BL85" s="101"/>
-      <c r="BM85" s="1"/>
-      <c r="BN85" s="1"/>
-      <c r="BO85" s="1"/>
-      <c r="BP85" s="1"/>
-      <c r="BQ85" s="1"/>
-      <c r="BR85" s="1"/>
-      <c r="BS85" s="1"/>
+      <c r="BM85" s="164"/>
+      <c r="BN85" s="164"/>
+      <c r="BO85" s="164"/>
+      <c r="BP85" s="164"/>
+      <c r="BQ85" s="164"/>
+      <c r="BR85" s="164"/>
+      <c r="BS85" s="164"/>
       <c r="BT85" s="131">
         <v>20</v>
       </c>
@@ -29474,7 +29532,9 @@
       <c r="BA87" s="145" t="s">
         <v>125</v>
       </c>
-      <c r="BB87" s="101"/>
+      <c r="BB87" s="101" t="s">
+        <v>125</v>
+      </c>
       <c r="BC87" s="101">
         <v>4</v>
       </c>
@@ -29555,7 +29615,7 @@
       <c r="AG88" s="159"/>
       <c r="AH88" s="19"/>
       <c r="AI88" s="34"/>
-      <c r="AJ88" s="12">
+      <c r="AJ88" s="17">
         <v>2</v>
       </c>
       <c r="AK88" s="101" t="s">
@@ -32176,7 +32236,7 @@
       <c r="BT122" s="131"/>
       <c r="BU122" s="9"/>
     </row>
-    <row r="123" spans="1:73" ht="15" hidden="1" thickBot="1">
+    <row r="123" spans="1:73" ht="15.75" hidden="1" thickBot="1">
       <c r="A123" s="13"/>
       <c r="B123" s="12"/>
       <c r="C123" s="84"/>
@@ -32422,349 +32482,349 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="177" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="176"/>
-      <c r="T1" s="176"/>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="176"/>
-      <c r="AA1" s="176"/>
-      <c r="AB1" s="176"/>
-      <c r="AC1" s="176"/>
-      <c r="AD1" s="176"/>
-      <c r="AE1" s="176"/>
-      <c r="AF1" s="176"/>
-      <c r="AG1" s="176"/>
-      <c r="AH1" s="176"/>
-      <c r="AI1" s="176"/>
-      <c r="AJ1" s="176"/>
-      <c r="AK1" s="176"/>
-      <c r="AL1" s="176"/>
-      <c r="AM1" s="176"/>
-      <c r="AN1" s="176"/>
-      <c r="AO1" s="176"/>
-      <c r="AP1" s="176"/>
-      <c r="AQ1" s="176"/>
-      <c r="AR1" s="176"/>
-      <c r="AS1" s="176"/>
-      <c r="AT1" s="176"/>
-      <c r="AU1" s="176"/>
-      <c r="AV1" s="176"/>
-      <c r="AW1" s="176"/>
-      <c r="AX1" s="176"/>
-      <c r="AY1" s="176"/>
-      <c r="AZ1" s="176"/>
-      <c r="BA1" s="176"/>
-      <c r="BB1" s="176"/>
-      <c r="BC1" s="176"/>
-      <c r="BD1" s="176"/>
-      <c r="BE1" s="176"/>
-      <c r="BF1" s="176"/>
-      <c r="BG1" s="176"/>
-      <c r="BH1" s="176"/>
-      <c r="BI1" s="176"/>
-      <c r="BJ1" s="176"/>
-      <c r="BK1" s="176"/>
-      <c r="BL1" s="176"/>
-      <c r="BM1" s="176"/>
-      <c r="BN1" s="176"/>
-      <c r="BO1" s="176"/>
-      <c r="BP1" s="176"/>
-      <c r="BQ1" s="176"/>
-      <c r="BR1" s="176"/>
-      <c r="BS1" s="176"/>
-      <c r="BT1" s="176"/>
-      <c r="BU1" s="176"/>
-      <c r="BV1" s="176"/>
-      <c r="BW1" s="176"/>
-      <c r="BX1" s="176"/>
-      <c r="BY1" s="176"/>
-      <c r="BZ1" s="176"/>
-      <c r="CA1" s="176"/>
-      <c r="CB1" s="176"/>
-      <c r="CC1" s="176"/>
-      <c r="CD1" s="176"/>
-      <c r="CE1" s="176"/>
-      <c r="CF1" s="176"/>
-      <c r="CG1" s="176"/>
-      <c r="CH1" s="176"/>
-      <c r="CI1" s="176"/>
-      <c r="CJ1" s="176"/>
-      <c r="CK1" s="176"/>
-      <c r="CL1" s="176"/>
-      <c r="CM1" s="176"/>
-      <c r="CN1" s="176"/>
-      <c r="CO1" s="176"/>
-      <c r="CP1" s="176"/>
-      <c r="CQ1" s="176"/>
-      <c r="CR1" s="176"/>
-      <c r="CS1" s="176"/>
-      <c r="CT1" s="176"/>
-      <c r="CU1" s="176"/>
-      <c r="CV1" s="176"/>
-      <c r="CW1" s="176"/>
-      <c r="CX1" s="176"/>
-      <c r="CY1" s="176"/>
-      <c r="CZ1" s="176"/>
-      <c r="DA1" s="176"/>
-      <c r="DB1" s="176"/>
-      <c r="DC1" s="176"/>
-      <c r="DD1" s="176"/>
-      <c r="DE1" s="176"/>
-      <c r="DF1" s="176"/>
-      <c r="DG1" s="176"/>
-      <c r="DH1" s="176"/>
-      <c r="DI1" s="176"/>
-      <c r="DJ1" s="176"/>
-      <c r="DK1" s="176"/>
-      <c r="DL1" s="176"/>
-      <c r="DM1" s="176"/>
-      <c r="DN1" s="176"/>
-      <c r="DO1" s="176"/>
-      <c r="DP1" s="176"/>
-      <c r="DQ1" s="176"/>
-      <c r="DR1" s="176"/>
-      <c r="DS1" s="176"/>
-      <c r="DT1" s="176"/>
-      <c r="DU1" s="176"/>
-      <c r="DV1" s="176"/>
-      <c r="DW1" s="176"/>
-      <c r="DX1" s="176"/>
-      <c r="DY1" s="176"/>
-      <c r="DZ1" s="176"/>
-      <c r="EA1" s="176"/>
-      <c r="EB1" s="176"/>
-      <c r="EC1" s="176"/>
-      <c r="ED1" s="176"/>
-      <c r="EE1" s="176"/>
-      <c r="EF1" s="176"/>
-      <c r="EG1" s="176"/>
-      <c r="EH1" s="176"/>
-      <c r="EI1" s="176"/>
-      <c r="EJ1" s="176"/>
-      <c r="EK1" s="176"/>
-      <c r="EL1" s="176"/>
-      <c r="EM1" s="176"/>
-      <c r="EN1" s="176"/>
-      <c r="EO1" s="176"/>
-      <c r="EP1" s="176"/>
-      <c r="EQ1" s="176"/>
-      <c r="ER1" s="176"/>
-      <c r="ES1" s="176"/>
-      <c r="ET1" s="176"/>
-      <c r="EU1" s="176"/>
-      <c r="EV1" s="176"/>
-      <c r="EW1" s="176"/>
-      <c r="EX1" s="176"/>
-      <c r="EY1" s="176"/>
-      <c r="EZ1" s="176"/>
-      <c r="FA1" s="176"/>
-      <c r="FB1" s="176"/>
-      <c r="FC1" s="176"/>
-      <c r="FD1" s="176"/>
-      <c r="FE1" s="176"/>
-      <c r="FF1" s="176"/>
-      <c r="FG1" s="176"/>
-      <c r="FH1" s="176"/>
-      <c r="FI1" s="176"/>
-      <c r="FJ1" s="176"/>
-      <c r="FK1" s="176"/>
-      <c r="FL1" s="176"/>
-      <c r="FM1" s="176"/>
-      <c r="FN1" s="176"/>
-      <c r="FO1" s="176"/>
-      <c r="FP1" s="176"/>
-      <c r="FQ1" s="176"/>
-      <c r="FR1" s="176"/>
-      <c r="FS1" s="176"/>
-      <c r="FT1" s="176"/>
-      <c r="FU1" s="176"/>
-      <c r="FV1" s="176"/>
-      <c r="FW1" s="176"/>
-      <c r="FX1" s="176"/>
-      <c r="FY1" s="176"/>
-      <c r="FZ1" s="176"/>
-      <c r="GA1" s="176"/>
-      <c r="GB1" s="176"/>
-      <c r="GC1" s="176"/>
-      <c r="GD1" s="176"/>
-      <c r="GE1" s="176"/>
-      <c r="GF1" s="176"/>
-      <c r="GG1" s="176"/>
-      <c r="GH1" s="176"/>
-      <c r="GI1" s="176"/>
-      <c r="GJ1" s="176"/>
-      <c r="GK1" s="176"/>
-      <c r="GL1" s="176"/>
-      <c r="GM1" s="176"/>
-      <c r="GN1" s="176"/>
-      <c r="GO1" s="176"/>
-      <c r="GP1" s="176"/>
-      <c r="GQ1" s="176"/>
-      <c r="GR1" s="176"/>
-      <c r="GS1" s="176"/>
-      <c r="GT1" s="176"/>
-      <c r="GU1" s="176"/>
-      <c r="GV1" s="176"/>
-      <c r="GW1" s="176"/>
-      <c r="GX1" s="176"/>
-      <c r="GY1" s="176"/>
-      <c r="GZ1" s="176"/>
-      <c r="HA1" s="176"/>
-      <c r="HB1" s="176"/>
-      <c r="HC1" s="176"/>
-      <c r="HD1" s="176"/>
-      <c r="HE1" s="176"/>
-      <c r="HF1" s="176"/>
-      <c r="HG1" s="176"/>
-      <c r="HH1" s="176"/>
-      <c r="HI1" s="176"/>
-      <c r="HJ1" s="176"/>
-      <c r="HK1" s="176"/>
-      <c r="HL1" s="176"/>
-      <c r="HM1" s="176"/>
-      <c r="HN1" s="176"/>
-      <c r="HO1" s="176"/>
-      <c r="HP1" s="176"/>
-      <c r="HQ1" s="176"/>
-      <c r="HR1" s="176"/>
-      <c r="HS1" s="176"/>
-      <c r="HT1" s="176"/>
-      <c r="HU1" s="176"/>
-      <c r="HV1" s="176"/>
-      <c r="HW1" s="176"/>
-      <c r="HX1" s="176"/>
-      <c r="HY1" s="176"/>
-      <c r="HZ1" s="176"/>
-      <c r="IA1" s="176"/>
-      <c r="IB1" s="176"/>
-      <c r="IC1" s="176"/>
-      <c r="ID1" s="176"/>
-      <c r="IE1" s="176"/>
-      <c r="IF1" s="176"/>
-      <c r="IG1" s="176"/>
-      <c r="IH1" s="176"/>
-      <c r="II1" s="176"/>
-      <c r="IJ1" s="176"/>
-      <c r="IK1" s="176"/>
-      <c r="IL1" s="176"/>
-      <c r="IM1" s="176"/>
-      <c r="IN1" s="176"/>
-      <c r="IO1" s="176"/>
-      <c r="IP1" s="176"/>
-      <c r="IQ1" s="176"/>
-      <c r="IR1" s="176"/>
-      <c r="IS1" s="176"/>
-      <c r="IT1" s="176"/>
-      <c r="IU1" s="176"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
+      <c r="N1" s="177"/>
+      <c r="O1" s="177"/>
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="177"/>
+      <c r="S1" s="177"/>
+      <c r="T1" s="177"/>
+      <c r="U1" s="177"/>
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="177"/>
+      <c r="AA1" s="177"/>
+      <c r="AB1" s="177"/>
+      <c r="AC1" s="177"/>
+      <c r="AD1" s="177"/>
+      <c r="AE1" s="177"/>
+      <c r="AF1" s="177"/>
+      <c r="AG1" s="177"/>
+      <c r="AH1" s="177"/>
+      <c r="AI1" s="177"/>
+      <c r="AJ1" s="177"/>
+      <c r="AK1" s="177"/>
+      <c r="AL1" s="177"/>
+      <c r="AM1" s="177"/>
+      <c r="AN1" s="177"/>
+      <c r="AO1" s="177"/>
+      <c r="AP1" s="177"/>
+      <c r="AQ1" s="177"/>
+      <c r="AR1" s="177"/>
+      <c r="AS1" s="177"/>
+      <c r="AT1" s="177"/>
+      <c r="AU1" s="177"/>
+      <c r="AV1" s="177"/>
+      <c r="AW1" s="177"/>
+      <c r="AX1" s="177"/>
+      <c r="AY1" s="177"/>
+      <c r="AZ1" s="177"/>
+      <c r="BA1" s="177"/>
+      <c r="BB1" s="177"/>
+      <c r="BC1" s="177"/>
+      <c r="BD1" s="177"/>
+      <c r="BE1" s="177"/>
+      <c r="BF1" s="177"/>
+      <c r="BG1" s="177"/>
+      <c r="BH1" s="177"/>
+      <c r="BI1" s="177"/>
+      <c r="BJ1" s="177"/>
+      <c r="BK1" s="177"/>
+      <c r="BL1" s="177"/>
+      <c r="BM1" s="177"/>
+      <c r="BN1" s="177"/>
+      <c r="BO1" s="177"/>
+      <c r="BP1" s="177"/>
+      <c r="BQ1" s="177"/>
+      <c r="BR1" s="177"/>
+      <c r="BS1" s="177"/>
+      <c r="BT1" s="177"/>
+      <c r="BU1" s="177"/>
+      <c r="BV1" s="177"/>
+      <c r="BW1" s="177"/>
+      <c r="BX1" s="177"/>
+      <c r="BY1" s="177"/>
+      <c r="BZ1" s="177"/>
+      <c r="CA1" s="177"/>
+      <c r="CB1" s="177"/>
+      <c r="CC1" s="177"/>
+      <c r="CD1" s="177"/>
+      <c r="CE1" s="177"/>
+      <c r="CF1" s="177"/>
+      <c r="CG1" s="177"/>
+      <c r="CH1" s="177"/>
+      <c r="CI1" s="177"/>
+      <c r="CJ1" s="177"/>
+      <c r="CK1" s="177"/>
+      <c r="CL1" s="177"/>
+      <c r="CM1" s="177"/>
+      <c r="CN1" s="177"/>
+      <c r="CO1" s="177"/>
+      <c r="CP1" s="177"/>
+      <c r="CQ1" s="177"/>
+      <c r="CR1" s="177"/>
+      <c r="CS1" s="177"/>
+      <c r="CT1" s="177"/>
+      <c r="CU1" s="177"/>
+      <c r="CV1" s="177"/>
+      <c r="CW1" s="177"/>
+      <c r="CX1" s="177"/>
+      <c r="CY1" s="177"/>
+      <c r="CZ1" s="177"/>
+      <c r="DA1" s="177"/>
+      <c r="DB1" s="177"/>
+      <c r="DC1" s="177"/>
+      <c r="DD1" s="177"/>
+      <c r="DE1" s="177"/>
+      <c r="DF1" s="177"/>
+      <c r="DG1" s="177"/>
+      <c r="DH1" s="177"/>
+      <c r="DI1" s="177"/>
+      <c r="DJ1" s="177"/>
+      <c r="DK1" s="177"/>
+      <c r="DL1" s="177"/>
+      <c r="DM1" s="177"/>
+      <c r="DN1" s="177"/>
+      <c r="DO1" s="177"/>
+      <c r="DP1" s="177"/>
+      <c r="DQ1" s="177"/>
+      <c r="DR1" s="177"/>
+      <c r="DS1" s="177"/>
+      <c r="DT1" s="177"/>
+      <c r="DU1" s="177"/>
+      <c r="DV1" s="177"/>
+      <c r="DW1" s="177"/>
+      <c r="DX1" s="177"/>
+      <c r="DY1" s="177"/>
+      <c r="DZ1" s="177"/>
+      <c r="EA1" s="177"/>
+      <c r="EB1" s="177"/>
+      <c r="EC1" s="177"/>
+      <c r="ED1" s="177"/>
+      <c r="EE1" s="177"/>
+      <c r="EF1" s="177"/>
+      <c r="EG1" s="177"/>
+      <c r="EH1" s="177"/>
+      <c r="EI1" s="177"/>
+      <c r="EJ1" s="177"/>
+      <c r="EK1" s="177"/>
+      <c r="EL1" s="177"/>
+      <c r="EM1" s="177"/>
+      <c r="EN1" s="177"/>
+      <c r="EO1" s="177"/>
+      <c r="EP1" s="177"/>
+      <c r="EQ1" s="177"/>
+      <c r="ER1" s="177"/>
+      <c r="ES1" s="177"/>
+      <c r="ET1" s="177"/>
+      <c r="EU1" s="177"/>
+      <c r="EV1" s="177"/>
+      <c r="EW1" s="177"/>
+      <c r="EX1" s="177"/>
+      <c r="EY1" s="177"/>
+      <c r="EZ1" s="177"/>
+      <c r="FA1" s="177"/>
+      <c r="FB1" s="177"/>
+      <c r="FC1" s="177"/>
+      <c r="FD1" s="177"/>
+      <c r="FE1" s="177"/>
+      <c r="FF1" s="177"/>
+      <c r="FG1" s="177"/>
+      <c r="FH1" s="177"/>
+      <c r="FI1" s="177"/>
+      <c r="FJ1" s="177"/>
+      <c r="FK1" s="177"/>
+      <c r="FL1" s="177"/>
+      <c r="FM1" s="177"/>
+      <c r="FN1" s="177"/>
+      <c r="FO1" s="177"/>
+      <c r="FP1" s="177"/>
+      <c r="FQ1" s="177"/>
+      <c r="FR1" s="177"/>
+      <c r="FS1" s="177"/>
+      <c r="FT1" s="177"/>
+      <c r="FU1" s="177"/>
+      <c r="FV1" s="177"/>
+      <c r="FW1" s="177"/>
+      <c r="FX1" s="177"/>
+      <c r="FY1" s="177"/>
+      <c r="FZ1" s="177"/>
+      <c r="GA1" s="177"/>
+      <c r="GB1" s="177"/>
+      <c r="GC1" s="177"/>
+      <c r="GD1" s="177"/>
+      <c r="GE1" s="177"/>
+      <c r="GF1" s="177"/>
+      <c r="GG1" s="177"/>
+      <c r="GH1" s="177"/>
+      <c r="GI1" s="177"/>
+      <c r="GJ1" s="177"/>
+      <c r="GK1" s="177"/>
+      <c r="GL1" s="177"/>
+      <c r="GM1" s="177"/>
+      <c r="GN1" s="177"/>
+      <c r="GO1" s="177"/>
+      <c r="GP1" s="177"/>
+      <c r="GQ1" s="177"/>
+      <c r="GR1" s="177"/>
+      <c r="GS1" s="177"/>
+      <c r="GT1" s="177"/>
+      <c r="GU1" s="177"/>
+      <c r="GV1" s="177"/>
+      <c r="GW1" s="177"/>
+      <c r="GX1" s="177"/>
+      <c r="GY1" s="177"/>
+      <c r="GZ1" s="177"/>
+      <c r="HA1" s="177"/>
+      <c r="HB1" s="177"/>
+      <c r="HC1" s="177"/>
+      <c r="HD1" s="177"/>
+      <c r="HE1" s="177"/>
+      <c r="HF1" s="177"/>
+      <c r="HG1" s="177"/>
+      <c r="HH1" s="177"/>
+      <c r="HI1" s="177"/>
+      <c r="HJ1" s="177"/>
+      <c r="HK1" s="177"/>
+      <c r="HL1" s="177"/>
+      <c r="HM1" s="177"/>
+      <c r="HN1" s="177"/>
+      <c r="HO1" s="177"/>
+      <c r="HP1" s="177"/>
+      <c r="HQ1" s="177"/>
+      <c r="HR1" s="177"/>
+      <c r="HS1" s="177"/>
+      <c r="HT1" s="177"/>
+      <c r="HU1" s="177"/>
+      <c r="HV1" s="177"/>
+      <c r="HW1" s="177"/>
+      <c r="HX1" s="177"/>
+      <c r="HY1" s="177"/>
+      <c r="HZ1" s="177"/>
+      <c r="IA1" s="177"/>
+      <c r="IB1" s="177"/>
+      <c r="IC1" s="177"/>
+      <c r="ID1" s="177"/>
+      <c r="IE1" s="177"/>
+      <c r="IF1" s="177"/>
+      <c r="IG1" s="177"/>
+      <c r="IH1" s="177"/>
+      <c r="II1" s="177"/>
+      <c r="IJ1" s="177"/>
+      <c r="IK1" s="177"/>
+      <c r="IL1" s="177"/>
+      <c r="IM1" s="177"/>
+      <c r="IN1" s="177"/>
+      <c r="IO1" s="177"/>
+      <c r="IP1" s="177"/>
+      <c r="IQ1" s="177"/>
+      <c r="IR1" s="177"/>
+      <c r="IS1" s="177"/>
+      <c r="IT1" s="177"/>
+      <c r="IU1" s="177"/>
     </row>
-    <row r="2" spans="1:255" ht="15" thickBot="1">
-      <c r="A2" s="179" t="str">
+    <row r="2" spans="1:255" ht="15.75" thickBot="1">
+      <c r="A2" s="180" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
       </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
-      <c r="K2" s="179"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
     </row>
     <row r="3" spans="1:255" ht="15" customHeight="1">
-      <c r="A3" s="180" t="str">
+      <c r="A3" s="181" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
       </c>
-      <c r="B3" s="182" t="str">
+      <c r="B3" s="183" t="str">
         <f>'Сводная таблица'!B3:B4</f>
         <v>группа</v>
       </c>
-      <c r="C3" s="184" t="str">
+      <c r="C3" s="185" t="str">
         <f>'Сводная таблица'!C3:C4</f>
         <v>подргуппа</v>
       </c>
-      <c r="D3" s="186" t="str">
+      <c r="D3" s="187" t="str">
         <f>'Сводная таблица'!D3:D4</f>
         <v>Фамилия</v>
       </c>
-      <c r="E3" s="188" t="str">
+      <c r="E3" s="189" t="str">
         <f>'Сводная таблица'!E3:E4</f>
         <v>Имя</v>
       </c>
-      <c r="F3" s="177" t="str">
+      <c r="F3" s="178" t="str">
         <f>'Сводная таблица'!F3:F4</f>
         <v>Отчество</v>
       </c>
-      <c r="G3" s="180" t="s">
+      <c r="G3" s="181" t="s">
         <v>114</v>
       </c>
-      <c r="H3" s="186" t="s">
+      <c r="H3" s="187" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="193" t="s">
+      <c r="I3" s="194" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="193" t="s">
+      <c r="J3" s="194" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="190" t="s">
+      <c r="K3" s="191" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:255" ht="15" thickBot="1">
-      <c r="A4" s="181"/>
-      <c r="B4" s="183"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="187"/>
-      <c r="I4" s="195"/>
-      <c r="J4" s="195"/>
-      <c r="K4" s="196"/>
+    <row r="4" spans="1:255" ht="15.75" thickBot="1">
+      <c r="A4" s="182"/>
+      <c r="B4" s="184"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="182"/>
+      <c r="H4" s="188"/>
+      <c r="I4" s="196"/>
+      <c r="J4" s="196"/>
+      <c r="K4" s="197"/>
     </row>
     <row r="5" spans="1:255" s="54" customFormat="1">
       <c r="A5" s="62">
@@ -34210,7 +34270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1">
+    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1">
       <c r="A43" s="56">
         <v>42</v>
       </c>
@@ -34330,274 +34390,274 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" style="78" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="2" customWidth="1"/>
-    <col min="3" max="27" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="9.109375" style="40"/>
+    <col min="1" max="1" width="31.28515625" style="78" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="2" customWidth="1"/>
+    <col min="3" max="27" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.140625" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="177" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="176"/>
-      <c r="T1" s="176"/>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="176"/>
-      <c r="AA1" s="176"/>
-      <c r="AB1" s="176"/>
-      <c r="AC1" s="176"/>
-      <c r="AD1" s="176"/>
-      <c r="AE1" s="176"/>
-      <c r="AF1" s="176"/>
-      <c r="AG1" s="176"/>
-      <c r="AH1" s="176"/>
-      <c r="AI1" s="176"/>
-      <c r="AJ1" s="176"/>
-      <c r="AK1" s="176"/>
-      <c r="AL1" s="176"/>
-      <c r="AM1" s="176"/>
-      <c r="AN1" s="176"/>
-      <c r="AO1" s="176"/>
-      <c r="AP1" s="176"/>
-      <c r="AQ1" s="176"/>
-      <c r="AR1" s="176"/>
-      <c r="AS1" s="176"/>
-      <c r="AT1" s="176"/>
-      <c r="AU1" s="176"/>
-      <c r="AV1" s="176"/>
-      <c r="AW1" s="176"/>
-      <c r="AX1" s="176"/>
-      <c r="AY1" s="176"/>
-      <c r="AZ1" s="176"/>
-      <c r="BA1" s="176"/>
-      <c r="BB1" s="176"/>
-      <c r="BC1" s="176"/>
-      <c r="BD1" s="176"/>
-      <c r="BE1" s="176"/>
-      <c r="BF1" s="176"/>
-      <c r="BG1" s="176"/>
-      <c r="BH1" s="176"/>
-      <c r="BI1" s="176"/>
-      <c r="BJ1" s="176"/>
-      <c r="BK1" s="176"/>
-      <c r="BL1" s="176"/>
-      <c r="BM1" s="176"/>
-      <c r="BN1" s="176"/>
-      <c r="BO1" s="176"/>
-      <c r="BP1" s="176"/>
-      <c r="BQ1" s="176"/>
-      <c r="BR1" s="176"/>
-      <c r="BS1" s="176"/>
-      <c r="BT1" s="176"/>
-      <c r="BU1" s="176"/>
-      <c r="BV1" s="176"/>
-      <c r="BW1" s="176"/>
-      <c r="BX1" s="176"/>
-      <c r="BY1" s="176"/>
-      <c r="BZ1" s="176"/>
-      <c r="CA1" s="176"/>
-      <c r="CB1" s="176"/>
-      <c r="CC1" s="176"/>
-      <c r="CD1" s="176"/>
-      <c r="CE1" s="176"/>
-      <c r="CF1" s="176"/>
-      <c r="CG1" s="176"/>
-      <c r="CH1" s="176"/>
-      <c r="CI1" s="176"/>
-      <c r="CJ1" s="176"/>
-      <c r="CK1" s="176"/>
-      <c r="CL1" s="176"/>
-      <c r="CM1" s="176"/>
-      <c r="CN1" s="176"/>
-      <c r="CO1" s="176"/>
-      <c r="CP1" s="176"/>
-      <c r="CQ1" s="176"/>
-      <c r="CR1" s="176"/>
-      <c r="CS1" s="176"/>
-      <c r="CT1" s="176"/>
-      <c r="CU1" s="176"/>
-      <c r="CV1" s="176"/>
-      <c r="CW1" s="176"/>
-      <c r="CX1" s="176"/>
-      <c r="CY1" s="176"/>
-      <c r="CZ1" s="176"/>
-      <c r="DA1" s="176"/>
-      <c r="DB1" s="176"/>
-      <c r="DC1" s="176"/>
-      <c r="DD1" s="176"/>
-      <c r="DE1" s="176"/>
-      <c r="DF1" s="176"/>
-      <c r="DG1" s="176"/>
-      <c r="DH1" s="176"/>
-      <c r="DI1" s="176"/>
-      <c r="DJ1" s="176"/>
-      <c r="DK1" s="176"/>
-      <c r="DL1" s="176"/>
-      <c r="DM1" s="176"/>
-      <c r="DN1" s="176"/>
-      <c r="DO1" s="176"/>
-      <c r="DP1" s="176"/>
-      <c r="DQ1" s="176"/>
-      <c r="DR1" s="176"/>
-      <c r="DS1" s="176"/>
-      <c r="DT1" s="176"/>
-      <c r="DU1" s="176"/>
-      <c r="DV1" s="176"/>
-      <c r="DW1" s="176"/>
-      <c r="DX1" s="176"/>
-      <c r="DY1" s="176"/>
-      <c r="DZ1" s="176"/>
-      <c r="EA1" s="176"/>
-      <c r="EB1" s="176"/>
-      <c r="EC1" s="176"/>
-      <c r="ED1" s="176"/>
-      <c r="EE1" s="176"/>
-      <c r="EF1" s="176"/>
-      <c r="EG1" s="176"/>
-      <c r="EH1" s="176"/>
-      <c r="EI1" s="176"/>
-      <c r="EJ1" s="176"/>
-      <c r="EK1" s="176"/>
-      <c r="EL1" s="176"/>
-      <c r="EM1" s="176"/>
-      <c r="EN1" s="176"/>
-      <c r="EO1" s="176"/>
-      <c r="EP1" s="176"/>
-      <c r="EQ1" s="176"/>
-      <c r="ER1" s="176"/>
-      <c r="ES1" s="176"/>
-      <c r="ET1" s="176"/>
-      <c r="EU1" s="176"/>
-      <c r="EV1" s="176"/>
-      <c r="EW1" s="176"/>
-      <c r="EX1" s="176"/>
-      <c r="EY1" s="176"/>
-      <c r="EZ1" s="176"/>
-      <c r="FA1" s="176"/>
-      <c r="FB1" s="176"/>
-      <c r="FC1" s="176"/>
-      <c r="FD1" s="176"/>
-      <c r="FE1" s="176"/>
-      <c r="FF1" s="176"/>
-      <c r="FG1" s="176"/>
-      <c r="FH1" s="176"/>
-      <c r="FI1" s="176"/>
-      <c r="FJ1" s="176"/>
-      <c r="FK1" s="176"/>
-      <c r="FL1" s="176"/>
-      <c r="FM1" s="176"/>
-      <c r="FN1" s="176"/>
-      <c r="FO1" s="176"/>
-      <c r="FP1" s="176"/>
-      <c r="FQ1" s="176"/>
-      <c r="FR1" s="176"/>
-      <c r="FS1" s="176"/>
-      <c r="FT1" s="176"/>
-      <c r="FU1" s="176"/>
-      <c r="FV1" s="176"/>
-      <c r="FW1" s="176"/>
-      <c r="FX1" s="176"/>
-      <c r="FY1" s="176"/>
-      <c r="FZ1" s="176"/>
-      <c r="GA1" s="176"/>
-      <c r="GB1" s="176"/>
-      <c r="GC1" s="176"/>
-      <c r="GD1" s="176"/>
-      <c r="GE1" s="176"/>
-      <c r="GF1" s="176"/>
-      <c r="GG1" s="176"/>
-      <c r="GH1" s="176"/>
-      <c r="GI1" s="176"/>
-      <c r="GJ1" s="176"/>
-      <c r="GK1" s="176"/>
-      <c r="GL1" s="176"/>
-      <c r="GM1" s="176"/>
-      <c r="GN1" s="176"/>
-      <c r="GO1" s="176"/>
-      <c r="GP1" s="176"/>
-      <c r="GQ1" s="176"/>
-      <c r="GR1" s="176"/>
-      <c r="GS1" s="176"/>
-      <c r="GT1" s="176"/>
-      <c r="GU1" s="176"/>
-      <c r="GV1" s="176"/>
-      <c r="GW1" s="176"/>
-      <c r="GX1" s="176"/>
-      <c r="GY1" s="176"/>
-      <c r="GZ1" s="176"/>
-      <c r="HA1" s="176"/>
-      <c r="HB1" s="176"/>
-      <c r="HC1" s="176"/>
-      <c r="HD1" s="176"/>
-      <c r="HE1" s="176"/>
-      <c r="HF1" s="176"/>
-      <c r="HG1" s="176"/>
-      <c r="HH1" s="176"/>
-      <c r="HI1" s="176"/>
-      <c r="HJ1" s="176"/>
-      <c r="HK1" s="176"/>
-      <c r="HL1" s="176"/>
-      <c r="HM1" s="176"/>
-      <c r="HN1" s="176"/>
-      <c r="HO1" s="176"/>
-      <c r="HP1" s="176"/>
-      <c r="HQ1" s="176"/>
-      <c r="HR1" s="176"/>
-      <c r="HS1" s="176"/>
-      <c r="HT1" s="176"/>
-      <c r="HU1" s="176"/>
-      <c r="HV1" s="176"/>
-      <c r="HW1" s="176"/>
-      <c r="HX1" s="176"/>
-      <c r="HY1" s="176"/>
-      <c r="HZ1" s="176"/>
-      <c r="IA1" s="176"/>
-      <c r="IB1" s="176"/>
-      <c r="IC1" s="176"/>
-      <c r="ID1" s="176"/>
-      <c r="IE1" s="176"/>
-      <c r="IF1" s="176"/>
-      <c r="IG1" s="176"/>
-      <c r="IH1" s="176"/>
-      <c r="II1" s="176"/>
-      <c r="IJ1" s="176"/>
-      <c r="IK1" s="176"/>
-      <c r="IL1" s="176"/>
-      <c r="IM1" s="176"/>
-      <c r="IN1" s="176"/>
-      <c r="IO1" s="176"/>
-      <c r="IP1" s="176"/>
-      <c r="IQ1" s="176"/>
-      <c r="IR1" s="176"/>
-      <c r="IS1" s="176"/>
-      <c r="IT1" s="176"/>
-      <c r="IU1" s="176"/>
-      <c r="IV1" s="176"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
+      <c r="N1" s="177"/>
+      <c r="O1" s="177"/>
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="177"/>
+      <c r="S1" s="177"/>
+      <c r="T1" s="177"/>
+      <c r="U1" s="177"/>
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="177"/>
+      <c r="AA1" s="177"/>
+      <c r="AB1" s="177"/>
+      <c r="AC1" s="177"/>
+      <c r="AD1" s="177"/>
+      <c r="AE1" s="177"/>
+      <c r="AF1" s="177"/>
+      <c r="AG1" s="177"/>
+      <c r="AH1" s="177"/>
+      <c r="AI1" s="177"/>
+      <c r="AJ1" s="177"/>
+      <c r="AK1" s="177"/>
+      <c r="AL1" s="177"/>
+      <c r="AM1" s="177"/>
+      <c r="AN1" s="177"/>
+      <c r="AO1" s="177"/>
+      <c r="AP1" s="177"/>
+      <c r="AQ1" s="177"/>
+      <c r="AR1" s="177"/>
+      <c r="AS1" s="177"/>
+      <c r="AT1" s="177"/>
+      <c r="AU1" s="177"/>
+      <c r="AV1" s="177"/>
+      <c r="AW1" s="177"/>
+      <c r="AX1" s="177"/>
+      <c r="AY1" s="177"/>
+      <c r="AZ1" s="177"/>
+      <c r="BA1" s="177"/>
+      <c r="BB1" s="177"/>
+      <c r="BC1" s="177"/>
+      <c r="BD1" s="177"/>
+      <c r="BE1" s="177"/>
+      <c r="BF1" s="177"/>
+      <c r="BG1" s="177"/>
+      <c r="BH1" s="177"/>
+      <c r="BI1" s="177"/>
+      <c r="BJ1" s="177"/>
+      <c r="BK1" s="177"/>
+      <c r="BL1" s="177"/>
+      <c r="BM1" s="177"/>
+      <c r="BN1" s="177"/>
+      <c r="BO1" s="177"/>
+      <c r="BP1" s="177"/>
+      <c r="BQ1" s="177"/>
+      <c r="BR1" s="177"/>
+      <c r="BS1" s="177"/>
+      <c r="BT1" s="177"/>
+      <c r="BU1" s="177"/>
+      <c r="BV1" s="177"/>
+      <c r="BW1" s="177"/>
+      <c r="BX1" s="177"/>
+      <c r="BY1" s="177"/>
+      <c r="BZ1" s="177"/>
+      <c r="CA1" s="177"/>
+      <c r="CB1" s="177"/>
+      <c r="CC1" s="177"/>
+      <c r="CD1" s="177"/>
+      <c r="CE1" s="177"/>
+      <c r="CF1" s="177"/>
+      <c r="CG1" s="177"/>
+      <c r="CH1" s="177"/>
+      <c r="CI1" s="177"/>
+      <c r="CJ1" s="177"/>
+      <c r="CK1" s="177"/>
+      <c r="CL1" s="177"/>
+      <c r="CM1" s="177"/>
+      <c r="CN1" s="177"/>
+      <c r="CO1" s="177"/>
+      <c r="CP1" s="177"/>
+      <c r="CQ1" s="177"/>
+      <c r="CR1" s="177"/>
+      <c r="CS1" s="177"/>
+      <c r="CT1" s="177"/>
+      <c r="CU1" s="177"/>
+      <c r="CV1" s="177"/>
+      <c r="CW1" s="177"/>
+      <c r="CX1" s="177"/>
+      <c r="CY1" s="177"/>
+      <c r="CZ1" s="177"/>
+      <c r="DA1" s="177"/>
+      <c r="DB1" s="177"/>
+      <c r="DC1" s="177"/>
+      <c r="DD1" s="177"/>
+      <c r="DE1" s="177"/>
+      <c r="DF1" s="177"/>
+      <c r="DG1" s="177"/>
+      <c r="DH1" s="177"/>
+      <c r="DI1" s="177"/>
+      <c r="DJ1" s="177"/>
+      <c r="DK1" s="177"/>
+      <c r="DL1" s="177"/>
+      <c r="DM1" s="177"/>
+      <c r="DN1" s="177"/>
+      <c r="DO1" s="177"/>
+      <c r="DP1" s="177"/>
+      <c r="DQ1" s="177"/>
+      <c r="DR1" s="177"/>
+      <c r="DS1" s="177"/>
+      <c r="DT1" s="177"/>
+      <c r="DU1" s="177"/>
+      <c r="DV1" s="177"/>
+      <c r="DW1" s="177"/>
+      <c r="DX1" s="177"/>
+      <c r="DY1" s="177"/>
+      <c r="DZ1" s="177"/>
+      <c r="EA1" s="177"/>
+      <c r="EB1" s="177"/>
+      <c r="EC1" s="177"/>
+      <c r="ED1" s="177"/>
+      <c r="EE1" s="177"/>
+      <c r="EF1" s="177"/>
+      <c r="EG1" s="177"/>
+      <c r="EH1" s="177"/>
+      <c r="EI1" s="177"/>
+      <c r="EJ1" s="177"/>
+      <c r="EK1" s="177"/>
+      <c r="EL1" s="177"/>
+      <c r="EM1" s="177"/>
+      <c r="EN1" s="177"/>
+      <c r="EO1" s="177"/>
+      <c r="EP1" s="177"/>
+      <c r="EQ1" s="177"/>
+      <c r="ER1" s="177"/>
+      <c r="ES1" s="177"/>
+      <c r="ET1" s="177"/>
+      <c r="EU1" s="177"/>
+      <c r="EV1" s="177"/>
+      <c r="EW1" s="177"/>
+      <c r="EX1" s="177"/>
+      <c r="EY1" s="177"/>
+      <c r="EZ1" s="177"/>
+      <c r="FA1" s="177"/>
+      <c r="FB1" s="177"/>
+      <c r="FC1" s="177"/>
+      <c r="FD1" s="177"/>
+      <c r="FE1" s="177"/>
+      <c r="FF1" s="177"/>
+      <c r="FG1" s="177"/>
+      <c r="FH1" s="177"/>
+      <c r="FI1" s="177"/>
+      <c r="FJ1" s="177"/>
+      <c r="FK1" s="177"/>
+      <c r="FL1" s="177"/>
+      <c r="FM1" s="177"/>
+      <c r="FN1" s="177"/>
+      <c r="FO1" s="177"/>
+      <c r="FP1" s="177"/>
+      <c r="FQ1" s="177"/>
+      <c r="FR1" s="177"/>
+      <c r="FS1" s="177"/>
+      <c r="FT1" s="177"/>
+      <c r="FU1" s="177"/>
+      <c r="FV1" s="177"/>
+      <c r="FW1" s="177"/>
+      <c r="FX1" s="177"/>
+      <c r="FY1" s="177"/>
+      <c r="FZ1" s="177"/>
+      <c r="GA1" s="177"/>
+      <c r="GB1" s="177"/>
+      <c r="GC1" s="177"/>
+      <c r="GD1" s="177"/>
+      <c r="GE1" s="177"/>
+      <c r="GF1" s="177"/>
+      <c r="GG1" s="177"/>
+      <c r="GH1" s="177"/>
+      <c r="GI1" s="177"/>
+      <c r="GJ1" s="177"/>
+      <c r="GK1" s="177"/>
+      <c r="GL1" s="177"/>
+      <c r="GM1" s="177"/>
+      <c r="GN1" s="177"/>
+      <c r="GO1" s="177"/>
+      <c r="GP1" s="177"/>
+      <c r="GQ1" s="177"/>
+      <c r="GR1" s="177"/>
+      <c r="GS1" s="177"/>
+      <c r="GT1" s="177"/>
+      <c r="GU1" s="177"/>
+      <c r="GV1" s="177"/>
+      <c r="GW1" s="177"/>
+      <c r="GX1" s="177"/>
+      <c r="GY1" s="177"/>
+      <c r="GZ1" s="177"/>
+      <c r="HA1" s="177"/>
+      <c r="HB1" s="177"/>
+      <c r="HC1" s="177"/>
+      <c r="HD1" s="177"/>
+      <c r="HE1" s="177"/>
+      <c r="HF1" s="177"/>
+      <c r="HG1" s="177"/>
+      <c r="HH1" s="177"/>
+      <c r="HI1" s="177"/>
+      <c r="HJ1" s="177"/>
+      <c r="HK1" s="177"/>
+      <c r="HL1" s="177"/>
+      <c r="HM1" s="177"/>
+      <c r="HN1" s="177"/>
+      <c r="HO1" s="177"/>
+      <c r="HP1" s="177"/>
+      <c r="HQ1" s="177"/>
+      <c r="HR1" s="177"/>
+      <c r="HS1" s="177"/>
+      <c r="HT1" s="177"/>
+      <c r="HU1" s="177"/>
+      <c r="HV1" s="177"/>
+      <c r="HW1" s="177"/>
+      <c r="HX1" s="177"/>
+      <c r="HY1" s="177"/>
+      <c r="HZ1" s="177"/>
+      <c r="IA1" s="177"/>
+      <c r="IB1" s="177"/>
+      <c r="IC1" s="177"/>
+      <c r="ID1" s="177"/>
+      <c r="IE1" s="177"/>
+      <c r="IF1" s="177"/>
+      <c r="IG1" s="177"/>
+      <c r="IH1" s="177"/>
+      <c r="II1" s="177"/>
+      <c r="IJ1" s="177"/>
+      <c r="IK1" s="177"/>
+      <c r="IL1" s="177"/>
+      <c r="IM1" s="177"/>
+      <c r="IN1" s="177"/>
+      <c r="IO1" s="177"/>
+      <c r="IP1" s="177"/>
+      <c r="IQ1" s="177"/>
+      <c r="IR1" s="177"/>
+      <c r="IS1" s="177"/>
+      <c r="IT1" s="177"/>
+      <c r="IU1" s="177"/>
+      <c r="IV1" s="177"/>
     </row>
     <row r="2" spans="1:256" s="43" customFormat="1">
       <c r="A2" s="15" t="s">
@@ -61489,349 +61549,349 @@
       <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="177" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="176"/>
-      <c r="T1" s="176"/>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="176"/>
-      <c r="AA1" s="176"/>
-      <c r="AB1" s="176"/>
-      <c r="AC1" s="176"/>
-      <c r="AD1" s="176"/>
-      <c r="AE1" s="176"/>
-      <c r="AF1" s="176"/>
-      <c r="AG1" s="176"/>
-      <c r="AH1" s="176"/>
-      <c r="AI1" s="176"/>
-      <c r="AJ1" s="176"/>
-      <c r="AK1" s="176"/>
-      <c r="AL1" s="176"/>
-      <c r="AM1" s="176"/>
-      <c r="AN1" s="176"/>
-      <c r="AO1" s="176"/>
-      <c r="AP1" s="176"/>
-      <c r="AQ1" s="176"/>
-      <c r="AR1" s="176"/>
-      <c r="AS1" s="176"/>
-      <c r="AT1" s="176"/>
-      <c r="AU1" s="176"/>
-      <c r="AV1" s="176"/>
-      <c r="AW1" s="176"/>
-      <c r="AX1" s="176"/>
-      <c r="AY1" s="176"/>
-      <c r="AZ1" s="176"/>
-      <c r="BA1" s="176"/>
-      <c r="BB1" s="176"/>
-      <c r="BC1" s="176"/>
-      <c r="BD1" s="176"/>
-      <c r="BE1" s="176"/>
-      <c r="BF1" s="176"/>
-      <c r="BG1" s="176"/>
-      <c r="BH1" s="176"/>
-      <c r="BI1" s="176"/>
-      <c r="BJ1" s="176"/>
-      <c r="BK1" s="176"/>
-      <c r="BL1" s="176"/>
-      <c r="BM1" s="176"/>
-      <c r="BN1" s="176"/>
-      <c r="BO1" s="176"/>
-      <c r="BP1" s="176"/>
-      <c r="BQ1" s="176"/>
-      <c r="BR1" s="176"/>
-      <c r="BS1" s="176"/>
-      <c r="BT1" s="176"/>
-      <c r="BU1" s="176"/>
-      <c r="BV1" s="176"/>
-      <c r="BW1" s="176"/>
-      <c r="BX1" s="176"/>
-      <c r="BY1" s="176"/>
-      <c r="BZ1" s="176"/>
-      <c r="CA1" s="176"/>
-      <c r="CB1" s="176"/>
-      <c r="CC1" s="176"/>
-      <c r="CD1" s="176"/>
-      <c r="CE1" s="176"/>
-      <c r="CF1" s="176"/>
-      <c r="CG1" s="176"/>
-      <c r="CH1" s="176"/>
-      <c r="CI1" s="176"/>
-      <c r="CJ1" s="176"/>
-      <c r="CK1" s="176"/>
-      <c r="CL1" s="176"/>
-      <c r="CM1" s="176"/>
-      <c r="CN1" s="176"/>
-      <c r="CO1" s="176"/>
-      <c r="CP1" s="176"/>
-      <c r="CQ1" s="176"/>
-      <c r="CR1" s="176"/>
-      <c r="CS1" s="176"/>
-      <c r="CT1" s="176"/>
-      <c r="CU1" s="176"/>
-      <c r="CV1" s="176"/>
-      <c r="CW1" s="176"/>
-      <c r="CX1" s="176"/>
-      <c r="CY1" s="176"/>
-      <c r="CZ1" s="176"/>
-      <c r="DA1" s="176"/>
-      <c r="DB1" s="176"/>
-      <c r="DC1" s="176"/>
-      <c r="DD1" s="176"/>
-      <c r="DE1" s="176"/>
-      <c r="DF1" s="176"/>
-      <c r="DG1" s="176"/>
-      <c r="DH1" s="176"/>
-      <c r="DI1" s="176"/>
-      <c r="DJ1" s="176"/>
-      <c r="DK1" s="176"/>
-      <c r="DL1" s="176"/>
-      <c r="DM1" s="176"/>
-      <c r="DN1" s="176"/>
-      <c r="DO1" s="176"/>
-      <c r="DP1" s="176"/>
-      <c r="DQ1" s="176"/>
-      <c r="DR1" s="176"/>
-      <c r="DS1" s="176"/>
-      <c r="DT1" s="176"/>
-      <c r="DU1" s="176"/>
-      <c r="DV1" s="176"/>
-      <c r="DW1" s="176"/>
-      <c r="DX1" s="176"/>
-      <c r="DY1" s="176"/>
-      <c r="DZ1" s="176"/>
-      <c r="EA1" s="176"/>
-      <c r="EB1" s="176"/>
-      <c r="EC1" s="176"/>
-      <c r="ED1" s="176"/>
-      <c r="EE1" s="176"/>
-      <c r="EF1" s="176"/>
-      <c r="EG1" s="176"/>
-      <c r="EH1" s="176"/>
-      <c r="EI1" s="176"/>
-      <c r="EJ1" s="176"/>
-      <c r="EK1" s="176"/>
-      <c r="EL1" s="176"/>
-      <c r="EM1" s="176"/>
-      <c r="EN1" s="176"/>
-      <c r="EO1" s="176"/>
-      <c r="EP1" s="176"/>
-      <c r="EQ1" s="176"/>
-      <c r="ER1" s="176"/>
-      <c r="ES1" s="176"/>
-      <c r="ET1" s="176"/>
-      <c r="EU1" s="176"/>
-      <c r="EV1" s="176"/>
-      <c r="EW1" s="176"/>
-      <c r="EX1" s="176"/>
-      <c r="EY1" s="176"/>
-      <c r="EZ1" s="176"/>
-      <c r="FA1" s="176"/>
-      <c r="FB1" s="176"/>
-      <c r="FC1" s="176"/>
-      <c r="FD1" s="176"/>
-      <c r="FE1" s="176"/>
-      <c r="FF1" s="176"/>
-      <c r="FG1" s="176"/>
-      <c r="FH1" s="176"/>
-      <c r="FI1" s="176"/>
-      <c r="FJ1" s="176"/>
-      <c r="FK1" s="176"/>
-      <c r="FL1" s="176"/>
-      <c r="FM1" s="176"/>
-      <c r="FN1" s="176"/>
-      <c r="FO1" s="176"/>
-      <c r="FP1" s="176"/>
-      <c r="FQ1" s="176"/>
-      <c r="FR1" s="176"/>
-      <c r="FS1" s="176"/>
-      <c r="FT1" s="176"/>
-      <c r="FU1" s="176"/>
-      <c r="FV1" s="176"/>
-      <c r="FW1" s="176"/>
-      <c r="FX1" s="176"/>
-      <c r="FY1" s="176"/>
-      <c r="FZ1" s="176"/>
-      <c r="GA1" s="176"/>
-      <c r="GB1" s="176"/>
-      <c r="GC1" s="176"/>
-      <c r="GD1" s="176"/>
-      <c r="GE1" s="176"/>
-      <c r="GF1" s="176"/>
-      <c r="GG1" s="176"/>
-      <c r="GH1" s="176"/>
-      <c r="GI1" s="176"/>
-      <c r="GJ1" s="176"/>
-      <c r="GK1" s="176"/>
-      <c r="GL1" s="176"/>
-      <c r="GM1" s="176"/>
-      <c r="GN1" s="176"/>
-      <c r="GO1" s="176"/>
-      <c r="GP1" s="176"/>
-      <c r="GQ1" s="176"/>
-      <c r="GR1" s="176"/>
-      <c r="GS1" s="176"/>
-      <c r="GT1" s="176"/>
-      <c r="GU1" s="176"/>
-      <c r="GV1" s="176"/>
-      <c r="GW1" s="176"/>
-      <c r="GX1" s="176"/>
-      <c r="GY1" s="176"/>
-      <c r="GZ1" s="176"/>
-      <c r="HA1" s="176"/>
-      <c r="HB1" s="176"/>
-      <c r="HC1" s="176"/>
-      <c r="HD1" s="176"/>
-      <c r="HE1" s="176"/>
-      <c r="HF1" s="176"/>
-      <c r="HG1" s="176"/>
-      <c r="HH1" s="176"/>
-      <c r="HI1" s="176"/>
-      <c r="HJ1" s="176"/>
-      <c r="HK1" s="176"/>
-      <c r="HL1" s="176"/>
-      <c r="HM1" s="176"/>
-      <c r="HN1" s="176"/>
-      <c r="HO1" s="176"/>
-      <c r="HP1" s="176"/>
-      <c r="HQ1" s="176"/>
-      <c r="HR1" s="176"/>
-      <c r="HS1" s="176"/>
-      <c r="HT1" s="176"/>
-      <c r="HU1" s="176"/>
-      <c r="HV1" s="176"/>
-      <c r="HW1" s="176"/>
-      <c r="HX1" s="176"/>
-      <c r="HY1" s="176"/>
-      <c r="HZ1" s="176"/>
-      <c r="IA1" s="176"/>
-      <c r="IB1" s="176"/>
-      <c r="IC1" s="176"/>
-      <c r="ID1" s="176"/>
-      <c r="IE1" s="176"/>
-      <c r="IF1" s="176"/>
-      <c r="IG1" s="176"/>
-      <c r="IH1" s="176"/>
-      <c r="II1" s="176"/>
-      <c r="IJ1" s="176"/>
-      <c r="IK1" s="176"/>
-      <c r="IL1" s="176"/>
-      <c r="IM1" s="176"/>
-      <c r="IN1" s="176"/>
-      <c r="IO1" s="176"/>
-      <c r="IP1" s="176"/>
-      <c r="IQ1" s="176"/>
-      <c r="IR1" s="176"/>
-      <c r="IS1" s="176"/>
-      <c r="IT1" s="176"/>
-      <c r="IU1" s="176"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
+      <c r="N1" s="177"/>
+      <c r="O1" s="177"/>
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="177"/>
+      <c r="S1" s="177"/>
+      <c r="T1" s="177"/>
+      <c r="U1" s="177"/>
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="177"/>
+      <c r="AA1" s="177"/>
+      <c r="AB1" s="177"/>
+      <c r="AC1" s="177"/>
+      <c r="AD1" s="177"/>
+      <c r="AE1" s="177"/>
+      <c r="AF1" s="177"/>
+      <c r="AG1" s="177"/>
+      <c r="AH1" s="177"/>
+      <c r="AI1" s="177"/>
+      <c r="AJ1" s="177"/>
+      <c r="AK1" s="177"/>
+      <c r="AL1" s="177"/>
+      <c r="AM1" s="177"/>
+      <c r="AN1" s="177"/>
+      <c r="AO1" s="177"/>
+      <c r="AP1" s="177"/>
+      <c r="AQ1" s="177"/>
+      <c r="AR1" s="177"/>
+      <c r="AS1" s="177"/>
+      <c r="AT1" s="177"/>
+      <c r="AU1" s="177"/>
+      <c r="AV1" s="177"/>
+      <c r="AW1" s="177"/>
+      <c r="AX1" s="177"/>
+      <c r="AY1" s="177"/>
+      <c r="AZ1" s="177"/>
+      <c r="BA1" s="177"/>
+      <c r="BB1" s="177"/>
+      <c r="BC1" s="177"/>
+      <c r="BD1" s="177"/>
+      <c r="BE1" s="177"/>
+      <c r="BF1" s="177"/>
+      <c r="BG1" s="177"/>
+      <c r="BH1" s="177"/>
+      <c r="BI1" s="177"/>
+      <c r="BJ1" s="177"/>
+      <c r="BK1" s="177"/>
+      <c r="BL1" s="177"/>
+      <c r="BM1" s="177"/>
+      <c r="BN1" s="177"/>
+      <c r="BO1" s="177"/>
+      <c r="BP1" s="177"/>
+      <c r="BQ1" s="177"/>
+      <c r="BR1" s="177"/>
+      <c r="BS1" s="177"/>
+      <c r="BT1" s="177"/>
+      <c r="BU1" s="177"/>
+      <c r="BV1" s="177"/>
+      <c r="BW1" s="177"/>
+      <c r="BX1" s="177"/>
+      <c r="BY1" s="177"/>
+      <c r="BZ1" s="177"/>
+      <c r="CA1" s="177"/>
+      <c r="CB1" s="177"/>
+      <c r="CC1" s="177"/>
+      <c r="CD1" s="177"/>
+      <c r="CE1" s="177"/>
+      <c r="CF1" s="177"/>
+      <c r="CG1" s="177"/>
+      <c r="CH1" s="177"/>
+      <c r="CI1" s="177"/>
+      <c r="CJ1" s="177"/>
+      <c r="CK1" s="177"/>
+      <c r="CL1" s="177"/>
+      <c r="CM1" s="177"/>
+      <c r="CN1" s="177"/>
+      <c r="CO1" s="177"/>
+      <c r="CP1" s="177"/>
+      <c r="CQ1" s="177"/>
+      <c r="CR1" s="177"/>
+      <c r="CS1" s="177"/>
+      <c r="CT1" s="177"/>
+      <c r="CU1" s="177"/>
+      <c r="CV1" s="177"/>
+      <c r="CW1" s="177"/>
+      <c r="CX1" s="177"/>
+      <c r="CY1" s="177"/>
+      <c r="CZ1" s="177"/>
+      <c r="DA1" s="177"/>
+      <c r="DB1" s="177"/>
+      <c r="DC1" s="177"/>
+      <c r="DD1" s="177"/>
+      <c r="DE1" s="177"/>
+      <c r="DF1" s="177"/>
+      <c r="DG1" s="177"/>
+      <c r="DH1" s="177"/>
+      <c r="DI1" s="177"/>
+      <c r="DJ1" s="177"/>
+      <c r="DK1" s="177"/>
+      <c r="DL1" s="177"/>
+      <c r="DM1" s="177"/>
+      <c r="DN1" s="177"/>
+      <c r="DO1" s="177"/>
+      <c r="DP1" s="177"/>
+      <c r="DQ1" s="177"/>
+      <c r="DR1" s="177"/>
+      <c r="DS1" s="177"/>
+      <c r="DT1" s="177"/>
+      <c r="DU1" s="177"/>
+      <c r="DV1" s="177"/>
+      <c r="DW1" s="177"/>
+      <c r="DX1" s="177"/>
+      <c r="DY1" s="177"/>
+      <c r="DZ1" s="177"/>
+      <c r="EA1" s="177"/>
+      <c r="EB1" s="177"/>
+      <c r="EC1" s="177"/>
+      <c r="ED1" s="177"/>
+      <c r="EE1" s="177"/>
+      <c r="EF1" s="177"/>
+      <c r="EG1" s="177"/>
+      <c r="EH1" s="177"/>
+      <c r="EI1" s="177"/>
+      <c r="EJ1" s="177"/>
+      <c r="EK1" s="177"/>
+      <c r="EL1" s="177"/>
+      <c r="EM1" s="177"/>
+      <c r="EN1" s="177"/>
+      <c r="EO1" s="177"/>
+      <c r="EP1" s="177"/>
+      <c r="EQ1" s="177"/>
+      <c r="ER1" s="177"/>
+      <c r="ES1" s="177"/>
+      <c r="ET1" s="177"/>
+      <c r="EU1" s="177"/>
+      <c r="EV1" s="177"/>
+      <c r="EW1" s="177"/>
+      <c r="EX1" s="177"/>
+      <c r="EY1" s="177"/>
+      <c r="EZ1" s="177"/>
+      <c r="FA1" s="177"/>
+      <c r="FB1" s="177"/>
+      <c r="FC1" s="177"/>
+      <c r="FD1" s="177"/>
+      <c r="FE1" s="177"/>
+      <c r="FF1" s="177"/>
+      <c r="FG1" s="177"/>
+      <c r="FH1" s="177"/>
+      <c r="FI1" s="177"/>
+      <c r="FJ1" s="177"/>
+      <c r="FK1" s="177"/>
+      <c r="FL1" s="177"/>
+      <c r="FM1" s="177"/>
+      <c r="FN1" s="177"/>
+      <c r="FO1" s="177"/>
+      <c r="FP1" s="177"/>
+      <c r="FQ1" s="177"/>
+      <c r="FR1" s="177"/>
+      <c r="FS1" s="177"/>
+      <c r="FT1" s="177"/>
+      <c r="FU1" s="177"/>
+      <c r="FV1" s="177"/>
+      <c r="FW1" s="177"/>
+      <c r="FX1" s="177"/>
+      <c r="FY1" s="177"/>
+      <c r="FZ1" s="177"/>
+      <c r="GA1" s="177"/>
+      <c r="GB1" s="177"/>
+      <c r="GC1" s="177"/>
+      <c r="GD1" s="177"/>
+      <c r="GE1" s="177"/>
+      <c r="GF1" s="177"/>
+      <c r="GG1" s="177"/>
+      <c r="GH1" s="177"/>
+      <c r="GI1" s="177"/>
+      <c r="GJ1" s="177"/>
+      <c r="GK1" s="177"/>
+      <c r="GL1" s="177"/>
+      <c r="GM1" s="177"/>
+      <c r="GN1" s="177"/>
+      <c r="GO1" s="177"/>
+      <c r="GP1" s="177"/>
+      <c r="GQ1" s="177"/>
+      <c r="GR1" s="177"/>
+      <c r="GS1" s="177"/>
+      <c r="GT1" s="177"/>
+      <c r="GU1" s="177"/>
+      <c r="GV1" s="177"/>
+      <c r="GW1" s="177"/>
+      <c r="GX1" s="177"/>
+      <c r="GY1" s="177"/>
+      <c r="GZ1" s="177"/>
+      <c r="HA1" s="177"/>
+      <c r="HB1" s="177"/>
+      <c r="HC1" s="177"/>
+      <c r="HD1" s="177"/>
+      <c r="HE1" s="177"/>
+      <c r="HF1" s="177"/>
+      <c r="HG1" s="177"/>
+      <c r="HH1" s="177"/>
+      <c r="HI1" s="177"/>
+      <c r="HJ1" s="177"/>
+      <c r="HK1" s="177"/>
+      <c r="HL1" s="177"/>
+      <c r="HM1" s="177"/>
+      <c r="HN1" s="177"/>
+      <c r="HO1" s="177"/>
+      <c r="HP1" s="177"/>
+      <c r="HQ1" s="177"/>
+      <c r="HR1" s="177"/>
+      <c r="HS1" s="177"/>
+      <c r="HT1" s="177"/>
+      <c r="HU1" s="177"/>
+      <c r="HV1" s="177"/>
+      <c r="HW1" s="177"/>
+      <c r="HX1" s="177"/>
+      <c r="HY1" s="177"/>
+      <c r="HZ1" s="177"/>
+      <c r="IA1" s="177"/>
+      <c r="IB1" s="177"/>
+      <c r="IC1" s="177"/>
+      <c r="ID1" s="177"/>
+      <c r="IE1" s="177"/>
+      <c r="IF1" s="177"/>
+      <c r="IG1" s="177"/>
+      <c r="IH1" s="177"/>
+      <c r="II1" s="177"/>
+      <c r="IJ1" s="177"/>
+      <c r="IK1" s="177"/>
+      <c r="IL1" s="177"/>
+      <c r="IM1" s="177"/>
+      <c r="IN1" s="177"/>
+      <c r="IO1" s="177"/>
+      <c r="IP1" s="177"/>
+      <c r="IQ1" s="177"/>
+      <c r="IR1" s="177"/>
+      <c r="IS1" s="177"/>
+      <c r="IT1" s="177"/>
+      <c r="IU1" s="177"/>
     </row>
-    <row r="2" spans="1:255" ht="15" thickBot="1">
-      <c r="A2" s="179" t="str">
+    <row r="2" spans="1:255" ht="15.75" thickBot="1">
+      <c r="A2" s="180" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
       </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
-      <c r="K2" s="179"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
     </row>
     <row r="3" spans="1:255" ht="15" customHeight="1">
-      <c r="A3" s="180" t="str">
+      <c r="A3" s="181" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
       </c>
-      <c r="B3" s="182" t="str">
+      <c r="B3" s="183" t="str">
         <f>'Сводная таблица'!B3:B4</f>
         <v>группа</v>
       </c>
-      <c r="C3" s="184" t="str">
+      <c r="C3" s="185" t="str">
         <f>'Сводная таблица'!C3:C4</f>
         <v>подргуппа</v>
       </c>
-      <c r="D3" s="186" t="str">
+      <c r="D3" s="187" t="str">
         <f>'Сводная таблица'!D3:D4</f>
         <v>Фамилия</v>
       </c>
-      <c r="E3" s="188" t="str">
+      <c r="E3" s="189" t="str">
         <f>'Сводная таблица'!E3:E4</f>
         <v>Имя</v>
       </c>
-      <c r="F3" s="177" t="str">
+      <c r="F3" s="178" t="str">
         <f>'Сводная таблица'!F3:F4</f>
         <v>Отчество</v>
       </c>
-      <c r="G3" s="180" t="s">
+      <c r="G3" s="181" t="s">
         <v>114</v>
       </c>
-      <c r="H3" s="186" t="s">
+      <c r="H3" s="187" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="193" t="s">
+      <c r="I3" s="194" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="193" t="s">
+      <c r="J3" s="194" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="190" t="s">
+      <c r="K3" s="191" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:255" ht="15" thickBot="1">
-      <c r="A4" s="181"/>
-      <c r="B4" s="183"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="192"/>
-      <c r="H4" s="173"/>
-      <c r="I4" s="194"/>
-      <c r="J4" s="194"/>
-      <c r="K4" s="191"/>
+    <row r="4" spans="1:255" ht="15.75" thickBot="1">
+      <c r="A4" s="182"/>
+      <c r="B4" s="184"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="174"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="195"/>
+      <c r="K4" s="192"/>
     </row>
     <row r="5" spans="1:255" s="54" customFormat="1">
       <c r="A5" s="62">
@@ -63247,7 +63307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1">
+    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1">
       <c r="A43" s="56">
         <v>42</v>
       </c>
@@ -63363,352 +63423,352 @@
   <dimension ref="A1:IU49"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="177" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="176"/>
-      <c r="T1" s="176"/>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="176"/>
-      <c r="AA1" s="176"/>
-      <c r="AB1" s="176"/>
-      <c r="AC1" s="176"/>
-      <c r="AD1" s="176"/>
-      <c r="AE1" s="176"/>
-      <c r="AF1" s="176"/>
-      <c r="AG1" s="176"/>
-      <c r="AH1" s="176"/>
-      <c r="AI1" s="176"/>
-      <c r="AJ1" s="176"/>
-      <c r="AK1" s="176"/>
-      <c r="AL1" s="176"/>
-      <c r="AM1" s="176"/>
-      <c r="AN1" s="176"/>
-      <c r="AO1" s="176"/>
-      <c r="AP1" s="176"/>
-      <c r="AQ1" s="176"/>
-      <c r="AR1" s="176"/>
-      <c r="AS1" s="176"/>
-      <c r="AT1" s="176"/>
-      <c r="AU1" s="176"/>
-      <c r="AV1" s="176"/>
-      <c r="AW1" s="176"/>
-      <c r="AX1" s="176"/>
-      <c r="AY1" s="176"/>
-      <c r="AZ1" s="176"/>
-      <c r="BA1" s="176"/>
-      <c r="BB1" s="176"/>
-      <c r="BC1" s="176"/>
-      <c r="BD1" s="176"/>
-      <c r="BE1" s="176"/>
-      <c r="BF1" s="176"/>
-      <c r="BG1" s="176"/>
-      <c r="BH1" s="176"/>
-      <c r="BI1" s="176"/>
-      <c r="BJ1" s="176"/>
-      <c r="BK1" s="176"/>
-      <c r="BL1" s="176"/>
-      <c r="BM1" s="176"/>
-      <c r="BN1" s="176"/>
-      <c r="BO1" s="176"/>
-      <c r="BP1" s="176"/>
-      <c r="BQ1" s="176"/>
-      <c r="BR1" s="176"/>
-      <c r="BS1" s="176"/>
-      <c r="BT1" s="176"/>
-      <c r="BU1" s="176"/>
-      <c r="BV1" s="176"/>
-      <c r="BW1" s="176"/>
-      <c r="BX1" s="176"/>
-      <c r="BY1" s="176"/>
-      <c r="BZ1" s="176"/>
-      <c r="CA1" s="176"/>
-      <c r="CB1" s="176"/>
-      <c r="CC1" s="176"/>
-      <c r="CD1" s="176"/>
-      <c r="CE1" s="176"/>
-      <c r="CF1" s="176"/>
-      <c r="CG1" s="176"/>
-      <c r="CH1" s="176"/>
-      <c r="CI1" s="176"/>
-      <c r="CJ1" s="176"/>
-      <c r="CK1" s="176"/>
-      <c r="CL1" s="176"/>
-      <c r="CM1" s="176"/>
-      <c r="CN1" s="176"/>
-      <c r="CO1" s="176"/>
-      <c r="CP1" s="176"/>
-      <c r="CQ1" s="176"/>
-      <c r="CR1" s="176"/>
-      <c r="CS1" s="176"/>
-      <c r="CT1" s="176"/>
-      <c r="CU1" s="176"/>
-      <c r="CV1" s="176"/>
-      <c r="CW1" s="176"/>
-      <c r="CX1" s="176"/>
-      <c r="CY1" s="176"/>
-      <c r="CZ1" s="176"/>
-      <c r="DA1" s="176"/>
-      <c r="DB1" s="176"/>
-      <c r="DC1" s="176"/>
-      <c r="DD1" s="176"/>
-      <c r="DE1" s="176"/>
-      <c r="DF1" s="176"/>
-      <c r="DG1" s="176"/>
-      <c r="DH1" s="176"/>
-      <c r="DI1" s="176"/>
-      <c r="DJ1" s="176"/>
-      <c r="DK1" s="176"/>
-      <c r="DL1" s="176"/>
-      <c r="DM1" s="176"/>
-      <c r="DN1" s="176"/>
-      <c r="DO1" s="176"/>
-      <c r="DP1" s="176"/>
-      <c r="DQ1" s="176"/>
-      <c r="DR1" s="176"/>
-      <c r="DS1" s="176"/>
-      <c r="DT1" s="176"/>
-      <c r="DU1" s="176"/>
-      <c r="DV1" s="176"/>
-      <c r="DW1" s="176"/>
-      <c r="DX1" s="176"/>
-      <c r="DY1" s="176"/>
-      <c r="DZ1" s="176"/>
-      <c r="EA1" s="176"/>
-      <c r="EB1" s="176"/>
-      <c r="EC1" s="176"/>
-      <c r="ED1" s="176"/>
-      <c r="EE1" s="176"/>
-      <c r="EF1" s="176"/>
-      <c r="EG1" s="176"/>
-      <c r="EH1" s="176"/>
-      <c r="EI1" s="176"/>
-      <c r="EJ1" s="176"/>
-      <c r="EK1" s="176"/>
-      <c r="EL1" s="176"/>
-      <c r="EM1" s="176"/>
-      <c r="EN1" s="176"/>
-      <c r="EO1" s="176"/>
-      <c r="EP1" s="176"/>
-      <c r="EQ1" s="176"/>
-      <c r="ER1" s="176"/>
-      <c r="ES1" s="176"/>
-      <c r="ET1" s="176"/>
-      <c r="EU1" s="176"/>
-      <c r="EV1" s="176"/>
-      <c r="EW1" s="176"/>
-      <c r="EX1" s="176"/>
-      <c r="EY1" s="176"/>
-      <c r="EZ1" s="176"/>
-      <c r="FA1" s="176"/>
-      <c r="FB1" s="176"/>
-      <c r="FC1" s="176"/>
-      <c r="FD1" s="176"/>
-      <c r="FE1" s="176"/>
-      <c r="FF1" s="176"/>
-      <c r="FG1" s="176"/>
-      <c r="FH1" s="176"/>
-      <c r="FI1" s="176"/>
-      <c r="FJ1" s="176"/>
-      <c r="FK1" s="176"/>
-      <c r="FL1" s="176"/>
-      <c r="FM1" s="176"/>
-      <c r="FN1" s="176"/>
-      <c r="FO1" s="176"/>
-      <c r="FP1" s="176"/>
-      <c r="FQ1" s="176"/>
-      <c r="FR1" s="176"/>
-      <c r="FS1" s="176"/>
-      <c r="FT1" s="176"/>
-      <c r="FU1" s="176"/>
-      <c r="FV1" s="176"/>
-      <c r="FW1" s="176"/>
-      <c r="FX1" s="176"/>
-      <c r="FY1" s="176"/>
-      <c r="FZ1" s="176"/>
-      <c r="GA1" s="176"/>
-      <c r="GB1" s="176"/>
-      <c r="GC1" s="176"/>
-      <c r="GD1" s="176"/>
-      <c r="GE1" s="176"/>
-      <c r="GF1" s="176"/>
-      <c r="GG1" s="176"/>
-      <c r="GH1" s="176"/>
-      <c r="GI1" s="176"/>
-      <c r="GJ1" s="176"/>
-      <c r="GK1" s="176"/>
-      <c r="GL1" s="176"/>
-      <c r="GM1" s="176"/>
-      <c r="GN1" s="176"/>
-      <c r="GO1" s="176"/>
-      <c r="GP1" s="176"/>
-      <c r="GQ1" s="176"/>
-      <c r="GR1" s="176"/>
-      <c r="GS1" s="176"/>
-      <c r="GT1" s="176"/>
-      <c r="GU1" s="176"/>
-      <c r="GV1" s="176"/>
-      <c r="GW1" s="176"/>
-      <c r="GX1" s="176"/>
-      <c r="GY1" s="176"/>
-      <c r="GZ1" s="176"/>
-      <c r="HA1" s="176"/>
-      <c r="HB1" s="176"/>
-      <c r="HC1" s="176"/>
-      <c r="HD1" s="176"/>
-      <c r="HE1" s="176"/>
-      <c r="HF1" s="176"/>
-      <c r="HG1" s="176"/>
-      <c r="HH1" s="176"/>
-      <c r="HI1" s="176"/>
-      <c r="HJ1" s="176"/>
-      <c r="HK1" s="176"/>
-      <c r="HL1" s="176"/>
-      <c r="HM1" s="176"/>
-      <c r="HN1" s="176"/>
-      <c r="HO1" s="176"/>
-      <c r="HP1" s="176"/>
-      <c r="HQ1" s="176"/>
-      <c r="HR1" s="176"/>
-      <c r="HS1" s="176"/>
-      <c r="HT1" s="176"/>
-      <c r="HU1" s="176"/>
-      <c r="HV1" s="176"/>
-      <c r="HW1" s="176"/>
-      <c r="HX1" s="176"/>
-      <c r="HY1" s="176"/>
-      <c r="HZ1" s="176"/>
-      <c r="IA1" s="176"/>
-      <c r="IB1" s="176"/>
-      <c r="IC1" s="176"/>
-      <c r="ID1" s="176"/>
-      <c r="IE1" s="176"/>
-      <c r="IF1" s="176"/>
-      <c r="IG1" s="176"/>
-      <c r="IH1" s="176"/>
-      <c r="II1" s="176"/>
-      <c r="IJ1" s="176"/>
-      <c r="IK1" s="176"/>
-      <c r="IL1" s="176"/>
-      <c r="IM1" s="176"/>
-      <c r="IN1" s="176"/>
-      <c r="IO1" s="176"/>
-      <c r="IP1" s="176"/>
-      <c r="IQ1" s="176"/>
-      <c r="IR1" s="176"/>
-      <c r="IS1" s="176"/>
-      <c r="IT1" s="176"/>
-      <c r="IU1" s="176"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
+      <c r="N1" s="177"/>
+      <c r="O1" s="177"/>
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="177"/>
+      <c r="S1" s="177"/>
+      <c r="T1" s="177"/>
+      <c r="U1" s="177"/>
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="177"/>
+      <c r="AA1" s="177"/>
+      <c r="AB1" s="177"/>
+      <c r="AC1" s="177"/>
+      <c r="AD1" s="177"/>
+      <c r="AE1" s="177"/>
+      <c r="AF1" s="177"/>
+      <c r="AG1" s="177"/>
+      <c r="AH1" s="177"/>
+      <c r="AI1" s="177"/>
+      <c r="AJ1" s="177"/>
+      <c r="AK1" s="177"/>
+      <c r="AL1" s="177"/>
+      <c r="AM1" s="177"/>
+      <c r="AN1" s="177"/>
+      <c r="AO1" s="177"/>
+      <c r="AP1" s="177"/>
+      <c r="AQ1" s="177"/>
+      <c r="AR1" s="177"/>
+      <c r="AS1" s="177"/>
+      <c r="AT1" s="177"/>
+      <c r="AU1" s="177"/>
+      <c r="AV1" s="177"/>
+      <c r="AW1" s="177"/>
+      <c r="AX1" s="177"/>
+      <c r="AY1" s="177"/>
+      <c r="AZ1" s="177"/>
+      <c r="BA1" s="177"/>
+      <c r="BB1" s="177"/>
+      <c r="BC1" s="177"/>
+      <c r="BD1" s="177"/>
+      <c r="BE1" s="177"/>
+      <c r="BF1" s="177"/>
+      <c r="BG1" s="177"/>
+      <c r="BH1" s="177"/>
+      <c r="BI1" s="177"/>
+      <c r="BJ1" s="177"/>
+      <c r="BK1" s="177"/>
+      <c r="BL1" s="177"/>
+      <c r="BM1" s="177"/>
+      <c r="BN1" s="177"/>
+      <c r="BO1" s="177"/>
+      <c r="BP1" s="177"/>
+      <c r="BQ1" s="177"/>
+      <c r="BR1" s="177"/>
+      <c r="BS1" s="177"/>
+      <c r="BT1" s="177"/>
+      <c r="BU1" s="177"/>
+      <c r="BV1" s="177"/>
+      <c r="BW1" s="177"/>
+      <c r="BX1" s="177"/>
+      <c r="BY1" s="177"/>
+      <c r="BZ1" s="177"/>
+      <c r="CA1" s="177"/>
+      <c r="CB1" s="177"/>
+      <c r="CC1" s="177"/>
+      <c r="CD1" s="177"/>
+      <c r="CE1" s="177"/>
+      <c r="CF1" s="177"/>
+      <c r="CG1" s="177"/>
+      <c r="CH1" s="177"/>
+      <c r="CI1" s="177"/>
+      <c r="CJ1" s="177"/>
+      <c r="CK1" s="177"/>
+      <c r="CL1" s="177"/>
+      <c r="CM1" s="177"/>
+      <c r="CN1" s="177"/>
+      <c r="CO1" s="177"/>
+      <c r="CP1" s="177"/>
+      <c r="CQ1" s="177"/>
+      <c r="CR1" s="177"/>
+      <c r="CS1" s="177"/>
+      <c r="CT1" s="177"/>
+      <c r="CU1" s="177"/>
+      <c r="CV1" s="177"/>
+      <c r="CW1" s="177"/>
+      <c r="CX1" s="177"/>
+      <c r="CY1" s="177"/>
+      <c r="CZ1" s="177"/>
+      <c r="DA1" s="177"/>
+      <c r="DB1" s="177"/>
+      <c r="DC1" s="177"/>
+      <c r="DD1" s="177"/>
+      <c r="DE1" s="177"/>
+      <c r="DF1" s="177"/>
+      <c r="DG1" s="177"/>
+      <c r="DH1" s="177"/>
+      <c r="DI1" s="177"/>
+      <c r="DJ1" s="177"/>
+      <c r="DK1" s="177"/>
+      <c r="DL1" s="177"/>
+      <c r="DM1" s="177"/>
+      <c r="DN1" s="177"/>
+      <c r="DO1" s="177"/>
+      <c r="DP1" s="177"/>
+      <c r="DQ1" s="177"/>
+      <c r="DR1" s="177"/>
+      <c r="DS1" s="177"/>
+      <c r="DT1" s="177"/>
+      <c r="DU1" s="177"/>
+      <c r="DV1" s="177"/>
+      <c r="DW1" s="177"/>
+      <c r="DX1" s="177"/>
+      <c r="DY1" s="177"/>
+      <c r="DZ1" s="177"/>
+      <c r="EA1" s="177"/>
+      <c r="EB1" s="177"/>
+      <c r="EC1" s="177"/>
+      <c r="ED1" s="177"/>
+      <c r="EE1" s="177"/>
+      <c r="EF1" s="177"/>
+      <c r="EG1" s="177"/>
+      <c r="EH1" s="177"/>
+      <c r="EI1" s="177"/>
+      <c r="EJ1" s="177"/>
+      <c r="EK1" s="177"/>
+      <c r="EL1" s="177"/>
+      <c r="EM1" s="177"/>
+      <c r="EN1" s="177"/>
+      <c r="EO1" s="177"/>
+      <c r="EP1" s="177"/>
+      <c r="EQ1" s="177"/>
+      <c r="ER1" s="177"/>
+      <c r="ES1" s="177"/>
+      <c r="ET1" s="177"/>
+      <c r="EU1" s="177"/>
+      <c r="EV1" s="177"/>
+      <c r="EW1" s="177"/>
+      <c r="EX1" s="177"/>
+      <c r="EY1" s="177"/>
+      <c r="EZ1" s="177"/>
+      <c r="FA1" s="177"/>
+      <c r="FB1" s="177"/>
+      <c r="FC1" s="177"/>
+      <c r="FD1" s="177"/>
+      <c r="FE1" s="177"/>
+      <c r="FF1" s="177"/>
+      <c r="FG1" s="177"/>
+      <c r="FH1" s="177"/>
+      <c r="FI1" s="177"/>
+      <c r="FJ1" s="177"/>
+      <c r="FK1" s="177"/>
+      <c r="FL1" s="177"/>
+      <c r="FM1" s="177"/>
+      <c r="FN1" s="177"/>
+      <c r="FO1" s="177"/>
+      <c r="FP1" s="177"/>
+      <c r="FQ1" s="177"/>
+      <c r="FR1" s="177"/>
+      <c r="FS1" s="177"/>
+      <c r="FT1" s="177"/>
+      <c r="FU1" s="177"/>
+      <c r="FV1" s="177"/>
+      <c r="FW1" s="177"/>
+      <c r="FX1" s="177"/>
+      <c r="FY1" s="177"/>
+      <c r="FZ1" s="177"/>
+      <c r="GA1" s="177"/>
+      <c r="GB1" s="177"/>
+      <c r="GC1" s="177"/>
+      <c r="GD1" s="177"/>
+      <c r="GE1" s="177"/>
+      <c r="GF1" s="177"/>
+      <c r="GG1" s="177"/>
+      <c r="GH1" s="177"/>
+      <c r="GI1" s="177"/>
+      <c r="GJ1" s="177"/>
+      <c r="GK1" s="177"/>
+      <c r="GL1" s="177"/>
+      <c r="GM1" s="177"/>
+      <c r="GN1" s="177"/>
+      <c r="GO1" s="177"/>
+      <c r="GP1" s="177"/>
+      <c r="GQ1" s="177"/>
+      <c r="GR1" s="177"/>
+      <c r="GS1" s="177"/>
+      <c r="GT1" s="177"/>
+      <c r="GU1" s="177"/>
+      <c r="GV1" s="177"/>
+      <c r="GW1" s="177"/>
+      <c r="GX1" s="177"/>
+      <c r="GY1" s="177"/>
+      <c r="GZ1" s="177"/>
+      <c r="HA1" s="177"/>
+      <c r="HB1" s="177"/>
+      <c r="HC1" s="177"/>
+      <c r="HD1" s="177"/>
+      <c r="HE1" s="177"/>
+      <c r="HF1" s="177"/>
+      <c r="HG1" s="177"/>
+      <c r="HH1" s="177"/>
+      <c r="HI1" s="177"/>
+      <c r="HJ1" s="177"/>
+      <c r="HK1" s="177"/>
+      <c r="HL1" s="177"/>
+      <c r="HM1" s="177"/>
+      <c r="HN1" s="177"/>
+      <c r="HO1" s="177"/>
+      <c r="HP1" s="177"/>
+      <c r="HQ1" s="177"/>
+      <c r="HR1" s="177"/>
+      <c r="HS1" s="177"/>
+      <c r="HT1" s="177"/>
+      <c r="HU1" s="177"/>
+      <c r="HV1" s="177"/>
+      <c r="HW1" s="177"/>
+      <c r="HX1" s="177"/>
+      <c r="HY1" s="177"/>
+      <c r="HZ1" s="177"/>
+      <c r="IA1" s="177"/>
+      <c r="IB1" s="177"/>
+      <c r="IC1" s="177"/>
+      <c r="ID1" s="177"/>
+      <c r="IE1" s="177"/>
+      <c r="IF1" s="177"/>
+      <c r="IG1" s="177"/>
+      <c r="IH1" s="177"/>
+      <c r="II1" s="177"/>
+      <c r="IJ1" s="177"/>
+      <c r="IK1" s="177"/>
+      <c r="IL1" s="177"/>
+      <c r="IM1" s="177"/>
+      <c r="IN1" s="177"/>
+      <c r="IO1" s="177"/>
+      <c r="IP1" s="177"/>
+      <c r="IQ1" s="177"/>
+      <c r="IR1" s="177"/>
+      <c r="IS1" s="177"/>
+      <c r="IT1" s="177"/>
+      <c r="IU1" s="177"/>
     </row>
-    <row r="2" spans="1:255" ht="15" thickBot="1">
-      <c r="A2" s="179" t="str">
+    <row r="2" spans="1:255" ht="15.75" thickBot="1">
+      <c r="A2" s="180" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
       </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
-      <c r="K2" s="179"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
     </row>
     <row r="3" spans="1:255" ht="15" customHeight="1">
-      <c r="A3" s="180" t="str">
+      <c r="A3" s="181" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
       </c>
-      <c r="B3" s="182" t="str">
+      <c r="B3" s="183" t="str">
         <f>'Сводная таблица'!B3:B4</f>
         <v>группа</v>
       </c>
-      <c r="C3" s="184" t="str">
+      <c r="C3" s="185" t="str">
         <f>'Сводная таблица'!C3:C4</f>
         <v>подргуппа</v>
       </c>
-      <c r="D3" s="186" t="str">
+      <c r="D3" s="187" t="str">
         <f>'Сводная таблица'!D3:D4</f>
         <v>Фамилия</v>
       </c>
-      <c r="E3" s="188" t="str">
+      <c r="E3" s="189" t="str">
         <f>'Сводная таблица'!E3:E4</f>
         <v>Имя</v>
       </c>
-      <c r="F3" s="177" t="str">
+      <c r="F3" s="178" t="str">
         <f>'Сводная таблица'!F3:F4</f>
         <v>Отчество</v>
       </c>
-      <c r="G3" s="180" t="s">
+      <c r="G3" s="181" t="s">
         <v>114</v>
       </c>
-      <c r="H3" s="186" t="s">
+      <c r="H3" s="187" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="193" t="s">
+      <c r="I3" s="194" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="193" t="s">
+      <c r="J3" s="194" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="190" t="s">
+      <c r="K3" s="191" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:255" ht="15" thickBot="1">
-      <c r="A4" s="181"/>
-      <c r="B4" s="183"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="187"/>
-      <c r="I4" s="195"/>
-      <c r="J4" s="195"/>
-      <c r="K4" s="196"/>
+    <row r="4" spans="1:255" ht="15.75" thickBot="1">
+      <c r="A4" s="182"/>
+      <c r="B4" s="184"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="182"/>
+      <c r="H4" s="188"/>
+      <c r="I4" s="196"/>
+      <c r="J4" s="196"/>
+      <c r="K4" s="197"/>
     </row>
     <row r="5" spans="1:255" s="54" customFormat="1">
       <c r="A5" s="24">
@@ -65128,7 +65188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1">
+    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1">
       <c r="A43" s="56">
         <v>42</v>
       </c>
@@ -65248,343 +65308,343 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="177" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="176"/>
-      <c r="T1" s="176"/>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="176"/>
-      <c r="AA1" s="176"/>
-      <c r="AB1" s="176"/>
-      <c r="AC1" s="176"/>
-      <c r="AD1" s="176"/>
-      <c r="AE1" s="176"/>
-      <c r="AF1" s="176"/>
-      <c r="AG1" s="176"/>
-      <c r="AH1" s="176"/>
-      <c r="AI1" s="176"/>
-      <c r="AJ1" s="176"/>
-      <c r="AK1" s="176"/>
-      <c r="AL1" s="176"/>
-      <c r="AM1" s="176"/>
-      <c r="AN1" s="176"/>
-      <c r="AO1" s="176"/>
-      <c r="AP1" s="176"/>
-      <c r="AQ1" s="176"/>
-      <c r="AR1" s="176"/>
-      <c r="AS1" s="176"/>
-      <c r="AT1" s="176"/>
-      <c r="AU1" s="176"/>
-      <c r="AV1" s="176"/>
-      <c r="AW1" s="176"/>
-      <c r="AX1" s="176"/>
-      <c r="AY1" s="176"/>
-      <c r="AZ1" s="176"/>
-      <c r="BA1" s="176"/>
-      <c r="BB1" s="176"/>
-      <c r="BC1" s="176"/>
-      <c r="BD1" s="176"/>
-      <c r="BE1" s="176"/>
-      <c r="BF1" s="176"/>
-      <c r="BG1" s="176"/>
-      <c r="BH1" s="176"/>
-      <c r="BI1" s="176"/>
-      <c r="BJ1" s="176"/>
-      <c r="BK1" s="176"/>
-      <c r="BL1" s="176"/>
-      <c r="BM1" s="176"/>
-      <c r="BN1" s="176"/>
-      <c r="BO1" s="176"/>
-      <c r="BP1" s="176"/>
-      <c r="BQ1" s="176"/>
-      <c r="BR1" s="176"/>
-      <c r="BS1" s="176"/>
-      <c r="BT1" s="176"/>
-      <c r="BU1" s="176"/>
-      <c r="BV1" s="176"/>
-      <c r="BW1" s="176"/>
-      <c r="BX1" s="176"/>
-      <c r="BY1" s="176"/>
-      <c r="BZ1" s="176"/>
-      <c r="CA1" s="176"/>
-      <c r="CB1" s="176"/>
-      <c r="CC1" s="176"/>
-      <c r="CD1" s="176"/>
-      <c r="CE1" s="176"/>
-      <c r="CF1" s="176"/>
-      <c r="CG1" s="176"/>
-      <c r="CH1" s="176"/>
-      <c r="CI1" s="176"/>
-      <c r="CJ1" s="176"/>
-      <c r="CK1" s="176"/>
-      <c r="CL1" s="176"/>
-      <c r="CM1" s="176"/>
-      <c r="CN1" s="176"/>
-      <c r="CO1" s="176"/>
-      <c r="CP1" s="176"/>
-      <c r="CQ1" s="176"/>
-      <c r="CR1" s="176"/>
-      <c r="CS1" s="176"/>
-      <c r="CT1" s="176"/>
-      <c r="CU1" s="176"/>
-      <c r="CV1" s="176"/>
-      <c r="CW1" s="176"/>
-      <c r="CX1" s="176"/>
-      <c r="CY1" s="176"/>
-      <c r="CZ1" s="176"/>
-      <c r="DA1" s="176"/>
-      <c r="DB1" s="176"/>
-      <c r="DC1" s="176"/>
-      <c r="DD1" s="176"/>
-      <c r="DE1" s="176"/>
-      <c r="DF1" s="176"/>
-      <c r="DG1" s="176"/>
-      <c r="DH1" s="176"/>
-      <c r="DI1" s="176"/>
-      <c r="DJ1" s="176"/>
-      <c r="DK1" s="176"/>
-      <c r="DL1" s="176"/>
-      <c r="DM1" s="176"/>
-      <c r="DN1" s="176"/>
-      <c r="DO1" s="176"/>
-      <c r="DP1" s="176"/>
-      <c r="DQ1" s="176"/>
-      <c r="DR1" s="176"/>
-      <c r="DS1" s="176"/>
-      <c r="DT1" s="176"/>
-      <c r="DU1" s="176"/>
-      <c r="DV1" s="176"/>
-      <c r="DW1" s="176"/>
-      <c r="DX1" s="176"/>
-      <c r="DY1" s="176"/>
-      <c r="DZ1" s="176"/>
-      <c r="EA1" s="176"/>
-      <c r="EB1" s="176"/>
-      <c r="EC1" s="176"/>
-      <c r="ED1" s="176"/>
-      <c r="EE1" s="176"/>
-      <c r="EF1" s="176"/>
-      <c r="EG1" s="176"/>
-      <c r="EH1" s="176"/>
-      <c r="EI1" s="176"/>
-      <c r="EJ1" s="176"/>
-      <c r="EK1" s="176"/>
-      <c r="EL1" s="176"/>
-      <c r="EM1" s="176"/>
-      <c r="EN1" s="176"/>
-      <c r="EO1" s="176"/>
-      <c r="EP1" s="176"/>
-      <c r="EQ1" s="176"/>
-      <c r="ER1" s="176"/>
-      <c r="ES1" s="176"/>
-      <c r="ET1" s="176"/>
-      <c r="EU1" s="176"/>
-      <c r="EV1" s="176"/>
-      <c r="EW1" s="176"/>
-      <c r="EX1" s="176"/>
-      <c r="EY1" s="176"/>
-      <c r="EZ1" s="176"/>
-      <c r="FA1" s="176"/>
-      <c r="FB1" s="176"/>
-      <c r="FC1" s="176"/>
-      <c r="FD1" s="176"/>
-      <c r="FE1" s="176"/>
-      <c r="FF1" s="176"/>
-      <c r="FG1" s="176"/>
-      <c r="FH1" s="176"/>
-      <c r="FI1" s="176"/>
-      <c r="FJ1" s="176"/>
-      <c r="FK1" s="176"/>
-      <c r="FL1" s="176"/>
-      <c r="FM1" s="176"/>
-      <c r="FN1" s="176"/>
-      <c r="FO1" s="176"/>
-      <c r="FP1" s="176"/>
-      <c r="FQ1" s="176"/>
-      <c r="FR1" s="176"/>
-      <c r="FS1" s="176"/>
-      <c r="FT1" s="176"/>
-      <c r="FU1" s="176"/>
-      <c r="FV1" s="176"/>
-      <c r="FW1" s="176"/>
-      <c r="FX1" s="176"/>
-      <c r="FY1" s="176"/>
-      <c r="FZ1" s="176"/>
-      <c r="GA1" s="176"/>
-      <c r="GB1" s="176"/>
-      <c r="GC1" s="176"/>
-      <c r="GD1" s="176"/>
-      <c r="GE1" s="176"/>
-      <c r="GF1" s="176"/>
-      <c r="GG1" s="176"/>
-      <c r="GH1" s="176"/>
-      <c r="GI1" s="176"/>
-      <c r="GJ1" s="176"/>
-      <c r="GK1" s="176"/>
-      <c r="GL1" s="176"/>
-      <c r="GM1" s="176"/>
-      <c r="GN1" s="176"/>
-      <c r="GO1" s="176"/>
-      <c r="GP1" s="176"/>
-      <c r="GQ1" s="176"/>
-      <c r="GR1" s="176"/>
-      <c r="GS1" s="176"/>
-      <c r="GT1" s="176"/>
-      <c r="GU1" s="176"/>
-      <c r="GV1" s="176"/>
-      <c r="GW1" s="176"/>
-      <c r="GX1" s="176"/>
-      <c r="GY1" s="176"/>
-      <c r="GZ1" s="176"/>
-      <c r="HA1" s="176"/>
-      <c r="HB1" s="176"/>
-      <c r="HC1" s="176"/>
-      <c r="HD1" s="176"/>
-      <c r="HE1" s="176"/>
-      <c r="HF1" s="176"/>
-      <c r="HG1" s="176"/>
-      <c r="HH1" s="176"/>
-      <c r="HI1" s="176"/>
-      <c r="HJ1" s="176"/>
-      <c r="HK1" s="176"/>
-      <c r="HL1" s="176"/>
-      <c r="HM1" s="176"/>
-      <c r="HN1" s="176"/>
-      <c r="HO1" s="176"/>
-      <c r="HP1" s="176"/>
-      <c r="HQ1" s="176"/>
-      <c r="HR1" s="176"/>
-      <c r="HS1" s="176"/>
-      <c r="HT1" s="176"/>
-      <c r="HU1" s="176"/>
-      <c r="HV1" s="176"/>
-      <c r="HW1" s="176"/>
-      <c r="HX1" s="176"/>
-      <c r="HY1" s="176"/>
-      <c r="HZ1" s="176"/>
-      <c r="IA1" s="176"/>
-      <c r="IB1" s="176"/>
-      <c r="IC1" s="176"/>
-      <c r="ID1" s="176"/>
-      <c r="IE1" s="176"/>
-      <c r="IF1" s="176"/>
-      <c r="IG1" s="176"/>
-      <c r="IH1" s="176"/>
-      <c r="II1" s="176"/>
-      <c r="IJ1" s="176"/>
-      <c r="IK1" s="176"/>
-      <c r="IL1" s="176"/>
-      <c r="IM1" s="176"/>
-      <c r="IN1" s="176"/>
-      <c r="IO1" s="176"/>
-      <c r="IP1" s="176"/>
-      <c r="IQ1" s="176"/>
-      <c r="IR1" s="176"/>
-      <c r="IS1" s="176"/>
-      <c r="IT1" s="176"/>
-      <c r="IU1" s="176"/>
-      <c r="IV1" s="176"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
+      <c r="N1" s="177"/>
+      <c r="O1" s="177"/>
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="177"/>
+      <c r="S1" s="177"/>
+      <c r="T1" s="177"/>
+      <c r="U1" s="177"/>
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="177"/>
+      <c r="AA1" s="177"/>
+      <c r="AB1" s="177"/>
+      <c r="AC1" s="177"/>
+      <c r="AD1" s="177"/>
+      <c r="AE1" s="177"/>
+      <c r="AF1" s="177"/>
+      <c r="AG1" s="177"/>
+      <c r="AH1" s="177"/>
+      <c r="AI1" s="177"/>
+      <c r="AJ1" s="177"/>
+      <c r="AK1" s="177"/>
+      <c r="AL1" s="177"/>
+      <c r="AM1" s="177"/>
+      <c r="AN1" s="177"/>
+      <c r="AO1" s="177"/>
+      <c r="AP1" s="177"/>
+      <c r="AQ1" s="177"/>
+      <c r="AR1" s="177"/>
+      <c r="AS1" s="177"/>
+      <c r="AT1" s="177"/>
+      <c r="AU1" s="177"/>
+      <c r="AV1" s="177"/>
+      <c r="AW1" s="177"/>
+      <c r="AX1" s="177"/>
+      <c r="AY1" s="177"/>
+      <c r="AZ1" s="177"/>
+      <c r="BA1" s="177"/>
+      <c r="BB1" s="177"/>
+      <c r="BC1" s="177"/>
+      <c r="BD1" s="177"/>
+      <c r="BE1" s="177"/>
+      <c r="BF1" s="177"/>
+      <c r="BG1" s="177"/>
+      <c r="BH1" s="177"/>
+      <c r="BI1" s="177"/>
+      <c r="BJ1" s="177"/>
+      <c r="BK1" s="177"/>
+      <c r="BL1" s="177"/>
+      <c r="BM1" s="177"/>
+      <c r="BN1" s="177"/>
+      <c r="BO1" s="177"/>
+      <c r="BP1" s="177"/>
+      <c r="BQ1" s="177"/>
+      <c r="BR1" s="177"/>
+      <c r="BS1" s="177"/>
+      <c r="BT1" s="177"/>
+      <c r="BU1" s="177"/>
+      <c r="BV1" s="177"/>
+      <c r="BW1" s="177"/>
+      <c r="BX1" s="177"/>
+      <c r="BY1" s="177"/>
+      <c r="BZ1" s="177"/>
+      <c r="CA1" s="177"/>
+      <c r="CB1" s="177"/>
+      <c r="CC1" s="177"/>
+      <c r="CD1" s="177"/>
+      <c r="CE1" s="177"/>
+      <c r="CF1" s="177"/>
+      <c r="CG1" s="177"/>
+      <c r="CH1" s="177"/>
+      <c r="CI1" s="177"/>
+      <c r="CJ1" s="177"/>
+      <c r="CK1" s="177"/>
+      <c r="CL1" s="177"/>
+      <c r="CM1" s="177"/>
+      <c r="CN1" s="177"/>
+      <c r="CO1" s="177"/>
+      <c r="CP1" s="177"/>
+      <c r="CQ1" s="177"/>
+      <c r="CR1" s="177"/>
+      <c r="CS1" s="177"/>
+      <c r="CT1" s="177"/>
+      <c r="CU1" s="177"/>
+      <c r="CV1" s="177"/>
+      <c r="CW1" s="177"/>
+      <c r="CX1" s="177"/>
+      <c r="CY1" s="177"/>
+      <c r="CZ1" s="177"/>
+      <c r="DA1" s="177"/>
+      <c r="DB1" s="177"/>
+      <c r="DC1" s="177"/>
+      <c r="DD1" s="177"/>
+      <c r="DE1" s="177"/>
+      <c r="DF1" s="177"/>
+      <c r="DG1" s="177"/>
+      <c r="DH1" s="177"/>
+      <c r="DI1" s="177"/>
+      <c r="DJ1" s="177"/>
+      <c r="DK1" s="177"/>
+      <c r="DL1" s="177"/>
+      <c r="DM1" s="177"/>
+      <c r="DN1" s="177"/>
+      <c r="DO1" s="177"/>
+      <c r="DP1" s="177"/>
+      <c r="DQ1" s="177"/>
+      <c r="DR1" s="177"/>
+      <c r="DS1" s="177"/>
+      <c r="DT1" s="177"/>
+      <c r="DU1" s="177"/>
+      <c r="DV1" s="177"/>
+      <c r="DW1" s="177"/>
+      <c r="DX1" s="177"/>
+      <c r="DY1" s="177"/>
+      <c r="DZ1" s="177"/>
+      <c r="EA1" s="177"/>
+      <c r="EB1" s="177"/>
+      <c r="EC1" s="177"/>
+      <c r="ED1" s="177"/>
+      <c r="EE1" s="177"/>
+      <c r="EF1" s="177"/>
+      <c r="EG1" s="177"/>
+      <c r="EH1" s="177"/>
+      <c r="EI1" s="177"/>
+      <c r="EJ1" s="177"/>
+      <c r="EK1" s="177"/>
+      <c r="EL1" s="177"/>
+      <c r="EM1" s="177"/>
+      <c r="EN1" s="177"/>
+      <c r="EO1" s="177"/>
+      <c r="EP1" s="177"/>
+      <c r="EQ1" s="177"/>
+      <c r="ER1" s="177"/>
+      <c r="ES1" s="177"/>
+      <c r="ET1" s="177"/>
+      <c r="EU1" s="177"/>
+      <c r="EV1" s="177"/>
+      <c r="EW1" s="177"/>
+      <c r="EX1" s="177"/>
+      <c r="EY1" s="177"/>
+      <c r="EZ1" s="177"/>
+      <c r="FA1" s="177"/>
+      <c r="FB1" s="177"/>
+      <c r="FC1" s="177"/>
+      <c r="FD1" s="177"/>
+      <c r="FE1" s="177"/>
+      <c r="FF1" s="177"/>
+      <c r="FG1" s="177"/>
+      <c r="FH1" s="177"/>
+      <c r="FI1" s="177"/>
+      <c r="FJ1" s="177"/>
+      <c r="FK1" s="177"/>
+      <c r="FL1" s="177"/>
+      <c r="FM1" s="177"/>
+      <c r="FN1" s="177"/>
+      <c r="FO1" s="177"/>
+      <c r="FP1" s="177"/>
+      <c r="FQ1" s="177"/>
+      <c r="FR1" s="177"/>
+      <c r="FS1" s="177"/>
+      <c r="FT1" s="177"/>
+      <c r="FU1" s="177"/>
+      <c r="FV1" s="177"/>
+      <c r="FW1" s="177"/>
+      <c r="FX1" s="177"/>
+      <c r="FY1" s="177"/>
+      <c r="FZ1" s="177"/>
+      <c r="GA1" s="177"/>
+      <c r="GB1" s="177"/>
+      <c r="GC1" s="177"/>
+      <c r="GD1" s="177"/>
+      <c r="GE1" s="177"/>
+      <c r="GF1" s="177"/>
+      <c r="GG1" s="177"/>
+      <c r="GH1" s="177"/>
+      <c r="GI1" s="177"/>
+      <c r="GJ1" s="177"/>
+      <c r="GK1" s="177"/>
+      <c r="GL1" s="177"/>
+      <c r="GM1" s="177"/>
+      <c r="GN1" s="177"/>
+      <c r="GO1" s="177"/>
+      <c r="GP1" s="177"/>
+      <c r="GQ1" s="177"/>
+      <c r="GR1" s="177"/>
+      <c r="GS1" s="177"/>
+      <c r="GT1" s="177"/>
+      <c r="GU1" s="177"/>
+      <c r="GV1" s="177"/>
+      <c r="GW1" s="177"/>
+      <c r="GX1" s="177"/>
+      <c r="GY1" s="177"/>
+      <c r="GZ1" s="177"/>
+      <c r="HA1" s="177"/>
+      <c r="HB1" s="177"/>
+      <c r="HC1" s="177"/>
+      <c r="HD1" s="177"/>
+      <c r="HE1" s="177"/>
+      <c r="HF1" s="177"/>
+      <c r="HG1" s="177"/>
+      <c r="HH1" s="177"/>
+      <c r="HI1" s="177"/>
+      <c r="HJ1" s="177"/>
+      <c r="HK1" s="177"/>
+      <c r="HL1" s="177"/>
+      <c r="HM1" s="177"/>
+      <c r="HN1" s="177"/>
+      <c r="HO1" s="177"/>
+      <c r="HP1" s="177"/>
+      <c r="HQ1" s="177"/>
+      <c r="HR1" s="177"/>
+      <c r="HS1" s="177"/>
+      <c r="HT1" s="177"/>
+      <c r="HU1" s="177"/>
+      <c r="HV1" s="177"/>
+      <c r="HW1" s="177"/>
+      <c r="HX1" s="177"/>
+      <c r="HY1" s="177"/>
+      <c r="HZ1" s="177"/>
+      <c r="IA1" s="177"/>
+      <c r="IB1" s="177"/>
+      <c r="IC1" s="177"/>
+      <c r="ID1" s="177"/>
+      <c r="IE1" s="177"/>
+      <c r="IF1" s="177"/>
+      <c r="IG1" s="177"/>
+      <c r="IH1" s="177"/>
+      <c r="II1" s="177"/>
+      <c r="IJ1" s="177"/>
+      <c r="IK1" s="177"/>
+      <c r="IL1" s="177"/>
+      <c r="IM1" s="177"/>
+      <c r="IN1" s="177"/>
+      <c r="IO1" s="177"/>
+      <c r="IP1" s="177"/>
+      <c r="IQ1" s="177"/>
+      <c r="IR1" s="177"/>
+      <c r="IS1" s="177"/>
+      <c r="IT1" s="177"/>
+      <c r="IU1" s="177"/>
+      <c r="IV1" s="177"/>
     </row>
-    <row r="2" spans="1:256" ht="15" thickBot="1">
-      <c r="A2" s="179" t="str">
+    <row r="2" spans="1:256" ht="15.75" thickBot="1">
+      <c r="A2" s="180" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
       </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
-      <c r="K2" s="179"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
     </row>
     <row r="3" spans="1:256" ht="15" customHeight="1">
-      <c r="A3" s="180" t="str">
+      <c r="A3" s="181" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
       </c>
-      <c r="B3" s="182" t="str">
+      <c r="B3" s="183" t="str">
         <f>'Сводная таблица'!B3:B4</f>
         <v>группа</v>
       </c>
-      <c r="C3" s="184" t="str">
+      <c r="C3" s="185" t="str">
         <f>'Сводная таблица'!C3:C4</f>
         <v>подргуппа</v>
       </c>
-      <c r="D3" s="186" t="str">
+      <c r="D3" s="187" t="str">
         <f>'Сводная таблица'!D3:D4</f>
         <v>Фамилия</v>
       </c>
-      <c r="E3" s="188" t="str">
+      <c r="E3" s="189" t="str">
         <f>'Сводная таблица'!E3:E4</f>
         <v>Имя</v>
       </c>
-      <c r="F3" s="177" t="str">
+      <c r="F3" s="178" t="str">
         <f>'Сводная таблица'!F3:F4</f>
         <v>Отчество</v>
       </c>
-      <c r="G3" s="180" t="s">
+      <c r="G3" s="181" t="s">
         <v>114</v>
       </c>
-      <c r="H3" s="186" t="s">
+      <c r="H3" s="187" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="193" t="s">
+      <c r="I3" s="194" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="193" t="s">
+      <c r="J3" s="194" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="190" t="s">
+      <c r="K3" s="191" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15" thickBot="1">
-      <c r="A4" s="181"/>
-      <c r="B4" s="183"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="187"/>
-      <c r="I4" s="195"/>
-      <c r="J4" s="195"/>
-      <c r="K4" s="196"/>
+    <row r="4" spans="1:256" ht="15.75" thickBot="1">
+      <c r="A4" s="182"/>
+      <c r="B4" s="184"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="182"/>
+      <c r="H4" s="188"/>
+      <c r="I4" s="196"/>
+      <c r="J4" s="196"/>
+      <c r="K4" s="197"/>
     </row>
     <row r="5" spans="1:256" s="54" customFormat="1">
       <c r="A5" s="62">
@@ -67024,7 +67084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1">
+    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1">
       <c r="A43" s="56">
         <v>42</v>
       </c>
@@ -67090,343 +67150,343 @@
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="177" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="176"/>
-      <c r="T1" s="176"/>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="176"/>
-      <c r="AA1" s="176"/>
-      <c r="AB1" s="176"/>
-      <c r="AC1" s="176"/>
-      <c r="AD1" s="176"/>
-      <c r="AE1" s="176"/>
-      <c r="AF1" s="176"/>
-      <c r="AG1" s="176"/>
-      <c r="AH1" s="176"/>
-      <c r="AI1" s="176"/>
-      <c r="AJ1" s="176"/>
-      <c r="AK1" s="176"/>
-      <c r="AL1" s="176"/>
-      <c r="AM1" s="176"/>
-      <c r="AN1" s="176"/>
-      <c r="AO1" s="176"/>
-      <c r="AP1" s="176"/>
-      <c r="AQ1" s="176"/>
-      <c r="AR1" s="176"/>
-      <c r="AS1" s="176"/>
-      <c r="AT1" s="176"/>
-      <c r="AU1" s="176"/>
-      <c r="AV1" s="176"/>
-      <c r="AW1" s="176"/>
-      <c r="AX1" s="176"/>
-      <c r="AY1" s="176"/>
-      <c r="AZ1" s="176"/>
-      <c r="BA1" s="176"/>
-      <c r="BB1" s="176"/>
-      <c r="BC1" s="176"/>
-      <c r="BD1" s="176"/>
-      <c r="BE1" s="176"/>
-      <c r="BF1" s="176"/>
-      <c r="BG1" s="176"/>
-      <c r="BH1" s="176"/>
-      <c r="BI1" s="176"/>
-      <c r="BJ1" s="176"/>
-      <c r="BK1" s="176"/>
-      <c r="BL1" s="176"/>
-      <c r="BM1" s="176"/>
-      <c r="BN1" s="176"/>
-      <c r="BO1" s="176"/>
-      <c r="BP1" s="176"/>
-      <c r="BQ1" s="176"/>
-      <c r="BR1" s="176"/>
-      <c r="BS1" s="176"/>
-      <c r="BT1" s="176"/>
-      <c r="BU1" s="176"/>
-      <c r="BV1" s="176"/>
-      <c r="BW1" s="176"/>
-      <c r="BX1" s="176"/>
-      <c r="BY1" s="176"/>
-      <c r="BZ1" s="176"/>
-      <c r="CA1" s="176"/>
-      <c r="CB1" s="176"/>
-      <c r="CC1" s="176"/>
-      <c r="CD1" s="176"/>
-      <c r="CE1" s="176"/>
-      <c r="CF1" s="176"/>
-      <c r="CG1" s="176"/>
-      <c r="CH1" s="176"/>
-      <c r="CI1" s="176"/>
-      <c r="CJ1" s="176"/>
-      <c r="CK1" s="176"/>
-      <c r="CL1" s="176"/>
-      <c r="CM1" s="176"/>
-      <c r="CN1" s="176"/>
-      <c r="CO1" s="176"/>
-      <c r="CP1" s="176"/>
-      <c r="CQ1" s="176"/>
-      <c r="CR1" s="176"/>
-      <c r="CS1" s="176"/>
-      <c r="CT1" s="176"/>
-      <c r="CU1" s="176"/>
-      <c r="CV1" s="176"/>
-      <c r="CW1" s="176"/>
-      <c r="CX1" s="176"/>
-      <c r="CY1" s="176"/>
-      <c r="CZ1" s="176"/>
-      <c r="DA1" s="176"/>
-      <c r="DB1" s="176"/>
-      <c r="DC1" s="176"/>
-      <c r="DD1" s="176"/>
-      <c r="DE1" s="176"/>
-      <c r="DF1" s="176"/>
-      <c r="DG1" s="176"/>
-      <c r="DH1" s="176"/>
-      <c r="DI1" s="176"/>
-      <c r="DJ1" s="176"/>
-      <c r="DK1" s="176"/>
-      <c r="DL1" s="176"/>
-      <c r="DM1" s="176"/>
-      <c r="DN1" s="176"/>
-      <c r="DO1" s="176"/>
-      <c r="DP1" s="176"/>
-      <c r="DQ1" s="176"/>
-      <c r="DR1" s="176"/>
-      <c r="DS1" s="176"/>
-      <c r="DT1" s="176"/>
-      <c r="DU1" s="176"/>
-      <c r="DV1" s="176"/>
-      <c r="DW1" s="176"/>
-      <c r="DX1" s="176"/>
-      <c r="DY1" s="176"/>
-      <c r="DZ1" s="176"/>
-      <c r="EA1" s="176"/>
-      <c r="EB1" s="176"/>
-      <c r="EC1" s="176"/>
-      <c r="ED1" s="176"/>
-      <c r="EE1" s="176"/>
-      <c r="EF1" s="176"/>
-      <c r="EG1" s="176"/>
-      <c r="EH1" s="176"/>
-      <c r="EI1" s="176"/>
-      <c r="EJ1" s="176"/>
-      <c r="EK1" s="176"/>
-      <c r="EL1" s="176"/>
-      <c r="EM1" s="176"/>
-      <c r="EN1" s="176"/>
-      <c r="EO1" s="176"/>
-      <c r="EP1" s="176"/>
-      <c r="EQ1" s="176"/>
-      <c r="ER1" s="176"/>
-      <c r="ES1" s="176"/>
-      <c r="ET1" s="176"/>
-      <c r="EU1" s="176"/>
-      <c r="EV1" s="176"/>
-      <c r="EW1" s="176"/>
-      <c r="EX1" s="176"/>
-      <c r="EY1" s="176"/>
-      <c r="EZ1" s="176"/>
-      <c r="FA1" s="176"/>
-      <c r="FB1" s="176"/>
-      <c r="FC1" s="176"/>
-      <c r="FD1" s="176"/>
-      <c r="FE1" s="176"/>
-      <c r="FF1" s="176"/>
-      <c r="FG1" s="176"/>
-      <c r="FH1" s="176"/>
-      <c r="FI1" s="176"/>
-      <c r="FJ1" s="176"/>
-      <c r="FK1" s="176"/>
-      <c r="FL1" s="176"/>
-      <c r="FM1" s="176"/>
-      <c r="FN1" s="176"/>
-      <c r="FO1" s="176"/>
-      <c r="FP1" s="176"/>
-      <c r="FQ1" s="176"/>
-      <c r="FR1" s="176"/>
-      <c r="FS1" s="176"/>
-      <c r="FT1" s="176"/>
-      <c r="FU1" s="176"/>
-      <c r="FV1" s="176"/>
-      <c r="FW1" s="176"/>
-      <c r="FX1" s="176"/>
-      <c r="FY1" s="176"/>
-      <c r="FZ1" s="176"/>
-      <c r="GA1" s="176"/>
-      <c r="GB1" s="176"/>
-      <c r="GC1" s="176"/>
-      <c r="GD1" s="176"/>
-      <c r="GE1" s="176"/>
-      <c r="GF1" s="176"/>
-      <c r="GG1" s="176"/>
-      <c r="GH1" s="176"/>
-      <c r="GI1" s="176"/>
-      <c r="GJ1" s="176"/>
-      <c r="GK1" s="176"/>
-      <c r="GL1" s="176"/>
-      <c r="GM1" s="176"/>
-      <c r="GN1" s="176"/>
-      <c r="GO1" s="176"/>
-      <c r="GP1" s="176"/>
-      <c r="GQ1" s="176"/>
-      <c r="GR1" s="176"/>
-      <c r="GS1" s="176"/>
-      <c r="GT1" s="176"/>
-      <c r="GU1" s="176"/>
-      <c r="GV1" s="176"/>
-      <c r="GW1" s="176"/>
-      <c r="GX1" s="176"/>
-      <c r="GY1" s="176"/>
-      <c r="GZ1" s="176"/>
-      <c r="HA1" s="176"/>
-      <c r="HB1" s="176"/>
-      <c r="HC1" s="176"/>
-      <c r="HD1" s="176"/>
-      <c r="HE1" s="176"/>
-      <c r="HF1" s="176"/>
-      <c r="HG1" s="176"/>
-      <c r="HH1" s="176"/>
-      <c r="HI1" s="176"/>
-      <c r="HJ1" s="176"/>
-      <c r="HK1" s="176"/>
-      <c r="HL1" s="176"/>
-      <c r="HM1" s="176"/>
-      <c r="HN1" s="176"/>
-      <c r="HO1" s="176"/>
-      <c r="HP1" s="176"/>
-      <c r="HQ1" s="176"/>
-      <c r="HR1" s="176"/>
-      <c r="HS1" s="176"/>
-      <c r="HT1" s="176"/>
-      <c r="HU1" s="176"/>
-      <c r="HV1" s="176"/>
-      <c r="HW1" s="176"/>
-      <c r="HX1" s="176"/>
-      <c r="HY1" s="176"/>
-      <c r="HZ1" s="176"/>
-      <c r="IA1" s="176"/>
-      <c r="IB1" s="176"/>
-      <c r="IC1" s="176"/>
-      <c r="ID1" s="176"/>
-      <c r="IE1" s="176"/>
-      <c r="IF1" s="176"/>
-      <c r="IG1" s="176"/>
-      <c r="IH1" s="176"/>
-      <c r="II1" s="176"/>
-      <c r="IJ1" s="176"/>
-      <c r="IK1" s="176"/>
-      <c r="IL1" s="176"/>
-      <c r="IM1" s="176"/>
-      <c r="IN1" s="176"/>
-      <c r="IO1" s="176"/>
-      <c r="IP1" s="176"/>
-      <c r="IQ1" s="176"/>
-      <c r="IR1" s="176"/>
-      <c r="IS1" s="176"/>
-      <c r="IT1" s="176"/>
-      <c r="IU1" s="176"/>
-      <c r="IV1" s="176"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
+      <c r="N1" s="177"/>
+      <c r="O1" s="177"/>
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="177"/>
+      <c r="S1" s="177"/>
+      <c r="T1" s="177"/>
+      <c r="U1" s="177"/>
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="177"/>
+      <c r="AA1" s="177"/>
+      <c r="AB1" s="177"/>
+      <c r="AC1" s="177"/>
+      <c r="AD1" s="177"/>
+      <c r="AE1" s="177"/>
+      <c r="AF1" s="177"/>
+      <c r="AG1" s="177"/>
+      <c r="AH1" s="177"/>
+      <c r="AI1" s="177"/>
+      <c r="AJ1" s="177"/>
+      <c r="AK1" s="177"/>
+      <c r="AL1" s="177"/>
+      <c r="AM1" s="177"/>
+      <c r="AN1" s="177"/>
+      <c r="AO1" s="177"/>
+      <c r="AP1" s="177"/>
+      <c r="AQ1" s="177"/>
+      <c r="AR1" s="177"/>
+      <c r="AS1" s="177"/>
+      <c r="AT1" s="177"/>
+      <c r="AU1" s="177"/>
+      <c r="AV1" s="177"/>
+      <c r="AW1" s="177"/>
+      <c r="AX1" s="177"/>
+      <c r="AY1" s="177"/>
+      <c r="AZ1" s="177"/>
+      <c r="BA1" s="177"/>
+      <c r="BB1" s="177"/>
+      <c r="BC1" s="177"/>
+      <c r="BD1" s="177"/>
+      <c r="BE1" s="177"/>
+      <c r="BF1" s="177"/>
+      <c r="BG1" s="177"/>
+      <c r="BH1" s="177"/>
+      <c r="BI1" s="177"/>
+      <c r="BJ1" s="177"/>
+      <c r="BK1" s="177"/>
+      <c r="BL1" s="177"/>
+      <c r="BM1" s="177"/>
+      <c r="BN1" s="177"/>
+      <c r="BO1" s="177"/>
+      <c r="BP1" s="177"/>
+      <c r="BQ1" s="177"/>
+      <c r="BR1" s="177"/>
+      <c r="BS1" s="177"/>
+      <c r="BT1" s="177"/>
+      <c r="BU1" s="177"/>
+      <c r="BV1" s="177"/>
+      <c r="BW1" s="177"/>
+      <c r="BX1" s="177"/>
+      <c r="BY1" s="177"/>
+      <c r="BZ1" s="177"/>
+      <c r="CA1" s="177"/>
+      <c r="CB1" s="177"/>
+      <c r="CC1" s="177"/>
+      <c r="CD1" s="177"/>
+      <c r="CE1" s="177"/>
+      <c r="CF1" s="177"/>
+      <c r="CG1" s="177"/>
+      <c r="CH1" s="177"/>
+      <c r="CI1" s="177"/>
+      <c r="CJ1" s="177"/>
+      <c r="CK1" s="177"/>
+      <c r="CL1" s="177"/>
+      <c r="CM1" s="177"/>
+      <c r="CN1" s="177"/>
+      <c r="CO1" s="177"/>
+      <c r="CP1" s="177"/>
+      <c r="CQ1" s="177"/>
+      <c r="CR1" s="177"/>
+      <c r="CS1" s="177"/>
+      <c r="CT1" s="177"/>
+      <c r="CU1" s="177"/>
+      <c r="CV1" s="177"/>
+      <c r="CW1" s="177"/>
+      <c r="CX1" s="177"/>
+      <c r="CY1" s="177"/>
+      <c r="CZ1" s="177"/>
+      <c r="DA1" s="177"/>
+      <c r="DB1" s="177"/>
+      <c r="DC1" s="177"/>
+      <c r="DD1" s="177"/>
+      <c r="DE1" s="177"/>
+      <c r="DF1" s="177"/>
+      <c r="DG1" s="177"/>
+      <c r="DH1" s="177"/>
+      <c r="DI1" s="177"/>
+      <c r="DJ1" s="177"/>
+      <c r="DK1" s="177"/>
+      <c r="DL1" s="177"/>
+      <c r="DM1" s="177"/>
+      <c r="DN1" s="177"/>
+      <c r="DO1" s="177"/>
+      <c r="DP1" s="177"/>
+      <c r="DQ1" s="177"/>
+      <c r="DR1" s="177"/>
+      <c r="DS1" s="177"/>
+      <c r="DT1" s="177"/>
+      <c r="DU1" s="177"/>
+      <c r="DV1" s="177"/>
+      <c r="DW1" s="177"/>
+      <c r="DX1" s="177"/>
+      <c r="DY1" s="177"/>
+      <c r="DZ1" s="177"/>
+      <c r="EA1" s="177"/>
+      <c r="EB1" s="177"/>
+      <c r="EC1" s="177"/>
+      <c r="ED1" s="177"/>
+      <c r="EE1" s="177"/>
+      <c r="EF1" s="177"/>
+      <c r="EG1" s="177"/>
+      <c r="EH1" s="177"/>
+      <c r="EI1" s="177"/>
+      <c r="EJ1" s="177"/>
+      <c r="EK1" s="177"/>
+      <c r="EL1" s="177"/>
+      <c r="EM1" s="177"/>
+      <c r="EN1" s="177"/>
+      <c r="EO1" s="177"/>
+      <c r="EP1" s="177"/>
+      <c r="EQ1" s="177"/>
+      <c r="ER1" s="177"/>
+      <c r="ES1" s="177"/>
+      <c r="ET1" s="177"/>
+      <c r="EU1" s="177"/>
+      <c r="EV1" s="177"/>
+      <c r="EW1" s="177"/>
+      <c r="EX1" s="177"/>
+      <c r="EY1" s="177"/>
+      <c r="EZ1" s="177"/>
+      <c r="FA1" s="177"/>
+      <c r="FB1" s="177"/>
+      <c r="FC1" s="177"/>
+      <c r="FD1" s="177"/>
+      <c r="FE1" s="177"/>
+      <c r="FF1" s="177"/>
+      <c r="FG1" s="177"/>
+      <c r="FH1" s="177"/>
+      <c r="FI1" s="177"/>
+      <c r="FJ1" s="177"/>
+      <c r="FK1" s="177"/>
+      <c r="FL1" s="177"/>
+      <c r="FM1" s="177"/>
+      <c r="FN1" s="177"/>
+      <c r="FO1" s="177"/>
+      <c r="FP1" s="177"/>
+      <c r="FQ1" s="177"/>
+      <c r="FR1" s="177"/>
+      <c r="FS1" s="177"/>
+      <c r="FT1" s="177"/>
+      <c r="FU1" s="177"/>
+      <c r="FV1" s="177"/>
+      <c r="FW1" s="177"/>
+      <c r="FX1" s="177"/>
+      <c r="FY1" s="177"/>
+      <c r="FZ1" s="177"/>
+      <c r="GA1" s="177"/>
+      <c r="GB1" s="177"/>
+      <c r="GC1" s="177"/>
+      <c r="GD1" s="177"/>
+      <c r="GE1" s="177"/>
+      <c r="GF1" s="177"/>
+      <c r="GG1" s="177"/>
+      <c r="GH1" s="177"/>
+      <c r="GI1" s="177"/>
+      <c r="GJ1" s="177"/>
+      <c r="GK1" s="177"/>
+      <c r="GL1" s="177"/>
+      <c r="GM1" s="177"/>
+      <c r="GN1" s="177"/>
+      <c r="GO1" s="177"/>
+      <c r="GP1" s="177"/>
+      <c r="GQ1" s="177"/>
+      <c r="GR1" s="177"/>
+      <c r="GS1" s="177"/>
+      <c r="GT1" s="177"/>
+      <c r="GU1" s="177"/>
+      <c r="GV1" s="177"/>
+      <c r="GW1" s="177"/>
+      <c r="GX1" s="177"/>
+      <c r="GY1" s="177"/>
+      <c r="GZ1" s="177"/>
+      <c r="HA1" s="177"/>
+      <c r="HB1" s="177"/>
+      <c r="HC1" s="177"/>
+      <c r="HD1" s="177"/>
+      <c r="HE1" s="177"/>
+      <c r="HF1" s="177"/>
+      <c r="HG1" s="177"/>
+      <c r="HH1" s="177"/>
+      <c r="HI1" s="177"/>
+      <c r="HJ1" s="177"/>
+      <c r="HK1" s="177"/>
+      <c r="HL1" s="177"/>
+      <c r="HM1" s="177"/>
+      <c r="HN1" s="177"/>
+      <c r="HO1" s="177"/>
+      <c r="HP1" s="177"/>
+      <c r="HQ1" s="177"/>
+      <c r="HR1" s="177"/>
+      <c r="HS1" s="177"/>
+      <c r="HT1" s="177"/>
+      <c r="HU1" s="177"/>
+      <c r="HV1" s="177"/>
+      <c r="HW1" s="177"/>
+      <c r="HX1" s="177"/>
+      <c r="HY1" s="177"/>
+      <c r="HZ1" s="177"/>
+      <c r="IA1" s="177"/>
+      <c r="IB1" s="177"/>
+      <c r="IC1" s="177"/>
+      <c r="ID1" s="177"/>
+      <c r="IE1" s="177"/>
+      <c r="IF1" s="177"/>
+      <c r="IG1" s="177"/>
+      <c r="IH1" s="177"/>
+      <c r="II1" s="177"/>
+      <c r="IJ1" s="177"/>
+      <c r="IK1" s="177"/>
+      <c r="IL1" s="177"/>
+      <c r="IM1" s="177"/>
+      <c r="IN1" s="177"/>
+      <c r="IO1" s="177"/>
+      <c r="IP1" s="177"/>
+      <c r="IQ1" s="177"/>
+      <c r="IR1" s="177"/>
+      <c r="IS1" s="177"/>
+      <c r="IT1" s="177"/>
+      <c r="IU1" s="177"/>
+      <c r="IV1" s="177"/>
     </row>
-    <row r="2" spans="1:256" ht="15" thickBot="1">
-      <c r="A2" s="179" t="str">
+    <row r="2" spans="1:256" ht="15.75" thickBot="1">
+      <c r="A2" s="180" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
       </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
-      <c r="K2" s="179"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
     </row>
     <row r="3" spans="1:256" ht="15" customHeight="1">
-      <c r="A3" s="180" t="str">
+      <c r="A3" s="181" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
       </c>
-      <c r="B3" s="182" t="str">
+      <c r="B3" s="183" t="str">
         <f>'Сводная таблица'!B3:B4</f>
         <v>группа</v>
       </c>
-      <c r="C3" s="184" t="str">
+      <c r="C3" s="185" t="str">
         <f>'Сводная таблица'!C3:C4</f>
         <v>подргуппа</v>
       </c>
-      <c r="D3" s="186" t="str">
+      <c r="D3" s="187" t="str">
         <f>'Сводная таблица'!D3:D4</f>
         <v>Фамилия</v>
       </c>
-      <c r="E3" s="188" t="str">
+      <c r="E3" s="189" t="str">
         <f>'Сводная таблица'!E3:E4</f>
         <v>Имя</v>
       </c>
-      <c r="F3" s="177" t="str">
+      <c r="F3" s="178" t="str">
         <f>'Сводная таблица'!F3:F4</f>
         <v>Отчество</v>
       </c>
-      <c r="G3" s="180" t="s">
+      <c r="G3" s="181" t="s">
         <v>114</v>
       </c>
-      <c r="H3" s="186" t="s">
+      <c r="H3" s="187" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="193" t="s">
+      <c r="I3" s="194" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="193" t="s">
+      <c r="J3" s="194" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="190" t="s">
+      <c r="K3" s="191" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15" thickBot="1">
-      <c r="A4" s="181"/>
-      <c r="B4" s="183"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="187"/>
-      <c r="I4" s="195"/>
-      <c r="J4" s="195"/>
-      <c r="K4" s="196"/>
+    <row r="4" spans="1:256" ht="15.75" thickBot="1">
+      <c r="A4" s="182"/>
+      <c r="B4" s="184"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="182"/>
+      <c r="H4" s="188"/>
+      <c r="I4" s="196"/>
+      <c r="J4" s="196"/>
+      <c r="K4" s="197"/>
     </row>
     <row r="5" spans="1:256" s="54" customFormat="1">
       <c r="A5" s="62">
@@ -68872,7 +68932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1">
+    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1">
       <c r="A43" s="56">
         <v>42</v>
       </c>
@@ -68938,343 +68998,343 @@
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="177" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="176"/>
-      <c r="T1" s="176"/>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="176"/>
-      <c r="AA1" s="176"/>
-      <c r="AB1" s="176"/>
-      <c r="AC1" s="176"/>
-      <c r="AD1" s="176"/>
-      <c r="AE1" s="176"/>
-      <c r="AF1" s="176"/>
-      <c r="AG1" s="176"/>
-      <c r="AH1" s="176"/>
-      <c r="AI1" s="176"/>
-      <c r="AJ1" s="176"/>
-      <c r="AK1" s="176"/>
-      <c r="AL1" s="176"/>
-      <c r="AM1" s="176"/>
-      <c r="AN1" s="176"/>
-      <c r="AO1" s="176"/>
-      <c r="AP1" s="176"/>
-      <c r="AQ1" s="176"/>
-      <c r="AR1" s="176"/>
-      <c r="AS1" s="176"/>
-      <c r="AT1" s="176"/>
-      <c r="AU1" s="176"/>
-      <c r="AV1" s="176"/>
-      <c r="AW1" s="176"/>
-      <c r="AX1" s="176"/>
-      <c r="AY1" s="176"/>
-      <c r="AZ1" s="176"/>
-      <c r="BA1" s="176"/>
-      <c r="BB1" s="176"/>
-      <c r="BC1" s="176"/>
-      <c r="BD1" s="176"/>
-      <c r="BE1" s="176"/>
-      <c r="BF1" s="176"/>
-      <c r="BG1" s="176"/>
-      <c r="BH1" s="176"/>
-      <c r="BI1" s="176"/>
-      <c r="BJ1" s="176"/>
-      <c r="BK1" s="176"/>
-      <c r="BL1" s="176"/>
-      <c r="BM1" s="176"/>
-      <c r="BN1" s="176"/>
-      <c r="BO1" s="176"/>
-      <c r="BP1" s="176"/>
-      <c r="BQ1" s="176"/>
-      <c r="BR1" s="176"/>
-      <c r="BS1" s="176"/>
-      <c r="BT1" s="176"/>
-      <c r="BU1" s="176"/>
-      <c r="BV1" s="176"/>
-      <c r="BW1" s="176"/>
-      <c r="BX1" s="176"/>
-      <c r="BY1" s="176"/>
-      <c r="BZ1" s="176"/>
-      <c r="CA1" s="176"/>
-      <c r="CB1" s="176"/>
-      <c r="CC1" s="176"/>
-      <c r="CD1" s="176"/>
-      <c r="CE1" s="176"/>
-      <c r="CF1" s="176"/>
-      <c r="CG1" s="176"/>
-      <c r="CH1" s="176"/>
-      <c r="CI1" s="176"/>
-      <c r="CJ1" s="176"/>
-      <c r="CK1" s="176"/>
-      <c r="CL1" s="176"/>
-      <c r="CM1" s="176"/>
-      <c r="CN1" s="176"/>
-      <c r="CO1" s="176"/>
-      <c r="CP1" s="176"/>
-      <c r="CQ1" s="176"/>
-      <c r="CR1" s="176"/>
-      <c r="CS1" s="176"/>
-      <c r="CT1" s="176"/>
-      <c r="CU1" s="176"/>
-      <c r="CV1" s="176"/>
-      <c r="CW1" s="176"/>
-      <c r="CX1" s="176"/>
-      <c r="CY1" s="176"/>
-      <c r="CZ1" s="176"/>
-      <c r="DA1" s="176"/>
-      <c r="DB1" s="176"/>
-      <c r="DC1" s="176"/>
-      <c r="DD1" s="176"/>
-      <c r="DE1" s="176"/>
-      <c r="DF1" s="176"/>
-      <c r="DG1" s="176"/>
-      <c r="DH1" s="176"/>
-      <c r="DI1" s="176"/>
-      <c r="DJ1" s="176"/>
-      <c r="DK1" s="176"/>
-      <c r="DL1" s="176"/>
-      <c r="DM1" s="176"/>
-      <c r="DN1" s="176"/>
-      <c r="DO1" s="176"/>
-      <c r="DP1" s="176"/>
-      <c r="DQ1" s="176"/>
-      <c r="DR1" s="176"/>
-      <c r="DS1" s="176"/>
-      <c r="DT1" s="176"/>
-      <c r="DU1" s="176"/>
-      <c r="DV1" s="176"/>
-      <c r="DW1" s="176"/>
-      <c r="DX1" s="176"/>
-      <c r="DY1" s="176"/>
-      <c r="DZ1" s="176"/>
-      <c r="EA1" s="176"/>
-      <c r="EB1" s="176"/>
-      <c r="EC1" s="176"/>
-      <c r="ED1" s="176"/>
-      <c r="EE1" s="176"/>
-      <c r="EF1" s="176"/>
-      <c r="EG1" s="176"/>
-      <c r="EH1" s="176"/>
-      <c r="EI1" s="176"/>
-      <c r="EJ1" s="176"/>
-      <c r="EK1" s="176"/>
-      <c r="EL1" s="176"/>
-      <c r="EM1" s="176"/>
-      <c r="EN1" s="176"/>
-      <c r="EO1" s="176"/>
-      <c r="EP1" s="176"/>
-      <c r="EQ1" s="176"/>
-      <c r="ER1" s="176"/>
-      <c r="ES1" s="176"/>
-      <c r="ET1" s="176"/>
-      <c r="EU1" s="176"/>
-      <c r="EV1" s="176"/>
-      <c r="EW1" s="176"/>
-      <c r="EX1" s="176"/>
-      <c r="EY1" s="176"/>
-      <c r="EZ1" s="176"/>
-      <c r="FA1" s="176"/>
-      <c r="FB1" s="176"/>
-      <c r="FC1" s="176"/>
-      <c r="FD1" s="176"/>
-      <c r="FE1" s="176"/>
-      <c r="FF1" s="176"/>
-      <c r="FG1" s="176"/>
-      <c r="FH1" s="176"/>
-      <c r="FI1" s="176"/>
-      <c r="FJ1" s="176"/>
-      <c r="FK1" s="176"/>
-      <c r="FL1" s="176"/>
-      <c r="FM1" s="176"/>
-      <c r="FN1" s="176"/>
-      <c r="FO1" s="176"/>
-      <c r="FP1" s="176"/>
-      <c r="FQ1" s="176"/>
-      <c r="FR1" s="176"/>
-      <c r="FS1" s="176"/>
-      <c r="FT1" s="176"/>
-      <c r="FU1" s="176"/>
-      <c r="FV1" s="176"/>
-      <c r="FW1" s="176"/>
-      <c r="FX1" s="176"/>
-      <c r="FY1" s="176"/>
-      <c r="FZ1" s="176"/>
-      <c r="GA1" s="176"/>
-      <c r="GB1" s="176"/>
-      <c r="GC1" s="176"/>
-      <c r="GD1" s="176"/>
-      <c r="GE1" s="176"/>
-      <c r="GF1" s="176"/>
-      <c r="GG1" s="176"/>
-      <c r="GH1" s="176"/>
-      <c r="GI1" s="176"/>
-      <c r="GJ1" s="176"/>
-      <c r="GK1" s="176"/>
-      <c r="GL1" s="176"/>
-      <c r="GM1" s="176"/>
-      <c r="GN1" s="176"/>
-      <c r="GO1" s="176"/>
-      <c r="GP1" s="176"/>
-      <c r="GQ1" s="176"/>
-      <c r="GR1" s="176"/>
-      <c r="GS1" s="176"/>
-      <c r="GT1" s="176"/>
-      <c r="GU1" s="176"/>
-      <c r="GV1" s="176"/>
-      <c r="GW1" s="176"/>
-      <c r="GX1" s="176"/>
-      <c r="GY1" s="176"/>
-      <c r="GZ1" s="176"/>
-      <c r="HA1" s="176"/>
-      <c r="HB1" s="176"/>
-      <c r="HC1" s="176"/>
-      <c r="HD1" s="176"/>
-      <c r="HE1" s="176"/>
-      <c r="HF1" s="176"/>
-      <c r="HG1" s="176"/>
-      <c r="HH1" s="176"/>
-      <c r="HI1" s="176"/>
-      <c r="HJ1" s="176"/>
-      <c r="HK1" s="176"/>
-      <c r="HL1" s="176"/>
-      <c r="HM1" s="176"/>
-      <c r="HN1" s="176"/>
-      <c r="HO1" s="176"/>
-      <c r="HP1" s="176"/>
-      <c r="HQ1" s="176"/>
-      <c r="HR1" s="176"/>
-      <c r="HS1" s="176"/>
-      <c r="HT1" s="176"/>
-      <c r="HU1" s="176"/>
-      <c r="HV1" s="176"/>
-      <c r="HW1" s="176"/>
-      <c r="HX1" s="176"/>
-      <c r="HY1" s="176"/>
-      <c r="HZ1" s="176"/>
-      <c r="IA1" s="176"/>
-      <c r="IB1" s="176"/>
-      <c r="IC1" s="176"/>
-      <c r="ID1" s="176"/>
-      <c r="IE1" s="176"/>
-      <c r="IF1" s="176"/>
-      <c r="IG1" s="176"/>
-      <c r="IH1" s="176"/>
-      <c r="II1" s="176"/>
-      <c r="IJ1" s="176"/>
-      <c r="IK1" s="176"/>
-      <c r="IL1" s="176"/>
-      <c r="IM1" s="176"/>
-      <c r="IN1" s="176"/>
-      <c r="IO1" s="176"/>
-      <c r="IP1" s="176"/>
-      <c r="IQ1" s="176"/>
-      <c r="IR1" s="176"/>
-      <c r="IS1" s="176"/>
-      <c r="IT1" s="176"/>
-      <c r="IU1" s="176"/>
-      <c r="IV1" s="176"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
+      <c r="N1" s="177"/>
+      <c r="O1" s="177"/>
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="177"/>
+      <c r="S1" s="177"/>
+      <c r="T1" s="177"/>
+      <c r="U1" s="177"/>
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="177"/>
+      <c r="AA1" s="177"/>
+      <c r="AB1" s="177"/>
+      <c r="AC1" s="177"/>
+      <c r="AD1" s="177"/>
+      <c r="AE1" s="177"/>
+      <c r="AF1" s="177"/>
+      <c r="AG1" s="177"/>
+      <c r="AH1" s="177"/>
+      <c r="AI1" s="177"/>
+      <c r="AJ1" s="177"/>
+      <c r="AK1" s="177"/>
+      <c r="AL1" s="177"/>
+      <c r="AM1" s="177"/>
+      <c r="AN1" s="177"/>
+      <c r="AO1" s="177"/>
+      <c r="AP1" s="177"/>
+      <c r="AQ1" s="177"/>
+      <c r="AR1" s="177"/>
+      <c r="AS1" s="177"/>
+      <c r="AT1" s="177"/>
+      <c r="AU1" s="177"/>
+      <c r="AV1" s="177"/>
+      <c r="AW1" s="177"/>
+      <c r="AX1" s="177"/>
+      <c r="AY1" s="177"/>
+      <c r="AZ1" s="177"/>
+      <c r="BA1" s="177"/>
+      <c r="BB1" s="177"/>
+      <c r="BC1" s="177"/>
+      <c r="BD1" s="177"/>
+      <c r="BE1" s="177"/>
+      <c r="BF1" s="177"/>
+      <c r="BG1" s="177"/>
+      <c r="BH1" s="177"/>
+      <c r="BI1" s="177"/>
+      <c r="BJ1" s="177"/>
+      <c r="BK1" s="177"/>
+      <c r="BL1" s="177"/>
+      <c r="BM1" s="177"/>
+      <c r="BN1" s="177"/>
+      <c r="BO1" s="177"/>
+      <c r="BP1" s="177"/>
+      <c r="BQ1" s="177"/>
+      <c r="BR1" s="177"/>
+      <c r="BS1" s="177"/>
+      <c r="BT1" s="177"/>
+      <c r="BU1" s="177"/>
+      <c r="BV1" s="177"/>
+      <c r="BW1" s="177"/>
+      <c r="BX1" s="177"/>
+      <c r="BY1" s="177"/>
+      <c r="BZ1" s="177"/>
+      <c r="CA1" s="177"/>
+      <c r="CB1" s="177"/>
+      <c r="CC1" s="177"/>
+      <c r="CD1" s="177"/>
+      <c r="CE1" s="177"/>
+      <c r="CF1" s="177"/>
+      <c r="CG1" s="177"/>
+      <c r="CH1" s="177"/>
+      <c r="CI1" s="177"/>
+      <c r="CJ1" s="177"/>
+      <c r="CK1" s="177"/>
+      <c r="CL1" s="177"/>
+      <c r="CM1" s="177"/>
+      <c r="CN1" s="177"/>
+      <c r="CO1" s="177"/>
+      <c r="CP1" s="177"/>
+      <c r="CQ1" s="177"/>
+      <c r="CR1" s="177"/>
+      <c r="CS1" s="177"/>
+      <c r="CT1" s="177"/>
+      <c r="CU1" s="177"/>
+      <c r="CV1" s="177"/>
+      <c r="CW1" s="177"/>
+      <c r="CX1" s="177"/>
+      <c r="CY1" s="177"/>
+      <c r="CZ1" s="177"/>
+      <c r="DA1" s="177"/>
+      <c r="DB1" s="177"/>
+      <c r="DC1" s="177"/>
+      <c r="DD1" s="177"/>
+      <c r="DE1" s="177"/>
+      <c r="DF1" s="177"/>
+      <c r="DG1" s="177"/>
+      <c r="DH1" s="177"/>
+      <c r="DI1" s="177"/>
+      <c r="DJ1" s="177"/>
+      <c r="DK1" s="177"/>
+      <c r="DL1" s="177"/>
+      <c r="DM1" s="177"/>
+      <c r="DN1" s="177"/>
+      <c r="DO1" s="177"/>
+      <c r="DP1" s="177"/>
+      <c r="DQ1" s="177"/>
+      <c r="DR1" s="177"/>
+      <c r="DS1" s="177"/>
+      <c r="DT1" s="177"/>
+      <c r="DU1" s="177"/>
+      <c r="DV1" s="177"/>
+      <c r="DW1" s="177"/>
+      <c r="DX1" s="177"/>
+      <c r="DY1" s="177"/>
+      <c r="DZ1" s="177"/>
+      <c r="EA1" s="177"/>
+      <c r="EB1" s="177"/>
+      <c r="EC1" s="177"/>
+      <c r="ED1" s="177"/>
+      <c r="EE1" s="177"/>
+      <c r="EF1" s="177"/>
+      <c r="EG1" s="177"/>
+      <c r="EH1" s="177"/>
+      <c r="EI1" s="177"/>
+      <c r="EJ1" s="177"/>
+      <c r="EK1" s="177"/>
+      <c r="EL1" s="177"/>
+      <c r="EM1" s="177"/>
+      <c r="EN1" s="177"/>
+      <c r="EO1" s="177"/>
+      <c r="EP1" s="177"/>
+      <c r="EQ1" s="177"/>
+      <c r="ER1" s="177"/>
+      <c r="ES1" s="177"/>
+      <c r="ET1" s="177"/>
+      <c r="EU1" s="177"/>
+      <c r="EV1" s="177"/>
+      <c r="EW1" s="177"/>
+      <c r="EX1" s="177"/>
+      <c r="EY1" s="177"/>
+      <c r="EZ1" s="177"/>
+      <c r="FA1" s="177"/>
+      <c r="FB1" s="177"/>
+      <c r="FC1" s="177"/>
+      <c r="FD1" s="177"/>
+      <c r="FE1" s="177"/>
+      <c r="FF1" s="177"/>
+      <c r="FG1" s="177"/>
+      <c r="FH1" s="177"/>
+      <c r="FI1" s="177"/>
+      <c r="FJ1" s="177"/>
+      <c r="FK1" s="177"/>
+      <c r="FL1" s="177"/>
+      <c r="FM1" s="177"/>
+      <c r="FN1" s="177"/>
+      <c r="FO1" s="177"/>
+      <c r="FP1" s="177"/>
+      <c r="FQ1" s="177"/>
+      <c r="FR1" s="177"/>
+      <c r="FS1" s="177"/>
+      <c r="FT1" s="177"/>
+      <c r="FU1" s="177"/>
+      <c r="FV1" s="177"/>
+      <c r="FW1" s="177"/>
+      <c r="FX1" s="177"/>
+      <c r="FY1" s="177"/>
+      <c r="FZ1" s="177"/>
+      <c r="GA1" s="177"/>
+      <c r="GB1" s="177"/>
+      <c r="GC1" s="177"/>
+      <c r="GD1" s="177"/>
+      <c r="GE1" s="177"/>
+      <c r="GF1" s="177"/>
+      <c r="GG1" s="177"/>
+      <c r="GH1" s="177"/>
+      <c r="GI1" s="177"/>
+      <c r="GJ1" s="177"/>
+      <c r="GK1" s="177"/>
+      <c r="GL1" s="177"/>
+      <c r="GM1" s="177"/>
+      <c r="GN1" s="177"/>
+      <c r="GO1" s="177"/>
+      <c r="GP1" s="177"/>
+      <c r="GQ1" s="177"/>
+      <c r="GR1" s="177"/>
+      <c r="GS1" s="177"/>
+      <c r="GT1" s="177"/>
+      <c r="GU1" s="177"/>
+      <c r="GV1" s="177"/>
+      <c r="GW1" s="177"/>
+      <c r="GX1" s="177"/>
+      <c r="GY1" s="177"/>
+      <c r="GZ1" s="177"/>
+      <c r="HA1" s="177"/>
+      <c r="HB1" s="177"/>
+      <c r="HC1" s="177"/>
+      <c r="HD1" s="177"/>
+      <c r="HE1" s="177"/>
+      <c r="HF1" s="177"/>
+      <c r="HG1" s="177"/>
+      <c r="HH1" s="177"/>
+      <c r="HI1" s="177"/>
+      <c r="HJ1" s="177"/>
+      <c r="HK1" s="177"/>
+      <c r="HL1" s="177"/>
+      <c r="HM1" s="177"/>
+      <c r="HN1" s="177"/>
+      <c r="HO1" s="177"/>
+      <c r="HP1" s="177"/>
+      <c r="HQ1" s="177"/>
+      <c r="HR1" s="177"/>
+      <c r="HS1" s="177"/>
+      <c r="HT1" s="177"/>
+      <c r="HU1" s="177"/>
+      <c r="HV1" s="177"/>
+      <c r="HW1" s="177"/>
+      <c r="HX1" s="177"/>
+      <c r="HY1" s="177"/>
+      <c r="HZ1" s="177"/>
+      <c r="IA1" s="177"/>
+      <c r="IB1" s="177"/>
+      <c r="IC1" s="177"/>
+      <c r="ID1" s="177"/>
+      <c r="IE1" s="177"/>
+      <c r="IF1" s="177"/>
+      <c r="IG1" s="177"/>
+      <c r="IH1" s="177"/>
+      <c r="II1" s="177"/>
+      <c r="IJ1" s="177"/>
+      <c r="IK1" s="177"/>
+      <c r="IL1" s="177"/>
+      <c r="IM1" s="177"/>
+      <c r="IN1" s="177"/>
+      <c r="IO1" s="177"/>
+      <c r="IP1" s="177"/>
+      <c r="IQ1" s="177"/>
+      <c r="IR1" s="177"/>
+      <c r="IS1" s="177"/>
+      <c r="IT1" s="177"/>
+      <c r="IU1" s="177"/>
+      <c r="IV1" s="177"/>
     </row>
-    <row r="2" spans="1:256" ht="15" thickBot="1">
-      <c r="A2" s="179" t="str">
+    <row r="2" spans="1:256" ht="15.75" thickBot="1">
+      <c r="A2" s="180" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
       </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
-      <c r="K2" s="179"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
     </row>
     <row r="3" spans="1:256" ht="15" customHeight="1">
-      <c r="A3" s="180" t="str">
+      <c r="A3" s="181" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
       </c>
-      <c r="B3" s="182" t="str">
+      <c r="B3" s="183" t="str">
         <f>'Сводная таблица'!B3:B4</f>
         <v>группа</v>
       </c>
-      <c r="C3" s="184" t="str">
+      <c r="C3" s="185" t="str">
         <f>'Сводная таблица'!C3:C4</f>
         <v>подргуппа</v>
       </c>
-      <c r="D3" s="186" t="str">
+      <c r="D3" s="187" t="str">
         <f>'Сводная таблица'!D3:D4</f>
         <v>Фамилия</v>
       </c>
-      <c r="E3" s="188" t="str">
+      <c r="E3" s="189" t="str">
         <f>'Сводная таблица'!E3:E4</f>
         <v>Имя</v>
       </c>
-      <c r="F3" s="177" t="str">
+      <c r="F3" s="178" t="str">
         <f>'Сводная таблица'!F3:F4</f>
         <v>Отчество</v>
       </c>
-      <c r="G3" s="180" t="s">
+      <c r="G3" s="181" t="s">
         <v>114</v>
       </c>
-      <c r="H3" s="186" t="s">
+      <c r="H3" s="187" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="193" t="s">
+      <c r="I3" s="194" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="193" t="s">
+      <c r="J3" s="194" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="190" t="s">
+      <c r="K3" s="191" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15" thickBot="1">
-      <c r="A4" s="181"/>
-      <c r="B4" s="183"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="187"/>
-      <c r="I4" s="195"/>
-      <c r="J4" s="195"/>
-      <c r="K4" s="196"/>
+    <row r="4" spans="1:256" ht="15.75" thickBot="1">
+      <c r="A4" s="182"/>
+      <c r="B4" s="184"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="182"/>
+      <c r="H4" s="188"/>
+      <c r="I4" s="196"/>
+      <c r="J4" s="196"/>
+      <c r="K4" s="197"/>
     </row>
     <row r="5" spans="1:256" s="54" customFormat="1">
       <c r="A5" s="62">
@@ -70720,7 +70780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1">
+    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1">
       <c r="A43" s="56">
         <v>42</v>
       </c>
@@ -70786,343 +70846,343 @@
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="177" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="176"/>
-      <c r="T1" s="176"/>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="176"/>
-      <c r="AA1" s="176"/>
-      <c r="AB1" s="176"/>
-      <c r="AC1" s="176"/>
-      <c r="AD1" s="176"/>
-      <c r="AE1" s="176"/>
-      <c r="AF1" s="176"/>
-      <c r="AG1" s="176"/>
-      <c r="AH1" s="176"/>
-      <c r="AI1" s="176"/>
-      <c r="AJ1" s="176"/>
-      <c r="AK1" s="176"/>
-      <c r="AL1" s="176"/>
-      <c r="AM1" s="176"/>
-      <c r="AN1" s="176"/>
-      <c r="AO1" s="176"/>
-      <c r="AP1" s="176"/>
-      <c r="AQ1" s="176"/>
-      <c r="AR1" s="176"/>
-      <c r="AS1" s="176"/>
-      <c r="AT1" s="176"/>
-      <c r="AU1" s="176"/>
-      <c r="AV1" s="176"/>
-      <c r="AW1" s="176"/>
-      <c r="AX1" s="176"/>
-      <c r="AY1" s="176"/>
-      <c r="AZ1" s="176"/>
-      <c r="BA1" s="176"/>
-      <c r="BB1" s="176"/>
-      <c r="BC1" s="176"/>
-      <c r="BD1" s="176"/>
-      <c r="BE1" s="176"/>
-      <c r="BF1" s="176"/>
-      <c r="BG1" s="176"/>
-      <c r="BH1" s="176"/>
-      <c r="BI1" s="176"/>
-      <c r="BJ1" s="176"/>
-      <c r="BK1" s="176"/>
-      <c r="BL1" s="176"/>
-      <c r="BM1" s="176"/>
-      <c r="BN1" s="176"/>
-      <c r="BO1" s="176"/>
-      <c r="BP1" s="176"/>
-      <c r="BQ1" s="176"/>
-      <c r="BR1" s="176"/>
-      <c r="BS1" s="176"/>
-      <c r="BT1" s="176"/>
-      <c r="BU1" s="176"/>
-      <c r="BV1" s="176"/>
-      <c r="BW1" s="176"/>
-      <c r="BX1" s="176"/>
-      <c r="BY1" s="176"/>
-      <c r="BZ1" s="176"/>
-      <c r="CA1" s="176"/>
-      <c r="CB1" s="176"/>
-      <c r="CC1" s="176"/>
-      <c r="CD1" s="176"/>
-      <c r="CE1" s="176"/>
-      <c r="CF1" s="176"/>
-      <c r="CG1" s="176"/>
-      <c r="CH1" s="176"/>
-      <c r="CI1" s="176"/>
-      <c r="CJ1" s="176"/>
-      <c r="CK1" s="176"/>
-      <c r="CL1" s="176"/>
-      <c r="CM1" s="176"/>
-      <c r="CN1" s="176"/>
-      <c r="CO1" s="176"/>
-      <c r="CP1" s="176"/>
-      <c r="CQ1" s="176"/>
-      <c r="CR1" s="176"/>
-      <c r="CS1" s="176"/>
-      <c r="CT1" s="176"/>
-      <c r="CU1" s="176"/>
-      <c r="CV1" s="176"/>
-      <c r="CW1" s="176"/>
-      <c r="CX1" s="176"/>
-      <c r="CY1" s="176"/>
-      <c r="CZ1" s="176"/>
-      <c r="DA1" s="176"/>
-      <c r="DB1" s="176"/>
-      <c r="DC1" s="176"/>
-      <c r="DD1" s="176"/>
-      <c r="DE1" s="176"/>
-      <c r="DF1" s="176"/>
-      <c r="DG1" s="176"/>
-      <c r="DH1" s="176"/>
-      <c r="DI1" s="176"/>
-      <c r="DJ1" s="176"/>
-      <c r="DK1" s="176"/>
-      <c r="DL1" s="176"/>
-      <c r="DM1" s="176"/>
-      <c r="DN1" s="176"/>
-      <c r="DO1" s="176"/>
-      <c r="DP1" s="176"/>
-      <c r="DQ1" s="176"/>
-      <c r="DR1" s="176"/>
-      <c r="DS1" s="176"/>
-      <c r="DT1" s="176"/>
-      <c r="DU1" s="176"/>
-      <c r="DV1" s="176"/>
-      <c r="DW1" s="176"/>
-      <c r="DX1" s="176"/>
-      <c r="DY1" s="176"/>
-      <c r="DZ1" s="176"/>
-      <c r="EA1" s="176"/>
-      <c r="EB1" s="176"/>
-      <c r="EC1" s="176"/>
-      <c r="ED1" s="176"/>
-      <c r="EE1" s="176"/>
-      <c r="EF1" s="176"/>
-      <c r="EG1" s="176"/>
-      <c r="EH1" s="176"/>
-      <c r="EI1" s="176"/>
-      <c r="EJ1" s="176"/>
-      <c r="EK1" s="176"/>
-      <c r="EL1" s="176"/>
-      <c r="EM1" s="176"/>
-      <c r="EN1" s="176"/>
-      <c r="EO1" s="176"/>
-      <c r="EP1" s="176"/>
-      <c r="EQ1" s="176"/>
-      <c r="ER1" s="176"/>
-      <c r="ES1" s="176"/>
-      <c r="ET1" s="176"/>
-      <c r="EU1" s="176"/>
-      <c r="EV1" s="176"/>
-      <c r="EW1" s="176"/>
-      <c r="EX1" s="176"/>
-      <c r="EY1" s="176"/>
-      <c r="EZ1" s="176"/>
-      <c r="FA1" s="176"/>
-      <c r="FB1" s="176"/>
-      <c r="FC1" s="176"/>
-      <c r="FD1" s="176"/>
-      <c r="FE1" s="176"/>
-      <c r="FF1" s="176"/>
-      <c r="FG1" s="176"/>
-      <c r="FH1" s="176"/>
-      <c r="FI1" s="176"/>
-      <c r="FJ1" s="176"/>
-      <c r="FK1" s="176"/>
-      <c r="FL1" s="176"/>
-      <c r="FM1" s="176"/>
-      <c r="FN1" s="176"/>
-      <c r="FO1" s="176"/>
-      <c r="FP1" s="176"/>
-      <c r="FQ1" s="176"/>
-      <c r="FR1" s="176"/>
-      <c r="FS1" s="176"/>
-      <c r="FT1" s="176"/>
-      <c r="FU1" s="176"/>
-      <c r="FV1" s="176"/>
-      <c r="FW1" s="176"/>
-      <c r="FX1" s="176"/>
-      <c r="FY1" s="176"/>
-      <c r="FZ1" s="176"/>
-      <c r="GA1" s="176"/>
-      <c r="GB1" s="176"/>
-      <c r="GC1" s="176"/>
-      <c r="GD1" s="176"/>
-      <c r="GE1" s="176"/>
-      <c r="GF1" s="176"/>
-      <c r="GG1" s="176"/>
-      <c r="GH1" s="176"/>
-      <c r="GI1" s="176"/>
-      <c r="GJ1" s="176"/>
-      <c r="GK1" s="176"/>
-      <c r="GL1" s="176"/>
-      <c r="GM1" s="176"/>
-      <c r="GN1" s="176"/>
-      <c r="GO1" s="176"/>
-      <c r="GP1" s="176"/>
-      <c r="GQ1" s="176"/>
-      <c r="GR1" s="176"/>
-      <c r="GS1" s="176"/>
-      <c r="GT1" s="176"/>
-      <c r="GU1" s="176"/>
-      <c r="GV1" s="176"/>
-      <c r="GW1" s="176"/>
-      <c r="GX1" s="176"/>
-      <c r="GY1" s="176"/>
-      <c r="GZ1" s="176"/>
-      <c r="HA1" s="176"/>
-      <c r="HB1" s="176"/>
-      <c r="HC1" s="176"/>
-      <c r="HD1" s="176"/>
-      <c r="HE1" s="176"/>
-      <c r="HF1" s="176"/>
-      <c r="HG1" s="176"/>
-      <c r="HH1" s="176"/>
-      <c r="HI1" s="176"/>
-      <c r="HJ1" s="176"/>
-      <c r="HK1" s="176"/>
-      <c r="HL1" s="176"/>
-      <c r="HM1" s="176"/>
-      <c r="HN1" s="176"/>
-      <c r="HO1" s="176"/>
-      <c r="HP1" s="176"/>
-      <c r="HQ1" s="176"/>
-      <c r="HR1" s="176"/>
-      <c r="HS1" s="176"/>
-      <c r="HT1" s="176"/>
-      <c r="HU1" s="176"/>
-      <c r="HV1" s="176"/>
-      <c r="HW1" s="176"/>
-      <c r="HX1" s="176"/>
-      <c r="HY1" s="176"/>
-      <c r="HZ1" s="176"/>
-      <c r="IA1" s="176"/>
-      <c r="IB1" s="176"/>
-      <c r="IC1" s="176"/>
-      <c r="ID1" s="176"/>
-      <c r="IE1" s="176"/>
-      <c r="IF1" s="176"/>
-      <c r="IG1" s="176"/>
-      <c r="IH1" s="176"/>
-      <c r="II1" s="176"/>
-      <c r="IJ1" s="176"/>
-      <c r="IK1" s="176"/>
-      <c r="IL1" s="176"/>
-      <c r="IM1" s="176"/>
-      <c r="IN1" s="176"/>
-      <c r="IO1" s="176"/>
-      <c r="IP1" s="176"/>
-      <c r="IQ1" s="176"/>
-      <c r="IR1" s="176"/>
-      <c r="IS1" s="176"/>
-      <c r="IT1" s="176"/>
-      <c r="IU1" s="176"/>
-      <c r="IV1" s="176"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
+      <c r="N1" s="177"/>
+      <c r="O1" s="177"/>
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="177"/>
+      <c r="S1" s="177"/>
+      <c r="T1" s="177"/>
+      <c r="U1" s="177"/>
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="177"/>
+      <c r="AA1" s="177"/>
+      <c r="AB1" s="177"/>
+      <c r="AC1" s="177"/>
+      <c r="AD1" s="177"/>
+      <c r="AE1" s="177"/>
+      <c r="AF1" s="177"/>
+      <c r="AG1" s="177"/>
+      <c r="AH1" s="177"/>
+      <c r="AI1" s="177"/>
+      <c r="AJ1" s="177"/>
+      <c r="AK1" s="177"/>
+      <c r="AL1" s="177"/>
+      <c r="AM1" s="177"/>
+      <c r="AN1" s="177"/>
+      <c r="AO1" s="177"/>
+      <c r="AP1" s="177"/>
+      <c r="AQ1" s="177"/>
+      <c r="AR1" s="177"/>
+      <c r="AS1" s="177"/>
+      <c r="AT1" s="177"/>
+      <c r="AU1" s="177"/>
+      <c r="AV1" s="177"/>
+      <c r="AW1" s="177"/>
+      <c r="AX1" s="177"/>
+      <c r="AY1" s="177"/>
+      <c r="AZ1" s="177"/>
+      <c r="BA1" s="177"/>
+      <c r="BB1" s="177"/>
+      <c r="BC1" s="177"/>
+      <c r="BD1" s="177"/>
+      <c r="BE1" s="177"/>
+      <c r="BF1" s="177"/>
+      <c r="BG1" s="177"/>
+      <c r="BH1" s="177"/>
+      <c r="BI1" s="177"/>
+      <c r="BJ1" s="177"/>
+      <c r="BK1" s="177"/>
+      <c r="BL1" s="177"/>
+      <c r="BM1" s="177"/>
+      <c r="BN1" s="177"/>
+      <c r="BO1" s="177"/>
+      <c r="BP1" s="177"/>
+      <c r="BQ1" s="177"/>
+      <c r="BR1" s="177"/>
+      <c r="BS1" s="177"/>
+      <c r="BT1" s="177"/>
+      <c r="BU1" s="177"/>
+      <c r="BV1" s="177"/>
+      <c r="BW1" s="177"/>
+      <c r="BX1" s="177"/>
+      <c r="BY1" s="177"/>
+      <c r="BZ1" s="177"/>
+      <c r="CA1" s="177"/>
+      <c r="CB1" s="177"/>
+      <c r="CC1" s="177"/>
+      <c r="CD1" s="177"/>
+      <c r="CE1" s="177"/>
+      <c r="CF1" s="177"/>
+      <c r="CG1" s="177"/>
+      <c r="CH1" s="177"/>
+      <c r="CI1" s="177"/>
+      <c r="CJ1" s="177"/>
+      <c r="CK1" s="177"/>
+      <c r="CL1" s="177"/>
+      <c r="CM1" s="177"/>
+      <c r="CN1" s="177"/>
+      <c r="CO1" s="177"/>
+      <c r="CP1" s="177"/>
+      <c r="CQ1" s="177"/>
+      <c r="CR1" s="177"/>
+      <c r="CS1" s="177"/>
+      <c r="CT1" s="177"/>
+      <c r="CU1" s="177"/>
+      <c r="CV1" s="177"/>
+      <c r="CW1" s="177"/>
+      <c r="CX1" s="177"/>
+      <c r="CY1" s="177"/>
+      <c r="CZ1" s="177"/>
+      <c r="DA1" s="177"/>
+      <c r="DB1" s="177"/>
+      <c r="DC1" s="177"/>
+      <c r="DD1" s="177"/>
+      <c r="DE1" s="177"/>
+      <c r="DF1" s="177"/>
+      <c r="DG1" s="177"/>
+      <c r="DH1" s="177"/>
+      <c r="DI1" s="177"/>
+      <c r="DJ1" s="177"/>
+      <c r="DK1" s="177"/>
+      <c r="DL1" s="177"/>
+      <c r="DM1" s="177"/>
+      <c r="DN1" s="177"/>
+      <c r="DO1" s="177"/>
+      <c r="DP1" s="177"/>
+      <c r="DQ1" s="177"/>
+      <c r="DR1" s="177"/>
+      <c r="DS1" s="177"/>
+      <c r="DT1" s="177"/>
+      <c r="DU1" s="177"/>
+      <c r="DV1" s="177"/>
+      <c r="DW1" s="177"/>
+      <c r="DX1" s="177"/>
+      <c r="DY1" s="177"/>
+      <c r="DZ1" s="177"/>
+      <c r="EA1" s="177"/>
+      <c r="EB1" s="177"/>
+      <c r="EC1" s="177"/>
+      <c r="ED1" s="177"/>
+      <c r="EE1" s="177"/>
+      <c r="EF1" s="177"/>
+      <c r="EG1" s="177"/>
+      <c r="EH1" s="177"/>
+      <c r="EI1" s="177"/>
+      <c r="EJ1" s="177"/>
+      <c r="EK1" s="177"/>
+      <c r="EL1" s="177"/>
+      <c r="EM1" s="177"/>
+      <c r="EN1" s="177"/>
+      <c r="EO1" s="177"/>
+      <c r="EP1" s="177"/>
+      <c r="EQ1" s="177"/>
+      <c r="ER1" s="177"/>
+      <c r="ES1" s="177"/>
+      <c r="ET1" s="177"/>
+      <c r="EU1" s="177"/>
+      <c r="EV1" s="177"/>
+      <c r="EW1" s="177"/>
+      <c r="EX1" s="177"/>
+      <c r="EY1" s="177"/>
+      <c r="EZ1" s="177"/>
+      <c r="FA1" s="177"/>
+      <c r="FB1" s="177"/>
+      <c r="FC1" s="177"/>
+      <c r="FD1" s="177"/>
+      <c r="FE1" s="177"/>
+      <c r="FF1" s="177"/>
+      <c r="FG1" s="177"/>
+      <c r="FH1" s="177"/>
+      <c r="FI1" s="177"/>
+      <c r="FJ1" s="177"/>
+      <c r="FK1" s="177"/>
+      <c r="FL1" s="177"/>
+      <c r="FM1" s="177"/>
+      <c r="FN1" s="177"/>
+      <c r="FO1" s="177"/>
+      <c r="FP1" s="177"/>
+      <c r="FQ1" s="177"/>
+      <c r="FR1" s="177"/>
+      <c r="FS1" s="177"/>
+      <c r="FT1" s="177"/>
+      <c r="FU1" s="177"/>
+      <c r="FV1" s="177"/>
+      <c r="FW1" s="177"/>
+      <c r="FX1" s="177"/>
+      <c r="FY1" s="177"/>
+      <c r="FZ1" s="177"/>
+      <c r="GA1" s="177"/>
+      <c r="GB1" s="177"/>
+      <c r="GC1" s="177"/>
+      <c r="GD1" s="177"/>
+      <c r="GE1" s="177"/>
+      <c r="GF1" s="177"/>
+      <c r="GG1" s="177"/>
+      <c r="GH1" s="177"/>
+      <c r="GI1" s="177"/>
+      <c r="GJ1" s="177"/>
+      <c r="GK1" s="177"/>
+      <c r="GL1" s="177"/>
+      <c r="GM1" s="177"/>
+      <c r="GN1" s="177"/>
+      <c r="GO1" s="177"/>
+      <c r="GP1" s="177"/>
+      <c r="GQ1" s="177"/>
+      <c r="GR1" s="177"/>
+      <c r="GS1" s="177"/>
+      <c r="GT1" s="177"/>
+      <c r="GU1" s="177"/>
+      <c r="GV1" s="177"/>
+      <c r="GW1" s="177"/>
+      <c r="GX1" s="177"/>
+      <c r="GY1" s="177"/>
+      <c r="GZ1" s="177"/>
+      <c r="HA1" s="177"/>
+      <c r="HB1" s="177"/>
+      <c r="HC1" s="177"/>
+      <c r="HD1" s="177"/>
+      <c r="HE1" s="177"/>
+      <c r="HF1" s="177"/>
+      <c r="HG1" s="177"/>
+      <c r="HH1" s="177"/>
+      <c r="HI1" s="177"/>
+      <c r="HJ1" s="177"/>
+      <c r="HK1" s="177"/>
+      <c r="HL1" s="177"/>
+      <c r="HM1" s="177"/>
+      <c r="HN1" s="177"/>
+      <c r="HO1" s="177"/>
+      <c r="HP1" s="177"/>
+      <c r="HQ1" s="177"/>
+      <c r="HR1" s="177"/>
+      <c r="HS1" s="177"/>
+      <c r="HT1" s="177"/>
+      <c r="HU1" s="177"/>
+      <c r="HV1" s="177"/>
+      <c r="HW1" s="177"/>
+      <c r="HX1" s="177"/>
+      <c r="HY1" s="177"/>
+      <c r="HZ1" s="177"/>
+      <c r="IA1" s="177"/>
+      <c r="IB1" s="177"/>
+      <c r="IC1" s="177"/>
+      <c r="ID1" s="177"/>
+      <c r="IE1" s="177"/>
+      <c r="IF1" s="177"/>
+      <c r="IG1" s="177"/>
+      <c r="IH1" s="177"/>
+      <c r="II1" s="177"/>
+      <c r="IJ1" s="177"/>
+      <c r="IK1" s="177"/>
+      <c r="IL1" s="177"/>
+      <c r="IM1" s="177"/>
+      <c r="IN1" s="177"/>
+      <c r="IO1" s="177"/>
+      <c r="IP1" s="177"/>
+      <c r="IQ1" s="177"/>
+      <c r="IR1" s="177"/>
+      <c r="IS1" s="177"/>
+      <c r="IT1" s="177"/>
+      <c r="IU1" s="177"/>
+      <c r="IV1" s="177"/>
     </row>
-    <row r="2" spans="1:256" ht="15" thickBot="1">
-      <c r="A2" s="179" t="str">
+    <row r="2" spans="1:256" ht="15.75" thickBot="1">
+      <c r="A2" s="180" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
       </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
-      <c r="K2" s="179"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
     </row>
     <row r="3" spans="1:256" ht="15" customHeight="1">
-      <c r="A3" s="180" t="str">
+      <c r="A3" s="181" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
       </c>
-      <c r="B3" s="182" t="str">
+      <c r="B3" s="183" t="str">
         <f>'Сводная таблица'!B3:B4</f>
         <v>группа</v>
       </c>
-      <c r="C3" s="184" t="str">
+      <c r="C3" s="185" t="str">
         <f>'Сводная таблица'!C3:C4</f>
         <v>подргуппа</v>
       </c>
-      <c r="D3" s="186" t="str">
+      <c r="D3" s="187" t="str">
         <f>'Сводная таблица'!D3:D4</f>
         <v>Фамилия</v>
       </c>
-      <c r="E3" s="188" t="str">
+      <c r="E3" s="189" t="str">
         <f>'Сводная таблица'!E3:E4</f>
         <v>Имя</v>
       </c>
-      <c r="F3" s="177" t="str">
+      <c r="F3" s="178" t="str">
         <f>'Сводная таблица'!F3:F4</f>
         <v>Отчество</v>
       </c>
-      <c r="G3" s="180" t="s">
+      <c r="G3" s="181" t="s">
         <v>114</v>
       </c>
-      <c r="H3" s="186" t="s">
+      <c r="H3" s="187" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="193" t="s">
+      <c r="I3" s="194" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="193" t="s">
+      <c r="J3" s="194" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="190" t="s">
+      <c r="K3" s="191" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15" thickBot="1">
-      <c r="A4" s="181"/>
-      <c r="B4" s="183"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="187"/>
-      <c r="I4" s="195"/>
-      <c r="J4" s="195"/>
-      <c r="K4" s="196"/>
+    <row r="4" spans="1:256" ht="15.75" thickBot="1">
+      <c r="A4" s="182"/>
+      <c r="B4" s="184"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="182"/>
+      <c r="H4" s="188"/>
+      <c r="I4" s="196"/>
+      <c r="J4" s="196"/>
+      <c r="K4" s="197"/>
     </row>
     <row r="5" spans="1:256" s="54" customFormat="1">
       <c r="A5" s="62">
@@ -72568,7 +72628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1">
+    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1">
       <c r="A43" s="56">
         <v>42</v>
       </c>
@@ -72634,343 +72694,343 @@
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="177" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="176"/>
-      <c r="T1" s="176"/>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="176"/>
-      <c r="AA1" s="176"/>
-      <c r="AB1" s="176"/>
-      <c r="AC1" s="176"/>
-      <c r="AD1" s="176"/>
-      <c r="AE1" s="176"/>
-      <c r="AF1" s="176"/>
-      <c r="AG1" s="176"/>
-      <c r="AH1" s="176"/>
-      <c r="AI1" s="176"/>
-      <c r="AJ1" s="176"/>
-      <c r="AK1" s="176"/>
-      <c r="AL1" s="176"/>
-      <c r="AM1" s="176"/>
-      <c r="AN1" s="176"/>
-      <c r="AO1" s="176"/>
-      <c r="AP1" s="176"/>
-      <c r="AQ1" s="176"/>
-      <c r="AR1" s="176"/>
-      <c r="AS1" s="176"/>
-      <c r="AT1" s="176"/>
-      <c r="AU1" s="176"/>
-      <c r="AV1" s="176"/>
-      <c r="AW1" s="176"/>
-      <c r="AX1" s="176"/>
-      <c r="AY1" s="176"/>
-      <c r="AZ1" s="176"/>
-      <c r="BA1" s="176"/>
-      <c r="BB1" s="176"/>
-      <c r="BC1" s="176"/>
-      <c r="BD1" s="176"/>
-      <c r="BE1" s="176"/>
-      <c r="BF1" s="176"/>
-      <c r="BG1" s="176"/>
-      <c r="BH1" s="176"/>
-      <c r="BI1" s="176"/>
-      <c r="BJ1" s="176"/>
-      <c r="BK1" s="176"/>
-      <c r="BL1" s="176"/>
-      <c r="BM1" s="176"/>
-      <c r="BN1" s="176"/>
-      <c r="BO1" s="176"/>
-      <c r="BP1" s="176"/>
-      <c r="BQ1" s="176"/>
-      <c r="BR1" s="176"/>
-      <c r="BS1" s="176"/>
-      <c r="BT1" s="176"/>
-      <c r="BU1" s="176"/>
-      <c r="BV1" s="176"/>
-      <c r="BW1" s="176"/>
-      <c r="BX1" s="176"/>
-      <c r="BY1" s="176"/>
-      <c r="BZ1" s="176"/>
-      <c r="CA1" s="176"/>
-      <c r="CB1" s="176"/>
-      <c r="CC1" s="176"/>
-      <c r="CD1" s="176"/>
-      <c r="CE1" s="176"/>
-      <c r="CF1" s="176"/>
-      <c r="CG1" s="176"/>
-      <c r="CH1" s="176"/>
-      <c r="CI1" s="176"/>
-      <c r="CJ1" s="176"/>
-      <c r="CK1" s="176"/>
-      <c r="CL1" s="176"/>
-      <c r="CM1" s="176"/>
-      <c r="CN1" s="176"/>
-      <c r="CO1" s="176"/>
-      <c r="CP1" s="176"/>
-      <c r="CQ1" s="176"/>
-      <c r="CR1" s="176"/>
-      <c r="CS1" s="176"/>
-      <c r="CT1" s="176"/>
-      <c r="CU1" s="176"/>
-      <c r="CV1" s="176"/>
-      <c r="CW1" s="176"/>
-      <c r="CX1" s="176"/>
-      <c r="CY1" s="176"/>
-      <c r="CZ1" s="176"/>
-      <c r="DA1" s="176"/>
-      <c r="DB1" s="176"/>
-      <c r="DC1" s="176"/>
-      <c r="DD1" s="176"/>
-      <c r="DE1" s="176"/>
-      <c r="DF1" s="176"/>
-      <c r="DG1" s="176"/>
-      <c r="DH1" s="176"/>
-      <c r="DI1" s="176"/>
-      <c r="DJ1" s="176"/>
-      <c r="DK1" s="176"/>
-      <c r="DL1" s="176"/>
-      <c r="DM1" s="176"/>
-      <c r="DN1" s="176"/>
-      <c r="DO1" s="176"/>
-      <c r="DP1" s="176"/>
-      <c r="DQ1" s="176"/>
-      <c r="DR1" s="176"/>
-      <c r="DS1" s="176"/>
-      <c r="DT1" s="176"/>
-      <c r="DU1" s="176"/>
-      <c r="DV1" s="176"/>
-      <c r="DW1" s="176"/>
-      <c r="DX1" s="176"/>
-      <c r="DY1" s="176"/>
-      <c r="DZ1" s="176"/>
-      <c r="EA1" s="176"/>
-      <c r="EB1" s="176"/>
-      <c r="EC1" s="176"/>
-      <c r="ED1" s="176"/>
-      <c r="EE1" s="176"/>
-      <c r="EF1" s="176"/>
-      <c r="EG1" s="176"/>
-      <c r="EH1" s="176"/>
-      <c r="EI1" s="176"/>
-      <c r="EJ1" s="176"/>
-      <c r="EK1" s="176"/>
-      <c r="EL1" s="176"/>
-      <c r="EM1" s="176"/>
-      <c r="EN1" s="176"/>
-      <c r="EO1" s="176"/>
-      <c r="EP1" s="176"/>
-      <c r="EQ1" s="176"/>
-      <c r="ER1" s="176"/>
-      <c r="ES1" s="176"/>
-      <c r="ET1" s="176"/>
-      <c r="EU1" s="176"/>
-      <c r="EV1" s="176"/>
-      <c r="EW1" s="176"/>
-      <c r="EX1" s="176"/>
-      <c r="EY1" s="176"/>
-      <c r="EZ1" s="176"/>
-      <c r="FA1" s="176"/>
-      <c r="FB1" s="176"/>
-      <c r="FC1" s="176"/>
-      <c r="FD1" s="176"/>
-      <c r="FE1" s="176"/>
-      <c r="FF1" s="176"/>
-      <c r="FG1" s="176"/>
-      <c r="FH1" s="176"/>
-      <c r="FI1" s="176"/>
-      <c r="FJ1" s="176"/>
-      <c r="FK1" s="176"/>
-      <c r="FL1" s="176"/>
-      <c r="FM1" s="176"/>
-      <c r="FN1" s="176"/>
-      <c r="FO1" s="176"/>
-      <c r="FP1" s="176"/>
-      <c r="FQ1" s="176"/>
-      <c r="FR1" s="176"/>
-      <c r="FS1" s="176"/>
-      <c r="FT1" s="176"/>
-      <c r="FU1" s="176"/>
-      <c r="FV1" s="176"/>
-      <c r="FW1" s="176"/>
-      <c r="FX1" s="176"/>
-      <c r="FY1" s="176"/>
-      <c r="FZ1" s="176"/>
-      <c r="GA1" s="176"/>
-      <c r="GB1" s="176"/>
-      <c r="GC1" s="176"/>
-      <c r="GD1" s="176"/>
-      <c r="GE1" s="176"/>
-      <c r="GF1" s="176"/>
-      <c r="GG1" s="176"/>
-      <c r="GH1" s="176"/>
-      <c r="GI1" s="176"/>
-      <c r="GJ1" s="176"/>
-      <c r="GK1" s="176"/>
-      <c r="GL1" s="176"/>
-      <c r="GM1" s="176"/>
-      <c r="GN1" s="176"/>
-      <c r="GO1" s="176"/>
-      <c r="GP1" s="176"/>
-      <c r="GQ1" s="176"/>
-      <c r="GR1" s="176"/>
-      <c r="GS1" s="176"/>
-      <c r="GT1" s="176"/>
-      <c r="GU1" s="176"/>
-      <c r="GV1" s="176"/>
-      <c r="GW1" s="176"/>
-      <c r="GX1" s="176"/>
-      <c r="GY1" s="176"/>
-      <c r="GZ1" s="176"/>
-      <c r="HA1" s="176"/>
-      <c r="HB1" s="176"/>
-      <c r="HC1" s="176"/>
-      <c r="HD1" s="176"/>
-      <c r="HE1" s="176"/>
-      <c r="HF1" s="176"/>
-      <c r="HG1" s="176"/>
-      <c r="HH1" s="176"/>
-      <c r="HI1" s="176"/>
-      <c r="HJ1" s="176"/>
-      <c r="HK1" s="176"/>
-      <c r="HL1" s="176"/>
-      <c r="HM1" s="176"/>
-      <c r="HN1" s="176"/>
-      <c r="HO1" s="176"/>
-      <c r="HP1" s="176"/>
-      <c r="HQ1" s="176"/>
-      <c r="HR1" s="176"/>
-      <c r="HS1" s="176"/>
-      <c r="HT1" s="176"/>
-      <c r="HU1" s="176"/>
-      <c r="HV1" s="176"/>
-      <c r="HW1" s="176"/>
-      <c r="HX1" s="176"/>
-      <c r="HY1" s="176"/>
-      <c r="HZ1" s="176"/>
-      <c r="IA1" s="176"/>
-      <c r="IB1" s="176"/>
-      <c r="IC1" s="176"/>
-      <c r="ID1" s="176"/>
-      <c r="IE1" s="176"/>
-      <c r="IF1" s="176"/>
-      <c r="IG1" s="176"/>
-      <c r="IH1" s="176"/>
-      <c r="II1" s="176"/>
-      <c r="IJ1" s="176"/>
-      <c r="IK1" s="176"/>
-      <c r="IL1" s="176"/>
-      <c r="IM1" s="176"/>
-      <c r="IN1" s="176"/>
-      <c r="IO1" s="176"/>
-      <c r="IP1" s="176"/>
-      <c r="IQ1" s="176"/>
-      <c r="IR1" s="176"/>
-      <c r="IS1" s="176"/>
-      <c r="IT1" s="176"/>
-      <c r="IU1" s="176"/>
-      <c r="IV1" s="176"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
+      <c r="N1" s="177"/>
+      <c r="O1" s="177"/>
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="177"/>
+      <c r="S1" s="177"/>
+      <c r="T1" s="177"/>
+      <c r="U1" s="177"/>
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="177"/>
+      <c r="AA1" s="177"/>
+      <c r="AB1" s="177"/>
+      <c r="AC1" s="177"/>
+      <c r="AD1" s="177"/>
+      <c r="AE1" s="177"/>
+      <c r="AF1" s="177"/>
+      <c r="AG1" s="177"/>
+      <c r="AH1" s="177"/>
+      <c r="AI1" s="177"/>
+      <c r="AJ1" s="177"/>
+      <c r="AK1" s="177"/>
+      <c r="AL1" s="177"/>
+      <c r="AM1" s="177"/>
+      <c r="AN1" s="177"/>
+      <c r="AO1" s="177"/>
+      <c r="AP1" s="177"/>
+      <c r="AQ1" s="177"/>
+      <c r="AR1" s="177"/>
+      <c r="AS1" s="177"/>
+      <c r="AT1" s="177"/>
+      <c r="AU1" s="177"/>
+      <c r="AV1" s="177"/>
+      <c r="AW1" s="177"/>
+      <c r="AX1" s="177"/>
+      <c r="AY1" s="177"/>
+      <c r="AZ1" s="177"/>
+      <c r="BA1" s="177"/>
+      <c r="BB1" s="177"/>
+      <c r="BC1" s="177"/>
+      <c r="BD1" s="177"/>
+      <c r="BE1" s="177"/>
+      <c r="BF1" s="177"/>
+      <c r="BG1" s="177"/>
+      <c r="BH1" s="177"/>
+      <c r="BI1" s="177"/>
+      <c r="BJ1" s="177"/>
+      <c r="BK1" s="177"/>
+      <c r="BL1" s="177"/>
+      <c r="BM1" s="177"/>
+      <c r="BN1" s="177"/>
+      <c r="BO1" s="177"/>
+      <c r="BP1" s="177"/>
+      <c r="BQ1" s="177"/>
+      <c r="BR1" s="177"/>
+      <c r="BS1" s="177"/>
+      <c r="BT1" s="177"/>
+      <c r="BU1" s="177"/>
+      <c r="BV1" s="177"/>
+      <c r="BW1" s="177"/>
+      <c r="BX1" s="177"/>
+      <c r="BY1" s="177"/>
+      <c r="BZ1" s="177"/>
+      <c r="CA1" s="177"/>
+      <c r="CB1" s="177"/>
+      <c r="CC1" s="177"/>
+      <c r="CD1" s="177"/>
+      <c r="CE1" s="177"/>
+      <c r="CF1" s="177"/>
+      <c r="CG1" s="177"/>
+      <c r="CH1" s="177"/>
+      <c r="CI1" s="177"/>
+      <c r="CJ1" s="177"/>
+      <c r="CK1" s="177"/>
+      <c r="CL1" s="177"/>
+      <c r="CM1" s="177"/>
+      <c r="CN1" s="177"/>
+      <c r="CO1" s="177"/>
+      <c r="CP1" s="177"/>
+      <c r="CQ1" s="177"/>
+      <c r="CR1" s="177"/>
+      <c r="CS1" s="177"/>
+      <c r="CT1" s="177"/>
+      <c r="CU1" s="177"/>
+      <c r="CV1" s="177"/>
+      <c r="CW1" s="177"/>
+      <c r="CX1" s="177"/>
+      <c r="CY1" s="177"/>
+      <c r="CZ1" s="177"/>
+      <c r="DA1" s="177"/>
+      <c r="DB1" s="177"/>
+      <c r="DC1" s="177"/>
+      <c r="DD1" s="177"/>
+      <c r="DE1" s="177"/>
+      <c r="DF1" s="177"/>
+      <c r="DG1" s="177"/>
+      <c r="DH1" s="177"/>
+      <c r="DI1" s="177"/>
+      <c r="DJ1" s="177"/>
+      <c r="DK1" s="177"/>
+      <c r="DL1" s="177"/>
+      <c r="DM1" s="177"/>
+      <c r="DN1" s="177"/>
+      <c r="DO1" s="177"/>
+      <c r="DP1" s="177"/>
+      <c r="DQ1" s="177"/>
+      <c r="DR1" s="177"/>
+      <c r="DS1" s="177"/>
+      <c r="DT1" s="177"/>
+      <c r="DU1" s="177"/>
+      <c r="DV1" s="177"/>
+      <c r="DW1" s="177"/>
+      <c r="DX1" s="177"/>
+      <c r="DY1" s="177"/>
+      <c r="DZ1" s="177"/>
+      <c r="EA1" s="177"/>
+      <c r="EB1" s="177"/>
+      <c r="EC1" s="177"/>
+      <c r="ED1" s="177"/>
+      <c r="EE1" s="177"/>
+      <c r="EF1" s="177"/>
+      <c r="EG1" s="177"/>
+      <c r="EH1" s="177"/>
+      <c r="EI1" s="177"/>
+      <c r="EJ1" s="177"/>
+      <c r="EK1" s="177"/>
+      <c r="EL1" s="177"/>
+      <c r="EM1" s="177"/>
+      <c r="EN1" s="177"/>
+      <c r="EO1" s="177"/>
+      <c r="EP1" s="177"/>
+      <c r="EQ1" s="177"/>
+      <c r="ER1" s="177"/>
+      <c r="ES1" s="177"/>
+      <c r="ET1" s="177"/>
+      <c r="EU1" s="177"/>
+      <c r="EV1" s="177"/>
+      <c r="EW1" s="177"/>
+      <c r="EX1" s="177"/>
+      <c r="EY1" s="177"/>
+      <c r="EZ1" s="177"/>
+      <c r="FA1" s="177"/>
+      <c r="FB1" s="177"/>
+      <c r="FC1" s="177"/>
+      <c r="FD1" s="177"/>
+      <c r="FE1" s="177"/>
+      <c r="FF1" s="177"/>
+      <c r="FG1" s="177"/>
+      <c r="FH1" s="177"/>
+      <c r="FI1" s="177"/>
+      <c r="FJ1" s="177"/>
+      <c r="FK1" s="177"/>
+      <c r="FL1" s="177"/>
+      <c r="FM1" s="177"/>
+      <c r="FN1" s="177"/>
+      <c r="FO1" s="177"/>
+      <c r="FP1" s="177"/>
+      <c r="FQ1" s="177"/>
+      <c r="FR1" s="177"/>
+      <c r="FS1" s="177"/>
+      <c r="FT1" s="177"/>
+      <c r="FU1" s="177"/>
+      <c r="FV1" s="177"/>
+      <c r="FW1" s="177"/>
+      <c r="FX1" s="177"/>
+      <c r="FY1" s="177"/>
+      <c r="FZ1" s="177"/>
+      <c r="GA1" s="177"/>
+      <c r="GB1" s="177"/>
+      <c r="GC1" s="177"/>
+      <c r="GD1" s="177"/>
+      <c r="GE1" s="177"/>
+      <c r="GF1" s="177"/>
+      <c r="GG1" s="177"/>
+      <c r="GH1" s="177"/>
+      <c r="GI1" s="177"/>
+      <c r="GJ1" s="177"/>
+      <c r="GK1" s="177"/>
+      <c r="GL1" s="177"/>
+      <c r="GM1" s="177"/>
+      <c r="GN1" s="177"/>
+      <c r="GO1" s="177"/>
+      <c r="GP1" s="177"/>
+      <c r="GQ1" s="177"/>
+      <c r="GR1" s="177"/>
+      <c r="GS1" s="177"/>
+      <c r="GT1" s="177"/>
+      <c r="GU1" s="177"/>
+      <c r="GV1" s="177"/>
+      <c r="GW1" s="177"/>
+      <c r="GX1" s="177"/>
+      <c r="GY1" s="177"/>
+      <c r="GZ1" s="177"/>
+      <c r="HA1" s="177"/>
+      <c r="HB1" s="177"/>
+      <c r="HC1" s="177"/>
+      <c r="HD1" s="177"/>
+      <c r="HE1" s="177"/>
+      <c r="HF1" s="177"/>
+      <c r="HG1" s="177"/>
+      <c r="HH1" s="177"/>
+      <c r="HI1" s="177"/>
+      <c r="HJ1" s="177"/>
+      <c r="HK1" s="177"/>
+      <c r="HL1" s="177"/>
+      <c r="HM1" s="177"/>
+      <c r="HN1" s="177"/>
+      <c r="HO1" s="177"/>
+      <c r="HP1" s="177"/>
+      <c r="HQ1" s="177"/>
+      <c r="HR1" s="177"/>
+      <c r="HS1" s="177"/>
+      <c r="HT1" s="177"/>
+      <c r="HU1" s="177"/>
+      <c r="HV1" s="177"/>
+      <c r="HW1" s="177"/>
+      <c r="HX1" s="177"/>
+      <c r="HY1" s="177"/>
+      <c r="HZ1" s="177"/>
+      <c r="IA1" s="177"/>
+      <c r="IB1" s="177"/>
+      <c r="IC1" s="177"/>
+      <c r="ID1" s="177"/>
+      <c r="IE1" s="177"/>
+      <c r="IF1" s="177"/>
+      <c r="IG1" s="177"/>
+      <c r="IH1" s="177"/>
+      <c r="II1" s="177"/>
+      <c r="IJ1" s="177"/>
+      <c r="IK1" s="177"/>
+      <c r="IL1" s="177"/>
+      <c r="IM1" s="177"/>
+      <c r="IN1" s="177"/>
+      <c r="IO1" s="177"/>
+      <c r="IP1" s="177"/>
+      <c r="IQ1" s="177"/>
+      <c r="IR1" s="177"/>
+      <c r="IS1" s="177"/>
+      <c r="IT1" s="177"/>
+      <c r="IU1" s="177"/>
+      <c r="IV1" s="177"/>
     </row>
-    <row r="2" spans="1:256" ht="15" thickBot="1">
-      <c r="A2" s="179" t="str">
+    <row r="2" spans="1:256" ht="15.75" thickBot="1">
+      <c r="A2" s="180" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
       </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
-      <c r="K2" s="179"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
     </row>
     <row r="3" spans="1:256" ht="15" customHeight="1">
-      <c r="A3" s="180" t="str">
+      <c r="A3" s="181" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
       </c>
-      <c r="B3" s="182" t="str">
+      <c r="B3" s="183" t="str">
         <f>'Сводная таблица'!B3:B4</f>
         <v>группа</v>
       </c>
-      <c r="C3" s="184" t="str">
+      <c r="C3" s="185" t="str">
         <f>'Сводная таблица'!C3:C4</f>
         <v>подргуппа</v>
       </c>
-      <c r="D3" s="186" t="str">
+      <c r="D3" s="187" t="str">
         <f>'Сводная таблица'!D3:D4</f>
         <v>Фамилия</v>
       </c>
-      <c r="E3" s="188" t="str">
+      <c r="E3" s="189" t="str">
         <f>'Сводная таблица'!E3:E4</f>
         <v>Имя</v>
       </c>
-      <c r="F3" s="177" t="str">
+      <c r="F3" s="178" t="str">
         <f>'Сводная таблица'!F3:F4</f>
         <v>Отчество</v>
       </c>
-      <c r="G3" s="180" t="s">
+      <c r="G3" s="181" t="s">
         <v>114</v>
       </c>
-      <c r="H3" s="186" t="s">
+      <c r="H3" s="187" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="193" t="s">
+      <c r="I3" s="194" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="193" t="s">
+      <c r="J3" s="194" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="190" t="s">
+      <c r="K3" s="191" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15" thickBot="1">
-      <c r="A4" s="181"/>
-      <c r="B4" s="183"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="187"/>
-      <c r="I4" s="195"/>
-      <c r="J4" s="195"/>
-      <c r="K4" s="196"/>
+    <row r="4" spans="1:256" ht="15.75" thickBot="1">
+      <c r="A4" s="182"/>
+      <c r="B4" s="184"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="182"/>
+      <c r="H4" s="188"/>
+      <c r="I4" s="196"/>
+      <c r="J4" s="196"/>
+      <c r="K4" s="197"/>
     </row>
     <row r="5" spans="1:256" s="54" customFormat="1">
       <c r="A5" s="62">
@@ -74416,7 +74476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1">
+    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1">
       <c r="A43" s="56">
         <v>42</v>
       </c>

--- a/ТМОГИ.2016.осень.xlsx
+++ b/ТМОГИ.2016.осень.xlsx
@@ -2093,7 +2093,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B77" sqref="B77:B87"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
@@ -22911,7 +22911,9 @@
       <c r="BA34" s="101">
         <v>2</v>
       </c>
-      <c r="BB34" s="101"/>
+      <c r="BB34" s="101">
+        <v>2</v>
+      </c>
       <c r="BC34" s="101">
         <v>4</v>
       </c>
@@ -22933,11 +22935,11 @@
       <c r="BS34" s="101"/>
       <c r="BT34" s="131">
         <f t="shared" si="4"/>
-        <v>34.25</v>
+        <v>36.25</v>
       </c>
       <c r="BU34" s="9">
         <f t="shared" si="3"/>
-        <v>5.3658536585365848</v>
+        <v>5.7206208425720622</v>
       </c>
     </row>
     <row r="35" spans="1:73" s="106" customFormat="1">
@@ -23039,7 +23041,9 @@
       <c r="BA35" s="101">
         <v>2</v>
       </c>
-      <c r="BB35" s="101"/>
+      <c r="BB35" s="101">
+        <v>2</v>
+      </c>
       <c r="BC35" s="101">
         <v>4</v>
       </c>
@@ -23061,11 +23065,11 @@
       <c r="BS35" s="101"/>
       <c r="BT35" s="131">
         <f t="shared" si="4"/>
-        <v>32.51</v>
+        <v>34.51</v>
       </c>
       <c r="BU35" s="9">
         <f t="shared" si="3"/>
-        <v>5.0572062084257201</v>
+        <v>5.4119733924611966</v>
       </c>
     </row>
     <row r="36" spans="1:73" s="106" customFormat="1">
@@ -23167,7 +23171,9 @@
       <c r="BA36" s="101">
         <v>2</v>
       </c>
-      <c r="BB36" s="101"/>
+      <c r="BB36" s="101">
+        <v>2</v>
+      </c>
       <c r="BC36" s="101">
         <v>4</v>
       </c>
@@ -23189,11 +23195,11 @@
       <c r="BS36" s="101"/>
       <c r="BT36" s="131">
         <f t="shared" si="4"/>
-        <v>31.78</v>
+        <v>33.78</v>
       </c>
       <c r="BU36" s="9">
         <f t="shared" si="3"/>
-        <v>4.9277161862527716</v>
+        <v>5.2824833702882481</v>
       </c>
     </row>
     <row r="37" spans="1:73" s="106" customFormat="1">
@@ -23303,7 +23309,9 @@
       <c r="BA37" s="144">
         <v>2</v>
       </c>
-      <c r="BB37" s="101"/>
+      <c r="BB37" s="101">
+        <v>2</v>
+      </c>
       <c r="BC37" s="101">
         <v>4</v>
       </c>
@@ -23325,11 +23333,11 @@
       <c r="BS37" s="101"/>
       <c r="BT37" s="131">
         <f t="shared" si="4"/>
-        <v>30.89</v>
+        <v>32.89</v>
       </c>
       <c r="BU37" s="9">
         <f t="shared" si="3"/>
-        <v>4.7698447893569842</v>
+        <v>5.1246119733924616</v>
       </c>
     </row>
     <row r="38" spans="1:73" s="106" customFormat="1">
@@ -23431,7 +23439,9 @@
       <c r="BA38" s="144" t="s">
         <v>125</v>
       </c>
-      <c r="BB38" s="101"/>
+      <c r="BB38" s="101">
+        <v>2</v>
+      </c>
       <c r="BC38" s="101">
         <v>4</v>
       </c>
@@ -23453,11 +23463,11 @@
       <c r="BS38" s="101"/>
       <c r="BT38" s="131">
         <f t="shared" si="4"/>
-        <v>26.3</v>
+        <v>28.3</v>
       </c>
       <c r="BU38" s="9">
         <f t="shared" si="3"/>
-        <v>3.9556541019955653</v>
+        <v>4.3104212860310422</v>
       </c>
     </row>
     <row r="39" spans="1:73" s="106" customFormat="1">
@@ -23559,7 +23569,9 @@
       <c r="BA39" s="15">
         <v>2</v>
       </c>
-      <c r="BB39" s="101"/>
+      <c r="BB39" s="101">
+        <v>2</v>
+      </c>
       <c r="BC39" s="101">
         <v>4</v>
       </c>
@@ -23581,11 +23593,11 @@
       <c r="BS39" s="101"/>
       <c r="BT39" s="131">
         <f t="shared" si="4"/>
-        <v>31.57</v>
+        <v>33.57</v>
       </c>
       <c r="BU39" s="9">
         <f t="shared" si="3"/>
-        <v>4.8904656319290467</v>
+        <v>5.2452328159645232</v>
       </c>
     </row>
     <row r="40" spans="1:73" s="106" customFormat="1">
@@ -23687,7 +23699,9 @@
       <c r="BA40" s="15">
         <v>2</v>
       </c>
-      <c r="BB40" s="101"/>
+      <c r="BB40" s="101">
+        <v>2</v>
+      </c>
       <c r="BC40" s="101">
         <v>4</v>
       </c>
@@ -23709,11 +23723,11 @@
       <c r="BS40" s="101"/>
       <c r="BT40" s="131">
         <f t="shared" si="4"/>
-        <v>35.93</v>
+        <v>37.93</v>
       </c>
       <c r="BU40" s="9">
         <f t="shared" si="3"/>
-        <v>5.663858093126386</v>
+        <v>6.0186252771618625</v>
       </c>
     </row>
     <row r="41" spans="1:73" s="106" customFormat="1">
@@ -23815,7 +23829,9 @@
       <c r="BA41" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="BB41" s="101"/>
+      <c r="BB41" s="101">
+        <v>2</v>
+      </c>
       <c r="BC41" s="101">
         <v>4</v>
       </c>
@@ -23837,11 +23853,11 @@
       <c r="BS41" s="101"/>
       <c r="BT41" s="131">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BU41" s="9">
         <f t="shared" si="3"/>
-        <v>2.8381374722838135</v>
+        <v>3.1929046563192904</v>
       </c>
     </row>
     <row r="42" spans="1:73" s="106" customFormat="1">
@@ -24073,7 +24089,9 @@
       <c r="BA43" s="113">
         <v>2</v>
       </c>
-      <c r="BB43" s="112"/>
+      <c r="BB43" s="112">
+        <v>2</v>
+      </c>
       <c r="BC43" s="112">
         <v>4</v>
       </c>
@@ -24095,11 +24113,11 @@
       <c r="BS43" s="112"/>
       <c r="BT43" s="157">
         <f t="shared" si="4"/>
-        <v>26.58</v>
+        <v>28.58</v>
       </c>
       <c r="BU43" s="114">
         <f t="shared" si="3"/>
-        <v>4.0053215077605318</v>
+        <v>4.3600886917960082</v>
       </c>
     </row>
     <row r="44" spans="1:73">
@@ -24214,7 +24232,7 @@
       </c>
       <c r="BB44" s="8">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="BC44" s="8">
         <f t="shared" si="6"/>

--- a/ТМОГИ.2016.осень.xlsx
+++ b/ТМОГИ.2016.осень.xlsx
@@ -2091,9 +2091,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="topRight" activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
@@ -22847,9 +22847,17 @@
       <c r="K34" s="41"/>
       <c r="L34" s="41"/>
       <c r="M34" s="70"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="154"/>
-      <c r="P34" s="70"/>
+      <c r="N34" s="51">
+        <v>4</v>
+      </c>
+      <c r="O34" s="154">
+        <f>DATE(2016,11,5)</f>
+        <v>42679</v>
+      </c>
+      <c r="P34" s="70">
+        <f>ROUNDDOWN((WEEKNUM(DATE(YEAR($B$2),12,31))-IF(WEEKNUM(O34)&lt;36,WEEKNUM(O34)+53,WEEKNUM(O34)))*N34/10+1,0)</f>
+        <v>4</v>
+      </c>
       <c r="Q34" s="21"/>
       <c r="R34" s="154"/>
       <c r="S34" s="70"/>
@@ -22935,11 +22943,11 @@
       <c r="BS34" s="101"/>
       <c r="BT34" s="131">
         <f t="shared" si="4"/>
-        <v>36.25</v>
+        <v>40.25</v>
       </c>
       <c r="BU34" s="9">
         <f t="shared" si="3"/>
-        <v>5.7206208425720622</v>
+        <v>6.4301552106430151</v>
       </c>
     </row>
     <row r="35" spans="1:73" s="106" customFormat="1">
@@ -23635,9 +23643,17 @@
       <c r="K40" s="72"/>
       <c r="L40" s="72"/>
       <c r="M40" s="73"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="154"/>
-      <c r="P40" s="73"/>
+      <c r="N40" s="51">
+        <v>2</v>
+      </c>
+      <c r="O40" s="154">
+        <f>DATE(2016,11,5)</f>
+        <v>42679</v>
+      </c>
+      <c r="P40" s="70">
+        <f>ROUNDDOWN((WEEKNUM(DATE(YEAR($B$2),12,31))-IF(WEEKNUM(O40)&lt;36,WEEKNUM(O40)+53,WEEKNUM(O40)))*N40/10+1,0)</f>
+        <v>2</v>
+      </c>
       <c r="Q40" s="18"/>
       <c r="R40" s="154"/>
       <c r="S40" s="73"/>
@@ -23723,11 +23739,11 @@
       <c r="BS40" s="101"/>
       <c r="BT40" s="131">
         <f t="shared" si="4"/>
-        <v>37.93</v>
+        <v>39.93</v>
       </c>
       <c r="BU40" s="9">
         <f t="shared" si="3"/>
-        <v>6.0186252771618625</v>
+        <v>6.3733924611973389</v>
       </c>
     </row>
     <row r="41" spans="1:73" s="106" customFormat="1">

--- a/ТМОГИ.2016.осень.xlsx
+++ b/ТМОГИ.2016.осень.xlsx
@@ -1625,13 +1625,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1657,6 +1676,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1723,28 +1745,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2143,7 +2143,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AQ10" sqref="AQ10"/>
+      <selection pane="topRight" activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
@@ -2214,15 +2214,15 @@
       </c>
       <c r="E2" s="80"/>
       <c r="F2" s="80"/>
-      <c r="G2" s="207" t="s">
+      <c r="G2" s="174" t="s">
         <v>117</v>
       </c>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="208"/>
-      <c r="K2" s="208"/>
-      <c r="L2" s="208"/>
-      <c r="M2" s="209"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="175"/>
+      <c r="M2" s="176"/>
       <c r="N2" s="172" t="s">
         <v>118</v>
       </c>
@@ -18600,43 +18600,43 @@
       <c r="XFD2" s="106"/>
     </row>
     <row r="3" spans="1:16384" s="109" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="174" t="s">
+      <c r="A3" s="181" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="180" t="s">
+      <c r="B3" s="187" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="177" t="s">
+      <c r="C3" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="174" t="s">
+      <c r="D3" s="181" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="179" t="s">
+      <c r="E3" s="186" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="182" t="s">
+      <c r="F3" s="190" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="210"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="205"/>
-      <c r="L3" s="205"/>
-      <c r="M3" s="211"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="178"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="178"/>
+      <c r="K3" s="178"/>
+      <c r="L3" s="178"/>
+      <c r="M3" s="179"/>
       <c r="N3" s="150" t="s">
         <v>149</v>
       </c>
-      <c r="O3" s="206">
-        <f>DATE(2016,10,8)</f>
-        <v>42651</v>
+      <c r="O3" s="180">
+        <f>DATE(2016,11,5)</f>
+        <v>42679</v>
       </c>
       <c r="P3" s="172"/>
       <c r="Q3" s="149" t="s">
         <v>149</v>
       </c>
-      <c r="R3" s="206">
+      <c r="R3" s="180">
         <f>DATE(2016,11,5)</f>
         <v>42679</v>
       </c>
@@ -18644,7 +18644,7 @@
       <c r="T3" s="149" t="s">
         <v>149</v>
       </c>
-      <c r="U3" s="206">
+      <c r="U3" s="180">
         <f>DATE(2016,11,26)</f>
         <v>42700</v>
       </c>
@@ -18666,7 +18666,7 @@
       <c r="AE3" s="172"/>
       <c r="AF3" s="150"/>
       <c r="AG3" s="150"/>
-      <c r="AH3" s="204"/>
+      <c r="AH3" s="171"/>
       <c r="AI3" s="32"/>
       <c r="AJ3" s="24" t="s">
         <v>4</v>
@@ -18814,12 +18814,12 @@
       <c r="BU3" s="108"/>
     </row>
     <row r="4" spans="1:16384" s="106" customFormat="1" ht="45">
-      <c r="A4" s="174"/>
-      <c r="B4" s="181"/>
-      <c r="C4" s="178"/>
-      <c r="D4" s="174"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="182"/>
+      <c r="A4" s="181"/>
+      <c r="B4" s="188"/>
+      <c r="C4" s="185"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="186"/>
+      <c r="F4" s="190"/>
       <c r="G4" s="68" t="s">
         <v>114</v>
       </c>
@@ -19198,7 +19198,7 @@
       </c>
       <c r="BU5" s="169">
         <f t="shared" ref="BU5:BU43" si="4">$AS$46+(BT5-$AM$46)*($AS$45-$AS$46)/($AM$45-$AM$46)</f>
-        <v>5.2214080955116318</v>
+        <v>5.1004509173506261</v>
       </c>
     </row>
     <row r="6" spans="1:16384" s="106" customFormat="1">
@@ -19341,7 +19341,7 @@
       </c>
       <c r="BU6" s="9">
         <f t="shared" si="4"/>
-        <v>5.3979467182962164</v>
+        <v>5.2728999127286098</v>
       </c>
     </row>
     <row r="7" spans="1:16384" s="106" customFormat="1">
@@ -19485,7 +19485,7 @@
       </c>
       <c r="BU7" s="9">
         <f t="shared" si="4"/>
-        <v>3.8440887501832517</v>
+        <v>3.7550380344917653</v>
       </c>
     </row>
     <row r="8" spans="1:16384" s="106" customFormat="1">
@@ -19628,7 +19628,7 @@
       </c>
       <c r="BU8" s="9">
         <f t="shared" si="4"/>
-        <v>3.7375294012952591</v>
+        <v>3.650947199443793</v>
       </c>
     </row>
     <row r="9" spans="1:16384" s="106" customFormat="1">
@@ -19771,7 +19771,7 @@
       </c>
       <c r="BU9" s="9">
         <f t="shared" si="4"/>
-        <v>6.5128437865123772</v>
+        <v>6.3619696943499289</v>
       </c>
     </row>
     <row r="10" spans="1:16384" s="106" customFormat="1">
@@ -19818,7 +19818,7 @@
       </c>
       <c r="P10" s="70">
         <f>N10*(WEEKNUM(DATE(YEAR($B$2),12,31))+2.67-IF(WEEKNUM(O10)&lt;36, WEEKNUM(O10)+WEEKNUM(DATE(YEAR($B$2),12,31)),WEEKNUM(O10)))/(WEEKNUM(DATE(YEAR($B$2),12,31))+2.67-WEEKNUM($O$3))</f>
-        <v>2.9093387866394003</v>
+        <v>4</v>
       </c>
       <c r="Q10" s="21">
         <v>4</v>
@@ -19920,11 +19920,11 @@
       <c r="BS10" s="1"/>
       <c r="BT10" s="131">
         <f t="shared" si="3"/>
-        <v>47.694455937529746</v>
+        <v>48.785117150890343</v>
       </c>
       <c r="BU10" s="9">
         <f t="shared" si="4"/>
-        <v>6.949332499579473</v>
+        <v>6.9577914059066082</v>
       </c>
     </row>
     <row r="11" spans="1:16384" s="106" customFormat="1">
@@ -20067,7 +20067,7 @@
       </c>
       <c r="BU11" s="9">
         <f t="shared" si="4"/>
-        <v>5.7287578312619241</v>
+        <v>5.5960475797432094</v>
       </c>
     </row>
     <row r="12" spans="1:16384" s="106" customFormat="1">
@@ -20210,7 +20210,7 @@
       </c>
       <c r="BU12" s="9">
         <f t="shared" si="4"/>
-        <v>5.8989347018740919</v>
+        <v>5.762282196909374</v>
       </c>
     </row>
     <row r="13" spans="1:16384" s="106" customFormat="1">
@@ -20353,7 +20353,7 @@
       </c>
       <c r="BU13" s="9">
         <f t="shared" si="4"/>
-        <v>6.086606390960406</v>
+        <v>5.9456063541580404</v>
       </c>
     </row>
     <row r="14" spans="1:16384" s="106" customFormat="1">
@@ -20400,7 +20400,7 @@
       </c>
       <c r="P14" s="70">
         <f t="shared" si="7"/>
-        <v>3.1820040899795501</v>
+        <v>4.3748828491096532</v>
       </c>
       <c r="Q14" s="18">
         <v>5</v>
@@ -20502,11 +20502,11 @@
       <c r="BS14" s="1"/>
       <c r="BT14" s="131">
         <f t="shared" si="3"/>
-        <v>53.062004089979553</v>
+        <v>54.254882849109656</v>
       </c>
       <c r="BU14" s="9">
         <f t="shared" si="4"/>
-        <v>7.8030077775645461</v>
+        <v>7.807571225375864</v>
       </c>
     </row>
     <row r="15" spans="1:16384" s="106" customFormat="1">
@@ -20788,7 +20788,7 @@
       </c>
       <c r="BU16" s="9">
         <f t="shared" si="4"/>
-        <v>4.6599834662957909</v>
+        <v>4.55203204015758</v>
       </c>
     </row>
     <row r="17" spans="1:73" s="106" customFormat="1">
@@ -20835,7 +20835,7 @@
       </c>
       <c r="P17" s="70">
         <f t="shared" si="7"/>
-        <v>3.1820040899795501</v>
+        <v>4.3748828491096532</v>
       </c>
       <c r="Q17" s="21">
         <v>5</v>
@@ -20936,7 +20936,7 @@
       <c r="BS17" s="101"/>
       <c r="BT17" s="131">
         <f>SUM(AJ17:BS17)+SUM(G17:M17)+P17+S17+V17+Y17+AB17+AE17+AH17</f>
-        <v>54.300607651366619</v>
+        <v>55.493486410496715</v>
       </c>
       <c r="BU17" s="9">
         <f t="shared" si="4"/>
@@ -21081,7 +21081,7 @@
       </c>
       <c r="BU18" s="9">
         <f t="shared" si="4"/>
-        <v>3.1808760862087309</v>
+        <v>3.1071891059096113</v>
       </c>
     </row>
     <row r="19" spans="1:73" s="106" customFormat="1">
@@ -21222,7 +21222,7 @@
       </c>
       <c r="BU19" s="9">
         <f t="shared" si="4"/>
-        <v>4.0937875229506364</v>
+        <v>3.9989523793056692</v>
       </c>
     </row>
     <row r="20" spans="1:73" s="106" customFormat="1">
@@ -21363,7 +21363,7 @@
       </c>
       <c r="BU20" s="9">
         <f t="shared" si="4"/>
-        <v>5.157790573787457</v>
+        <v>5.0383071352324347</v>
       </c>
     </row>
     <row r="21" spans="1:73" s="106" customFormat="1">
@@ -21506,7 +21506,7 @@
       </c>
       <c r="BU21" s="9">
         <f t="shared" si="4"/>
-        <v>5.2039132770374836</v>
+        <v>5.0833613772681234</v>
       </c>
     </row>
     <row r="22" spans="1:73" s="106" customFormat="1">
@@ -21647,7 +21647,7 @@
       </c>
       <c r="BU22" s="9">
         <f t="shared" si="4"/>
-        <v>2.8627884775878578</v>
+        <v>2.7964701953186499</v>
       </c>
     </row>
     <row r="23" spans="1:73" s="106" customFormat="1">
@@ -21788,7 +21788,7 @@
       </c>
       <c r="BU23" s="9">
         <f t="shared" si="4"/>
-        <v>3.406718288329551</v>
+        <v>3.3277995324291938</v>
       </c>
     </row>
     <row r="24" spans="1:73" s="106" customFormat="1">
@@ -21835,7 +21835,7 @@
       </c>
       <c r="P24" s="70">
         <f t="shared" si="7"/>
-        <v>1.4546693933197001</v>
+        <v>2</v>
       </c>
       <c r="Q24" s="21">
         <v>4</v>
@@ -21937,11 +21937,11 @@
       <c r="BS24" s="101"/>
       <c r="BT24" s="131">
         <f t="shared" si="8"/>
-        <v>34.294669393319701</v>
+        <v>34.840000000000003</v>
       </c>
       <c r="BU24" s="9">
         <f t="shared" si="4"/>
-        <v>4.8181794706405103</v>
+        <v>4.7912856013126213</v>
       </c>
     </row>
     <row r="25" spans="1:73" s="106" customFormat="1">
@@ -22084,7 +22084,7 @@
       </c>
       <c r="BU25" s="9">
         <f t="shared" si="4"/>
-        <v>2.5447008689669848</v>
+        <v>2.485751284727689</v>
       </c>
     </row>
     <row r="26" spans="1:73" s="106" customFormat="1">
@@ -22131,7 +22131,7 @@
       </c>
       <c r="P26" s="70">
         <f t="shared" si="7"/>
-        <v>0.98875255623721892</v>
+        <v>1.3594189315838801</v>
       </c>
       <c r="Q26" s="21"/>
       <c r="R26" s="153"/>
@@ -22228,11 +22228,11 @@
       <c r="BS26" s="101"/>
       <c r="BT26" s="131">
         <f t="shared" si="8"/>
-        <v>39.258752556237212</v>
+        <v>39.629418931583878</v>
       </c>
       <c r="BU26" s="9">
         <f t="shared" si="4"/>
-        <v>5.6076861417842956</v>
+        <v>5.5353671177053538</v>
       </c>
     </row>
     <row r="27" spans="1:73" s="106" customFormat="1">
@@ -22279,7 +22279,7 @@
       </c>
       <c r="P27" s="70">
         <f t="shared" si="7"/>
-        <v>1.9775051124744378</v>
+        <v>2.7188378631677601</v>
       </c>
       <c r="Q27" s="21"/>
       <c r="R27" s="153"/>
@@ -22376,11 +22376,11 @@
       <c r="BS27" s="101"/>
       <c r="BT27" s="131">
         <f t="shared" si="8"/>
-        <v>33.377505112474438</v>
+        <v>34.118837863167755</v>
       </c>
       <c r="BU27" s="9">
         <f t="shared" si="4"/>
-        <v>4.6723101742372339</v>
+        <v>4.6792462445546379</v>
       </c>
     </row>
     <row r="28" spans="1:73" s="106" customFormat="1">
@@ -22523,7 +22523,7 @@
       </c>
       <c r="BU28" s="9">
         <f t="shared" si="4"/>
-        <v>3.0266035960276079</v>
+        <v>2.9564904342729954</v>
       </c>
     </row>
     <row r="29" spans="1:73" s="106" customFormat="1">
@@ -22666,7 +22666,7 @@
       </c>
       <c r="BU29" s="9">
         <f t="shared" si="4"/>
-        <v>4.5995468206578254</v>
+        <v>4.4929954471452982</v>
       </c>
     </row>
     <row r="30" spans="1:73" s="106" customFormat="1">
@@ -22809,7 +22809,7 @@
       </c>
       <c r="BU30" s="9">
         <f t="shared" si="4"/>
-        <v>3.4989636948296043</v>
+        <v>3.4179080165005722</v>
       </c>
     </row>
     <row r="31" spans="1:73" s="106" customFormat="1">
@@ -22856,7 +22856,7 @@
       </c>
       <c r="P31" s="70">
         <f t="shared" si="7"/>
-        <v>2.6366734832992504</v>
+        <v>3.6251171508903468</v>
       </c>
       <c r="Q31" s="21"/>
       <c r="R31" s="153"/>
@@ -22953,11 +22953,11 @@
       <c r="BS31" s="101"/>
       <c r="BT31" s="131">
         <f t="shared" si="8"/>
-        <v>42.956673483299248</v>
+        <v>43.945117150890347</v>
       </c>
       <c r="BU31" s="9">
         <f t="shared" si="4"/>
-        <v>6.1958175540634182</v>
+        <v>6.2058516422764827</v>
       </c>
     </row>
     <row r="32" spans="1:73" s="106" customFormat="1">
@@ -23100,7 +23100,7 @@
       </c>
       <c r="BU32" s="9">
         <f t="shared" si="4"/>
-        <v>5.6460550530204978</v>
+        <v>5.5152606629895597</v>
       </c>
     </row>
     <row r="33" spans="1:73" s="106" customFormat="1">
@@ -23147,7 +23147,7 @@
       </c>
       <c r="P33" s="70">
         <f t="shared" si="7"/>
-        <v>1.9775051124744378</v>
+        <v>2.7188378631677601</v>
       </c>
       <c r="Q33" s="51">
         <v>2.5</v>
@@ -23249,11 +23249,11 @@
       <c r="BS33" s="101"/>
       <c r="BT33" s="131">
         <f t="shared" si="8"/>
-        <v>48.083203331780908</v>
+        <v>48.824536082474232</v>
       </c>
       <c r="BU33" s="9">
         <f t="shared" si="4"/>
-        <v>7.0111603640769475</v>
+        <v>6.963915509645811</v>
       </c>
     </row>
     <row r="34" spans="1:73" s="106" customFormat="1">
@@ -23300,7 +23300,7 @@
       </c>
       <c r="P34" s="70">
         <f t="shared" si="7"/>
-        <v>2.9093387866394003</v>
+        <v>4</v>
       </c>
       <c r="Q34" s="21"/>
       <c r="R34" s="153"/>
@@ -23395,11 +23395,11 @@
       <c r="BS34" s="101"/>
       <c r="BT34" s="131">
         <f t="shared" si="8"/>
-        <v>42.059338786639401</v>
+        <v>43.15</v>
       </c>
       <c r="BU34" s="9">
         <f t="shared" si="4"/>
-        <v>6.053102030166885</v>
+        <v>6.0823226748180632</v>
       </c>
     </row>
     <row r="35" spans="1:73" s="106" customFormat="1">
@@ -23446,7 +23446,7 @@
       </c>
       <c r="P35" s="70">
         <f t="shared" si="7"/>
-        <v>1.3183367416496252</v>
+        <v>1.8125585754451734</v>
       </c>
       <c r="Q35" s="21"/>
       <c r="R35" s="153"/>
@@ -23541,11 +23541,11 @@
       <c r="BS35" s="101"/>
       <c r="BT35" s="131">
         <f t="shared" si="8"/>
-        <v>38.078336741649622</v>
+        <v>38.572558575445171</v>
       </c>
       <c r="BU35" s="9">
         <f t="shared" si="4"/>
-        <v>5.4199483199640826</v>
+        <v>5.3711738684522574</v>
       </c>
     </row>
     <row r="36" spans="1:73" s="106" customFormat="1">
@@ -23686,7 +23686,7 @@
       </c>
       <c r="BU36" s="9">
         <f t="shared" si="4"/>
-        <v>5.2134559052961107</v>
+        <v>5.092682944585853</v>
       </c>
     </row>
     <row r="37" spans="1:73" s="106" customFormat="1">
@@ -23733,7 +23733,7 @@
       </c>
       <c r="P37" s="70">
         <f t="shared" si="7"/>
-        <v>1.4546693933197001</v>
+        <v>2</v>
       </c>
       <c r="Q37" s="21"/>
       <c r="R37" s="153"/>
@@ -23828,11 +23828,11 @@
       <c r="BS37" s="101"/>
       <c r="BT37" s="131">
         <f t="shared" si="8"/>
-        <v>34.344669393319698</v>
+        <v>34.89</v>
       </c>
       <c r="BU37" s="9">
         <f t="shared" si="4"/>
-        <v>4.8261316608560314</v>
+        <v>4.7990535740773943</v>
       </c>
     </row>
     <row r="38" spans="1:73" s="106" customFormat="1">
@@ -23973,7 +23973,7 @@
       </c>
       <c r="BU38" s="9">
         <f t="shared" si="4"/>
-        <v>4.5009396619853543</v>
+        <v>4.3966725848620998</v>
       </c>
     </row>
     <row r="39" spans="1:73" s="106" customFormat="1">
@@ -24114,7 +24114,7 @@
       </c>
       <c r="BU39" s="9">
         <f t="shared" si="4"/>
-        <v>5.1068965564081177</v>
+        <v>4.9885921095378807</v>
       </c>
     </row>
     <row r="40" spans="1:73" s="106" customFormat="1">
@@ -24161,7 +24161,7 @@
       </c>
       <c r="P40" s="70">
         <f t="shared" si="7"/>
-        <v>1.4546693933197001</v>
+        <v>2</v>
       </c>
       <c r="Q40" s="18"/>
       <c r="R40" s="153"/>
@@ -24256,11 +24256,11 @@
       <c r="BS40" s="101"/>
       <c r="BT40" s="131">
         <f t="shared" si="8"/>
-        <v>41.424669393319697</v>
+        <v>41.97</v>
       </c>
       <c r="BU40" s="9">
         <f t="shared" si="4"/>
-        <v>5.9521617953739216</v>
+        <v>5.8989985175693969</v>
       </c>
     </row>
     <row r="41" spans="1:73" s="106" customFormat="1">
@@ -24401,7 +24401,7 @@
       </c>
       <c r="BU41" s="9">
         <f t="shared" si="4"/>
-        <v>2.8627884775878578</v>
+        <v>2.7964701953186499</v>
       </c>
     </row>
     <row r="42" spans="1:73" s="106" customFormat="1">
@@ -24542,7 +24542,7 @@
       </c>
       <c r="BU42" s="9">
         <f t="shared" si="4"/>
-        <v>2.5447008689669848</v>
+        <v>2.485751284727689</v>
       </c>
     </row>
     <row r="43" spans="1:73" s="115" customFormat="1" ht="15.75" thickBot="1">
@@ -24683,7 +24683,7 @@
       </c>
       <c r="BU43" s="114">
         <f t="shared" si="4"/>
-        <v>4.2273843185714028</v>
+        <v>4.1294543217538733</v>
       </c>
     </row>
     <row r="44" spans="1:73">
@@ -24885,7 +24885,7 @@
       </c>
       <c r="AM45" s="3">
         <f>MAX(BT5:BT43)</f>
-        <v>54.300607651366619</v>
+        <v>55.493486410496715</v>
       </c>
       <c r="AO45" t="s">
         <v>1</v>
@@ -24928,25 +24928,25 @@
       <c r="AQ47" s="4"/>
     </row>
     <row r="48" spans="1:73">
-      <c r="A48" s="175" t="s">
+      <c r="A48" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="180" t="s">
+      <c r="B48" s="187" t="s">
         <v>73</v>
       </c>
-      <c r="C48" s="177" t="s">
+      <c r="C48" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="D48" s="180" t="s">
+      <c r="D48" s="187" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="180" t="s">
+      <c r="E48" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="F48" s="176" t="s">
+      <c r="F48" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="G48" s="171" t="s">
+      <c r="G48" s="189" t="s">
         <v>117</v>
       </c>
       <c r="H48" s="172"/>
@@ -25125,12 +25125,12 @@
       <c r="BU48" s="124"/>
     </row>
     <row r="49" spans="1:73" ht="45">
-      <c r="A49" s="175"/>
-      <c r="B49" s="181"/>
-      <c r="C49" s="178"/>
-      <c r="D49" s="181"/>
-      <c r="E49" s="181"/>
-      <c r="F49" s="176"/>
+      <c r="A49" s="182"/>
+      <c r="B49" s="188"/>
+      <c r="C49" s="185"/>
+      <c r="D49" s="188"/>
+      <c r="E49" s="188"/>
+      <c r="F49" s="183"/>
       <c r="G49" s="68" t="s">
         <v>114</v>
       </c>
@@ -33367,14 +33367,10 @@
     <sortCondition descending="1" ref="BU50:BU88"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="N2:AH2"/>
-    <mergeCell ref="G2:M3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="G48:M48"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="F48:F49"/>
@@ -33384,10 +33380,14 @@
     <mergeCell ref="D48:D49"/>
     <mergeCell ref="E48:E49"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="G48:M48"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="N2:AH2"/>
+    <mergeCell ref="G2:M3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AD3:AE3"/>
   </mergeCells>
   <conditionalFormatting sqref="BU50:BU88">
     <cfRule type="expression" dxfId="13" priority="21">
@@ -33474,333 +33474,333 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="191" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="183"/>
-      <c r="O1" s="183"/>
-      <c r="P1" s="183"/>
-      <c r="Q1" s="183"/>
-      <c r="R1" s="183"/>
-      <c r="S1" s="183"/>
-      <c r="T1" s="183"/>
-      <c r="U1" s="183"/>
-      <c r="V1" s="183"/>
-      <c r="W1" s="183"/>
-      <c r="X1" s="183"/>
-      <c r="Y1" s="183"/>
-      <c r="Z1" s="183"/>
-      <c r="AA1" s="183"/>
-      <c r="AB1" s="183"/>
-      <c r="AC1" s="183"/>
-      <c r="AD1" s="183"/>
-      <c r="AE1" s="183"/>
-      <c r="AF1" s="183"/>
-      <c r="AG1" s="183"/>
-      <c r="AH1" s="183"/>
-      <c r="AI1" s="183"/>
-      <c r="AJ1" s="183"/>
-      <c r="AK1" s="183"/>
-      <c r="AL1" s="183"/>
-      <c r="AM1" s="183"/>
-      <c r="AN1" s="183"/>
-      <c r="AO1" s="183"/>
-      <c r="AP1" s="183"/>
-      <c r="AQ1" s="183"/>
-      <c r="AR1" s="183"/>
-      <c r="AS1" s="183"/>
-      <c r="AT1" s="183"/>
-      <c r="AU1" s="183"/>
-      <c r="AV1" s="183"/>
-      <c r="AW1" s="183"/>
-      <c r="AX1" s="183"/>
-      <c r="AY1" s="183"/>
-      <c r="AZ1" s="183"/>
-      <c r="BA1" s="183"/>
-      <c r="BB1" s="183"/>
-      <c r="BC1" s="183"/>
-      <c r="BD1" s="183"/>
-      <c r="BE1" s="183"/>
-      <c r="BF1" s="183"/>
-      <c r="BG1" s="183"/>
-      <c r="BH1" s="183"/>
-      <c r="BI1" s="183"/>
-      <c r="BJ1" s="183"/>
-      <c r="BK1" s="183"/>
-      <c r="BL1" s="183"/>
-      <c r="BM1" s="183"/>
-      <c r="BN1" s="183"/>
-      <c r="BO1" s="183"/>
-      <c r="BP1" s="183"/>
-      <c r="BQ1" s="183"/>
-      <c r="BR1" s="183"/>
-      <c r="BS1" s="183"/>
-      <c r="BT1" s="183"/>
-      <c r="BU1" s="183"/>
-      <c r="BV1" s="183"/>
-      <c r="BW1" s="183"/>
-      <c r="BX1" s="183"/>
-      <c r="BY1" s="183"/>
-      <c r="BZ1" s="183"/>
-      <c r="CA1" s="183"/>
-      <c r="CB1" s="183"/>
-      <c r="CC1" s="183"/>
-      <c r="CD1" s="183"/>
-      <c r="CE1" s="183"/>
-      <c r="CF1" s="183"/>
-      <c r="CG1" s="183"/>
-      <c r="CH1" s="183"/>
-      <c r="CI1" s="183"/>
-      <c r="CJ1" s="183"/>
-      <c r="CK1" s="183"/>
-      <c r="CL1" s="183"/>
-      <c r="CM1" s="183"/>
-      <c r="CN1" s="183"/>
-      <c r="CO1" s="183"/>
-      <c r="CP1" s="183"/>
-      <c r="CQ1" s="183"/>
-      <c r="CR1" s="183"/>
-      <c r="CS1" s="183"/>
-      <c r="CT1" s="183"/>
-      <c r="CU1" s="183"/>
-      <c r="CV1" s="183"/>
-      <c r="CW1" s="183"/>
-      <c r="CX1" s="183"/>
-      <c r="CY1" s="183"/>
-      <c r="CZ1" s="183"/>
-      <c r="DA1" s="183"/>
-      <c r="DB1" s="183"/>
-      <c r="DC1" s="183"/>
-      <c r="DD1" s="183"/>
-      <c r="DE1" s="183"/>
-      <c r="DF1" s="183"/>
-      <c r="DG1" s="183"/>
-      <c r="DH1" s="183"/>
-      <c r="DI1" s="183"/>
-      <c r="DJ1" s="183"/>
-      <c r="DK1" s="183"/>
-      <c r="DL1" s="183"/>
-      <c r="DM1" s="183"/>
-      <c r="DN1" s="183"/>
-      <c r="DO1" s="183"/>
-      <c r="DP1" s="183"/>
-      <c r="DQ1" s="183"/>
-      <c r="DR1" s="183"/>
-      <c r="DS1" s="183"/>
-      <c r="DT1" s="183"/>
-      <c r="DU1" s="183"/>
-      <c r="DV1" s="183"/>
-      <c r="DW1" s="183"/>
-      <c r="DX1" s="183"/>
-      <c r="DY1" s="183"/>
-      <c r="DZ1" s="183"/>
-      <c r="EA1" s="183"/>
-      <c r="EB1" s="183"/>
-      <c r="EC1" s="183"/>
-      <c r="ED1" s="183"/>
-      <c r="EE1" s="183"/>
-      <c r="EF1" s="183"/>
-      <c r="EG1" s="183"/>
-      <c r="EH1" s="183"/>
-      <c r="EI1" s="183"/>
-      <c r="EJ1" s="183"/>
-      <c r="EK1" s="183"/>
-      <c r="EL1" s="183"/>
-      <c r="EM1" s="183"/>
-      <c r="EN1" s="183"/>
-      <c r="EO1" s="183"/>
-      <c r="EP1" s="183"/>
-      <c r="EQ1" s="183"/>
-      <c r="ER1" s="183"/>
-      <c r="ES1" s="183"/>
-      <c r="ET1" s="183"/>
-      <c r="EU1" s="183"/>
-      <c r="EV1" s="183"/>
-      <c r="EW1" s="183"/>
-      <c r="EX1" s="183"/>
-      <c r="EY1" s="183"/>
-      <c r="EZ1" s="183"/>
-      <c r="FA1" s="183"/>
-      <c r="FB1" s="183"/>
-      <c r="FC1" s="183"/>
-      <c r="FD1" s="183"/>
-      <c r="FE1" s="183"/>
-      <c r="FF1" s="183"/>
-      <c r="FG1" s="183"/>
-      <c r="FH1" s="183"/>
-      <c r="FI1" s="183"/>
-      <c r="FJ1" s="183"/>
-      <c r="FK1" s="183"/>
-      <c r="FL1" s="183"/>
-      <c r="FM1" s="183"/>
-      <c r="FN1" s="183"/>
-      <c r="FO1" s="183"/>
-      <c r="FP1" s="183"/>
-      <c r="FQ1" s="183"/>
-      <c r="FR1" s="183"/>
-      <c r="FS1" s="183"/>
-      <c r="FT1" s="183"/>
-      <c r="FU1" s="183"/>
-      <c r="FV1" s="183"/>
-      <c r="FW1" s="183"/>
-      <c r="FX1" s="183"/>
-      <c r="FY1" s="183"/>
-      <c r="FZ1" s="183"/>
-      <c r="GA1" s="183"/>
-      <c r="GB1" s="183"/>
-      <c r="GC1" s="183"/>
-      <c r="GD1" s="183"/>
-      <c r="GE1" s="183"/>
-      <c r="GF1" s="183"/>
-      <c r="GG1" s="183"/>
-      <c r="GH1" s="183"/>
-      <c r="GI1" s="183"/>
-      <c r="GJ1" s="183"/>
-      <c r="GK1" s="183"/>
-      <c r="GL1" s="183"/>
-      <c r="GM1" s="183"/>
-      <c r="GN1" s="183"/>
-      <c r="GO1" s="183"/>
-      <c r="GP1" s="183"/>
-      <c r="GQ1" s="183"/>
-      <c r="GR1" s="183"/>
-      <c r="GS1" s="183"/>
-      <c r="GT1" s="183"/>
-      <c r="GU1" s="183"/>
-      <c r="GV1" s="183"/>
-      <c r="GW1" s="183"/>
-      <c r="GX1" s="183"/>
-      <c r="GY1" s="183"/>
-      <c r="GZ1" s="183"/>
-      <c r="HA1" s="183"/>
-      <c r="HB1" s="183"/>
-      <c r="HC1" s="183"/>
-      <c r="HD1" s="183"/>
-      <c r="HE1" s="183"/>
-      <c r="HF1" s="183"/>
-      <c r="HG1" s="183"/>
-      <c r="HH1" s="183"/>
-      <c r="HI1" s="183"/>
-      <c r="HJ1" s="183"/>
-      <c r="HK1" s="183"/>
-      <c r="HL1" s="183"/>
-      <c r="HM1" s="183"/>
-      <c r="HN1" s="183"/>
-      <c r="HO1" s="183"/>
-      <c r="HP1" s="183"/>
-      <c r="HQ1" s="183"/>
-      <c r="HR1" s="183"/>
-      <c r="HS1" s="183"/>
-      <c r="HT1" s="183"/>
-      <c r="HU1" s="183"/>
-      <c r="HV1" s="183"/>
-      <c r="HW1" s="183"/>
-      <c r="HX1" s="183"/>
-      <c r="HY1" s="183"/>
-      <c r="HZ1" s="183"/>
-      <c r="IA1" s="183"/>
-      <c r="IB1" s="183"/>
-      <c r="IC1" s="183"/>
-      <c r="ID1" s="183"/>
-      <c r="IE1" s="183"/>
-      <c r="IF1" s="183"/>
-      <c r="IG1" s="183"/>
-      <c r="IH1" s="183"/>
-      <c r="II1" s="183"/>
-      <c r="IJ1" s="183"/>
-      <c r="IK1" s="183"/>
-      <c r="IL1" s="183"/>
-      <c r="IM1" s="183"/>
-      <c r="IN1" s="183"/>
-      <c r="IO1" s="183"/>
-      <c r="IP1" s="183"/>
-      <c r="IQ1" s="183"/>
-      <c r="IR1" s="183"/>
-      <c r="IS1" s="183"/>
-      <c r="IT1" s="183"/>
-      <c r="IU1" s="183"/>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="191"/>
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="191"/>
+      <c r="S1" s="191"/>
+      <c r="T1" s="191"/>
+      <c r="U1" s="191"/>
+      <c r="V1" s="191"/>
+      <c r="W1" s="191"/>
+      <c r="X1" s="191"/>
+      <c r="Y1" s="191"/>
+      <c r="Z1" s="191"/>
+      <c r="AA1" s="191"/>
+      <c r="AB1" s="191"/>
+      <c r="AC1" s="191"/>
+      <c r="AD1" s="191"/>
+      <c r="AE1" s="191"/>
+      <c r="AF1" s="191"/>
+      <c r="AG1" s="191"/>
+      <c r="AH1" s="191"/>
+      <c r="AI1" s="191"/>
+      <c r="AJ1" s="191"/>
+      <c r="AK1" s="191"/>
+      <c r="AL1" s="191"/>
+      <c r="AM1" s="191"/>
+      <c r="AN1" s="191"/>
+      <c r="AO1" s="191"/>
+      <c r="AP1" s="191"/>
+      <c r="AQ1" s="191"/>
+      <c r="AR1" s="191"/>
+      <c r="AS1" s="191"/>
+      <c r="AT1" s="191"/>
+      <c r="AU1" s="191"/>
+      <c r="AV1" s="191"/>
+      <c r="AW1" s="191"/>
+      <c r="AX1" s="191"/>
+      <c r="AY1" s="191"/>
+      <c r="AZ1" s="191"/>
+      <c r="BA1" s="191"/>
+      <c r="BB1" s="191"/>
+      <c r="BC1" s="191"/>
+      <c r="BD1" s="191"/>
+      <c r="BE1" s="191"/>
+      <c r="BF1" s="191"/>
+      <c r="BG1" s="191"/>
+      <c r="BH1" s="191"/>
+      <c r="BI1" s="191"/>
+      <c r="BJ1" s="191"/>
+      <c r="BK1" s="191"/>
+      <c r="BL1" s="191"/>
+      <c r="BM1" s="191"/>
+      <c r="BN1" s="191"/>
+      <c r="BO1" s="191"/>
+      <c r="BP1" s="191"/>
+      <c r="BQ1" s="191"/>
+      <c r="BR1" s="191"/>
+      <c r="BS1" s="191"/>
+      <c r="BT1" s="191"/>
+      <c r="BU1" s="191"/>
+      <c r="BV1" s="191"/>
+      <c r="BW1" s="191"/>
+      <c r="BX1" s="191"/>
+      <c r="BY1" s="191"/>
+      <c r="BZ1" s="191"/>
+      <c r="CA1" s="191"/>
+      <c r="CB1" s="191"/>
+      <c r="CC1" s="191"/>
+      <c r="CD1" s="191"/>
+      <c r="CE1" s="191"/>
+      <c r="CF1" s="191"/>
+      <c r="CG1" s="191"/>
+      <c r="CH1" s="191"/>
+      <c r="CI1" s="191"/>
+      <c r="CJ1" s="191"/>
+      <c r="CK1" s="191"/>
+      <c r="CL1" s="191"/>
+      <c r="CM1" s="191"/>
+      <c r="CN1" s="191"/>
+      <c r="CO1" s="191"/>
+      <c r="CP1" s="191"/>
+      <c r="CQ1" s="191"/>
+      <c r="CR1" s="191"/>
+      <c r="CS1" s="191"/>
+      <c r="CT1" s="191"/>
+      <c r="CU1" s="191"/>
+      <c r="CV1" s="191"/>
+      <c r="CW1" s="191"/>
+      <c r="CX1" s="191"/>
+      <c r="CY1" s="191"/>
+      <c r="CZ1" s="191"/>
+      <c r="DA1" s="191"/>
+      <c r="DB1" s="191"/>
+      <c r="DC1" s="191"/>
+      <c r="DD1" s="191"/>
+      <c r="DE1" s="191"/>
+      <c r="DF1" s="191"/>
+      <c r="DG1" s="191"/>
+      <c r="DH1" s="191"/>
+      <c r="DI1" s="191"/>
+      <c r="DJ1" s="191"/>
+      <c r="DK1" s="191"/>
+      <c r="DL1" s="191"/>
+      <c r="DM1" s="191"/>
+      <c r="DN1" s="191"/>
+      <c r="DO1" s="191"/>
+      <c r="DP1" s="191"/>
+      <c r="DQ1" s="191"/>
+      <c r="DR1" s="191"/>
+      <c r="DS1" s="191"/>
+      <c r="DT1" s="191"/>
+      <c r="DU1" s="191"/>
+      <c r="DV1" s="191"/>
+      <c r="DW1" s="191"/>
+      <c r="DX1" s="191"/>
+      <c r="DY1" s="191"/>
+      <c r="DZ1" s="191"/>
+      <c r="EA1" s="191"/>
+      <c r="EB1" s="191"/>
+      <c r="EC1" s="191"/>
+      <c r="ED1" s="191"/>
+      <c r="EE1" s="191"/>
+      <c r="EF1" s="191"/>
+      <c r="EG1" s="191"/>
+      <c r="EH1" s="191"/>
+      <c r="EI1" s="191"/>
+      <c r="EJ1" s="191"/>
+      <c r="EK1" s="191"/>
+      <c r="EL1" s="191"/>
+      <c r="EM1" s="191"/>
+      <c r="EN1" s="191"/>
+      <c r="EO1" s="191"/>
+      <c r="EP1" s="191"/>
+      <c r="EQ1" s="191"/>
+      <c r="ER1" s="191"/>
+      <c r="ES1" s="191"/>
+      <c r="ET1" s="191"/>
+      <c r="EU1" s="191"/>
+      <c r="EV1" s="191"/>
+      <c r="EW1" s="191"/>
+      <c r="EX1" s="191"/>
+      <c r="EY1" s="191"/>
+      <c r="EZ1" s="191"/>
+      <c r="FA1" s="191"/>
+      <c r="FB1" s="191"/>
+      <c r="FC1" s="191"/>
+      <c r="FD1" s="191"/>
+      <c r="FE1" s="191"/>
+      <c r="FF1" s="191"/>
+      <c r="FG1" s="191"/>
+      <c r="FH1" s="191"/>
+      <c r="FI1" s="191"/>
+      <c r="FJ1" s="191"/>
+      <c r="FK1" s="191"/>
+      <c r="FL1" s="191"/>
+      <c r="FM1" s="191"/>
+      <c r="FN1" s="191"/>
+      <c r="FO1" s="191"/>
+      <c r="FP1" s="191"/>
+      <c r="FQ1" s="191"/>
+      <c r="FR1" s="191"/>
+      <c r="FS1" s="191"/>
+      <c r="FT1" s="191"/>
+      <c r="FU1" s="191"/>
+      <c r="FV1" s="191"/>
+      <c r="FW1" s="191"/>
+      <c r="FX1" s="191"/>
+      <c r="FY1" s="191"/>
+      <c r="FZ1" s="191"/>
+      <c r="GA1" s="191"/>
+      <c r="GB1" s="191"/>
+      <c r="GC1" s="191"/>
+      <c r="GD1" s="191"/>
+      <c r="GE1" s="191"/>
+      <c r="GF1" s="191"/>
+      <c r="GG1" s="191"/>
+      <c r="GH1" s="191"/>
+      <c r="GI1" s="191"/>
+      <c r="GJ1" s="191"/>
+      <c r="GK1" s="191"/>
+      <c r="GL1" s="191"/>
+      <c r="GM1" s="191"/>
+      <c r="GN1" s="191"/>
+      <c r="GO1" s="191"/>
+      <c r="GP1" s="191"/>
+      <c r="GQ1" s="191"/>
+      <c r="GR1" s="191"/>
+      <c r="GS1" s="191"/>
+      <c r="GT1" s="191"/>
+      <c r="GU1" s="191"/>
+      <c r="GV1" s="191"/>
+      <c r="GW1" s="191"/>
+      <c r="GX1" s="191"/>
+      <c r="GY1" s="191"/>
+      <c r="GZ1" s="191"/>
+      <c r="HA1" s="191"/>
+      <c r="HB1" s="191"/>
+      <c r="HC1" s="191"/>
+      <c r="HD1" s="191"/>
+      <c r="HE1" s="191"/>
+      <c r="HF1" s="191"/>
+      <c r="HG1" s="191"/>
+      <c r="HH1" s="191"/>
+      <c r="HI1" s="191"/>
+      <c r="HJ1" s="191"/>
+      <c r="HK1" s="191"/>
+      <c r="HL1" s="191"/>
+      <c r="HM1" s="191"/>
+      <c r="HN1" s="191"/>
+      <c r="HO1" s="191"/>
+      <c r="HP1" s="191"/>
+      <c r="HQ1" s="191"/>
+      <c r="HR1" s="191"/>
+      <c r="HS1" s="191"/>
+      <c r="HT1" s="191"/>
+      <c r="HU1" s="191"/>
+      <c r="HV1" s="191"/>
+      <c r="HW1" s="191"/>
+      <c r="HX1" s="191"/>
+      <c r="HY1" s="191"/>
+      <c r="HZ1" s="191"/>
+      <c r="IA1" s="191"/>
+      <c r="IB1" s="191"/>
+      <c r="IC1" s="191"/>
+      <c r="ID1" s="191"/>
+      <c r="IE1" s="191"/>
+      <c r="IF1" s="191"/>
+      <c r="IG1" s="191"/>
+      <c r="IH1" s="191"/>
+      <c r="II1" s="191"/>
+      <c r="IJ1" s="191"/>
+      <c r="IK1" s="191"/>
+      <c r="IL1" s="191"/>
+      <c r="IM1" s="191"/>
+      <c r="IN1" s="191"/>
+      <c r="IO1" s="191"/>
+      <c r="IP1" s="191"/>
+      <c r="IQ1" s="191"/>
+      <c r="IR1" s="191"/>
+      <c r="IS1" s="191"/>
+      <c r="IT1" s="191"/>
+      <c r="IU1" s="191"/>
     </row>
     <row r="2" spans="1:255" ht="15.75" thickBot="1">
-      <c r="A2" s="186" t="str">
+      <c r="A2" s="194" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
       </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="194"/>
     </row>
     <row r="3" spans="1:255" ht="15" customHeight="1">
-      <c r="A3" s="187" t="str">
+      <c r="A3" s="195" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
       </c>
-      <c r="B3" s="189" t="str">
+      <c r="B3" s="197" t="str">
         <f>'Сводная таблица'!B3:B4</f>
         <v>группа</v>
       </c>
-      <c r="C3" s="191" t="str">
+      <c r="C3" s="199" t="str">
         <f>'Сводная таблица'!C3:C4</f>
         <v>подргуппа</v>
       </c>
-      <c r="D3" s="193" t="str">
+      <c r="D3" s="201" t="str">
         <f>'Сводная таблица'!D3:D4</f>
         <v>Фамилия</v>
       </c>
-      <c r="E3" s="195" t="str">
+      <c r="E3" s="203" t="str">
         <f>'Сводная таблица'!E3:E4</f>
         <v>Имя</v>
       </c>
-      <c r="F3" s="184" t="str">
+      <c r="F3" s="192" t="str">
         <f>'Сводная таблица'!F3:F4</f>
         <v>Отчество</v>
       </c>
-      <c r="G3" s="187" t="s">
+      <c r="G3" s="195" t="s">
         <v>113</v>
       </c>
-      <c r="H3" s="193" t="s">
+      <c r="H3" s="201" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="200" t="s">
+      <c r="I3" s="208" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="200" t="s">
+      <c r="J3" s="208" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="197" t="s">
+      <c r="K3" s="205" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:255" ht="15.75" thickBot="1">
-      <c r="A4" s="188"/>
-      <c r="B4" s="190"/>
-      <c r="C4" s="192"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="196"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="188"/>
-      <c r="H4" s="194"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="202"/>
-      <c r="K4" s="203"/>
+      <c r="A4" s="196"/>
+      <c r="B4" s="198"/>
+      <c r="C4" s="200"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="204"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="196"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="210"/>
+      <c r="J4" s="210"/>
+      <c r="K4" s="211"/>
     </row>
     <row r="5" spans="1:255" s="54" customFormat="1">
       <c r="A5" s="62">
@@ -35376,264 +35376,264 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="191" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="183"/>
-      <c r="O1" s="183"/>
-      <c r="P1" s="183"/>
-      <c r="Q1" s="183"/>
-      <c r="R1" s="183"/>
-      <c r="S1" s="183"/>
-      <c r="T1" s="183"/>
-      <c r="U1" s="183"/>
-      <c r="V1" s="183"/>
-      <c r="W1" s="183"/>
-      <c r="X1" s="183"/>
-      <c r="Y1" s="183"/>
-      <c r="Z1" s="183"/>
-      <c r="AA1" s="183"/>
-      <c r="AB1" s="183"/>
-      <c r="AC1" s="183"/>
-      <c r="AD1" s="183"/>
-      <c r="AE1" s="183"/>
-      <c r="AF1" s="183"/>
-      <c r="AG1" s="183"/>
-      <c r="AH1" s="183"/>
-      <c r="AI1" s="183"/>
-      <c r="AJ1" s="183"/>
-      <c r="AK1" s="183"/>
-      <c r="AL1" s="183"/>
-      <c r="AM1" s="183"/>
-      <c r="AN1" s="183"/>
-      <c r="AO1" s="183"/>
-      <c r="AP1" s="183"/>
-      <c r="AQ1" s="183"/>
-      <c r="AR1" s="183"/>
-      <c r="AS1" s="183"/>
-      <c r="AT1" s="183"/>
-      <c r="AU1" s="183"/>
-      <c r="AV1" s="183"/>
-      <c r="AW1" s="183"/>
-      <c r="AX1" s="183"/>
-      <c r="AY1" s="183"/>
-      <c r="AZ1" s="183"/>
-      <c r="BA1" s="183"/>
-      <c r="BB1" s="183"/>
-      <c r="BC1" s="183"/>
-      <c r="BD1" s="183"/>
-      <c r="BE1" s="183"/>
-      <c r="BF1" s="183"/>
-      <c r="BG1" s="183"/>
-      <c r="BH1" s="183"/>
-      <c r="BI1" s="183"/>
-      <c r="BJ1" s="183"/>
-      <c r="BK1" s="183"/>
-      <c r="BL1" s="183"/>
-      <c r="BM1" s="183"/>
-      <c r="BN1" s="183"/>
-      <c r="BO1" s="183"/>
-      <c r="BP1" s="183"/>
-      <c r="BQ1" s="183"/>
-      <c r="BR1" s="183"/>
-      <c r="BS1" s="183"/>
-      <c r="BT1" s="183"/>
-      <c r="BU1" s="183"/>
-      <c r="BV1" s="183"/>
-      <c r="BW1" s="183"/>
-      <c r="BX1" s="183"/>
-      <c r="BY1" s="183"/>
-      <c r="BZ1" s="183"/>
-      <c r="CA1" s="183"/>
-      <c r="CB1" s="183"/>
-      <c r="CC1" s="183"/>
-      <c r="CD1" s="183"/>
-      <c r="CE1" s="183"/>
-      <c r="CF1" s="183"/>
-      <c r="CG1" s="183"/>
-      <c r="CH1" s="183"/>
-      <c r="CI1" s="183"/>
-      <c r="CJ1" s="183"/>
-      <c r="CK1" s="183"/>
-      <c r="CL1" s="183"/>
-      <c r="CM1" s="183"/>
-      <c r="CN1" s="183"/>
-      <c r="CO1" s="183"/>
-      <c r="CP1" s="183"/>
-      <c r="CQ1" s="183"/>
-      <c r="CR1" s="183"/>
-      <c r="CS1" s="183"/>
-      <c r="CT1" s="183"/>
-      <c r="CU1" s="183"/>
-      <c r="CV1" s="183"/>
-      <c r="CW1" s="183"/>
-      <c r="CX1" s="183"/>
-      <c r="CY1" s="183"/>
-      <c r="CZ1" s="183"/>
-      <c r="DA1" s="183"/>
-      <c r="DB1" s="183"/>
-      <c r="DC1" s="183"/>
-      <c r="DD1" s="183"/>
-      <c r="DE1" s="183"/>
-      <c r="DF1" s="183"/>
-      <c r="DG1" s="183"/>
-      <c r="DH1" s="183"/>
-      <c r="DI1" s="183"/>
-      <c r="DJ1" s="183"/>
-      <c r="DK1" s="183"/>
-      <c r="DL1" s="183"/>
-      <c r="DM1" s="183"/>
-      <c r="DN1" s="183"/>
-      <c r="DO1" s="183"/>
-      <c r="DP1" s="183"/>
-      <c r="DQ1" s="183"/>
-      <c r="DR1" s="183"/>
-      <c r="DS1" s="183"/>
-      <c r="DT1" s="183"/>
-      <c r="DU1" s="183"/>
-      <c r="DV1" s="183"/>
-      <c r="DW1" s="183"/>
-      <c r="DX1" s="183"/>
-      <c r="DY1" s="183"/>
-      <c r="DZ1" s="183"/>
-      <c r="EA1" s="183"/>
-      <c r="EB1" s="183"/>
-      <c r="EC1" s="183"/>
-      <c r="ED1" s="183"/>
-      <c r="EE1" s="183"/>
-      <c r="EF1" s="183"/>
-      <c r="EG1" s="183"/>
-      <c r="EH1" s="183"/>
-      <c r="EI1" s="183"/>
-      <c r="EJ1" s="183"/>
-      <c r="EK1" s="183"/>
-      <c r="EL1" s="183"/>
-      <c r="EM1" s="183"/>
-      <c r="EN1" s="183"/>
-      <c r="EO1" s="183"/>
-      <c r="EP1" s="183"/>
-      <c r="EQ1" s="183"/>
-      <c r="ER1" s="183"/>
-      <c r="ES1" s="183"/>
-      <c r="ET1" s="183"/>
-      <c r="EU1" s="183"/>
-      <c r="EV1" s="183"/>
-      <c r="EW1" s="183"/>
-      <c r="EX1" s="183"/>
-      <c r="EY1" s="183"/>
-      <c r="EZ1" s="183"/>
-      <c r="FA1" s="183"/>
-      <c r="FB1" s="183"/>
-      <c r="FC1" s="183"/>
-      <c r="FD1" s="183"/>
-      <c r="FE1" s="183"/>
-      <c r="FF1" s="183"/>
-      <c r="FG1" s="183"/>
-      <c r="FH1" s="183"/>
-      <c r="FI1" s="183"/>
-      <c r="FJ1" s="183"/>
-      <c r="FK1" s="183"/>
-      <c r="FL1" s="183"/>
-      <c r="FM1" s="183"/>
-      <c r="FN1" s="183"/>
-      <c r="FO1" s="183"/>
-      <c r="FP1" s="183"/>
-      <c r="FQ1" s="183"/>
-      <c r="FR1" s="183"/>
-      <c r="FS1" s="183"/>
-      <c r="FT1" s="183"/>
-      <c r="FU1" s="183"/>
-      <c r="FV1" s="183"/>
-      <c r="FW1" s="183"/>
-      <c r="FX1" s="183"/>
-      <c r="FY1" s="183"/>
-      <c r="FZ1" s="183"/>
-      <c r="GA1" s="183"/>
-      <c r="GB1" s="183"/>
-      <c r="GC1" s="183"/>
-      <c r="GD1" s="183"/>
-      <c r="GE1" s="183"/>
-      <c r="GF1" s="183"/>
-      <c r="GG1" s="183"/>
-      <c r="GH1" s="183"/>
-      <c r="GI1" s="183"/>
-      <c r="GJ1" s="183"/>
-      <c r="GK1" s="183"/>
-      <c r="GL1" s="183"/>
-      <c r="GM1" s="183"/>
-      <c r="GN1" s="183"/>
-      <c r="GO1" s="183"/>
-      <c r="GP1" s="183"/>
-      <c r="GQ1" s="183"/>
-      <c r="GR1" s="183"/>
-      <c r="GS1" s="183"/>
-      <c r="GT1" s="183"/>
-      <c r="GU1" s="183"/>
-      <c r="GV1" s="183"/>
-      <c r="GW1" s="183"/>
-      <c r="GX1" s="183"/>
-      <c r="GY1" s="183"/>
-      <c r="GZ1" s="183"/>
-      <c r="HA1" s="183"/>
-      <c r="HB1" s="183"/>
-      <c r="HC1" s="183"/>
-      <c r="HD1" s="183"/>
-      <c r="HE1" s="183"/>
-      <c r="HF1" s="183"/>
-      <c r="HG1" s="183"/>
-      <c r="HH1" s="183"/>
-      <c r="HI1" s="183"/>
-      <c r="HJ1" s="183"/>
-      <c r="HK1" s="183"/>
-      <c r="HL1" s="183"/>
-      <c r="HM1" s="183"/>
-      <c r="HN1" s="183"/>
-      <c r="HO1" s="183"/>
-      <c r="HP1" s="183"/>
-      <c r="HQ1" s="183"/>
-      <c r="HR1" s="183"/>
-      <c r="HS1" s="183"/>
-      <c r="HT1" s="183"/>
-      <c r="HU1" s="183"/>
-      <c r="HV1" s="183"/>
-      <c r="HW1" s="183"/>
-      <c r="HX1" s="183"/>
-      <c r="HY1" s="183"/>
-      <c r="HZ1" s="183"/>
-      <c r="IA1" s="183"/>
-      <c r="IB1" s="183"/>
-      <c r="IC1" s="183"/>
-      <c r="ID1" s="183"/>
-      <c r="IE1" s="183"/>
-      <c r="IF1" s="183"/>
-      <c r="IG1" s="183"/>
-      <c r="IH1" s="183"/>
-      <c r="II1" s="183"/>
-      <c r="IJ1" s="183"/>
-      <c r="IK1" s="183"/>
-      <c r="IL1" s="183"/>
-      <c r="IM1" s="183"/>
-      <c r="IN1" s="183"/>
-      <c r="IO1" s="183"/>
-      <c r="IP1" s="183"/>
-      <c r="IQ1" s="183"/>
-      <c r="IR1" s="183"/>
-      <c r="IS1" s="183"/>
-      <c r="IT1" s="183"/>
-      <c r="IU1" s="183"/>
-      <c r="IV1" s="183"/>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="191"/>
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="191"/>
+      <c r="S1" s="191"/>
+      <c r="T1" s="191"/>
+      <c r="U1" s="191"/>
+      <c r="V1" s="191"/>
+      <c r="W1" s="191"/>
+      <c r="X1" s="191"/>
+      <c r="Y1" s="191"/>
+      <c r="Z1" s="191"/>
+      <c r="AA1" s="191"/>
+      <c r="AB1" s="191"/>
+      <c r="AC1" s="191"/>
+      <c r="AD1" s="191"/>
+      <c r="AE1" s="191"/>
+      <c r="AF1" s="191"/>
+      <c r="AG1" s="191"/>
+      <c r="AH1" s="191"/>
+      <c r="AI1" s="191"/>
+      <c r="AJ1" s="191"/>
+      <c r="AK1" s="191"/>
+      <c r="AL1" s="191"/>
+      <c r="AM1" s="191"/>
+      <c r="AN1" s="191"/>
+      <c r="AO1" s="191"/>
+      <c r="AP1" s="191"/>
+      <c r="AQ1" s="191"/>
+      <c r="AR1" s="191"/>
+      <c r="AS1" s="191"/>
+      <c r="AT1" s="191"/>
+      <c r="AU1" s="191"/>
+      <c r="AV1" s="191"/>
+      <c r="AW1" s="191"/>
+      <c r="AX1" s="191"/>
+      <c r="AY1" s="191"/>
+      <c r="AZ1" s="191"/>
+      <c r="BA1" s="191"/>
+      <c r="BB1" s="191"/>
+      <c r="BC1" s="191"/>
+      <c r="BD1" s="191"/>
+      <c r="BE1" s="191"/>
+      <c r="BF1" s="191"/>
+      <c r="BG1" s="191"/>
+      <c r="BH1" s="191"/>
+      <c r="BI1" s="191"/>
+      <c r="BJ1" s="191"/>
+      <c r="BK1" s="191"/>
+      <c r="BL1" s="191"/>
+      <c r="BM1" s="191"/>
+      <c r="BN1" s="191"/>
+      <c r="BO1" s="191"/>
+      <c r="BP1" s="191"/>
+      <c r="BQ1" s="191"/>
+      <c r="BR1" s="191"/>
+      <c r="BS1" s="191"/>
+      <c r="BT1" s="191"/>
+      <c r="BU1" s="191"/>
+      <c r="BV1" s="191"/>
+      <c r="BW1" s="191"/>
+      <c r="BX1" s="191"/>
+      <c r="BY1" s="191"/>
+      <c r="BZ1" s="191"/>
+      <c r="CA1" s="191"/>
+      <c r="CB1" s="191"/>
+      <c r="CC1" s="191"/>
+      <c r="CD1" s="191"/>
+      <c r="CE1" s="191"/>
+      <c r="CF1" s="191"/>
+      <c r="CG1" s="191"/>
+      <c r="CH1" s="191"/>
+      <c r="CI1" s="191"/>
+      <c r="CJ1" s="191"/>
+      <c r="CK1" s="191"/>
+      <c r="CL1" s="191"/>
+      <c r="CM1" s="191"/>
+      <c r="CN1" s="191"/>
+      <c r="CO1" s="191"/>
+      <c r="CP1" s="191"/>
+      <c r="CQ1" s="191"/>
+      <c r="CR1" s="191"/>
+      <c r="CS1" s="191"/>
+      <c r="CT1" s="191"/>
+      <c r="CU1" s="191"/>
+      <c r="CV1" s="191"/>
+      <c r="CW1" s="191"/>
+      <c r="CX1" s="191"/>
+      <c r="CY1" s="191"/>
+      <c r="CZ1" s="191"/>
+      <c r="DA1" s="191"/>
+      <c r="DB1" s="191"/>
+      <c r="DC1" s="191"/>
+      <c r="DD1" s="191"/>
+      <c r="DE1" s="191"/>
+      <c r="DF1" s="191"/>
+      <c r="DG1" s="191"/>
+      <c r="DH1" s="191"/>
+      <c r="DI1" s="191"/>
+      <c r="DJ1" s="191"/>
+      <c r="DK1" s="191"/>
+      <c r="DL1" s="191"/>
+      <c r="DM1" s="191"/>
+      <c r="DN1" s="191"/>
+      <c r="DO1" s="191"/>
+      <c r="DP1" s="191"/>
+      <c r="DQ1" s="191"/>
+      <c r="DR1" s="191"/>
+      <c r="DS1" s="191"/>
+      <c r="DT1" s="191"/>
+      <c r="DU1" s="191"/>
+      <c r="DV1" s="191"/>
+      <c r="DW1" s="191"/>
+      <c r="DX1" s="191"/>
+      <c r="DY1" s="191"/>
+      <c r="DZ1" s="191"/>
+      <c r="EA1" s="191"/>
+      <c r="EB1" s="191"/>
+      <c r="EC1" s="191"/>
+      <c r="ED1" s="191"/>
+      <c r="EE1" s="191"/>
+      <c r="EF1" s="191"/>
+      <c r="EG1" s="191"/>
+      <c r="EH1" s="191"/>
+      <c r="EI1" s="191"/>
+      <c r="EJ1" s="191"/>
+      <c r="EK1" s="191"/>
+      <c r="EL1" s="191"/>
+      <c r="EM1" s="191"/>
+      <c r="EN1" s="191"/>
+      <c r="EO1" s="191"/>
+      <c r="EP1" s="191"/>
+      <c r="EQ1" s="191"/>
+      <c r="ER1" s="191"/>
+      <c r="ES1" s="191"/>
+      <c r="ET1" s="191"/>
+      <c r="EU1" s="191"/>
+      <c r="EV1" s="191"/>
+      <c r="EW1" s="191"/>
+      <c r="EX1" s="191"/>
+      <c r="EY1" s="191"/>
+      <c r="EZ1" s="191"/>
+      <c r="FA1" s="191"/>
+      <c r="FB1" s="191"/>
+      <c r="FC1" s="191"/>
+      <c r="FD1" s="191"/>
+      <c r="FE1" s="191"/>
+      <c r="FF1" s="191"/>
+      <c r="FG1" s="191"/>
+      <c r="FH1" s="191"/>
+      <c r="FI1" s="191"/>
+      <c r="FJ1" s="191"/>
+      <c r="FK1" s="191"/>
+      <c r="FL1" s="191"/>
+      <c r="FM1" s="191"/>
+      <c r="FN1" s="191"/>
+      <c r="FO1" s="191"/>
+      <c r="FP1" s="191"/>
+      <c r="FQ1" s="191"/>
+      <c r="FR1" s="191"/>
+      <c r="FS1" s="191"/>
+      <c r="FT1" s="191"/>
+      <c r="FU1" s="191"/>
+      <c r="FV1" s="191"/>
+      <c r="FW1" s="191"/>
+      <c r="FX1" s="191"/>
+      <c r="FY1" s="191"/>
+      <c r="FZ1" s="191"/>
+      <c r="GA1" s="191"/>
+      <c r="GB1" s="191"/>
+      <c r="GC1" s="191"/>
+      <c r="GD1" s="191"/>
+      <c r="GE1" s="191"/>
+      <c r="GF1" s="191"/>
+      <c r="GG1" s="191"/>
+      <c r="GH1" s="191"/>
+      <c r="GI1" s="191"/>
+      <c r="GJ1" s="191"/>
+      <c r="GK1" s="191"/>
+      <c r="GL1" s="191"/>
+      <c r="GM1" s="191"/>
+      <c r="GN1" s="191"/>
+      <c r="GO1" s="191"/>
+      <c r="GP1" s="191"/>
+      <c r="GQ1" s="191"/>
+      <c r="GR1" s="191"/>
+      <c r="GS1" s="191"/>
+      <c r="GT1" s="191"/>
+      <c r="GU1" s="191"/>
+      <c r="GV1" s="191"/>
+      <c r="GW1" s="191"/>
+      <c r="GX1" s="191"/>
+      <c r="GY1" s="191"/>
+      <c r="GZ1" s="191"/>
+      <c r="HA1" s="191"/>
+      <c r="HB1" s="191"/>
+      <c r="HC1" s="191"/>
+      <c r="HD1" s="191"/>
+      <c r="HE1" s="191"/>
+      <c r="HF1" s="191"/>
+      <c r="HG1" s="191"/>
+      <c r="HH1" s="191"/>
+      <c r="HI1" s="191"/>
+      <c r="HJ1" s="191"/>
+      <c r="HK1" s="191"/>
+      <c r="HL1" s="191"/>
+      <c r="HM1" s="191"/>
+      <c r="HN1" s="191"/>
+      <c r="HO1" s="191"/>
+      <c r="HP1" s="191"/>
+      <c r="HQ1" s="191"/>
+      <c r="HR1" s="191"/>
+      <c r="HS1" s="191"/>
+      <c r="HT1" s="191"/>
+      <c r="HU1" s="191"/>
+      <c r="HV1" s="191"/>
+      <c r="HW1" s="191"/>
+      <c r="HX1" s="191"/>
+      <c r="HY1" s="191"/>
+      <c r="HZ1" s="191"/>
+      <c r="IA1" s="191"/>
+      <c r="IB1" s="191"/>
+      <c r="IC1" s="191"/>
+      <c r="ID1" s="191"/>
+      <c r="IE1" s="191"/>
+      <c r="IF1" s="191"/>
+      <c r="IG1" s="191"/>
+      <c r="IH1" s="191"/>
+      <c r="II1" s="191"/>
+      <c r="IJ1" s="191"/>
+      <c r="IK1" s="191"/>
+      <c r="IL1" s="191"/>
+      <c r="IM1" s="191"/>
+      <c r="IN1" s="191"/>
+      <c r="IO1" s="191"/>
+      <c r="IP1" s="191"/>
+      <c r="IQ1" s="191"/>
+      <c r="IR1" s="191"/>
+      <c r="IS1" s="191"/>
+      <c r="IT1" s="191"/>
+      <c r="IU1" s="191"/>
+      <c r="IV1" s="191"/>
     </row>
     <row r="2" spans="1:256" s="43" customFormat="1">
       <c r="A2" s="15" t="s">
@@ -62541,333 +62541,333 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="191" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="183"/>
-      <c r="O1" s="183"/>
-      <c r="P1" s="183"/>
-      <c r="Q1" s="183"/>
-      <c r="R1" s="183"/>
-      <c r="S1" s="183"/>
-      <c r="T1" s="183"/>
-      <c r="U1" s="183"/>
-      <c r="V1" s="183"/>
-      <c r="W1" s="183"/>
-      <c r="X1" s="183"/>
-      <c r="Y1" s="183"/>
-      <c r="Z1" s="183"/>
-      <c r="AA1" s="183"/>
-      <c r="AB1" s="183"/>
-      <c r="AC1" s="183"/>
-      <c r="AD1" s="183"/>
-      <c r="AE1" s="183"/>
-      <c r="AF1" s="183"/>
-      <c r="AG1" s="183"/>
-      <c r="AH1" s="183"/>
-      <c r="AI1" s="183"/>
-      <c r="AJ1" s="183"/>
-      <c r="AK1" s="183"/>
-      <c r="AL1" s="183"/>
-      <c r="AM1" s="183"/>
-      <c r="AN1" s="183"/>
-      <c r="AO1" s="183"/>
-      <c r="AP1" s="183"/>
-      <c r="AQ1" s="183"/>
-      <c r="AR1" s="183"/>
-      <c r="AS1" s="183"/>
-      <c r="AT1" s="183"/>
-      <c r="AU1" s="183"/>
-      <c r="AV1" s="183"/>
-      <c r="AW1" s="183"/>
-      <c r="AX1" s="183"/>
-      <c r="AY1" s="183"/>
-      <c r="AZ1" s="183"/>
-      <c r="BA1" s="183"/>
-      <c r="BB1" s="183"/>
-      <c r="BC1" s="183"/>
-      <c r="BD1" s="183"/>
-      <c r="BE1" s="183"/>
-      <c r="BF1" s="183"/>
-      <c r="BG1" s="183"/>
-      <c r="BH1" s="183"/>
-      <c r="BI1" s="183"/>
-      <c r="BJ1" s="183"/>
-      <c r="BK1" s="183"/>
-      <c r="BL1" s="183"/>
-      <c r="BM1" s="183"/>
-      <c r="BN1" s="183"/>
-      <c r="BO1" s="183"/>
-      <c r="BP1" s="183"/>
-      <c r="BQ1" s="183"/>
-      <c r="BR1" s="183"/>
-      <c r="BS1" s="183"/>
-      <c r="BT1" s="183"/>
-      <c r="BU1" s="183"/>
-      <c r="BV1" s="183"/>
-      <c r="BW1" s="183"/>
-      <c r="BX1" s="183"/>
-      <c r="BY1" s="183"/>
-      <c r="BZ1" s="183"/>
-      <c r="CA1" s="183"/>
-      <c r="CB1" s="183"/>
-      <c r="CC1" s="183"/>
-      <c r="CD1" s="183"/>
-      <c r="CE1" s="183"/>
-      <c r="CF1" s="183"/>
-      <c r="CG1" s="183"/>
-      <c r="CH1" s="183"/>
-      <c r="CI1" s="183"/>
-      <c r="CJ1" s="183"/>
-      <c r="CK1" s="183"/>
-      <c r="CL1" s="183"/>
-      <c r="CM1" s="183"/>
-      <c r="CN1" s="183"/>
-      <c r="CO1" s="183"/>
-      <c r="CP1" s="183"/>
-      <c r="CQ1" s="183"/>
-      <c r="CR1" s="183"/>
-      <c r="CS1" s="183"/>
-      <c r="CT1" s="183"/>
-      <c r="CU1" s="183"/>
-      <c r="CV1" s="183"/>
-      <c r="CW1" s="183"/>
-      <c r="CX1" s="183"/>
-      <c r="CY1" s="183"/>
-      <c r="CZ1" s="183"/>
-      <c r="DA1" s="183"/>
-      <c r="DB1" s="183"/>
-      <c r="DC1" s="183"/>
-      <c r="DD1" s="183"/>
-      <c r="DE1" s="183"/>
-      <c r="DF1" s="183"/>
-      <c r="DG1" s="183"/>
-      <c r="DH1" s="183"/>
-      <c r="DI1" s="183"/>
-      <c r="DJ1" s="183"/>
-      <c r="DK1" s="183"/>
-      <c r="DL1" s="183"/>
-      <c r="DM1" s="183"/>
-      <c r="DN1" s="183"/>
-      <c r="DO1" s="183"/>
-      <c r="DP1" s="183"/>
-      <c r="DQ1" s="183"/>
-      <c r="DR1" s="183"/>
-      <c r="DS1" s="183"/>
-      <c r="DT1" s="183"/>
-      <c r="DU1" s="183"/>
-      <c r="DV1" s="183"/>
-      <c r="DW1" s="183"/>
-      <c r="DX1" s="183"/>
-      <c r="DY1" s="183"/>
-      <c r="DZ1" s="183"/>
-      <c r="EA1" s="183"/>
-      <c r="EB1" s="183"/>
-      <c r="EC1" s="183"/>
-      <c r="ED1" s="183"/>
-      <c r="EE1" s="183"/>
-      <c r="EF1" s="183"/>
-      <c r="EG1" s="183"/>
-      <c r="EH1" s="183"/>
-      <c r="EI1" s="183"/>
-      <c r="EJ1" s="183"/>
-      <c r="EK1" s="183"/>
-      <c r="EL1" s="183"/>
-      <c r="EM1" s="183"/>
-      <c r="EN1" s="183"/>
-      <c r="EO1" s="183"/>
-      <c r="EP1" s="183"/>
-      <c r="EQ1" s="183"/>
-      <c r="ER1" s="183"/>
-      <c r="ES1" s="183"/>
-      <c r="ET1" s="183"/>
-      <c r="EU1" s="183"/>
-      <c r="EV1" s="183"/>
-      <c r="EW1" s="183"/>
-      <c r="EX1" s="183"/>
-      <c r="EY1" s="183"/>
-      <c r="EZ1" s="183"/>
-      <c r="FA1" s="183"/>
-      <c r="FB1" s="183"/>
-      <c r="FC1" s="183"/>
-      <c r="FD1" s="183"/>
-      <c r="FE1" s="183"/>
-      <c r="FF1" s="183"/>
-      <c r="FG1" s="183"/>
-      <c r="FH1" s="183"/>
-      <c r="FI1" s="183"/>
-      <c r="FJ1" s="183"/>
-      <c r="FK1" s="183"/>
-      <c r="FL1" s="183"/>
-      <c r="FM1" s="183"/>
-      <c r="FN1" s="183"/>
-      <c r="FO1" s="183"/>
-      <c r="FP1" s="183"/>
-      <c r="FQ1" s="183"/>
-      <c r="FR1" s="183"/>
-      <c r="FS1" s="183"/>
-      <c r="FT1" s="183"/>
-      <c r="FU1" s="183"/>
-      <c r="FV1" s="183"/>
-      <c r="FW1" s="183"/>
-      <c r="FX1" s="183"/>
-      <c r="FY1" s="183"/>
-      <c r="FZ1" s="183"/>
-      <c r="GA1" s="183"/>
-      <c r="GB1" s="183"/>
-      <c r="GC1" s="183"/>
-      <c r="GD1" s="183"/>
-      <c r="GE1" s="183"/>
-      <c r="GF1" s="183"/>
-      <c r="GG1" s="183"/>
-      <c r="GH1" s="183"/>
-      <c r="GI1" s="183"/>
-      <c r="GJ1" s="183"/>
-      <c r="GK1" s="183"/>
-      <c r="GL1" s="183"/>
-      <c r="GM1" s="183"/>
-      <c r="GN1" s="183"/>
-      <c r="GO1" s="183"/>
-      <c r="GP1" s="183"/>
-      <c r="GQ1" s="183"/>
-      <c r="GR1" s="183"/>
-      <c r="GS1" s="183"/>
-      <c r="GT1" s="183"/>
-      <c r="GU1" s="183"/>
-      <c r="GV1" s="183"/>
-      <c r="GW1" s="183"/>
-      <c r="GX1" s="183"/>
-      <c r="GY1" s="183"/>
-      <c r="GZ1" s="183"/>
-      <c r="HA1" s="183"/>
-      <c r="HB1" s="183"/>
-      <c r="HC1" s="183"/>
-      <c r="HD1" s="183"/>
-      <c r="HE1" s="183"/>
-      <c r="HF1" s="183"/>
-      <c r="HG1" s="183"/>
-      <c r="HH1" s="183"/>
-      <c r="HI1" s="183"/>
-      <c r="HJ1" s="183"/>
-      <c r="HK1" s="183"/>
-      <c r="HL1" s="183"/>
-      <c r="HM1" s="183"/>
-      <c r="HN1" s="183"/>
-      <c r="HO1" s="183"/>
-      <c r="HP1" s="183"/>
-      <c r="HQ1" s="183"/>
-      <c r="HR1" s="183"/>
-      <c r="HS1" s="183"/>
-      <c r="HT1" s="183"/>
-      <c r="HU1" s="183"/>
-      <c r="HV1" s="183"/>
-      <c r="HW1" s="183"/>
-      <c r="HX1" s="183"/>
-      <c r="HY1" s="183"/>
-      <c r="HZ1" s="183"/>
-      <c r="IA1" s="183"/>
-      <c r="IB1" s="183"/>
-      <c r="IC1" s="183"/>
-      <c r="ID1" s="183"/>
-      <c r="IE1" s="183"/>
-      <c r="IF1" s="183"/>
-      <c r="IG1" s="183"/>
-      <c r="IH1" s="183"/>
-      <c r="II1" s="183"/>
-      <c r="IJ1" s="183"/>
-      <c r="IK1" s="183"/>
-      <c r="IL1" s="183"/>
-      <c r="IM1" s="183"/>
-      <c r="IN1" s="183"/>
-      <c r="IO1" s="183"/>
-      <c r="IP1" s="183"/>
-      <c r="IQ1" s="183"/>
-      <c r="IR1" s="183"/>
-      <c r="IS1" s="183"/>
-      <c r="IT1" s="183"/>
-      <c r="IU1" s="183"/>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="191"/>
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="191"/>
+      <c r="S1" s="191"/>
+      <c r="T1" s="191"/>
+      <c r="U1" s="191"/>
+      <c r="V1" s="191"/>
+      <c r="W1" s="191"/>
+      <c r="X1" s="191"/>
+      <c r="Y1" s="191"/>
+      <c r="Z1" s="191"/>
+      <c r="AA1" s="191"/>
+      <c r="AB1" s="191"/>
+      <c r="AC1" s="191"/>
+      <c r="AD1" s="191"/>
+      <c r="AE1" s="191"/>
+      <c r="AF1" s="191"/>
+      <c r="AG1" s="191"/>
+      <c r="AH1" s="191"/>
+      <c r="AI1" s="191"/>
+      <c r="AJ1" s="191"/>
+      <c r="AK1" s="191"/>
+      <c r="AL1" s="191"/>
+      <c r="AM1" s="191"/>
+      <c r="AN1" s="191"/>
+      <c r="AO1" s="191"/>
+      <c r="AP1" s="191"/>
+      <c r="AQ1" s="191"/>
+      <c r="AR1" s="191"/>
+      <c r="AS1" s="191"/>
+      <c r="AT1" s="191"/>
+      <c r="AU1" s="191"/>
+      <c r="AV1" s="191"/>
+      <c r="AW1" s="191"/>
+      <c r="AX1" s="191"/>
+      <c r="AY1" s="191"/>
+      <c r="AZ1" s="191"/>
+      <c r="BA1" s="191"/>
+      <c r="BB1" s="191"/>
+      <c r="BC1" s="191"/>
+      <c r="BD1" s="191"/>
+      <c r="BE1" s="191"/>
+      <c r="BF1" s="191"/>
+      <c r="BG1" s="191"/>
+      <c r="BH1" s="191"/>
+      <c r="BI1" s="191"/>
+      <c r="BJ1" s="191"/>
+      <c r="BK1" s="191"/>
+      <c r="BL1" s="191"/>
+      <c r="BM1" s="191"/>
+      <c r="BN1" s="191"/>
+      <c r="BO1" s="191"/>
+      <c r="BP1" s="191"/>
+      <c r="BQ1" s="191"/>
+      <c r="BR1" s="191"/>
+      <c r="BS1" s="191"/>
+      <c r="BT1" s="191"/>
+      <c r="BU1" s="191"/>
+      <c r="BV1" s="191"/>
+      <c r="BW1" s="191"/>
+      <c r="BX1" s="191"/>
+      <c r="BY1" s="191"/>
+      <c r="BZ1" s="191"/>
+      <c r="CA1" s="191"/>
+      <c r="CB1" s="191"/>
+      <c r="CC1" s="191"/>
+      <c r="CD1" s="191"/>
+      <c r="CE1" s="191"/>
+      <c r="CF1" s="191"/>
+      <c r="CG1" s="191"/>
+      <c r="CH1" s="191"/>
+      <c r="CI1" s="191"/>
+      <c r="CJ1" s="191"/>
+      <c r="CK1" s="191"/>
+      <c r="CL1" s="191"/>
+      <c r="CM1" s="191"/>
+      <c r="CN1" s="191"/>
+      <c r="CO1" s="191"/>
+      <c r="CP1" s="191"/>
+      <c r="CQ1" s="191"/>
+      <c r="CR1" s="191"/>
+      <c r="CS1" s="191"/>
+      <c r="CT1" s="191"/>
+      <c r="CU1" s="191"/>
+      <c r="CV1" s="191"/>
+      <c r="CW1" s="191"/>
+      <c r="CX1" s="191"/>
+      <c r="CY1" s="191"/>
+      <c r="CZ1" s="191"/>
+      <c r="DA1" s="191"/>
+      <c r="DB1" s="191"/>
+      <c r="DC1" s="191"/>
+      <c r="DD1" s="191"/>
+      <c r="DE1" s="191"/>
+      <c r="DF1" s="191"/>
+      <c r="DG1" s="191"/>
+      <c r="DH1" s="191"/>
+      <c r="DI1" s="191"/>
+      <c r="DJ1" s="191"/>
+      <c r="DK1" s="191"/>
+      <c r="DL1" s="191"/>
+      <c r="DM1" s="191"/>
+      <c r="DN1" s="191"/>
+      <c r="DO1" s="191"/>
+      <c r="DP1" s="191"/>
+      <c r="DQ1" s="191"/>
+      <c r="DR1" s="191"/>
+      <c r="DS1" s="191"/>
+      <c r="DT1" s="191"/>
+      <c r="DU1" s="191"/>
+      <c r="DV1" s="191"/>
+      <c r="DW1" s="191"/>
+      <c r="DX1" s="191"/>
+      <c r="DY1" s="191"/>
+      <c r="DZ1" s="191"/>
+      <c r="EA1" s="191"/>
+      <c r="EB1" s="191"/>
+      <c r="EC1" s="191"/>
+      <c r="ED1" s="191"/>
+      <c r="EE1" s="191"/>
+      <c r="EF1" s="191"/>
+      <c r="EG1" s="191"/>
+      <c r="EH1" s="191"/>
+      <c r="EI1" s="191"/>
+      <c r="EJ1" s="191"/>
+      <c r="EK1" s="191"/>
+      <c r="EL1" s="191"/>
+      <c r="EM1" s="191"/>
+      <c r="EN1" s="191"/>
+      <c r="EO1" s="191"/>
+      <c r="EP1" s="191"/>
+      <c r="EQ1" s="191"/>
+      <c r="ER1" s="191"/>
+      <c r="ES1" s="191"/>
+      <c r="ET1" s="191"/>
+      <c r="EU1" s="191"/>
+      <c r="EV1" s="191"/>
+      <c r="EW1" s="191"/>
+      <c r="EX1" s="191"/>
+      <c r="EY1" s="191"/>
+      <c r="EZ1" s="191"/>
+      <c r="FA1" s="191"/>
+      <c r="FB1" s="191"/>
+      <c r="FC1" s="191"/>
+      <c r="FD1" s="191"/>
+      <c r="FE1" s="191"/>
+      <c r="FF1" s="191"/>
+      <c r="FG1" s="191"/>
+      <c r="FH1" s="191"/>
+      <c r="FI1" s="191"/>
+      <c r="FJ1" s="191"/>
+      <c r="FK1" s="191"/>
+      <c r="FL1" s="191"/>
+      <c r="FM1" s="191"/>
+      <c r="FN1" s="191"/>
+      <c r="FO1" s="191"/>
+      <c r="FP1" s="191"/>
+      <c r="FQ1" s="191"/>
+      <c r="FR1" s="191"/>
+      <c r="FS1" s="191"/>
+      <c r="FT1" s="191"/>
+      <c r="FU1" s="191"/>
+      <c r="FV1" s="191"/>
+      <c r="FW1" s="191"/>
+      <c r="FX1" s="191"/>
+      <c r="FY1" s="191"/>
+      <c r="FZ1" s="191"/>
+      <c r="GA1" s="191"/>
+      <c r="GB1" s="191"/>
+      <c r="GC1" s="191"/>
+      <c r="GD1" s="191"/>
+      <c r="GE1" s="191"/>
+      <c r="GF1" s="191"/>
+      <c r="GG1" s="191"/>
+      <c r="GH1" s="191"/>
+      <c r="GI1" s="191"/>
+      <c r="GJ1" s="191"/>
+      <c r="GK1" s="191"/>
+      <c r="GL1" s="191"/>
+      <c r="GM1" s="191"/>
+      <c r="GN1" s="191"/>
+      <c r="GO1" s="191"/>
+      <c r="GP1" s="191"/>
+      <c r="GQ1" s="191"/>
+      <c r="GR1" s="191"/>
+      <c r="GS1" s="191"/>
+      <c r="GT1" s="191"/>
+      <c r="GU1" s="191"/>
+      <c r="GV1" s="191"/>
+      <c r="GW1" s="191"/>
+      <c r="GX1" s="191"/>
+      <c r="GY1" s="191"/>
+      <c r="GZ1" s="191"/>
+      <c r="HA1" s="191"/>
+      <c r="HB1" s="191"/>
+      <c r="HC1" s="191"/>
+      <c r="HD1" s="191"/>
+      <c r="HE1" s="191"/>
+      <c r="HF1" s="191"/>
+      <c r="HG1" s="191"/>
+      <c r="HH1" s="191"/>
+      <c r="HI1" s="191"/>
+      <c r="HJ1" s="191"/>
+      <c r="HK1" s="191"/>
+      <c r="HL1" s="191"/>
+      <c r="HM1" s="191"/>
+      <c r="HN1" s="191"/>
+      <c r="HO1" s="191"/>
+      <c r="HP1" s="191"/>
+      <c r="HQ1" s="191"/>
+      <c r="HR1" s="191"/>
+      <c r="HS1" s="191"/>
+      <c r="HT1" s="191"/>
+      <c r="HU1" s="191"/>
+      <c r="HV1" s="191"/>
+      <c r="HW1" s="191"/>
+      <c r="HX1" s="191"/>
+      <c r="HY1" s="191"/>
+      <c r="HZ1" s="191"/>
+      <c r="IA1" s="191"/>
+      <c r="IB1" s="191"/>
+      <c r="IC1" s="191"/>
+      <c r="ID1" s="191"/>
+      <c r="IE1" s="191"/>
+      <c r="IF1" s="191"/>
+      <c r="IG1" s="191"/>
+      <c r="IH1" s="191"/>
+      <c r="II1" s="191"/>
+      <c r="IJ1" s="191"/>
+      <c r="IK1" s="191"/>
+      <c r="IL1" s="191"/>
+      <c r="IM1" s="191"/>
+      <c r="IN1" s="191"/>
+      <c r="IO1" s="191"/>
+      <c r="IP1" s="191"/>
+      <c r="IQ1" s="191"/>
+      <c r="IR1" s="191"/>
+      <c r="IS1" s="191"/>
+      <c r="IT1" s="191"/>
+      <c r="IU1" s="191"/>
     </row>
     <row r="2" spans="1:255" ht="15.75" thickBot="1">
-      <c r="A2" s="186" t="str">
+      <c r="A2" s="194" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
       </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="194"/>
     </row>
     <row r="3" spans="1:255" ht="15" customHeight="1">
-      <c r="A3" s="187" t="str">
+      <c r="A3" s="195" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
       </c>
-      <c r="B3" s="189" t="str">
+      <c r="B3" s="197" t="str">
         <f>'Сводная таблица'!B3:B4</f>
         <v>группа</v>
       </c>
-      <c r="C3" s="191" t="str">
+      <c r="C3" s="199" t="str">
         <f>'Сводная таблица'!C3:C4</f>
         <v>подргуппа</v>
       </c>
-      <c r="D3" s="193" t="str">
+      <c r="D3" s="201" t="str">
         <f>'Сводная таблица'!D3:D4</f>
         <v>Фамилия</v>
       </c>
-      <c r="E3" s="195" t="str">
+      <c r="E3" s="203" t="str">
         <f>'Сводная таблица'!E3:E4</f>
         <v>Имя</v>
       </c>
-      <c r="F3" s="184" t="str">
+      <c r="F3" s="192" t="str">
         <f>'Сводная таблица'!F3:F4</f>
         <v>Отчество</v>
       </c>
-      <c r="G3" s="187" t="s">
+      <c r="G3" s="195" t="s">
         <v>113</v>
       </c>
-      <c r="H3" s="193" t="s">
+      <c r="H3" s="201" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="200" t="s">
+      <c r="I3" s="208" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="200" t="s">
+      <c r="J3" s="208" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="197" t="s">
+      <c r="K3" s="205" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:255" ht="15.75" thickBot="1">
-      <c r="A4" s="188"/>
-      <c r="B4" s="190"/>
-      <c r="C4" s="192"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="196"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="199"/>
-      <c r="H4" s="180"/>
-      <c r="I4" s="201"/>
-      <c r="J4" s="201"/>
-      <c r="K4" s="198"/>
+      <c r="A4" s="196"/>
+      <c r="B4" s="198"/>
+      <c r="C4" s="200"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="204"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="187"/>
+      <c r="I4" s="209"/>
+      <c r="J4" s="209"/>
+      <c r="K4" s="206"/>
     </row>
     <row r="5" spans="1:255" s="54" customFormat="1">
       <c r="A5" s="62">
@@ -64418,333 +64418,333 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="191" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="183"/>
-      <c r="O1" s="183"/>
-      <c r="P1" s="183"/>
-      <c r="Q1" s="183"/>
-      <c r="R1" s="183"/>
-      <c r="S1" s="183"/>
-      <c r="T1" s="183"/>
-      <c r="U1" s="183"/>
-      <c r="V1" s="183"/>
-      <c r="W1" s="183"/>
-      <c r="X1" s="183"/>
-      <c r="Y1" s="183"/>
-      <c r="Z1" s="183"/>
-      <c r="AA1" s="183"/>
-      <c r="AB1" s="183"/>
-      <c r="AC1" s="183"/>
-      <c r="AD1" s="183"/>
-      <c r="AE1" s="183"/>
-      <c r="AF1" s="183"/>
-      <c r="AG1" s="183"/>
-      <c r="AH1" s="183"/>
-      <c r="AI1" s="183"/>
-      <c r="AJ1" s="183"/>
-      <c r="AK1" s="183"/>
-      <c r="AL1" s="183"/>
-      <c r="AM1" s="183"/>
-      <c r="AN1" s="183"/>
-      <c r="AO1" s="183"/>
-      <c r="AP1" s="183"/>
-      <c r="AQ1" s="183"/>
-      <c r="AR1" s="183"/>
-      <c r="AS1" s="183"/>
-      <c r="AT1" s="183"/>
-      <c r="AU1" s="183"/>
-      <c r="AV1" s="183"/>
-      <c r="AW1" s="183"/>
-      <c r="AX1" s="183"/>
-      <c r="AY1" s="183"/>
-      <c r="AZ1" s="183"/>
-      <c r="BA1" s="183"/>
-      <c r="BB1" s="183"/>
-      <c r="BC1" s="183"/>
-      <c r="BD1" s="183"/>
-      <c r="BE1" s="183"/>
-      <c r="BF1" s="183"/>
-      <c r="BG1" s="183"/>
-      <c r="BH1" s="183"/>
-      <c r="BI1" s="183"/>
-      <c r="BJ1" s="183"/>
-      <c r="BK1" s="183"/>
-      <c r="BL1" s="183"/>
-      <c r="BM1" s="183"/>
-      <c r="BN1" s="183"/>
-      <c r="BO1" s="183"/>
-      <c r="BP1" s="183"/>
-      <c r="BQ1" s="183"/>
-      <c r="BR1" s="183"/>
-      <c r="BS1" s="183"/>
-      <c r="BT1" s="183"/>
-      <c r="BU1" s="183"/>
-      <c r="BV1" s="183"/>
-      <c r="BW1" s="183"/>
-      <c r="BX1" s="183"/>
-      <c r="BY1" s="183"/>
-      <c r="BZ1" s="183"/>
-      <c r="CA1" s="183"/>
-      <c r="CB1" s="183"/>
-      <c r="CC1" s="183"/>
-      <c r="CD1" s="183"/>
-      <c r="CE1" s="183"/>
-      <c r="CF1" s="183"/>
-      <c r="CG1" s="183"/>
-      <c r="CH1" s="183"/>
-      <c r="CI1" s="183"/>
-      <c r="CJ1" s="183"/>
-      <c r="CK1" s="183"/>
-      <c r="CL1" s="183"/>
-      <c r="CM1" s="183"/>
-      <c r="CN1" s="183"/>
-      <c r="CO1" s="183"/>
-      <c r="CP1" s="183"/>
-      <c r="CQ1" s="183"/>
-      <c r="CR1" s="183"/>
-      <c r="CS1" s="183"/>
-      <c r="CT1" s="183"/>
-      <c r="CU1" s="183"/>
-      <c r="CV1" s="183"/>
-      <c r="CW1" s="183"/>
-      <c r="CX1" s="183"/>
-      <c r="CY1" s="183"/>
-      <c r="CZ1" s="183"/>
-      <c r="DA1" s="183"/>
-      <c r="DB1" s="183"/>
-      <c r="DC1" s="183"/>
-      <c r="DD1" s="183"/>
-      <c r="DE1" s="183"/>
-      <c r="DF1" s="183"/>
-      <c r="DG1" s="183"/>
-      <c r="DH1" s="183"/>
-      <c r="DI1" s="183"/>
-      <c r="DJ1" s="183"/>
-      <c r="DK1" s="183"/>
-      <c r="DL1" s="183"/>
-      <c r="DM1" s="183"/>
-      <c r="DN1" s="183"/>
-      <c r="DO1" s="183"/>
-      <c r="DP1" s="183"/>
-      <c r="DQ1" s="183"/>
-      <c r="DR1" s="183"/>
-      <c r="DS1" s="183"/>
-      <c r="DT1" s="183"/>
-      <c r="DU1" s="183"/>
-      <c r="DV1" s="183"/>
-      <c r="DW1" s="183"/>
-      <c r="DX1" s="183"/>
-      <c r="DY1" s="183"/>
-      <c r="DZ1" s="183"/>
-      <c r="EA1" s="183"/>
-      <c r="EB1" s="183"/>
-      <c r="EC1" s="183"/>
-      <c r="ED1" s="183"/>
-      <c r="EE1" s="183"/>
-      <c r="EF1" s="183"/>
-      <c r="EG1" s="183"/>
-      <c r="EH1" s="183"/>
-      <c r="EI1" s="183"/>
-      <c r="EJ1" s="183"/>
-      <c r="EK1" s="183"/>
-      <c r="EL1" s="183"/>
-      <c r="EM1" s="183"/>
-      <c r="EN1" s="183"/>
-      <c r="EO1" s="183"/>
-      <c r="EP1" s="183"/>
-      <c r="EQ1" s="183"/>
-      <c r="ER1" s="183"/>
-      <c r="ES1" s="183"/>
-      <c r="ET1" s="183"/>
-      <c r="EU1" s="183"/>
-      <c r="EV1" s="183"/>
-      <c r="EW1" s="183"/>
-      <c r="EX1" s="183"/>
-      <c r="EY1" s="183"/>
-      <c r="EZ1" s="183"/>
-      <c r="FA1" s="183"/>
-      <c r="FB1" s="183"/>
-      <c r="FC1" s="183"/>
-      <c r="FD1" s="183"/>
-      <c r="FE1" s="183"/>
-      <c r="FF1" s="183"/>
-      <c r="FG1" s="183"/>
-      <c r="FH1" s="183"/>
-      <c r="FI1" s="183"/>
-      <c r="FJ1" s="183"/>
-      <c r="FK1" s="183"/>
-      <c r="FL1" s="183"/>
-      <c r="FM1" s="183"/>
-      <c r="FN1" s="183"/>
-      <c r="FO1" s="183"/>
-      <c r="FP1" s="183"/>
-      <c r="FQ1" s="183"/>
-      <c r="FR1" s="183"/>
-      <c r="FS1" s="183"/>
-      <c r="FT1" s="183"/>
-      <c r="FU1" s="183"/>
-      <c r="FV1" s="183"/>
-      <c r="FW1" s="183"/>
-      <c r="FX1" s="183"/>
-      <c r="FY1" s="183"/>
-      <c r="FZ1" s="183"/>
-      <c r="GA1" s="183"/>
-      <c r="GB1" s="183"/>
-      <c r="GC1" s="183"/>
-      <c r="GD1" s="183"/>
-      <c r="GE1" s="183"/>
-      <c r="GF1" s="183"/>
-      <c r="GG1" s="183"/>
-      <c r="GH1" s="183"/>
-      <c r="GI1" s="183"/>
-      <c r="GJ1" s="183"/>
-      <c r="GK1" s="183"/>
-      <c r="GL1" s="183"/>
-      <c r="GM1" s="183"/>
-      <c r="GN1" s="183"/>
-      <c r="GO1" s="183"/>
-      <c r="GP1" s="183"/>
-      <c r="GQ1" s="183"/>
-      <c r="GR1" s="183"/>
-      <c r="GS1" s="183"/>
-      <c r="GT1" s="183"/>
-      <c r="GU1" s="183"/>
-      <c r="GV1" s="183"/>
-      <c r="GW1" s="183"/>
-      <c r="GX1" s="183"/>
-      <c r="GY1" s="183"/>
-      <c r="GZ1" s="183"/>
-      <c r="HA1" s="183"/>
-      <c r="HB1" s="183"/>
-      <c r="HC1" s="183"/>
-      <c r="HD1" s="183"/>
-      <c r="HE1" s="183"/>
-      <c r="HF1" s="183"/>
-      <c r="HG1" s="183"/>
-      <c r="HH1" s="183"/>
-      <c r="HI1" s="183"/>
-      <c r="HJ1" s="183"/>
-      <c r="HK1" s="183"/>
-      <c r="HL1" s="183"/>
-      <c r="HM1" s="183"/>
-      <c r="HN1" s="183"/>
-      <c r="HO1" s="183"/>
-      <c r="HP1" s="183"/>
-      <c r="HQ1" s="183"/>
-      <c r="HR1" s="183"/>
-      <c r="HS1" s="183"/>
-      <c r="HT1" s="183"/>
-      <c r="HU1" s="183"/>
-      <c r="HV1" s="183"/>
-      <c r="HW1" s="183"/>
-      <c r="HX1" s="183"/>
-      <c r="HY1" s="183"/>
-      <c r="HZ1" s="183"/>
-      <c r="IA1" s="183"/>
-      <c r="IB1" s="183"/>
-      <c r="IC1" s="183"/>
-      <c r="ID1" s="183"/>
-      <c r="IE1" s="183"/>
-      <c r="IF1" s="183"/>
-      <c r="IG1" s="183"/>
-      <c r="IH1" s="183"/>
-      <c r="II1" s="183"/>
-      <c r="IJ1" s="183"/>
-      <c r="IK1" s="183"/>
-      <c r="IL1" s="183"/>
-      <c r="IM1" s="183"/>
-      <c r="IN1" s="183"/>
-      <c r="IO1" s="183"/>
-      <c r="IP1" s="183"/>
-      <c r="IQ1" s="183"/>
-      <c r="IR1" s="183"/>
-      <c r="IS1" s="183"/>
-      <c r="IT1" s="183"/>
-      <c r="IU1" s="183"/>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="191"/>
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="191"/>
+      <c r="S1" s="191"/>
+      <c r="T1" s="191"/>
+      <c r="U1" s="191"/>
+      <c r="V1" s="191"/>
+      <c r="W1" s="191"/>
+      <c r="X1" s="191"/>
+      <c r="Y1" s="191"/>
+      <c r="Z1" s="191"/>
+      <c r="AA1" s="191"/>
+      <c r="AB1" s="191"/>
+      <c r="AC1" s="191"/>
+      <c r="AD1" s="191"/>
+      <c r="AE1" s="191"/>
+      <c r="AF1" s="191"/>
+      <c r="AG1" s="191"/>
+      <c r="AH1" s="191"/>
+      <c r="AI1" s="191"/>
+      <c r="AJ1" s="191"/>
+      <c r="AK1" s="191"/>
+      <c r="AL1" s="191"/>
+      <c r="AM1" s="191"/>
+      <c r="AN1" s="191"/>
+      <c r="AO1" s="191"/>
+      <c r="AP1" s="191"/>
+      <c r="AQ1" s="191"/>
+      <c r="AR1" s="191"/>
+      <c r="AS1" s="191"/>
+      <c r="AT1" s="191"/>
+      <c r="AU1" s="191"/>
+      <c r="AV1" s="191"/>
+      <c r="AW1" s="191"/>
+      <c r="AX1" s="191"/>
+      <c r="AY1" s="191"/>
+      <c r="AZ1" s="191"/>
+      <c r="BA1" s="191"/>
+      <c r="BB1" s="191"/>
+      <c r="BC1" s="191"/>
+      <c r="BD1" s="191"/>
+      <c r="BE1" s="191"/>
+      <c r="BF1" s="191"/>
+      <c r="BG1" s="191"/>
+      <c r="BH1" s="191"/>
+      <c r="BI1" s="191"/>
+      <c r="BJ1" s="191"/>
+      <c r="BK1" s="191"/>
+      <c r="BL1" s="191"/>
+      <c r="BM1" s="191"/>
+      <c r="BN1" s="191"/>
+      <c r="BO1" s="191"/>
+      <c r="BP1" s="191"/>
+      <c r="BQ1" s="191"/>
+      <c r="BR1" s="191"/>
+      <c r="BS1" s="191"/>
+      <c r="BT1" s="191"/>
+      <c r="BU1" s="191"/>
+      <c r="BV1" s="191"/>
+      <c r="BW1" s="191"/>
+      <c r="BX1" s="191"/>
+      <c r="BY1" s="191"/>
+      <c r="BZ1" s="191"/>
+      <c r="CA1" s="191"/>
+      <c r="CB1" s="191"/>
+      <c r="CC1" s="191"/>
+      <c r="CD1" s="191"/>
+      <c r="CE1" s="191"/>
+      <c r="CF1" s="191"/>
+      <c r="CG1" s="191"/>
+      <c r="CH1" s="191"/>
+      <c r="CI1" s="191"/>
+      <c r="CJ1" s="191"/>
+      <c r="CK1" s="191"/>
+      <c r="CL1" s="191"/>
+      <c r="CM1" s="191"/>
+      <c r="CN1" s="191"/>
+      <c r="CO1" s="191"/>
+      <c r="CP1" s="191"/>
+      <c r="CQ1" s="191"/>
+      <c r="CR1" s="191"/>
+      <c r="CS1" s="191"/>
+      <c r="CT1" s="191"/>
+      <c r="CU1" s="191"/>
+      <c r="CV1" s="191"/>
+      <c r="CW1" s="191"/>
+      <c r="CX1" s="191"/>
+      <c r="CY1" s="191"/>
+      <c r="CZ1" s="191"/>
+      <c r="DA1" s="191"/>
+      <c r="DB1" s="191"/>
+      <c r="DC1" s="191"/>
+      <c r="DD1" s="191"/>
+      <c r="DE1" s="191"/>
+      <c r="DF1" s="191"/>
+      <c r="DG1" s="191"/>
+      <c r="DH1" s="191"/>
+      <c r="DI1" s="191"/>
+      <c r="DJ1" s="191"/>
+      <c r="DK1" s="191"/>
+      <c r="DL1" s="191"/>
+      <c r="DM1" s="191"/>
+      <c r="DN1" s="191"/>
+      <c r="DO1" s="191"/>
+      <c r="DP1" s="191"/>
+      <c r="DQ1" s="191"/>
+      <c r="DR1" s="191"/>
+      <c r="DS1" s="191"/>
+      <c r="DT1" s="191"/>
+      <c r="DU1" s="191"/>
+      <c r="DV1" s="191"/>
+      <c r="DW1" s="191"/>
+      <c r="DX1" s="191"/>
+      <c r="DY1" s="191"/>
+      <c r="DZ1" s="191"/>
+      <c r="EA1" s="191"/>
+      <c r="EB1" s="191"/>
+      <c r="EC1" s="191"/>
+      <c r="ED1" s="191"/>
+      <c r="EE1" s="191"/>
+      <c r="EF1" s="191"/>
+      <c r="EG1" s="191"/>
+      <c r="EH1" s="191"/>
+      <c r="EI1" s="191"/>
+      <c r="EJ1" s="191"/>
+      <c r="EK1" s="191"/>
+      <c r="EL1" s="191"/>
+      <c r="EM1" s="191"/>
+      <c r="EN1" s="191"/>
+      <c r="EO1" s="191"/>
+      <c r="EP1" s="191"/>
+      <c r="EQ1" s="191"/>
+      <c r="ER1" s="191"/>
+      <c r="ES1" s="191"/>
+      <c r="ET1" s="191"/>
+      <c r="EU1" s="191"/>
+      <c r="EV1" s="191"/>
+      <c r="EW1" s="191"/>
+      <c r="EX1" s="191"/>
+      <c r="EY1" s="191"/>
+      <c r="EZ1" s="191"/>
+      <c r="FA1" s="191"/>
+      <c r="FB1" s="191"/>
+      <c r="FC1" s="191"/>
+      <c r="FD1" s="191"/>
+      <c r="FE1" s="191"/>
+      <c r="FF1" s="191"/>
+      <c r="FG1" s="191"/>
+      <c r="FH1" s="191"/>
+      <c r="FI1" s="191"/>
+      <c r="FJ1" s="191"/>
+      <c r="FK1" s="191"/>
+      <c r="FL1" s="191"/>
+      <c r="FM1" s="191"/>
+      <c r="FN1" s="191"/>
+      <c r="FO1" s="191"/>
+      <c r="FP1" s="191"/>
+      <c r="FQ1" s="191"/>
+      <c r="FR1" s="191"/>
+      <c r="FS1" s="191"/>
+      <c r="FT1" s="191"/>
+      <c r="FU1" s="191"/>
+      <c r="FV1" s="191"/>
+      <c r="FW1" s="191"/>
+      <c r="FX1" s="191"/>
+      <c r="FY1" s="191"/>
+      <c r="FZ1" s="191"/>
+      <c r="GA1" s="191"/>
+      <c r="GB1" s="191"/>
+      <c r="GC1" s="191"/>
+      <c r="GD1" s="191"/>
+      <c r="GE1" s="191"/>
+      <c r="GF1" s="191"/>
+      <c r="GG1" s="191"/>
+      <c r="GH1" s="191"/>
+      <c r="GI1" s="191"/>
+      <c r="GJ1" s="191"/>
+      <c r="GK1" s="191"/>
+      <c r="GL1" s="191"/>
+      <c r="GM1" s="191"/>
+      <c r="GN1" s="191"/>
+      <c r="GO1" s="191"/>
+      <c r="GP1" s="191"/>
+      <c r="GQ1" s="191"/>
+      <c r="GR1" s="191"/>
+      <c r="GS1" s="191"/>
+      <c r="GT1" s="191"/>
+      <c r="GU1" s="191"/>
+      <c r="GV1" s="191"/>
+      <c r="GW1" s="191"/>
+      <c r="GX1" s="191"/>
+      <c r="GY1" s="191"/>
+      <c r="GZ1" s="191"/>
+      <c r="HA1" s="191"/>
+      <c r="HB1" s="191"/>
+      <c r="HC1" s="191"/>
+      <c r="HD1" s="191"/>
+      <c r="HE1" s="191"/>
+      <c r="HF1" s="191"/>
+      <c r="HG1" s="191"/>
+      <c r="HH1" s="191"/>
+      <c r="HI1" s="191"/>
+      <c r="HJ1" s="191"/>
+      <c r="HK1" s="191"/>
+      <c r="HL1" s="191"/>
+      <c r="HM1" s="191"/>
+      <c r="HN1" s="191"/>
+      <c r="HO1" s="191"/>
+      <c r="HP1" s="191"/>
+      <c r="HQ1" s="191"/>
+      <c r="HR1" s="191"/>
+      <c r="HS1" s="191"/>
+      <c r="HT1" s="191"/>
+      <c r="HU1" s="191"/>
+      <c r="HV1" s="191"/>
+      <c r="HW1" s="191"/>
+      <c r="HX1" s="191"/>
+      <c r="HY1" s="191"/>
+      <c r="HZ1" s="191"/>
+      <c r="IA1" s="191"/>
+      <c r="IB1" s="191"/>
+      <c r="IC1" s="191"/>
+      <c r="ID1" s="191"/>
+      <c r="IE1" s="191"/>
+      <c r="IF1" s="191"/>
+      <c r="IG1" s="191"/>
+      <c r="IH1" s="191"/>
+      <c r="II1" s="191"/>
+      <c r="IJ1" s="191"/>
+      <c r="IK1" s="191"/>
+      <c r="IL1" s="191"/>
+      <c r="IM1" s="191"/>
+      <c r="IN1" s="191"/>
+      <c r="IO1" s="191"/>
+      <c r="IP1" s="191"/>
+      <c r="IQ1" s="191"/>
+      <c r="IR1" s="191"/>
+      <c r="IS1" s="191"/>
+      <c r="IT1" s="191"/>
+      <c r="IU1" s="191"/>
     </row>
     <row r="2" spans="1:255" ht="15.75" thickBot="1">
-      <c r="A2" s="186" t="str">
+      <c r="A2" s="194" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
       </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="194"/>
     </row>
     <row r="3" spans="1:255" ht="15" customHeight="1">
-      <c r="A3" s="187" t="str">
+      <c r="A3" s="195" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
       </c>
-      <c r="B3" s="189" t="str">
+      <c r="B3" s="197" t="str">
         <f>'Сводная таблица'!B3:B4</f>
         <v>группа</v>
       </c>
-      <c r="C3" s="191" t="str">
+      <c r="C3" s="199" t="str">
         <f>'Сводная таблица'!C3:C4</f>
         <v>подргуппа</v>
       </c>
-      <c r="D3" s="193" t="str">
+      <c r="D3" s="201" t="str">
         <f>'Сводная таблица'!D3:D4</f>
         <v>Фамилия</v>
       </c>
-      <c r="E3" s="195" t="str">
+      <c r="E3" s="203" t="str">
         <f>'Сводная таблица'!E3:E4</f>
         <v>Имя</v>
       </c>
-      <c r="F3" s="184" t="str">
+      <c r="F3" s="192" t="str">
         <f>'Сводная таблица'!F3:F4</f>
         <v>Отчество</v>
       </c>
-      <c r="G3" s="187" t="s">
+      <c r="G3" s="195" t="s">
         <v>113</v>
       </c>
-      <c r="H3" s="193" t="s">
+      <c r="H3" s="201" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="200" t="s">
+      <c r="I3" s="208" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="200" t="s">
+      <c r="J3" s="208" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="197" t="s">
+      <c r="K3" s="205" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:255" ht="15.75" thickBot="1">
-      <c r="A4" s="188"/>
-      <c r="B4" s="190"/>
-      <c r="C4" s="192"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="196"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="188"/>
-      <c r="H4" s="194"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="202"/>
-      <c r="K4" s="203"/>
+      <c r="A4" s="196"/>
+      <c r="B4" s="198"/>
+      <c r="C4" s="200"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="204"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="196"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="210"/>
+      <c r="J4" s="210"/>
+      <c r="K4" s="211"/>
     </row>
     <row r="5" spans="1:255" s="54" customFormat="1">
       <c r="A5" s="24">
@@ -66293,334 +66293,334 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="191" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="183"/>
-      <c r="O1" s="183"/>
-      <c r="P1" s="183"/>
-      <c r="Q1" s="183"/>
-      <c r="R1" s="183"/>
-      <c r="S1" s="183"/>
-      <c r="T1" s="183"/>
-      <c r="U1" s="183"/>
-      <c r="V1" s="183"/>
-      <c r="W1" s="183"/>
-      <c r="X1" s="183"/>
-      <c r="Y1" s="183"/>
-      <c r="Z1" s="183"/>
-      <c r="AA1" s="183"/>
-      <c r="AB1" s="183"/>
-      <c r="AC1" s="183"/>
-      <c r="AD1" s="183"/>
-      <c r="AE1" s="183"/>
-      <c r="AF1" s="183"/>
-      <c r="AG1" s="183"/>
-      <c r="AH1" s="183"/>
-      <c r="AI1" s="183"/>
-      <c r="AJ1" s="183"/>
-      <c r="AK1" s="183"/>
-      <c r="AL1" s="183"/>
-      <c r="AM1" s="183"/>
-      <c r="AN1" s="183"/>
-      <c r="AO1" s="183"/>
-      <c r="AP1" s="183"/>
-      <c r="AQ1" s="183"/>
-      <c r="AR1" s="183"/>
-      <c r="AS1" s="183"/>
-      <c r="AT1" s="183"/>
-      <c r="AU1" s="183"/>
-      <c r="AV1" s="183"/>
-      <c r="AW1" s="183"/>
-      <c r="AX1" s="183"/>
-      <c r="AY1" s="183"/>
-      <c r="AZ1" s="183"/>
-      <c r="BA1" s="183"/>
-      <c r="BB1" s="183"/>
-      <c r="BC1" s="183"/>
-      <c r="BD1" s="183"/>
-      <c r="BE1" s="183"/>
-      <c r="BF1" s="183"/>
-      <c r="BG1" s="183"/>
-      <c r="BH1" s="183"/>
-      <c r="BI1" s="183"/>
-      <c r="BJ1" s="183"/>
-      <c r="BK1" s="183"/>
-      <c r="BL1" s="183"/>
-      <c r="BM1" s="183"/>
-      <c r="BN1" s="183"/>
-      <c r="BO1" s="183"/>
-      <c r="BP1" s="183"/>
-      <c r="BQ1" s="183"/>
-      <c r="BR1" s="183"/>
-      <c r="BS1" s="183"/>
-      <c r="BT1" s="183"/>
-      <c r="BU1" s="183"/>
-      <c r="BV1" s="183"/>
-      <c r="BW1" s="183"/>
-      <c r="BX1" s="183"/>
-      <c r="BY1" s="183"/>
-      <c r="BZ1" s="183"/>
-      <c r="CA1" s="183"/>
-      <c r="CB1" s="183"/>
-      <c r="CC1" s="183"/>
-      <c r="CD1" s="183"/>
-      <c r="CE1" s="183"/>
-      <c r="CF1" s="183"/>
-      <c r="CG1" s="183"/>
-      <c r="CH1" s="183"/>
-      <c r="CI1" s="183"/>
-      <c r="CJ1" s="183"/>
-      <c r="CK1" s="183"/>
-      <c r="CL1" s="183"/>
-      <c r="CM1" s="183"/>
-      <c r="CN1" s="183"/>
-      <c r="CO1" s="183"/>
-      <c r="CP1" s="183"/>
-      <c r="CQ1" s="183"/>
-      <c r="CR1" s="183"/>
-      <c r="CS1" s="183"/>
-      <c r="CT1" s="183"/>
-      <c r="CU1" s="183"/>
-      <c r="CV1" s="183"/>
-      <c r="CW1" s="183"/>
-      <c r="CX1" s="183"/>
-      <c r="CY1" s="183"/>
-      <c r="CZ1" s="183"/>
-      <c r="DA1" s="183"/>
-      <c r="DB1" s="183"/>
-      <c r="DC1" s="183"/>
-      <c r="DD1" s="183"/>
-      <c r="DE1" s="183"/>
-      <c r="DF1" s="183"/>
-      <c r="DG1" s="183"/>
-      <c r="DH1" s="183"/>
-      <c r="DI1" s="183"/>
-      <c r="DJ1" s="183"/>
-      <c r="DK1" s="183"/>
-      <c r="DL1" s="183"/>
-      <c r="DM1" s="183"/>
-      <c r="DN1" s="183"/>
-      <c r="DO1" s="183"/>
-      <c r="DP1" s="183"/>
-      <c r="DQ1" s="183"/>
-      <c r="DR1" s="183"/>
-      <c r="DS1" s="183"/>
-      <c r="DT1" s="183"/>
-      <c r="DU1" s="183"/>
-      <c r="DV1" s="183"/>
-      <c r="DW1" s="183"/>
-      <c r="DX1" s="183"/>
-      <c r="DY1" s="183"/>
-      <c r="DZ1" s="183"/>
-      <c r="EA1" s="183"/>
-      <c r="EB1" s="183"/>
-      <c r="EC1" s="183"/>
-      <c r="ED1" s="183"/>
-      <c r="EE1" s="183"/>
-      <c r="EF1" s="183"/>
-      <c r="EG1" s="183"/>
-      <c r="EH1" s="183"/>
-      <c r="EI1" s="183"/>
-      <c r="EJ1" s="183"/>
-      <c r="EK1" s="183"/>
-      <c r="EL1" s="183"/>
-      <c r="EM1" s="183"/>
-      <c r="EN1" s="183"/>
-      <c r="EO1" s="183"/>
-      <c r="EP1" s="183"/>
-      <c r="EQ1" s="183"/>
-      <c r="ER1" s="183"/>
-      <c r="ES1" s="183"/>
-      <c r="ET1" s="183"/>
-      <c r="EU1" s="183"/>
-      <c r="EV1" s="183"/>
-      <c r="EW1" s="183"/>
-      <c r="EX1" s="183"/>
-      <c r="EY1" s="183"/>
-      <c r="EZ1" s="183"/>
-      <c r="FA1" s="183"/>
-      <c r="FB1" s="183"/>
-      <c r="FC1" s="183"/>
-      <c r="FD1" s="183"/>
-      <c r="FE1" s="183"/>
-      <c r="FF1" s="183"/>
-      <c r="FG1" s="183"/>
-      <c r="FH1" s="183"/>
-      <c r="FI1" s="183"/>
-      <c r="FJ1" s="183"/>
-      <c r="FK1" s="183"/>
-      <c r="FL1" s="183"/>
-      <c r="FM1" s="183"/>
-      <c r="FN1" s="183"/>
-      <c r="FO1" s="183"/>
-      <c r="FP1" s="183"/>
-      <c r="FQ1" s="183"/>
-      <c r="FR1" s="183"/>
-      <c r="FS1" s="183"/>
-      <c r="FT1" s="183"/>
-      <c r="FU1" s="183"/>
-      <c r="FV1" s="183"/>
-      <c r="FW1" s="183"/>
-      <c r="FX1" s="183"/>
-      <c r="FY1" s="183"/>
-      <c r="FZ1" s="183"/>
-      <c r="GA1" s="183"/>
-      <c r="GB1" s="183"/>
-      <c r="GC1" s="183"/>
-      <c r="GD1" s="183"/>
-      <c r="GE1" s="183"/>
-      <c r="GF1" s="183"/>
-      <c r="GG1" s="183"/>
-      <c r="GH1" s="183"/>
-      <c r="GI1" s="183"/>
-      <c r="GJ1" s="183"/>
-      <c r="GK1" s="183"/>
-      <c r="GL1" s="183"/>
-      <c r="GM1" s="183"/>
-      <c r="GN1" s="183"/>
-      <c r="GO1" s="183"/>
-      <c r="GP1" s="183"/>
-      <c r="GQ1" s="183"/>
-      <c r="GR1" s="183"/>
-      <c r="GS1" s="183"/>
-      <c r="GT1" s="183"/>
-      <c r="GU1" s="183"/>
-      <c r="GV1" s="183"/>
-      <c r="GW1" s="183"/>
-      <c r="GX1" s="183"/>
-      <c r="GY1" s="183"/>
-      <c r="GZ1" s="183"/>
-      <c r="HA1" s="183"/>
-      <c r="HB1" s="183"/>
-      <c r="HC1" s="183"/>
-      <c r="HD1" s="183"/>
-      <c r="HE1" s="183"/>
-      <c r="HF1" s="183"/>
-      <c r="HG1" s="183"/>
-      <c r="HH1" s="183"/>
-      <c r="HI1" s="183"/>
-      <c r="HJ1" s="183"/>
-      <c r="HK1" s="183"/>
-      <c r="HL1" s="183"/>
-      <c r="HM1" s="183"/>
-      <c r="HN1" s="183"/>
-      <c r="HO1" s="183"/>
-      <c r="HP1" s="183"/>
-      <c r="HQ1" s="183"/>
-      <c r="HR1" s="183"/>
-      <c r="HS1" s="183"/>
-      <c r="HT1" s="183"/>
-      <c r="HU1" s="183"/>
-      <c r="HV1" s="183"/>
-      <c r="HW1" s="183"/>
-      <c r="HX1" s="183"/>
-      <c r="HY1" s="183"/>
-      <c r="HZ1" s="183"/>
-      <c r="IA1" s="183"/>
-      <c r="IB1" s="183"/>
-      <c r="IC1" s="183"/>
-      <c r="ID1" s="183"/>
-      <c r="IE1" s="183"/>
-      <c r="IF1" s="183"/>
-      <c r="IG1" s="183"/>
-      <c r="IH1" s="183"/>
-      <c r="II1" s="183"/>
-      <c r="IJ1" s="183"/>
-      <c r="IK1" s="183"/>
-      <c r="IL1" s="183"/>
-      <c r="IM1" s="183"/>
-      <c r="IN1" s="183"/>
-      <c r="IO1" s="183"/>
-      <c r="IP1" s="183"/>
-      <c r="IQ1" s="183"/>
-      <c r="IR1" s="183"/>
-      <c r="IS1" s="183"/>
-      <c r="IT1" s="183"/>
-      <c r="IU1" s="183"/>
-      <c r="IV1" s="183"/>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="191"/>
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="191"/>
+      <c r="S1" s="191"/>
+      <c r="T1" s="191"/>
+      <c r="U1" s="191"/>
+      <c r="V1" s="191"/>
+      <c r="W1" s="191"/>
+      <c r="X1" s="191"/>
+      <c r="Y1" s="191"/>
+      <c r="Z1" s="191"/>
+      <c r="AA1" s="191"/>
+      <c r="AB1" s="191"/>
+      <c r="AC1" s="191"/>
+      <c r="AD1" s="191"/>
+      <c r="AE1" s="191"/>
+      <c r="AF1" s="191"/>
+      <c r="AG1" s="191"/>
+      <c r="AH1" s="191"/>
+      <c r="AI1" s="191"/>
+      <c r="AJ1" s="191"/>
+      <c r="AK1" s="191"/>
+      <c r="AL1" s="191"/>
+      <c r="AM1" s="191"/>
+      <c r="AN1" s="191"/>
+      <c r="AO1" s="191"/>
+      <c r="AP1" s="191"/>
+      <c r="AQ1" s="191"/>
+      <c r="AR1" s="191"/>
+      <c r="AS1" s="191"/>
+      <c r="AT1" s="191"/>
+      <c r="AU1" s="191"/>
+      <c r="AV1" s="191"/>
+      <c r="AW1" s="191"/>
+      <c r="AX1" s="191"/>
+      <c r="AY1" s="191"/>
+      <c r="AZ1" s="191"/>
+      <c r="BA1" s="191"/>
+      <c r="BB1" s="191"/>
+      <c r="BC1" s="191"/>
+      <c r="BD1" s="191"/>
+      <c r="BE1" s="191"/>
+      <c r="BF1" s="191"/>
+      <c r="BG1" s="191"/>
+      <c r="BH1" s="191"/>
+      <c r="BI1" s="191"/>
+      <c r="BJ1" s="191"/>
+      <c r="BK1" s="191"/>
+      <c r="BL1" s="191"/>
+      <c r="BM1" s="191"/>
+      <c r="BN1" s="191"/>
+      <c r="BO1" s="191"/>
+      <c r="BP1" s="191"/>
+      <c r="BQ1" s="191"/>
+      <c r="BR1" s="191"/>
+      <c r="BS1" s="191"/>
+      <c r="BT1" s="191"/>
+      <c r="BU1" s="191"/>
+      <c r="BV1" s="191"/>
+      <c r="BW1" s="191"/>
+      <c r="BX1" s="191"/>
+      <c r="BY1" s="191"/>
+      <c r="BZ1" s="191"/>
+      <c r="CA1" s="191"/>
+      <c r="CB1" s="191"/>
+      <c r="CC1" s="191"/>
+      <c r="CD1" s="191"/>
+      <c r="CE1" s="191"/>
+      <c r="CF1" s="191"/>
+      <c r="CG1" s="191"/>
+      <c r="CH1" s="191"/>
+      <c r="CI1" s="191"/>
+      <c r="CJ1" s="191"/>
+      <c r="CK1" s="191"/>
+      <c r="CL1" s="191"/>
+      <c r="CM1" s="191"/>
+      <c r="CN1" s="191"/>
+      <c r="CO1" s="191"/>
+      <c r="CP1" s="191"/>
+      <c r="CQ1" s="191"/>
+      <c r="CR1" s="191"/>
+      <c r="CS1" s="191"/>
+      <c r="CT1" s="191"/>
+      <c r="CU1" s="191"/>
+      <c r="CV1" s="191"/>
+      <c r="CW1" s="191"/>
+      <c r="CX1" s="191"/>
+      <c r="CY1" s="191"/>
+      <c r="CZ1" s="191"/>
+      <c r="DA1" s="191"/>
+      <c r="DB1" s="191"/>
+      <c r="DC1" s="191"/>
+      <c r="DD1" s="191"/>
+      <c r="DE1" s="191"/>
+      <c r="DF1" s="191"/>
+      <c r="DG1" s="191"/>
+      <c r="DH1" s="191"/>
+      <c r="DI1" s="191"/>
+      <c r="DJ1" s="191"/>
+      <c r="DK1" s="191"/>
+      <c r="DL1" s="191"/>
+      <c r="DM1" s="191"/>
+      <c r="DN1" s="191"/>
+      <c r="DO1" s="191"/>
+      <c r="DP1" s="191"/>
+      <c r="DQ1" s="191"/>
+      <c r="DR1" s="191"/>
+      <c r="DS1" s="191"/>
+      <c r="DT1" s="191"/>
+      <c r="DU1" s="191"/>
+      <c r="DV1" s="191"/>
+      <c r="DW1" s="191"/>
+      <c r="DX1" s="191"/>
+      <c r="DY1" s="191"/>
+      <c r="DZ1" s="191"/>
+      <c r="EA1" s="191"/>
+      <c r="EB1" s="191"/>
+      <c r="EC1" s="191"/>
+      <c r="ED1" s="191"/>
+      <c r="EE1" s="191"/>
+      <c r="EF1" s="191"/>
+      <c r="EG1" s="191"/>
+      <c r="EH1" s="191"/>
+      <c r="EI1" s="191"/>
+      <c r="EJ1" s="191"/>
+      <c r="EK1" s="191"/>
+      <c r="EL1" s="191"/>
+      <c r="EM1" s="191"/>
+      <c r="EN1" s="191"/>
+      <c r="EO1" s="191"/>
+      <c r="EP1" s="191"/>
+      <c r="EQ1" s="191"/>
+      <c r="ER1" s="191"/>
+      <c r="ES1" s="191"/>
+      <c r="ET1" s="191"/>
+      <c r="EU1" s="191"/>
+      <c r="EV1" s="191"/>
+      <c r="EW1" s="191"/>
+      <c r="EX1" s="191"/>
+      <c r="EY1" s="191"/>
+      <c r="EZ1" s="191"/>
+      <c r="FA1" s="191"/>
+      <c r="FB1" s="191"/>
+      <c r="FC1" s="191"/>
+      <c r="FD1" s="191"/>
+      <c r="FE1" s="191"/>
+      <c r="FF1" s="191"/>
+      <c r="FG1" s="191"/>
+      <c r="FH1" s="191"/>
+      <c r="FI1" s="191"/>
+      <c r="FJ1" s="191"/>
+      <c r="FK1" s="191"/>
+      <c r="FL1" s="191"/>
+      <c r="FM1" s="191"/>
+      <c r="FN1" s="191"/>
+      <c r="FO1" s="191"/>
+      <c r="FP1" s="191"/>
+      <c r="FQ1" s="191"/>
+      <c r="FR1" s="191"/>
+      <c r="FS1" s="191"/>
+      <c r="FT1" s="191"/>
+      <c r="FU1" s="191"/>
+      <c r="FV1" s="191"/>
+      <c r="FW1" s="191"/>
+      <c r="FX1" s="191"/>
+      <c r="FY1" s="191"/>
+      <c r="FZ1" s="191"/>
+      <c r="GA1" s="191"/>
+      <c r="GB1" s="191"/>
+      <c r="GC1" s="191"/>
+      <c r="GD1" s="191"/>
+      <c r="GE1" s="191"/>
+      <c r="GF1" s="191"/>
+      <c r="GG1" s="191"/>
+      <c r="GH1" s="191"/>
+      <c r="GI1" s="191"/>
+      <c r="GJ1" s="191"/>
+      <c r="GK1" s="191"/>
+      <c r="GL1" s="191"/>
+      <c r="GM1" s="191"/>
+      <c r="GN1" s="191"/>
+      <c r="GO1" s="191"/>
+      <c r="GP1" s="191"/>
+      <c r="GQ1" s="191"/>
+      <c r="GR1" s="191"/>
+      <c r="GS1" s="191"/>
+      <c r="GT1" s="191"/>
+      <c r="GU1" s="191"/>
+      <c r="GV1" s="191"/>
+      <c r="GW1" s="191"/>
+      <c r="GX1" s="191"/>
+      <c r="GY1" s="191"/>
+      <c r="GZ1" s="191"/>
+      <c r="HA1" s="191"/>
+      <c r="HB1" s="191"/>
+      <c r="HC1" s="191"/>
+      <c r="HD1" s="191"/>
+      <c r="HE1" s="191"/>
+      <c r="HF1" s="191"/>
+      <c r="HG1" s="191"/>
+      <c r="HH1" s="191"/>
+      <c r="HI1" s="191"/>
+      <c r="HJ1" s="191"/>
+      <c r="HK1" s="191"/>
+      <c r="HL1" s="191"/>
+      <c r="HM1" s="191"/>
+      <c r="HN1" s="191"/>
+      <c r="HO1" s="191"/>
+      <c r="HP1" s="191"/>
+      <c r="HQ1" s="191"/>
+      <c r="HR1" s="191"/>
+      <c r="HS1" s="191"/>
+      <c r="HT1" s="191"/>
+      <c r="HU1" s="191"/>
+      <c r="HV1" s="191"/>
+      <c r="HW1" s="191"/>
+      <c r="HX1" s="191"/>
+      <c r="HY1" s="191"/>
+      <c r="HZ1" s="191"/>
+      <c r="IA1" s="191"/>
+      <c r="IB1" s="191"/>
+      <c r="IC1" s="191"/>
+      <c r="ID1" s="191"/>
+      <c r="IE1" s="191"/>
+      <c r="IF1" s="191"/>
+      <c r="IG1" s="191"/>
+      <c r="IH1" s="191"/>
+      <c r="II1" s="191"/>
+      <c r="IJ1" s="191"/>
+      <c r="IK1" s="191"/>
+      <c r="IL1" s="191"/>
+      <c r="IM1" s="191"/>
+      <c r="IN1" s="191"/>
+      <c r="IO1" s="191"/>
+      <c r="IP1" s="191"/>
+      <c r="IQ1" s="191"/>
+      <c r="IR1" s="191"/>
+      <c r="IS1" s="191"/>
+      <c r="IT1" s="191"/>
+      <c r="IU1" s="191"/>
+      <c r="IV1" s="191"/>
     </row>
     <row r="2" spans="1:256" ht="15.75" thickBot="1">
-      <c r="A2" s="186" t="str">
+      <c r="A2" s="194" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
       </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="194"/>
     </row>
     <row r="3" spans="1:256" ht="15" customHeight="1">
-      <c r="A3" s="187" t="str">
+      <c r="A3" s="195" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
       </c>
-      <c r="B3" s="189" t="str">
+      <c r="B3" s="197" t="str">
         <f>'Сводная таблица'!B3:B4</f>
         <v>группа</v>
       </c>
-      <c r="C3" s="191" t="str">
+      <c r="C3" s="199" t="str">
         <f>'Сводная таблица'!C3:C4</f>
         <v>подргуппа</v>
       </c>
-      <c r="D3" s="193" t="str">
+      <c r="D3" s="201" t="str">
         <f>'Сводная таблица'!D3:D4</f>
         <v>Фамилия</v>
       </c>
-      <c r="E3" s="195" t="str">
+      <c r="E3" s="203" t="str">
         <f>'Сводная таблица'!E3:E4</f>
         <v>Имя</v>
       </c>
-      <c r="F3" s="184" t="str">
+      <c r="F3" s="192" t="str">
         <f>'Сводная таблица'!F3:F4</f>
         <v>Отчество</v>
       </c>
-      <c r="G3" s="187" t="s">
+      <c r="G3" s="195" t="s">
         <v>113</v>
       </c>
-      <c r="H3" s="193" t="s">
+      <c r="H3" s="201" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="200" t="s">
+      <c r="I3" s="208" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="200" t="s">
+      <c r="J3" s="208" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="197" t="s">
+      <c r="K3" s="205" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:256" ht="15.75" thickBot="1">
-      <c r="A4" s="188"/>
-      <c r="B4" s="190"/>
-      <c r="C4" s="192"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="196"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="188"/>
-      <c r="H4" s="194"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="202"/>
-      <c r="K4" s="203"/>
+      <c r="A4" s="196"/>
+      <c r="B4" s="198"/>
+      <c r="C4" s="200"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="204"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="196"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="210"/>
+      <c r="J4" s="210"/>
+      <c r="K4" s="211"/>
     </row>
     <row r="5" spans="1:256" s="54" customFormat="1">
       <c r="A5" s="62">
@@ -68130,334 +68130,334 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="191" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="183"/>
-      <c r="O1" s="183"/>
-      <c r="P1" s="183"/>
-      <c r="Q1" s="183"/>
-      <c r="R1" s="183"/>
-      <c r="S1" s="183"/>
-      <c r="T1" s="183"/>
-      <c r="U1" s="183"/>
-      <c r="V1" s="183"/>
-      <c r="W1" s="183"/>
-      <c r="X1" s="183"/>
-      <c r="Y1" s="183"/>
-      <c r="Z1" s="183"/>
-      <c r="AA1" s="183"/>
-      <c r="AB1" s="183"/>
-      <c r="AC1" s="183"/>
-      <c r="AD1" s="183"/>
-      <c r="AE1" s="183"/>
-      <c r="AF1" s="183"/>
-      <c r="AG1" s="183"/>
-      <c r="AH1" s="183"/>
-      <c r="AI1" s="183"/>
-      <c r="AJ1" s="183"/>
-      <c r="AK1" s="183"/>
-      <c r="AL1" s="183"/>
-      <c r="AM1" s="183"/>
-      <c r="AN1" s="183"/>
-      <c r="AO1" s="183"/>
-      <c r="AP1" s="183"/>
-      <c r="AQ1" s="183"/>
-      <c r="AR1" s="183"/>
-      <c r="AS1" s="183"/>
-      <c r="AT1" s="183"/>
-      <c r="AU1" s="183"/>
-      <c r="AV1" s="183"/>
-      <c r="AW1" s="183"/>
-      <c r="AX1" s="183"/>
-      <c r="AY1" s="183"/>
-      <c r="AZ1" s="183"/>
-      <c r="BA1" s="183"/>
-      <c r="BB1" s="183"/>
-      <c r="BC1" s="183"/>
-      <c r="BD1" s="183"/>
-      <c r="BE1" s="183"/>
-      <c r="BF1" s="183"/>
-      <c r="BG1" s="183"/>
-      <c r="BH1" s="183"/>
-      <c r="BI1" s="183"/>
-      <c r="BJ1" s="183"/>
-      <c r="BK1" s="183"/>
-      <c r="BL1" s="183"/>
-      <c r="BM1" s="183"/>
-      <c r="BN1" s="183"/>
-      <c r="BO1" s="183"/>
-      <c r="BP1" s="183"/>
-      <c r="BQ1" s="183"/>
-      <c r="BR1" s="183"/>
-      <c r="BS1" s="183"/>
-      <c r="BT1" s="183"/>
-      <c r="BU1" s="183"/>
-      <c r="BV1" s="183"/>
-      <c r="BW1" s="183"/>
-      <c r="BX1" s="183"/>
-      <c r="BY1" s="183"/>
-      <c r="BZ1" s="183"/>
-      <c r="CA1" s="183"/>
-      <c r="CB1" s="183"/>
-      <c r="CC1" s="183"/>
-      <c r="CD1" s="183"/>
-      <c r="CE1" s="183"/>
-      <c r="CF1" s="183"/>
-      <c r="CG1" s="183"/>
-      <c r="CH1" s="183"/>
-      <c r="CI1" s="183"/>
-      <c r="CJ1" s="183"/>
-      <c r="CK1" s="183"/>
-      <c r="CL1" s="183"/>
-      <c r="CM1" s="183"/>
-      <c r="CN1" s="183"/>
-      <c r="CO1" s="183"/>
-      <c r="CP1" s="183"/>
-      <c r="CQ1" s="183"/>
-      <c r="CR1" s="183"/>
-      <c r="CS1" s="183"/>
-      <c r="CT1" s="183"/>
-      <c r="CU1" s="183"/>
-      <c r="CV1" s="183"/>
-      <c r="CW1" s="183"/>
-      <c r="CX1" s="183"/>
-      <c r="CY1" s="183"/>
-      <c r="CZ1" s="183"/>
-      <c r="DA1" s="183"/>
-      <c r="DB1" s="183"/>
-      <c r="DC1" s="183"/>
-      <c r="DD1" s="183"/>
-      <c r="DE1" s="183"/>
-      <c r="DF1" s="183"/>
-      <c r="DG1" s="183"/>
-      <c r="DH1" s="183"/>
-      <c r="DI1" s="183"/>
-      <c r="DJ1" s="183"/>
-      <c r="DK1" s="183"/>
-      <c r="DL1" s="183"/>
-      <c r="DM1" s="183"/>
-      <c r="DN1" s="183"/>
-      <c r="DO1" s="183"/>
-      <c r="DP1" s="183"/>
-      <c r="DQ1" s="183"/>
-      <c r="DR1" s="183"/>
-      <c r="DS1" s="183"/>
-      <c r="DT1" s="183"/>
-      <c r="DU1" s="183"/>
-      <c r="DV1" s="183"/>
-      <c r="DW1" s="183"/>
-      <c r="DX1" s="183"/>
-      <c r="DY1" s="183"/>
-      <c r="DZ1" s="183"/>
-      <c r="EA1" s="183"/>
-      <c r="EB1" s="183"/>
-      <c r="EC1" s="183"/>
-      <c r="ED1" s="183"/>
-      <c r="EE1" s="183"/>
-      <c r="EF1" s="183"/>
-      <c r="EG1" s="183"/>
-      <c r="EH1" s="183"/>
-      <c r="EI1" s="183"/>
-      <c r="EJ1" s="183"/>
-      <c r="EK1" s="183"/>
-      <c r="EL1" s="183"/>
-      <c r="EM1" s="183"/>
-      <c r="EN1" s="183"/>
-      <c r="EO1" s="183"/>
-      <c r="EP1" s="183"/>
-      <c r="EQ1" s="183"/>
-      <c r="ER1" s="183"/>
-      <c r="ES1" s="183"/>
-      <c r="ET1" s="183"/>
-      <c r="EU1" s="183"/>
-      <c r="EV1" s="183"/>
-      <c r="EW1" s="183"/>
-      <c r="EX1" s="183"/>
-      <c r="EY1" s="183"/>
-      <c r="EZ1" s="183"/>
-      <c r="FA1" s="183"/>
-      <c r="FB1" s="183"/>
-      <c r="FC1" s="183"/>
-      <c r="FD1" s="183"/>
-      <c r="FE1" s="183"/>
-      <c r="FF1" s="183"/>
-      <c r="FG1" s="183"/>
-      <c r="FH1" s="183"/>
-      <c r="FI1" s="183"/>
-      <c r="FJ1" s="183"/>
-      <c r="FK1" s="183"/>
-      <c r="FL1" s="183"/>
-      <c r="FM1" s="183"/>
-      <c r="FN1" s="183"/>
-      <c r="FO1" s="183"/>
-      <c r="FP1" s="183"/>
-      <c r="FQ1" s="183"/>
-      <c r="FR1" s="183"/>
-      <c r="FS1" s="183"/>
-      <c r="FT1" s="183"/>
-      <c r="FU1" s="183"/>
-      <c r="FV1" s="183"/>
-      <c r="FW1" s="183"/>
-      <c r="FX1" s="183"/>
-      <c r="FY1" s="183"/>
-      <c r="FZ1" s="183"/>
-      <c r="GA1" s="183"/>
-      <c r="GB1" s="183"/>
-      <c r="GC1" s="183"/>
-      <c r="GD1" s="183"/>
-      <c r="GE1" s="183"/>
-      <c r="GF1" s="183"/>
-      <c r="GG1" s="183"/>
-      <c r="GH1" s="183"/>
-      <c r="GI1" s="183"/>
-      <c r="GJ1" s="183"/>
-      <c r="GK1" s="183"/>
-      <c r="GL1" s="183"/>
-      <c r="GM1" s="183"/>
-      <c r="GN1" s="183"/>
-      <c r="GO1" s="183"/>
-      <c r="GP1" s="183"/>
-      <c r="GQ1" s="183"/>
-      <c r="GR1" s="183"/>
-      <c r="GS1" s="183"/>
-      <c r="GT1" s="183"/>
-      <c r="GU1" s="183"/>
-      <c r="GV1" s="183"/>
-      <c r="GW1" s="183"/>
-      <c r="GX1" s="183"/>
-      <c r="GY1" s="183"/>
-      <c r="GZ1" s="183"/>
-      <c r="HA1" s="183"/>
-      <c r="HB1" s="183"/>
-      <c r="HC1" s="183"/>
-      <c r="HD1" s="183"/>
-      <c r="HE1" s="183"/>
-      <c r="HF1" s="183"/>
-      <c r="HG1" s="183"/>
-      <c r="HH1" s="183"/>
-      <c r="HI1" s="183"/>
-      <c r="HJ1" s="183"/>
-      <c r="HK1" s="183"/>
-      <c r="HL1" s="183"/>
-      <c r="HM1" s="183"/>
-      <c r="HN1" s="183"/>
-      <c r="HO1" s="183"/>
-      <c r="HP1" s="183"/>
-      <c r="HQ1" s="183"/>
-      <c r="HR1" s="183"/>
-      <c r="HS1" s="183"/>
-      <c r="HT1" s="183"/>
-      <c r="HU1" s="183"/>
-      <c r="HV1" s="183"/>
-      <c r="HW1" s="183"/>
-      <c r="HX1" s="183"/>
-      <c r="HY1" s="183"/>
-      <c r="HZ1" s="183"/>
-      <c r="IA1" s="183"/>
-      <c r="IB1" s="183"/>
-      <c r="IC1" s="183"/>
-      <c r="ID1" s="183"/>
-      <c r="IE1" s="183"/>
-      <c r="IF1" s="183"/>
-      <c r="IG1" s="183"/>
-      <c r="IH1" s="183"/>
-      <c r="II1" s="183"/>
-      <c r="IJ1" s="183"/>
-      <c r="IK1" s="183"/>
-      <c r="IL1" s="183"/>
-      <c r="IM1" s="183"/>
-      <c r="IN1" s="183"/>
-      <c r="IO1" s="183"/>
-      <c r="IP1" s="183"/>
-      <c r="IQ1" s="183"/>
-      <c r="IR1" s="183"/>
-      <c r="IS1" s="183"/>
-      <c r="IT1" s="183"/>
-      <c r="IU1" s="183"/>
-      <c r="IV1" s="183"/>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="191"/>
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="191"/>
+      <c r="S1" s="191"/>
+      <c r="T1" s="191"/>
+      <c r="U1" s="191"/>
+      <c r="V1" s="191"/>
+      <c r="W1" s="191"/>
+      <c r="X1" s="191"/>
+      <c r="Y1" s="191"/>
+      <c r="Z1" s="191"/>
+      <c r="AA1" s="191"/>
+      <c r="AB1" s="191"/>
+      <c r="AC1" s="191"/>
+      <c r="AD1" s="191"/>
+      <c r="AE1" s="191"/>
+      <c r="AF1" s="191"/>
+      <c r="AG1" s="191"/>
+      <c r="AH1" s="191"/>
+      <c r="AI1" s="191"/>
+      <c r="AJ1" s="191"/>
+      <c r="AK1" s="191"/>
+      <c r="AL1" s="191"/>
+      <c r="AM1" s="191"/>
+      <c r="AN1" s="191"/>
+      <c r="AO1" s="191"/>
+      <c r="AP1" s="191"/>
+      <c r="AQ1" s="191"/>
+      <c r="AR1" s="191"/>
+      <c r="AS1" s="191"/>
+      <c r="AT1" s="191"/>
+      <c r="AU1" s="191"/>
+      <c r="AV1" s="191"/>
+      <c r="AW1" s="191"/>
+      <c r="AX1" s="191"/>
+      <c r="AY1" s="191"/>
+      <c r="AZ1" s="191"/>
+      <c r="BA1" s="191"/>
+      <c r="BB1" s="191"/>
+      <c r="BC1" s="191"/>
+      <c r="BD1" s="191"/>
+      <c r="BE1" s="191"/>
+      <c r="BF1" s="191"/>
+      <c r="BG1" s="191"/>
+      <c r="BH1" s="191"/>
+      <c r="BI1" s="191"/>
+      <c r="BJ1" s="191"/>
+      <c r="BK1" s="191"/>
+      <c r="BL1" s="191"/>
+      <c r="BM1" s="191"/>
+      <c r="BN1" s="191"/>
+      <c r="BO1" s="191"/>
+      <c r="BP1" s="191"/>
+      <c r="BQ1" s="191"/>
+      <c r="BR1" s="191"/>
+      <c r="BS1" s="191"/>
+      <c r="BT1" s="191"/>
+      <c r="BU1" s="191"/>
+      <c r="BV1" s="191"/>
+      <c r="BW1" s="191"/>
+      <c r="BX1" s="191"/>
+      <c r="BY1" s="191"/>
+      <c r="BZ1" s="191"/>
+      <c r="CA1" s="191"/>
+      <c r="CB1" s="191"/>
+      <c r="CC1" s="191"/>
+      <c r="CD1" s="191"/>
+      <c r="CE1" s="191"/>
+      <c r="CF1" s="191"/>
+      <c r="CG1" s="191"/>
+      <c r="CH1" s="191"/>
+      <c r="CI1" s="191"/>
+      <c r="CJ1" s="191"/>
+      <c r="CK1" s="191"/>
+      <c r="CL1" s="191"/>
+      <c r="CM1" s="191"/>
+      <c r="CN1" s="191"/>
+      <c r="CO1" s="191"/>
+      <c r="CP1" s="191"/>
+      <c r="CQ1" s="191"/>
+      <c r="CR1" s="191"/>
+      <c r="CS1" s="191"/>
+      <c r="CT1" s="191"/>
+      <c r="CU1" s="191"/>
+      <c r="CV1" s="191"/>
+      <c r="CW1" s="191"/>
+      <c r="CX1" s="191"/>
+      <c r="CY1" s="191"/>
+      <c r="CZ1" s="191"/>
+      <c r="DA1" s="191"/>
+      <c r="DB1" s="191"/>
+      <c r="DC1" s="191"/>
+      <c r="DD1" s="191"/>
+      <c r="DE1" s="191"/>
+      <c r="DF1" s="191"/>
+      <c r="DG1" s="191"/>
+      <c r="DH1" s="191"/>
+      <c r="DI1" s="191"/>
+      <c r="DJ1" s="191"/>
+      <c r="DK1" s="191"/>
+      <c r="DL1" s="191"/>
+      <c r="DM1" s="191"/>
+      <c r="DN1" s="191"/>
+      <c r="DO1" s="191"/>
+      <c r="DP1" s="191"/>
+      <c r="DQ1" s="191"/>
+      <c r="DR1" s="191"/>
+      <c r="DS1" s="191"/>
+      <c r="DT1" s="191"/>
+      <c r="DU1" s="191"/>
+      <c r="DV1" s="191"/>
+      <c r="DW1" s="191"/>
+      <c r="DX1" s="191"/>
+      <c r="DY1" s="191"/>
+      <c r="DZ1" s="191"/>
+      <c r="EA1" s="191"/>
+      <c r="EB1" s="191"/>
+      <c r="EC1" s="191"/>
+      <c r="ED1" s="191"/>
+      <c r="EE1" s="191"/>
+      <c r="EF1" s="191"/>
+      <c r="EG1" s="191"/>
+      <c r="EH1" s="191"/>
+      <c r="EI1" s="191"/>
+      <c r="EJ1" s="191"/>
+      <c r="EK1" s="191"/>
+      <c r="EL1" s="191"/>
+      <c r="EM1" s="191"/>
+      <c r="EN1" s="191"/>
+      <c r="EO1" s="191"/>
+      <c r="EP1" s="191"/>
+      <c r="EQ1" s="191"/>
+      <c r="ER1" s="191"/>
+      <c r="ES1" s="191"/>
+      <c r="ET1" s="191"/>
+      <c r="EU1" s="191"/>
+      <c r="EV1" s="191"/>
+      <c r="EW1" s="191"/>
+      <c r="EX1" s="191"/>
+      <c r="EY1" s="191"/>
+      <c r="EZ1" s="191"/>
+      <c r="FA1" s="191"/>
+      <c r="FB1" s="191"/>
+      <c r="FC1" s="191"/>
+      <c r="FD1" s="191"/>
+      <c r="FE1" s="191"/>
+      <c r="FF1" s="191"/>
+      <c r="FG1" s="191"/>
+      <c r="FH1" s="191"/>
+      <c r="FI1" s="191"/>
+      <c r="FJ1" s="191"/>
+      <c r="FK1" s="191"/>
+      <c r="FL1" s="191"/>
+      <c r="FM1" s="191"/>
+      <c r="FN1" s="191"/>
+      <c r="FO1" s="191"/>
+      <c r="FP1" s="191"/>
+      <c r="FQ1" s="191"/>
+      <c r="FR1" s="191"/>
+      <c r="FS1" s="191"/>
+      <c r="FT1" s="191"/>
+      <c r="FU1" s="191"/>
+      <c r="FV1" s="191"/>
+      <c r="FW1" s="191"/>
+      <c r="FX1" s="191"/>
+      <c r="FY1" s="191"/>
+      <c r="FZ1" s="191"/>
+      <c r="GA1" s="191"/>
+      <c r="GB1" s="191"/>
+      <c r="GC1" s="191"/>
+      <c r="GD1" s="191"/>
+      <c r="GE1" s="191"/>
+      <c r="GF1" s="191"/>
+      <c r="GG1" s="191"/>
+      <c r="GH1" s="191"/>
+      <c r="GI1" s="191"/>
+      <c r="GJ1" s="191"/>
+      <c r="GK1" s="191"/>
+      <c r="GL1" s="191"/>
+      <c r="GM1" s="191"/>
+      <c r="GN1" s="191"/>
+      <c r="GO1" s="191"/>
+      <c r="GP1" s="191"/>
+      <c r="GQ1" s="191"/>
+      <c r="GR1" s="191"/>
+      <c r="GS1" s="191"/>
+      <c r="GT1" s="191"/>
+      <c r="GU1" s="191"/>
+      <c r="GV1" s="191"/>
+      <c r="GW1" s="191"/>
+      <c r="GX1" s="191"/>
+      <c r="GY1" s="191"/>
+      <c r="GZ1" s="191"/>
+      <c r="HA1" s="191"/>
+      <c r="HB1" s="191"/>
+      <c r="HC1" s="191"/>
+      <c r="HD1" s="191"/>
+      <c r="HE1" s="191"/>
+      <c r="HF1" s="191"/>
+      <c r="HG1" s="191"/>
+      <c r="HH1" s="191"/>
+      <c r="HI1" s="191"/>
+      <c r="HJ1" s="191"/>
+      <c r="HK1" s="191"/>
+      <c r="HL1" s="191"/>
+      <c r="HM1" s="191"/>
+      <c r="HN1" s="191"/>
+      <c r="HO1" s="191"/>
+      <c r="HP1" s="191"/>
+      <c r="HQ1" s="191"/>
+      <c r="HR1" s="191"/>
+      <c r="HS1" s="191"/>
+      <c r="HT1" s="191"/>
+      <c r="HU1" s="191"/>
+      <c r="HV1" s="191"/>
+      <c r="HW1" s="191"/>
+      <c r="HX1" s="191"/>
+      <c r="HY1" s="191"/>
+      <c r="HZ1" s="191"/>
+      <c r="IA1" s="191"/>
+      <c r="IB1" s="191"/>
+      <c r="IC1" s="191"/>
+      <c r="ID1" s="191"/>
+      <c r="IE1" s="191"/>
+      <c r="IF1" s="191"/>
+      <c r="IG1" s="191"/>
+      <c r="IH1" s="191"/>
+      <c r="II1" s="191"/>
+      <c r="IJ1" s="191"/>
+      <c r="IK1" s="191"/>
+      <c r="IL1" s="191"/>
+      <c r="IM1" s="191"/>
+      <c r="IN1" s="191"/>
+      <c r="IO1" s="191"/>
+      <c r="IP1" s="191"/>
+      <c r="IQ1" s="191"/>
+      <c r="IR1" s="191"/>
+      <c r="IS1" s="191"/>
+      <c r="IT1" s="191"/>
+      <c r="IU1" s="191"/>
+      <c r="IV1" s="191"/>
     </row>
     <row r="2" spans="1:256" ht="15.75" thickBot="1">
-      <c r="A2" s="186" t="str">
+      <c r="A2" s="194" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
       </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="194"/>
     </row>
     <row r="3" spans="1:256" ht="15" customHeight="1">
-      <c r="A3" s="187" t="str">
+      <c r="A3" s="195" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
       </c>
-      <c r="B3" s="189" t="str">
+      <c r="B3" s="197" t="str">
         <f>'Сводная таблица'!B3:B4</f>
         <v>группа</v>
       </c>
-      <c r="C3" s="191" t="str">
+      <c r="C3" s="199" t="str">
         <f>'Сводная таблица'!C3:C4</f>
         <v>подргуппа</v>
       </c>
-      <c r="D3" s="193" t="str">
+      <c r="D3" s="201" t="str">
         <f>'Сводная таблица'!D3:D4</f>
         <v>Фамилия</v>
       </c>
-      <c r="E3" s="195" t="str">
+      <c r="E3" s="203" t="str">
         <f>'Сводная таблица'!E3:E4</f>
         <v>Имя</v>
       </c>
-      <c r="F3" s="184" t="str">
+      <c r="F3" s="192" t="str">
         <f>'Сводная таблица'!F3:F4</f>
         <v>Отчество</v>
       </c>
-      <c r="G3" s="187" t="s">
+      <c r="G3" s="195" t="s">
         <v>113</v>
       </c>
-      <c r="H3" s="193" t="s">
+      <c r="H3" s="201" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="200" t="s">
+      <c r="I3" s="208" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="200" t="s">
+      <c r="J3" s="208" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="197" t="s">
+      <c r="K3" s="205" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:256" ht="15.75" thickBot="1">
-      <c r="A4" s="188"/>
-      <c r="B4" s="190"/>
-      <c r="C4" s="192"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="196"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="188"/>
-      <c r="H4" s="194"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="202"/>
-      <c r="K4" s="203"/>
+      <c r="A4" s="196"/>
+      <c r="B4" s="198"/>
+      <c r="C4" s="200"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="204"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="196"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="210"/>
+      <c r="J4" s="210"/>
+      <c r="K4" s="211"/>
     </row>
     <row r="5" spans="1:256" s="54" customFormat="1">
       <c r="A5" s="62">
@@ -69978,334 +69978,334 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="191" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="183"/>
-      <c r="O1" s="183"/>
-      <c r="P1" s="183"/>
-      <c r="Q1" s="183"/>
-      <c r="R1" s="183"/>
-      <c r="S1" s="183"/>
-      <c r="T1" s="183"/>
-      <c r="U1" s="183"/>
-      <c r="V1" s="183"/>
-      <c r="W1" s="183"/>
-      <c r="X1" s="183"/>
-      <c r="Y1" s="183"/>
-      <c r="Z1" s="183"/>
-      <c r="AA1" s="183"/>
-      <c r="AB1" s="183"/>
-      <c r="AC1" s="183"/>
-      <c r="AD1" s="183"/>
-      <c r="AE1" s="183"/>
-      <c r="AF1" s="183"/>
-      <c r="AG1" s="183"/>
-      <c r="AH1" s="183"/>
-      <c r="AI1" s="183"/>
-      <c r="AJ1" s="183"/>
-      <c r="AK1" s="183"/>
-      <c r="AL1" s="183"/>
-      <c r="AM1" s="183"/>
-      <c r="AN1" s="183"/>
-      <c r="AO1" s="183"/>
-      <c r="AP1" s="183"/>
-      <c r="AQ1" s="183"/>
-      <c r="AR1" s="183"/>
-      <c r="AS1" s="183"/>
-      <c r="AT1" s="183"/>
-      <c r="AU1" s="183"/>
-      <c r="AV1" s="183"/>
-      <c r="AW1" s="183"/>
-      <c r="AX1" s="183"/>
-      <c r="AY1" s="183"/>
-      <c r="AZ1" s="183"/>
-      <c r="BA1" s="183"/>
-      <c r="BB1" s="183"/>
-      <c r="BC1" s="183"/>
-      <c r="BD1" s="183"/>
-      <c r="BE1" s="183"/>
-      <c r="BF1" s="183"/>
-      <c r="BG1" s="183"/>
-      <c r="BH1" s="183"/>
-      <c r="BI1" s="183"/>
-      <c r="BJ1" s="183"/>
-      <c r="BK1" s="183"/>
-      <c r="BL1" s="183"/>
-      <c r="BM1" s="183"/>
-      <c r="BN1" s="183"/>
-      <c r="BO1" s="183"/>
-      <c r="BP1" s="183"/>
-      <c r="BQ1" s="183"/>
-      <c r="BR1" s="183"/>
-      <c r="BS1" s="183"/>
-      <c r="BT1" s="183"/>
-      <c r="BU1" s="183"/>
-      <c r="BV1" s="183"/>
-      <c r="BW1" s="183"/>
-      <c r="BX1" s="183"/>
-      <c r="BY1" s="183"/>
-      <c r="BZ1" s="183"/>
-      <c r="CA1" s="183"/>
-      <c r="CB1" s="183"/>
-      <c r="CC1" s="183"/>
-      <c r="CD1" s="183"/>
-      <c r="CE1" s="183"/>
-      <c r="CF1" s="183"/>
-      <c r="CG1" s="183"/>
-      <c r="CH1" s="183"/>
-      <c r="CI1" s="183"/>
-      <c r="CJ1" s="183"/>
-      <c r="CK1" s="183"/>
-      <c r="CL1" s="183"/>
-      <c r="CM1" s="183"/>
-      <c r="CN1" s="183"/>
-      <c r="CO1" s="183"/>
-      <c r="CP1" s="183"/>
-      <c r="CQ1" s="183"/>
-      <c r="CR1" s="183"/>
-      <c r="CS1" s="183"/>
-      <c r="CT1" s="183"/>
-      <c r="CU1" s="183"/>
-      <c r="CV1" s="183"/>
-      <c r="CW1" s="183"/>
-      <c r="CX1" s="183"/>
-      <c r="CY1" s="183"/>
-      <c r="CZ1" s="183"/>
-      <c r="DA1" s="183"/>
-      <c r="DB1" s="183"/>
-      <c r="DC1" s="183"/>
-      <c r="DD1" s="183"/>
-      <c r="DE1" s="183"/>
-      <c r="DF1" s="183"/>
-      <c r="DG1" s="183"/>
-      <c r="DH1" s="183"/>
-      <c r="DI1" s="183"/>
-      <c r="DJ1" s="183"/>
-      <c r="DK1" s="183"/>
-      <c r="DL1" s="183"/>
-      <c r="DM1" s="183"/>
-      <c r="DN1" s="183"/>
-      <c r="DO1" s="183"/>
-      <c r="DP1" s="183"/>
-      <c r="DQ1" s="183"/>
-      <c r="DR1" s="183"/>
-      <c r="DS1" s="183"/>
-      <c r="DT1" s="183"/>
-      <c r="DU1" s="183"/>
-      <c r="DV1" s="183"/>
-      <c r="DW1" s="183"/>
-      <c r="DX1" s="183"/>
-      <c r="DY1" s="183"/>
-      <c r="DZ1" s="183"/>
-      <c r="EA1" s="183"/>
-      <c r="EB1" s="183"/>
-      <c r="EC1" s="183"/>
-      <c r="ED1" s="183"/>
-      <c r="EE1" s="183"/>
-      <c r="EF1" s="183"/>
-      <c r="EG1" s="183"/>
-      <c r="EH1" s="183"/>
-      <c r="EI1" s="183"/>
-      <c r="EJ1" s="183"/>
-      <c r="EK1" s="183"/>
-      <c r="EL1" s="183"/>
-      <c r="EM1" s="183"/>
-      <c r="EN1" s="183"/>
-      <c r="EO1" s="183"/>
-      <c r="EP1" s="183"/>
-      <c r="EQ1" s="183"/>
-      <c r="ER1" s="183"/>
-      <c r="ES1" s="183"/>
-      <c r="ET1" s="183"/>
-      <c r="EU1" s="183"/>
-      <c r="EV1" s="183"/>
-      <c r="EW1" s="183"/>
-      <c r="EX1" s="183"/>
-      <c r="EY1" s="183"/>
-      <c r="EZ1" s="183"/>
-      <c r="FA1" s="183"/>
-      <c r="FB1" s="183"/>
-      <c r="FC1" s="183"/>
-      <c r="FD1" s="183"/>
-      <c r="FE1" s="183"/>
-      <c r="FF1" s="183"/>
-      <c r="FG1" s="183"/>
-      <c r="FH1" s="183"/>
-      <c r="FI1" s="183"/>
-      <c r="FJ1" s="183"/>
-      <c r="FK1" s="183"/>
-      <c r="FL1" s="183"/>
-      <c r="FM1" s="183"/>
-      <c r="FN1" s="183"/>
-      <c r="FO1" s="183"/>
-      <c r="FP1" s="183"/>
-      <c r="FQ1" s="183"/>
-      <c r="FR1" s="183"/>
-      <c r="FS1" s="183"/>
-      <c r="FT1" s="183"/>
-      <c r="FU1" s="183"/>
-      <c r="FV1" s="183"/>
-      <c r="FW1" s="183"/>
-      <c r="FX1" s="183"/>
-      <c r="FY1" s="183"/>
-      <c r="FZ1" s="183"/>
-      <c r="GA1" s="183"/>
-      <c r="GB1" s="183"/>
-      <c r="GC1" s="183"/>
-      <c r="GD1" s="183"/>
-      <c r="GE1" s="183"/>
-      <c r="GF1" s="183"/>
-      <c r="GG1" s="183"/>
-      <c r="GH1" s="183"/>
-      <c r="GI1" s="183"/>
-      <c r="GJ1" s="183"/>
-      <c r="GK1" s="183"/>
-      <c r="GL1" s="183"/>
-      <c r="GM1" s="183"/>
-      <c r="GN1" s="183"/>
-      <c r="GO1" s="183"/>
-      <c r="GP1" s="183"/>
-      <c r="GQ1" s="183"/>
-      <c r="GR1" s="183"/>
-      <c r="GS1" s="183"/>
-      <c r="GT1" s="183"/>
-      <c r="GU1" s="183"/>
-      <c r="GV1" s="183"/>
-      <c r="GW1" s="183"/>
-      <c r="GX1" s="183"/>
-      <c r="GY1" s="183"/>
-      <c r="GZ1" s="183"/>
-      <c r="HA1" s="183"/>
-      <c r="HB1" s="183"/>
-      <c r="HC1" s="183"/>
-      <c r="HD1" s="183"/>
-      <c r="HE1" s="183"/>
-      <c r="HF1" s="183"/>
-      <c r="HG1" s="183"/>
-      <c r="HH1" s="183"/>
-      <c r="HI1" s="183"/>
-      <c r="HJ1" s="183"/>
-      <c r="HK1" s="183"/>
-      <c r="HL1" s="183"/>
-      <c r="HM1" s="183"/>
-      <c r="HN1" s="183"/>
-      <c r="HO1" s="183"/>
-      <c r="HP1" s="183"/>
-      <c r="HQ1" s="183"/>
-      <c r="HR1" s="183"/>
-      <c r="HS1" s="183"/>
-      <c r="HT1" s="183"/>
-      <c r="HU1" s="183"/>
-      <c r="HV1" s="183"/>
-      <c r="HW1" s="183"/>
-      <c r="HX1" s="183"/>
-      <c r="HY1" s="183"/>
-      <c r="HZ1" s="183"/>
-      <c r="IA1" s="183"/>
-      <c r="IB1" s="183"/>
-      <c r="IC1" s="183"/>
-      <c r="ID1" s="183"/>
-      <c r="IE1" s="183"/>
-      <c r="IF1" s="183"/>
-      <c r="IG1" s="183"/>
-      <c r="IH1" s="183"/>
-      <c r="II1" s="183"/>
-      <c r="IJ1" s="183"/>
-      <c r="IK1" s="183"/>
-      <c r="IL1" s="183"/>
-      <c r="IM1" s="183"/>
-      <c r="IN1" s="183"/>
-      <c r="IO1" s="183"/>
-      <c r="IP1" s="183"/>
-      <c r="IQ1" s="183"/>
-      <c r="IR1" s="183"/>
-      <c r="IS1" s="183"/>
-      <c r="IT1" s="183"/>
-      <c r="IU1" s="183"/>
-      <c r="IV1" s="183"/>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="191"/>
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="191"/>
+      <c r="S1" s="191"/>
+      <c r="T1" s="191"/>
+      <c r="U1" s="191"/>
+      <c r="V1" s="191"/>
+      <c r="W1" s="191"/>
+      <c r="X1" s="191"/>
+      <c r="Y1" s="191"/>
+      <c r="Z1" s="191"/>
+      <c r="AA1" s="191"/>
+      <c r="AB1" s="191"/>
+      <c r="AC1" s="191"/>
+      <c r="AD1" s="191"/>
+      <c r="AE1" s="191"/>
+      <c r="AF1" s="191"/>
+      <c r="AG1" s="191"/>
+      <c r="AH1" s="191"/>
+      <c r="AI1" s="191"/>
+      <c r="AJ1" s="191"/>
+      <c r="AK1" s="191"/>
+      <c r="AL1" s="191"/>
+      <c r="AM1" s="191"/>
+      <c r="AN1" s="191"/>
+      <c r="AO1" s="191"/>
+      <c r="AP1" s="191"/>
+      <c r="AQ1" s="191"/>
+      <c r="AR1" s="191"/>
+      <c r="AS1" s="191"/>
+      <c r="AT1" s="191"/>
+      <c r="AU1" s="191"/>
+      <c r="AV1" s="191"/>
+      <c r="AW1" s="191"/>
+      <c r="AX1" s="191"/>
+      <c r="AY1" s="191"/>
+      <c r="AZ1" s="191"/>
+      <c r="BA1" s="191"/>
+      <c r="BB1" s="191"/>
+      <c r="BC1" s="191"/>
+      <c r="BD1" s="191"/>
+      <c r="BE1" s="191"/>
+      <c r="BF1" s="191"/>
+      <c r="BG1" s="191"/>
+      <c r="BH1" s="191"/>
+      <c r="BI1" s="191"/>
+      <c r="BJ1" s="191"/>
+      <c r="BK1" s="191"/>
+      <c r="BL1" s="191"/>
+      <c r="BM1" s="191"/>
+      <c r="BN1" s="191"/>
+      <c r="BO1" s="191"/>
+      <c r="BP1" s="191"/>
+      <c r="BQ1" s="191"/>
+      <c r="BR1" s="191"/>
+      <c r="BS1" s="191"/>
+      <c r="BT1" s="191"/>
+      <c r="BU1" s="191"/>
+      <c r="BV1" s="191"/>
+      <c r="BW1" s="191"/>
+      <c r="BX1" s="191"/>
+      <c r="BY1" s="191"/>
+      <c r="BZ1" s="191"/>
+      <c r="CA1" s="191"/>
+      <c r="CB1" s="191"/>
+      <c r="CC1" s="191"/>
+      <c r="CD1" s="191"/>
+      <c r="CE1" s="191"/>
+      <c r="CF1" s="191"/>
+      <c r="CG1" s="191"/>
+      <c r="CH1" s="191"/>
+      <c r="CI1" s="191"/>
+      <c r="CJ1" s="191"/>
+      <c r="CK1" s="191"/>
+      <c r="CL1" s="191"/>
+      <c r="CM1" s="191"/>
+      <c r="CN1" s="191"/>
+      <c r="CO1" s="191"/>
+      <c r="CP1" s="191"/>
+      <c r="CQ1" s="191"/>
+      <c r="CR1" s="191"/>
+      <c r="CS1" s="191"/>
+      <c r="CT1" s="191"/>
+      <c r="CU1" s="191"/>
+      <c r="CV1" s="191"/>
+      <c r="CW1" s="191"/>
+      <c r="CX1" s="191"/>
+      <c r="CY1" s="191"/>
+      <c r="CZ1" s="191"/>
+      <c r="DA1" s="191"/>
+      <c r="DB1" s="191"/>
+      <c r="DC1" s="191"/>
+      <c r="DD1" s="191"/>
+      <c r="DE1" s="191"/>
+      <c r="DF1" s="191"/>
+      <c r="DG1" s="191"/>
+      <c r="DH1" s="191"/>
+      <c r="DI1" s="191"/>
+      <c r="DJ1" s="191"/>
+      <c r="DK1" s="191"/>
+      <c r="DL1" s="191"/>
+      <c r="DM1" s="191"/>
+      <c r="DN1" s="191"/>
+      <c r="DO1" s="191"/>
+      <c r="DP1" s="191"/>
+      <c r="DQ1" s="191"/>
+      <c r="DR1" s="191"/>
+      <c r="DS1" s="191"/>
+      <c r="DT1" s="191"/>
+      <c r="DU1" s="191"/>
+      <c r="DV1" s="191"/>
+      <c r="DW1" s="191"/>
+      <c r="DX1" s="191"/>
+      <c r="DY1" s="191"/>
+      <c r="DZ1" s="191"/>
+      <c r="EA1" s="191"/>
+      <c r="EB1" s="191"/>
+      <c r="EC1" s="191"/>
+      <c r="ED1" s="191"/>
+      <c r="EE1" s="191"/>
+      <c r="EF1" s="191"/>
+      <c r="EG1" s="191"/>
+      <c r="EH1" s="191"/>
+      <c r="EI1" s="191"/>
+      <c r="EJ1" s="191"/>
+      <c r="EK1" s="191"/>
+      <c r="EL1" s="191"/>
+      <c r="EM1" s="191"/>
+      <c r="EN1" s="191"/>
+      <c r="EO1" s="191"/>
+      <c r="EP1" s="191"/>
+      <c r="EQ1" s="191"/>
+      <c r="ER1" s="191"/>
+      <c r="ES1" s="191"/>
+      <c r="ET1" s="191"/>
+      <c r="EU1" s="191"/>
+      <c r="EV1" s="191"/>
+      <c r="EW1" s="191"/>
+      <c r="EX1" s="191"/>
+      <c r="EY1" s="191"/>
+      <c r="EZ1" s="191"/>
+      <c r="FA1" s="191"/>
+      <c r="FB1" s="191"/>
+      <c r="FC1" s="191"/>
+      <c r="FD1" s="191"/>
+      <c r="FE1" s="191"/>
+      <c r="FF1" s="191"/>
+      <c r="FG1" s="191"/>
+      <c r="FH1" s="191"/>
+      <c r="FI1" s="191"/>
+      <c r="FJ1" s="191"/>
+      <c r="FK1" s="191"/>
+      <c r="FL1" s="191"/>
+      <c r="FM1" s="191"/>
+      <c r="FN1" s="191"/>
+      <c r="FO1" s="191"/>
+      <c r="FP1" s="191"/>
+      <c r="FQ1" s="191"/>
+      <c r="FR1" s="191"/>
+      <c r="FS1" s="191"/>
+      <c r="FT1" s="191"/>
+      <c r="FU1" s="191"/>
+      <c r="FV1" s="191"/>
+      <c r="FW1" s="191"/>
+      <c r="FX1" s="191"/>
+      <c r="FY1" s="191"/>
+      <c r="FZ1" s="191"/>
+      <c r="GA1" s="191"/>
+      <c r="GB1" s="191"/>
+      <c r="GC1" s="191"/>
+      <c r="GD1" s="191"/>
+      <c r="GE1" s="191"/>
+      <c r="GF1" s="191"/>
+      <c r="GG1" s="191"/>
+      <c r="GH1" s="191"/>
+      <c r="GI1" s="191"/>
+      <c r="GJ1" s="191"/>
+      <c r="GK1" s="191"/>
+      <c r="GL1" s="191"/>
+      <c r="GM1" s="191"/>
+      <c r="GN1" s="191"/>
+      <c r="GO1" s="191"/>
+      <c r="GP1" s="191"/>
+      <c r="GQ1" s="191"/>
+      <c r="GR1" s="191"/>
+      <c r="GS1" s="191"/>
+      <c r="GT1" s="191"/>
+      <c r="GU1" s="191"/>
+      <c r="GV1" s="191"/>
+      <c r="GW1" s="191"/>
+      <c r="GX1" s="191"/>
+      <c r="GY1" s="191"/>
+      <c r="GZ1" s="191"/>
+      <c r="HA1" s="191"/>
+      <c r="HB1" s="191"/>
+      <c r="HC1" s="191"/>
+      <c r="HD1" s="191"/>
+      <c r="HE1" s="191"/>
+      <c r="HF1" s="191"/>
+      <c r="HG1" s="191"/>
+      <c r="HH1" s="191"/>
+      <c r="HI1" s="191"/>
+      <c r="HJ1" s="191"/>
+      <c r="HK1" s="191"/>
+      <c r="HL1" s="191"/>
+      <c r="HM1" s="191"/>
+      <c r="HN1" s="191"/>
+      <c r="HO1" s="191"/>
+      <c r="HP1" s="191"/>
+      <c r="HQ1" s="191"/>
+      <c r="HR1" s="191"/>
+      <c r="HS1" s="191"/>
+      <c r="HT1" s="191"/>
+      <c r="HU1" s="191"/>
+      <c r="HV1" s="191"/>
+      <c r="HW1" s="191"/>
+      <c r="HX1" s="191"/>
+      <c r="HY1" s="191"/>
+      <c r="HZ1" s="191"/>
+      <c r="IA1" s="191"/>
+      <c r="IB1" s="191"/>
+      <c r="IC1" s="191"/>
+      <c r="ID1" s="191"/>
+      <c r="IE1" s="191"/>
+      <c r="IF1" s="191"/>
+      <c r="IG1" s="191"/>
+      <c r="IH1" s="191"/>
+      <c r="II1" s="191"/>
+      <c r="IJ1" s="191"/>
+      <c r="IK1" s="191"/>
+      <c r="IL1" s="191"/>
+      <c r="IM1" s="191"/>
+      <c r="IN1" s="191"/>
+      <c r="IO1" s="191"/>
+      <c r="IP1" s="191"/>
+      <c r="IQ1" s="191"/>
+      <c r="IR1" s="191"/>
+      <c r="IS1" s="191"/>
+      <c r="IT1" s="191"/>
+      <c r="IU1" s="191"/>
+      <c r="IV1" s="191"/>
     </row>
     <row r="2" spans="1:256" ht="15.75" thickBot="1">
-      <c r="A2" s="186" t="str">
+      <c r="A2" s="194" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
       </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="194"/>
     </row>
     <row r="3" spans="1:256" ht="15" customHeight="1">
-      <c r="A3" s="187" t="str">
+      <c r="A3" s="195" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
       </c>
-      <c r="B3" s="189" t="str">
+      <c r="B3" s="197" t="str">
         <f>'Сводная таблица'!B3:B4</f>
         <v>группа</v>
       </c>
-      <c r="C3" s="191" t="str">
+      <c r="C3" s="199" t="str">
         <f>'Сводная таблица'!C3:C4</f>
         <v>подргуппа</v>
       </c>
-      <c r="D3" s="193" t="str">
+      <c r="D3" s="201" t="str">
         <f>'Сводная таблица'!D3:D4</f>
         <v>Фамилия</v>
       </c>
-      <c r="E3" s="195" t="str">
+      <c r="E3" s="203" t="str">
         <f>'Сводная таблица'!E3:E4</f>
         <v>Имя</v>
       </c>
-      <c r="F3" s="184" t="str">
+      <c r="F3" s="192" t="str">
         <f>'Сводная таблица'!F3:F4</f>
         <v>Отчество</v>
       </c>
-      <c r="G3" s="187" t="s">
+      <c r="G3" s="195" t="s">
         <v>113</v>
       </c>
-      <c r="H3" s="193" t="s">
+      <c r="H3" s="201" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="200" t="s">
+      <c r="I3" s="208" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="200" t="s">
+      <c r="J3" s="208" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="197" t="s">
+      <c r="K3" s="205" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:256" ht="15.75" thickBot="1">
-      <c r="A4" s="188"/>
-      <c r="B4" s="190"/>
-      <c r="C4" s="192"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="196"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="188"/>
-      <c r="H4" s="194"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="202"/>
-      <c r="K4" s="203"/>
+      <c r="A4" s="196"/>
+      <c r="B4" s="198"/>
+      <c r="C4" s="200"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="204"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="196"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="210"/>
+      <c r="J4" s="210"/>
+      <c r="K4" s="211"/>
     </row>
     <row r="5" spans="1:256" s="54" customFormat="1">
       <c r="A5" s="62">
@@ -71826,334 +71826,334 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="191" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="183"/>
-      <c r="O1" s="183"/>
-      <c r="P1" s="183"/>
-      <c r="Q1" s="183"/>
-      <c r="R1" s="183"/>
-      <c r="S1" s="183"/>
-      <c r="T1" s="183"/>
-      <c r="U1" s="183"/>
-      <c r="V1" s="183"/>
-      <c r="W1" s="183"/>
-      <c r="X1" s="183"/>
-      <c r="Y1" s="183"/>
-      <c r="Z1" s="183"/>
-      <c r="AA1" s="183"/>
-      <c r="AB1" s="183"/>
-      <c r="AC1" s="183"/>
-      <c r="AD1" s="183"/>
-      <c r="AE1" s="183"/>
-      <c r="AF1" s="183"/>
-      <c r="AG1" s="183"/>
-      <c r="AH1" s="183"/>
-      <c r="AI1" s="183"/>
-      <c r="AJ1" s="183"/>
-      <c r="AK1" s="183"/>
-      <c r="AL1" s="183"/>
-      <c r="AM1" s="183"/>
-      <c r="AN1" s="183"/>
-      <c r="AO1" s="183"/>
-      <c r="AP1" s="183"/>
-      <c r="AQ1" s="183"/>
-      <c r="AR1" s="183"/>
-      <c r="AS1" s="183"/>
-      <c r="AT1" s="183"/>
-      <c r="AU1" s="183"/>
-      <c r="AV1" s="183"/>
-      <c r="AW1" s="183"/>
-      <c r="AX1" s="183"/>
-      <c r="AY1" s="183"/>
-      <c r="AZ1" s="183"/>
-      <c r="BA1" s="183"/>
-      <c r="BB1" s="183"/>
-      <c r="BC1" s="183"/>
-      <c r="BD1" s="183"/>
-      <c r="BE1" s="183"/>
-      <c r="BF1" s="183"/>
-      <c r="BG1" s="183"/>
-      <c r="BH1" s="183"/>
-      <c r="BI1" s="183"/>
-      <c r="BJ1" s="183"/>
-      <c r="BK1" s="183"/>
-      <c r="BL1" s="183"/>
-      <c r="BM1" s="183"/>
-      <c r="BN1" s="183"/>
-      <c r="BO1" s="183"/>
-      <c r="BP1" s="183"/>
-      <c r="BQ1" s="183"/>
-      <c r="BR1" s="183"/>
-      <c r="BS1" s="183"/>
-      <c r="BT1" s="183"/>
-      <c r="BU1" s="183"/>
-      <c r="BV1" s="183"/>
-      <c r="BW1" s="183"/>
-      <c r="BX1" s="183"/>
-      <c r="BY1" s="183"/>
-      <c r="BZ1" s="183"/>
-      <c r="CA1" s="183"/>
-      <c r="CB1" s="183"/>
-      <c r="CC1" s="183"/>
-      <c r="CD1" s="183"/>
-      <c r="CE1" s="183"/>
-      <c r="CF1" s="183"/>
-      <c r="CG1" s="183"/>
-      <c r="CH1" s="183"/>
-      <c r="CI1" s="183"/>
-      <c r="CJ1" s="183"/>
-      <c r="CK1" s="183"/>
-      <c r="CL1" s="183"/>
-      <c r="CM1" s="183"/>
-      <c r="CN1" s="183"/>
-      <c r="CO1" s="183"/>
-      <c r="CP1" s="183"/>
-      <c r="CQ1" s="183"/>
-      <c r="CR1" s="183"/>
-      <c r="CS1" s="183"/>
-      <c r="CT1" s="183"/>
-      <c r="CU1" s="183"/>
-      <c r="CV1" s="183"/>
-      <c r="CW1" s="183"/>
-      <c r="CX1" s="183"/>
-      <c r="CY1" s="183"/>
-      <c r="CZ1" s="183"/>
-      <c r="DA1" s="183"/>
-      <c r="DB1" s="183"/>
-      <c r="DC1" s="183"/>
-      <c r="DD1" s="183"/>
-      <c r="DE1" s="183"/>
-      <c r="DF1" s="183"/>
-      <c r="DG1" s="183"/>
-      <c r="DH1" s="183"/>
-      <c r="DI1" s="183"/>
-      <c r="DJ1" s="183"/>
-      <c r="DK1" s="183"/>
-      <c r="DL1" s="183"/>
-      <c r="DM1" s="183"/>
-      <c r="DN1" s="183"/>
-      <c r="DO1" s="183"/>
-      <c r="DP1" s="183"/>
-      <c r="DQ1" s="183"/>
-      <c r="DR1" s="183"/>
-      <c r="DS1" s="183"/>
-      <c r="DT1" s="183"/>
-      <c r="DU1" s="183"/>
-      <c r="DV1" s="183"/>
-      <c r="DW1" s="183"/>
-      <c r="DX1" s="183"/>
-      <c r="DY1" s="183"/>
-      <c r="DZ1" s="183"/>
-      <c r="EA1" s="183"/>
-      <c r="EB1" s="183"/>
-      <c r="EC1" s="183"/>
-      <c r="ED1" s="183"/>
-      <c r="EE1" s="183"/>
-      <c r="EF1" s="183"/>
-      <c r="EG1" s="183"/>
-      <c r="EH1" s="183"/>
-      <c r="EI1" s="183"/>
-      <c r="EJ1" s="183"/>
-      <c r="EK1" s="183"/>
-      <c r="EL1" s="183"/>
-      <c r="EM1" s="183"/>
-      <c r="EN1" s="183"/>
-      <c r="EO1" s="183"/>
-      <c r="EP1" s="183"/>
-      <c r="EQ1" s="183"/>
-      <c r="ER1" s="183"/>
-      <c r="ES1" s="183"/>
-      <c r="ET1" s="183"/>
-      <c r="EU1" s="183"/>
-      <c r="EV1" s="183"/>
-      <c r="EW1" s="183"/>
-      <c r="EX1" s="183"/>
-      <c r="EY1" s="183"/>
-      <c r="EZ1" s="183"/>
-      <c r="FA1" s="183"/>
-      <c r="FB1" s="183"/>
-      <c r="FC1" s="183"/>
-      <c r="FD1" s="183"/>
-      <c r="FE1" s="183"/>
-      <c r="FF1" s="183"/>
-      <c r="FG1" s="183"/>
-      <c r="FH1" s="183"/>
-      <c r="FI1" s="183"/>
-      <c r="FJ1" s="183"/>
-      <c r="FK1" s="183"/>
-      <c r="FL1" s="183"/>
-      <c r="FM1" s="183"/>
-      <c r="FN1" s="183"/>
-      <c r="FO1" s="183"/>
-      <c r="FP1" s="183"/>
-      <c r="FQ1" s="183"/>
-      <c r="FR1" s="183"/>
-      <c r="FS1" s="183"/>
-      <c r="FT1" s="183"/>
-      <c r="FU1" s="183"/>
-      <c r="FV1" s="183"/>
-      <c r="FW1" s="183"/>
-      <c r="FX1" s="183"/>
-      <c r="FY1" s="183"/>
-      <c r="FZ1" s="183"/>
-      <c r="GA1" s="183"/>
-      <c r="GB1" s="183"/>
-      <c r="GC1" s="183"/>
-      <c r="GD1" s="183"/>
-      <c r="GE1" s="183"/>
-      <c r="GF1" s="183"/>
-      <c r="GG1" s="183"/>
-      <c r="GH1" s="183"/>
-      <c r="GI1" s="183"/>
-      <c r="GJ1" s="183"/>
-      <c r="GK1" s="183"/>
-      <c r="GL1" s="183"/>
-      <c r="GM1" s="183"/>
-      <c r="GN1" s="183"/>
-      <c r="GO1" s="183"/>
-      <c r="GP1" s="183"/>
-      <c r="GQ1" s="183"/>
-      <c r="GR1" s="183"/>
-      <c r="GS1" s="183"/>
-      <c r="GT1" s="183"/>
-      <c r="GU1" s="183"/>
-      <c r="GV1" s="183"/>
-      <c r="GW1" s="183"/>
-      <c r="GX1" s="183"/>
-      <c r="GY1" s="183"/>
-      <c r="GZ1" s="183"/>
-      <c r="HA1" s="183"/>
-      <c r="HB1" s="183"/>
-      <c r="HC1" s="183"/>
-      <c r="HD1" s="183"/>
-      <c r="HE1" s="183"/>
-      <c r="HF1" s="183"/>
-      <c r="HG1" s="183"/>
-      <c r="HH1" s="183"/>
-      <c r="HI1" s="183"/>
-      <c r="HJ1" s="183"/>
-      <c r="HK1" s="183"/>
-      <c r="HL1" s="183"/>
-      <c r="HM1" s="183"/>
-      <c r="HN1" s="183"/>
-      <c r="HO1" s="183"/>
-      <c r="HP1" s="183"/>
-      <c r="HQ1" s="183"/>
-      <c r="HR1" s="183"/>
-      <c r="HS1" s="183"/>
-      <c r="HT1" s="183"/>
-      <c r="HU1" s="183"/>
-      <c r="HV1" s="183"/>
-      <c r="HW1" s="183"/>
-      <c r="HX1" s="183"/>
-      <c r="HY1" s="183"/>
-      <c r="HZ1" s="183"/>
-      <c r="IA1" s="183"/>
-      <c r="IB1" s="183"/>
-      <c r="IC1" s="183"/>
-      <c r="ID1" s="183"/>
-      <c r="IE1" s="183"/>
-      <c r="IF1" s="183"/>
-      <c r="IG1" s="183"/>
-      <c r="IH1" s="183"/>
-      <c r="II1" s="183"/>
-      <c r="IJ1" s="183"/>
-      <c r="IK1" s="183"/>
-      <c r="IL1" s="183"/>
-      <c r="IM1" s="183"/>
-      <c r="IN1" s="183"/>
-      <c r="IO1" s="183"/>
-      <c r="IP1" s="183"/>
-      <c r="IQ1" s="183"/>
-      <c r="IR1" s="183"/>
-      <c r="IS1" s="183"/>
-      <c r="IT1" s="183"/>
-      <c r="IU1" s="183"/>
-      <c r="IV1" s="183"/>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="191"/>
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="191"/>
+      <c r="S1" s="191"/>
+      <c r="T1" s="191"/>
+      <c r="U1" s="191"/>
+      <c r="V1" s="191"/>
+      <c r="W1" s="191"/>
+      <c r="X1" s="191"/>
+      <c r="Y1" s="191"/>
+      <c r="Z1" s="191"/>
+      <c r="AA1" s="191"/>
+      <c r="AB1" s="191"/>
+      <c r="AC1" s="191"/>
+      <c r="AD1" s="191"/>
+      <c r="AE1" s="191"/>
+      <c r="AF1" s="191"/>
+      <c r="AG1" s="191"/>
+      <c r="AH1" s="191"/>
+      <c r="AI1" s="191"/>
+      <c r="AJ1" s="191"/>
+      <c r="AK1" s="191"/>
+      <c r="AL1" s="191"/>
+      <c r="AM1" s="191"/>
+      <c r="AN1" s="191"/>
+      <c r="AO1" s="191"/>
+      <c r="AP1" s="191"/>
+      <c r="AQ1" s="191"/>
+      <c r="AR1" s="191"/>
+      <c r="AS1" s="191"/>
+      <c r="AT1" s="191"/>
+      <c r="AU1" s="191"/>
+      <c r="AV1" s="191"/>
+      <c r="AW1" s="191"/>
+      <c r="AX1" s="191"/>
+      <c r="AY1" s="191"/>
+      <c r="AZ1" s="191"/>
+      <c r="BA1" s="191"/>
+      <c r="BB1" s="191"/>
+      <c r="BC1" s="191"/>
+      <c r="BD1" s="191"/>
+      <c r="BE1" s="191"/>
+      <c r="BF1" s="191"/>
+      <c r="BG1" s="191"/>
+      <c r="BH1" s="191"/>
+      <c r="BI1" s="191"/>
+      <c r="BJ1" s="191"/>
+      <c r="BK1" s="191"/>
+      <c r="BL1" s="191"/>
+      <c r="BM1" s="191"/>
+      <c r="BN1" s="191"/>
+      <c r="BO1" s="191"/>
+      <c r="BP1" s="191"/>
+      <c r="BQ1" s="191"/>
+      <c r="BR1" s="191"/>
+      <c r="BS1" s="191"/>
+      <c r="BT1" s="191"/>
+      <c r="BU1" s="191"/>
+      <c r="BV1" s="191"/>
+      <c r="BW1" s="191"/>
+      <c r="BX1" s="191"/>
+      <c r="BY1" s="191"/>
+      <c r="BZ1" s="191"/>
+      <c r="CA1" s="191"/>
+      <c r="CB1" s="191"/>
+      <c r="CC1" s="191"/>
+      <c r="CD1" s="191"/>
+      <c r="CE1" s="191"/>
+      <c r="CF1" s="191"/>
+      <c r="CG1" s="191"/>
+      <c r="CH1" s="191"/>
+      <c r="CI1" s="191"/>
+      <c r="CJ1" s="191"/>
+      <c r="CK1" s="191"/>
+      <c r="CL1" s="191"/>
+      <c r="CM1" s="191"/>
+      <c r="CN1" s="191"/>
+      <c r="CO1" s="191"/>
+      <c r="CP1" s="191"/>
+      <c r="CQ1" s="191"/>
+      <c r="CR1" s="191"/>
+      <c r="CS1" s="191"/>
+      <c r="CT1" s="191"/>
+      <c r="CU1" s="191"/>
+      <c r="CV1" s="191"/>
+      <c r="CW1" s="191"/>
+      <c r="CX1" s="191"/>
+      <c r="CY1" s="191"/>
+      <c r="CZ1" s="191"/>
+      <c r="DA1" s="191"/>
+      <c r="DB1" s="191"/>
+      <c r="DC1" s="191"/>
+      <c r="DD1" s="191"/>
+      <c r="DE1" s="191"/>
+      <c r="DF1" s="191"/>
+      <c r="DG1" s="191"/>
+      <c r="DH1" s="191"/>
+      <c r="DI1" s="191"/>
+      <c r="DJ1" s="191"/>
+      <c r="DK1" s="191"/>
+      <c r="DL1" s="191"/>
+      <c r="DM1" s="191"/>
+      <c r="DN1" s="191"/>
+      <c r="DO1" s="191"/>
+      <c r="DP1" s="191"/>
+      <c r="DQ1" s="191"/>
+      <c r="DR1" s="191"/>
+      <c r="DS1" s="191"/>
+      <c r="DT1" s="191"/>
+      <c r="DU1" s="191"/>
+      <c r="DV1" s="191"/>
+      <c r="DW1" s="191"/>
+      <c r="DX1" s="191"/>
+      <c r="DY1" s="191"/>
+      <c r="DZ1" s="191"/>
+      <c r="EA1" s="191"/>
+      <c r="EB1" s="191"/>
+      <c r="EC1" s="191"/>
+      <c r="ED1" s="191"/>
+      <c r="EE1" s="191"/>
+      <c r="EF1" s="191"/>
+      <c r="EG1" s="191"/>
+      <c r="EH1" s="191"/>
+      <c r="EI1" s="191"/>
+      <c r="EJ1" s="191"/>
+      <c r="EK1" s="191"/>
+      <c r="EL1" s="191"/>
+      <c r="EM1" s="191"/>
+      <c r="EN1" s="191"/>
+      <c r="EO1" s="191"/>
+      <c r="EP1" s="191"/>
+      <c r="EQ1" s="191"/>
+      <c r="ER1" s="191"/>
+      <c r="ES1" s="191"/>
+      <c r="ET1" s="191"/>
+      <c r="EU1" s="191"/>
+      <c r="EV1" s="191"/>
+      <c r="EW1" s="191"/>
+      <c r="EX1" s="191"/>
+      <c r="EY1" s="191"/>
+      <c r="EZ1" s="191"/>
+      <c r="FA1" s="191"/>
+      <c r="FB1" s="191"/>
+      <c r="FC1" s="191"/>
+      <c r="FD1" s="191"/>
+      <c r="FE1" s="191"/>
+      <c r="FF1" s="191"/>
+      <c r="FG1" s="191"/>
+      <c r="FH1" s="191"/>
+      <c r="FI1" s="191"/>
+      <c r="FJ1" s="191"/>
+      <c r="FK1" s="191"/>
+      <c r="FL1" s="191"/>
+      <c r="FM1" s="191"/>
+      <c r="FN1" s="191"/>
+      <c r="FO1" s="191"/>
+      <c r="FP1" s="191"/>
+      <c r="FQ1" s="191"/>
+      <c r="FR1" s="191"/>
+      <c r="FS1" s="191"/>
+      <c r="FT1" s="191"/>
+      <c r="FU1" s="191"/>
+      <c r="FV1" s="191"/>
+      <c r="FW1" s="191"/>
+      <c r="FX1" s="191"/>
+      <c r="FY1" s="191"/>
+      <c r="FZ1" s="191"/>
+      <c r="GA1" s="191"/>
+      <c r="GB1" s="191"/>
+      <c r="GC1" s="191"/>
+      <c r="GD1" s="191"/>
+      <c r="GE1" s="191"/>
+      <c r="GF1" s="191"/>
+      <c r="GG1" s="191"/>
+      <c r="GH1" s="191"/>
+      <c r="GI1" s="191"/>
+      <c r="GJ1" s="191"/>
+      <c r="GK1" s="191"/>
+      <c r="GL1" s="191"/>
+      <c r="GM1" s="191"/>
+      <c r="GN1" s="191"/>
+      <c r="GO1" s="191"/>
+      <c r="GP1" s="191"/>
+      <c r="GQ1" s="191"/>
+      <c r="GR1" s="191"/>
+      <c r="GS1" s="191"/>
+      <c r="GT1" s="191"/>
+      <c r="GU1" s="191"/>
+      <c r="GV1" s="191"/>
+      <c r="GW1" s="191"/>
+      <c r="GX1" s="191"/>
+      <c r="GY1" s="191"/>
+      <c r="GZ1" s="191"/>
+      <c r="HA1" s="191"/>
+      <c r="HB1" s="191"/>
+      <c r="HC1" s="191"/>
+      <c r="HD1" s="191"/>
+      <c r="HE1" s="191"/>
+      <c r="HF1" s="191"/>
+      <c r="HG1" s="191"/>
+      <c r="HH1" s="191"/>
+      <c r="HI1" s="191"/>
+      <c r="HJ1" s="191"/>
+      <c r="HK1" s="191"/>
+      <c r="HL1" s="191"/>
+      <c r="HM1" s="191"/>
+      <c r="HN1" s="191"/>
+      <c r="HO1" s="191"/>
+      <c r="HP1" s="191"/>
+      <c r="HQ1" s="191"/>
+      <c r="HR1" s="191"/>
+      <c r="HS1" s="191"/>
+      <c r="HT1" s="191"/>
+      <c r="HU1" s="191"/>
+      <c r="HV1" s="191"/>
+      <c r="HW1" s="191"/>
+      <c r="HX1" s="191"/>
+      <c r="HY1" s="191"/>
+      <c r="HZ1" s="191"/>
+      <c r="IA1" s="191"/>
+      <c r="IB1" s="191"/>
+      <c r="IC1" s="191"/>
+      <c r="ID1" s="191"/>
+      <c r="IE1" s="191"/>
+      <c r="IF1" s="191"/>
+      <c r="IG1" s="191"/>
+      <c r="IH1" s="191"/>
+      <c r="II1" s="191"/>
+      <c r="IJ1" s="191"/>
+      <c r="IK1" s="191"/>
+      <c r="IL1" s="191"/>
+      <c r="IM1" s="191"/>
+      <c r="IN1" s="191"/>
+      <c r="IO1" s="191"/>
+      <c r="IP1" s="191"/>
+      <c r="IQ1" s="191"/>
+      <c r="IR1" s="191"/>
+      <c r="IS1" s="191"/>
+      <c r="IT1" s="191"/>
+      <c r="IU1" s="191"/>
+      <c r="IV1" s="191"/>
     </row>
     <row r="2" spans="1:256" ht="15.75" thickBot="1">
-      <c r="A2" s="186" t="str">
+      <c r="A2" s="194" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
       </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="194"/>
     </row>
     <row r="3" spans="1:256" ht="15" customHeight="1">
-      <c r="A3" s="187" t="str">
+      <c r="A3" s="195" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
       </c>
-      <c r="B3" s="189" t="str">
+      <c r="B3" s="197" t="str">
         <f>'Сводная таблица'!B3:B4</f>
         <v>группа</v>
       </c>
-      <c r="C3" s="191" t="str">
+      <c r="C3" s="199" t="str">
         <f>'Сводная таблица'!C3:C4</f>
         <v>подргуппа</v>
       </c>
-      <c r="D3" s="193" t="str">
+      <c r="D3" s="201" t="str">
         <f>'Сводная таблица'!D3:D4</f>
         <v>Фамилия</v>
       </c>
-      <c r="E3" s="195" t="str">
+      <c r="E3" s="203" t="str">
         <f>'Сводная таблица'!E3:E4</f>
         <v>Имя</v>
       </c>
-      <c r="F3" s="184" t="str">
+      <c r="F3" s="192" t="str">
         <f>'Сводная таблица'!F3:F4</f>
         <v>Отчество</v>
       </c>
-      <c r="G3" s="187" t="s">
+      <c r="G3" s="195" t="s">
         <v>113</v>
       </c>
-      <c r="H3" s="193" t="s">
+      <c r="H3" s="201" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="200" t="s">
+      <c r="I3" s="208" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="200" t="s">
+      <c r="J3" s="208" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="197" t="s">
+      <c r="K3" s="205" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:256" ht="15.75" thickBot="1">
-      <c r="A4" s="188"/>
-      <c r="B4" s="190"/>
-      <c r="C4" s="192"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="196"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="188"/>
-      <c r="H4" s="194"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="202"/>
-      <c r="K4" s="203"/>
+      <c r="A4" s="196"/>
+      <c r="B4" s="198"/>
+      <c r="C4" s="200"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="204"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="196"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="210"/>
+      <c r="J4" s="210"/>
+      <c r="K4" s="211"/>
     </row>
     <row r="5" spans="1:256" s="54" customFormat="1">
       <c r="A5" s="62">
@@ -73674,334 +73674,334 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="191" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="183"/>
-      <c r="O1" s="183"/>
-      <c r="P1" s="183"/>
-      <c r="Q1" s="183"/>
-      <c r="R1" s="183"/>
-      <c r="S1" s="183"/>
-      <c r="T1" s="183"/>
-      <c r="U1" s="183"/>
-      <c r="V1" s="183"/>
-      <c r="W1" s="183"/>
-      <c r="X1" s="183"/>
-      <c r="Y1" s="183"/>
-      <c r="Z1" s="183"/>
-      <c r="AA1" s="183"/>
-      <c r="AB1" s="183"/>
-      <c r="AC1" s="183"/>
-      <c r="AD1" s="183"/>
-      <c r="AE1" s="183"/>
-      <c r="AF1" s="183"/>
-      <c r="AG1" s="183"/>
-      <c r="AH1" s="183"/>
-      <c r="AI1" s="183"/>
-      <c r="AJ1" s="183"/>
-      <c r="AK1" s="183"/>
-      <c r="AL1" s="183"/>
-      <c r="AM1" s="183"/>
-      <c r="AN1" s="183"/>
-      <c r="AO1" s="183"/>
-      <c r="AP1" s="183"/>
-      <c r="AQ1" s="183"/>
-      <c r="AR1" s="183"/>
-      <c r="AS1" s="183"/>
-      <c r="AT1" s="183"/>
-      <c r="AU1" s="183"/>
-      <c r="AV1" s="183"/>
-      <c r="AW1" s="183"/>
-      <c r="AX1" s="183"/>
-      <c r="AY1" s="183"/>
-      <c r="AZ1" s="183"/>
-      <c r="BA1" s="183"/>
-      <c r="BB1" s="183"/>
-      <c r="BC1" s="183"/>
-      <c r="BD1" s="183"/>
-      <c r="BE1" s="183"/>
-      <c r="BF1" s="183"/>
-      <c r="BG1" s="183"/>
-      <c r="BH1" s="183"/>
-      <c r="BI1" s="183"/>
-      <c r="BJ1" s="183"/>
-      <c r="BK1" s="183"/>
-      <c r="BL1" s="183"/>
-      <c r="BM1" s="183"/>
-      <c r="BN1" s="183"/>
-      <c r="BO1" s="183"/>
-      <c r="BP1" s="183"/>
-      <c r="BQ1" s="183"/>
-      <c r="BR1" s="183"/>
-      <c r="BS1" s="183"/>
-      <c r="BT1" s="183"/>
-      <c r="BU1" s="183"/>
-      <c r="BV1" s="183"/>
-      <c r="BW1" s="183"/>
-      <c r="BX1" s="183"/>
-      <c r="BY1" s="183"/>
-      <c r="BZ1" s="183"/>
-      <c r="CA1" s="183"/>
-      <c r="CB1" s="183"/>
-      <c r="CC1" s="183"/>
-      <c r="CD1" s="183"/>
-      <c r="CE1" s="183"/>
-      <c r="CF1" s="183"/>
-      <c r="CG1" s="183"/>
-      <c r="CH1" s="183"/>
-      <c r="CI1" s="183"/>
-      <c r="CJ1" s="183"/>
-      <c r="CK1" s="183"/>
-      <c r="CL1" s="183"/>
-      <c r="CM1" s="183"/>
-      <c r="CN1" s="183"/>
-      <c r="CO1" s="183"/>
-      <c r="CP1" s="183"/>
-      <c r="CQ1" s="183"/>
-      <c r="CR1" s="183"/>
-      <c r="CS1" s="183"/>
-      <c r="CT1" s="183"/>
-      <c r="CU1" s="183"/>
-      <c r="CV1" s="183"/>
-      <c r="CW1" s="183"/>
-      <c r="CX1" s="183"/>
-      <c r="CY1" s="183"/>
-      <c r="CZ1" s="183"/>
-      <c r="DA1" s="183"/>
-      <c r="DB1" s="183"/>
-      <c r="DC1" s="183"/>
-      <c r="DD1" s="183"/>
-      <c r="DE1" s="183"/>
-      <c r="DF1" s="183"/>
-      <c r="DG1" s="183"/>
-      <c r="DH1" s="183"/>
-      <c r="DI1" s="183"/>
-      <c r="DJ1" s="183"/>
-      <c r="DK1" s="183"/>
-      <c r="DL1" s="183"/>
-      <c r="DM1" s="183"/>
-      <c r="DN1" s="183"/>
-      <c r="DO1" s="183"/>
-      <c r="DP1" s="183"/>
-      <c r="DQ1" s="183"/>
-      <c r="DR1" s="183"/>
-      <c r="DS1" s="183"/>
-      <c r="DT1" s="183"/>
-      <c r="DU1" s="183"/>
-      <c r="DV1" s="183"/>
-      <c r="DW1" s="183"/>
-      <c r="DX1" s="183"/>
-      <c r="DY1" s="183"/>
-      <c r="DZ1" s="183"/>
-      <c r="EA1" s="183"/>
-      <c r="EB1" s="183"/>
-      <c r="EC1" s="183"/>
-      <c r="ED1" s="183"/>
-      <c r="EE1" s="183"/>
-      <c r="EF1" s="183"/>
-      <c r="EG1" s="183"/>
-      <c r="EH1" s="183"/>
-      <c r="EI1" s="183"/>
-      <c r="EJ1" s="183"/>
-      <c r="EK1" s="183"/>
-      <c r="EL1" s="183"/>
-      <c r="EM1" s="183"/>
-      <c r="EN1" s="183"/>
-      <c r="EO1" s="183"/>
-      <c r="EP1" s="183"/>
-      <c r="EQ1" s="183"/>
-      <c r="ER1" s="183"/>
-      <c r="ES1" s="183"/>
-      <c r="ET1" s="183"/>
-      <c r="EU1" s="183"/>
-      <c r="EV1" s="183"/>
-      <c r="EW1" s="183"/>
-      <c r="EX1" s="183"/>
-      <c r="EY1" s="183"/>
-      <c r="EZ1" s="183"/>
-      <c r="FA1" s="183"/>
-      <c r="FB1" s="183"/>
-      <c r="FC1" s="183"/>
-      <c r="FD1" s="183"/>
-      <c r="FE1" s="183"/>
-      <c r="FF1" s="183"/>
-      <c r="FG1" s="183"/>
-      <c r="FH1" s="183"/>
-      <c r="FI1" s="183"/>
-      <c r="FJ1" s="183"/>
-      <c r="FK1" s="183"/>
-      <c r="FL1" s="183"/>
-      <c r="FM1" s="183"/>
-      <c r="FN1" s="183"/>
-      <c r="FO1" s="183"/>
-      <c r="FP1" s="183"/>
-      <c r="FQ1" s="183"/>
-      <c r="FR1" s="183"/>
-      <c r="FS1" s="183"/>
-      <c r="FT1" s="183"/>
-      <c r="FU1" s="183"/>
-      <c r="FV1" s="183"/>
-      <c r="FW1" s="183"/>
-      <c r="FX1" s="183"/>
-      <c r="FY1" s="183"/>
-      <c r="FZ1" s="183"/>
-      <c r="GA1" s="183"/>
-      <c r="GB1" s="183"/>
-      <c r="GC1" s="183"/>
-      <c r="GD1" s="183"/>
-      <c r="GE1" s="183"/>
-      <c r="GF1" s="183"/>
-      <c r="GG1" s="183"/>
-      <c r="GH1" s="183"/>
-      <c r="GI1" s="183"/>
-      <c r="GJ1" s="183"/>
-      <c r="GK1" s="183"/>
-      <c r="GL1" s="183"/>
-      <c r="GM1" s="183"/>
-      <c r="GN1" s="183"/>
-      <c r="GO1" s="183"/>
-      <c r="GP1" s="183"/>
-      <c r="GQ1" s="183"/>
-      <c r="GR1" s="183"/>
-      <c r="GS1" s="183"/>
-      <c r="GT1" s="183"/>
-      <c r="GU1" s="183"/>
-      <c r="GV1" s="183"/>
-      <c r="GW1" s="183"/>
-      <c r="GX1" s="183"/>
-      <c r="GY1" s="183"/>
-      <c r="GZ1" s="183"/>
-      <c r="HA1" s="183"/>
-      <c r="HB1" s="183"/>
-      <c r="HC1" s="183"/>
-      <c r="HD1" s="183"/>
-      <c r="HE1" s="183"/>
-      <c r="HF1" s="183"/>
-      <c r="HG1" s="183"/>
-      <c r="HH1" s="183"/>
-      <c r="HI1" s="183"/>
-      <c r="HJ1" s="183"/>
-      <c r="HK1" s="183"/>
-      <c r="HL1" s="183"/>
-      <c r="HM1" s="183"/>
-      <c r="HN1" s="183"/>
-      <c r="HO1" s="183"/>
-      <c r="HP1" s="183"/>
-      <c r="HQ1" s="183"/>
-      <c r="HR1" s="183"/>
-      <c r="HS1" s="183"/>
-      <c r="HT1" s="183"/>
-      <c r="HU1" s="183"/>
-      <c r="HV1" s="183"/>
-      <c r="HW1" s="183"/>
-      <c r="HX1" s="183"/>
-      <c r="HY1" s="183"/>
-      <c r="HZ1" s="183"/>
-      <c r="IA1" s="183"/>
-      <c r="IB1" s="183"/>
-      <c r="IC1" s="183"/>
-      <c r="ID1" s="183"/>
-      <c r="IE1" s="183"/>
-      <c r="IF1" s="183"/>
-      <c r="IG1" s="183"/>
-      <c r="IH1" s="183"/>
-      <c r="II1" s="183"/>
-      <c r="IJ1" s="183"/>
-      <c r="IK1" s="183"/>
-      <c r="IL1" s="183"/>
-      <c r="IM1" s="183"/>
-      <c r="IN1" s="183"/>
-      <c r="IO1" s="183"/>
-      <c r="IP1" s="183"/>
-      <c r="IQ1" s="183"/>
-      <c r="IR1" s="183"/>
-      <c r="IS1" s="183"/>
-      <c r="IT1" s="183"/>
-      <c r="IU1" s="183"/>
-      <c r="IV1" s="183"/>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="191"/>
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="191"/>
+      <c r="S1" s="191"/>
+      <c r="T1" s="191"/>
+      <c r="U1" s="191"/>
+      <c r="V1" s="191"/>
+      <c r="W1" s="191"/>
+      <c r="X1" s="191"/>
+      <c r="Y1" s="191"/>
+      <c r="Z1" s="191"/>
+      <c r="AA1" s="191"/>
+      <c r="AB1" s="191"/>
+      <c r="AC1" s="191"/>
+      <c r="AD1" s="191"/>
+      <c r="AE1" s="191"/>
+      <c r="AF1" s="191"/>
+      <c r="AG1" s="191"/>
+      <c r="AH1" s="191"/>
+      <c r="AI1" s="191"/>
+      <c r="AJ1" s="191"/>
+      <c r="AK1" s="191"/>
+      <c r="AL1" s="191"/>
+      <c r="AM1" s="191"/>
+      <c r="AN1" s="191"/>
+      <c r="AO1" s="191"/>
+      <c r="AP1" s="191"/>
+      <c r="AQ1" s="191"/>
+      <c r="AR1" s="191"/>
+      <c r="AS1" s="191"/>
+      <c r="AT1" s="191"/>
+      <c r="AU1" s="191"/>
+      <c r="AV1" s="191"/>
+      <c r="AW1" s="191"/>
+      <c r="AX1" s="191"/>
+      <c r="AY1" s="191"/>
+      <c r="AZ1" s="191"/>
+      <c r="BA1" s="191"/>
+      <c r="BB1" s="191"/>
+      <c r="BC1" s="191"/>
+      <c r="BD1" s="191"/>
+      <c r="BE1" s="191"/>
+      <c r="BF1" s="191"/>
+      <c r="BG1" s="191"/>
+      <c r="BH1" s="191"/>
+      <c r="BI1" s="191"/>
+      <c r="BJ1" s="191"/>
+      <c r="BK1" s="191"/>
+      <c r="BL1" s="191"/>
+      <c r="BM1" s="191"/>
+      <c r="BN1" s="191"/>
+      <c r="BO1" s="191"/>
+      <c r="BP1" s="191"/>
+      <c r="BQ1" s="191"/>
+      <c r="BR1" s="191"/>
+      <c r="BS1" s="191"/>
+      <c r="BT1" s="191"/>
+      <c r="BU1" s="191"/>
+      <c r="BV1" s="191"/>
+      <c r="BW1" s="191"/>
+      <c r="BX1" s="191"/>
+      <c r="BY1" s="191"/>
+      <c r="BZ1" s="191"/>
+      <c r="CA1" s="191"/>
+      <c r="CB1" s="191"/>
+      <c r="CC1" s="191"/>
+      <c r="CD1" s="191"/>
+      <c r="CE1" s="191"/>
+      <c r="CF1" s="191"/>
+      <c r="CG1" s="191"/>
+      <c r="CH1" s="191"/>
+      <c r="CI1" s="191"/>
+      <c r="CJ1" s="191"/>
+      <c r="CK1" s="191"/>
+      <c r="CL1" s="191"/>
+      <c r="CM1" s="191"/>
+      <c r="CN1" s="191"/>
+      <c r="CO1" s="191"/>
+      <c r="CP1" s="191"/>
+      <c r="CQ1" s="191"/>
+      <c r="CR1" s="191"/>
+      <c r="CS1" s="191"/>
+      <c r="CT1" s="191"/>
+      <c r="CU1" s="191"/>
+      <c r="CV1" s="191"/>
+      <c r="CW1" s="191"/>
+      <c r="CX1" s="191"/>
+      <c r="CY1" s="191"/>
+      <c r="CZ1" s="191"/>
+      <c r="DA1" s="191"/>
+      <c r="DB1" s="191"/>
+      <c r="DC1" s="191"/>
+      <c r="DD1" s="191"/>
+      <c r="DE1" s="191"/>
+      <c r="DF1" s="191"/>
+      <c r="DG1" s="191"/>
+      <c r="DH1" s="191"/>
+      <c r="DI1" s="191"/>
+      <c r="DJ1" s="191"/>
+      <c r="DK1" s="191"/>
+      <c r="DL1" s="191"/>
+      <c r="DM1" s="191"/>
+      <c r="DN1" s="191"/>
+      <c r="DO1" s="191"/>
+      <c r="DP1" s="191"/>
+      <c r="DQ1" s="191"/>
+      <c r="DR1" s="191"/>
+      <c r="DS1" s="191"/>
+      <c r="DT1" s="191"/>
+      <c r="DU1" s="191"/>
+      <c r="DV1" s="191"/>
+      <c r="DW1" s="191"/>
+      <c r="DX1" s="191"/>
+      <c r="DY1" s="191"/>
+      <c r="DZ1" s="191"/>
+      <c r="EA1" s="191"/>
+      <c r="EB1" s="191"/>
+      <c r="EC1" s="191"/>
+      <c r="ED1" s="191"/>
+      <c r="EE1" s="191"/>
+      <c r="EF1" s="191"/>
+      <c r="EG1" s="191"/>
+      <c r="EH1" s="191"/>
+      <c r="EI1" s="191"/>
+      <c r="EJ1" s="191"/>
+      <c r="EK1" s="191"/>
+      <c r="EL1" s="191"/>
+      <c r="EM1" s="191"/>
+      <c r="EN1" s="191"/>
+      <c r="EO1" s="191"/>
+      <c r="EP1" s="191"/>
+      <c r="EQ1" s="191"/>
+      <c r="ER1" s="191"/>
+      <c r="ES1" s="191"/>
+      <c r="ET1" s="191"/>
+      <c r="EU1" s="191"/>
+      <c r="EV1" s="191"/>
+      <c r="EW1" s="191"/>
+      <c r="EX1" s="191"/>
+      <c r="EY1" s="191"/>
+      <c r="EZ1" s="191"/>
+      <c r="FA1" s="191"/>
+      <c r="FB1" s="191"/>
+      <c r="FC1" s="191"/>
+      <c r="FD1" s="191"/>
+      <c r="FE1" s="191"/>
+      <c r="FF1" s="191"/>
+      <c r="FG1" s="191"/>
+      <c r="FH1" s="191"/>
+      <c r="FI1" s="191"/>
+      <c r="FJ1" s="191"/>
+      <c r="FK1" s="191"/>
+      <c r="FL1" s="191"/>
+      <c r="FM1" s="191"/>
+      <c r="FN1" s="191"/>
+      <c r="FO1" s="191"/>
+      <c r="FP1" s="191"/>
+      <c r="FQ1" s="191"/>
+      <c r="FR1" s="191"/>
+      <c r="FS1" s="191"/>
+      <c r="FT1" s="191"/>
+      <c r="FU1" s="191"/>
+      <c r="FV1" s="191"/>
+      <c r="FW1" s="191"/>
+      <c r="FX1" s="191"/>
+      <c r="FY1" s="191"/>
+      <c r="FZ1" s="191"/>
+      <c r="GA1" s="191"/>
+      <c r="GB1" s="191"/>
+      <c r="GC1" s="191"/>
+      <c r="GD1" s="191"/>
+      <c r="GE1" s="191"/>
+      <c r="GF1" s="191"/>
+      <c r="GG1" s="191"/>
+      <c r="GH1" s="191"/>
+      <c r="GI1" s="191"/>
+      <c r="GJ1" s="191"/>
+      <c r="GK1" s="191"/>
+      <c r="GL1" s="191"/>
+      <c r="GM1" s="191"/>
+      <c r="GN1" s="191"/>
+      <c r="GO1" s="191"/>
+      <c r="GP1" s="191"/>
+      <c r="GQ1" s="191"/>
+      <c r="GR1" s="191"/>
+      <c r="GS1" s="191"/>
+      <c r="GT1" s="191"/>
+      <c r="GU1" s="191"/>
+      <c r="GV1" s="191"/>
+      <c r="GW1" s="191"/>
+      <c r="GX1" s="191"/>
+      <c r="GY1" s="191"/>
+      <c r="GZ1" s="191"/>
+      <c r="HA1" s="191"/>
+      <c r="HB1" s="191"/>
+      <c r="HC1" s="191"/>
+      <c r="HD1" s="191"/>
+      <c r="HE1" s="191"/>
+      <c r="HF1" s="191"/>
+      <c r="HG1" s="191"/>
+      <c r="HH1" s="191"/>
+      <c r="HI1" s="191"/>
+      <c r="HJ1" s="191"/>
+      <c r="HK1" s="191"/>
+      <c r="HL1" s="191"/>
+      <c r="HM1" s="191"/>
+      <c r="HN1" s="191"/>
+      <c r="HO1" s="191"/>
+      <c r="HP1" s="191"/>
+      <c r="HQ1" s="191"/>
+      <c r="HR1" s="191"/>
+      <c r="HS1" s="191"/>
+      <c r="HT1" s="191"/>
+      <c r="HU1" s="191"/>
+      <c r="HV1" s="191"/>
+      <c r="HW1" s="191"/>
+      <c r="HX1" s="191"/>
+      <c r="HY1" s="191"/>
+      <c r="HZ1" s="191"/>
+      <c r="IA1" s="191"/>
+      <c r="IB1" s="191"/>
+      <c r="IC1" s="191"/>
+      <c r="ID1" s="191"/>
+      <c r="IE1" s="191"/>
+      <c r="IF1" s="191"/>
+      <c r="IG1" s="191"/>
+      <c r="IH1" s="191"/>
+      <c r="II1" s="191"/>
+      <c r="IJ1" s="191"/>
+      <c r="IK1" s="191"/>
+      <c r="IL1" s="191"/>
+      <c r="IM1" s="191"/>
+      <c r="IN1" s="191"/>
+      <c r="IO1" s="191"/>
+      <c r="IP1" s="191"/>
+      <c r="IQ1" s="191"/>
+      <c r="IR1" s="191"/>
+      <c r="IS1" s="191"/>
+      <c r="IT1" s="191"/>
+      <c r="IU1" s="191"/>
+      <c r="IV1" s="191"/>
     </row>
     <row r="2" spans="1:256" ht="15.75" thickBot="1">
-      <c r="A2" s="186" t="str">
+      <c r="A2" s="194" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
       </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="194"/>
     </row>
     <row r="3" spans="1:256" ht="15" customHeight="1">
-      <c r="A3" s="187" t="str">
+      <c r="A3" s="195" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
       </c>
-      <c r="B3" s="189" t="str">
+      <c r="B3" s="197" t="str">
         <f>'Сводная таблица'!B3:B4</f>
         <v>группа</v>
       </c>
-      <c r="C3" s="191" t="str">
+      <c r="C3" s="199" t="str">
         <f>'Сводная таблица'!C3:C4</f>
         <v>подргуппа</v>
       </c>
-      <c r="D3" s="193" t="str">
+      <c r="D3" s="201" t="str">
         <f>'Сводная таблица'!D3:D4</f>
         <v>Фамилия</v>
       </c>
-      <c r="E3" s="195" t="str">
+      <c r="E3" s="203" t="str">
         <f>'Сводная таблица'!E3:E4</f>
         <v>Имя</v>
       </c>
-      <c r="F3" s="184" t="str">
+      <c r="F3" s="192" t="str">
         <f>'Сводная таблица'!F3:F4</f>
         <v>Отчество</v>
       </c>
-      <c r="G3" s="187" t="s">
+      <c r="G3" s="195" t="s">
         <v>113</v>
       </c>
-      <c r="H3" s="193" t="s">
+      <c r="H3" s="201" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="200" t="s">
+      <c r="I3" s="208" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="200" t="s">
+      <c r="J3" s="208" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="197" t="s">
+      <c r="K3" s="205" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:256" ht="15.75" thickBot="1">
-      <c r="A4" s="188"/>
-      <c r="B4" s="190"/>
-      <c r="C4" s="192"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="196"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="188"/>
-      <c r="H4" s="194"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="202"/>
-      <c r="K4" s="203"/>
+      <c r="A4" s="196"/>
+      <c r="B4" s="198"/>
+      <c r="C4" s="200"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="204"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="196"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="210"/>
+      <c r="J4" s="210"/>
+      <c r="K4" s="211"/>
     </row>
     <row r="5" spans="1:256" s="54" customFormat="1">
       <c r="A5" s="62">

--- a/ТМОГИ.2016.осень.xlsx
+++ b/ТМОГИ.2016.осень.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="6195" yWindow="375" windowWidth="15330" windowHeight="9660"/>
@@ -21,12 +21,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Сводная таблица'!$A$2:$BU$47</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="150">
   <si>
     <t>балл(max)=</t>
   </si>
@@ -502,14 +502,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="d/m/yy;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1626,11 +1626,41 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1652,36 +1682,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1851,6 +1851,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1929,6 +1934,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1963,6 +1969,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2138,15 +2145,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R13" sqref="R13"/>
+      <selection pane="topRight" activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
@@ -2185,7 +2192,7 @@
     <col min="74" max="255" width="11" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" s="146" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="1" spans="1:16384" s="146" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="146" t="s">
         <v>116</v>
       </c>
@@ -2204,7 +2211,7 @@
       <c r="AF1" s="148"/>
       <c r="AG1" s="148"/>
     </row>
-    <row r="2" spans="1:16384" ht="15.75" thickBot="1">
+    <row r="2" spans="1:16384" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="81">
         <f>DATE(2016,9,1)</f>
         <v>42614</v>
@@ -2214,38 +2221,38 @@
       </c>
       <c r="E2" s="80"/>
       <c r="F2" s="80"/>
-      <c r="G2" s="174" t="s">
+      <c r="G2" s="184" t="s">
         <v>117</v>
       </c>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="176"/>
-      <c r="N2" s="172" t="s">
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="185"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="173" t="s">
         <v>118</v>
       </c>
-      <c r="O2" s="172"/>
-      <c r="P2" s="172"/>
-      <c r="Q2" s="172"/>
-      <c r="R2" s="172"/>
-      <c r="S2" s="172"/>
-      <c r="T2" s="172"/>
-      <c r="U2" s="172"/>
-      <c r="V2" s="172"/>
-      <c r="W2" s="172"/>
-      <c r="X2" s="172"/>
-      <c r="Y2" s="172"/>
-      <c r="Z2" s="172"/>
-      <c r="AA2" s="172"/>
-      <c r="AB2" s="172"/>
-      <c r="AC2" s="172"/>
-      <c r="AD2" s="172"/>
-      <c r="AE2" s="172"/>
-      <c r="AF2" s="172"/>
-      <c r="AG2" s="172"/>
-      <c r="AH2" s="173"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="173"/>
+      <c r="Q2" s="173"/>
+      <c r="R2" s="173"/>
+      <c r="S2" s="173"/>
+      <c r="T2" s="173"/>
+      <c r="U2" s="173"/>
+      <c r="V2" s="173"/>
+      <c r="W2" s="173"/>
+      <c r="X2" s="173"/>
+      <c r="Y2" s="173"/>
+      <c r="Z2" s="173"/>
+      <c r="AA2" s="173"/>
+      <c r="AB2" s="173"/>
+      <c r="AC2" s="173"/>
+      <c r="AD2" s="173"/>
+      <c r="AE2" s="173"/>
+      <c r="AF2" s="173"/>
+      <c r="AG2" s="173"/>
+      <c r="AH2" s="174"/>
       <c r="AI2" s="105"/>
       <c r="AJ2" s="104" t="s">
         <v>31</v>
@@ -18599,71 +18606,71 @@
       <c r="XFC2" s="106"/>
       <c r="XFD2" s="106"/>
     </row>
-    <row r="3" spans="1:16384" s="109" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="181" t="s">
+    <row r="3" spans="1:16384" s="109" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="180" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="187" t="s">
+      <c r="B3" s="175" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="184" t="s">
+      <c r="C3" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="181" t="s">
+      <c r="D3" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="186" t="s">
+      <c r="E3" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="190" t="s">
+      <c r="F3" s="179" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="177"/>
-      <c r="H3" s="178"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="178"/>
-      <c r="K3" s="178"/>
-      <c r="L3" s="178"/>
-      <c r="M3" s="179"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="188"/>
+      <c r="J3" s="188"/>
+      <c r="K3" s="188"/>
+      <c r="L3" s="188"/>
+      <c r="M3" s="189"/>
       <c r="N3" s="150" t="s">
         <v>149</v>
       </c>
-      <c r="O3" s="180">
+      <c r="O3" s="190">
         <f>DATE(2016,11,5)</f>
         <v>42679</v>
       </c>
-      <c r="P3" s="172"/>
+      <c r="P3" s="173"/>
       <c r="Q3" s="149" t="s">
         <v>149</v>
       </c>
-      <c r="R3" s="180">
+      <c r="R3" s="190">
         <f>DATE(2016,11,5)</f>
         <v>42679</v>
       </c>
-      <c r="S3" s="172"/>
+      <c r="S3" s="173"/>
       <c r="T3" s="149" t="s">
         <v>149</v>
       </c>
-      <c r="U3" s="180">
+      <c r="U3" s="190">
         <f>DATE(2016,11,26)</f>
         <v>42700</v>
       </c>
-      <c r="V3" s="172"/>
+      <c r="V3" s="173"/>
       <c r="W3" s="149" t="s">
         <v>149</v>
       </c>
-      <c r="X3" s="172"/>
-      <c r="Y3" s="172"/>
+      <c r="X3" s="173"/>
+      <c r="Y3" s="173"/>
       <c r="Z3" s="149" t="s">
         <v>149</v>
       </c>
-      <c r="AA3" s="172"/>
-      <c r="AB3" s="172"/>
+      <c r="AA3" s="173"/>
+      <c r="AB3" s="173"/>
       <c r="AC3" s="149" t="s">
         <v>149</v>
       </c>
-      <c r="AD3" s="172"/>
-      <c r="AE3" s="172"/>
+      <c r="AD3" s="173"/>
+      <c r="AE3" s="173"/>
       <c r="AF3" s="150"/>
       <c r="AG3" s="150"/>
       <c r="AH3" s="171"/>
@@ -18813,13 +18820,13 @@
       <c r="BT3" s="108"/>
       <c r="BU3" s="108"/>
     </row>
-    <row r="4" spans="1:16384" s="106" customFormat="1" ht="45">
-      <c r="A4" s="181"/>
-      <c r="B4" s="188"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="186"/>
-      <c r="F4" s="190"/>
+    <row r="4" spans="1:16384" s="106" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="180"/>
+      <c r="B4" s="176"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="179"/>
       <c r="G4" s="68" t="s">
         <v>114</v>
       </c>
@@ -19058,7 +19065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:16384" s="106" customFormat="1">
+    <row r="5" spans="1:16384" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -19179,7 +19186,9 @@
         <v>2</v>
       </c>
       <c r="BF5" s="101"/>
-      <c r="BG5" s="101"/>
+      <c r="BG5" s="101">
+        <v>2</v>
+      </c>
       <c r="BH5" s="101"/>
       <c r="BI5" s="101"/>
       <c r="BJ5" s="101"/>
@@ -19194,14 +19203,14 @@
       <c r="BS5" s="1"/>
       <c r="BT5" s="131">
         <f t="shared" ref="BT5:BT16" si="3">SUM(AJ5:BS5)+SUM(G5:M5)+P5+S5+V5+Y5+AB5+AE5+AH5</f>
-        <v>36.83</v>
+        <v>38.83</v>
       </c>
       <c r="BU5" s="169">
         <f t="shared" ref="BU5:BU43" si="4">$AS$46+(BT5-$AM$46)*($AS$45-$AS$46)/($AM$45-$AM$46)</f>
-        <v>5.1004509173506261</v>
+        <v>5.111192597259631</v>
       </c>
     </row>
-    <row r="6" spans="1:16384" s="106" customFormat="1">
+    <row r="6" spans="1:16384" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>2</v>
       </c>
@@ -19322,7 +19331,9 @@
         <v>2</v>
       </c>
       <c r="BF6" s="101"/>
-      <c r="BG6" s="101"/>
+      <c r="BG6" s="101">
+        <v>2</v>
+      </c>
       <c r="BH6" s="101"/>
       <c r="BI6" s="101"/>
       <c r="BJ6" s="101"/>
@@ -19337,14 +19348,14 @@
       <c r="BS6" s="1"/>
       <c r="BT6" s="131">
         <f t="shared" si="3"/>
-        <v>37.94</v>
+        <v>39.94</v>
       </c>
       <c r="BU6" s="9">
         <f t="shared" si="4"/>
-        <v>5.2728999127286098</v>
+        <v>5.2952154251207464</v>
       </c>
     </row>
-    <row r="7" spans="1:16384" s="106" customFormat="1">
+    <row r="7" spans="1:16384" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>3</v>
       </c>
@@ -19466,7 +19477,9 @@
         <v>5</v>
       </c>
       <c r="BF7" s="101"/>
-      <c r="BG7" s="101"/>
+      <c r="BG7" s="101">
+        <v>2</v>
+      </c>
       <c r="BH7" s="101"/>
       <c r="BI7" s="101"/>
       <c r="BJ7" s="101"/>
@@ -19481,14 +19494,14 @@
       <c r="BS7" s="1"/>
       <c r="BT7" s="131">
         <f t="shared" si="3"/>
-        <v>28.17</v>
+        <v>30.17</v>
       </c>
       <c r="BU7" s="9">
         <f t="shared" si="4"/>
-        <v>3.7550380344917653</v>
+        <v>3.6754829672801175</v>
       </c>
     </row>
-    <row r="8" spans="1:16384" s="106" customFormat="1">
+    <row r="8" spans="1:16384" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>4</v>
       </c>
@@ -19609,7 +19622,9 @@
         <v>2</v>
       </c>
       <c r="BF8" s="101"/>
-      <c r="BG8" s="101"/>
+      <c r="BG8" s="101" t="s">
+        <v>124</v>
+      </c>
       <c r="BH8" s="101"/>
       <c r="BI8" s="101"/>
       <c r="BJ8" s="101"/>
@@ -19628,10 +19643,10 @@
       </c>
       <c r="BU8" s="9">
         <f t="shared" si="4"/>
-        <v>3.650947199443793</v>
+        <v>3.2328334624250017</v>
       </c>
     </row>
-    <row r="9" spans="1:16384" s="106" customFormat="1">
+    <row r="9" spans="1:16384" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>5</v>
       </c>
@@ -19752,7 +19767,9 @@
         <v>2</v>
       </c>
       <c r="BF9" s="101"/>
-      <c r="BG9" s="101"/>
+      <c r="BG9" s="101">
+        <v>2</v>
+      </c>
       <c r="BH9" s="101"/>
       <c r="BI9" s="101"/>
       <c r="BJ9" s="101"/>
@@ -19767,14 +19784,14 @@
       <c r="BS9" s="1"/>
       <c r="BT9" s="131">
         <f t="shared" si="3"/>
-        <v>44.95</v>
+        <v>46.95</v>
       </c>
       <c r="BU9" s="9">
         <f t="shared" si="4"/>
-        <v>6.3619696943499289</v>
+        <v>6.4573776082796837</v>
       </c>
     </row>
-    <row r="10" spans="1:16384" s="106" customFormat="1">
+    <row r="10" spans="1:16384" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>6</v>
       </c>
@@ -19905,7 +19922,9 @@
         <v>2</v>
       </c>
       <c r="BF10" s="101"/>
-      <c r="BG10" s="101"/>
+      <c r="BG10" s="101" t="s">
+        <v>124</v>
+      </c>
       <c r="BH10" s="101"/>
       <c r="BI10" s="101"/>
       <c r="BJ10" s="101"/>
@@ -19924,10 +19943,10 @@
       </c>
       <c r="BU10" s="9">
         <f t="shared" si="4"/>
-        <v>6.9577914059066082</v>
+        <v>6.7616149484267769</v>
       </c>
     </row>
-    <row r="11" spans="1:16384" s="106" customFormat="1">
+    <row r="11" spans="1:16384" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>7</v>
       </c>
@@ -20048,7 +20067,9 @@
         <v>2</v>
       </c>
       <c r="BF11" s="101"/>
-      <c r="BG11" s="101"/>
+      <c r="BG11" s="101">
+        <v>2</v>
+      </c>
       <c r="BH11" s="101"/>
       <c r="BI11" s="101"/>
       <c r="BJ11" s="101"/>
@@ -20063,14 +20084,14 @@
       <c r="BS11" s="1"/>
       <c r="BT11" s="131">
         <f t="shared" si="3"/>
-        <v>40.019999999999996</v>
+        <v>42.019999999999996</v>
       </c>
       <c r="BU11" s="9">
         <f t="shared" si="4"/>
-        <v>5.5960475797432094</v>
+        <v>5.6400509944460788</v>
       </c>
     </row>
-    <row r="12" spans="1:16384" s="106" customFormat="1">
+    <row r="12" spans="1:16384" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>8</v>
       </c>
@@ -20191,7 +20212,9 @@
         <v>2</v>
       </c>
       <c r="BF12" s="101"/>
-      <c r="BG12" s="101"/>
+      <c r="BG12" s="101" t="s">
+        <v>124</v>
+      </c>
       <c r="BH12" s="101"/>
       <c r="BI12" s="101"/>
       <c r="BJ12" s="101"/>
@@ -20210,10 +20233,10 @@
       </c>
       <c r="BU12" s="9">
         <f t="shared" si="4"/>
-        <v>5.762282196909374</v>
+        <v>5.4858697062381188</v>
       </c>
     </row>
-    <row r="13" spans="1:16384" s="106" customFormat="1">
+    <row r="13" spans="1:16384" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>9</v>
       </c>
@@ -20334,7 +20357,9 @@
         <v>2</v>
       </c>
       <c r="BF13" s="101"/>
-      <c r="BG13" s="101"/>
+      <c r="BG13" s="101">
+        <v>2</v>
+      </c>
       <c r="BH13" s="101"/>
       <c r="BI13" s="101"/>
       <c r="BJ13" s="101"/>
@@ -20349,14 +20374,14 @@
       <c r="BS13" s="1"/>
       <c r="BT13" s="131">
         <f t="shared" si="3"/>
-        <v>42.269999999999996</v>
+        <v>44.269999999999996</v>
       </c>
       <c r="BU13" s="9">
         <f t="shared" si="4"/>
-        <v>5.9456063541580404</v>
+        <v>6.013070240110503</v>
       </c>
     </row>
-    <row r="14" spans="1:16384" s="106" customFormat="1">
+    <row r="14" spans="1:16384" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>10</v>
       </c>
@@ -20487,7 +20512,9 @@
         <v>2</v>
       </c>
       <c r="BF14" s="101"/>
-      <c r="BG14" s="101"/>
+      <c r="BG14" s="101">
+        <v>2</v>
+      </c>
       <c r="BH14" s="101"/>
       <c r="BI14" s="101"/>
       <c r="BJ14" s="101"/>
@@ -20502,14 +20529,14 @@
       <c r="BS14" s="1"/>
       <c r="BT14" s="131">
         <f t="shared" si="3"/>
-        <v>54.254882849109656</v>
+        <v>56.254882849109656</v>
       </c>
       <c r="BU14" s="9">
         <f t="shared" si="4"/>
-        <v>7.807571225375864</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:16384" s="106" customFormat="1">
+    <row r="15" spans="1:16384" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>11</v>
       </c>
@@ -20627,8 +20654,12 @@
       <c r="BE15" s="165" t="s">
         <v>124</v>
       </c>
-      <c r="BF15" s="101"/>
-      <c r="BG15" s="101"/>
+      <c r="BF15" s="101">
+        <v>2</v>
+      </c>
+      <c r="BG15" s="101">
+        <v>2</v>
+      </c>
       <c r="BH15" s="101"/>
       <c r="BI15" s="101"/>
       <c r="BJ15" s="101"/>
@@ -20643,14 +20674,14 @@
       <c r="BS15" s="1"/>
       <c r="BT15" s="131">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BU15" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16384" s="106" customFormat="1">
+    <row r="16" spans="1:16384" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>12</v>
       </c>
@@ -20768,8 +20799,12 @@
       <c r="BE16" s="101">
         <v>2</v>
       </c>
-      <c r="BF16" s="101"/>
-      <c r="BG16" s="101"/>
+      <c r="BF16" s="101">
+        <v>2</v>
+      </c>
+      <c r="BG16" s="101">
+        <v>2</v>
+      </c>
       <c r="BH16" s="101"/>
       <c r="BI16" s="101"/>
       <c r="BJ16" s="101"/>
@@ -20784,14 +20819,14 @@
       <c r="BS16" s="1"/>
       <c r="BT16" s="131">
         <f t="shared" si="3"/>
-        <v>33.299999999999997</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="BU16" s="9">
         <f t="shared" si="4"/>
-        <v>4.55203204015758</v>
+        <v>4.8575395102078227</v>
       </c>
     </row>
-    <row r="17" spans="1:73" s="106" customFormat="1">
+    <row r="17" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>13</v>
       </c>
@@ -20920,8 +20955,12 @@
         <f>2+3</f>
         <v>5</v>
       </c>
-      <c r="BF17" s="101"/>
-      <c r="BG17" s="101"/>
+      <c r="BF17" s="101" t="s">
+        <v>124</v>
+      </c>
+      <c r="BG17" s="101" t="s">
+        <v>124</v>
+      </c>
       <c r="BH17" s="101"/>
       <c r="BI17" s="101"/>
       <c r="BJ17" s="101"/>
@@ -20940,10 +20979,10 @@
       </c>
       <c r="BU17" s="9">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>7.8737708776964546</v>
       </c>
     </row>
-    <row r="18" spans="1:73" s="106" customFormat="1">
+    <row r="18" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>14</v>
       </c>
@@ -21061,8 +21100,12 @@
       <c r="BE18" s="101">
         <v>2</v>
       </c>
-      <c r="BF18" s="101"/>
-      <c r="BG18" s="101"/>
+      <c r="BF18" s="101" t="s">
+        <v>124</v>
+      </c>
+      <c r="BG18" s="101" t="s">
+        <v>124</v>
+      </c>
       <c r="BH18" s="101"/>
       <c r="BI18" s="101"/>
       <c r="BJ18" s="101"/>
@@ -21081,10 +21124,10 @@
       </c>
       <c r="BU18" s="9">
         <f t="shared" si="4"/>
-        <v>3.1071891059096113</v>
+        <v>2.6525813025025653</v>
       </c>
     </row>
-    <row r="19" spans="1:73" s="106" customFormat="1">
+    <row r="19" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>15</v>
       </c>
@@ -21202,8 +21245,12 @@
       <c r="BE19" s="101">
         <v>2</v>
       </c>
-      <c r="BF19" s="101"/>
-      <c r="BG19" s="101"/>
+      <c r="BF19" s="101">
+        <v>2</v>
+      </c>
+      <c r="BG19" s="101">
+        <v>2</v>
+      </c>
       <c r="BH19" s="101"/>
       <c r="BI19" s="101"/>
       <c r="BJ19" s="101"/>
@@ -21218,14 +21265,14 @@
       <c r="BS19" s="101"/>
       <c r="BT19" s="131">
         <f t="shared" si="8"/>
-        <v>29.74</v>
+        <v>33.74</v>
       </c>
       <c r="BU19" s="9">
         <f t="shared" si="4"/>
-        <v>3.9989523793056692</v>
+        <v>4.2673401704010026</v>
       </c>
     </row>
-    <row r="20" spans="1:73" s="106" customFormat="1">
+    <row r="20" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>16</v>
       </c>
@@ -21343,8 +21390,12 @@
       <c r="BE20" s="101">
         <v>2</v>
       </c>
-      <c r="BF20" s="101"/>
-      <c r="BG20" s="101"/>
+      <c r="BF20" s="101">
+        <v>2</v>
+      </c>
+      <c r="BG20" s="101">
+        <v>2</v>
+      </c>
       <c r="BH20" s="101"/>
       <c r="BI20" s="101"/>
       <c r="BJ20" s="101"/>
@@ -21359,14 +21410,14 @@
       <c r="BS20" s="101"/>
       <c r="BT20" s="131">
         <f t="shared" si="8"/>
-        <v>36.43</v>
+        <v>40.43</v>
       </c>
       <c r="BU20" s="9">
         <f t="shared" si="4"/>
-        <v>5.0383071352324347</v>
+        <v>5.3764507275098872</v>
       </c>
     </row>
-    <row r="21" spans="1:73" s="106" customFormat="1">
+    <row r="21" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>17</v>
       </c>
@@ -21486,8 +21537,12 @@
         <f>2+3</f>
         <v>5</v>
       </c>
-      <c r="BF21" s="101"/>
-      <c r="BG21" s="101"/>
+      <c r="BF21" s="101" t="s">
+        <v>124</v>
+      </c>
+      <c r="BG21" s="101" t="s">
+        <v>124</v>
+      </c>
       <c r="BH21" s="101"/>
       <c r="BI21" s="101"/>
       <c r="BJ21" s="101"/>
@@ -21506,10 +21561,10 @@
       </c>
       <c r="BU21" s="9">
         <f t="shared" si="4"/>
-        <v>5.0833613772681234</v>
+        <v>4.7613834379921052</v>
       </c>
     </row>
-    <row r="22" spans="1:73" s="106" customFormat="1">
+    <row r="22" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>18</v>
       </c>
@@ -21627,8 +21682,12 @@
       <c r="BE22" s="165" t="s">
         <v>124</v>
       </c>
-      <c r="BF22" s="101"/>
-      <c r="BG22" s="101"/>
+      <c r="BF22" s="101">
+        <v>2</v>
+      </c>
+      <c r="BG22" s="101">
+        <v>2</v>
+      </c>
       <c r="BH22" s="101"/>
       <c r="BI22" s="101"/>
       <c r="BJ22" s="101"/>
@@ -21643,14 +21702,14 @@
       <c r="BS22" s="101"/>
       <c r="BT22" s="131">
         <f t="shared" si="8"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BU22" s="9">
         <f t="shared" si="4"/>
-        <v>2.7964701953186499</v>
+        <v>2.9841539653153863</v>
       </c>
     </row>
-    <row r="23" spans="1:73" s="106" customFormat="1">
+    <row r="23" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>19</v>
       </c>
@@ -21768,8 +21827,12 @@
       <c r="BE23" s="101">
         <v>2</v>
       </c>
-      <c r="BF23" s="101"/>
-      <c r="BG23" s="101"/>
+      <c r="BF23" s="101">
+        <v>2</v>
+      </c>
+      <c r="BG23" s="101">
+        <v>2</v>
+      </c>
       <c r="BH23" s="101"/>
       <c r="BI23" s="101"/>
       <c r="BJ23" s="101"/>
@@ -21784,14 +21847,14 @@
       <c r="BS23" s="101"/>
       <c r="BT23" s="131">
         <f t="shared" si="8"/>
-        <v>25.42</v>
+        <v>29.42</v>
       </c>
       <c r="BU23" s="9">
         <f t="shared" si="4"/>
-        <v>3.3277995324291938</v>
+        <v>3.55114321872531</v>
       </c>
     </row>
-    <row r="24" spans="1:73" s="106" customFormat="1">
+    <row r="24" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>20</v>
       </c>
@@ -21922,7 +21985,9 @@
         <v>2</v>
       </c>
       <c r="BF24" s="101"/>
-      <c r="BG24" s="101"/>
+      <c r="BG24" s="101">
+        <v>2</v>
+      </c>
       <c r="BH24" s="101"/>
       <c r="BI24" s="101"/>
       <c r="BJ24" s="101"/>
@@ -21937,14 +22002,14 @@
       <c r="BS24" s="101"/>
       <c r="BT24" s="131">
         <f t="shared" si="8"/>
-        <v>34.840000000000003</v>
+        <v>36.840000000000003</v>
       </c>
       <c r="BU24" s="9">
         <f t="shared" si="4"/>
-        <v>4.7912856013126213</v>
+        <v>4.7812777977608745</v>
       </c>
     </row>
-    <row r="25" spans="1:73" s="106" customFormat="1">
+    <row r="25" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>21</v>
       </c>
@@ -22065,7 +22130,9 @@
         <v>124</v>
       </c>
       <c r="BF25" s="101"/>
-      <c r="BG25" s="101"/>
+      <c r="BG25" s="101">
+        <v>2</v>
+      </c>
       <c r="BH25" s="101"/>
       <c r="BI25" s="101"/>
       <c r="BJ25" s="101"/>
@@ -22080,14 +22147,14 @@
       <c r="BS25" s="101"/>
       <c r="BT25" s="131">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BU25" s="9">
         <f t="shared" si="4"/>
-        <v>2.485751284727689</v>
+        <v>2.3210086396897447</v>
       </c>
     </row>
-    <row r="26" spans="1:73" s="106" customFormat="1">
+    <row r="26" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>22</v>
       </c>
@@ -22213,7 +22280,9 @@
         <v>2</v>
       </c>
       <c r="BF26" s="101"/>
-      <c r="BG26" s="101"/>
+      <c r="BG26" s="101" t="s">
+        <v>124</v>
+      </c>
       <c r="BH26" s="101"/>
       <c r="BI26" s="101"/>
       <c r="BJ26" s="101"/>
@@ -22232,10 +22301,10 @@
       </c>
       <c r="BU26" s="9">
         <f t="shared" si="4"/>
-        <v>5.5353671177053538</v>
+        <v>5.2437253291837544</v>
       </c>
     </row>
-    <row r="27" spans="1:73" s="106" customFormat="1">
+    <row r="27" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>23</v>
       </c>
@@ -22351,8 +22420,8 @@
         <v>2</v>
       </c>
       <c r="BB27" s="101"/>
-      <c r="BC27" s="160" t="s">
-        <v>124</v>
+      <c r="BC27" s="160">
+        <v>2</v>
       </c>
       <c r="BD27" s="168">
         <v>2</v>
@@ -22361,7 +22430,9 @@
         <v>2</v>
       </c>
       <c r="BF27" s="101"/>
-      <c r="BG27" s="101"/>
+      <c r="BG27" s="101">
+        <v>2</v>
+      </c>
       <c r="BH27" s="101"/>
       <c r="BI27" s="101"/>
       <c r="BJ27" s="101"/>
@@ -22376,14 +22447,14 @@
       <c r="BS27" s="101"/>
       <c r="BT27" s="131">
         <f t="shared" si="8"/>
-        <v>34.118837863167755</v>
+        <v>38.118837863167755</v>
       </c>
       <c r="BU27" s="9">
         <f t="shared" si="4"/>
-        <v>4.6792462445546379</v>
+        <v>4.9932916355590695</v>
       </c>
     </row>
-    <row r="28" spans="1:73" s="106" customFormat="1">
+    <row r="28" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>24</v>
       </c>
@@ -22504,7 +22575,9 @@
         <v>124</v>
       </c>
       <c r="BF28" s="101"/>
-      <c r="BG28" s="101"/>
+      <c r="BG28" s="101">
+        <v>2</v>
+      </c>
       <c r="BH28" s="101"/>
       <c r="BI28" s="101"/>
       <c r="BJ28" s="101"/>
@@ -22519,14 +22592,14 @@
       <c r="BS28" s="101"/>
       <c r="BT28" s="131">
         <f t="shared" si="8"/>
-        <v>23.03</v>
+        <v>25.03</v>
       </c>
       <c r="BU28" s="9">
         <f t="shared" si="4"/>
-        <v>2.9564904342729954</v>
+        <v>2.8233412238511684</v>
       </c>
     </row>
-    <row r="29" spans="1:73" s="106" customFormat="1">
+    <row r="29" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>25</v>
       </c>
@@ -22647,7 +22720,9 @@
         <v>2</v>
       </c>
       <c r="BF29" s="101"/>
-      <c r="BG29" s="101"/>
+      <c r="BG29" s="101">
+        <v>2</v>
+      </c>
       <c r="BH29" s="101"/>
       <c r="BI29" s="101"/>
       <c r="BJ29" s="101"/>
@@ -22662,14 +22737,14 @@
       <c r="BS29" s="101"/>
       <c r="BT29" s="131">
         <f t="shared" si="8"/>
-        <v>32.92</v>
+        <v>34.92</v>
       </c>
       <c r="BU29" s="9">
         <f t="shared" si="4"/>
-        <v>4.4929954471452982</v>
+        <v>4.4629680414605666</v>
       </c>
     </row>
-    <row r="30" spans="1:73" s="106" customFormat="1">
+    <row r="30" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>26</v>
       </c>
@@ -22790,7 +22865,9 @@
         <v>2</v>
       </c>
       <c r="BF30" s="101"/>
-      <c r="BG30" s="101"/>
+      <c r="BG30" s="101">
+        <v>2</v>
+      </c>
       <c r="BH30" s="101"/>
       <c r="BI30" s="101"/>
       <c r="BJ30" s="101"/>
@@ -22805,14 +22882,14 @@
       <c r="BS30" s="101"/>
       <c r="BT30" s="131">
         <f t="shared" si="8"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BU30" s="9">
         <f t="shared" si="4"/>
-        <v>3.4179080165005722</v>
+        <v>3.315726628128207</v>
       </c>
     </row>
-    <row r="31" spans="1:73" s="106" customFormat="1">
+    <row r="31" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>27</v>
       </c>
@@ -22938,7 +23015,9 @@
         <v>2</v>
       </c>
       <c r="BF31" s="101"/>
-      <c r="BG31" s="101"/>
+      <c r="BG31" s="101">
+        <v>2</v>
+      </c>
       <c r="BH31" s="101"/>
       <c r="BI31" s="101"/>
       <c r="BJ31" s="101"/>
@@ -22953,14 +23032,14 @@
       <c r="BS31" s="101"/>
       <c r="BT31" s="131">
         <f t="shared" si="8"/>
-        <v>43.945117150890347</v>
+        <v>45.945117150890347</v>
       </c>
       <c r="BU31" s="9">
         <f t="shared" si="4"/>
-        <v>6.2058516422764827</v>
+        <v>6.2907817672325725</v>
       </c>
     </row>
-    <row r="32" spans="1:73" s="106" customFormat="1">
+    <row r="32" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>28</v>
       </c>
@@ -23081,7 +23160,9 @@
         <v>2</v>
       </c>
       <c r="BF32" s="101"/>
-      <c r="BG32" s="101"/>
+      <c r="BG32" s="101">
+        <v>2</v>
+      </c>
       <c r="BH32" s="101"/>
       <c r="BI32" s="101"/>
       <c r="BJ32" s="101"/>
@@ -23096,14 +23177,14 @@
       <c r="BS32" s="101"/>
       <c r="BT32" s="131">
         <f t="shared" si="8"/>
-        <v>39.5</v>
+        <v>41.5</v>
       </c>
       <c r="BU32" s="9">
         <f t="shared" si="4"/>
-        <v>5.5152606629895597</v>
+        <v>5.5538421021147464</v>
       </c>
     </row>
-    <row r="33" spans="1:73" s="106" customFormat="1">
+    <row r="33" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>29</v>
       </c>
@@ -23234,7 +23315,9 @@
         <v>3</v>
       </c>
       <c r="BF33" s="101"/>
-      <c r="BG33" s="101"/>
+      <c r="BG33" s="101">
+        <v>2</v>
+      </c>
       <c r="BH33" s="101"/>
       <c r="BI33" s="101"/>
       <c r="BJ33" s="101"/>
@@ -23249,14 +23332,14 @@
       <c r="BS33" s="101"/>
       <c r="BT33" s="131">
         <f t="shared" si="8"/>
-        <v>48.824536082474232</v>
+        <v>50.824536082474232</v>
       </c>
       <c r="BU33" s="9">
         <f t="shared" si="4"/>
-        <v>6.963915509645811</v>
+        <v>7.0997227312948512</v>
       </c>
     </row>
-    <row r="34" spans="1:73" s="106" customFormat="1">
+    <row r="34" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>30</v>
       </c>
@@ -23302,11 +23385,16 @@
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="153"/>
+      <c r="Q34" s="21">
+        <v>3</v>
+      </c>
+      <c r="R34" s="153">
+        <f>DATE(2016,11,19)</f>
+        <v>42693</v>
+      </c>
       <c r="S34" s="70">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.4376757263355202</v>
       </c>
       <c r="T34" s="21"/>
       <c r="U34" s="153"/>
@@ -23379,8 +23467,12 @@
       <c r="BE34" s="101">
         <v>2</v>
       </c>
-      <c r="BF34" s="101"/>
-      <c r="BG34" s="101"/>
+      <c r="BF34" s="101">
+        <v>2</v>
+      </c>
+      <c r="BG34" s="101">
+        <v>2</v>
+      </c>
       <c r="BH34" s="101"/>
       <c r="BI34" s="101"/>
       <c r="BJ34" s="101"/>
@@ -23395,14 +23487,14 @@
       <c r="BS34" s="101"/>
       <c r="BT34" s="131">
         <f t="shared" si="8"/>
-        <v>43.15</v>
+        <v>49.587675726335519</v>
       </c>
       <c r="BU34" s="9">
         <f t="shared" si="4"/>
-        <v>6.0823226748180632</v>
+        <v>6.8946681903885869</v>
       </c>
     </row>
-    <row r="35" spans="1:73" s="106" customFormat="1">
+    <row r="35" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>31</v>
       </c>
@@ -23448,11 +23540,16 @@
         <f t="shared" si="7"/>
         <v>1.8125585754451734</v>
       </c>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="153"/>
+      <c r="Q35" s="21">
+        <v>3.5</v>
+      </c>
+      <c r="R35" s="153">
+        <f>DATE(2016,11,19)</f>
+        <v>42693</v>
+      </c>
       <c r="S35" s="70">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.8439550140581069</v>
       </c>
       <c r="T35" s="21"/>
       <c r="U35" s="153"/>
@@ -23525,8 +23622,12 @@
       <c r="BE35" s="101">
         <v>2</v>
       </c>
-      <c r="BF35" s="101"/>
-      <c r="BG35" s="101"/>
+      <c r="BF35" s="101">
+        <v>2</v>
+      </c>
+      <c r="BG35" s="101">
+        <v>2</v>
+      </c>
       <c r="BH35" s="101"/>
       <c r="BI35" s="101"/>
       <c r="BJ35" s="101"/>
@@ -23541,14 +23642,14 @@
       <c r="BS35" s="101"/>
       <c r="BT35" s="131">
         <f t="shared" si="8"/>
-        <v>38.572558575445171</v>
+        <v>45.416513589503282</v>
       </c>
       <c r="BU35" s="9">
         <f t="shared" si="4"/>
-        <v>5.3711738684522574</v>
+        <v>6.2031465220218474</v>
       </c>
     </row>
-    <row r="36" spans="1:73" s="106" customFormat="1">
+    <row r="36" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>32</v>
       </c>
@@ -23583,11 +23684,16 @@
       <c r="K36" s="41"/>
       <c r="L36" s="41"/>
       <c r="M36" s="70"/>
-      <c r="N36" s="51"/>
-      <c r="O36" s="153"/>
+      <c r="N36" s="51">
+        <v>3</v>
+      </c>
+      <c r="O36" s="153">
+        <f>DATE(2016,11,19)</f>
+        <v>42693</v>
+      </c>
       <c r="P36" s="70">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.4376757263355202</v>
       </c>
       <c r="Q36" s="21"/>
       <c r="R36" s="153"/>
@@ -23666,8 +23772,12 @@
       <c r="BE36" s="101">
         <v>2</v>
       </c>
-      <c r="BF36" s="101"/>
-      <c r="BG36" s="101"/>
+      <c r="BF36" s="101">
+        <v>2</v>
+      </c>
+      <c r="BG36" s="101">
+        <v>2</v>
+      </c>
       <c r="BH36" s="101"/>
       <c r="BI36" s="101"/>
       <c r="BJ36" s="101"/>
@@ -23682,14 +23792,14 @@
       <c r="BS36" s="101"/>
       <c r="BT36" s="131">
         <f t="shared" si="8"/>
-        <v>36.78</v>
+        <v>43.217675726335521</v>
       </c>
       <c r="BU36" s="9">
         <f t="shared" si="4"/>
-        <v>5.092682944585853</v>
+        <v>5.8386092593297541</v>
       </c>
     </row>
-    <row r="37" spans="1:73" s="106" customFormat="1">
+    <row r="37" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>33</v>
       </c>
@@ -23735,11 +23845,16 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="153"/>
+      <c r="Q37" s="21">
+        <v>3</v>
+      </c>
+      <c r="R37" s="153">
+        <f>DATE(2016,11,19)</f>
+        <v>42693</v>
+      </c>
       <c r="S37" s="70">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.4376757263355202</v>
       </c>
       <c r="T37" s="21"/>
       <c r="U37" s="153"/>
@@ -23812,8 +23927,12 @@
       <c r="BE37" s="101">
         <v>2</v>
       </c>
-      <c r="BF37" s="101"/>
-      <c r="BG37" s="101"/>
+      <c r="BF37" s="101">
+        <v>2</v>
+      </c>
+      <c r="BG37" s="101">
+        <v>2</v>
+      </c>
       <c r="BH37" s="101"/>
       <c r="BI37" s="101"/>
       <c r="BJ37" s="101"/>
@@ -23828,14 +23947,14 @@
       <c r="BS37" s="101"/>
       <c r="BT37" s="131">
         <f t="shared" si="8"/>
-        <v>34.89</v>
+        <v>41.327675726335521</v>
       </c>
       <c r="BU37" s="9">
         <f t="shared" si="4"/>
-        <v>4.7990535740773943</v>
+        <v>5.5252730929716378</v>
       </c>
     </row>
-    <row r="38" spans="1:73" s="106" customFormat="1">
+    <row r="38" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>34</v>
       </c>
@@ -23953,8 +24072,12 @@
       <c r="BE38" s="101">
         <v>2</v>
       </c>
-      <c r="BF38" s="101"/>
-      <c r="BG38" s="101"/>
+      <c r="BF38" s="101">
+        <v>2</v>
+      </c>
+      <c r="BG38" s="101" t="s">
+        <v>124</v>
+      </c>
       <c r="BH38" s="101"/>
       <c r="BI38" s="101"/>
       <c r="BJ38" s="101"/>
@@ -23969,14 +24092,14 @@
       <c r="BS38" s="101"/>
       <c r="BT38" s="131">
         <f t="shared" si="8"/>
-        <v>32.299999999999997</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="BU38" s="9">
         <f t="shared" si="4"/>
-        <v>4.3966725848620998</v>
+        <v>4.360180515988592</v>
       </c>
     </row>
-    <row r="39" spans="1:73" s="106" customFormat="1">
+    <row r="39" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>35</v>
       </c>
@@ -24011,11 +24134,16 @@
       <c r="K39" s="72"/>
       <c r="L39" s="72"/>
       <c r="M39" s="73"/>
-      <c r="N39" s="51"/>
-      <c r="O39" s="153"/>
+      <c r="N39" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="O39" s="153">
+        <f>DATE(2016,11,19)</f>
+        <v>42693</v>
+      </c>
       <c r="P39" s="70">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.4062792877225867</v>
       </c>
       <c r="Q39" s="21"/>
       <c r="R39" s="153"/>
@@ -24094,8 +24222,12 @@
       <c r="BE39" s="101">
         <v>2</v>
       </c>
-      <c r="BF39" s="15"/>
-      <c r="BG39" s="15"/>
+      <c r="BF39" s="15">
+        <v>2</v>
+      </c>
+      <c r="BG39" s="15">
+        <v>2</v>
+      </c>
       <c r="BH39" s="15"/>
       <c r="BI39" s="15"/>
       <c r="BJ39" s="15"/>
@@ -24110,14 +24242,14 @@
       <c r="BS39" s="101"/>
       <c r="BT39" s="131">
         <f t="shared" si="8"/>
-        <v>36.11</v>
+        <v>40.516279287722583</v>
       </c>
       <c r="BU39" s="9">
         <f t="shared" si="4"/>
-        <v>4.9885921095378807</v>
+        <v>5.3907546540977727</v>
       </c>
     </row>
-    <row r="40" spans="1:73" s="106" customFormat="1">
+    <row r="40" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>36</v>
       </c>
@@ -24163,11 +24295,16 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="153"/>
+      <c r="Q40" s="18">
+        <v>3</v>
+      </c>
+      <c r="R40" s="153">
+        <f>DATE(2016,11,19)</f>
+        <v>42693</v>
+      </c>
       <c r="S40" s="70">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.4376757263355202</v>
       </c>
       <c r="T40" s="18"/>
       <c r="U40" s="153"/>
@@ -24240,8 +24377,12 @@
       <c r="BE40" s="101">
         <v>2</v>
       </c>
-      <c r="BF40" s="15"/>
-      <c r="BG40" s="15"/>
+      <c r="BF40" s="15">
+        <v>2</v>
+      </c>
+      <c r="BG40" s="15">
+        <v>2</v>
+      </c>
       <c r="BH40" s="101"/>
       <c r="BI40" s="101"/>
       <c r="BJ40" s="101"/>
@@ -24256,14 +24397,14 @@
       <c r="BS40" s="101"/>
       <c r="BT40" s="131">
         <f t="shared" si="8"/>
-        <v>41.97</v>
+        <v>48.407675726335519</v>
       </c>
       <c r="BU40" s="9">
         <f t="shared" si="4"/>
-        <v>5.8989985175693969</v>
+        <v>6.6990403193290229</v>
       </c>
     </row>
-    <row r="41" spans="1:73" s="106" customFormat="1">
+    <row r="41" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>37</v>
       </c>
@@ -24381,8 +24522,12 @@
       <c r="BE41" s="165" t="s">
         <v>124</v>
       </c>
-      <c r="BF41" s="15"/>
-      <c r="BG41" s="15"/>
+      <c r="BF41" s="15">
+        <v>2</v>
+      </c>
+      <c r="BG41" s="15">
+        <v>2</v>
+      </c>
       <c r="BH41" s="15"/>
       <c r="BI41" s="15"/>
       <c r="BJ41" s="15"/>
@@ -24397,14 +24542,14 @@
       <c r="BS41" s="101"/>
       <c r="BT41" s="131">
         <f t="shared" si="8"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BU41" s="9">
         <f t="shared" si="4"/>
-        <v>2.7964701953186499</v>
+        <v>2.9841539653153863</v>
       </c>
     </row>
-    <row r="42" spans="1:73" s="106" customFormat="1">
+    <row r="42" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>38</v>
       </c>
@@ -24522,8 +24667,12 @@
       <c r="BE42" s="165" t="s">
         <v>124</v>
       </c>
-      <c r="BF42" s="15"/>
-      <c r="BG42" s="15"/>
+      <c r="BF42" s="15">
+        <v>2</v>
+      </c>
+      <c r="BG42" s="15">
+        <v>2</v>
+      </c>
       <c r="BH42" s="15"/>
       <c r="BI42" s="15"/>
       <c r="BJ42" s="15"/>
@@ -24538,14 +24687,14 @@
       <c r="BS42" s="101"/>
       <c r="BT42" s="131">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="BU42" s="9">
         <f t="shared" si="4"/>
-        <v>2.485751284727689</v>
+        <v>2.6525813025025653</v>
       </c>
     </row>
-    <row r="43" spans="1:73" s="115" customFormat="1" ht="15.75" thickBot="1">
+    <row r="43" spans="1:73" s="115" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15">
         <v>39</v>
       </c>
@@ -24663,8 +24812,12 @@
       <c r="BE43" s="112">
         <v>2</v>
       </c>
-      <c r="BF43" s="113"/>
-      <c r="BG43" s="113"/>
+      <c r="BF43" s="113">
+        <v>2</v>
+      </c>
+      <c r="BG43" s="113">
+        <v>2</v>
+      </c>
       <c r="BH43" s="112"/>
       <c r="BI43" s="112"/>
       <c r="BJ43" s="112"/>
@@ -24679,14 +24832,14 @@
       <c r="BS43" s="112"/>
       <c r="BT43" s="156">
         <f t="shared" si="8"/>
-        <v>30.58</v>
+        <v>34.58</v>
       </c>
       <c r="BU43" s="114">
         <f t="shared" si="4"/>
-        <v>4.1294543217538733</v>
+        <v>4.4066006887823868</v>
       </c>
     </row>
-    <row r="44" spans="1:73">
+    <row r="44" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -24702,13 +24855,13 @@
       <c r="M44" s="16"/>
       <c r="N44" s="16">
         <f>SUM(N5:N43)</f>
-        <v>35.5</v>
+        <v>39</v>
       </c>
       <c r="O44" s="152"/>
       <c r="P44" s="152"/>
       <c r="Q44" s="16">
         <f>SUM(Q5:Q43)</f>
-        <v>20.5</v>
+        <v>33</v>
       </c>
       <c r="R44" s="152"/>
       <c r="S44" s="152"/>
@@ -24806,7 +24959,7 @@
       </c>
       <c r="BC44" s="8">
         <f t="shared" si="12"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BD44" s="8">
         <f t="shared" si="12"/>
@@ -24818,11 +24971,11 @@
       </c>
       <c r="BF44" s="8">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BG44" s="8">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BH44" s="8">
         <f t="shared" si="12"/>
@@ -24874,7 +25027,7 @@
       </c>
       <c r="BT44" s="132"/>
     </row>
-    <row r="45" spans="1:73">
+    <row r="45" spans="1:73" x14ac:dyDescent="0.25">
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45"/>
@@ -24885,7 +25038,7 @@
       </c>
       <c r="AM45" s="3">
         <f>MAX(BT5:BT43)</f>
-        <v>55.493486410496715</v>
+        <v>56.254882849109656</v>
       </c>
       <c r="AO45" t="s">
         <v>1</v>
@@ -24895,7 +25048,7 @@
       </c>
       <c r="AV45" s="8"/>
     </row>
-    <row r="46" spans="1:73">
+    <row r="46" spans="1:73" x14ac:dyDescent="0.25">
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
@@ -24906,7 +25059,7 @@
       </c>
       <c r="AM46" s="2">
         <f>MIN(BT5:BT43)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AO46" t="s">
         <v>3</v>
@@ -24915,7 +25068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:73" ht="15.75" thickBot="1">
+    <row r="47" spans="1:73" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -24927,34 +25080,34 @@
       <c r="AM47" s="2"/>
       <c r="AQ47" s="4"/>
     </row>
-    <row r="48" spans="1:73">
-      <c r="A48" s="182" t="s">
+    <row r="48" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A48" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="187" t="s">
+      <c r="B48" s="175" t="s">
         <v>73</v>
       </c>
-      <c r="C48" s="184" t="s">
+      <c r="C48" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="D48" s="187" t="s">
+      <c r="D48" s="175" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="187" t="s">
+      <c r="E48" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="F48" s="183" t="s">
+      <c r="F48" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="G48" s="189" t="s">
+      <c r="G48" s="172" t="s">
         <v>117</v>
       </c>
-      <c r="H48" s="172"/>
-      <c r="I48" s="172"/>
-      <c r="J48" s="172"/>
-      <c r="K48" s="172"/>
-      <c r="L48" s="172"/>
-      <c r="M48" s="173"/>
+      <c r="H48" s="173"/>
+      <c r="I48" s="173"/>
+      <c r="J48" s="173"/>
+      <c r="K48" s="173"/>
+      <c r="L48" s="173"/>
+      <c r="M48" s="174"/>
       <c r="N48" s="149" t="s">
         <v>118</v>
       </c>
@@ -25124,13 +25277,13 @@
       <c r="BT48" s="134"/>
       <c r="BU48" s="124"/>
     </row>
-    <row r="49" spans="1:73" ht="45">
-      <c r="A49" s="182"/>
-      <c r="B49" s="188"/>
-      <c r="C49" s="185"/>
-      <c r="D49" s="188"/>
-      <c r="E49" s="188"/>
-      <c r="F49" s="183"/>
+    <row r="49" spans="1:73" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="181"/>
+      <c r="B49" s="176"/>
+      <c r="C49" s="178"/>
+      <c r="D49" s="176"/>
+      <c r="E49" s="176"/>
+      <c r="F49" s="182"/>
       <c r="G49" s="68" t="s">
         <v>114</v>
       </c>
@@ -25369,7 +25522,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:73" ht="15" customHeight="1">
+    <row r="50" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <v>1</v>
       </c>
@@ -25510,7 +25663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:73" ht="15" customHeight="1">
+    <row r="51" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="15">
         <v>2</v>
       </c>
@@ -25653,7 +25806,7 @@
         <v>7.8030077775645461</v>
       </c>
     </row>
-    <row r="52" spans="1:73" ht="15" customHeight="1">
+    <row r="52" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15">
         <v>3</v>
       </c>
@@ -25796,7 +25949,7 @@
         <v>7.0111603640769475</v>
       </c>
     </row>
-    <row r="53" spans="1:73" ht="15" customHeight="1">
+    <row r="53" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15">
         <v>4</v>
       </c>
@@ -25939,7 +26092,7 @@
         <v>6.949332499579473</v>
       </c>
     </row>
-    <row r="54" spans="1:73" ht="15" customHeight="1">
+    <row r="54" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15">
         <v>5</v>
       </c>
@@ -26074,7 +26227,7 @@
         <v>6.5128437865123772</v>
       </c>
     </row>
-    <row r="55" spans="1:73" ht="15" customHeight="1">
+    <row r="55" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="15">
         <v>6</v>
       </c>
@@ -26213,7 +26366,7 @@
         <v>6.1958175540634182</v>
       </c>
     </row>
-    <row r="56" spans="1:73" ht="15" customHeight="1">
+    <row r="56" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15">
         <v>7</v>
       </c>
@@ -26348,7 +26501,7 @@
         <v>6.086606390960406</v>
       </c>
     </row>
-    <row r="57" spans="1:73" ht="15" customHeight="1">
+    <row r="57" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15">
         <v>8</v>
       </c>
@@ -26485,7 +26638,7 @@
         <v>6.053102030166885</v>
       </c>
     </row>
-    <row r="58" spans="1:73" ht="15" customHeight="1">
+    <row r="58" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15">
         <v>9</v>
       </c>
@@ -26622,7 +26775,7 @@
         <v>5.9521617953739216</v>
       </c>
     </row>
-    <row r="59" spans="1:73" ht="15" customHeight="1">
+    <row r="59" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="15">
         <v>10</v>
       </c>
@@ -26757,7 +26910,7 @@
         <v>5.8989347018740919</v>
       </c>
     </row>
-    <row r="60" spans="1:73" ht="15" customHeight="1">
+    <row r="60" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15">
         <v>11</v>
       </c>
@@ -26892,7 +27045,7 @@
         <v>5.7287578312619241</v>
       </c>
     </row>
-    <row r="61" spans="1:73" ht="15" customHeight="1">
+    <row r="61" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15">
         <v>12</v>
       </c>
@@ -27027,7 +27180,7 @@
         <v>5.6460550530204978</v>
       </c>
     </row>
-    <row r="62" spans="1:73" ht="15" customHeight="1">
+    <row r="62" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="15">
         <v>13</v>
       </c>
@@ -27166,7 +27319,7 @@
         <v>5.6076861417842956</v>
       </c>
     </row>
-    <row r="63" spans="1:73" ht="15" customHeight="1">
+    <row r="63" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="15">
         <v>14</v>
       </c>
@@ -27303,7 +27456,7 @@
         <v>5.4199483199640826</v>
       </c>
     </row>
-    <row r="64" spans="1:73" ht="15" customHeight="1">
+    <row r="64" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="15">
         <v>15</v>
       </c>
@@ -27438,7 +27591,7 @@
         <v>5.3979467182962164</v>
       </c>
     </row>
-    <row r="65" spans="1:73" ht="15" customHeight="1">
+    <row r="65" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="15">
         <v>16</v>
       </c>
@@ -27573,7 +27726,7 @@
         <v>5.2214080955116318</v>
       </c>
     </row>
-    <row r="66" spans="1:73" ht="15" customHeight="1">
+    <row r="66" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="15">
         <v>17</v>
       </c>
@@ -27706,7 +27859,7 @@
         <v>5.2134559052961107</v>
       </c>
     </row>
-    <row r="67" spans="1:73" ht="15" customHeight="1">
+    <row r="67" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="15">
         <v>18</v>
       </c>
@@ -27839,7 +27992,7 @@
         <v>5.2039132770374836</v>
       </c>
     </row>
-    <row r="68" spans="1:73" ht="15" customHeight="1">
+    <row r="68" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="15">
         <v>19</v>
       </c>
@@ -27972,7 +28125,7 @@
         <v>5.157790573787457</v>
       </c>
     </row>
-    <row r="69" spans="1:73" ht="15" customHeight="1">
+    <row r="69" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="15">
         <v>20</v>
       </c>
@@ -28105,7 +28258,7 @@
         <v>5.1068965564081177</v>
       </c>
     </row>
-    <row r="70" spans="1:73" ht="15" customHeight="1">
+    <row r="70" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="15">
         <v>21</v>
       </c>
@@ -28242,7 +28395,7 @@
         <v>4.8261316608560314</v>
       </c>
     </row>
-    <row r="71" spans="1:73" ht="15" customHeight="1">
+    <row r="71" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15">
         <v>22</v>
       </c>
@@ -28385,7 +28538,7 @@
         <v>4.8181794706405103</v>
       </c>
     </row>
-    <row r="72" spans="1:73" ht="15" customHeight="1">
+    <row r="72" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15">
         <v>23</v>
       </c>
@@ -28524,7 +28677,7 @@
         <v>4.6723101742372339</v>
       </c>
     </row>
-    <row r="73" spans="1:73" ht="15" customHeight="1">
+    <row r="73" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="15">
         <v>24</v>
       </c>
@@ -28657,7 +28810,7 @@
         <v>4.6599834662957909</v>
       </c>
     </row>
-    <row r="74" spans="1:73" ht="15" customHeight="1">
+    <row r="74" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="15">
         <v>25</v>
       </c>
@@ -28792,7 +28945,7 @@
         <v>4.5995468206578254</v>
       </c>
     </row>
-    <row r="75" spans="1:73" ht="15" customHeight="1">
+    <row r="75" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="15">
         <v>26</v>
       </c>
@@ -28925,7 +29078,7 @@
         <v>4.5009396619853543</v>
       </c>
     </row>
-    <row r="76" spans="1:73" ht="15" customHeight="1">
+    <row r="76" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="15">
         <v>27</v>
       </c>
@@ -29058,7 +29211,7 @@
         <v>4.2273843185714028</v>
       </c>
     </row>
-    <row r="77" spans="1:73" ht="15" customHeight="1">
+    <row r="77" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="15">
         <v>28</v>
       </c>
@@ -29191,7 +29344,7 @@
         <v>4.0937875229506364</v>
       </c>
     </row>
-    <row r="78" spans="1:73" ht="15" customHeight="1">
+    <row r="78" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="15">
         <v>29</v>
       </c>
@@ -29326,7 +29479,7 @@
         <v>3.8440887501832517</v>
       </c>
     </row>
-    <row r="79" spans="1:73" ht="15" customHeight="1">
+    <row r="79" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="15">
         <v>30</v>
       </c>
@@ -29461,7 +29614,7 @@
         <v>3.7375294012952591</v>
       </c>
     </row>
-    <row r="80" spans="1:73" ht="15" customHeight="1">
+    <row r="80" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="15">
         <v>31</v>
       </c>
@@ -29596,7 +29749,7 @@
         <v>3.4989636948296043</v>
       </c>
     </row>
-    <row r="81" spans="1:73" ht="15" customHeight="1">
+    <row r="81" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="15">
         <v>32</v>
       </c>
@@ -29729,7 +29882,7 @@
         <v>3.406718288329551</v>
       </c>
     </row>
-    <row r="82" spans="1:73" ht="15" customHeight="1">
+    <row r="82" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="15">
         <v>33</v>
       </c>
@@ -29862,7 +30015,7 @@
         <v>3.1808760862087309</v>
       </c>
     </row>
-    <row r="83" spans="1:73" ht="15" customHeight="1">
+    <row r="83" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="15">
         <v>34</v>
       </c>
@@ -29997,7 +30150,7 @@
         <v>3.0266035960276079</v>
       </c>
     </row>
-    <row r="84" spans="1:73" ht="15" customHeight="1">
+    <row r="84" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="15">
         <v>35</v>
       </c>
@@ -30130,7 +30283,7 @@
         <v>2.8627884775878578</v>
       </c>
     </row>
-    <row r="85" spans="1:73" ht="15" customHeight="1">
+    <row r="85" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="15">
         <v>36</v>
       </c>
@@ -30263,7 +30416,7 @@
         <v>2.8627884775878578</v>
       </c>
     </row>
-    <row r="86" spans="1:73" ht="15" customHeight="1">
+    <row r="86" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="15">
         <v>37</v>
       </c>
@@ -30398,7 +30551,7 @@
         <v>2.5447008689669848</v>
       </c>
     </row>
-    <row r="87" spans="1:73" ht="15" customHeight="1">
+    <row r="87" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="15">
         <v>38</v>
       </c>
@@ -30531,7 +30684,7 @@
         <v>2.5447008689669848</v>
       </c>
     </row>
-    <row r="88" spans="1:73" ht="15" customHeight="1" thickBot="1">
+    <row r="88" spans="1:73" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="15">
         <v>41</v>
       </c>
@@ -30664,7 +30817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:73" ht="15" hidden="1" customHeight="1">
+    <row r="89" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="15"/>
       <c r="B89" s="12"/>
       <c r="C89" s="84"/>
@@ -30739,7 +30892,7 @@
       <c r="BT89" s="136"/>
       <c r="BU89" s="123"/>
     </row>
-    <row r="90" spans="1:73" ht="15" hidden="1" customHeight="1">
+    <row r="90" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="15"/>
       <c r="B90" s="12"/>
       <c r="C90" s="84"/>
@@ -30814,7 +30967,7 @@
       <c r="BT90" s="131"/>
       <c r="BU90" s="9"/>
     </row>
-    <row r="91" spans="1:73" ht="15" hidden="1" customHeight="1">
+    <row r="91" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="15"/>
       <c r="B91" s="12"/>
       <c r="C91" s="84"/>
@@ -30889,7 +31042,7 @@
       <c r="BT91" s="131"/>
       <c r="BU91" s="9"/>
     </row>
-    <row r="92" spans="1:73" ht="15" hidden="1" customHeight="1">
+    <row r="92" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="15"/>
       <c r="B92" s="12"/>
       <c r="C92" s="84"/>
@@ -30964,7 +31117,7 @@
       <c r="BT92" s="131"/>
       <c r="BU92" s="9"/>
     </row>
-    <row r="93" spans="1:73" ht="15" hidden="1" customHeight="1">
+    <row r="93" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="15"/>
       <c r="B93" s="12"/>
       <c r="C93" s="84"/>
@@ -31039,7 +31192,7 @@
       <c r="BT93" s="131"/>
       <c r="BU93" s="9"/>
     </row>
-    <row r="94" spans="1:73" ht="15" hidden="1" customHeight="1">
+    <row r="94" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="15"/>
       <c r="B94" s="12"/>
       <c r="C94" s="84"/>
@@ -31114,7 +31267,7 @@
       <c r="BT94" s="131"/>
       <c r="BU94" s="9"/>
     </row>
-    <row r="95" spans="1:73" ht="15" hidden="1" customHeight="1">
+    <row r="95" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="15"/>
       <c r="B95" s="12"/>
       <c r="C95" s="84"/>
@@ -31189,7 +31342,7 @@
       <c r="BT95" s="131"/>
       <c r="BU95" s="9"/>
     </row>
-    <row r="96" spans="1:73" ht="15" hidden="1" customHeight="1">
+    <row r="96" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="15"/>
       <c r="B96" s="12"/>
       <c r="C96" s="84"/>
@@ -31264,7 +31417,7 @@
       <c r="BT96" s="131"/>
       <c r="BU96" s="9"/>
     </row>
-    <row r="97" spans="1:73" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="15"/>
       <c r="B97" s="12"/>
       <c r="C97" s="84"/>
@@ -31339,7 +31492,7 @@
       <c r="BT97" s="131"/>
       <c r="BU97" s="9"/>
     </row>
-    <row r="98" spans="1:73" hidden="1">
+    <row r="98" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="13"/>
       <c r="B98" s="12"/>
       <c r="C98" s="84"/>
@@ -31414,7 +31567,7 @@
       <c r="BT98" s="131"/>
       <c r="BU98" s="9"/>
     </row>
-    <row r="99" spans="1:73" hidden="1">
+    <row r="99" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="13"/>
       <c r="B99" s="12"/>
       <c r="C99" s="84"/>
@@ -31489,7 +31642,7 @@
       <c r="BT99" s="131"/>
       <c r="BU99" s="9"/>
     </row>
-    <row r="100" spans="1:73" hidden="1">
+    <row r="100" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="13"/>
       <c r="B100" s="12"/>
       <c r="C100" s="84"/>
@@ -31564,7 +31717,7 @@
       <c r="BT100" s="131"/>
       <c r="BU100" s="9"/>
     </row>
-    <row r="101" spans="1:73" hidden="1">
+    <row r="101" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
       <c r="B101" s="12"/>
       <c r="C101" s="84"/>
@@ -31639,7 +31792,7 @@
       <c r="BT101" s="131"/>
       <c r="BU101" s="9"/>
     </row>
-    <row r="102" spans="1:73" hidden="1">
+    <row r="102" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="13"/>
       <c r="B102" s="12"/>
       <c r="C102" s="84"/>
@@ -31714,7 +31867,7 @@
       <c r="BT102" s="131"/>
       <c r="BU102" s="9"/>
     </row>
-    <row r="103" spans="1:73" hidden="1">
+    <row r="103" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13"/>
       <c r="B103" s="12"/>
       <c r="C103" s="84"/>
@@ -31789,7 +31942,7 @@
       <c r="BT103" s="131"/>
       <c r="BU103" s="9"/>
     </row>
-    <row r="104" spans="1:73" hidden="1">
+    <row r="104" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13"/>
       <c r="B104" s="12"/>
       <c r="C104" s="84"/>
@@ -31864,7 +32017,7 @@
       <c r="BT104" s="131"/>
       <c r="BU104" s="9"/>
     </row>
-    <row r="105" spans="1:73" hidden="1">
+    <row r="105" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13"/>
       <c r="B105" s="12"/>
       <c r="C105" s="84"/>
@@ -31939,7 +32092,7 @@
       <c r="BT105" s="131"/>
       <c r="BU105" s="9"/>
     </row>
-    <row r="106" spans="1:73" hidden="1">
+    <row r="106" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13"/>
       <c r="B106" s="12"/>
       <c r="C106" s="84"/>
@@ -32014,7 +32167,7 @@
       <c r="BT106" s="131"/>
       <c r="BU106" s="9"/>
     </row>
-    <row r="107" spans="1:73" hidden="1">
+    <row r="107" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="13"/>
       <c r="B107" s="12"/>
       <c r="C107" s="84"/>
@@ -32089,7 +32242,7 @@
       <c r="BT107" s="131"/>
       <c r="BU107" s="9"/>
     </row>
-    <row r="108" spans="1:73" hidden="1">
+    <row r="108" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="13"/>
       <c r="B108" s="12"/>
       <c r="C108" s="84"/>
@@ -32164,7 +32317,7 @@
       <c r="BT108" s="131"/>
       <c r="BU108" s="9"/>
     </row>
-    <row r="109" spans="1:73" hidden="1">
+    <row r="109" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="13"/>
       <c r="B109" s="12"/>
       <c r="C109" s="84"/>
@@ -32239,7 +32392,7 @@
       <c r="BT109" s="131"/>
       <c r="BU109" s="9"/>
     </row>
-    <row r="110" spans="1:73" hidden="1">
+    <row r="110" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="13"/>
       <c r="B110" s="12"/>
       <c r="C110" s="84"/>
@@ -32314,7 +32467,7 @@
       <c r="BT110" s="131"/>
       <c r="BU110" s="9"/>
     </row>
-    <row r="111" spans="1:73" hidden="1">
+    <row r="111" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="13"/>
       <c r="B111" s="12"/>
       <c r="C111" s="84"/>
@@ -32389,7 +32542,7 @@
       <c r="BT111" s="131"/>
       <c r="BU111" s="9"/>
     </row>
-    <row r="112" spans="1:73" hidden="1">
+    <row r="112" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="13"/>
       <c r="B112" s="12"/>
       <c r="C112" s="84"/>
@@ -32464,7 +32617,7 @@
       <c r="BT112" s="131"/>
       <c r="BU112" s="9"/>
     </row>
-    <row r="113" spans="1:73" hidden="1">
+    <row r="113" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="13"/>
       <c r="B113" s="12"/>
       <c r="C113" s="84"/>
@@ -32539,7 +32692,7 @@
       <c r="BT113" s="131"/>
       <c r="BU113" s="9"/>
     </row>
-    <row r="114" spans="1:73" hidden="1">
+    <row r="114" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="13"/>
       <c r="B114" s="12"/>
       <c r="C114" s="84"/>
@@ -32614,7 +32767,7 @@
       <c r="BT114" s="131"/>
       <c r="BU114" s="9"/>
     </row>
-    <row r="115" spans="1:73" hidden="1">
+    <row r="115" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="13"/>
       <c r="B115" s="12"/>
       <c r="C115" s="84"/>
@@ -32689,7 +32842,7 @@
       <c r="BT115" s="131"/>
       <c r="BU115" s="9"/>
     </row>
-    <row r="116" spans="1:73" hidden="1">
+    <row r="116" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="13"/>
       <c r="B116" s="12"/>
       <c r="C116" s="84"/>
@@ -32764,7 +32917,7 @@
       <c r="BT116" s="131"/>
       <c r="BU116" s="9"/>
     </row>
-    <row r="117" spans="1:73" hidden="1">
+    <row r="117" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="13"/>
       <c r="B117" s="12"/>
       <c r="C117" s="84"/>
@@ -32839,7 +32992,7 @@
       <c r="BT117" s="131"/>
       <c r="BU117" s="9"/>
     </row>
-    <row r="118" spans="1:73" hidden="1">
+    <row r="118" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="13"/>
       <c r="B118" s="12"/>
       <c r="C118" s="84"/>
@@ -32914,7 +33067,7 @@
       <c r="BT118" s="131"/>
       <c r="BU118" s="9"/>
     </row>
-    <row r="119" spans="1:73" hidden="1">
+    <row r="119" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="13"/>
       <c r="B119" s="12"/>
       <c r="C119" s="84"/>
@@ -32989,7 +33142,7 @@
       <c r="BT119" s="131"/>
       <c r="BU119" s="9"/>
     </row>
-    <row r="120" spans="1:73" hidden="1">
+    <row r="120" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="13"/>
       <c r="B120" s="12"/>
       <c r="C120" s="84"/>
@@ -33064,7 +33217,7 @@
       <c r="BT120" s="131"/>
       <c r="BU120" s="9"/>
     </row>
-    <row r="121" spans="1:73" hidden="1">
+    <row r="121" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="13"/>
       <c r="B121" s="12"/>
       <c r="C121" s="84"/>
@@ -33139,7 +33292,7 @@
       <c r="BT121" s="131"/>
       <c r="BU121" s="9"/>
     </row>
-    <row r="122" spans="1:73" hidden="1">
+    <row r="122" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="13"/>
       <c r="B122" s="12"/>
       <c r="C122" s="84"/>
@@ -33214,7 +33367,7 @@
       <c r="BT122" s="131"/>
       <c r="BU122" s="9"/>
     </row>
-    <row r="123" spans="1:73" ht="15.75" hidden="1" thickBot="1">
+    <row r="123" spans="1:73" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="13"/>
       <c r="B123" s="12"/>
       <c r="C123" s="84"/>
@@ -33289,7 +33442,7 @@
       <c r="BT123" s="131"/>
       <c r="BU123" s="9"/>
     </row>
-    <row r="124" spans="1:73" ht="15" hidden="1" customHeight="1">
+    <row r="124" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
@@ -33361,12 +33514,20 @@
       <c r="BS124" s="8"/>
       <c r="BT124" s="132"/>
     </row>
-    <row r="125" spans="1:73" ht="15" hidden="1" customHeight="1"/>
+    <row r="125" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState ref="B50:BU88">
     <sortCondition descending="1" ref="BU50:BU88"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="N2:AH2"/>
+    <mergeCell ref="G2:M3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="G48:M48"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="C48:C49"/>
@@ -33380,14 +33541,6 @@
     <mergeCell ref="D48:D49"/>
     <mergeCell ref="E48:E49"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="N2:AH2"/>
-    <mergeCell ref="G2:M3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AD3:AE3"/>
   </mergeCells>
   <conditionalFormatting sqref="BU50:BU88">
     <cfRule type="expression" dxfId="13" priority="21">
@@ -33451,14 +33604,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IU49"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
@@ -33473,7 +33626,7 @@
     <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="191" t="s">
         <v>116</v>
       </c>
@@ -33732,7 +33885,7 @@
       <c r="IT1" s="191"/>
       <c r="IU1" s="191"/>
     </row>
-    <row r="2" spans="1:255" ht="15.75" thickBot="1">
+    <row r="2" spans="1:255" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="194" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -33748,7 +33901,7 @@
       <c r="J2" s="194"/>
       <c r="K2" s="194"/>
     </row>
-    <row r="3" spans="1:255" ht="15" customHeight="1">
+    <row r="3" spans="1:255" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="195" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -33789,7 +33942,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:255" ht="15.75" thickBot="1">
+    <row r="4" spans="1:255" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="196"/>
       <c r="B4" s="198"/>
       <c r="C4" s="200"/>
@@ -33802,7 +33955,7 @@
       <c r="J4" s="210"/>
       <c r="K4" s="211"/>
     </row>
-    <row r="5" spans="1:255" s="54" customFormat="1">
+    <row r="5" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="62">
         <v>1</v>
       </c>
@@ -33840,7 +33993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:255" s="54" customFormat="1">
+    <row r="6" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55">
         <v>2</v>
       </c>
@@ -33879,7 +34032,7 @@
       </c>
       <c r="M6" s="79"/>
     </row>
-    <row r="7" spans="1:255" s="54" customFormat="1">
+    <row r="7" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55">
         <v>3</v>
       </c>
@@ -33917,7 +34070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:255" s="54" customFormat="1">
+    <row r="8" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="55">
         <v>4</v>
       </c>
@@ -33955,7 +34108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:255" s="54" customFormat="1">
+    <row r="9" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="55">
         <v>5</v>
       </c>
@@ -33993,7 +34146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:255" s="54" customFormat="1">
+    <row r="10" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55">
         <v>6</v>
       </c>
@@ -34031,7 +34184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:255" s="54" customFormat="1">
+    <row r="11" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="55">
         <v>7</v>
       </c>
@@ -34069,7 +34222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:255" s="54" customFormat="1">
+    <row r="12" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55">
         <v>8</v>
       </c>
@@ -34107,7 +34260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:255" s="54" customFormat="1">
+    <row r="13" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55">
         <v>9</v>
       </c>
@@ -34145,7 +34298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:255" s="54" customFormat="1">
+    <row r="14" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55">
         <v>11</v>
       </c>
@@ -34183,7 +34336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:255" s="54" customFormat="1">
+    <row r="15" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55">
         <v>12</v>
       </c>
@@ -34221,7 +34374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:255" s="54" customFormat="1">
+    <row r="16" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="55">
         <v>13</v>
       </c>
@@ -34259,7 +34412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="54" customFormat="1">
+    <row r="17" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55">
         <v>15</v>
       </c>
@@ -34296,7 +34449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="54" customFormat="1">
+    <row r="18" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="55">
         <v>16</v>
       </c>
@@ -34334,7 +34487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="54" customFormat="1">
+    <row r="19" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55">
         <v>17</v>
       </c>
@@ -34372,7 +34525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="54" customFormat="1">
+    <row r="20" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55">
         <v>18</v>
       </c>
@@ -34410,7 +34563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="54" customFormat="1">
+    <row r="21" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55">
         <v>19</v>
       </c>
@@ -34448,7 +34601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="54" customFormat="1">
+    <row r="22" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="55">
         <v>20</v>
       </c>
@@ -34486,7 +34639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="54" customFormat="1">
+    <row r="23" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55">
         <v>21</v>
       </c>
@@ -34524,7 +34677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="54" customFormat="1">
+    <row r="24" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="55">
         <v>22</v>
       </c>
@@ -34562,7 +34715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="54" customFormat="1">
+    <row r="25" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="55">
         <v>23</v>
       </c>
@@ -34600,7 +34753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="54" customFormat="1">
+    <row r="26" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55">
         <v>24</v>
       </c>
@@ -34638,7 +34791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="54" customFormat="1">
+    <row r="27" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55">
         <v>25</v>
       </c>
@@ -34676,7 +34829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="54" customFormat="1">
+    <row r="28" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55">
         <v>26</v>
       </c>
@@ -34714,7 +34867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="54" customFormat="1">
+    <row r="29" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55">
         <v>27</v>
       </c>
@@ -34752,7 +34905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="54" customFormat="1">
+    <row r="30" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55">
         <v>28</v>
       </c>
@@ -34790,7 +34943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="54" customFormat="1">
+    <row r="31" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="55">
         <v>29</v>
       </c>
@@ -34828,7 +34981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="54" customFormat="1">
+    <row r="32" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="55">
         <v>30</v>
       </c>
@@ -34866,7 +35019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="54" customFormat="1">
+    <row r="33" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="55">
         <v>31</v>
       </c>
@@ -34904,7 +35057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="54" customFormat="1">
+    <row r="34" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="55">
         <v>32</v>
       </c>
@@ -34942,7 +35095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="54" customFormat="1">
+    <row r="35" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55">
         <v>33</v>
       </c>
@@ -34980,7 +35133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="54" customFormat="1">
+    <row r="36" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="55">
         <v>34</v>
       </c>
@@ -35018,7 +35171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="54" customFormat="1">
+    <row r="37" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="55">
         <v>35</v>
       </c>
@@ -35056,7 +35209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="54" customFormat="1">
+    <row r="38" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55">
         <v>37</v>
       </c>
@@ -35094,7 +35247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="54" customFormat="1">
+    <row r="39" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="55">
         <v>38</v>
       </c>
@@ -35132,7 +35285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="54" customFormat="1">
+    <row r="40" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="55">
         <v>39</v>
       </c>
@@ -35170,7 +35323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="54" customFormat="1">
+    <row r="41" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="55">
         <v>40</v>
       </c>
@@ -35208,7 +35361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="54" customFormat="1">
+    <row r="42" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="55">
         <v>41</v>
       </c>
@@ -35246,7 +35399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1">
+    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="56">
         <v>42</v>
       </c>
@@ -35284,7 +35437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="40" customFormat="1">
+    <row r="44" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="53"/>
       <c r="B44" s="53"/>
       <c r="C44" s="53"/>
@@ -35293,7 +35446,7 @@
       <c r="F44" s="53"/>
       <c r="G44" s="53"/>
     </row>
-    <row r="45" spans="1:11" s="40" customFormat="1">
+    <row r="45" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="53"/>
       <c r="B45" s="53"/>
       <c r="C45" s="53"/>
@@ -35302,7 +35455,7 @@
       <c r="F45" s="53"/>
       <c r="G45" s="53"/>
     </row>
-    <row r="46" spans="1:11" s="40" customFormat="1">
+    <row r="46" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="53"/>
       <c r="B46" s="53"/>
       <c r="C46" s="53"/>
@@ -35311,7 +35464,7 @@
       <c r="F46" s="53"/>
       <c r="G46" s="53"/>
     </row>
-    <row r="47" spans="1:11" s="40" customFormat="1">
+    <row r="47" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="53"/>
       <c r="B47" s="53"/>
       <c r="C47" s="53"/>
@@ -35320,7 +35473,7 @@
       <c r="F47" s="53"/>
       <c r="G47" s="53"/>
     </row>
-    <row r="48" spans="1:11" s="40" customFormat="1">
+    <row r="48" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="53"/>
       <c r="B48" s="53"/>
       <c r="C48" s="53"/>
@@ -35329,7 +35482,7 @@
       <c r="F48" s="53"/>
       <c r="G48" s="53"/>
     </row>
-    <row r="49" spans="1:7" s="40" customFormat="1">
+    <row r="49" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="53"/>
       <c r="B49" s="53"/>
       <c r="C49" s="53"/>
@@ -35359,14 +35512,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" style="78" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="2" customWidth="1"/>
@@ -35375,7 +35528,7 @@
     <col min="52" max="52" width="9.140625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="191" t="s">
         <v>116</v>
       </c>
@@ -35635,7 +35788,7 @@
       <c r="IU1" s="191"/>
       <c r="IV1" s="191"/>
     </row>
-    <row r="2" spans="1:256" s="43" customFormat="1">
+    <row r="2" spans="1:256" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>127</v>
       </c>
@@ -35793,7 +35946,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:256" s="40" customFormat="1">
+    <row r="3" spans="1:256" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="78">
         <v>0</v>
       </c>
@@ -35951,7 +36104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:256">
+    <row r="4" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A4" s="78">
         <v>1</v>
       </c>
@@ -36159,7 +36312,7 @@
         <v>0.89695192324410611</v>
       </c>
     </row>
-    <row r="5" spans="1:256">
+    <row r="5" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A5" s="78">
         <f>A4+1</f>
         <v>2</v>
@@ -36368,7 +36521,7 @@
         <v>0.87018571255634025</v>
       </c>
     </row>
-    <row r="6" spans="1:256">
+    <row r="6" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A6" s="78">
         <f t="shared" ref="A6:A69" si="3">A5+1</f>
         <v>3</v>
@@ -36577,7 +36730,7 @@
         <v>0.84629551063873676</v>
       </c>
     </row>
-    <row r="7" spans="1:256">
+    <row r="7" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A7" s="78">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -36786,7 +36939,7 @@
         <v>0.82445642806579367</v>
       </c>
     </row>
-    <row r="8" spans="1:256">
+    <row r="8" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A8" s="78">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -36995,7 +37148,7 @@
         <v>0.80422263750866019</v>
       </c>
     </row>
-    <row r="9" spans="1:256">
+    <row r="9" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A9" s="78">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -37204,7 +37357,7 @@
         <v>0.78531313248338608</v>
       </c>
     </row>
-    <row r="10" spans="1:256">
+    <row r="10" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A10" s="78">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -37413,7 +37566,7 @@
         <v>0.76753310411070741</v>
       </c>
     </row>
-    <row r="11" spans="1:256">
+    <row r="11" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A11" s="78">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -37622,7 +37775,7 @@
         <v>0.75073850127167796</v>
       </c>
     </row>
-    <row r="12" spans="1:256">
+    <row r="12" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A12" s="78">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -37831,7 +37984,7 @@
         <v>0.73481776731189774</v>
       </c>
     </row>
-    <row r="13" spans="1:256">
+    <row r="13" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A13" s="78">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -38040,7 +38193,7 @@
         <v>0.71968148502792184</v>
       </c>
     </row>
-    <row r="14" spans="1:256">
+    <row r="14" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A14" s="78">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -38249,7 +38402,7 @@
         <v>0.70525606632121929</v>
       </c>
     </row>
-    <row r="15" spans="1:256">
+    <row r="15" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A15" s="78">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -38458,7 +38611,7 @@
         <v>0.69147968248291725</v>
       </c>
     </row>
-    <row r="16" spans="1:256">
+    <row r="16" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A16" s="78">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -38667,7 +38820,7 @@
         <v>0.67829951653884102</v>
       </c>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" s="78">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -38876,7 +39029,7 @@
         <v>0.66566983669222213</v>
       </c>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A18" s="78">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -39085,7 +39238,7 @@
         <v>0.65355060191796732</v>
       </c>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19" s="78">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -39294,7 +39447,7 @@
         <v>0.64190642508943729</v>
       </c>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20" s="78">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -39503,7 +39656,7 @@
         <v>0.63070578385177745</v>
       </c>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A21" s="78">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -39712,7 +39865,7 @@
         <v>0.61992040782875424</v>
       </c>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A22" s="78">
         <f t="shared" si="3"/>
         <v>19</v>
@@ -39921,7 +40074,7 @@
         <v>0.60952479431466833</v>
       </c>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A23" s="78">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -40130,7 +40283,7 @@
         <v>0.59949581954633846</v>
       </c>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A24" s="78">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -40339,7 +40492,7 @@
         <v>0.58981242239837206</v>
       </c>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A25" s="78">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -40548,7 +40701,7 @@
         <v>0.58045534386588959</v>
       </c>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A26" s="78">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -40757,7 +40910,7 @@
         <v>0.57140691016010958</v>
       </c>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A27" s="78">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -40966,7 +41119,7 @@
         <v>0.56265085035673512</v>
       </c>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A28" s="78">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -41175,7 +41328,7 @@
         <v>0.55417214175163687</v>
       </c>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A29" s="78">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -41384,7 +41537,7 @@
         <v>0.54595687767947287</v>
       </c>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A30" s="78">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -41593,7 +41746,7 @@
         <v>0.53799215372631093</v>
       </c>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A31" s="78">
         <f t="shared" si="3"/>
         <v>28</v>
@@ -41802,7 +41955,7 @@
         <v>0.53026596914239565</v>
       </c>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A32" s="78">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -42011,7 +42164,7 @@
         <v>0.52276714092111976</v>
       </c>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A33" s="78">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -42220,7 +42373,7 @@
         <v>0.51548522851390399</v>
       </c>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A34" s="78">
         <f t="shared" si="3"/>
         <v>31</v>
@@ -42429,7 +42582,7 @@
         <v>0.50841046753931596</v>
       </c>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A35" s="78">
         <f t="shared" si="3"/>
         <v>32</v>
@@ -42638,7 +42791,7 @@
         <v>0.5015337111477397</v>
       </c>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A36" s="78">
         <f t="shared" si="3"/>
         <v>33</v>
@@ -42847,7 +43000,7 @@
         <v>0.49484637794137742</v>
       </c>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A37" s="78">
         <f t="shared" si="3"/>
         <v>34</v>
@@ -43056,7 +43209,7 @@
         <v>0.48834040553873787</v>
       </c>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A38" s="78">
         <f t="shared" si="3"/>
         <v>35</v>
@@ -43265,7 +43418,7 @@
         <v>0.48200820902440999</v>
       </c>
     </row>
-    <row r="39" spans="1:52">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A39" s="78">
         <f t="shared" si="3"/>
         <v>36</v>
@@ -43474,7 +43627,7 @@
         <v>0.4758426436472955</v>
       </c>
     </row>
-    <row r="40" spans="1:52">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A40" s="78">
         <f t="shared" si="3"/>
         <v>37</v>
@@ -43683,7 +43836,7 @@
         <v>0.46983697122996571</v>
       </c>
     </row>
-    <row r="41" spans="1:52">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A41" s="78">
         <f t="shared" si="3"/>
         <v>38</v>
@@ -43892,7 +44045,7 @@
         <v>0.46398482983322931</v>
       </c>
     </row>
-    <row r="42" spans="1:52">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A42" s="78">
         <f t="shared" si="3"/>
         <v>39</v>
@@ -44101,7 +44254,7 @@
         <v>0.45828020628708993</v>
       </c>
     </row>
-    <row r="43" spans="1:52">
+    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A43" s="78">
         <f t="shared" si="3"/>
         <v>40</v>
@@ -44310,7 +44463,7 @@
         <v>0.45271741125486509</v>
       </c>
     </row>
-    <row r="44" spans="1:52">
+    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A44" s="78">
         <f t="shared" si="3"/>
         <v>41</v>
@@ -44519,7 +44672,7 @@
         <v>0.44729105654358564</v>
       </c>
     </row>
-    <row r="45" spans="1:52">
+    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A45" s="78">
         <f t="shared" si="3"/>
         <v>42</v>
@@ -44728,7 +44881,7 @@
         <v>0.44199603441263408</v>
       </c>
     </row>
-    <row r="46" spans="1:52">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A46" s="78">
         <f t="shared" si="3"/>
         <v>43</v>
@@ -44937,7 +45090,7 @@
         <v>0.43682749866529708</v>
       </c>
     </row>
-    <row r="47" spans="1:52">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A47" s="78">
         <f t="shared" si="3"/>
         <v>44</v>
@@ -45146,7 +45299,7 @@
         <v>0.43178084733559291</v>
       </c>
     </row>
-    <row r="48" spans="1:52">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A48" s="78">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -45355,7 +45508,7 @@
         <v>0.42685170680628148</v>
       </c>
     </row>
-    <row r="49" spans="1:52">
+    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A49" s="78">
         <f t="shared" si="3"/>
         <v>46</v>
@@ -45564,7 +45717,7 @@
         <v>0.42203591721406519</v>
       </c>
     </row>
-    <row r="50" spans="1:52">
+    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A50" s="78">
         <f t="shared" si="3"/>
         <v>47</v>
@@ -45773,7 +45926,7 @@
         <v>0.41732951901522114</v>
       </c>
     </row>
-    <row r="51" spans="1:52">
+    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A51" s="78">
         <f t="shared" si="3"/>
         <v>48</v>
@@ -45982,7 +46135,7 @@
         <v>0.41272874059974574</v>
       </c>
     </row>
-    <row r="52" spans="1:52">
+    <row r="52" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A52" s="78">
         <f t="shared" si="3"/>
         <v>49</v>
@@ -46191,7 +46344,7 @@
         <v>0.40822998685489836</v>
       </c>
     </row>
-    <row r="53" spans="1:52">
+    <row r="53" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A53" s="78">
         <f t="shared" si="3"/>
         <v>50</v>
@@ -46400,7 +46553,7 @@
         <v>0.40382982859014716</v>
       </c>
     </row>
-    <row r="54" spans="1:52">
+    <row r="54" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A54" s="78">
         <f t="shared" si="3"/>
         <v>51</v>
@@ -46609,7 +46762,7 @@
         <v>0.39952499274517511</v>
       </c>
     </row>
-    <row r="55" spans="1:52">
+    <row r="55" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A55" s="78">
         <f t="shared" si="3"/>
         <v>52</v>
@@ -46818,7 +46971,7 @@
         <v>0.39531235331103515</v>
       </c>
     </row>
-    <row r="56" spans="1:52">
+    <row r="56" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A56" s="78">
         <f t="shared" si="3"/>
         <v>53</v>
@@ -47027,7 +47180,7 @@
         <v>0.39118892290191981</v>
       </c>
     </row>
-    <row r="57" spans="1:52">
+    <row r="57" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A57" s="78">
         <f t="shared" si="3"/>
         <v>54</v>
@@ -47236,7 +47389,7 @@
         <v>0.38715184492148302</v>
       </c>
     </row>
-    <row r="58" spans="1:52">
+    <row r="58" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A58" s="78">
         <f t="shared" si="3"/>
         <v>55</v>
@@ -47445,7 +47598,7 @@
         <v>0.3831983862733474</v>
       </c>
     </row>
-    <row r="59" spans="1:52">
+    <row r="59" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A59" s="78">
         <f t="shared" si="3"/>
         <v>56</v>
@@ -47654,7 +47807,7 @@
         <v>0.37932593057045705</v>
       </c>
     </row>
-    <row r="60" spans="1:52">
+    <row r="60" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A60" s="78">
         <f t="shared" si="3"/>
         <v>57</v>
@@ -47863,7 +48016,7 @@
         <v>0.37553197180237941</v>
       </c>
     </row>
-    <row r="61" spans="1:52">
+    <row r="61" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A61" s="78">
         <f t="shared" si="3"/>
         <v>58</v>
@@ -48072,7 +48225,7 @@
         <v>0.37181410842360219</v>
       </c>
     </row>
-    <row r="62" spans="1:52">
+    <row r="62" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A62" s="78">
         <f t="shared" si="3"/>
         <v>59</v>
@@ -48281,7 +48434,7 @@
         <v>0.36817003782937135</v>
       </c>
     </row>
-    <row r="63" spans="1:52">
+    <row r="63" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A63" s="78">
         <f t="shared" si="3"/>
         <v>60</v>
@@ -48490,7 +48643,7 @@
         <v>0.36459755118873494</v>
       </c>
     </row>
-    <row r="64" spans="1:52">
+    <row r="64" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A64" s="78">
         <f t="shared" si="3"/>
         <v>61</v>
@@ -48699,7 +48852,7 @@
         <v>0.36109452860724189</v>
       </c>
     </row>
-    <row r="65" spans="1:52">
+    <row r="65" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A65" s="78">
         <f t="shared" si="3"/>
         <v>62</v>
@@ -48908,7 +49061,7 @@
         <v>0.35765893459423009</v>
       </c>
     </row>
-    <row r="66" spans="1:52">
+    <row r="66" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A66" s="78">
         <f t="shared" si="3"/>
         <v>63</v>
@@ -49117,7 +49270,7 @@
         <v>0.35428881381187033</v>
       </c>
     </row>
-    <row r="67" spans="1:52">
+    <row r="67" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A67" s="78">
         <f t="shared" si="3"/>
         <v>64</v>
@@ -49326,7 +49479,7 @@
         <v>0.35098228708513207</v>
       </c>
     </row>
-    <row r="68" spans="1:52">
+    <row r="68" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A68" s="78">
         <f t="shared" si="3"/>
         <v>65</v>
@@ -49535,7 +49688,7 @@
         <v>0.3477375476536349</v>
       </c>
     </row>
-    <row r="69" spans="1:52">
+    <row r="69" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A69" s="78">
         <f t="shared" si="3"/>
         <v>66</v>
@@ -49744,7 +49897,7 @@
         <v>0.34455285764797311</v>
       </c>
     </row>
-    <row r="70" spans="1:52">
+    <row r="70" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A70" s="78">
         <f t="shared" ref="A70:A103" si="22">A69+1</f>
         <v>67</v>
@@ -49953,7 +50106,7 @@
         <v>0.34142654477455808</v>
       </c>
     </row>
-    <row r="71" spans="1:52">
+    <row r="71" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A71" s="78">
         <f t="shared" si="22"/>
         <v>68</v>
@@ -50162,7 +50315,7 @@
         <v>0.33835699919434897</v>
       </c>
     </row>
-    <row r="72" spans="1:52">
+    <row r="72" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A72" s="78">
         <f t="shared" si="22"/>
         <v>69</v>
@@ -50371,7 +50524,7 @@
         <v>0.33534267058203321</v>
       </c>
     </row>
-    <row r="73" spans="1:52">
+    <row r="73" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A73" s="78">
         <f t="shared" si="22"/>
         <v>70</v>
@@ -50580,7 +50733,7 @@
         <v>0.33238206535330334</v>
       </c>
     </row>
-    <row r="74" spans="1:52">
+    <row r="74" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A74" s="78">
         <f t="shared" si="22"/>
         <v>71</v>
@@ -50789,7 +50942,7 @@
         <v>0.32947374404886082</v>
       </c>
     </row>
-    <row r="75" spans="1:52">
+    <row r="75" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A75" s="78">
         <f t="shared" si="22"/>
         <v>72</v>
@@ -50998,7 +51151,7 @@
         <v>0.32661631886466974</v>
       </c>
     </row>
-    <row r="76" spans="1:52">
+    <row r="76" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A76" s="78">
         <f t="shared" si="22"/>
         <v>73</v>
@@ -51207,7 +51360,7 @@
         <v>0.32380845131879504</v>
       </c>
     </row>
-    <row r="77" spans="1:52">
+    <row r="77" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A77" s="78">
         <f t="shared" si="22"/>
         <v>74</v>
@@ -51416,7 +51569,7 @@
         <v>0.32104885004590483</v>
       </c>
     </row>
-    <row r="78" spans="1:52">
+    <row r="78" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A78" s="78">
         <f t="shared" si="22"/>
         <v>75</v>
@@ -51625,7 +51778,7 @@
         <v>0.31833626871118842</v>
       </c>
     </row>
-    <row r="79" spans="1:52">
+    <row r="79" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A79" s="78">
         <f t="shared" si="22"/>
         <v>76</v>
@@ -51834,7 +51987,7 @@
         <v>0.31566950403605964</v>
       </c>
     </row>
-    <row r="80" spans="1:52">
+    <row r="80" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A80" s="78">
         <f t="shared" si="22"/>
         <v>77</v>
@@ -52043,7 +52196,7 @@
         <v>0.31304739392858366</v>
       </c>
     </row>
-    <row r="81" spans="1:52">
+    <row r="81" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A81" s="78">
         <f t="shared" si="22"/>
         <v>78</v>
@@ -52252,7 +52405,7 @@
         <v>0.31046881571207507</v>
       </c>
     </row>
-    <row r="82" spans="1:52">
+    <row r="82" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A82" s="78">
         <f t="shared" si="22"/>
         <v>79</v>
@@ -52461,7 +52614,7 @@
         <v>0.3079326844457963</v>
       </c>
     </row>
-    <row r="83" spans="1:52">
+    <row r="83" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A83" s="78">
         <f t="shared" si="22"/>
         <v>80</v>
@@ -52670,7 +52823,7 @@
         <v>0.30543795133211471</v>
       </c>
     </row>
-    <row r="84" spans="1:52">
+    <row r="84" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A84" s="78">
         <f t="shared" si="22"/>
         <v>81</v>
@@ -52879,7 +53032,7 @@
         <v>0.30298360220487908</v>
       </c>
     </row>
-    <row r="85" spans="1:52">
+    <row r="85" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A85" s="78">
         <f t="shared" si="22"/>
         <v>82</v>
@@ -53088,7 +53241,7 @@
         <v>0.30056865609414096</v>
       </c>
     </row>
-    <row r="86" spans="1:52">
+    <row r="86" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A86" s="78">
         <f t="shared" si="22"/>
         <v>83</v>
@@ -53297,7 +53450,7 @@
         <v>0.29819216386268604</v>
       </c>
     </row>
-    <row r="87" spans="1:52">
+    <row r="87" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A87" s="78">
         <f t="shared" si="22"/>
         <v>84</v>
@@ -53506,7 +53659,7 @@
         <v>0.29585320691014999</v>
       </c>
     </row>
-    <row r="88" spans="1:52">
+    <row r="88" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A88" s="78">
         <f t="shared" si="22"/>
         <v>85</v>
@@ -53715,7 +53868,7 @@
         <v>0.29355089594078115</v>
       </c>
     </row>
-    <row r="89" spans="1:52">
+    <row r="89" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A89" s="78">
         <f t="shared" si="22"/>
         <v>86</v>
@@ -53924,7 +54077,7 @@
         <v>0.29128436979117783</v>
       </c>
     </row>
-    <row r="90" spans="1:52">
+    <row r="90" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A90" s="78">
         <f t="shared" si="22"/>
         <v>87</v>
@@ -54133,7 +54286,7 @@
         <v>0.28905279431456948</v>
       </c>
     </row>
-    <row r="91" spans="1:52">
+    <row r="91" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A91" s="78">
         <f t="shared" si="22"/>
         <v>88</v>
@@ -54342,7 +54495,7 @@
         <v>0.28685536131844031</v>
       </c>
     </row>
-    <row r="92" spans="1:52">
+    <row r="92" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A92" s="78">
         <f t="shared" si="22"/>
         <v>89</v>
@@ -54551,7 +54704,7 @@
         <v>0.28469128755250095</v>
       </c>
     </row>
-    <row r="93" spans="1:52">
+    <row r="93" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A93" s="78">
         <f t="shared" si="22"/>
         <v>90</v>
@@ -54760,7 +54913,7 @@
         <v>0.28255981374420847</v>
       </c>
     </row>
-    <row r="94" spans="1:52">
+    <row r="94" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A94" s="78">
         <f t="shared" si="22"/>
         <v>91</v>
@@ -54969,7 +55122,7 @@
         <v>0.28046020367921182</v>
       </c>
     </row>
-    <row r="95" spans="1:52">
+    <row r="95" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A95" s="78">
         <f t="shared" si="22"/>
         <v>92</v>
@@ -55178,7 +55331,7 @@
         <v>0.27839174332427152</v>
       </c>
     </row>
-    <row r="96" spans="1:52">
+    <row r="96" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A96" s="78">
         <f t="shared" si="22"/>
         <v>93</v>
@@ -55387,7 +55540,7 @@
         <v>0.27635373999034968</v>
       </c>
     </row>
-    <row r="97" spans="1:52">
+    <row r="97" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A97" s="78">
         <f t="shared" si="22"/>
         <v>94</v>
@@ -55596,7 +55749,7 @@
         <v>0.27434552153371461</v>
       </c>
     </row>
-    <row r="98" spans="1:52">
+    <row r="98" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A98" s="78">
         <f t="shared" si="22"/>
         <v>95</v>
@@ -55805,7 +55958,7 @@
         <v>0.27236643559303747</v>
       </c>
     </row>
-    <row r="99" spans="1:52">
+    <row r="99" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A99" s="78">
         <f t="shared" si="22"/>
         <v>96</v>
@@ -56014,7 +56167,7 @@
         <v>0.27041584886057934</v>
       </c>
     </row>
-    <row r="100" spans="1:52">
+    <row r="100" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A100" s="78">
         <f t="shared" si="22"/>
         <v>97</v>
@@ -56223,7 +56376,7 @@
         <v>0.26849314638568411</v>
       </c>
     </row>
-    <row r="101" spans="1:52">
+    <row r="101" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A101" s="78">
         <f t="shared" si="22"/>
         <v>98</v>
@@ -56432,7 +56585,7 @@
         <v>0.26659773090890115</v>
       </c>
     </row>
-    <row r="102" spans="1:52">
+    <row r="102" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A102" s="78">
         <f t="shared" si="22"/>
         <v>99</v>
@@ -56641,7 +56794,7 @@
         <v>0.26472902222515887</v>
       </c>
     </row>
-    <row r="103" spans="1:52">
+    <row r="103" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A103" s="78">
         <f t="shared" si="22"/>
         <v>100</v>
@@ -56850,7 +57003,7 @@
         <v>0.26288645657450682</v>
       </c>
     </row>
-    <row r="104" spans="1:52">
+    <row r="104" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C104" s="38"/>
       <c r="D104" s="38"/>
       <c r="E104" s="38"/>
@@ -56902,7 +57055,7 @@
       <c r="AY104" s="38"/>
       <c r="AZ104" s="61"/>
     </row>
-    <row r="105" spans="1:52">
+    <row r="105" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C105" s="38"/>
       <c r="D105" s="38"/>
       <c r="E105" s="38"/>
@@ -56954,7 +57107,7 @@
       <c r="AY105" s="38"/>
       <c r="AZ105" s="61"/>
     </row>
-    <row r="106" spans="1:52">
+    <row r="106" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C106" s="38"/>
       <c r="D106" s="38"/>
       <c r="E106" s="38"/>
@@ -57006,7 +57159,7 @@
       <c r="AY106" s="38"/>
       <c r="AZ106" s="61"/>
     </row>
-    <row r="107" spans="1:52">
+    <row r="107" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C107" s="38"/>
       <c r="D107" s="38"/>
       <c r="E107" s="38"/>
@@ -57058,7 +57211,7 @@
       <c r="AY107" s="38"/>
       <c r="AZ107" s="61"/>
     </row>
-    <row r="108" spans="1:52">
+    <row r="108" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C108" s="38"/>
       <c r="D108" s="38"/>
       <c r="E108" s="38"/>
@@ -57110,7 +57263,7 @@
       <c r="AY108" s="38"/>
       <c r="AZ108" s="61"/>
     </row>
-    <row r="109" spans="1:52">
+    <row r="109" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C109" s="38"/>
       <c r="D109" s="38"/>
       <c r="E109" s="38"/>
@@ -57162,7 +57315,7 @@
       <c r="AY109" s="38"/>
       <c r="AZ109" s="61"/>
     </row>
-    <row r="110" spans="1:52">
+    <row r="110" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C110" s="38"/>
       <c r="D110" s="38"/>
       <c r="E110" s="38"/>
@@ -57214,7 +57367,7 @@
       <c r="AY110" s="38"/>
       <c r="AZ110" s="61"/>
     </row>
-    <row r="111" spans="1:52">
+    <row r="111" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C111" s="38"/>
       <c r="D111" s="38"/>
       <c r="E111" s="38"/>
@@ -57266,7 +57419,7 @@
       <c r="AY111" s="38"/>
       <c r="AZ111" s="61"/>
     </row>
-    <row r="112" spans="1:52">
+    <row r="112" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C112" s="38"/>
       <c r="D112" s="38"/>
       <c r="E112" s="38"/>
@@ -57318,7 +57471,7 @@
       <c r="AY112" s="38"/>
       <c r="AZ112" s="61"/>
     </row>
-    <row r="113" spans="3:52">
+    <row r="113" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C113" s="38"/>
       <c r="D113" s="38"/>
       <c r="E113" s="38"/>
@@ -57370,7 +57523,7 @@
       <c r="AY113" s="38"/>
       <c r="AZ113" s="61"/>
     </row>
-    <row r="114" spans="3:52">
+    <row r="114" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C114" s="38"/>
       <c r="D114" s="38"/>
       <c r="E114" s="38"/>
@@ -57422,7 +57575,7 @@
       <c r="AY114" s="38"/>
       <c r="AZ114" s="61"/>
     </row>
-    <row r="115" spans="3:52">
+    <row r="115" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C115" s="38"/>
       <c r="D115" s="38"/>
       <c r="E115" s="38"/>
@@ -57474,7 +57627,7 @@
       <c r="AY115" s="38"/>
       <c r="AZ115" s="61"/>
     </row>
-    <row r="116" spans="3:52">
+    <row r="116" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C116" s="38"/>
       <c r="D116" s="38"/>
       <c r="E116" s="38"/>
@@ -57526,7 +57679,7 @@
       <c r="AY116" s="38"/>
       <c r="AZ116" s="61"/>
     </row>
-    <row r="117" spans="3:52">
+    <row r="117" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C117" s="38"/>
       <c r="D117" s="38"/>
       <c r="E117" s="38"/>
@@ -57578,7 +57731,7 @@
       <c r="AY117" s="38"/>
       <c r="AZ117" s="61"/>
     </row>
-    <row r="118" spans="3:52">
+    <row r="118" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C118" s="38"/>
       <c r="D118" s="38"/>
       <c r="E118" s="38"/>
@@ -57630,7 +57783,7 @@
       <c r="AY118" s="38"/>
       <c r="AZ118" s="61"/>
     </row>
-    <row r="119" spans="3:52">
+    <row r="119" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C119" s="38"/>
       <c r="D119" s="38"/>
       <c r="E119" s="38"/>
@@ -57682,7 +57835,7 @@
       <c r="AY119" s="38"/>
       <c r="AZ119" s="61"/>
     </row>
-    <row r="120" spans="3:52">
+    <row r="120" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C120" s="38"/>
       <c r="D120" s="38"/>
       <c r="E120" s="38"/>
@@ -57734,7 +57887,7 @@
       <c r="AY120" s="38"/>
       <c r="AZ120" s="61"/>
     </row>
-    <row r="121" spans="3:52">
+    <row r="121" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C121" s="38"/>
       <c r="D121" s="38"/>
       <c r="E121" s="38"/>
@@ -57786,7 +57939,7 @@
       <c r="AY121" s="38"/>
       <c r="AZ121" s="61"/>
     </row>
-    <row r="122" spans="3:52">
+    <row r="122" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C122" s="38"/>
       <c r="D122" s="38"/>
       <c r="E122" s="38"/>
@@ -57838,7 +57991,7 @@
       <c r="AY122" s="38"/>
       <c r="AZ122" s="61"/>
     </row>
-    <row r="123" spans="3:52">
+    <row r="123" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C123" s="38"/>
       <c r="D123" s="38"/>
       <c r="E123" s="38"/>
@@ -57890,7 +58043,7 @@
       <c r="AY123" s="38"/>
       <c r="AZ123" s="61"/>
     </row>
-    <row r="124" spans="3:52">
+    <row r="124" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C124" s="38"/>
       <c r="D124" s="38"/>
       <c r="E124" s="38"/>
@@ -57942,7 +58095,7 @@
       <c r="AY124" s="38"/>
       <c r="AZ124" s="61"/>
     </row>
-    <row r="125" spans="3:52">
+    <row r="125" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C125" s="38"/>
       <c r="D125" s="38"/>
       <c r="E125" s="38"/>
@@ -57994,7 +58147,7 @@
       <c r="AY125" s="38"/>
       <c r="AZ125" s="61"/>
     </row>
-    <row r="126" spans="3:52">
+    <row r="126" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C126" s="38"/>
       <c r="D126" s="38"/>
       <c r="E126" s="38"/>
@@ -58046,7 +58199,7 @@
       <c r="AY126" s="38"/>
       <c r="AZ126" s="61"/>
     </row>
-    <row r="127" spans="3:52">
+    <row r="127" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C127" s="38"/>
       <c r="D127" s="38"/>
       <c r="E127" s="38"/>
@@ -58098,7 +58251,7 @@
       <c r="AY127" s="38"/>
       <c r="AZ127" s="61"/>
     </row>
-    <row r="128" spans="3:52">
+    <row r="128" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C128" s="38"/>
       <c r="D128" s="38"/>
       <c r="E128" s="38"/>
@@ -58150,7 +58303,7 @@
       <c r="AY128" s="38"/>
       <c r="AZ128" s="61"/>
     </row>
-    <row r="129" spans="3:52">
+    <row r="129" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C129" s="38"/>
       <c r="D129" s="38"/>
       <c r="E129" s="38"/>
@@ -58202,7 +58355,7 @@
       <c r="AY129" s="38"/>
       <c r="AZ129" s="61"/>
     </row>
-    <row r="130" spans="3:52">
+    <row r="130" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C130" s="38"/>
       <c r="D130" s="38"/>
       <c r="E130" s="38"/>
@@ -58254,7 +58407,7 @@
       <c r="AY130" s="38"/>
       <c r="AZ130" s="61"/>
     </row>
-    <row r="131" spans="3:52">
+    <row r="131" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C131" s="38"/>
       <c r="D131" s="38"/>
       <c r="E131" s="38"/>
@@ -58306,7 +58459,7 @@
       <c r="AY131" s="38"/>
       <c r="AZ131" s="61"/>
     </row>
-    <row r="132" spans="3:52">
+    <row r="132" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C132" s="38"/>
       <c r="D132" s="38"/>
       <c r="E132" s="38"/>
@@ -58358,7 +58511,7 @@
       <c r="AY132" s="38"/>
       <c r="AZ132" s="61"/>
     </row>
-    <row r="133" spans="3:52">
+    <row r="133" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C133" s="38"/>
       <c r="D133" s="38"/>
       <c r="E133" s="38"/>
@@ -58410,7 +58563,7 @@
       <c r="AY133" s="38"/>
       <c r="AZ133" s="61"/>
     </row>
-    <row r="134" spans="3:52">
+    <row r="134" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C134" s="38"/>
       <c r="D134" s="38"/>
       <c r="E134" s="38"/>
@@ -58462,7 +58615,7 @@
       <c r="AY134" s="38"/>
       <c r="AZ134" s="61"/>
     </row>
-    <row r="135" spans="3:52">
+    <row r="135" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C135" s="38"/>
       <c r="D135" s="38"/>
       <c r="E135" s="38"/>
@@ -58514,7 +58667,7 @@
       <c r="AY135" s="38"/>
       <c r="AZ135" s="61"/>
     </row>
-    <row r="136" spans="3:52">
+    <row r="136" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C136" s="38"/>
       <c r="D136" s="38"/>
       <c r="E136" s="38"/>
@@ -58566,7 +58719,7 @@
       <c r="AY136" s="38"/>
       <c r="AZ136" s="61"/>
     </row>
-    <row r="137" spans="3:52">
+    <row r="137" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C137" s="38"/>
       <c r="D137" s="38"/>
       <c r="E137" s="38"/>
@@ -58618,7 +58771,7 @@
       <c r="AY137" s="38"/>
       <c r="AZ137" s="61"/>
     </row>
-    <row r="138" spans="3:52">
+    <row r="138" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C138" s="38"/>
       <c r="D138" s="38"/>
       <c r="E138" s="38"/>
@@ -58670,7 +58823,7 @@
       <c r="AY138" s="38"/>
       <c r="AZ138" s="61"/>
     </row>
-    <row r="139" spans="3:52">
+    <row r="139" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C139" s="38"/>
       <c r="D139" s="38"/>
       <c r="E139" s="38"/>
@@ -58722,7 +58875,7 @@
       <c r="AY139" s="38"/>
       <c r="AZ139" s="61"/>
     </row>
-    <row r="140" spans="3:52">
+    <row r="140" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C140" s="38"/>
       <c r="D140" s="38"/>
       <c r="E140" s="38"/>
@@ -58774,7 +58927,7 @@
       <c r="AY140" s="38"/>
       <c r="AZ140" s="61"/>
     </row>
-    <row r="141" spans="3:52">
+    <row r="141" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C141" s="38"/>
       <c r="D141" s="38"/>
       <c r="E141" s="38"/>
@@ -58826,7 +58979,7 @@
       <c r="AY141" s="38"/>
       <c r="AZ141" s="61"/>
     </row>
-    <row r="142" spans="3:52">
+    <row r="142" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C142" s="38"/>
       <c r="D142" s="38"/>
       <c r="E142" s="38"/>
@@ -58878,7 +59031,7 @@
       <c r="AY142" s="38"/>
       <c r="AZ142" s="61"/>
     </row>
-    <row r="143" spans="3:52">
+    <row r="143" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C143" s="38"/>
       <c r="D143" s="38"/>
       <c r="E143" s="38"/>
@@ -58930,7 +59083,7 @@
       <c r="AY143" s="38"/>
       <c r="AZ143" s="61"/>
     </row>
-    <row r="144" spans="3:52">
+    <row r="144" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C144" s="38"/>
       <c r="D144" s="38"/>
       <c r="E144" s="38"/>
@@ -58982,7 +59135,7 @@
       <c r="AY144" s="38"/>
       <c r="AZ144" s="61"/>
     </row>
-    <row r="145" spans="3:52">
+    <row r="145" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C145" s="38"/>
       <c r="D145" s="38"/>
       <c r="E145" s="38"/>
@@ -59034,7 +59187,7 @@
       <c r="AY145" s="38"/>
       <c r="AZ145" s="61"/>
     </row>
-    <row r="146" spans="3:52">
+    <row r="146" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C146" s="38"/>
       <c r="D146" s="38"/>
       <c r="E146" s="38"/>
@@ -59086,7 +59239,7 @@
       <c r="AY146" s="38"/>
       <c r="AZ146" s="61"/>
     </row>
-    <row r="147" spans="3:52">
+    <row r="147" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C147" s="38"/>
       <c r="D147" s="38"/>
       <c r="E147" s="38"/>
@@ -59138,7 +59291,7 @@
       <c r="AY147" s="38"/>
       <c r="AZ147" s="61"/>
     </row>
-    <row r="148" spans="3:52">
+    <row r="148" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C148" s="38"/>
       <c r="D148" s="38"/>
       <c r="E148" s="38"/>
@@ -59190,7 +59343,7 @@
       <c r="AY148" s="38"/>
       <c r="AZ148" s="61"/>
     </row>
-    <row r="149" spans="3:52">
+    <row r="149" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C149" s="38"/>
       <c r="D149" s="38"/>
       <c r="E149" s="38"/>
@@ -59242,7 +59395,7 @@
       <c r="AY149" s="38"/>
       <c r="AZ149" s="61"/>
     </row>
-    <row r="150" spans="3:52">
+    <row r="150" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C150" s="38"/>
       <c r="D150" s="38"/>
       <c r="E150" s="38"/>
@@ -59294,7 +59447,7 @@
       <c r="AY150" s="38"/>
       <c r="AZ150" s="61"/>
     </row>
-    <row r="151" spans="3:52">
+    <row r="151" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C151" s="38"/>
       <c r="D151" s="38"/>
       <c r="E151" s="38"/>
@@ -59346,7 +59499,7 @@
       <c r="AY151" s="38"/>
       <c r="AZ151" s="61"/>
     </row>
-    <row r="152" spans="3:52">
+    <row r="152" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C152" s="38"/>
       <c r="D152" s="38"/>
       <c r="E152" s="38"/>
@@ -59398,7 +59551,7 @@
       <c r="AY152" s="38"/>
       <c r="AZ152" s="61"/>
     </row>
-    <row r="153" spans="3:52">
+    <row r="153" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C153" s="38"/>
       <c r="D153" s="38"/>
       <c r="E153" s="38"/>
@@ -59450,7 +59603,7 @@
       <c r="AY153" s="38"/>
       <c r="AZ153" s="61"/>
     </row>
-    <row r="154" spans="3:52">
+    <row r="154" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C154" s="38"/>
       <c r="D154" s="38"/>
       <c r="E154" s="38"/>
@@ -59502,7 +59655,7 @@
       <c r="AY154" s="38"/>
       <c r="AZ154" s="61"/>
     </row>
-    <row r="155" spans="3:52">
+    <row r="155" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C155" s="38"/>
       <c r="D155" s="38"/>
       <c r="E155" s="38"/>
@@ -59554,7 +59707,7 @@
       <c r="AY155" s="38"/>
       <c r="AZ155" s="61"/>
     </row>
-    <row r="156" spans="3:52">
+    <row r="156" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C156" s="38"/>
       <c r="D156" s="38"/>
       <c r="E156" s="38"/>
@@ -59606,7 +59759,7 @@
       <c r="AY156" s="38"/>
       <c r="AZ156" s="61"/>
     </row>
-    <row r="157" spans="3:52">
+    <row r="157" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C157" s="38"/>
       <c r="D157" s="38"/>
       <c r="E157" s="38"/>
@@ -59658,7 +59811,7 @@
       <c r="AY157" s="38"/>
       <c r="AZ157" s="61"/>
     </row>
-    <row r="158" spans="3:52">
+    <row r="158" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C158" s="38"/>
       <c r="D158" s="38"/>
       <c r="E158" s="38"/>
@@ -59710,7 +59863,7 @@
       <c r="AY158" s="38"/>
       <c r="AZ158" s="61"/>
     </row>
-    <row r="159" spans="3:52">
+    <row r="159" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C159" s="38"/>
       <c r="D159" s="38"/>
       <c r="E159" s="38"/>
@@ -59762,7 +59915,7 @@
       <c r="AY159" s="38"/>
       <c r="AZ159" s="61"/>
     </row>
-    <row r="160" spans="3:52">
+    <row r="160" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C160" s="38"/>
       <c r="D160" s="38"/>
       <c r="E160" s="38"/>
@@ -59814,7 +59967,7 @@
       <c r="AY160" s="38"/>
       <c r="AZ160" s="61"/>
     </row>
-    <row r="161" spans="3:52">
+    <row r="161" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C161" s="38"/>
       <c r="D161" s="38"/>
       <c r="E161" s="38"/>
@@ -59866,7 +60019,7 @@
       <c r="AY161" s="38"/>
       <c r="AZ161" s="61"/>
     </row>
-    <row r="162" spans="3:52">
+    <row r="162" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C162" s="38"/>
       <c r="D162" s="38"/>
       <c r="E162" s="38"/>
@@ -59918,7 +60071,7 @@
       <c r="AY162" s="38"/>
       <c r="AZ162" s="61"/>
     </row>
-    <row r="163" spans="3:52">
+    <row r="163" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C163" s="38"/>
       <c r="D163" s="38"/>
       <c r="E163" s="38"/>
@@ -59970,7 +60123,7 @@
       <c r="AY163" s="38"/>
       <c r="AZ163" s="61"/>
     </row>
-    <row r="164" spans="3:52">
+    <row r="164" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C164" s="38"/>
       <c r="D164" s="38"/>
       <c r="E164" s="38"/>
@@ -60022,7 +60175,7 @@
       <c r="AY164" s="38"/>
       <c r="AZ164" s="61"/>
     </row>
-    <row r="165" spans="3:52">
+    <row r="165" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C165" s="38"/>
       <c r="D165" s="38"/>
       <c r="E165" s="38"/>
@@ -60074,7 +60227,7 @@
       <c r="AY165" s="38"/>
       <c r="AZ165" s="61"/>
     </row>
-    <row r="166" spans="3:52">
+    <row r="166" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C166" s="38"/>
       <c r="D166" s="38"/>
       <c r="E166" s="38"/>
@@ -60126,7 +60279,7 @@
       <c r="AY166" s="38"/>
       <c r="AZ166" s="61"/>
     </row>
-    <row r="167" spans="3:52">
+    <row r="167" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C167" s="38"/>
       <c r="D167" s="38"/>
       <c r="E167" s="38"/>
@@ -60178,7 +60331,7 @@
       <c r="AY167" s="38"/>
       <c r="AZ167" s="61"/>
     </row>
-    <row r="168" spans="3:52">
+    <row r="168" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C168" s="38"/>
       <c r="D168" s="38"/>
       <c r="E168" s="38"/>
@@ -60230,7 +60383,7 @@
       <c r="AY168" s="38"/>
       <c r="AZ168" s="61"/>
     </row>
-    <row r="169" spans="3:52">
+    <row r="169" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C169" s="38"/>
       <c r="D169" s="38"/>
       <c r="E169" s="38"/>
@@ -60282,7 +60435,7 @@
       <c r="AY169" s="38"/>
       <c r="AZ169" s="61"/>
     </row>
-    <row r="170" spans="3:52">
+    <row r="170" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C170" s="38"/>
       <c r="D170" s="38"/>
       <c r="E170" s="38"/>
@@ -60334,7 +60487,7 @@
       <c r="AY170" s="38"/>
       <c r="AZ170" s="61"/>
     </row>
-    <row r="171" spans="3:52">
+    <row r="171" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C171" s="38"/>
       <c r="D171" s="38"/>
       <c r="E171" s="38"/>
@@ -60386,7 +60539,7 @@
       <c r="AY171" s="38"/>
       <c r="AZ171" s="61"/>
     </row>
-    <row r="172" spans="3:52">
+    <row r="172" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C172" s="38"/>
       <c r="D172" s="38"/>
       <c r="E172" s="38"/>
@@ -60438,7 +60591,7 @@
       <c r="AY172" s="38"/>
       <c r="AZ172" s="61"/>
     </row>
-    <row r="173" spans="3:52">
+    <row r="173" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C173" s="38"/>
       <c r="D173" s="38"/>
       <c r="E173" s="38"/>
@@ -60490,7 +60643,7 @@
       <c r="AY173" s="38"/>
       <c r="AZ173" s="61"/>
     </row>
-    <row r="174" spans="3:52">
+    <row r="174" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C174" s="38"/>
       <c r="D174" s="38"/>
       <c r="E174" s="38"/>
@@ -60542,7 +60695,7 @@
       <c r="AY174" s="38"/>
       <c r="AZ174" s="61"/>
     </row>
-    <row r="175" spans="3:52">
+    <row r="175" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C175" s="38"/>
       <c r="D175" s="38"/>
       <c r="E175" s="38"/>
@@ -60594,7 +60747,7 @@
       <c r="AY175" s="38"/>
       <c r="AZ175" s="61"/>
     </row>
-    <row r="176" spans="3:52">
+    <row r="176" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C176" s="38"/>
       <c r="D176" s="38"/>
       <c r="E176" s="38"/>
@@ -60646,7 +60799,7 @@
       <c r="AY176" s="38"/>
       <c r="AZ176" s="61"/>
     </row>
-    <row r="177" spans="3:52">
+    <row r="177" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C177" s="38"/>
       <c r="D177" s="38"/>
       <c r="E177" s="38"/>
@@ -60698,7 +60851,7 @@
       <c r="AY177" s="38"/>
       <c r="AZ177" s="61"/>
     </row>
-    <row r="178" spans="3:52">
+    <row r="178" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C178" s="38"/>
       <c r="D178" s="38"/>
       <c r="E178" s="38"/>
@@ -60750,7 +60903,7 @@
       <c r="AY178" s="38"/>
       <c r="AZ178" s="61"/>
     </row>
-    <row r="179" spans="3:52">
+    <row r="179" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C179" s="38"/>
       <c r="D179" s="38"/>
       <c r="E179" s="38"/>
@@ -60802,7 +60955,7 @@
       <c r="AY179" s="38"/>
       <c r="AZ179" s="61"/>
     </row>
-    <row r="180" spans="3:52">
+    <row r="180" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C180" s="38"/>
       <c r="D180" s="38"/>
       <c r="E180" s="38"/>
@@ -60854,7 +61007,7 @@
       <c r="AY180" s="38"/>
       <c r="AZ180" s="61"/>
     </row>
-    <row r="181" spans="3:52">
+    <row r="181" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C181" s="38"/>
       <c r="D181" s="38"/>
       <c r="E181" s="38"/>
@@ -60906,7 +61059,7 @@
       <c r="AY181" s="38"/>
       <c r="AZ181" s="61"/>
     </row>
-    <row r="182" spans="3:52">
+    <row r="182" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C182" s="38"/>
       <c r="D182" s="38"/>
       <c r="E182" s="38"/>
@@ -60958,7 +61111,7 @@
       <c r="AY182" s="38"/>
       <c r="AZ182" s="61"/>
     </row>
-    <row r="183" spans="3:52">
+    <row r="183" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C183" s="38"/>
       <c r="D183" s="38"/>
       <c r="E183" s="38"/>
@@ -61010,7 +61163,7 @@
       <c r="AY183" s="38"/>
       <c r="AZ183" s="61"/>
     </row>
-    <row r="184" spans="3:52">
+    <row r="184" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C184" s="38"/>
       <c r="D184" s="38"/>
       <c r="E184" s="38"/>
@@ -61062,7 +61215,7 @@
       <c r="AY184" s="38"/>
       <c r="AZ184" s="61"/>
     </row>
-    <row r="185" spans="3:52">
+    <row r="185" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C185" s="38"/>
       <c r="D185" s="38"/>
       <c r="E185" s="38"/>
@@ -61114,7 +61267,7 @@
       <c r="AY185" s="38"/>
       <c r="AZ185" s="61"/>
     </row>
-    <row r="186" spans="3:52">
+    <row r="186" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C186" s="38"/>
       <c r="D186" s="38"/>
       <c r="E186" s="38"/>
@@ -61166,7 +61319,7 @@
       <c r="AY186" s="38"/>
       <c r="AZ186" s="61"/>
     </row>
-    <row r="187" spans="3:52">
+    <row r="187" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C187" s="38"/>
       <c r="D187" s="38"/>
       <c r="E187" s="38"/>
@@ -61218,7 +61371,7 @@
       <c r="AY187" s="38"/>
       <c r="AZ187" s="61"/>
     </row>
-    <row r="188" spans="3:52">
+    <row r="188" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C188" s="38"/>
       <c r="D188" s="38"/>
       <c r="E188" s="38"/>
@@ -61270,7 +61423,7 @@
       <c r="AY188" s="38"/>
       <c r="AZ188" s="61"/>
     </row>
-    <row r="189" spans="3:52">
+    <row r="189" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C189" s="38"/>
       <c r="D189" s="38"/>
       <c r="E189" s="38"/>
@@ -61322,7 +61475,7 @@
       <c r="AY189" s="38"/>
       <c r="AZ189" s="61"/>
     </row>
-    <row r="190" spans="3:52">
+    <row r="190" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C190" s="38"/>
       <c r="D190" s="38"/>
       <c r="E190" s="38"/>
@@ -61374,7 +61527,7 @@
       <c r="AY190" s="38"/>
       <c r="AZ190" s="61"/>
     </row>
-    <row r="191" spans="3:52">
+    <row r="191" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C191" s="38"/>
       <c r="D191" s="38"/>
       <c r="E191" s="38"/>
@@ -61426,7 +61579,7 @@
       <c r="AY191" s="38"/>
       <c r="AZ191" s="61"/>
     </row>
-    <row r="192" spans="3:52">
+    <row r="192" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C192" s="38"/>
       <c r="D192" s="38"/>
       <c r="E192" s="38"/>
@@ -61478,7 +61631,7 @@
       <c r="AY192" s="38"/>
       <c r="AZ192" s="61"/>
     </row>
-    <row r="193" spans="3:52">
+    <row r="193" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C193" s="38"/>
       <c r="D193" s="38"/>
       <c r="E193" s="38"/>
@@ -61530,7 +61683,7 @@
       <c r="AY193" s="38"/>
       <c r="AZ193" s="61"/>
     </row>
-    <row r="194" spans="3:52">
+    <row r="194" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C194" s="38"/>
       <c r="D194" s="38"/>
       <c r="E194" s="38"/>
@@ -61582,7 +61735,7 @@
       <c r="AY194" s="38"/>
       <c r="AZ194" s="61"/>
     </row>
-    <row r="195" spans="3:52">
+    <row r="195" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C195" s="38"/>
       <c r="D195" s="38"/>
       <c r="E195" s="38"/>
@@ -61634,7 +61787,7 @@
       <c r="AY195" s="38"/>
       <c r="AZ195" s="61"/>
     </row>
-    <row r="196" spans="3:52">
+    <row r="196" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C196" s="38"/>
       <c r="D196" s="38"/>
       <c r="E196" s="38"/>
@@ -61686,7 +61839,7 @@
       <c r="AY196" s="38"/>
       <c r="AZ196" s="61"/>
     </row>
-    <row r="197" spans="3:52">
+    <row r="197" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C197" s="38"/>
       <c r="D197" s="38"/>
       <c r="E197" s="38"/>
@@ -61738,7 +61891,7 @@
       <c r="AY197" s="38"/>
       <c r="AZ197" s="61"/>
     </row>
-    <row r="198" spans="3:52">
+    <row r="198" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C198" s="38"/>
       <c r="D198" s="38"/>
       <c r="E198" s="38"/>
@@ -61790,7 +61943,7 @@
       <c r="AY198" s="38"/>
       <c r="AZ198" s="61"/>
     </row>
-    <row r="199" spans="3:52">
+    <row r="199" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C199" s="38"/>
       <c r="D199" s="38"/>
       <c r="E199" s="38"/>
@@ -61842,7 +61995,7 @@
       <c r="AY199" s="38"/>
       <c r="AZ199" s="61"/>
     </row>
-    <row r="200" spans="3:52">
+    <row r="200" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C200" s="38"/>
       <c r="D200" s="38"/>
       <c r="E200" s="38"/>
@@ -61894,7 +62047,7 @@
       <c r="AY200" s="38"/>
       <c r="AZ200" s="61"/>
     </row>
-    <row r="201" spans="3:52">
+    <row r="201" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C201" s="38"/>
       <c r="D201" s="38"/>
       <c r="E201" s="38"/>
@@ -61946,7 +62099,7 @@
       <c r="AY201" s="38"/>
       <c r="AZ201" s="61"/>
     </row>
-    <row r="202" spans="3:52">
+    <row r="202" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C202" s="38"/>
       <c r="D202" s="38"/>
       <c r="E202" s="38"/>
@@ -61998,7 +62151,7 @@
       <c r="AY202" s="38"/>
       <c r="AZ202" s="61"/>
     </row>
-    <row r="203" spans="3:52">
+    <row r="203" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C203" s="38"/>
       <c r="D203" s="38"/>
       <c r="E203" s="38"/>
@@ -62050,7 +62203,7 @@
       <c r="AY203" s="38"/>
       <c r="AZ203" s="61"/>
     </row>
-    <row r="204" spans="3:52">
+    <row r="204" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C204" s="38"/>
       <c r="D204" s="38"/>
       <c r="E204" s="38"/>
@@ -62077,7 +62230,7 @@
       <c r="Z204" s="38"/>
       <c r="AA204" s="38"/>
     </row>
-    <row r="205" spans="3:52">
+    <row r="205" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C205" s="38"/>
       <c r="D205" s="38"/>
       <c r="E205" s="38"/>
@@ -62104,7 +62257,7 @@
       <c r="Z205" s="38"/>
       <c r="AA205" s="38"/>
     </row>
-    <row r="206" spans="3:52">
+    <row r="206" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C206" s="38"/>
       <c r="D206" s="38"/>
       <c r="E206" s="38"/>
@@ -62131,7 +62284,7 @@
       <c r="Z206" s="38"/>
       <c r="AA206" s="38"/>
     </row>
-    <row r="207" spans="3:52">
+    <row r="207" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C207" s="38"/>
       <c r="D207" s="38"/>
       <c r="E207" s="38"/>
@@ -62158,7 +62311,7 @@
       <c r="Z207" s="38"/>
       <c r="AA207" s="38"/>
     </row>
-    <row r="208" spans="3:52">
+    <row r="208" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C208" s="38"/>
       <c r="D208" s="38"/>
       <c r="E208" s="38"/>
@@ -62185,7 +62338,7 @@
       <c r="Z208" s="38"/>
       <c r="AA208" s="38"/>
     </row>
-    <row r="209" spans="3:27">
+    <row r="209" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C209" s="38"/>
       <c r="D209" s="38"/>
       <c r="E209" s="38"/>
@@ -62212,7 +62365,7 @@
       <c r="Z209" s="38"/>
       <c r="AA209" s="38"/>
     </row>
-    <row r="210" spans="3:27">
+    <row r="210" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C210" s="38"/>
       <c r="D210" s="38"/>
       <c r="E210" s="38"/>
@@ -62239,7 +62392,7 @@
       <c r="Z210" s="38"/>
       <c r="AA210" s="38"/>
     </row>
-    <row r="211" spans="3:27">
+    <row r="211" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C211" s="38"/>
       <c r="D211" s="38"/>
       <c r="E211" s="38"/>
@@ -62266,7 +62419,7 @@
       <c r="Z211" s="38"/>
       <c r="AA211" s="38"/>
     </row>
-    <row r="212" spans="3:27">
+    <row r="212" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C212" s="38"/>
       <c r="D212" s="38"/>
       <c r="E212" s="38"/>
@@ -62293,7 +62446,7 @@
       <c r="Z212" s="38"/>
       <c r="AA212" s="38"/>
     </row>
-    <row r="213" spans="3:27">
+    <row r="213" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C213" s="38"/>
       <c r="D213" s="38"/>
       <c r="E213" s="38"/>
@@ -62320,7 +62473,7 @@
       <c r="Z213" s="38"/>
       <c r="AA213" s="38"/>
     </row>
-    <row r="214" spans="3:27">
+    <row r="214" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C214" s="38"/>
       <c r="D214" s="38"/>
       <c r="E214" s="38"/>
@@ -62347,7 +62500,7 @@
       <c r="Z214" s="38"/>
       <c r="AA214" s="38"/>
     </row>
-    <row r="215" spans="3:27">
+    <row r="215" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C215" s="38"/>
       <c r="D215" s="38"/>
       <c r="E215" s="38"/>
@@ -62374,7 +62527,7 @@
       <c r="Z215" s="38"/>
       <c r="AA215" s="38"/>
     </row>
-    <row r="216" spans="3:27">
+    <row r="216" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C216" s="38"/>
       <c r="D216" s="38"/>
       <c r="E216" s="38"/>
@@ -62401,7 +62554,7 @@
       <c r="Z216" s="38"/>
       <c r="AA216" s="38"/>
     </row>
-    <row r="217" spans="3:27">
+    <row r="217" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C217" s="38"/>
       <c r="D217" s="38"/>
       <c r="E217" s="38"/>
@@ -62428,7 +62581,7 @@
       <c r="Z217" s="38"/>
       <c r="AA217" s="38"/>
     </row>
-    <row r="218" spans="3:27">
+    <row r="218" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C218" s="38"/>
       <c r="D218" s="38"/>
       <c r="E218" s="38"/>
@@ -62455,7 +62608,7 @@
       <c r="Z218" s="38"/>
       <c r="AA218" s="38"/>
     </row>
-    <row r="219" spans="3:27">
+    <row r="219" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C219" s="38"/>
       <c r="D219" s="38"/>
       <c r="E219" s="38"/>
@@ -62482,7 +62635,7 @@
       <c r="Z219" s="38"/>
       <c r="AA219" s="38"/>
     </row>
-    <row r="220" spans="3:27">
+    <row r="220" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C220" s="38"/>
       <c r="D220" s="38"/>
       <c r="E220" s="38"/>
@@ -62518,14 +62671,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IU49"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
@@ -62540,7 +62693,7 @@
     <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="191" t="s">
         <v>116</v>
       </c>
@@ -62799,7 +62952,7 @@
       <c r="IT1" s="191"/>
       <c r="IU1" s="191"/>
     </row>
-    <row r="2" spans="1:255" ht="15.75" thickBot="1">
+    <row r="2" spans="1:255" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="194" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -62815,7 +62968,7 @@
       <c r="J2" s="194"/>
       <c r="K2" s="194"/>
     </row>
-    <row r="3" spans="1:255" ht="15" customHeight="1">
+    <row r="3" spans="1:255" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="195" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -62856,7 +63009,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:255" ht="15.75" thickBot="1">
+    <row r="4" spans="1:255" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="196"/>
       <c r="B4" s="198"/>
       <c r="C4" s="200"/>
@@ -62864,12 +63017,12 @@
       <c r="E4" s="204"/>
       <c r="F4" s="193"/>
       <c r="G4" s="207"/>
-      <c r="H4" s="187"/>
+      <c r="H4" s="175"/>
       <c r="I4" s="209"/>
       <c r="J4" s="209"/>
       <c r="K4" s="206"/>
     </row>
-    <row r="5" spans="1:255" s="54" customFormat="1">
+    <row r="5" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="62">
         <v>1</v>
       </c>
@@ -62906,7 +63059,7 @@
         <v>2.1230909502265742</v>
       </c>
     </row>
-    <row r="6" spans="1:255" s="54" customFormat="1">
+    <row r="6" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55">
         <v>2</v>
       </c>
@@ -62944,7 +63097,7 @@
       </c>
       <c r="M6" s="79"/>
     </row>
-    <row r="7" spans="1:255" s="54" customFormat="1">
+    <row r="7" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55">
         <v>3</v>
       </c>
@@ -62981,7 +63134,7 @@
         <v>2.4475707338560411</v>
       </c>
     </row>
-    <row r="8" spans="1:255" s="54" customFormat="1">
+    <row r="8" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="55">
         <v>4</v>
       </c>
@@ -63018,7 +63171,7 @@
         <v>1.8418621391703334</v>
       </c>
     </row>
-    <row r="9" spans="1:255" s="54" customFormat="1">
+    <row r="9" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="55">
         <v>5</v>
       </c>
@@ -63055,7 +63208,7 @@
         <v>3.3045165891608939</v>
       </c>
     </row>
-    <row r="10" spans="1:255" s="54" customFormat="1">
+    <row r="10" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55">
         <v>6</v>
       </c>
@@ -63092,7 +63245,7 @@
         <v>3.3538885104705245</v>
       </c>
     </row>
-    <row r="11" spans="1:255" s="54" customFormat="1">
+    <row r="11" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="55">
         <v>7</v>
       </c>
@@ -63129,7 +63282,7 @@
         <v>3.2565937789932073</v>
       </c>
     </row>
-    <row r="12" spans="1:255" s="54" customFormat="1">
+    <row r="12" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55">
         <v>8</v>
       </c>
@@ -63166,7 +63319,7 @@
         <v>3.3538885104705245</v>
       </c>
     </row>
-    <row r="13" spans="1:255" s="54" customFormat="1">
+    <row r="13" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55">
         <v>9</v>
       </c>
@@ -63203,7 +63356,7 @@
         <v>3.3538885104705245</v>
       </c>
     </row>
-    <row r="14" spans="1:255" s="54" customFormat="1">
+    <row r="14" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55">
         <v>11</v>
       </c>
@@ -63240,7 +63393,7 @@
         <v>3.3538885104705245</v>
       </c>
     </row>
-    <row r="15" spans="1:255" s="54" customFormat="1">
+    <row r="15" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55">
         <v>12</v>
       </c>
@@ -63278,7 +63431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:255" s="54" customFormat="1">
+    <row r="16" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="55">
         <v>13</v>
       </c>
@@ -63315,7 +63468,7 @@
         <v>3.2100563365956933</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="54" customFormat="1">
+    <row r="17" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55">
         <v>15</v>
       </c>
@@ -63352,7 +63505,7 @@
         <v>3.3045165891608939</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="54" customFormat="1">
+    <row r="18" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="55">
         <v>16</v>
       </c>
@@ -63390,7 +63543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="54" customFormat="1">
+    <row r="19" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55">
         <v>17</v>
       </c>
@@ -63427,7 +63580,7 @@
         <v>1.4644154703850742</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="54" customFormat="1">
+    <row r="20" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55">
         <v>18</v>
       </c>
@@ -63464,7 +63617,7 @@
         <v>3.2100563365956933</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="54" customFormat="1">
+    <row r="21" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55">
         <v>19</v>
       </c>
@@ -63501,7 +63654,7 @@
         <v>0.72481574137939631</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="54" customFormat="1">
+    <row r="22" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="55">
         <v>20</v>
       </c>
@@ -63539,7 +63692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="54" customFormat="1">
+    <row r="23" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55">
         <v>21</v>
       </c>
@@ -63576,7 +63729,7 @@
         <v>3.2565937789932073</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="54" customFormat="1">
+    <row r="24" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="55">
         <v>22</v>
       </c>
@@ -63613,7 +63766,7 @@
         <v>2.1954328640542626</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="54" customFormat="1">
+    <row r="25" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="55">
         <v>23</v>
       </c>
@@ -63651,7 +63804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="54" customFormat="1">
+    <row r="26" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55">
         <v>24</v>
       </c>
@@ -63688,7 +63841,7 @@
         <v>3.3538885104705245</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="54" customFormat="1">
+    <row r="27" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55">
         <v>25</v>
       </c>
@@ -63725,7 +63878,7 @@
         <v>2.8047517785454175</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="54" customFormat="1">
+    <row r="28" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55">
         <v>26</v>
       </c>
@@ -63762,7 +63915,7 @@
         <v>1.3195287989578959</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="54" customFormat="1">
+    <row r="29" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55">
         <v>27</v>
       </c>
@@ -63799,7 +63952,7 @@
         <v>1.9178027828644717</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="54" customFormat="1">
+    <row r="30" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55">
         <v>28</v>
       </c>
@@ -63837,7 +63990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="54" customFormat="1">
+    <row r="31" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="55">
         <v>29</v>
       </c>
@@ -63874,7 +64027,7 @@
         <v>3.3538885104705245</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="54" customFormat="1">
+    <row r="32" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="55">
         <v>30</v>
       </c>
@@ -63911,7 +64064,7 @@
         <v>3.1452830477014624</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="54" customFormat="1">
+    <row r="33" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="55">
         <v>31</v>
       </c>
@@ -63948,7 +64101,7 @@
         <v>3.2257723366453144</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="54" customFormat="1">
+    <row r="34" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="55">
         <v>32</v>
       </c>
@@ -63985,7 +64138,7 @@
         <v>3.1452830477014624</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="54" customFormat="1">
+    <row r="35" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55">
         <v>33</v>
       </c>
@@ -64022,7 +64175,7 @@
         <v>3.3045165891608939</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="54" customFormat="1">
+    <row r="36" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="55">
         <v>34</v>
       </c>
@@ -64059,7 +64212,7 @@
         <v>2.8864748449945052</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="54" customFormat="1">
+    <row r="37" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="55">
         <v>35</v>
       </c>
@@ -64096,7 +64249,7 @@
         <v>2.8893226488668651</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="54" customFormat="1">
+    <row r="38" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55">
         <v>37</v>
       </c>
@@ -64133,7 +64286,7 @@
         <v>3.3045165891608939</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="54" customFormat="1">
+    <row r="39" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="55">
         <v>38</v>
       </c>
@@ -64170,7 +64323,7 @@
         <v>2.8928521841697119</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="54" customFormat="1">
+    <row r="40" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="55">
         <v>39</v>
       </c>
@@ -64207,7 +64360,7 @@
         <v>3.1209010264563291</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="54" customFormat="1">
+    <row r="41" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="55">
         <v>40</v>
       </c>
@@ -64245,7 +64398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="54" customFormat="1">
+    <row r="42" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="55">
         <v>41</v>
       </c>
@@ -64283,7 +64436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1">
+    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="56">
         <v>42</v>
       </c>
@@ -64320,7 +64473,7 @@
         <v>2.5806811940620937</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="40" customFormat="1">
+    <row r="44" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="53"/>
       <c r="B44" s="53"/>
       <c r="C44" s="53"/>
@@ -64329,7 +64482,7 @@
       <c r="F44" s="53"/>
       <c r="G44" s="53"/>
     </row>
-    <row r="45" spans="1:11" s="40" customFormat="1">
+    <row r="45" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="53"/>
       <c r="B45" s="53"/>
       <c r="C45" s="53"/>
@@ -64338,7 +64491,7 @@
       <c r="F45" s="53"/>
       <c r="G45" s="53"/>
     </row>
-    <row r="46" spans="1:11" s="40" customFormat="1">
+    <row r="46" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="53"/>
       <c r="B46" s="53"/>
       <c r="C46" s="53"/>
@@ -64347,7 +64500,7 @@
       <c r="F46" s="53"/>
       <c r="G46" s="53"/>
     </row>
-    <row r="47" spans="1:11" s="40" customFormat="1">
+    <row r="47" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="53"/>
       <c r="B47" s="53"/>
       <c r="C47" s="53"/>
@@ -64356,7 +64509,7 @@
       <c r="F47" s="53"/>
       <c r="G47" s="53"/>
     </row>
-    <row r="48" spans="1:11" s="40" customFormat="1">
+    <row r="48" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="53"/>
       <c r="B48" s="53"/>
       <c r="C48" s="53"/>
@@ -64365,7 +64518,7 @@
       <c r="F48" s="53"/>
       <c r="G48" s="53"/>
     </row>
-    <row r="49" spans="1:7" s="40" customFormat="1">
+    <row r="49" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="53"/>
       <c r="B49" s="53"/>
       <c r="C49" s="53"/>
@@ -64395,14 +64548,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IU49"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
@@ -64417,7 +64570,7 @@
     <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="191" t="s">
         <v>116</v>
       </c>
@@ -64676,7 +64829,7 @@
       <c r="IT1" s="191"/>
       <c r="IU1" s="191"/>
     </row>
-    <row r="2" spans="1:255" ht="15.75" thickBot="1">
+    <row r="2" spans="1:255" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="194" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -64692,7 +64845,7 @@
       <c r="J2" s="194"/>
       <c r="K2" s="194"/>
     </row>
-    <row r="3" spans="1:255" ht="15" customHeight="1">
+    <row r="3" spans="1:255" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="195" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -64733,7 +64886,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:255" ht="15.75" thickBot="1">
+    <row r="4" spans="1:255" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="196"/>
       <c r="B4" s="198"/>
       <c r="C4" s="200"/>
@@ -64746,7 +64899,7 @@
       <c r="J4" s="210"/>
       <c r="K4" s="211"/>
     </row>
-    <row r="5" spans="1:255" s="54" customFormat="1">
+    <row r="5" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
         <v>1</v>
       </c>
@@ -64783,7 +64936,7 @@
         <v>2.2791157615605968</v>
       </c>
     </row>
-    <row r="6" spans="1:255" s="54" customFormat="1">
+    <row r="6" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55">
         <v>2</v>
       </c>
@@ -64821,7 +64974,7 @@
       </c>
       <c r="M6" s="79"/>
     </row>
-    <row r="7" spans="1:255" s="54" customFormat="1">
+    <row r="7" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55">
         <v>3</v>
       </c>
@@ -64858,7 +65011,7 @@
         <v>2.7183356949786717</v>
       </c>
     </row>
-    <row r="8" spans="1:255" s="54" customFormat="1">
+    <row r="8" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="55">
         <v>4</v>
       </c>
@@ -64895,7 +65048,7 @@
         <v>1.6645642421847713</v>
       </c>
     </row>
-    <row r="9" spans="1:255" s="54" customFormat="1">
+    <row r="9" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="55">
         <v>5</v>
       </c>
@@ -64932,7 +65085,7 @@
         <v>3.0531095731905995</v>
       </c>
     </row>
-    <row r="10" spans="1:255" s="54" customFormat="1">
+    <row r="10" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55">
         <v>6</v>
       </c>
@@ -64969,7 +65122,7 @@
         <v>3.0531095731905995</v>
       </c>
     </row>
-    <row r="11" spans="1:255" s="54" customFormat="1">
+    <row r="11" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="55">
         <v>7</v>
       </c>
@@ -65006,7 +65159,7 @@
         <v>2.7647366581228674</v>
       </c>
     </row>
-    <row r="12" spans="1:255" s="54" customFormat="1">
+    <row r="12" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55">
         <v>8</v>
       </c>
@@ -65043,7 +65196,7 @@
         <v>2.8455047772633972</v>
       </c>
     </row>
-    <row r="13" spans="1:255" s="54" customFormat="1">
+    <row r="13" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55">
         <v>9</v>
       </c>
@@ -65080,7 +65233,7 @@
         <v>2.9246412194493931</v>
       </c>
     </row>
-    <row r="14" spans="1:255" s="54" customFormat="1">
+    <row r="14" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55">
         <v>11</v>
       </c>
@@ -65117,7 +65270,7 @@
         <v>2.9286528165068364</v>
       </c>
     </row>
-    <row r="15" spans="1:255" s="54" customFormat="1">
+    <row r="15" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55">
         <v>12</v>
       </c>
@@ -65155,7 +65308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:255" s="54" customFormat="1">
+    <row r="16" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="55">
         <v>13</v>
       </c>
@@ -65192,7 +65345,7 @@
         <v>2.088687670427146</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="54" customFormat="1">
+    <row r="17" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55">
         <v>15</v>
       </c>
@@ -65229,7 +65382,7 @@
         <v>3.0090389721075175</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="54" customFormat="1">
+    <row r="18" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="55">
         <v>16</v>
       </c>
@@ -65267,7 +65420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="54" customFormat="1">
+    <row r="19" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55">
         <v>17</v>
       </c>
@@ -65304,7 +65457,7 @@
         <v>2.2791157615605968</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="54" customFormat="1">
+    <row r="20" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55">
         <v>18</v>
       </c>
@@ -65341,7 +65494,7 @@
         <v>2.2203729362311724</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="54" customFormat="1">
+    <row r="21" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55">
         <v>19</v>
       </c>
@@ -65379,7 +65532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="54" customFormat="1">
+    <row r="22" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="55">
         <v>20</v>
       </c>
@@ -65417,7 +65570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="54" customFormat="1">
+    <row r="23" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55">
         <v>21</v>
       </c>
@@ -65454,7 +65607,7 @@
         <v>2.9246412194493931</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="54" customFormat="1">
+    <row r="24" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="55">
         <v>22</v>
       </c>
@@ -65491,7 +65644,7 @@
         <v>2.6370053881573541</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="54" customFormat="1">
+    <row r="25" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="55">
         <v>23</v>
       </c>
@@ -65529,7 +65682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="54" customFormat="1">
+    <row r="26" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55">
         <v>24</v>
       </c>
@@ -65566,7 +65719,7 @@
         <v>2.9246412194493931</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="54" customFormat="1">
+    <row r="27" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55">
         <v>25</v>
       </c>
@@ -65603,7 +65756,7 @@
         <v>2.5981514475687586</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="54" customFormat="1">
+    <row r="28" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55">
         <v>26</v>
       </c>
@@ -65640,7 +65793,7 @@
         <v>1.7132496487078854</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="54" customFormat="1">
+    <row r="29" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55">
         <v>27</v>
       </c>
@@ -65678,7 +65831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="54" customFormat="1">
+    <row r="30" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55">
         <v>28</v>
       </c>
@@ -65716,7 +65869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="54" customFormat="1">
+    <row r="31" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="55">
         <v>29</v>
       </c>
@@ -65753,7 +65906,7 @@
         <v>2.9662343078170599</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="54" customFormat="1">
+    <row r="32" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="55">
         <v>30</v>
       </c>
@@ -65790,7 +65943,7 @@
         <v>2.3533338768646592</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="54" customFormat="1">
+    <row r="33" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="55">
         <v>31</v>
       </c>
@@ -65827,7 +65980,7 @@
         <v>2.7219009399354572</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="54" customFormat="1">
+    <row r="34" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="55">
         <v>32</v>
       </c>
@@ -65864,7 +66017,7 @@
         <v>2.8864748449945052</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="54" customFormat="1">
+    <row r="35" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55">
         <v>33</v>
       </c>
@@ -65901,7 +66054,7 @@
         <v>2.9246412194493931</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="54" customFormat="1">
+    <row r="36" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="55">
         <v>34</v>
       </c>
@@ -65938,7 +66091,7 @@
         <v>2.8864748449945052</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="54" customFormat="1">
+    <row r="37" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="55">
         <v>35</v>
       </c>
@@ -65976,7 +66129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="54" customFormat="1">
+    <row r="38" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55">
         <v>37</v>
       </c>
@@ -66014,7 +66167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="54" customFormat="1">
+    <row r="39" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="55">
         <v>38</v>
       </c>
@@ -66051,7 +66204,7 @@
         <v>2.6770481600829643</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="54" customFormat="1">
+    <row r="40" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="55">
         <v>39</v>
       </c>
@@ -66088,7 +66241,7 @@
         <v>2.8455047772633972</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="54" customFormat="1">
+    <row r="41" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="55">
         <v>40</v>
       </c>
@@ -66126,7 +66279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="54" customFormat="1">
+    <row r="42" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="55">
         <v>41</v>
       </c>
@@ -66164,7 +66317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1">
+    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="56">
         <v>42</v>
       </c>
@@ -66202,7 +66355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="40" customFormat="1">
+    <row r="44" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="53"/>
       <c r="B44" s="53"/>
       <c r="C44" s="53"/>
@@ -66211,7 +66364,7 @@
       <c r="F44" s="53"/>
       <c r="G44" s="53"/>
     </row>
-    <row r="45" spans="1:11" s="40" customFormat="1">
+    <row r="45" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="53"/>
       <c r="B45" s="53"/>
       <c r="C45" s="53"/>
@@ -66220,7 +66373,7 @@
       <c r="F45" s="53"/>
       <c r="G45" s="53"/>
     </row>
-    <row r="46" spans="1:11" s="40" customFormat="1">
+    <row r="46" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="53"/>
       <c r="B46" s="53"/>
       <c r="C46" s="53"/>
@@ -66229,7 +66382,7 @@
       <c r="F46" s="53"/>
       <c r="G46" s="53"/>
     </row>
-    <row r="47" spans="1:11" s="40" customFormat="1">
+    <row r="47" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="53"/>
       <c r="B47" s="53"/>
       <c r="C47" s="53"/>
@@ -66238,7 +66391,7 @@
       <c r="F47" s="53"/>
       <c r="G47" s="53"/>
     </row>
-    <row r="48" spans="1:11" s="40" customFormat="1">
+    <row r="48" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="53"/>
       <c r="B48" s="53"/>
       <c r="C48" s="53"/>
@@ -66247,7 +66400,7 @@
       <c r="F48" s="53"/>
       <c r="G48" s="53"/>
     </row>
-    <row r="49" spans="1:7" s="40" customFormat="1">
+    <row r="49" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="53"/>
       <c r="B49" s="53"/>
       <c r="C49" s="53"/>
@@ -66277,14 +66430,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV43"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
@@ -66292,7 +66445,7 @@
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="191" t="s">
         <v>116</v>
       </c>
@@ -66552,7 +66705,7 @@
       <c r="IU1" s="191"/>
       <c r="IV1" s="191"/>
     </row>
-    <row r="2" spans="1:256" ht="15.75" thickBot="1">
+    <row r="2" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="194" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -66568,7 +66721,7 @@
       <c r="J2" s="194"/>
       <c r="K2" s="194"/>
     </row>
-    <row r="3" spans="1:256" ht="15" customHeight="1">
+    <row r="3" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="195" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -66609,7 +66762,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15.75" thickBot="1">
+    <row r="4" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="196"/>
       <c r="B4" s="198"/>
       <c r="C4" s="200"/>
@@ -66622,7 +66775,7 @@
       <c r="J4" s="210"/>
       <c r="K4" s="211"/>
     </row>
-    <row r="5" spans="1:256" s="54" customFormat="1">
+    <row r="5" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="62">
         <v>1</v>
       </c>
@@ -66659,7 +66812,7 @@
         <v>0.42607444953076973</v>
       </c>
     </row>
-    <row r="6" spans="1:256" s="54" customFormat="1">
+    <row r="6" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55">
         <v>2</v>
       </c>
@@ -66698,7 +66851,7 @@
       </c>
       <c r="M6" s="79"/>
     </row>
-    <row r="7" spans="1:256" s="54" customFormat="1">
+    <row r="7" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55">
         <v>3</v>
       </c>
@@ -66736,7 +66889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:256" s="54" customFormat="1">
+    <row r="8" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="55">
         <v>4</v>
       </c>
@@ -66774,7 +66927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:256" s="54" customFormat="1">
+    <row r="9" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="55">
         <v>5</v>
       </c>
@@ -66811,7 +66964,7 @@
         <v>2.5981514475687586</v>
       </c>
     </row>
-    <row r="10" spans="1:256" s="54" customFormat="1">
+    <row r="10" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55">
         <v>6</v>
       </c>
@@ -66848,7 +67001,7 @@
         <v>2.7647366581228674</v>
       </c>
     </row>
-    <row r="11" spans="1:256" s="54" customFormat="1">
+    <row r="11" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="55">
         <v>7</v>
       </c>
@@ -66886,7 +67039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:256" s="54" customFormat="1">
+    <row r="12" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55">
         <v>8</v>
       </c>
@@ -66923,7 +67076,7 @@
         <v>0.88553205585224515</v>
       </c>
     </row>
-    <row r="13" spans="1:256" s="54" customFormat="1">
+    <row r="13" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55">
         <v>9</v>
       </c>
@@ -66961,7 +67114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="54" customFormat="1">
+    <row r="14" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55">
         <v>11</v>
       </c>
@@ -66998,7 +67151,7 @@
         <v>2.5981514475687586</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="54" customFormat="1">
+    <row r="15" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55">
         <v>12</v>
       </c>
@@ -67036,7 +67189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:256" s="54" customFormat="1">
+    <row r="16" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="55">
         <v>13</v>
       </c>
@@ -67074,7 +67227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="54" customFormat="1">
+    <row r="17" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55">
         <v>15</v>
       </c>
@@ -67111,7 +67264,7 @@
         <v>2.3350891006988279</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="54" customFormat="1">
+    <row r="18" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="55">
         <v>16</v>
       </c>
@@ -67149,7 +67302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="54" customFormat="1">
+    <row r="19" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55">
         <v>17</v>
       </c>
@@ -67187,7 +67340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="54" customFormat="1">
+    <row r="20" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55">
         <v>18</v>
       </c>
@@ -67225,7 +67378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="54" customFormat="1">
+    <row r="21" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55">
         <v>19</v>
       </c>
@@ -67263,7 +67416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="54" customFormat="1">
+    <row r="22" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="55">
         <v>20</v>
       </c>
@@ -67301,7 +67454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="54" customFormat="1">
+    <row r="23" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55">
         <v>21</v>
       </c>
@@ -67338,7 +67491,7 @@
         <v>2.2437446624362383</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="54" customFormat="1">
+    <row r="24" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="55">
         <v>22</v>
       </c>
@@ -67376,7 +67529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="54" customFormat="1">
+    <row r="25" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="55">
         <v>23</v>
       </c>
@@ -67414,7 +67567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="54" customFormat="1">
+    <row r="26" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55">
         <v>24</v>
       </c>
@@ -67452,7 +67605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="54" customFormat="1">
+    <row r="27" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55">
         <v>25</v>
       </c>
@@ -67490,7 +67643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="54" customFormat="1">
+    <row r="28" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55">
         <v>26</v>
       </c>
@@ -67528,7 +67681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="54" customFormat="1">
+    <row r="29" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55">
         <v>27</v>
       </c>
@@ -67566,7 +67719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="54" customFormat="1">
+    <row r="30" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55">
         <v>28</v>
       </c>
@@ -67604,7 +67757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="54" customFormat="1">
+    <row r="31" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="55">
         <v>29</v>
       </c>
@@ -67642,7 +67795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="54" customFormat="1">
+    <row r="32" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="55">
         <v>30</v>
       </c>
@@ -67680,7 +67833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="54" customFormat="1">
+    <row r="33" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="55">
         <v>31</v>
       </c>
@@ -67717,7 +67870,7 @@
         <v>0.88553205585224515</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="54" customFormat="1">
+    <row r="34" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="55">
         <v>32</v>
       </c>
@@ -67754,7 +67907,7 @@
         <v>1.1132633377760479</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="54" customFormat="1">
+    <row r="35" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55">
         <v>33</v>
       </c>
@@ -67791,7 +67944,7 @@
         <v>0.53968957560827258</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="54" customFormat="1">
+    <row r="36" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="55">
         <v>34</v>
       </c>
@@ -67828,7 +67981,7 @@
         <v>0.99997497413441794</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="54" customFormat="1">
+    <row r="37" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="55">
         <v>35</v>
       </c>
@@ -67866,7 +68019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="54" customFormat="1">
+    <row r="38" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55">
         <v>37</v>
       </c>
@@ -67904,7 +68057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="54" customFormat="1">
+    <row r="39" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="55">
         <v>38</v>
       </c>
@@ -67941,7 +68094,7 @@
         <v>0.53968957560827258</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="54" customFormat="1">
+    <row r="40" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="55">
         <v>39</v>
       </c>
@@ -67979,7 +68132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="54" customFormat="1">
+    <row r="41" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="55">
         <v>40</v>
       </c>
@@ -68017,7 +68170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="54" customFormat="1">
+    <row r="42" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="55">
         <v>41</v>
       </c>
@@ -68055,7 +68208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1">
+    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="56">
         <v>42</v>
       </c>
@@ -68114,14 +68267,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV43"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
@@ -68129,7 +68282,7 @@
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="191" t="s">
         <v>116</v>
       </c>
@@ -68389,7 +68542,7 @@
       <c r="IU1" s="191"/>
       <c r="IV1" s="191"/>
     </row>
-    <row r="2" spans="1:256" ht="15.75" thickBot="1">
+    <row r="2" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="194" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -68405,7 +68558,7 @@
       <c r="J2" s="194"/>
       <c r="K2" s="194"/>
     </row>
-    <row r="3" spans="1:256" ht="15" customHeight="1">
+    <row r="3" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="195" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -68446,7 +68599,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15.75" thickBot="1">
+    <row r="4" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="196"/>
       <c r="B4" s="198"/>
       <c r="C4" s="200"/>
@@ -68459,7 +68612,7 @@
       <c r="J4" s="210"/>
       <c r="K4" s="211"/>
     </row>
-    <row r="5" spans="1:256" s="54" customFormat="1">
+    <row r="5" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="62">
         <v>1</v>
       </c>
@@ -68497,7 +68650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:256" s="54" customFormat="1">
+    <row r="6" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55">
         <v>2</v>
       </c>
@@ -68536,7 +68689,7 @@
       </c>
       <c r="M6" s="79"/>
     </row>
-    <row r="7" spans="1:256" s="54" customFormat="1">
+    <row r="7" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55">
         <v>3</v>
       </c>
@@ -68574,7 +68727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:256" s="54" customFormat="1">
+    <row r="8" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="55">
         <v>4</v>
       </c>
@@ -68612,7 +68765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:256" s="54" customFormat="1">
+    <row r="9" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="55">
         <v>5</v>
       </c>
@@ -68650,7 +68803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:256" s="54" customFormat="1">
+    <row r="10" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55">
         <v>6</v>
       </c>
@@ -68688,7 +68841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:256" s="54" customFormat="1">
+    <row r="11" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="55">
         <v>7</v>
       </c>
@@ -68726,7 +68879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:256" s="54" customFormat="1">
+    <row r="12" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55">
         <v>8</v>
       </c>
@@ -68764,7 +68917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:256" s="54" customFormat="1">
+    <row r="13" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55">
         <v>9</v>
       </c>
@@ -68802,7 +68955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="54" customFormat="1">
+    <row r="14" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55">
         <v>11</v>
       </c>
@@ -68840,7 +68993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="54" customFormat="1">
+    <row r="15" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55">
         <v>12</v>
       </c>
@@ -68878,7 +69031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:256" s="54" customFormat="1">
+    <row r="16" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="55">
         <v>13</v>
       </c>
@@ -68916,7 +69069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="54" customFormat="1">
+    <row r="17" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55">
         <v>15</v>
       </c>
@@ -68953,7 +69106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="54" customFormat="1">
+    <row r="18" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="55">
         <v>16</v>
       </c>
@@ -68991,7 +69144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="54" customFormat="1">
+    <row r="19" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55">
         <v>17</v>
       </c>
@@ -69029,7 +69182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="54" customFormat="1">
+    <row r="20" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55">
         <v>18</v>
       </c>
@@ -69067,7 +69220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="54" customFormat="1">
+    <row r="21" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55">
         <v>19</v>
       </c>
@@ -69105,7 +69258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="54" customFormat="1">
+    <row r="22" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="55">
         <v>20</v>
       </c>
@@ -69143,7 +69296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="54" customFormat="1">
+    <row r="23" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55">
         <v>21</v>
       </c>
@@ -69181,7 +69334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="54" customFormat="1">
+    <row r="24" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="55">
         <v>22</v>
       </c>
@@ -69219,7 +69372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="54" customFormat="1">
+    <row r="25" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="55">
         <v>23</v>
       </c>
@@ -69257,7 +69410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="54" customFormat="1">
+    <row r="26" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55">
         <v>24</v>
       </c>
@@ -69295,7 +69448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="54" customFormat="1">
+    <row r="27" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55">
         <v>25</v>
       </c>
@@ -69333,7 +69486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="54" customFormat="1">
+    <row r="28" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55">
         <v>26</v>
       </c>
@@ -69371,7 +69524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="54" customFormat="1">
+    <row r="29" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55">
         <v>27</v>
       </c>
@@ -69409,7 +69562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="54" customFormat="1">
+    <row r="30" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55">
         <v>28</v>
       </c>
@@ -69447,7 +69600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="54" customFormat="1">
+    <row r="31" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="55">
         <v>29</v>
       </c>
@@ -69485,7 +69638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="54" customFormat="1">
+    <row r="32" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="55">
         <v>30</v>
       </c>
@@ -69523,7 +69676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="54" customFormat="1">
+    <row r="33" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="55">
         <v>31</v>
       </c>
@@ -69561,7 +69714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="54" customFormat="1">
+    <row r="34" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="55">
         <v>32</v>
       </c>
@@ -69599,7 +69752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="54" customFormat="1">
+    <row r="35" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55">
         <v>33</v>
       </c>
@@ -69637,7 +69790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="54" customFormat="1">
+    <row r="36" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="55">
         <v>34</v>
       </c>
@@ -69675,7 +69828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="54" customFormat="1">
+    <row r="37" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="55">
         <v>35</v>
       </c>
@@ -69713,7 +69866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="54" customFormat="1">
+    <row r="38" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55">
         <v>37</v>
       </c>
@@ -69751,7 +69904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="54" customFormat="1">
+    <row r="39" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="55">
         <v>38</v>
       </c>
@@ -69789,7 +69942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="54" customFormat="1">
+    <row r="40" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="55">
         <v>39</v>
       </c>
@@ -69827,7 +69980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="54" customFormat="1">
+    <row r="41" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="55">
         <v>40</v>
       </c>
@@ -69865,7 +70018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="54" customFormat="1">
+    <row r="42" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="55">
         <v>41</v>
       </c>
@@ -69903,7 +70056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1">
+    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="56">
         <v>42</v>
       </c>
@@ -69962,14 +70115,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV43"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
@@ -69977,7 +70130,7 @@
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="191" t="s">
         <v>116</v>
       </c>
@@ -70237,7 +70390,7 @@
       <c r="IU1" s="191"/>
       <c r="IV1" s="191"/>
     </row>
-    <row r="2" spans="1:256" ht="15.75" thickBot="1">
+    <row r="2" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="194" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -70253,7 +70406,7 @@
       <c r="J2" s="194"/>
       <c r="K2" s="194"/>
     </row>
-    <row r="3" spans="1:256" ht="15" customHeight="1">
+    <row r="3" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="195" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -70294,7 +70447,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15.75" thickBot="1">
+    <row r="4" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="196"/>
       <c r="B4" s="198"/>
       <c r="C4" s="200"/>
@@ -70307,7 +70460,7 @@
       <c r="J4" s="210"/>
       <c r="K4" s="211"/>
     </row>
-    <row r="5" spans="1:256" s="54" customFormat="1">
+    <row r="5" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="62">
         <v>1</v>
       </c>
@@ -70345,7 +70498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:256" s="54" customFormat="1">
+    <row r="6" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55">
         <v>2</v>
       </c>
@@ -70384,7 +70537,7 @@
       </c>
       <c r="M6" s="79"/>
     </row>
-    <row r="7" spans="1:256" s="54" customFormat="1">
+    <row r="7" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55">
         <v>3</v>
       </c>
@@ -70422,7 +70575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:256" s="54" customFormat="1">
+    <row r="8" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="55">
         <v>4</v>
       </c>
@@ -70460,7 +70613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:256" s="54" customFormat="1">
+    <row r="9" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="55">
         <v>5</v>
       </c>
@@ -70498,7 +70651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:256" s="54" customFormat="1">
+    <row r="10" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55">
         <v>6</v>
       </c>
@@ -70536,7 +70689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:256" s="54" customFormat="1">
+    <row r="11" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="55">
         <v>7</v>
       </c>
@@ -70574,7 +70727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:256" s="54" customFormat="1">
+    <row r="12" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55">
         <v>8</v>
       </c>
@@ -70612,7 +70765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:256" s="54" customFormat="1">
+    <row r="13" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55">
         <v>9</v>
       </c>
@@ -70650,7 +70803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="54" customFormat="1">
+    <row r="14" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55">
         <v>11</v>
       </c>
@@ -70688,7 +70841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="54" customFormat="1">
+    <row r="15" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55">
         <v>12</v>
       </c>
@@ -70726,7 +70879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:256" s="54" customFormat="1">
+    <row r="16" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="55">
         <v>13</v>
       </c>
@@ -70764,7 +70917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="54" customFormat="1">
+    <row r="17" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55">
         <v>15</v>
       </c>
@@ -70801,7 +70954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="54" customFormat="1">
+    <row r="18" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="55">
         <v>16</v>
       </c>
@@ -70839,7 +70992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="54" customFormat="1">
+    <row r="19" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55">
         <v>17</v>
       </c>
@@ -70877,7 +71030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="54" customFormat="1">
+    <row r="20" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55">
         <v>18</v>
       </c>
@@ -70915,7 +71068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="54" customFormat="1">
+    <row r="21" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55">
         <v>19</v>
       </c>
@@ -70953,7 +71106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="54" customFormat="1">
+    <row r="22" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="55">
         <v>20</v>
       </c>
@@ -70991,7 +71144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="54" customFormat="1">
+    <row r="23" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55">
         <v>21</v>
       </c>
@@ -71029,7 +71182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="54" customFormat="1">
+    <row r="24" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="55">
         <v>22</v>
       </c>
@@ -71067,7 +71220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="54" customFormat="1">
+    <row r="25" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="55">
         <v>23</v>
       </c>
@@ -71105,7 +71258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="54" customFormat="1">
+    <row r="26" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55">
         <v>24</v>
       </c>
@@ -71143,7 +71296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="54" customFormat="1">
+    <row r="27" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55">
         <v>25</v>
       </c>
@@ -71181,7 +71334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="54" customFormat="1">
+    <row r="28" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55">
         <v>26</v>
       </c>
@@ -71219,7 +71372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="54" customFormat="1">
+    <row r="29" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55">
         <v>27</v>
       </c>
@@ -71257,7 +71410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="54" customFormat="1">
+    <row r="30" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55">
         <v>28</v>
       </c>
@@ -71295,7 +71448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="54" customFormat="1">
+    <row r="31" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="55">
         <v>29</v>
       </c>
@@ -71333,7 +71486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="54" customFormat="1">
+    <row r="32" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="55">
         <v>30</v>
       </c>
@@ -71371,7 +71524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="54" customFormat="1">
+    <row r="33" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="55">
         <v>31</v>
       </c>
@@ -71409,7 +71562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="54" customFormat="1">
+    <row r="34" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="55">
         <v>32</v>
       </c>
@@ -71447,7 +71600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="54" customFormat="1">
+    <row r="35" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55">
         <v>33</v>
       </c>
@@ -71485,7 +71638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="54" customFormat="1">
+    <row r="36" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="55">
         <v>34</v>
       </c>
@@ -71523,7 +71676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="54" customFormat="1">
+    <row r="37" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="55">
         <v>35</v>
       </c>
@@ -71561,7 +71714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="54" customFormat="1">
+    <row r="38" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55">
         <v>37</v>
       </c>
@@ -71599,7 +71752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="54" customFormat="1">
+    <row r="39" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="55">
         <v>38</v>
       </c>
@@ -71637,7 +71790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="54" customFormat="1">
+    <row r="40" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="55">
         <v>39</v>
       </c>
@@ -71675,7 +71828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="54" customFormat="1">
+    <row r="41" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="55">
         <v>40</v>
       </c>
@@ -71713,7 +71866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="54" customFormat="1">
+    <row r="42" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="55">
         <v>41</v>
       </c>
@@ -71751,7 +71904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1">
+    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="56">
         <v>42</v>
       </c>
@@ -71810,14 +71963,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
@@ -71825,7 +71978,7 @@
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="191" t="s">
         <v>116</v>
       </c>
@@ -72085,7 +72238,7 @@
       <c r="IU1" s="191"/>
       <c r="IV1" s="191"/>
     </row>
-    <row r="2" spans="1:256" ht="15.75" thickBot="1">
+    <row r="2" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="194" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -72101,7 +72254,7 @@
       <c r="J2" s="194"/>
       <c r="K2" s="194"/>
     </row>
-    <row r="3" spans="1:256" ht="15" customHeight="1">
+    <row r="3" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="195" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -72142,7 +72295,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15.75" thickBot="1">
+    <row r="4" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="196"/>
       <c r="B4" s="198"/>
       <c r="C4" s="200"/>
@@ -72155,7 +72308,7 @@
       <c r="J4" s="210"/>
       <c r="K4" s="211"/>
     </row>
-    <row r="5" spans="1:256" s="54" customFormat="1">
+    <row r="5" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="62">
         <v>1</v>
       </c>
@@ -72193,7 +72346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:256" s="54" customFormat="1">
+    <row r="6" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55">
         <v>2</v>
       </c>
@@ -72232,7 +72385,7 @@
       </c>
       <c r="M6" s="79"/>
     </row>
-    <row r="7" spans="1:256" s="54" customFormat="1">
+    <row r="7" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55">
         <v>3</v>
       </c>
@@ -72270,7 +72423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:256" s="54" customFormat="1">
+    <row r="8" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="55">
         <v>4</v>
       </c>
@@ -72308,7 +72461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:256" s="54" customFormat="1">
+    <row r="9" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="55">
         <v>5</v>
       </c>
@@ -72346,7 +72499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:256" s="54" customFormat="1">
+    <row r="10" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55">
         <v>6</v>
       </c>
@@ -72384,7 +72537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:256" s="54" customFormat="1">
+    <row r="11" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="55">
         <v>7</v>
       </c>
@@ -72422,7 +72575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:256" s="54" customFormat="1">
+    <row r="12" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55">
         <v>8</v>
       </c>
@@ -72460,7 +72613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:256" s="54" customFormat="1">
+    <row r="13" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55">
         <v>9</v>
       </c>
@@ -72498,7 +72651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="54" customFormat="1">
+    <row r="14" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55">
         <v>11</v>
       </c>
@@ -72536,7 +72689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="54" customFormat="1">
+    <row r="15" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55">
         <v>12</v>
       </c>
@@ -72574,7 +72727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:256" s="54" customFormat="1">
+    <row r="16" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="55">
         <v>13</v>
       </c>
@@ -72612,7 +72765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="54" customFormat="1">
+    <row r="17" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55">
         <v>15</v>
       </c>
@@ -72649,7 +72802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="54" customFormat="1">
+    <row r="18" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="55">
         <v>16</v>
       </c>
@@ -72687,7 +72840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="54" customFormat="1">
+    <row r="19" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55">
         <v>17</v>
       </c>
@@ -72725,7 +72878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="54" customFormat="1">
+    <row r="20" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55">
         <v>18</v>
       </c>
@@ -72763,7 +72916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="54" customFormat="1">
+    <row r="21" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55">
         <v>19</v>
       </c>
@@ -72801,7 +72954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="54" customFormat="1">
+    <row r="22" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="55">
         <v>20</v>
       </c>
@@ -72839,7 +72992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="54" customFormat="1">
+    <row r="23" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55">
         <v>21</v>
       </c>
@@ -72877,7 +73030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="54" customFormat="1">
+    <row r="24" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="55">
         <v>22</v>
       </c>
@@ -72915,7 +73068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="54" customFormat="1">
+    <row r="25" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="55">
         <v>23</v>
       </c>
@@ -72953,7 +73106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="54" customFormat="1">
+    <row r="26" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55">
         <v>24</v>
       </c>
@@ -72991,7 +73144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="54" customFormat="1">
+    <row r="27" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55">
         <v>25</v>
       </c>
@@ -73029,7 +73182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="54" customFormat="1">
+    <row r="28" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55">
         <v>26</v>
       </c>
@@ -73067,7 +73220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="54" customFormat="1">
+    <row r="29" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55">
         <v>27</v>
       </c>
@@ -73105,7 +73258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="54" customFormat="1">
+    <row r="30" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55">
         <v>28</v>
       </c>
@@ -73143,7 +73296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="54" customFormat="1">
+    <row r="31" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="55">
         <v>29</v>
       </c>
@@ -73181,7 +73334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="54" customFormat="1">
+    <row r="32" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="55">
         <v>30</v>
       </c>
@@ -73219,7 +73372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="54" customFormat="1">
+    <row r="33" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="55">
         <v>31</v>
       </c>
@@ -73257,7 +73410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="54" customFormat="1">
+    <row r="34" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="55">
         <v>32</v>
       </c>
@@ -73295,7 +73448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="54" customFormat="1">
+    <row r="35" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55">
         <v>33</v>
       </c>
@@ -73333,7 +73486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="54" customFormat="1">
+    <row r="36" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="55">
         <v>34</v>
       </c>
@@ -73371,7 +73524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="54" customFormat="1">
+    <row r="37" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="55">
         <v>35</v>
       </c>
@@ -73409,7 +73562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="54" customFormat="1">
+    <row r="38" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55">
         <v>37</v>
       </c>
@@ -73447,7 +73600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="54" customFormat="1">
+    <row r="39" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="55">
         <v>38</v>
       </c>
@@ -73485,7 +73638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="54" customFormat="1">
+    <row r="40" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="55">
         <v>39</v>
       </c>
@@ -73523,7 +73676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="54" customFormat="1">
+    <row r="41" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="55">
         <v>40</v>
       </c>
@@ -73561,7 +73714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="54" customFormat="1">
+    <row r="42" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="55">
         <v>41</v>
       </c>
@@ -73599,7 +73752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1">
+    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="56">
         <v>42</v>
       </c>
@@ -73658,14 +73811,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV43"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
@@ -73673,7 +73826,7 @@
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="191" t="s">
         <v>116</v>
       </c>
@@ -73933,7 +74086,7 @@
       <c r="IU1" s="191"/>
       <c r="IV1" s="191"/>
     </row>
-    <row r="2" spans="1:256" ht="15.75" thickBot="1">
+    <row r="2" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="194" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -73949,7 +74102,7 @@
       <c r="J2" s="194"/>
       <c r="K2" s="194"/>
     </row>
-    <row r="3" spans="1:256" ht="15" customHeight="1">
+    <row r="3" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="195" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -73990,7 +74143,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15.75" thickBot="1">
+    <row r="4" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="196"/>
       <c r="B4" s="198"/>
       <c r="C4" s="200"/>
@@ -74003,7 +74156,7 @@
       <c r="J4" s="210"/>
       <c r="K4" s="211"/>
     </row>
-    <row r="5" spans="1:256" s="54" customFormat="1">
+    <row r="5" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="62">
         <v>1</v>
       </c>
@@ -74041,7 +74194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:256" s="54" customFormat="1">
+    <row r="6" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55">
         <v>2</v>
       </c>
@@ -74080,7 +74233,7 @@
       </c>
       <c r="M6" s="79"/>
     </row>
-    <row r="7" spans="1:256" s="54" customFormat="1">
+    <row r="7" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55">
         <v>3</v>
       </c>
@@ -74118,7 +74271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:256" s="54" customFormat="1">
+    <row r="8" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="55">
         <v>4</v>
       </c>
@@ -74156,7 +74309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:256" s="54" customFormat="1">
+    <row r="9" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="55">
         <v>5</v>
       </c>
@@ -74194,7 +74347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:256" s="54" customFormat="1">
+    <row r="10" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55">
         <v>6</v>
       </c>
@@ -74232,7 +74385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:256" s="54" customFormat="1">
+    <row r="11" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="55">
         <v>7</v>
       </c>
@@ -74270,7 +74423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:256" s="54" customFormat="1">
+    <row r="12" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55">
         <v>8</v>
       </c>
@@ -74308,7 +74461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:256" s="54" customFormat="1">
+    <row r="13" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55">
         <v>9</v>
       </c>
@@ -74346,7 +74499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="54" customFormat="1">
+    <row r="14" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55">
         <v>11</v>
       </c>
@@ -74384,7 +74537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="54" customFormat="1">
+    <row r="15" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55">
         <v>12</v>
       </c>
@@ -74422,7 +74575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:256" s="54" customFormat="1">
+    <row r="16" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="55">
         <v>13</v>
       </c>
@@ -74460,7 +74613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="54" customFormat="1">
+    <row r="17" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55">
         <v>15</v>
       </c>
@@ -74497,7 +74650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="54" customFormat="1">
+    <row r="18" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="55">
         <v>16</v>
       </c>
@@ -74535,7 +74688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="54" customFormat="1">
+    <row r="19" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55">
         <v>17</v>
       </c>
@@ -74573,7 +74726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="54" customFormat="1">
+    <row r="20" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55">
         <v>18</v>
       </c>
@@ -74611,7 +74764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="54" customFormat="1">
+    <row r="21" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55">
         <v>19</v>
       </c>
@@ -74649,7 +74802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="54" customFormat="1">
+    <row r="22" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="55">
         <v>20</v>
       </c>
@@ -74687,7 +74840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="54" customFormat="1">
+    <row r="23" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55">
         <v>21</v>
       </c>
@@ -74725,7 +74878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="54" customFormat="1">
+    <row r="24" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="55">
         <v>22</v>
       </c>
@@ -74763,7 +74916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="54" customFormat="1">
+    <row r="25" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="55">
         <v>23</v>
       </c>
@@ -74801,7 +74954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="54" customFormat="1">
+    <row r="26" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55">
         <v>24</v>
       </c>
@@ -74839,7 +74992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="54" customFormat="1">
+    <row r="27" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55">
         <v>25</v>
       </c>
@@ -74877,7 +75030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="54" customFormat="1">
+    <row r="28" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55">
         <v>26</v>
       </c>
@@ -74915,7 +75068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="54" customFormat="1">
+    <row r="29" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55">
         <v>27</v>
       </c>
@@ -74953,7 +75106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="54" customFormat="1">
+    <row r="30" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55">
         <v>28</v>
       </c>
@@ -74991,7 +75144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="54" customFormat="1">
+    <row r="31" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="55">
         <v>29</v>
       </c>
@@ -75029,7 +75182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="54" customFormat="1">
+    <row r="32" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="55">
         <v>30</v>
       </c>
@@ -75067,7 +75220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="54" customFormat="1">
+    <row r="33" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="55">
         <v>31</v>
       </c>
@@ -75105,7 +75258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="54" customFormat="1">
+    <row r="34" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="55">
         <v>32</v>
       </c>
@@ -75143,7 +75296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="54" customFormat="1">
+    <row r="35" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55">
         <v>33</v>
       </c>
@@ -75181,7 +75334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="54" customFormat="1">
+    <row r="36" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="55">
         <v>34</v>
       </c>
@@ -75219,7 +75372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="54" customFormat="1">
+    <row r="37" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="55">
         <v>35</v>
       </c>
@@ -75257,7 +75410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="54" customFormat="1">
+    <row r="38" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55">
         <v>37</v>
       </c>
@@ -75295,7 +75448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="54" customFormat="1">
+    <row r="39" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="55">
         <v>38</v>
       </c>
@@ -75333,7 +75486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="54" customFormat="1">
+    <row r="40" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="55">
         <v>39</v>
       </c>
@@ -75371,7 +75524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="54" customFormat="1">
+    <row r="41" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="55">
         <v>40</v>
       </c>
@@ -75409,7 +75562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="54" customFormat="1">
+    <row r="42" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="55">
         <v>41</v>
       </c>
@@ -75447,7 +75600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1">
+    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="56">
         <v>42</v>
       </c>

--- a/ТМОГИ.2016.осень.xlsx
+++ b/ТМОГИ.2016.осень.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-672" yWindow="228" windowWidth="12504" windowHeight="9432"/>
+    <workbookView xWindow="-675" yWindow="225" windowWidth="12510" windowHeight="9435"/>
   </bookViews>
   <sheets>
     <sheet name="Сводная таблица" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Сводная таблица'!$A$2:$BU$47</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -502,14 +502,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="d/m/yy;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1860,6 +1860,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1938,6 +1943,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1972,6 +1978,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2147,55 +2154,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="AW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BB79" sqref="BB79"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="AN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BJ34" sqref="BJ34:BJ43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" customWidth="1"/>
-    <col min="7" max="7" width="5.88671875" style="22" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" style="22" customWidth="1"/>
-    <col min="9" max="9" width="4.6640625" style="22" customWidth="1"/>
-    <col min="10" max="10" width="5.44140625" style="22" customWidth="1"/>
-    <col min="11" max="11" width="4.33203125" style="22" customWidth="1"/>
-    <col min="12" max="12" width="4.88671875" customWidth="1"/>
-    <col min="13" max="14" width="4.5546875" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" customWidth="1"/>
-    <col min="16" max="16" width="5.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" style="22" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="22" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" style="22" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="22" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" style="22" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" customWidth="1"/>
+    <col min="13" max="14" width="4.5703125" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" customWidth="1"/>
+    <col min="16" max="16" width="5.28515625" customWidth="1"/>
     <col min="17" max="17" width="5" customWidth="1"/>
-    <col min="18" max="18" width="9.33203125" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" customWidth="1"/>
     <col min="19" max="20" width="5" customWidth="1"/>
-    <col min="21" max="21" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.109375" customWidth="1"/>
-    <col min="23" max="23" width="6.109375" customWidth="1"/>
-    <col min="24" max="24" width="5.5546875" customWidth="1"/>
-    <col min="25" max="27" width="5.6640625" customWidth="1"/>
-    <col min="28" max="30" width="4.5546875" customWidth="1"/>
+    <col min="21" max="21" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.140625" customWidth="1"/>
+    <col min="23" max="23" width="6.140625" customWidth="1"/>
+    <col min="24" max="24" width="5.5703125" customWidth="1"/>
+    <col min="25" max="27" width="5.7109375" customWidth="1"/>
+    <col min="28" max="30" width="4.5703125" customWidth="1"/>
     <col min="31" max="33" width="5" customWidth="1"/>
-    <col min="34" max="34" width="4.5546875" customWidth="1"/>
-    <col min="35" max="37" width="3.33203125" customWidth="1"/>
+    <col min="34" max="34" width="4.5703125" customWidth="1"/>
+    <col min="35" max="37" width="3.28515625" customWidth="1"/>
     <col min="38" max="38" width="4" customWidth="1"/>
-    <col min="39" max="39" width="4.109375" customWidth="1"/>
-    <col min="40" max="54" width="3.33203125" customWidth="1"/>
-    <col min="55" max="55" width="3.44140625" customWidth="1"/>
-    <col min="56" max="63" width="3.33203125" customWidth="1"/>
-    <col min="64" max="71" width="3.33203125" hidden="1" customWidth="1"/>
-    <col min="72" max="72" width="5.5546875" style="132" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4.140625" customWidth="1"/>
+    <col min="40" max="54" width="3.28515625" customWidth="1"/>
+    <col min="55" max="55" width="3.42578125" customWidth="1"/>
+    <col min="56" max="63" width="3.28515625" customWidth="1"/>
+    <col min="64" max="71" width="3.28515625" hidden="1" customWidth="1"/>
+    <col min="72" max="72" width="5.5703125" style="132" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="74" max="255" width="11" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" s="144" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="1" spans="1:16384" s="144" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="144" t="s">
         <v>116</v>
       </c>
@@ -2214,7 +2221,7 @@
       <c r="AF1" s="146"/>
       <c r="AG1" s="146"/>
     </row>
-    <row r="2" spans="1:16384" ht="15" thickBot="1">
+    <row r="2" spans="1:16384" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="81">
         <f>DATE(2016,9,1)</f>
         <v>42614</v>
@@ -18609,7 +18616,7 @@
       <c r="XFC2" s="106"/>
       <c r="XFD2" s="106"/>
     </row>
-    <row r="3" spans="1:16384" s="109" customFormat="1" ht="15" customHeight="1">
+    <row r="3" spans="1:16384" s="109" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="183" t="s">
         <v>36</v>
       </c>
@@ -18823,7 +18830,7 @@
       <c r="BT3" s="108"/>
       <c r="BU3" s="108"/>
     </row>
-    <row r="4" spans="1:16384" s="106" customFormat="1" ht="43.8">
+    <row r="4" spans="1:16384" s="106" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="183"/>
       <c r="B4" s="179"/>
       <c r="C4" s="181"/>
@@ -19068,7 +19075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:16384" s="106" customFormat="1">
+    <row r="5" spans="1:16384" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -19219,7 +19226,7 @@
         <v>4.6649701005319706</v>
       </c>
     </row>
-    <row r="6" spans="1:16384" s="106" customFormat="1">
+    <row r="6" spans="1:16384" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>2</v>
       </c>
@@ -19375,7 +19382,7 @@
         <v>4.9854045367980566</v>
       </c>
     </row>
-    <row r="7" spans="1:16384" s="106" customFormat="1">
+    <row r="7" spans="1:16384" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>3</v>
       </c>
@@ -19527,7 +19534,7 @@
         <v>3.4506011173239588</v>
       </c>
     </row>
-    <row r="8" spans="1:16384" s="106" customFormat="1">
+    <row r="8" spans="1:16384" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>4</v>
       </c>
@@ -19678,7 +19685,7 @@
         <v>2.8348461605833055</v>
       </c>
     </row>
-    <row r="9" spans="1:16384" s="106" customFormat="1">
+    <row r="9" spans="1:16384" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>5</v>
       </c>
@@ -19829,7 +19836,7 @@
         <v>5.6855147183419597</v>
       </c>
     </row>
-    <row r="10" spans="1:16384" s="106" customFormat="1">
+    <row r="10" spans="1:16384" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>6</v>
       </c>
@@ -19994,7 +20001,7 @@
         <v>6.8280390944445664</v>
       </c>
     </row>
-    <row r="11" spans="1:16384" s="106" customFormat="1">
+    <row r="11" spans="1:16384" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>7</v>
       </c>
@@ -20047,7 +20054,9 @@
         <v>0</v>
       </c>
       <c r="T11" s="18"/>
-      <c r="U11" s="151"/>
+      <c r="U11" s="151">
+        <v>42701</v>
+      </c>
       <c r="V11" s="70">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -20150,7 +20159,7 @@
         <v>4.9959528015816215</v>
       </c>
     </row>
-    <row r="12" spans="1:16384" s="106" customFormat="1">
+    <row r="12" spans="1:16384" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>8</v>
       </c>
@@ -20185,11 +20194,16 @@
       <c r="K12" s="41"/>
       <c r="L12" s="41"/>
       <c r="M12" s="70"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="151"/>
+      <c r="N12" s="25">
+        <v>3</v>
+      </c>
+      <c r="O12" s="151">
+        <f>DATE(2016,12,3)</f>
+        <v>42707</v>
+      </c>
       <c r="P12" s="70">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.8753514526710404</v>
       </c>
       <c r="Q12" s="18"/>
       <c r="R12" s="151"/>
@@ -20197,11 +20211,15 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T12" s="18"/>
-      <c r="U12" s="151"/>
+      <c r="T12" s="18">
+        <v>2</v>
+      </c>
+      <c r="U12" s="151">
+        <v>42707</v>
+      </c>
       <c r="V12" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.7392438070404173</v>
       </c>
       <c r="W12" s="18"/>
       <c r="X12" s="151"/>
@@ -20294,14 +20312,14 @@
       <c r="BS12" s="1"/>
       <c r="BT12" s="130">
         <f t="shared" si="3"/>
-        <v>51.38</v>
+        <v>54.99459525971146</v>
       </c>
       <c r="BU12" s="9">
         <f t="shared" si="4"/>
-        <v>5.1923833397102594</v>
+        <v>5.6689796882709871</v>
       </c>
     </row>
-    <row r="13" spans="1:16384" s="106" customFormat="1">
+    <row r="13" spans="1:16384" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>9</v>
       </c>
@@ -20347,11 +20365,16 @@
         <f t="shared" si="7"/>
         <v>1.2502343017806936</v>
       </c>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="151"/>
+      <c r="Q13" s="18">
+        <v>2</v>
+      </c>
+      <c r="R13" s="151">
+        <f>DATE(2016,12,3)</f>
+        <v>42707</v>
+      </c>
       <c r="S13" s="70">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.2502343017806936</v>
       </c>
       <c r="T13" s="18"/>
       <c r="U13" s="151"/>
@@ -20450,14 +20473,14 @@
       <c r="BS13" s="1"/>
       <c r="BT13" s="130">
         <f t="shared" si="3"/>
-        <v>56.170234301780695</v>
+        <v>57.420468603561389</v>
       </c>
       <c r="BU13" s="9">
         <f t="shared" si="4"/>
-        <v>5.8239915870915366</v>
+        <v>5.9888391178000271</v>
       </c>
     </row>
-    <row r="14" spans="1:16384" s="106" customFormat="1">
+    <row r="14" spans="1:16384" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>10</v>
       </c>
@@ -20618,7 +20641,7 @@
         <v>6.6262726369935967</v>
       </c>
     </row>
-    <row r="15" spans="1:16384" s="106" customFormat="1">
+    <row r="15" spans="1:16384" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>11</v>
       </c>
@@ -20769,7 +20792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16384" s="106" customFormat="1">
+    <row r="16" spans="1:16384" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>12</v>
       </c>
@@ -20920,7 +20943,7 @@
         <v>3.5995953573918249</v>
       </c>
     </row>
-    <row r="17" spans="1:73" s="106" customFormat="1">
+    <row r="17" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>13</v>
       </c>
@@ -21086,7 +21109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:73" s="106" customFormat="1">
+    <row r="18" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>14</v>
       </c>
@@ -21237,7 +21260,7 @@
         <v>2.3733595763023025</v>
       </c>
     </row>
-    <row r="19" spans="1:73" s="106" customFormat="1">
+    <row r="19" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>15</v>
       </c>
@@ -21388,7 +21411,7 @@
         <v>3.8936282382337217</v>
       </c>
     </row>
-    <row r="20" spans="1:73" s="106" customFormat="1">
+    <row r="20" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>16</v>
       </c>
@@ -21539,7 +21562,7 @@
         <v>4.2773213697359269</v>
       </c>
     </row>
-    <row r="21" spans="1:73" s="106" customFormat="1">
+    <row r="21" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>17</v>
       </c>
@@ -21692,7 +21715,7 @@
         <v>4.314240296478407</v>
       </c>
     </row>
-    <row r="22" spans="1:73" s="106" customFormat="1">
+    <row r="22" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>18</v>
       </c>
@@ -21843,7 +21866,7 @@
         <v>2.3733595763023025</v>
       </c>
     </row>
-    <row r="23" spans="1:73" s="106" customFormat="1">
+    <row r="23" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>19</v>
       </c>
@@ -21994,7 +22017,7 @@
         <v>2.9561512055943124</v>
       </c>
     </row>
-    <row r="24" spans="1:73" s="106" customFormat="1">
+    <row r="24" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>20</v>
       </c>
@@ -22155,7 +22178,7 @@
         <v>4.2865511014215469</v>
       </c>
     </row>
-    <row r="25" spans="1:73" s="106" customFormat="1">
+    <row r="25" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>21</v>
       </c>
@@ -22306,7 +22329,7 @@
         <v>2.1096529567131577</v>
       </c>
     </row>
-    <row r="26" spans="1:73" s="106" customFormat="1">
+    <row r="26" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>22</v>
       </c>
@@ -22466,7 +22489,7 @@
         <v>5.1379404037250724</v>
       </c>
     </row>
-    <row r="27" spans="1:73" s="106" customFormat="1">
+    <row r="27" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>23</v>
       </c>
@@ -22626,7 +22649,7 @@
         <v>4.2926840721479804</v>
       </c>
     </row>
-    <row r="28" spans="1:73" s="106" customFormat="1">
+    <row r="28" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>24</v>
       </c>
@@ -22777,7 +22800,7 @@
         <v>2.5091684853907119</v>
       </c>
     </row>
-    <row r="29" spans="1:73" s="106" customFormat="1">
+    <row r="29" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>25</v>
       </c>
@@ -22928,7 +22951,7 @@
         <v>4.071630206456395</v>
       </c>
     </row>
-    <row r="30" spans="1:73" s="106" customFormat="1">
+    <row r="30" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>26</v>
       </c>
@@ -23009,8 +23032,8 @@
         <v>2</v>
       </c>
       <c r="AP30" s="101"/>
-      <c r="AQ30" s="101" t="s">
-        <v>124</v>
+      <c r="AQ30" s="101">
+        <v>2</v>
       </c>
       <c r="AR30" s="101">
         <v>2</v>
@@ -23072,14 +23095,14 @@
       <c r="BS30" s="101"/>
       <c r="BT30" s="130">
         <f t="shared" si="8"/>
-        <v>37.700000000000003</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="BU30" s="9">
         <f t="shared" si="4"/>
-        <v>3.3886300617205101</v>
+        <v>3.6523366813096545</v>
       </c>
     </row>
-    <row r="31" spans="1:73" s="106" customFormat="1">
+    <row r="31" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>27</v>
       </c>
@@ -23243,7 +23266,7 @@
         <v>6.8570777160646497</v>
       </c>
     </row>
-    <row r="32" spans="1:73" s="106" customFormat="1">
+    <row r="32" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>28</v>
       </c>
@@ -23394,7 +23417,7 @@
         <v>4.6860666300991012</v>
       </c>
     </row>
-    <row r="33" spans="1:73" s="106" customFormat="1">
+    <row r="33" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>29</v>
       </c>
@@ -23451,11 +23474,15 @@
         <f t="shared" si="5"/>
         <v>2.2656982193064668</v>
       </c>
-      <c r="T33" s="21"/>
-      <c r="U33" s="151"/>
+      <c r="T33" s="21">
+        <v>3.5</v>
+      </c>
+      <c r="U33" s="151">
+        <v>42707</v>
+      </c>
       <c r="V33" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.0436766623207303</v>
       </c>
       <c r="W33" s="21"/>
       <c r="X33" s="151"/>
@@ -23528,8 +23555,8 @@
       <c r="BG33" s="169">
         <v>2</v>
       </c>
-      <c r="BH33" s="101" t="s">
-        <v>124</v>
+      <c r="BH33" s="101">
+        <v>2</v>
       </c>
       <c r="BI33" s="101">
         <v>2</v>
@@ -23548,14 +23575,14 @@
       <c r="BS33" s="101"/>
       <c r="BT33" s="130">
         <f t="shared" si="8"/>
-        <v>55.894536082474225</v>
+        <v>60.938212744794953</v>
       </c>
       <c r="BU33" s="9">
         <f t="shared" si="4"/>
-        <v>5.7876398643715081</v>
+        <v>6.4526653258321378</v>
       </c>
     </row>
-    <row r="34" spans="1:73" s="106" customFormat="1">
+    <row r="34" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>30</v>
       </c>
@@ -23612,11 +23639,15 @@
         <f t="shared" si="5"/>
         <v>2.4376757263355202</v>
       </c>
-      <c r="T34" s="21"/>
-      <c r="U34" s="151"/>
+      <c r="T34" s="21">
+        <v>4</v>
+      </c>
+      <c r="U34" s="151">
+        <v>42708</v>
+      </c>
       <c r="V34" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.956975228161669</v>
       </c>
       <c r="W34" s="21"/>
       <c r="X34" s="151"/>
@@ -23693,7 +23724,9 @@
       <c r="BI34" s="101">
         <v>2</v>
       </c>
-      <c r="BJ34" s="101"/>
+      <c r="BJ34" s="101">
+        <v>2</v>
+      </c>
       <c r="BK34" s="101">
         <v>2</v>
       </c>
@@ -23707,14 +23740,14 @@
       <c r="BS34" s="101"/>
       <c r="BT34" s="130">
         <f t="shared" si="8"/>
-        <v>54.877675726335518</v>
+        <v>59.834650954497185</v>
       </c>
       <c r="BU34" s="9">
         <f t="shared" si="4"/>
-        <v>5.6535634608157324</v>
+        <v>6.3071570512185531</v>
       </c>
     </row>
-    <row r="35" spans="1:73" s="106" customFormat="1">
+    <row r="35" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>31</v>
       </c>
@@ -23856,7 +23889,9 @@
       <c r="BI35" s="101">
         <v>2</v>
       </c>
-      <c r="BJ35" s="101"/>
+      <c r="BJ35" s="101" t="s">
+        <v>124</v>
+      </c>
       <c r="BK35" s="173">
         <v>2</v>
       </c>
@@ -23877,7 +23912,7 @@
         <v>5.7720782080430828</v>
       </c>
     </row>
-    <row r="36" spans="1:73" s="106" customFormat="1">
+    <row r="36" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>32</v>
       </c>
@@ -23923,11 +23958,16 @@
         <f t="shared" si="7"/>
         <v>2.4376757263355202</v>
       </c>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="151"/>
+      <c r="Q36" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="R36" s="151">
+        <f>DATE(2016,12,3)</f>
+        <v>42707</v>
+      </c>
       <c r="S36" s="70">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.562792877225867</v>
       </c>
       <c r="T36" s="21"/>
       <c r="U36" s="151"/>
@@ -24010,7 +24050,9 @@
       <c r="BI36" s="101">
         <v>2</v>
       </c>
-      <c r="BJ36" s="101"/>
+      <c r="BJ36" s="101">
+        <v>2</v>
+      </c>
       <c r="BK36" s="101">
         <v>2</v>
       </c>
@@ -24024,14 +24066,14 @@
       <c r="BS36" s="101"/>
       <c r="BT36" s="130">
         <f t="shared" si="8"/>
-        <v>47.717675726335521</v>
+        <v>51.280468603561388</v>
       </c>
       <c r="BU36" s="9">
         <f t="shared" si="4"/>
-        <v>4.7094937626865949</v>
+        <v>5.1792597956613529</v>
       </c>
     </row>
-    <row r="37" spans="1:73" s="106" customFormat="1">
+    <row r="37" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>33</v>
       </c>
@@ -24169,7 +24211,9 @@
       <c r="BI37" s="171" t="s">
         <v>124</v>
       </c>
-      <c r="BJ37" s="101"/>
+      <c r="BJ37" s="101" t="s">
+        <v>124</v>
+      </c>
       <c r="BK37" s="173" t="s">
         <v>124</v>
       </c>
@@ -24190,7 +24234,7 @@
         <v>4.1807619904103586</v>
       </c>
     </row>
-    <row r="38" spans="1:73" s="106" customFormat="1">
+    <row r="38" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>34</v>
       </c>
@@ -24231,11 +24275,16 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="151"/>
+      <c r="Q38" s="21">
+        <v>2</v>
+      </c>
+      <c r="R38" s="151">
+        <f>DATE(2016,12,3)</f>
+        <v>42707</v>
+      </c>
       <c r="S38" s="70">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.2502343017806936</v>
       </c>
       <c r="T38" s="21"/>
       <c r="U38" s="151"/>
@@ -24318,7 +24367,9 @@
       <c r="BI38" s="171">
         <v>2</v>
       </c>
-      <c r="BJ38" s="101"/>
+      <c r="BJ38" s="101">
+        <v>2</v>
+      </c>
       <c r="BK38" s="101">
         <v>2</v>
       </c>
@@ -24332,14 +24383,14 @@
       <c r="BS38" s="101"/>
       <c r="BT38" s="130">
         <f t="shared" si="8"/>
-        <v>44.66</v>
+        <v>47.91023430178069</v>
       </c>
       <c r="BU38" s="9">
         <f t="shared" si="4"/>
-        <v>4.3063290978907327</v>
+        <v>4.7348832481883676</v>
       </c>
     </row>
-    <row r="39" spans="1:73" s="106" customFormat="1">
+    <row r="39" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>35</v>
       </c>
@@ -24385,11 +24436,16 @@
         <f t="shared" si="7"/>
         <v>0.4062792877225867</v>
       </c>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="151"/>
+      <c r="Q39" s="21">
+        <v>3</v>
+      </c>
+      <c r="R39" s="151">
+        <f>DATE(2016,12,3)</f>
+        <v>42707</v>
+      </c>
       <c r="S39" s="70">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.8753514526710404</v>
       </c>
       <c r="T39" s="21"/>
       <c r="U39" s="151"/>
@@ -24472,7 +24528,9 @@
       <c r="BI39" s="15">
         <v>2</v>
       </c>
-      <c r="BJ39" s="15"/>
+      <c r="BJ39" s="15">
+        <v>2</v>
+      </c>
       <c r="BK39" s="101">
         <v>2</v>
       </c>
@@ -24486,14 +24544,14 @@
       <c r="BS39" s="101"/>
       <c r="BT39" s="130">
         <f t="shared" si="8"/>
-        <v>44.516279287722583</v>
+        <v>48.391630740393623</v>
       </c>
       <c r="BU39" s="9">
         <f t="shared" si="4"/>
-        <v>4.2873790462909218</v>
+        <v>4.7983569619428028</v>
       </c>
     </row>
-    <row r="40" spans="1:73" s="106" customFormat="1">
+    <row r="40" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>36</v>
       </c>
@@ -24550,11 +24608,15 @@
         <f t="shared" si="5"/>
         <v>2.4376757263355202</v>
       </c>
-      <c r="T40" s="18"/>
-      <c r="U40" s="151"/>
+      <c r="T40" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="U40" s="151">
+        <v>42707</v>
+      </c>
       <c r="V40" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.1740547588005215</v>
       </c>
       <c r="W40" s="18"/>
       <c r="X40" s="151"/>
@@ -24631,7 +24693,9 @@
       <c r="BI40" s="101">
         <v>2</v>
       </c>
-      <c r="BJ40" s="101"/>
+      <c r="BJ40" s="101">
+        <v>2</v>
+      </c>
       <c r="BK40" s="101">
         <v>2</v>
       </c>
@@ -24645,14 +24709,14 @@
       <c r="BS40" s="101"/>
       <c r="BT40" s="130">
         <f t="shared" si="8"/>
-        <v>54.177675726335522</v>
+        <v>58.351730485136045</v>
       </c>
       <c r="BU40" s="9">
         <f t="shared" si="4"/>
-        <v>5.5612661439595321</v>
+        <v>6.1116290791711663</v>
       </c>
     </row>
-    <row r="41" spans="1:73" s="106" customFormat="1">
+    <row r="41" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>37</v>
       </c>
@@ -24780,7 +24844,9 @@
       <c r="BI41" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="BJ41" s="15"/>
+      <c r="BJ41" s="15">
+        <v>2</v>
+      </c>
       <c r="BK41" s="101">
         <v>2</v>
       </c>
@@ -24794,14 +24860,14 @@
       <c r="BS41" s="101"/>
       <c r="BT41" s="130">
         <f t="shared" si="8"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BU41" s="9">
         <f t="shared" si="4"/>
-        <v>2.3733595763023025</v>
+        <v>2.637066195891447</v>
       </c>
     </row>
-    <row r="42" spans="1:73" s="106" customFormat="1">
+    <row r="42" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>38</v>
       </c>
@@ -24929,7 +24995,9 @@
       <c r="BI42" s="15">
         <v>2</v>
       </c>
-      <c r="BJ42" s="15"/>
+      <c r="BJ42" s="15">
+        <v>2</v>
+      </c>
       <c r="BK42" s="101">
         <v>2</v>
       </c>
@@ -24943,14 +25011,14 @@
       <c r="BS42" s="101"/>
       <c r="BT42" s="130">
         <f t="shared" si="8"/>
-        <v>32.54</v>
+        <v>34.54</v>
       </c>
       <c r="BU42" s="9">
         <f t="shared" si="4"/>
-        <v>2.7082669831805162</v>
+        <v>2.9719736027696606</v>
       </c>
     </row>
-    <row r="43" spans="1:73" s="115" customFormat="1" ht="15" thickBot="1">
+    <row r="43" spans="1:73" s="115" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15">
         <v>39</v>
       </c>
@@ -25078,7 +25146,9 @@
       <c r="BI43" s="112">
         <v>4</v>
       </c>
-      <c r="BJ43" s="112"/>
+      <c r="BJ43" s="112">
+        <v>2</v>
+      </c>
       <c r="BK43" s="112">
         <v>2</v>
       </c>
@@ -25092,14 +25162,14 @@
       <c r="BS43" s="112"/>
       <c r="BT43" s="154">
         <f t="shared" si="8"/>
-        <v>42.980000000000004</v>
+        <v>44.980000000000004</v>
       </c>
       <c r="BU43" s="114">
         <f t="shared" si="4"/>
-        <v>4.0848155374358521</v>
+        <v>4.3485221570249966</v>
       </c>
     </row>
-    <row r="44" spans="1:73">
+    <row r="44" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -25115,13 +25185,13 @@
       <c r="M44" s="16"/>
       <c r="N44" s="16">
         <f>SUM(N5:N43)</f>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O44" s="150"/>
       <c r="P44" s="150"/>
       <c r="Q44" s="16">
         <f>SUM(Q5:Q43)</f>
-        <v>41</v>
+        <v>50.5</v>
       </c>
       <c r="R44" s="150"/>
       <c r="S44" s="150"/>
@@ -25171,7 +25241,7 @@
       </c>
       <c r="AQ44" s="8">
         <f t="shared" si="11"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR44" s="8">
         <f t="shared" si="11"/>
@@ -25239,7 +25309,7 @@
       </c>
       <c r="BH44" s="8">
         <f t="shared" si="12"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BI44" s="8">
         <f t="shared" si="12"/>
@@ -25247,7 +25317,7 @@
       </c>
       <c r="BJ44" s="8">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BK44" s="8">
         <f t="shared" si="12"/>
@@ -25287,7 +25357,7 @@
       </c>
       <c r="BT44" s="131"/>
     </row>
-    <row r="45" spans="1:73">
+    <row r="45" spans="1:73" x14ac:dyDescent="0.25">
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45"/>
@@ -25308,7 +25378,7 @@
       </c>
       <c r="AV45" s="8"/>
     </row>
-    <row r="46" spans="1:73">
+    <row r="46" spans="1:73" x14ac:dyDescent="0.25">
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
@@ -25328,7 +25398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:73" ht="15" thickBot="1">
+    <row r="47" spans="1:73" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -25340,7 +25410,7 @@
       <c r="AM47" s="2"/>
       <c r="AQ47" s="4"/>
     </row>
-    <row r="48" spans="1:73">
+    <row r="48" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A48" s="184" t="s">
         <v>8</v>
       </c>
@@ -25537,7 +25607,7 @@
       <c r="BT48" s="133"/>
       <c r="BU48" s="124"/>
     </row>
-    <row r="49" spans="1:73" ht="43.8">
+    <row r="49" spans="1:73" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="184"/>
       <c r="B49" s="179"/>
       <c r="C49" s="181"/>
@@ -25782,7 +25852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:73" ht="15" customHeight="1">
+    <row r="50" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <v>1</v>
       </c>
@@ -25937,7 +26007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:73" ht="15" customHeight="1">
+    <row r="51" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="15">
         <v>2</v>
       </c>
@@ -26092,7 +26162,7 @@
         <v>6.8465294512810821</v>
       </c>
     </row>
-    <row r="52" spans="1:73" ht="15" customHeight="1">
+    <row r="52" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15">
         <v>3</v>
       </c>
@@ -26247,7 +26317,7 @@
         <v>6.8280390944445664</v>
       </c>
     </row>
-    <row r="53" spans="1:73" ht="15" customHeight="1">
+    <row r="53" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15">
         <v>4</v>
       </c>
@@ -26398,7 +26468,7 @@
         <v>6.6262726369935967</v>
       </c>
     </row>
-    <row r="54" spans="1:73" ht="15" customHeight="1">
+    <row r="54" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15">
         <v>5</v>
       </c>
@@ -26545,7 +26615,7 @@
         <v>5.8239915870915366</v>
       </c>
     </row>
-    <row r="55" spans="1:73" ht="15" customHeight="1">
+    <row r="55" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="15">
         <v>6</v>
       </c>
@@ -26696,7 +26766,7 @@
         <v>5.7876398643715081</v>
       </c>
     </row>
-    <row r="56" spans="1:73" ht="15" customHeight="1">
+    <row r="56" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15">
         <v>7</v>
       </c>
@@ -26849,7 +26919,7 @@
         <v>5.7720782080430828</v>
       </c>
     </row>
-    <row r="57" spans="1:73" ht="15" customHeight="1">
+    <row r="57" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15">
         <v>8</v>
       </c>
@@ -26992,7 +27062,7 @@
         <v>5.6855147183419597</v>
       </c>
     </row>
-    <row r="58" spans="1:73" ht="15" customHeight="1">
+    <row r="58" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15">
         <v>9</v>
       </c>
@@ -27141,7 +27211,7 @@
         <v>5.6535634608157324</v>
       </c>
     </row>
-    <row r="59" spans="1:73" ht="15" customHeight="1">
+    <row r="59" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="15">
         <v>10</v>
       </c>
@@ -27290,7 +27360,7 @@
         <v>5.5612661439595321</v>
       </c>
     </row>
-    <row r="60" spans="1:73" ht="15" customHeight="1">
+    <row r="60" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15">
         <v>11</v>
       </c>
@@ -27433,7 +27503,7 @@
         <v>5.1923833397102594</v>
       </c>
     </row>
-    <row r="61" spans="1:73" ht="15" customHeight="1">
+    <row r="61" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15">
         <v>12</v>
       </c>
@@ -27584,7 +27654,7 @@
         <v>5.1379404037250724</v>
       </c>
     </row>
-    <row r="62" spans="1:73" ht="15" customHeight="1">
+    <row r="62" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="15">
         <v>13</v>
       </c>
@@ -27731,7 +27801,7 @@
         <v>4.9959528015816215</v>
       </c>
     </row>
-    <row r="63" spans="1:73" ht="15" customHeight="1">
+    <row r="63" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="15">
         <v>14</v>
       </c>
@@ -27878,7 +27948,7 @@
         <v>4.9854045367980566</v>
       </c>
     </row>
-    <row r="64" spans="1:73" ht="15" customHeight="1">
+    <row r="64" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="15">
         <v>15</v>
       </c>
@@ -28023,7 +28093,7 @@
         <v>4.7094937626865949</v>
       </c>
     </row>
-    <row r="65" spans="1:73" ht="15" customHeight="1">
+    <row r="65" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="15">
         <v>16</v>
       </c>
@@ -28166,7 +28236,7 @@
         <v>4.6860666300991012</v>
       </c>
     </row>
-    <row r="66" spans="1:73" ht="15" customHeight="1">
+    <row r="66" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="15">
         <v>17</v>
       </c>
@@ -28309,7 +28379,7 @@
         <v>4.6649701005319706</v>
       </c>
     </row>
-    <row r="67" spans="1:73" ht="15" customHeight="1">
+    <row r="67" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="15">
         <v>18</v>
       </c>
@@ -28452,7 +28522,7 @@
         <v>4.314240296478407</v>
       </c>
     </row>
-    <row r="68" spans="1:73" ht="15" customHeight="1">
+    <row r="68" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="15">
         <v>19</v>
       </c>
@@ -28593,7 +28663,7 @@
         <v>4.3063290978907327</v>
       </c>
     </row>
-    <row r="69" spans="1:73" ht="15" customHeight="1">
+    <row r="69" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="15">
         <v>20</v>
       </c>
@@ -28744,7 +28814,7 @@
         <v>4.2926840721479804</v>
       </c>
     </row>
-    <row r="70" spans="1:73" ht="15" customHeight="1">
+    <row r="70" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="15">
         <v>21</v>
       </c>
@@ -28889,7 +28959,7 @@
         <v>4.2873790462909218</v>
       </c>
     </row>
-    <row r="71" spans="1:73" ht="15" customHeight="1">
+    <row r="71" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15">
         <v>22</v>
       </c>
@@ -29040,7 +29110,7 @@
         <v>4.2865511014215469</v>
       </c>
     </row>
-    <row r="72" spans="1:73" ht="15" customHeight="1">
+    <row r="72" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15">
         <v>23</v>
       </c>
@@ -29183,7 +29253,7 @@
         <v>4.2773213697359269</v>
       </c>
     </row>
-    <row r="73" spans="1:73" ht="15" customHeight="1">
+    <row r="73" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="15">
         <v>24</v>
       </c>
@@ -29332,7 +29402,7 @@
         <v>4.1807619904103586</v>
       </c>
     </row>
-    <row r="74" spans="1:73" ht="15" customHeight="1">
+    <row r="74" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="15">
         <v>25</v>
       </c>
@@ -29473,7 +29543,7 @@
         <v>4.0848155374358521</v>
       </c>
     </row>
-    <row r="75" spans="1:73" ht="15" customHeight="1">
+    <row r="75" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="15">
         <v>26</v>
       </c>
@@ -29616,7 +29686,7 @@
         <v>4.071630206456395</v>
       </c>
     </row>
-    <row r="76" spans="1:73" ht="15" customHeight="1">
+    <row r="76" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="15">
         <v>27</v>
       </c>
@@ -29759,7 +29829,7 @@
         <v>3.8936282382337217</v>
       </c>
     </row>
-    <row r="77" spans="1:73" ht="15" customHeight="1">
+    <row r="77" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="15">
         <v>28</v>
       </c>
@@ -29902,7 +29972,7 @@
         <v>3.5995953573918249</v>
       </c>
     </row>
-    <row r="78" spans="1:73" ht="15" customHeight="1">
+    <row r="78" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="15">
         <v>29</v>
       </c>
@@ -30045,7 +30115,7 @@
         <v>3.4506011173239588</v>
       </c>
     </row>
-    <row r="79" spans="1:73" ht="15" customHeight="1">
+    <row r="79" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="15">
         <v>30</v>
       </c>
@@ -30188,7 +30258,7 @@
         <v>3.3886300617205101</v>
       </c>
     </row>
-    <row r="80" spans="1:73" ht="15" customHeight="1">
+    <row r="80" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="15">
         <v>31</v>
       </c>
@@ -30331,7 +30401,7 @@
         <v>2.9561512055943124</v>
       </c>
     </row>
-    <row r="81" spans="1:73" ht="15" customHeight="1">
+    <row r="81" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="15">
         <v>32</v>
       </c>
@@ -30474,7 +30544,7 @@
         <v>2.8348461605833055</v>
       </c>
     </row>
-    <row r="82" spans="1:73" ht="15" customHeight="1">
+    <row r="82" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="15">
         <v>33</v>
       </c>
@@ -30615,7 +30685,7 @@
         <v>2.7082669831805162</v>
       </c>
     </row>
-    <row r="83" spans="1:73" ht="15" customHeight="1">
+    <row r="83" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="15">
         <v>34</v>
       </c>
@@ -30758,7 +30828,7 @@
         <v>2.5091684853907119</v>
       </c>
     </row>
-    <row r="84" spans="1:73" ht="15" customHeight="1">
+    <row r="84" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="15">
         <v>35</v>
       </c>
@@ -30901,7 +30971,7 @@
         <v>2.3733595763023025</v>
       </c>
     </row>
-    <row r="85" spans="1:73" ht="15" customHeight="1">
+    <row r="85" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="15">
         <v>36</v>
       </c>
@@ -31044,7 +31114,7 @@
         <v>2.3733595763023025</v>
       </c>
     </row>
-    <row r="86" spans="1:73" ht="15" customHeight="1">
+    <row r="86" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="15">
         <v>37</v>
       </c>
@@ -31185,7 +31255,7 @@
         <v>2.3733595763023025</v>
       </c>
     </row>
-    <row r="87" spans="1:73" ht="15" customHeight="1">
+    <row r="87" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="15">
         <v>38</v>
       </c>
@@ -31328,7 +31398,7 @@
         <v>1.845946337124013</v>
       </c>
     </row>
-    <row r="88" spans="1:73" ht="15" customHeight="1" thickBot="1">
+    <row r="88" spans="1:73" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="15">
         <v>41</v>
       </c>
@@ -31471,7 +31541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:73" ht="15" hidden="1" customHeight="1">
+    <row r="89" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="15"/>
       <c r="B89" s="12"/>
       <c r="C89" s="84"/>
@@ -31546,7 +31616,7 @@
       <c r="BT89" s="135"/>
       <c r="BU89" s="123"/>
     </row>
-    <row r="90" spans="1:73" ht="15" hidden="1" customHeight="1">
+    <row r="90" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="15"/>
       <c r="B90" s="12"/>
       <c r="C90" s="84"/>
@@ -31621,7 +31691,7 @@
       <c r="BT90" s="130"/>
       <c r="BU90" s="9"/>
     </row>
-    <row r="91" spans="1:73" ht="15" hidden="1" customHeight="1">
+    <row r="91" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="15"/>
       <c r="B91" s="12"/>
       <c r="C91" s="84"/>
@@ -31696,7 +31766,7 @@
       <c r="BT91" s="130"/>
       <c r="BU91" s="9"/>
     </row>
-    <row r="92" spans="1:73" ht="15" hidden="1" customHeight="1">
+    <row r="92" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="15"/>
       <c r="B92" s="12"/>
       <c r="C92" s="84"/>
@@ -31771,7 +31841,7 @@
       <c r="BT92" s="130"/>
       <c r="BU92" s="9"/>
     </row>
-    <row r="93" spans="1:73" ht="15" hidden="1" customHeight="1">
+    <row r="93" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="15"/>
       <c r="B93" s="12"/>
       <c r="C93" s="84"/>
@@ -31846,7 +31916,7 @@
       <c r="BT93" s="130"/>
       <c r="BU93" s="9"/>
     </row>
-    <row r="94" spans="1:73" ht="15" hidden="1" customHeight="1">
+    <row r="94" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="15"/>
       <c r="B94" s="12"/>
       <c r="C94" s="84"/>
@@ -31921,7 +31991,7 @@
       <c r="BT94" s="130"/>
       <c r="BU94" s="9"/>
     </row>
-    <row r="95" spans="1:73" ht="15" hidden="1" customHeight="1">
+    <row r="95" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="15"/>
       <c r="B95" s="12"/>
       <c r="C95" s="84"/>
@@ -31996,7 +32066,7 @@
       <c r="BT95" s="130"/>
       <c r="BU95" s="9"/>
     </row>
-    <row r="96" spans="1:73" ht="15" hidden="1" customHeight="1">
+    <row r="96" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="15"/>
       <c r="B96" s="12"/>
       <c r="C96" s="84"/>
@@ -32071,7 +32141,7 @@
       <c r="BT96" s="130"/>
       <c r="BU96" s="9"/>
     </row>
-    <row r="97" spans="1:73" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="15"/>
       <c r="B97" s="12"/>
       <c r="C97" s="84"/>
@@ -32146,7 +32216,7 @@
       <c r="BT97" s="130"/>
       <c r="BU97" s="9"/>
     </row>
-    <row r="98" spans="1:73" hidden="1">
+    <row r="98" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="13"/>
       <c r="B98" s="12"/>
       <c r="C98" s="84"/>
@@ -32221,7 +32291,7 @@
       <c r="BT98" s="130"/>
       <c r="BU98" s="9"/>
     </row>
-    <row r="99" spans="1:73" hidden="1">
+    <row r="99" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="13"/>
       <c r="B99" s="12"/>
       <c r="C99" s="84"/>
@@ -32296,7 +32366,7 @@
       <c r="BT99" s="130"/>
       <c r="BU99" s="9"/>
     </row>
-    <row r="100" spans="1:73" hidden="1">
+    <row r="100" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="13"/>
       <c r="B100" s="12"/>
       <c r="C100" s="84"/>
@@ -32371,7 +32441,7 @@
       <c r="BT100" s="130"/>
       <c r="BU100" s="9"/>
     </row>
-    <row r="101" spans="1:73" hidden="1">
+    <row r="101" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
       <c r="B101" s="12"/>
       <c r="C101" s="84"/>
@@ -32446,7 +32516,7 @@
       <c r="BT101" s="130"/>
       <c r="BU101" s="9"/>
     </row>
-    <row r="102" spans="1:73" hidden="1">
+    <row r="102" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="13"/>
       <c r="B102" s="12"/>
       <c r="C102" s="84"/>
@@ -32521,7 +32591,7 @@
       <c r="BT102" s="130"/>
       <c r="BU102" s="9"/>
     </row>
-    <row r="103" spans="1:73" hidden="1">
+    <row r="103" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13"/>
       <c r="B103" s="12"/>
       <c r="C103" s="84"/>
@@ -32596,7 +32666,7 @@
       <c r="BT103" s="130"/>
       <c r="BU103" s="9"/>
     </row>
-    <row r="104" spans="1:73" hidden="1">
+    <row r="104" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13"/>
       <c r="B104" s="12"/>
       <c r="C104" s="84"/>
@@ -32671,7 +32741,7 @@
       <c r="BT104" s="130"/>
       <c r="BU104" s="9"/>
     </row>
-    <row r="105" spans="1:73" hidden="1">
+    <row r="105" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13"/>
       <c r="B105" s="12"/>
       <c r="C105" s="84"/>
@@ -32746,7 +32816,7 @@
       <c r="BT105" s="130"/>
       <c r="BU105" s="9"/>
     </row>
-    <row r="106" spans="1:73" hidden="1">
+    <row r="106" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13"/>
       <c r="B106" s="12"/>
       <c r="C106" s="84"/>
@@ -32821,7 +32891,7 @@
       <c r="BT106" s="130"/>
       <c r="BU106" s="9"/>
     </row>
-    <row r="107" spans="1:73" hidden="1">
+    <row r="107" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="13"/>
       <c r="B107" s="12"/>
       <c r="C107" s="84"/>
@@ -32896,7 +32966,7 @@
       <c r="BT107" s="130"/>
       <c r="BU107" s="9"/>
     </row>
-    <row r="108" spans="1:73" hidden="1">
+    <row r="108" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="13"/>
       <c r="B108" s="12"/>
       <c r="C108" s="84"/>
@@ -32971,7 +33041,7 @@
       <c r="BT108" s="130"/>
       <c r="BU108" s="9"/>
     </row>
-    <row r="109" spans="1:73" hidden="1">
+    <row r="109" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="13"/>
       <c r="B109" s="12"/>
       <c r="C109" s="84"/>
@@ -33046,7 +33116,7 @@
       <c r="BT109" s="130"/>
       <c r="BU109" s="9"/>
     </row>
-    <row r="110" spans="1:73" hidden="1">
+    <row r="110" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="13"/>
       <c r="B110" s="12"/>
       <c r="C110" s="84"/>
@@ -33121,7 +33191,7 @@
       <c r="BT110" s="130"/>
       <c r="BU110" s="9"/>
     </row>
-    <row r="111" spans="1:73" hidden="1">
+    <row r="111" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="13"/>
       <c r="B111" s="12"/>
       <c r="C111" s="84"/>
@@ -33196,7 +33266,7 @@
       <c r="BT111" s="130"/>
       <c r="BU111" s="9"/>
     </row>
-    <row r="112" spans="1:73" hidden="1">
+    <row r="112" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="13"/>
       <c r="B112" s="12"/>
       <c r="C112" s="84"/>
@@ -33271,7 +33341,7 @@
       <c r="BT112" s="130"/>
       <c r="BU112" s="9"/>
     </row>
-    <row r="113" spans="1:73" hidden="1">
+    <row r="113" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="13"/>
       <c r="B113" s="12"/>
       <c r="C113" s="84"/>
@@ -33346,7 +33416,7 @@
       <c r="BT113" s="130"/>
       <c r="BU113" s="9"/>
     </row>
-    <row r="114" spans="1:73" hidden="1">
+    <row r="114" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="13"/>
       <c r="B114" s="12"/>
       <c r="C114" s="84"/>
@@ -33421,7 +33491,7 @@
       <c r="BT114" s="130"/>
       <c r="BU114" s="9"/>
     </row>
-    <row r="115" spans="1:73" hidden="1">
+    <row r="115" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="13"/>
       <c r="B115" s="12"/>
       <c r="C115" s="84"/>
@@ -33496,7 +33566,7 @@
       <c r="BT115" s="130"/>
       <c r="BU115" s="9"/>
     </row>
-    <row r="116" spans="1:73" hidden="1">
+    <row r="116" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="13"/>
       <c r="B116" s="12"/>
       <c r="C116" s="84"/>
@@ -33571,7 +33641,7 @@
       <c r="BT116" s="130"/>
       <c r="BU116" s="9"/>
     </row>
-    <row r="117" spans="1:73" hidden="1">
+    <row r="117" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="13"/>
       <c r="B117" s="12"/>
       <c r="C117" s="84"/>
@@ -33646,7 +33716,7 @@
       <c r="BT117" s="130"/>
       <c r="BU117" s="9"/>
     </row>
-    <row r="118" spans="1:73" hidden="1">
+    <row r="118" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="13"/>
       <c r="B118" s="12"/>
       <c r="C118" s="84"/>
@@ -33721,7 +33791,7 @@
       <c r="BT118" s="130"/>
       <c r="BU118" s="9"/>
     </row>
-    <row r="119" spans="1:73" hidden="1">
+    <row r="119" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="13"/>
       <c r="B119" s="12"/>
       <c r="C119" s="84"/>
@@ -33796,7 +33866,7 @@
       <c r="BT119" s="130"/>
       <c r="BU119" s="9"/>
     </row>
-    <row r="120" spans="1:73" hidden="1">
+    <row r="120" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="13"/>
       <c r="B120" s="12"/>
       <c r="C120" s="84"/>
@@ -33871,7 +33941,7 @@
       <c r="BT120" s="130"/>
       <c r="BU120" s="9"/>
     </row>
-    <row r="121" spans="1:73" hidden="1">
+    <row r="121" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="13"/>
       <c r="B121" s="12"/>
       <c r="C121" s="84"/>
@@ -33946,7 +34016,7 @@
       <c r="BT121" s="130"/>
       <c r="BU121" s="9"/>
     </row>
-    <row r="122" spans="1:73" hidden="1">
+    <row r="122" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="13"/>
       <c r="B122" s="12"/>
       <c r="C122" s="84"/>
@@ -34021,7 +34091,7 @@
       <c r="BT122" s="130"/>
       <c r="BU122" s="9"/>
     </row>
-    <row r="123" spans="1:73" ht="15" hidden="1" thickBot="1">
+    <row r="123" spans="1:73" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="13"/>
       <c r="B123" s="12"/>
       <c r="C123" s="84"/>
@@ -34096,7 +34166,7 @@
       <c r="BT123" s="130"/>
       <c r="BU123" s="9"/>
     </row>
-    <row r="124" spans="1:73" ht="15" hidden="1" customHeight="1">
+    <row r="124" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
@@ -34168,7 +34238,7 @@
       <c r="BS124" s="8"/>
       <c r="BT124" s="131"/>
     </row>
-    <row r="125" spans="1:73" ht="15" hidden="1" customHeight="1"/>
+    <row r="125" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState ref="B50:BU88">
     <sortCondition descending="1" ref="BU50:BU88"/>
@@ -34258,29 +34328,29 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IU49"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="194" t="s">
         <v>116</v>
       </c>
@@ -34539,7 +34609,7 @@
       <c r="IT1" s="194"/>
       <c r="IU1" s="194"/>
     </row>
-    <row r="2" spans="1:255" ht="15" thickBot="1">
+    <row r="2" spans="1:255" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="197" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -34555,7 +34625,7 @@
       <c r="J2" s="197"/>
       <c r="K2" s="197"/>
     </row>
-    <row r="3" spans="1:255" ht="15" customHeight="1">
+    <row r="3" spans="1:255" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="198" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -34596,7 +34666,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:255" ht="15" thickBot="1">
+    <row r="4" spans="1:255" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="199"/>
       <c r="B4" s="201"/>
       <c r="C4" s="203"/>
@@ -34609,7 +34679,7 @@
       <c r="J4" s="213"/>
       <c r="K4" s="214"/>
     </row>
-    <row r="5" spans="1:255" s="54" customFormat="1">
+    <row r="5" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="62">
         <v>1</v>
       </c>
@@ -34647,7 +34717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:255" s="54" customFormat="1">
+    <row r="6" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55">
         <v>2</v>
       </c>
@@ -34686,7 +34756,7 @@
       </c>
       <c r="M6" s="79"/>
     </row>
-    <row r="7" spans="1:255" s="54" customFormat="1">
+    <row r="7" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55">
         <v>3</v>
       </c>
@@ -34724,7 +34794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:255" s="54" customFormat="1">
+    <row r="8" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="55">
         <v>4</v>
       </c>
@@ -34762,7 +34832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:255" s="54" customFormat="1">
+    <row r="9" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="55">
         <v>5</v>
       </c>
@@ -34800,7 +34870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:255" s="54" customFormat="1">
+    <row r="10" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55">
         <v>6</v>
       </c>
@@ -34838,7 +34908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:255" s="54" customFormat="1">
+    <row r="11" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="55">
         <v>7</v>
       </c>
@@ -34876,7 +34946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:255" s="54" customFormat="1">
+    <row r="12" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55">
         <v>8</v>
       </c>
@@ -34914,7 +34984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:255" s="54" customFormat="1">
+    <row r="13" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55">
         <v>9</v>
       </c>
@@ -34952,7 +35022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:255" s="54" customFormat="1">
+    <row r="14" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55">
         <v>11</v>
       </c>
@@ -34990,7 +35060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:255" s="54" customFormat="1">
+    <row r="15" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55">
         <v>12</v>
       </c>
@@ -35028,7 +35098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:255" s="54" customFormat="1">
+    <row r="16" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="55">
         <v>13</v>
       </c>
@@ -35066,7 +35136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="54" customFormat="1">
+    <row r="17" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55">
         <v>15</v>
       </c>
@@ -35103,7 +35173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="54" customFormat="1">
+    <row r="18" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="55">
         <v>16</v>
       </c>
@@ -35141,7 +35211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="54" customFormat="1">
+    <row r="19" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55">
         <v>17</v>
       </c>
@@ -35179,7 +35249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="54" customFormat="1">
+    <row r="20" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55">
         <v>18</v>
       </c>
@@ -35217,7 +35287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="54" customFormat="1">
+    <row r="21" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55">
         <v>19</v>
       </c>
@@ -35255,7 +35325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="54" customFormat="1">
+    <row r="22" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="55">
         <v>20</v>
       </c>
@@ -35293,7 +35363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="54" customFormat="1">
+    <row r="23" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55">
         <v>21</v>
       </c>
@@ -35331,7 +35401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="54" customFormat="1">
+    <row r="24" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="55">
         <v>22</v>
       </c>
@@ -35369,7 +35439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="54" customFormat="1">
+    <row r="25" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="55">
         <v>23</v>
       </c>
@@ -35407,7 +35477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="54" customFormat="1">
+    <row r="26" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55">
         <v>24</v>
       </c>
@@ -35445,7 +35515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="54" customFormat="1">
+    <row r="27" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55">
         <v>25</v>
       </c>
@@ -35483,7 +35553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="54" customFormat="1">
+    <row r="28" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55">
         <v>26</v>
       </c>
@@ -35521,7 +35591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="54" customFormat="1">
+    <row r="29" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55">
         <v>27</v>
       </c>
@@ -35559,7 +35629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="54" customFormat="1">
+    <row r="30" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55">
         <v>28</v>
       </c>
@@ -35597,7 +35667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="54" customFormat="1">
+    <row r="31" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="55">
         <v>29</v>
       </c>
@@ -35635,7 +35705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="54" customFormat="1">
+    <row r="32" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="55">
         <v>30</v>
       </c>
@@ -35673,7 +35743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="54" customFormat="1">
+    <row r="33" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="55">
         <v>31</v>
       </c>
@@ -35711,7 +35781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="54" customFormat="1">
+    <row r="34" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="55">
         <v>32</v>
       </c>
@@ -35749,7 +35819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="54" customFormat="1">
+    <row r="35" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55">
         <v>33</v>
       </c>
@@ -35787,7 +35857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="54" customFormat="1">
+    <row r="36" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="55">
         <v>34</v>
       </c>
@@ -35825,7 +35895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="54" customFormat="1">
+    <row r="37" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="55">
         <v>35</v>
       </c>
@@ -35863,7 +35933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="54" customFormat="1">
+    <row r="38" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55">
         <v>37</v>
       </c>
@@ -35901,7 +35971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="54" customFormat="1">
+    <row r="39" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="55">
         <v>38</v>
       </c>
@@ -35939,7 +36009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="54" customFormat="1">
+    <row r="40" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="55">
         <v>39</v>
       </c>
@@ -35977,7 +36047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="54" customFormat="1">
+    <row r="41" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="55">
         <v>40</v>
       </c>
@@ -36015,7 +36085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="54" customFormat="1">
+    <row r="42" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="55">
         <v>41</v>
       </c>
@@ -36053,7 +36123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1">
+    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="56">
         <v>42</v>
       </c>
@@ -36091,7 +36161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="40" customFormat="1">
+    <row r="44" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="53"/>
       <c r="B44" s="53"/>
       <c r="C44" s="53"/>
@@ -36100,7 +36170,7 @@
       <c r="F44" s="53"/>
       <c r="G44" s="53"/>
     </row>
-    <row r="45" spans="1:11" s="40" customFormat="1">
+    <row r="45" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="53"/>
       <c r="B45" s="53"/>
       <c r="C45" s="53"/>
@@ -36109,7 +36179,7 @@
       <c r="F45" s="53"/>
       <c r="G45" s="53"/>
     </row>
-    <row r="46" spans="1:11" s="40" customFormat="1">
+    <row r="46" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="53"/>
       <c r="B46" s="53"/>
       <c r="C46" s="53"/>
@@ -36118,7 +36188,7 @@
       <c r="F46" s="53"/>
       <c r="G46" s="53"/>
     </row>
-    <row r="47" spans="1:11" s="40" customFormat="1">
+    <row r="47" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="53"/>
       <c r="B47" s="53"/>
       <c r="C47" s="53"/>
@@ -36127,7 +36197,7 @@
       <c r="F47" s="53"/>
       <c r="G47" s="53"/>
     </row>
-    <row r="48" spans="1:11" s="40" customFormat="1">
+    <row r="48" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="53"/>
       <c r="B48" s="53"/>
       <c r="C48" s="53"/>
@@ -36136,7 +36206,7 @@
       <c r="F48" s="53"/>
       <c r="G48" s="53"/>
     </row>
-    <row r="49" spans="1:7" s="40" customFormat="1">
+    <row r="49" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="53"/>
       <c r="B49" s="53"/>
       <c r="C49" s="53"/>
@@ -36166,23 +36236,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" style="78" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="2" customWidth="1"/>
-    <col min="3" max="27" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="9.109375" style="40"/>
+    <col min="1" max="1" width="31.28515625" style="78" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="2" customWidth="1"/>
+    <col min="3" max="27" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.140625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="194" t="s">
         <v>116</v>
       </c>
@@ -36442,7 +36512,7 @@
       <c r="IU1" s="194"/>
       <c r="IV1" s="194"/>
     </row>
-    <row r="2" spans="1:256" s="43" customFormat="1">
+    <row r="2" spans="1:256" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>127</v>
       </c>
@@ -36600,7 +36670,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:256" s="40" customFormat="1">
+    <row r="3" spans="1:256" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="78">
         <v>0</v>
       </c>
@@ -36758,7 +36828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:256">
+    <row r="4" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A4" s="78">
         <v>1</v>
       </c>
@@ -36966,7 +37036,7 @@
         <v>0.89695192324410611</v>
       </c>
     </row>
-    <row r="5" spans="1:256">
+    <row r="5" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A5" s="78">
         <f>A4+1</f>
         <v>2</v>
@@ -37175,7 +37245,7 @@
         <v>0.87018571255634025</v>
       </c>
     </row>
-    <row r="6" spans="1:256">
+    <row r="6" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A6" s="78">
         <f t="shared" ref="A6:A69" si="3">A5+1</f>
         <v>3</v>
@@ -37384,7 +37454,7 @@
         <v>0.84629551063873676</v>
       </c>
     </row>
-    <row r="7" spans="1:256">
+    <row r="7" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A7" s="78">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -37593,7 +37663,7 @@
         <v>0.82445642806579367</v>
       </c>
     </row>
-    <row r="8" spans="1:256">
+    <row r="8" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A8" s="78">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -37802,7 +37872,7 @@
         <v>0.80422263750866019</v>
       </c>
     </row>
-    <row r="9" spans="1:256">
+    <row r="9" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A9" s="78">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -38011,7 +38081,7 @@
         <v>0.78531313248338608</v>
       </c>
     </row>
-    <row r="10" spans="1:256">
+    <row r="10" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A10" s="78">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -38220,7 +38290,7 @@
         <v>0.76753310411070741</v>
       </c>
     </row>
-    <row r="11" spans="1:256">
+    <row r="11" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A11" s="78">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -38429,7 +38499,7 @@
         <v>0.75073850127167796</v>
       </c>
     </row>
-    <row r="12" spans="1:256">
+    <row r="12" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A12" s="78">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -38638,7 +38708,7 @@
         <v>0.73481776731189774</v>
       </c>
     </row>
-    <row r="13" spans="1:256">
+    <row r="13" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A13" s="78">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -38847,7 +38917,7 @@
         <v>0.71968148502792184</v>
       </c>
     </row>
-    <row r="14" spans="1:256">
+    <row r="14" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A14" s="78">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -39056,7 +39126,7 @@
         <v>0.70525606632121929</v>
       </c>
     </row>
-    <row r="15" spans="1:256">
+    <row r="15" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A15" s="78">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -39265,7 +39335,7 @@
         <v>0.69147968248291725</v>
       </c>
     </row>
-    <row r="16" spans="1:256">
+    <row r="16" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A16" s="78">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -39474,7 +39544,7 @@
         <v>0.67829951653884102</v>
       </c>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" s="78">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -39683,7 +39753,7 @@
         <v>0.66566983669222213</v>
       </c>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A18" s="78">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -39892,7 +39962,7 @@
         <v>0.65355060191796732</v>
       </c>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19" s="78">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -40101,7 +40171,7 @@
         <v>0.64190642508943729</v>
       </c>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20" s="78">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -40310,7 +40380,7 @@
         <v>0.63070578385177745</v>
       </c>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A21" s="78">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -40519,7 +40589,7 @@
         <v>0.61992040782875424</v>
       </c>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A22" s="78">
         <f t="shared" si="3"/>
         <v>19</v>
@@ -40728,7 +40798,7 @@
         <v>0.60952479431466833</v>
       </c>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A23" s="78">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -40937,7 +41007,7 @@
         <v>0.59949581954633846</v>
       </c>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A24" s="78">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -41146,7 +41216,7 @@
         <v>0.58981242239837206</v>
       </c>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A25" s="78">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -41355,7 +41425,7 @@
         <v>0.58045534386588959</v>
       </c>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A26" s="78">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -41564,7 +41634,7 @@
         <v>0.57140691016010958</v>
       </c>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A27" s="78">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -41773,7 +41843,7 @@
         <v>0.56265085035673512</v>
       </c>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A28" s="78">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -41982,7 +42052,7 @@
         <v>0.55417214175163687</v>
       </c>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A29" s="78">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -42191,7 +42261,7 @@
         <v>0.54595687767947287</v>
       </c>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A30" s="78">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -42400,7 +42470,7 @@
         <v>0.53799215372631093</v>
       </c>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A31" s="78">
         <f t="shared" si="3"/>
         <v>28</v>
@@ -42609,7 +42679,7 @@
         <v>0.53026596914239565</v>
       </c>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A32" s="78">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -42818,7 +42888,7 @@
         <v>0.52276714092111976</v>
       </c>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A33" s="78">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -43027,7 +43097,7 @@
         <v>0.51548522851390399</v>
       </c>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A34" s="78">
         <f t="shared" si="3"/>
         <v>31</v>
@@ -43236,7 +43306,7 @@
         <v>0.50841046753931596</v>
       </c>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A35" s="78">
         <f t="shared" si="3"/>
         <v>32</v>
@@ -43445,7 +43515,7 @@
         <v>0.5015337111477397</v>
       </c>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A36" s="78">
         <f t="shared" si="3"/>
         <v>33</v>
@@ -43654,7 +43724,7 @@
         <v>0.49484637794137742</v>
       </c>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A37" s="78">
         <f t="shared" si="3"/>
         <v>34</v>
@@ -43863,7 +43933,7 @@
         <v>0.48834040553873787</v>
       </c>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A38" s="78">
         <f t="shared" si="3"/>
         <v>35</v>
@@ -44072,7 +44142,7 @@
         <v>0.48200820902440999</v>
       </c>
     </row>
-    <row r="39" spans="1:52">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A39" s="78">
         <f t="shared" si="3"/>
         <v>36</v>
@@ -44281,7 +44351,7 @@
         <v>0.4758426436472955</v>
       </c>
     </row>
-    <row r="40" spans="1:52">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A40" s="78">
         <f t="shared" si="3"/>
         <v>37</v>
@@ -44490,7 +44560,7 @@
         <v>0.46983697122996571</v>
       </c>
     </row>
-    <row r="41" spans="1:52">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A41" s="78">
         <f t="shared" si="3"/>
         <v>38</v>
@@ -44699,7 +44769,7 @@
         <v>0.46398482983322931</v>
       </c>
     </row>
-    <row r="42" spans="1:52">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A42" s="78">
         <f t="shared" si="3"/>
         <v>39</v>
@@ -44908,7 +44978,7 @@
         <v>0.45828020628708993</v>
       </c>
     </row>
-    <row r="43" spans="1:52">
+    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A43" s="78">
         <f t="shared" si="3"/>
         <v>40</v>
@@ -45117,7 +45187,7 @@
         <v>0.45271741125486509</v>
       </c>
     </row>
-    <row r="44" spans="1:52">
+    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A44" s="78">
         <f t="shared" si="3"/>
         <v>41</v>
@@ -45326,7 +45396,7 @@
         <v>0.44729105654358564</v>
       </c>
     </row>
-    <row r="45" spans="1:52">
+    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A45" s="78">
         <f t="shared" si="3"/>
         <v>42</v>
@@ -45535,7 +45605,7 @@
         <v>0.44199603441263408</v>
       </c>
     </row>
-    <row r="46" spans="1:52">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A46" s="78">
         <f t="shared" si="3"/>
         <v>43</v>
@@ -45744,7 +45814,7 @@
         <v>0.43682749866529708</v>
       </c>
     </row>
-    <row r="47" spans="1:52">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A47" s="78">
         <f t="shared" si="3"/>
         <v>44</v>
@@ -45953,7 +46023,7 @@
         <v>0.43178084733559291</v>
       </c>
     </row>
-    <row r="48" spans="1:52">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A48" s="78">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -46162,7 +46232,7 @@
         <v>0.42685170680628148</v>
       </c>
     </row>
-    <row r="49" spans="1:52">
+    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A49" s="78">
         <f t="shared" si="3"/>
         <v>46</v>
@@ -46371,7 +46441,7 @@
         <v>0.42203591721406519</v>
       </c>
     </row>
-    <row r="50" spans="1:52">
+    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A50" s="78">
         <f t="shared" si="3"/>
         <v>47</v>
@@ -46580,7 +46650,7 @@
         <v>0.41732951901522114</v>
       </c>
     </row>
-    <row r="51" spans="1:52">
+    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A51" s="78">
         <f t="shared" si="3"/>
         <v>48</v>
@@ -46789,7 +46859,7 @@
         <v>0.41272874059974574</v>
       </c>
     </row>
-    <row r="52" spans="1:52">
+    <row r="52" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A52" s="78">
         <f t="shared" si="3"/>
         <v>49</v>
@@ -46998,7 +47068,7 @@
         <v>0.40822998685489836</v>
       </c>
     </row>
-    <row r="53" spans="1:52">
+    <row r="53" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A53" s="78">
         <f t="shared" si="3"/>
         <v>50</v>
@@ -47207,7 +47277,7 @@
         <v>0.40382982859014716</v>
       </c>
     </row>
-    <row r="54" spans="1:52">
+    <row r="54" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A54" s="78">
         <f t="shared" si="3"/>
         <v>51</v>
@@ -47416,7 +47486,7 @@
         <v>0.39952499274517511</v>
       </c>
     </row>
-    <row r="55" spans="1:52">
+    <row r="55" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A55" s="78">
         <f t="shared" si="3"/>
         <v>52</v>
@@ -47625,7 +47695,7 @@
         <v>0.39531235331103515</v>
       </c>
     </row>
-    <row r="56" spans="1:52">
+    <row r="56" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A56" s="78">
         <f t="shared" si="3"/>
         <v>53</v>
@@ -47834,7 +47904,7 @@
         <v>0.39118892290191981</v>
       </c>
     </row>
-    <row r="57" spans="1:52">
+    <row r="57" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A57" s="78">
         <f t="shared" si="3"/>
         <v>54</v>
@@ -48043,7 +48113,7 @@
         <v>0.38715184492148302</v>
       </c>
     </row>
-    <row r="58" spans="1:52">
+    <row r="58" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A58" s="78">
         <f t="shared" si="3"/>
         <v>55</v>
@@ -48252,7 +48322,7 @@
         <v>0.3831983862733474</v>
       </c>
     </row>
-    <row r="59" spans="1:52">
+    <row r="59" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A59" s="78">
         <f t="shared" si="3"/>
         <v>56</v>
@@ -48461,7 +48531,7 @@
         <v>0.37932593057045705</v>
       </c>
     </row>
-    <row r="60" spans="1:52">
+    <row r="60" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A60" s="78">
         <f t="shared" si="3"/>
         <v>57</v>
@@ -48670,7 +48740,7 @@
         <v>0.37553197180237941</v>
       </c>
     </row>
-    <row r="61" spans="1:52">
+    <row r="61" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A61" s="78">
         <f t="shared" si="3"/>
         <v>58</v>
@@ -48879,7 +48949,7 @@
         <v>0.37181410842360219</v>
       </c>
     </row>
-    <row r="62" spans="1:52">
+    <row r="62" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A62" s="78">
         <f t="shared" si="3"/>
         <v>59</v>
@@ -49088,7 +49158,7 @@
         <v>0.36817003782937135</v>
       </c>
     </row>
-    <row r="63" spans="1:52">
+    <row r="63" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A63" s="78">
         <f t="shared" si="3"/>
         <v>60</v>
@@ -49297,7 +49367,7 @@
         <v>0.36459755118873494</v>
       </c>
     </row>
-    <row r="64" spans="1:52">
+    <row r="64" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A64" s="78">
         <f t="shared" si="3"/>
         <v>61</v>
@@ -49506,7 +49576,7 @@
         <v>0.36109452860724189</v>
       </c>
     </row>
-    <row r="65" spans="1:52">
+    <row r="65" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A65" s="78">
         <f t="shared" si="3"/>
         <v>62</v>
@@ -49715,7 +49785,7 @@
         <v>0.35765893459423009</v>
       </c>
     </row>
-    <row r="66" spans="1:52">
+    <row r="66" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A66" s="78">
         <f t="shared" si="3"/>
         <v>63</v>
@@ -49924,7 +49994,7 @@
         <v>0.35428881381187033</v>
       </c>
     </row>
-    <row r="67" spans="1:52">
+    <row r="67" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A67" s="78">
         <f t="shared" si="3"/>
         <v>64</v>
@@ -50133,7 +50203,7 @@
         <v>0.35098228708513207</v>
       </c>
     </row>
-    <row r="68" spans="1:52">
+    <row r="68" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A68" s="78">
         <f t="shared" si="3"/>
         <v>65</v>
@@ -50342,7 +50412,7 @@
         <v>0.3477375476536349</v>
       </c>
     </row>
-    <row r="69" spans="1:52">
+    <row r="69" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A69" s="78">
         <f t="shared" si="3"/>
         <v>66</v>
@@ -50551,7 +50621,7 @@
         <v>0.34455285764797311</v>
       </c>
     </row>
-    <row r="70" spans="1:52">
+    <row r="70" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A70" s="78">
         <f t="shared" ref="A70:A103" si="22">A69+1</f>
         <v>67</v>
@@ -50760,7 +50830,7 @@
         <v>0.34142654477455808</v>
       </c>
     </row>
-    <row r="71" spans="1:52">
+    <row r="71" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A71" s="78">
         <f t="shared" si="22"/>
         <v>68</v>
@@ -50969,7 +51039,7 @@
         <v>0.33835699919434897</v>
       </c>
     </row>
-    <row r="72" spans="1:52">
+    <row r="72" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A72" s="78">
         <f t="shared" si="22"/>
         <v>69</v>
@@ -51178,7 +51248,7 @@
         <v>0.33534267058203321</v>
       </c>
     </row>
-    <row r="73" spans="1:52">
+    <row r="73" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A73" s="78">
         <f t="shared" si="22"/>
         <v>70</v>
@@ -51387,7 +51457,7 @@
         <v>0.33238206535330334</v>
       </c>
     </row>
-    <row r="74" spans="1:52">
+    <row r="74" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A74" s="78">
         <f t="shared" si="22"/>
         <v>71</v>
@@ -51596,7 +51666,7 @@
         <v>0.32947374404886082</v>
       </c>
     </row>
-    <row r="75" spans="1:52">
+    <row r="75" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A75" s="78">
         <f t="shared" si="22"/>
         <v>72</v>
@@ -51805,7 +51875,7 @@
         <v>0.32661631886466974</v>
       </c>
     </row>
-    <row r="76" spans="1:52">
+    <row r="76" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A76" s="78">
         <f t="shared" si="22"/>
         <v>73</v>
@@ -52014,7 +52084,7 @@
         <v>0.32380845131879504</v>
       </c>
     </row>
-    <row r="77" spans="1:52">
+    <row r="77" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A77" s="78">
         <f t="shared" si="22"/>
         <v>74</v>
@@ -52223,7 +52293,7 @@
         <v>0.32104885004590483</v>
       </c>
     </row>
-    <row r="78" spans="1:52">
+    <row r="78" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A78" s="78">
         <f t="shared" si="22"/>
         <v>75</v>
@@ -52432,7 +52502,7 @@
         <v>0.31833626871118842</v>
       </c>
     </row>
-    <row r="79" spans="1:52">
+    <row r="79" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A79" s="78">
         <f t="shared" si="22"/>
         <v>76</v>
@@ -52641,7 +52711,7 @@
         <v>0.31566950403605964</v>
       </c>
     </row>
-    <row r="80" spans="1:52">
+    <row r="80" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A80" s="78">
         <f t="shared" si="22"/>
         <v>77</v>
@@ -52850,7 +52920,7 @@
         <v>0.31304739392858366</v>
       </c>
     </row>
-    <row r="81" spans="1:52">
+    <row r="81" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A81" s="78">
         <f t="shared" si="22"/>
         <v>78</v>
@@ -53059,7 +53129,7 @@
         <v>0.31046881571207507</v>
       </c>
     </row>
-    <row r="82" spans="1:52">
+    <row r="82" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A82" s="78">
         <f t="shared" si="22"/>
         <v>79</v>
@@ -53268,7 +53338,7 @@
         <v>0.3079326844457963</v>
       </c>
     </row>
-    <row r="83" spans="1:52">
+    <row r="83" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A83" s="78">
         <f t="shared" si="22"/>
         <v>80</v>
@@ -53477,7 +53547,7 @@
         <v>0.30543795133211471</v>
       </c>
     </row>
-    <row r="84" spans="1:52">
+    <row r="84" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A84" s="78">
         <f t="shared" si="22"/>
         <v>81</v>
@@ -53686,7 +53756,7 @@
         <v>0.30298360220487908</v>
       </c>
     </row>
-    <row r="85" spans="1:52">
+    <row r="85" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A85" s="78">
         <f t="shared" si="22"/>
         <v>82</v>
@@ -53895,7 +53965,7 @@
         <v>0.30056865609414096</v>
       </c>
     </row>
-    <row r="86" spans="1:52">
+    <row r="86" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A86" s="78">
         <f t="shared" si="22"/>
         <v>83</v>
@@ -54104,7 +54174,7 @@
         <v>0.29819216386268604</v>
       </c>
     </row>
-    <row r="87" spans="1:52">
+    <row r="87" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A87" s="78">
         <f t="shared" si="22"/>
         <v>84</v>
@@ -54313,7 +54383,7 @@
         <v>0.29585320691014999</v>
       </c>
     </row>
-    <row r="88" spans="1:52">
+    <row r="88" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A88" s="78">
         <f t="shared" si="22"/>
         <v>85</v>
@@ -54522,7 +54592,7 @@
         <v>0.29355089594078115</v>
       </c>
     </row>
-    <row r="89" spans="1:52">
+    <row r="89" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A89" s="78">
         <f t="shared" si="22"/>
         <v>86</v>
@@ -54731,7 +54801,7 @@
         <v>0.29128436979117783</v>
       </c>
     </row>
-    <row r="90" spans="1:52">
+    <row r="90" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A90" s="78">
         <f t="shared" si="22"/>
         <v>87</v>
@@ -54940,7 +55010,7 @@
         <v>0.28905279431456948</v>
       </c>
     </row>
-    <row r="91" spans="1:52">
+    <row r="91" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A91" s="78">
         <f t="shared" si="22"/>
         <v>88</v>
@@ -55149,7 +55219,7 @@
         <v>0.28685536131844031</v>
       </c>
     </row>
-    <row r="92" spans="1:52">
+    <row r="92" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A92" s="78">
         <f t="shared" si="22"/>
         <v>89</v>
@@ -55358,7 +55428,7 @@
         <v>0.28469128755250095</v>
       </c>
     </row>
-    <row r="93" spans="1:52">
+    <row r="93" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A93" s="78">
         <f t="shared" si="22"/>
         <v>90</v>
@@ -55567,7 +55637,7 @@
         <v>0.28255981374420847</v>
       </c>
     </row>
-    <row r="94" spans="1:52">
+    <row r="94" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A94" s="78">
         <f t="shared" si="22"/>
         <v>91</v>
@@ -55776,7 +55846,7 @@
         <v>0.28046020367921182</v>
       </c>
     </row>
-    <row r="95" spans="1:52">
+    <row r="95" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A95" s="78">
         <f t="shared" si="22"/>
         <v>92</v>
@@ -55985,7 +56055,7 @@
         <v>0.27839174332427152</v>
       </c>
     </row>
-    <row r="96" spans="1:52">
+    <row r="96" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A96" s="78">
         <f t="shared" si="22"/>
         <v>93</v>
@@ -56194,7 +56264,7 @@
         <v>0.27635373999034968</v>
       </c>
     </row>
-    <row r="97" spans="1:52">
+    <row r="97" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A97" s="78">
         <f t="shared" si="22"/>
         <v>94</v>
@@ -56403,7 +56473,7 @@
         <v>0.27434552153371461</v>
       </c>
     </row>
-    <row r="98" spans="1:52">
+    <row r="98" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A98" s="78">
         <f t="shared" si="22"/>
         <v>95</v>
@@ -56612,7 +56682,7 @@
         <v>0.27236643559303747</v>
       </c>
     </row>
-    <row r="99" spans="1:52">
+    <row r="99" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A99" s="78">
         <f t="shared" si="22"/>
         <v>96</v>
@@ -56821,7 +56891,7 @@
         <v>0.27041584886057934</v>
       </c>
     </row>
-    <row r="100" spans="1:52">
+    <row r="100" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A100" s="78">
         <f t="shared" si="22"/>
         <v>97</v>
@@ -57030,7 +57100,7 @@
         <v>0.26849314638568411</v>
       </c>
     </row>
-    <row r="101" spans="1:52">
+    <row r="101" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A101" s="78">
         <f t="shared" si="22"/>
         <v>98</v>
@@ -57239,7 +57309,7 @@
         <v>0.26659773090890115</v>
       </c>
     </row>
-    <row r="102" spans="1:52">
+    <row r="102" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A102" s="78">
         <f t="shared" si="22"/>
         <v>99</v>
@@ -57448,7 +57518,7 @@
         <v>0.26472902222515887</v>
       </c>
     </row>
-    <row r="103" spans="1:52">
+    <row r="103" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A103" s="78">
         <f t="shared" si="22"/>
         <v>100</v>
@@ -57657,7 +57727,7 @@
         <v>0.26288645657450682</v>
       </c>
     </row>
-    <row r="104" spans="1:52">
+    <row r="104" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C104" s="38"/>
       <c r="D104" s="38"/>
       <c r="E104" s="38"/>
@@ -57709,7 +57779,7 @@
       <c r="AY104" s="38"/>
       <c r="AZ104" s="61"/>
     </row>
-    <row r="105" spans="1:52">
+    <row r="105" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C105" s="38"/>
       <c r="D105" s="38"/>
       <c r="E105" s="38"/>
@@ -57761,7 +57831,7 @@
       <c r="AY105" s="38"/>
       <c r="AZ105" s="61"/>
     </row>
-    <row r="106" spans="1:52">
+    <row r="106" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C106" s="38"/>
       <c r="D106" s="38"/>
       <c r="E106" s="38"/>
@@ -57813,7 +57883,7 @@
       <c r="AY106" s="38"/>
       <c r="AZ106" s="61"/>
     </row>
-    <row r="107" spans="1:52">
+    <row r="107" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C107" s="38"/>
       <c r="D107" s="38"/>
       <c r="E107" s="38"/>
@@ -57865,7 +57935,7 @@
       <c r="AY107" s="38"/>
       <c r="AZ107" s="61"/>
     </row>
-    <row r="108" spans="1:52">
+    <row r="108" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C108" s="38"/>
       <c r="D108" s="38"/>
       <c r="E108" s="38"/>
@@ -57917,7 +57987,7 @@
       <c r="AY108" s="38"/>
       <c r="AZ108" s="61"/>
     </row>
-    <row r="109" spans="1:52">
+    <row r="109" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C109" s="38"/>
       <c r="D109" s="38"/>
       <c r="E109" s="38"/>
@@ -57969,7 +58039,7 @@
       <c r="AY109" s="38"/>
       <c r="AZ109" s="61"/>
     </row>
-    <row r="110" spans="1:52">
+    <row r="110" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C110" s="38"/>
       <c r="D110" s="38"/>
       <c r="E110" s="38"/>
@@ -58021,7 +58091,7 @@
       <c r="AY110" s="38"/>
       <c r="AZ110" s="61"/>
     </row>
-    <row r="111" spans="1:52">
+    <row r="111" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C111" s="38"/>
       <c r="D111" s="38"/>
       <c r="E111" s="38"/>
@@ -58073,7 +58143,7 @@
       <c r="AY111" s="38"/>
       <c r="AZ111" s="61"/>
     </row>
-    <row r="112" spans="1:52">
+    <row r="112" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C112" s="38"/>
       <c r="D112" s="38"/>
       <c r="E112" s="38"/>
@@ -58125,7 +58195,7 @@
       <c r="AY112" s="38"/>
       <c r="AZ112" s="61"/>
     </row>
-    <row r="113" spans="3:52">
+    <row r="113" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C113" s="38"/>
       <c r="D113" s="38"/>
       <c r="E113" s="38"/>
@@ -58177,7 +58247,7 @@
       <c r="AY113" s="38"/>
       <c r="AZ113" s="61"/>
     </row>
-    <row r="114" spans="3:52">
+    <row r="114" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C114" s="38"/>
       <c r="D114" s="38"/>
       <c r="E114" s="38"/>
@@ -58229,7 +58299,7 @@
       <c r="AY114" s="38"/>
       <c r="AZ114" s="61"/>
     </row>
-    <row r="115" spans="3:52">
+    <row r="115" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C115" s="38"/>
       <c r="D115" s="38"/>
       <c r="E115" s="38"/>
@@ -58281,7 +58351,7 @@
       <c r="AY115" s="38"/>
       <c r="AZ115" s="61"/>
     </row>
-    <row r="116" spans="3:52">
+    <row r="116" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C116" s="38"/>
       <c r="D116" s="38"/>
       <c r="E116" s="38"/>
@@ -58333,7 +58403,7 @@
       <c r="AY116" s="38"/>
       <c r="AZ116" s="61"/>
     </row>
-    <row r="117" spans="3:52">
+    <row r="117" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C117" s="38"/>
       <c r="D117" s="38"/>
       <c r="E117" s="38"/>
@@ -58385,7 +58455,7 @@
       <c r="AY117" s="38"/>
       <c r="AZ117" s="61"/>
     </row>
-    <row r="118" spans="3:52">
+    <row r="118" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C118" s="38"/>
       <c r="D118" s="38"/>
       <c r="E118" s="38"/>
@@ -58437,7 +58507,7 @@
       <c r="AY118" s="38"/>
       <c r="AZ118" s="61"/>
     </row>
-    <row r="119" spans="3:52">
+    <row r="119" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C119" s="38"/>
       <c r="D119" s="38"/>
       <c r="E119" s="38"/>
@@ -58489,7 +58559,7 @@
       <c r="AY119" s="38"/>
       <c r="AZ119" s="61"/>
     </row>
-    <row r="120" spans="3:52">
+    <row r="120" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C120" s="38"/>
       <c r="D120" s="38"/>
       <c r="E120" s="38"/>
@@ -58541,7 +58611,7 @@
       <c r="AY120" s="38"/>
       <c r="AZ120" s="61"/>
     </row>
-    <row r="121" spans="3:52">
+    <row r="121" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C121" s="38"/>
       <c r="D121" s="38"/>
       <c r="E121" s="38"/>
@@ -58593,7 +58663,7 @@
       <c r="AY121" s="38"/>
       <c r="AZ121" s="61"/>
     </row>
-    <row r="122" spans="3:52">
+    <row r="122" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C122" s="38"/>
       <c r="D122" s="38"/>
       <c r="E122" s="38"/>
@@ -58645,7 +58715,7 @@
       <c r="AY122" s="38"/>
       <c r="AZ122" s="61"/>
     </row>
-    <row r="123" spans="3:52">
+    <row r="123" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C123" s="38"/>
       <c r="D123" s="38"/>
       <c r="E123" s="38"/>
@@ -58697,7 +58767,7 @@
       <c r="AY123" s="38"/>
       <c r="AZ123" s="61"/>
     </row>
-    <row r="124" spans="3:52">
+    <row r="124" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C124" s="38"/>
       <c r="D124" s="38"/>
       <c r="E124" s="38"/>
@@ -58749,7 +58819,7 @@
       <c r="AY124" s="38"/>
       <c r="AZ124" s="61"/>
     </row>
-    <row r="125" spans="3:52">
+    <row r="125" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C125" s="38"/>
       <c r="D125" s="38"/>
       <c r="E125" s="38"/>
@@ -58801,7 +58871,7 @@
       <c r="AY125" s="38"/>
       <c r="AZ125" s="61"/>
     </row>
-    <row r="126" spans="3:52">
+    <row r="126" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C126" s="38"/>
       <c r="D126" s="38"/>
       <c r="E126" s="38"/>
@@ -58853,7 +58923,7 @@
       <c r="AY126" s="38"/>
       <c r="AZ126" s="61"/>
     </row>
-    <row r="127" spans="3:52">
+    <row r="127" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C127" s="38"/>
       <c r="D127" s="38"/>
       <c r="E127" s="38"/>
@@ -58905,7 +58975,7 @@
       <c r="AY127" s="38"/>
       <c r="AZ127" s="61"/>
     </row>
-    <row r="128" spans="3:52">
+    <row r="128" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C128" s="38"/>
       <c r="D128" s="38"/>
       <c r="E128" s="38"/>
@@ -58957,7 +59027,7 @@
       <c r="AY128" s="38"/>
       <c r="AZ128" s="61"/>
     </row>
-    <row r="129" spans="3:52">
+    <row r="129" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C129" s="38"/>
       <c r="D129" s="38"/>
       <c r="E129" s="38"/>
@@ -59009,7 +59079,7 @@
       <c r="AY129" s="38"/>
       <c r="AZ129" s="61"/>
     </row>
-    <row r="130" spans="3:52">
+    <row r="130" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C130" s="38"/>
       <c r="D130" s="38"/>
       <c r="E130" s="38"/>
@@ -59061,7 +59131,7 @@
       <c r="AY130" s="38"/>
       <c r="AZ130" s="61"/>
     </row>
-    <row r="131" spans="3:52">
+    <row r="131" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C131" s="38"/>
       <c r="D131" s="38"/>
       <c r="E131" s="38"/>
@@ -59113,7 +59183,7 @@
       <c r="AY131" s="38"/>
       <c r="AZ131" s="61"/>
     </row>
-    <row r="132" spans="3:52">
+    <row r="132" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C132" s="38"/>
       <c r="D132" s="38"/>
       <c r="E132" s="38"/>
@@ -59165,7 +59235,7 @@
       <c r="AY132" s="38"/>
       <c r="AZ132" s="61"/>
     </row>
-    <row r="133" spans="3:52">
+    <row r="133" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C133" s="38"/>
       <c r="D133" s="38"/>
       <c r="E133" s="38"/>
@@ -59217,7 +59287,7 @@
       <c r="AY133" s="38"/>
       <c r="AZ133" s="61"/>
     </row>
-    <row r="134" spans="3:52">
+    <row r="134" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C134" s="38"/>
       <c r="D134" s="38"/>
       <c r="E134" s="38"/>
@@ -59269,7 +59339,7 @@
       <c r="AY134" s="38"/>
       <c r="AZ134" s="61"/>
     </row>
-    <row r="135" spans="3:52">
+    <row r="135" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C135" s="38"/>
       <c r="D135" s="38"/>
       <c r="E135" s="38"/>
@@ -59321,7 +59391,7 @@
       <c r="AY135" s="38"/>
       <c r="AZ135" s="61"/>
     </row>
-    <row r="136" spans="3:52">
+    <row r="136" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C136" s="38"/>
       <c r="D136" s="38"/>
       <c r="E136" s="38"/>
@@ -59373,7 +59443,7 @@
       <c r="AY136" s="38"/>
       <c r="AZ136" s="61"/>
     </row>
-    <row r="137" spans="3:52">
+    <row r="137" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C137" s="38"/>
       <c r="D137" s="38"/>
       <c r="E137" s="38"/>
@@ -59425,7 +59495,7 @@
       <c r="AY137" s="38"/>
       <c r="AZ137" s="61"/>
     </row>
-    <row r="138" spans="3:52">
+    <row r="138" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C138" s="38"/>
       <c r="D138" s="38"/>
       <c r="E138" s="38"/>
@@ -59477,7 +59547,7 @@
       <c r="AY138" s="38"/>
       <c r="AZ138" s="61"/>
     </row>
-    <row r="139" spans="3:52">
+    <row r="139" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C139" s="38"/>
       <c r="D139" s="38"/>
       <c r="E139" s="38"/>
@@ -59529,7 +59599,7 @@
       <c r="AY139" s="38"/>
       <c r="AZ139" s="61"/>
     </row>
-    <row r="140" spans="3:52">
+    <row r="140" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C140" s="38"/>
       <c r="D140" s="38"/>
       <c r="E140" s="38"/>
@@ -59581,7 +59651,7 @@
       <c r="AY140" s="38"/>
       <c r="AZ140" s="61"/>
     </row>
-    <row r="141" spans="3:52">
+    <row r="141" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C141" s="38"/>
       <c r="D141" s="38"/>
       <c r="E141" s="38"/>
@@ -59633,7 +59703,7 @@
       <c r="AY141" s="38"/>
       <c r="AZ141" s="61"/>
     </row>
-    <row r="142" spans="3:52">
+    <row r="142" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C142" s="38"/>
       <c r="D142" s="38"/>
       <c r="E142" s="38"/>
@@ -59685,7 +59755,7 @@
       <c r="AY142" s="38"/>
       <c r="AZ142" s="61"/>
     </row>
-    <row r="143" spans="3:52">
+    <row r="143" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C143" s="38"/>
       <c r="D143" s="38"/>
       <c r="E143" s="38"/>
@@ -59737,7 +59807,7 @@
       <c r="AY143" s="38"/>
       <c r="AZ143" s="61"/>
     </row>
-    <row r="144" spans="3:52">
+    <row r="144" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C144" s="38"/>
       <c r="D144" s="38"/>
       <c r="E144" s="38"/>
@@ -59789,7 +59859,7 @@
       <c r="AY144" s="38"/>
       <c r="AZ144" s="61"/>
     </row>
-    <row r="145" spans="3:52">
+    <row r="145" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C145" s="38"/>
       <c r="D145" s="38"/>
       <c r="E145" s="38"/>
@@ -59841,7 +59911,7 @@
       <c r="AY145" s="38"/>
       <c r="AZ145" s="61"/>
     </row>
-    <row r="146" spans="3:52">
+    <row r="146" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C146" s="38"/>
       <c r="D146" s="38"/>
       <c r="E146" s="38"/>
@@ -59893,7 +59963,7 @@
       <c r="AY146" s="38"/>
       <c r="AZ146" s="61"/>
     </row>
-    <row r="147" spans="3:52">
+    <row r="147" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C147" s="38"/>
       <c r="D147" s="38"/>
       <c r="E147" s="38"/>
@@ -59945,7 +60015,7 @@
       <c r="AY147" s="38"/>
       <c r="AZ147" s="61"/>
     </row>
-    <row r="148" spans="3:52">
+    <row r="148" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C148" s="38"/>
       <c r="D148" s="38"/>
       <c r="E148" s="38"/>
@@ -59997,7 +60067,7 @@
       <c r="AY148" s="38"/>
       <c r="AZ148" s="61"/>
     </row>
-    <row r="149" spans="3:52">
+    <row r="149" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C149" s="38"/>
       <c r="D149" s="38"/>
       <c r="E149" s="38"/>
@@ -60049,7 +60119,7 @@
       <c r="AY149" s="38"/>
       <c r="AZ149" s="61"/>
     </row>
-    <row r="150" spans="3:52">
+    <row r="150" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C150" s="38"/>
       <c r="D150" s="38"/>
       <c r="E150" s="38"/>
@@ -60101,7 +60171,7 @@
       <c r="AY150" s="38"/>
       <c r="AZ150" s="61"/>
     </row>
-    <row r="151" spans="3:52">
+    <row r="151" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C151" s="38"/>
       <c r="D151" s="38"/>
       <c r="E151" s="38"/>
@@ -60153,7 +60223,7 @@
       <c r="AY151" s="38"/>
       <c r="AZ151" s="61"/>
     </row>
-    <row r="152" spans="3:52">
+    <row r="152" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C152" s="38"/>
       <c r="D152" s="38"/>
       <c r="E152" s="38"/>
@@ -60205,7 +60275,7 @@
       <c r="AY152" s="38"/>
       <c r="AZ152" s="61"/>
     </row>
-    <row r="153" spans="3:52">
+    <row r="153" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C153" s="38"/>
       <c r="D153" s="38"/>
       <c r="E153" s="38"/>
@@ -60257,7 +60327,7 @@
       <c r="AY153" s="38"/>
       <c r="AZ153" s="61"/>
     </row>
-    <row r="154" spans="3:52">
+    <row r="154" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C154" s="38"/>
       <c r="D154" s="38"/>
       <c r="E154" s="38"/>
@@ -60309,7 +60379,7 @@
       <c r="AY154" s="38"/>
       <c r="AZ154" s="61"/>
     </row>
-    <row r="155" spans="3:52">
+    <row r="155" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C155" s="38"/>
       <c r="D155" s="38"/>
       <c r="E155" s="38"/>
@@ -60361,7 +60431,7 @@
       <c r="AY155" s="38"/>
       <c r="AZ155" s="61"/>
     </row>
-    <row r="156" spans="3:52">
+    <row r="156" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C156" s="38"/>
       <c r="D156" s="38"/>
       <c r="E156" s="38"/>
@@ -60413,7 +60483,7 @@
       <c r="AY156" s="38"/>
       <c r="AZ156" s="61"/>
     </row>
-    <row r="157" spans="3:52">
+    <row r="157" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C157" s="38"/>
       <c r="D157" s="38"/>
       <c r="E157" s="38"/>
@@ -60465,7 +60535,7 @@
       <c r="AY157" s="38"/>
       <c r="AZ157" s="61"/>
     </row>
-    <row r="158" spans="3:52">
+    <row r="158" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C158" s="38"/>
       <c r="D158" s="38"/>
       <c r="E158" s="38"/>
@@ -60517,7 +60587,7 @@
       <c r="AY158" s="38"/>
       <c r="AZ158" s="61"/>
     </row>
-    <row r="159" spans="3:52">
+    <row r="159" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C159" s="38"/>
       <c r="D159" s="38"/>
       <c r="E159" s="38"/>
@@ -60569,7 +60639,7 @@
       <c r="AY159" s="38"/>
       <c r="AZ159" s="61"/>
     </row>
-    <row r="160" spans="3:52">
+    <row r="160" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C160" s="38"/>
       <c r="D160" s="38"/>
       <c r="E160" s="38"/>
@@ -60621,7 +60691,7 @@
       <c r="AY160" s="38"/>
       <c r="AZ160" s="61"/>
     </row>
-    <row r="161" spans="3:52">
+    <row r="161" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C161" s="38"/>
       <c r="D161" s="38"/>
       <c r="E161" s="38"/>
@@ -60673,7 +60743,7 @@
       <c r="AY161" s="38"/>
       <c r="AZ161" s="61"/>
     </row>
-    <row r="162" spans="3:52">
+    <row r="162" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C162" s="38"/>
       <c r="D162" s="38"/>
       <c r="E162" s="38"/>
@@ -60725,7 +60795,7 @@
       <c r="AY162" s="38"/>
       <c r="AZ162" s="61"/>
     </row>
-    <row r="163" spans="3:52">
+    <row r="163" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C163" s="38"/>
       <c r="D163" s="38"/>
       <c r="E163" s="38"/>
@@ -60777,7 +60847,7 @@
       <c r="AY163" s="38"/>
       <c r="AZ163" s="61"/>
     </row>
-    <row r="164" spans="3:52">
+    <row r="164" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C164" s="38"/>
       <c r="D164" s="38"/>
       <c r="E164" s="38"/>
@@ -60829,7 +60899,7 @@
       <c r="AY164" s="38"/>
       <c r="AZ164" s="61"/>
     </row>
-    <row r="165" spans="3:52">
+    <row r="165" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C165" s="38"/>
       <c r="D165" s="38"/>
       <c r="E165" s="38"/>
@@ -60881,7 +60951,7 @@
       <c r="AY165" s="38"/>
       <c r="AZ165" s="61"/>
     </row>
-    <row r="166" spans="3:52">
+    <row r="166" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C166" s="38"/>
       <c r="D166" s="38"/>
       <c r="E166" s="38"/>
@@ -60933,7 +61003,7 @@
       <c r="AY166" s="38"/>
       <c r="AZ166" s="61"/>
     </row>
-    <row r="167" spans="3:52">
+    <row r="167" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C167" s="38"/>
       <c r="D167" s="38"/>
       <c r="E167" s="38"/>
@@ -60985,7 +61055,7 @@
       <c r="AY167" s="38"/>
       <c r="AZ167" s="61"/>
     </row>
-    <row r="168" spans="3:52">
+    <row r="168" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C168" s="38"/>
       <c r="D168" s="38"/>
       <c r="E168" s="38"/>
@@ -61037,7 +61107,7 @@
       <c r="AY168" s="38"/>
       <c r="AZ168" s="61"/>
     </row>
-    <row r="169" spans="3:52">
+    <row r="169" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C169" s="38"/>
       <c r="D169" s="38"/>
       <c r="E169" s="38"/>
@@ -61089,7 +61159,7 @@
       <c r="AY169" s="38"/>
       <c r="AZ169" s="61"/>
     </row>
-    <row r="170" spans="3:52">
+    <row r="170" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C170" s="38"/>
       <c r="D170" s="38"/>
       <c r="E170" s="38"/>
@@ -61141,7 +61211,7 @@
       <c r="AY170" s="38"/>
       <c r="AZ170" s="61"/>
     </row>
-    <row r="171" spans="3:52">
+    <row r="171" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C171" s="38"/>
       <c r="D171" s="38"/>
       <c r="E171" s="38"/>
@@ -61193,7 +61263,7 @@
       <c r="AY171" s="38"/>
       <c r="AZ171" s="61"/>
     </row>
-    <row r="172" spans="3:52">
+    <row r="172" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C172" s="38"/>
       <c r="D172" s="38"/>
       <c r="E172" s="38"/>
@@ -61245,7 +61315,7 @@
       <c r="AY172" s="38"/>
       <c r="AZ172" s="61"/>
     </row>
-    <row r="173" spans="3:52">
+    <row r="173" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C173" s="38"/>
       <c r="D173" s="38"/>
       <c r="E173" s="38"/>
@@ -61297,7 +61367,7 @@
       <c r="AY173" s="38"/>
       <c r="AZ173" s="61"/>
     </row>
-    <row r="174" spans="3:52">
+    <row r="174" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C174" s="38"/>
       <c r="D174" s="38"/>
       <c r="E174" s="38"/>
@@ -61349,7 +61419,7 @@
       <c r="AY174" s="38"/>
       <c r="AZ174" s="61"/>
     </row>
-    <row r="175" spans="3:52">
+    <row r="175" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C175" s="38"/>
       <c r="D175" s="38"/>
       <c r="E175" s="38"/>
@@ -61401,7 +61471,7 @@
       <c r="AY175" s="38"/>
       <c r="AZ175" s="61"/>
     </row>
-    <row r="176" spans="3:52">
+    <row r="176" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C176" s="38"/>
       <c r="D176" s="38"/>
       <c r="E176" s="38"/>
@@ -61453,7 +61523,7 @@
       <c r="AY176" s="38"/>
       <c r="AZ176" s="61"/>
     </row>
-    <row r="177" spans="3:52">
+    <row r="177" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C177" s="38"/>
       <c r="D177" s="38"/>
       <c r="E177" s="38"/>
@@ -61505,7 +61575,7 @@
       <c r="AY177" s="38"/>
       <c r="AZ177" s="61"/>
     </row>
-    <row r="178" spans="3:52">
+    <row r="178" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C178" s="38"/>
       <c r="D178" s="38"/>
       <c r="E178" s="38"/>
@@ -61557,7 +61627,7 @@
       <c r="AY178" s="38"/>
       <c r="AZ178" s="61"/>
     </row>
-    <row r="179" spans="3:52">
+    <row r="179" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C179" s="38"/>
       <c r="D179" s="38"/>
       <c r="E179" s="38"/>
@@ -61609,7 +61679,7 @@
       <c r="AY179" s="38"/>
       <c r="AZ179" s="61"/>
     </row>
-    <row r="180" spans="3:52">
+    <row r="180" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C180" s="38"/>
       <c r="D180" s="38"/>
       <c r="E180" s="38"/>
@@ -61661,7 +61731,7 @@
       <c r="AY180" s="38"/>
       <c r="AZ180" s="61"/>
     </row>
-    <row r="181" spans="3:52">
+    <row r="181" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C181" s="38"/>
       <c r="D181" s="38"/>
       <c r="E181" s="38"/>
@@ -61713,7 +61783,7 @@
       <c r="AY181" s="38"/>
       <c r="AZ181" s="61"/>
     </row>
-    <row r="182" spans="3:52">
+    <row r="182" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C182" s="38"/>
       <c r="D182" s="38"/>
       <c r="E182" s="38"/>
@@ -61765,7 +61835,7 @@
       <c r="AY182" s="38"/>
       <c r="AZ182" s="61"/>
     </row>
-    <row r="183" spans="3:52">
+    <row r="183" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C183" s="38"/>
       <c r="D183" s="38"/>
       <c r="E183" s="38"/>
@@ -61817,7 +61887,7 @@
       <c r="AY183" s="38"/>
       <c r="AZ183" s="61"/>
     </row>
-    <row r="184" spans="3:52">
+    <row r="184" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C184" s="38"/>
       <c r="D184" s="38"/>
       <c r="E184" s="38"/>
@@ -61869,7 +61939,7 @@
       <c r="AY184" s="38"/>
       <c r="AZ184" s="61"/>
     </row>
-    <row r="185" spans="3:52">
+    <row r="185" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C185" s="38"/>
       <c r="D185" s="38"/>
       <c r="E185" s="38"/>
@@ -61921,7 +61991,7 @@
       <c r="AY185" s="38"/>
       <c r="AZ185" s="61"/>
     </row>
-    <row r="186" spans="3:52">
+    <row r="186" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C186" s="38"/>
       <c r="D186" s="38"/>
       <c r="E186" s="38"/>
@@ -61973,7 +62043,7 @@
       <c r="AY186" s="38"/>
       <c r="AZ186" s="61"/>
     </row>
-    <row r="187" spans="3:52">
+    <row r="187" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C187" s="38"/>
       <c r="D187" s="38"/>
       <c r="E187" s="38"/>
@@ -62025,7 +62095,7 @@
       <c r="AY187" s="38"/>
       <c r="AZ187" s="61"/>
     </row>
-    <row r="188" spans="3:52">
+    <row r="188" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C188" s="38"/>
       <c r="D188" s="38"/>
       <c r="E188" s="38"/>
@@ -62077,7 +62147,7 @@
       <c r="AY188" s="38"/>
       <c r="AZ188" s="61"/>
     </row>
-    <row r="189" spans="3:52">
+    <row r="189" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C189" s="38"/>
       <c r="D189" s="38"/>
       <c r="E189" s="38"/>
@@ -62129,7 +62199,7 @@
       <c r="AY189" s="38"/>
       <c r="AZ189" s="61"/>
     </row>
-    <row r="190" spans="3:52">
+    <row r="190" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C190" s="38"/>
       <c r="D190" s="38"/>
       <c r="E190" s="38"/>
@@ -62181,7 +62251,7 @@
       <c r="AY190" s="38"/>
       <c r="AZ190" s="61"/>
     </row>
-    <row r="191" spans="3:52">
+    <row r="191" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C191" s="38"/>
       <c r="D191" s="38"/>
       <c r="E191" s="38"/>
@@ -62233,7 +62303,7 @@
       <c r="AY191" s="38"/>
       <c r="AZ191" s="61"/>
     </row>
-    <row r="192" spans="3:52">
+    <row r="192" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C192" s="38"/>
       <c r="D192" s="38"/>
       <c r="E192" s="38"/>
@@ -62285,7 +62355,7 @@
       <c r="AY192" s="38"/>
       <c r="AZ192" s="61"/>
     </row>
-    <row r="193" spans="3:52">
+    <row r="193" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C193" s="38"/>
       <c r="D193" s="38"/>
       <c r="E193" s="38"/>
@@ -62337,7 +62407,7 @@
       <c r="AY193" s="38"/>
       <c r="AZ193" s="61"/>
     </row>
-    <row r="194" spans="3:52">
+    <row r="194" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C194" s="38"/>
       <c r="D194" s="38"/>
       <c r="E194" s="38"/>
@@ -62389,7 +62459,7 @@
       <c r="AY194" s="38"/>
       <c r="AZ194" s="61"/>
     </row>
-    <row r="195" spans="3:52">
+    <row r="195" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C195" s="38"/>
       <c r="D195" s="38"/>
       <c r="E195" s="38"/>
@@ -62441,7 +62511,7 @@
       <c r="AY195" s="38"/>
       <c r="AZ195" s="61"/>
     </row>
-    <row r="196" spans="3:52">
+    <row r="196" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C196" s="38"/>
       <c r="D196" s="38"/>
       <c r="E196" s="38"/>
@@ -62493,7 +62563,7 @@
       <c r="AY196" s="38"/>
       <c r="AZ196" s="61"/>
     </row>
-    <row r="197" spans="3:52">
+    <row r="197" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C197" s="38"/>
       <c r="D197" s="38"/>
       <c r="E197" s="38"/>
@@ -62545,7 +62615,7 @@
       <c r="AY197" s="38"/>
       <c r="AZ197" s="61"/>
     </row>
-    <row r="198" spans="3:52">
+    <row r="198" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C198" s="38"/>
       <c r="D198" s="38"/>
       <c r="E198" s="38"/>
@@ -62597,7 +62667,7 @@
       <c r="AY198" s="38"/>
       <c r="AZ198" s="61"/>
     </row>
-    <row r="199" spans="3:52">
+    <row r="199" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C199" s="38"/>
       <c r="D199" s="38"/>
       <c r="E199" s="38"/>
@@ -62649,7 +62719,7 @@
       <c r="AY199" s="38"/>
       <c r="AZ199" s="61"/>
     </row>
-    <row r="200" spans="3:52">
+    <row r="200" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C200" s="38"/>
       <c r="D200" s="38"/>
       <c r="E200" s="38"/>
@@ -62701,7 +62771,7 @@
       <c r="AY200" s="38"/>
       <c r="AZ200" s="61"/>
     </row>
-    <row r="201" spans="3:52">
+    <row r="201" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C201" s="38"/>
       <c r="D201" s="38"/>
       <c r="E201" s="38"/>
@@ -62753,7 +62823,7 @@
       <c r="AY201" s="38"/>
       <c r="AZ201" s="61"/>
     </row>
-    <row r="202" spans="3:52">
+    <row r="202" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C202" s="38"/>
       <c r="D202" s="38"/>
       <c r="E202" s="38"/>
@@ -62805,7 +62875,7 @@
       <c r="AY202" s="38"/>
       <c r="AZ202" s="61"/>
     </row>
-    <row r="203" spans="3:52">
+    <row r="203" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C203" s="38"/>
       <c r="D203" s="38"/>
       <c r="E203" s="38"/>
@@ -62857,7 +62927,7 @@
       <c r="AY203" s="38"/>
       <c r="AZ203" s="61"/>
     </row>
-    <row r="204" spans="3:52">
+    <row r="204" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C204" s="38"/>
       <c r="D204" s="38"/>
       <c r="E204" s="38"/>
@@ -62884,7 +62954,7 @@
       <c r="Z204" s="38"/>
       <c r="AA204" s="38"/>
     </row>
-    <row r="205" spans="3:52">
+    <row r="205" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C205" s="38"/>
       <c r="D205" s="38"/>
       <c r="E205" s="38"/>
@@ -62911,7 +62981,7 @@
       <c r="Z205" s="38"/>
       <c r="AA205" s="38"/>
     </row>
-    <row r="206" spans="3:52">
+    <row r="206" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C206" s="38"/>
       <c r="D206" s="38"/>
       <c r="E206" s="38"/>
@@ -62938,7 +63008,7 @@
       <c r="Z206" s="38"/>
       <c r="AA206" s="38"/>
     </row>
-    <row r="207" spans="3:52">
+    <row r="207" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C207" s="38"/>
       <c r="D207" s="38"/>
       <c r="E207" s="38"/>
@@ -62965,7 +63035,7 @@
       <c r="Z207" s="38"/>
       <c r="AA207" s="38"/>
     </row>
-    <row r="208" spans="3:52">
+    <row r="208" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C208" s="38"/>
       <c r="D208" s="38"/>
       <c r="E208" s="38"/>
@@ -62992,7 +63062,7 @@
       <c r="Z208" s="38"/>
       <c r="AA208" s="38"/>
     </row>
-    <row r="209" spans="3:27">
+    <row r="209" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C209" s="38"/>
       <c r="D209" s="38"/>
       <c r="E209" s="38"/>
@@ -63019,7 +63089,7 @@
       <c r="Z209" s="38"/>
       <c r="AA209" s="38"/>
     </row>
-    <row r="210" spans="3:27">
+    <row r="210" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C210" s="38"/>
       <c r="D210" s="38"/>
       <c r="E210" s="38"/>
@@ -63046,7 +63116,7 @@
       <c r="Z210" s="38"/>
       <c r="AA210" s="38"/>
     </row>
-    <row r="211" spans="3:27">
+    <row r="211" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C211" s="38"/>
       <c r="D211" s="38"/>
       <c r="E211" s="38"/>
@@ -63073,7 +63143,7 @@
       <c r="Z211" s="38"/>
       <c r="AA211" s="38"/>
     </row>
-    <row r="212" spans="3:27">
+    <row r="212" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C212" s="38"/>
       <c r="D212" s="38"/>
       <c r="E212" s="38"/>
@@ -63100,7 +63170,7 @@
       <c r="Z212" s="38"/>
       <c r="AA212" s="38"/>
     </row>
-    <row r="213" spans="3:27">
+    <row r="213" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C213" s="38"/>
       <c r="D213" s="38"/>
       <c r="E213" s="38"/>
@@ -63127,7 +63197,7 @@
       <c r="Z213" s="38"/>
       <c r="AA213" s="38"/>
     </row>
-    <row r="214" spans="3:27">
+    <row r="214" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C214" s="38"/>
       <c r="D214" s="38"/>
       <c r="E214" s="38"/>
@@ -63154,7 +63224,7 @@
       <c r="Z214" s="38"/>
       <c r="AA214" s="38"/>
     </row>
-    <row r="215" spans="3:27">
+    <row r="215" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C215" s="38"/>
       <c r="D215" s="38"/>
       <c r="E215" s="38"/>
@@ -63181,7 +63251,7 @@
       <c r="Z215" s="38"/>
       <c r="AA215" s="38"/>
     </row>
-    <row r="216" spans="3:27">
+    <row r="216" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C216" s="38"/>
       <c r="D216" s="38"/>
       <c r="E216" s="38"/>
@@ -63208,7 +63278,7 @@
       <c r="Z216" s="38"/>
       <c r="AA216" s="38"/>
     </row>
-    <row r="217" spans="3:27">
+    <row r="217" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C217" s="38"/>
       <c r="D217" s="38"/>
       <c r="E217" s="38"/>
@@ -63235,7 +63305,7 @@
       <c r="Z217" s="38"/>
       <c r="AA217" s="38"/>
     </row>
-    <row r="218" spans="3:27">
+    <row r="218" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C218" s="38"/>
       <c r="D218" s="38"/>
       <c r="E218" s="38"/>
@@ -63262,7 +63332,7 @@
       <c r="Z218" s="38"/>
       <c r="AA218" s="38"/>
     </row>
-    <row r="219" spans="3:27">
+    <row r="219" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C219" s="38"/>
       <c r="D219" s="38"/>
       <c r="E219" s="38"/>
@@ -63289,7 +63359,7 @@
       <c r="Z219" s="38"/>
       <c r="AA219" s="38"/>
     </row>
-    <row r="220" spans="3:27">
+    <row r="220" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C220" s="38"/>
       <c r="D220" s="38"/>
       <c r="E220" s="38"/>
@@ -63325,29 +63395,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IU49"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A41" sqref="A41:XFD42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="194" t="s">
         <v>116</v>
       </c>
@@ -63606,7 +63676,7 @@
       <c r="IT1" s="194"/>
       <c r="IU1" s="194"/>
     </row>
-    <row r="2" spans="1:255" ht="15" thickBot="1">
+    <row r="2" spans="1:255" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="197" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -63622,7 +63692,7 @@
       <c r="J2" s="197"/>
       <c r="K2" s="197"/>
     </row>
-    <row r="3" spans="1:255" ht="15" customHeight="1">
+    <row r="3" spans="1:255" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="198" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -63663,7 +63733,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:255" ht="15" thickBot="1">
+    <row r="4" spans="1:255" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="199"/>
       <c r="B4" s="201"/>
       <c r="C4" s="203"/>
@@ -63676,7 +63746,7 @@
       <c r="J4" s="212"/>
       <c r="K4" s="209"/>
     </row>
-    <row r="5" spans="1:255" s="54" customFormat="1">
+    <row r="5" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="62">
         <v>1</v>
       </c>
@@ -63713,7 +63783,7 @@
         <v>2.1230909502265742</v>
       </c>
     </row>
-    <row r="6" spans="1:255" s="54" customFormat="1">
+    <row r="6" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55">
         <v>2</v>
       </c>
@@ -63751,7 +63821,7 @@
       </c>
       <c r="M6" s="79"/>
     </row>
-    <row r="7" spans="1:255" s="54" customFormat="1">
+    <row r="7" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55">
         <v>3</v>
       </c>
@@ -63788,7 +63858,7 @@
         <v>2.4475707338560411</v>
       </c>
     </row>
-    <row r="8" spans="1:255" s="54" customFormat="1">
+    <row r="8" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="55">
         <v>4</v>
       </c>
@@ -63825,7 +63895,7 @@
         <v>1.8418621391703334</v>
       </c>
     </row>
-    <row r="9" spans="1:255" s="54" customFormat="1">
+    <row r="9" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="55">
         <v>5</v>
       </c>
@@ -63862,7 +63932,7 @@
         <v>3.3045165891608939</v>
       </c>
     </row>
-    <row r="10" spans="1:255" s="54" customFormat="1">
+    <row r="10" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55">
         <v>6</v>
       </c>
@@ -63899,7 +63969,7 @@
         <v>3.3538885104705245</v>
       </c>
     </row>
-    <row r="11" spans="1:255" s="54" customFormat="1">
+    <row r="11" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="55">
         <v>7</v>
       </c>
@@ -63936,7 +64006,7 @@
         <v>3.2565937789932073</v>
       </c>
     </row>
-    <row r="12" spans="1:255" s="54" customFormat="1">
+    <row r="12" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55">
         <v>8</v>
       </c>
@@ -63973,7 +64043,7 @@
         <v>3.3538885104705245</v>
       </c>
     </row>
-    <row r="13" spans="1:255" s="54" customFormat="1">
+    <row r="13" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55">
         <v>9</v>
       </c>
@@ -64010,7 +64080,7 @@
         <v>3.3538885104705245</v>
       </c>
     </row>
-    <row r="14" spans="1:255" s="54" customFormat="1">
+    <row r="14" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55">
         <v>11</v>
       </c>
@@ -64047,7 +64117,7 @@
         <v>3.3538885104705245</v>
       </c>
     </row>
-    <row r="15" spans="1:255" s="54" customFormat="1">
+    <row r="15" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55">
         <v>12</v>
       </c>
@@ -64085,7 +64155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:255" s="54" customFormat="1">
+    <row r="16" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="55">
         <v>13</v>
       </c>
@@ -64122,7 +64192,7 @@
         <v>3.2100563365956933</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="54" customFormat="1">
+    <row r="17" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55">
         <v>15</v>
       </c>
@@ -64159,7 +64229,7 @@
         <v>3.3045165891608939</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="54" customFormat="1">
+    <row r="18" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="55">
         <v>16</v>
       </c>
@@ -64197,7 +64267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="54" customFormat="1">
+    <row r="19" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55">
         <v>17</v>
       </c>
@@ -64234,7 +64304,7 @@
         <v>2.9567937414518424</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="54" customFormat="1">
+    <row r="20" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55">
         <v>18</v>
       </c>
@@ -64271,7 +64341,7 @@
         <v>3.2100563365956933</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="54" customFormat="1">
+    <row r="21" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55">
         <v>19</v>
       </c>
@@ -64308,7 +64378,7 @@
         <v>0.72481574137939631</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="54" customFormat="1">
+    <row r="22" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="55">
         <v>20</v>
       </c>
@@ -64346,7 +64416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="54" customFormat="1">
+    <row r="23" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55">
         <v>21</v>
       </c>
@@ -64383,7 +64453,7 @@
         <v>3.2565937789932073</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="54" customFormat="1">
+    <row r="24" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="55">
         <v>22</v>
       </c>
@@ -64420,7 +64490,7 @@
         <v>2.1954328640542626</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="54" customFormat="1">
+    <row r="25" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="55">
         <v>23</v>
       </c>
@@ -64458,7 +64528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="54" customFormat="1">
+    <row r="26" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55">
         <v>24</v>
       </c>
@@ -64495,7 +64565,7 @@
         <v>3.3538885104705245</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="54" customFormat="1">
+    <row r="27" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55">
         <v>25</v>
       </c>
@@ -64532,7 +64602,7 @@
         <v>2.8047517785454175</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="54" customFormat="1">
+    <row r="28" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55">
         <v>26</v>
       </c>
@@ -64569,7 +64639,7 @@
         <v>1.3195287989578959</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="54" customFormat="1">
+    <row r="29" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55">
         <v>27</v>
       </c>
@@ -64606,7 +64676,7 @@
         <v>1.9178027828644717</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="54" customFormat="1">
+    <row r="30" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55">
         <v>28</v>
       </c>
@@ -64643,7 +64713,7 @@
         <v>1.7018055060319135</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="54" customFormat="1">
+    <row r="31" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="55">
         <v>29</v>
       </c>
@@ -64680,7 +64750,7 @@
         <v>3.3538885104705245</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="54" customFormat="1">
+    <row r="32" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="55">
         <v>30</v>
       </c>
@@ -64717,7 +64787,7 @@
         <v>3.1452830477014624</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="54" customFormat="1">
+    <row r="33" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="55">
         <v>31</v>
       </c>
@@ -64754,7 +64824,7 @@
         <v>3.2257723366453144</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="54" customFormat="1">
+    <row r="34" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="55">
         <v>32</v>
       </c>
@@ -64791,7 +64861,7 @@
         <v>3.1452830477014624</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="54" customFormat="1">
+    <row r="35" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55">
         <v>33</v>
       </c>
@@ -64828,7 +64898,7 @@
         <v>3.3045165891608939</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="54" customFormat="1">
+    <row r="36" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="55">
         <v>34</v>
       </c>
@@ -64865,7 +64935,7 @@
         <v>2.8864748449945052</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="54" customFormat="1">
+    <row r="37" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="55">
         <v>35</v>
       </c>
@@ -64902,7 +64972,7 @@
         <v>2.9961659273441494</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="54" customFormat="1">
+    <row r="38" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55">
         <v>37</v>
       </c>
@@ -64939,7 +65009,7 @@
         <v>3.3045165891608939</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="54" customFormat="1">
+    <row r="39" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="55">
         <v>38</v>
       </c>
@@ -64976,7 +65046,7 @@
         <v>2.8928521841697119</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="54" customFormat="1">
+    <row r="40" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="55">
         <v>39</v>
       </c>
@@ -65013,7 +65083,7 @@
         <v>3.1209010264563291</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="54" customFormat="1">
+    <row r="41" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="55">
         <v>40</v>
       </c>
@@ -65051,7 +65121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="54" customFormat="1">
+    <row r="42" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="55">
         <v>41</v>
       </c>
@@ -65088,7 +65158,7 @@
         <v>2.4882118363617924</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1">
+    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="56">
         <v>42</v>
       </c>
@@ -65125,7 +65195,7 @@
         <v>2.5806811940620937</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="40" customFormat="1">
+    <row r="44" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="53"/>
       <c r="B44" s="53"/>
       <c r="C44" s="53"/>
@@ -65134,7 +65204,7 @@
       <c r="F44" s="53"/>
       <c r="G44" s="53"/>
     </row>
-    <row r="45" spans="1:11" s="40" customFormat="1">
+    <row r="45" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="53"/>
       <c r="B45" s="53"/>
       <c r="C45" s="53"/>
@@ -65143,7 +65213,7 @@
       <c r="F45" s="53"/>
       <c r="G45" s="53"/>
     </row>
-    <row r="46" spans="1:11" s="40" customFormat="1">
+    <row r="46" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="53"/>
       <c r="B46" s="53"/>
       <c r="C46" s="53"/>
@@ -65152,7 +65222,7 @@
       <c r="F46" s="53"/>
       <c r="G46" s="53"/>
     </row>
-    <row r="47" spans="1:11" s="40" customFormat="1">
+    <row r="47" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="53"/>
       <c r="B47" s="53"/>
       <c r="C47" s="53"/>
@@ -65161,7 +65231,7 @@
       <c r="F47" s="53"/>
       <c r="G47" s="53"/>
     </row>
-    <row r="48" spans="1:11" s="40" customFormat="1">
+    <row r="48" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="53"/>
       <c r="B48" s="53"/>
       <c r="C48" s="53"/>
@@ -65170,7 +65240,7 @@
       <c r="F48" s="53"/>
       <c r="G48" s="53"/>
     </row>
-    <row r="49" spans="1:7" s="40" customFormat="1">
+    <row r="49" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="53"/>
       <c r="B49" s="53"/>
       <c r="C49" s="53"/>
@@ -65200,29 +65270,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IU49"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A21" sqref="A21:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="194" t="s">
         <v>116</v>
       </c>
@@ -65481,7 +65551,7 @@
       <c r="IT1" s="194"/>
       <c r="IU1" s="194"/>
     </row>
-    <row r="2" spans="1:255" ht="15" thickBot="1">
+    <row r="2" spans="1:255" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="197" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -65497,7 +65567,7 @@
       <c r="J2" s="197"/>
       <c r="K2" s="197"/>
     </row>
-    <row r="3" spans="1:255" ht="15" customHeight="1">
+    <row r="3" spans="1:255" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="198" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -65538,7 +65608,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:255" ht="15" thickBot="1">
+    <row r="4" spans="1:255" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="199"/>
       <c r="B4" s="201"/>
       <c r="C4" s="203"/>
@@ -65551,7 +65621,7 @@
       <c r="J4" s="213"/>
       <c r="K4" s="214"/>
     </row>
-    <row r="5" spans="1:255" s="54" customFormat="1">
+    <row r="5" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
         <v>1</v>
       </c>
@@ -65588,7 +65658,7 @@
         <v>2.5238027534892056</v>
       </c>
     </row>
-    <row r="6" spans="1:255" s="54" customFormat="1">
+    <row r="6" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55">
         <v>2</v>
       </c>
@@ -65626,7 +65696,7 @@
       </c>
       <c r="M6" s="79"/>
     </row>
-    <row r="7" spans="1:255" s="54" customFormat="1">
+    <row r="7" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55">
         <v>3</v>
       </c>
@@ -65663,7 +65733,7 @@
         <v>2.7183356949786717</v>
       </c>
     </row>
-    <row r="8" spans="1:255" s="54" customFormat="1">
+    <row r="8" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="55">
         <v>4</v>
       </c>
@@ -65700,7 +65770,7 @@
         <v>1.6645642421847713</v>
       </c>
     </row>
-    <row r="9" spans="1:255" s="54" customFormat="1">
+    <row r="9" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="55">
         <v>5</v>
       </c>
@@ -65737,7 +65807,7 @@
         <v>3.0531095731905995</v>
       </c>
     </row>
-    <row r="10" spans="1:255" s="54" customFormat="1">
+    <row r="10" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55">
         <v>6</v>
       </c>
@@ -65774,7 +65844,7 @@
         <v>3.0531095731905995</v>
       </c>
     </row>
-    <row r="11" spans="1:255" s="54" customFormat="1">
+    <row r="11" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="55">
         <v>7</v>
       </c>
@@ -65811,7 +65881,7 @@
         <v>2.7647366581228674</v>
       </c>
     </row>
-    <row r="12" spans="1:255" s="54" customFormat="1">
+    <row r="12" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55">
         <v>8</v>
       </c>
@@ -65848,7 +65918,7 @@
         <v>2.8455047772633972</v>
       </c>
     </row>
-    <row r="13" spans="1:255" s="54" customFormat="1">
+    <row r="13" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55">
         <v>9</v>
       </c>
@@ -65885,7 +65955,7 @@
         <v>2.9246412194493931</v>
       </c>
     </row>
-    <row r="14" spans="1:255" s="54" customFormat="1">
+    <row r="14" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55">
         <v>11</v>
       </c>
@@ -65922,7 +65992,7 @@
         <v>2.9286528165068364</v>
       </c>
     </row>
-    <row r="15" spans="1:255" s="54" customFormat="1">
+    <row r="15" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55">
         <v>12</v>
       </c>
@@ -65960,7 +66030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:255" s="54" customFormat="1">
+    <row r="16" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="55">
         <v>13</v>
       </c>
@@ -65997,7 +66067,7 @@
         <v>2.088687670427146</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="54" customFormat="1">
+    <row r="17" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55">
         <v>15</v>
       </c>
@@ -66034,7 +66104,7 @@
         <v>3.0090389721075175</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="54" customFormat="1">
+    <row r="18" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="55">
         <v>16</v>
       </c>
@@ -66072,7 +66142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="54" customFormat="1">
+    <row r="19" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55">
         <v>17</v>
       </c>
@@ -66109,7 +66179,7 @@
         <v>2.5701618295439106</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="54" customFormat="1">
+    <row r="20" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55">
         <v>18</v>
       </c>
@@ -66146,7 +66216,7 @@
         <v>2.2325457048556472</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="54" customFormat="1">
+    <row r="21" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55">
         <v>19</v>
       </c>
@@ -66184,7 +66254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="54" customFormat="1">
+    <row r="22" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="55">
         <v>20</v>
       </c>
@@ -66222,7 +66292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="54" customFormat="1">
+    <row r="23" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55">
         <v>21</v>
       </c>
@@ -66259,7 +66329,7 @@
         <v>2.9246412194493931</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="54" customFormat="1">
+    <row r="24" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="55">
         <v>22</v>
       </c>
@@ -66296,7 +66366,7 @@
         <v>2.6370053881573541</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="54" customFormat="1">
+    <row r="25" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="55">
         <v>23</v>
       </c>
@@ -66334,7 +66404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="54" customFormat="1">
+    <row r="26" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55">
         <v>24</v>
       </c>
@@ -66371,7 +66441,7 @@
         <v>2.9246412194493931</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="54" customFormat="1">
+    <row r="27" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55">
         <v>25</v>
       </c>
@@ -66408,7 +66478,7 @@
         <v>2.5981514475687586</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="54" customFormat="1">
+    <row r="28" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55">
         <v>26</v>
       </c>
@@ -66445,7 +66515,7 @@
         <v>1.7132496487078854</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="54" customFormat="1">
+    <row r="29" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55">
         <v>27</v>
       </c>
@@ -66482,7 +66552,7 @@
         <v>0.96441893950851099</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="54" customFormat="1">
+    <row r="30" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55">
         <v>28</v>
       </c>
@@ -66520,7 +66590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="54" customFormat="1">
+    <row r="31" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="55">
         <v>29</v>
       </c>
@@ -66557,7 +66627,7 @@
         <v>2.9662343078170599</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="54" customFormat="1">
+    <row r="32" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="55">
         <v>30</v>
       </c>
@@ -66594,7 +66664,7 @@
         <v>2.3533338768646592</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="54" customFormat="1">
+    <row r="33" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="55">
         <v>31</v>
       </c>
@@ -66631,7 +66701,7 @@
         <v>2.7219009399354572</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="54" customFormat="1">
+    <row r="34" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="55">
         <v>32</v>
       </c>
@@ -66668,7 +66738,7 @@
         <v>2.8864748449945052</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="54" customFormat="1">
+    <row r="35" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55">
         <v>33</v>
       </c>
@@ -66705,7 +66775,7 @@
         <v>2.9246412194493931</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="54" customFormat="1">
+    <row r="36" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="55">
         <v>34</v>
       </c>
@@ -66742,7 +66812,7 @@
         <v>2.8864748449945052</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="54" customFormat="1">
+    <row r="37" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="55">
         <v>35</v>
       </c>
@@ -66779,7 +66849,7 @@
         <v>2.2657056384385283</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="54" customFormat="1">
+    <row r="38" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55">
         <v>37</v>
       </c>
@@ -66816,7 +66886,7 @@
         <v>2.4046456345536176</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="54" customFormat="1">
+    <row r="39" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="55">
         <v>38</v>
       </c>
@@ -66853,7 +66923,7 @@
         <v>2.6770481600829643</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="54" customFormat="1">
+    <row r="40" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="55">
         <v>39</v>
       </c>
@@ -66890,7 +66960,7 @@
         <v>2.8455047772633972</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="54" customFormat="1">
+    <row r="41" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="55">
         <v>40</v>
       </c>
@@ -66928,7 +66998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="54" customFormat="1">
+    <row r="42" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="55">
         <v>41</v>
       </c>
@@ -66965,7 +67035,7 @@
         <v>2.0536456738510149</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1">
+    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="56">
         <v>42</v>
       </c>
@@ -67002,7 +67072,7 @@
         <v>2.4046456345536176</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="40" customFormat="1">
+    <row r="44" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="53"/>
       <c r="B44" s="53"/>
       <c r="C44" s="53"/>
@@ -67011,7 +67081,7 @@
       <c r="F44" s="53"/>
       <c r="G44" s="53"/>
     </row>
-    <row r="45" spans="1:11" s="40" customFormat="1">
+    <row r="45" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="53"/>
       <c r="B45" s="53"/>
       <c r="C45" s="53"/>
@@ -67020,7 +67090,7 @@
       <c r="F45" s="53"/>
       <c r="G45" s="53"/>
     </row>
-    <row r="46" spans="1:11" s="40" customFormat="1">
+    <row r="46" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="53"/>
       <c r="B46" s="53"/>
       <c r="C46" s="53"/>
@@ -67029,7 +67099,7 @@
       <c r="F46" s="53"/>
       <c r="G46" s="53"/>
     </row>
-    <row r="47" spans="1:11" s="40" customFormat="1">
+    <row r="47" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="53"/>
       <c r="B47" s="53"/>
       <c r="C47" s="53"/>
@@ -67038,7 +67108,7 @@
       <c r="F47" s="53"/>
       <c r="G47" s="53"/>
     </row>
-    <row r="48" spans="1:11" s="40" customFormat="1">
+    <row r="48" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="53"/>
       <c r="B48" s="53"/>
       <c r="C48" s="53"/>
@@ -67047,7 +67117,7 @@
       <c r="F48" s="53"/>
       <c r="G48" s="53"/>
     </row>
-    <row r="49" spans="1:7" s="40" customFormat="1">
+    <row r="49" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="53"/>
       <c r="B49" s="53"/>
       <c r="C49" s="53"/>
@@ -67077,22 +67147,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV43"/>
   <sheetViews>
     <sheetView topLeftCell="E10" workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="194" t="s">
         <v>116</v>
       </c>
@@ -67352,7 +67422,7 @@
       <c r="IU1" s="194"/>
       <c r="IV1" s="194"/>
     </row>
-    <row r="2" spans="1:256" ht="15" thickBot="1">
+    <row r="2" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="197" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -67368,7 +67438,7 @@
       <c r="J2" s="197"/>
       <c r="K2" s="197"/>
     </row>
-    <row r="3" spans="1:256" ht="15" customHeight="1">
+    <row r="3" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="198" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -67409,7 +67479,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15" thickBot="1">
+    <row r="4" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="199"/>
       <c r="B4" s="201"/>
       <c r="C4" s="203"/>
@@ -67422,7 +67492,7 @@
       <c r="J4" s="213"/>
       <c r="K4" s="214"/>
     </row>
-    <row r="5" spans="1:256" s="54" customFormat="1">
+    <row r="5" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="62">
         <v>1</v>
       </c>
@@ -67459,7 +67529,7 @@
         <v>0.74207000425852809</v>
       </c>
     </row>
-    <row r="6" spans="1:256" s="54" customFormat="1">
+    <row r="6" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55">
         <v>2</v>
       </c>
@@ -67497,7 +67567,7 @@
       </c>
       <c r="M6" s="79"/>
     </row>
-    <row r="7" spans="1:256" s="54" customFormat="1">
+    <row r="7" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55">
         <v>3</v>
       </c>
@@ -67535,7 +67605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:256" s="54" customFormat="1">
+    <row r="8" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="55">
         <v>4</v>
       </c>
@@ -67573,7 +67643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:256" s="54" customFormat="1">
+    <row r="9" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="55">
         <v>5</v>
       </c>
@@ -67610,7 +67680,7 @@
         <v>2.7669846411806525</v>
       </c>
     </row>
-    <row r="10" spans="1:256" s="54" customFormat="1">
+    <row r="10" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55">
         <v>6</v>
       </c>
@@ -67647,7 +67717,7 @@
         <v>2.7647366581228674</v>
       </c>
     </row>
-    <row r="11" spans="1:256" s="54" customFormat="1">
+    <row r="11" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="55">
         <v>7</v>
       </c>
@@ -67684,7 +67754,7 @@
         <v>0.61889901389692537</v>
       </c>
     </row>
-    <row r="12" spans="1:256" s="54" customFormat="1">
+    <row r="12" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55">
         <v>8</v>
       </c>
@@ -67721,7 +67791,7 @@
         <v>2.1762136964668137</v>
       </c>
     </row>
-    <row r="13" spans="1:256" s="54" customFormat="1">
+    <row r="13" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55">
         <v>9</v>
       </c>
@@ -67758,7 +67828,7 @@
         <v>2.650527059308982</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="54" customFormat="1">
+    <row r="14" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55">
         <v>11</v>
       </c>
@@ -67795,7 +67865,7 @@
         <v>2.5981514475687586</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="54" customFormat="1">
+    <row r="15" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55">
         <v>12</v>
       </c>
@@ -67833,7 +67903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:256" s="54" customFormat="1">
+    <row r="16" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="55">
         <v>13</v>
       </c>
@@ -67871,7 +67941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="54" customFormat="1">
+    <row r="17" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55">
         <v>15</v>
       </c>
@@ -67908,7 +67978,7 @@
         <v>2.5238027534892056</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="54" customFormat="1">
+    <row r="18" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="55">
         <v>16</v>
       </c>
@@ -67946,7 +68016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="54" customFormat="1">
+    <row r="19" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55">
         <v>17</v>
       </c>
@@ -67984,7 +68054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="54" customFormat="1">
+    <row r="20" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55">
         <v>18</v>
       </c>
@@ -68022,7 +68092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="54" customFormat="1">
+    <row r="21" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55">
         <v>19</v>
       </c>
@@ -68060,7 +68130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="54" customFormat="1">
+    <row r="22" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="55">
         <v>20</v>
       </c>
@@ -68098,7 +68168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="54" customFormat="1">
+    <row r="23" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55">
         <v>21</v>
       </c>
@@ -68135,7 +68205,7 @@
         <v>2.2437446624362383</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="54" customFormat="1">
+    <row r="24" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="55">
         <v>22</v>
       </c>
@@ -68172,7 +68242,7 @@
         <v>1.6748707345896681</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="54" customFormat="1">
+    <row r="25" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="55">
         <v>23</v>
       </c>
@@ -68210,7 +68280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="54" customFormat="1">
+    <row r="26" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55">
         <v>24</v>
       </c>
@@ -68247,7 +68317,7 @@
         <v>1.8970136157200854</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="54" customFormat="1">
+    <row r="27" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55">
         <v>25</v>
       </c>
@@ -68285,7 +68355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="54" customFormat="1">
+    <row r="28" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55">
         <v>26</v>
       </c>
@@ -68323,7 +68393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="54" customFormat="1">
+    <row r="29" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55">
         <v>27</v>
       </c>
@@ -68361,7 +68431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="54" customFormat="1">
+    <row r="30" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55">
         <v>28</v>
       </c>
@@ -68399,7 +68469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="54" customFormat="1">
+    <row r="31" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="55">
         <v>29</v>
       </c>
@@ -68436,7 +68506,7 @@
         <v>2.806633094697355</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="54" customFormat="1">
+    <row r="32" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="55">
         <v>30</v>
       </c>
@@ -68473,7 +68543,7 @@
         <v>3.611579538530689E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="54" customFormat="1">
+    <row r="33" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="55">
         <v>31</v>
       </c>
@@ -68510,7 +68580,7 @@
         <v>1.9615912140759175</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="54" customFormat="1">
+    <row r="34" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="55">
         <v>32</v>
       </c>
@@ -68547,7 +68617,7 @@
         <v>2.4046456345536176</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="54" customFormat="1">
+    <row r="35" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55">
         <v>33</v>
       </c>
@@ -68584,7 +68654,7 @@
         <v>1.8970136157200854</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="54" customFormat="1">
+    <row r="36" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="55">
         <v>34</v>
       </c>
@@ -68621,7 +68691,7 @@
         <v>1.4993653261946966</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="54" customFormat="1">
+    <row r="37" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="55">
         <v>35</v>
       </c>
@@ -68659,7 +68729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="54" customFormat="1">
+    <row r="38" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55">
         <v>37</v>
       </c>
@@ -68696,7 +68766,7 @@
         <v>1.9615912140759175</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="54" customFormat="1">
+    <row r="39" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="55">
         <v>38</v>
       </c>
@@ -68733,7 +68803,7 @@
         <v>0.53968957560827258</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="54" customFormat="1">
+    <row r="40" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="55">
         <v>39</v>
       </c>
@@ -68770,7 +68840,7 @@
         <v>1.7722065178970134</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="54" customFormat="1">
+    <row r="41" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="55">
         <v>40</v>
       </c>
@@ -68808,7 +68878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="54" customFormat="1">
+    <row r="42" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="55">
         <v>41</v>
       </c>
@@ -68846,7 +68916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1">
+    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="56">
         <v>42</v>
       </c>
@@ -68905,22 +68975,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="194" t="s">
         <v>116</v>
       </c>
@@ -69180,7 +69250,7 @@
       <c r="IU1" s="194"/>
       <c r="IV1" s="194"/>
     </row>
-    <row r="2" spans="1:256" ht="15" thickBot="1">
+    <row r="2" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="197" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -69196,7 +69266,7 @@
       <c r="J2" s="197"/>
       <c r="K2" s="197"/>
     </row>
-    <row r="3" spans="1:256" ht="15" customHeight="1">
+    <row r="3" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="198" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -69237,7 +69307,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15" thickBot="1">
+    <row r="4" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="199"/>
       <c r="B4" s="201"/>
       <c r="C4" s="203"/>
@@ -69250,7 +69320,7 @@
       <c r="J4" s="213"/>
       <c r="K4" s="214"/>
     </row>
-    <row r="5" spans="1:256" s="54" customFormat="1">
+    <row r="5" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="62">
         <v>1</v>
       </c>
@@ -69288,7 +69358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:256" s="54" customFormat="1">
+    <row r="6" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55">
         <v>2</v>
       </c>
@@ -69327,7 +69397,7 @@
       </c>
       <c r="M6" s="79"/>
     </row>
-    <row r="7" spans="1:256" s="54" customFormat="1">
+    <row r="7" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55">
         <v>3</v>
       </c>
@@ -69365,7 +69435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:256" s="54" customFormat="1">
+    <row r="8" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="55">
         <v>4</v>
       </c>
@@ -69403,7 +69473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:256" s="54" customFormat="1">
+    <row r="9" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="55">
         <v>5</v>
       </c>
@@ -69441,7 +69511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:256" s="54" customFormat="1">
+    <row r="10" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55">
         <v>6</v>
       </c>
@@ -69479,7 +69549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:256" s="54" customFormat="1">
+    <row r="11" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="55">
         <v>7</v>
       </c>
@@ -69517,7 +69587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:256" s="54" customFormat="1">
+    <row r="12" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55">
         <v>8</v>
       </c>
@@ -69555,7 +69625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:256" s="54" customFormat="1">
+    <row r="13" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55">
         <v>9</v>
       </c>
@@ -69593,7 +69663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="54" customFormat="1">
+    <row r="14" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55">
         <v>11</v>
       </c>
@@ -69631,7 +69701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="54" customFormat="1">
+    <row r="15" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55">
         <v>12</v>
       </c>
@@ -69669,7 +69739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:256" s="54" customFormat="1">
+    <row r="16" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="55">
         <v>13</v>
       </c>
@@ -69707,7 +69777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="54" customFormat="1">
+    <row r="17" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55">
         <v>15</v>
       </c>
@@ -69744,7 +69814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="54" customFormat="1">
+    <row r="18" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="55">
         <v>16</v>
       </c>
@@ -69782,7 +69852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="54" customFormat="1">
+    <row r="19" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55">
         <v>17</v>
       </c>
@@ -69820,7 +69890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="54" customFormat="1">
+    <row r="20" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55">
         <v>18</v>
       </c>
@@ -69858,7 +69928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="54" customFormat="1">
+    <row r="21" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55">
         <v>19</v>
       </c>
@@ -69896,7 +69966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="54" customFormat="1">
+    <row r="22" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="55">
         <v>20</v>
       </c>
@@ -69934,7 +70004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="54" customFormat="1">
+    <row r="23" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55">
         <v>21</v>
       </c>
@@ -69972,7 +70042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="54" customFormat="1">
+    <row r="24" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="55">
         <v>22</v>
       </c>
@@ -70010,7 +70080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="54" customFormat="1">
+    <row r="25" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="55">
         <v>23</v>
       </c>
@@ -70048,7 +70118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="54" customFormat="1">
+    <row r="26" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55">
         <v>24</v>
       </c>
@@ -70086,7 +70156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="54" customFormat="1">
+    <row r="27" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55">
         <v>25</v>
       </c>
@@ -70124,7 +70194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="54" customFormat="1">
+    <row r="28" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55">
         <v>26</v>
       </c>
@@ -70162,7 +70232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="54" customFormat="1">
+    <row r="29" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55">
         <v>27</v>
       </c>
@@ -70200,7 +70270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="54" customFormat="1">
+    <row r="30" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55">
         <v>28</v>
       </c>
@@ -70238,7 +70308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="54" customFormat="1">
+    <row r="31" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="55">
         <v>29</v>
       </c>
@@ -70276,7 +70346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="54" customFormat="1">
+    <row r="32" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="55">
         <v>30</v>
       </c>
@@ -70314,7 +70384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="54" customFormat="1">
+    <row r="33" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="55">
         <v>31</v>
       </c>
@@ -70352,7 +70422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="54" customFormat="1">
+    <row r="34" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="55">
         <v>32</v>
       </c>
@@ -70390,7 +70460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="54" customFormat="1">
+    <row r="35" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55">
         <v>33</v>
       </c>
@@ -70428,7 +70498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="54" customFormat="1">
+    <row r="36" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="55">
         <v>34</v>
       </c>
@@ -70466,7 +70536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="54" customFormat="1">
+    <row r="37" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="55">
         <v>35</v>
       </c>
@@ -70504,7 +70574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="54" customFormat="1">
+    <row r="38" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55">
         <v>37</v>
       </c>
@@ -70542,7 +70612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="54" customFormat="1">
+    <row r="39" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="55">
         <v>38</v>
       </c>
@@ -70580,7 +70650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="54" customFormat="1">
+    <row r="40" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="55">
         <v>39</v>
       </c>
@@ -70618,7 +70688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="54" customFormat="1">
+    <row r="41" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="55">
         <v>40</v>
       </c>
@@ -70656,7 +70726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="54" customFormat="1">
+    <row r="42" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="55">
         <v>41</v>
       </c>
@@ -70694,7 +70764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1">
+    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="56">
         <v>42</v>
       </c>
@@ -70753,22 +70823,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV43"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="194" t="s">
         <v>116</v>
       </c>
@@ -71028,7 +71098,7 @@
       <c r="IU1" s="194"/>
       <c r="IV1" s="194"/>
     </row>
-    <row r="2" spans="1:256" ht="15" thickBot="1">
+    <row r="2" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="197" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -71044,7 +71114,7 @@
       <c r="J2" s="197"/>
       <c r="K2" s="197"/>
     </row>
-    <row r="3" spans="1:256" ht="15" customHeight="1">
+    <row r="3" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="198" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -71085,7 +71155,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15" thickBot="1">
+    <row r="4" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="199"/>
       <c r="B4" s="201"/>
       <c r="C4" s="203"/>
@@ -71098,7 +71168,7 @@
       <c r="J4" s="213"/>
       <c r="K4" s="214"/>
     </row>
-    <row r="5" spans="1:256" s="54" customFormat="1">
+    <row r="5" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="62">
         <v>1</v>
       </c>
@@ -71136,7 +71206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:256" s="54" customFormat="1">
+    <row r="6" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55">
         <v>2</v>
       </c>
@@ -71175,7 +71245,7 @@
       </c>
       <c r="M6" s="79"/>
     </row>
-    <row r="7" spans="1:256" s="54" customFormat="1">
+    <row r="7" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55">
         <v>3</v>
       </c>
@@ -71213,7 +71283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:256" s="54" customFormat="1">
+    <row r="8" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="55">
         <v>4</v>
       </c>
@@ -71251,7 +71321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:256" s="54" customFormat="1">
+    <row r="9" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="55">
         <v>5</v>
       </c>
@@ -71289,7 +71359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:256" s="54" customFormat="1">
+    <row r="10" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55">
         <v>6</v>
       </c>
@@ -71327,7 +71397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:256" s="54" customFormat="1">
+    <row r="11" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="55">
         <v>7</v>
       </c>
@@ -71365,7 +71435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:256" s="54" customFormat="1">
+    <row r="12" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55">
         <v>8</v>
       </c>
@@ -71403,7 +71473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:256" s="54" customFormat="1">
+    <row r="13" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55">
         <v>9</v>
       </c>
@@ -71441,7 +71511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="54" customFormat="1">
+    <row r="14" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55">
         <v>11</v>
       </c>
@@ -71479,7 +71549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="54" customFormat="1">
+    <row r="15" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55">
         <v>12</v>
       </c>
@@ -71517,7 +71587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:256" s="54" customFormat="1">
+    <row r="16" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="55">
         <v>13</v>
       </c>
@@ -71555,7 +71625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="54" customFormat="1">
+    <row r="17" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55">
         <v>15</v>
       </c>
@@ -71592,7 +71662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="54" customFormat="1">
+    <row r="18" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="55">
         <v>16</v>
       </c>
@@ -71630,7 +71700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="54" customFormat="1">
+    <row r="19" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55">
         <v>17</v>
       </c>
@@ -71668,7 +71738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="54" customFormat="1">
+    <row r="20" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55">
         <v>18</v>
       </c>
@@ -71706,7 +71776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="54" customFormat="1">
+    <row r="21" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55">
         <v>19</v>
       </c>
@@ -71744,7 +71814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="54" customFormat="1">
+    <row r="22" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="55">
         <v>20</v>
       </c>
@@ -71782,7 +71852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="54" customFormat="1">
+    <row r="23" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55">
         <v>21</v>
       </c>
@@ -71820,7 +71890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="54" customFormat="1">
+    <row r="24" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="55">
         <v>22</v>
       </c>
@@ -71858,7 +71928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="54" customFormat="1">
+    <row r="25" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="55">
         <v>23</v>
       </c>
@@ -71896,7 +71966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="54" customFormat="1">
+    <row r="26" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55">
         <v>24</v>
       </c>
@@ -71934,7 +72004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="54" customFormat="1">
+    <row r="27" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55">
         <v>25</v>
       </c>
@@ -71972,7 +72042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="54" customFormat="1">
+    <row r="28" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55">
         <v>26</v>
       </c>
@@ -72010,7 +72080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="54" customFormat="1">
+    <row r="29" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55">
         <v>27</v>
       </c>
@@ -72048,7 +72118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="54" customFormat="1">
+    <row r="30" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55">
         <v>28</v>
       </c>
@@ -72086,7 +72156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="54" customFormat="1">
+    <row r="31" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="55">
         <v>29</v>
       </c>
@@ -72124,7 +72194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="54" customFormat="1">
+    <row r="32" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="55">
         <v>30</v>
       </c>
@@ -72162,7 +72232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="54" customFormat="1">
+    <row r="33" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="55">
         <v>31</v>
       </c>
@@ -72200,7 +72270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="54" customFormat="1">
+    <row r="34" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="55">
         <v>32</v>
       </c>
@@ -72238,7 +72308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="54" customFormat="1">
+    <row r="35" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55">
         <v>33</v>
       </c>
@@ -72276,7 +72346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="54" customFormat="1">
+    <row r="36" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="55">
         <v>34</v>
       </c>
@@ -72314,7 +72384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="54" customFormat="1">
+    <row r="37" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="55">
         <v>35</v>
       </c>
@@ -72352,7 +72422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="54" customFormat="1">
+    <row r="38" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55">
         <v>37</v>
       </c>
@@ -72390,7 +72460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="54" customFormat="1">
+    <row r="39" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="55">
         <v>38</v>
       </c>
@@ -72428,7 +72498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="54" customFormat="1">
+    <row r="40" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="55">
         <v>39</v>
       </c>
@@ -72466,7 +72536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="54" customFormat="1">
+    <row r="41" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="55">
         <v>40</v>
       </c>
@@ -72504,7 +72574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="54" customFormat="1">
+    <row r="42" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="55">
         <v>41</v>
       </c>
@@ -72542,7 +72612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1">
+    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="56">
         <v>42</v>
       </c>
@@ -72601,22 +72671,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="194" t="s">
         <v>116</v>
       </c>
@@ -72876,7 +72946,7 @@
       <c r="IU1" s="194"/>
       <c r="IV1" s="194"/>
     </row>
-    <row r="2" spans="1:256" ht="15" thickBot="1">
+    <row r="2" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="197" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -72892,7 +72962,7 @@
       <c r="J2" s="197"/>
       <c r="K2" s="197"/>
     </row>
-    <row r="3" spans="1:256" ht="15" customHeight="1">
+    <row r="3" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="198" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -72933,7 +73003,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15" thickBot="1">
+    <row r="4" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="199"/>
       <c r="B4" s="201"/>
       <c r="C4" s="203"/>
@@ -72946,7 +73016,7 @@
       <c r="J4" s="213"/>
       <c r="K4" s="214"/>
     </row>
-    <row r="5" spans="1:256" s="54" customFormat="1">
+    <row r="5" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="62">
         <v>1</v>
       </c>
@@ -72984,7 +73054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:256" s="54" customFormat="1">
+    <row r="6" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55">
         <v>2</v>
       </c>
@@ -73023,7 +73093,7 @@
       </c>
       <c r="M6" s="79"/>
     </row>
-    <row r="7" spans="1:256" s="54" customFormat="1">
+    <row r="7" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55">
         <v>3</v>
       </c>
@@ -73061,7 +73131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:256" s="54" customFormat="1">
+    <row r="8" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="55">
         <v>4</v>
       </c>
@@ -73099,7 +73169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:256" s="54" customFormat="1">
+    <row r="9" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="55">
         <v>5</v>
       </c>
@@ -73137,7 +73207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:256" s="54" customFormat="1">
+    <row r="10" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55">
         <v>6</v>
       </c>
@@ -73175,7 +73245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:256" s="54" customFormat="1">
+    <row r="11" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="55">
         <v>7</v>
       </c>
@@ -73213,7 +73283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:256" s="54" customFormat="1">
+    <row r="12" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55">
         <v>8</v>
       </c>
@@ -73251,7 +73321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:256" s="54" customFormat="1">
+    <row r="13" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55">
         <v>9</v>
       </c>
@@ -73289,7 +73359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="54" customFormat="1">
+    <row r="14" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55">
         <v>11</v>
       </c>
@@ -73327,7 +73397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="54" customFormat="1">
+    <row r="15" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55">
         <v>12</v>
       </c>
@@ -73365,7 +73435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:256" s="54" customFormat="1">
+    <row r="16" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="55">
         <v>13</v>
       </c>
@@ -73403,7 +73473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="54" customFormat="1">
+    <row r="17" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55">
         <v>15</v>
       </c>
@@ -73440,7 +73510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="54" customFormat="1">
+    <row r="18" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="55">
         <v>16</v>
       </c>
@@ -73478,7 +73548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="54" customFormat="1">
+    <row r="19" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55">
         <v>17</v>
       </c>
@@ -73516,7 +73586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="54" customFormat="1">
+    <row r="20" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55">
         <v>18</v>
       </c>
@@ -73554,7 +73624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="54" customFormat="1">
+    <row r="21" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55">
         <v>19</v>
       </c>
@@ -73592,7 +73662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="54" customFormat="1">
+    <row r="22" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="55">
         <v>20</v>
       </c>
@@ -73630,7 +73700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="54" customFormat="1">
+    <row r="23" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55">
         <v>21</v>
       </c>
@@ -73668,7 +73738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="54" customFormat="1">
+    <row r="24" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="55">
         <v>22</v>
       </c>
@@ -73706,7 +73776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="54" customFormat="1">
+    <row r="25" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="55">
         <v>23</v>
       </c>
@@ -73744,7 +73814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="54" customFormat="1">
+    <row r="26" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55">
         <v>24</v>
       </c>
@@ -73782,7 +73852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="54" customFormat="1">
+    <row r="27" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55">
         <v>25</v>
       </c>
@@ -73820,7 +73890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="54" customFormat="1">
+    <row r="28" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55">
         <v>26</v>
       </c>
@@ -73858,7 +73928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="54" customFormat="1">
+    <row r="29" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55">
         <v>27</v>
       </c>
@@ -73896,7 +73966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="54" customFormat="1">
+    <row r="30" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55">
         <v>28</v>
       </c>
@@ -73934,7 +74004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="54" customFormat="1">
+    <row r="31" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="55">
         <v>29</v>
       </c>
@@ -73972,7 +74042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="54" customFormat="1">
+    <row r="32" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="55">
         <v>30</v>
       </c>
@@ -74010,7 +74080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="54" customFormat="1">
+    <row r="33" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="55">
         <v>31</v>
       </c>
@@ -74048,7 +74118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="54" customFormat="1">
+    <row r="34" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="55">
         <v>32</v>
       </c>
@@ -74086,7 +74156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="54" customFormat="1">
+    <row r="35" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55">
         <v>33</v>
       </c>
@@ -74124,7 +74194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="54" customFormat="1">
+    <row r="36" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="55">
         <v>34</v>
       </c>
@@ -74162,7 +74232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="54" customFormat="1">
+    <row r="37" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="55">
         <v>35</v>
       </c>
@@ -74200,7 +74270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="54" customFormat="1">
+    <row r="38" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55">
         <v>37</v>
       </c>
@@ -74238,7 +74308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="54" customFormat="1">
+    <row r="39" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="55">
         <v>38</v>
       </c>
@@ -74276,7 +74346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="54" customFormat="1">
+    <row r="40" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="55">
         <v>39</v>
       </c>
@@ -74314,7 +74384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="54" customFormat="1">
+    <row r="41" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="55">
         <v>40</v>
       </c>
@@ -74352,7 +74422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="54" customFormat="1">
+    <row r="42" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="55">
         <v>41</v>
       </c>
@@ -74390,7 +74460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1">
+    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="56">
         <v>42</v>
       </c>
@@ -74449,22 +74519,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV43"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="194" t="s">
         <v>116</v>
       </c>
@@ -74724,7 +74794,7 @@
       <c r="IU1" s="194"/>
       <c r="IV1" s="194"/>
     </row>
-    <row r="2" spans="1:256" ht="15" thickBot="1">
+    <row r="2" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="197" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -74740,7 +74810,7 @@
       <c r="J2" s="197"/>
       <c r="K2" s="197"/>
     </row>
-    <row r="3" spans="1:256" ht="15" customHeight="1">
+    <row r="3" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="198" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -74781,7 +74851,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15" thickBot="1">
+    <row r="4" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="199"/>
       <c r="B4" s="201"/>
       <c r="C4" s="203"/>
@@ -74794,7 +74864,7 @@
       <c r="J4" s="213"/>
       <c r="K4" s="214"/>
     </row>
-    <row r="5" spans="1:256" s="54" customFormat="1">
+    <row r="5" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="62">
         <v>1</v>
       </c>
@@ -74832,7 +74902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:256" s="54" customFormat="1">
+    <row r="6" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55">
         <v>2</v>
       </c>
@@ -74871,7 +74941,7 @@
       </c>
       <c r="M6" s="79"/>
     </row>
-    <row r="7" spans="1:256" s="54" customFormat="1">
+    <row r="7" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55">
         <v>3</v>
       </c>
@@ -74909,7 +74979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:256" s="54" customFormat="1">
+    <row r="8" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="55">
         <v>4</v>
       </c>
@@ -74947,7 +75017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:256" s="54" customFormat="1">
+    <row r="9" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="55">
         <v>5</v>
       </c>
@@ -74985,7 +75055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:256" s="54" customFormat="1">
+    <row r="10" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55">
         <v>6</v>
       </c>
@@ -75023,7 +75093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:256" s="54" customFormat="1">
+    <row r="11" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="55">
         <v>7</v>
       </c>
@@ -75061,7 +75131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:256" s="54" customFormat="1">
+    <row r="12" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55">
         <v>8</v>
       </c>
@@ -75099,7 +75169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:256" s="54" customFormat="1">
+    <row r="13" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55">
         <v>9</v>
       </c>
@@ -75137,7 +75207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="54" customFormat="1">
+    <row r="14" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55">
         <v>11</v>
       </c>
@@ -75175,7 +75245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="54" customFormat="1">
+    <row r="15" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55">
         <v>12</v>
       </c>
@@ -75213,7 +75283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:256" s="54" customFormat="1">
+    <row r="16" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="55">
         <v>13</v>
       </c>
@@ -75251,7 +75321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="54" customFormat="1">
+    <row r="17" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55">
         <v>15</v>
       </c>
@@ -75288,7 +75358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="54" customFormat="1">
+    <row r="18" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="55">
         <v>16</v>
       </c>
@@ -75326,7 +75396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="54" customFormat="1">
+    <row r="19" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55">
         <v>17</v>
       </c>
@@ -75364,7 +75434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="54" customFormat="1">
+    <row r="20" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55">
         <v>18</v>
       </c>
@@ -75402,7 +75472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="54" customFormat="1">
+    <row r="21" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55">
         <v>19</v>
       </c>
@@ -75440,7 +75510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="54" customFormat="1">
+    <row r="22" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="55">
         <v>20</v>
       </c>
@@ -75478,7 +75548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="54" customFormat="1">
+    <row r="23" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55">
         <v>21</v>
       </c>
@@ -75516,7 +75586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="54" customFormat="1">
+    <row r="24" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="55">
         <v>22</v>
       </c>
@@ -75554,7 +75624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="54" customFormat="1">
+    <row r="25" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="55">
         <v>23</v>
       </c>
@@ -75592,7 +75662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="54" customFormat="1">
+    <row r="26" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55">
         <v>24</v>
       </c>
@@ -75630,7 +75700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="54" customFormat="1">
+    <row r="27" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55">
         <v>25</v>
       </c>
@@ -75668,7 +75738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="54" customFormat="1">
+    <row r="28" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55">
         <v>26</v>
       </c>
@@ -75706,7 +75776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="54" customFormat="1">
+    <row r="29" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55">
         <v>27</v>
       </c>
@@ -75744,7 +75814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="54" customFormat="1">
+    <row r="30" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55">
         <v>28</v>
       </c>
@@ -75782,7 +75852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="54" customFormat="1">
+    <row r="31" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="55">
         <v>29</v>
       </c>
@@ -75820,7 +75890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="54" customFormat="1">
+    <row r="32" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="55">
         <v>30</v>
       </c>
@@ -75858,7 +75928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="54" customFormat="1">
+    <row r="33" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="55">
         <v>31</v>
       </c>
@@ -75896,7 +75966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="54" customFormat="1">
+    <row r="34" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="55">
         <v>32</v>
       </c>
@@ -75934,7 +76004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="54" customFormat="1">
+    <row r="35" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55">
         <v>33</v>
       </c>
@@ -75972,7 +76042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="54" customFormat="1">
+    <row r="36" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="55">
         <v>34</v>
       </c>
@@ -76010,7 +76080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="54" customFormat="1">
+    <row r="37" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="55">
         <v>35</v>
       </c>
@@ -76048,7 +76118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="54" customFormat="1">
+    <row r="38" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55">
         <v>37</v>
       </c>
@@ -76086,7 +76156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="54" customFormat="1">
+    <row r="39" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="55">
         <v>38</v>
       </c>
@@ -76124,7 +76194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="54" customFormat="1">
+    <row r="40" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="55">
         <v>39</v>
       </c>
@@ -76162,7 +76232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="54" customFormat="1">
+    <row r="41" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="55">
         <v>40</v>
       </c>
@@ -76200,7 +76270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="54" customFormat="1">
+    <row r="42" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="55">
         <v>41</v>
       </c>
@@ -76238,7 +76308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1">
+    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="56">
         <v>42</v>
       </c>

--- a/ТМОГИ.2016.осень.xlsx
+++ b/ТМОГИ.2016.осень.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-672" yWindow="228" windowWidth="11772" windowHeight="9432"/>
+    <workbookView xWindow="-675" yWindow="225" windowWidth="11775" windowHeight="9435"/>
   </bookViews>
   <sheets>
     <sheet name="Сводная таблица" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Сводная таблица'!$A$2:$BU$47</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="150">
   <si>
     <t>балл(max)=</t>
   </si>
@@ -502,14 +502,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="d/m/yy;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1872,6 +1872,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1950,6 +1955,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1984,6 +1990,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2159,55 +2166,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BM30" sqref="BM30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" customWidth="1"/>
-    <col min="7" max="7" width="5.88671875" style="22" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" style="22" customWidth="1"/>
-    <col min="9" max="9" width="4.6640625" style="22" customWidth="1"/>
-    <col min="10" max="10" width="5.44140625" style="22" customWidth="1"/>
-    <col min="11" max="11" width="4.33203125" style="22" customWidth="1"/>
-    <col min="12" max="12" width="4.88671875" customWidth="1"/>
-    <col min="13" max="14" width="4.5546875" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" customWidth="1"/>
-    <col min="16" max="16" width="5.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" style="22" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="22" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" style="22" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="22" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" style="22" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" customWidth="1"/>
+    <col min="13" max="14" width="4.5703125" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" customWidth="1"/>
+    <col min="16" max="16" width="5.28515625" customWidth="1"/>
     <col min="17" max="17" width="5" customWidth="1"/>
-    <col min="18" max="18" width="9.33203125" customWidth="1"/>
-    <col min="19" max="20" width="5" customWidth="1"/>
-    <col min="21" max="21" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.109375" customWidth="1"/>
-    <col min="23" max="23" width="6.109375" customWidth="1"/>
-    <col min="24" max="24" width="5.5546875" customWidth="1"/>
-    <col min="25" max="27" width="5.6640625" customWidth="1"/>
-    <col min="28" max="30" width="4.5546875" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" customWidth="1"/>
+    <col min="19" max="19" width="5" customWidth="1"/>
+    <col min="20" max="20" width="6.7109375" customWidth="1"/>
+    <col min="21" max="21" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.140625" customWidth="1"/>
+    <col min="23" max="23" width="6.140625" customWidth="1"/>
+    <col min="24" max="24" width="5.5703125" customWidth="1"/>
+    <col min="25" max="27" width="5.7109375" customWidth="1"/>
+    <col min="28" max="30" width="4.5703125" customWidth="1"/>
     <col min="31" max="33" width="5" customWidth="1"/>
-    <col min="34" max="34" width="4.5546875" customWidth="1"/>
-    <col min="35" max="37" width="3.33203125" customWidth="1"/>
+    <col min="34" max="34" width="4.5703125" customWidth="1"/>
+    <col min="35" max="37" width="3.28515625" customWidth="1"/>
     <col min="38" max="38" width="4" customWidth="1"/>
-    <col min="39" max="39" width="4.109375" customWidth="1"/>
-    <col min="40" max="54" width="3.33203125" customWidth="1"/>
-    <col min="55" max="55" width="3.44140625" customWidth="1"/>
-    <col min="56" max="65" width="3.33203125" customWidth="1"/>
-    <col min="66" max="71" width="3.33203125" hidden="1" customWidth="1"/>
-    <col min="72" max="72" width="5.5546875" style="132" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4.140625" customWidth="1"/>
+    <col min="40" max="54" width="3.28515625" customWidth="1"/>
+    <col min="55" max="55" width="3.42578125" customWidth="1"/>
+    <col min="56" max="65" width="3.28515625" customWidth="1"/>
+    <col min="66" max="71" width="3.28515625" hidden="1" customWidth="1"/>
+    <col min="72" max="72" width="5.5703125" style="132" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="74" max="255" width="11" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" s="142" customFormat="1" ht="15" thickBot="1">
+    <row r="1" spans="1:16384" s="142" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="142" t="s">
         <v>116</v>
       </c>
@@ -2226,7 +2234,7 @@
       <c r="AF1" s="143"/>
       <c r="AG1" s="143"/>
     </row>
-    <row r="2" spans="1:16384" ht="15" thickBot="1">
+    <row r="2" spans="1:16384" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="81">
         <f>DATE(2016,9,1)</f>
         <v>42614</v>
@@ -18621,7 +18629,7 @@
       <c r="XFC2" s="106"/>
       <c r="XFD2" s="106"/>
     </row>
-    <row r="3" spans="1:16384" s="109" customFormat="1" ht="15" customHeight="1">
+    <row r="3" spans="1:16384" s="109" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="187" t="s">
         <v>36</v>
       </c>
@@ -18838,7 +18846,7 @@
       <c r="BT3" s="108"/>
       <c r="BU3" s="108"/>
     </row>
-    <row r="4" spans="1:16384" s="106" customFormat="1" ht="43.2">
+    <row r="4" spans="1:16384" s="106" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="187"/>
       <c r="B4" s="183"/>
       <c r="C4" s="185"/>
@@ -19083,7 +19091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:16384" s="106" customFormat="1">
+    <row r="5" spans="1:16384" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -19239,7 +19247,7 @@
         <v>5.1751524626061292</v>
       </c>
     </row>
-    <row r="6" spans="1:16384" s="106" customFormat="1">
+    <row r="6" spans="1:16384" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>2</v>
       </c>
@@ -19399,7 +19407,7 @@
         <v>5.253079315586298</v>
       </c>
     </row>
-    <row r="7" spans="1:16384" s="106" customFormat="1">
+    <row r="7" spans="1:16384" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>3</v>
       </c>
@@ -19555,7 +19563,7 @@
         <v>3.7905887301973031</v>
       </c>
     </row>
-    <row r="8" spans="1:16384" s="106" customFormat="1">
+    <row r="8" spans="1:16384" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>4</v>
       </c>
@@ -19710,7 +19718,7 @@
         <v>2.7012813291097784</v>
       </c>
     </row>
-    <row r="9" spans="1:16384" s="106" customFormat="1">
+    <row r="9" spans="1:16384" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>5</v>
       </c>
@@ -19865,7 +19873,7 @@
         <v>5.9202035454722211</v>
       </c>
     </row>
-    <row r="10" spans="1:16384" s="106" customFormat="1">
+    <row r="10" spans="1:16384" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>6</v>
       </c>
@@ -20035,7 +20043,7 @@
         <v>7.134538452605188</v>
       </c>
     </row>
-    <row r="11" spans="1:16384" s="106" customFormat="1">
+    <row r="11" spans="1:16384" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>7</v>
       </c>
@@ -20198,7 +20206,7 @@
         <v>5.5181818088152115</v>
       </c>
     </row>
-    <row r="12" spans="1:16384" s="106" customFormat="1">
+    <row r="12" spans="1:16384" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>8</v>
       </c>
@@ -20363,7 +20371,7 @@
         <v>6.0300885615460116</v>
       </c>
     </row>
-    <row r="13" spans="1:16384" s="106" customFormat="1">
+    <row r="13" spans="1:16384" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>9</v>
       </c>
@@ -20529,7 +20537,7 @@
         <v>6.334877695058891</v>
       </c>
     </row>
-    <row r="14" spans="1:16384" s="106" customFormat="1">
+    <row r="14" spans="1:16384" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>10</v>
       </c>
@@ -20695,7 +20703,7 @@
         <v>7.1935602809612842</v>
       </c>
     </row>
-    <row r="15" spans="1:16384" s="106" customFormat="1">
+    <row r="15" spans="1:16384" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>11</v>
       </c>
@@ -20848,7 +20856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16384" s="106" customFormat="1">
+    <row r="16" spans="1:16384" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>12</v>
       </c>
@@ -21002,7 +21010,7 @@
         <v>4.3094860273704834</v>
       </c>
     </row>
-    <row r="17" spans="1:73" s="106" customFormat="1">
+    <row r="17" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>13</v>
       </c>
@@ -21171,7 +21179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:73" s="106" customFormat="1">
+    <row r="18" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>14</v>
       </c>
@@ -21324,7 +21332,7 @@
         <v>2.2615378569291167</v>
       </c>
     </row>
-    <row r="19" spans="1:73" s="106" customFormat="1">
+    <row r="19" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>15</v>
       </c>
@@ -21477,7 +21485,7 @@
         <v>3.9765373984336971</v>
       </c>
     </row>
-    <row r="20" spans="1:73" s="106" customFormat="1">
+    <row r="20" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>16</v>
       </c>
@@ -21630,7 +21638,7 @@
         <v>4.3270757662577095</v>
       </c>
     </row>
-    <row r="21" spans="1:73" s="106" customFormat="1">
+    <row r="21" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>17</v>
       </c>
@@ -21785,7 +21793,7 @@
         <v>4.3622552440321627</v>
       </c>
     </row>
-    <row r="22" spans="1:73" s="106" customFormat="1">
+    <row r="22" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>18</v>
       </c>
@@ -21938,7 +21946,7 @@
         <v>2.5128198410323521</v>
       </c>
     </row>
-    <row r="23" spans="1:73" s="106" customFormat="1">
+    <row r="23" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>19</v>
       </c>
@@ -22091,7 +22099,7 @@
         <v>3.0681530259005019</v>
       </c>
     </row>
-    <row r="24" spans="1:73" s="106" customFormat="1">
+    <row r="24" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>20</v>
       </c>
@@ -22148,11 +22156,15 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="T24" s="21"/>
-      <c r="U24" s="148"/>
+      <c r="T24" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="U24" s="148">
+        <v>42714</v>
+      </c>
       <c r="V24" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.8481095176010431</v>
       </c>
       <c r="W24" s="21"/>
       <c r="X24" s="148"/>
@@ -22235,7 +22247,9 @@
       <c r="BK24" s="101">
         <v>2</v>
       </c>
-      <c r="BL24" s="101"/>
+      <c r="BL24" s="101">
+        <v>2</v>
+      </c>
       <c r="BM24" s="101">
         <v>2</v>
       </c>
@@ -22247,14 +22261,14 @@
       <c r="BS24" s="101"/>
       <c r="BT24" s="130">
         <f t="shared" si="8"/>
-        <v>46.68</v>
+        <v>50.528109517601045</v>
       </c>
       <c r="BU24" s="9">
         <f t="shared" si="4"/>
-        <v>4.3572296043500982</v>
+        <v>4.8407099016647654</v>
       </c>
     </row>
-    <row r="25" spans="1:73" s="106" customFormat="1">
+    <row r="25" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>21</v>
       </c>
@@ -22388,7 +22402,9 @@
       <c r="BK25" s="169">
         <v>2</v>
       </c>
-      <c r="BL25" s="101"/>
+      <c r="BL25" s="101">
+        <v>2</v>
+      </c>
       <c r="BM25" s="101">
         <v>2</v>
       </c>
@@ -22400,14 +22416,14 @@
       <c r="BS25" s="101"/>
       <c r="BT25" s="130">
         <f t="shared" si="8"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BU25" s="9">
         <f t="shared" si="4"/>
-        <v>2.2615378569291167</v>
+        <v>2.5128198410323521</v>
       </c>
     </row>
-    <row r="26" spans="1:73" s="106" customFormat="1">
+    <row r="26" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>22</v>
       </c>
@@ -22463,11 +22479,15 @@
         <f t="shared" si="5"/>
         <v>1.4376757263355202</v>
       </c>
-      <c r="T26" s="21"/>
-      <c r="U26" s="148"/>
+      <c r="T26" s="21">
+        <v>3</v>
+      </c>
+      <c r="U26" s="148">
+        <v>42714</v>
+      </c>
       <c r="V26" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.2177314211212518</v>
       </c>
       <c r="W26" s="21"/>
       <c r="X26" s="148"/>
@@ -22550,7 +22570,9 @@
       <c r="BK26" s="101">
         <v>2</v>
       </c>
-      <c r="BL26" s="101"/>
+      <c r="BL26" s="101">
+        <v>2</v>
+      </c>
       <c r="BM26" s="101">
         <f>2+1</f>
         <v>3</v>
@@ -22563,14 +22585,14 @@
       <c r="BS26" s="101"/>
       <c r="BT26" s="130">
         <f t="shared" si="8"/>
-        <v>54.087094657919401</v>
+        <v>58.304826079040652</v>
       </c>
       <c r="BU26" s="9">
         <f t="shared" si="4"/>
-        <v>5.2878643253913289</v>
+        <v>5.8177842853482824</v>
       </c>
     </row>
-    <row r="27" spans="1:73" s="106" customFormat="1">
+    <row r="27" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>23</v>
       </c>
@@ -22626,11 +22648,15 @@
         <f t="shared" si="5"/>
         <v>1.4376757263355202</v>
       </c>
-      <c r="T27" s="21"/>
-      <c r="U27" s="148"/>
+      <c r="T27" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="U27" s="148">
+        <v>42714</v>
+      </c>
       <c r="V27" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.8481095176010431</v>
       </c>
       <c r="W27" s="21"/>
       <c r="X27" s="148"/>
@@ -22713,7 +22739,9 @@
       <c r="BK27" s="169" t="s">
         <v>124</v>
       </c>
-      <c r="BL27" s="101"/>
+      <c r="BL27" s="101">
+        <v>2</v>
+      </c>
       <c r="BM27" s="101">
         <v>2</v>
       </c>
@@ -22725,14 +22753,14 @@
       <c r="BS27" s="101"/>
       <c r="BT27" s="130">
         <f t="shared" si="8"/>
-        <v>48.666513589503275</v>
+        <v>52.51462310710432</v>
       </c>
       <c r="BU27" s="9">
         <f t="shared" si="4"/>
-        <v>4.6068171424593096</v>
+        <v>5.0902974397739769</v>
       </c>
     </row>
-    <row r="28" spans="1:73" s="106" customFormat="1">
+    <row r="28" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>24</v>
       </c>
@@ -22866,7 +22894,9 @@
       <c r="BK28" s="169" t="s">
         <v>124</v>
       </c>
-      <c r="BL28" s="101"/>
+      <c r="BL28" s="101">
+        <v>2</v>
+      </c>
       <c r="BM28" s="101">
         <f>2+1</f>
         <v>3</v>
@@ -22879,14 +22909,14 @@
       <c r="BS28" s="101"/>
       <c r="BT28" s="130">
         <f t="shared" si="8"/>
-        <v>40.03</v>
+        <v>42.03</v>
       </c>
       <c r="BU28" s="9">
         <f t="shared" si="4"/>
-        <v>3.5217170072068416</v>
+        <v>3.7729989913100765</v>
       </c>
     </row>
-    <row r="29" spans="1:73" s="106" customFormat="1">
+    <row r="29" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>25</v>
       </c>
@@ -23020,7 +23050,9 @@
       <c r="BK29" s="101">
         <v>2</v>
       </c>
-      <c r="BL29" s="101"/>
+      <c r="BL29" s="101">
+        <v>2</v>
+      </c>
       <c r="BM29" s="101">
         <f>2+1</f>
         <v>3</v>
@@ -23033,14 +23065,14 @@
       <c r="BS29" s="101"/>
       <c r="BT29" s="130">
         <f t="shared" si="8"/>
-        <v>45.88</v>
+        <v>47.88</v>
       </c>
       <c r="BU29" s="9">
         <f t="shared" si="4"/>
-        <v>4.2567168107088049</v>
+        <v>4.5079987948120399</v>
       </c>
     </row>
-    <row r="30" spans="1:73" s="106" customFormat="1">
+    <row r="30" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>26</v>
       </c>
@@ -23195,7 +23227,7 @@
         <v>3.480255479829808</v>
       </c>
     </row>
-    <row r="31" spans="1:73" s="106" customFormat="1">
+    <row r="31" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>27</v>
       </c>
@@ -23342,7 +23374,9 @@
       <c r="BK31" s="101">
         <v>2</v>
       </c>
-      <c r="BL31" s="101"/>
+      <c r="BL31" s="101">
+        <v>2</v>
+      </c>
       <c r="BM31" s="101">
         <f>2+1</f>
         <v>3</v>
@@ -23355,14 +23389,14 @@
       <c r="BS31" s="101"/>
       <c r="BT31" s="130">
         <f t="shared" si="8"/>
-        <v>67.00535145267105</v>
+        <v>69.00535145267105</v>
       </c>
       <c r="BU31" s="9">
         <f t="shared" si="4"/>
-        <v>6.9109269246614762</v>
+        <v>7.1622089087647112</v>
       </c>
     </row>
-    <row r="32" spans="1:73" s="106" customFormat="1">
+    <row r="32" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>28</v>
       </c>
@@ -23409,11 +23443,15 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T32" s="21"/>
-      <c r="U32" s="148"/>
+      <c r="T32" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="U32" s="148">
+        <v>42714</v>
+      </c>
       <c r="V32" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.8481095176010431</v>
       </c>
       <c r="W32" s="21"/>
       <c r="X32" s="148"/>
@@ -23496,7 +23534,9 @@
       <c r="BK32" s="101">
         <v>2</v>
       </c>
-      <c r="BL32" s="101"/>
+      <c r="BL32" s="101">
+        <v>2</v>
+      </c>
       <c r="BM32" s="101">
         <v>2</v>
       </c>
@@ -23508,14 +23548,14 @@
       <c r="BS32" s="101"/>
       <c r="BT32" s="130">
         <f t="shared" si="8"/>
-        <v>50.95</v>
+        <v>54.798109517601048</v>
       </c>
       <c r="BU32" s="9">
         <f t="shared" si="4"/>
-        <v>4.8937166404105064</v>
+        <v>5.3771969377251727</v>
       </c>
     </row>
-    <row r="33" spans="1:73" s="106" customFormat="1">
+    <row r="33" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>29</v>
       </c>
@@ -23663,7 +23703,9 @@
       <c r="BK33" s="101">
         <v>2</v>
       </c>
-      <c r="BL33" s="101"/>
+      <c r="BL33" s="101">
+        <v>2</v>
+      </c>
       <c r="BM33" s="101">
         <v>2</v>
       </c>
@@ -23675,14 +23717,14 @@
       <c r="BS33" s="101"/>
       <c r="BT33" s="130">
         <f t="shared" si="8"/>
-        <v>62.938212744794953</v>
+        <v>64.938212744794953</v>
       </c>
       <c r="BU33" s="9">
         <f t="shared" si="4"/>
-        <v>6.3999275825923894</v>
+        <v>6.6512095666956244</v>
       </c>
     </row>
-    <row r="34" spans="1:73" s="106" customFormat="1">
+    <row r="34" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>30</v>
       </c>
@@ -23743,11 +23785,11 @@
         <v>4</v>
       </c>
       <c r="U34" s="148">
-        <v>42708</v>
+        <v>42707</v>
       </c>
       <c r="V34" s="70">
         <f t="shared" si="6"/>
-        <v>2.956975228161669</v>
+        <v>3.4784876140808345</v>
       </c>
       <c r="W34" s="21"/>
       <c r="X34" s="148"/>
@@ -23842,14 +23884,14 @@
       <c r="BS34" s="101"/>
       <c r="BT34" s="130">
         <f t="shared" si="8"/>
-        <v>59.834650954497185</v>
+        <v>60.356163340416352</v>
       </c>
       <c r="BU34" s="9">
         <f t="shared" si="4"/>
-        <v>6.009993000365883</v>
+        <v>6.0755163338999729</v>
       </c>
     </row>
-    <row r="35" spans="1:73" s="106" customFormat="1">
+    <row r="35" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>31</v>
       </c>
@@ -23991,8 +24033,8 @@
       <c r="BI35" s="101">
         <v>2</v>
       </c>
-      <c r="BJ35" s="101" t="s">
-        <v>124</v>
+      <c r="BJ35" s="101">
+        <v>2</v>
       </c>
       <c r="BK35" s="169">
         <v>2</v>
@@ -24009,14 +24051,14 @@
       <c r="BS35" s="101"/>
       <c r="BT35" s="130">
         <f t="shared" si="8"/>
-        <v>57.806513589503282</v>
+        <v>59.806513589503282</v>
       </c>
       <c r="BU35" s="9">
         <f t="shared" si="4"/>
-        <v>5.7551758098110959</v>
+        <v>6.0064577939143309</v>
       </c>
     </row>
-    <row r="36" spans="1:73" s="106" customFormat="1">
+    <row r="36" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>32</v>
       </c>
@@ -24179,7 +24221,7 @@
         <v>5.1865190277071065</v>
       </c>
     </row>
-    <row r="37" spans="1:73" s="106" customFormat="1">
+    <row r="37" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>33</v>
       </c>
@@ -24317,8 +24359,8 @@
       <c r="BI37" s="167" t="s">
         <v>124</v>
       </c>
-      <c r="BJ37" s="101" t="s">
-        <v>124</v>
+      <c r="BJ37" s="101">
+        <v>2</v>
       </c>
       <c r="BK37" s="169" t="s">
         <v>124</v>
@@ -24336,14 +24378,14 @@
       <c r="BS37" s="101"/>
       <c r="BT37" s="130">
         <f t="shared" si="8"/>
-        <v>46.707675726335516</v>
+        <v>48.707675726335516</v>
       </c>
       <c r="BU37" s="9">
         <f t="shared" si="4"/>
-        <v>4.3607068100626414</v>
+        <v>4.6119887941658773</v>
       </c>
     </row>
-    <row r="38" spans="1:73" s="106" customFormat="1">
+    <row r="38" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>34</v>
       </c>
@@ -24501,7 +24543,7 @@
         <v>4.5117974624817538</v>
       </c>
     </row>
-    <row r="39" spans="1:73" s="106" customFormat="1">
+    <row r="39" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>35</v>
       </c>
@@ -24558,11 +24600,15 @@
         <f t="shared" si="5"/>
         <v>1.8753514526710404</v>
       </c>
-      <c r="T39" s="21"/>
-      <c r="U39" s="148"/>
+      <c r="T39" s="21">
+        <v>2</v>
+      </c>
+      <c r="U39" s="148">
+        <v>42714</v>
+      </c>
       <c r="V39" s="70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.4784876140808345</v>
       </c>
       <c r="W39" s="21"/>
       <c r="X39" s="148"/>
@@ -24645,7 +24691,9 @@
       <c r="BK39" s="101">
         <v>2</v>
       </c>
-      <c r="BL39" s="15"/>
+      <c r="BL39" s="15">
+        <v>2</v>
+      </c>
       <c r="BM39" s="101">
         <v>2</v>
       </c>
@@ -24657,14 +24705,14 @@
       <c r="BS39" s="101"/>
       <c r="BT39" s="130">
         <f t="shared" si="8"/>
-        <v>50.57163074039363</v>
+        <v>54.050118354474463</v>
       </c>
       <c r="BU39" s="9">
         <f t="shared" si="4"/>
-        <v>4.8461779512717253</v>
+        <v>5.2832185859441054</v>
       </c>
     </row>
-    <row r="40" spans="1:73" s="106" customFormat="1">
+    <row r="40" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>36</v>
       </c>
@@ -24831,7 +24879,7 @@
         <v>6.1603952601600342</v>
       </c>
     </row>
-    <row r="41" spans="1:73" s="106" customFormat="1">
+    <row r="41" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>37</v>
       </c>
@@ -24984,7 +25032,7 @@
         <v>2.7641018251355871</v>
       </c>
     </row>
-    <row r="42" spans="1:73" s="106" customFormat="1">
+    <row r="42" spans="1:73" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>38</v>
       </c>
@@ -25137,7 +25185,7 @@
         <v>3.0832299449466958</v>
       </c>
     </row>
-    <row r="43" spans="1:73" s="115" customFormat="1" ht="15" thickBot="1">
+    <row r="43" spans="1:73" s="115" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15">
         <v>39</v>
       </c>
@@ -25235,8 +25283,8 @@
       <c r="AW43" s="113">
         <v>2</v>
       </c>
-      <c r="AX43" s="113" t="s">
-        <v>124</v>
+      <c r="AX43" s="113">
+        <v>2</v>
       </c>
       <c r="AY43" s="113">
         <v>2</v>
@@ -25283,14 +25331,14 @@
       <c r="BS43" s="112"/>
       <c r="BT43" s="151">
         <f t="shared" si="8"/>
-        <v>48.230000000000004</v>
+        <v>50.230000000000004</v>
       </c>
       <c r="BU43" s="114">
         <f t="shared" si="4"/>
-        <v>4.5519731420301062</v>
+        <v>4.8032551261333412</v>
       </c>
     </row>
-    <row r="44" spans="1:73">
+    <row r="44" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -25390,7 +25438,7 @@
       </c>
       <c r="AX44" s="8">
         <f t="shared" ref="AX44:BS44" si="12">COUNT(AX5:AX43)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY44" s="8">
         <f t="shared" si="12"/>
@@ -25438,7 +25486,7 @@
       </c>
       <c r="BJ44" s="8">
         <f t="shared" si="12"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BK44" s="8">
         <f t="shared" si="12"/>
@@ -25446,7 +25494,7 @@
       </c>
       <c r="BL44" s="8">
         <f t="shared" si="12"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="BM44" s="8">
         <f t="shared" si="12"/>
@@ -25478,7 +25526,7 @@
       </c>
       <c r="BT44" s="131"/>
     </row>
-    <row r="45" spans="1:73">
+    <row r="45" spans="1:73" x14ac:dyDescent="0.25">
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45"/>
@@ -25499,7 +25547,7 @@
       </c>
       <c r="AV45" s="8"/>
     </row>
-    <row r="46" spans="1:73">
+    <row r="46" spans="1:73" x14ac:dyDescent="0.25">
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
@@ -25519,7 +25567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:73" ht="15" thickBot="1">
+    <row r="47" spans="1:73" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -25531,7 +25579,7 @@
       <c r="AM47" s="2"/>
       <c r="AQ47" s="4"/>
     </row>
-    <row r="48" spans="1:73">
+    <row r="48" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A48" s="188" t="s">
         <v>8</v>
       </c>
@@ -25728,7 +25776,7 @@
       <c r="BT48" s="133"/>
       <c r="BU48" s="124"/>
     </row>
-    <row r="49" spans="1:73" ht="43.2">
+    <row r="49" spans="1:73" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="188"/>
       <c r="B49" s="183"/>
       <c r="C49" s="185"/>
@@ -25973,7 +26021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:73" ht="15" customHeight="1">
+    <row r="50" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <v>1</v>
       </c>
@@ -26130,7 +26178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:73" ht="15" customHeight="1">
+    <row r="51" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="15">
         <v>2</v>
       </c>
@@ -26285,7 +26333,7 @@
         <v>7.1935602809612842</v>
       </c>
     </row>
-    <row r="52" spans="1:73" ht="15" customHeight="1">
+    <row r="52" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15">
         <v>3</v>
       </c>
@@ -26444,7 +26492,7 @@
         <v>7.134538452605188</v>
       </c>
     </row>
-    <row r="53" spans="1:73" ht="15" customHeight="1">
+    <row r="53" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15">
         <v>4</v>
       </c>
@@ -26601,7 +26649,7 @@
         <v>6.9109269246614762</v>
       </c>
     </row>
-    <row r="54" spans="1:73" ht="15" customHeight="1">
+    <row r="54" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15">
         <v>5</v>
       </c>
@@ -26758,7 +26806,7 @@
         <v>6.3999275825923894</v>
       </c>
     </row>
-    <row r="55" spans="1:73" ht="15" customHeight="1">
+    <row r="55" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="15">
         <v>6</v>
       </c>
@@ -26913,7 +26961,7 @@
         <v>6.334877695058891</v>
       </c>
     </row>
-    <row r="56" spans="1:73" ht="15" customHeight="1">
+    <row r="56" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15">
         <v>7</v>
       </c>
@@ -27070,7 +27118,7 @@
         <v>6.1603952601600342</v>
       </c>
     </row>
-    <row r="57" spans="1:73" ht="15" customHeight="1">
+    <row r="57" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15">
         <v>8</v>
       </c>
@@ -27225,7 +27273,7 @@
         <v>6.0300885615460116</v>
       </c>
     </row>
-    <row r="58" spans="1:73" ht="15" customHeight="1">
+    <row r="58" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15">
         <v>9</v>
       </c>
@@ -27382,7 +27430,7 @@
         <v>6.009993000365883</v>
       </c>
     </row>
-    <row r="59" spans="1:73" ht="15" customHeight="1">
+    <row r="59" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="15">
         <v>10</v>
       </c>
@@ -27529,7 +27577,7 @@
         <v>5.9202035454722211</v>
       </c>
     </row>
-    <row r="60" spans="1:73" ht="15" customHeight="1">
+    <row r="60" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15">
         <v>11</v>
       </c>
@@ -27686,7 +27734,7 @@
         <v>5.7551758098110959</v>
       </c>
     </row>
-    <row r="61" spans="1:73" ht="15" customHeight="1">
+    <row r="61" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15">
         <v>12</v>
       </c>
@@ -27839,7 +27887,7 @@
         <v>5.5181818088152115</v>
       </c>
     </row>
-    <row r="62" spans="1:73" ht="15" customHeight="1">
+    <row r="62" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="15">
         <v>13</v>
       </c>
@@ -27992,7 +28040,7 @@
         <v>5.2878643253913289</v>
       </c>
     </row>
-    <row r="63" spans="1:73" ht="15" customHeight="1">
+    <row r="63" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="15">
         <v>14</v>
       </c>
@@ -28143,7 +28191,7 @@
         <v>5.253079315586298</v>
       </c>
     </row>
-    <row r="64" spans="1:73" ht="15" customHeight="1">
+    <row r="64" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="15">
         <v>15</v>
       </c>
@@ -28296,7 +28344,7 @@
         <v>5.1865190277071065</v>
       </c>
     </row>
-    <row r="65" spans="1:73" ht="15" customHeight="1">
+    <row r="65" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="15">
         <v>16</v>
       </c>
@@ -28443,7 +28491,7 @@
         <v>5.1751524626061292</v>
       </c>
     </row>
-    <row r="66" spans="1:73" ht="15" customHeight="1">
+    <row r="66" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="15">
         <v>17</v>
       </c>
@@ -28588,7 +28636,7 @@
         <v>4.8937166404105064</v>
       </c>
     </row>
-    <row r="67" spans="1:73" ht="15" customHeight="1">
+    <row r="67" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="15">
         <v>18</v>
       </c>
@@ -28741,7 +28789,7 @@
         <v>4.8461779512717253</v>
       </c>
     </row>
-    <row r="68" spans="1:73" ht="15" customHeight="1">
+    <row r="68" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="15">
         <v>19</v>
       </c>
@@ -28894,7 +28942,7 @@
         <v>4.6068171424593096</v>
       </c>
     </row>
-    <row r="69" spans="1:73" ht="15" customHeight="1">
+    <row r="69" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="15">
         <v>20</v>
       </c>
@@ -29039,7 +29087,7 @@
         <v>4.5519731420301062</v>
       </c>
     </row>
-    <row r="70" spans="1:73" ht="15" customHeight="1">
+    <row r="70" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="15">
         <v>21</v>
       </c>
@@ -29188,7 +29236,7 @@
         <v>4.5117974624817538</v>
       </c>
     </row>
-    <row r="71" spans="1:73" ht="15" customHeight="1">
+    <row r="71" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15">
         <v>22</v>
       </c>
@@ -29333,7 +29381,7 @@
         <v>4.3622552440321627</v>
       </c>
     </row>
-    <row r="72" spans="1:73" ht="15" customHeight="1">
+    <row r="72" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15">
         <v>23</v>
       </c>
@@ -29486,7 +29534,7 @@
         <v>4.3607068100626414</v>
       </c>
     </row>
-    <row r="73" spans="1:73" ht="15" customHeight="1">
+    <row r="73" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="15">
         <v>24</v>
       </c>
@@ -29639,7 +29687,7 @@
         <v>4.3572296043500982</v>
       </c>
     </row>
-    <row r="74" spans="1:73" ht="15" customHeight="1">
+    <row r="74" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="15">
         <v>25</v>
       </c>
@@ -29784,7 +29832,7 @@
         <v>4.3270757662577095</v>
       </c>
     </row>
-    <row r="75" spans="1:73" ht="15" customHeight="1">
+    <row r="75" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="15">
         <v>26</v>
       </c>
@@ -29929,7 +29977,7 @@
         <v>4.3094860273704834</v>
       </c>
     </row>
-    <row r="76" spans="1:73" ht="15" customHeight="1">
+    <row r="76" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="15">
         <v>27</v>
       </c>
@@ -30074,7 +30122,7 @@
         <v>4.2567168107088049</v>
       </c>
     </row>
-    <row r="77" spans="1:73" ht="15" customHeight="1">
+    <row r="77" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="15">
         <v>28</v>
       </c>
@@ -30219,7 +30267,7 @@
         <v>3.9765373984336971</v>
       </c>
     </row>
-    <row r="78" spans="1:73" ht="15" customHeight="1">
+    <row r="78" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="15">
         <v>29</v>
       </c>
@@ -30366,7 +30414,7 @@
         <v>3.7905887301973031</v>
       </c>
     </row>
-    <row r="79" spans="1:73" ht="15" customHeight="1">
+    <row r="79" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="15">
         <v>30</v>
       </c>
@@ -30511,7 +30559,7 @@
         <v>3.480255479829808</v>
       </c>
     </row>
-    <row r="80" spans="1:73" ht="15" customHeight="1">
+    <row r="80" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="15">
         <v>31</v>
       </c>
@@ -30656,7 +30704,7 @@
         <v>3.3960760151552241</v>
       </c>
     </row>
-    <row r="81" spans="1:73" ht="15" customHeight="1">
+    <row r="81" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="15">
         <v>32</v>
       </c>
@@ -30801,7 +30849,7 @@
         <v>3.0832299449466958</v>
       </c>
     </row>
-    <row r="82" spans="1:73" ht="15" customHeight="1">
+    <row r="82" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="15">
         <v>33</v>
       </c>
@@ -30946,7 +30994,7 @@
         <v>3.0681530259005019</v>
       </c>
     </row>
-    <row r="83" spans="1:73" ht="15" customHeight="1">
+    <row r="83" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="15">
         <v>34</v>
       </c>
@@ -31091,7 +31139,7 @@
         <v>2.7641018251355871</v>
       </c>
     </row>
-    <row r="84" spans="1:73" ht="15" customHeight="1">
+    <row r="84" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="15">
         <v>35</v>
       </c>
@@ -31238,7 +31286,7 @@
         <v>2.7012813291097784</v>
       </c>
     </row>
-    <row r="85" spans="1:73" ht="15" customHeight="1">
+    <row r="85" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="15">
         <v>36</v>
       </c>
@@ -31383,7 +31431,7 @@
         <v>2.5128198410323521</v>
       </c>
     </row>
-    <row r="86" spans="1:73" ht="15" customHeight="1">
+    <row r="86" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="15">
         <v>37</v>
       </c>
@@ -31528,7 +31576,7 @@
         <v>2.2615378569291167</v>
       </c>
     </row>
-    <row r="87" spans="1:73" ht="15" customHeight="1">
+    <row r="87" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="15">
         <v>38</v>
       </c>
@@ -31673,7 +31721,7 @@
         <v>2.2615378569291167</v>
       </c>
     </row>
-    <row r="88" spans="1:73" ht="15" customHeight="1" thickBot="1">
+    <row r="88" spans="1:73" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="15">
         <v>41</v>
       </c>
@@ -31818,7 +31866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:73" ht="15" hidden="1" customHeight="1">
+    <row r="89" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="15"/>
       <c r="B89" s="12"/>
       <c r="C89" s="84"/>
@@ -31893,7 +31941,7 @@
       <c r="BT89" s="135"/>
       <c r="BU89" s="123"/>
     </row>
-    <row r="90" spans="1:73" ht="15" hidden="1" customHeight="1">
+    <row r="90" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="15"/>
       <c r="B90" s="12"/>
       <c r="C90" s="84"/>
@@ -31968,7 +32016,7 @@
       <c r="BT90" s="130"/>
       <c r="BU90" s="9"/>
     </row>
-    <row r="91" spans="1:73" ht="15" hidden="1" customHeight="1">
+    <row r="91" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="15"/>
       <c r="B91" s="12"/>
       <c r="C91" s="84"/>
@@ -32043,7 +32091,7 @@
       <c r="BT91" s="130"/>
       <c r="BU91" s="9"/>
     </row>
-    <row r="92" spans="1:73" ht="15" hidden="1" customHeight="1">
+    <row r="92" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="15"/>
       <c r="B92" s="12"/>
       <c r="C92" s="84"/>
@@ -32118,7 +32166,7 @@
       <c r="BT92" s="130"/>
       <c r="BU92" s="9"/>
     </row>
-    <row r="93" spans="1:73" ht="15" hidden="1" customHeight="1">
+    <row r="93" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="15"/>
       <c r="B93" s="12"/>
       <c r="C93" s="84"/>
@@ -32193,7 +32241,7 @@
       <c r="BT93" s="130"/>
       <c r="BU93" s="9"/>
     </row>
-    <row r="94" spans="1:73" ht="15" hidden="1" customHeight="1">
+    <row r="94" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="15"/>
       <c r="B94" s="12"/>
       <c r="C94" s="84"/>
@@ -32268,7 +32316,7 @@
       <c r="BT94" s="130"/>
       <c r="BU94" s="9"/>
     </row>
-    <row r="95" spans="1:73" ht="15" hidden="1" customHeight="1">
+    <row r="95" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="15"/>
       <c r="B95" s="12"/>
       <c r="C95" s="84"/>
@@ -32343,7 +32391,7 @@
       <c r="BT95" s="130"/>
       <c r="BU95" s="9"/>
     </row>
-    <row r="96" spans="1:73" ht="15" hidden="1" customHeight="1">
+    <row r="96" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="15"/>
       <c r="B96" s="12"/>
       <c r="C96" s="84"/>
@@ -32418,7 +32466,7 @@
       <c r="BT96" s="130"/>
       <c r="BU96" s="9"/>
     </row>
-    <row r="97" spans="1:73" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="15"/>
       <c r="B97" s="12"/>
       <c r="C97" s="84"/>
@@ -32493,7 +32541,7 @@
       <c r="BT97" s="130"/>
       <c r="BU97" s="9"/>
     </row>
-    <row r="98" spans="1:73" hidden="1">
+    <row r="98" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="13"/>
       <c r="B98" s="12"/>
       <c r="C98" s="84"/>
@@ -32568,7 +32616,7 @@
       <c r="BT98" s="130"/>
       <c r="BU98" s="9"/>
     </row>
-    <row r="99" spans="1:73" hidden="1">
+    <row r="99" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="13"/>
       <c r="B99" s="12"/>
       <c r="C99" s="84"/>
@@ -32643,7 +32691,7 @@
       <c r="BT99" s="130"/>
       <c r="BU99" s="9"/>
     </row>
-    <row r="100" spans="1:73" hidden="1">
+    <row r="100" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="13"/>
       <c r="B100" s="12"/>
       <c r="C100" s="84"/>
@@ -32718,7 +32766,7 @@
       <c r="BT100" s="130"/>
       <c r="BU100" s="9"/>
     </row>
-    <row r="101" spans="1:73" hidden="1">
+    <row r="101" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
       <c r="B101" s="12"/>
       <c r="C101" s="84"/>
@@ -32793,7 +32841,7 @@
       <c r="BT101" s="130"/>
       <c r="BU101" s="9"/>
     </row>
-    <row r="102" spans="1:73" hidden="1">
+    <row r="102" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="13"/>
       <c r="B102" s="12"/>
       <c r="C102" s="84"/>
@@ -32868,7 +32916,7 @@
       <c r="BT102" s="130"/>
       <c r="BU102" s="9"/>
     </row>
-    <row r="103" spans="1:73" hidden="1">
+    <row r="103" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13"/>
       <c r="B103" s="12"/>
       <c r="C103" s="84"/>
@@ -32943,7 +32991,7 @@
       <c r="BT103" s="130"/>
       <c r="BU103" s="9"/>
     </row>
-    <row r="104" spans="1:73" hidden="1">
+    <row r="104" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13"/>
       <c r="B104" s="12"/>
       <c r="C104" s="84"/>
@@ -33018,7 +33066,7 @@
       <c r="BT104" s="130"/>
       <c r="BU104" s="9"/>
     </row>
-    <row r="105" spans="1:73" hidden="1">
+    <row r="105" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13"/>
       <c r="B105" s="12"/>
       <c r="C105" s="84"/>
@@ -33093,7 +33141,7 @@
       <c r="BT105" s="130"/>
       <c r="BU105" s="9"/>
     </row>
-    <row r="106" spans="1:73" hidden="1">
+    <row r="106" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13"/>
       <c r="B106" s="12"/>
       <c r="C106" s="84"/>
@@ -33168,7 +33216,7 @@
       <c r="BT106" s="130"/>
       <c r="BU106" s="9"/>
     </row>
-    <row r="107" spans="1:73" hidden="1">
+    <row r="107" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="13"/>
       <c r="B107" s="12"/>
       <c r="C107" s="84"/>
@@ -33243,7 +33291,7 @@
       <c r="BT107" s="130"/>
       <c r="BU107" s="9"/>
     </row>
-    <row r="108" spans="1:73" hidden="1">
+    <row r="108" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="13"/>
       <c r="B108" s="12"/>
       <c r="C108" s="84"/>
@@ -33318,7 +33366,7 @@
       <c r="BT108" s="130"/>
       <c r="BU108" s="9"/>
     </row>
-    <row r="109" spans="1:73" hidden="1">
+    <row r="109" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="13"/>
       <c r="B109" s="12"/>
       <c r="C109" s="84"/>
@@ -33393,7 +33441,7 @@
       <c r="BT109" s="130"/>
       <c r="BU109" s="9"/>
     </row>
-    <row r="110" spans="1:73" hidden="1">
+    <row r="110" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="13"/>
       <c r="B110" s="12"/>
       <c r="C110" s="84"/>
@@ -33468,7 +33516,7 @@
       <c r="BT110" s="130"/>
       <c r="BU110" s="9"/>
     </row>
-    <row r="111" spans="1:73" hidden="1">
+    <row r="111" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="13"/>
       <c r="B111" s="12"/>
       <c r="C111" s="84"/>
@@ -33543,7 +33591,7 @@
       <c r="BT111" s="130"/>
       <c r="BU111" s="9"/>
     </row>
-    <row r="112" spans="1:73" hidden="1">
+    <row r="112" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="13"/>
       <c r="B112" s="12"/>
       <c r="C112" s="84"/>
@@ -33618,7 +33666,7 @@
       <c r="BT112" s="130"/>
       <c r="BU112" s="9"/>
     </row>
-    <row r="113" spans="1:73" hidden="1">
+    <row r="113" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="13"/>
       <c r="B113" s="12"/>
       <c r="C113" s="84"/>
@@ -33693,7 +33741,7 @@
       <c r="BT113" s="130"/>
       <c r="BU113" s="9"/>
     </row>
-    <row r="114" spans="1:73" hidden="1">
+    <row r="114" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="13"/>
       <c r="B114" s="12"/>
       <c r="C114" s="84"/>
@@ -33768,7 +33816,7 @@
       <c r="BT114" s="130"/>
       <c r="BU114" s="9"/>
     </row>
-    <row r="115" spans="1:73" hidden="1">
+    <row r="115" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="13"/>
       <c r="B115" s="12"/>
       <c r="C115" s="84"/>
@@ -33843,7 +33891,7 @@
       <c r="BT115" s="130"/>
       <c r="BU115" s="9"/>
     </row>
-    <row r="116" spans="1:73" hidden="1">
+    <row r="116" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="13"/>
       <c r="B116" s="12"/>
       <c r="C116" s="84"/>
@@ -33918,7 +33966,7 @@
       <c r="BT116" s="130"/>
       <c r="BU116" s="9"/>
     </row>
-    <row r="117" spans="1:73" hidden="1">
+    <row r="117" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="13"/>
       <c r="B117" s="12"/>
       <c r="C117" s="84"/>
@@ -33993,7 +34041,7 @@
       <c r="BT117" s="130"/>
       <c r="BU117" s="9"/>
     </row>
-    <row r="118" spans="1:73" hidden="1">
+    <row r="118" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="13"/>
       <c r="B118" s="12"/>
       <c r="C118" s="84"/>
@@ -34068,7 +34116,7 @@
       <c r="BT118" s="130"/>
       <c r="BU118" s="9"/>
     </row>
-    <row r="119" spans="1:73" hidden="1">
+    <row r="119" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="13"/>
       <c r="B119" s="12"/>
       <c r="C119" s="84"/>
@@ -34143,7 +34191,7 @@
       <c r="BT119" s="130"/>
       <c r="BU119" s="9"/>
     </row>
-    <row r="120" spans="1:73" hidden="1">
+    <row r="120" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="13"/>
       <c r="B120" s="12"/>
       <c r="C120" s="84"/>
@@ -34218,7 +34266,7 @@
       <c r="BT120" s="130"/>
       <c r="BU120" s="9"/>
     </row>
-    <row r="121" spans="1:73" hidden="1">
+    <row r="121" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="13"/>
       <c r="B121" s="12"/>
       <c r="C121" s="84"/>
@@ -34293,7 +34341,7 @@
       <c r="BT121" s="130"/>
       <c r="BU121" s="9"/>
     </row>
-    <row r="122" spans="1:73" hidden="1">
+    <row r="122" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="13"/>
       <c r="B122" s="12"/>
       <c r="C122" s="84"/>
@@ -34368,7 +34416,7 @@
       <c r="BT122" s="130"/>
       <c r="BU122" s="9"/>
     </row>
-    <row r="123" spans="1:73" ht="15" hidden="1" thickBot="1">
+    <row r="123" spans="1:73" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="13"/>
       <c r="B123" s="12"/>
       <c r="C123" s="84"/>
@@ -34443,7 +34491,7 @@
       <c r="BT123" s="130"/>
       <c r="BU123" s="9"/>
     </row>
-    <row r="124" spans="1:73" ht="15" hidden="1" customHeight="1">
+    <row r="124" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
@@ -34515,7 +34563,7 @@
       <c r="BS124" s="8"/>
       <c r="BT124" s="131"/>
     </row>
-    <row r="125" spans="1:73" ht="15" hidden="1" customHeight="1"/>
+    <row r="125" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState ref="B50:BU88">
     <sortCondition descending="1" ref="BU50:BU88"/>
@@ -34605,29 +34653,29 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IU49"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="198" t="s">
         <v>116</v>
       </c>
@@ -34886,7 +34934,7 @@
       <c r="IT1" s="198"/>
       <c r="IU1" s="198"/>
     </row>
-    <row r="2" spans="1:255" ht="15" thickBot="1">
+    <row r="2" spans="1:255" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="201" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -34902,7 +34950,7 @@
       <c r="J2" s="201"/>
       <c r="K2" s="201"/>
     </row>
-    <row r="3" spans="1:255" ht="15" customHeight="1">
+    <row r="3" spans="1:255" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="202" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -34943,7 +34991,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:255" ht="15" thickBot="1">
+    <row r="4" spans="1:255" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="203"/>
       <c r="B4" s="205"/>
       <c r="C4" s="207"/>
@@ -34956,7 +35004,7 @@
       <c r="J4" s="217"/>
       <c r="K4" s="218"/>
     </row>
-    <row r="5" spans="1:255" s="54" customFormat="1">
+    <row r="5" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="62">
         <v>1</v>
       </c>
@@ -34994,7 +35042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:255" s="54" customFormat="1">
+    <row r="6" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55">
         <v>2</v>
       </c>
@@ -35033,7 +35081,7 @@
       </c>
       <c r="M6" s="79"/>
     </row>
-    <row r="7" spans="1:255" s="54" customFormat="1">
+    <row r="7" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55">
         <v>3</v>
       </c>
@@ -35071,7 +35119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:255" s="54" customFormat="1">
+    <row r="8" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="55">
         <v>4</v>
       </c>
@@ -35109,7 +35157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:255" s="54" customFormat="1">
+    <row r="9" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="55">
         <v>5</v>
       </c>
@@ -35147,7 +35195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:255" s="54" customFormat="1">
+    <row r="10" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55">
         <v>6</v>
       </c>
@@ -35185,7 +35233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:255" s="54" customFormat="1">
+    <row r="11" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="55">
         <v>7</v>
       </c>
@@ -35223,7 +35271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:255" s="54" customFormat="1">
+    <row r="12" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55">
         <v>8</v>
       </c>
@@ -35261,7 +35309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:255" s="54" customFormat="1">
+    <row r="13" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55">
         <v>9</v>
       </c>
@@ -35299,7 +35347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:255" s="54" customFormat="1">
+    <row r="14" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55">
         <v>11</v>
       </c>
@@ -35337,7 +35385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:255" s="54" customFormat="1">
+    <row r="15" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55">
         <v>12</v>
       </c>
@@ -35375,7 +35423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:255" s="54" customFormat="1">
+    <row r="16" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="55">
         <v>13</v>
       </c>
@@ -35413,7 +35461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="54" customFormat="1">
+    <row r="17" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55">
         <v>15</v>
       </c>
@@ -35450,7 +35498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="54" customFormat="1">
+    <row r="18" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="55">
         <v>16</v>
       </c>
@@ -35488,7 +35536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="54" customFormat="1">
+    <row r="19" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55">
         <v>17</v>
       </c>
@@ -35526,7 +35574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="54" customFormat="1">
+    <row r="20" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55">
         <v>18</v>
       </c>
@@ -35564,7 +35612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="54" customFormat="1">
+    <row r="21" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55">
         <v>19</v>
       </c>
@@ -35602,7 +35650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="54" customFormat="1">
+    <row r="22" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="55">
         <v>20</v>
       </c>
@@ -35640,7 +35688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="54" customFormat="1">
+    <row r="23" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55">
         <v>21</v>
       </c>
@@ -35678,7 +35726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="54" customFormat="1">
+    <row r="24" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="55">
         <v>22</v>
       </c>
@@ -35716,7 +35764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="54" customFormat="1">
+    <row r="25" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="55">
         <v>23</v>
       </c>
@@ -35754,7 +35802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="54" customFormat="1">
+    <row r="26" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55">
         <v>24</v>
       </c>
@@ -35792,7 +35840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="54" customFormat="1">
+    <row r="27" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55">
         <v>25</v>
       </c>
@@ -35830,7 +35878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="54" customFormat="1">
+    <row r="28" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55">
         <v>26</v>
       </c>
@@ -35868,7 +35916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="54" customFormat="1">
+    <row r="29" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55">
         <v>27</v>
       </c>
@@ -35906,7 +35954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="54" customFormat="1">
+    <row r="30" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55">
         <v>28</v>
       </c>
@@ -35944,7 +35992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="54" customFormat="1">
+    <row r="31" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="55">
         <v>29</v>
       </c>
@@ -35982,7 +36030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="54" customFormat="1">
+    <row r="32" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="55">
         <v>30</v>
       </c>
@@ -36020,7 +36068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="54" customFormat="1">
+    <row r="33" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="55">
         <v>31</v>
       </c>
@@ -36058,7 +36106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="54" customFormat="1">
+    <row r="34" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="55">
         <v>32</v>
       </c>
@@ -36096,7 +36144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="54" customFormat="1">
+    <row r="35" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55">
         <v>33</v>
       </c>
@@ -36134,7 +36182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="54" customFormat="1">
+    <row r="36" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="55">
         <v>34</v>
       </c>
@@ -36172,7 +36220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="54" customFormat="1">
+    <row r="37" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="55">
         <v>35</v>
       </c>
@@ -36210,7 +36258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="54" customFormat="1">
+    <row r="38" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55">
         <v>37</v>
       </c>
@@ -36248,7 +36296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="54" customFormat="1">
+    <row r="39" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="55">
         <v>38</v>
       </c>
@@ -36286,7 +36334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="54" customFormat="1">
+    <row r="40" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="55">
         <v>39</v>
       </c>
@@ -36324,7 +36372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="54" customFormat="1">
+    <row r="41" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="55">
         <v>40</v>
       </c>
@@ -36362,7 +36410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="54" customFormat="1">
+    <row r="42" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="55">
         <v>41</v>
       </c>
@@ -36400,7 +36448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1">
+    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="56">
         <v>42</v>
       </c>
@@ -36438,7 +36486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="40" customFormat="1">
+    <row r="44" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="53"/>
       <c r="B44" s="53"/>
       <c r="C44" s="53"/>
@@ -36447,7 +36495,7 @@
       <c r="F44" s="53"/>
       <c r="G44" s="53"/>
     </row>
-    <row r="45" spans="1:11" s="40" customFormat="1">
+    <row r="45" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="53"/>
       <c r="B45" s="53"/>
       <c r="C45" s="53"/>
@@ -36456,7 +36504,7 @@
       <c r="F45" s="53"/>
       <c r="G45" s="53"/>
     </row>
-    <row r="46" spans="1:11" s="40" customFormat="1">
+    <row r="46" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="53"/>
       <c r="B46" s="53"/>
       <c r="C46" s="53"/>
@@ -36465,7 +36513,7 @@
       <c r="F46" s="53"/>
       <c r="G46" s="53"/>
     </row>
-    <row r="47" spans="1:11" s="40" customFormat="1">
+    <row r="47" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="53"/>
       <c r="B47" s="53"/>
       <c r="C47" s="53"/>
@@ -36474,7 +36522,7 @@
       <c r="F47" s="53"/>
       <c r="G47" s="53"/>
     </row>
-    <row r="48" spans="1:11" s="40" customFormat="1">
+    <row r="48" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="53"/>
       <c r="B48" s="53"/>
       <c r="C48" s="53"/>
@@ -36483,7 +36531,7 @@
       <c r="F48" s="53"/>
       <c r="G48" s="53"/>
     </row>
-    <row r="49" spans="1:7" s="40" customFormat="1">
+    <row r="49" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="53"/>
       <c r="B49" s="53"/>
       <c r="C49" s="53"/>
@@ -36513,23 +36561,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" style="78" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="2" customWidth="1"/>
-    <col min="3" max="27" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="9.109375" style="40"/>
+    <col min="1" max="1" width="31.28515625" style="78" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="2" customWidth="1"/>
+    <col min="3" max="27" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.140625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="198" t="s">
         <v>116</v>
       </c>
@@ -36789,7 +36837,7 @@
       <c r="IU1" s="198"/>
       <c r="IV1" s="198"/>
     </row>
-    <row r="2" spans="1:256" s="43" customFormat="1">
+    <row r="2" spans="1:256" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>127</v>
       </c>
@@ -36947,7 +36995,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:256" s="40" customFormat="1">
+    <row r="3" spans="1:256" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="78">
         <v>0</v>
       </c>
@@ -37105,7 +37153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:256">
+    <row r="4" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A4" s="78">
         <v>1</v>
       </c>
@@ -37313,7 +37361,7 @@
         <v>0.89695192324410611</v>
       </c>
     </row>
-    <row r="5" spans="1:256">
+    <row r="5" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A5" s="78">
         <f>A4+1</f>
         <v>2</v>
@@ -37522,7 +37570,7 @@
         <v>0.87018571255634025</v>
       </c>
     </row>
-    <row r="6" spans="1:256">
+    <row r="6" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A6" s="78">
         <f t="shared" ref="A6:A69" si="3">A5+1</f>
         <v>3</v>
@@ -37731,7 +37779,7 @@
         <v>0.84629551063873676</v>
       </c>
     </row>
-    <row r="7" spans="1:256">
+    <row r="7" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A7" s="78">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -37940,7 +37988,7 @@
         <v>0.82445642806579367</v>
       </c>
     </row>
-    <row r="8" spans="1:256">
+    <row r="8" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A8" s="78">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -38149,7 +38197,7 @@
         <v>0.80422263750866019</v>
       </c>
     </row>
-    <row r="9" spans="1:256">
+    <row r="9" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A9" s="78">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -38358,7 +38406,7 @@
         <v>0.78531313248338608</v>
       </c>
     </row>
-    <row r="10" spans="1:256">
+    <row r="10" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A10" s="78">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -38567,7 +38615,7 @@
         <v>0.76753310411070741</v>
       </c>
     </row>
-    <row r="11" spans="1:256">
+    <row r="11" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A11" s="78">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -38776,7 +38824,7 @@
         <v>0.75073850127167796</v>
       </c>
     </row>
-    <row r="12" spans="1:256">
+    <row r="12" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A12" s="78">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -38985,7 +39033,7 @@
         <v>0.73481776731189774</v>
       </c>
     </row>
-    <row r="13" spans="1:256">
+    <row r="13" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A13" s="78">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -39194,7 +39242,7 @@
         <v>0.71968148502792184</v>
       </c>
     </row>
-    <row r="14" spans="1:256">
+    <row r="14" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A14" s="78">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -39403,7 +39451,7 @@
         <v>0.70525606632121929</v>
       </c>
     </row>
-    <row r="15" spans="1:256">
+    <row r="15" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A15" s="78">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -39612,7 +39660,7 @@
         <v>0.69147968248291725</v>
       </c>
     </row>
-    <row r="16" spans="1:256">
+    <row r="16" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A16" s="78">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -39821,7 +39869,7 @@
         <v>0.67829951653884102</v>
       </c>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" s="78">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -40030,7 +40078,7 @@
         <v>0.66566983669222213</v>
       </c>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A18" s="78">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -40239,7 +40287,7 @@
         <v>0.65355060191796732</v>
       </c>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19" s="78">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -40448,7 +40496,7 @@
         <v>0.64190642508943729</v>
       </c>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20" s="78">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -40657,7 +40705,7 @@
         <v>0.63070578385177745</v>
       </c>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A21" s="78">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -40866,7 +40914,7 @@
         <v>0.61992040782875424</v>
       </c>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A22" s="78">
         <f t="shared" si="3"/>
         <v>19</v>
@@ -41075,7 +41123,7 @@
         <v>0.60952479431466833</v>
       </c>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A23" s="78">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -41284,7 +41332,7 @@
         <v>0.59949581954633846</v>
       </c>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A24" s="78">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -41493,7 +41541,7 @@
         <v>0.58981242239837206</v>
       </c>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A25" s="78">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -41702,7 +41750,7 @@
         <v>0.58045534386588959</v>
       </c>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A26" s="78">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -41911,7 +41959,7 @@
         <v>0.57140691016010958</v>
       </c>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A27" s="78">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -42120,7 +42168,7 @@
         <v>0.56265085035673512</v>
       </c>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A28" s="78">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -42329,7 +42377,7 @@
         <v>0.55417214175163687</v>
       </c>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A29" s="78">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -42538,7 +42586,7 @@
         <v>0.54595687767947287</v>
       </c>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A30" s="78">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -42747,7 +42795,7 @@
         <v>0.53799215372631093</v>
       </c>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A31" s="78">
         <f t="shared" si="3"/>
         <v>28</v>
@@ -42956,7 +43004,7 @@
         <v>0.53026596914239565</v>
       </c>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A32" s="78">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -43165,7 +43213,7 @@
         <v>0.52276714092111976</v>
       </c>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A33" s="78">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -43374,7 +43422,7 @@
         <v>0.51548522851390399</v>
       </c>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A34" s="78">
         <f t="shared" si="3"/>
         <v>31</v>
@@ -43583,7 +43631,7 @@
         <v>0.50841046753931596</v>
       </c>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A35" s="78">
         <f t="shared" si="3"/>
         <v>32</v>
@@ -43792,7 +43840,7 @@
         <v>0.5015337111477397</v>
       </c>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A36" s="78">
         <f t="shared" si="3"/>
         <v>33</v>
@@ -44001,7 +44049,7 @@
         <v>0.49484637794137742</v>
       </c>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A37" s="78">
         <f t="shared" si="3"/>
         <v>34</v>
@@ -44210,7 +44258,7 @@
         <v>0.48834040553873787</v>
       </c>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A38" s="78">
         <f t="shared" si="3"/>
         <v>35</v>
@@ -44419,7 +44467,7 @@
         <v>0.48200820902440999</v>
       </c>
     </row>
-    <row r="39" spans="1:52">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A39" s="78">
         <f t="shared" si="3"/>
         <v>36</v>
@@ -44628,7 +44676,7 @@
         <v>0.4758426436472955</v>
       </c>
     </row>
-    <row r="40" spans="1:52">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A40" s="78">
         <f t="shared" si="3"/>
         <v>37</v>
@@ -44837,7 +44885,7 @@
         <v>0.46983697122996571</v>
       </c>
     </row>
-    <row r="41" spans="1:52">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A41" s="78">
         <f t="shared" si="3"/>
         <v>38</v>
@@ -45046,7 +45094,7 @@
         <v>0.46398482983322931</v>
       </c>
     </row>
-    <row r="42" spans="1:52">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A42" s="78">
         <f t="shared" si="3"/>
         <v>39</v>
@@ -45255,7 +45303,7 @@
         <v>0.45828020628708993</v>
       </c>
     </row>
-    <row r="43" spans="1:52">
+    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A43" s="78">
         <f t="shared" si="3"/>
         <v>40</v>
@@ -45464,7 +45512,7 @@
         <v>0.45271741125486509</v>
       </c>
     </row>
-    <row r="44" spans="1:52">
+    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A44" s="78">
         <f t="shared" si="3"/>
         <v>41</v>
@@ -45673,7 +45721,7 @@
         <v>0.44729105654358564</v>
       </c>
     </row>
-    <row r="45" spans="1:52">
+    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A45" s="78">
         <f t="shared" si="3"/>
         <v>42</v>
@@ -45882,7 +45930,7 @@
         <v>0.44199603441263408</v>
       </c>
     </row>
-    <row r="46" spans="1:52">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A46" s="78">
         <f t="shared" si="3"/>
         <v>43</v>
@@ -46091,7 +46139,7 @@
         <v>0.43682749866529708</v>
       </c>
     </row>
-    <row r="47" spans="1:52">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A47" s="78">
         <f t="shared" si="3"/>
         <v>44</v>
@@ -46300,7 +46348,7 @@
         <v>0.43178084733559291</v>
       </c>
     </row>
-    <row r="48" spans="1:52">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A48" s="78">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -46509,7 +46557,7 @@
         <v>0.42685170680628148</v>
       </c>
     </row>
-    <row r="49" spans="1:52">
+    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A49" s="78">
         <f t="shared" si="3"/>
         <v>46</v>
@@ -46718,7 +46766,7 @@
         <v>0.42203591721406519</v>
       </c>
     </row>
-    <row r="50" spans="1:52">
+    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A50" s="78">
         <f t="shared" si="3"/>
         <v>47</v>
@@ -46927,7 +46975,7 @@
         <v>0.41732951901522114</v>
       </c>
     </row>
-    <row r="51" spans="1:52">
+    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A51" s="78">
         <f t="shared" si="3"/>
         <v>48</v>
@@ -47136,7 +47184,7 @@
         <v>0.41272874059974574</v>
       </c>
     </row>
-    <row r="52" spans="1:52">
+    <row r="52" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A52" s="78">
         <f t="shared" si="3"/>
         <v>49</v>
@@ -47345,7 +47393,7 @@
         <v>0.40822998685489836</v>
       </c>
     </row>
-    <row r="53" spans="1:52">
+    <row r="53" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A53" s="78">
         <f t="shared" si="3"/>
         <v>50</v>
@@ -47554,7 +47602,7 @@
         <v>0.40382982859014716</v>
       </c>
     </row>
-    <row r="54" spans="1:52">
+    <row r="54" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A54" s="78">
         <f t="shared" si="3"/>
         <v>51</v>
@@ -47763,7 +47811,7 @@
         <v>0.39952499274517511</v>
       </c>
     </row>
-    <row r="55" spans="1:52">
+    <row r="55" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A55" s="78">
         <f t="shared" si="3"/>
         <v>52</v>
@@ -47972,7 +48020,7 @@
         <v>0.39531235331103515</v>
       </c>
     </row>
-    <row r="56" spans="1:52">
+    <row r="56" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A56" s="78">
         <f t="shared" si="3"/>
         <v>53</v>
@@ -48181,7 +48229,7 @@
         <v>0.39118892290191981</v>
       </c>
     </row>
-    <row r="57" spans="1:52">
+    <row r="57" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A57" s="78">
         <f t="shared" si="3"/>
         <v>54</v>
@@ -48390,7 +48438,7 @@
         <v>0.38715184492148302</v>
       </c>
     </row>
-    <row r="58" spans="1:52">
+    <row r="58" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A58" s="78">
         <f t="shared" si="3"/>
         <v>55</v>
@@ -48599,7 +48647,7 @@
         <v>0.3831983862733474</v>
       </c>
     </row>
-    <row r="59" spans="1:52">
+    <row r="59" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A59" s="78">
         <f t="shared" si="3"/>
         <v>56</v>
@@ -48808,7 +48856,7 @@
         <v>0.37932593057045705</v>
       </c>
     </row>
-    <row r="60" spans="1:52">
+    <row r="60" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A60" s="78">
         <f t="shared" si="3"/>
         <v>57</v>
@@ -49017,7 +49065,7 @@
         <v>0.37553197180237941</v>
       </c>
     </row>
-    <row r="61" spans="1:52">
+    <row r="61" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A61" s="78">
         <f t="shared" si="3"/>
         <v>58</v>
@@ -49226,7 +49274,7 @@
         <v>0.37181410842360219</v>
       </c>
     </row>
-    <row r="62" spans="1:52">
+    <row r="62" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A62" s="78">
         <f t="shared" si="3"/>
         <v>59</v>
@@ -49435,7 +49483,7 @@
         <v>0.36817003782937135</v>
       </c>
     </row>
-    <row r="63" spans="1:52">
+    <row r="63" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A63" s="78">
         <f t="shared" si="3"/>
         <v>60</v>
@@ -49644,7 +49692,7 @@
         <v>0.36459755118873494</v>
       </c>
     </row>
-    <row r="64" spans="1:52">
+    <row r="64" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A64" s="78">
         <f t="shared" si="3"/>
         <v>61</v>
@@ -49853,7 +49901,7 @@
         <v>0.36109452860724189</v>
       </c>
     </row>
-    <row r="65" spans="1:52">
+    <row r="65" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A65" s="78">
         <f t="shared" si="3"/>
         <v>62</v>
@@ -50062,7 +50110,7 @@
         <v>0.35765893459423009</v>
       </c>
     </row>
-    <row r="66" spans="1:52">
+    <row r="66" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A66" s="78">
         <f t="shared" si="3"/>
         <v>63</v>
@@ -50271,7 +50319,7 @@
         <v>0.35428881381187033</v>
       </c>
     </row>
-    <row r="67" spans="1:52">
+    <row r="67" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A67" s="78">
         <f t="shared" si="3"/>
         <v>64</v>
@@ -50480,7 +50528,7 @@
         <v>0.35098228708513207</v>
       </c>
     </row>
-    <row r="68" spans="1:52">
+    <row r="68" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A68" s="78">
         <f t="shared" si="3"/>
         <v>65</v>
@@ -50689,7 +50737,7 @@
         <v>0.3477375476536349</v>
       </c>
     </row>
-    <row r="69" spans="1:52">
+    <row r="69" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A69" s="78">
         <f t="shared" si="3"/>
         <v>66</v>
@@ -50898,7 +50946,7 @@
         <v>0.34455285764797311</v>
       </c>
     </row>
-    <row r="70" spans="1:52">
+    <row r="70" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A70" s="78">
         <f t="shared" ref="A70:A103" si="22">A69+1</f>
         <v>67</v>
@@ -51107,7 +51155,7 @@
         <v>0.34142654477455808</v>
       </c>
     </row>
-    <row r="71" spans="1:52">
+    <row r="71" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A71" s="78">
         <f t="shared" si="22"/>
         <v>68</v>
@@ -51316,7 +51364,7 @@
         <v>0.33835699919434897</v>
       </c>
     </row>
-    <row r="72" spans="1:52">
+    <row r="72" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A72" s="78">
         <f t="shared" si="22"/>
         <v>69</v>
@@ -51525,7 +51573,7 @@
         <v>0.33534267058203321</v>
       </c>
     </row>
-    <row r="73" spans="1:52">
+    <row r="73" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A73" s="78">
         <f t="shared" si="22"/>
         <v>70</v>
@@ -51734,7 +51782,7 @@
         <v>0.33238206535330334</v>
       </c>
     </row>
-    <row r="74" spans="1:52">
+    <row r="74" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A74" s="78">
         <f t="shared" si="22"/>
         <v>71</v>
@@ -51943,7 +51991,7 @@
         <v>0.32947374404886082</v>
       </c>
     </row>
-    <row r="75" spans="1:52">
+    <row r="75" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A75" s="78">
         <f t="shared" si="22"/>
         <v>72</v>
@@ -52152,7 +52200,7 @@
         <v>0.32661631886466974</v>
       </c>
     </row>
-    <row r="76" spans="1:52">
+    <row r="76" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A76" s="78">
         <f t="shared" si="22"/>
         <v>73</v>
@@ -52361,7 +52409,7 @@
         <v>0.32380845131879504</v>
       </c>
     </row>
-    <row r="77" spans="1:52">
+    <row r="77" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A77" s="78">
         <f t="shared" si="22"/>
         <v>74</v>
@@ -52570,7 +52618,7 @@
         <v>0.32104885004590483</v>
       </c>
     </row>
-    <row r="78" spans="1:52">
+    <row r="78" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A78" s="78">
         <f t="shared" si="22"/>
         <v>75</v>
@@ -52779,7 +52827,7 @@
         <v>0.31833626871118842</v>
       </c>
     </row>
-    <row r="79" spans="1:52">
+    <row r="79" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A79" s="78">
         <f t="shared" si="22"/>
         <v>76</v>
@@ -52988,7 +53036,7 @@
         <v>0.31566950403605964</v>
       </c>
     </row>
-    <row r="80" spans="1:52">
+    <row r="80" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A80" s="78">
         <f t="shared" si="22"/>
         <v>77</v>
@@ -53197,7 +53245,7 @@
         <v>0.31304739392858366</v>
       </c>
     </row>
-    <row r="81" spans="1:52">
+    <row r="81" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A81" s="78">
         <f t="shared" si="22"/>
         <v>78</v>
@@ -53406,7 +53454,7 @@
         <v>0.31046881571207507</v>
       </c>
     </row>
-    <row r="82" spans="1:52">
+    <row r="82" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A82" s="78">
         <f t="shared" si="22"/>
         <v>79</v>
@@ -53615,7 +53663,7 @@
         <v>0.3079326844457963</v>
       </c>
     </row>
-    <row r="83" spans="1:52">
+    <row r="83" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A83" s="78">
         <f t="shared" si="22"/>
         <v>80</v>
@@ -53824,7 +53872,7 @@
         <v>0.30543795133211471</v>
       </c>
     </row>
-    <row r="84" spans="1:52">
+    <row r="84" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A84" s="78">
         <f t="shared" si="22"/>
         <v>81</v>
@@ -54033,7 +54081,7 @@
         <v>0.30298360220487908</v>
       </c>
     </row>
-    <row r="85" spans="1:52">
+    <row r="85" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A85" s="78">
         <f t="shared" si="22"/>
         <v>82</v>
@@ -54242,7 +54290,7 @@
         <v>0.30056865609414096</v>
       </c>
     </row>
-    <row r="86" spans="1:52">
+    <row r="86" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A86" s="78">
         <f t="shared" si="22"/>
         <v>83</v>
@@ -54451,7 +54499,7 @@
         <v>0.29819216386268604</v>
       </c>
     </row>
-    <row r="87" spans="1:52">
+    <row r="87" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A87" s="78">
         <f t="shared" si="22"/>
         <v>84</v>
@@ -54660,7 +54708,7 @@
         <v>0.29585320691014999</v>
       </c>
     </row>
-    <row r="88" spans="1:52">
+    <row r="88" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A88" s="78">
         <f t="shared" si="22"/>
         <v>85</v>
@@ -54869,7 +54917,7 @@
         <v>0.29355089594078115</v>
       </c>
     </row>
-    <row r="89" spans="1:52">
+    <row r="89" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A89" s="78">
         <f t="shared" si="22"/>
         <v>86</v>
@@ -55078,7 +55126,7 @@
         <v>0.29128436979117783</v>
       </c>
     </row>
-    <row r="90" spans="1:52">
+    <row r="90" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A90" s="78">
         <f t="shared" si="22"/>
         <v>87</v>
@@ -55287,7 +55335,7 @@
         <v>0.28905279431456948</v>
       </c>
     </row>
-    <row r="91" spans="1:52">
+    <row r="91" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A91" s="78">
         <f t="shared" si="22"/>
         <v>88</v>
@@ -55496,7 +55544,7 @@
         <v>0.28685536131844031</v>
       </c>
     </row>
-    <row r="92" spans="1:52">
+    <row r="92" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A92" s="78">
         <f t="shared" si="22"/>
         <v>89</v>
@@ -55705,7 +55753,7 @@
         <v>0.28469128755250095</v>
       </c>
     </row>
-    <row r="93" spans="1:52">
+    <row r="93" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A93" s="78">
         <f t="shared" si="22"/>
         <v>90</v>
@@ -55914,7 +55962,7 @@
         <v>0.28255981374420847</v>
       </c>
     </row>
-    <row r="94" spans="1:52">
+    <row r="94" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A94" s="78">
         <f t="shared" si="22"/>
         <v>91</v>
@@ -56123,7 +56171,7 @@
         <v>0.28046020367921182</v>
       </c>
     </row>
-    <row r="95" spans="1:52">
+    <row r="95" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A95" s="78">
         <f t="shared" si="22"/>
         <v>92</v>
@@ -56332,7 +56380,7 @@
         <v>0.27839174332427152</v>
       </c>
     </row>
-    <row r="96" spans="1:52">
+    <row r="96" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A96" s="78">
         <f t="shared" si="22"/>
         <v>93</v>
@@ -56541,7 +56589,7 @@
         <v>0.27635373999034968</v>
       </c>
     </row>
-    <row r="97" spans="1:52">
+    <row r="97" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A97" s="78">
         <f t="shared" si="22"/>
         <v>94</v>
@@ -56750,7 +56798,7 @@
         <v>0.27434552153371461</v>
       </c>
     </row>
-    <row r="98" spans="1:52">
+    <row r="98" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A98" s="78">
         <f t="shared" si="22"/>
         <v>95</v>
@@ -56959,7 +57007,7 @@
         <v>0.27236643559303747</v>
       </c>
     </row>
-    <row r="99" spans="1:52">
+    <row r="99" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A99" s="78">
         <f t="shared" si="22"/>
         <v>96</v>
@@ -57168,7 +57216,7 @@
         <v>0.27041584886057934</v>
       </c>
     </row>
-    <row r="100" spans="1:52">
+    <row r="100" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A100" s="78">
         <f t="shared" si="22"/>
         <v>97</v>
@@ -57377,7 +57425,7 @@
         <v>0.26849314638568411</v>
       </c>
     </row>
-    <row r="101" spans="1:52">
+    <row r="101" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A101" s="78">
         <f t="shared" si="22"/>
         <v>98</v>
@@ -57586,7 +57634,7 @@
         <v>0.26659773090890115</v>
       </c>
     </row>
-    <row r="102" spans="1:52">
+    <row r="102" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A102" s="78">
         <f t="shared" si="22"/>
         <v>99</v>
@@ -57795,7 +57843,7 @@
         <v>0.26472902222515887</v>
       </c>
     </row>
-    <row r="103" spans="1:52">
+    <row r="103" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A103" s="78">
         <f t="shared" si="22"/>
         <v>100</v>
@@ -58004,7 +58052,7 @@
         <v>0.26288645657450682</v>
       </c>
     </row>
-    <row r="104" spans="1:52">
+    <row r="104" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C104" s="38"/>
       <c r="D104" s="38"/>
       <c r="E104" s="38"/>
@@ -58056,7 +58104,7 @@
       <c r="AY104" s="38"/>
       <c r="AZ104" s="61"/>
     </row>
-    <row r="105" spans="1:52">
+    <row r="105" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C105" s="38"/>
       <c r="D105" s="38"/>
       <c r="E105" s="38"/>
@@ -58108,7 +58156,7 @@
       <c r="AY105" s="38"/>
       <c r="AZ105" s="61"/>
     </row>
-    <row r="106" spans="1:52">
+    <row r="106" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C106" s="38"/>
       <c r="D106" s="38"/>
       <c r="E106" s="38"/>
@@ -58160,7 +58208,7 @@
       <c r="AY106" s="38"/>
       <c r="AZ106" s="61"/>
     </row>
-    <row r="107" spans="1:52">
+    <row r="107" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C107" s="38"/>
       <c r="D107" s="38"/>
       <c r="E107" s="38"/>
@@ -58212,7 +58260,7 @@
       <c r="AY107" s="38"/>
       <c r="AZ107" s="61"/>
     </row>
-    <row r="108" spans="1:52">
+    <row r="108" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C108" s="38"/>
       <c r="D108" s="38"/>
       <c r="E108" s="38"/>
@@ -58264,7 +58312,7 @@
       <c r="AY108" s="38"/>
       <c r="AZ108" s="61"/>
     </row>
-    <row r="109" spans="1:52">
+    <row r="109" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C109" s="38"/>
       <c r="D109" s="38"/>
       <c r="E109" s="38"/>
@@ -58316,7 +58364,7 @@
       <c r="AY109" s="38"/>
       <c r="AZ109" s="61"/>
     </row>
-    <row r="110" spans="1:52">
+    <row r="110" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C110" s="38"/>
       <c r="D110" s="38"/>
       <c r="E110" s="38"/>
@@ -58368,7 +58416,7 @@
       <c r="AY110" s="38"/>
       <c r="AZ110" s="61"/>
     </row>
-    <row r="111" spans="1:52">
+    <row r="111" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C111" s="38"/>
       <c r="D111" s="38"/>
       <c r="E111" s="38"/>
@@ -58420,7 +58468,7 @@
       <c r="AY111" s="38"/>
       <c r="AZ111" s="61"/>
     </row>
-    <row r="112" spans="1:52">
+    <row r="112" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C112" s="38"/>
       <c r="D112" s="38"/>
       <c r="E112" s="38"/>
@@ -58472,7 +58520,7 @@
       <c r="AY112" s="38"/>
       <c r="AZ112" s="61"/>
     </row>
-    <row r="113" spans="3:52">
+    <row r="113" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C113" s="38"/>
       <c r="D113" s="38"/>
       <c r="E113" s="38"/>
@@ -58524,7 +58572,7 @@
       <c r="AY113" s="38"/>
       <c r="AZ113" s="61"/>
     </row>
-    <row r="114" spans="3:52">
+    <row r="114" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C114" s="38"/>
       <c r="D114" s="38"/>
       <c r="E114" s="38"/>
@@ -58576,7 +58624,7 @@
       <c r="AY114" s="38"/>
       <c r="AZ114" s="61"/>
     </row>
-    <row r="115" spans="3:52">
+    <row r="115" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C115" s="38"/>
       <c r="D115" s="38"/>
       <c r="E115" s="38"/>
@@ -58628,7 +58676,7 @@
       <c r="AY115" s="38"/>
       <c r="AZ115" s="61"/>
     </row>
-    <row r="116" spans="3:52">
+    <row r="116" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C116" s="38"/>
       <c r="D116" s="38"/>
       <c r="E116" s="38"/>
@@ -58680,7 +58728,7 @@
       <c r="AY116" s="38"/>
       <c r="AZ116" s="61"/>
     </row>
-    <row r="117" spans="3:52">
+    <row r="117" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C117" s="38"/>
       <c r="D117" s="38"/>
       <c r="E117" s="38"/>
@@ -58732,7 +58780,7 @@
       <c r="AY117" s="38"/>
       <c r="AZ117" s="61"/>
     </row>
-    <row r="118" spans="3:52">
+    <row r="118" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C118" s="38"/>
       <c r="D118" s="38"/>
       <c r="E118" s="38"/>
@@ -58784,7 +58832,7 @@
       <c r="AY118" s="38"/>
       <c r="AZ118" s="61"/>
     </row>
-    <row r="119" spans="3:52">
+    <row r="119" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C119" s="38"/>
       <c r="D119" s="38"/>
       <c r="E119" s="38"/>
@@ -58836,7 +58884,7 @@
       <c r="AY119" s="38"/>
       <c r="AZ119" s="61"/>
     </row>
-    <row r="120" spans="3:52">
+    <row r="120" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C120" s="38"/>
       <c r="D120" s="38"/>
       <c r="E120" s="38"/>
@@ -58888,7 +58936,7 @@
       <c r="AY120" s="38"/>
       <c r="AZ120" s="61"/>
     </row>
-    <row r="121" spans="3:52">
+    <row r="121" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C121" s="38"/>
       <c r="D121" s="38"/>
       <c r="E121" s="38"/>
@@ -58940,7 +58988,7 @@
       <c r="AY121" s="38"/>
       <c r="AZ121" s="61"/>
     </row>
-    <row r="122" spans="3:52">
+    <row r="122" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C122" s="38"/>
       <c r="D122" s="38"/>
       <c r="E122" s="38"/>
@@ -58992,7 +59040,7 @@
       <c r="AY122" s="38"/>
       <c r="AZ122" s="61"/>
     </row>
-    <row r="123" spans="3:52">
+    <row r="123" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C123" s="38"/>
       <c r="D123" s="38"/>
       <c r="E123" s="38"/>
@@ -59044,7 +59092,7 @@
       <c r="AY123" s="38"/>
       <c r="AZ123" s="61"/>
     </row>
-    <row r="124" spans="3:52">
+    <row r="124" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C124" s="38"/>
       <c r="D124" s="38"/>
       <c r="E124" s="38"/>
@@ -59096,7 +59144,7 @@
       <c r="AY124" s="38"/>
       <c r="AZ124" s="61"/>
     </row>
-    <row r="125" spans="3:52">
+    <row r="125" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C125" s="38"/>
       <c r="D125" s="38"/>
       <c r="E125" s="38"/>
@@ -59148,7 +59196,7 @@
       <c r="AY125" s="38"/>
       <c r="AZ125" s="61"/>
     </row>
-    <row r="126" spans="3:52">
+    <row r="126" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C126" s="38"/>
       <c r="D126" s="38"/>
       <c r="E126" s="38"/>
@@ -59200,7 +59248,7 @@
       <c r="AY126" s="38"/>
       <c r="AZ126" s="61"/>
     </row>
-    <row r="127" spans="3:52">
+    <row r="127" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C127" s="38"/>
       <c r="D127" s="38"/>
       <c r="E127" s="38"/>
@@ -59252,7 +59300,7 @@
       <c r="AY127" s="38"/>
       <c r="AZ127" s="61"/>
     </row>
-    <row r="128" spans="3:52">
+    <row r="128" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C128" s="38"/>
       <c r="D128" s="38"/>
       <c r="E128" s="38"/>
@@ -59304,7 +59352,7 @@
       <c r="AY128" s="38"/>
       <c r="AZ128" s="61"/>
     </row>
-    <row r="129" spans="3:52">
+    <row r="129" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C129" s="38"/>
       <c r="D129" s="38"/>
       <c r="E129" s="38"/>
@@ -59356,7 +59404,7 @@
       <c r="AY129" s="38"/>
       <c r="AZ129" s="61"/>
     </row>
-    <row r="130" spans="3:52">
+    <row r="130" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C130" s="38"/>
       <c r="D130" s="38"/>
       <c r="E130" s="38"/>
@@ -59408,7 +59456,7 @@
       <c r="AY130" s="38"/>
       <c r="AZ130" s="61"/>
     </row>
-    <row r="131" spans="3:52">
+    <row r="131" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C131" s="38"/>
       <c r="D131" s="38"/>
       <c r="E131" s="38"/>
@@ -59460,7 +59508,7 @@
       <c r="AY131" s="38"/>
       <c r="AZ131" s="61"/>
     </row>
-    <row r="132" spans="3:52">
+    <row r="132" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C132" s="38"/>
       <c r="D132" s="38"/>
       <c r="E132" s="38"/>
@@ -59512,7 +59560,7 @@
       <c r="AY132" s="38"/>
       <c r="AZ132" s="61"/>
     </row>
-    <row r="133" spans="3:52">
+    <row r="133" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C133" s="38"/>
       <c r="D133" s="38"/>
       <c r="E133" s="38"/>
@@ -59564,7 +59612,7 @@
       <c r="AY133" s="38"/>
       <c r="AZ133" s="61"/>
     </row>
-    <row r="134" spans="3:52">
+    <row r="134" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C134" s="38"/>
       <c r="D134" s="38"/>
       <c r="E134" s="38"/>
@@ -59616,7 +59664,7 @@
       <c r="AY134" s="38"/>
       <c r="AZ134" s="61"/>
     </row>
-    <row r="135" spans="3:52">
+    <row r="135" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C135" s="38"/>
       <c r="D135" s="38"/>
       <c r="E135" s="38"/>
@@ -59668,7 +59716,7 @@
       <c r="AY135" s="38"/>
       <c r="AZ135" s="61"/>
     </row>
-    <row r="136" spans="3:52">
+    <row r="136" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C136" s="38"/>
       <c r="D136" s="38"/>
       <c r="E136" s="38"/>
@@ -59720,7 +59768,7 @@
       <c r="AY136" s="38"/>
       <c r="AZ136" s="61"/>
     </row>
-    <row r="137" spans="3:52">
+    <row r="137" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C137" s="38"/>
       <c r="D137" s="38"/>
       <c r="E137" s="38"/>
@@ -59772,7 +59820,7 @@
       <c r="AY137" s="38"/>
       <c r="AZ137" s="61"/>
     </row>
-    <row r="138" spans="3:52">
+    <row r="138" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C138" s="38"/>
       <c r="D138" s="38"/>
       <c r="E138" s="38"/>
@@ -59824,7 +59872,7 @@
       <c r="AY138" s="38"/>
       <c r="AZ138" s="61"/>
     </row>
-    <row r="139" spans="3:52">
+    <row r="139" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C139" s="38"/>
       <c r="D139" s="38"/>
       <c r="E139" s="38"/>
@@ -59876,7 +59924,7 @@
       <c r="AY139" s="38"/>
       <c r="AZ139" s="61"/>
     </row>
-    <row r="140" spans="3:52">
+    <row r="140" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C140" s="38"/>
       <c r="D140" s="38"/>
       <c r="E140" s="38"/>
@@ -59928,7 +59976,7 @@
       <c r="AY140" s="38"/>
       <c r="AZ140" s="61"/>
     </row>
-    <row r="141" spans="3:52">
+    <row r="141" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C141" s="38"/>
       <c r="D141" s="38"/>
       <c r="E141" s="38"/>
@@ -59980,7 +60028,7 @@
       <c r="AY141" s="38"/>
       <c r="AZ141" s="61"/>
     </row>
-    <row r="142" spans="3:52">
+    <row r="142" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C142" s="38"/>
       <c r="D142" s="38"/>
       <c r="E142" s="38"/>
@@ -60032,7 +60080,7 @@
       <c r="AY142" s="38"/>
       <c r="AZ142" s="61"/>
     </row>
-    <row r="143" spans="3:52">
+    <row r="143" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C143" s="38"/>
       <c r="D143" s="38"/>
       <c r="E143" s="38"/>
@@ -60084,7 +60132,7 @@
       <c r="AY143" s="38"/>
       <c r="AZ143" s="61"/>
     </row>
-    <row r="144" spans="3:52">
+    <row r="144" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C144" s="38"/>
       <c r="D144" s="38"/>
       <c r="E144" s="38"/>
@@ -60136,7 +60184,7 @@
       <c r="AY144" s="38"/>
       <c r="AZ144" s="61"/>
     </row>
-    <row r="145" spans="3:52">
+    <row r="145" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C145" s="38"/>
       <c r="D145" s="38"/>
       <c r="E145" s="38"/>
@@ -60188,7 +60236,7 @@
       <c r="AY145" s="38"/>
       <c r="AZ145" s="61"/>
     </row>
-    <row r="146" spans="3:52">
+    <row r="146" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C146" s="38"/>
       <c r="D146" s="38"/>
       <c r="E146" s="38"/>
@@ -60240,7 +60288,7 @@
       <c r="AY146" s="38"/>
       <c r="AZ146" s="61"/>
     </row>
-    <row r="147" spans="3:52">
+    <row r="147" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C147" s="38"/>
       <c r="D147" s="38"/>
       <c r="E147" s="38"/>
@@ -60292,7 +60340,7 @@
       <c r="AY147" s="38"/>
       <c r="AZ147" s="61"/>
     </row>
-    <row r="148" spans="3:52">
+    <row r="148" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C148" s="38"/>
       <c r="D148" s="38"/>
       <c r="E148" s="38"/>
@@ -60344,7 +60392,7 @@
       <c r="AY148" s="38"/>
       <c r="AZ148" s="61"/>
     </row>
-    <row r="149" spans="3:52">
+    <row r="149" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C149" s="38"/>
       <c r="D149" s="38"/>
       <c r="E149" s="38"/>
@@ -60396,7 +60444,7 @@
       <c r="AY149" s="38"/>
       <c r="AZ149" s="61"/>
     </row>
-    <row r="150" spans="3:52">
+    <row r="150" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C150" s="38"/>
       <c r="D150" s="38"/>
       <c r="E150" s="38"/>
@@ -60448,7 +60496,7 @@
       <c r="AY150" s="38"/>
       <c r="AZ150" s="61"/>
     </row>
-    <row r="151" spans="3:52">
+    <row r="151" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C151" s="38"/>
       <c r="D151" s="38"/>
       <c r="E151" s="38"/>
@@ -60500,7 +60548,7 @@
       <c r="AY151" s="38"/>
       <c r="AZ151" s="61"/>
     </row>
-    <row r="152" spans="3:52">
+    <row r="152" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C152" s="38"/>
       <c r="D152" s="38"/>
       <c r="E152" s="38"/>
@@ -60552,7 +60600,7 @@
       <c r="AY152" s="38"/>
       <c r="AZ152" s="61"/>
     </row>
-    <row r="153" spans="3:52">
+    <row r="153" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C153" s="38"/>
       <c r="D153" s="38"/>
       <c r="E153" s="38"/>
@@ -60604,7 +60652,7 @@
       <c r="AY153" s="38"/>
       <c r="AZ153" s="61"/>
     </row>
-    <row r="154" spans="3:52">
+    <row r="154" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C154" s="38"/>
       <c r="D154" s="38"/>
       <c r="E154" s="38"/>
@@ -60656,7 +60704,7 @@
       <c r="AY154" s="38"/>
       <c r="AZ154" s="61"/>
     </row>
-    <row r="155" spans="3:52">
+    <row r="155" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C155" s="38"/>
       <c r="D155" s="38"/>
       <c r="E155" s="38"/>
@@ -60708,7 +60756,7 @@
       <c r="AY155" s="38"/>
       <c r="AZ155" s="61"/>
     </row>
-    <row r="156" spans="3:52">
+    <row r="156" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C156" s="38"/>
       <c r="D156" s="38"/>
       <c r="E156" s="38"/>
@@ -60760,7 +60808,7 @@
       <c r="AY156" s="38"/>
       <c r="AZ156" s="61"/>
     </row>
-    <row r="157" spans="3:52">
+    <row r="157" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C157" s="38"/>
       <c r="D157" s="38"/>
       <c r="E157" s="38"/>
@@ -60812,7 +60860,7 @@
       <c r="AY157" s="38"/>
       <c r="AZ157" s="61"/>
     </row>
-    <row r="158" spans="3:52">
+    <row r="158" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C158" s="38"/>
       <c r="D158" s="38"/>
       <c r="E158" s="38"/>
@@ -60864,7 +60912,7 @@
       <c r="AY158" s="38"/>
       <c r="AZ158" s="61"/>
     </row>
-    <row r="159" spans="3:52">
+    <row r="159" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C159" s="38"/>
       <c r="D159" s="38"/>
       <c r="E159" s="38"/>
@@ -60916,7 +60964,7 @@
       <c r="AY159" s="38"/>
       <c r="AZ159" s="61"/>
     </row>
-    <row r="160" spans="3:52">
+    <row r="160" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C160" s="38"/>
       <c r="D160" s="38"/>
       <c r="E160" s="38"/>
@@ -60968,7 +61016,7 @@
       <c r="AY160" s="38"/>
       <c r="AZ160" s="61"/>
     </row>
-    <row r="161" spans="3:52">
+    <row r="161" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C161" s="38"/>
       <c r="D161" s="38"/>
       <c r="E161" s="38"/>
@@ -61020,7 +61068,7 @@
       <c r="AY161" s="38"/>
       <c r="AZ161" s="61"/>
     </row>
-    <row r="162" spans="3:52">
+    <row r="162" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C162" s="38"/>
       <c r="D162" s="38"/>
       <c r="E162" s="38"/>
@@ -61072,7 +61120,7 @@
       <c r="AY162" s="38"/>
       <c r="AZ162" s="61"/>
     </row>
-    <row r="163" spans="3:52">
+    <row r="163" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C163" s="38"/>
       <c r="D163" s="38"/>
       <c r="E163" s="38"/>
@@ -61124,7 +61172,7 @@
       <c r="AY163" s="38"/>
       <c r="AZ163" s="61"/>
     </row>
-    <row r="164" spans="3:52">
+    <row r="164" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C164" s="38"/>
       <c r="D164" s="38"/>
       <c r="E164" s="38"/>
@@ -61176,7 +61224,7 @@
       <c r="AY164" s="38"/>
       <c r="AZ164" s="61"/>
     </row>
-    <row r="165" spans="3:52">
+    <row r="165" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C165" s="38"/>
       <c r="D165" s="38"/>
       <c r="E165" s="38"/>
@@ -61228,7 +61276,7 @@
       <c r="AY165" s="38"/>
       <c r="AZ165" s="61"/>
     </row>
-    <row r="166" spans="3:52">
+    <row r="166" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C166" s="38"/>
       <c r="D166" s="38"/>
       <c r="E166" s="38"/>
@@ -61280,7 +61328,7 @@
       <c r="AY166" s="38"/>
       <c r="AZ166" s="61"/>
     </row>
-    <row r="167" spans="3:52">
+    <row r="167" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C167" s="38"/>
       <c r="D167" s="38"/>
       <c r="E167" s="38"/>
@@ -61332,7 +61380,7 @@
       <c r="AY167" s="38"/>
       <c r="AZ167" s="61"/>
     </row>
-    <row r="168" spans="3:52">
+    <row r="168" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C168" s="38"/>
       <c r="D168" s="38"/>
       <c r="E168" s="38"/>
@@ -61384,7 +61432,7 @@
       <c r="AY168" s="38"/>
       <c r="AZ168" s="61"/>
     </row>
-    <row r="169" spans="3:52">
+    <row r="169" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C169" s="38"/>
       <c r="D169" s="38"/>
       <c r="E169" s="38"/>
@@ -61436,7 +61484,7 @@
       <c r="AY169" s="38"/>
       <c r="AZ169" s="61"/>
     </row>
-    <row r="170" spans="3:52">
+    <row r="170" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C170" s="38"/>
       <c r="D170" s="38"/>
       <c r="E170" s="38"/>
@@ -61488,7 +61536,7 @@
       <c r="AY170" s="38"/>
       <c r="AZ170" s="61"/>
     </row>
-    <row r="171" spans="3:52">
+    <row r="171" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C171" s="38"/>
       <c r="D171" s="38"/>
       <c r="E171" s="38"/>
@@ -61540,7 +61588,7 @@
       <c r="AY171" s="38"/>
       <c r="AZ171" s="61"/>
     </row>
-    <row r="172" spans="3:52">
+    <row r="172" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C172" s="38"/>
       <c r="D172" s="38"/>
       <c r="E172" s="38"/>
@@ -61592,7 +61640,7 @@
       <c r="AY172" s="38"/>
       <c r="AZ172" s="61"/>
     </row>
-    <row r="173" spans="3:52">
+    <row r="173" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C173" s="38"/>
       <c r="D173" s="38"/>
       <c r="E173" s="38"/>
@@ -61644,7 +61692,7 @@
       <c r="AY173" s="38"/>
       <c r="AZ173" s="61"/>
     </row>
-    <row r="174" spans="3:52">
+    <row r="174" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C174" s="38"/>
       <c r="D174" s="38"/>
       <c r="E174" s="38"/>
@@ -61696,7 +61744,7 @@
       <c r="AY174" s="38"/>
       <c r="AZ174" s="61"/>
     </row>
-    <row r="175" spans="3:52">
+    <row r="175" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C175" s="38"/>
       <c r="D175" s="38"/>
       <c r="E175" s="38"/>
@@ -61748,7 +61796,7 @@
       <c r="AY175" s="38"/>
       <c r="AZ175" s="61"/>
     </row>
-    <row r="176" spans="3:52">
+    <row r="176" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C176" s="38"/>
       <c r="D176" s="38"/>
       <c r="E176" s="38"/>
@@ -61800,7 +61848,7 @@
       <c r="AY176" s="38"/>
       <c r="AZ176" s="61"/>
     </row>
-    <row r="177" spans="3:52">
+    <row r="177" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C177" s="38"/>
       <c r="D177" s="38"/>
       <c r="E177" s="38"/>
@@ -61852,7 +61900,7 @@
       <c r="AY177" s="38"/>
       <c r="AZ177" s="61"/>
     </row>
-    <row r="178" spans="3:52">
+    <row r="178" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C178" s="38"/>
       <c r="D178" s="38"/>
       <c r="E178" s="38"/>
@@ -61904,7 +61952,7 @@
       <c r="AY178" s="38"/>
       <c r="AZ178" s="61"/>
     </row>
-    <row r="179" spans="3:52">
+    <row r="179" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C179" s="38"/>
       <c r="D179" s="38"/>
       <c r="E179" s="38"/>
@@ -61956,7 +62004,7 @@
       <c r="AY179" s="38"/>
       <c r="AZ179" s="61"/>
     </row>
-    <row r="180" spans="3:52">
+    <row r="180" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C180" s="38"/>
       <c r="D180" s="38"/>
       <c r="E180" s="38"/>
@@ -62008,7 +62056,7 @@
       <c r="AY180" s="38"/>
       <c r="AZ180" s="61"/>
     </row>
-    <row r="181" spans="3:52">
+    <row r="181" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C181" s="38"/>
       <c r="D181" s="38"/>
       <c r="E181" s="38"/>
@@ -62060,7 +62108,7 @@
       <c r="AY181" s="38"/>
       <c r="AZ181" s="61"/>
     </row>
-    <row r="182" spans="3:52">
+    <row r="182" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C182" s="38"/>
       <c r="D182" s="38"/>
       <c r="E182" s="38"/>
@@ -62112,7 +62160,7 @@
       <c r="AY182" s="38"/>
       <c r="AZ182" s="61"/>
     </row>
-    <row r="183" spans="3:52">
+    <row r="183" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C183" s="38"/>
       <c r="D183" s="38"/>
       <c r="E183" s="38"/>
@@ -62164,7 +62212,7 @@
       <c r="AY183" s="38"/>
       <c r="AZ183" s="61"/>
     </row>
-    <row r="184" spans="3:52">
+    <row r="184" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C184" s="38"/>
       <c r="D184" s="38"/>
       <c r="E184" s="38"/>
@@ -62216,7 +62264,7 @@
       <c r="AY184" s="38"/>
       <c r="AZ184" s="61"/>
     </row>
-    <row r="185" spans="3:52">
+    <row r="185" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C185" s="38"/>
       <c r="D185" s="38"/>
       <c r="E185" s="38"/>
@@ -62268,7 +62316,7 @@
       <c r="AY185" s="38"/>
       <c r="AZ185" s="61"/>
     </row>
-    <row r="186" spans="3:52">
+    <row r="186" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C186" s="38"/>
       <c r="D186" s="38"/>
       <c r="E186" s="38"/>
@@ -62320,7 +62368,7 @@
       <c r="AY186" s="38"/>
       <c r="AZ186" s="61"/>
     </row>
-    <row r="187" spans="3:52">
+    <row r="187" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C187" s="38"/>
       <c r="D187" s="38"/>
       <c r="E187" s="38"/>
@@ -62372,7 +62420,7 @@
       <c r="AY187" s="38"/>
       <c r="AZ187" s="61"/>
     </row>
-    <row r="188" spans="3:52">
+    <row r="188" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C188" s="38"/>
       <c r="D188" s="38"/>
       <c r="E188" s="38"/>
@@ -62424,7 +62472,7 @@
       <c r="AY188" s="38"/>
       <c r="AZ188" s="61"/>
     </row>
-    <row r="189" spans="3:52">
+    <row r="189" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C189" s="38"/>
       <c r="D189" s="38"/>
       <c r="E189" s="38"/>
@@ -62476,7 +62524,7 @@
       <c r="AY189" s="38"/>
       <c r="AZ189" s="61"/>
     </row>
-    <row r="190" spans="3:52">
+    <row r="190" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C190" s="38"/>
       <c r="D190" s="38"/>
       <c r="E190" s="38"/>
@@ -62528,7 +62576,7 @@
       <c r="AY190" s="38"/>
       <c r="AZ190" s="61"/>
     </row>
-    <row r="191" spans="3:52">
+    <row r="191" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C191" s="38"/>
       <c r="D191" s="38"/>
       <c r="E191" s="38"/>
@@ -62580,7 +62628,7 @@
       <c r="AY191" s="38"/>
       <c r="AZ191" s="61"/>
     </row>
-    <row r="192" spans="3:52">
+    <row r="192" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C192" s="38"/>
       <c r="D192" s="38"/>
       <c r="E192" s="38"/>
@@ -62632,7 +62680,7 @@
       <c r="AY192" s="38"/>
       <c r="AZ192" s="61"/>
     </row>
-    <row r="193" spans="3:52">
+    <row r="193" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C193" s="38"/>
       <c r="D193" s="38"/>
       <c r="E193" s="38"/>
@@ -62684,7 +62732,7 @@
       <c r="AY193" s="38"/>
       <c r="AZ193" s="61"/>
     </row>
-    <row r="194" spans="3:52">
+    <row r="194" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C194" s="38"/>
       <c r="D194" s="38"/>
       <c r="E194" s="38"/>
@@ -62736,7 +62784,7 @@
       <c r="AY194" s="38"/>
       <c r="AZ194" s="61"/>
     </row>
-    <row r="195" spans="3:52">
+    <row r="195" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C195" s="38"/>
       <c r="D195" s="38"/>
       <c r="E195" s="38"/>
@@ -62788,7 +62836,7 @@
       <c r="AY195" s="38"/>
       <c r="AZ195" s="61"/>
     </row>
-    <row r="196" spans="3:52">
+    <row r="196" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C196" s="38"/>
       <c r="D196" s="38"/>
       <c r="E196" s="38"/>
@@ -62840,7 +62888,7 @@
       <c r="AY196" s="38"/>
       <c r="AZ196" s="61"/>
     </row>
-    <row r="197" spans="3:52">
+    <row r="197" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C197" s="38"/>
       <c r="D197" s="38"/>
       <c r="E197" s="38"/>
@@ -62892,7 +62940,7 @@
       <c r="AY197" s="38"/>
       <c r="AZ197" s="61"/>
     </row>
-    <row r="198" spans="3:52">
+    <row r="198" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C198" s="38"/>
       <c r="D198" s="38"/>
       <c r="E198" s="38"/>
@@ -62944,7 +62992,7 @@
       <c r="AY198" s="38"/>
       <c r="AZ198" s="61"/>
     </row>
-    <row r="199" spans="3:52">
+    <row r="199" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C199" s="38"/>
       <c r="D199" s="38"/>
       <c r="E199" s="38"/>
@@ -62996,7 +63044,7 @@
       <c r="AY199" s="38"/>
       <c r="AZ199" s="61"/>
     </row>
-    <row r="200" spans="3:52">
+    <row r="200" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C200" s="38"/>
       <c r="D200" s="38"/>
       <c r="E200" s="38"/>
@@ -63048,7 +63096,7 @@
       <c r="AY200" s="38"/>
       <c r="AZ200" s="61"/>
     </row>
-    <row r="201" spans="3:52">
+    <row r="201" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C201" s="38"/>
       <c r="D201" s="38"/>
       <c r="E201" s="38"/>
@@ -63100,7 +63148,7 @@
       <c r="AY201" s="38"/>
       <c r="AZ201" s="61"/>
     </row>
-    <row r="202" spans="3:52">
+    <row r="202" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C202" s="38"/>
       <c r="D202" s="38"/>
       <c r="E202" s="38"/>
@@ -63152,7 +63200,7 @@
       <c r="AY202" s="38"/>
       <c r="AZ202" s="61"/>
     </row>
-    <row r="203" spans="3:52">
+    <row r="203" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C203" s="38"/>
       <c r="D203" s="38"/>
       <c r="E203" s="38"/>
@@ -63204,7 +63252,7 @@
       <c r="AY203" s="38"/>
       <c r="AZ203" s="61"/>
     </row>
-    <row r="204" spans="3:52">
+    <row r="204" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C204" s="38"/>
       <c r="D204" s="38"/>
       <c r="E204" s="38"/>
@@ -63231,7 +63279,7 @@
       <c r="Z204" s="38"/>
       <c r="AA204" s="38"/>
     </row>
-    <row r="205" spans="3:52">
+    <row r="205" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C205" s="38"/>
       <c r="D205" s="38"/>
       <c r="E205" s="38"/>
@@ -63258,7 +63306,7 @@
       <c r="Z205" s="38"/>
       <c r="AA205" s="38"/>
     </row>
-    <row r="206" spans="3:52">
+    <row r="206" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C206" s="38"/>
       <c r="D206" s="38"/>
       <c r="E206" s="38"/>
@@ -63285,7 +63333,7 @@
       <c r="Z206" s="38"/>
       <c r="AA206" s="38"/>
     </row>
-    <row r="207" spans="3:52">
+    <row r="207" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C207" s="38"/>
       <c r="D207" s="38"/>
       <c r="E207" s="38"/>
@@ -63312,7 +63360,7 @@
       <c r="Z207" s="38"/>
       <c r="AA207" s="38"/>
     </row>
-    <row r="208" spans="3:52">
+    <row r="208" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C208" s="38"/>
       <c r="D208" s="38"/>
       <c r="E208" s="38"/>
@@ -63339,7 +63387,7 @@
       <c r="Z208" s="38"/>
       <c r="AA208" s="38"/>
     </row>
-    <row r="209" spans="3:27">
+    <row r="209" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C209" s="38"/>
       <c r="D209" s="38"/>
       <c r="E209" s="38"/>
@@ -63366,7 +63414,7 @@
       <c r="Z209" s="38"/>
       <c r="AA209" s="38"/>
     </row>
-    <row r="210" spans="3:27">
+    <row r="210" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C210" s="38"/>
       <c r="D210" s="38"/>
       <c r="E210" s="38"/>
@@ -63393,7 +63441,7 @@
       <c r="Z210" s="38"/>
       <c r="AA210" s="38"/>
     </row>
-    <row r="211" spans="3:27">
+    <row r="211" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C211" s="38"/>
       <c r="D211" s="38"/>
       <c r="E211" s="38"/>
@@ -63420,7 +63468,7 @@
       <c r="Z211" s="38"/>
       <c r="AA211" s="38"/>
     </row>
-    <row r="212" spans="3:27">
+    <row r="212" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C212" s="38"/>
       <c r="D212" s="38"/>
       <c r="E212" s="38"/>
@@ -63447,7 +63495,7 @@
       <c r="Z212" s="38"/>
       <c r="AA212" s="38"/>
     </row>
-    <row r="213" spans="3:27">
+    <row r="213" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C213" s="38"/>
       <c r="D213" s="38"/>
       <c r="E213" s="38"/>
@@ -63474,7 +63522,7 @@
       <c r="Z213" s="38"/>
       <c r="AA213" s="38"/>
     </row>
-    <row r="214" spans="3:27">
+    <row r="214" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C214" s="38"/>
       <c r="D214" s="38"/>
       <c r="E214" s="38"/>
@@ -63501,7 +63549,7 @@
       <c r="Z214" s="38"/>
       <c r="AA214" s="38"/>
     </row>
-    <row r="215" spans="3:27">
+    <row r="215" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C215" s="38"/>
       <c r="D215" s="38"/>
       <c r="E215" s="38"/>
@@ -63528,7 +63576,7 @@
       <c r="Z215" s="38"/>
       <c r="AA215" s="38"/>
     </row>
-    <row r="216" spans="3:27">
+    <row r="216" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C216" s="38"/>
       <c r="D216" s="38"/>
       <c r="E216" s="38"/>
@@ -63555,7 +63603,7 @@
       <c r="Z216" s="38"/>
       <c r="AA216" s="38"/>
     </row>
-    <row r="217" spans="3:27">
+    <row r="217" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C217" s="38"/>
       <c r="D217" s="38"/>
       <c r="E217" s="38"/>
@@ -63582,7 +63630,7 @@
       <c r="Z217" s="38"/>
       <c r="AA217" s="38"/>
     </row>
-    <row r="218" spans="3:27">
+    <row r="218" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C218" s="38"/>
       <c r="D218" s="38"/>
       <c r="E218" s="38"/>
@@ -63609,7 +63657,7 @@
       <c r="Z218" s="38"/>
       <c r="AA218" s="38"/>
     </row>
-    <row r="219" spans="3:27">
+    <row r="219" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C219" s="38"/>
       <c r="D219" s="38"/>
       <c r="E219" s="38"/>
@@ -63636,7 +63684,7 @@
       <c r="Z219" s="38"/>
       <c r="AA219" s="38"/>
     </row>
-    <row r="220" spans="3:27">
+    <row r="220" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C220" s="38"/>
       <c r="D220" s="38"/>
       <c r="E220" s="38"/>
@@ -63672,29 +63720,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IU49"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="198" t="s">
         <v>116</v>
       </c>
@@ -63953,7 +64001,7 @@
       <c r="IT1" s="198"/>
       <c r="IU1" s="198"/>
     </row>
-    <row r="2" spans="1:255" ht="15" thickBot="1">
+    <row r="2" spans="1:255" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="201" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -63969,7 +64017,7 @@
       <c r="J2" s="201"/>
       <c r="K2" s="201"/>
     </row>
-    <row r="3" spans="1:255" ht="15" customHeight="1">
+    <row r="3" spans="1:255" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="202" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -64010,7 +64058,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:255" ht="15" thickBot="1">
+    <row r="4" spans="1:255" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="203"/>
       <c r="B4" s="205"/>
       <c r="C4" s="207"/>
@@ -64023,7 +64071,7 @@
       <c r="J4" s="216"/>
       <c r="K4" s="213"/>
     </row>
-    <row r="5" spans="1:255" s="54" customFormat="1">
+    <row r="5" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="62">
         <v>1</v>
       </c>
@@ -64060,7 +64108,7 @@
         <v>2.1230909502265742</v>
       </c>
     </row>
-    <row r="6" spans="1:255" s="54" customFormat="1">
+    <row r="6" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55">
         <v>2</v>
       </c>
@@ -64098,7 +64146,7 @@
       </c>
       <c r="M6" s="79"/>
     </row>
-    <row r="7" spans="1:255" s="54" customFormat="1">
+    <row r="7" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55">
         <v>3</v>
       </c>
@@ -64135,7 +64183,7 @@
         <v>2.4475707338560411</v>
       </c>
     </row>
-    <row r="8" spans="1:255" s="54" customFormat="1">
+    <row r="8" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="55">
         <v>4</v>
       </c>
@@ -64172,7 +64220,7 @@
         <v>1.8418621391703334</v>
       </c>
     </row>
-    <row r="9" spans="1:255" s="54" customFormat="1">
+    <row r="9" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="55">
         <v>5</v>
       </c>
@@ -64209,7 +64257,7 @@
         <v>3.3045165891608939</v>
       </c>
     </row>
-    <row r="10" spans="1:255" s="54" customFormat="1">
+    <row r="10" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55">
         <v>6</v>
       </c>
@@ -64246,7 +64294,7 @@
         <v>3.3538885104705245</v>
       </c>
     </row>
-    <row r="11" spans="1:255" s="54" customFormat="1">
+    <row r="11" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="55">
         <v>7</v>
       </c>
@@ -64283,7 +64331,7 @@
         <v>3.2565937789932073</v>
       </c>
     </row>
-    <row r="12" spans="1:255" s="54" customFormat="1">
+    <row r="12" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55">
         <v>8</v>
       </c>
@@ -64320,7 +64368,7 @@
         <v>3.3538885104705245</v>
       </c>
     </row>
-    <row r="13" spans="1:255" s="54" customFormat="1">
+    <row r="13" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55">
         <v>9</v>
       </c>
@@ -64357,7 +64405,7 @@
         <v>3.3538885104705245</v>
       </c>
     </row>
-    <row r="14" spans="1:255" s="54" customFormat="1">
+    <row r="14" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55">
         <v>11</v>
       </c>
@@ -64394,7 +64442,7 @@
         <v>3.3538885104705245</v>
       </c>
     </row>
-    <row r="15" spans="1:255" s="54" customFormat="1">
+    <row r="15" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55">
         <v>12</v>
       </c>
@@ -64432,7 +64480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:255" s="54" customFormat="1">
+    <row r="16" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="55">
         <v>13</v>
       </c>
@@ -64469,7 +64517,7 @@
         <v>3.2100563365956933</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="54" customFormat="1">
+    <row r="17" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55">
         <v>15</v>
       </c>
@@ -64506,7 +64554,7 @@
         <v>3.3045165891608939</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="54" customFormat="1">
+    <row r="18" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="55">
         <v>16</v>
       </c>
@@ -64544,7 +64592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="54" customFormat="1">
+    <row r="19" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55">
         <v>17</v>
       </c>
@@ -64581,7 +64629,7 @@
         <v>2.9567937414518424</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="54" customFormat="1">
+    <row r="20" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55">
         <v>18</v>
       </c>
@@ -64618,7 +64666,7 @@
         <v>3.2100563365956933</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="54" customFormat="1">
+    <row r="21" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55">
         <v>19</v>
       </c>
@@ -64655,7 +64703,7 @@
         <v>0.72481574137939631</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="54" customFormat="1">
+    <row r="22" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="55">
         <v>20</v>
       </c>
@@ -64693,7 +64741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="54" customFormat="1">
+    <row r="23" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55">
         <v>21</v>
       </c>
@@ -64730,7 +64778,7 @@
         <v>3.2565937789932073</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="54" customFormat="1">
+    <row r="24" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="55">
         <v>22</v>
       </c>
@@ -64767,7 +64815,7 @@
         <v>2.1954328640542626</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="54" customFormat="1">
+    <row r="25" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="55">
         <v>23</v>
       </c>
@@ -64805,7 +64853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="54" customFormat="1">
+    <row r="26" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55">
         <v>24</v>
       </c>
@@ -64842,7 +64890,7 @@
         <v>3.3538885104705245</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="54" customFormat="1">
+    <row r="27" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55">
         <v>25</v>
       </c>
@@ -64879,7 +64927,7 @@
         <v>2.8047517785454175</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="54" customFormat="1">
+    <row r="28" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55">
         <v>26</v>
       </c>
@@ -64916,7 +64964,7 @@
         <v>1.3195287989578959</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="54" customFormat="1">
+    <row r="29" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55">
         <v>27</v>
       </c>
@@ -64953,7 +65001,7 @@
         <v>1.9178027828644717</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="54" customFormat="1">
+    <row r="30" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55">
         <v>28</v>
       </c>
@@ -64990,7 +65038,7 @@
         <v>1.7018055060319135</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="54" customFormat="1">
+    <row r="31" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="55">
         <v>29</v>
       </c>
@@ -65027,7 +65075,7 @@
         <v>3.3538885104705245</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="54" customFormat="1">
+    <row r="32" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="55">
         <v>30</v>
       </c>
@@ -65064,7 +65112,7 @@
         <v>3.1452830477014624</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="54" customFormat="1">
+    <row r="33" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="55">
         <v>31</v>
       </c>
@@ -65101,7 +65149,7 @@
         <v>3.2257723366453144</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="54" customFormat="1">
+    <row r="34" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="55">
         <v>32</v>
       </c>
@@ -65138,7 +65186,7 @@
         <v>3.1452830477014624</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="54" customFormat="1">
+    <row r="35" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55">
         <v>33</v>
       </c>
@@ -65175,7 +65223,7 @@
         <v>3.3045165891608939</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="54" customFormat="1">
+    <row r="36" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="55">
         <v>34</v>
       </c>
@@ -65212,7 +65260,7 @@
         <v>2.8864748449945052</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="54" customFormat="1">
+    <row r="37" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="55">
         <v>35</v>
       </c>
@@ -65249,7 +65297,7 @@
         <v>2.9961659273441494</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="54" customFormat="1">
+    <row r="38" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55">
         <v>37</v>
       </c>
@@ -65286,7 +65334,7 @@
         <v>3.3045165891608939</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="54" customFormat="1">
+    <row r="39" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="55">
         <v>38</v>
       </c>
@@ -65323,7 +65371,7 @@
         <v>2.8928521841697119</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="54" customFormat="1">
+    <row r="40" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="55">
         <v>39</v>
       </c>
@@ -65360,7 +65408,7 @@
         <v>3.1209010264563291</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="54" customFormat="1">
+    <row r="41" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="55">
         <v>40</v>
       </c>
@@ -65398,7 +65446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="54" customFormat="1">
+    <row r="42" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="55">
         <v>41</v>
       </c>
@@ -65435,7 +65483,7 @@
         <v>2.4882118363617924</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1">
+    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="56">
         <v>42</v>
       </c>
@@ -65472,7 +65520,7 @@
         <v>2.5806811940620937</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="40" customFormat="1">
+    <row r="44" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="53"/>
       <c r="B44" s="53"/>
       <c r="C44" s="53"/>
@@ -65481,7 +65529,7 @@
       <c r="F44" s="53"/>
       <c r="G44" s="53"/>
     </row>
-    <row r="45" spans="1:11" s="40" customFormat="1">
+    <row r="45" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="53"/>
       <c r="B45" s="53"/>
       <c r="C45" s="53"/>
@@ -65490,7 +65538,7 @@
       <c r="F45" s="53"/>
       <c r="G45" s="53"/>
     </row>
-    <row r="46" spans="1:11" s="40" customFormat="1">
+    <row r="46" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="53"/>
       <c r="B46" s="53"/>
       <c r="C46" s="53"/>
@@ -65499,7 +65547,7 @@
       <c r="F46" s="53"/>
       <c r="G46" s="53"/>
     </row>
-    <row r="47" spans="1:11" s="40" customFormat="1">
+    <row r="47" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="53"/>
       <c r="B47" s="53"/>
       <c r="C47" s="53"/>
@@ -65508,7 +65556,7 @@
       <c r="F47" s="53"/>
       <c r="G47" s="53"/>
     </row>
-    <row r="48" spans="1:11" s="40" customFormat="1">
+    <row r="48" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="53"/>
       <c r="B48" s="53"/>
       <c r="C48" s="53"/>
@@ -65517,7 +65565,7 @@
       <c r="F48" s="53"/>
       <c r="G48" s="53"/>
     </row>
-    <row r="49" spans="1:7" s="40" customFormat="1">
+    <row r="49" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="53"/>
       <c r="B49" s="53"/>
       <c r="C49" s="53"/>
@@ -65547,29 +65595,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IU49"/>
   <sheetViews>
     <sheetView topLeftCell="J16" workbookViewId="0">
       <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="198" t="s">
         <v>116</v>
       </c>
@@ -65828,7 +65876,7 @@
       <c r="IT1" s="198"/>
       <c r="IU1" s="198"/>
     </row>
-    <row r="2" spans="1:255" ht="15" thickBot="1">
+    <row r="2" spans="1:255" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="201" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -65844,7 +65892,7 @@
       <c r="J2" s="201"/>
       <c r="K2" s="201"/>
     </row>
-    <row r="3" spans="1:255" ht="15" customHeight="1">
+    <row r="3" spans="1:255" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="202" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -65885,7 +65933,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:255" ht="15" thickBot="1">
+    <row r="4" spans="1:255" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="203"/>
       <c r="B4" s="205"/>
       <c r="C4" s="207"/>
@@ -65898,7 +65946,7 @@
       <c r="J4" s="217"/>
       <c r="K4" s="218"/>
     </row>
-    <row r="5" spans="1:255" s="54" customFormat="1">
+    <row r="5" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
         <v>1</v>
       </c>
@@ -65935,7 +65983,7 @@
         <v>2.5238027534892056</v>
       </c>
     </row>
-    <row r="6" spans="1:255" s="54" customFormat="1">
+    <row r="6" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55">
         <v>2</v>
       </c>
@@ -65973,7 +66021,7 @@
       </c>
       <c r="M6" s="79"/>
     </row>
-    <row r="7" spans="1:255" s="54" customFormat="1">
+    <row r="7" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55">
         <v>3</v>
       </c>
@@ -66010,7 +66058,7 @@
         <v>2.7183356949786717</v>
       </c>
     </row>
-    <row r="8" spans="1:255" s="54" customFormat="1">
+    <row r="8" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="55">
         <v>4</v>
       </c>
@@ -66047,7 +66095,7 @@
         <v>1.6645642421847713</v>
       </c>
     </row>
-    <row r="9" spans="1:255" s="54" customFormat="1">
+    <row r="9" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="55">
         <v>5</v>
       </c>
@@ -66084,7 +66132,7 @@
         <v>3.0531095731905995</v>
       </c>
     </row>
-    <row r="10" spans="1:255" s="54" customFormat="1">
+    <row r="10" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55">
         <v>6</v>
       </c>
@@ -66121,7 +66169,7 @@
         <v>3.0531095731905995</v>
       </c>
     </row>
-    <row r="11" spans="1:255" s="54" customFormat="1">
+    <row r="11" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="55">
         <v>7</v>
       </c>
@@ -66158,7 +66206,7 @@
         <v>2.7647366581228674</v>
       </c>
     </row>
-    <row r="12" spans="1:255" s="54" customFormat="1">
+    <row r="12" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55">
         <v>8</v>
       </c>
@@ -66195,7 +66243,7 @@
         <v>2.8455047772633972</v>
       </c>
     </row>
-    <row r="13" spans="1:255" s="54" customFormat="1">
+    <row r="13" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55">
         <v>9</v>
       </c>
@@ -66232,7 +66280,7 @@
         <v>2.9246412194493931</v>
       </c>
     </row>
-    <row r="14" spans="1:255" s="54" customFormat="1">
+    <row r="14" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55">
         <v>11</v>
       </c>
@@ -66269,7 +66317,7 @@
         <v>2.9286528165068364</v>
       </c>
     </row>
-    <row r="15" spans="1:255" s="54" customFormat="1">
+    <row r="15" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55">
         <v>12</v>
       </c>
@@ -66307,7 +66355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:255" s="54" customFormat="1">
+    <row r="16" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="55">
         <v>13</v>
       </c>
@@ -66344,7 +66392,7 @@
         <v>2.088687670427146</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="54" customFormat="1">
+    <row r="17" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55">
         <v>15</v>
       </c>
@@ -66381,7 +66429,7 @@
         <v>3.0090389721075175</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="54" customFormat="1">
+    <row r="18" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="55">
         <v>16</v>
       </c>
@@ -66419,7 +66467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="54" customFormat="1">
+    <row r="19" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55">
         <v>17</v>
       </c>
@@ -66456,7 +66504,7 @@
         <v>2.6927131273817784</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="54" customFormat="1">
+    <row r="20" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55">
         <v>18</v>
       </c>
@@ -66493,7 +66541,7 @@
         <v>2.2325457048556472</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="54" customFormat="1">
+    <row r="21" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55">
         <v>19</v>
       </c>
@@ -66531,7 +66579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="54" customFormat="1">
+    <row r="22" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="55">
         <v>20</v>
       </c>
@@ -66569,7 +66617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="54" customFormat="1">
+    <row r="23" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55">
         <v>21</v>
       </c>
@@ -66606,7 +66654,7 @@
         <v>2.9246412194493931</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="54" customFormat="1">
+    <row r="24" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="55">
         <v>22</v>
       </c>
@@ -66643,7 +66691,7 @@
         <v>2.6370053881573541</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="54" customFormat="1">
+    <row r="25" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="55">
         <v>23</v>
       </c>
@@ -66681,7 +66729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="54" customFormat="1">
+    <row r="26" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55">
         <v>24</v>
       </c>
@@ -66718,7 +66766,7 @@
         <v>2.9246412194493931</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="54" customFormat="1">
+    <row r="27" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55">
         <v>25</v>
       </c>
@@ -66755,7 +66803,7 @@
         <v>2.5981514475687586</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="54" customFormat="1">
+    <row r="28" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55">
         <v>26</v>
       </c>
@@ -66792,7 +66840,7 @@
         <v>1.7132496487078854</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="54" customFormat="1">
+    <row r="29" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55">
         <v>27</v>
       </c>
@@ -66829,7 +66877,7 @@
         <v>0.96441893950851099</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="54" customFormat="1">
+    <row r="30" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55">
         <v>28</v>
       </c>
@@ -66867,7 +66915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="54" customFormat="1">
+    <row r="31" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="55">
         <v>29</v>
       </c>
@@ -66904,7 +66952,7 @@
         <v>2.9662343078170599</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="54" customFormat="1">
+    <row r="32" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="55">
         <v>30</v>
       </c>
@@ -66941,7 +66989,7 @@
         <v>2.3533338768646592</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="54" customFormat="1">
+    <row r="33" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="55">
         <v>31</v>
       </c>
@@ -66978,7 +67026,7 @@
         <v>2.7219009399354572</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="54" customFormat="1">
+    <row r="34" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="55">
         <v>32</v>
       </c>
@@ -67015,7 +67063,7 @@
         <v>2.8864748449945052</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="54" customFormat="1">
+    <row r="35" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55">
         <v>33</v>
       </c>
@@ -67052,7 +67100,7 @@
         <v>2.9246412194493931</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="54" customFormat="1">
+    <row r="36" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="55">
         <v>34</v>
       </c>
@@ -67089,7 +67137,7 @@
         <v>2.8864748449945052</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="54" customFormat="1">
+    <row r="37" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="55">
         <v>35</v>
       </c>
@@ -67126,7 +67174,7 @@
         <v>2.2657056384385283</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="54" customFormat="1">
+    <row r="38" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55">
         <v>37</v>
       </c>
@@ -67163,7 +67211,7 @@
         <v>2.4046456345536176</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="54" customFormat="1">
+    <row r="39" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="55">
         <v>38</v>
       </c>
@@ -67200,7 +67248,7 @@
         <v>2.6770481600829643</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="54" customFormat="1">
+    <row r="40" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="55">
         <v>39</v>
       </c>
@@ -67237,7 +67285,7 @@
         <v>2.8455047772633972</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="54" customFormat="1">
+    <row r="41" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="55">
         <v>40</v>
       </c>
@@ -67275,7 +67323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="54" customFormat="1">
+    <row r="42" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="55">
         <v>41</v>
       </c>
@@ -67312,7 +67360,7 @@
         <v>2.0536456738510149</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1">
+    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="56">
         <v>42</v>
       </c>
@@ -67349,7 +67397,7 @@
         <v>2.4046456345536176</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="40" customFormat="1">
+    <row r="44" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="53"/>
       <c r="B44" s="53"/>
       <c r="C44" s="53"/>
@@ -67358,7 +67406,7 @@
       <c r="F44" s="53"/>
       <c r="G44" s="53"/>
     </row>
-    <row r="45" spans="1:11" s="40" customFormat="1">
+    <row r="45" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="53"/>
       <c r="B45" s="53"/>
       <c r="C45" s="53"/>
@@ -67367,7 +67415,7 @@
       <c r="F45" s="53"/>
       <c r="G45" s="53"/>
     </row>
-    <row r="46" spans="1:11" s="40" customFormat="1">
+    <row r="46" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="53"/>
       <c r="B46" s="53"/>
       <c r="C46" s="53"/>
@@ -67376,7 +67424,7 @@
       <c r="F46" s="53"/>
       <c r="G46" s="53"/>
     </row>
-    <row r="47" spans="1:11" s="40" customFormat="1">
+    <row r="47" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="53"/>
       <c r="B47" s="53"/>
       <c r="C47" s="53"/>
@@ -67385,7 +67433,7 @@
       <c r="F47" s="53"/>
       <c r="G47" s="53"/>
     </row>
-    <row r="48" spans="1:11" s="40" customFormat="1">
+    <row r="48" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="53"/>
       <c r="B48" s="53"/>
       <c r="C48" s="53"/>
@@ -67394,7 +67442,7 @@
       <c r="F48" s="53"/>
       <c r="G48" s="53"/>
     </row>
-    <row r="49" spans="1:7" s="40" customFormat="1">
+    <row r="49" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="53"/>
       <c r="B49" s="53"/>
       <c r="C49" s="53"/>
@@ -67424,22 +67472,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="198" t="s">
         <v>116</v>
       </c>
@@ -67699,7 +67747,7 @@
       <c r="IU1" s="198"/>
       <c r="IV1" s="198"/>
     </row>
-    <row r="2" spans="1:256" ht="15" thickBot="1">
+    <row r="2" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="201" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -67715,7 +67763,7 @@
       <c r="J2" s="201"/>
       <c r="K2" s="201"/>
     </row>
-    <row r="3" spans="1:256" ht="15" customHeight="1">
+    <row r="3" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="202" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -67756,7 +67804,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15" thickBot="1">
+    <row r="4" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="203"/>
       <c r="B4" s="205"/>
       <c r="C4" s="207"/>
@@ -67769,7 +67817,7 @@
       <c r="J4" s="217"/>
       <c r="K4" s="218"/>
     </row>
-    <row r="5" spans="1:256" s="54" customFormat="1">
+    <row r="5" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="62">
         <v>1</v>
       </c>
@@ -67806,7 +67854,7 @@
         <v>1.5509054458269065</v>
       </c>
     </row>
-    <row r="6" spans="1:256" s="54" customFormat="1">
+    <row r="6" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55">
         <v>2</v>
       </c>
@@ -67844,7 +67892,7 @@
       </c>
       <c r="M6" s="79"/>
     </row>
-    <row r="7" spans="1:256" s="54" customFormat="1">
+    <row r="7" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55">
         <v>3</v>
       </c>
@@ -67882,7 +67930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:256" s="54" customFormat="1">
+    <row r="8" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="55">
         <v>4</v>
       </c>
@@ -67920,7 +67968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:256" s="54" customFormat="1">
+    <row r="9" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="55">
         <v>5</v>
       </c>
@@ -67957,7 +68005,7 @@
         <v>2.7669846411806525</v>
       </c>
     </row>
-    <row r="10" spans="1:256" s="54" customFormat="1">
+    <row r="10" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55">
         <v>6</v>
       </c>
@@ -67994,7 +68042,7 @@
         <v>2.7647366581228674</v>
       </c>
     </row>
-    <row r="11" spans="1:256" s="54" customFormat="1">
+    <row r="11" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="55">
         <v>7</v>
       </c>
@@ -68031,7 +68079,7 @@
         <v>1.648777957769739</v>
       </c>
     </row>
-    <row r="12" spans="1:256" s="54" customFormat="1">
+    <row r="12" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55">
         <v>8</v>
       </c>
@@ -68068,7 +68116,7 @@
         <v>2.1762136964668137</v>
       </c>
     </row>
-    <row r="13" spans="1:256" s="54" customFormat="1">
+    <row r="13" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55">
         <v>9</v>
       </c>
@@ -68105,7 +68153,7 @@
         <v>2.650527059308982</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="54" customFormat="1">
+    <row r="14" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55">
         <v>11</v>
       </c>
@@ -68142,7 +68190,7 @@
         <v>2.5981514475687586</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="54" customFormat="1">
+    <row r="15" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55">
         <v>12</v>
       </c>
@@ -68180,7 +68228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:256" s="54" customFormat="1">
+    <row r="16" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="55">
         <v>13</v>
       </c>
@@ -68218,7 +68266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="54" customFormat="1">
+    <row r="17" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55">
         <v>15</v>
       </c>
@@ -68255,7 +68303,7 @@
         <v>2.5238027534892056</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="54" customFormat="1">
+    <row r="18" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="55">
         <v>16</v>
       </c>
@@ -68293,7 +68341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="54" customFormat="1">
+    <row r="19" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55">
         <v>17</v>
       </c>
@@ -68331,7 +68379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="54" customFormat="1">
+    <row r="20" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55">
         <v>18</v>
       </c>
@@ -68369,7 +68417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="54" customFormat="1">
+    <row r="21" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55">
         <v>19</v>
       </c>
@@ -68407,7 +68455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="54" customFormat="1">
+    <row r="22" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="55">
         <v>20</v>
       </c>
@@ -68445,7 +68493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="54" customFormat="1">
+    <row r="23" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55">
         <v>21</v>
       </c>
@@ -68482,7 +68530,7 @@
         <v>2.2437446624362383</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="54" customFormat="1">
+    <row r="24" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="55">
         <v>22</v>
       </c>
@@ -68519,7 +68567,7 @@
         <v>1.8394380762574334</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="54" customFormat="1">
+    <row r="25" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="55">
         <v>23</v>
       </c>
@@ -68557,7 +68605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="54" customFormat="1">
+    <row r="26" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55">
         <v>24</v>
       </c>
@@ -68594,7 +68642,7 @@
         <v>2.0232738733765725</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="54" customFormat="1">
+    <row r="27" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55">
         <v>25</v>
       </c>
@@ -68631,7 +68679,7 @@
         <v>2.1126482045921051</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="54" customFormat="1">
+    <row r="28" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55">
         <v>26</v>
       </c>
@@ -68669,7 +68717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="54" customFormat="1">
+    <row r="29" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55">
         <v>27</v>
       </c>
@@ -68707,7 +68755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="54" customFormat="1">
+    <row r="30" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55">
         <v>28</v>
       </c>
@@ -68745,7 +68793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="54" customFormat="1">
+    <row r="31" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="55">
         <v>29</v>
       </c>
@@ -68782,7 +68830,7 @@
         <v>2.806633094697355</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="54" customFormat="1">
+    <row r="32" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="55">
         <v>30</v>
       </c>
@@ -68819,7 +68867,7 @@
         <v>1.4513708450988847</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="54" customFormat="1">
+    <row r="33" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="55">
         <v>31</v>
       </c>
@@ -68856,7 +68904,7 @@
         <v>1.9615912140759175</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="54" customFormat="1">
+    <row r="34" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="55">
         <v>32</v>
       </c>
@@ -68893,7 +68941,7 @@
         <v>2.4046456345536176</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="54" customFormat="1">
+    <row r="35" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55">
         <v>33</v>
       </c>
@@ -68930,7 +68978,7 @@
         <v>1.9322076591803128</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="54" customFormat="1">
+    <row r="36" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="55">
         <v>34</v>
       </c>
@@ -68967,7 +69015,7 @@
         <v>1.4993653261946966</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="54" customFormat="1">
+    <row r="37" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="55">
         <v>35</v>
       </c>
@@ -69005,7 +69053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="54" customFormat="1">
+    <row r="38" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55">
         <v>37</v>
       </c>
@@ -69042,7 +69090,7 @@
         <v>1.9615912140759175</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="54" customFormat="1">
+    <row r="39" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="55">
         <v>38</v>
       </c>
@@ -69079,7 +69127,7 @@
         <v>0.71584016264821826</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="54" customFormat="1">
+    <row r="40" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="55">
         <v>39</v>
       </c>
@@ -69116,7 +69164,7 @@
         <v>2.453616992261352</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="54" customFormat="1">
+    <row r="41" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="55">
         <v>40</v>
       </c>
@@ -69154,7 +69202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="54" customFormat="1">
+    <row r="42" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="55">
         <v>41</v>
       </c>
@@ -69192,7 +69240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1">
+    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="56">
         <v>42</v>
       </c>
@@ -69250,22 +69298,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="198" t="s">
         <v>116</v>
       </c>
@@ -69525,7 +69573,7 @@
       <c r="IU1" s="198"/>
       <c r="IV1" s="198"/>
     </row>
-    <row r="2" spans="1:256" ht="15" thickBot="1">
+    <row r="2" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="201" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -69541,7 +69589,7 @@
       <c r="J2" s="201"/>
       <c r="K2" s="201"/>
     </row>
-    <row r="3" spans="1:256" ht="15" customHeight="1">
+    <row r="3" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="202" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -69582,7 +69630,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15" thickBot="1">
+    <row r="4" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="203"/>
       <c r="B4" s="205"/>
       <c r="C4" s="207"/>
@@ -69595,7 +69643,7 @@
       <c r="J4" s="217"/>
       <c r="K4" s="218"/>
     </row>
-    <row r="5" spans="1:256" s="54" customFormat="1">
+    <row r="5" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="62">
         <v>1</v>
       </c>
@@ -69633,7 +69681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:256" s="54" customFormat="1">
+    <row r="6" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55">
         <v>2</v>
       </c>
@@ -69672,7 +69720,7 @@
       </c>
       <c r="M6" s="79"/>
     </row>
-    <row r="7" spans="1:256" s="54" customFormat="1">
+    <row r="7" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55">
         <v>3</v>
       </c>
@@ -69710,7 +69758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:256" s="54" customFormat="1">
+    <row r="8" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="55">
         <v>4</v>
       </c>
@@ -69748,7 +69796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:256" s="54" customFormat="1">
+    <row r="9" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="55">
         <v>5</v>
       </c>
@@ -69786,7 +69834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:256" s="54" customFormat="1">
+    <row r="10" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55">
         <v>6</v>
       </c>
@@ -69824,7 +69872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:256" s="54" customFormat="1">
+    <row r="11" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="55">
         <v>7</v>
       </c>
@@ -69862,7 +69910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:256" s="54" customFormat="1">
+    <row r="12" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55">
         <v>8</v>
       </c>
@@ -69900,7 +69948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:256" s="54" customFormat="1">
+    <row r="13" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55">
         <v>9</v>
       </c>
@@ -69938,7 +69986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="54" customFormat="1">
+    <row r="14" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55">
         <v>11</v>
       </c>
@@ -69976,7 +70024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="54" customFormat="1">
+    <row r="15" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55">
         <v>12</v>
       </c>
@@ -70014,7 +70062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:256" s="54" customFormat="1">
+    <row r="16" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="55">
         <v>13</v>
       </c>
@@ -70052,7 +70100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="54" customFormat="1">
+    <row r="17" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55">
         <v>15</v>
       </c>
@@ -70089,7 +70137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="54" customFormat="1">
+    <row r="18" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="55">
         <v>16</v>
       </c>
@@ -70127,7 +70175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="54" customFormat="1">
+    <row r="19" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55">
         <v>17</v>
       </c>
@@ -70165,7 +70213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="54" customFormat="1">
+    <row r="20" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55">
         <v>18</v>
       </c>
@@ -70203,7 +70251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="54" customFormat="1">
+    <row r="21" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55">
         <v>19</v>
       </c>
@@ -70241,7 +70289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="54" customFormat="1">
+    <row r="22" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="55">
         <v>20</v>
       </c>
@@ -70279,7 +70327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="54" customFormat="1">
+    <row r="23" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55">
         <v>21</v>
       </c>
@@ -70317,7 +70365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="54" customFormat="1">
+    <row r="24" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="55">
         <v>22</v>
       </c>
@@ -70355,7 +70403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="54" customFormat="1">
+    <row r="25" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="55">
         <v>23</v>
       </c>
@@ -70393,7 +70441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="54" customFormat="1">
+    <row r="26" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55">
         <v>24</v>
       </c>
@@ -70431,7 +70479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="54" customFormat="1">
+    <row r="27" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55">
         <v>25</v>
       </c>
@@ -70469,7 +70517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="54" customFormat="1">
+    <row r="28" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55">
         <v>26</v>
       </c>
@@ -70507,7 +70555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="54" customFormat="1">
+    <row r="29" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55">
         <v>27</v>
       </c>
@@ -70545,7 +70593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="54" customFormat="1">
+    <row r="30" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55">
         <v>28</v>
       </c>
@@ -70583,7 +70631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="54" customFormat="1">
+    <row r="31" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="55">
         <v>29</v>
       </c>
@@ -70621,7 +70669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="54" customFormat="1">
+    <row r="32" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="55">
         <v>30</v>
       </c>
@@ -70659,7 +70707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="54" customFormat="1">
+    <row r="33" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="55">
         <v>31</v>
       </c>
@@ -70697,7 +70745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="54" customFormat="1">
+    <row r="34" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="55">
         <v>32</v>
       </c>
@@ -70735,7 +70783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="54" customFormat="1">
+    <row r="35" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55">
         <v>33</v>
       </c>
@@ -70773,7 +70821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="54" customFormat="1">
+    <row r="36" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="55">
         <v>34</v>
       </c>
@@ -70811,7 +70859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="54" customFormat="1">
+    <row r="37" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="55">
         <v>35</v>
       </c>
@@ -70849,7 +70897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="54" customFormat="1">
+    <row r="38" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55">
         <v>37</v>
       </c>
@@ -70887,7 +70935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="54" customFormat="1">
+    <row r="39" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="55">
         <v>38</v>
       </c>
@@ -70925,7 +70973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="54" customFormat="1">
+    <row r="40" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="55">
         <v>39</v>
       </c>
@@ -70963,7 +71011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="54" customFormat="1">
+    <row r="41" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="55">
         <v>40</v>
       </c>
@@ -71001,7 +71049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="54" customFormat="1">
+    <row r="42" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="55">
         <v>41</v>
       </c>
@@ -71039,7 +71087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1">
+    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="56">
         <v>42</v>
       </c>
@@ -71098,22 +71146,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV43"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="198" t="s">
         <v>116</v>
       </c>
@@ -71373,7 +71421,7 @@
       <c r="IU1" s="198"/>
       <c r="IV1" s="198"/>
     </row>
-    <row r="2" spans="1:256" ht="15" thickBot="1">
+    <row r="2" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="201" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -71389,7 +71437,7 @@
       <c r="J2" s="201"/>
       <c r="K2" s="201"/>
     </row>
-    <row r="3" spans="1:256" ht="15" customHeight="1">
+    <row r="3" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="202" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -71430,7 +71478,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15" thickBot="1">
+    <row r="4" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="203"/>
       <c r="B4" s="205"/>
       <c r="C4" s="207"/>
@@ -71443,7 +71491,7 @@
       <c r="J4" s="217"/>
       <c r="K4" s="218"/>
     </row>
-    <row r="5" spans="1:256" s="54" customFormat="1">
+    <row r="5" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="62">
         <v>1</v>
       </c>
@@ -71481,7 +71529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:256" s="54" customFormat="1">
+    <row r="6" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55">
         <v>2</v>
       </c>
@@ -71520,7 +71568,7 @@
       </c>
       <c r="M6" s="79"/>
     </row>
-    <row r="7" spans="1:256" s="54" customFormat="1">
+    <row r="7" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55">
         <v>3</v>
       </c>
@@ -71558,7 +71606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:256" s="54" customFormat="1">
+    <row r="8" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="55">
         <v>4</v>
       </c>
@@ -71596,7 +71644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:256" s="54" customFormat="1">
+    <row r="9" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="55">
         <v>5</v>
       </c>
@@ -71634,7 +71682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:256" s="54" customFormat="1">
+    <row r="10" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55">
         <v>6</v>
       </c>
@@ -71672,7 +71720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:256" s="54" customFormat="1">
+    <row r="11" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="55">
         <v>7</v>
       </c>
@@ -71710,7 +71758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:256" s="54" customFormat="1">
+    <row r="12" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55">
         <v>8</v>
       </c>
@@ -71748,7 +71796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:256" s="54" customFormat="1">
+    <row r="13" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55">
         <v>9</v>
       </c>
@@ -71786,7 +71834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="54" customFormat="1">
+    <row r="14" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55">
         <v>11</v>
       </c>
@@ -71824,7 +71872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="54" customFormat="1">
+    <row r="15" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55">
         <v>12</v>
       </c>
@@ -71862,7 +71910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:256" s="54" customFormat="1">
+    <row r="16" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="55">
         <v>13</v>
       </c>
@@ -71900,7 +71948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="54" customFormat="1">
+    <row r="17" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55">
         <v>15</v>
       </c>
@@ -71937,7 +71985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="54" customFormat="1">
+    <row r="18" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="55">
         <v>16</v>
       </c>
@@ -71975,7 +72023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="54" customFormat="1">
+    <row r="19" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55">
         <v>17</v>
       </c>
@@ -72013,7 +72061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="54" customFormat="1">
+    <row r="20" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55">
         <v>18</v>
       </c>
@@ -72051,7 +72099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="54" customFormat="1">
+    <row r="21" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55">
         <v>19</v>
       </c>
@@ -72089,7 +72137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="54" customFormat="1">
+    <row r="22" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="55">
         <v>20</v>
       </c>
@@ -72127,7 +72175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="54" customFormat="1">
+    <row r="23" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55">
         <v>21</v>
       </c>
@@ -72165,7 +72213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="54" customFormat="1">
+    <row r="24" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="55">
         <v>22</v>
       </c>
@@ -72203,7 +72251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="54" customFormat="1">
+    <row r="25" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="55">
         <v>23</v>
       </c>
@@ -72241,7 +72289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="54" customFormat="1">
+    <row r="26" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55">
         <v>24</v>
       </c>
@@ -72279,7 +72327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="54" customFormat="1">
+    <row r="27" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55">
         <v>25</v>
       </c>
@@ -72317,7 +72365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="54" customFormat="1">
+    <row r="28" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55">
         <v>26</v>
       </c>
@@ -72355,7 +72403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="54" customFormat="1">
+    <row r="29" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55">
         <v>27</v>
       </c>
@@ -72393,7 +72441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="54" customFormat="1">
+    <row r="30" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55">
         <v>28</v>
       </c>
@@ -72431,7 +72479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="54" customFormat="1">
+    <row r="31" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="55">
         <v>29</v>
       </c>
@@ -72469,7 +72517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="54" customFormat="1">
+    <row r="32" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="55">
         <v>30</v>
       </c>
@@ -72507,7 +72555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="54" customFormat="1">
+    <row r="33" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="55">
         <v>31</v>
       </c>
@@ -72545,7 +72593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="54" customFormat="1">
+    <row r="34" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="55">
         <v>32</v>
       </c>
@@ -72583,7 +72631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="54" customFormat="1">
+    <row r="35" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55">
         <v>33</v>
       </c>
@@ -72621,7 +72669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="54" customFormat="1">
+    <row r="36" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="55">
         <v>34</v>
       </c>
@@ -72659,7 +72707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="54" customFormat="1">
+    <row r="37" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="55">
         <v>35</v>
       </c>
@@ -72697,7 +72745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="54" customFormat="1">
+    <row r="38" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55">
         <v>37</v>
       </c>
@@ -72735,7 +72783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="54" customFormat="1">
+    <row r="39" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="55">
         <v>38</v>
       </c>
@@ -72773,7 +72821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="54" customFormat="1">
+    <row r="40" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="55">
         <v>39</v>
       </c>
@@ -72811,7 +72859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="54" customFormat="1">
+    <row r="41" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="55">
         <v>40</v>
       </c>
@@ -72849,7 +72897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="54" customFormat="1">
+    <row r="42" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="55">
         <v>41</v>
       </c>
@@ -72887,7 +72935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1">
+    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="56">
         <v>42</v>
       </c>
@@ -72946,22 +72994,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="198" t="s">
         <v>116</v>
       </c>
@@ -73221,7 +73269,7 @@
       <c r="IU1" s="198"/>
       <c r="IV1" s="198"/>
     </row>
-    <row r="2" spans="1:256" ht="15" thickBot="1">
+    <row r="2" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="201" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -73237,7 +73285,7 @@
       <c r="J2" s="201"/>
       <c r="K2" s="201"/>
     </row>
-    <row r="3" spans="1:256" ht="15" customHeight="1">
+    <row r="3" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="202" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -73278,7 +73326,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15" thickBot="1">
+    <row r="4" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="203"/>
       <c r="B4" s="205"/>
       <c r="C4" s="207"/>
@@ -73291,7 +73339,7 @@
       <c r="J4" s="217"/>
       <c r="K4" s="218"/>
     </row>
-    <row r="5" spans="1:256" s="54" customFormat="1">
+    <row r="5" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="62">
         <v>1</v>
       </c>
@@ -73329,7 +73377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:256" s="54" customFormat="1">
+    <row r="6" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55">
         <v>2</v>
       </c>
@@ -73368,7 +73416,7 @@
       </c>
       <c r="M6" s="79"/>
     </row>
-    <row r="7" spans="1:256" s="54" customFormat="1">
+    <row r="7" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55">
         <v>3</v>
       </c>
@@ -73406,7 +73454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:256" s="54" customFormat="1">
+    <row r="8" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="55">
         <v>4</v>
       </c>
@@ -73444,7 +73492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:256" s="54" customFormat="1">
+    <row r="9" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="55">
         <v>5</v>
       </c>
@@ -73482,7 +73530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:256" s="54" customFormat="1">
+    <row r="10" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55">
         <v>6</v>
       </c>
@@ -73520,7 +73568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:256" s="54" customFormat="1">
+    <row r="11" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="55">
         <v>7</v>
       </c>
@@ -73558,7 +73606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:256" s="54" customFormat="1">
+    <row r="12" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55">
         <v>8</v>
       </c>
@@ -73596,7 +73644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:256" s="54" customFormat="1">
+    <row r="13" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55">
         <v>9</v>
       </c>
@@ -73634,7 +73682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="54" customFormat="1">
+    <row r="14" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55">
         <v>11</v>
       </c>
@@ -73672,7 +73720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="54" customFormat="1">
+    <row r="15" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55">
         <v>12</v>
       </c>
@@ -73710,7 +73758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:256" s="54" customFormat="1">
+    <row r="16" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="55">
         <v>13</v>
       </c>
@@ -73748,7 +73796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="54" customFormat="1">
+    <row r="17" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55">
         <v>15</v>
       </c>
@@ -73785,7 +73833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="54" customFormat="1">
+    <row r="18" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="55">
         <v>16</v>
       </c>
@@ -73823,7 +73871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="54" customFormat="1">
+    <row r="19" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55">
         <v>17</v>
       </c>
@@ -73861,7 +73909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="54" customFormat="1">
+    <row r="20" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55">
         <v>18</v>
       </c>
@@ -73899,7 +73947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="54" customFormat="1">
+    <row r="21" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55">
         <v>19</v>
       </c>
@@ -73937,7 +73985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="54" customFormat="1">
+    <row r="22" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="55">
         <v>20</v>
       </c>
@@ -73975,7 +74023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="54" customFormat="1">
+    <row r="23" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55">
         <v>21</v>
       </c>
@@ -74013,7 +74061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="54" customFormat="1">
+    <row r="24" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="55">
         <v>22</v>
       </c>
@@ -74051,7 +74099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="54" customFormat="1">
+    <row r="25" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="55">
         <v>23</v>
       </c>
@@ -74089,7 +74137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="54" customFormat="1">
+    <row r="26" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55">
         <v>24</v>
       </c>
@@ -74127,7 +74175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="54" customFormat="1">
+    <row r="27" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55">
         <v>25</v>
       </c>
@@ -74165,7 +74213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="54" customFormat="1">
+    <row r="28" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55">
         <v>26</v>
       </c>
@@ -74203,7 +74251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="54" customFormat="1">
+    <row r="29" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55">
         <v>27</v>
       </c>
@@ -74241,7 +74289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="54" customFormat="1">
+    <row r="30" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55">
         <v>28</v>
       </c>
@@ -74279,7 +74327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="54" customFormat="1">
+    <row r="31" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="55">
         <v>29</v>
       </c>
@@ -74317,7 +74365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="54" customFormat="1">
+    <row r="32" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="55">
         <v>30</v>
       </c>
@@ -74355,7 +74403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="54" customFormat="1">
+    <row r="33" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="55">
         <v>31</v>
       </c>
@@ -74393,7 +74441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="54" customFormat="1">
+    <row r="34" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="55">
         <v>32</v>
       </c>
@@ -74431,7 +74479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="54" customFormat="1">
+    <row r="35" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55">
         <v>33</v>
       </c>
@@ -74469,7 +74517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="54" customFormat="1">
+    <row r="36" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="55">
         <v>34</v>
       </c>
@@ -74507,7 +74555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="54" customFormat="1">
+    <row r="37" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="55">
         <v>35</v>
       </c>
@@ -74545,7 +74593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="54" customFormat="1">
+    <row r="38" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55">
         <v>37</v>
       </c>
@@ -74583,7 +74631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="54" customFormat="1">
+    <row r="39" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="55">
         <v>38</v>
       </c>
@@ -74621,7 +74669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="54" customFormat="1">
+    <row r="40" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="55">
         <v>39</v>
       </c>
@@ -74659,7 +74707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="54" customFormat="1">
+    <row r="41" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="55">
         <v>40</v>
       </c>
@@ -74697,7 +74745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="54" customFormat="1">
+    <row r="42" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="55">
         <v>41</v>
       </c>
@@ -74735,7 +74783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1">
+    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="56">
         <v>42</v>
       </c>
@@ -74794,22 +74842,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV43"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="198" t="s">
         <v>116</v>
       </c>
@@ -75069,7 +75117,7 @@
       <c r="IU1" s="198"/>
       <c r="IV1" s="198"/>
     </row>
-    <row r="2" spans="1:256" ht="15" thickBot="1">
+    <row r="2" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="201" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -75085,7 +75133,7 @@
       <c r="J2" s="201"/>
       <c r="K2" s="201"/>
     </row>
-    <row r="3" spans="1:256" ht="15" customHeight="1">
+    <row r="3" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="202" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -75126,7 +75174,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15" thickBot="1">
+    <row r="4" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="203"/>
       <c r="B4" s="205"/>
       <c r="C4" s="207"/>
@@ -75139,7 +75187,7 @@
       <c r="J4" s="217"/>
       <c r="K4" s="218"/>
     </row>
-    <row r="5" spans="1:256" s="54" customFormat="1">
+    <row r="5" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="62">
         <v>1</v>
       </c>
@@ -75177,7 +75225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:256" s="54" customFormat="1">
+    <row r="6" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55">
         <v>2</v>
       </c>
@@ -75216,7 +75264,7 @@
       </c>
       <c r="M6" s="79"/>
     </row>
-    <row r="7" spans="1:256" s="54" customFormat="1">
+    <row r="7" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55">
         <v>3</v>
       </c>
@@ -75254,7 +75302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:256" s="54" customFormat="1">
+    <row r="8" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="55">
         <v>4</v>
       </c>
@@ -75292,7 +75340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:256" s="54" customFormat="1">
+    <row r="9" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="55">
         <v>5</v>
       </c>
@@ -75330,7 +75378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:256" s="54" customFormat="1">
+    <row r="10" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55">
         <v>6</v>
       </c>
@@ -75368,7 +75416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:256" s="54" customFormat="1">
+    <row r="11" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="55">
         <v>7</v>
       </c>
@@ -75406,7 +75454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:256" s="54" customFormat="1">
+    <row r="12" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55">
         <v>8</v>
       </c>
@@ -75444,7 +75492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:256" s="54" customFormat="1">
+    <row r="13" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55">
         <v>9</v>
       </c>
@@ -75482,7 +75530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="54" customFormat="1">
+    <row r="14" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55">
         <v>11</v>
       </c>
@@ -75520,7 +75568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="54" customFormat="1">
+    <row r="15" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55">
         <v>12</v>
       </c>
@@ -75558,7 +75606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:256" s="54" customFormat="1">
+    <row r="16" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="55">
         <v>13</v>
       </c>
@@ -75596,7 +75644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="54" customFormat="1">
+    <row r="17" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55">
         <v>15</v>
       </c>
@@ -75633,7 +75681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="54" customFormat="1">
+    <row r="18" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="55">
         <v>16</v>
       </c>
@@ -75671,7 +75719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="54" customFormat="1">
+    <row r="19" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55">
         <v>17</v>
       </c>
@@ -75709,7 +75757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="54" customFormat="1">
+    <row r="20" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55">
         <v>18</v>
       </c>
@@ -75747,7 +75795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="54" customFormat="1">
+    <row r="21" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55">
         <v>19</v>
       </c>
@@ -75785,7 +75833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="54" customFormat="1">
+    <row r="22" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="55">
         <v>20</v>
       </c>
@@ -75823,7 +75871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="54" customFormat="1">
+    <row r="23" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55">
         <v>21</v>
       </c>
@@ -75861,7 +75909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="54" customFormat="1">
+    <row r="24" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="55">
         <v>22</v>
       </c>
@@ -75899,7 +75947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="54" customFormat="1">
+    <row r="25" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="55">
         <v>23</v>
       </c>
@@ -75937,7 +75985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="54" customFormat="1">
+    <row r="26" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55">
         <v>24</v>
       </c>
@@ -75975,7 +76023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="54" customFormat="1">
+    <row r="27" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55">
         <v>25</v>
       </c>
@@ -76013,7 +76061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="54" customFormat="1">
+    <row r="28" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55">
         <v>26</v>
       </c>
@@ -76051,7 +76099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="54" customFormat="1">
+    <row r="29" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55">
         <v>27</v>
       </c>
@@ -76089,7 +76137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="54" customFormat="1">
+    <row r="30" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55">
         <v>28</v>
       </c>
@@ -76127,7 +76175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="54" customFormat="1">
+    <row r="31" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="55">
         <v>29</v>
       </c>
@@ -76165,7 +76213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="54" customFormat="1">
+    <row r="32" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="55">
         <v>30</v>
       </c>
@@ -76203,7 +76251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="54" customFormat="1">
+    <row r="33" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="55">
         <v>31</v>
       </c>
@@ -76241,7 +76289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="54" customFormat="1">
+    <row r="34" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="55">
         <v>32</v>
       </c>
@@ -76279,7 +76327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="54" customFormat="1">
+    <row r="35" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55">
         <v>33</v>
       </c>
@@ -76317,7 +76365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="54" customFormat="1">
+    <row r="36" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="55">
         <v>34</v>
       </c>
@@ -76355,7 +76403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="54" customFormat="1">
+    <row r="37" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="55">
         <v>35</v>
       </c>
@@ -76393,7 +76441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="54" customFormat="1">
+    <row r="38" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55">
         <v>37</v>
       </c>
@@ -76431,7 +76479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="54" customFormat="1">
+    <row r="39" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="55">
         <v>38</v>
       </c>
@@ -76469,7 +76517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="54" customFormat="1">
+    <row r="40" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="55">
         <v>39</v>
       </c>
@@ -76507,7 +76555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="54" customFormat="1">
+    <row r="41" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="55">
         <v>40</v>
       </c>
@@ -76545,7 +76593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="54" customFormat="1">
+    <row r="42" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="55">
         <v>41</v>
       </c>
@@ -76583,7 +76631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1">
+    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="56">
         <v>42</v>
       </c>

--- a/ТМОГИ.2016.осень.xlsx
+++ b/ТМОГИ.2016.осень.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-672" yWindow="228" windowWidth="11772" windowHeight="5688" activeTab="5"/>
+    <workbookView xWindow="-675" yWindow="225" windowWidth="11775" windowHeight="5685"/>
   </bookViews>
   <sheets>
     <sheet name="Сводная таблица" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Сводная таблица'!$A$2:$BU$47</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="150">
   <si>
     <t>балл(max)=</t>
   </si>
@@ -502,14 +502,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="d/m/yy;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1731,6 +1731,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1772,42 +1808,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1977,6 +1977,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2055,6 +2060,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2089,6 +2095,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2264,57 +2271,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD125"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J83" sqref="G83:J83"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="5.88671875" style="22" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" style="22" customWidth="1"/>
-    <col min="9" max="9" width="4.6640625" style="22" customWidth="1"/>
-    <col min="10" max="10" width="5.44140625" style="22" customWidth="1"/>
-    <col min="11" max="11" width="4.33203125" style="22" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="4.88671875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5546875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="4.5546875" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" customWidth="1"/>
-    <col min="16" max="16" width="5.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" style="22" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="22" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" style="22" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="22" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" style="22" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5703125" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" customWidth="1"/>
+    <col min="16" max="16" width="5.28515625" customWidth="1"/>
     <col min="17" max="17" width="5" customWidth="1"/>
-    <col min="18" max="18" width="9.33203125" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" customWidth="1"/>
     <col min="19" max="19" width="5" customWidth="1"/>
-    <col min="20" max="20" width="6.6640625" customWidth="1"/>
-    <col min="21" max="21" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.109375" customWidth="1"/>
-    <col min="23" max="23" width="6.109375" customWidth="1"/>
-    <col min="24" max="24" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.6640625" customWidth="1"/>
-    <col min="26" max="27" width="5.6640625" hidden="1" customWidth="1"/>
-    <col min="28" max="30" width="4.5546875" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="6.7109375" customWidth="1"/>
+    <col min="21" max="21" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.140625" customWidth="1"/>
+    <col min="23" max="23" width="6.140625" customWidth="1"/>
+    <col min="24" max="24" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.7109375" customWidth="1"/>
+    <col min="26" max="27" width="5.7109375" hidden="1" customWidth="1"/>
+    <col min="28" max="30" width="4.5703125" hidden="1" customWidth="1"/>
     <col min="31" max="33" width="5" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="4.5546875" hidden="1" customWidth="1"/>
-    <col min="35" max="37" width="3.33203125" customWidth="1"/>
+    <col min="34" max="34" width="4.5703125" hidden="1" customWidth="1"/>
+    <col min="35" max="37" width="3.28515625" customWidth="1"/>
     <col min="38" max="38" width="4" customWidth="1"/>
-    <col min="39" max="39" width="4.109375" customWidth="1"/>
-    <col min="40" max="54" width="3.33203125" customWidth="1"/>
-    <col min="55" max="55" width="3.44140625" customWidth="1"/>
-    <col min="56" max="71" width="3.33203125" customWidth="1"/>
-    <col min="72" max="72" width="5.5546875" style="131" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4.140625" customWidth="1"/>
+    <col min="40" max="54" width="3.28515625" customWidth="1"/>
+    <col min="55" max="55" width="3.42578125" customWidth="1"/>
+    <col min="56" max="71" width="3.28515625" customWidth="1"/>
+    <col min="72" max="72" width="5.5703125" style="131" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="74" max="255" width="11" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" s="141" customFormat="1">
+    <row r="1" spans="1:16384" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="141" t="s">
         <v>116</v>
       </c>
@@ -2333,7 +2340,7 @@
       <c r="AF1" s="142"/>
       <c r="AG1" s="142"/>
     </row>
-    <row r="2" spans="1:16384" ht="15" thickBot="1">
+    <row r="2" spans="1:16384" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="80">
         <f>DATE(2016,9,1)</f>
         <v>42614</v>
@@ -2343,38 +2350,38 @@
       </c>
       <c r="E2" s="79"/>
       <c r="F2" s="79"/>
-      <c r="G2" s="206" t="s">
+      <c r="G2" s="218" t="s">
         <v>117</v>
       </c>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="207"/>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="203" t="s">
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
+      <c r="L2" s="219"/>
+      <c r="M2" s="220"/>
+      <c r="N2" s="215" t="s">
         <v>118</v>
       </c>
-      <c r="O2" s="204"/>
-      <c r="P2" s="204"/>
-      <c r="Q2" s="204"/>
-      <c r="R2" s="204"/>
-      <c r="S2" s="204"/>
-      <c r="T2" s="204"/>
-      <c r="U2" s="204"/>
-      <c r="V2" s="204"/>
-      <c r="W2" s="204"/>
-      <c r="X2" s="204"/>
-      <c r="Y2" s="204"/>
-      <c r="Z2" s="204"/>
-      <c r="AA2" s="204"/>
-      <c r="AB2" s="204"/>
-      <c r="AC2" s="204"/>
-      <c r="AD2" s="204"/>
-      <c r="AE2" s="204"/>
-      <c r="AF2" s="204"/>
-      <c r="AG2" s="204"/>
-      <c r="AH2" s="205"/>
+      <c r="O2" s="216"/>
+      <c r="P2" s="216"/>
+      <c r="Q2" s="216"/>
+      <c r="R2" s="216"/>
+      <c r="S2" s="216"/>
+      <c r="T2" s="216"/>
+      <c r="U2" s="216"/>
+      <c r="V2" s="216"/>
+      <c r="W2" s="216"/>
+      <c r="X2" s="216"/>
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="216"/>
+      <c r="AA2" s="216"/>
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="216"/>
+      <c r="AD2" s="216"/>
+      <c r="AE2" s="216"/>
+      <c r="AF2" s="216"/>
+      <c r="AG2" s="216"/>
+      <c r="AH2" s="217"/>
       <c r="AI2" s="104"/>
       <c r="AJ2" s="103" t="s">
         <v>31</v>
@@ -18728,74 +18735,74 @@
       <c r="XFC2" s="105"/>
       <c r="XFD2" s="105"/>
     </row>
-    <row r="3" spans="1:16384" s="108" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="225" t="s">
+    <row r="3" spans="1:16384" s="108" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="211" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="220" t="s">
+      <c r="B3" s="206" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="222" t="s">
+      <c r="C3" s="208" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="225" t="s">
+      <c r="D3" s="211" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="228" t="s">
+      <c r="E3" s="214" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="224" t="s">
+      <c r="F3" s="210" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="209"/>
-      <c r="H3" s="210"/>
-      <c r="I3" s="210"/>
-      <c r="J3" s="210"/>
-      <c r="K3" s="210"/>
-      <c r="L3" s="210"/>
-      <c r="M3" s="211"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="222"/>
+      <c r="I3" s="222"/>
+      <c r="J3" s="222"/>
+      <c r="K3" s="222"/>
+      <c r="L3" s="222"/>
+      <c r="M3" s="223"/>
       <c r="N3" s="190" t="s">
         <v>149</v>
       </c>
-      <c r="O3" s="212">
+      <c r="O3" s="224">
         <f>DATE(2016,11,5)</f>
         <v>42679</v>
       </c>
-      <c r="P3" s="213"/>
+      <c r="P3" s="225"/>
       <c r="Q3" s="103" t="s">
         <v>149</v>
       </c>
-      <c r="R3" s="214">
+      <c r="R3" s="226">
         <f>DATE(2016,11,5)</f>
         <v>42679</v>
       </c>
-      <c r="S3" s="215"/>
+      <c r="S3" s="227"/>
       <c r="T3" s="191" t="s">
         <v>149</v>
       </c>
-      <c r="U3" s="214">
+      <c r="U3" s="226">
         <f>DATE(2016,11,26)</f>
         <v>42700</v>
       </c>
-      <c r="V3" s="215"/>
+      <c r="V3" s="227"/>
       <c r="W3" s="191" t="s">
         <v>149</v>
       </c>
-      <c r="X3" s="214">
+      <c r="X3" s="226">
         <f>DATE(2016,12,24)</f>
         <v>42728</v>
       </c>
-      <c r="Y3" s="215"/>
+      <c r="Y3" s="227"/>
       <c r="Z3" s="192" t="s">
         <v>149</v>
       </c>
-      <c r="AA3" s="216"/>
-      <c r="AB3" s="216"/>
+      <c r="AA3" s="228"/>
+      <c r="AB3" s="228"/>
       <c r="AC3" s="192" t="s">
         <v>149</v>
       </c>
-      <c r="AD3" s="216"/>
-      <c r="AE3" s="216"/>
+      <c r="AD3" s="228"/>
+      <c r="AE3" s="228"/>
       <c r="AF3" s="193"/>
       <c r="AG3" s="193"/>
       <c r="AH3" s="194"/>
@@ -18945,13 +18952,13 @@
       <c r="BT3" s="107"/>
       <c r="BU3" s="107"/>
     </row>
-    <row r="4" spans="1:16384" s="105" customFormat="1" ht="43.2">
-      <c r="A4" s="225"/>
-      <c r="B4" s="221"/>
-      <c r="C4" s="223"/>
-      <c r="D4" s="225"/>
-      <c r="E4" s="228"/>
-      <c r="F4" s="224"/>
+    <row r="4" spans="1:16384" s="105" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="211"/>
+      <c r="B4" s="207"/>
+      <c r="C4" s="209"/>
+      <c r="D4" s="211"/>
+      <c r="E4" s="214"/>
+      <c r="F4" s="210"/>
       <c r="G4" s="187" t="s">
         <v>114</v>
       </c>
@@ -19190,7 +19197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:16384" s="105" customFormat="1">
+    <row r="5" spans="1:16384" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -19363,7 +19370,7 @@
         <v>5.1177985033826117</v>
       </c>
     </row>
-    <row r="6" spans="1:16384" s="105" customFormat="1">
+    <row r="6" spans="1:16384" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>2</v>
       </c>
@@ -19540,7 +19547,7 @@
         <v>4.3944712998322588</v>
       </c>
     </row>
-    <row r="7" spans="1:16384" s="105" customFormat="1">
+    <row r="7" spans="1:16384" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>3</v>
       </c>
@@ -19718,7 +19725,7 @@
         <v>3.9809988485219483</v>
       </c>
     </row>
-    <row r="8" spans="1:16384" s="105" customFormat="1">
+    <row r="8" spans="1:16384" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>4</v>
       </c>
@@ -19900,7 +19907,7 @@
         <v>3.3359193155094733</v>
       </c>
     </row>
-    <row r="9" spans="1:16384" s="105" customFormat="1">
+    <row r="9" spans="1:16384" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>5</v>
       </c>
@@ -20087,7 +20094,7 @@
         <v>6.5237626376994786</v>
       </c>
     </row>
-    <row r="10" spans="1:16384" s="105" customFormat="1">
+    <row r="10" spans="1:16384" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>6</v>
       </c>
@@ -20274,7 +20281,7 @@
         <v>6.7137901385945575</v>
       </c>
     </row>
-    <row r="11" spans="1:16384" s="105" customFormat="1">
+    <row r="11" spans="1:16384" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>7</v>
       </c>
@@ -20461,7 +20468,7 @@
         <v>5.7939780384731323</v>
       </c>
     </row>
-    <row r="12" spans="1:16384" s="105" customFormat="1">
+    <row r="12" spans="1:16384" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>8</v>
       </c>
@@ -20638,7 +20645,7 @@
         <v>4.9341928547168079</v>
       </c>
     </row>
-    <row r="13" spans="1:16384" s="105" customFormat="1">
+    <row r="13" spans="1:16384" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>9</v>
       </c>
@@ -20821,7 +20828,7 @@
         <v>5.7173214500229443</v>
       </c>
     </row>
-    <row r="14" spans="1:16384" s="105" customFormat="1">
+    <row r="14" spans="1:16384" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>10</v>
       </c>
@@ -21003,7 +21010,7 @@
         <v>6.7864426017930546</v>
       </c>
     </row>
-    <row r="15" spans="1:16384" s="105" customFormat="1">
+    <row r="15" spans="1:16384" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>11</v>
       </c>
@@ -21170,7 +21177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16384" s="105" customFormat="1">
+    <row r="16" spans="1:16384" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>12</v>
       </c>
@@ -21348,7 +21355,7 @@
         <v>4.5438455036831602</v>
       </c>
     </row>
-    <row r="17" spans="1:73" s="105" customFormat="1">
+    <row r="17" spans="1:73" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>13</v>
       </c>
@@ -21538,7 +21545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:73" s="105" customFormat="1">
+    <row r="18" spans="1:73" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>14</v>
       </c>
@@ -21705,7 +21712,7 @@
         <v>2.0764796955145139</v>
       </c>
     </row>
-    <row r="19" spans="1:73" s="105" customFormat="1">
+    <row r="19" spans="1:73" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>15</v>
       </c>
@@ -21877,7 +21884,7 @@
         <v>4.3331791461207025</v>
       </c>
     </row>
-    <row r="20" spans="1:73" s="105" customFormat="1">
+    <row r="20" spans="1:73" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>16</v>
       </c>
@@ -22054,7 +22061,7 @@
         <v>4.6013593206291654</v>
       </c>
     </row>
-    <row r="21" spans="1:73" s="105" customFormat="1">
+    <row r="21" spans="1:73" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>17</v>
       </c>
@@ -22223,7 +22230,7 @@
         <v>4.2287508999153074</v>
       </c>
     </row>
-    <row r="22" spans="1:73" s="105" customFormat="1">
+    <row r="22" spans="1:73" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>18</v>
       </c>
@@ -22390,7 +22397,7 @@
         <v>2.3879516498416913</v>
       </c>
     </row>
-    <row r="23" spans="1:73" s="105" customFormat="1">
+    <row r="23" spans="1:73" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>19</v>
       </c>
@@ -22576,7 +22583,7 @@
         <v>4.5507206277858447</v>
       </c>
     </row>
-    <row r="24" spans="1:73" s="105" customFormat="1">
+    <row r="24" spans="1:73" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>20</v>
       </c>
@@ -22740,7 +22747,9 @@
       <c r="BO24" s="182">
         <v>2</v>
       </c>
-      <c r="BP24" s="100"/>
+      <c r="BP24" s="100" t="s">
+        <v>124</v>
+      </c>
       <c r="BQ24" s="198">
         <v>2</v>
       </c>
@@ -22755,7 +22764,7 @@
         <v>4.0499773686852514</v>
       </c>
     </row>
-    <row r="25" spans="1:73" s="105" customFormat="1">
+    <row r="25" spans="1:73" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>21</v>
       </c>
@@ -22905,7 +22914,9 @@
       <c r="BO25" s="100">
         <v>2</v>
       </c>
-      <c r="BP25" s="100"/>
+      <c r="BP25" s="100">
+        <v>2</v>
+      </c>
       <c r="BQ25" s="198" t="s">
         <v>124</v>
       </c>
@@ -22913,14 +22924,14 @@
       <c r="BS25" s="100"/>
       <c r="BT25" s="129">
         <f t="shared" si="9"/>
-        <v>35.07</v>
+        <v>37.07</v>
       </c>
       <c r="BU25" s="9">
         <f t="shared" si="4"/>
-        <v>1.9799233896730892</v>
+        <v>2.1875713592245405</v>
       </c>
     </row>
-    <row r="26" spans="1:73" s="105" customFormat="1">
+    <row r="26" spans="1:73" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>22</v>
       </c>
@@ -22989,11 +23000,15 @@
         <f t="shared" si="6"/>
         <v>2.2177314211212518</v>
       </c>
-      <c r="W26" s="21"/>
-      <c r="X26" s="147"/>
+      <c r="W26" s="21">
+        <v>4</v>
+      </c>
+      <c r="X26" s="147">
+        <v>42728</v>
+      </c>
       <c r="Y26" s="70">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z26" s="21"/>
       <c r="AA26" s="147"/>
@@ -23084,7 +23099,9 @@
       <c r="BO26" s="182" t="s">
         <v>124</v>
       </c>
-      <c r="BP26" s="100"/>
+      <c r="BP26" s="100">
+        <v>2</v>
+      </c>
       <c r="BQ26" s="100">
         <v>2</v>
       </c>
@@ -23092,14 +23109,14 @@
       <c r="BS26" s="100"/>
       <c r="BT26" s="129">
         <f t="shared" si="9"/>
-        <v>61.414826079040651</v>
+        <v>67.414826079040651</v>
       </c>
       <c r="BU26" s="9">
         <f t="shared" si="4"/>
-        <v>4.7151482114225471</v>
+        <v>5.3380921200769018</v>
       </c>
     </row>
-    <row r="27" spans="1:73" s="105" customFormat="1">
+    <row r="27" spans="1:73" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>23</v>
       </c>
@@ -23168,11 +23185,15 @@
         <f t="shared" si="6"/>
         <v>1.8481095176010431</v>
       </c>
-      <c r="W27" s="21"/>
-      <c r="X27" s="147"/>
+      <c r="W27" s="21">
+        <v>4</v>
+      </c>
+      <c r="X27" s="147">
+        <v>42728</v>
+      </c>
       <c r="Y27" s="70">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z27" s="21"/>
       <c r="AA27" s="147"/>
@@ -23262,7 +23283,9 @@
       <c r="BO27" s="182" t="s">
         <v>124</v>
       </c>
-      <c r="BP27" s="100"/>
+      <c r="BP27" s="100">
+        <v>2</v>
+      </c>
       <c r="BQ27" s="198">
         <v>1</v>
       </c>
@@ -23270,14 +23293,14 @@
       <c r="BS27" s="100"/>
       <c r="BT27" s="129">
         <f t="shared" si="9"/>
-        <v>55.654623107104321</v>
+        <v>61.654623107104321</v>
       </c>
       <c r="BU27" s="9">
         <f t="shared" si="4"/>
-        <v>4.1171009857591399</v>
+        <v>4.7400448944134936</v>
       </c>
     </row>
-    <row r="28" spans="1:73" s="105" customFormat="1">
+    <row r="28" spans="1:73" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>24</v>
       </c>
@@ -23321,11 +23344,15 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="147"/>
+      <c r="Q28" s="21">
+        <v>1</v>
+      </c>
+      <c r="R28" s="147">
+        <v>42728</v>
+      </c>
       <c r="S28" s="70">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.34395501405810697</v>
       </c>
       <c r="T28" s="21"/>
       <c r="U28" s="147"/>
@@ -23428,7 +23455,9 @@
       <c r="BO28" s="100">
         <v>2</v>
       </c>
-      <c r="BP28" s="100"/>
+      <c r="BP28" s="100">
+        <v>2</v>
+      </c>
       <c r="BQ28" s="100">
         <v>2</v>
       </c>
@@ -23436,14 +23465,14 @@
       <c r="BS28" s="100"/>
       <c r="BT28" s="129">
         <f t="shared" si="9"/>
-        <v>52.93</v>
+        <v>55.27395501405811</v>
       </c>
       <c r="BU28" s="9">
         <f t="shared" si="4"/>
-        <v>3.8342197577675501</v>
+        <v>4.0775785074621052</v>
       </c>
     </row>
-    <row r="29" spans="1:73" s="105" customFormat="1">
+    <row r="29" spans="1:73" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>25</v>
       </c>
@@ -23481,11 +23510,15 @@
       <c r="K29" s="41"/>
       <c r="L29" s="41"/>
       <c r="M29" s="70"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="147"/>
+      <c r="N29" s="51">
+        <v>3.5</v>
+      </c>
+      <c r="O29" s="147">
+        <v>42728</v>
+      </c>
       <c r="P29" s="70">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1.2038425492033744</v>
       </c>
       <c r="Q29" s="21"/>
       <c r="R29" s="147"/>
@@ -23594,7 +23627,9 @@
       <c r="BO29" s="100">
         <v>2</v>
       </c>
-      <c r="BP29" s="100"/>
+      <c r="BP29" s="100">
+        <v>2</v>
+      </c>
       <c r="BQ29" s="100">
         <v>2</v>
       </c>
@@ -23602,14 +23637,14 @@
       <c r="BS29" s="100"/>
       <c r="BT29" s="129">
         <f t="shared" si="9"/>
-        <v>53.45</v>
+        <v>56.653842549203375</v>
       </c>
       <c r="BU29" s="9">
         <f t="shared" si="4"/>
-        <v>3.8882082298509277</v>
+        <v>4.220843929903241</v>
       </c>
     </row>
-    <row r="30" spans="1:73" s="105" customFormat="1">
+    <row r="30" spans="1:73" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>26</v>
       </c>
@@ -23657,11 +23692,15 @@
         <f t="shared" si="8"/>
         <v>0.34395501405810697</v>
       </c>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="147"/>
+      <c r="Q30" s="21">
+        <v>1</v>
+      </c>
+      <c r="R30" s="147">
+        <v>42728</v>
+      </c>
       <c r="S30" s="70">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.34395501405810697</v>
       </c>
       <c r="T30" s="21"/>
       <c r="U30" s="147"/>
@@ -23763,7 +23802,9 @@
       <c r="BO30" s="100">
         <v>2</v>
       </c>
-      <c r="BP30" s="100"/>
+      <c r="BP30" s="100">
+        <v>2</v>
+      </c>
       <c r="BQ30" s="100">
         <v>2</v>
       </c>
@@ -23771,14 +23812,14 @@
       <c r="BS30" s="100"/>
       <c r="BT30" s="129">
         <f t="shared" si="9"/>
-        <v>50.653955014058113</v>
+        <v>52.997910028116223</v>
       </c>
       <c r="BU30" s="9">
         <f t="shared" si="4"/>
-        <v>3.5979116977982528</v>
+        <v>3.8412704474928079</v>
       </c>
     </row>
-    <row r="31" spans="1:73" s="105" customFormat="1">
+    <row r="31" spans="1:73" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>27</v>
       </c>
@@ -23847,11 +23888,15 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="W31" s="21"/>
-      <c r="X31" s="147"/>
+      <c r="W31" s="21">
+        <v>5</v>
+      </c>
+      <c r="X31" s="147">
+        <v>42728</v>
+      </c>
       <c r="Y31" s="70">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z31" s="21"/>
       <c r="AA31" s="147"/>
@@ -23942,7 +23987,9 @@
       <c r="BO31" s="182" t="s">
         <v>124</v>
       </c>
-      <c r="BP31" s="100"/>
+      <c r="BP31" s="100">
+        <v>2</v>
+      </c>
       <c r="BQ31" s="100">
         <v>2</v>
       </c>
@@ -23950,14 +23997,14 @@
       <c r="BS31" s="100"/>
       <c r="BT31" s="129">
         <f t="shared" si="9"/>
-        <v>74.195351452671048</v>
+        <v>81.195351452671034</v>
       </c>
       <c r="BU31" s="9">
         <f t="shared" si="4"/>
-        <v>6.0420732832401258</v>
+        <v>6.7688411766702039</v>
       </c>
     </row>
-    <row r="32" spans="1:73" s="105" customFormat="1">
+    <row r="32" spans="1:73" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>28</v>
       </c>
@@ -23995,17 +24042,23 @@
       <c r="K32" s="41"/>
       <c r="L32" s="41"/>
       <c r="M32" s="70"/>
-      <c r="N32" s="51"/>
+      <c r="N32" s="51">
+        <v>1</v>
+      </c>
       <c r="O32" s="147"/>
       <c r="P32" s="70">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="147"/>
+        <v>0.25023430178069367</v>
+      </c>
+      <c r="Q32" s="21">
+        <v>1</v>
+      </c>
+      <c r="R32" s="147">
+        <v>42728</v>
+      </c>
       <c r="S32" s="70">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.34395501405810697</v>
       </c>
       <c r="T32" s="21">
         <v>2.5</v>
@@ -24111,7 +24164,9 @@
       <c r="BO32" s="100">
         <v>2</v>
       </c>
-      <c r="BP32" s="100"/>
+      <c r="BP32" s="100">
+        <v>2</v>
+      </c>
       <c r="BQ32" s="100">
         <v>2</v>
       </c>
@@ -24119,14 +24174,14 @@
       <c r="BS32" s="100"/>
       <c r="BT32" s="129">
         <f t="shared" si="9"/>
-        <v>58.798109517601048</v>
+        <v>61.392298833439853</v>
       </c>
       <c r="BU32" s="9">
         <f t="shared" si="4"/>
-        <v>4.4434702709852525</v>
+        <v>4.7128093430182512</v>
       </c>
     </row>
-    <row r="33" spans="1:73" s="105" customFormat="1">
+    <row r="33" spans="1:73" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>29</v>
       </c>
@@ -24290,7 +24345,9 @@
       <c r="BO33" s="100">
         <v>2</v>
       </c>
-      <c r="BP33" s="100"/>
+      <c r="BP33" s="100" t="s">
+        <v>124</v>
+      </c>
       <c r="BQ33" s="100">
         <v>2</v>
       </c>
@@ -24305,7 +24362,7 @@
         <v>5.7090953628599586</v>
       </c>
     </row>
-    <row r="34" spans="1:73" s="105" customFormat="1">
+    <row r="34" spans="1:73" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>30</v>
       </c>
@@ -24473,18 +24530,20 @@
       <c r="BQ34" s="100">
         <v>2</v>
       </c>
-      <c r="BR34" s="100"/>
+      <c r="BR34" s="100">
+        <v>2</v>
+      </c>
       <c r="BS34" s="100"/>
       <c r="BT34" s="129">
         <f t="shared" si="9"/>
-        <v>67.256163340416364</v>
+        <v>69.256163340416364</v>
       </c>
       <c r="BU34" s="9">
         <f t="shared" si="4"/>
-        <v>5.3216191223174985</v>
+        <v>5.5292670918689497</v>
       </c>
     </row>
-    <row r="35" spans="1:73" s="105" customFormat="1">
+    <row r="35" spans="1:73" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>31</v>
       </c>
@@ -24663,7 +24722,7 @@
         <v>5.2323668596662429</v>
       </c>
     </row>
-    <row r="36" spans="1:73" s="105" customFormat="1">
+    <row r="36" spans="1:73" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>32</v>
       </c>
@@ -24843,7 +24902,7 @@
         <v>4.9136845523756669</v>
       </c>
     </row>
-    <row r="37" spans="1:73" s="105" customFormat="1">
+    <row r="37" spans="1:73" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>33</v>
       </c>
@@ -25024,7 +25083,7 @@
         <v>4.5510488778658047</v>
       </c>
     </row>
-    <row r="38" spans="1:73" s="105" customFormat="1">
+    <row r="38" spans="1:73" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>34</v>
       </c>
@@ -25090,11 +25149,15 @@
         <f t="shared" si="6"/>
         <v>1.8265971316818777</v>
       </c>
-      <c r="W38" s="21"/>
-      <c r="X38" s="147"/>
+      <c r="W38" s="21">
+        <v>3</v>
+      </c>
+      <c r="X38" s="147">
+        <v>42728</v>
+      </c>
       <c r="Y38" s="70">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z38" s="21"/>
       <c r="AA38" s="147"/>
@@ -25192,14 +25255,14 @@
       <c r="BS38" s="100"/>
       <c r="BT38" s="129">
         <f t="shared" si="9"/>
-        <v>57.326831433462573</v>
+        <v>60.326831433462573</v>
       </c>
       <c r="BU38" s="9">
         <f t="shared" si="4"/>
-        <v>4.2907163175768011</v>
+        <v>4.6021882719039775</v>
       </c>
     </row>
-    <row r="39" spans="1:73" s="105" customFormat="1">
+    <row r="39" spans="1:73" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>35</v>
       </c>
@@ -25363,7 +25426,9 @@
       <c r="BO39" s="182">
         <v>2</v>
       </c>
-      <c r="BP39" s="100"/>
+      <c r="BP39" s="100">
+        <v>2</v>
+      </c>
       <c r="BQ39" s="100">
         <v>2</v>
       </c>
@@ -25371,14 +25436,14 @@
       <c r="BS39" s="100"/>
       <c r="BT39" s="129">
         <f t="shared" si="9"/>
-        <v>58.430118354474459</v>
+        <v>60.430118354474459</v>
       </c>
       <c r="BU39" s="9">
         <f t="shared" si="4"/>
-        <v>4.4052639620671963</v>
+        <v>4.6129119316186475</v>
       </c>
     </row>
-    <row r="40" spans="1:73" s="105" customFormat="1">
+    <row r="40" spans="1:73" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>36</v>
       </c>
@@ -25557,7 +25622,7 @@
         <v>5.3502296013555641</v>
       </c>
     </row>
-    <row r="41" spans="1:73" s="105" customFormat="1">
+    <row r="41" spans="1:73" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>37</v>
       </c>
@@ -25722,7 +25787,7 @@
         <v>2.8696949392010587</v>
       </c>
     </row>
-    <row r="42" spans="1:73" s="105" customFormat="1">
+    <row r="42" spans="1:73" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>38</v>
       </c>
@@ -25830,8 +25895,8 @@
       <c r="AS42" s="100">
         <v>2</v>
       </c>
-      <c r="AT42" s="127" t="s">
-        <v>124</v>
+      <c r="AT42" s="127">
+        <v>2</v>
       </c>
       <c r="AU42" s="15" t="s">
         <v>124</v>
@@ -25894,14 +25959,14 @@
       <c r="BS42" s="100"/>
       <c r="BT42" s="129">
         <f t="shared" si="9"/>
-        <v>51.296977635329895</v>
+        <v>53.296977635329895</v>
       </c>
       <c r="BU42" s="9">
         <f t="shared" si="4"/>
-        <v>3.6646728686396215</v>
+        <v>3.8723208381910732</v>
       </c>
     </row>
-    <row r="43" spans="1:73" s="114" customFormat="1" ht="15" thickBot="1">
+    <row r="43" spans="1:73" s="114" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15">
         <v>39</v>
       </c>
@@ -26066,7 +26131,7 @@
         <v>4.1768389075274452</v>
       </c>
     </row>
-    <row r="44" spans="1:73">
+    <row r="44" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -26144,7 +26209,7 @@
       </c>
       <c r="AT44" s="8">
         <f t="shared" si="13"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU44" s="8">
         <f t="shared" si="13"/>
@@ -26232,7 +26297,7 @@
       </c>
       <c r="BP44" s="8">
         <f t="shared" si="14"/>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="BQ44" s="8">
         <f t="shared" si="14"/>
@@ -26240,7 +26305,7 @@
       </c>
       <c r="BR44" s="8">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BS44" s="8">
         <f t="shared" si="14"/>
@@ -26248,7 +26313,7 @@
       </c>
       <c r="BT44" s="130"/>
     </row>
-    <row r="45" spans="1:73">
+    <row r="45" spans="1:73" x14ac:dyDescent="0.25">
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45"/>
@@ -26269,7 +26334,7 @@
       </c>
       <c r="AV45" s="8"/>
     </row>
-    <row r="46" spans="1:73">
+    <row r="46" spans="1:73" x14ac:dyDescent="0.25">
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
@@ -26289,7 +26354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:73" ht="15" thickBot="1">
+    <row r="47" spans="1:73" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -26301,34 +26366,34 @@
       <c r="AM47" s="2"/>
       <c r="AQ47" s="4"/>
     </row>
-    <row r="48" spans="1:73">
-      <c r="A48" s="226" t="s">
+    <row r="48" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A48" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="220" t="s">
+      <c r="B48" s="206" t="s">
         <v>73</v>
       </c>
-      <c r="C48" s="222" t="s">
+      <c r="C48" s="208" t="s">
         <v>30</v>
       </c>
-      <c r="D48" s="220" t="s">
+      <c r="D48" s="206" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="220" t="s">
+      <c r="E48" s="206" t="s">
         <v>28</v>
       </c>
-      <c r="F48" s="227" t="s">
+      <c r="F48" s="213" t="s">
         <v>29</v>
       </c>
-      <c r="G48" s="217" t="s">
+      <c r="G48" s="203" t="s">
         <v>117</v>
       </c>
-      <c r="H48" s="218"/>
-      <c r="I48" s="218"/>
-      <c r="J48" s="218"/>
-      <c r="K48" s="218"/>
-      <c r="L48" s="218"/>
-      <c r="M48" s="219"/>
+      <c r="H48" s="204"/>
+      <c r="I48" s="204"/>
+      <c r="J48" s="204"/>
+      <c r="K48" s="204"/>
+      <c r="L48" s="204"/>
+      <c r="M48" s="205"/>
       <c r="N48" s="143" t="s">
         <v>118</v>
       </c>
@@ -26498,13 +26563,13 @@
       <c r="BT48" s="132"/>
       <c r="BU48" s="123"/>
     </row>
-    <row r="49" spans="1:73" ht="43.2">
-      <c r="A49" s="226"/>
-      <c r="B49" s="221"/>
-      <c r="C49" s="223"/>
-      <c r="D49" s="221"/>
-      <c r="E49" s="221"/>
-      <c r="F49" s="227"/>
+    <row r="49" spans="1:73" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="212"/>
+      <c r="B49" s="207"/>
+      <c r="C49" s="209"/>
+      <c r="D49" s="207"/>
+      <c r="E49" s="207"/>
+      <c r="F49" s="213"/>
       <c r="G49" s="68" t="s">
         <v>114</v>
       </c>
@@ -26743,7 +26808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:73" ht="15" customHeight="1">
+    <row r="50" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <v>1</v>
       </c>
@@ -26918,7 +26983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:73" ht="15" customHeight="1">
+    <row r="51" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="15">
         <v>2</v>
       </c>
@@ -27087,7 +27152,7 @@
         <v>6.7864426017930546</v>
       </c>
     </row>
-    <row r="52" spans="1:73" ht="15" customHeight="1">
+    <row r="52" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15">
         <v>3</v>
       </c>
@@ -27260,7 +27325,7 @@
         <v>6.7137901385945575</v>
       </c>
     </row>
-    <row r="53" spans="1:73" ht="15" customHeight="1">
+    <row r="53" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15">
         <v>4</v>
       </c>
@@ -27433,7 +27498,7 @@
         <v>6.5237626376994786</v>
       </c>
     </row>
-    <row r="54" spans="1:73" ht="15" customHeight="1">
+    <row r="54" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15">
         <v>5</v>
       </c>
@@ -27600,7 +27665,7 @@
         <v>6.0420732832401258</v>
       </c>
     </row>
-    <row r="55" spans="1:73" ht="15" customHeight="1">
+    <row r="55" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="15">
         <v>6</v>
       </c>
@@ -27773,7 +27838,7 @@
         <v>5.7939780384731323</v>
       </c>
     </row>
-    <row r="56" spans="1:73" ht="15" customHeight="1">
+    <row r="56" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15">
         <v>7</v>
       </c>
@@ -27942,7 +28007,7 @@
         <v>5.7173214500229443</v>
       </c>
     </row>
-    <row r="57" spans="1:73" ht="15" customHeight="1">
+    <row r="57" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15">
         <v>8</v>
       </c>
@@ -28109,7 +28174,7 @@
         <v>5.7090953628599586</v>
       </c>
     </row>
-    <row r="58" spans="1:73" ht="15" customHeight="1">
+    <row r="58" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15">
         <v>9</v>
       </c>
@@ -28276,7 +28341,7 @@
         <v>5.3502296013555641</v>
       </c>
     </row>
-    <row r="59" spans="1:73" ht="15" customHeight="1">
+    <row r="59" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="15">
         <v>10</v>
       </c>
@@ -28443,7 +28508,7 @@
         <v>5.3216191223174985</v>
       </c>
     </row>
-    <row r="60" spans="1:73" ht="15" customHeight="1">
+    <row r="60" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15">
         <v>11</v>
       </c>
@@ -28610,7 +28675,7 @@
         <v>5.2323668596662429</v>
       </c>
     </row>
-    <row r="61" spans="1:73" ht="15" customHeight="1">
+    <row r="61" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15">
         <v>12</v>
       </c>
@@ -28771,7 +28836,7 @@
         <v>5.1177985033826117</v>
       </c>
     </row>
-    <row r="62" spans="1:73" ht="15" customHeight="1">
+    <row r="62" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="15">
         <v>13</v>
       </c>
@@ -28936,7 +29001,7 @@
         <v>4.9341928547168079</v>
       </c>
     </row>
-    <row r="63" spans="1:73" ht="15" customHeight="1">
+    <row r="63" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="15">
         <v>14</v>
       </c>
@@ -29103,7 +29168,7 @@
         <v>4.9136845523756669</v>
       </c>
     </row>
-    <row r="64" spans="1:73" ht="15" customHeight="1">
+    <row r="64" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="15">
         <v>15</v>
       </c>
@@ -29270,7 +29335,7 @@
         <v>4.7151482114225471</v>
       </c>
     </row>
-    <row r="65" spans="1:73" ht="15" customHeight="1">
+    <row r="65" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="15">
         <v>16</v>
       </c>
@@ -29435,7 +29500,7 @@
         <v>4.6013593206291654</v>
       </c>
     </row>
-    <row r="66" spans="1:73" ht="15" customHeight="1">
+    <row r="66" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="15">
         <v>17</v>
       </c>
@@ -29602,7 +29667,7 @@
         <v>4.5510488778658047</v>
       </c>
     </row>
-    <row r="67" spans="1:73" ht="15" customHeight="1">
+    <row r="67" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="15">
         <v>18</v>
       </c>
@@ -29775,7 +29840,7 @@
         <v>4.5507206277858447</v>
       </c>
     </row>
-    <row r="68" spans="1:73" ht="15" customHeight="1">
+    <row r="68" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="15">
         <v>19</v>
       </c>
@@ -29940,7 +30005,7 @@
         <v>4.5438455036831602</v>
       </c>
     </row>
-    <row r="69" spans="1:73" ht="15" customHeight="1">
+    <row r="69" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="15">
         <v>20</v>
       </c>
@@ -30099,7 +30164,7 @@
         <v>4.4434702709852525</v>
       </c>
     </row>
-    <row r="70" spans="1:73" ht="15" customHeight="1">
+    <row r="70" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="15">
         <v>21</v>
       </c>
@@ -30266,7 +30331,7 @@
         <v>4.4052639620671963</v>
       </c>
     </row>
-    <row r="71" spans="1:73" ht="15" customHeight="1">
+    <row r="71" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15">
         <v>22</v>
       </c>
@@ -30431,7 +30496,7 @@
         <v>4.3944712998322588</v>
       </c>
     </row>
-    <row r="72" spans="1:73" ht="15" customHeight="1">
+    <row r="72" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15">
         <v>23</v>
       </c>
@@ -30592,7 +30657,7 @@
         <v>4.3331791461207025</v>
       </c>
     </row>
-    <row r="73" spans="1:73" ht="15" customHeight="1">
+    <row r="73" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="15">
         <v>24</v>
       </c>
@@ -30755,7 +30820,7 @@
         <v>4.2907163175768011</v>
       </c>
     </row>
-    <row r="74" spans="1:73" ht="15" customHeight="1">
+    <row r="74" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="15">
         <v>25</v>
       </c>
@@ -30912,7 +30977,7 @@
         <v>4.2287508999153074</v>
       </c>
     </row>
-    <row r="75" spans="1:73" ht="15" customHeight="1">
+    <row r="75" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="15">
         <v>26</v>
       </c>
@@ -31067,7 +31132,7 @@
         <v>4.1768389075274452</v>
       </c>
     </row>
-    <row r="76" spans="1:73" ht="15" customHeight="1">
+    <row r="76" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="15">
         <v>27</v>
       </c>
@@ -31234,7 +31299,7 @@
         <v>4.1171009857591399</v>
       </c>
     </row>
-    <row r="77" spans="1:73" ht="15" customHeight="1">
+    <row r="77" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="15">
         <v>28</v>
       </c>
@@ -31401,7 +31466,7 @@
         <v>4.0499773686852514</v>
       </c>
     </row>
-    <row r="78" spans="1:73" ht="15" customHeight="1">
+    <row r="78" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="15">
         <v>29</v>
       </c>
@@ -31566,7 +31631,7 @@
         <v>3.9809988485219483</v>
       </c>
     </row>
-    <row r="79" spans="1:73" ht="15" customHeight="1">
+    <row r="79" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="15">
         <v>30</v>
       </c>
@@ -31721,7 +31786,7 @@
         <v>3.8882082298509277</v>
       </c>
     </row>
-    <row r="80" spans="1:73" ht="15" customHeight="1">
+    <row r="80" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="15">
         <v>31</v>
       </c>
@@ -31876,7 +31941,7 @@
         <v>3.8342197577675501</v>
       </c>
     </row>
-    <row r="81" spans="1:73" ht="15" customHeight="1">
+    <row r="81" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="15">
         <v>32</v>
       </c>
@@ -32043,7 +32108,7 @@
         <v>3.6646728686396215</v>
       </c>
     </row>
-    <row r="82" spans="1:73" ht="15" customHeight="1">
+    <row r="82" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="15">
         <v>33</v>
       </c>
@@ -32202,7 +32267,7 @@
         <v>3.5979116977982528</v>
       </c>
     </row>
-    <row r="83" spans="1:73" ht="15" customHeight="1">
+    <row r="83" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="15">
         <v>34</v>
       </c>
@@ -32371,7 +32436,7 @@
         <v>3.3359193155094733</v>
       </c>
     </row>
-    <row r="84" spans="1:73" ht="15" customHeight="1">
+    <row r="84" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="15">
         <v>35</v>
       </c>
@@ -32526,7 +32591,7 @@
         <v>2.8696949392010587</v>
       </c>
     </row>
-    <row r="85" spans="1:73" ht="15" customHeight="1">
+    <row r="85" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="15">
         <v>36</v>
       </c>
@@ -32683,7 +32748,7 @@
         <v>2.3879516498416913</v>
       </c>
     </row>
-    <row r="86" spans="1:73" ht="15" customHeight="1">
+    <row r="86" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="15">
         <v>37</v>
       </c>
@@ -32840,7 +32905,7 @@
         <v>2.0764796955145139</v>
       </c>
     </row>
-    <row r="87" spans="1:73" ht="15" customHeight="1">
+    <row r="87" spans="1:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="15">
         <v>38</v>
       </c>
@@ -32995,7 +33060,7 @@
         <v>1.9799233896730892</v>
       </c>
     </row>
-    <row r="88" spans="1:73" ht="15" customHeight="1" thickBot="1">
+    <row r="88" spans="1:73" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="15">
         <v>41</v>
       </c>
@@ -33152,7 +33217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:73" ht="15" hidden="1" customHeight="1">
+    <row r="89" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="15"/>
       <c r="B89" s="12"/>
       <c r="C89" s="83"/>
@@ -33227,7 +33292,7 @@
       <c r="BT89" s="134"/>
       <c r="BU89" s="122"/>
     </row>
-    <row r="90" spans="1:73" ht="15" hidden="1" customHeight="1">
+    <row r="90" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="15"/>
       <c r="B90" s="12"/>
       <c r="C90" s="83"/>
@@ -33302,7 +33367,7 @@
       <c r="BT90" s="129"/>
       <c r="BU90" s="9"/>
     </row>
-    <row r="91" spans="1:73" ht="15" hidden="1" customHeight="1">
+    <row r="91" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="15"/>
       <c r="B91" s="12"/>
       <c r="C91" s="83"/>
@@ -33377,7 +33442,7 @@
       <c r="BT91" s="129"/>
       <c r="BU91" s="9"/>
     </row>
-    <row r="92" spans="1:73" ht="15" hidden="1" customHeight="1">
+    <row r="92" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="15"/>
       <c r="B92" s="12"/>
       <c r="C92" s="83"/>
@@ -33452,7 +33517,7 @@
       <c r="BT92" s="129"/>
       <c r="BU92" s="9"/>
     </row>
-    <row r="93" spans="1:73" ht="15" hidden="1" customHeight="1">
+    <row r="93" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="15"/>
       <c r="B93" s="12"/>
       <c r="C93" s="83"/>
@@ -33527,7 +33592,7 @@
       <c r="BT93" s="129"/>
       <c r="BU93" s="9"/>
     </row>
-    <row r="94" spans="1:73" ht="15" hidden="1" customHeight="1">
+    <row r="94" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="15"/>
       <c r="B94" s="12"/>
       <c r="C94" s="83"/>
@@ -33602,7 +33667,7 @@
       <c r="BT94" s="129"/>
       <c r="BU94" s="9"/>
     </row>
-    <row r="95" spans="1:73" ht="15" hidden="1" customHeight="1">
+    <row r="95" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="15"/>
       <c r="B95" s="12"/>
       <c r="C95" s="83"/>
@@ -33677,7 +33742,7 @@
       <c r="BT95" s="129"/>
       <c r="BU95" s="9"/>
     </row>
-    <row r="96" spans="1:73" ht="15" hidden="1" customHeight="1">
+    <row r="96" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="15"/>
       <c r="B96" s="12"/>
       <c r="C96" s="83"/>
@@ -33752,7 +33817,7 @@
       <c r="BT96" s="129"/>
       <c r="BU96" s="9"/>
     </row>
-    <row r="97" spans="1:73" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="15"/>
       <c r="B97" s="12"/>
       <c r="C97" s="83"/>
@@ -33827,7 +33892,7 @@
       <c r="BT97" s="129"/>
       <c r="BU97" s="9"/>
     </row>
-    <row r="98" spans="1:73" hidden="1">
+    <row r="98" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="13"/>
       <c r="B98" s="12"/>
       <c r="C98" s="83"/>
@@ -33902,7 +33967,7 @@
       <c r="BT98" s="129"/>
       <c r="BU98" s="9"/>
     </row>
-    <row r="99" spans="1:73" hidden="1">
+    <row r="99" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="13"/>
       <c r="B99" s="12"/>
       <c r="C99" s="83"/>
@@ -33977,7 +34042,7 @@
       <c r="BT99" s="129"/>
       <c r="BU99" s="9"/>
     </row>
-    <row r="100" spans="1:73" hidden="1">
+    <row r="100" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="13"/>
       <c r="B100" s="12"/>
       <c r="C100" s="83"/>
@@ -34052,7 +34117,7 @@
       <c r="BT100" s="129"/>
       <c r="BU100" s="9"/>
     </row>
-    <row r="101" spans="1:73" hidden="1">
+    <row r="101" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
       <c r="B101" s="12"/>
       <c r="C101" s="83"/>
@@ -34127,7 +34192,7 @@
       <c r="BT101" s="129"/>
       <c r="BU101" s="9"/>
     </row>
-    <row r="102" spans="1:73" hidden="1">
+    <row r="102" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="13"/>
       <c r="B102" s="12"/>
       <c r="C102" s="83"/>
@@ -34202,7 +34267,7 @@
       <c r="BT102" s="129"/>
       <c r="BU102" s="9"/>
     </row>
-    <row r="103" spans="1:73" hidden="1">
+    <row r="103" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13"/>
       <c r="B103" s="12"/>
       <c r="C103" s="83"/>
@@ -34277,7 +34342,7 @@
       <c r="BT103" s="129"/>
       <c r="BU103" s="9"/>
     </row>
-    <row r="104" spans="1:73" hidden="1">
+    <row r="104" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13"/>
       <c r="B104" s="12"/>
       <c r="C104" s="83"/>
@@ -34352,7 +34417,7 @@
       <c r="BT104" s="129"/>
       <c r="BU104" s="9"/>
     </row>
-    <row r="105" spans="1:73" hidden="1">
+    <row r="105" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13"/>
       <c r="B105" s="12"/>
       <c r="C105" s="83"/>
@@ -34427,7 +34492,7 @@
       <c r="BT105" s="129"/>
       <c r="BU105" s="9"/>
     </row>
-    <row r="106" spans="1:73" hidden="1">
+    <row r="106" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13"/>
       <c r="B106" s="12"/>
       <c r="C106" s="83"/>
@@ -34502,7 +34567,7 @@
       <c r="BT106" s="129"/>
       <c r="BU106" s="9"/>
     </row>
-    <row r="107" spans="1:73" hidden="1">
+    <row r="107" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="13"/>
       <c r="B107" s="12"/>
       <c r="C107" s="83"/>
@@ -34577,7 +34642,7 @@
       <c r="BT107" s="129"/>
       <c r="BU107" s="9"/>
     </row>
-    <row r="108" spans="1:73" hidden="1">
+    <row r="108" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="13"/>
       <c r="B108" s="12"/>
       <c r="C108" s="83"/>
@@ -34652,7 +34717,7 @@
       <c r="BT108" s="129"/>
       <c r="BU108" s="9"/>
     </row>
-    <row r="109" spans="1:73" hidden="1">
+    <row r="109" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="13"/>
       <c r="B109" s="12"/>
       <c r="C109" s="83"/>
@@ -34727,7 +34792,7 @@
       <c r="BT109" s="129"/>
       <c r="BU109" s="9"/>
     </row>
-    <row r="110" spans="1:73" hidden="1">
+    <row r="110" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="13"/>
       <c r="B110" s="12"/>
       <c r="C110" s="83"/>
@@ -34802,7 +34867,7 @@
       <c r="BT110" s="129"/>
       <c r="BU110" s="9"/>
     </row>
-    <row r="111" spans="1:73" hidden="1">
+    <row r="111" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="13"/>
       <c r="B111" s="12"/>
       <c r="C111" s="83"/>
@@ -34877,7 +34942,7 @@
       <c r="BT111" s="129"/>
       <c r="BU111" s="9"/>
     </row>
-    <row r="112" spans="1:73" hidden="1">
+    <row r="112" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="13"/>
       <c r="B112" s="12"/>
       <c r="C112" s="83"/>
@@ -34952,7 +35017,7 @@
       <c r="BT112" s="129"/>
       <c r="BU112" s="9"/>
     </row>
-    <row r="113" spans="1:73" hidden="1">
+    <row r="113" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="13"/>
       <c r="B113" s="12"/>
       <c r="C113" s="83"/>
@@ -35027,7 +35092,7 @@
       <c r="BT113" s="129"/>
       <c r="BU113" s="9"/>
     </row>
-    <row r="114" spans="1:73" hidden="1">
+    <row r="114" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="13"/>
       <c r="B114" s="12"/>
       <c r="C114" s="83"/>
@@ -35102,7 +35167,7 @@
       <c r="BT114" s="129"/>
       <c r="BU114" s="9"/>
     </row>
-    <row r="115" spans="1:73" hidden="1">
+    <row r="115" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="13"/>
       <c r="B115" s="12"/>
       <c r="C115" s="83"/>
@@ -35177,7 +35242,7 @@
       <c r="BT115" s="129"/>
       <c r="BU115" s="9"/>
     </row>
-    <row r="116" spans="1:73" hidden="1">
+    <row r="116" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="13"/>
       <c r="B116" s="12"/>
       <c r="C116" s="83"/>
@@ -35252,7 +35317,7 @@
       <c r="BT116" s="129"/>
       <c r="BU116" s="9"/>
     </row>
-    <row r="117" spans="1:73" hidden="1">
+    <row r="117" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="13"/>
       <c r="B117" s="12"/>
       <c r="C117" s="83"/>
@@ -35327,7 +35392,7 @@
       <c r="BT117" s="129"/>
       <c r="BU117" s="9"/>
     </row>
-    <row r="118" spans="1:73" hidden="1">
+    <row r="118" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="13"/>
       <c r="B118" s="12"/>
       <c r="C118" s="83"/>
@@ -35402,7 +35467,7 @@
       <c r="BT118" s="129"/>
       <c r="BU118" s="9"/>
     </row>
-    <row r="119" spans="1:73" hidden="1">
+    <row r="119" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="13"/>
       <c r="B119" s="12"/>
       <c r="C119" s="83"/>
@@ -35477,7 +35542,7 @@
       <c r="BT119" s="129"/>
       <c r="BU119" s="9"/>
     </row>
-    <row r="120" spans="1:73" hidden="1">
+    <row r="120" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="13"/>
       <c r="B120" s="12"/>
       <c r="C120" s="83"/>
@@ -35552,7 +35617,7 @@
       <c r="BT120" s="129"/>
       <c r="BU120" s="9"/>
     </row>
-    <row r="121" spans="1:73" hidden="1">
+    <row r="121" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="13"/>
       <c r="B121" s="12"/>
       <c r="C121" s="83"/>
@@ -35627,7 +35692,7 @@
       <c r="BT121" s="129"/>
       <c r="BU121" s="9"/>
     </row>
-    <row r="122" spans="1:73" hidden="1">
+    <row r="122" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="13"/>
       <c r="B122" s="12"/>
       <c r="C122" s="83"/>
@@ -35702,7 +35767,7 @@
       <c r="BT122" s="129"/>
       <c r="BU122" s="9"/>
     </row>
-    <row r="123" spans="1:73" ht="15" hidden="1" thickBot="1">
+    <row r="123" spans="1:73" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="13"/>
       <c r="B123" s="12"/>
       <c r="C123" s="83"/>
@@ -35777,7 +35842,7 @@
       <c r="BT123" s="129"/>
       <c r="BU123" s="9"/>
     </row>
-    <row r="124" spans="1:73" ht="15" hidden="1" customHeight="1">
+    <row r="124" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
@@ -35849,12 +35914,20 @@
       <c r="BS124" s="8"/>
       <c r="BT124" s="130"/>
     </row>
-    <row r="125" spans="1:73" ht="15" hidden="1" customHeight="1"/>
+    <row r="125" spans="1:73" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState ref="B50:BU88">
     <sortCondition descending="1" ref="BU50:BU88"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="N2:AH2"/>
+    <mergeCell ref="G2:M3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="G48:M48"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="C48:C49"/>
@@ -35868,14 +35941,6 @@
     <mergeCell ref="D48:D49"/>
     <mergeCell ref="E48:E49"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="N2:AH2"/>
-    <mergeCell ref="G2:M3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AD3:AE3"/>
   </mergeCells>
   <conditionalFormatting sqref="BU50:BU88">
     <cfRule type="expression" dxfId="13" priority="21">
@@ -35939,22 +36004,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV43"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="229" t="s">
         <v>116</v>
       </c>
@@ -36214,7 +36279,7 @@
       <c r="IU1" s="229"/>
       <c r="IV1" s="229"/>
     </row>
-    <row r="2" spans="1:256" ht="15" thickBot="1">
+    <row r="2" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="232" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -36230,7 +36295,7 @@
       <c r="J2" s="232"/>
       <c r="K2" s="232"/>
     </row>
-    <row r="3" spans="1:256" ht="15" customHeight="1">
+    <row r="3" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="233" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -36271,7 +36336,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15" thickBot="1">
+    <row r="4" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="234"/>
       <c r="B4" s="236"/>
       <c r="C4" s="238"/>
@@ -36284,7 +36349,7 @@
       <c r="J4" s="248"/>
       <c r="K4" s="249"/>
     </row>
-    <row r="5" spans="1:256" s="54" customFormat="1">
+    <row r="5" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="62">
         <v>1</v>
       </c>
@@ -36322,7 +36387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:256" s="54" customFormat="1">
+    <row r="6" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55">
         <v>2</v>
       </c>
@@ -36361,7 +36426,7 @@
       </c>
       <c r="M6" s="78"/>
     </row>
-    <row r="7" spans="1:256" s="54" customFormat="1">
+    <row r="7" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55">
         <v>3</v>
       </c>
@@ -36399,7 +36464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:256" s="54" customFormat="1">
+    <row r="8" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="55">
         <v>4</v>
       </c>
@@ -36437,7 +36502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:256" s="54" customFormat="1">
+    <row r="9" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="55">
         <v>5</v>
       </c>
@@ -36475,7 +36540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:256" s="54" customFormat="1">
+    <row r="10" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55">
         <v>6</v>
       </c>
@@ -36513,7 +36578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:256" s="54" customFormat="1">
+    <row r="11" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="55">
         <v>7</v>
       </c>
@@ -36551,7 +36616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:256" s="54" customFormat="1">
+    <row r="12" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55">
         <v>8</v>
       </c>
@@ -36589,7 +36654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:256" s="54" customFormat="1">
+    <row r="13" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55">
         <v>9</v>
       </c>
@@ -36627,7 +36692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="54" customFormat="1">
+    <row r="14" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55">
         <v>11</v>
       </c>
@@ -36665,7 +36730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="54" customFormat="1">
+    <row r="15" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55">
         <v>12</v>
       </c>
@@ -36703,7 +36768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:256" s="54" customFormat="1">
+    <row r="16" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="55">
         <v>13</v>
       </c>
@@ -36741,7 +36806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="54" customFormat="1">
+    <row r="17" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55">
         <v>15</v>
       </c>
@@ -36778,7 +36843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="54" customFormat="1">
+    <row r="18" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="55">
         <v>16</v>
       </c>
@@ -36816,7 +36881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="54" customFormat="1">
+    <row r="19" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55">
         <v>17</v>
       </c>
@@ -36854,7 +36919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="54" customFormat="1">
+    <row r="20" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55">
         <v>18</v>
       </c>
@@ -36892,7 +36957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="54" customFormat="1">
+    <row r="21" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55">
         <v>19</v>
       </c>
@@ -36930,7 +36995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="54" customFormat="1">
+    <row r="22" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="55">
         <v>20</v>
       </c>
@@ -36968,7 +37033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="54" customFormat="1">
+    <row r="23" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55">
         <v>21</v>
       </c>
@@ -37006,7 +37071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="54" customFormat="1">
+    <row r="24" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="55">
         <v>22</v>
       </c>
@@ -37044,7 +37109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="54" customFormat="1">
+    <row r="25" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="55">
         <v>23</v>
       </c>
@@ -37082,7 +37147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="54" customFormat="1">
+    <row r="26" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55">
         <v>24</v>
       </c>
@@ -37120,7 +37185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="54" customFormat="1">
+    <row r="27" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55">
         <v>25</v>
       </c>
@@ -37158,7 +37223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="54" customFormat="1">
+    <row r="28" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55">
         <v>26</v>
       </c>
@@ -37196,7 +37261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="54" customFormat="1">
+    <row r="29" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55">
         <v>27</v>
       </c>
@@ -37234,7 +37299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="54" customFormat="1">
+    <row r="30" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55">
         <v>28</v>
       </c>
@@ -37272,7 +37337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="54" customFormat="1">
+    <row r="31" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="55">
         <v>29</v>
       </c>
@@ -37310,7 +37375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="54" customFormat="1">
+    <row r="32" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="55">
         <v>30</v>
       </c>
@@ -37348,7 +37413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="54" customFormat="1">
+    <row r="33" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="55">
         <v>31</v>
       </c>
@@ -37386,7 +37451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="54" customFormat="1">
+    <row r="34" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="55">
         <v>32</v>
       </c>
@@ -37424,7 +37489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="54" customFormat="1">
+    <row r="35" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55">
         <v>33</v>
       </c>
@@ -37462,7 +37527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="54" customFormat="1">
+    <row r="36" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="55">
         <v>34</v>
       </c>
@@ -37500,7 +37565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="54" customFormat="1">
+    <row r="37" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="55">
         <v>35</v>
       </c>
@@ -37538,7 +37603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="54" customFormat="1">
+    <row r="38" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55">
         <v>37</v>
       </c>
@@ -37576,7 +37641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="54" customFormat="1">
+    <row r="39" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="55">
         <v>38</v>
       </c>
@@ -37614,7 +37679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="54" customFormat="1">
+    <row r="40" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="55">
         <v>39</v>
       </c>
@@ -37652,7 +37717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="54" customFormat="1">
+    <row r="41" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="55">
         <v>40</v>
       </c>
@@ -37690,7 +37755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="54" customFormat="1">
+    <row r="42" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="55">
         <v>41</v>
       </c>
@@ -37728,7 +37793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1">
+    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="56">
         <v>42</v>
       </c>
@@ -37787,23 +37852,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" style="77" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="2" customWidth="1"/>
-    <col min="3" max="27" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="9.109375" style="40"/>
+    <col min="1" max="1" width="31.28515625" style="77" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="2" customWidth="1"/>
+    <col min="3" max="27" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.140625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="229" t="s">
         <v>116</v>
       </c>
@@ -38063,7 +38128,7 @@
       <c r="IU1" s="229"/>
       <c r="IV1" s="229"/>
     </row>
-    <row r="2" spans="1:256" s="43" customFormat="1">
+    <row r="2" spans="1:256" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>127</v>
       </c>
@@ -38221,7 +38286,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:256" s="40" customFormat="1">
+    <row r="3" spans="1:256" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="77">
         <v>0</v>
       </c>
@@ -38379,7 +38444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:256">
+    <row r="4" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A4" s="77">
         <v>1</v>
       </c>
@@ -38587,7 +38652,7 @@
         <v>0.89695192324410611</v>
       </c>
     </row>
-    <row r="5" spans="1:256">
+    <row r="5" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A5" s="77">
         <f>A4+1</f>
         <v>2</v>
@@ -38796,7 +38861,7 @@
         <v>0.87018571255634025</v>
       </c>
     </row>
-    <row r="6" spans="1:256">
+    <row r="6" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A6" s="77">
         <f t="shared" ref="A6:A69" si="3">A5+1</f>
         <v>3</v>
@@ -39005,7 +39070,7 @@
         <v>0.84629551063873676</v>
       </c>
     </row>
-    <row r="7" spans="1:256">
+    <row r="7" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A7" s="77">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -39214,7 +39279,7 @@
         <v>0.82445642806579367</v>
       </c>
     </row>
-    <row r="8" spans="1:256">
+    <row r="8" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A8" s="77">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -39423,7 +39488,7 @@
         <v>0.80422263750866019</v>
       </c>
     </row>
-    <row r="9" spans="1:256">
+    <row r="9" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A9" s="77">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -39632,7 +39697,7 @@
         <v>0.78531313248338608</v>
       </c>
     </row>
-    <row r="10" spans="1:256">
+    <row r="10" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A10" s="77">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -39841,7 +39906,7 @@
         <v>0.76753310411070741</v>
       </c>
     </row>
-    <row r="11" spans="1:256">
+    <row r="11" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A11" s="77">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -40050,7 +40115,7 @@
         <v>0.75073850127167796</v>
       </c>
     </row>
-    <row r="12" spans="1:256">
+    <row r="12" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A12" s="77">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -40259,7 +40324,7 @@
         <v>0.73481776731189774</v>
       </c>
     </row>
-    <row r="13" spans="1:256">
+    <row r="13" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A13" s="77">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -40468,7 +40533,7 @@
         <v>0.71968148502792184</v>
       </c>
     </row>
-    <row r="14" spans="1:256">
+    <row r="14" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A14" s="77">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -40677,7 +40742,7 @@
         <v>0.70525606632121929</v>
       </c>
     </row>
-    <row r="15" spans="1:256">
+    <row r="15" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A15" s="77">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -40886,7 +40951,7 @@
         <v>0.69147968248291725</v>
       </c>
     </row>
-    <row r="16" spans="1:256">
+    <row r="16" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A16" s="77">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -41095,7 +41160,7 @@
         <v>0.67829951653884102</v>
       </c>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" s="77">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -41304,7 +41369,7 @@
         <v>0.66566983669222213</v>
       </c>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A18" s="77">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -41513,7 +41578,7 @@
         <v>0.65355060191796732</v>
       </c>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19" s="77">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -41722,7 +41787,7 @@
         <v>0.64190642508943729</v>
       </c>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20" s="77">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -41931,7 +41996,7 @@
         <v>0.63070578385177745</v>
       </c>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A21" s="77">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -42140,7 +42205,7 @@
         <v>0.61992040782875424</v>
       </c>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A22" s="77">
         <f t="shared" si="3"/>
         <v>19</v>
@@ -42349,7 +42414,7 @@
         <v>0.60952479431466833</v>
       </c>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A23" s="77">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -42558,7 +42623,7 @@
         <v>0.59949581954633846</v>
       </c>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A24" s="77">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -42767,7 +42832,7 @@
         <v>0.58981242239837206</v>
       </c>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A25" s="77">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -42976,7 +43041,7 @@
         <v>0.58045534386588959</v>
       </c>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A26" s="77">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -43185,7 +43250,7 @@
         <v>0.57140691016010958</v>
       </c>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A27" s="77">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -43394,7 +43459,7 @@
         <v>0.56265085035673512</v>
       </c>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A28" s="77">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -43603,7 +43668,7 @@
         <v>0.55417214175163687</v>
       </c>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A29" s="77">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -43812,7 +43877,7 @@
         <v>0.54595687767947287</v>
       </c>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A30" s="77">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -44021,7 +44086,7 @@
         <v>0.53799215372631093</v>
       </c>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A31" s="77">
         <f t="shared" si="3"/>
         <v>28</v>
@@ -44230,7 +44295,7 @@
         <v>0.53026596914239565</v>
       </c>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A32" s="77">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -44439,7 +44504,7 @@
         <v>0.52276714092111976</v>
       </c>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A33" s="77">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -44648,7 +44713,7 @@
         <v>0.51548522851390399</v>
       </c>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A34" s="77">
         <f t="shared" si="3"/>
         <v>31</v>
@@ -44857,7 +44922,7 @@
         <v>0.50841046753931596</v>
       </c>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A35" s="77">
         <f t="shared" si="3"/>
         <v>32</v>
@@ -45066,7 +45131,7 @@
         <v>0.5015337111477397</v>
       </c>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A36" s="77">
         <f t="shared" si="3"/>
         <v>33</v>
@@ -45275,7 +45340,7 @@
         <v>0.49484637794137742</v>
       </c>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A37" s="77">
         <f t="shared" si="3"/>
         <v>34</v>
@@ -45484,7 +45549,7 @@
         <v>0.48834040553873787</v>
       </c>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A38" s="77">
         <f t="shared" si="3"/>
         <v>35</v>
@@ -45693,7 +45758,7 @@
         <v>0.48200820902440999</v>
       </c>
     </row>
-    <row r="39" spans="1:52">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A39" s="77">
         <f t="shared" si="3"/>
         <v>36</v>
@@ -45902,7 +45967,7 @@
         <v>0.4758426436472955</v>
       </c>
     </row>
-    <row r="40" spans="1:52">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A40" s="77">
         <f t="shared" si="3"/>
         <v>37</v>
@@ -46111,7 +46176,7 @@
         <v>0.46983697122996571</v>
       </c>
     </row>
-    <row r="41" spans="1:52">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A41" s="77">
         <f t="shared" si="3"/>
         <v>38</v>
@@ -46320,7 +46385,7 @@
         <v>0.46398482983322931</v>
       </c>
     </row>
-    <row r="42" spans="1:52">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A42" s="77">
         <f t="shared" si="3"/>
         <v>39</v>
@@ -46529,7 +46594,7 @@
         <v>0.45828020628708993</v>
       </c>
     </row>
-    <row r="43" spans="1:52">
+    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A43" s="77">
         <f t="shared" si="3"/>
         <v>40</v>
@@ -46738,7 +46803,7 @@
         <v>0.45271741125486509</v>
       </c>
     </row>
-    <row r="44" spans="1:52">
+    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A44" s="77">
         <f t="shared" si="3"/>
         <v>41</v>
@@ -46947,7 +47012,7 @@
         <v>0.44729105654358564</v>
       </c>
     </row>
-    <row r="45" spans="1:52">
+    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A45" s="77">
         <f t="shared" si="3"/>
         <v>42</v>
@@ -47156,7 +47221,7 @@
         <v>0.44199603441263408</v>
       </c>
     </row>
-    <row r="46" spans="1:52">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A46" s="77">
         <f t="shared" si="3"/>
         <v>43</v>
@@ -47365,7 +47430,7 @@
         <v>0.43682749866529708</v>
       </c>
     </row>
-    <row r="47" spans="1:52">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A47" s="77">
         <f t="shared" si="3"/>
         <v>44</v>
@@ -47574,7 +47639,7 @@
         <v>0.43178084733559291</v>
       </c>
     </row>
-    <row r="48" spans="1:52">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A48" s="77">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -47783,7 +47848,7 @@
         <v>0.42685170680628148</v>
       </c>
     </row>
-    <row r="49" spans="1:52">
+    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A49" s="77">
         <f t="shared" si="3"/>
         <v>46</v>
@@ -47992,7 +48057,7 @@
         <v>0.42203591721406519</v>
       </c>
     </row>
-    <row r="50" spans="1:52">
+    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A50" s="77">
         <f t="shared" si="3"/>
         <v>47</v>
@@ -48201,7 +48266,7 @@
         <v>0.41732951901522114</v>
       </c>
     </row>
-    <row r="51" spans="1:52">
+    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A51" s="77">
         <f t="shared" si="3"/>
         <v>48</v>
@@ -48410,7 +48475,7 @@
         <v>0.41272874059974574</v>
       </c>
     </row>
-    <row r="52" spans="1:52">
+    <row r="52" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A52" s="77">
         <f t="shared" si="3"/>
         <v>49</v>
@@ -48619,7 +48684,7 @@
         <v>0.40822998685489836</v>
       </c>
     </row>
-    <row r="53" spans="1:52">
+    <row r="53" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A53" s="77">
         <f t="shared" si="3"/>
         <v>50</v>
@@ -48828,7 +48893,7 @@
         <v>0.40382982859014716</v>
       </c>
     </row>
-    <row r="54" spans="1:52">
+    <row r="54" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A54" s="77">
         <f t="shared" si="3"/>
         <v>51</v>
@@ -49037,7 +49102,7 @@
         <v>0.39952499274517511</v>
       </c>
     </row>
-    <row r="55" spans="1:52">
+    <row r="55" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A55" s="77">
         <f t="shared" si="3"/>
         <v>52</v>
@@ -49246,7 +49311,7 @@
         <v>0.39531235331103515</v>
       </c>
     </row>
-    <row r="56" spans="1:52">
+    <row r="56" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A56" s="77">
         <f t="shared" si="3"/>
         <v>53</v>
@@ -49455,7 +49520,7 @@
         <v>0.39118892290191981</v>
       </c>
     </row>
-    <row r="57" spans="1:52">
+    <row r="57" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A57" s="77">
         <f t="shared" si="3"/>
         <v>54</v>
@@ -49664,7 +49729,7 @@
         <v>0.38715184492148302</v>
       </c>
     </row>
-    <row r="58" spans="1:52">
+    <row r="58" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A58" s="77">
         <f t="shared" si="3"/>
         <v>55</v>
@@ -49873,7 +49938,7 @@
         <v>0.3831983862733474</v>
       </c>
     </row>
-    <row r="59" spans="1:52">
+    <row r="59" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A59" s="77">
         <f t="shared" si="3"/>
         <v>56</v>
@@ -50082,7 +50147,7 @@
         <v>0.37932593057045705</v>
       </c>
     </row>
-    <row r="60" spans="1:52">
+    <row r="60" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A60" s="77">
         <f t="shared" si="3"/>
         <v>57</v>
@@ -50291,7 +50356,7 @@
         <v>0.37553197180237941</v>
       </c>
     </row>
-    <row r="61" spans="1:52">
+    <row r="61" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A61" s="77">
         <f t="shared" si="3"/>
         <v>58</v>
@@ -50500,7 +50565,7 @@
         <v>0.37181410842360219</v>
       </c>
     </row>
-    <row r="62" spans="1:52">
+    <row r="62" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A62" s="77">
         <f t="shared" si="3"/>
         <v>59</v>
@@ -50709,7 +50774,7 @@
         <v>0.36817003782937135</v>
       </c>
     </row>
-    <row r="63" spans="1:52">
+    <row r="63" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A63" s="77">
         <f t="shared" si="3"/>
         <v>60</v>
@@ -50918,7 +50983,7 @@
         <v>0.36459755118873494</v>
       </c>
     </row>
-    <row r="64" spans="1:52">
+    <row r="64" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A64" s="77">
         <f t="shared" si="3"/>
         <v>61</v>
@@ -51127,7 +51192,7 @@
         <v>0.36109452860724189</v>
       </c>
     </row>
-    <row r="65" spans="1:52">
+    <row r="65" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A65" s="77">
         <f t="shared" si="3"/>
         <v>62</v>
@@ -51336,7 +51401,7 @@
         <v>0.35765893459423009</v>
       </c>
     </row>
-    <row r="66" spans="1:52">
+    <row r="66" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A66" s="77">
         <f t="shared" si="3"/>
         <v>63</v>
@@ -51545,7 +51610,7 @@
         <v>0.35428881381187033</v>
       </c>
     </row>
-    <row r="67" spans="1:52">
+    <row r="67" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A67" s="77">
         <f t="shared" si="3"/>
         <v>64</v>
@@ -51754,7 +51819,7 @@
         <v>0.35098228708513207</v>
       </c>
     </row>
-    <row r="68" spans="1:52">
+    <row r="68" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A68" s="77">
         <f t="shared" si="3"/>
         <v>65</v>
@@ -51963,7 +52028,7 @@
         <v>0.3477375476536349</v>
       </c>
     </row>
-    <row r="69" spans="1:52">
+    <row r="69" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A69" s="77">
         <f t="shared" si="3"/>
         <v>66</v>
@@ -52172,7 +52237,7 @@
         <v>0.34455285764797311</v>
       </c>
     </row>
-    <row r="70" spans="1:52">
+    <row r="70" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A70" s="77">
         <f t="shared" ref="A70:A103" si="22">A69+1</f>
         <v>67</v>
@@ -52381,7 +52446,7 @@
         <v>0.34142654477455808</v>
       </c>
     </row>
-    <row r="71" spans="1:52">
+    <row r="71" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A71" s="77">
         <f t="shared" si="22"/>
         <v>68</v>
@@ -52590,7 +52655,7 @@
         <v>0.33835699919434897</v>
       </c>
     </row>
-    <row r="72" spans="1:52">
+    <row r="72" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A72" s="77">
         <f t="shared" si="22"/>
         <v>69</v>
@@ -52799,7 +52864,7 @@
         <v>0.33534267058203321</v>
       </c>
     </row>
-    <row r="73" spans="1:52">
+    <row r="73" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A73" s="77">
         <f t="shared" si="22"/>
         <v>70</v>
@@ -53008,7 +53073,7 @@
         <v>0.33238206535330334</v>
       </c>
     </row>
-    <row r="74" spans="1:52">
+    <row r="74" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A74" s="77">
         <f t="shared" si="22"/>
         <v>71</v>
@@ -53217,7 +53282,7 @@
         <v>0.32947374404886082</v>
       </c>
     </row>
-    <row r="75" spans="1:52">
+    <row r="75" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A75" s="77">
         <f t="shared" si="22"/>
         <v>72</v>
@@ -53426,7 +53491,7 @@
         <v>0.32661631886466974</v>
       </c>
     </row>
-    <row r="76" spans="1:52">
+    <row r="76" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A76" s="77">
         <f t="shared" si="22"/>
         <v>73</v>
@@ -53635,7 +53700,7 @@
         <v>0.32380845131879504</v>
       </c>
     </row>
-    <row r="77" spans="1:52">
+    <row r="77" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A77" s="77">
         <f t="shared" si="22"/>
         <v>74</v>
@@ -53844,7 +53909,7 @@
         <v>0.32104885004590483</v>
       </c>
     </row>
-    <row r="78" spans="1:52">
+    <row r="78" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A78" s="77">
         <f t="shared" si="22"/>
         <v>75</v>
@@ -54053,7 +54118,7 @@
         <v>0.31833626871118842</v>
       </c>
     </row>
-    <row r="79" spans="1:52">
+    <row r="79" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A79" s="77">
         <f t="shared" si="22"/>
         <v>76</v>
@@ -54262,7 +54327,7 @@
         <v>0.31566950403605964</v>
       </c>
     </row>
-    <row r="80" spans="1:52">
+    <row r="80" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A80" s="77">
         <f t="shared" si="22"/>
         <v>77</v>
@@ -54471,7 +54536,7 @@
         <v>0.31304739392858366</v>
       </c>
     </row>
-    <row r="81" spans="1:52">
+    <row r="81" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A81" s="77">
         <f t="shared" si="22"/>
         <v>78</v>
@@ -54680,7 +54745,7 @@
         <v>0.31046881571207507</v>
       </c>
     </row>
-    <row r="82" spans="1:52">
+    <row r="82" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A82" s="77">
         <f t="shared" si="22"/>
         <v>79</v>
@@ -54889,7 +54954,7 @@
         <v>0.3079326844457963</v>
       </c>
     </row>
-    <row r="83" spans="1:52">
+    <row r="83" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A83" s="77">
         <f t="shared" si="22"/>
         <v>80</v>
@@ -55098,7 +55163,7 @@
         <v>0.30543795133211471</v>
       </c>
     </row>
-    <row r="84" spans="1:52">
+    <row r="84" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A84" s="77">
         <f t="shared" si="22"/>
         <v>81</v>
@@ -55307,7 +55372,7 @@
         <v>0.30298360220487908</v>
       </c>
     </row>
-    <row r="85" spans="1:52">
+    <row r="85" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A85" s="77">
         <f t="shared" si="22"/>
         <v>82</v>
@@ -55516,7 +55581,7 @@
         <v>0.30056865609414096</v>
       </c>
     </row>
-    <row r="86" spans="1:52">
+    <row r="86" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A86" s="77">
         <f t="shared" si="22"/>
         <v>83</v>
@@ -55725,7 +55790,7 @@
         <v>0.29819216386268604</v>
       </c>
     </row>
-    <row r="87" spans="1:52">
+    <row r="87" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A87" s="77">
         <f t="shared" si="22"/>
         <v>84</v>
@@ -55934,7 +55999,7 @@
         <v>0.29585320691014999</v>
       </c>
     </row>
-    <row r="88" spans="1:52">
+    <row r="88" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A88" s="77">
         <f t="shared" si="22"/>
         <v>85</v>
@@ -56143,7 +56208,7 @@
         <v>0.29355089594078115</v>
       </c>
     </row>
-    <row r="89" spans="1:52">
+    <row r="89" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A89" s="77">
         <f t="shared" si="22"/>
         <v>86</v>
@@ -56352,7 +56417,7 @@
         <v>0.29128436979117783</v>
       </c>
     </row>
-    <row r="90" spans="1:52">
+    <row r="90" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A90" s="77">
         <f t="shared" si="22"/>
         <v>87</v>
@@ -56561,7 +56626,7 @@
         <v>0.28905279431456948</v>
       </c>
     </row>
-    <row r="91" spans="1:52">
+    <row r="91" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A91" s="77">
         <f t="shared" si="22"/>
         <v>88</v>
@@ -56770,7 +56835,7 @@
         <v>0.28685536131844031</v>
       </c>
     </row>
-    <row r="92" spans="1:52">
+    <row r="92" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A92" s="77">
         <f t="shared" si="22"/>
         <v>89</v>
@@ -56979,7 +57044,7 @@
         <v>0.28469128755250095</v>
       </c>
     </row>
-    <row r="93" spans="1:52">
+    <row r="93" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A93" s="77">
         <f t="shared" si="22"/>
         <v>90</v>
@@ -57188,7 +57253,7 @@
         <v>0.28255981374420847</v>
       </c>
     </row>
-    <row r="94" spans="1:52">
+    <row r="94" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A94" s="77">
         <f t="shared" si="22"/>
         <v>91</v>
@@ -57397,7 +57462,7 @@
         <v>0.28046020367921182</v>
       </c>
     </row>
-    <row r="95" spans="1:52">
+    <row r="95" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A95" s="77">
         <f t="shared" si="22"/>
         <v>92</v>
@@ -57606,7 +57671,7 @@
         <v>0.27839174332427152</v>
       </c>
     </row>
-    <row r="96" spans="1:52">
+    <row r="96" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A96" s="77">
         <f t="shared" si="22"/>
         <v>93</v>
@@ -57815,7 +57880,7 @@
         <v>0.27635373999034968</v>
       </c>
     </row>
-    <row r="97" spans="1:52">
+    <row r="97" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A97" s="77">
         <f t="shared" si="22"/>
         <v>94</v>
@@ -58024,7 +58089,7 @@
         <v>0.27434552153371461</v>
       </c>
     </row>
-    <row r="98" spans="1:52">
+    <row r="98" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A98" s="77">
         <f t="shared" si="22"/>
         <v>95</v>
@@ -58233,7 +58298,7 @@
         <v>0.27236643559303747</v>
       </c>
     </row>
-    <row r="99" spans="1:52">
+    <row r="99" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A99" s="77">
         <f t="shared" si="22"/>
         <v>96</v>
@@ -58442,7 +58507,7 @@
         <v>0.27041584886057934</v>
       </c>
     </row>
-    <row r="100" spans="1:52">
+    <row r="100" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A100" s="77">
         <f t="shared" si="22"/>
         <v>97</v>
@@ -58651,7 +58716,7 @@
         <v>0.26849314638568411</v>
       </c>
     </row>
-    <row r="101" spans="1:52">
+    <row r="101" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A101" s="77">
         <f t="shared" si="22"/>
         <v>98</v>
@@ -58860,7 +58925,7 @@
         <v>0.26659773090890115</v>
       </c>
     </row>
-    <row r="102" spans="1:52">
+    <row r="102" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A102" s="77">
         <f t="shared" si="22"/>
         <v>99</v>
@@ -59069,7 +59134,7 @@
         <v>0.26472902222515887</v>
       </c>
     </row>
-    <row r="103" spans="1:52">
+    <row r="103" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A103" s="77">
         <f t="shared" si="22"/>
         <v>100</v>
@@ -59278,7 +59343,7 @@
         <v>0.26288645657450682</v>
       </c>
     </row>
-    <row r="104" spans="1:52">
+    <row r="104" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C104" s="38"/>
       <c r="D104" s="38"/>
       <c r="E104" s="38"/>
@@ -59330,7 +59395,7 @@
       <c r="AY104" s="38"/>
       <c r="AZ104" s="61"/>
     </row>
-    <row r="105" spans="1:52">
+    <row r="105" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C105" s="38"/>
       <c r="D105" s="38"/>
       <c r="E105" s="38"/>
@@ -59382,7 +59447,7 @@
       <c r="AY105" s="38"/>
       <c r="AZ105" s="61"/>
     </row>
-    <row r="106" spans="1:52">
+    <row r="106" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C106" s="38"/>
       <c r="D106" s="38"/>
       <c r="E106" s="38"/>
@@ -59434,7 +59499,7 @@
       <c r="AY106" s="38"/>
       <c r="AZ106" s="61"/>
     </row>
-    <row r="107" spans="1:52">
+    <row r="107" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C107" s="38"/>
       <c r="D107" s="38"/>
       <c r="E107" s="38"/>
@@ -59486,7 +59551,7 @@
       <c r="AY107" s="38"/>
       <c r="AZ107" s="61"/>
     </row>
-    <row r="108" spans="1:52">
+    <row r="108" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C108" s="38"/>
       <c r="D108" s="38"/>
       <c r="E108" s="38"/>
@@ -59538,7 +59603,7 @@
       <c r="AY108" s="38"/>
       <c r="AZ108" s="61"/>
     </row>
-    <row r="109" spans="1:52">
+    <row r="109" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C109" s="38"/>
       <c r="D109" s="38"/>
       <c r="E109" s="38"/>
@@ -59590,7 +59655,7 @@
       <c r="AY109" s="38"/>
       <c r="AZ109" s="61"/>
     </row>
-    <row r="110" spans="1:52">
+    <row r="110" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C110" s="38"/>
       <c r="D110" s="38"/>
       <c r="E110" s="38"/>
@@ -59642,7 +59707,7 @@
       <c r="AY110" s="38"/>
       <c r="AZ110" s="61"/>
     </row>
-    <row r="111" spans="1:52">
+    <row r="111" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C111" s="38"/>
       <c r="D111" s="38"/>
       <c r="E111" s="38"/>
@@ -59694,7 +59759,7 @@
       <c r="AY111" s="38"/>
       <c r="AZ111" s="61"/>
     </row>
-    <row r="112" spans="1:52">
+    <row r="112" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C112" s="38"/>
       <c r="D112" s="38"/>
       <c r="E112" s="38"/>
@@ -59746,7 +59811,7 @@
       <c r="AY112" s="38"/>
       <c r="AZ112" s="61"/>
     </row>
-    <row r="113" spans="3:52">
+    <row r="113" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C113" s="38"/>
       <c r="D113" s="38"/>
       <c r="E113" s="38"/>
@@ -59798,7 +59863,7 @@
       <c r="AY113" s="38"/>
       <c r="AZ113" s="61"/>
     </row>
-    <row r="114" spans="3:52">
+    <row r="114" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C114" s="38"/>
       <c r="D114" s="38"/>
       <c r="E114" s="38"/>
@@ -59850,7 +59915,7 @@
       <c r="AY114" s="38"/>
       <c r="AZ114" s="61"/>
     </row>
-    <row r="115" spans="3:52">
+    <row r="115" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C115" s="38"/>
       <c r="D115" s="38"/>
       <c r="E115" s="38"/>
@@ -59902,7 +59967,7 @@
       <c r="AY115" s="38"/>
       <c r="AZ115" s="61"/>
     </row>
-    <row r="116" spans="3:52">
+    <row r="116" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C116" s="38"/>
       <c r="D116" s="38"/>
       <c r="E116" s="38"/>
@@ -59954,7 +60019,7 @@
       <c r="AY116" s="38"/>
       <c r="AZ116" s="61"/>
     </row>
-    <row r="117" spans="3:52">
+    <row r="117" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C117" s="38"/>
       <c r="D117" s="38"/>
       <c r="E117" s="38"/>
@@ -60006,7 +60071,7 @@
       <c r="AY117" s="38"/>
       <c r="AZ117" s="61"/>
     </row>
-    <row r="118" spans="3:52">
+    <row r="118" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C118" s="38"/>
       <c r="D118" s="38"/>
       <c r="E118" s="38"/>
@@ -60058,7 +60123,7 @@
       <c r="AY118" s="38"/>
       <c r="AZ118" s="61"/>
     </row>
-    <row r="119" spans="3:52">
+    <row r="119" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C119" s="38"/>
       <c r="D119" s="38"/>
       <c r="E119" s="38"/>
@@ -60110,7 +60175,7 @@
       <c r="AY119" s="38"/>
       <c r="AZ119" s="61"/>
     </row>
-    <row r="120" spans="3:52">
+    <row r="120" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C120" s="38"/>
       <c r="D120" s="38"/>
       <c r="E120" s="38"/>
@@ -60162,7 +60227,7 @@
       <c r="AY120" s="38"/>
       <c r="AZ120" s="61"/>
     </row>
-    <row r="121" spans="3:52">
+    <row r="121" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C121" s="38"/>
       <c r="D121" s="38"/>
       <c r="E121" s="38"/>
@@ -60214,7 +60279,7 @@
       <c r="AY121" s="38"/>
       <c r="AZ121" s="61"/>
     </row>
-    <row r="122" spans="3:52">
+    <row r="122" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C122" s="38"/>
       <c r="D122" s="38"/>
       <c r="E122" s="38"/>
@@ -60266,7 +60331,7 @@
       <c r="AY122" s="38"/>
       <c r="AZ122" s="61"/>
     </row>
-    <row r="123" spans="3:52">
+    <row r="123" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C123" s="38"/>
       <c r="D123" s="38"/>
       <c r="E123" s="38"/>
@@ -60318,7 +60383,7 @@
       <c r="AY123" s="38"/>
       <c r="AZ123" s="61"/>
     </row>
-    <row r="124" spans="3:52">
+    <row r="124" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C124" s="38"/>
       <c r="D124" s="38"/>
       <c r="E124" s="38"/>
@@ -60370,7 +60435,7 @@
       <c r="AY124" s="38"/>
       <c r="AZ124" s="61"/>
     </row>
-    <row r="125" spans="3:52">
+    <row r="125" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C125" s="38"/>
       <c r="D125" s="38"/>
       <c r="E125" s="38"/>
@@ -60422,7 +60487,7 @@
       <c r="AY125" s="38"/>
       <c r="AZ125" s="61"/>
     </row>
-    <row r="126" spans="3:52">
+    <row r="126" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C126" s="38"/>
       <c r="D126" s="38"/>
       <c r="E126" s="38"/>
@@ -60474,7 +60539,7 @@
       <c r="AY126" s="38"/>
       <c r="AZ126" s="61"/>
     </row>
-    <row r="127" spans="3:52">
+    <row r="127" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C127" s="38"/>
       <c r="D127" s="38"/>
       <c r="E127" s="38"/>
@@ -60526,7 +60591,7 @@
       <c r="AY127" s="38"/>
       <c r="AZ127" s="61"/>
     </row>
-    <row r="128" spans="3:52">
+    <row r="128" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C128" s="38"/>
       <c r="D128" s="38"/>
       <c r="E128" s="38"/>
@@ -60578,7 +60643,7 @@
       <c r="AY128" s="38"/>
       <c r="AZ128" s="61"/>
     </row>
-    <row r="129" spans="3:52">
+    <row r="129" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C129" s="38"/>
       <c r="D129" s="38"/>
       <c r="E129" s="38"/>
@@ -60630,7 +60695,7 @@
       <c r="AY129" s="38"/>
       <c r="AZ129" s="61"/>
     </row>
-    <row r="130" spans="3:52">
+    <row r="130" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C130" s="38"/>
       <c r="D130" s="38"/>
       <c r="E130" s="38"/>
@@ -60682,7 +60747,7 @@
       <c r="AY130" s="38"/>
       <c r="AZ130" s="61"/>
     </row>
-    <row r="131" spans="3:52">
+    <row r="131" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C131" s="38"/>
       <c r="D131" s="38"/>
       <c r="E131" s="38"/>
@@ -60734,7 +60799,7 @@
       <c r="AY131" s="38"/>
       <c r="AZ131" s="61"/>
     </row>
-    <row r="132" spans="3:52">
+    <row r="132" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C132" s="38"/>
       <c r="D132" s="38"/>
       <c r="E132" s="38"/>
@@ -60786,7 +60851,7 @@
       <c r="AY132" s="38"/>
       <c r="AZ132" s="61"/>
     </row>
-    <row r="133" spans="3:52">
+    <row r="133" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C133" s="38"/>
       <c r="D133" s="38"/>
       <c r="E133" s="38"/>
@@ -60838,7 +60903,7 @@
       <c r="AY133" s="38"/>
       <c r="AZ133" s="61"/>
     </row>
-    <row r="134" spans="3:52">
+    <row r="134" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C134" s="38"/>
       <c r="D134" s="38"/>
       <c r="E134" s="38"/>
@@ -60890,7 +60955,7 @@
       <c r="AY134" s="38"/>
       <c r="AZ134" s="61"/>
     </row>
-    <row r="135" spans="3:52">
+    <row r="135" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C135" s="38"/>
       <c r="D135" s="38"/>
       <c r="E135" s="38"/>
@@ -60942,7 +61007,7 @@
       <c r="AY135" s="38"/>
       <c r="AZ135" s="61"/>
     </row>
-    <row r="136" spans="3:52">
+    <row r="136" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C136" s="38"/>
       <c r="D136" s="38"/>
       <c r="E136" s="38"/>
@@ -60994,7 +61059,7 @@
       <c r="AY136" s="38"/>
       <c r="AZ136" s="61"/>
     </row>
-    <row r="137" spans="3:52">
+    <row r="137" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C137" s="38"/>
       <c r="D137" s="38"/>
       <c r="E137" s="38"/>
@@ -61046,7 +61111,7 @@
       <c r="AY137" s="38"/>
       <c r="AZ137" s="61"/>
     </row>
-    <row r="138" spans="3:52">
+    <row r="138" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C138" s="38"/>
       <c r="D138" s="38"/>
       <c r="E138" s="38"/>
@@ -61098,7 +61163,7 @@
       <c r="AY138" s="38"/>
       <c r="AZ138" s="61"/>
     </row>
-    <row r="139" spans="3:52">
+    <row r="139" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C139" s="38"/>
       <c r="D139" s="38"/>
       <c r="E139" s="38"/>
@@ -61150,7 +61215,7 @@
       <c r="AY139" s="38"/>
       <c r="AZ139" s="61"/>
     </row>
-    <row r="140" spans="3:52">
+    <row r="140" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C140" s="38"/>
       <c r="D140" s="38"/>
       <c r="E140" s="38"/>
@@ -61202,7 +61267,7 @@
       <c r="AY140" s="38"/>
       <c r="AZ140" s="61"/>
     </row>
-    <row r="141" spans="3:52">
+    <row r="141" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C141" s="38"/>
       <c r="D141" s="38"/>
       <c r="E141" s="38"/>
@@ -61254,7 +61319,7 @@
       <c r="AY141" s="38"/>
       <c r="AZ141" s="61"/>
     </row>
-    <row r="142" spans="3:52">
+    <row r="142" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C142" s="38"/>
       <c r="D142" s="38"/>
       <c r="E142" s="38"/>
@@ -61306,7 +61371,7 @@
       <c r="AY142" s="38"/>
       <c r="AZ142" s="61"/>
     </row>
-    <row r="143" spans="3:52">
+    <row r="143" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C143" s="38"/>
       <c r="D143" s="38"/>
       <c r="E143" s="38"/>
@@ -61358,7 +61423,7 @@
       <c r="AY143" s="38"/>
       <c r="AZ143" s="61"/>
     </row>
-    <row r="144" spans="3:52">
+    <row r="144" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C144" s="38"/>
       <c r="D144" s="38"/>
       <c r="E144" s="38"/>
@@ -61410,7 +61475,7 @@
       <c r="AY144" s="38"/>
       <c r="AZ144" s="61"/>
     </row>
-    <row r="145" spans="3:52">
+    <row r="145" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C145" s="38"/>
       <c r="D145" s="38"/>
       <c r="E145" s="38"/>
@@ -61462,7 +61527,7 @@
       <c r="AY145" s="38"/>
       <c r="AZ145" s="61"/>
     </row>
-    <row r="146" spans="3:52">
+    <row r="146" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C146" s="38"/>
       <c r="D146" s="38"/>
       <c r="E146" s="38"/>
@@ -61514,7 +61579,7 @@
       <c r="AY146" s="38"/>
       <c r="AZ146" s="61"/>
     </row>
-    <row r="147" spans="3:52">
+    <row r="147" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C147" s="38"/>
       <c r="D147" s="38"/>
       <c r="E147" s="38"/>
@@ -61566,7 +61631,7 @@
       <c r="AY147" s="38"/>
       <c r="AZ147" s="61"/>
     </row>
-    <row r="148" spans="3:52">
+    <row r="148" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C148" s="38"/>
       <c r="D148" s="38"/>
       <c r="E148" s="38"/>
@@ -61618,7 +61683,7 @@
       <c r="AY148" s="38"/>
       <c r="AZ148" s="61"/>
     </row>
-    <row r="149" spans="3:52">
+    <row r="149" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C149" s="38"/>
       <c r="D149" s="38"/>
       <c r="E149" s="38"/>
@@ -61670,7 +61735,7 @@
       <c r="AY149" s="38"/>
       <c r="AZ149" s="61"/>
     </row>
-    <row r="150" spans="3:52">
+    <row r="150" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C150" s="38"/>
       <c r="D150" s="38"/>
       <c r="E150" s="38"/>
@@ -61722,7 +61787,7 @@
       <c r="AY150" s="38"/>
       <c r="AZ150" s="61"/>
     </row>
-    <row r="151" spans="3:52">
+    <row r="151" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C151" s="38"/>
       <c r="D151" s="38"/>
       <c r="E151" s="38"/>
@@ -61774,7 +61839,7 @@
       <c r="AY151" s="38"/>
       <c r="AZ151" s="61"/>
     </row>
-    <row r="152" spans="3:52">
+    <row r="152" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C152" s="38"/>
       <c r="D152" s="38"/>
       <c r="E152" s="38"/>
@@ -61826,7 +61891,7 @@
       <c r="AY152" s="38"/>
       <c r="AZ152" s="61"/>
     </row>
-    <row r="153" spans="3:52">
+    <row r="153" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C153" s="38"/>
       <c r="D153" s="38"/>
       <c r="E153" s="38"/>
@@ -61878,7 +61943,7 @@
       <c r="AY153" s="38"/>
       <c r="AZ153" s="61"/>
     </row>
-    <row r="154" spans="3:52">
+    <row r="154" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C154" s="38"/>
       <c r="D154" s="38"/>
       <c r="E154" s="38"/>
@@ -61930,7 +61995,7 @@
       <c r="AY154" s="38"/>
       <c r="AZ154" s="61"/>
     </row>
-    <row r="155" spans="3:52">
+    <row r="155" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C155" s="38"/>
       <c r="D155" s="38"/>
       <c r="E155" s="38"/>
@@ -61982,7 +62047,7 @@
       <c r="AY155" s="38"/>
       <c r="AZ155" s="61"/>
     </row>
-    <row r="156" spans="3:52">
+    <row r="156" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C156" s="38"/>
       <c r="D156" s="38"/>
       <c r="E156" s="38"/>
@@ -62034,7 +62099,7 @@
       <c r="AY156" s="38"/>
       <c r="AZ156" s="61"/>
     </row>
-    <row r="157" spans="3:52">
+    <row r="157" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C157" s="38"/>
       <c r="D157" s="38"/>
       <c r="E157" s="38"/>
@@ -62086,7 +62151,7 @@
       <c r="AY157" s="38"/>
       <c r="AZ157" s="61"/>
     </row>
-    <row r="158" spans="3:52">
+    <row r="158" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C158" s="38"/>
       <c r="D158" s="38"/>
       <c r="E158" s="38"/>
@@ -62138,7 +62203,7 @@
       <c r="AY158" s="38"/>
       <c r="AZ158" s="61"/>
     </row>
-    <row r="159" spans="3:52">
+    <row r="159" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C159" s="38"/>
       <c r="D159" s="38"/>
       <c r="E159" s="38"/>
@@ -62190,7 +62255,7 @@
       <c r="AY159" s="38"/>
       <c r="AZ159" s="61"/>
     </row>
-    <row r="160" spans="3:52">
+    <row r="160" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C160" s="38"/>
       <c r="D160" s="38"/>
       <c r="E160" s="38"/>
@@ -62242,7 +62307,7 @@
       <c r="AY160" s="38"/>
       <c r="AZ160" s="61"/>
     </row>
-    <row r="161" spans="3:52">
+    <row r="161" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C161" s="38"/>
       <c r="D161" s="38"/>
       <c r="E161" s="38"/>
@@ -62294,7 +62359,7 @@
       <c r="AY161" s="38"/>
       <c r="AZ161" s="61"/>
     </row>
-    <row r="162" spans="3:52">
+    <row r="162" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C162" s="38"/>
       <c r="D162" s="38"/>
       <c r="E162" s="38"/>
@@ -62346,7 +62411,7 @@
       <c r="AY162" s="38"/>
       <c r="AZ162" s="61"/>
     </row>
-    <row r="163" spans="3:52">
+    <row r="163" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C163" s="38"/>
       <c r="D163" s="38"/>
       <c r="E163" s="38"/>
@@ -62398,7 +62463,7 @@
       <c r="AY163" s="38"/>
       <c r="AZ163" s="61"/>
     </row>
-    <row r="164" spans="3:52">
+    <row r="164" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C164" s="38"/>
       <c r="D164" s="38"/>
       <c r="E164" s="38"/>
@@ -62450,7 +62515,7 @@
       <c r="AY164" s="38"/>
       <c r="AZ164" s="61"/>
     </row>
-    <row r="165" spans="3:52">
+    <row r="165" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C165" s="38"/>
       <c r="D165" s="38"/>
       <c r="E165" s="38"/>
@@ -62502,7 +62567,7 @@
       <c r="AY165" s="38"/>
       <c r="AZ165" s="61"/>
     </row>
-    <row r="166" spans="3:52">
+    <row r="166" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C166" s="38"/>
       <c r="D166" s="38"/>
       <c r="E166" s="38"/>
@@ -62554,7 +62619,7 @@
       <c r="AY166" s="38"/>
       <c r="AZ166" s="61"/>
     </row>
-    <row r="167" spans="3:52">
+    <row r="167" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C167" s="38"/>
       <c r="D167" s="38"/>
       <c r="E167" s="38"/>
@@ -62606,7 +62671,7 @@
       <c r="AY167" s="38"/>
       <c r="AZ167" s="61"/>
     </row>
-    <row r="168" spans="3:52">
+    <row r="168" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C168" s="38"/>
       <c r="D168" s="38"/>
       <c r="E168" s="38"/>
@@ -62658,7 +62723,7 @@
       <c r="AY168" s="38"/>
       <c r="AZ168" s="61"/>
     </row>
-    <row r="169" spans="3:52">
+    <row r="169" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C169" s="38"/>
       <c r="D169" s="38"/>
       <c r="E169" s="38"/>
@@ -62710,7 +62775,7 @@
       <c r="AY169" s="38"/>
       <c r="AZ169" s="61"/>
     </row>
-    <row r="170" spans="3:52">
+    <row r="170" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C170" s="38"/>
       <c r="D170" s="38"/>
       <c r="E170" s="38"/>
@@ -62762,7 +62827,7 @@
       <c r="AY170" s="38"/>
       <c r="AZ170" s="61"/>
     </row>
-    <row r="171" spans="3:52">
+    <row r="171" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C171" s="38"/>
       <c r="D171" s="38"/>
       <c r="E171" s="38"/>
@@ -62814,7 +62879,7 @@
       <c r="AY171" s="38"/>
       <c r="AZ171" s="61"/>
     </row>
-    <row r="172" spans="3:52">
+    <row r="172" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C172" s="38"/>
       <c r="D172" s="38"/>
       <c r="E172" s="38"/>
@@ -62866,7 +62931,7 @@
       <c r="AY172" s="38"/>
       <c r="AZ172" s="61"/>
     </row>
-    <row r="173" spans="3:52">
+    <row r="173" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C173" s="38"/>
       <c r="D173" s="38"/>
       <c r="E173" s="38"/>
@@ -62918,7 +62983,7 @@
       <c r="AY173" s="38"/>
       <c r="AZ173" s="61"/>
     </row>
-    <row r="174" spans="3:52">
+    <row r="174" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C174" s="38"/>
       <c r="D174" s="38"/>
       <c r="E174" s="38"/>
@@ -62970,7 +63035,7 @@
       <c r="AY174" s="38"/>
       <c r="AZ174" s="61"/>
     </row>
-    <row r="175" spans="3:52">
+    <row r="175" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C175" s="38"/>
       <c r="D175" s="38"/>
       <c r="E175" s="38"/>
@@ -63022,7 +63087,7 @@
       <c r="AY175" s="38"/>
       <c r="AZ175" s="61"/>
     </row>
-    <row r="176" spans="3:52">
+    <row r="176" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C176" s="38"/>
       <c r="D176" s="38"/>
       <c r="E176" s="38"/>
@@ -63074,7 +63139,7 @@
       <c r="AY176" s="38"/>
       <c r="AZ176" s="61"/>
     </row>
-    <row r="177" spans="3:52">
+    <row r="177" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C177" s="38"/>
       <c r="D177" s="38"/>
       <c r="E177" s="38"/>
@@ -63126,7 +63191,7 @@
       <c r="AY177" s="38"/>
       <c r="AZ177" s="61"/>
     </row>
-    <row r="178" spans="3:52">
+    <row r="178" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C178" s="38"/>
       <c r="D178" s="38"/>
       <c r="E178" s="38"/>
@@ -63178,7 +63243,7 @@
       <c r="AY178" s="38"/>
       <c r="AZ178" s="61"/>
     </row>
-    <row r="179" spans="3:52">
+    <row r="179" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C179" s="38"/>
       <c r="D179" s="38"/>
       <c r="E179" s="38"/>
@@ -63230,7 +63295,7 @@
       <c r="AY179" s="38"/>
       <c r="AZ179" s="61"/>
     </row>
-    <row r="180" spans="3:52">
+    <row r="180" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C180" s="38"/>
       <c r="D180" s="38"/>
       <c r="E180" s="38"/>
@@ -63282,7 +63347,7 @@
       <c r="AY180" s="38"/>
       <c r="AZ180" s="61"/>
     </row>
-    <row r="181" spans="3:52">
+    <row r="181" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C181" s="38"/>
       <c r="D181" s="38"/>
       <c r="E181" s="38"/>
@@ -63334,7 +63399,7 @@
       <c r="AY181" s="38"/>
       <c r="AZ181" s="61"/>
     </row>
-    <row r="182" spans="3:52">
+    <row r="182" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C182" s="38"/>
       <c r="D182" s="38"/>
       <c r="E182" s="38"/>
@@ -63386,7 +63451,7 @@
       <c r="AY182" s="38"/>
       <c r="AZ182" s="61"/>
     </row>
-    <row r="183" spans="3:52">
+    <row r="183" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C183" s="38"/>
       <c r="D183" s="38"/>
       <c r="E183" s="38"/>
@@ -63438,7 +63503,7 @@
       <c r="AY183" s="38"/>
       <c r="AZ183" s="61"/>
     </row>
-    <row r="184" spans="3:52">
+    <row r="184" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C184" s="38"/>
       <c r="D184" s="38"/>
       <c r="E184" s="38"/>
@@ -63490,7 +63555,7 @@
       <c r="AY184" s="38"/>
       <c r="AZ184" s="61"/>
     </row>
-    <row r="185" spans="3:52">
+    <row r="185" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C185" s="38"/>
       <c r="D185" s="38"/>
       <c r="E185" s="38"/>
@@ -63542,7 +63607,7 @@
       <c r="AY185" s="38"/>
       <c r="AZ185" s="61"/>
     </row>
-    <row r="186" spans="3:52">
+    <row r="186" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C186" s="38"/>
       <c r="D186" s="38"/>
       <c r="E186" s="38"/>
@@ -63594,7 +63659,7 @@
       <c r="AY186" s="38"/>
       <c r="AZ186" s="61"/>
     </row>
-    <row r="187" spans="3:52">
+    <row r="187" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C187" s="38"/>
       <c r="D187" s="38"/>
       <c r="E187" s="38"/>
@@ -63646,7 +63711,7 @@
       <c r="AY187" s="38"/>
       <c r="AZ187" s="61"/>
     </row>
-    <row r="188" spans="3:52">
+    <row r="188" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C188" s="38"/>
       <c r="D188" s="38"/>
       <c r="E188" s="38"/>
@@ -63698,7 +63763,7 @@
       <c r="AY188" s="38"/>
       <c r="AZ188" s="61"/>
     </row>
-    <row r="189" spans="3:52">
+    <row r="189" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C189" s="38"/>
       <c r="D189" s="38"/>
       <c r="E189" s="38"/>
@@ -63750,7 +63815,7 @@
       <c r="AY189" s="38"/>
       <c r="AZ189" s="61"/>
     </row>
-    <row r="190" spans="3:52">
+    <row r="190" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C190" s="38"/>
       <c r="D190" s="38"/>
       <c r="E190" s="38"/>
@@ -63802,7 +63867,7 @@
       <c r="AY190" s="38"/>
       <c r="AZ190" s="61"/>
     </row>
-    <row r="191" spans="3:52">
+    <row r="191" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C191" s="38"/>
       <c r="D191" s="38"/>
       <c r="E191" s="38"/>
@@ -63854,7 +63919,7 @@
       <c r="AY191" s="38"/>
       <c r="AZ191" s="61"/>
     </row>
-    <row r="192" spans="3:52">
+    <row r="192" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C192" s="38"/>
       <c r="D192" s="38"/>
       <c r="E192" s="38"/>
@@ -63906,7 +63971,7 @@
       <c r="AY192" s="38"/>
       <c r="AZ192" s="61"/>
     </row>
-    <row r="193" spans="3:52">
+    <row r="193" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C193" s="38"/>
       <c r="D193" s="38"/>
       <c r="E193" s="38"/>
@@ -63958,7 +64023,7 @@
       <c r="AY193" s="38"/>
       <c r="AZ193" s="61"/>
     </row>
-    <row r="194" spans="3:52">
+    <row r="194" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C194" s="38"/>
       <c r="D194" s="38"/>
       <c r="E194" s="38"/>
@@ -64010,7 +64075,7 @@
       <c r="AY194" s="38"/>
       <c r="AZ194" s="61"/>
     </row>
-    <row r="195" spans="3:52">
+    <row r="195" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C195" s="38"/>
       <c r="D195" s="38"/>
       <c r="E195" s="38"/>
@@ -64062,7 +64127,7 @@
       <c r="AY195" s="38"/>
       <c r="AZ195" s="61"/>
     </row>
-    <row r="196" spans="3:52">
+    <row r="196" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C196" s="38"/>
       <c r="D196" s="38"/>
       <c r="E196" s="38"/>
@@ -64114,7 +64179,7 @@
       <c r="AY196" s="38"/>
       <c r="AZ196" s="61"/>
     </row>
-    <row r="197" spans="3:52">
+    <row r="197" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C197" s="38"/>
       <c r="D197" s="38"/>
       <c r="E197" s="38"/>
@@ -64166,7 +64231,7 @@
       <c r="AY197" s="38"/>
       <c r="AZ197" s="61"/>
     </row>
-    <row r="198" spans="3:52">
+    <row r="198" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C198" s="38"/>
       <c r="D198" s="38"/>
       <c r="E198" s="38"/>
@@ -64218,7 +64283,7 @@
       <c r="AY198" s="38"/>
       <c r="AZ198" s="61"/>
     </row>
-    <row r="199" spans="3:52">
+    <row r="199" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C199" s="38"/>
       <c r="D199" s="38"/>
       <c r="E199" s="38"/>
@@ -64270,7 +64335,7 @@
       <c r="AY199" s="38"/>
       <c r="AZ199" s="61"/>
     </row>
-    <row r="200" spans="3:52">
+    <row r="200" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C200" s="38"/>
       <c r="D200" s="38"/>
       <c r="E200" s="38"/>
@@ -64322,7 +64387,7 @@
       <c r="AY200" s="38"/>
       <c r="AZ200" s="61"/>
     </row>
-    <row r="201" spans="3:52">
+    <row r="201" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C201" s="38"/>
       <c r="D201" s="38"/>
       <c r="E201" s="38"/>
@@ -64374,7 +64439,7 @@
       <c r="AY201" s="38"/>
       <c r="AZ201" s="61"/>
     </row>
-    <row r="202" spans="3:52">
+    <row r="202" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C202" s="38"/>
       <c r="D202" s="38"/>
       <c r="E202" s="38"/>
@@ -64426,7 +64491,7 @@
       <c r="AY202" s="38"/>
       <c r="AZ202" s="61"/>
     </row>
-    <row r="203" spans="3:52">
+    <row r="203" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C203" s="38"/>
       <c r="D203" s="38"/>
       <c r="E203" s="38"/>
@@ -64478,7 +64543,7 @@
       <c r="AY203" s="38"/>
       <c r="AZ203" s="61"/>
     </row>
-    <row r="204" spans="3:52">
+    <row r="204" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C204" s="38"/>
       <c r="D204" s="38"/>
       <c r="E204" s="38"/>
@@ -64505,7 +64570,7 @@
       <c r="Z204" s="38"/>
       <c r="AA204" s="38"/>
     </row>
-    <row r="205" spans="3:52">
+    <row r="205" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C205" s="38"/>
       <c r="D205" s="38"/>
       <c r="E205" s="38"/>
@@ -64532,7 +64597,7 @@
       <c r="Z205" s="38"/>
       <c r="AA205" s="38"/>
     </row>
-    <row r="206" spans="3:52">
+    <row r="206" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C206" s="38"/>
       <c r="D206" s="38"/>
       <c r="E206" s="38"/>
@@ -64559,7 +64624,7 @@
       <c r="Z206" s="38"/>
       <c r="AA206" s="38"/>
     </row>
-    <row r="207" spans="3:52">
+    <row r="207" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C207" s="38"/>
       <c r="D207" s="38"/>
       <c r="E207" s="38"/>
@@ -64586,7 +64651,7 @@
       <c r="Z207" s="38"/>
       <c r="AA207" s="38"/>
     </row>
-    <row r="208" spans="3:52">
+    <row r="208" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C208" s="38"/>
       <c r="D208" s="38"/>
       <c r="E208" s="38"/>
@@ -64613,7 +64678,7 @@
       <c r="Z208" s="38"/>
       <c r="AA208" s="38"/>
     </row>
-    <row r="209" spans="3:27">
+    <row r="209" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C209" s="38"/>
       <c r="D209" s="38"/>
       <c r="E209" s="38"/>
@@ -64640,7 +64705,7 @@
       <c r="Z209" s="38"/>
       <c r="AA209" s="38"/>
     </row>
-    <row r="210" spans="3:27">
+    <row r="210" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C210" s="38"/>
       <c r="D210" s="38"/>
       <c r="E210" s="38"/>
@@ -64667,7 +64732,7 @@
       <c r="Z210" s="38"/>
       <c r="AA210" s="38"/>
     </row>
-    <row r="211" spans="3:27">
+    <row r="211" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C211" s="38"/>
       <c r="D211" s="38"/>
       <c r="E211" s="38"/>
@@ -64694,7 +64759,7 @@
       <c r="Z211" s="38"/>
       <c r="AA211" s="38"/>
     </row>
-    <row r="212" spans="3:27">
+    <row r="212" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C212" s="38"/>
       <c r="D212" s="38"/>
       <c r="E212" s="38"/>
@@ -64721,7 +64786,7 @@
       <c r="Z212" s="38"/>
       <c r="AA212" s="38"/>
     </row>
-    <row r="213" spans="3:27">
+    <row r="213" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C213" s="38"/>
       <c r="D213" s="38"/>
       <c r="E213" s="38"/>
@@ -64748,7 +64813,7 @@
       <c r="Z213" s="38"/>
       <c r="AA213" s="38"/>
     </row>
-    <row r="214" spans="3:27">
+    <row r="214" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C214" s="38"/>
       <c r="D214" s="38"/>
       <c r="E214" s="38"/>
@@ -64775,7 +64840,7 @@
       <c r="Z214" s="38"/>
       <c r="AA214" s="38"/>
     </row>
-    <row r="215" spans="3:27">
+    <row r="215" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C215" s="38"/>
       <c r="D215" s="38"/>
       <c r="E215" s="38"/>
@@ -64802,7 +64867,7 @@
       <c r="Z215" s="38"/>
       <c r="AA215" s="38"/>
     </row>
-    <row r="216" spans="3:27">
+    <row r="216" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C216" s="38"/>
       <c r="D216" s="38"/>
       <c r="E216" s="38"/>
@@ -64829,7 +64894,7 @@
       <c r="Z216" s="38"/>
       <c r="AA216" s="38"/>
     </row>
-    <row r="217" spans="3:27">
+    <row r="217" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C217" s="38"/>
       <c r="D217" s="38"/>
       <c r="E217" s="38"/>
@@ -64856,7 +64921,7 @@
       <c r="Z217" s="38"/>
       <c r="AA217" s="38"/>
     </row>
-    <row r="218" spans="3:27">
+    <row r="218" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C218" s="38"/>
       <c r="D218" s="38"/>
       <c r="E218" s="38"/>
@@ -64883,7 +64948,7 @@
       <c r="Z218" s="38"/>
       <c r="AA218" s="38"/>
     </row>
-    <row r="219" spans="3:27">
+    <row r="219" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C219" s="38"/>
       <c r="D219" s="38"/>
       <c r="E219" s="38"/>
@@ -64910,7 +64975,7 @@
       <c r="Z219" s="38"/>
       <c r="AA219" s="38"/>
     </row>
-    <row r="220" spans="3:27">
+    <row r="220" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C220" s="38"/>
       <c r="D220" s="38"/>
       <c r="E220" s="38"/>
@@ -64946,29 +65011,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IU49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="229" t="s">
         <v>116</v>
       </c>
@@ -65227,7 +65292,7 @@
       <c r="IT1" s="229"/>
       <c r="IU1" s="229"/>
     </row>
-    <row r="2" spans="1:255" ht="15" thickBot="1">
+    <row r="2" spans="1:255" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="232" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -65243,7 +65308,7 @@
       <c r="J2" s="232"/>
       <c r="K2" s="232"/>
     </row>
-    <row r="3" spans="1:255" ht="15" customHeight="1">
+    <row r="3" spans="1:255" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="233" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -65284,7 +65349,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:255" ht="15" thickBot="1">
+    <row r="4" spans="1:255" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="234"/>
       <c r="B4" s="236"/>
       <c r="C4" s="238"/>
@@ -65292,12 +65357,12 @@
       <c r="E4" s="242"/>
       <c r="F4" s="231"/>
       <c r="G4" s="245"/>
-      <c r="H4" s="220"/>
+      <c r="H4" s="206"/>
       <c r="I4" s="247"/>
       <c r="J4" s="247"/>
       <c r="K4" s="244"/>
     </row>
-    <row r="5" spans="1:255" s="54" customFormat="1">
+    <row r="5" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="62">
         <v>1</v>
       </c>
@@ -65334,7 +65399,7 @@
         <v>2.1230909502265742</v>
       </c>
     </row>
-    <row r="6" spans="1:255" s="54" customFormat="1">
+    <row r="6" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55">
         <v>2</v>
       </c>
@@ -65372,7 +65437,7 @@
       </c>
       <c r="M6" s="78"/>
     </row>
-    <row r="7" spans="1:255" s="54" customFormat="1">
+    <row r="7" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55">
         <v>3</v>
       </c>
@@ -65409,7 +65474,7 @@
         <v>2.4475707338560411</v>
       </c>
     </row>
-    <row r="8" spans="1:255" s="54" customFormat="1">
+    <row r="8" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="55">
         <v>4</v>
       </c>
@@ -65446,7 +65511,7 @@
         <v>1.8418621391703334</v>
       </c>
     </row>
-    <row r="9" spans="1:255" s="54" customFormat="1">
+    <row r="9" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="55">
         <v>5</v>
       </c>
@@ -65483,7 +65548,7 @@
         <v>3.3045165891608939</v>
       </c>
     </row>
-    <row r="10" spans="1:255" s="54" customFormat="1">
+    <row r="10" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55">
         <v>6</v>
       </c>
@@ -65520,7 +65585,7 @@
         <v>3.3538885104705245</v>
       </c>
     </row>
-    <row r="11" spans="1:255" s="54" customFormat="1">
+    <row r="11" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="55">
         <v>7</v>
       </c>
@@ -65557,7 +65622,7 @@
         <v>3.2565937789932073</v>
       </c>
     </row>
-    <row r="12" spans="1:255" s="54" customFormat="1">
+    <row r="12" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55">
         <v>8</v>
       </c>
@@ -65594,7 +65659,7 @@
         <v>3.3538885104705245</v>
       </c>
     </row>
-    <row r="13" spans="1:255" s="54" customFormat="1">
+    <row r="13" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55">
         <v>9</v>
       </c>
@@ -65631,7 +65696,7 @@
         <v>3.3538885104705245</v>
       </c>
     </row>
-    <row r="14" spans="1:255" s="54" customFormat="1">
+    <row r="14" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55">
         <v>11</v>
       </c>
@@ -65668,7 +65733,7 @@
         <v>3.3538885104705245</v>
       </c>
     </row>
-    <row r="15" spans="1:255" s="54" customFormat="1">
+    <row r="15" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55">
         <v>12</v>
       </c>
@@ -65706,7 +65771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:255" s="54" customFormat="1">
+    <row r="16" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="55">
         <v>13</v>
       </c>
@@ -65743,7 +65808,7 @@
         <v>3.2100563365956933</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="54" customFormat="1">
+    <row r="17" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55">
         <v>15</v>
       </c>
@@ -65780,7 +65845,7 @@
         <v>3.3045165891608939</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="54" customFormat="1">
+    <row r="18" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="55">
         <v>16</v>
       </c>
@@ -65818,7 +65883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="54" customFormat="1">
+    <row r="19" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55">
         <v>17</v>
       </c>
@@ -65855,7 +65920,7 @@
         <v>2.9567937414518424</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="54" customFormat="1">
+    <row r="20" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55">
         <v>18</v>
       </c>
@@ -65892,7 +65957,7 @@
         <v>3.2100563365956933</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="54" customFormat="1">
+    <row r="21" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55">
         <v>19</v>
       </c>
@@ -65929,7 +65994,7 @@
         <v>0.72481574137939631</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="54" customFormat="1">
+    <row r="22" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="55">
         <v>20</v>
       </c>
@@ -65967,7 +66032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="54" customFormat="1">
+    <row r="23" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55">
         <v>21</v>
       </c>
@@ -66004,7 +66069,7 @@
         <v>3.2565937789932073</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="54" customFormat="1">
+    <row r="24" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="55">
         <v>22</v>
       </c>
@@ -66041,7 +66106,7 @@
         <v>2.1954328640542626</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="54" customFormat="1">
+    <row r="25" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="55">
         <v>23</v>
       </c>
@@ -66078,7 +66143,7 @@
         <v>0.38051110766638302</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="54" customFormat="1">
+    <row r="26" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55">
         <v>24</v>
       </c>
@@ -66115,7 +66180,7 @@
         <v>3.3538885104705245</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="54" customFormat="1">
+    <row r="27" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55">
         <v>25</v>
       </c>
@@ -66152,7 +66217,7 @@
         <v>2.8047517785454175</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="54" customFormat="1">
+    <row r="28" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55">
         <v>26</v>
       </c>
@@ -66189,7 +66254,7 @@
         <v>2.8810994531712142</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="54" customFormat="1">
+    <row r="29" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55">
         <v>27</v>
       </c>
@@ -66226,7 +66291,7 @@
         <v>1.9178027828644717</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="54" customFormat="1">
+    <row r="30" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55">
         <v>28</v>
       </c>
@@ -66263,7 +66328,7 @@
         <v>1.7018055060319135</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="54" customFormat="1">
+    <row r="31" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="55">
         <v>29</v>
       </c>
@@ -66300,7 +66365,7 @@
         <v>3.3538885104705245</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="54" customFormat="1">
+    <row r="32" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="55">
         <v>30</v>
       </c>
@@ -66337,7 +66402,7 @@
         <v>3.1452830477014624</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="54" customFormat="1">
+    <row r="33" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="55">
         <v>31</v>
       </c>
@@ -66374,7 +66439,7 @@
         <v>3.2257723366453144</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="54" customFormat="1">
+    <row r="34" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="55">
         <v>32</v>
       </c>
@@ -66411,7 +66476,7 @@
         <v>3.1452830477014624</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="54" customFormat="1">
+    <row r="35" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55">
         <v>33</v>
       </c>
@@ -66448,7 +66513,7 @@
         <v>3.3045165891608939</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="54" customFormat="1">
+    <row r="36" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="55">
         <v>34</v>
       </c>
@@ -66485,7 +66550,7 @@
         <v>2.8864748449945052</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="54" customFormat="1">
+    <row r="37" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="55">
         <v>35</v>
       </c>
@@ -66522,7 +66587,7 @@
         <v>2.9961659273441494</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="54" customFormat="1">
+    <row r="38" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55">
         <v>37</v>
       </c>
@@ -66559,7 +66624,7 @@
         <v>3.3045165891608939</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="54" customFormat="1">
+    <row r="39" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="55">
         <v>38</v>
       </c>
@@ -66596,7 +66661,7 @@
         <v>2.8928521841697119</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="54" customFormat="1">
+    <row r="40" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="55">
         <v>39</v>
       </c>
@@ -66633,7 +66698,7 @@
         <v>3.1209010264563291</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="54" customFormat="1">
+    <row r="41" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="55">
         <v>40</v>
       </c>
@@ -66670,7 +66735,7 @@
         <v>1.6234881695499528</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="54" customFormat="1">
+    <row r="42" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="55">
         <v>41</v>
       </c>
@@ -66707,7 +66772,7 @@
         <v>2.4882118363617924</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1">
+    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="56">
         <v>42</v>
       </c>
@@ -66744,7 +66809,7 @@
         <v>2.5806811940620937</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="40" customFormat="1">
+    <row r="44" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="53"/>
       <c r="B44" s="53"/>
       <c r="C44" s="53"/>
@@ -66753,7 +66818,7 @@
       <c r="F44" s="53"/>
       <c r="G44" s="53"/>
     </row>
-    <row r="45" spans="1:11" s="40" customFormat="1">
+    <row r="45" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="53"/>
       <c r="B45" s="53"/>
       <c r="C45" s="53"/>
@@ -66762,7 +66827,7 @@
       <c r="F45" s="53"/>
       <c r="G45" s="53"/>
     </row>
-    <row r="46" spans="1:11" s="40" customFormat="1">
+    <row r="46" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="53"/>
       <c r="B46" s="53"/>
       <c r="C46" s="53"/>
@@ -66771,7 +66836,7 @@
       <c r="F46" s="53"/>
       <c r="G46" s="53"/>
     </row>
-    <row r="47" spans="1:11" s="40" customFormat="1">
+    <row r="47" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="53"/>
       <c r="B47" s="53"/>
       <c r="C47" s="53"/>
@@ -66780,7 +66845,7 @@
       <c r="F47" s="53"/>
       <c r="G47" s="53"/>
     </row>
-    <row r="48" spans="1:11" s="40" customFormat="1">
+    <row r="48" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="53"/>
       <c r="B48" s="53"/>
       <c r="C48" s="53"/>
@@ -66789,7 +66854,7 @@
       <c r="F48" s="53"/>
       <c r="G48" s="53"/>
     </row>
-    <row r="49" spans="1:7" s="40" customFormat="1">
+    <row r="49" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="53"/>
       <c r="B49" s="53"/>
       <c r="C49" s="53"/>
@@ -66819,29 +66884,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IU49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="229" t="s">
         <v>116</v>
       </c>
@@ -67100,7 +67165,7 @@
       <c r="IT1" s="229"/>
       <c r="IU1" s="229"/>
     </row>
-    <row r="2" spans="1:255" ht="15" thickBot="1">
+    <row r="2" spans="1:255" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="232" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -67116,7 +67181,7 @@
       <c r="J2" s="232"/>
       <c r="K2" s="232"/>
     </row>
-    <row r="3" spans="1:255" ht="15" customHeight="1">
+    <row r="3" spans="1:255" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="233" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -67157,7 +67222,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:255" ht="15" thickBot="1">
+    <row r="4" spans="1:255" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="234"/>
       <c r="B4" s="236"/>
       <c r="C4" s="238"/>
@@ -67170,7 +67235,7 @@
       <c r="J4" s="248"/>
       <c r="K4" s="249"/>
     </row>
-    <row r="5" spans="1:255" s="54" customFormat="1">
+    <row r="5" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
         <v>1</v>
       </c>
@@ -67207,7 +67272,7 @@
         <v>2.5238027534892056</v>
       </c>
     </row>
-    <row r="6" spans="1:255" s="54" customFormat="1">
+    <row r="6" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55">
         <v>2</v>
       </c>
@@ -67245,7 +67310,7 @@
       </c>
       <c r="M6" s="78"/>
     </row>
-    <row r="7" spans="1:255" s="54" customFormat="1">
+    <row r="7" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55">
         <v>3</v>
       </c>
@@ -67282,7 +67347,7 @@
         <v>2.7183356949786717</v>
       </c>
     </row>
-    <row r="8" spans="1:255" s="54" customFormat="1">
+    <row r="8" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="55">
         <v>4</v>
       </c>
@@ -67319,7 +67384,7 @@
         <v>1.6645642421847713</v>
       </c>
     </row>
-    <row r="9" spans="1:255" s="54" customFormat="1">
+    <row r="9" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="55">
         <v>5</v>
       </c>
@@ -67356,7 +67421,7 @@
         <v>3.0531095731905995</v>
       </c>
     </row>
-    <row r="10" spans="1:255" s="54" customFormat="1">
+    <row r="10" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55">
         <v>6</v>
       </c>
@@ -67393,7 +67458,7 @@
         <v>3.0531095731905995</v>
       </c>
     </row>
-    <row r="11" spans="1:255" s="54" customFormat="1">
+    <row r="11" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="55">
         <v>7</v>
       </c>
@@ -67430,7 +67495,7 @@
         <v>2.7647366581228674</v>
       </c>
     </row>
-    <row r="12" spans="1:255" s="54" customFormat="1">
+    <row r="12" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55">
         <v>8</v>
       </c>
@@ -67467,7 +67532,7 @@
         <v>2.8455047772633972</v>
       </c>
     </row>
-    <row r="13" spans="1:255" s="54" customFormat="1">
+    <row r="13" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55">
         <v>9</v>
       </c>
@@ -67504,7 +67569,7 @@
         <v>2.9246412194493931</v>
       </c>
     </row>
-    <row r="14" spans="1:255" s="54" customFormat="1">
+    <row r="14" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55">
         <v>11</v>
       </c>
@@ -67541,7 +67606,7 @@
         <v>2.9286528165068364</v>
       </c>
     </row>
-    <row r="15" spans="1:255" s="54" customFormat="1">
+    <row r="15" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55">
         <v>12</v>
       </c>
@@ -67579,7 +67644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:255" s="54" customFormat="1">
+    <row r="16" spans="1:255" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="55">
         <v>13</v>
       </c>
@@ -67616,7 +67681,7 @@
         <v>2.088687670427146</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="54" customFormat="1">
+    <row r="17" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55">
         <v>15</v>
       </c>
@@ -67653,7 +67718,7 @@
         <v>3.0090389721075175</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="54" customFormat="1">
+    <row r="18" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="55">
         <v>16</v>
       </c>
@@ -67691,7 +67756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="54" customFormat="1">
+    <row r="19" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55">
         <v>17</v>
       </c>
@@ -67728,7 +67793,7 @@
         <v>2.6927131273817784</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="54" customFormat="1">
+    <row r="20" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55">
         <v>18</v>
       </c>
@@ -67765,7 +67830,7 @@
         <v>2.2325457048556472</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="54" customFormat="1">
+    <row r="21" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55">
         <v>19</v>
       </c>
@@ -67802,7 +67867,7 @@
         <v>0.79610786893895025</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="54" customFormat="1">
+    <row r="22" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="55">
         <v>20</v>
       </c>
@@ -67840,7 +67905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="54" customFormat="1">
+    <row r="23" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55">
         <v>21</v>
       </c>
@@ -67877,7 +67942,7 @@
         <v>2.9246412194493931</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="54" customFormat="1">
+    <row r="24" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="55">
         <v>22</v>
       </c>
@@ -67914,7 +67979,7 @@
         <v>2.6370053881573541</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="54" customFormat="1">
+    <row r="25" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="55">
         <v>23</v>
       </c>
@@ -67952,7 +68017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="54" customFormat="1">
+    <row r="26" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55">
         <v>24</v>
       </c>
@@ -67989,7 +68054,7 @@
         <v>2.9246412194493931</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="54" customFormat="1">
+    <row r="27" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55">
         <v>25</v>
       </c>
@@ -68026,7 +68091,7 @@
         <v>2.5981514475687586</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="54" customFormat="1">
+    <row r="28" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55">
         <v>26</v>
       </c>
@@ -68063,7 +68128,7 @@
         <v>2.579524012236301</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="54" customFormat="1">
+    <row r="29" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55">
         <v>27</v>
       </c>
@@ -68100,7 +68165,7 @@
         <v>2.0527071065162366</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="54" customFormat="1">
+    <row r="30" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55">
         <v>28</v>
       </c>
@@ -68137,7 +68202,7 @@
         <v>2.4670818573119844</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="54" customFormat="1">
+    <row r="31" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="55">
         <v>29</v>
       </c>
@@ -68174,7 +68239,7 @@
         <v>2.9662343078170599</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="54" customFormat="1">
+    <row r="32" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="55">
         <v>30</v>
       </c>
@@ -68211,7 +68276,7 @@
         <v>2.3533338768646592</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="54" customFormat="1">
+    <row r="33" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="55">
         <v>31</v>
       </c>
@@ -68248,7 +68313,7 @@
         <v>2.7219009399354572</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="54" customFormat="1">
+    <row r="34" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="55">
         <v>32</v>
       </c>
@@ -68285,7 +68350,7 @@
         <v>2.8864748449945052</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="54" customFormat="1">
+    <row r="35" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55">
         <v>33</v>
       </c>
@@ -68322,7 +68387,7 @@
         <v>2.9246412194493931</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="54" customFormat="1">
+    <row r="36" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="55">
         <v>34</v>
       </c>
@@ -68359,7 +68424,7 @@
         <v>2.8864748449945052</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="54" customFormat="1">
+    <row r="37" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="55">
         <v>35</v>
       </c>
@@ -68396,7 +68461,7 @@
         <v>2.2657056384385283</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="54" customFormat="1">
+    <row r="38" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55">
         <v>37</v>
       </c>
@@ -68433,7 +68498,7 @@
         <v>2.4046456345536176</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="54" customFormat="1">
+    <row r="39" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="55">
         <v>38</v>
       </c>
@@ -68470,7 +68535,7 @@
         <v>2.6770481600829643</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="54" customFormat="1">
+    <row r="40" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="55">
         <v>39</v>
       </c>
@@ -68507,7 +68572,7 @@
         <v>2.8455047772633972</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="54" customFormat="1">
+    <row r="41" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="55">
         <v>40</v>
       </c>
@@ -68544,7 +68609,7 @@
         <v>1.9937911717246708</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="54" customFormat="1">
+    <row r="42" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="55">
         <v>41</v>
       </c>
@@ -68581,7 +68646,7 @@
         <v>2.0536456738510149</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1">
+    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="56">
         <v>42</v>
       </c>
@@ -68618,7 +68683,7 @@
         <v>2.4046456345536176</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="40" customFormat="1">
+    <row r="44" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="53"/>
       <c r="B44" s="53"/>
       <c r="C44" s="53"/>
@@ -68627,7 +68692,7 @@
       <c r="F44" s="53"/>
       <c r="G44" s="53"/>
     </row>
-    <row r="45" spans="1:11" s="40" customFormat="1">
+    <row r="45" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="53"/>
       <c r="B45" s="53"/>
       <c r="C45" s="53"/>
@@ -68636,7 +68701,7 @@
       <c r="F45" s="53"/>
       <c r="G45" s="53"/>
     </row>
-    <row r="46" spans="1:11" s="40" customFormat="1">
+    <row r="46" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="53"/>
       <c r="B46" s="53"/>
       <c r="C46" s="53"/>
@@ -68645,7 +68710,7 @@
       <c r="F46" s="53"/>
       <c r="G46" s="53"/>
     </row>
-    <row r="47" spans="1:11" s="40" customFormat="1">
+    <row r="47" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="53"/>
       <c r="B47" s="53"/>
       <c r="C47" s="53"/>
@@ -68654,7 +68719,7 @@
       <c r="F47" s="53"/>
       <c r="G47" s="53"/>
     </row>
-    <row r="48" spans="1:11" s="40" customFormat="1">
+    <row r="48" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="53"/>
       <c r="B48" s="53"/>
       <c r="C48" s="53"/>
@@ -68663,7 +68728,7 @@
       <c r="F48" s="53"/>
       <c r="G48" s="53"/>
     </row>
-    <row r="49" spans="1:7" s="40" customFormat="1">
+    <row r="49" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="53"/>
       <c r="B49" s="53"/>
       <c r="C49" s="53"/>
@@ -68693,22 +68758,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="229" t="s">
         <v>116</v>
       </c>
@@ -68968,7 +69033,7 @@
       <c r="IU1" s="229"/>
       <c r="IV1" s="229"/>
     </row>
-    <row r="2" spans="1:256" ht="15" thickBot="1">
+    <row r="2" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="232" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -68984,7 +69049,7 @@
       <c r="J2" s="232"/>
       <c r="K2" s="232"/>
     </row>
-    <row r="3" spans="1:256" ht="15" customHeight="1">
+    <row r="3" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="233" t="str">
         <f>'Сводная таблица'!A3:A4</f>
         <v>№ п/п</v>
@@ -69025,7 +69090,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15" thickBot="1">
+    <row r="4" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="234"/>
       <c r="B4" s="236"/>
       <c r="C4" s="238"/>
@@ -69038,7 +69103,7 @@
       <c r="J4" s="248"/>
       <c r="K4" s="249"/>
     </row>
-    <row r="5" spans="1:256" s="54" customFormat="1">
+    <row r="5" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="62">
         <v>1</v>
       </c>
@@ -69075,7 +69140,7 @@
         <v>1.5509054458269065</v>
       </c>
     </row>
-    <row r="6" spans="1:256" s="54" customFormat="1">
+    <row r="6" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55">
         <v>2</v>
       </c>
@@ -69113,7 +69178,7 @@
       </c>
       <c r="M6" s="78"/>
     </row>
-    <row r="7" spans="1:256" s="54" customFormat="1">
+    <row r="7" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55">
         <v>3</v>
       </c>
@@ -69151,7 +69216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:256" s="54" customFormat="1">
+    <row r="8" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="55">
         <v>4</v>
       </c>
@@ -69188,7 +69253,7 @@
         <v>2.4670818573119844</v>
       </c>
     </row>
-    <row r="9" spans="1:256" s="54" customFormat="1">
+    <row r="9" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="55">
         <v>5</v>
       </c>
@@ -69225,7 +69290,7 @@
         <v>2.7331523697645856</v>
       </c>
     </row>
-    <row r="10" spans="1:256" s="54" customFormat="1">
+    <row r="10" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55">
         <v>6</v>
       </c>
@@ -69262,7 +69327,7 @@
         <v>2.7647366581228674</v>
       </c>
     </row>
-    <row r="11" spans="1:256" s="54" customFormat="1">
+    <row r="11" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="55">
         <v>7</v>
       </c>
@@ -69299,7 +69364,7 @@
         <v>1.648777957769739</v>
       </c>
     </row>
-    <row r="12" spans="1:256" s="54" customFormat="1">
+    <row r="12" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55">
         <v>8</v>
       </c>
@@ -69336,7 +69401,7 @@
         <v>2.1762136964668137</v>
       </c>
     </row>
-    <row r="13" spans="1:256" s="54" customFormat="1">
+    <row r="13" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55">
         <v>9</v>
       </c>
@@ -69373,7 +69438,7 @@
         <v>2.650527059308982</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="54" customFormat="1">
+    <row r="14" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55">
         <v>11</v>
       </c>
@@ -69410,7 +69475,7 @@
         <v>2.5981514475687586</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="54" customFormat="1">
+    <row r="15" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55">
         <v>12</v>
       </c>
@@ -69448,7 +69513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:256" s="54" customFormat="1">
+    <row r="16" spans="1:256" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="55">
         <v>13</v>
       </c>
@@ -69485,7 +69550,7 @@
         <v>0.80973492422956872</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="54" customFormat="1">
+    <row r="17" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55">
         <v>15</v>
       </c>
@@ -69522,7 +69587,7 @@
         <v>2.5238027534892056</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="54" customFormat="1">
+    <row r="18" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="55">
         <v>16</v>
       </c>
@@ -69560,7 +69625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="54" customFormat="1">
+    <row r="19" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55">
         <v>17</v>
       </c>
@@ -69597,7 +69662,7 @@
         <v>2.6570633724259447</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="54" customFormat="1">
+    <row r="20" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55">
         <v>18</v>
       </c>
@@ -69634,7 +69699,7 @@
         <v>0.79610786893895025</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="54" customFormat="1">
+    <row r="21" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55">
         <v>19</v>
       </c>
@@ -69671,7 +69736,7 @@
         <v>1.2077845770945215</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="54" customFormat="1">
+    <row r="22" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="55">
         <v>20</v>
       </c>
@@ -69709,7 +69774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="54" customFormat="1">
+    <row r="23" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55">
         <v>21</v>
       </c>
@@ -69746,7 +69811,7 @@
         <v>2.7331523697645856</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="54" customFormat="1">
+    <row r="24" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="55">
         <v>22</v>
       </c>
@@ -69783,7 +69848,7 @@
         <v>1.8394380762574334</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="54" customFormat="1">
+    <row r="25" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="55">
         <v>23</v>
       </c>
@@ -69820,7 +69885,7 @@
         <v>0.69140269783096409</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="54" customFormat="1">
+    <row r="26" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55">
         <v>24</v>
       </c>
@@ -69857,7 +69922,7 @@
         <v>2.0232738733765725</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="54" customFormat="1">
+    <row r="27" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55">
         <v>25</v>
       </c>
@@ -69894,7 +69959,7 @@
         <v>2.1126482045921051</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="54" customFormat="1">
+    <row r="28" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55">
         <v>26</v>
       </c>
@@ -69931,7 +69996,7 @@
         <v>2.4670818573119844</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="54" customFormat="1">
+    <row r="29" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55">
         <v>27</v>
       </c>
@@ -69968,7 +70033,7 @@
         <v>0.48280750158591557</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="54" customFormat="1">
+    <row r="30" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55">
         <v>28</v>
       </c>
@@ -70005,7 +70070,7 @@
         <v>2.138671982289571</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="54" customFormat="1">
+    <row r="31" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="55">
         <v>29</v>
       </c>
@@ -70042,7 +70107,7 @@
         <v>2.806633094697355</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="54" customFormat="1">
+    <row r="32" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="55">
         <v>30</v>
       </c>
@@ -70079,7 +70144,7 @@
         <v>1.4513708450988847</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="54" customFormat="1">
+    <row r="33" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="55">
         <v>31</v>
       </c>
@@ -70116,7 +70181,7 @@
         <v>1.9615912140759175</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="54" customFormat="1">
+    <row r="34" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="55">
         <v>32</v>
       </c>
@@ -70153,7 +70218,7 @@
         <v>2.4046456345536176</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="54" customFormat="1">
+    <row r="35" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55">
         <v>33</v>
       </c>
@@ -70190,7 +70255,7 @@
         <v>1.9322076591803128</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="54" customFormat="1">
+    <row r="36" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="55">
         <v>34</v>
       </c>
@@ -70227,7 +70292,7 @@
         <v>1.4993653261946966</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="54" customFormat="1">
+    <row r="37" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="55">
         <v>35</v>
       </c>
@@ -70264,7 +70329,7 @@
         <v>1.1064534880922097</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="54" customFormat="1">
+    <row r="38" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55">
         <v>37</v>
       </c>
@@ -70301,7 +70366,7 @@
         <v>2.1690691603479308</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="54" customFormat="1">
+    <row r="39" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="55">
         <v>38</v>
       </c>
@@ -70338,7 +70403,7 @@
         <v>0.71584016264821826</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="54" customFormat="1">
+    <row r="40" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="55">
         <v>39</v>
       </c>
@@ -70375,7 +70440,7 @@
         <v>2.453616992261352</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="54" customFormat="1">
+    <row r="41" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="55">
         <v>40</v>
       </c>
@@ -70413,7 +70478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="54" customFormat="1">
+    <row r="42" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="55">
         <v>41</v>
       </c>
@@ -70450,7 +70515,7 @@
         <v>1.6234881695499528</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="54" customFormat="1" ht="15" thickBot="1">
+    <row r="43" spans="1:11" s="54" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="56">
         <v>42</v>
       </c>
@@ -70508,29 +70573,29 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IU49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:255" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="229" t="s">
         <v>116</v>
       </c>
@@ -70789,7 +70854,7 @@
       <c r="IT1" s="229"/>
       <c r="IU1" s="229"/>
     </row>
-    <row r="2" spans="1:255" ht="15" thickBot="1">
+    <row r="2" spans="1:255" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="232" t="str">
         <f>'Сводная таблица'!D2</f>
         <v>Группы 114 05 115 - 114 05 215</v>
@@ -70805,7 +70870,7 @@
       <c r="J2" s="232"/>
       <c r="K2" s="232"/>
     </row>
-    <row r="3" spans="1:255" ht="15" customHeight="1">
+    <row r="3" spans="1:255" ht="15" customHeight="1" x14